--- a/converted.d/covid-19_progression_math.xlsx
+++ b/converted.d/covid-19_progression_math.xlsx
@@ -244,6 +244,11 @@
           <t>c</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Last revision:  Thursday, 02 Apr 2020 21:41 UTC</t>
+        </is>
+      </c>
     </row>
     <row r="4" spans="1:57" ht="19.5">
       <c r="A4" t="inlineStr">
@@ -251,11 +256,7 @@
           <t>d</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Last revision:  Wednesday, 01 Apr 2020 22:46 UTC</t>
-        </is>
-      </c>
+      <c r="C4" s="1"/>
       <c r="I4" t="s">
         <v>0</v>
       </c>
@@ -2954,10 +2955,8 @@
       <c r="I31">
         <v>3128</v>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>*188172*</t>
-        </is>
+      <c r="J31">
+        <v>188172</v>
       </c>
       <c r="K31">
         <f>M31+Q31+U31+Y31+AC31+AG31+AK31+AO31+AS31</f>
@@ -2987,11 +2986,6 @@
         <f>S30+4</f>
         <v>7</v>
       </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>UPDATED - finished this line's entry and won't require further update.</t>
-        </is>
-      </c>
       <c r="U31">
         <f>U30+144</f>
         <v>517</v>
@@ -3087,11 +3081,6 @@
       <c r="AY31">
         <f>O31+S31+W31+AA31+AE31+AI31+AM31+AQ31+AU31</f>
         <v>69</v>
-      </c>
-      <c r="AZ31" t="inlineStr">
-        <is>
-          <t>CORRECT - no errors seen.  Ready for permanent record.</t>
-        </is>
       </c>
       <c r="BA31" s="5">
         <v>43873</v>
@@ -3129,6 +3118,11 @@
       <c r="I32">
         <v>3557</v>
       </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>*213372*</t>
+        </is>
+      </c>
       <c r="K32">
         <f>M32+Q32+U32+Y32+AC32+AG32+AK32+AO32+AS32</f>
         <v>3557</v>
@@ -3159,7 +3153,7 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>PROPOSED - open to proposal now - subject to revision.</t>
+          <t>UPDATED - finished this line's entry and won't require further update.</t>
         </is>
       </c>
       <c r="U32">
@@ -3258,6 +3252,11 @@
         <f>O32+S32+W32+AA32+AE32+AI32+AM32+AQ32+AU32</f>
         <v>85</v>
       </c>
+      <c r="AZ32" t="inlineStr">
+        <is>
+          <t>CORRECT - no errors seen.  Ready for permanent record.</t>
+        </is>
+      </c>
       <c r="BA32" s="5">
         <v>43874</v>
       </c>
@@ -3272,485 +3271,620 @@
     <row r="33" spans="1:57" ht="19.5">
       <c r="C33">
         <f>H32*D33</f>
-        <v>447.55654756065735</v>
+        <v>266.99999999874649</v>
       </c>
       <c r="D33">
-        <f>D32/1.0900000000000001</f>
-        <v>0.1258241629357798</v>
+        <v>0.075063255552399996</v>
       </c>
       <c r="E33" t="s">
         <v>15</v>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" s="5">
+        <v>43923</v>
+      </c>
+      <c r="G33" s="2">
+        <f>H33*100</f>
+        <v>382399.99999835552</v>
+      </c>
+      <c r="H33">
+        <f>H32+C33</f>
+        <v>3823.9999999835554</v>
+      </c>
+      <c r="I33">
+        <v>3824</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33">
+        <f>M33+Q33+U33+Y33+AC33+AG33+AK33+AO33+AS33</f>
+        <v>3824</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>NEW:</t>
+        </is>
+      </c>
+      <c r="M33">
+        <f>M32+10</f>
+        <v>141</v>
+      </c>
+      <c r="N33">
+        <f>N32+0</f>
+        <v>11</v>
+      </c>
+      <c r="O33">
+        <f>O32+1</f>
+        <v>2</v>
+      </c>
+      <c r="Q33">
+        <f>Q32+70</f>
+        <v>539</v>
+      </c>
+      <c r="R33">
+        <f>R32+10</f>
+        <v>136</v>
+      </c>
+      <c r="S33">
+        <f>S32+2</f>
+        <v>13</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>PROPOSED - open to proposal now - subject to revision.</t>
+        </is>
+      </c>
+      <c r="U33">
+        <f>U32+36</f>
+        <v>647</v>
+      </c>
+      <c r="V33">
+        <f>V32+23</f>
+        <v>274</v>
+      </c>
+      <c r="W33">
+        <f>W32+2</f>
+        <v>17</v>
+      </c>
+      <c r="Y33">
+        <f>Y32+146</f>
+        <v>2132</v>
+      </c>
+      <c r="Z33">
+        <f>Z32+22</f>
+        <v>381</v>
+      </c>
+      <c r="AA33">
+        <f>AA32+19</f>
+        <v>65</v>
+      </c>
+      <c r="AC33">
+        <f>AC32+8</f>
+        <v>74</v>
+      </c>
+      <c r="AD33">
+        <f>AD32+3</f>
+        <v>11</v>
+      </c>
+      <c r="AE33">
+        <f>AE32+1</f>
+        <v>3</v>
+      </c>
+      <c r="AG33">
+        <f>AG32+6</f>
+        <v>67</v>
+      </c>
+      <c r="AH33">
+        <f>AH32+1</f>
+        <v>2</v>
+      </c>
+      <c r="AI33">
+        <f>AI32+3</f>
+        <v>10</v>
+      </c>
+      <c r="AK33">
+        <f>AK32+2</f>
+        <v>21</v>
+      </c>
+      <c r="AL33">
+        <f>AL32+3</f>
+        <v>3</v>
+      </c>
+      <c r="AM33">
+        <f>AM32+0</f>
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <f>AO32+0</f>
+        <v>29</v>
+      </c>
+      <c r="AP33">
+        <f>AP32+-1</f>
+        <v>9</v>
+      </c>
+      <c r="AQ33">
+        <f>AQ32+0</f>
+        <v>1</v>
+      </c>
+      <c r="AS33">
+        <f>AS32+-11</f>
+        <v>174</v>
+      </c>
+      <c r="AT33">
+        <f>AT32+0</f>
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <f>AU32+-1</f>
+        <v>1</v>
+      </c>
+      <c r="AW33">
+        <f>M33+Q33+U33+Y33+AC33+AG33+AK33+AO33+AS33</f>
+        <v>3824</v>
+      </c>
+      <c r="AX33">
+        <f>N33+R33+V33+Z33+AD33+AH33+AL33+AP33+AT33</f>
+        <v>827</v>
+      </c>
+      <c r="AY33">
+        <f>O33+S33+W33+AA33+AE33+AI33+AM33+AQ33+AU33</f>
+        <v>112</v>
+      </c>
+      <c r="BA33" s="5">
+        <v>43875</v>
+      </c>
+      <c r="BB33">
+        <v>13</v>
+      </c>
+      <c r="BC33">
+        <f>(BB33/BB32)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:57" ht="19.5">
+      <c r="C34">
+        <f>H33*D34</f>
+        <v>263.34118278086532</v>
+      </c>
+      <c r="D34">
+        <f>D33/1.0900000000000001</f>
+        <v>0.068865372066422015</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" t="inlineStr">
         <is>
           <t>day two</t>
         </is>
       </c>
-      <c r="G33" s="2">
-        <f>H33*100</f>
-        <v>400455.65475454659</v>
-      </c>
-      <c r="H33">
-        <f>H32+C33</f>
-        <v>4004.5565475454659</v>
-      </c>
-      <c r="J33" s="1"/>
-      <c r="BA33" s="5">
-        <v>43875</v>
-      </c>
-      <c r="BB33">
+      <c r="G34" s="2">
+        <f>H34*100</f>
+        <v>408734.11827644211</v>
+      </c>
+      <c r="H34">
+        <f>H33+C34</f>
+        <v>4087.3411827644209</v>
+      </c>
+      <c r="BA34" s="5">
+        <v>43876</v>
+      </c>
+      <c r="BB34">
         <v>13</v>
       </c>
-      <c r="BC33">
-        <f>(BB33/BB32)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:57" ht="19.5">
-      <c r="C34">
-        <f>H33*D34</f>
-        <v>462.26603259073806</v>
-      </c>
-      <c r="D34">
-        <f>D33/1.0900000000000001</f>
-        <v>0.11543501186768788</v>
-      </c>
-      <c r="E34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" t="inlineStr">
+      <c r="BC34">
+        <f>(BB34/BB33)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:57" ht="19.5">
+      <c r="C35">
+        <f>H34*D35</f>
+        <v>258.23511129677178</v>
+      </c>
+      <c r="D35">
+        <f>D34/1.0900000000000001</f>
+        <v>0.063179240427910094</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="inlineStr">
         <is>
           <t>day three</t>
         </is>
       </c>
-      <c r="G34" s="2">
-        <f>H34*100</f>
-        <v>446682.25801362039</v>
-      </c>
-      <c r="H34">
-        <f>H33+C34</f>
-        <v>4466.8225801362041</v>
-      </c>
-      <c r="BA34" s="5">
-        <v>43876</v>
-      </c>
-      <c r="BB34">
+      <c r="G35" s="2">
+        <f>H35*100</f>
+        <v>434557.62940611929</v>
+      </c>
+      <c r="H35">
+        <f>H34+C35</f>
+        <v>4345.576294061193</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="BA35" s="5">
+        <v>43877</v>
+      </c>
+      <c r="BB35">
         <v>13</v>
       </c>
-      <c r="BC34">
-        <f>(BB34/BB33)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:57" ht="19.5">
-      <c r="C35">
-        <f>H34*D35</f>
-        <v>473.0529518797054</v>
-      </c>
-      <c r="D35">
-        <f>D34/1.0900000000000001</f>
-        <v>0.10590368061255769</v>
-      </c>
-      <c r="E35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" t="inlineStr">
+      <c r="BC35">
+        <f>(BB35/BB34)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:57" ht="19.5">
+      <c r="C36">
+        <f>H35*D36</f>
+        <v>251.88092612873268</v>
+      </c>
+      <c r="D36">
+        <f>D35/1.0900000000000001</f>
+        <v>0.057962605897165217</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="inlineStr">
         <is>
           <t>day four</t>
         </is>
       </c>
-      <c r="G35" s="2">
-        <f>H35*100</f>
-        <v>493987.55320159096</v>
-      </c>
-      <c r="H35">
-        <f>H34+C35</f>
-        <v>4939.8755320159098</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="G36" s="2">
+        <f>H36*100</f>
+        <v>459745.72201899253</v>
+      </c>
+      <c r="H36">
+        <f>H35+C36</f>
+        <v>4597.4572201899255</v>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
           <t>*preliminary*</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>TODAY:</t>
         </is>
       </c>
-      <c r="M35" s="6">
-        <f>(M32/M31)-1</f>
-        <v>0.082644628099173501</v>
-      </c>
-      <c r="N35" s="6">
-        <f>(N32/N31)-1</f>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="O35" s="6">
-        <f>(O32/O31)-1</f>
-        <v>0</v>
-      </c>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="6">
-        <f>(Q32/Q31)-1</f>
-        <v>0.19338422391857502</v>
-      </c>
-      <c r="R35" s="6">
-        <f>(R32/R31)-1</f>
-        <v>0.1454545454545455</v>
-      </c>
-      <c r="S35" s="6">
-        <f>(S32/S31)-1</f>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="T35" s="4"/>
-      <c r="U35" s="6">
-        <f>(U32/U31)-1</f>
+      <c r="M36" s="6">
+        <f>(M33/M32)-1</f>
+        <v>0.076335877862595325</v>
+      </c>
+      <c r="N36" s="6">
+        <f>(N33/N32)-1</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="6">
+        <f>(O33/O32)-1</f>
+        <v>1</v>
+      </c>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="6">
+        <f>(Q33/Q32)-1</f>
+        <v>0.14925373134328357</v>
+      </c>
+      <c r="R36" s="6">
+        <f>(R33/R32)-1</f>
+        <v>0.079365079365079305</v>
+      </c>
+      <c r="S36" s="6">
+        <f>(S33/S32)-1</f>
         <v>0.18181818181818188</v>
       </c>
-      <c r="V35" s="6">
-        <f>(V32/V31)-1</f>
-        <v>0.24257425742574257</v>
-      </c>
-      <c r="W35" s="6">
-        <f>(W32/W31)-1</f>
-        <v>0.25</v>
-      </c>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="6">
-        <f>(Y32/Y31)-1</f>
-        <v>0.062032085561497308</v>
-      </c>
-      <c r="Z35" s="6">
-        <f>(Z32/Z31)-1</f>
-        <v>0.30545454545454542</v>
-      </c>
-      <c r="AA35" s="6">
-        <f>(AA32/AA31)-1</f>
-        <v>0.21052631578947367</v>
-      </c>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="6">
-        <f>(AC32/AC31)-1</f>
-        <v>0.1785714285714286</v>
-      </c>
-      <c r="AD35" s="6">
-        <f>(AD32/AD31)-1</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="AE35" s="6">
-        <f>(AE32/AE31)-1</f>
+      <c r="T36" s="4"/>
+      <c r="U36" s="6">
+        <f>(U33/U32)-1</f>
+        <v>0.05891980360065463</v>
+      </c>
+      <c r="V36" s="6">
+        <f>(V33/V32)-1</f>
+        <v>0.091633466135458086</v>
+      </c>
+      <c r="W36" s="6">
+        <f>(W33/W32)-1</f>
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="6">
+        <f>(Y33/Y32)-1</f>
+        <v>0.073514602215508651</v>
+      </c>
+      <c r="Z36" s="6">
+        <f>(Z33/Z32)-1</f>
+        <v>0.061281337047353723</v>
+      </c>
+      <c r="AA36" s="6">
+        <f>(AA33/AA32)-1</f>
+        <v>0.41304347826086962</v>
+      </c>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="6">
+        <f>(AC33/AC32)-1</f>
+        <v>0.1212121212121211</v>
+      </c>
+      <c r="AD36" s="6">
+        <f>(AD33/AD32)-1</f>
+        <v>0.375</v>
+      </c>
+      <c r="AE36" s="6">
+        <f>(AE33/AE32)-1</f>
+        <v>0.5</v>
+      </c>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="6">
+        <f>(AG33/AG32)-1</f>
+        <v>0.098360655737705027</v>
+      </c>
+      <c r="AH36" s="6">
+        <f>(AH33/AH32)-1</f>
         <v>1</v>
       </c>
-      <c r="AF35" s="4"/>
-      <c r="AG35" s="6">
-        <f>(AG32/AG31)-1</f>
-        <v>0.089285714285714191</v>
-      </c>
-      <c r="AH35" s="6">
-        <f>(AH32/AH31)-1</f>
-        <v>0</v>
-      </c>
-      <c r="AI35" s="6">
-        <f>(AI32/AI31)-1</f>
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="4"/>
-      <c r="AK35" s="6">
-        <f>(AK32/AK31)-1</f>
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="AL35" s="6">
-        <v>0</v>
-      </c>
-      <c r="AM35" s="6">
-        <v>0</v>
-      </c>
-      <c r="AN35" s="4"/>
-      <c r="AO35" s="6">
-        <f>(AO32/AO31)-1</f>
-        <v>0.074074074074074181</v>
-      </c>
-      <c r="AP35" s="6">
-        <f>(AP32/AP31)-1</f>
-        <v>0.25</v>
-      </c>
-      <c r="AQ35" s="6">
-        <f>(AQ32/AQ31)-1</f>
-        <v>0</v>
-      </c>
-      <c r="AR35" s="4"/>
-      <c r="AS35" s="6">
-        <f>(AS32/AS31)-1</f>
-        <v>1.4025974025974026</v>
-      </c>
-      <c r="AT35" s="6">
-        <v>0</v>
-      </c>
-      <c r="AU35" s="6">
-        <f>(AU32/AU31)-1</f>
-        <v>0</v>
-      </c>
-      <c r="AV35" s="4"/>
-      <c r="AW35" s="6">
-        <f>(AW32/AW31)-1</f>
-        <v>0.13714833759590794</v>
-      </c>
-      <c r="AX35" s="6">
-        <f>(AX32/AX31)-1</f>
-        <v>0.25986842105263164</v>
-      </c>
-      <c r="AY35" s="6">
-        <f>(AY32/AY31)-1</f>
-        <v>0.23188405797101441</v>
-      </c>
-      <c r="BA35" s="5">
-        <v>43877</v>
-      </c>
-      <c r="BB35">
+      <c r="AI36" s="6">
+        <f>(AI33/AI32)-1</f>
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="6">
+        <f>(AK33/AK32)-1</f>
+        <v>0.10526315789473695</v>
+      </c>
+      <c r="AL36" s="6" t="inlineStr">
+        <is>
+          <t>r: +3</t>
+        </is>
+      </c>
+      <c r="AM36" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="4"/>
+      <c r="AO36" s="6">
+        <f>(AO33/AO32)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AP36" s="6">
+        <f>(AP33/AP32)-1</f>
+        <v>-0.099999999999999978</v>
+      </c>
+      <c r="AQ36" s="6">
+        <f>(AQ33/AQ32)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AR36" s="4"/>
+      <c r="AS36" s="6">
+        <f>(AS33/AS32)-1</f>
+        <v>-0.059459459459459407</v>
+      </c>
+      <c r="AT36" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU36" s="6">
+        <f>(AU33/AU32)-1</f>
+        <v>-0.5</v>
+      </c>
+      <c r="AV36" s="4"/>
+      <c r="AW36" s="6">
+        <f>(AW33/AW32)-1</f>
+        <v>0.075063255552431762</v>
+      </c>
+      <c r="AX36" s="6">
+        <f>(AX33/AX32)-1</f>
+        <v>0.079634464751958234</v>
+      </c>
+      <c r="AY36" s="6">
+        <f>(AY33/AY32)-1</f>
+        <v>0.31764705882352939</v>
+      </c>
+      <c r="BA36" s="5">
+        <v>43878</v>
+      </c>
+      <c r="BB36">
         <v>13</v>
       </c>
-      <c r="BC35">
-        <f>(BB35/BB34)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:57" ht="19.5">
-      <c r="C36">
-        <f>H35*D36</f>
-        <v>479.95504642972605</v>
-      </c>
-      <c r="D36">
-        <f>D35/1.0900000000000001</f>
-        <v>0.097159340011520809</v>
-      </c>
-      <c r="E36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" t="inlineStr">
+      <c r="BC36">
+        <f>(BB36/BB35)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:57" ht="19.5">
+      <c r="C37">
+        <f>H36*D37</f>
+        <v>244.47761558068382</v>
+      </c>
+      <c r="D37">
+        <f>D36/1.0900000000000001</f>
+        <v>0.053176702657949736</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="inlineStr">
         <is>
           <t>day five</t>
         </is>
       </c>
-      <c r="G36" s="2">
-        <f>H36*100</f>
-        <v>541983.05784456362</v>
-      </c>
-      <c r="H36">
-        <f>H35+C36</f>
-        <v>5419.8305784456361</v>
-      </c>
-      <c r="J36" s="1"/>
-      <c r="BA36" s="5">
-        <v>43878</v>
-      </c>
-      <c r="BB36">
+      <c r="G37" s="2">
+        <f>H37*100</f>
+        <v>484193.48357706092</v>
+      </c>
+      <c r="H37">
+        <f>H36+C37</f>
+        <v>4841.9348357706094</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="BA37" s="5">
+        <v>43879</v>
+      </c>
+      <c r="BB37">
         <v>13</v>
       </c>
-      <c r="BC36">
-        <f>(BB36/BB35)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:57" ht="19.5">
-      <c r="C37">
-        <f>H36*D37</f>
-        <v>483.10748805141014</v>
-      </c>
-      <c r="D37">
-        <f>D36/1.0900000000000001</f>
-        <v>0.089137009184881474</v>
-      </c>
-      <c r="E37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" t="inlineStr">
+      <c r="BC37">
+        <f>(BB37/BB36)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:57" ht="19.5">
+      <c r="C38">
+        <f>H37*D38</f>
+        <v>236.21846701921319</v>
+      </c>
+      <c r="D38">
+        <f>D37/1.0900000000000001</f>
+        <v>0.048785965741238287</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="inlineStr">
         <is>
           <t>above: moving target</t>
         </is>
       </c>
-      <c r="G37" s="2">
-        <f>H37*100</f>
-        <v>590293.80664970458</v>
-      </c>
-      <c r="H37">
-        <f>H36+C37</f>
-        <v>5902.9380664970458</v>
-      </c>
-      <c r="BA37" s="5">
-        <v>43879</v>
-      </c>
-      <c r="BB37">
-        <v>13</v>
-      </c>
-      <c r="BC37">
-        <f>(BB37/BB36)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:57" ht="19.5">
-      <c r="C38">
-        <f>H37*D38</f>
-        <v>482.7249950927831</v>
-      </c>
-      <c r="D38">
-        <f>D37/1.0900000000000001</f>
-        <v>0.081777072646680243</v>
-      </c>
-      <c r="E38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="5">
-        <v>43928</v>
-      </c>
       <c r="G38" s="2">
         <f>H38*100</f>
-        <v>638566.30615898292</v>
+        <v>507815.33027898223</v>
       </c>
       <c r="H38">
         <f>H37+C38</f>
-        <v>6385.6630615898293</v>
-      </c>
-      <c r="K38" t="inlineStr">
+        <v>5078.1533027898222</v>
+      </c>
+      <c r="BA38" s="5">
+        <v>43880</v>
+      </c>
+      <c r="BB38">
+        <v>13</v>
+      </c>
+      <c r="BC38">
+        <f>(BB38/BB37)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:57" ht="19.5">
+      <c r="C39">
+        <f>H38*D39</f>
+        <v>227.28680097124797</v>
+      </c>
+      <c r="D39">
+        <f>D38/1.0900000000000001</f>
+        <v>0.044757766735080994</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="5">
+        <v>43929</v>
+      </c>
+      <c r="G39" s="2">
+        <f>H39*100</f>
+        <v>530544.01037610706</v>
+      </c>
+      <c r="H39">
+        <f>H38+C39</f>
+        <v>5305.4401037610705</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>Yesterday:</t>
         </is>
       </c>
-      <c r="M38" s="6">
+      <c r="M39" s="6">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="N39" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="O39" s="6">
+        <v>0</v>
+      </c>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="R39" s="6">
+        <v>0.14999999999999999</v>
+      </c>
+      <c r="S39" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6">
+        <v>0.17999999999999999</v>
+      </c>
+      <c r="V39" s="6">
+        <v>0.23999999999999999</v>
+      </c>
+      <c r="W39" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6">
+        <v>0.059999999999999998</v>
+      </c>
+      <c r="Z39" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="AA39" s="6">
+        <v>0.20999999999999999</v>
+      </c>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6">
+        <v>0.17999999999999999</v>
+      </c>
+      <c r="AD39" s="6">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="AE39" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF39" s="6"/>
+      <c r="AG39" s="6">
+        <v>0.089999999999999997</v>
+      </c>
+      <c r="AH39" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="6">
+        <v>0.72999999999999998</v>
+      </c>
+      <c r="AL39" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="6"/>
+      <c r="AO39" s="6">
         <v>0.070000000000000007</v>
       </c>
-      <c r="N38" s="6">
-        <v>0</v>
-      </c>
-      <c r="O38" s="6">
-        <v>0</v>
-      </c>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6">
-        <v>0.19</v>
-      </c>
-      <c r="R38" s="6">
-        <v>0.14999999999999999</v>
-      </c>
-      <c r="S38" s="6">
-        <v>1.3300000000000001</v>
-      </c>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6">
-        <v>0.39000000000000001</v>
-      </c>
-      <c r="V38" s="6">
-        <v>0.14999999999999999</v>
-      </c>
-      <c r="W38" s="6">
-        <v>1</v>
-      </c>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="6">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="Z38" s="6">
-        <v>0.20000000000000001</v>
-      </c>
-      <c r="AA38" s="6">
-        <v>0.81000000000000005</v>
-      </c>
-      <c r="AB38" s="6"/>
-      <c r="AC38" s="6">
-        <v>0.12</v>
-      </c>
-      <c r="AD38" s="6">
-        <v>4</v>
-      </c>
-      <c r="AE38" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="6"/>
-      <c r="AG38" s="6">
-        <v>0.12</v>
-      </c>
-      <c r="AH38" s="6">
-        <v>-0.5</v>
-      </c>
-      <c r="AI38" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AJ38" s="6"/>
-      <c r="AK38" s="6">
-        <v>0.10000000000000001</v>
-      </c>
-      <c r="AL38" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AM38" s="6">
-        <v>0</v>
-      </c>
-      <c r="AN38" s="6"/>
-      <c r="AO38" s="6">
-        <v>0.13</v>
-      </c>
-      <c r="AP38" s="6">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="AQ38" s="6" t="inlineStr">
-        <is>
-          <t>r: +1</t>
-        </is>
-      </c>
-      <c r="AR38" s="6"/>
-      <c r="AS38" s="6">
-        <v>-0.56000000000000005</v>
-      </c>
-      <c r="AT38" s="6">
-        <v>0</v>
-      </c>
-      <c r="AU38" s="6" t="inlineStr">
-        <is>
-          <t>r: +2</t>
-        </is>
-      </c>
-      <c r="AV38" s="6"/>
-      <c r="AW38" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="AX38" s="6">
-        <v>0.17999999999999999</v>
-      </c>
-      <c r="AY38" s="6">
-        <v>0.92000000000000004</v>
-      </c>
-      <c r="BA38" s="5">
-        <v>43880</v>
-      </c>
-      <c r="BB38">
-        <v>13</v>
-      </c>
-      <c r="BC38">
-        <f>(BB38/BB37)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:57" ht="19.5">
-      <c r="C39">
-        <f>H38*D39</f>
-        <v>479.0833321879395</v>
-      </c>
-      <c r="D39">
-        <f>D38/1.0900000000000001</f>
-        <v>0.075024837290532331</v>
-      </c>
-      <c r="E39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="5">
-        <v>43929</v>
-      </c>
-      <c r="G39" s="2">
-        <f>H39*100</f>
-        <v>686474.63937777688</v>
-      </c>
-      <c r="H39">
-        <f>H38+C39</f>
-        <v>6864.7463937777684</v>
+      <c r="AP39" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="AQ39" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR39" s="6"/>
+      <c r="AS39" s="6">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="AT39" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU39" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV39" s="6"/>
+      <c r="AW39" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AX39" s="6">
+        <v>0.26000000000000001</v>
+      </c>
+      <c r="AY39" s="6">
+        <v>0.23000000000000001</v>
       </c>
       <c r="BA39" s="5">
         <v>43881</v>
@@ -3766,11 +3900,11 @@
     <row r="40" spans="1:57" ht="19.5">
       <c r="C40">
         <f>H39*D40</f>
-        <v>472.50135893022531</v>
+        <v>217.85289045053383</v>
       </c>
       <c r="D40">
         <f>D39/1.0900000000000001</f>
-        <v>0.068830125954616808</v>
+        <v>0.041062171316588063</v>
       </c>
       <c r="E40" t="s">
         <v>15</v>
@@ -3780,51 +3914,52 @@
       </c>
       <c r="G40" s="2">
         <f>H40*100</f>
-        <v>733724.77527079941</v>
+        <v>552329.29942116048</v>
       </c>
       <c r="H40">
         <f>H39+C40</f>
-        <v>7337.2477527079936</v>
-      </c>
-      <c r="P40" t="inlineStr">
+        <v>5523.2929942116043</v>
+      </c>
+      <c r="BA40" s="5">
+        <v>43882</v>
+      </c>
+      <c r="BB40">
+        <v>15</v>
+      </c>
+      <c r="BC40">
+        <f>(BB40/BB39)-1</f>
+        <v>0.15384615384615374</v>
+      </c>
+    </row>
+    <row r="41" spans="1:57" ht="19.5">
+      <c r="C41">
+        <f>H40*D41</f>
+        <v>208.0719295046124</v>
+      </c>
+      <c r="D41">
+        <f>D40/1.0900000000000001</f>
+        <v>0.037671716804209228</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="5">
+        <v>43931</v>
+      </c>
+      <c r="G41" s="2">
+        <f>H41*100</f>
+        <v>573136.49237162177</v>
+      </c>
+      <c r="H41">
+        <f>H40+C41</f>
+        <v>5731.3649237162172</v>
+      </c>
+      <c r="P41" t="inlineStr">
         <is>
           <t>older Source: https://portal.ct.gov/Coronavirus/Pages/Governors-Press-Releases</t>
         </is>
       </c>
-      <c r="BA40" s="5">
-        <v>43882</v>
-      </c>
-      <c r="BB40">
-        <v>15</v>
-      </c>
-      <c r="BC40">
-        <f>(BB40/BB39)-1</f>
-        <v>0.15384615384615374</v>
-      </c>
-    </row>
-    <row r="41" spans="1:57" ht="19.5">
-      <c r="C41">
-        <f>H40*D41</f>
-        <v>463.32448346708287</v>
-      </c>
-      <c r="D41">
-        <f>D40/1.0900000000000001</f>
-        <v>0.063146904545520008</v>
-      </c>
-      <c r="E41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="5">
-        <v>43931</v>
-      </c>
-      <c r="G41" s="2">
-        <f>H41*100</f>
-        <v>780057.22361750773</v>
-      </c>
-      <c r="H41">
-        <f>H40+C41</f>
-        <v>7800.5722361750768</v>
-      </c>
+      <c r="AQ41" s="6"/>
       <c r="BA41" s="5">
         <v>43883</v>
       </c>
@@ -3839,11 +3974,11 @@
     <row r="42" spans="1:57" ht="19.5">
       <c r="C42">
         <f>H41*D42</f>
-        <v>451.91008293411107</v>
+        <v>198.08289569524362</v>
       </c>
       <c r="D42">
         <f>D41/1.0900000000000001</f>
-        <v>0.057932939950018351</v>
+        <v>0.03456120807725617</v>
       </c>
       <c r="E42" t="s">
         <v>17</v>
@@ -3853,51 +3988,56 @@
       </c>
       <c r="G42" s="2">
         <f>H42*100</f>
-        <v>825248.23191091872</v>
+        <v>592944.78194114612</v>
       </c>
       <c r="H42">
         <f>H41+C42</f>
-        <v>8252.4823191091873</v>
-      </c>
-      <c r="P42" t="inlineStr">
+        <v>5929.4478194114608</v>
+      </c>
+      <c r="AL42" t="inlineStr">
+        <is>
+          <t>any zero-to-positive int gets the 'r: +n' entry.</t>
+        </is>
+      </c>
+      <c r="BA42" s="5">
+        <v>43884</v>
+      </c>
+      <c r="BB42">
+        <v>15</v>
+      </c>
+      <c r="BC42">
+        <f>(BB42/BB41)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:57" ht="19.5">
+      <c r="C43">
+        <f>H42*D43</f>
+        <v>188.00814666964436</v>
+      </c>
+      <c r="D43">
+        <f>D42/1.0900000000000001</f>
+        <v>0.031707530346106579</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="5">
+        <v>43933</v>
+      </c>
+      <c r="G43" s="2">
+        <f>H43*100</f>
+        <v>611745.59660811059</v>
+      </c>
+      <c r="H43">
+        <f>H42+C43</f>
+        <v>6117.4559660811055</v>
+      </c>
+      <c r="P43" t="inlineStr">
         <is>
           <t>recent Source: https://portal.ct.gov/-/media/Coronavirus/CTDPHCOVID19summary3312020.pdf?la=en</t>
         </is>
       </c>
-      <c r="BA42" s="5">
-        <v>43884</v>
-      </c>
-      <c r="BB42">
-        <v>15</v>
-      </c>
-      <c r="BC42">
-        <f>(BB42/BB41)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:57" ht="19.5">
-      <c r="C43">
-        <f>H42*D43</f>
-        <v>438.61519507480796</v>
-      </c>
-      <c r="D43">
-        <f>D42/1.0900000000000001</f>
-        <v>0.053149486192677384</v>
-      </c>
-      <c r="E43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="5">
-        <v>43933</v>
-      </c>
-      <c r="G43" s="2">
-        <f>H43*100</f>
-        <v>869109.75141839951</v>
-      </c>
-      <c r="H43">
-        <f>H42+C43</f>
-        <v>8691.0975141839954</v>
-      </c>
       <c r="BA43" s="5">
         <v>43885</v>
       </c>
@@ -3912,11 +4052,11 @@
     <row r="44" spans="1:57" ht="19.5">
       <c r="C44">
         <f>H43*D44</f>
-        <v>423.78657553149998</v>
+        <v>177.95359695916272</v>
       </c>
       <c r="D44">
         <f>D43/1.0900000000000001</f>
-        <v>0.048760996507043471</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E44" t="s">
         <v>12</v>
@@ -3926,51 +4066,56 @@
       </c>
       <c r="G44" s="2">
         <f>H44*100</f>
-        <v>911488.40897154948</v>
+        <v>629540.95630402677</v>
       </c>
       <c r="H44">
         <f>H43+C44</f>
-        <v>9114.8840897154951</v>
-      </c>
-      <c r="P44" t="inlineStr">
+        <v>6295.409563040268</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>&lt;&lt; transmission under 3 percent growth (per day)</t>
+        </is>
+      </c>
+      <c r="BA44" s="5">
+        <v>43886</v>
+      </c>
+      <c r="BB44">
+        <v>51</v>
+      </c>
+      <c r="BC44">
+        <f>(BB44/BB43)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:57" ht="19.5">
+      <c r="C45">
+        <f>H44*D45</f>
+        <v>183.1301740929072</v>
+      </c>
+      <c r="D45">
+        <f>D44</f>
+        <v>0.029089477381749152</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="5">
+        <v>43935</v>
+      </c>
+      <c r="G45" s="2">
+        <f>H45*100</f>
+        <v>647853.97371331754</v>
+      </c>
+      <c r="H45">
+        <f>H44+C45</f>
+        <v>6478.5397371331755</v>
+      </c>
+      <c r="P45" t="inlineStr">
         <is>
           <t>export: $ ssconvert -T Gnumeric_stf:stf_csv thisfile.gnumeric thisfile.csv</t>
         </is>
       </c>
-      <c r="BA44" s="5">
-        <v>43886</v>
-      </c>
-      <c r="BB44">
-        <v>51</v>
-      </c>
-      <c r="BC44">
-        <f>(BB44/BB43)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:57" ht="19.5">
-      <c r="C45">
-        <f>H44*D45</f>
-        <v>407.75305620249844</v>
-      </c>
-      <c r="D45">
-        <f>D44/1.0900000000000001</f>
-        <v>0.044734859180773821</v>
-      </c>
-      <c r="E45" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="5">
-        <v>43935</v>
-      </c>
-      <c r="G45" s="2">
-        <f>H45*100</f>
-        <v>952263.7145917993</v>
-      </c>
-      <c r="H45">
-        <f>H44+C45</f>
-        <v>9522.6371459179936</v>
-      </c>
       <c r="BA45" s="5">
         <v>43887</v>
       </c>
@@ -3985,11 +4130,11 @@
     <row r="46" spans="1:57" ht="19.5">
       <c r="C46">
         <f>H45*D46</f>
-        <v>390.82002913050212</v>
+        <v>188.4573351500986</v>
       </c>
       <c r="D46">
-        <f>D45/1.0900000000000001</f>
-        <v>0.041041155211719096</v>
+        <f>D45</f>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E46" t="s">
         <v>14</v>
@@ -3999,557 +4144,552 @@
       </c>
       <c r="G46" s="2">
         <f>H46*100</f>
-        <v>991345.71750484954</v>
+        <v>666699.7072283274</v>
       </c>
       <c r="H46">
         <f>H45+C46</f>
-        <v>9913.4571750484956</v>
-      </c>
-      <c r="P46" t="inlineStr">
+        <v>6666.9970722832741</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>(three percent arbitrarily chosen)</t>
+        </is>
+      </c>
+      <c r="BA46" s="5">
+        <v>43888</v>
+      </c>
+      <c r="BB46">
+        <v>58</v>
+      </c>
+      <c r="BC46">
+        <f>(BB46/BB45)-1</f>
+        <v>0.017543859649122862</v>
+      </c>
+    </row>
+    <row r="47" spans="1:57" ht="19.5">
+      <c r="C47">
+        <f>H46*D47</f>
+        <v>193.93946053837212</v>
+      </c>
+      <c r="D47">
+        <f>D46</f>
+        <v>0.029089477381749152</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="5">
+        <v>43937</v>
+      </c>
+      <c r="G47" s="2">
+        <f>H47*100</f>
+        <v>686093.6532821646</v>
+      </c>
+      <c r="H47">
+        <f>H46+C47</f>
+        <v>6860.9365328216463</v>
+      </c>
+      <c r="P47" t="inlineStr">
         <is>
           <t>March 31: Hospitalization by county presented in a graphic (only?)</t>
         </is>
       </c>
-      <c r="BA46" s="5">
-        <v>43888</v>
-      </c>
-      <c r="BB46">
-        <v>58</v>
-      </c>
-      <c r="BC46">
-        <f>(BB46/BB45)-1</f>
-        <v>0.017543859649122862</v>
-      </c>
-    </row>
-    <row r="47" spans="1:57" ht="19.5">
-      <c r="C47">
-        <f>H46*D47</f>
-        <v>373.26581156504187</v>
-      </c>
-      <c r="D47">
-        <f>D46/1.0900000000000001</f>
-        <v>0.037652435974054217</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="BA47" s="5">
+        <v>43889</v>
+      </c>
+      <c r="BB47">
+        <v>60</v>
+      </c>
+      <c r="BC47">
+        <f>(BB47/BB46)-1</f>
+        <v>0.034482758620689724</v>
+      </c>
+    </row>
+    <row r="48" spans="1:57" ht="19.5">
+      <c r="C48">
+        <f>H47*D48</f>
+        <v>199.58105808913172</v>
+      </c>
+      <c r="D48">
+        <f>D47</f>
+        <v>0.029089477381749152</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="5">
+        <v>43938</v>
+      </c>
+      <c r="G48" s="2">
+        <f>H48*100</f>
+        <v>706051.75909107784</v>
+      </c>
+      <c r="H48">
+        <f>H47+C48</f>
+        <v>7060.5175909107784</v>
+      </c>
+      <c r="BA48" s="5">
+        <v>43890</v>
+      </c>
+      <c r="BB48">
+        <v>68</v>
+      </c>
+      <c r="BC48">
+        <f>(BB48/BB47)-1</f>
+        <v>0.1333333333333333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:57" ht="19.5">
+      <c r="C49">
+        <f>H48*D49</f>
+        <v>205.38676676424109</v>
+      </c>
+      <c r="D49">
+        <f>D48</f>
+        <v>0.029089477381749152</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="5">
+        <v>43939</v>
+      </c>
+      <c r="G49" s="2">
+        <f>H49*100</f>
+        <v>726590.43576750194</v>
+      </c>
+      <c r="H49">
+        <f>H48+C49</f>
+        <v>7265.9043576750191</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>31 March 23:09 UTC: many cosmetic changes, columns deleted (or added).</t>
+        </is>
+      </c>
+      <c r="BA49" s="5">
+        <v>43891</v>
+      </c>
+      <c r="BB49">
+        <v>74</v>
+      </c>
+      <c r="BC49">
+        <f>(BB49/BB48)-1</f>
+        <v>0.088235294117646967</v>
+      </c>
+    </row>
+    <row r="50" spans="1:57" ht="19.5">
+      <c r="C50">
+        <f>H49*D50</f>
+        <v>211.36136047054006</v>
+      </c>
+      <c r="D50">
+        <f>D49</f>
+        <v>0.029089477381749152</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="5">
+        <v>43940</v>
+      </c>
+      <c r="G50" s="2">
+        <f>H50*100</f>
+        <v>747726.57181455591</v>
+      </c>
+      <c r="H50">
+        <f>H49+C50</f>
+        <v>7477.2657181455588</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Hopefully, no major corruption of data/forumlas present after these major edits.</t>
+        </is>
+      </c>
+      <c r="BA50" s="5">
+        <v>43892</v>
+      </c>
+      <c r="BB50">
+        <v>98</v>
+      </c>
+      <c r="BC50">
+        <f>(BB50/BB49)-1</f>
+        <v>0.32432432432432434</v>
+      </c>
+    </row>
+    <row r="51" spans="1:57" ht="19.5">
+      <c r="C51">
+        <f>H50*D51</f>
+        <v>217.50975198532356</v>
+      </c>
+      <c r="D51">
+        <f>D50</f>
+        <v>0.029089477381749152</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="5">
+        <v>43941</v>
+      </c>
+      <c r="G51" s="2">
+        <f>H51*100</f>
+        <v>769477.54701308825</v>
+      </c>
+      <c r="H51">
+        <f>H50+C51</f>
+        <v>7694.7754701308822</v>
+      </c>
+      <c r="BA51" s="5">
+        <v>43893</v>
+      </c>
+      <c r="BB51">
+        <v>118</v>
+      </c>
+      <c r="BC51">
+        <f>(BB51/BB50)-1</f>
+        <v>0.20408163265306123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:57" ht="19.5">
+      <c r="C52">
+        <f>H51*D52</f>
+        <v>223.8369969960105</v>
+      </c>
+      <c r="D52">
+        <f>D51</f>
+        <v>0.029089477381749152</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="5">
+        <v>43942</v>
+      </c>
+      <c r="G52" s="2">
+        <f>H52*100</f>
+        <v>791861.24671268929</v>
+      </c>
+      <c r="H52">
+        <f>H51+C52</f>
+        <v>7918.6124671268926</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>1 April: Column D now formatted as percentile</t>
+        </is>
+      </c>
+      <c r="BA52" s="5">
+        <v>43894</v>
+      </c>
+      <c r="BB52">
+        <v>149</v>
+      </c>
+      <c r="BC52">
+        <f>(BB52/BB51)-1</f>
+        <v>0.26271186440677963</v>
+      </c>
+    </row>
+    <row r="53" spans="1:57" ht="19.5">
+      <c r="C53">
+        <f>H52*D53</f>
+        <v>230.34829825732459</v>
+      </c>
+      <c r="D53">
+        <f>D52</f>
+        <v>0.029089477381749152</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="5">
+        <v>43943</v>
+      </c>
+      <c r="G53" s="2">
+        <f>H53*100</f>
+        <v>814896.0765384218</v>
+      </c>
+      <c r="H53">
+        <f>H52+C53</f>
+        <v>8148.9607653842177</v>
+      </c>
+      <c r="BA53" s="5">
+        <v>43895</v>
+      </c>
+      <c r="BB53">
+        <v>217</v>
+      </c>
+      <c r="BC53">
+        <f>(BB53/BB52)-1</f>
+        <v>0.4563758389261745</v>
+      </c>
+    </row>
+    <row r="54" spans="1:57" ht="19.5">
+      <c r="C54">
+        <f>H53*D54</f>
+        <v>237.04900986940547</v>
+      </c>
+      <c r="D54">
+        <f>D53</f>
+        <v>0.029089477381749152</v>
+      </c>
+      <c r="E54" t="s">
         <v>15</v>
       </c>
-      <c r="F47" s="5">
-        <v>43937</v>
-      </c>
-      <c r="G47" s="2">
-        <f>H47*100</f>
-        <v>1028672.2986613536</v>
-      </c>
-      <c r="H47">
-        <f>H46+C47</f>
-        <v>10286.722986613537</v>
-      </c>
-      <c r="I47" t="inlineStr">
+      <c r="F54" s="5">
+        <v>43944</v>
+      </c>
+      <c r="G54" s="2">
+        <f>H54*100</f>
+        <v>838600.9775253624</v>
+      </c>
+      <c r="H54">
+        <f>H53+C54</f>
+        <v>8386.009775253624</v>
+      </c>
+      <c r="BA54" s="5">
+        <v>43896</v>
+      </c>
+      <c r="BB54">
+        <v>262</v>
+      </c>
+      <c r="BC54">
+        <f>(BB54/BB53)-1</f>
+        <v>0.20737327188940102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:57" ht="19.5">
+      <c r="C55">
+        <f>H54*D55</f>
+        <v>243.9446416803676</v>
+      </c>
+      <c r="D55">
+        <f>D54</f>
+        <v>0.029089477381749152</v>
+      </c>
+      <c r="E55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="5">
+        <v>43945</v>
+      </c>
+      <c r="G55" s="2">
+        <f>H55*100</f>
+        <v>862995.4416933991</v>
+      </c>
+      <c r="H55">
+        <f>H54+C55</f>
+        <v>8629.9544169339915</v>
+      </c>
+      <c r="BA55" s="5">
+        <v>43897</v>
+      </c>
+      <c r="BB55">
+        <v>402</v>
+      </c>
+      <c r="BC55">
+        <f>(BB55/BB54)-1</f>
+        <v>0.53435114503816794</v>
+      </c>
+    </row>
+    <row r="56" spans="1:57" ht="19.5">
+      <c r="C56">
+        <f>H55*D56</f>
+        <v>251.04086381692753</v>
+      </c>
+      <c r="D56">
+        <f>D55</f>
+        <v>0.029089477381749152</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="5">
+        <v>43946</v>
+      </c>
+      <c r="G56" s="2">
+        <f>H56*100</f>
+        <v>888099.52807509201</v>
+      </c>
+      <c r="H56">
+        <f>H55+C56</f>
+        <v>8880.9952807509198</v>
+      </c>
+      <c r="BA56" s="5">
+        <v>43898</v>
+      </c>
+      <c r="BB56">
+        <v>518</v>
+      </c>
+      <c r="BC56">
+        <f>(BB56/BB55)-1</f>
+        <v>0.28855721393034828</v>
+      </c>
+    </row>
+    <row r="57" spans="1:57" ht="19.5">
+      <c r="C57">
+        <f>H56*D57</f>
+        <v>258.34351134682487</v>
+      </c>
+      <c r="D57">
+        <f>D56</f>
+        <v>0.029089477381749152</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="5">
+        <v>43947</v>
+      </c>
+      <c r="G57" s="2">
+        <f>H57*100</f>
+        <v>913933.87920977443</v>
+      </c>
+      <c r="H57">
+        <f>H56+C57</f>
+        <v>9139.3387920977439</v>
+      </c>
+      <c r="BA57" s="5">
+        <v>43899</v>
+      </c>
+      <c r="BB57">
+        <v>583</v>
+      </c>
+      <c r="BC57">
+        <f>(BB57/BB56)-1</f>
+        <v>0.12548262548262556</v>
+      </c>
+    </row>
+    <row r="58" spans="1:57" ht="19.5">
+      <c r="C58">
+        <f>H57*D58</f>
+        <v>265.85858907686992</v>
+      </c>
+      <c r="D58">
+        <f>D57</f>
+        <v>0.029089477381749152</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="5">
+        <v>43948</v>
+      </c>
+      <c r="G58" s="2">
+        <f>H58*100</f>
+        <v>940519.73811746133</v>
+      </c>
+      <c r="H58">
+        <f>H57+C58</f>
+        <v>9405.1973811746138</v>
+      </c>
+      <c r="BA58" s="5">
+        <v>43900</v>
+      </c>
+      <c r="BB58">
+        <v>959</v>
+      </c>
+      <c r="BC58">
+        <f>(BB58/BB57)-1</f>
+        <v>0.64493996569468259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:57" ht="19.5">
+      <c r="C59">
+        <f>H58*D59</f>
+        <v>273.59227649056527</v>
+      </c>
+      <c r="D59">
+        <f>D58</f>
+        <v>0.029089477381749152</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="5">
+        <v>43949</v>
+      </c>
+      <c r="G59" s="2">
+        <f>H59*100</f>
+        <v>967878.96576651779</v>
+      </c>
+      <c r="H59">
+        <f>H58+C59</f>
+        <v>9678.7896576651783</v>
+      </c>
+      <c r="BA59" s="5">
+        <v>43901</v>
+      </c>
+      <c r="BB59">
+        <v>1281</v>
+      </c>
+      <c r="BC59">
+        <f>(BB59/BB58)-1</f>
+        <v>0.33576642335766427</v>
+      </c>
+    </row>
+    <row r="60" spans="1:57" ht="19.5">
+      <c r="C60">
+        <f>H59*D60</f>
+        <v>281.55093282935883</v>
+      </c>
+      <c r="D60">
+        <f>D59</f>
+        <v>0.029089477381749152</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="5">
+        <v>43950</v>
+      </c>
+      <c r="G60" s="2">
+        <f>H60*100</f>
+        <v>996034.0590494537</v>
+      </c>
+      <c r="H60">
+        <f>H59+C60</f>
+        <v>9960.3405904945375</v>
+      </c>
+      <c r="BA60" s="5">
+        <v>43902</v>
+      </c>
+      <c r="BB60">
+        <v>1663</v>
+      </c>
+      <c r="BC60">
+        <f>(BB60/BB59)-1</f>
+        <v>0.29820452771272454</v>
+      </c>
+    </row>
+    <row r="61" spans="1:57" ht="19.5">
+      <c r="C61">
+        <f>H60*D61</f>
+        <v>289.74110232170887</v>
+      </c>
+      <c r="D61">
+        <f>D60</f>
+        <v>0.029089477381749152</v>
+      </c>
+      <c r="E61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="5">
+        <v>43951</v>
+      </c>
+      <c r="G61" s="2">
+        <f>H61*100</f>
+        <v>1025008.1692816246</v>
+      </c>
+      <c r="H61">
+        <f>H60+C61</f>
+        <v>10250.081692816246</v>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>&lt;&lt;  arbitrary peak number (1 million)</t>
         </is>
       </c>
-      <c r="BA47" s="5">
-        <v>43889</v>
-      </c>
-      <c r="BB47">
-        <v>60</v>
-      </c>
-      <c r="BC47">
-        <f>(BB47/BB46)-1</f>
-        <v>0.034482758620689724</v>
-      </c>
-    </row>
-    <row r="48" spans="1:57" ht="19.5">
-      <c r="C48">
-        <f>H47*D48</f>
-        <v>355.33961342779628</v>
-      </c>
-      <c r="D48">
-        <f>D47/1.0900000000000001</f>
-        <v>0.034543519242251575</v>
-      </c>
-      <c r="E48" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="5">
-        <v>43938</v>
-      </c>
-      <c r="G48" s="2">
-        <f>H48*100</f>
-        <v>1064206.2600041332</v>
-      </c>
-      <c r="H48">
-        <f>H47+C48</f>
-        <v>10642.062600041332</v>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>31 March 23:09 UTC: many cosmetic changes, columns deleted (or added).</t>
-        </is>
-      </c>
-      <c r="BA48" s="5">
-        <v>43890</v>
-      </c>
-      <c r="BB48">
-        <v>68</v>
-      </c>
-      <c r="BC48">
-        <f>(BB48/BB47)-1</f>
-        <v>0.1333333333333333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:57" ht="19.5">
-      <c r="C49">
-        <f>H48*D49</f>
-        <v>337.26082036859958</v>
-      </c>
-      <c r="D49">
-        <f>D48/1.0900000000000001</f>
-        <v>0.031691302057111535</v>
-      </c>
-      <c r="E49" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="5">
-        <v>43939</v>
-      </c>
-      <c r="G49" s="2">
-        <f>H49*100</f>
-        <v>1097932.3420409933</v>
-      </c>
-      <c r="H49">
-        <f>H48+C49</f>
-        <v>10979.323420409932</v>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>Hopefully, no major corruption of data/forumlas present after these major edits.</t>
-        </is>
-      </c>
-      <c r="BA49" s="5">
-        <v>43891</v>
-      </c>
-      <c r="BB49">
-        <v>74</v>
-      </c>
-      <c r="BC49">
-        <f>(BB49/BB48)-1</f>
-        <v>0.088235294117646967</v>
-      </c>
-    </row>
-    <row r="50" spans="1:57" ht="19.5">
-      <c r="C50">
-        <f>H49*D50</f>
-        <v>319.21931642103681</v>
-      </c>
-      <c r="D50">
-        <f>D49/1.0900000000000001</f>
-        <v>0.029074589043221591</v>
-      </c>
-      <c r="E50" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="5">
-        <v>43940</v>
-      </c>
-      <c r="G50" s="2">
-        <f>H50*100</f>
-        <v>1129854.2736830967</v>
-      </c>
-      <c r="H50">
-        <f>H49+C50</f>
-        <v>11298.542736830968</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>&lt;&lt; transmission under 3 percent growth (per day)</t>
-        </is>
-      </c>
-      <c r="BA50" s="5">
-        <v>43892</v>
-      </c>
-      <c r="BB50">
-        <v>98</v>
-      </c>
-      <c r="BC50">
-        <f>(BB50/BB49)-1</f>
-        <v>0.32432432432432434</v>
-      </c>
-    </row>
-    <row r="51" spans="1:57" ht="19.5">
-      <c r="C51">
-        <f>H50*D51</f>
-        <v>328.50048686063656</v>
-      </c>
-      <c r="D51">
-        <f>D50</f>
-        <v>0.029074589043221591</v>
-      </c>
-      <c r="E51" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="5">
-        <v>43941</v>
-      </c>
-      <c r="G51" s="2">
-        <f>H51*100</f>
-        <v>1162704.3223691606</v>
-      </c>
-      <c r="H51">
-        <f>H50+C51</f>
-        <v>11627.043223691606</v>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>1 April: Column D now formatted as percentile</t>
-        </is>
-      </c>
-      <c r="BA51" s="5">
-        <v>43893</v>
-      </c>
-      <c r="BB51">
-        <v>118</v>
-      </c>
-      <c r="BC51">
-        <f>(BB51/BB50)-1</f>
-        <v>0.20408163265306123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:57" ht="19.5">
-      <c r="C52">
-        <f>H51*D52</f>
-        <v>338.0515035166078</v>
-      </c>
-      <c r="D52">
-        <f>D51</f>
-        <v>0.029074589043221591</v>
-      </c>
-      <c r="E52" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="5">
-        <v>43942</v>
-      </c>
-      <c r="G52" s="2">
-        <f>H52*100</f>
-        <v>1196509.4727208214</v>
-      </c>
-      <c r="H52">
-        <f>H51+C52</f>
-        <v>11965.094727208214</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>(three percent arbitrarily chosen)</t>
-        </is>
-      </c>
-      <c r="BA52" s="5">
-        <v>43894</v>
-      </c>
-      <c r="BB52">
-        <v>149</v>
-      </c>
-      <c r="BC52">
-        <f>(BB52/BB51)-1</f>
-        <v>0.26271186440677963</v>
-      </c>
-    </row>
-    <row r="53" spans="1:57" ht="19.5">
-      <c r="C53">
-        <f>H52*D53</f>
-        <v>347.88021205679638</v>
-      </c>
-      <c r="D53">
-        <f>D52</f>
-        <v>0.029074589043221591</v>
-      </c>
-      <c r="E53" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="5">
-        <v>43943</v>
-      </c>
-      <c r="G53" s="2">
-        <f>H53*100</f>
-        <v>1231297.4939265009</v>
-      </c>
-      <c r="H53">
-        <f>H52+C53</f>
-        <v>12312.97493926501</v>
-      </c>
-      <c r="BA53" s="5">
-        <v>43895</v>
-      </c>
-      <c r="BB53">
-        <v>217</v>
-      </c>
-      <c r="BC53">
-        <f>(BB53/BB52)-1</f>
-        <v>0.4563758389261745</v>
-      </c>
-    </row>
-    <row r="54" spans="1:57" ht="19.5">
-      <c r="C54">
-        <f>H53*D54</f>
-        <v>357.99468625861647</v>
-      </c>
-      <c r="D54">
-        <f>D53</f>
-        <v>0.029074589043221591</v>
-      </c>
-      <c r="E54" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="5">
-        <v>43944</v>
-      </c>
-      <c r="G54" s="2">
-        <f>H54*100</f>
-        <v>1267096.9625523626</v>
-      </c>
-      <c r="H54">
-        <f>H53+C54</f>
-        <v>12670.969625523627</v>
-      </c>
-      <c r="BA54" s="5">
-        <v>43896</v>
-      </c>
-      <c r="BB54">
-        <v>262</v>
-      </c>
-      <c r="BC54">
-        <f>(BB54/BB53)-1</f>
-        <v>0.20737327188940102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:57" ht="19.5">
-      <c r="C55">
-        <f>H54*D55</f>
-        <v>368.40323464124282</v>
-      </c>
-      <c r="D55">
-        <f>D54</f>
-        <v>0.029074589043221591</v>
-      </c>
-      <c r="E55" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="5">
-        <v>43945</v>
-      </c>
-      <c r="G55" s="2">
-        <f>H55*100</f>
-        <v>1303937.2860164868</v>
-      </c>
-      <c r="H55">
-        <f>H54+C55</f>
-        <v>13039.372860164869</v>
-      </c>
-      <c r="BA55" s="5">
-        <v>43897</v>
-      </c>
-      <c r="BB55">
-        <v>402</v>
-      </c>
-      <c r="BC55">
-        <f>(BB55/BB54)-1</f>
-        <v>0.53435114503816794</v>
-      </c>
-    </row>
-    <row r="56" spans="1:57" ht="19.5">
-      <c r="C56">
-        <f>H55*D56</f>
-        <v>379.11440729063048</v>
-      </c>
-      <c r="D56">
-        <f>D55</f>
-        <v>0.029074589043221591</v>
-      </c>
-      <c r="E56" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" s="5">
-        <v>43946</v>
-      </c>
-      <c r="G56" s="2">
-        <f>H56*100</f>
-        <v>1341848.7267455498</v>
-      </c>
-      <c r="H56">
-        <f>H55+C56</f>
-        <v>13418.487267455499</v>
-      </c>
-      <c r="BA56" s="5">
-        <v>43898</v>
-      </c>
-      <c r="BB56">
-        <v>518</v>
-      </c>
-      <c r="BC56">
-        <f>(BB56/BB55)-1</f>
-        <v>0.28855721393034828</v>
-      </c>
-    </row>
-    <row r="57" spans="1:57" ht="19.5">
-      <c r="C57">
-        <f>H56*D57</f>
-        <v>390.13700288297008</v>
-      </c>
-      <c r="D57">
-        <f>D56</f>
-        <v>0.029074589043221591</v>
-      </c>
-      <c r="E57" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="5">
-        <v>43947</v>
-      </c>
-      <c r="G57" s="2">
-        <f>H57*100</f>
-        <v>1380862.427033847</v>
-      </c>
-      <c r="H57">
-        <f>H56+C57</f>
-        <v>13808.624270338469</v>
-      </c>
-      <c r="BA57" s="5">
-        <v>43899</v>
-      </c>
-      <c r="BB57">
-        <v>583</v>
-      </c>
-      <c r="BC57">
-        <f>(BB57/BB56)-1</f>
-        <v>0.12548262548262556</v>
-      </c>
-    </row>
-    <row r="58" spans="1:57" ht="19.5">
-      <c r="C58">
-        <f>H57*D58</f>
-        <v>401.48007591234659</v>
-      </c>
-      <c r="D58">
-        <f>D57</f>
-        <v>0.029074589043221591</v>
-      </c>
-      <c r="E58" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="5">
-        <v>43948</v>
-      </c>
-      <c r="G58" s="2">
-        <f>H58*100</f>
-        <v>1421010.4346250815</v>
-      </c>
-      <c r="H58">
-        <f>H57+C58</f>
-        <v>14210.104346250815</v>
-      </c>
-      <c r="BA58" s="5">
-        <v>43900</v>
-      </c>
-      <c r="BB58">
-        <v>959</v>
-      </c>
-      <c r="BC58">
-        <f>(BB58/BB57)-1</f>
-        <v>0.64493996569468259</v>
-      </c>
-    </row>
-    <row r="59" spans="1:57" ht="19.5">
-      <c r="C59">
-        <f>H58*D59</f>
-        <v>413.15294412853945</v>
-      </c>
-      <c r="D59">
-        <f>D58</f>
-        <v>0.029074589043221591</v>
-      </c>
-      <c r="E59" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="5">
-        <v>43949</v>
-      </c>
-      <c r="G59" s="2">
-        <f>H59*100</f>
-        <v>1462325.7290379356</v>
-      </c>
-      <c r="H59">
-        <f>H58+C59</f>
-        <v>14623.257290379355</v>
-      </c>
-      <c r="BA59" s="5">
-        <v>43901</v>
-      </c>
-      <c r="BB59">
-        <v>1281</v>
-      </c>
-      <c r="BC59">
-        <f>(BB59/BB58)-1</f>
-        <v>0.33576642335766427</v>
-      </c>
-    </row>
-    <row r="60" spans="1:57" ht="19.5">
-      <c r="C60">
-        <f>H59*D60</f>
-        <v>425.16519619107385</v>
-      </c>
-      <c r="D60">
-        <f>D59</f>
-        <v>0.029074589043221591</v>
-      </c>
-      <c r="E60" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="5">
-        <v>43950</v>
-      </c>
-      <c r="G60" s="2">
-        <f>H60*100</f>
-        <v>1504842.2486570429</v>
-      </c>
-      <c r="H60">
-        <f>H59+C60</f>
-        <v>15048.422486570429</v>
-      </c>
-      <c r="BA60" s="5">
-        <v>43902</v>
-      </c>
-      <c r="BB60">
-        <v>1663</v>
-      </c>
-      <c r="BC60">
-        <f>(BB60/BB59)-1</f>
-        <v>0.29820452771272454</v>
-      </c>
-    </row>
-    <row r="61" spans="1:57" ht="19.5">
-      <c r="C61">
-        <f>H60*D61</f>
-        <v>437.52669954581</v>
-      </c>
-      <c r="D61">
-        <f>D60</f>
-        <v>0.029074589043221591</v>
-      </c>
-      <c r="E61" t="s">
-        <v>15</v>
-      </c>
-      <c r="F61" s="5">
-        <v>43951</v>
-      </c>
-      <c r="G61" s="2">
-        <f>H61*100</f>
-        <v>1548594.9186116238</v>
-      </c>
-      <c r="H61">
-        <f>H60+C61</f>
-        <v>15485.949186116239</v>
-      </c>
       <c r="BA61" s="5">
         <v>43903</v>
       </c>
@@ -4564,11 +4704,11 @@
     <row r="62" spans="1:57" ht="19.5">
       <c r="C62">
         <f>H61*D62</f>
-        <v>450.24760853054153</v>
+        <v>298.16951956425925</v>
       </c>
       <c r="D62">
         <f>D61</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E62" t="s">
         <v>16</v>
@@ -4578,11 +4718,11 @@
       </c>
       <c r="G62" s="2">
         <f>H62*100</f>
-        <v>1593619.679464678</v>
+        <v>1054825.1212380505</v>
       </c>
       <c r="H62">
         <f>H61+C62</f>
-        <v>15936.196794646779</v>
+        <v>10548.251212380505</v>
       </c>
       <c r="BA62" s="5">
         <v>43904</v>
@@ -4598,11 +4738,11 @@
     <row r="63" spans="1:57" ht="19.5">
       <c r="C63">
         <f>H62*D63</f>
-        <v>463.33837271626027</v>
+        <v>306.84311505955077</v>
       </c>
       <c r="D63">
         <f>D62</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E63" t="s">
         <v>17</v>
@@ -4612,11 +4752,11 @@
       </c>
       <c r="G63" s="2">
         <f>H63*100</f>
-        <v>1639953.5167363039</v>
+        <v>1085509.4327440057</v>
       </c>
       <c r="H63">
         <f>H62+C63</f>
-        <v>16399.535167363039</v>
+        <v>10855.094327440056</v>
       </c>
       <c r="BA63" s="5">
         <v>43905</v>
@@ -4632,11 +4772,11 @@
     <row r="64" spans="1:57" ht="19.5">
       <c r="C64">
         <f>H63*D64</f>
-        <v>476.8097454909406</v>
+        <v>315.76902091482106</v>
       </c>
       <c r="D64">
         <f>D63</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
@@ -4646,11 +4786,11 @@
       </c>
       <c r="G64" s="2">
         <f>H64*100</f>
-        <v>1687634.4912853979</v>
+        <v>1117086.3348354877</v>
       </c>
       <c r="H64">
         <f>H63+C64</f>
-        <v>16876.34491285398</v>
+        <v>11170.863348354877</v>
       </c>
       <c r="BA64" s="5">
         <v>43906</v>
@@ -4666,11 +4806,11 @@
     <row r="65" spans="1:57" ht="19.5">
       <c r="C65">
         <f>H64*D65</f>
-        <v>490.67279289289274</v>
+        <v>324.95457670657976</v>
       </c>
       <c r="D65">
         <f>D64</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E65" t="s">
         <v>12</v>
@@ -4680,11 +4820,11 @@
       </c>
       <c r="G65" s="2">
         <f>H65*100</f>
-        <v>1736701.7705746873</v>
+        <v>1149581.7925061455</v>
       </c>
       <c r="H65">
         <f>H64+C65</f>
-        <v>17367.017705746872</v>
+        <v>11495.817925061456</v>
       </c>
       <c r="BA65" s="5">
         <v>43907</v>
@@ -4700,11 +4840,11 @@
     <row r="66" spans="1:57" ht="19.5">
       <c r="C66">
         <f>H65*D66</f>
-        <v>504.93890270094334</v>
+        <v>334.40733551578171</v>
       </c>
       <c r="D66">
         <f>D65</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E66" t="s">
         <v>13</v>
@@ -4714,11 +4854,11 @@
       </c>
       <c r="G66" s="2">
         <f>H66*100</f>
-        <v>1787195.6608447814</v>
+        <v>1183022.5260577237</v>
       </c>
       <c r="H66">
         <f>H65+C66</f>
-        <v>17871.956608447814</v>
+        <v>11830.225260577237</v>
       </c>
       <c r="BA66" s="5">
         <v>43908</v>
@@ -4734,11 +4874,11 @@
     <row r="67" spans="1:57" ht="19.5">
       <c r="C67">
         <f>H66*D67</f>
-        <v>519.61979378890851</v>
+        <v>344.135070138559</v>
       </c>
       <c r="D67">
         <f>D66</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E67" t="s">
         <v>14</v>
@@ -4748,11 +4888,11 @@
       </c>
       <c r="G67" s="2">
         <f>H67*100</f>
-        <v>1839157.6402236721</v>
+        <v>1217436.0330715796</v>
       </c>
       <c r="H67">
         <f>H66+C67</f>
-        <v>18391.576402236722</v>
+        <v>12174.360330715795</v>
       </c>
       <c r="BA67" s="5">
         <v>43909</v>
@@ -4768,11 +4908,11 @@
     <row r="68" spans="1:57" ht="19.5">
       <c r="C68">
         <f>H67*D68</f>
-        <v>534.72752575204458</v>
+        <v>354.14577947762126</v>
       </c>
       <c r="D68">
         <f>D67</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E68" t="s">
         <v>15</v>
@@ -4782,11 +4922,11 @@
       </c>
       <c r="G68" s="2">
         <f>H68*100</f>
-        <v>1892630.3927988766</v>
+        <v>1252850.6110193417</v>
       </c>
       <c r="H68">
         <f>H67+C68</f>
-        <v>18926.303927988767</v>
+        <v>12528.506110193417</v>
       </c>
       <c r="BA68" s="5">
         <v>43910</v>
@@ -4802,11 +4942,11 @@
     <row r="69" spans="1:57" ht="19.5">
       <c r="C69">
         <f>H68*D69</f>
-        <v>550.27450881338393</v>
+        <v>364.44769511957747</v>
       </c>
       <c r="D69">
         <f>D68</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E69" t="s">
         <v>16</v>
@@ -4816,11 +4956,11 @@
       </c>
       <c r="G69" s="2">
         <f>H69*100</f>
-        <v>1947657.8436802153</v>
+        <v>1289295.3805312994</v>
       </c>
       <c r="H69">
         <f>H68+C69</f>
-        <v>19476.578436802152</v>
+        <v>12892.953805312995</v>
       </c>
       <c r="BA69" s="5">
         <v>43911</v>
@@ -4836,11 +4976,11 @@
     <row r="70" spans="1:57" ht="19.5">
       <c r="C70">
         <f>H69*D70</f>
-        <v>566.27351401809381</v>
+        <v>375.04928810358899</v>
       </c>
       <c r="D70">
         <f>D69</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E70" t="s">
         <v>17</v>
@@ -4850,11 +4990,11 @@
       </c>
       <c r="G70" s="2">
         <f>H70*100</f>
-        <v>2004285.1950820244</v>
+        <v>1326800.3093416584</v>
       </c>
       <c r="H70">
         <f>H69+C70</f>
-        <v>20042.851950820244</v>
+        <v>13268.003093416584</v>
       </c>
       <c r="BA70" s="5">
         <v>43912</v>
@@ -4870,11 +5010,11 @@
     <row r="71" spans="1:57" ht="19.5">
       <c r="C71">
         <f>H70*D71</f>
-        <v>582.73768372423081</v>
+        <v>385.9592758869195</v>
       </c>
       <c r="D71">
         <f>D70</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
@@ -4884,11 +5024,11 @@
       </c>
       <c r="G71" s="2">
         <f>H71*100</f>
-        <v>2062558.9634544475</v>
+        <v>1365396.2369303505</v>
       </c>
       <c r="H71">
         <f>H70+C71</f>
-        <v>20625.589634544474</v>
+        <v>13653.962369303505</v>
       </c>
       <c r="BA71" s="5">
         <v>43913</v>
@@ -4904,11 +5044,11 @@
     <row r="72" spans="1:57" ht="19.5">
       <c r="C72">
         <f>H71*D72</f>
-        <v>599.68054239851165</v>
+        <v>397.18662951310836</v>
       </c>
       <c r="D72">
         <f>D71</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E72" t="s">
         <v>12</v>
@@ -4918,11 +5058,11 @@
       </c>
       <c r="G72" s="2">
         <f>H72*100</f>
-        <v>2122527.0176942986</v>
+        <v>1405114.8998816612</v>
       </c>
       <c r="H72">
         <f>H71+C72</f>
-        <v>21225.270176942988</v>
+        <v>14051.148998816612</v>
       </c>
       <c r="BA72" s="5">
         <v>43914</v>
@@ -4938,11 +5078,11 @@
     <row r="73" spans="1:57" ht="19.5">
       <c r="C73">
         <f>H72*D73</f>
-        <v>617.11600772596455</v>
+        <v>408.74058098866311</v>
       </c>
       <c r="D73">
         <f>D72</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E73" t="s">
         <v>13</v>
@@ -4952,11 +5092,11 @@
       </c>
       <c r="G73" s="2">
         <f>H73*100</f>
-        <v>2184238.6184668951</v>
+        <v>1445988.9579805275</v>
       </c>
       <c r="H73">
         <f>H72+C73</f>
-        <v>21842.386184668951</v>
+        <v>14459.889579805274</v>
       </c>
       <c r="BA73" s="5">
         <v>43915</v>
@@ -4972,11 +5112,11 @@
     <row r="74" spans="1:57" ht="19.5">
       <c r="C74">
         <f>H73*D74</f>
-        <v>635.0584020425905</v>
+        <v>420.63063087433579</v>
       </c>
       <c r="D74">
         <f>D73</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E74" t="s">
         <v>14</v>
@@ -4987,7 +5127,7 @@
       <c r="G74" s="2"/>
       <c r="H74">
         <f>H73+C74</f>
-        <v>22477.444586711543</v>
+        <v>14880.52021067961</v>
       </c>
       <c r="BA74" s="5">
         <v>43916</v>
@@ -5003,11 +5143,11 @@
     <row r="75" spans="1:57" ht="19.5">
       <c r="C75">
         <f>H74*D75</f>
-        <v>653.52246410042392</v>
+        <v>432.86655609722561</v>
       </c>
       <c r="D75">
         <f>D74</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E75" t="s">
         <v>15</v>
@@ -5018,7 +5158,7 @@
       <c r="G75" s="2"/>
       <c r="H75">
         <f>H74+C75</f>
-        <v>23130.967050811967</v>
+        <v>15313.386766776835</v>
       </c>
       <c r="BA75" s="5">
         <v>43917</v>
@@ -5034,11 +5174,11 @@
     <row r="76" spans="1:57" ht="19.5">
       <c r="C76">
         <f>H75*D76</f>
-        <v>672.52336117465723</v>
+        <v>445.45841799013152</v>
       </c>
       <c r="D76">
         <f>D75</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E76" t="s">
         <v>16</v>
@@ -5049,7 +5189,7 @@
       <c r="G76" s="2"/>
       <c r="H76">
         <f>H75+C76</f>
-        <v>23803.490411986626</v>
+        <v>15758.845184766968</v>
       </c>
       <c r="BA76" s="5">
         <v>43918</v>
@@ -5065,11 +5205,11 @@
     <row r="77" spans="1:57" ht="19.5">
       <c r="C77">
         <f>H76*D77</f>
-        <v>692.0767015227766</v>
+        <v>458.41657056476527</v>
       </c>
       <c r="D77">
         <f>D76</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E77" t="s">
         <v>17</v>
@@ -5080,7 +5220,7 @@
       <c r="G77" s="2"/>
       <c r="H77">
         <f>H76+C77</f>
-        <v>24495.567113509402</v>
+        <v>16217.261755331732</v>
       </c>
       <c r="BA77" s="5">
         <v>43919</v>
@@ -5096,11 +5236,11 @@
     <row r="78" spans="1:57" ht="19.5">
       <c r="C78">
         <f>H77*D78</f>
-        <v>712.19854720593958</v>
+        <v>471.75166902562796</v>
       </c>
       <c r="D78">
         <f>D77</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
@@ -5111,7 +5251,7 @@
       <c r="G78" s="2"/>
       <c r="H78">
         <f>H77+C78</f>
-        <v>25207.76566071534</v>
+        <v>16689.013424357359</v>
       </c>
       <c r="BA78" s="5">
         <v>43920</v>
@@ -5127,11 +5267,11 @@
     <row r="79" spans="1:57" ht="19.5">
       <c r="C79">
         <f>H78*D79</f>
-        <v>732.90542728313176</v>
+        <v>485.47467853155138</v>
       </c>
       <c r="D79">
         <f>D78</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E79" t="s">
         <v>12</v>
@@ -5142,7 +5282,7 @@
       <c r="G79" s="2"/>
       <c r="H79">
         <f>H78+C79</f>
-        <v>25940.671087998471</v>
+        <v>17174.48810288891</v>
       </c>
       <c r="BA79" s="5">
         <v>43921</v>
@@ -5154,41 +5294,51 @@
         <f>(BB79/BB78)-1</f>
         <v>0.16294103468947574</v>
       </c>
-      <c r="BE79" t="inlineStr">
+    </row>
+    <row r="80" spans="1:57" ht="19.5">
+      <c r="C80">
+        <f>H79*D80</f>
+        <v>499.59688321210689</v>
+      </c>
+      <c r="D80">
+        <f>D79</f>
+        <v>0.029089477381749152</v>
+      </c>
+      <c r="E80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="5">
+        <v>43970</v>
+      </c>
+      <c r="G80" s="2"/>
+      <c r="H80">
+        <f>H79+C80</f>
+        <v>17674.084986101017</v>
+      </c>
+      <c r="BA80" s="5">
+        <v>43922</v>
+      </c>
+      <c r="BB80">
+        <v>213372</v>
+      </c>
+      <c r="BC80">
+        <f>(BB80/BB79)-1</f>
+        <v>0.13392003061029278</v>
+      </c>
+      <c r="BE80" t="inlineStr">
         <is>
           <t>preliminary or provisional</t>
         </is>
       </c>
     </row>
-    <row r="80" spans="1:57" ht="19.5">
-      <c r="C80">
-        <f>H79*D80</f>
-        <v>754.21435138893548</v>
-      </c>
-      <c r="D80">
-        <f>D79</f>
-        <v>0.029074589043221591</v>
-      </c>
-      <c r="E80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="5">
-        <v>43970</v>
-      </c>
-      <c r="G80" s="2"/>
-      <c r="H80">
-        <f>H79+C80</f>
-        <v>26694.885439387406</v>
-      </c>
-    </row>
     <row r="81" spans="1:57" ht="19.5">
       <c r="C81">
         <f>H80*D81</f>
-        <v>776.14282370606861</v>
+        <v>514.12989544629784</v>
       </c>
       <c r="D81">
         <f>D80</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E81" t="s">
         <v>14</v>
@@ -5199,22 +5349,17 @@
       <c r="G81" s="2"/>
       <c r="H81">
         <f>H80+C81</f>
-        <v>27471.028263093474</v>
-      </c>
-      <c r="BE81" t="inlineStr">
-        <is>
-          <t>The 188,172 number is</t>
-        </is>
+        <v>18188.214881547316</v>
       </c>
     </row>
     <row r="82" spans="1:57" ht="19.5">
       <c r="C82">
         <f>H81*D82</f>
-        <v>798.70885734416822</v>
+        <v>529.08566541116397</v>
       </c>
       <c r="D82">
         <f>D81</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E82" t="s">
         <v>15</v>
@@ -5225,23 +5370,23 @@
       <c r="G82" s="2"/>
       <c r="H82">
         <f>H81+C82</f>
-        <v>28269.737120437643</v>
+        <v>18717.300546958479</v>
       </c>
       <c r="AW82" s="2"/>
       <c r="BE82" t="inlineStr">
         <is>
-          <t>unique in this series, in that</t>
+          <t>The 213372 number is</t>
         </is>
       </c>
     </row>
     <row r="83" spans="1:57" ht="19.5">
       <c r="C83">
         <f>H82*D83</f>
-        <v>821.93098913663096</v>
+        <v>544.47649090814969</v>
       </c>
       <c r="D83">
         <f>D82</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E83" t="s">
         <v>16</v>
@@ -5252,24 +5397,24 @@
       <c r="G83" s="2"/>
       <c r="H83">
         <f>H82+C83</f>
-        <v>29091.668109574275</v>
+        <v>19261.777037866628</v>
       </c>
       <c r="AW83" s="2"/>
       <c r="BB83" s="1"/>
       <c r="BE83" t="inlineStr">
         <is>
-          <t>it is the very last number</t>
+          <t>unique in this series, in that</t>
         </is>
       </c>
     </row>
     <row r="84" spans="1:57" ht="19.5">
       <c r="C84">
         <f>H83*D84</f>
-        <v>845.82829486766718</v>
+        <v>560.31502747531647</v>
       </c>
       <c r="D84">
         <f>D83</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E84" t="s">
         <v>17</v>
@@ -5280,24 +5425,24 @@
       <c r="G84" s="2"/>
       <c r="H84">
         <f>H83+C84</f>
-        <v>29937.496404441943</v>
+        <v>19822.092065341945</v>
       </c>
       <c r="AW84" s="2"/>
       <c r="BB84" s="1"/>
       <c r="BE84" t="inlineStr">
         <is>
-          <t>reported.</t>
+          <t>it is the very last number</t>
         </is>
       </c>
     </row>
     <row r="85" spans="1:57" ht="19.5">
       <c r="C85">
         <f>H84*D85</f>
-        <v>870.42040494207345</v>
+        <v>576.61429879371383</v>
       </c>
       <c r="D85">
         <f>D84</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
@@ -5308,19 +5453,24 @@
       <c r="G85" s="2"/>
       <c r="H85">
         <f>H84+C85</f>
-        <v>30807.916809384016</v>
+        <v>20398.706364135658</v>
       </c>
       <c r="AW85" s="2"/>
       <c r="BB85" s="1"/>
+      <c r="BE85" t="inlineStr">
+        <is>
+          <t>reported.</t>
+        </is>
+      </c>
     </row>
     <row r="86" spans="1:57" ht="19.5">
       <c r="C86">
         <f>H85*D86</f>
-        <v>895.72752051059877</v>
+        <v>593.38770739646668</v>
       </c>
       <c r="D86">
         <f>D85</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E86" t="s">
         <v>12</v>
@@ -5331,24 +5481,19 @@
       <c r="G86" s="2"/>
       <c r="H86">
         <f>H85+C86</f>
-        <v>31703.644329894614</v>
+        <v>20992.094071532123</v>
       </c>
       <c r="AW86" s="2"/>
       <c r="BB86" s="1"/>
-      <c r="BE86" t="inlineStr">
-        <is>
-          <t>It is (therefore) not locked in</t>
-        </is>
-      </c>
     </row>
     <row r="87" spans="1:57" ht="19.5">
       <c r="C87">
         <f>H86*D87</f>
-        <v>921.77043006414829</v>
+        <v>610.64904568938414</v>
       </c>
       <c r="D87">
         <f>D86</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E87" t="s">
         <v>13</v>
@@ -5359,24 +5504,24 @@
       <c r="G87" s="2"/>
       <c r="H87">
         <f>H86+C87</f>
-        <v>32625.414759958763</v>
+        <v>21602.743117221507</v>
       </c>
       <c r="AW87" s="2"/>
       <c r="BB87" s="1"/>
       <c r="BE87" t="inlineStr">
         <is>
-          <t>value, by the next number in</t>
+          <t>It is (therefore) not locked in</t>
         </is>
       </c>
     </row>
     <row r="88" spans="1:57" ht="19.5">
       <c r="C88">
         <f>H87*D88</f>
-        <v>948.57052651045706</v>
+        <v>628.41250729215221</v>
       </c>
       <c r="D88">
         <f>D87</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
@@ -5387,24 +5532,24 @@
       <c r="G88" s="2"/>
       <c r="H88">
         <f>H87+C88</f>
-        <v>33573.985286469222</v>
+        <v>22231.15562451366</v>
       </c>
       <c r="AW88" s="2"/>
       <c r="BB88" s="1"/>
       <c r="BE88" t="inlineStr">
         <is>
-          <t>sequence (as it would be</t>
+          <t>value, by the next number in</t>
         </is>
       </c>
     </row>
     <row r="89" spans="1:57" ht="19.5">
       <c r="C89">
         <f>H88*D89</f>
-        <v>976.14982474726094</v>
+        <v>646.6926987094356</v>
       </c>
       <c r="D89">
         <f>D88</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E89" t="s">
         <v>15</v>
@@ -5415,24 +5560,24 @@
       <c r="G89" s="2"/>
       <c r="H89">
         <f>H88+C89</f>
-        <v>34550.135111216485</v>
+        <v>22877.848323223094</v>
       </c>
       <c r="AW89" s="2"/>
       <c r="BB89" s="1"/>
       <c r="BE89" t="inlineStr">
         <is>
-          <t>expected to be, once the next</t>
+          <t>sequence (as it would be</t>
         </is>
       </c>
     </row>
     <row r="90" spans="1:57" ht="19.5">
       <c r="C90">
         <f>H89*D90</f>
-        <v>1004.5309797464004</v>
+        <v>665.5046513414859</v>
       </c>
       <c r="D90">
         <f>D89</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E90" t="s">
         <v>16</v>
@@ -5443,23 +5588,23 @@
       <c r="G90" s="2"/>
       <c r="H90">
         <f>H89+C90</f>
-        <v>35554.666090962884</v>
+        <v>23543.352974564579</v>
       </c>
       <c r="BB90" s="1"/>
       <c r="BE90" t="inlineStr">
         <is>
-          <t>number in sequence has been</t>
+          <t>expected to be, once the next</t>
         </is>
       </c>
     </row>
     <row r="91" spans="1:57" ht="19.5">
       <c r="C91">
         <f>H90*D91</f>
-        <v>1033.7373051637117</v>
+        <v>684.86383384413296</v>
       </c>
       <c r="D91">
         <f>D90</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E91" t="s">
         <v>17</v>
@@ -5470,43 +5615,48 @@
       <c r="G91" s="2"/>
       <c r="H91">
         <f>H90+C91</f>
-        <v>36588.403396126596</v>
+        <v>24228.216808408713</v>
       </c>
       <c r="BE91" t="inlineStr">
+        <is>
+          <t>number in sequence has been</t>
+        </is>
+      </c>
+    </row>
+    <row r="92" spans="1:57" ht="19.5">
+      <c r="C92">
+        <f>H91*D92</f>
+        <v>704.78616484831991</v>
+      </c>
+      <c r="D92">
+        <f>D91</f>
+        <v>0.029089477381749152</v>
+      </c>
+      <c r="E92" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="5">
+        <v>43982</v>
+      </c>
+      <c r="G92" s="2"/>
+      <c r="H92">
+        <f>H91+C92</f>
+        <v>24933.002973257033</v>
+      </c>
+      <c r="BE92" t="inlineStr">
         <is>
           <t>given).</t>
         </is>
       </c>
     </row>
-    <row r="92" spans="1:57" ht="19.5">
-      <c r="C92">
-        <f>H91*D92</f>
-        <v>1063.7927924899939</v>
-      </c>
-      <c r="D92">
-        <f>D91</f>
-        <v>0.029074589043221591</v>
-      </c>
-      <c r="E92" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" s="5">
-        <v>43982</v>
-      </c>
-      <c r="G92" s="2"/>
-      <c r="H92">
-        <f>H91+C92</f>
-        <v>37652.196188616588</v>
-      </c>
-    </row>
     <row r="93" spans="1:57" ht="19.5">
       <c r="C93">
         <f>H92*D93</f>
-        <v>1094.7221307587815</v>
+        <v>725.28802604964483</v>
       </c>
       <c r="D93">
         <f>D92</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E93" t="s">
         <v>12</v>
@@ -5517,95 +5667,95 @@
       <c r="G93" s="2"/>
       <c r="H93">
         <f>H92+C93</f>
-        <v>38746.918319375371</v>
-      </c>
-      <c r="BE93" t="inlineStr">
+        <v>25658.290999306679</v>
+      </c>
+    </row>
+    <row r="94" spans="1:57" ht="19.5">
+      <c r="C94">
+        <f>H93*D94</f>
+        <v>746.38627567866945</v>
+      </c>
+      <c r="D94">
+        <f>D93</f>
+        <v>0.029089477381749152</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="5">
+        <v>43984</v>
+      </c>
+      <c r="G94" s="2"/>
+      <c r="H94">
+        <f>H93+C94</f>
+        <v>26404.677274985348</v>
+      </c>
+      <c r="BE94" t="inlineStr">
         <is>
           <t>In other words, it is not subject</t>
         </is>
       </c>
     </row>
-    <row r="94" spans="1:57" ht="19.5">
-      <c r="C94">
-        <f>H93*D94</f>
-        <v>1126.5507268271131</v>
-      </c>
-      <c r="D94">
-        <f>D93</f>
-        <v>0.029074589043221591</v>
-      </c>
-      <c r="E94" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" s="5">
-        <v>43984</v>
-      </c>
-      <c r="G94" s="2"/>
-      <c r="H94">
-        <f>H93+C94</f>
-        <v>39873.469046202481</v>
-      </c>
-      <c r="BE94" t="inlineStr">
+    <row r="95" spans="1:57" ht="19.5">
+      <c r="C95">
+        <f>H94*D95</f>
+        <v>768.09826236307208</v>
+      </c>
+      <c r="D95">
+        <f>D94</f>
+        <v>0.029089477381749152</v>
+      </c>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="5">
+        <v>43985</v>
+      </c>
+      <c r="G95" s="2"/>
+      <c r="H95">
+        <f>H94+C95</f>
+        <v>27172.775537348421</v>
+      </c>
+      <c r="BE95" t="inlineStr">
         <is>
           <t>to further revision, once the next</t>
         </is>
       </c>
     </row>
-    <row r="95" spans="1:57" ht="19.5">
-      <c r="C95">
-        <f>H94*D95</f>
-        <v>1159.3047262459538</v>
-      </c>
-      <c r="D95">
-        <f>D94</f>
-        <v>0.029074589043221591</v>
-      </c>
-      <c r="E95" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="5">
-        <v>43985</v>
-      </c>
-      <c r="G95" s="2"/>
-      <c r="H95">
-        <f>H94+C95</f>
-        <v>41032.773772448432</v>
-      </c>
-      <c r="BE95" t="inlineStr">
+    <row r="96" spans="1:57" ht="19.5">
+      <c r="C96">
+        <f>H95*D96</f>
+        <v>790.44183939304355</v>
+      </c>
+      <c r="D96">
+        <f>D95</f>
+        <v>0.029089477381749152</v>
+      </c>
+      <c r="E96" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96" s="5">
+        <v>43986</v>
+      </c>
+      <c r="G96" s="2"/>
+      <c r="H96">
+        <f>H95+C96</f>
+        <v>27963.217376741464</v>
+      </c>
+      <c r="BE96" t="inlineStr">
         <is>
           <t>day's figure has been posted.</t>
         </is>
       </c>
     </row>
-    <row r="96" spans="1:57" ht="19.5">
-      <c r="C96">
-        <f>H95*D96</f>
-        <v>1193.0110347374195</v>
-      </c>
-      <c r="D96">
-        <f>D95</f>
-        <v>0.029074589043221591</v>
-      </c>
-      <c r="E96" t="s">
-        <v>15</v>
-      </c>
-      <c r="F96" s="5">
-        <v>43986</v>
-      </c>
-      <c r="G96" s="2"/>
-      <c r="H96">
-        <f>H95+C96</f>
-        <v>42225.784807185853</v>
-      </c>
-    </row>
     <row r="97" spans="1:57" ht="19.5">
       <c r="C97">
         <f>H96*D97</f>
-        <v>1227.6973402964386</v>
+        <v>813.43537940165572</v>
       </c>
       <c r="D97">
         <f>D96</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E97" t="s">
         <v>16</v>
@@ -5616,121 +5766,121 @@
       <c r="G97" s="2"/>
       <c r="H97">
         <f>H96+C97</f>
-        <v>43453.482147482289</v>
-      </c>
-      <c r="BE97" t="inlineStr">
+        <v>28776.652756143121</v>
+      </c>
+    </row>
+    <row r="98" spans="1:57" ht="19.5">
+      <c r="C98">
+        <f>H97*D98</f>
+        <v>837.09778947227471</v>
+      </c>
+      <c r="D98">
+        <f>D97</f>
+        <v>0.029089477381749152</v>
+      </c>
+      <c r="E98" t="s">
+        <v>17</v>
+      </c>
+      <c r="F98" s="5">
+        <v>43988</v>
+      </c>
+      <c r="G98" s="2"/>
+      <c r="H98">
+        <f>H97+C98</f>
+        <v>29613.750545615396</v>
+      </c>
+      <c r="BE98" t="inlineStr">
         <is>
           <t>In other words, the very last number</t>
         </is>
       </c>
     </row>
-    <row r="98" spans="1:57" ht="19.5">
-      <c r="C98">
-        <f>H97*D98</f>
-        <v>1263.3921359350136</v>
-      </c>
-      <c r="D98">
-        <f>D97</f>
-        <v>0.029074589043221591</v>
-      </c>
-      <c r="E98" t="s">
-        <v>17</v>
-      </c>
-      <c r="F98" s="5">
-        <v>43988</v>
-      </c>
-      <c r="G98" s="2"/>
-      <c r="H98">
-        <f>H97+C98</f>
-        <v>44716.874283417303</v>
-      </c>
-      <c r="BE98" t="inlineStr">
+    <row r="99" spans="1:57" ht="19.5">
+      <c r="C99">
+        <f>H98*D99</f>
+        <v>861.4485266854407</v>
+      </c>
+      <c r="D99">
+        <f>D98</f>
+        <v>0.029089477381749152</v>
+      </c>
+      <c r="E99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="5">
+        <v>43989</v>
+      </c>
+      <c r="G99" s="2"/>
+      <c r="H99">
+        <f>H98+C99</f>
+        <v>30475.199072300835</v>
+      </c>
+      <c r="BE99" t="inlineStr">
         <is>
           <t>in this sequence is perpetually taken</t>
         </is>
       </c>
     </row>
-    <row r="99" spans="1:57" ht="19.5">
-      <c r="C99">
-        <f>H98*D99</f>
-        <v>1300.124743087762</v>
-      </c>
-      <c r="D99">
-        <f>D98</f>
-        <v>0.029074589043221591</v>
-      </c>
-      <c r="E99" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="5">
-        <v>43989</v>
-      </c>
-      <c r="G99" s="2"/>
-      <c r="H99">
-        <f>H98+C99</f>
-        <v>46016.999026505066</v>
-      </c>
-      <c r="BE99" t="inlineStr">
+    <row r="100" spans="1:57" ht="19.5">
+      <c r="C100">
+        <f>H99*D100</f>
+        <v>886.50761411799783</v>
+      </c>
+      <c r="D100">
+        <f>D99</f>
+        <v>0.029089477381749152</v>
+      </c>
+      <c r="E100" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="5">
+        <v>43990</v>
+      </c>
+      <c r="G100" s="2"/>
+      <c r="H100">
+        <f>H99+C100</f>
+        <v>31361.706686418831</v>
+      </c>
+      <c r="BE100" t="inlineStr">
         <is>
           <t>as other than final for that day's</t>
         </is>
       </c>
     </row>
-    <row r="100" spans="1:57" ht="19.5">
-      <c r="C100">
-        <f>H99*D100</f>
-        <v>1337.9253356979627</v>
-      </c>
-      <c r="D100">
-        <f>D99</f>
-        <v>0.029074589043221591</v>
-      </c>
-      <c r="E100" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="5">
-        <v>43990</v>
-      </c>
-      <c r="G100" s="2"/>
-      <c r="H100">
-        <f>H99+C100</f>
-        <v>47354.924362203026</v>
-      </c>
-      <c r="BE100" t="inlineStr">
+    <row r="101" spans="1:57" ht="19.5">
+      <c r="C101">
+        <f>H100*D101</f>
+        <v>912.2956573076317</v>
+      </c>
+      <c r="D101">
+        <f>D100</f>
+        <v>0.029089477381749152</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="5">
+        <v>43991</v>
+      </c>
+      <c r="G101" s="2"/>
+      <c r="H101">
+        <f>H100+C101</f>
+        <v>32274.002343726461</v>
+      </c>
+      <c r="BE101" t="inlineStr">
         <is>
           <t>reportage.</t>
         </is>
       </c>
     </row>
-    <row r="101" spans="1:57" ht="19.5">
-      <c r="C101">
-        <f>H100*D101</f>
-        <v>1376.8249650038954</v>
-      </c>
-      <c r="D101">
-        <f>D100</f>
-        <v>0.029074589043221591</v>
-      </c>
-      <c r="E101" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" s="5">
-        <v>43991</v>
-      </c>
-      <c r="G101" s="2"/>
-      <c r="H101">
-        <f>H100+C101</f>
-        <v>48731.749327206919</v>
-      </c>
-    </row>
     <row r="102" spans="1:57" ht="19.5">
       <c r="C102">
         <f>H101*D102</f>
-        <v>1416.8555850458315</v>
+        <v>938.83386119634997</v>
       </c>
       <c r="D102">
         <f>D101</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E102" t="s">
         <v>14</v>
@@ -5741,17 +5891,17 @@
       <c r="G102" s="2"/>
       <c r="H102">
         <f>H101+C102</f>
-        <v>50148.604912252747</v>
+        <v>33212.836204922809</v>
       </c>
     </row>
     <row r="103" spans="1:57" ht="19.5">
       <c r="C103">
         <f>H102*D103</f>
-        <v>1458.0500789146322</v>
+        <v>966.14404756684144</v>
       </c>
       <c r="D103">
         <f>D102</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E103" t="s">
         <v>15</v>
@@ -5762,17 +5912,17 @@
       <c r="G103" s="2"/>
       <c r="H103">
         <f>H102+C103</f>
-        <v>51606.654991167379</v>
+        <v>34178.980252489651</v>
       </c>
     </row>
     <row r="104" spans="1:57" ht="19.5">
       <c r="C104">
         <f>H103*D104</f>
-        <v>1500.442285763512</v>
+        <v>994.24867298604863</v>
       </c>
       <c r="D104">
         <f>D103</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E104" t="s">
         <v>16</v>
@@ -5783,17 +5933,17 @@
       <c r="G104" s="2"/>
       <c r="H104">
         <f>H103+C104</f>
-        <v>53107.097276930894</v>
+        <v>35173.228925475698</v>
       </c>
     </row>
     <row r="105" spans="1:57" ht="19.5">
       <c r="C105">
         <f>H104*D105</f>
-        <v>1544.0670286051582</v>
+        <v>1023.1708472707104</v>
       </c>
       <c r="D105">
         <f>D104</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E105" t="s">
         <v>17</v>
@@ -5804,17 +5954,17 @@
       <c r="G105" s="2"/>
       <c r="H105">
         <f>H104+C105</f>
-        <v>54651.164305536055</v>
+        <v>36196.399772746408</v>
       </c>
     </row>
     <row r="106" spans="1:57" ht="19.5">
       <c r="C106">
         <f>H105*D106</f>
-        <v>1588.9601429170414</v>
+        <v>1052.9343524900569</v>
       </c>
       <c r="D106">
         <f>D105</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
@@ -5825,17 +5975,17 @@
       <c r="G106" s="2"/>
       <c r="H106">
         <f>H105+C106</f>
-        <v>56240.124448453098</v>
+        <v>37249.334125236463</v>
       </c>
     </row>
     <row r="107" spans="1:57" ht="19.5">
       <c r="C107">
         <f>H106*D107</f>
-        <v>1635.1585060784132</v>
+        <v>1083.5636625212828</v>
       </c>
       <c r="D107">
         <f>D106</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E107" t="s">
         <v>12</v>
@@ -5846,17 +5996,17 @@
       <c r="G107" s="2"/>
       <c r="H107">
         <f>H106+C107</f>
-        <v>57875.282954531511</v>
+        <v>38332.897787757742</v>
       </c>
     </row>
     <row r="108" spans="1:57" ht="19.5">
       <c r="C108">
         <f>H107*D108</f>
-        <v>1682.7000676631712</v>
+        <v>1115.0839631738809</v>
       </c>
       <c r="D108">
         <f>D107</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E108" t="s">
         <v>13</v>
@@ -5867,17 +6017,17 @@
       <c r="G108" s="2"/>
       <c r="H108">
         <f>H107+C108</f>
-        <v>59557.983022194683</v>
+        <v>39447.98175093162</v>
       </c>
     </row>
     <row r="109" spans="1:57" ht="19.5">
       <c r="C109">
         <f>H108*D109</f>
-        <v>1731.6238806134791</v>
+        <v>1147.5211728993786</v>
       </c>
       <c r="D109">
         <f>D108</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E109" t="s">
         <v>14</v>
@@ -5888,17 +6038,17 @@
       <c r="G109" s="2"/>
       <c r="H109">
         <f>H108+C109</f>
-        <v>61289.606902808162</v>
+        <v>40595.502923831002</v>
       </c>
     </row>
     <row r="110" spans="1:57" ht="19.5">
       <c r="C110">
         <f>H109*D110</f>
-        <v>1781.9701333197445</v>
+        <v>1180.9019641035136</v>
       </c>
       <c r="D110">
         <f>D109</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E110" t="s">
         <v>15</v>
@@ -5909,17 +6059,17 @@
       <c r="G110" s="2"/>
       <c r="H110">
         <f>H109+C110</f>
-        <v>63071.577036127906</v>
+        <v>41776.404887934514</v>
       </c>
     </row>
     <row r="111" spans="1:57" ht="19.5">
       <c r="C111">
         <f>H110*D111</f>
-        <v>1833.7801826333109</v>
+        <v>1215.2537850783658</v>
       </c>
       <c r="D111">
         <f>D110</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E111" t="s">
         <v>16</v>
@@ -5930,17 +6080,17 @@
       <c r="G111" s="2"/>
       <c r="H111">
         <f>H110+C111</f>
-        <v>64905.357218761215</v>
+        <v>42991.658673012877</v>
       </c>
     </row>
     <row r="112" spans="1:57" ht="19.5">
       <c r="C112">
         <f>H111*D112</f>
-        <v>1887.0965878389782</v>
+        <v>1250.6048825724879</v>
       </c>
       <c r="D112">
         <f>D111</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E112" t="s">
         <v>17</v>
@@ -5951,17 +6101,17 @@
       <c r="G112" s="2"/>
       <c r="H112">
         <f>H111+C112</f>
-        <v>66792.453806600199</v>
+        <v>44242.263555585363</v>
       </c>
     </row>
     <row r="113" spans="1:57" ht="19.5">
       <c r="C113">
         <f>H112*D113</f>
-        <v>1941.9631456152624</v>
+        <v>1286.9843250175852</v>
       </c>
       <c r="D113">
         <f>D112</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
@@ -5972,17 +6122,17 @@
       <c r="G113" s="2"/>
       <c r="H113">
         <f>H112+C113</f>
-        <v>68734.416952215455</v>
+        <v>45529.247880602947</v>
       </c>
     </row>
     <row r="114" spans="1:57" ht="19.5">
       <c r="C114">
         <f>H113*D114</f>
-        <v>1998.4249260111078</v>
+        <v>1324.4220264308499</v>
       </c>
       <c r="D114">
         <f>D113</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E114" t="s">
         <v>12</v>
@@ -5993,17 +6143,17 @@
       <c r="G114" s="2"/>
       <c r="H114">
         <f>H113+C114</f>
-        <v>70732.841878226565</v>
+        <v>46853.6699070338</v>
       </c>
     </row>
     <row r="115" spans="1:57" ht="19.5">
       <c r="C115">
         <f>H114*D115</f>
-        <v>2056.5283094686115</v>
+        <v>1362.9487710126007</v>
       </c>
       <c r="D115">
         <f>D114</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E115" t="s">
         <v>13</v>
@@ -6014,17 +6164,17 @@
       <c r="G115" s="2"/>
       <c r="H115">
         <f>H114+C115</f>
-        <v>72789.370187695182</v>
+        <v>48216.618678046398</v>
       </c>
     </row>
     <row r="116" spans="1:57" ht="19.5">
       <c r="C116">
         <f>H115*D116</f>
-        <v>2116.3210249221625</v>
+        <v>1402.5962384594543</v>
       </c>
       <c r="D116">
         <f>D115</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
@@ -6035,17 +6185,17 @@
       <c r="G116" s="2"/>
       <c r="H116">
         <f>H115+C116</f>
-        <v>74905.691212617341</v>
+        <v>49619.214916505851</v>
       </c>
     </row>
     <row r="117" spans="1:57" ht="19.5">
       <c r="C117">
         <f>H116*D117</f>
-        <v>2177.8521890053039</v>
+        <v>1443.3970300138471</v>
       </c>
       <c r="D117">
         <f>D116</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E117" t="s">
         <v>15</v>
@@ -6056,17 +6206,17 @@
       <c r="G117" s="2"/>
       <c r="H117">
         <f>H116+C117</f>
-        <v>77083.54340162265</v>
+        <v>51062.611946519697</v>
       </c>
     </row>
     <row r="118" spans="1:57" ht="19.5">
       <c r="C118">
         <f>H117*D118</f>
-        <v>2241.172346397514</v>
+        <v>1485.3846952713188</v>
       </c>
       <c r="D118">
         <f>D117</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E118" t="s">
         <v>16</v>
@@ -6077,17 +6227,17 @@
       <c r="G118" s="2"/>
       <c r="H118">
         <f>H117+C118</f>
-        <v>79324.715748020157</v>
+        <v>52547.996641791018</v>
       </c>
     </row>
     <row r="119" spans="1:57" ht="19.5">
       <c r="C119">
         <f>H118*D119</f>
-        <v>2306.3335113440539</v>
+        <v>1528.5937597676102</v>
       </c>
       <c r="D119">
         <f>D118</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E119" t="s">
         <v>17</v>
@@ -6098,17 +6248,17 @@
       <c r="G119" s="2"/>
       <c r="H119">
         <f>H118+C119</f>
-        <v>81631.049259364212</v>
+        <v>54076.590401558627</v>
       </c>
     </row>
     <row r="120" spans="1:57" ht="19.5">
       <c r="C120">
         <f>H119*D120</f>
-        <v>2373.3892103829926</v>
+        <v>1573.059753368253</v>
       </c>
       <c r="D120">
         <f>D119</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
@@ -6119,17 +6269,17 @@
       <c r="G120" s="2"/>
       <c r="H120">
         <f>H119+C120</f>
-        <v>84004.438469747198</v>
+        <v>55649.65015492688</v>
       </c>
     </row>
     <row r="121" spans="1:57" ht="19.5">
       <c r="C121">
         <f>H120*D121</f>
-        <v>2442.3945263144942</v>
+        <v>1618.8192394839987</v>
       </c>
       <c r="D121">
         <f>D120</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E121" t="s">
         <v>12</v>
@@ -6140,17 +6290,17 @@
       <c r="G121" s="2"/>
       <c r="H121">
         <f>H120+C121</f>
-        <v>86446.832996061697</v>
+        <v>57268.46939441088</v>
       </c>
     </row>
     <row r="122" spans="1:57" ht="19.5">
       <c r="C122">
         <f>H121*D122</f>
-        <v>2513.406143448502</v>
+        <v>1665.909845136109</v>
       </c>
       <c r="D122">
         <f>D121</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E122" t="s">
         <v>13</v>
@@ -6161,17 +6311,17 @@
       <c r="G122" s="2"/>
       <c r="H122">
         <f>H121+C122</f>
-        <v>88960.239139510202</v>
+        <v>58934.379239546986</v>
       </c>
     </row>
     <row r="123" spans="1:57" ht="19.5">
       <c r="C123">
         <f>H122*D123</f>
-        <v>2586.4823941679761</v>
+        <v>1714.3702918962288</v>
       </c>
       <c r="D123">
         <f>D122</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E123" t="s">
         <v>14</v>
@@ -6182,17 +6332,17 @@
       <c r="G123" s="2"/>
       <c r="H123">
         <f>H122+C123</f>
-        <v>91546.721533678181</v>
+        <v>60648.749531443216</v>
       </c>
     </row>
     <row r="124" spans="1:57" ht="19.5">
       <c r="C124">
         <f>H123*D124</f>
-        <v>2661.6833068459378</v>
+        <v>1764.240427726287</v>
       </c>
       <c r="D124">
         <f>D123</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E124" t="s">
         <v>15</v>
@@ -6203,17 +6353,17 @@
       <c r="G124" s="2"/>
       <c r="H124">
         <f>H123+C124</f>
-        <v>94208.404840524119</v>
+        <v>62412.989959169507</v>
       </c>
     </row>
     <row r="125" spans="1:57" ht="19.5">
       <c r="C125">
         <f>H124*D125</f>
-        <v>2739.0706551556864</v>
+        <v>1815.5612597445984</v>
       </c>
       <c r="D125">
         <f>D124</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E125" t="s">
         <v>16</v>
@@ -6224,17 +6374,17 @@
       <c r="G125" s="2"/>
       <c r="H125">
         <f>H124+C125</f>
-        <v>96947.475495679799</v>
+        <v>64228.551218914108</v>
       </c>
     </row>
     <row r="126" spans="1:57" ht="19.5">
       <c r="C126">
         <f>H125*D126</f>
-        <v>2818.7080088146854</v>
+        <v>1868.3749879451188</v>
       </c>
       <c r="D126">
         <f>D125</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E126" t="s">
         <v>17</v>
@@ -6245,17 +6395,17 @@
       <c r="G126" s="2"/>
       <c r="H126">
         <f>H125+C126</f>
-        <v>99766.183504494489</v>
+        <v>66096.926206859222</v>
       </c>
     </row>
     <row r="127" spans="1:57" ht="19.5">
       <c r="C127">
         <f>H126*D127</f>
-        <v>2900.6607858038101</v>
+        <v>1922.7250398975741</v>
       </c>
       <c r="D127">
         <f>D126</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E127" t="s">
         <v>11</v>
@@ -6266,17 +6416,17 @@
       <c r="G127" s="2"/>
       <c r="H127">
         <f>H126+C127</f>
-        <v>102666.84429029829</v>
+        <v>68019.651246756795</v>
       </c>
     </row>
     <row r="128" spans="1:57" ht="19.5">
       <c r="C128">
         <f>H127*D128</f>
-        <v>2984.9963061048438</v>
+        <v>1978.6561064569973</v>
       </c>
       <c r="D128">
         <f>D127</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E128" t="s">
         <v>12</v>
@@ -6287,17 +6437,17 @@
       <c r="G128" s="2"/>
       <c r="H128">
         <f>H127+C128</f>
-        <v>105651.84059640314</v>
+        <v>69998.307353213793</v>
       </c>
     </row>
     <row r="129" spans="1:57" ht="19.5">
       <c r="C129">
         <f>H128*D129</f>
-        <v>3071.7838470003767</v>
+        <v>2036.214178512038</v>
       </c>
       <c r="D129">
         <f>D128</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E129" t="s">
         <v>13</v>
@@ -6308,17 +6458,17 @@
       <c r="G129" s="2"/>
       <c r="H129">
         <f>H128+C129</f>
-        <v>108723.62444340352</v>
+        <v>72034.521531725826</v>
       </c>
     </row>
     <row r="130" spans="1:57" ht="19.5">
       <c r="C130">
         <f>H129*D130</f>
-        <v>3161.0946999815192</v>
+        <v>2095.4465848022605</v>
       </c>
       <c r="D130">
         <f>D129</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E130" t="s">
         <v>14</v>
@@ -6329,17 +6479,17 @@
       <c r="G130" s="2"/>
       <c r="H130">
         <f>H129+C130</f>
-        <v>111884.71914338504</v>
+        <v>74129.968116528093</v>
       </c>
     </row>
     <row r="131" spans="1:57" ht="19.5">
       <c r="C131">
         <f>H130*D131</f>
-        <v>3253.0022293101874</v>
+        <v>2156.4020308355298</v>
       </c>
       <c r="D131">
         <f>D130</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E131" t="s">
         <v>15</v>
@@ -6350,17 +6500,17 @@
       <c r="G131" s="2"/>
       <c r="H131">
         <f>H130+C131</f>
-        <v>115137.72137269523</v>
+        <v>76286.370147363617</v>
       </c>
     </row>
     <row r="132" spans="1:57" ht="19.5">
       <c r="C132">
         <f>H131*D132</f>
-        <v>3347.5819322840653</v>
+        <v>2219.1306389374777</v>
       </c>
       <c r="D132">
         <f>D131</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E132" t="s">
         <v>16</v>
@@ -6370,17 +6520,17 @@
       </c>
       <c r="H132">
         <f>H131+C132</f>
-        <v>118485.3033049793</v>
+        <v>78505.500786301098</v>
       </c>
     </row>
     <row r="133" spans="1:57" ht="19.5">
       <c r="C133">
         <f>H132*D133</f>
-        <v>3444.9115012537382</v>
+        <v>2283.6839894659961</v>
       </c>
       <c r="D133">
         <f>D132</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E133" t="s">
         <v>17</v>
@@ -6390,17 +6540,17 @@
       </c>
       <c r="H133">
         <f>H132+C133</f>
-        <v>121930.21480623304</v>
+        <v>80789.184775767091</v>
       </c>
     </row>
     <row r="134" spans="1:57" ht="19.5">
       <c r="C134">
         <f>H133*D134</f>
-        <v>3545.0708874429579</v>
+        <v>2350.1151632246297</v>
       </c>
       <c r="D134">
         <f>D133</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E134" t="s">
         <v>11</v>
@@ -6410,17 +6560,17 @@
       </c>
       <c r="H134">
         <f>H133+C134</f>
-        <v>125475.28569367599</v>
+        <v>83139.299938991724</v>
       </c>
     </row>
     <row r="135" spans="1:57" ht="19.5">
       <c r="C135">
         <f>H134*D135</f>
-        <v>3648.1423666244509</v>
+        <v>2418.4787851097585</v>
       </c>
       <c r="D135">
         <f>D134</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E135" t="s">
         <v>12</v>
@@ -6430,17 +6580,17 @@
       </c>
       <c r="H135">
         <f>H134+C135</f>
-        <v>129123.42806030044</v>
+        <v>85557.778724101488</v>
       </c>
     </row>
     <row r="136" spans="1:57" ht="19.5">
       <c r="C136">
         <f>H135*D136</f>
-        <v>3754.2106067052227</v>
+        <v>2488.8310690274493</v>
       </c>
       <c r="D136">
         <f>D135</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E136" t="s">
         <v>13</v>
@@ -6450,17 +6600,17 @@
       </c>
       <c r="H136">
         <f>H135+C136</f>
-        <v>132877.63866700567</v>
+        <v>88046.609793128941</v>
       </c>
     </row>
     <row r="137" spans="1:57" ht="19.5">
       <c r="C137">
         <f>H136*D137</f>
-        <v>3863.3627372768806</v>
+        <v>2561.2298641169177</v>
       </c>
       <c r="D137">
         <f>D136</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E137" t="s">
         <v>14</v>
@@ -6470,17 +6620,17 @@
       </c>
       <c r="H137">
         <f>H136+C137</f>
-        <v>136741.00140428255</v>
+        <v>90607.839657245859</v>
       </c>
     </row>
     <row r="138" spans="1:57" ht="19.5">
       <c r="C138">
         <f>H137*D138</f>
-        <v>3975.6884211881015</v>
+        <v>2635.7347023186071</v>
       </c>
       <c r="D138">
         <f>D137</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E138" t="s">
         <v>15</v>
@@ -6490,17 +6640,17 @@
       </c>
       <c r="H138">
         <f>H137+C138</f>
-        <v>140716.68982547065</v>
+        <v>93243.57435956446</v>
       </c>
     </row>
     <row r="139" spans="1:57" ht="19.5">
       <c r="C139">
         <f>H138*D139</f>
-        <v>4091.2799281980401</v>
+        <v>2712.4068473259954</v>
       </c>
       <c r="D139">
         <f>D138</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E139" t="s">
         <v>16</v>
@@ -6510,17 +6660,17 @@
       </c>
       <c r="H139">
         <f>H138+C139</f>
-        <v>144807.96975366867</v>
+        <v>95955.981206890458</v>
       </c>
     </row>
     <row r="140" spans="1:57" ht="19.5">
       <c r="C140">
         <f>H139*D140</f>
-        <v>4210.2322107711789</v>
+        <v>2791.3093449613866</v>
       </c>
       <c r="D140">
         <f>D139</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E140" t="s">
         <v>17</v>
@@ -6530,17 +6680,17 @@
       </c>
       <c r="H140">
         <f>H139+C140</f>
-        <v>149018.20196443985</v>
+        <v>98747.290551851838</v>
       </c>
     </row>
     <row r="141" spans="1:57" ht="19.5">
       <c r="C141">
         <f>H140*D141</f>
-        <v>4332.6429820758849</v>
+        <v>2872.5070750171058</v>
       </c>
       <c r="D141">
         <f>D140</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E141" t="s">
         <v>11</v>
@@ -6550,17 +6700,17 @@
       </c>
       <c r="H141">
         <f>H140+C141</f>
-        <v>153350.84494651575</v>
+        <v>101619.79762686894</v>
       </c>
     </row>
     <row r="142" spans="1:57" ht="19.5">
       <c r="C142">
         <f>H141*D142</f>
-        <v>4458.6127962507398</v>
+        <v>2956.0668046047304</v>
       </c>
       <c r="D142">
         <f>D141</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E142" t="s">
         <v>12</v>
@@ -6570,17 +6720,17 @@
       </c>
       <c r="H142">
         <f>H141+C142</f>
-        <v>157809.45774276648</v>
+        <v>104575.86443147367</v>
       </c>
     </row>
     <row r="143" spans="1:57" ht="19.5">
       <c r="C143">
         <f>H142*D143</f>
-        <v>4588.245131004579</v>
+        <v>3042.0572430562192</v>
       </c>
       <c r="D143">
         <f>D142</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E143" t="s">
         <v>13</v>
@@ -6590,17 +6740,17 @@
       </c>
       <c r="H143">
         <f>H142+C143</f>
-        <v>162397.70287377105</v>
+        <v>107617.92167452989</v>
       </c>
     </row>
     <row r="144" spans="1:57" ht="19.5">
       <c r="C144">
         <f>H143*D144</f>
-        <v>4721.6464726180993</v>
+        <v>3130.5490984220892</v>
       </c>
       <c r="D144">
         <f>D143</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E144" t="s">
         <v>14</v>
@@ -6610,17 +6760,17 @@
       </c>
       <c r="H144">
         <f>H143+C144</f>
-        <v>167119.34934638915</v>
+        <v>110748.47077295199</v>
       </c>
     </row>
     <row r="145" spans="1:57" ht="19.5">
       <c r="C145">
         <f>H144*D145</f>
-        <v>4858.9264034168473</v>
+        <v>3221.615135613094</v>
       </c>
       <c r="D145">
         <f>D144</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E145" t="s">
         <v>15</v>
@@ -6630,17 +6780,17 @@
       </c>
       <c r="H145">
         <f>H144+C145</f>
-        <v>171978.27574980599</v>
+        <v>113970.08590856509</v>
       </c>
     </row>
     <row r="146" spans="1:57" ht="19.5">
       <c r="C146">
         <f>H145*D146</f>
-        <v>5000.1976917874508</v>
+        <v>3315.330236233212</v>
       </c>
       <c r="D146">
         <f>D145</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E146" t="s">
         <v>16</v>
@@ -6650,17 +6800,17 @@
       </c>
       <c r="H146">
         <f>H145+C146</f>
-        <v>176978.47344159344</v>
+        <v>117285.41614479831</v>
       </c>
     </row>
     <row r="147" spans="1:57" ht="19.5">
       <c r="C147">
         <f>H146*D147</f>
-        <v>5145.5763848110355</v>
+        <v>3411.771460153147</v>
       </c>
       <c r="D147">
         <f>D146</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E147" t="s">
         <v>17</v>
@@ -6670,17 +6820,17 @@
       </c>
       <c r="H147">
         <f>H146+C147</f>
-        <v>182124.04982640446</v>
+        <v>120697.18760495145</v>
       </c>
     </row>
     <row r="148" spans="1:57" ht="19.5">
       <c r="C148">
         <f>H147*D148</f>
-        <v>5295.1819035899225</v>
+        <v>3511.0181088749696</v>
       </c>
       <c r="D148">
         <f>D147</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E148" t="s">
         <v>11</v>
@@ -6690,17 +6840,17 @@
       </c>
       <c r="H148">
         <f>H147+C148</f>
-        <v>187419.23172999438</v>
+        <v>124208.20571382642</v>
       </c>
     </row>
     <row r="149" spans="1:57" ht="19.5">
       <c r="C149">
         <f>H148*D149</f>
-        <v>5449.1371413459028</v>
+        <v>3613.1517907399993</v>
       </c>
       <c r="D149">
         <f>D148</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E149" t="s">
         <v>12</v>
@@ -6710,17 +6860,17 @@
       </c>
       <c r="H149">
         <f>H148+C149</f>
-        <v>192868.3688713403</v>
+        <v>127821.35750456642</v>
       </c>
     </row>
     <row r="150" spans="1:57" ht="19.5">
       <c r="C150">
         <f>H149*D150</f>
-        <v>5607.5685643706911</v>
+        <v>3718.2564880335572</v>
       </c>
       <c r="D150">
         <f>D149</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E150" t="s">
         <v>13</v>
@@ -6730,17 +6880,17 @@
       </c>
       <c r="H150">
         <f>H149+C150</f>
-        <v>198475.93743571098</v>
+        <v>131539.61399259997</v>
       </c>
     </row>
     <row r="151" spans="1:57" ht="19.5">
       <c r="C151">
         <f>H150*D151</f>
-        <v>5770.6063159114565</v>
+        <v>3826.4186260417514</v>
       </c>
       <c r="D151">
         <f>D150</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E151" t="s">
         <v>14</v>
@@ -6750,17 +6900,17 @@
       </c>
       <c r="H151">
         <f>H150+C151</f>
-        <v>204246.54375162243</v>
+        <v>135366.03261864174</v>
       </c>
     </row>
     <row r="152" spans="1:57" ht="19.5">
       <c r="C152">
         <f>H151*D152</f>
-        <v>5938.3843230768007</v>
+        <v>3937.7271441170969</v>
       </c>
       <c r="D152">
         <f>D151</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E152" t="s">
         <v>15</v>
@@ -6770,17 +6920,17 @@
       </c>
       <c r="H152">
         <f>H151+C152</f>
-        <v>210184.92807469924</v>
+        <v>139303.75976275883</v>
       </c>
     </row>
     <row r="153" spans="1:57" ht="19.5">
       <c r="C153">
         <f>H152*D153</f>
-        <v>6111.0404068509688</v>
+        <v>4052.2735688113903</v>
       </c>
       <c r="D153">
         <f>D152</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E153" t="s">
         <v>16</v>
@@ -6790,17 +6940,17 @@
       </c>
       <c r="H153">
         <f>H152+C153</f>
-        <v>216295.96848155023</v>
+        <v>143356.03333157022</v>
       </c>
     </row>
     <row r="154" spans="1:57" ht="19.5">
       <c r="C154">
         <f>H153*D154</f>
-        <v>6288.7163953066829</v>
+        <v>4170.1520891359896</v>
       </c>
       <c r="D154">
         <f>D153</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E154" t="s">
         <v>17</v>
@@ -6810,17 +6960,17 @@
       </c>
       <c r="H154">
         <f>H153+C154</f>
-        <v>222584.68487685692</v>
+        <v>147526.1854207062</v>
       </c>
     </row>
     <row r="155" spans="1:57" ht="19.5">
       <c r="C155">
         <f>H154*D155</f>
-        <v>6471.5582401095944</v>
+        <v>4291.4596340113649</v>
       </c>
       <c r="D155">
         <f>D154</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E155" t="s">
         <v>11</v>
@@ -6830,17 +6980,17 @@
       </c>
       <c r="H155">
         <f>H154+C155</f>
-        <v>229056.24311696651</v>
+        <v>151817.64505471758</v>
       </c>
     </row>
     <row r="156" spans="1:57" ht="19.5">
       <c r="C156">
         <f>H155*D156</f>
-        <v>6659.7161364100557</v>
+        <v>4416.2959519696278</v>
       </c>
       <c r="D156">
         <f>D155</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E156" t="s">
         <v>12</v>
@@ -6850,17 +7000,17 @@
       </c>
       <c r="H156">
         <f>H155+C156</f>
-        <v>235715.95925337655</v>
+        <v>156233.94100668721</v>
       </c>
     </row>
     <row r="157" spans="1:57" ht="19.5">
       <c r="C157">
         <f>H156*D157</f>
-        <v>6853.3446462206894</v>
+        <v>4544.7636931755587</v>
       </c>
       <c r="D157">
         <f>D156</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E157" t="s">
         <v>13</v>
@@ -6870,17 +7020,17 @@
       </c>
       <c r="H157">
         <f>H156+C157</f>
-        <v>242569.30389959723</v>
+        <v>160778.70469986278</v>
       </c>
     </row>
     <row r="158" spans="1:57" ht="19.5">
       <c r="C158">
         <f>H157*D158</f>
-        <v>7052.6028253811182</v>
+        <v>4676.968493833584</v>
       </c>
       <c r="D158">
         <f>D157</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E158" t="s">
         <v>14</v>
@@ -6890,17 +7040,17 @@
       </c>
       <c r="H158">
         <f>H157+C158</f>
-        <v>249621.90672497835</v>
+        <v>165455.67319369636</v>
       </c>
     </row>
     <row r="159" spans="1:57" ht="19.5">
       <c r="C159">
         <f>H158*D159</f>
-        <v>7257.654354214138</v>
+        <v>4813.0190630501102</v>
       </c>
       <c r="D159">
         <f>D158</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E159" t="s">
         <v>15</v>
@@ -6910,17 +7060,17 @@
       </c>
       <c r="H159">
         <f>H158+C159</f>
-        <v>256879.5610791925</v>
+        <v>170268.69225674646</v>
       </c>
     </row>
     <row r="160" spans="1:57" ht="19.5">
       <c r="C160">
         <f>H159*D160</f>
-        <v>7468.6676719806619</v>
+        <v>4953.0272722226337</v>
       </c>
       <c r="D160">
         <f>D159</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E160" t="s">
         <v>16</v>
@@ -6930,17 +7080,17 @@
       </c>
       <c r="H160">
         <f>H159+C160</f>
-        <v>264348.22875117318</v>
+        <v>175221.71952896909</v>
       </c>
     </row>
     <row r="161" spans="1:57" ht="19.5">
       <c r="C161">
         <f>H160*D161</f>
-        <v>7685.8161152438943</v>
+        <v>5097.1082470291403</v>
       </c>
       <c r="D161">
         <f>D160</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E161" t="s">
         <v>17</v>
@@ -6950,17 +7100,17 @@
       </c>
       <c r="H161">
         <f>H160+C161</f>
-        <v>272034.04486641707</v>
+        <v>180318.82777599822</v>
       </c>
     </row>
     <row r="162" spans="1:57" ht="19.5">
       <c r="C162">
         <f>H161*D162</f>
-        <v>7909.2780602563807</v>
+        <v>5245.3804620934206</v>
       </c>
       <c r="D162">
         <f>D161</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E162" t="s">
         <v>11</v>
@@ -6970,17 +7120,17 @@
       </c>
       <c r="H162">
         <f>H161+C162</f>
-        <v>279943.32292667346</v>
+        <v>185564.20823809164</v>
       </c>
     </row>
     <row r="163" spans="1:57" ht="19.5">
       <c r="C163">
         <f>H162*D163</f>
-        <v>8139.2370694869032</v>
+        <v>5397.9658384041568</v>
       </c>
       <c r="D163">
         <f>D162</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E163" t="s">
         <v>12</v>
@@ -6990,17 +7140,17 @@
       </c>
       <c r="H163">
         <f>H162+C163</f>
-        <v>288082.55999616039</v>
+        <v>190962.17407649581</v>
       </c>
     </row>
     <row r="164" spans="1:57" ht="19.5">
       <c r="C164">
         <f>H163*D164</f>
-        <v>8375.8820424075911</v>
+        <v>5554.9898435678688</v>
       </c>
       <c r="D164">
         <f>D163</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E164" t="s">
         <v>13</v>
@@ -7010,17 +7160,17 @@
       </c>
       <c r="H164">
         <f>H163+C164</f>
-        <v>296458.44203856797</v>
+        <v>196517.16392006367</v>
       </c>
     </row>
     <row r="165" spans="1:57" ht="19.5">
       <c r="C165">
         <f>H164*D165</f>
-        <v>8619.4073706650906</v>
+        <v>5716.5815949781827</v>
       </c>
       <c r="D165">
         <f>D164</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E165" t="s">
         <v>14</v>
@@ -7030,17 +7180,17 @@
       </c>
       <c r="H165">
         <f>H164+C165</f>
-        <v>305077.84940923308</v>
+        <v>202233.74551504187</v>
       </c>
     </row>
     <row r="166" spans="1:57" ht="19.5">
       <c r="C166">
         <f>H165*D166</f>
-        <v>8870.0130977632944</v>
+        <v>5882.8739659862249</v>
       </c>
       <c r="D166">
         <f>D165</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E166" t="s">
         <v>15</v>
@@ -7050,17 +7200,17 @@
       </c>
       <c r="H166">
         <f>H165+C166</f>
-        <v>313947.86250699637</v>
+        <v>208116.61948102809</v>
       </c>
     </row>
     <row r="167" spans="1:57" ht="19.5">
       <c r="C167">
         <f>H166*D167</f>
-        <v>9127.9050833887559</v>
+        <v>6054.0036951594611</v>
       </c>
       <c r="D167">
         <f>D166</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E167" t="s">
         <v>16</v>
@@ -7070,17 +7220,17 @@
       </c>
       <c r="H167">
         <f>H166+C167</f>
-        <v>323075.7675903851</v>
+        <v>214170.62317618754</v>
       </c>
     </row>
     <row r="168" spans="1:57" ht="19.5">
       <c r="C168">
         <f>H167*D168</f>
-        <v>9393.2951725138155</v>
+        <v>6230.1114987188284</v>
       </c>
       <c r="D168">
         <f>D167</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E168" t="s">
         <v>17</v>
@@ -7090,17 +7240,17 @@
       </c>
       <c r="H168">
         <f>H167+C168</f>
-        <v>332469.06276289892</v>
+        <v>220400.73467490636</v>
       </c>
     </row>
     <row r="169" spans="1:57" ht="19.5">
       <c r="C169">
         <f>H168*D169</f>
-        <v>9666.4013694163314</v>
+        <v>6411.3421862465848</v>
       </c>
       <c r="D169">
         <f>D168</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E169" t="s">
         <v>11</v>
@@ -7110,17 +7260,17 @@
       </c>
       <c r="H169">
         <f>H168+C169</f>
-        <v>342135.46413231525</v>
+        <v>226812.07686115295</v>
       </c>
     </row>
     <row r="170" spans="1:57" ht="19.5">
       <c r="C170">
         <f>H169*D170</f>
-        <v>9947.4480167589463</v>
+        <v>6597.8447797600593</v>
       </c>
       <c r="D170">
         <f>D169</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E170" t="s">
         <v>12</v>
@@ -7130,17 +7280,17 @@
       </c>
       <c r="H170">
         <f>H169+C170</f>
-        <v>352082.9121490742</v>
+        <v>233409.921640913</v>
       </c>
     </row>
     <row r="171" spans="1:57" ht="19.5">
       <c r="C171">
         <f>H170*D171</f>
-        <v>10236.665979875022</v>
+        <v>6789.7726362491803</v>
       </c>
       <c r="D171">
         <f>D170</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E171" t="s">
         <v>13</v>
@@ -7150,17 +7300,17 @@
       </c>
       <c r="H171">
         <f>H170+C171</f>
-        <v>362319.57812894922</v>
+        <v>240199.69427716217</v>
       </c>
     </row>
     <row r="172" spans="1:57" ht="19.5">
       <c r="C172">
         <f>H171*D172</f>
-        <v>10534.292836412616</v>
+        <v>6987.2835737785699</v>
       </c>
       <c r="D172">
         <f>D171</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E172" t="s">
         <v>14</v>
@@ -7170,17 +7320,17 @@
       </c>
       <c r="H172">
         <f>H171+C172</f>
-        <v>372853.87096536183</v>
+        <v>247186.97785094075</v>
       </c>
     </row>
     <row r="173" spans="1:57" ht="19.5">
       <c r="C173">
         <f>H172*D173</f>
-        <v>10840.573071492267</v>
+        <v>7190.5400012578693</v>
       </c>
       <c r="D173">
         <f>D172</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E173" t="s">
         <v>15</v>
@@ -7190,17 +7340,17 @@
       </c>
       <c r="H173">
         <f>H172+C173</f>
-        <v>383694.44403685408</v>
+        <v>254377.51785219862</v>
       </c>
     </row>
     <row r="174" spans="1:57" ht="19.5">
       <c r="C174">
         <f>H173*D174</f>
-        <v>11155.758278538917</v>
+        <v>7399.7090519870226</v>
       </c>
       <c r="D174">
         <f>D173</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E174" t="s">
         <v>16</v>
@@ -7210,17 +7360,17 @@
       </c>
       <c r="H174">
         <f>H173+C174</f>
-        <v>394850.20231539302</v>
+        <v>261777.22690418563</v>
       </c>
     </row>
     <row r="175" spans="1:57" ht="19.5">
       <c r="C175">
         <f>H174*D175</f>
-        <v>11480.107365952954</v>
+        <v>7614.9627210863237</v>
       </c>
       <c r="D175">
         <f>D174</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E175" t="s">
         <v>17</v>
@@ -7230,17 +7380,17 @@
       </c>
       <c r="H175">
         <f>H174+C175</f>
-        <v>406330.309681346</v>
+        <v>269392.18962527195</v>
       </c>
     </row>
     <row r="176" spans="1:57" ht="19.5">
       <c r="C176">
         <f>H175*D176</f>
-        <v>11813.886769790099</v>
+        <v>7836.478006924227</v>
       </c>
       <c r="D176">
         <f>D175</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E176" t="s">
         <v>11</v>
@@ -7250,17 +7400,17 @@
       </c>
       <c r="H176">
         <f>H175+C176</f>
-        <v>418144.19645113609</v>
+        <v>277228.66763219616</v>
       </c>
     </row>
     <row r="177" spans="1:57" ht="19.5">
       <c r="C177">
         <f>H176*D177</f>
-        <v>12157.370672624898</v>
+        <v>8064.4370566592233</v>
       </c>
       <c r="D177">
         <f>D176</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E177" t="s">
         <v>12</v>
@@ -7270,17 +7420,17 @@
       </c>
       <c r="H177">
         <f>H176+C177</f>
-        <v>430301.56712376099</v>
+        <v>285293.10468885535</v>
       </c>
     </row>
     <row r="178" spans="1:57" ht="19.5">
       <c r="C178">
         <f>H177*D178</f>
-        <v>12510.841228777581</v>
+        <v>8299.0273160154502</v>
       </c>
       <c r="D178">
         <f>D177</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E178" t="s">
         <v>13</v>
@@ -7290,17 +7440,17 @@
       </c>
       <c r="H178">
         <f>H177+C178</f>
-        <v>442812.40835253859</v>
+        <v>293592.1320048708</v>
       </c>
     </row>
     <row r="179" spans="1:57" ht="19.5">
       <c r="C179">
         <f>H178*D179</f>
-        <v>12874.588796089283</v>
+        <v>8540.4416834151998</v>
       </c>
       <c r="D179">
         <f>D178</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E179" t="s">
         <v>14</v>
@@ -7310,17 +7460,17 @@
       </c>
       <c r="H179">
         <f>H178+C179</f>
-        <v>455686.99714862788</v>
+        <v>302132.57368828601</v>
       </c>
     </row>
     <row r="180" spans="1:57" ht="19.5">
       <c r="C180">
         <f>H179*D180</f>
-        <v>13248.912174436044</v>
+        <v>8788.8786685950545</v>
       </c>
       <c r="D180">
         <f>D179</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E180" t="s">
         <v>15</v>
@@ -7330,17 +7480,17 @@
       </c>
       <c r="H180">
         <f>H179+C180</f>
-        <v>468935.90932306391</v>
+        <v>310921.45235688105</v>
       </c>
     </row>
     <row r="181" spans="1:57" ht="19.5">
       <c r="C181">
         <f>H180*D181</f>
-        <v>13634.118851177507</v>
+        <v>9044.5425558360876</v>
       </c>
       <c r="D181">
         <f>D180</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E181" t="s">
         <v>16</v>
@@ -7350,17 +7500,17 @@
       </c>
       <c r="H181">
         <f>H180+C181</f>
-        <v>482570.02817424142</v>
+        <v>319965.99491271714</v>
       </c>
     </row>
     <row r="182" spans="1:57" ht="19.5">
       <c r="C182">
         <f>H181*D182</f>
-        <v>14030.525253741935</v>
+        <v>9307.6435719423498</v>
       </c>
       <c r="D182">
         <f>D181</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E182" t="s">
         <v>17</v>
@@ -7370,17 +7520,17 @@
       </c>
       <c r="H182">
         <f>H181+C182</f>
-        <v>496600.55342798337</v>
+        <v>329273.63848465949</v>
       </c>
     </row>
     <row r="183" spans="1:57" ht="19.5">
       <c r="C183">
         <f>H182*D183</f>
-        <v>14438.457009555023</v>
+        <v>9578.3980591057498</v>
       </c>
       <c r="D183">
         <f>D182</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E183" t="s">
         <v>11</v>
@@ -7390,17 +7540,17 @@
       </c>
       <c r="H183">
         <f>H182+C183</f>
-        <v>511039.01043753838</v>
+        <v>338852.03654376522</v>
       </c>
     </row>
     <row r="184" spans="1:57" ht="19.5">
       <c r="C184">
         <f>H183*D184</f>
-        <v>14858.249213526058</v>
+        <v>9857.0286527994958</v>
       </c>
       <c r="D184">
         <f>D183</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E184" t="s">
         <v>12</v>
@@ -7410,17 +7560,17 @@
       </c>
       <c r="H184">
         <f>H183+C184</f>
-        <v>525897.25965106441</v>
+        <v>348709.06519656471</v>
       </c>
     </row>
     <row r="185" spans="1:57" ht="19.5">
       <c r="C185">
         <f>H184*D185</f>
-        <v>15290.246703311097</v>
+        <v>10143.764464846359</v>
       </c>
       <c r="D185">
         <f>D184</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E185" t="s">
         <v>13</v>
@@ -7430,17 +7580,17 @@
       </c>
       <c r="H185">
         <f>H184+C185</f>
-        <v>541187.50635437551</v>
+        <v>358852.82966141106</v>
       </c>
     </row>
     <row r="186" spans="1:57" ht="19.5">
       <c r="C186">
         <f>H185*D186</f>
-        <v>15734.804342579342</v>
+        <v>10438.841271812298</v>
       </c>
       <c r="D186">
         <f>D185</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E186" t="s">
         <v>14</v>
@@ -7450,17 +7600,17 @@
       </c>
       <c r="H186">
         <f>H185+C186</f>
-        <v>556922.31069695484</v>
+        <v>369291.67093322333</v>
       </c>
     </row>
     <row r="187" spans="1:57" ht="19.5">
       <c r="C187">
         <f>H186*D187</f>
-        <v>16192.287312515335</v>
+        <v>10742.501708880351</v>
       </c>
       <c r="D187">
         <f>D186</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E187" t="s">
         <v>15</v>
@@ -7470,17 +7620,17 @@
       </c>
       <c r="H187">
         <f>H186+C187</f>
-        <v>573114.59800947015</v>
+        <v>380034.17264210369</v>
       </c>
     </row>
     <row r="188" spans="1:57" ht="19.5">
       <c r="C188">
         <f>H187*D188</f>
-        <v>16663.071411796489</v>
+        <v>11054.995469364228</v>
       </c>
       <c r="D188">
         <f>D187</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E188" t="s">
         <v>16</v>
@@ -7490,17 +7640,17 @@
       </c>
       <c r="H188">
         <f>H187+C188</f>
-        <v>589777.66942126665</v>
+        <v>391089.16811146791</v>
       </c>
     </row>
     <row r="189" spans="1:57" ht="19.5">
       <c r="C189">
         <f>H188*D189</f>
-        <v>17147.543365292324</v>
+        <v>11376.579510025638</v>
       </c>
       <c r="D189">
         <f>D188</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E189" t="s">
         <v>17</v>
@@ -7510,17 +7660,17 @@
       </c>
       <c r="H189">
         <f>H188+C189</f>
-        <v>606925.21278655902</v>
+        <v>402465.74762149353</v>
       </c>
     </row>
     <row r="190" spans="1:57" ht="19.5">
       <c r="C190">
         <f>H189*D190</f>
-        <v>17646.101141739022</v>
+        <v>11707.518262364199</v>
       </c>
       <c r="D190">
         <f>D189</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E190" t="s">
         <v>11</v>
@@ -7530,17 +7680,17 @@
       </c>
       <c r="H190">
         <f>H189+C190</f>
-        <v>624571.31392829807</v>
+        <v>414173.26588385773</v>
       </c>
     </row>
     <row r="191" spans="1:57" ht="19.5">
       <c r="C191">
         <f>H190*D191</f>
-        <v>18159.154280650208</v>
+        <v>12048.083850053657</v>
       </c>
       <c r="D191">
         <f>D190</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E191" t="s">
         <v>12</v>
@@ -7550,17 +7700,17 @@
       </c>
       <c r="H191">
         <f>H190+C191</f>
-        <v>642730.46820894827</v>
+        <v>426221.3497339114</v>
       </c>
     </row>
     <row r="192" spans="1:57" ht="19.5">
       <c r="C192">
         <f>H191*D192</f>
-        <v>18687.124228732569</v>
+        <v>12398.556312703211</v>
       </c>
       <c r="D192">
         <f>D191</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E192" t="s">
         <v>13</v>
@@ -7570,17 +7720,17 @@
       </c>
       <c r="H192">
         <f>H191+C192</f>
-        <v>661417.59243768081</v>
+        <v>438619.90604661463</v>
       </c>
     </row>
     <row r="193" spans="1:57" ht="19.5">
       <c r="C193">
         <f>H192*D193</f>
-        <v>19230.444686082599</v>
+        <v>12759.223836127934</v>
       </c>
       <c r="D193">
         <f>D192</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E193" t="s">
         <v>14</v>
@@ -7590,17 +7740,17 @@
       </c>
       <c r="H193">
         <f>H192+C193</f>
-        <v>680648.03712376347</v>
+        <v>451379.12988274259</v>
       </c>
     </row>
     <row r="194" spans="1:57" ht="19.5">
       <c r="C194">
         <f>H193*D194</f>
-        <v>19789.561962448857</v>
+        <v>13130.382989317653</v>
       </c>
       <c r="D194">
         <f>D193</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E194" t="s">
         <v>15</v>
@@ -7610,17 +7760,17 @@
       </c>
       <c r="H194">
         <f>H193+C194</f>
-        <v>700437.59908621234</v>
+        <v>464509.51287206024</v>
       </c>
     </row>
     <row r="195" spans="1:57" ht="19.5">
       <c r="C195">
         <f>H194*D195</f>
-        <v>20364.935343852427</v>
+        <v>13512.338968299113</v>
       </c>
       <c r="D195">
         <f>D194</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E195" t="s">
         <v>16</v>
@@ -7630,17 +7780,17 @@
       </c>
       <c r="H195">
         <f>H194+C195</f>
-        <v>720802.53443006473</v>
+        <v>478021.85184035933</v>
       </c>
     </row>
     <row r="196" spans="1:57" ht="19.5">
       <c r="C196">
         <f>H195*D196</f>
-        <v>20957.037469866715</v>
+        <v>13905.405847091977</v>
       </c>
       <c r="D196">
         <f>D195</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E196" t="s">
         <v>17</v>
@@ -7650,17 +7800,17 @@
       </c>
       <c r="H196">
         <f>H195+C196</f>
-        <v>741759.57189993141</v>
+        <v>491927.25768745132</v>
       </c>
     </row>
     <row r="197" spans="1:57" ht="19.5">
       <c r="C197">
         <f>H196*D197</f>
-        <v>21566.354721866483</v>
+        <v>14309.906835965001</v>
       </c>
       <c r="D197">
         <f>D196</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E197" t="s">
         <v>11</v>
@@ -7670,17 +7820,17 @@
       </c>
       <c r="H197">
         <f>H196+C197</f>
-        <v>763325.92662179784</v>
+        <v>506237.16452341632</v>
       </c>
     </row>
     <row r="198" spans="1:57" ht="19.5">
       <c r="C198">
         <f>H197*D198</f>
-        <v>22193.387622565093</v>
+        <v>14726.174547204742</v>
       </c>
       <c r="D198">
         <f>D197</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E198" t="s">
         <v>12</v>
@@ -7690,17 +7840,17 @@
       </c>
       <c r="H198">
         <f>H197+C198</f>
-        <v>785519.31424436299</v>
+        <v>520963.33907062106</v>
       </c>
     </row>
     <row r="199" spans="1:57" ht="19.5">
       <c r="C199">
         <f>H198*D199</f>
-        <v>22838.651247168094</v>
+        <v>15154.551268615345</v>
       </c>
       <c r="D199">
         <f>D198</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E199" t="s">
         <v>13</v>
@@ -7710,17 +7860,17 @@
       </c>
       <c r="H199">
         <f>H198+C199</f>
-        <v>808357.96549153107</v>
+        <v>536117.89033923636</v>
       </c>
     </row>
     <row r="200" spans="1:57" ht="19.5">
       <c r="C200">
         <f>H199*D200</f>
-        <v>23502.675646480966</v>
+        <v>15595.389244974289</v>
       </c>
       <c r="D200">
         <f>D199</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E200" t="s">
         <v>14</v>
@@ -7730,17 +7880,17 @@
       </c>
       <c r="H200">
         <f>H199+C200</f>
-        <v>831860.64113801206</v>
+        <v>551713.2795842106</v>
       </c>
     </row>
     <row r="201" spans="1:57" ht="19.5">
       <c r="C201">
         <f>H200*D201</f>
-        <v>24186.006282318533</v>
+        <v>16049.050967675541</v>
       </c>
       <c r="D201">
         <f>D200</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E201" t="s">
         <v>15</v>
@@ -7750,17 +7900,17 @@
       </c>
       <c r="H201">
         <f>H200+C201</f>
-        <v>856046.64742033056</v>
+        <v>567762.33055188612</v>
       </c>
     </row>
     <row r="202" spans="1:57" ht="19.5">
       <c r="C202">
         <f>H201*D202</f>
-        <v>24889.204475573719</v>
+        <v>16515.909472798277</v>
       </c>
       <c r="D202">
         <f>D201</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E202" t="s">
         <v>16</v>
@@ -7770,17 +7920,17 @@
       </c>
       <c r="H202">
         <f>H201+C202</f>
-        <v>880935.85189590428</v>
+        <v>584278.24002468435</v>
       </c>
     </row>
     <row r="203" spans="1:57" ht="19.5">
       <c r="C203">
         <f>H202*D203</f>
-        <v>25612.847867313736</v>
+        <v>16996.348647846258</v>
       </c>
       <c r="D203">
         <f>D202</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E203" t="s">
         <v>17</v>
@@ -7790,17 +7940,17 @@
       </c>
       <c r="H203">
         <f>H202+C203</f>
-        <v>906548.69976321806</v>
+        <v>601274.5886725306</v>
       </c>
     </row>
     <row r="204" spans="1:57" ht="19.5">
       <c r="C204">
         <f>H203*D204</f>
-        <v>26357.530893282441</v>
+        <v>17490.763547410104</v>
       </c>
       <c r="D204">
         <f>D203</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E204" t="s">
         <v>11</v>
@@ -7810,17 +7960,17 @@
       </c>
       <c r="H204">
         <f>H203+C204</f>
-        <v>932906.23065650044</v>
+        <v>618765.35221994075</v>
       </c>
     </row>
     <row r="205" spans="1:57" ht="19.5">
       <c r="C205">
         <f>H204*D205</f>
-        <v>27123.865272198644</v>
+        <v>17999.560718012013</v>
       </c>
       <c r="D205">
         <f>D204</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E205" t="s">
         <v>12</v>
@@ -7830,17 +7980,17 @@
       </c>
       <c r="H205">
         <f>H204+C205</f>
-        <v>960030.09592869913</v>
+        <v>636764.91293795279</v>
       </c>
     </row>
     <row r="206" spans="1:57" ht="19.5">
       <c r="C206">
         <f>H205*D206</f>
-        <v>27912.480508251527</v>
+        <v>18523.158532400044</v>
       </c>
       <c r="D206">
         <f>D205</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E206" t="s">
         <v>13</v>
@@ -7850,17 +8000,17 @@
       </c>
       <c r="H206">
         <f>H205+C206</f>
-        <v>987942.57643695071</v>
+        <v>655288.07147035282</v>
       </c>
     </row>
     <row r="207" spans="1:57" ht="19.5">
       <c r="C207">
         <f>H206*D207</f>
-        <v>28724.024408205874</v>
+        <v>19061.987533566851</v>
       </c>
       <c r="D207">
         <f>D206</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E207" t="s">
         <v>14</v>
@@ -7870,17 +8020,17 @@
       </c>
       <c r="H207">
         <f>H206+C207</f>
-        <v>1016666.6008451566</v>
+        <v>674350.05900391971</v>
       </c>
     </row>
     <row r="208" spans="1:57" ht="19.5">
       <c r="C208">
         <f>H207*D208</f>
-        <v>29559.163613541928</v>
+        <v>19616.490788775729</v>
       </c>
       <c r="D208">
         <f>D207</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E208" t="s">
         <v>15</v>
@@ -7890,17 +8040,17 @@
       </c>
       <c r="H208">
         <f>H207+C208</f>
-        <v>1046225.7644586986</v>
+        <v>693966.54979269544</v>
       </c>
     </row>
     <row r="209" spans="1:57" ht="19.5">
       <c r="C209">
         <f>H208*D209</f>
-        <v>30418.58414806701</v>
+        <v>20187.124253885111</v>
       </c>
       <c r="D209">
         <f>D208</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E209" t="s">
         <v>16</v>
@@ -7910,17 +8060,17 @@
       </c>
       <c r="H209">
         <f>H208+C209</f>
-        <v>1076644.3486067655</v>
+        <v>714153.67404658056</v>
       </c>
     </row>
     <row r="210" spans="1:57" ht="19.5">
       <c r="C210">
         <f>H209*D210</f>
-        <v>31302.991981448711</v>
+        <v>20774.357148271061</v>
       </c>
       <c r="D210">
         <f>D209</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E210" t="s">
         <v>17</v>
@@ -7930,17 +8080,17 @@
       </c>
       <c r="H210">
         <f>H209+C210</f>
-        <v>1107947.3405882141</v>
+        <v>734928.03119485162</v>
       </c>
     </row>
     <row r="211" spans="1:57" ht="19.5">
       <c r="C211">
         <f>H210*D211</f>
-        <v>32213.11360913259</v>
+        <v>21378.67234065607</v>
       </c>
       <c r="D211">
         <f>D210</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E211" t="s">
         <v>11</v>
@@ -7950,17 +8100,17 @@
       </c>
       <c r="H211">
         <f>H210+C211</f>
-        <v>1140160.4541973467</v>
+        <v>756306.70353550767</v>
       </c>
     </row>
     <row r="212" spans="1:57" ht="19.5">
       <c r="C212">
         <f>H211*D212</f>
-        <v>33149.696649120728</v>
+        <v>22000.56674616141</v>
       </c>
       <c r="D212">
         <f>D211</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E212" t="s">
         <v>12</v>
@@ -7970,17 +8120,17 @@
       </c>
       <c r="H212">
         <f>H211+C212</f>
-        <v>1173310.1508464674</v>
+        <v>778307.2702816691</v>
       </c>
     </row>
     <row r="213" spans="1:57" ht="19.5">
       <c r="C213">
         <f>H212*D213</f>
-        <v>34113.510456101372</v>
+        <v>22640.551734909539</v>
       </c>
       <c r="D213">
         <f>D212</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E213" t="s">
         <v>13</v>
@@ -7990,17 +8140,17 @@
       </c>
       <c r="H213">
         <f>H212+C213</f>
-        <v>1207423.6613025686</v>
+        <v>800947.82201657863</v>
       </c>
     </row>
     <row r="214" spans="1:57" ht="19.5">
       <c r="C214">
         <f>H213*D214</f>
-        <v>35105.346753434162</v>
+        <v>23299.153552512511</v>
       </c>
       <c r="D214">
         <f>D213</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E214" t="s">
         <v>14</v>
@@ -8010,17 +8160,17 @@
       </c>
       <c r="H214">
         <f>H213+C214</f>
-        <v>1242529.0080560027</v>
+        <v>824246.97556909116</v>
       </c>
     </row>
     <row r="215" spans="1:57" ht="19.5">
       <c r="C215">
         <f>H214*D215</f>
-        <v>36126.02028351005</v>
+        <v>23976.913752792225</v>
       </c>
       <c r="D215">
         <f>D214</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E215" t="s">
         <v>15</v>
@@ -8030,17 +8180,17 @@
       </c>
       <c r="H215">
         <f>H214+C215</f>
-        <v>1278655.0283395126</v>
+        <v>848223.88932188333</v>
       </c>
     </row>
     <row r="216" spans="1:57" ht="19.5">
       <c r="C216">
         <f>H215*D216</f>
-        <v>37176.369477020184</v>
+        <v>24674.38964308822</v>
       </c>
       <c r="D216">
         <f>D215</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E216" t="s">
         <v>16</v>
@@ -8050,17 +8200,17 @@
       </c>
       <c r="H216">
         <f>H215+C216</f>
-        <v>1315831.3978165328</v>
+        <v>872898.27896497154</v>
       </c>
     </row>
     <row r="217" spans="1:57" ht="19.5">
       <c r="C217">
         <f>H216*D217</f>
-        <v>38257.257141683513</v>
+        <v>25392.154742519302</v>
       </c>
       <c r="D217">
         <f>D216</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E217" t="s">
         <v>17</v>
@@ -8070,17 +8220,17 @@
       </c>
       <c r="H217">
         <f>H216+C217</f>
-        <v>1354088.6549582162</v>
+        <v>898290.4337074908</v>
       </c>
     </row>
     <row r="218" spans="1:57" ht="19.5">
       <c r="C218">
         <f>H217*D218</f>
-        <v>39369.571170998817</v>
+        <v>26130.799253575689</v>
       </c>
       <c r="D218">
         <f>D217</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E218" t="s">
         <v>11</v>
@@ -8090,17 +8240,17 @@
       </c>
       <c r="H218">
         <f>H217+C218</f>
-        <v>1393458.226129215</v>
+        <v>924421.23296106653</v>
       </c>
     </row>
     <row r="219" spans="1:57" ht="19.5">
       <c r="C219">
         <f>H218*D219</f>
-        <v>40514.225273603464</v>
+        <v>26890.930547429609</v>
       </c>
       <c r="D219">
         <f>D218</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E219" t="s">
         <v>12</v>
@@ -8110,17 +8260,17 @@
       </c>
       <c r="H219">
         <f>H218+C219</f>
-        <v>1433972.4514028186</v>
+        <v>951312.16350849613</v>
       </c>
     </row>
     <row r="220" spans="1:57" ht="19.5">
       <c r="C220">
         <f>H219*D220</f>
-        <v>41692.159723837991</v>
+        <v>27673.17366336325</v>
       </c>
       <c r="D220">
         <f>D219</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E220" t="s">
         <v>13</v>
@@ -8130,17 +8280,17 @@
       </c>
       <c r="H220">
         <f>H219+C220</f>
-        <v>1475664.6111266566</v>
+        <v>978985.33717185934</v>
       </c>
     </row>
     <row r="221" spans="1:57" ht="19.5">
       <c r="C221">
         <f>H220*D221</f>
-        <v>42904.342134132938</v>
+        <v>28478.171822724871</v>
       </c>
       <c r="D221">
         <f>D220</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E221" t="s">
         <v>14</v>
@@ -8150,17 +8300,17 @@
       </c>
       <c r="H221">
         <f>H220+C221</f>
-        <v>1518568.9532607896</v>
+        <v>1007463.5089945842</v>
       </c>
     </row>
     <row r="222" spans="1:57" ht="19.5">
       <c r="C222">
         <f>H221*D222</f>
-        <v>44151.768249852634</v>
+        <v>29306.586957835592</v>
       </c>
       <c r="D222">
         <f>D221</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E222" t="s">
         <v>15</v>
@@ -8170,17 +8320,17 @@
       </c>
       <c r="H222">
         <f>H221+C222</f>
-        <v>1562720.7215106422</v>
+        <v>1036770.0959524198</v>
       </c>
     </row>
     <row r="223" spans="1:57" ht="19.5">
       <c r="C223">
         <f>H222*D223</f>
-        <v>45435.46276724866</v>
+        <v>30159.100256281814</v>
       </c>
       <c r="D223">
         <f>D222</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E223" t="s">
         <v>16</v>
@@ -8190,17 +8340,17 @@
       </c>
       <c r="H223">
         <f>H222+C223</f>
-        <v>1608156.1842778909</v>
+        <v>1066929.1962087017</v>
       </c>
     </row>
     <row r="224" spans="1:57" ht="19.5">
       <c r="C224">
         <f>H223*D224</f>
-        <v>46756.480175195007</v>
+        <v>31036.41272104083</v>
       </c>
       <c r="D224">
         <f>D223</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E224" t="s">
         <v>17</v>
@@ -8210,17 +8360,17 @@
       </c>
       <c r="H224">
         <f>H223+C224</f>
-        <v>1654912.664453086</v>
+        <v>1097965.6089297426</v>
       </c>
     </row>
     <row r="225" spans="1:57" ht="19.5">
       <c r="C225">
         <f>H224*D225</f>
-        <v>48115.905621396341</v>
+        <v>31939.245746900182</v>
       </c>
       <c r="D225">
         <f>D224</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E225" t="s">
         <v>11</v>
@@ -8230,17 +8380,17 @@
       </c>
       <c r="H225">
         <f>H224+C225</f>
-        <v>1703028.5700744824</v>
+        <v>1129904.8546766427</v>
       </c>
     </row>
     <row r="226" spans="1:57" ht="19.5">
       <c r="C226">
         <f>H225*D226</f>
-        <v>49514.855803780876</v>
+        <v>32868.341713644761</v>
       </c>
       <c r="D226">
         <f>D225</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E226" t="s">
         <v>12</v>
@@ -8250,17 +8400,17 @@
       </c>
       <c r="H226">
         <f>H225+C226</f>
-        <v>1752543.4258782633</v>
+        <v>1162773.1963902875</v>
       </c>
     </row>
     <row r="227" spans="1:57" ht="19.5">
       <c r="C227">
         <f>H226*D227</f>
-        <v>50954.479887810186</v>
+        <v>33824.464596499434</v>
       </c>
       <c r="D227">
         <f>D226</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E227" t="s">
         <v>13</v>
@@ -8270,17 +8420,17 @@
       </c>
       <c r="H227">
         <f>H226+C227</f>
-        <v>1803497.9057660736</v>
+        <v>1196597.6609867869</v>
       </c>
     </row>
     <row r="228" spans="1:57" ht="19.5">
       <c r="C228">
         <f>H227*D228</f>
-        <v>52435.960450459366</v>
+        <v>34808.400594329076</v>
       </c>
       <c r="D228">
         <f>D227</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E228" t="s">
         <v>14</v>
@@ -8290,17 +8440,17 @@
       </c>
       <c r="H228">
         <f>H227+C228</f>
-        <v>1855933.8662165329</v>
+        <v>1231406.0615811159</v>
       </c>
     </row>
     <row r="229" spans="1:57" ht="19.5">
       <c r="C229">
         <f>H228*D229</f>
-        <v>53960.514451643096</v>
+        <v>35820.958776112675</v>
       </c>
       <c r="D229">
         <f>D228</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E229" t="s">
         <v>15</v>
@@ -8310,17 +8460,17 @@
       </c>
       <c r="H229">
         <f>H228+C229</f>
-        <v>1909894.3806681759</v>
+        <v>1267227.0203572286</v>
       </c>
     </row>
     <row r="230" spans="1:57" ht="19.5">
       <c r="C230">
         <f>H229*D230</f>
-        <v>55529.394233885432</v>
+        <v>36862.971746222975</v>
       </c>
       <c r="D230">
         <f>D229</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E230" t="s">
         <v>16</v>
@@ -8330,17 +8480,17 @@
       </c>
       <c r="H230">
         <f>H229+C230</f>
-        <v>1965423.7749020613</v>
+        <v>1304089.9921034516</v>
       </c>
     </row>
     <row r="231" spans="1:57" ht="19.5">
       <c r="C231">
         <f>H230*D231</f>
-        <v>57143.88855105469</v>
+        <v>37935.296329058787</v>
       </c>
       <c r="D231">
         <f>D230</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E231" t="s">
         <v>17</v>
@@ -8350,17 +8500,17 @@
       </c>
       <c r="H231">
         <f>H230+C231</f>
-        <v>2022567.6634531161</v>
+        <v>1342025.2884325103</v>
       </c>
     </row>
     <row r="232" spans="1:57" ht="19.5">
       <c r="C232">
         <f>H231*D232</f>
-        <v>58805.323627008263</v>
+        <v>39038.814273592892</v>
       </c>
       <c r="D232">
         <f>D231</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E232" t="s">
         <v>11</v>
@@ -8370,17 +8520,17 @@
       </c>
       <c r="H232">
         <f>H231+C232</f>
-        <v>2081372.9870801244</v>
+        <v>1381064.1027061031</v>
       </c>
     </row>
     <row r="233" spans="1:57" ht="19.5">
       <c r="C233">
         <f>H232*D233</f>
-        <v>60515.06424501718</v>
+        <v>40174.432978414872</v>
       </c>
       <c r="D233">
         <f>D232</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E233" t="s">
         <v>12</v>
@@ -8390,17 +8540,17 @@
       </c>
       <c r="H233">
         <f>H232+C233</f>
-        <v>2141888.0513251415</v>
+        <v>1421238.5356845181</v>
       </c>
     </row>
     <row r="234" spans="1:57" ht="19.5">
       <c r="C234">
         <f>H233*D234</f>
-        <v>62274.514868865204</v>
+        <v>41343.086237865071</v>
       </c>
       <c r="D234">
         <f>D233</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E234" t="s">
         <v>13</v>
@@ -8410,17 +8560,17 @@
       </c>
       <c r="H234">
         <f>H233+C234</f>
-        <v>2204162.5661940067</v>
+        <v>1462581.6219223831</v>
       </c>
     </row>
     <row r="235" spans="1:57" ht="19.5">
       <c r="C235">
         <f>H234*D235</f>
-        <v>64085.120796543451</v>
+        <v>42545.735009873155</v>
       </c>
       <c r="D235">
         <f>D234</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E235" t="s">
         <v>14</v>
@@ -8430,17 +8580,17 @@
       </c>
       <c r="H235">
         <f>H234+C235</f>
-        <v>2268247.6869905503</v>
+        <v>1505127.3569322561</v>
       </c>
     </row>
     <row r="236" spans="1:57" ht="19.5">
       <c r="C236">
         <f>H235*D236</f>
-        <v>65948.369347488173</v>
+        <v>43783.368206132749</v>
       </c>
       <c r="D236">
         <f>D235</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E236" t="s">
         <v>15</v>
@@ -8450,17 +8600,17 @@
       </c>
       <c r="H236">
         <f>H235+C236</f>
-        <v>2334196.0563380383</v>
+        <v>1548910.7251383888</v>
       </c>
     </row>
     <row r="237" spans="1:57" ht="19.5">
       <c r="C237">
         <f>H236*D237</f>
-        <v>67865.791084336975</v>
+        <v>45057.00350526184</v>
       </c>
       <c r="D237">
         <f>D236</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E237" t="s">
         <v>16</v>
@@ -8470,17 +8620,17 @@
       </c>
       <c r="H237">
         <f>H236+C237</f>
-        <v>2402061.8474223753</v>
+        <v>1593967.7286436507</v>
       </c>
     </row>
     <row r="238" spans="1:57" ht="19.5">
       <c r="C238">
         <f>H237*D238</f>
-        <v>69838.96107020721</v>
+        <v>46367.688189617547</v>
       </c>
       <c r="D238">
         <f>D237</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E238" t="s">
         <v>17</v>
@@ -8490,17 +8640,17 @@
       </c>
       <c r="H238">
         <f>H237+C238</f>
-        <v>2471900.8084925828</v>
+        <v>1640335.4168332682</v>
       </c>
     </row>
     <row r="239" spans="1:57" ht="19.5">
       <c r="C239">
         <f>H238*D239</f>
-        <v>71869.500162529032</v>
+        <v>47716.500006453425</v>
       </c>
       <c r="D239">
         <f>D238</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E239" t="s">
         <v>11</v>
@@ -8510,17 +8660,17 @@
       </c>
       <c r="H239">
         <f>H238+C239</f>
-        <v>2543770.3086551116</v>
+        <v>1688051.9168397216</v>
       </c>
     </row>
     <row r="240" spans="1:57" ht="19.5">
       <c r="C240">
         <f>H239*D240</f>
-        <v>73959.076344496309</v>
+        <v>49104.548054127379</v>
       </c>
       <c r="D240">
         <f>D239</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E240" t="s">
         <v>12</v>
@@ -8530,17 +8680,17 @@
       </c>
       <c r="H240">
         <f>H239+C240</f>
-        <v>2617729.3849996077</v>
+        <v>1737156.4648938491</v>
       </c>
     </row>
     <row r="241" spans="1:57" ht="19.5">
       <c r="C241">
         <f>H240*D241</f>
-        <v>76109.406095228784</v>
+        <v>50532.973694088942</v>
       </c>
       <c r="D241">
         <f>D240</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E241" t="s">
         <v>13</v>
@@ -8550,17 +8700,17 @@
       </c>
       <c r="H241">
         <f>H240+C241</f>
-        <v>2693838.7910948363</v>
+        <v>1787689.438587938</v>
       </c>
     </row>
     <row r="242" spans="1:57" ht="19.5">
       <c r="C242">
         <f>H241*D242</f>
-        <v>78322.255799771228</v>
+        <v>52002.951489395658</v>
       </c>
       <c r="D242">
         <f>D241</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E242" t="s">
         <v>14</v>
@@ -8570,17 +8720,17 @@
       </c>
       <c r="H242">
         <f>H241+C242</f>
-        <v>2772161.0468946076</v>
+        <v>1839692.3900773337</v>
       </c>
     </row>
     <row r="243" spans="1:57" ht="19.5">
       <c r="C243">
         <f>H242*D243</f>
-        <v>80599.443200087655</v>
+        <v>53515.690170530637</v>
       </c>
       <c r="D243">
         <f>D242</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E243" t="s">
         <v>15</v>
@@ -8590,17 +8740,17 @@
       </c>
       <c r="H243">
         <f>H242+C243</f>
-        <v>2852760.4900946952</v>
+        <v>1893208.0802478644</v>
       </c>
     </row>
     <row r="244" spans="1:57" ht="19.5">
       <c r="C244">
         <f>H243*D244</f>
-        <v>82942.838888242681</v>
+        <v>55072.433629314983</v>
       </c>
       <c r="D244">
         <f>D243</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E244" t="s">
         <v>16</v>
@@ -8610,17 +8760,17 @@
       </c>
       <c r="H244">
         <f>H243+C244</f>
-        <v>2935703.3289829381</v>
+        <v>1948280.5138771792</v>
       </c>
     </row>
     <row r="245" spans="1:57" ht="19.5">
       <c r="C245">
         <f>H244*D245</f>
-        <v>85354.367842996478</v>
+        <v>56674.461941732821</v>
       </c>
       <c r="D245">
         <f>D244</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E245" t="s">
         <v>17</v>
@@ -8630,17 +8780,17 @@
       </c>
       <c r="H245">
         <f>H244+C245</f>
-        <v>3021057.6968259346</v>
+        <v>2004954.975818912</v>
       </c>
     </row>
     <row r="246" spans="1:57" ht="19.5">
       <c r="C246">
         <f>H245*D246</f>
-        <v>87836.011011075578</v>
+        <v>58323.09242050966</v>
       </c>
       <c r="D246">
         <f>D245</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E246" t="s">
         <v>11</v>
@@ -8650,17 +8800,17 @@
       </c>
       <c r="H246">
         <f>H245+C246</f>
-        <v>3108893.7078370103</v>
+        <v>2063278.0682394216</v>
       </c>
     </row>
     <row r="247" spans="1:57" ht="19.5">
       <c r="C247">
         <f>H246*D247</f>
-        <v>90389.806934418491</v>
+        <v>60019.680698309741</v>
       </c>
       <c r="D247">
         <f>D246</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E247" t="s">
         <v>12</v>
@@ -8670,17 +8820,17 @@
       </c>
       <c r="H247">
         <f>H246+C247</f>
-        <v>3199283.5147714289</v>
+        <v>2123297.7489377311</v>
       </c>
     </row>
     <row r="248" spans="1:57" ht="19.5">
       <c r="C248">
         <f>H247*D248</f>
-        <v>93017.85342473285</v>
+        <v>61765.621842443019</v>
       </c>
       <c r="D248">
         <f>D247</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E248" t="s">
         <v>13</v>
@@ -8690,17 +8840,17 @@
       </c>
       <c r="H248">
         <f>H247+C248</f>
-        <v>3292301.3681961619</v>
+        <v>2185063.3707801742</v>
       </c>
     </row>
     <row r="249" spans="1:57" ht="19.5">
       <c r="C249">
         <f>H248*D249</f>
-        <v>95722.309286739575</v>
+        <v>63562.351501998441</v>
       </c>
       <c r="D249">
         <f>D248</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E249" t="s">
         <v>14</v>
@@ -8710,17 +8860,17 @@
       </c>
       <c r="H249">
         <f>H248+C249</f>
-        <v>3388023.6774829016</v>
+        <v>2248625.7222821726</v>
       </c>
     </row>
     <row r="250" spans="1:57" ht="19.5">
       <c r="C250">
         <f>H249*D250</f>
-        <v>98505.396091519695</v>
+        <v>65411.347088346614</v>
       </c>
       <c r="D250">
         <f>D249</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E250" t="s">
         <v>15</v>
@@ -8730,17 +8880,17 @@
       </c>
       <c r="H250">
         <f>H249+C250</f>
-        <v>3486529.0735744215</v>
+        <v>2314037.0693705194</v>
       </c>
     </row>
     <row r="251" spans="1:57" ht="19.5">
       <c r="C251">
         <f>H250*D251</f>
-        <v>101369.40000142039</v>
+        <v>67314.128989982812</v>
       </c>
       <c r="D251">
         <f>D250</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E251" t="s">
         <v>16</v>
@@ -8750,17 +8900,17 @@
       </c>
       <c r="H251">
         <f>H250+C251</f>
-        <v>3587898.4735758416</v>
+        <v>2381351.1983605023</v>
       </c>
     </row>
     <row r="252" spans="1:57" ht="19.5">
       <c r="C252">
         <f>H251*D252</f>
-        <v>104316.67364801964</v>
+        <v>69272.261822709072</v>
       </c>
       <c r="D252">
         <f>D251</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E252" t="s">
         <v>17</v>
@@ -8770,17 +8920,17 @@
       </c>
       <c r="H252">
         <f>H251+C252</f>
-        <v>3692215.1472238614</v>
+        <v>2450623.4601832111</v>
       </c>
     </row>
     <row r="253" spans="1:57" ht="19.5">
       <c r="C253">
         <f>H252*D253</f>
-        <v>107349.63806469168</v>
+        <v>71287.35571618336</v>
       </c>
       <c r="D253">
         <f>D252</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E253" t="s">
         <v>11</v>
@@ -8790,17 +8940,17 @@
       </c>
       <c r="H253">
         <f>H252+C253</f>
-        <v>3799564.7852885532</v>
+        <v>2521910.8158993945</v>
       </c>
     </row>
     <row r="254" spans="1:57" ht="19.5">
       <c r="C254">
         <f>H253*D254</f>
-        <v>110470.78467536117</v>
+        <v>73361.067637893982</v>
       </c>
       <c r="D254">
         <f>D253</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E254" t="s">
         <v>12</v>
@@ -8810,17 +8960,17 @@
       </c>
       <c r="H254">
         <f>H253+C254</f>
-        <v>3910035.5699639143</v>
+        <v>2595271.8835372883</v>
       </c>
     </row>
     <row r="255" spans="1:57" ht="19.5">
       <c r="C255">
         <f>H254*D255</f>
-        <v>113682.67734107951</v>
+        <v>75495.102755647473</v>
       </c>
       <c r="D255">
         <f>D254</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E255" t="s">
         <v>13</v>
@@ -8830,17 +8980,17 @@
       </c>
       <c r="H255">
         <f>H254+C255</f>
-        <v>4023718.2473049937</v>
+        <v>2670766.9862929359</v>
       </c>
     </row>
     <row r="256" spans="1:57" ht="19.5">
       <c r="C256">
         <f>H255*D256</f>
-        <v>116987.95446610455</v>
+        <v>77691.215839690703</v>
       </c>
       <c r="D256">
         <f>D255</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E256" t="s">
         <v>14</v>
@@ -8850,17 +9000,17 @@
       </c>
       <c r="H256">
         <f>H255+C256</f>
-        <v>4140706.2017710982</v>
+        <v>2748458.2021326264</v>
       </c>
     </row>
     <row r="257" spans="1:57" ht="19.5">
       <c r="C257">
         <f>H256*D257</f>
-        <v>120389.33116521366</v>
+        <v>79951.212705619982</v>
       </c>
       <c r="D257">
         <f>D256</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E257" t="s">
         <v>15</v>
@@ -8870,17 +9020,17 @@
       </c>
       <c r="H257">
         <f>H256+C257</f>
-        <v>4261095.5329363123</v>
+        <v>2828409.4148382465</v>
       </c>
     </row>
     <row r="258" spans="1:57" ht="19.5">
       <c r="C258">
         <f>H257*D258</f>
-        <v>123889.60149403058</v>
+        <v>82276.951699263533</v>
       </c>
       <c r="D258">
         <f>D257</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E258" t="s">
         <v>16</v>
@@ -8890,17 +9040,17 @@
       </c>
       <c r="H258">
         <f>H257+C258</f>
-        <v>4384985.1344303433</v>
+        <v>2910686.36653751</v>
       </c>
     </row>
     <row r="259" spans="1:57" ht="19.5">
       <c r="C259">
         <f>H258*D259</f>
-        <v>127491.64074419801</v>
+        <v>84670.345224758523</v>
       </c>
       <c r="D259">
         <f>D258</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E259" t="s">
         <v>17</v>
@@ -8910,17 +9060,17 @@
       </c>
       <c r="H259">
         <f>H258+C259</f>
-        <v>4512476.7751745414</v>
+        <v>2995356.7117622686</v>
       </c>
     </row>
     <row r="260" spans="1:57" ht="19.5">
       <c r="C260">
         <f>H259*D260</f>
-        <v>131198.40780528163</v>
+        <v>87133.361317079019</v>
       </c>
       <c r="D260">
         <f>D259</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E260" t="s">
         <v>11</v>
@@ -8930,17 +9080,17 @@
       </c>
       <c r="H260">
         <f>H259+C260</f>
-        <v>4643675.1829798231</v>
+        <v>3082490.0730793476</v>
       </c>
     </row>
     <row r="261" spans="1:57" ht="19.5">
       <c r="C261">
         <f>H260*D261</f>
-        <v>135012.94759534518</v>
+        <v>89668.025260307972</v>
       </c>
       <c r="D261">
         <f>D260</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E261" t="s">
         <v>12</v>
@@ -8950,17 +9100,17 @@
       </c>
       <c r="H261">
         <f>H260+C261</f>
-        <v>4778688.1305751679</v>
+        <v>3172158.0983396554</v>
       </c>
     </row>
     <row r="262" spans="1:57" ht="19.5">
       <c r="C262">
         <f>H261*D262</f>
-        <v>138938.39356219384</v>
+        <v>92276.421252983811</v>
       </c>
       <c r="D262">
         <f>D261</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E262" t="s">
         <v>13</v>
@@ -8970,17 +9120,17 @@
       </c>
       <c r="H262">
         <f>H261+C262</f>
-        <v>4917626.5241373619</v>
+        <v>3264434.5195926391</v>
       </c>
     </row>
     <row r="263" spans="1:57" ht="19.5">
       <c r="C263">
         <f>H262*D263</f>
-        <v>142977.97025734003</v>
+        <v>94960.69412189124</v>
       </c>
       <c r="D263">
         <f>D262</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E263" t="s">
         <v>14</v>
@@ -8990,17 +9140,17 @@
       </c>
       <c r="H263">
         <f>H262+C263</f>
-        <v>5060604.4943947019</v>
+        <v>3359395.2137145302</v>
       </c>
     </row>
     <row r="264" spans="1:57" ht="19.5">
       <c r="C264">
         <f>H263*D264</f>
-        <v>147134.99598480613</v>
+        <v>97723.051085705185</v>
       </c>
       <c r="D264">
         <f>D263</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E264" t="s">
         <v>15</v>
@@ -9010,17 +9160,17 @@
       </c>
       <c r="H264">
         <f>H263+C264</f>
-        <v>5207739.4903795077</v>
+        <v>3457118.2648002356</v>
       </c>
     </row>
     <row r="265" spans="1:57" ht="19.5">
       <c r="C265">
         <f>H264*D265</f>
-        <v>151412.88552694043</v>
+        <v>100565.76356993832</v>
       </c>
       <c r="D265">
         <f>D264</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E265" t="s">
         <v>16</v>
@@ -9030,17 +9180,17 @@
       </c>
       <c r="H265">
         <f>H264+C265</f>
-        <v>5359152.3759064479</v>
+        <v>3557684.0283701741</v>
       </c>
     </row>
     <row r="266" spans="1:57" ht="19.5">
       <c r="C266">
         <f>H265*D266</f>
-        <v>155815.15294948456</v>
+        <v>103491.16907468438</v>
       </c>
       <c r="D266">
         <f>D265</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E266" t="s">
         <v>17</v>
@@ -9050,17 +9200,17 @@
       </c>
       <c r="H266">
         <f>H265+C266</f>
-        <v>5514967.5288559329</v>
+        <v>3661175.1974448585</v>
       </c>
     </row>
     <row r="267" spans="1:57" ht="19.5">
       <c r="C267">
         <f>H266*D267</f>
-        <v>160345.41448819757</v>
+        <v>106501.67309669319</v>
       </c>
       <c r="D267">
         <f>D266</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E267" t="s">
         <v>11</v>
@@ -9070,17 +9220,17 @@
       </c>
       <c r="H267">
         <f>H266+C267</f>
-        <v>5675312.9433441302</v>
+        <v>3767676.8705415516</v>
       </c>
     </row>
     <row r="268" spans="1:57" ht="19.5">
       <c r="C268">
         <f>H267*D268</f>
-        <v>165007.39151940693</v>
+        <v>109599.75110735789</v>
       </c>
       <c r="D268">
         <f>D267</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E268" t="s">
         <v>12</v>
@@ -9090,17 +9240,17 @@
       </c>
       <c r="H268">
         <f>H267+C268</f>
-        <v>5840320.334863537</v>
+        <v>3877276.6216489095</v>
       </c>
     </row>
     <row r="269" spans="1:57" ht="19.5">
       <c r="C269">
         <f>H268*D269</f>
-        <v>169804.91361692763</v>
+        <v>112787.95058824072</v>
       </c>
       <c r="D269">
         <f>D268</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E269" t="s">
         <v>13</v>
@@ -9110,17 +9260,17 @@
       </c>
       <c r="H269">
         <f>H268+C269</f>
-        <v>6010125.2484804643</v>
+        <v>3990064.5722371503</v>
       </c>
     </row>
     <row r="270" spans="1:57" ht="19.5">
       <c r="C270">
         <f>H269*D270</f>
-        <v>174741.92169785954</v>
+        <v>116068.89312581118</v>
       </c>
       <c r="D270">
         <f>D269</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E270" t="s">
         <v>14</v>
@@ -9130,17 +9280,17 @@
       </c>
       <c r="H270">
         <f>H269+C270</f>
-        <v>6184867.170178324</v>
+        <v>4106133.4653629614</v>
       </c>
     </row>
     <row r="271" spans="1:57" ht="19.5">
       <c r="C271">
         <f>H270*D271</f>
-        <v>179822.47125984763</v>
+        <v>119445.27656711913</v>
       </c>
       <c r="D271">
         <f>D270</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E271" t="s">
         <v>15</v>
@@ -9150,17 +9300,17 @@
       </c>
       <c r="H271">
         <f>H270+C271</f>
-        <v>6364689.6414381713</v>
+        <v>4225578.7419300806</v>
       </c>
     </row>
     <row r="272" spans="1:57" ht="19.5">
       <c r="C272">
         <f>H271*D272</f>
-        <v>185050.7357124642</v>
+        <v>122919.87723817512</v>
       </c>
       <c r="D272">
         <f>D271</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E272" t="s">
         <v>16</v>
@@ -9170,17 +9320,17 @@
       </c>
       <c r="H272">
         <f>H271+C272</f>
-        <v>6549740.3771506352</v>
+        <v>4348498.6191682555</v>
       </c>
     </row>
     <row r="273" spans="1:57" ht="19.5">
       <c r="C273">
         <f>H272*D273</f>
-        <v>190431.0098054499</v>
+        <v>126495.55222686239</v>
       </c>
       <c r="D273">
         <f>D272</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E273" t="s">
         <v>17</v>
@@ -9190,17 +9340,17 @@
       </c>
       <c r="H273">
         <f>H272+C273</f>
-        <v>6740171.3869560855</v>
+        <v>4474994.1713951174</v>
       </c>
     </row>
     <row r="274" spans="1:57" ht="19.5">
       <c r="C274">
         <f>H273*D274</f>
-        <v>195967.71315662906</v>
+        <v>130175.24173225756</v>
       </c>
       <c r="D274">
         <f>D273</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E274" t="s">
         <v>11</v>
@@ -9210,17 +9360,17 @@
       </c>
       <c r="H274">
         <f>H273+C274</f>
-        <v>6936139.1001127148</v>
+        <v>4605169.4131273748</v>
       </c>
     </row>
     <row r="275" spans="1:57" ht="19.5">
       <c r="C275">
         <f>H274*D275</f>
-        <v>201665.393882398</v>
+        <v>133961.97148229179</v>
       </c>
       <c r="D275">
         <f>D274</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E275" t="s">
         <v>12</v>
@@ -9230,17 +9380,17 @@
       </c>
       <c r="H275">
         <f>H274+C275</f>
-        <v>7137804.4939951124</v>
+        <v>4739131.3846096667</v>
       </c>
     </row>
     <row r="276" spans="1:57" ht="19.5">
       <c r="C276">
         <f>H275*D276</f>
-        <v>207528.73233376813</v>
+        <v>137858.85522174044</v>
       </c>
       <c r="D276">
         <f>D275</f>
-        <v>0.029074589043221591</v>
+        <v>0.029089477381749152</v>
       </c>
       <c r="E276" t="s">
         <v>13</v>
@@ -9250,7 +9400,7 @@
       </c>
       <c r="H276">
         <f>H275+C276</f>
-        <v>7345333.2263288805</v>
+        <v>4876990.2398314066</v>
       </c>
     </row>
     <row r="277" spans="1:57" ht="19.5">

--- a/converted.d/covid-19_progression_math.xlsx
+++ b/converted.d/covid-19_progression_math.xlsx
@@ -246,7 +246,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Last revision:  Thursday, 02 Apr 2020 21:41 UTC</t>
+          <t>Last revision:  Friday, 03 Apr 2020 22:11 UTC</t>
         </is>
       </c>
     </row>
@@ -2898,10 +2898,6 @@
         <f>AS29+176</f>
         <v>176</v>
       </c>
-      <c r="AT30">
-        <f>AT29+0</f>
-        <v>0</v>
-      </c>
       <c r="AU30">
         <f>AU29+0</f>
         <v>0</v>
@@ -3062,10 +3058,6 @@
         <f>AS30-99</f>
         <v>77</v>
       </c>
-      <c r="AT31">
-        <f>AT30+0</f>
-        <v>0</v>
-      </c>
       <c r="AU31">
         <f>AU30+2</f>
         <v>2</v>
@@ -3118,10 +3110,8 @@
       <c r="I32">
         <v>3557</v>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>*213372*</t>
-        </is>
+      <c r="J32">
+        <v>213372</v>
       </c>
       <c r="K32">
         <f>M32+Q32+U32+Y32+AC32+AG32+AK32+AO32+AS32</f>
@@ -3151,11 +3141,6 @@
         <f>S31+4</f>
         <v>11</v>
       </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>UPDATED - finished this line's entry and won't require further update.</t>
-        </is>
-      </c>
       <c r="U32">
         <f>U31+94</f>
         <v>611</v>
@@ -3232,10 +3217,6 @@
         <f>AS31+108</f>
         <v>185</v>
       </c>
-      <c r="AT32">
-        <f>AT31+0</f>
-        <v>0</v>
-      </c>
       <c r="AU32">
         <f>AU31+0</f>
         <v>2</v>
@@ -3251,11 +3232,6 @@
       <c r="AY32">
         <f>O32+S32+W32+AA32+AE32+AI32+AM32+AQ32+AU32</f>
         <v>85</v>
-      </c>
-      <c r="AZ32" t="inlineStr">
-        <is>
-          <t>CORRECT - no errors seen.  Ready for permanent record.</t>
-        </is>
       </c>
       <c r="BA32" s="5">
         <v>43874</v>
@@ -3293,632 +3269,770 @@
       <c r="I33">
         <v>3824</v>
       </c>
-      <c r="J33" s="1"/>
+      <c r="J33">
+        <v>243453</v>
+      </c>
       <c r="K33">
         <f>M33+Q33+U33+Y33+AC33+AG33+AK33+AO33+AS33</f>
         <v>3824</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="M33">
+        <f>M32+10</f>
+        <v>141</v>
+      </c>
+      <c r="N33">
+        <f>N32+0</f>
+        <v>11</v>
+      </c>
+      <c r="O33">
+        <f>O32+1</f>
+        <v>2</v>
+      </c>
+      <c r="Q33">
+        <f>Q32+70</f>
+        <v>539</v>
+      </c>
+      <c r="R33">
+        <f>R32+10</f>
+        <v>136</v>
+      </c>
+      <c r="S33">
+        <f>S32+2</f>
+        <v>13</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>UPDATED - finished this line's entry and won't require further update.</t>
+        </is>
+      </c>
+      <c r="U33">
+        <f>U32+36</f>
+        <v>647</v>
+      </c>
+      <c r="V33">
+        <f>V32+23</f>
+        <v>274</v>
+      </c>
+      <c r="W33">
+        <f>W32+2</f>
+        <v>17</v>
+      </c>
+      <c r="Y33">
+        <f>Y32+146</f>
+        <v>2132</v>
+      </c>
+      <c r="Z33">
+        <f>Z32+22</f>
+        <v>381</v>
+      </c>
+      <c r="AA33">
+        <f>AA32+19</f>
+        <v>65</v>
+      </c>
+      <c r="AC33">
+        <f>AC32+8</f>
+        <v>74</v>
+      </c>
+      <c r="AD33">
+        <f>AD32+3</f>
+        <v>11</v>
+      </c>
+      <c r="AE33">
+        <f>AE32+1</f>
+        <v>3</v>
+      </c>
+      <c r="AG33">
+        <f>AG32+6</f>
+        <v>67</v>
+      </c>
+      <c r="AH33">
+        <f>AH32+1</f>
+        <v>2</v>
+      </c>
+      <c r="AI33">
+        <f>AI32+3</f>
+        <v>10</v>
+      </c>
+      <c r="AK33">
+        <f>AK32+2</f>
+        <v>21</v>
+      </c>
+      <c r="AL33">
+        <f>AL32+3</f>
+        <v>3</v>
+      </c>
+      <c r="AM33">
+        <f>AM32+0</f>
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <f>AO32+0</f>
+        <v>29</v>
+      </c>
+      <c r="AP33">
+        <f>AP32+-1</f>
+        <v>9</v>
+      </c>
+      <c r="AQ33">
+        <f>AQ32+0</f>
+        <v>1</v>
+      </c>
+      <c r="AS33">
+        <f>AS32+-11</f>
+        <v>174</v>
+      </c>
+      <c r="AU33">
+        <f>AU32+-1</f>
+        <v>1</v>
+      </c>
+      <c r="AW33">
+        <f>M33+Q33+U33+Y33+AC33+AG33+AK33+AO33+AS33</f>
+        <v>3824</v>
+      </c>
+      <c r="AX33">
+        <f>N33+R33+V33+Z33+AD33+AH33+AL33+AP33+AT33</f>
+        <v>827</v>
+      </c>
+      <c r="AY33">
+        <f>O33+S33+W33+AA33+AE33+AI33+AM33+AQ33+AU33</f>
+        <v>112</v>
+      </c>
+      <c r="AZ33" t="inlineStr">
+        <is>
+          <t>CORRECT - no errors seen.  Ready for permanent record.</t>
+        </is>
+      </c>
+      <c r="BA33" s="5">
+        <v>43875</v>
+      </c>
+      <c r="BB33">
+        <v>13</v>
+      </c>
+      <c r="BC33">
+        <f>(BB33/BB32)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:57" ht="19.5">
+      <c r="C34">
+        <f>H33*D34</f>
+        <v>1089.9999999793126</v>
+      </c>
+      <c r="D34">
+        <v>0.28504184100000002</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="5">
+        <v>43924</v>
+      </c>
+      <c r="G34" s="2">
+        <f>H34*100</f>
+        <v>491399.99999628682</v>
+      </c>
+      <c r="H34">
+        <f>H33+C34</f>
+        <v>4913.9999999628681</v>
+      </c>
+      <c r="I34">
+        <v>4914</v>
+      </c>
+      <c r="K34">
+        <f>M34+Q34+U34+Y34+AC34+AG34+AK34+AO34+AS34</f>
+        <v>4914</v>
+      </c>
+      <c r="L34" t="inlineStr">
         <is>
           <t>NEW:</t>
         </is>
       </c>
-      <c r="M33">
-        <f>M32+10</f>
-        <v>141</v>
-      </c>
-      <c r="N33">
-        <f>N32+0</f>
-        <v>11</v>
-      </c>
-      <c r="O33">
-        <f>O32+1</f>
-        <v>2</v>
-      </c>
-      <c r="Q33">
-        <f>Q32+70</f>
-        <v>539</v>
-      </c>
-      <c r="R33">
-        <f>R32+10</f>
-        <v>136</v>
-      </c>
-      <c r="S33">
-        <f>S32+2</f>
-        <v>13</v>
-      </c>
-      <c r="T33" t="inlineStr">
+      <c r="M34">
+        <f>M33+32</f>
+        <v>173</v>
+      </c>
+      <c r="N34">
+        <f>N33+3</f>
+        <v>14</v>
+      </c>
+      <c r="O34">
+        <f>O33+2</f>
+        <v>4</v>
+      </c>
+      <c r="Q34">
+        <f>Q33+140</f>
+        <v>679</v>
+      </c>
+      <c r="R34">
+        <f>R33+30</f>
+        <v>166</v>
+      </c>
+      <c r="S34">
+        <f>S33+5</f>
+        <v>18</v>
+      </c>
+      <c r="T34" t="inlineStr">
         <is>
           <t>PROPOSED - open to proposal now - subject to revision.</t>
         </is>
       </c>
-      <c r="U33">
-        <f>U32+36</f>
-        <v>647</v>
-      </c>
-      <c r="V33">
-        <f>V32+23</f>
-        <v>274</v>
-      </c>
-      <c r="W33">
-        <f>W32+2</f>
+      <c r="U34">
+        <f>U33+244</f>
+        <v>891</v>
+      </c>
+      <c r="V34">
+        <f>V33+19</f>
+        <v>293</v>
+      </c>
+      <c r="W34">
+        <f>W33+1</f>
+        <v>18</v>
+      </c>
+      <c r="Y34">
+        <f>Y33+584</f>
+        <v>2716</v>
+      </c>
+      <c r="Z34">
+        <f>Z33+28</f>
+        <v>409</v>
+      </c>
+      <c r="AA34">
+        <f>AA33+10</f>
+        <v>75</v>
+      </c>
+      <c r="AC34">
+        <f>AC33+17</f>
+        <v>91</v>
+      </c>
+      <c r="AD34">
+        <f>AD33+1</f>
+        <v>12</v>
+      </c>
+      <c r="AE34">
+        <f>AE33+-1</f>
+        <v>2</v>
+      </c>
+      <c r="AG34">
+        <f>AG33+12</f>
+        <v>79</v>
+      </c>
+      <c r="AH34">
+        <f>AH33+1</f>
+        <v>3</v>
+      </c>
+      <c r="AI34">
+        <f>AI33+0</f>
+        <v>10</v>
+      </c>
+      <c r="AK34">
+        <f>AK33+6</f>
+        <v>27</v>
+      </c>
+      <c r="AL34">
+        <f>AL33+0</f>
+        <v>3</v>
+      </c>
+      <c r="AM34">
+        <f>AM33+0</f>
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <f>AO33+11</f>
+        <v>40</v>
+      </c>
+      <c r="AP34">
+        <f>AP33+0</f>
+        <v>9</v>
+      </c>
+      <c r="AQ34">
+        <f>AQ33+2</f>
+        <v>3</v>
+      </c>
+      <c r="AS34">
+        <f>AS33+44</f>
+        <v>218</v>
+      </c>
+      <c r="AU34">
+        <f>AU33+0</f>
+        <v>1</v>
+      </c>
+      <c r="AW34">
+        <f>M34+Q34+U34+Y34+AC34+AG34+AK34+AO34+AS34</f>
+        <v>4914</v>
+      </c>
+      <c r="AX34">
+        <f>N34+R34+V34+Z34+AD34+AH34+AL34+AP34+AT34</f>
+        <v>909</v>
+      </c>
+      <c r="AY34">
+        <f>O34+S34+W34+AA34+AE34+AI34+AM34+AQ34+AU34</f>
+        <v>131</v>
+      </c>
+      <c r="BA34" s="5">
+        <v>43876</v>
+      </c>
+      <c r="BB34">
+        <v>13</v>
+      </c>
+      <c r="BC34">
+        <f>(BB34/BB33)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:57" ht="19.5">
+      <c r="C35">
+        <f>H34*D35</f>
+        <v>1285.041840975611</v>
+      </c>
+      <c r="D35">
+        <f>D34/1.0900000000000001</f>
+        <v>0.26150627614678901</v>
+      </c>
+      <c r="E35" t="s">
         <v>17</v>
       </c>
-      <c r="Y33">
-        <f>Y32+146</f>
-        <v>2132</v>
-      </c>
-      <c r="Z33">
-        <f>Z32+22</f>
-        <v>381</v>
-      </c>
-      <c r="AA33">
-        <f>AA32+19</f>
-        <v>65</v>
-      </c>
-      <c r="AC33">
-        <f>AC32+8</f>
-        <v>74</v>
-      </c>
-      <c r="AD33">
-        <f>AD32+3</f>
-        <v>11</v>
-      </c>
-      <c r="AE33">
-        <f>AE32+1</f>
-        <v>3</v>
-      </c>
-      <c r="AG33">
-        <f>AG32+6</f>
-        <v>67</v>
-      </c>
-      <c r="AH33">
-        <f>AH32+1</f>
-        <v>2</v>
-      </c>
-      <c r="AI33">
-        <f>AI32+3</f>
-        <v>10</v>
-      </c>
-      <c r="AK33">
-        <f>AK32+2</f>
-        <v>21</v>
-      </c>
-      <c r="AL33">
-        <f>AL32+3</f>
-        <v>3</v>
-      </c>
-      <c r="AM33">
-        <f>AM32+0</f>
-        <v>0</v>
-      </c>
-      <c r="AO33">
-        <f>AO32+0</f>
-        <v>29</v>
-      </c>
-      <c r="AP33">
-        <f>AP32+-1</f>
-        <v>9</v>
-      </c>
-      <c r="AQ33">
-        <f>AQ32+0</f>
-        <v>1</v>
-      </c>
-      <c r="AS33">
-        <f>AS32+-11</f>
-        <v>174</v>
-      </c>
-      <c r="AT33">
-        <f>AT32+0</f>
-        <v>0</v>
-      </c>
-      <c r="AU33">
-        <f>AU32+-1</f>
-        <v>1</v>
-      </c>
-      <c r="AW33">
-        <f>M33+Q33+U33+Y33+AC33+AG33+AK33+AO33+AS33</f>
-        <v>3824</v>
-      </c>
-      <c r="AX33">
-        <f>N33+R33+V33+Z33+AD33+AH33+AL33+AP33+AT33</f>
-        <v>827</v>
-      </c>
-      <c r="AY33">
-        <f>O33+S33+W33+AA33+AE33+AI33+AM33+AQ33+AU33</f>
-        <v>112</v>
-      </c>
-      <c r="BA33" s="5">
-        <v>43875</v>
-      </c>
-      <c r="BB33">
-        <v>13</v>
-      </c>
-      <c r="BC33">
-        <f>(BB33/BB32)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:57" ht="19.5">
-      <c r="C34">
-        <f>H33*D34</f>
-        <v>263.34118278086532</v>
-      </c>
-      <c r="D34">
-        <f>D33/1.0900000000000001</f>
-        <v>0.068865372066422015</v>
-      </c>
-      <c r="E34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>day two</t>
         </is>
       </c>
-      <c r="G34" s="2">
-        <f>H34*100</f>
-        <v>408734.11827644211</v>
-      </c>
-      <c r="H34">
-        <f>H33+C34</f>
-        <v>4087.3411827644209</v>
-      </c>
-      <c r="BA34" s="5">
-        <v>43876</v>
-      </c>
-      <c r="BB34">
+      <c r="G35" s="2">
+        <f>H35*100</f>
+        <v>619904.18409384787</v>
+      </c>
+      <c r="H35">
+        <f>H34+C35</f>
+        <v>6199.0418409384793</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>mistake ^ ^</t>
+        </is>
+      </c>
+      <c r="BA35" s="5">
+        <v>43877</v>
+      </c>
+      <c r="BB35">
         <v>13</v>
       </c>
-      <c r="BC34">
-        <f>(BB34/BB33)-1</f>
+      <c r="BC35">
+        <f>(BB35/BB34)-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:57" ht="19.5">
-      <c r="C35">
-        <f>H34*D35</f>
-        <v>258.23511129677178</v>
-      </c>
-      <c r="D35">
-        <f>D34/1.0900000000000001</f>
-        <v>0.063179240427910094</v>
-      </c>
-      <c r="E35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" t="inlineStr">
+    <row r="36" spans="1:57" ht="19.5">
+      <c r="C36">
+        <f>H35*D36</f>
+        <v>1487.2370160568414</v>
+      </c>
+      <c r="D36">
+        <f>D35/1.0900000000000001</f>
+        <v>0.23991401481356789</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="inlineStr">
         <is>
           <t>day three</t>
         </is>
       </c>
-      <c r="G35" s="2">
-        <f>H35*100</f>
-        <v>434557.62940611929</v>
-      </c>
-      <c r="H35">
-        <f>H34+C35</f>
-        <v>4345.576294061193</v>
-      </c>
-      <c r="J35" s="1"/>
-      <c r="BA35" s="5">
-        <v>43877</v>
-      </c>
-      <c r="BB35">
+      <c r="G36" s="2">
+        <f>H36*100</f>
+        <v>768627.88569953211</v>
+      </c>
+      <c r="H36">
+        <f>H35+C36</f>
+        <v>7686.2788569953209</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="BA36" s="5">
+        <v>43878</v>
+      </c>
+      <c r="BB36">
         <v>13</v>
       </c>
-      <c r="BC35">
-        <f>(BB35/BB34)-1</f>
+      <c r="BC36">
+        <f>(BB36/BB35)-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:57" ht="19.5">
-      <c r="C36">
-        <f>H35*D36</f>
-        <v>251.88092612873268</v>
-      </c>
-      <c r="D36">
-        <f>D35/1.0900000000000001</f>
-        <v>0.057962605897165217</v>
-      </c>
-      <c r="E36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" t="inlineStr">
+    <row r="37" spans="1:57" ht="19.5">
+      <c r="C37">
+        <f>H36*D37</f>
+        <v>1691.7853390443936</v>
+      </c>
+      <c r="D37">
+        <f>D36/1.0900000000000001</f>
+        <v>0.22010460074639254</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="inlineStr">
         <is>
           <t>day four</t>
         </is>
       </c>
-      <c r="G36" s="2">
-        <f>H36*100</f>
-        <v>459745.72201899253</v>
-      </c>
-      <c r="H36">
-        <f>H35+C36</f>
-        <v>4597.4572201899255</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="G37" s="2">
+        <f>H37*100</f>
+        <v>937806.41960397153</v>
+      </c>
+      <c r="H37">
+        <f>H36+C37</f>
+        <v>9378.0641960397152</v>
+      </c>
+      <c r="J37" t="inlineStr">
         <is>
           <t>*preliminary*</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>TODAY:</t>
         </is>
       </c>
-      <c r="M36" s="6">
-        <f>(M33/M32)-1</f>
-        <v>0.076335877862595325</v>
-      </c>
-      <c r="N36" s="6">
-        <f>(N33/N32)-1</f>
+      <c r="M37" s="6">
+        <f>(M34/M33)-1</f>
+        <v>0.22695035460992918</v>
+      </c>
+      <c r="N37" s="6">
+        <f>(N34/N33)-1</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O37" s="6">
+        <f>(O34/O33)-1</f>
+        <v>1</v>
+      </c>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="6">
+        <f>(Q34/Q33)-1</f>
+        <v>0.25974025974025983</v>
+      </c>
+      <c r="R37" s="6">
+        <f>(R34/R33)-1</f>
+        <v>0.22058823529411775</v>
+      </c>
+      <c r="S37" s="6">
+        <f>(S34/S33)-1</f>
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="T37" s="4"/>
+      <c r="U37" s="6">
+        <f>(U34/U33)-1</f>
+        <v>0.37712519319938176</v>
+      </c>
+      <c r="V37" s="6">
+        <f>(V34/V33)-1</f>
+        <v>0.069343065693430628</v>
+      </c>
+      <c r="W37" s="6">
+        <f>(W34/W33)-1</f>
+        <v>0.058823529411764719</v>
+      </c>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="6">
+        <f>(Y34/Y33)-1</f>
+        <v>0.273921200750469</v>
+      </c>
+      <c r="Z37" s="6">
+        <f>(Z34/Z33)-1</f>
+        <v>0.073490813648293907</v>
+      </c>
+      <c r="AA37" s="6">
+        <f>(AA34/AA33)-1</f>
+        <v>0.15384615384615374</v>
+      </c>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="6">
+        <f>(AC34/AC33)-1</f>
+        <v>0.22972972972972983</v>
+      </c>
+      <c r="AD37" s="6">
+        <f>(AD34/AD33)-1</f>
+        <v>0.090909090909090828</v>
+      </c>
+      <c r="AE37" s="6">
+        <f>(AE34/AE33)-1</f>
+        <v>-0.33333333333333337</v>
+      </c>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="6">
+        <f>(AG34/AG33)-1</f>
+        <v>0.17910447761194037</v>
+      </c>
+      <c r="AH37" s="6">
+        <f>(AH34/AH33)-1</f>
+        <v>0.5</v>
+      </c>
+      <c r="AI37" s="6">
+        <f>(AI34/AI33)-1</f>
         <v>0</v>
       </c>
-      <c r="O36" s="6">
-        <f>(O33/O32)-1</f>
+      <c r="AJ37" s="4"/>
+      <c r="AK37" s="6">
+        <f>(AK34/AK33)-1</f>
+        <v>0.28571428571428581</v>
+      </c>
+      <c r="AL37" s="6">
+        <f>(AL34/AL33)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AM37" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN37" s="4"/>
+      <c r="AO37" s="6">
+        <f>(AO34/AO33)-1</f>
+        <v>0.3793103448275863</v>
+      </c>
+      <c r="AP37" s="6">
+        <f>(AP34/AP33)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="6">
+        <f>(AQ34/AQ33)-1</f>
+        <v>2</v>
+      </c>
+      <c r="AR37" s="4"/>
+      <c r="AS37" s="6">
+        <f>(AS34/AS33)-1</f>
+        <v>0.25287356321839072</v>
+      </c>
+      <c r="AT37" s="6"/>
+      <c r="AU37" s="6">
+        <f>(AU34/AU33)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AV37" s="4"/>
+      <c r="AW37" s="6">
+        <f>(AW34/AW33)-1</f>
+        <v>0.28504184100418417</v>
+      </c>
+      <c r="AX37" s="6">
+        <f>(AX34/AX33)-1</f>
+        <v>0.099153567110036311</v>
+      </c>
+      <c r="AY37" s="6">
+        <f>(AY34/AY33)-1</f>
+        <v>0.16964285714285721</v>
+      </c>
+      <c r="BA37" s="5">
+        <v>43879</v>
+      </c>
+      <c r="BB37">
+        <v>13</v>
+      </c>
+      <c r="BC37">
+        <f>(BB37/BB36)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:57" ht="19.5">
+      <c r="C38">
+        <f>H37*D38</f>
+        <v>1893.7202528838168</v>
+      </c>
+      <c r="D38">
+        <f>D37/1.0900000000000001</f>
+        <v>0.20193082637283719</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>day five</t>
+        </is>
+      </c>
+      <c r="G38" s="2">
+        <f>H38*100</f>
+        <v>1127178.4448923531</v>
+      </c>
+      <c r="H38">
+        <f>H37+C38</f>
+        <v>11271.784448923532</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>&lt;&lt;  arbitrary peak number (1 million)</t>
+        </is>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="BA38" s="5">
+        <v>43880</v>
+      </c>
+      <c r="BB38">
+        <v>13</v>
+      </c>
+      <c r="BC38">
+        <f>(BB38/BB37)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:57" ht="19.5">
+      <c r="C39">
+        <f>H38*D39</f>
+        <v>2088.184172906077</v>
+      </c>
+      <c r="D39">
+        <f>D38/1.0900000000000001</f>
+        <v>0.18525763887416255</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>above: moving target</t>
+        </is>
+      </c>
+      <c r="G39" s="2">
+        <f>H39*100</f>
+        <v>1335996.8621829608</v>
+      </c>
+      <c r="H39">
+        <f>H38+C39</f>
+        <v>13359.968621829608</v>
+      </c>
+      <c r="BA39" s="5">
+        <v>43881</v>
+      </c>
+      <c r="BB39">
+        <v>13</v>
+      </c>
+      <c r="BC39">
+        <f>(BB39/BB38)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:57" ht="19.5">
+      <c r="C40">
+        <f>H39*D40</f>
+        <v>2270.6754516633509</v>
+      </c>
+      <c r="D40">
+        <f>D39/1.0900000000000001</f>
+        <v>0.16996113658180048</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="5">
+        <v>43930</v>
+      </c>
+      <c r="G40" s="2">
+        <f>H40*100</f>
+        <v>1563064.4073492959</v>
+      </c>
+      <c r="H40">
+        <f>H39+C40</f>
+        <v>15630.64407349296</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Yesterday:</t>
+        </is>
+      </c>
+      <c r="M40" s="6">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="N40" s="6">
+        <v>0</v>
+      </c>
+      <c r="O40" s="6">
         <v>1</v>
       </c>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="6">
-        <f>(Q33/Q32)-1</f>
-        <v>0.14925373134328357</v>
-      </c>
-      <c r="R36" s="6">
-        <f>(R33/R32)-1</f>
-        <v>0.079365079365079305</v>
-      </c>
-      <c r="S36" s="6">
-        <f>(S33/S32)-1</f>
-        <v>0.18181818181818188</v>
-      </c>
-      <c r="T36" s="4"/>
-      <c r="U36" s="6">
-        <f>(U33/U32)-1</f>
-        <v>0.05891980360065463</v>
-      </c>
-      <c r="V36" s="6">
-        <f>(V33/V32)-1</f>
-        <v>0.091633466135458086</v>
-      </c>
-      <c r="W36" s="6">
-        <f>(W33/W32)-1</f>
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="6">
-        <f>(Y33/Y32)-1</f>
-        <v>0.073514602215508651</v>
-      </c>
-      <c r="Z36" s="6">
-        <f>(Z33/Z32)-1</f>
-        <v>0.061281337047353723</v>
-      </c>
-      <c r="AA36" s="6">
-        <f>(AA33/AA32)-1</f>
-        <v>0.41304347826086962</v>
-      </c>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="6">
-        <f>(AC33/AC32)-1</f>
-        <v>0.1212121212121211</v>
-      </c>
-      <c r="AD36" s="6">
-        <f>(AD33/AD32)-1</f>
-        <v>0.375</v>
-      </c>
-      <c r="AE36" s="6">
-        <f>(AE33/AE32)-1</f>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6">
+        <v>0.14999999999999999</v>
+      </c>
+      <c r="R40" s="6">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="S40" s="6">
+        <v>0.17999999999999999</v>
+      </c>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6">
+        <v>0.059999999999999998</v>
+      </c>
+      <c r="V40" s="6">
+        <v>0.089999999999999997</v>
+      </c>
+      <c r="W40" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6">
+        <v>0.070000000000000007</v>
+      </c>
+      <c r="Z40" s="6">
+        <v>0.059999999999999998</v>
+      </c>
+      <c r="AA40" s="6">
+        <v>0.40999999999999998</v>
+      </c>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="AD40" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="AE40" s="6">
         <v>0.5</v>
       </c>
-      <c r="AF36" s="4"/>
-      <c r="AG36" s="6">
-        <f>(AG33/AG32)-1</f>
-        <v>0.098360655737705027</v>
-      </c>
-      <c r="AH36" s="6">
-        <f>(AH33/AH32)-1</f>
+      <c r="AF40" s="6"/>
+      <c r="AG40" s="6">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AH40" s="6">
         <v>1</v>
       </c>
-      <c r="AI36" s="6">
-        <f>(AI33/AI32)-1</f>
-        <v>0.4285714285714286</v>
-      </c>
-      <c r="AJ36" s="4"/>
-      <c r="AK36" s="6">
-        <f>(AK33/AK32)-1</f>
-        <v>0.10526315789473695</v>
-      </c>
-      <c r="AL36" s="6" t="inlineStr">
+      <c r="AI40" s="6">
+        <v>0.42999999999999999</v>
+      </c>
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="AL40" s="6" t="inlineStr">
         <is>
           <t>r: +3</t>
         </is>
       </c>
-      <c r="AM36" s="6">
+      <c r="AM40" s="6">
         <v>0</v>
       </c>
-      <c r="AN36" s="4"/>
-      <c r="AO36" s="6">
-        <f>(AO33/AO32)-1</f>
+      <c r="AN40" s="6"/>
+      <c r="AO40" s="6">
         <v>0</v>
       </c>
-      <c r="AP36" s="6">
-        <f>(AP33/AP32)-1</f>
-        <v>-0.099999999999999978</v>
-      </c>
-      <c r="AQ36" s="6">
-        <f>(AQ33/AQ32)-1</f>
+      <c r="AP40" s="6">
+        <v>-0.10000000000000001</v>
+      </c>
+      <c r="AQ40" s="6">
         <v>0</v>
       </c>
-      <c r="AR36" s="4"/>
-      <c r="AS36" s="6">
-        <f>(AS33/AS32)-1</f>
-        <v>-0.059459459459459407</v>
-      </c>
-      <c r="AT36" s="6">
-        <v>0</v>
-      </c>
-      <c r="AU36" s="6">
-        <f>(AU33/AU32)-1</f>
+      <c r="AR40" s="6"/>
+      <c r="AS40" s="6">
+        <v>-0.059999999999999998</v>
+      </c>
+      <c r="AT40" s="6"/>
+      <c r="AU40" s="6">
         <v>-0.5</v>
       </c>
-      <c r="AV36" s="4"/>
-      <c r="AW36" s="6">
-        <f>(AW33/AW32)-1</f>
-        <v>0.075063255552431762</v>
-      </c>
-      <c r="AX36" s="6">
-        <f>(AX33/AX32)-1</f>
-        <v>0.079634464751958234</v>
-      </c>
-      <c r="AY36" s="6">
-        <f>(AY33/AY32)-1</f>
-        <v>0.31764705882352939</v>
-      </c>
-      <c r="BA36" s="5">
-        <v>43878</v>
-      </c>
-      <c r="BB36">
-        <v>13</v>
-      </c>
-      <c r="BC36">
-        <f>(BB36/BB35)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:57" ht="19.5">
-      <c r="C37">
-        <f>H36*D37</f>
-        <v>244.47761558068382</v>
-      </c>
-      <c r="D37">
-        <f>D36/1.0900000000000001</f>
-        <v>0.053176702657949736</v>
-      </c>
-      <c r="E37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>day five</t>
-        </is>
-      </c>
-      <c r="G37" s="2">
-        <f>H37*100</f>
-        <v>484193.48357706092</v>
-      </c>
-      <c r="H37">
-        <f>H36+C37</f>
-        <v>4841.9348357706094</v>
-      </c>
-      <c r="J37" s="1"/>
-      <c r="BA37" s="5">
-        <v>43879</v>
-      </c>
-      <c r="BB37">
-        <v>13</v>
-      </c>
-      <c r="BC37">
-        <f>(BB37/BB36)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:57" ht="19.5">
-      <c r="C38">
-        <f>H37*D38</f>
-        <v>236.21846701921319</v>
-      </c>
-      <c r="D38">
-        <f>D37/1.0900000000000001</f>
-        <v>0.048785965741238287</v>
-      </c>
-      <c r="E38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>above: moving target</t>
-        </is>
-      </c>
-      <c r="G38" s="2">
-        <f>H38*100</f>
-        <v>507815.33027898223</v>
-      </c>
-      <c r="H38">
-        <f>H37+C38</f>
-        <v>5078.1533027898222</v>
-      </c>
-      <c r="BA38" s="5">
-        <v>43880</v>
-      </c>
-      <c r="BB38">
-        <v>13</v>
-      </c>
-      <c r="BC38">
-        <f>(BB38/BB37)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:57" ht="19.5">
-      <c r="C39">
-        <f>H38*D39</f>
-        <v>227.28680097124797</v>
-      </c>
-      <c r="D39">
-        <f>D38/1.0900000000000001</f>
-        <v>0.044757766735080994</v>
-      </c>
-      <c r="E39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="5">
-        <v>43929</v>
-      </c>
-      <c r="G39" s="2">
-        <f>H39*100</f>
-        <v>530544.01037610706</v>
-      </c>
-      <c r="H39">
-        <f>H38+C39</f>
-        <v>5305.4401037610705</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Yesterday:</t>
-        </is>
-      </c>
-      <c r="M39" s="6">
+      <c r="AV40" s="6"/>
+      <c r="AW40" s="6">
         <v>0.080000000000000002</v>
       </c>
-      <c r="N39" s="6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="O39" s="6">
-        <v>0</v>
-      </c>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6">
-        <v>0.19</v>
-      </c>
-      <c r="R39" s="6">
-        <v>0.14999999999999999</v>
-      </c>
-      <c r="S39" s="6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6">
-        <v>0.17999999999999999</v>
-      </c>
-      <c r="V39" s="6">
-        <v>0.23999999999999999</v>
-      </c>
-      <c r="W39" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="6">
-        <v>0.059999999999999998</v>
-      </c>
-      <c r="Z39" s="6">
-        <v>0.31</v>
-      </c>
-      <c r="AA39" s="6">
-        <v>0.20999999999999999</v>
-      </c>
-      <c r="AB39" s="6"/>
-      <c r="AC39" s="6">
-        <v>0.17999999999999999</v>
-      </c>
-      <c r="AD39" s="6">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="AE39" s="6">
-        <v>1</v>
-      </c>
-      <c r="AF39" s="6"/>
-      <c r="AG39" s="6">
-        <v>0.089999999999999997</v>
-      </c>
-      <c r="AH39" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI39" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ39" s="6"/>
-      <c r="AK39" s="6">
-        <v>0.72999999999999998</v>
-      </c>
-      <c r="AL39" s="6">
-        <v>0</v>
-      </c>
-      <c r="AM39" s="6">
-        <v>0</v>
-      </c>
-      <c r="AN39" s="6"/>
-      <c r="AO39" s="6">
-        <v>0.070000000000000007</v>
-      </c>
-      <c r="AP39" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="AQ39" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR39" s="6"/>
-      <c r="AS39" s="6">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="AT39" s="6">
-        <v>0</v>
-      </c>
-      <c r="AU39" s="6">
-        <v>0</v>
-      </c>
-      <c r="AV39" s="6"/>
-      <c r="AW39" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AX39" s="6">
-        <v>0.26000000000000001</v>
-      </c>
-      <c r="AY39" s="6">
-        <v>0.23000000000000001</v>
-      </c>
-      <c r="BA39" s="5">
-        <v>43881</v>
-      </c>
-      <c r="BB39">
-        <v>13</v>
-      </c>
-      <c r="BC39">
-        <f>(BB39/BB38)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:57" ht="19.5">
-      <c r="C40">
-        <f>H39*D40</f>
-        <v>217.85289045053383</v>
-      </c>
-      <c r="D40">
-        <f>D39/1.0900000000000001</f>
-        <v>0.041062171316588063</v>
-      </c>
-      <c r="E40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="5">
-        <v>43930</v>
-      </c>
-      <c r="G40" s="2">
-        <f>H40*100</f>
-        <v>552329.29942116048</v>
-      </c>
-      <c r="H40">
-        <f>H39+C40</f>
-        <v>5523.2929942116043</v>
+      <c r="AX40" s="6">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="AY40" s="6">
+        <v>0.32000000000000001</v>
       </c>
       <c r="BA40" s="5">
         <v>43882</v>
@@ -3934,11 +4048,11 @@
     <row r="41" spans="1:57" ht="19.5">
       <c r="C41">
         <f>H40*D41</f>
-        <v>208.0719295046124</v>
+        <v>2437.2495708591259</v>
       </c>
       <c r="D41">
         <f>D40/1.0900000000000001</f>
-        <v>0.037671716804209228</v>
+        <v>0.15592764824018393</v>
       </c>
       <c r="E41" t="s">
         <v>16</v>
@@ -3948,135 +4062,130 @@
       </c>
       <c r="G41" s="2">
         <f>H41*100</f>
-        <v>573136.49237162177</v>
+        <v>1806789.3644352087</v>
       </c>
       <c r="H41">
         <f>H40+C41</f>
-        <v>5731.3649237162172</v>
-      </c>
-      <c r="P41" t="inlineStr">
+        <v>18067.893644352087</v>
+      </c>
+      <c r="BA41" s="5">
+        <v>43883</v>
+      </c>
+      <c r="BB41">
+        <v>15</v>
+      </c>
+      <c r="BC41">
+        <f>(BB41/BB40)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:57" ht="19.5">
+      <c r="C42">
+        <f>H41*D42</f>
+        <v>2584.6643712087953</v>
+      </c>
+      <c r="D42">
+        <f>D41/1.0900000000000001</f>
+        <v>0.14305288829374671</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="5">
+        <v>43932</v>
+      </c>
+      <c r="G42" s="2">
+        <f>H42*100</f>
+        <v>2065255.8015560885</v>
+      </c>
+      <c r="H42">
+        <f>H41+C42</f>
+        <v>20652.558015560884</v>
+      </c>
+      <c r="P42" t="inlineStr">
         <is>
           <t>older Source: https://portal.ct.gov/Coronavirus/Pages/Governors-Press-Releases</t>
         </is>
       </c>
-      <c r="AQ41" s="6"/>
-      <c r="BA41" s="5">
-        <v>43883</v>
-      </c>
-      <c r="BB41">
+      <c r="AQ42" s="6"/>
+      <c r="BA42" s="5">
+        <v>43884</v>
+      </c>
+      <c r="BB42">
         <v>15</v>
       </c>
-      <c r="BC41">
-        <f>(BB41/BB40)-1</f>
+      <c r="BC42">
+        <f>(BB42/BB41)-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:57" ht="19.5">
-      <c r="C42">
-        <f>H41*D42</f>
-        <v>198.08289569524362</v>
-      </c>
-      <c r="D42">
-        <f>D41/1.0900000000000001</f>
-        <v>0.03456120807725617</v>
-      </c>
-      <c r="E42" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="5">
-        <v>43932</v>
-      </c>
-      <c r="G42" s="2">
-        <f>H42*100</f>
-        <v>592944.78194114612</v>
-      </c>
-      <c r="H42">
-        <f>H41+C42</f>
-        <v>5929.4478194114608</v>
-      </c>
-      <c r="AL42" t="inlineStr">
+    <row r="43" spans="1:57" ht="19.5">
+      <c r="C43">
+        <f>H42*D43</f>
+        <v>2710.4661236515176</v>
+      </c>
+      <c r="D43">
+        <f>D42/1.0900000000000001</f>
+        <v>0.13124118192086853</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="5">
+        <v>43933</v>
+      </c>
+      <c r="G43" s="2">
+        <f>H43*100</f>
+        <v>2336302.4139212403</v>
+      </c>
+      <c r="H43">
+        <f>H42+C43</f>
+        <v>23363.024139212401</v>
+      </c>
+      <c r="AL43" t="inlineStr">
         <is>
           <t>any zero-to-positive int gets the 'r: +n' entry.</t>
         </is>
       </c>
-      <c r="BA42" s="5">
-        <v>43884</v>
-      </c>
-      <c r="BB42">
-        <v>15</v>
-      </c>
-      <c r="BC42">
-        <f>(BB42/BB41)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:57" ht="19.5">
-      <c r="C43">
-        <f>H42*D43</f>
-        <v>188.00814666964436</v>
-      </c>
-      <c r="D43">
-        <f>D42/1.0900000000000001</f>
-        <v>0.031707530346106579</v>
-      </c>
-      <c r="E43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="5">
-        <v>43933</v>
-      </c>
-      <c r="G43" s="2">
-        <f>H43*100</f>
-        <v>611745.59660811059</v>
-      </c>
-      <c r="H43">
-        <f>H42+C43</f>
-        <v>6117.4559660811055</v>
-      </c>
-      <c r="P43" t="inlineStr">
+      <c r="BA43" s="5">
+        <v>43885</v>
+      </c>
+      <c r="BB43">
+        <v>51</v>
+      </c>
+      <c r="BC43">
+        <f>(BB43/BB42)-1</f>
+        <v>2.3999999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:57" ht="19.5">
+      <c r="C44">
+        <f>H43*D44</f>
+        <v>2813.0191754825846</v>
+      </c>
+      <c r="D44">
+        <f>D43/1.0900000000000001</f>
+        <v>0.12040475405584268</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="5">
+        <v>43934</v>
+      </c>
+      <c r="G44" s="2">
+        <f>H44*100</f>
+        <v>2617604.3314694986</v>
+      </c>
+      <c r="H44">
+        <f>H43+C44</f>
+        <v>26176.043314694987</v>
+      </c>
+      <c r="P44" t="inlineStr">
         <is>
           <t>recent Source: https://portal.ct.gov/-/media/Coronavirus/CTDPHCOVID19summary3312020.pdf?la=en</t>
         </is>
       </c>
-      <c r="BA43" s="5">
-        <v>43885</v>
-      </c>
-      <c r="BB43">
-        <v>51</v>
-      </c>
-      <c r="BC43">
-        <f>(BB43/BB42)-1</f>
-        <v>2.3999999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:57" ht="19.5">
-      <c r="C44">
-        <f>H43*D44</f>
-        <v>177.95359695916272</v>
-      </c>
-      <c r="D44">
-        <f>D43/1.0900000000000001</f>
-        <v>0.029089477381749152</v>
-      </c>
-      <c r="E44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="5">
-        <v>43934</v>
-      </c>
-      <c r="G44" s="2">
-        <f>H44*100</f>
-        <v>629540.95630402677</v>
-      </c>
-      <c r="H44">
-        <f>H43+C44</f>
-        <v>6295.409563040268</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>&lt;&lt; transmission under 3 percent growth (per day)</t>
-        </is>
-      </c>
       <c r="BA44" s="5">
         <v>43886</v>
       </c>
@@ -4091,11 +4200,11 @@
     <row r="45" spans="1:57" ht="19.5">
       <c r="C45">
         <f>H44*D45</f>
-        <v>183.1301740929072</v>
+        <v>2891.4862912485637</v>
       </c>
       <c r="D45">
-        <f>D44</f>
-        <v>0.029089477381749152</v>
+        <f>D44/1.0900000000000001</f>
+        <v>0.11046307711545199</v>
       </c>
       <c r="E45" t="s">
         <v>13</v>
@@ -4105,56 +4214,51 @@
       </c>
       <c r="G45" s="2">
         <f>H45*100</f>
-        <v>647853.97371331754</v>
+        <v>2906752.9605943551</v>
       </c>
       <c r="H45">
         <f>H44+C45</f>
-        <v>6478.5397371331755</v>
-      </c>
-      <c r="P45" t="inlineStr">
+        <v>29067.52960594355</v>
+      </c>
+      <c r="BA45" s="5">
+        <v>43887</v>
+      </c>
+      <c r="BB45">
+        <v>57</v>
+      </c>
+      <c r="BC45">
+        <f>(BB45/BB44)-1</f>
+        <v>0.11764705882352944</v>
+      </c>
+    </row>
+    <row r="46" spans="1:57" ht="19.5">
+      <c r="C46">
+        <f>H45*D46</f>
+        <v>2945.7695086394733</v>
+      </c>
+      <c r="D46">
+        <f>D45/1.0900000000000001</f>
+        <v>0.10134227258298346</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="5">
+        <v>43936</v>
+      </c>
+      <c r="G46" s="2">
+        <f>H46*100</f>
+        <v>3201329.9114583023</v>
+      </c>
+      <c r="H46">
+        <f>H45+C46</f>
+        <v>32013.299114583024</v>
+      </c>
+      <c r="P46" t="inlineStr">
         <is>
           <t>export: $ ssconvert -T Gnumeric_stf:stf_csv thisfile.gnumeric thisfile.csv</t>
         </is>
       </c>
-      <c r="BA45" s="5">
-        <v>43887</v>
-      </c>
-      <c r="BB45">
-        <v>57</v>
-      </c>
-      <c r="BC45">
-        <f>(BB45/BB44)-1</f>
-        <v>0.11764705882352944</v>
-      </c>
-    </row>
-    <row r="46" spans="1:57" ht="19.5">
-      <c r="C46">
-        <f>H45*D46</f>
-        <v>188.4573351500986</v>
-      </c>
-      <c r="D46">
-        <f>D45</f>
-        <v>0.029089477381749152</v>
-      </c>
-      <c r="E46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="5">
-        <v>43936</v>
-      </c>
-      <c r="G46" s="2">
-        <f>H46*100</f>
-        <v>666699.7072283274</v>
-      </c>
-      <c r="H46">
-        <f>H45+C46</f>
-        <v>6666.9970722832741</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>(three percent arbitrarily chosen)</t>
-        </is>
-      </c>
       <c r="BA46" s="5">
         <v>43888</v>
       </c>
@@ -4169,11 +4273,11 @@
     <row r="47" spans="1:57" ht="19.5">
       <c r="C47">
         <f>H46*D47</f>
-        <v>193.93946053837212</v>
+        <v>2976.4224634409684</v>
       </c>
       <c r="D47">
-        <f>D46</f>
-        <v>0.029089477381749152</v>
+        <f>D46/1.0900000000000001</f>
+        <v>0.092974562002737113</v>
       </c>
       <c r="E47" t="s">
         <v>15</v>
@@ -4183,51 +4287,51 @@
       </c>
       <c r="G47" s="2">
         <f>H47*100</f>
-        <v>686093.6532821646</v>
+        <v>3498972.1578023992</v>
       </c>
       <c r="H47">
         <f>H46+C47</f>
-        <v>6860.9365328216463</v>
-      </c>
-      <c r="P47" t="inlineStr">
+        <v>34989.721578023993</v>
+      </c>
+      <c r="BA47" s="5">
+        <v>43889</v>
+      </c>
+      <c r="BB47">
+        <v>60</v>
+      </c>
+      <c r="BC47">
+        <f>(BB47/BB46)-1</f>
+        <v>0.034482758620689724</v>
+      </c>
+    </row>
+    <row r="48" spans="1:57" ht="19.5">
+      <c r="C48">
+        <f>H47*D48</f>
+        <v>2984.5449892793577</v>
+      </c>
+      <c r="D48">
+        <f>D47/1.0900000000000001</f>
+        <v>0.085297763305263397</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="5">
+        <v>43938</v>
+      </c>
+      <c r="G48" s="2">
+        <f>H48*100</f>
+        <v>3797426.6567303347</v>
+      </c>
+      <c r="H48">
+        <f>H47+C48</f>
+        <v>37974.266567303348</v>
+      </c>
+      <c r="P48" t="inlineStr">
         <is>
           <t>March 31: Hospitalization by county presented in a graphic (only?)</t>
         </is>
       </c>
-      <c r="BA47" s="5">
-        <v>43889</v>
-      </c>
-      <c r="BB47">
-        <v>60</v>
-      </c>
-      <c r="BC47">
-        <f>(BB47/BB46)-1</f>
-        <v>0.034482758620689724</v>
-      </c>
-    </row>
-    <row r="48" spans="1:57" ht="19.5">
-      <c r="C48">
-        <f>H47*D48</f>
-        <v>199.58105808913172</v>
-      </c>
-      <c r="D48">
-        <f>D47</f>
-        <v>0.029089477381749152</v>
-      </c>
-      <c r="E48" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="5">
-        <v>43938</v>
-      </c>
-      <c r="G48" s="2">
-        <f>H48*100</f>
-        <v>706051.75909107784</v>
-      </c>
-      <c r="H48">
-        <f>H47+C48</f>
-        <v>7060.5175909107784</v>
-      </c>
       <c r="BA48" s="5">
         <v>43890</v>
       </c>
@@ -4242,11 +4346,11 @@
     <row r="49" spans="1:57" ht="19.5">
       <c r="C49">
         <f>H48*D49</f>
-        <v>205.38676676424109</v>
+        <v>2971.66972600809</v>
       </c>
       <c r="D49">
-        <f>D48</f>
-        <v>0.029089477381749152</v>
+        <f>D48/1.0900000000000001</f>
+        <v>0.078254828720425135</v>
       </c>
       <c r="E49" t="s">
         <v>17</v>
@@ -4256,90 +4360,90 @@
       </c>
       <c r="G49" s="2">
         <f>H49*100</f>
-        <v>726590.43576750194</v>
+        <v>4094593.629331144</v>
       </c>
       <c r="H49">
         <f>H48+C49</f>
-        <v>7265.9043576750191</v>
-      </c>
-      <c r="P49" t="inlineStr">
+        <v>40945.936293311439</v>
+      </c>
+      <c r="BA49" s="5">
+        <v>43891</v>
+      </c>
+      <c r="BB49">
+        <v>74</v>
+      </c>
+      <c r="BC49">
+        <f>(BB49/BB48)-1</f>
+        <v>0.088235294117646967</v>
+      </c>
+    </row>
+    <row r="50" spans="1:57" ht="19.5">
+      <c r="C50">
+        <f>H49*D50</f>
+        <v>2939.6488361747938</v>
+      </c>
+      <c r="D50">
+        <f>D49/1.0900000000000001</f>
+        <v>0.07179342084442672</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="5">
+        <v>43940</v>
+      </c>
+      <c r="G50" s="2">
+        <f>H50*100</f>
+        <v>4388558.5129486229</v>
+      </c>
+      <c r="H50">
+        <f>H49+C50</f>
+        <v>43885.58512948623</v>
+      </c>
+      <c r="P50" t="inlineStr">
         <is>
           <t>31 March 23:09 UTC: many cosmetic changes, columns deleted (or added).</t>
         </is>
       </c>
-      <c r="BA49" s="5">
-        <v>43891</v>
-      </c>
-      <c r="BB49">
-        <v>74</v>
-      </c>
-      <c r="BC49">
-        <f>(BB49/BB48)-1</f>
-        <v>0.088235294117646967</v>
-      </c>
-    </row>
-    <row r="50" spans="1:57" ht="19.5">
-      <c r="C50">
-        <f>H49*D50</f>
-        <v>211.36136047054006</v>
-      </c>
-      <c r="D50">
-        <f>D49</f>
-        <v>0.029089477381749152</v>
-      </c>
-      <c r="E50" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="5">
-        <v>43940</v>
-      </c>
-      <c r="G50" s="2">
-        <f>H50*100</f>
-        <v>747726.57181455591</v>
-      </c>
-      <c r="H50">
-        <f>H49+C50</f>
-        <v>7477.2657181455588</v>
-      </c>
-      <c r="P50" t="inlineStr">
+      <c r="BA50" s="5">
+        <v>43892</v>
+      </c>
+      <c r="BB50">
+        <v>98</v>
+      </c>
+      <c r="BC50">
+        <f>(BB50/BB49)-1</f>
+        <v>0.32432432432432434</v>
+      </c>
+    </row>
+    <row r="51" spans="1:57" ht="19.5">
+      <c r="C51">
+        <f>H50*D51</f>
+        <v>2890.5470478946054</v>
+      </c>
+      <c r="D51">
+        <f>D50/1.0900000000000001</f>
+        <v>0.065865523710483223</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="5">
+        <v>43941</v>
+      </c>
+      <c r="G51" s="2">
+        <f>H51*100</f>
+        <v>4677613.2177380836</v>
+      </c>
+      <c r="H51">
+        <f>H50+C51</f>
+        <v>46776.132177380838</v>
+      </c>
+      <c r="P51" t="inlineStr">
         <is>
           <t>Hopefully, no major corruption of data/forumlas present after these major edits.</t>
         </is>
       </c>
-      <c r="BA50" s="5">
-        <v>43892</v>
-      </c>
-      <c r="BB50">
-        <v>98</v>
-      </c>
-      <c r="BC50">
-        <f>(BB50/BB49)-1</f>
-        <v>0.32432432432432434</v>
-      </c>
-    </row>
-    <row r="51" spans="1:57" ht="19.5">
-      <c r="C51">
-        <f>H50*D51</f>
-        <v>217.50975198532356</v>
-      </c>
-      <c r="D51">
-        <f>D50</f>
-        <v>0.029089477381749152</v>
-      </c>
-      <c r="E51" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="5">
-        <v>43941</v>
-      </c>
-      <c r="G51" s="2">
-        <f>H51*100</f>
-        <v>769477.54701308825</v>
-      </c>
-      <c r="H51">
-        <f>H50+C51</f>
-        <v>7694.7754701308822</v>
-      </c>
       <c r="BA51" s="5">
         <v>43893</v>
       </c>
@@ -4354,11 +4458,11 @@
     <row r="52" spans="1:57" ht="19.5">
       <c r="C52">
         <f>H51*D52</f>
-        <v>223.8369969960105</v>
+        <v>2826.5453605632792</v>
       </c>
       <c r="D52">
-        <f>D51</f>
-        <v>0.029089477381749152</v>
+        <f>D51/1.0900000000000001</f>
+        <v>0.060427085972920382</v>
       </c>
       <c r="E52" t="s">
         <v>13</v>
@@ -4368,51 +4472,51 @@
       </c>
       <c r="G52" s="2">
         <f>H52*100</f>
-        <v>791861.24671268929</v>
+        <v>4960267.7537944121</v>
       </c>
       <c r="H52">
         <f>H51+C52</f>
-        <v>7918.6124671268926</v>
-      </c>
-      <c r="P52" t="inlineStr">
+        <v>49602.677537944117</v>
+      </c>
+      <c r="BA52" s="5">
+        <v>43894</v>
+      </c>
+      <c r="BB52">
+        <v>149</v>
+      </c>
+      <c r="BC52">
+        <f>(BB52/BB51)-1</f>
+        <v>0.26271186440677963</v>
+      </c>
+    </row>
+    <row r="53" spans="1:57" ht="19.5">
+      <c r="C53">
+        <f>H52*D53</f>
+        <v>2749.858036763666</v>
+      </c>
+      <c r="D53">
+        <f>D52/1.0900000000000001</f>
+        <v>0.055437693553137962</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="5">
+        <v>43943</v>
+      </c>
+      <c r="G53" s="2">
+        <f>H53*100</f>
+        <v>5235253.557470778</v>
+      </c>
+      <c r="H53">
+        <f>H52+C53</f>
+        <v>52352.535574707785</v>
+      </c>
+      <c r="P53" t="inlineStr">
         <is>
           <t>1 April: Column D now formatted as percentile</t>
         </is>
       </c>
-      <c r="BA52" s="5">
-        <v>43894</v>
-      </c>
-      <c r="BB52">
-        <v>149</v>
-      </c>
-      <c r="BC52">
-        <f>(BB52/BB51)-1</f>
-        <v>0.26271186440677963</v>
-      </c>
-    </row>
-    <row r="53" spans="1:57" ht="19.5">
-      <c r="C53">
-        <f>H52*D53</f>
-        <v>230.34829825732459</v>
-      </c>
-      <c r="D53">
-        <f>D52</f>
-        <v>0.029089477381749152</v>
-      </c>
-      <c r="E53" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="5">
-        <v>43943</v>
-      </c>
-      <c r="G53" s="2">
-        <f>H53*100</f>
-        <v>814896.0765384218</v>
-      </c>
-      <c r="H53">
-        <f>H52+C53</f>
-        <v>8148.9607653842177</v>
-      </c>
       <c r="BA53" s="5">
         <v>43895</v>
       </c>
@@ -4427,11 +4531,11 @@
     <row r="54" spans="1:57" ht="19.5">
       <c r="C54">
         <f>H53*D54</f>
-        <v>237.04900986940547</v>
+        <v>2662.6640586425719</v>
       </c>
       <c r="D54">
-        <f>D53</f>
-        <v>0.029089477381749152</v>
+        <f>D53/1.0900000000000001</f>
+        <v>0.050860269314805466</v>
       </c>
       <c r="E54" t="s">
         <v>15</v>
@@ -4441,11 +4545,11 @@
       </c>
       <c r="G54" s="2">
         <f>H54*100</f>
-        <v>838600.9775253624</v>
+        <v>5501519.9633350354</v>
       </c>
       <c r="H54">
         <f>H53+C54</f>
-        <v>8386.009775253624</v>
+        <v>55015.199633350356</v>
       </c>
       <c r="BA54" s="5">
         <v>43896</v>
@@ -4461,11 +4565,11 @@
     <row r="55" spans="1:57" ht="19.5">
       <c r="C55">
         <f>H54*D55</f>
-        <v>243.9446416803676</v>
+        <v>2567.0530915229228</v>
       </c>
       <c r="D55">
-        <f>D54</f>
-        <v>0.029089477381749152</v>
+        <f>D54/1.0900000000000001</f>
+        <v>0.046660797536518771</v>
       </c>
       <c r="E55" t="s">
         <v>16</v>
@@ -4475,11 +4579,11 @@
       </c>
       <c r="G55" s="2">
         <f>H55*100</f>
-        <v>862995.4416933991</v>
+        <v>5758225.2724873284</v>
       </c>
       <c r="H55">
         <f>H54+C55</f>
-        <v>8629.9544169339915</v>
+        <v>57582.25272487328</v>
       </c>
       <c r="BA55" s="5">
         <v>43897</v>
@@ -4495,11 +4599,11 @@
     <row r="56" spans="1:57" ht="19.5">
       <c r="C56">
         <f>H55*D56</f>
-        <v>251.04086381692753</v>
+        <v>2464.9851707265761</v>
       </c>
       <c r="D56">
-        <f>D55</f>
-        <v>0.029089477381749152</v>
+        <f>D55/1.0900000000000001</f>
+        <v>0.042808071134420887</v>
       </c>
       <c r="E56" t="s">
         <v>17</v>
@@ -4509,11 +4613,11 @@
       </c>
       <c r="G56" s="2">
         <f>H56*100</f>
-        <v>888099.52807509201</v>
+        <v>6004723.7895599855</v>
       </c>
       <c r="H56">
         <f>H55+C56</f>
-        <v>8880.9952807509198</v>
+        <v>60047.237895599857</v>
       </c>
       <c r="BA56" s="5">
         <v>43898</v>
@@ -4529,11 +4633,11 @@
     <row r="57" spans="1:57" ht="19.5">
       <c r="C57">
         <f>H56*D57</f>
-        <v>258.34351134682487</v>
+        <v>2358.2627809727819</v>
       </c>
       <c r="D57">
-        <f>D56</f>
-        <v>0.029089477381749152</v>
+        <f>D56/1.0900000000000001</f>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -4543,11 +4647,16 @@
       </c>
       <c r="G57" s="2">
         <f>H57*100</f>
-        <v>913933.87920977443</v>
+        <v>6240550.0676572639</v>
       </c>
       <c r="H57">
         <f>H56+C57</f>
-        <v>9139.3387920977439</v>
+        <v>62405.500676572643</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>&lt;&lt; transmission under 4 percent growth (per day)</t>
+        </is>
       </c>
       <c r="BA57" s="5">
         <v>43899</v>
@@ -4563,11 +4672,11 @@
     <row r="58" spans="1:57" ht="19.5">
       <c r="C58">
         <f>H57*D58</f>
-        <v>265.85858907686992</v>
+        <v>2450.8799193962132</v>
       </c>
       <c r="D58">
         <f>D57</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E58" t="s">
         <v>12</v>
@@ -4577,11 +4686,11 @@
       </c>
       <c r="G58" s="2">
         <f>H58*100</f>
-        <v>940519.73811746133</v>
+        <v>6485638.059596885</v>
       </c>
       <c r="H58">
         <f>H57+C58</f>
-        <v>9405.1973811746138</v>
+        <v>64856.380595968854</v>
       </c>
       <c r="BA58" s="5">
         <v>43900</v>
@@ -4597,11 +4706,11 @@
     <row r="59" spans="1:57" ht="19.5">
       <c r="C59">
         <f>H58*D59</f>
-        <v>273.59227649056527</v>
+        <v>2547.1344532782655</v>
       </c>
       <c r="D59">
         <f>D58</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E59" t="s">
         <v>13</v>
@@ -4611,11 +4720,16 @@
       </c>
       <c r="G59" s="2">
         <f>H59*100</f>
-        <v>967878.96576651779</v>
+        <v>6740351.5049247118</v>
       </c>
       <c r="H59">
         <f>H58+C59</f>
-        <v>9678.7896576651783</v>
+        <v>67403.515049247115</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>(four percent arbitrarily chosen)</t>
+        </is>
       </c>
       <c r="BA59" s="5">
         <v>43901</v>
@@ -4631,11 +4745,11 @@
     <row r="60" spans="1:57" ht="19.5">
       <c r="C60">
         <f>H59*D60</f>
-        <v>281.55093282935883</v>
+        <v>2647.1692357231004</v>
       </c>
       <c r="D60">
         <f>D59</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E60" t="s">
         <v>14</v>
@@ -4645,11 +4759,11 @@
       </c>
       <c r="G60" s="2">
         <f>H60*100</f>
-        <v>996034.0590494537</v>
+        <v>7005068.428497022</v>
       </c>
       <c r="H60">
         <f>H59+C60</f>
-        <v>9960.3405904945375</v>
+        <v>70050.684284970223</v>
       </c>
       <c r="BA60" s="5">
         <v>43902</v>
@@ -4665,11 +4779,11 @@
     <row r="61" spans="1:57" ht="19.5">
       <c r="C61">
         <f>H60*D61</f>
-        <v>289.74110232170887</v>
+        <v>2751.1327301705182</v>
       </c>
       <c r="D61">
         <f>D60</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E61" t="s">
         <v>15</v>
@@ -4679,16 +4793,11 @@
       </c>
       <c r="G61" s="2">
         <f>H61*100</f>
-        <v>1025008.1692816246</v>
+        <v>7280181.7015140736</v>
       </c>
       <c r="H61">
         <f>H60+C61</f>
-        <v>10250.081692816246</v>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>&lt;&lt;  arbitrary peak number (1 million)</t>
-        </is>
+        <v>72801.817015140739</v>
       </c>
       <c r="BA61" s="5">
         <v>43903</v>
@@ -4704,11 +4813,11 @@
     <row r="62" spans="1:57" ht="19.5">
       <c r="C62">
         <f>H61*D62</f>
-        <v>298.16951956425925</v>
+        <v>2859.1792307332457</v>
       </c>
       <c r="D62">
         <f>D61</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E62" t="s">
         <v>16</v>
@@ -4718,11 +4827,11 @@
       </c>
       <c r="G62" s="2">
         <f>H62*100</f>
-        <v>1054825.1212380505</v>
+        <v>7566099.624587399</v>
       </c>
       <c r="H62">
         <f>H61+C62</f>
-        <v>10548.251212380505</v>
+        <v>75660.99624587399</v>
       </c>
       <c r="BA62" s="5">
         <v>43904</v>
@@ -4738,11 +4847,11 @@
     <row r="63" spans="1:57" ht="19.5">
       <c r="C63">
         <f>H62*D63</f>
-        <v>306.84311505955077</v>
+        <v>2971.4690911876382</v>
       </c>
       <c r="D63">
         <f>D62</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E63" t="s">
         <v>17</v>
@@ -4752,11 +4861,11 @@
       </c>
       <c r="G63" s="2">
         <f>H63*100</f>
-        <v>1085509.4327440057</v>
+        <v>7863246.5337061631</v>
       </c>
       <c r="H63">
         <f>H62+C63</f>
-        <v>10855.094327440056</v>
+        <v>78632.465337061629</v>
       </c>
       <c r="BA63" s="5">
         <v>43905</v>
@@ -4772,11 +4881,11 @@
     <row r="64" spans="1:57" ht="19.5">
       <c r="C64">
         <f>H63*D64</f>
-        <v>315.76902091482106</v>
+        <v>3088.1689629576322</v>
       </c>
       <c r="D64">
         <f>D63</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
@@ -4786,11 +4895,11 @@
       </c>
       <c r="G64" s="2">
         <f>H64*100</f>
-        <v>1117086.3348354877</v>
+        <v>8172063.4300019257</v>
       </c>
       <c r="H64">
         <f>H63+C64</f>
-        <v>11170.863348354877</v>
+        <v>81720.634300019257</v>
       </c>
       <c r="BA64" s="5">
         <v>43906</v>
@@ -4806,11 +4915,11 @@
     <row r="65" spans="1:57" ht="19.5">
       <c r="C65">
         <f>H64*D65</f>
-        <v>324.95457670657976</v>
+        <v>3209.4520424451557</v>
       </c>
       <c r="D65">
         <f>D64</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E65" t="s">
         <v>12</v>
@@ -4820,11 +4929,11 @@
       </c>
       <c r="G65" s="2">
         <f>H65*100</f>
-        <v>1149581.7925061455</v>
+        <v>8493008.6342464425</v>
       </c>
       <c r="H65">
         <f>H64+C65</f>
-        <v>11495.817925061456</v>
+        <v>84930.086342464419</v>
       </c>
       <c r="BA65" s="5">
         <v>43907</v>
@@ -4840,11 +4949,11 @@
     <row r="66" spans="1:57" ht="19.5">
       <c r="C66">
         <f>H65*D66</f>
-        <v>334.40733551578171</v>
+        <v>3335.4983280740594</v>
       </c>
       <c r="D66">
         <f>D65</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E66" t="s">
         <v>13</v>
@@ -4854,11 +4963,11 @@
       </c>
       <c r="G66" s="2">
         <f>H66*100</f>
-        <v>1183022.5260577237</v>
+        <v>8826558.4670538474</v>
       </c>
       <c r="H66">
         <f>H65+C66</f>
-        <v>11830.225260577237</v>
+        <v>88265.584670538476</v>
       </c>
       <c r="BA66" s="5">
         <v>43908</v>
@@ -4874,11 +4983,11 @@
     <row r="67" spans="1:57" ht="19.5">
       <c r="C67">
         <f>H66*D67</f>
-        <v>344.135070138559</v>
+        <v>3466.4948874290467</v>
       </c>
       <c r="D67">
         <f>D66</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E67" t="s">
         <v>14</v>
@@ -4888,11 +4997,11 @@
       </c>
       <c r="G67" s="2">
         <f>H67*100</f>
-        <v>1217436.0330715796</v>
+        <v>9173207.9557967521</v>
       </c>
       <c r="H67">
         <f>H66+C67</f>
-        <v>12174.360330715795</v>
+        <v>91732.079557967518</v>
       </c>
       <c r="BA67" s="5">
         <v>43909</v>
@@ -4908,11 +5017,11 @@
     <row r="68" spans="1:57" ht="19.5">
       <c r="C68">
         <f>H67*D68</f>
-        <v>354.14577947762126</v>
+        <v>3602.6361348860823</v>
       </c>
       <c r="D68">
         <f>D67</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E68" t="s">
         <v>15</v>
@@ -4922,11 +5031,11 @@
       </c>
       <c r="G68" s="2">
         <f>H68*100</f>
-        <v>1252850.6110193417</v>
+        <v>9533471.5692853592</v>
       </c>
       <c r="H68">
         <f>H67+C68</f>
-        <v>12528.506110193417</v>
+        <v>95334.715692853599</v>
       </c>
       <c r="BA68" s="5">
         <v>43910</v>
@@ -4942,11 +5051,11 @@
     <row r="69" spans="1:57" ht="19.5">
       <c r="C69">
         <f>H68*D69</f>
-        <v>364.44769511957747</v>
+        <v>3744.1241201463013</v>
       </c>
       <c r="D69">
         <f>D68</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E69" t="s">
         <v>16</v>
@@ -4956,11 +5065,11 @@
       </c>
       <c r="G69" s="2">
         <f>H69*100</f>
-        <v>1289295.3805312994</v>
+        <v>9907883.9812999889</v>
       </c>
       <c r="H69">
         <f>H68+C69</f>
-        <v>12892.953805312995</v>
+        <v>99078.839812999897</v>
       </c>
       <c r="BA69" s="5">
         <v>43911</v>
@@ -4976,11 +5085,11 @@
     <row r="70" spans="1:57" ht="19.5">
       <c r="C70">
         <f>H69*D70</f>
-        <v>375.04928810358899</v>
+        <v>3891.1688281016441</v>
       </c>
       <c r="D70">
         <f>D69</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E70" t="s">
         <v>17</v>
@@ -4990,11 +5099,11 @@
       </c>
       <c r="G70" s="2">
         <f>H70*100</f>
-        <v>1326800.3093416584</v>
+        <v>10297000.864110153</v>
       </c>
       <c r="H70">
         <f>H69+C70</f>
-        <v>13268.003093416584</v>
+        <v>102970.00864110154</v>
       </c>
       <c r="BA70" s="5">
         <v>43912</v>
@@ -5010,11 +5119,11 @@
     <row r="71" spans="1:57" ht="19.5">
       <c r="C71">
         <f>H70*D71</f>
-        <v>385.9592758869195</v>
+        <v>4043.9884904772553</v>
       </c>
       <c r="D71">
         <f>D70</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
@@ -5024,11 +5133,11 @@
       </c>
       <c r="G71" s="2">
         <f>H71*100</f>
-        <v>1365396.2369303505</v>
+        <v>10701399.713157879</v>
       </c>
       <c r="H71">
         <f>H70+C71</f>
-        <v>13653.962369303505</v>
+        <v>107013.9971315788</v>
       </c>
       <c r="BA71" s="5">
         <v>43913</v>
@@ -5044,11 +5153,11 @@
     <row r="72" spans="1:57" ht="19.5">
       <c r="C72">
         <f>H71*D72</f>
-        <v>397.18662951310836</v>
+        <v>4202.8099097131544</v>
       </c>
       <c r="D72">
         <f>D71</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E72" t="s">
         <v>12</v>
@@ -5058,11 +5167,11 @@
       </c>
       <c r="G72" s="2">
         <f>H72*100</f>
-        <v>1405114.8998816612</v>
+        <v>11121680.704129195</v>
       </c>
       <c r="H72">
         <f>H71+C72</f>
-        <v>14051.148998816612</v>
+        <v>111216.80704129195</v>
       </c>
       <c r="BA72" s="5">
         <v>43914</v>
@@ -5078,11 +5187,11 @@
     <row r="73" spans="1:57" ht="19.5">
       <c r="C73">
         <f>H72*D73</f>
-        <v>408.74058098866311</v>
+        <v>4367.8687955658597</v>
       </c>
       <c r="D73">
         <f>D72</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E73" t="s">
         <v>13</v>
@@ -5092,11 +5201,11 @@
       </c>
       <c r="G73" s="2">
         <f>H73*100</f>
-        <v>1445988.9579805275</v>
+        <v>11558467.58368578</v>
       </c>
       <c r="H73">
         <f>H72+C73</f>
-        <v>14459.889579805274</v>
+        <v>115584.6758368578</v>
       </c>
       <c r="BA73" s="5">
         <v>43915</v>
@@ -5112,11 +5221,11 @@
     <row r="74" spans="1:57" ht="19.5">
       <c r="C74">
         <f>H73*D74</f>
-        <v>420.63063087433579</v>
+        <v>4539.4101149295302</v>
       </c>
       <c r="D74">
         <f>D73</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E74" t="s">
         <v>14</v>
@@ -5127,7 +5236,7 @@
       <c r="G74" s="2"/>
       <c r="H74">
         <f>H73+C74</f>
-        <v>14880.52021067961</v>
+        <v>120124.08595178733</v>
       </c>
       <c r="BA74" s="5">
         <v>43916</v>
@@ -5143,11 +5252,11 @@
     <row r="75" spans="1:57" ht="19.5">
       <c r="C75">
         <f>H74*D75</f>
-        <v>432.86655609722561</v>
+        <v>4717.6884553957807</v>
       </c>
       <c r="D75">
         <f>D74</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E75" t="s">
         <v>15</v>
@@ -5158,7 +5267,7 @@
       <c r="G75" s="2"/>
       <c r="H75">
         <f>H74+C75</f>
-        <v>15313.386766776835</v>
+        <v>124841.77440718311</v>
       </c>
       <c r="BA75" s="5">
         <v>43917</v>
@@ -5174,11 +5283,11 @@
     <row r="76" spans="1:57" ht="19.5">
       <c r="C76">
         <f>H75*D76</f>
-        <v>445.45841799013152</v>
+        <v>4902.9684030917615</v>
       </c>
       <c r="D76">
         <f>D75</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E76" t="s">
         <v>16</v>
@@ -5189,7 +5298,7 @@
       <c r="G76" s="2"/>
       <c r="H76">
         <f>H75+C76</f>
-        <v>15758.845184766968</v>
+        <v>129744.74281027487</v>
       </c>
       <c r="BA76" s="5">
         <v>43918</v>
@@ -5205,11 +5314,11 @@
     <row r="77" spans="1:57" ht="19.5">
       <c r="C77">
         <f>H76*D77</f>
-        <v>458.41657056476527</v>
+        <v>5095.5249353572381</v>
       </c>
       <c r="D77">
         <f>D76</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E77" t="s">
         <v>17</v>
@@ -5220,7 +5329,7 @@
       <c r="G77" s="2"/>
       <c r="H77">
         <f>H76+C77</f>
-        <v>16217.261755331732</v>
+        <v>134840.2677456321</v>
       </c>
       <c r="BA77" s="5">
         <v>43919</v>
@@ -5236,11 +5345,11 @@
     <row r="78" spans="1:57" ht="19.5">
       <c r="C78">
         <f>H77*D78</f>
-        <v>471.75166902562796</v>
+        <v>5295.6438288434656</v>
       </c>
       <c r="D78">
         <f>D77</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
@@ -5251,7 +5360,7 @@
       <c r="G78" s="2"/>
       <c r="H78">
         <f>H77+C78</f>
-        <v>16689.013424357359</v>
+        <v>140135.91157447555</v>
       </c>
       <c r="BA78" s="5">
         <v>43920</v>
@@ -5267,11 +5376,11 @@
     <row r="79" spans="1:57" ht="19.5">
       <c r="C79">
         <f>H78*D79</f>
-        <v>485.47467853155138</v>
+        <v>5503.6220836395087</v>
       </c>
       <c r="D79">
         <f>D78</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E79" t="s">
         <v>12</v>
@@ -5282,7 +5391,7 @@
       <c r="G79" s="2"/>
       <c r="H79">
         <f>H78+C79</f>
-        <v>17174.48810288891</v>
+        <v>145639.53365811508</v>
       </c>
       <c r="BA79" s="5">
         <v>43921</v>
@@ -5298,11 +5407,11 @@
     <row r="80" spans="1:57" ht="19.5">
       <c r="C80">
         <f>H79*D80</f>
-        <v>499.59688321210689</v>
+        <v>5719.7683640554824</v>
       </c>
       <c r="D80">
         <f>D79</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E80" t="s">
         <v>13</v>
@@ -5313,7 +5422,7 @@
       <c r="G80" s="2"/>
       <c r="H80">
         <f>H79+C80</f>
-        <v>17674.084986101017</v>
+        <v>151359.30202217057</v>
       </c>
       <c r="BA80" s="5">
         <v>43922</v>
@@ -5334,11 +5443,11 @@
     <row r="81" spans="1:57" ht="19.5">
       <c r="C81">
         <f>H80*D81</f>
-        <v>514.12989544629784</v>
+        <v>5944.4034567168555</v>
       </c>
       <c r="D81">
         <f>D80</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E81" t="s">
         <v>14</v>
@@ -5349,17 +5458,27 @@
       <c r="G81" s="2"/>
       <c r="H81">
         <f>H80+C81</f>
-        <v>18188.214881547316</v>
+        <v>157303.70547888742</v>
+      </c>
+      <c r="BA81" s="5">
+        <v>43923</v>
+      </c>
+      <c r="BB81">
+        <v>243453</v>
+      </c>
+      <c r="BC81">
+        <f>(BB81/BB80)-1</f>
+        <v>0.1409791350317755</v>
       </c>
     </row>
     <row r="82" spans="1:57" ht="19.5">
       <c r="C82">
         <f>H81*D82</f>
-        <v>529.08566541116397</v>
+        <v>6177.8607466497297</v>
       </c>
       <c r="D82">
         <f>D81</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E82" t="s">
         <v>15</v>
@@ -5370,7 +5489,7 @@
       <c r="G82" s="2"/>
       <c r="H82">
         <f>H81+C82</f>
-        <v>18717.300546958479</v>
+        <v>163481.56622553716</v>
       </c>
       <c r="AW82" s="2"/>
       <c r="BE82" t="inlineStr">
@@ -5382,11 +5501,11 @@
     <row r="83" spans="1:57" ht="19.5">
       <c r="C83">
         <f>H82*D83</f>
-        <v>544.47649090814969</v>
+        <v>6420.486712063609</v>
       </c>
       <c r="D83">
         <f>D82</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E83" t="s">
         <v>16</v>
@@ -5397,7 +5516,7 @@
       <c r="G83" s="2"/>
       <c r="H83">
         <f>H82+C83</f>
-        <v>19261.777037866628</v>
+        <v>169902.05293760076</v>
       </c>
       <c r="AW83" s="2"/>
       <c r="BB83" s="1"/>
@@ -5410,11 +5529,11 @@
     <row r="84" spans="1:57" ht="19.5">
       <c r="C84">
         <f>H83*D84</f>
-        <v>560.31502747531647</v>
+        <v>6672.6414385660155</v>
       </c>
       <c r="D84">
         <f>D83</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E84" t="s">
         <v>17</v>
@@ -5425,7 +5544,7 @@
       <c r="G84" s="2"/>
       <c r="H84">
         <f>H83+C84</f>
-        <v>19822.092065341945</v>
+        <v>176574.69437616676</v>
       </c>
       <c r="AW84" s="2"/>
       <c r="BB84" s="1"/>
@@ -5438,11 +5557,11 @@
     <row r="85" spans="1:57" ht="19.5">
       <c r="C85">
         <f>H84*D85</f>
-        <v>576.61429879371383</v>
+        <v>6934.6991535720872</v>
       </c>
       <c r="D85">
         <f>D84</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
@@ -5453,7 +5572,7 @@
       <c r="G85" s="2"/>
       <c r="H85">
         <f>H84+C85</f>
-        <v>20398.706364135658</v>
+        <v>183509.39352973885</v>
       </c>
       <c r="AW85" s="2"/>
       <c r="BB85" s="1"/>
@@ -5466,11 +5585,11 @@
     <row r="86" spans="1:57" ht="19.5">
       <c r="C86">
         <f>H85*D86</f>
-        <v>593.38770739646668</v>
+        <v>7207.0487817022904</v>
       </c>
       <c r="D86">
         <f>D85</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E86" t="s">
         <v>12</v>
@@ -5481,7 +5600,7 @@
       <c r="G86" s="2"/>
       <c r="H86">
         <f>H85+C86</f>
-        <v>20992.094071532123</v>
+        <v>190716.44231144115</v>
       </c>
       <c r="AW86" s="2"/>
       <c r="BB86" s="1"/>
@@ -5489,11 +5608,11 @@
     <row r="87" spans="1:57" ht="19.5">
       <c r="C87">
         <f>H86*D87</f>
-        <v>610.64904568938414</v>
+        <v>7490.0945219925234</v>
       </c>
       <c r="D87">
         <f>D86</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E87" t="s">
         <v>13</v>
@@ -5504,7 +5623,7 @@
       <c r="G87" s="2"/>
       <c r="H87">
         <f>H86+C87</f>
-        <v>21602.743117221507</v>
+        <v>198206.53683343367</v>
       </c>
       <c r="AW87" s="2"/>
       <c r="BB87" s="1"/>
@@ -5517,11 +5636,11 @@
     <row r="88" spans="1:57" ht="19.5">
       <c r="C88">
         <f>H87*D88</f>
-        <v>628.41250729215221</v>
+        <v>7784.2564477732494</v>
       </c>
       <c r="D88">
         <f>D87</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
@@ -5532,7 +5651,7 @@
       <c r="G88" s="2"/>
       <c r="H88">
         <f>H87+C88</f>
-        <v>22231.15562451366</v>
+        <v>205990.79328120692</v>
       </c>
       <c r="AW88" s="2"/>
       <c r="BB88" s="1"/>
@@ -5545,11 +5664,11 @@
     <row r="89" spans="1:57" ht="19.5">
       <c r="C89">
         <f>H88*D89</f>
-        <v>646.6926987094356</v>
+        <v>8089.971130107976</v>
       </c>
       <c r="D89">
         <f>D88</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E89" t="s">
         <v>15</v>
@@ -5560,7 +5679,7 @@
       <c r="G89" s="2"/>
       <c r="H89">
         <f>H88+C89</f>
-        <v>22877.848323223094</v>
+        <v>214080.76441131489</v>
       </c>
       <c r="AW89" s="2"/>
       <c r="BB89" s="1"/>
@@ -5573,11 +5692,11 @@
     <row r="90" spans="1:57" ht="19.5">
       <c r="C90">
         <f>H89*D90</f>
-        <v>665.5046513414859</v>
+        <v>8407.6922857163008</v>
       </c>
       <c r="D90">
         <f>D89</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E90" t="s">
         <v>16</v>
@@ -5588,7 +5707,7 @@
       <c r="G90" s="2"/>
       <c r="H90">
         <f>H89+C90</f>
-        <v>23543.352974564579</v>
+        <v>222488.45669703119</v>
       </c>
       <c r="BB90" s="1"/>
       <c r="BE90" t="inlineStr">
@@ -5600,11 +5719,11 @@
     <row r="91" spans="1:57" ht="19.5">
       <c r="C91">
         <f>H90*D91</f>
-        <v>684.86383384413296</v>
+        <v>8737.8914503431497</v>
       </c>
       <c r="D91">
         <f>D90</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E91" t="s">
         <v>17</v>
@@ -5615,7 +5734,7 @@
       <c r="G91" s="2"/>
       <c r="H91">
         <f>H90+C91</f>
-        <v>24228.216808408713</v>
+        <v>231226.34814737434</v>
       </c>
       <c r="BE91" t="inlineStr">
         <is>
@@ -5626,11 +5745,11 @@
     <row r="92" spans="1:57" ht="19.5">
       <c r="C92">
         <f>H91*D92</f>
-        <v>704.78616484831991</v>
+        <v>9081.0586785735504</v>
       </c>
       <c r="D92">
         <f>D91</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
@@ -5641,7 +5760,7 @@
       <c r="G92" s="2"/>
       <c r="H92">
         <f>H91+C92</f>
-        <v>24933.002973257033</v>
+        <v>240307.4068259479</v>
       </c>
       <c r="BE92" t="inlineStr">
         <is>
@@ -5652,11 +5771,11 @@
     <row r="93" spans="1:57" ht="19.5">
       <c r="C93">
         <f>H92*D93</f>
-        <v>725.28802604964483</v>
+        <v>9437.7032711315569</v>
       </c>
       <c r="D93">
         <f>D92</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E93" t="s">
         <v>12</v>
@@ -5667,17 +5786,17 @@
       <c r="G93" s="2"/>
       <c r="H93">
         <f>H92+C93</f>
-        <v>25658.290999306679</v>
+        <v>249745.11009707945</v>
       </c>
     </row>
     <row r="94" spans="1:57" ht="19.5">
       <c r="C94">
         <f>H93*D94</f>
-        <v>746.38627567866945</v>
+        <v>9808.3545307427103</v>
       </c>
       <c r="D94">
         <f>D93</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E94" t="s">
         <v>13</v>
@@ -5688,7 +5807,7 @@
       <c r="G94" s="2"/>
       <c r="H94">
         <f>H93+C94</f>
-        <v>26404.677274985348</v>
+        <v>259553.46462782216</v>
       </c>
       <c r="BE94" t="inlineStr">
         <is>
@@ -5699,11 +5818,11 @@
     <row r="95" spans="1:57" ht="19.5">
       <c r="C95">
         <f>H94*D95</f>
-        <v>768.09826236307208</v>
+        <v>10193.56254768184</v>
       </c>
       <c r="D95">
         <f>D94</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E95" t="s">
         <v>14</v>
@@ -5714,7 +5833,7 @@
       <c r="G95" s="2"/>
       <c r="H95">
         <f>H94+C95</f>
-        <v>27172.775537348421</v>
+        <v>269747.02717550402</v>
       </c>
       <c r="BE95" t="inlineStr">
         <is>
@@ -5725,11 +5844,11 @@
     <row r="96" spans="1:57" ht="19.5">
       <c r="C96">
         <f>H95*D96</f>
-        <v>790.44183939304355</v>
+        <v>10593.899016172056</v>
       </c>
       <c r="D96">
         <f>D95</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E96" t="s">
         <v>15</v>
@@ -5740,7 +5859,7 @@
       <c r="G96" s="2"/>
       <c r="H96">
         <f>H95+C96</f>
-        <v>27963.217376741464</v>
+        <v>280340.92619167606</v>
       </c>
       <c r="BE96" t="inlineStr">
         <is>
@@ -5751,11 +5870,11 @@
     <row r="97" spans="1:57" ht="19.5">
       <c r="C97">
         <f>H96*D97</f>
-        <v>813.43537940165572</v>
+        <v>11009.958082846519</v>
       </c>
       <c r="D97">
         <f>D96</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E97" t="s">
         <v>16</v>
@@ -5766,17 +5885,17 @@
       <c r="G97" s="2"/>
       <c r="H97">
         <f>H96+C97</f>
-        <v>28776.652756143121</v>
+        <v>291350.8842745226</v>
       </c>
     </row>
     <row r="98" spans="1:57" ht="19.5">
       <c r="C98">
         <f>H97*D98</f>
-        <v>837.09778947227471</v>
+        <v>11442.357228532286</v>
       </c>
       <c r="D98">
         <f>D97</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E98" t="s">
         <v>17</v>
@@ -5787,7 +5906,7 @@
       <c r="G98" s="2"/>
       <c r="H98">
         <f>H97+C98</f>
-        <v>29613.750545615396</v>
+        <v>302793.24150305486</v>
       </c>
       <c r="BE98" t="inlineStr">
         <is>
@@ -5798,11 +5917,11 @@
     <row r="99" spans="1:57" ht="19.5">
       <c r="C99">
         <f>H98*D99</f>
-        <v>861.4485266854407</v>
+        <v>11891.738184664822</v>
       </c>
       <c r="D99">
         <f>D98</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E99" t="s">
         <v>11</v>
@@ -5813,7 +5932,7 @@
       <c r="G99" s="2"/>
       <c r="H99">
         <f>H98+C99</f>
-        <v>30475.199072300835</v>
+        <v>314684.97968771966</v>
       </c>
       <c r="BE99" t="inlineStr">
         <is>
@@ -5824,11 +5943,11 @@
     <row r="100" spans="1:57" ht="19.5">
       <c r="C100">
         <f>H99*D100</f>
-        <v>886.50761411799783</v>
+        <v>12358.767885693298</v>
       </c>
       <c r="D100">
         <f>D99</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E100" t="s">
         <v>12</v>
@@ -5839,7 +5958,7 @@
       <c r="G100" s="2"/>
       <c r="H100">
         <f>H99+C100</f>
-        <v>31361.706686418831</v>
+        <v>327043.74757341295</v>
       </c>
       <c r="BE100" t="inlineStr">
         <is>
@@ -5850,11 +5969,11 @@
     <row r="101" spans="1:57" ht="19.5">
       <c r="C101">
         <f>H100*D101</f>
-        <v>912.2956573076317</v>
+        <v>12844.139458890138</v>
       </c>
       <c r="D101">
         <f>D100</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E101" t="s">
         <v>13</v>
@@ -5865,7 +5984,7 @@
       <c r="G101" s="2"/>
       <c r="H101">
         <f>H100+C101</f>
-        <v>32274.002343726461</v>
+        <v>339887.88703230309</v>
       </c>
       <c r="BE101" t="inlineStr">
         <is>
@@ -5876,11 +5995,11 @@
     <row r="102" spans="1:57" ht="19.5">
       <c r="C102">
         <f>H101*D102</f>
-        <v>938.83386119634997</v>
+        <v>13348.573253033799</v>
       </c>
       <c r="D102">
         <f>D101</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E102" t="s">
         <v>14</v>
@@ -5891,17 +6010,17 @@
       <c r="G102" s="2"/>
       <c r="H102">
         <f>H101+C102</f>
-        <v>33212.836204922809</v>
+        <v>353236.46028533689</v>
       </c>
     </row>
     <row r="103" spans="1:57" ht="19.5">
       <c r="C103">
         <f>H102*D103</f>
-        <v>966.14404756684144</v>
+        <v>13872.817907491504</v>
       </c>
       <c r="D103">
         <f>D102</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E103" t="s">
         <v>15</v>
@@ -5912,17 +6031,17 @@
       <c r="G103" s="2"/>
       <c r="H103">
         <f>H102+C103</f>
-        <v>34178.980252489651</v>
+        <v>367109.27819282841</v>
       </c>
     </row>
     <row r="104" spans="1:57" ht="19.5">
       <c r="C104">
         <f>H103*D104</f>
-        <v>994.24867298604863</v>
+        <v>14417.651463288537</v>
       </c>
       <c r="D104">
         <f>D103</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E104" t="s">
         <v>16</v>
@@ -5933,17 +6052,17 @@
       <c r="G104" s="2"/>
       <c r="H104">
         <f>H103+C104</f>
-        <v>35173.228925475698</v>
+        <v>381526.92965611693</v>
       </c>
     </row>
     <row r="105" spans="1:57" ht="19.5">
       <c r="C105">
         <f>H104*D105</f>
-        <v>1023.1708472707104</v>
+        <v>14983.882517813072</v>
       </c>
       <c r="D105">
         <f>D104</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E105" t="s">
         <v>17</v>
@@ -5954,17 +6073,17 @@
       <c r="G105" s="2"/>
       <c r="H105">
         <f>H104+C105</f>
-        <v>36196.399772746408</v>
+        <v>396510.81217393</v>
       </c>
     </row>
     <row r="106" spans="1:57" ht="19.5">
       <c r="C106">
         <f>H105*D106</f>
-        <v>1052.9343524900569</v>
+        <v>15572.35142487027</v>
       </c>
       <c r="D106">
         <f>D105</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
@@ -5975,17 +6094,17 @@
       <c r="G106" s="2"/>
       <c r="H106">
         <f>H105+C106</f>
-        <v>37249.334125236463</v>
+        <v>412083.16359880025</v>
       </c>
     </row>
     <row r="107" spans="1:57" ht="19.5">
       <c r="C107">
         <f>H106*D107</f>
-        <v>1083.5636625212828</v>
+        <v>16183.931541866643</v>
       </c>
       <c r="D107">
         <f>D106</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E107" t="s">
         <v>12</v>
@@ -5996,17 +6115,17 @@
       <c r="G107" s="2"/>
       <c r="H107">
         <f>H106+C107</f>
-        <v>38332.897787757742</v>
+        <v>428267.09514066688</v>
       </c>
     </row>
     <row r="108" spans="1:57" ht="19.5">
       <c r="C108">
         <f>H107*D108</f>
-        <v>1115.0839631738809</v>
+        <v>16819.530525975657</v>
       </c>
       <c r="D108">
         <f>D107</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E108" t="s">
         <v>13</v>
@@ -6017,17 +6136,17 @@
       <c r="G108" s="2"/>
       <c r="H108">
         <f>H107+C108</f>
-        <v>39447.98175093162</v>
+        <v>445086.62566664256</v>
       </c>
     </row>
     <row r="109" spans="1:57" ht="19.5">
       <c r="C109">
         <f>H108*D109</f>
-        <v>1147.5211728993786</v>
+        <v>17480.091681208254</v>
       </c>
       <c r="D109">
         <f>D108</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E109" t="s">
         <v>14</v>
@@ -6038,17 +6157,17 @@
       <c r="G109" s="2"/>
       <c r="H109">
         <f>H108+C109</f>
-        <v>40595.502923831002</v>
+        <v>462566.71734785079</v>
       </c>
     </row>
     <row r="110" spans="1:57" ht="19.5">
       <c r="C110">
         <f>H109*D110</f>
-        <v>1180.9019641035136</v>
+        <v>18166.595358387483</v>
       </c>
       <c r="D110">
         <f>D109</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E110" t="s">
         <v>15</v>
@@ -6059,17 +6178,17 @@
       <c r="G110" s="2"/>
       <c r="H110">
         <f>H109+C110</f>
-        <v>41776.404887934514</v>
+        <v>480733.3127062383</v>
       </c>
     </row>
     <row r="111" spans="1:57" ht="19.5">
       <c r="C111">
         <f>H110*D111</f>
-        <v>1215.2537850783658</v>
+        <v>18880.060410105001</v>
       </c>
       <c r="D111">
         <f>D110</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E111" t="s">
         <v>16</v>
@@ -6080,17 +6199,17 @@
       <c r="G111" s="2"/>
       <c r="H111">
         <f>H110+C111</f>
-        <v>42991.658673012877</v>
+        <v>499613.37311634328</v>
       </c>
     </row>
     <row r="112" spans="1:57" ht="19.5">
       <c r="C112">
         <f>H111*D112</f>
-        <v>1250.6048825724879</v>
+        <v>19621.545702818705</v>
       </c>
       <c r="D112">
         <f>D111</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E112" t="s">
         <v>17</v>
@@ -6101,17 +6220,17 @@
       <c r="G112" s="2"/>
       <c r="H112">
         <f>H111+C112</f>
-        <v>44242.263555585363</v>
+        <v>519234.91881916201</v>
       </c>
     </row>
     <row r="113" spans="1:57" ht="19.5">
       <c r="C113">
         <f>H112*D113</f>
-        <v>1286.9843250175852</v>
+        <v>20392.151688335725</v>
       </c>
       <c r="D113">
         <f>D112</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
@@ -6122,17 +6241,17 @@
       <c r="G113" s="2"/>
       <c r="H113">
         <f>H112+C113</f>
-        <v>45529.247880602947</v>
+        <v>539627.07050749776</v>
       </c>
     </row>
     <row r="114" spans="1:57" ht="19.5">
       <c r="C114">
         <f>H113*D114</f>
-        <v>1324.4220264308499</v>
+        <v>21193.022037012954</v>
       </c>
       <c r="D114">
         <f>D113</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E114" t="s">
         <v>12</v>
@@ -6143,17 +6262,17 @@
       <c r="G114" s="2"/>
       <c r="H114">
         <f>H113+C114</f>
-        <v>46853.6699070338</v>
+        <v>560820.09254451073</v>
       </c>
     </row>
     <row r="115" spans="1:57" ht="19.5">
       <c r="C115">
         <f>H114*D115</f>
-        <v>1362.9487710126007</v>
+        <v>22025.345335099009</v>
       </c>
       <c r="D115">
         <f>D114</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E115" t="s">
         <v>13</v>
@@ -6164,17 +6283,17 @@
       <c r="G115" s="2"/>
       <c r="H115">
         <f>H114+C115</f>
-        <v>48216.618678046398</v>
+        <v>582845.43787960976</v>
       </c>
     </row>
     <row r="116" spans="1:57" ht="19.5">
       <c r="C116">
         <f>H115*D116</f>
-        <v>1402.5962384594543</v>
+        <v>22890.356848736719</v>
       </c>
       <c r="D116">
         <f>D115</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
@@ -6185,17 +6304,17 @@
       <c r="G116" s="2"/>
       <c r="H116">
         <f>H115+C116</f>
-        <v>49619.214916505851</v>
+        <v>605735.79472834652</v>
       </c>
     </row>
     <row r="117" spans="1:57" ht="19.5">
       <c r="C117">
         <f>H116*D117</f>
-        <v>1443.3970300138471</v>
+        <v>23789.340357244062</v>
       </c>
       <c r="D117">
         <f>D116</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E117" t="s">
         <v>15</v>
@@ -6206,17 +6325,17 @@
       <c r="G117" s="2"/>
       <c r="H117">
         <f>H116+C117</f>
-        <v>51062.611946519697</v>
+        <v>629525.13508559053</v>
       </c>
     </row>
     <row r="118" spans="1:57" ht="19.5">
       <c r="C118">
         <f>H117*D118</f>
-        <v>1485.3846952713188</v>
+        <v>24723.630058394385</v>
       </c>
       <c r="D118">
         <f>D117</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E118" t="s">
         <v>16</v>
@@ -6227,17 +6346,17 @@
       <c r="G118" s="2"/>
       <c r="H118">
         <f>H117+C118</f>
-        <v>52547.996641791018</v>
+        <v>654248.76514398493</v>
       </c>
     </row>
     <row r="119" spans="1:57" ht="19.5">
       <c r="C119">
         <f>H118*D119</f>
-        <v>1528.5937597676102</v>
+        <v>25694.612548523608</v>
       </c>
       <c r="D119">
         <f>D118</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E119" t="s">
         <v>17</v>
@@ -6248,17 +6367,17 @@
       <c r="G119" s="2"/>
       <c r="H119">
         <f>H118+C119</f>
-        <v>54076.590401558627</v>
+        <v>679943.37769250851</v>
       </c>
     </row>
     <row r="120" spans="1:57" ht="19.5">
       <c r="C120">
         <f>H119*D120</f>
-        <v>1573.059753368253</v>
+        <v>26703.72888040304</v>
       </c>
       <c r="D120">
         <f>D119</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
@@ -6269,17 +6388,17 @@
       <c r="G120" s="2"/>
       <c r="H120">
         <f>H119+C120</f>
-        <v>55649.65015492688</v>
+        <v>706647.10657291161</v>
       </c>
     </row>
     <row r="121" spans="1:57" ht="19.5">
       <c r="C121">
         <f>H120*D121</f>
-        <v>1618.8192394839987</v>
+        <v>27752.476701932017</v>
       </c>
       <c r="D121">
         <f>D120</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E121" t="s">
         <v>12</v>
@@ -6290,17 +6409,17 @@
       <c r="G121" s="2"/>
       <c r="H121">
         <f>H120+C121</f>
-        <v>57268.46939441088</v>
+        <v>734399.58327484364</v>
       </c>
     </row>
     <row r="122" spans="1:57" ht="19.5">
       <c r="C122">
         <f>H121*D122</f>
-        <v>1665.909845136109</v>
+        <v>28842.412478824368</v>
       </c>
       <c r="D122">
         <f>D121</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E122" t="s">
         <v>13</v>
@@ -6311,17 +6430,17 @@
       <c r="G122" s="2"/>
       <c r="H122">
         <f>H121+C122</f>
-        <v>58934.379239546986</v>
+        <v>763241.99575366802</v>
       </c>
     </row>
     <row r="123" spans="1:57" ht="19.5">
       <c r="C123">
         <f>H122*D123</f>
-        <v>1714.3702918962288</v>
+        <v>29975.15380458751</v>
       </c>
       <c r="D123">
         <f>D122</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E123" t="s">
         <v>14</v>
@@ -6332,17 +6451,17 @@
       <c r="G123" s="2"/>
       <c r="H123">
         <f>H122+C123</f>
-        <v>60648.749531443216</v>
+        <v>793217.14955825557</v>
       </c>
     </row>
     <row r="124" spans="1:57" ht="19.5">
       <c r="C124">
         <f>H123*D124</f>
-        <v>1764.240427726287</v>
+        <v>31152.381801222364</v>
       </c>
       <c r="D124">
         <f>D123</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E124" t="s">
         <v>15</v>
@@ -6353,17 +6472,17 @@
       <c r="G124" s="2"/>
       <c r="H124">
         <f>H123+C124</f>
-        <v>62412.989959169507</v>
+        <v>824369.5313594779</v>
       </c>
     </row>
     <row r="125" spans="1:57" ht="19.5">
       <c r="C125">
         <f>H124*D125</f>
-        <v>1815.5612597445984</v>
+        <v>32375.8436142071</v>
       </c>
       <c r="D125">
         <f>D124</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E125" t="s">
         <v>16</v>
@@ -6374,17 +6493,17 @@
       <c r="G125" s="2"/>
       <c r="H125">
         <f>H124+C125</f>
-        <v>64228.551218914108</v>
+        <v>856745.37497368501</v>
       </c>
     </row>
     <row r="126" spans="1:57" ht="19.5">
       <c r="C126">
         <f>H125*D126</f>
-        <v>1868.3749879451188</v>
+        <v>33647.355005467529</v>
       </c>
       <c r="D126">
         <f>D125</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E126" t="s">
         <v>17</v>
@@ -6395,17 +6514,17 @@
       <c r="G126" s="2"/>
       <c r="H126">
         <f>H125+C126</f>
-        <v>66096.926206859222</v>
+        <v>890392.72997915256</v>
       </c>
     </row>
     <row r="127" spans="1:57" ht="19.5">
       <c r="C127">
         <f>H126*D127</f>
-        <v>1922.7250398975741</v>
+        <v>34968.803048182359</v>
       </c>
       <c r="D127">
         <f>D126</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E127" t="s">
         <v>11</v>
@@ -6416,17 +6535,17 @@
       <c r="G127" s="2"/>
       <c r="H127">
         <f>H126+C127</f>
-        <v>68019.651246756795</v>
+        <v>925361.53302733495</v>
       </c>
     </row>
     <row r="128" spans="1:57" ht="19.5">
       <c r="C128">
         <f>H127*D128</f>
-        <v>1978.6561064569973</v>
+        <v>36342.148927422859</v>
       </c>
       <c r="D128">
         <f>D127</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E128" t="s">
         <v>12</v>
@@ -6437,17 +6556,17 @@
       <c r="G128" s="2"/>
       <c r="H128">
         <f>H127+C128</f>
-        <v>69998.307353213793</v>
+        <v>961703.68195475778</v>
       </c>
     </row>
     <row r="129" spans="1:57" ht="19.5">
       <c r="C129">
         <f>H128*D129</f>
-        <v>2036.214178512038</v>
+        <v>37769.430850783261</v>
       </c>
       <c r="D129">
         <f>D128</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E129" t="s">
         <v>13</v>
@@ -6458,17 +6577,17 @@
       <c r="G129" s="2"/>
       <c r="H129">
         <f>H128+C129</f>
-        <v>72034.521531725826</v>
+        <v>999473.11280554102</v>
       </c>
     </row>
     <row r="130" spans="1:57" ht="19.5">
       <c r="C130">
         <f>H129*D130</f>
-        <v>2095.4465848022605</v>
+        <v>39252.767073321716</v>
       </c>
       <c r="D130">
         <f>D129</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E130" t="s">
         <v>14</v>
@@ -6479,17 +6598,17 @@
       <c r="G130" s="2"/>
       <c r="H130">
         <f>H129+C130</f>
-        <v>74129.968116528093</v>
+        <v>1038725.8798788628</v>
       </c>
     </row>
     <row r="131" spans="1:57" ht="19.5">
       <c r="C131">
         <f>H130*D131</f>
-        <v>2156.4020308355298</v>
+        <v>40794.359041301177</v>
       </c>
       <c r="D131">
         <f>D130</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E131" t="s">
         <v>15</v>
@@ -6500,17 +6619,17 @@
       <c r="G131" s="2"/>
       <c r="H131">
         <f>H130+C131</f>
-        <v>76286.370147363617</v>
+        <v>1079520.2389201638</v>
       </c>
     </row>
     <row r="132" spans="1:57" ht="19.5">
       <c r="C132">
         <f>H131*D132</f>
-        <v>2219.1306389374777</v>
+        <v>42396.494659395787</v>
       </c>
       <c r="D132">
         <f>D131</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E132" t="s">
         <v>16</v>
@@ -6520,17 +6639,17 @@
       </c>
       <c r="H132">
         <f>H131+C132</f>
-        <v>78505.500786301098</v>
+        <v>1121916.7335795597</v>
       </c>
     </row>
     <row r="133" spans="1:57" ht="19.5">
       <c r="C133">
         <f>H132*D133</f>
-        <v>2283.6839894659961</v>
+        <v>44061.551686211853</v>
       </c>
       <c r="D133">
         <f>D132</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E133" t="s">
         <v>17</v>
@@ -6540,17 +6659,17 @@
       </c>
       <c r="H133">
         <f>H132+C133</f>
-        <v>80789.184775767091</v>
+        <v>1165978.2852657717</v>
       </c>
     </row>
     <row r="134" spans="1:57" ht="19.5">
       <c r="C134">
         <f>H133*D134</f>
-        <v>2350.1151632246297</v>
+        <v>45792.001263162609</v>
       </c>
       <c r="D134">
         <f>D133</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E134" t="s">
         <v>11</v>
@@ -6560,17 +6679,17 @@
       </c>
       <c r="H134">
         <f>H133+C134</f>
-        <v>83139.299938991724</v>
+        <v>1211770.2865289343</v>
       </c>
     </row>
     <row r="135" spans="1:57" ht="19.5">
       <c r="C135">
         <f>H134*D135</f>
-        <v>2418.4787851097585</v>
+        <v>47590.411581934124</v>
       </c>
       <c r="D135">
         <f>D134</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E135" t="s">
         <v>12</v>
@@ -6580,17 +6699,17 @@
       </c>
       <c r="H135">
         <f>H134+C135</f>
-        <v>85557.778724101488</v>
+        <v>1259360.6981108685</v>
       </c>
     </row>
     <row r="136" spans="1:57" ht="19.5">
       <c r="C136">
         <f>H135*D136</f>
-        <v>2488.8310690274493</v>
+        <v>49459.451695985328</v>
       </c>
       <c r="D136">
         <f>D135</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E136" t="s">
         <v>13</v>
@@ -6600,17 +6719,17 @@
       </c>
       <c r="H136">
         <f>H135+C136</f>
-        <v>88046.609793128941</v>
+        <v>1308820.1498068538</v>
       </c>
     </row>
     <row r="137" spans="1:57" ht="19.5">
       <c r="C137">
         <f>H136*D137</f>
-        <v>2561.2298641169177</v>
+        <v>51401.89548173872</v>
       </c>
       <c r="D137">
         <f>D136</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E137" t="s">
         <v>14</v>
@@ -6620,17 +6739,17 @@
       </c>
       <c r="H137">
         <f>H136+C137</f>
-        <v>90607.839657245859</v>
+        <v>1360222.0452885926</v>
       </c>
     </row>
     <row r="138" spans="1:57" ht="19.5">
       <c r="C138">
         <f>H137*D138</f>
-        <v>2635.7347023186071</v>
+        <v>53420.625755340865</v>
       </c>
       <c r="D138">
         <f>D137</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E138" t="s">
         <v>15</v>
@@ -6640,17 +6759,17 @@
       </c>
       <c r="H138">
         <f>H137+C138</f>
-        <v>93243.57435956446</v>
+        <v>1413642.6710439334</v>
       </c>
     </row>
     <row r="139" spans="1:57" ht="19.5">
       <c r="C139">
         <f>H138*D139</f>
-        <v>2712.4068473259954</v>
+        <v>55518.638551102245</v>
       </c>
       <c r="D139">
         <f>D138</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E139" t="s">
         <v>16</v>
@@ -6660,17 +6779,17 @@
       </c>
       <c r="H139">
         <f>H138+C139</f>
-        <v>95955.981206890458</v>
+        <v>1469161.3095950356</v>
       </c>
     </row>
     <row r="140" spans="1:57" ht="19.5">
       <c r="C140">
         <f>H139*D140</f>
-        <v>2791.3093449613866</v>
+        <v>57699.04756796627</v>
       </c>
       <c r="D140">
         <f>D139</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E140" t="s">
         <v>17</v>
@@ -6680,17 +6799,17 @@
       </c>
       <c r="H140">
         <f>H139+C140</f>
-        <v>98747.290551851838</v>
+        <v>1526860.3571630018</v>
       </c>
     </row>
     <row r="141" spans="1:57" ht="19.5">
       <c r="C141">
         <f>H140*D141</f>
-        <v>2872.5070750171058</v>
+        <v>59965.088790606482</v>
       </c>
       <c r="D141">
         <f>D140</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E141" t="s">
         <v>11</v>
@@ -6700,17 +6819,17 @@
       </c>
       <c r="H141">
         <f>H140+C141</f>
-        <v>101619.79762686894</v>
+        <v>1586825.4459536083</v>
       </c>
     </row>
     <row r="142" spans="1:57" ht="19.5">
       <c r="C142">
         <f>H141*D142</f>
-        <v>2956.0668046047304</v>
+        <v>62320.125292010285</v>
       </c>
       <c r="D142">
         <f>D141</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E142" t="s">
         <v>12</v>
@@ -6720,17 +6839,17 @@
       </c>
       <c r="H142">
         <f>H141+C142</f>
-        <v>104575.86443147367</v>
+        <v>1649145.5712456186</v>
       </c>
     </row>
     <row r="143" spans="1:57" ht="19.5">
       <c r="C143">
         <f>H142*D143</f>
-        <v>3042.0572430562192</v>
+        <v>64767.652224676705</v>
       </c>
       <c r="D143">
         <f>D142</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E143" t="s">
         <v>13</v>
@@ -6740,17 +6859,17 @@
       </c>
       <c r="H143">
         <f>H142+C143</f>
-        <v>107617.92167452989</v>
+        <v>1713913.2234702953</v>
       </c>
     </row>
     <row r="144" spans="1:57" ht="19.5">
       <c r="C144">
         <f>H143*D144</f>
-        <v>3130.5490984220892</v>
+        <v>67311.30200783578</v>
       </c>
       <c r="D144">
         <f>D143</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E144" t="s">
         <v>14</v>
@@ -6760,17 +6879,17 @@
       </c>
       <c r="H144">
         <f>H143+C144</f>
-        <v>110748.47077295199</v>
+        <v>1781224.5254781311</v>
       </c>
     </row>
     <row r="145" spans="1:57" ht="19.5">
       <c r="C145">
         <f>H144*D145</f>
-        <v>3221.615135613094</v>
+        <v>69954.84971838801</v>
       </c>
       <c r="D145">
         <f>D144</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E145" t="s">
         <v>15</v>
@@ -6780,17 +6899,17 @@
       </c>
       <c r="H145">
         <f>H144+C145</f>
-        <v>113970.08590856509</v>
+        <v>1851179.3751965191</v>
       </c>
     </row>
     <row r="146" spans="1:57" ht="19.5">
       <c r="C146">
         <f>H145*D146</f>
-        <v>3315.330236233212</v>
+        <v>72702.218693564588</v>
       </c>
       <c r="D146">
         <f>D145</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E146" t="s">
         <v>16</v>
@@ -6800,17 +6919,17 @@
       </c>
       <c r="H146">
         <f>H145+C146</f>
-        <v>117285.41614479831</v>
+        <v>1923881.5938900837</v>
       </c>
     </row>
     <row r="147" spans="1:57" ht="19.5">
       <c r="C147">
         <f>H146*D147</f>
-        <v>3411.771460153147</v>
+        <v>75557.486353623623</v>
       </c>
       <c r="D147">
         <f>D146</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E147" t="s">
         <v>17</v>
@@ -6820,17 +6939,17 @@
       </c>
       <c r="H147">
         <f>H146+C147</f>
-        <v>120697.18760495145</v>
+        <v>1999439.0802437074</v>
       </c>
     </row>
     <row r="148" spans="1:57" ht="19.5">
       <c r="C148">
         <f>H147*D148</f>
-        <v>3511.0181088749696</v>
+        <v>78524.890253223581</v>
       </c>
       <c r="D148">
         <f>D147</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E148" t="s">
         <v>11</v>
@@ -6840,17 +6959,17 @@
       </c>
       <c r="H148">
         <f>H147+C148</f>
-        <v>124208.20571382642</v>
+        <v>2077963.9704969309</v>
       </c>
     </row>
     <row r="149" spans="1:57" ht="19.5">
       <c r="C149">
         <f>H148*D149</f>
-        <v>3613.1517907399993</v>
+        <v>81608.834370455312</v>
       </c>
       <c r="D149">
         <f>D148</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E149" t="s">
         <v>12</v>
@@ -6860,17 +6979,17 @@
       </c>
       <c r="H149">
         <f>H148+C149</f>
-        <v>127821.35750456642</v>
+        <v>2159572.8048673864</v>
       </c>
     </row>
     <row r="150" spans="1:57" ht="19.5">
       <c r="C150">
         <f>H149*D150</f>
-        <v>3718.2564880335572</v>
+        <v>84813.895642865973</v>
       </c>
       <c r="D150">
         <f>D149</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E150" t="s">
         <v>13</v>
@@ -6880,17 +6999,17 @@
       </c>
       <c r="H150">
         <f>H149+C150</f>
-        <v>131539.61399259997</v>
+        <v>2244386.7005102523</v>
       </c>
     </row>
     <row r="151" spans="1:57" ht="19.5">
       <c r="C151">
         <f>H150*D151</f>
-        <v>3826.4186260417514</v>
+        <v>88144.830760175289</v>
       </c>
       <c r="D151">
         <f>D150</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E151" t="s">
         <v>14</v>
@@ -6900,17 +7019,17 @@
       </c>
       <c r="H151">
         <f>H150+C151</f>
-        <v>135366.03261864174</v>
+        <v>2332531.5312704276</v>
       </c>
     </row>
     <row r="152" spans="1:57" ht="19.5">
       <c r="C152">
         <f>H151*D152</f>
-        <v>3937.7271441170969</v>
+        <v>91606.583223765265</v>
       </c>
       <c r="D152">
         <f>D151</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E152" t="s">
         <v>15</v>
@@ -6920,17 +7039,17 @@
       </c>
       <c r="H152">
         <f>H151+C152</f>
-        <v>139303.75976275883</v>
+        <v>2424138.1144941929</v>
       </c>
     </row>
     <row r="153" spans="1:57" ht="19.5">
       <c r="C153">
         <f>H152*D153</f>
-        <v>4052.2735688113903</v>
+        <v>95204.290683420491</v>
       </c>
       <c r="D153">
         <f>D152</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E153" t="s">
         <v>16</v>
@@ -6940,17 +7059,17 @@
       </c>
       <c r="H153">
         <f>H152+C153</f>
-        <v>143356.03333157022</v>
+        <v>2519342.4051776133</v>
       </c>
     </row>
     <row r="154" spans="1:57" ht="19.5">
       <c r="C154">
         <f>H153*D154</f>
-        <v>4170.1520891359896</v>
+        <v>98943.2925622076</v>
       </c>
       <c r="D154">
         <f>D153</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E154" t="s">
         <v>17</v>
@@ -6960,17 +7079,17 @@
       </c>
       <c r="H154">
         <f>H153+C154</f>
-        <v>147526.1854207062</v>
+        <v>2618285.6977398209</v>
       </c>
     </row>
     <row r="155" spans="1:57" ht="19.5">
       <c r="C155">
         <f>H154*D155</f>
-        <v>4291.4596340113649</v>
+        <v>102829.13798081016</v>
       </c>
       <c r="D155">
         <f>D154</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E155" t="s">
         <v>11</v>
@@ -6980,17 +7099,17 @@
       </c>
       <c r="H155">
         <f>H154+C155</f>
-        <v>151817.64505471758</v>
+        <v>2721114.8357206313</v>
       </c>
     </row>
     <row r="156" spans="1:57" ht="19.5">
       <c r="C156">
         <f>H155*D156</f>
-        <v>4416.2959519696278</v>
+        <v>106867.59399307963</v>
       </c>
       <c r="D156">
         <f>D155</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E156" t="s">
         <v>12</v>
@@ -7000,17 +7119,17 @@
       </c>
       <c r="H156">
         <f>H155+C156</f>
-        <v>156233.94100668721</v>
+        <v>2827982.4297137111</v>
       </c>
     </row>
     <row r="157" spans="1:57" ht="19.5">
       <c r="C157">
         <f>H156*D157</f>
-        <v>4544.7636931755587</v>
+        <v>111064.65414502473</v>
       </c>
       <c r="D157">
         <f>D156</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E157" t="s">
         <v>13</v>
@@ -7020,17 +7139,17 @@
       </c>
       <c r="H157">
         <f>H156+C157</f>
-        <v>160778.70469986278</v>
+        <v>2939047.0838587359</v>
       </c>
     </row>
     <row r="158" spans="1:57" ht="19.5">
       <c r="C158">
         <f>H157*D158</f>
-        <v>4676.968493833584</v>
+        <v>115426.54736994223</v>
       </c>
       <c r="D158">
         <f>D157</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E158" t="s">
         <v>14</v>
@@ -7040,17 +7159,17 @@
       </c>
       <c r="H158">
         <f>H157+C158</f>
-        <v>165455.67319369636</v>
+        <v>3054473.6312286779</v>
       </c>
     </row>
     <row r="159" spans="1:57" ht="19.5">
       <c r="C159">
         <f>H158*D159</f>
-        <v>4813.0190630501102</v>
+        <v>119959.74723289002</v>
       </c>
       <c r="D159">
         <f>D158</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E159" t="s">
         <v>15</v>
@@ -7060,17 +7179,17 @@
       </c>
       <c r="H159">
         <f>H158+C159</f>
-        <v>170268.69225674646</v>
+        <v>3174433.3784615682</v>
       </c>
     </row>
     <row r="160" spans="1:57" ht="19.5">
       <c r="C160">
         <f>H159*D160</f>
-        <v>4953.0272722226337</v>
+        <v>124670.98153822278</v>
       </c>
       <c r="D160">
         <f>D159</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E160" t="s">
         <v>16</v>
@@ -7080,17 +7199,17 @@
       </c>
       <c r="H160">
         <f>H159+C160</f>
-        <v>175221.71952896909</v>
+        <v>3299104.3599997908</v>
       </c>
     </row>
     <row r="161" spans="1:57" ht="19.5">
       <c r="C161">
         <f>H160*D161</f>
-        <v>5097.1082470291403</v>
+        <v>129567.24231444875</v>
       </c>
       <c r="D161">
         <f>D160</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E161" t="s">
         <v>17</v>
@@ -7100,17 +7219,17 @@
       </c>
       <c r="H161">
         <f>H160+C161</f>
-        <v>180318.82777599822</v>
+        <v>3428671.6023142394</v>
       </c>
     </row>
     <row r="162" spans="1:57" ht="19.5">
       <c r="C162">
         <f>H161*D162</f>
-        <v>5245.3804620934206</v>
+        <v>134655.79619122643</v>
       </c>
       <c r="D162">
         <f>D161</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E162" t="s">
         <v>11</v>
@@ -7120,17 +7239,17 @@
       </c>
       <c r="H162">
         <f>H161+C162</f>
-        <v>185564.20823809164</v>
+        <v>3563327.3985054656</v>
       </c>
     </row>
     <row r="163" spans="1:57" ht="19.5">
       <c r="C163">
         <f>H162*D163</f>
-        <v>5397.9658384041568</v>
+        <v>139944.19518390173</v>
       </c>
       <c r="D163">
         <f>D162</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E163" t="s">
         <v>12</v>
@@ -7140,17 +7259,17 @@
       </c>
       <c r="H163">
         <f>H162+C163</f>
-        <v>190962.17407649581</v>
+        <v>3703271.5936893672</v>
       </c>
     </row>
     <row r="164" spans="1:57" ht="19.5">
       <c r="C164">
         <f>H163*D164</f>
-        <v>5554.9898435678688</v>
+        <v>145440.28790159142</v>
       </c>
       <c r="D164">
         <f>D163</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E164" t="s">
         <v>13</v>
@@ -7160,17 +7279,17 @@
       </c>
       <c r="H164">
         <f>H163+C164</f>
-        <v>196517.16392006367</v>
+        <v>3848711.8815909587</v>
       </c>
     </row>
     <row r="165" spans="1:57" ht="19.5">
       <c r="C165">
         <f>H164*D165</f>
-        <v>5716.5815949781827</v>
+        <v>151152.23119544645</v>
       </c>
       <c r="D165">
         <f>D164</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E165" t="s">
         <v>14</v>
@@ -7180,17 +7299,17 @@
       </c>
       <c r="H165">
         <f>H164+C165</f>
-        <v>202233.74551504187</v>
+        <v>3999864.1127864053</v>
       </c>
     </row>
     <row r="166" spans="1:57" ht="19.5">
       <c r="C166">
         <f>H165*D166</f>
-        <v>5882.8739659862249</v>
+        <v>157088.50226438325</v>
       </c>
       <c r="D166">
         <f>D165</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E166" t="s">
         <v>15</v>
@@ -7200,17 +7319,17 @@
       </c>
       <c r="H166">
         <f>H165+C166</f>
-        <v>208116.61948102809</v>
+        <v>4156952.6150507885</v>
       </c>
     </row>
     <row r="167" spans="1:57" ht="19.5">
       <c r="C167">
         <f>H166*D167</f>
-        <v>6054.0036951594611</v>
+        <v>163257.91123624871</v>
       </c>
       <c r="D167">
         <f>D166</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E167" t="s">
         <v>16</v>
@@ -7220,17 +7339,17 @@
       </c>
       <c r="H167">
         <f>H166+C167</f>
-        <v>214170.62317618754</v>
+        <v>4320210.5262870369</v>
       </c>
     </row>
     <row r="168" spans="1:57" ht="19.5">
       <c r="C168">
         <f>H167*D168</f>
-        <v>6230.1114987188284</v>
+        <v>169669.61424309117</v>
       </c>
       <c r="D168">
         <f>D167</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E168" t="s">
         <v>17</v>
@@ -7240,17 +7359,17 @@
       </c>
       <c r="H168">
         <f>H167+C168</f>
-        <v>220400.73467490636</v>
+        <v>4489880.140530128</v>
       </c>
     </row>
     <row r="169" spans="1:57" ht="19.5">
       <c r="C169">
         <f>H168*D169</f>
-        <v>6411.3421862465848</v>
+        <v>176333.12700994255</v>
       </c>
       <c r="D169">
         <f>D168</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E169" t="s">
         <v>11</v>
@@ -7260,17 +7379,17 @@
       </c>
       <c r="H169">
         <f>H168+C169</f>
-        <v>226812.07686115295</v>
+        <v>4666213.2675400702</v>
       </c>
     </row>
     <row r="170" spans="1:57" ht="19.5">
       <c r="C170">
         <f>H169*D170</f>
-        <v>6597.8447797600593</v>
+        <v>183258.33897727876</v>
       </c>
       <c r="D170">
         <f>D169</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E170" t="s">
         <v>12</v>
@@ -7280,17 +7399,17 @@
       </c>
       <c r="H170">
         <f>H169+C170</f>
-        <v>233409.921640913</v>
+        <v>4849471.6065173494</v>
       </c>
     </row>
     <row r="171" spans="1:57" ht="19.5">
       <c r="C171">
         <f>H170*D171</f>
-        <v>6789.7726362491803</v>
+        <v>190455.52797811836</v>
       </c>
       <c r="D171">
         <f>D170</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E171" t="s">
         <v>13</v>
@@ -7300,17 +7419,17 @@
       </c>
       <c r="H171">
         <f>H170+C171</f>
-        <v>240199.69427716217</v>
+        <v>5039927.1344954679</v>
       </c>
     </row>
     <row r="172" spans="1:57" ht="19.5">
       <c r="C172">
         <f>H171*D172</f>
-        <v>6987.2835737785699</v>
+        <v>197935.37549154129</v>
       </c>
       <c r="D172">
         <f>D171</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E172" t="s">
         <v>14</v>
@@ -7320,17 +7439,17 @@
       </c>
       <c r="H172">
         <f>H171+C172</f>
-        <v>247186.97785094075</v>
+        <v>5237862.5099870088</v>
       </c>
     </row>
     <row r="173" spans="1:57" ht="19.5">
       <c r="C173">
         <f>H172*D173</f>
-        <v>7190.5400012578693</v>
+        <v>205708.98249526625</v>
       </c>
       <c r="D173">
         <f>D172</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E173" t="s">
         <v>15</v>
@@ -7340,17 +7459,17 @@
       </c>
       <c r="H173">
         <f>H172+C173</f>
-        <v>254377.51785219862</v>
+        <v>5443571.4924822748</v>
       </c>
     </row>
     <row r="174" spans="1:57" ht="19.5">
       <c r="C174">
         <f>H173*D174</f>
-        <v>7399.7090519870226</v>
+        <v>213787.88594081366</v>
       </c>
       <c r="D174">
         <f>D173</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E174" t="s">
         <v>16</v>
@@ -7360,17 +7479,17 @@
       </c>
       <c r="H174">
         <f>H173+C174</f>
-        <v>261777.22690418563</v>
+        <v>5657359.3784230882</v>
       </c>
     </row>
     <row r="175" spans="1:57" ht="19.5">
       <c r="C175">
         <f>H174*D175</f>
-        <v>7614.9627210863237</v>
+        <v>222184.07587570522</v>
       </c>
       <c r="D175">
         <f>D174</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E175" t="s">
         <v>17</v>
@@ -7380,17 +7499,17 @@
       </c>
       <c r="H175">
         <f>H174+C175</f>
-        <v>269392.18962527195</v>
+        <v>5879543.4542987933</v>
       </c>
     </row>
     <row r="176" spans="1:57" ht="19.5">
       <c r="C176">
         <f>H175*D176</f>
-        <v>7836.478006924227</v>
+        <v>230910.01323811142</v>
       </c>
       <c r="D176">
         <f>D175</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E176" t="s">
         <v>11</v>
@@ -7400,17 +7519,17 @@
       </c>
       <c r="H176">
         <f>H175+C176</f>
-        <v>277228.66763219616</v>
+        <v>6110453.4675369048</v>
       </c>
     </row>
     <row r="177" spans="1:57" ht="19.5">
       <c r="C177">
         <f>H176*D177</f>
-        <v>8064.4370566592233</v>
+        <v>239978.6483503565</v>
       </c>
       <c r="D177">
         <f>D176</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E177" t="s">
         <v>12</v>
@@ -7420,17 +7539,17 @@
       </c>
       <c r="H177">
         <f>H176+C177</f>
-        <v>285293.10468885535</v>
+        <v>6350432.115887261</v>
       </c>
     </row>
     <row r="178" spans="1:57" ht="19.5">
       <c r="C178">
         <f>H177*D178</f>
-        <v>8299.0273160154502</v>
+        <v>249403.44013872737</v>
       </c>
       <c r="D178">
         <f>D177</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E178" t="s">
         <v>13</v>
@@ -7440,17 +7559,17 @@
       </c>
       <c r="H178">
         <f>H177+C178</f>
-        <v>293592.1320048708</v>
+        <v>6599835.5560259884</v>
       </c>
     </row>
     <row r="179" spans="1:57" ht="19.5">
       <c r="C179">
         <f>H178*D179</f>
-        <v>8540.4416834151998</v>
+        <v>259198.37610811077</v>
       </c>
       <c r="D179">
         <f>D178</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E179" t="s">
         <v>14</v>
@@ -7460,17 +7579,17 @@
       </c>
       <c r="H179">
         <f>H178+C179</f>
-        <v>302132.57368828601</v>
+        <v>6859033.9321340993</v>
       </c>
     </row>
     <row r="180" spans="1:57" ht="19.5">
       <c r="C180">
         <f>H179*D180</f>
-        <v>8788.8786685950545</v>
+        <v>269377.99310110381</v>
       </c>
       <c r="D180">
         <f>D179</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E180" t="s">
         <v>15</v>
@@ -7480,17 +7599,17 @@
       </c>
       <c r="H180">
         <f>H179+C180</f>
-        <v>310921.45235688105</v>
+        <v>7128411.9252352035</v>
       </c>
     </row>
     <row r="181" spans="1:57" ht="19.5">
       <c r="C181">
         <f>H180*D181</f>
-        <v>9044.5425558360876</v>
+        <v>279957.39887240616</v>
       </c>
       <c r="D181">
         <f>D180</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E181" t="s">
         <v>16</v>
@@ -7500,17 +7619,17 @@
       </c>
       <c r="H181">
         <f>H180+C181</f>
-        <v>319965.99491271714</v>
+        <v>7408369.3241076097</v>
       </c>
     </row>
     <row r="182" spans="1:57" ht="19.5">
       <c r="C182">
         <f>H181*D182</f>
-        <v>9307.6435719423498</v>
+        <v>290952.29451051389</v>
       </c>
       <c r="D182">
         <f>D181</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E182" t="s">
         <v>17</v>
@@ -7520,17 +7639,17 @@
       </c>
       <c r="H182">
         <f>H181+C182</f>
-        <v>329273.63848465949</v>
+        <v>7699321.6186181232</v>
       </c>
     </row>
     <row r="183" spans="1:57" ht="19.5">
       <c r="C183">
         <f>H182*D183</f>
-        <v>9578.3980591057498</v>
+        <v>302378.99773999007</v>
       </c>
       <c r="D183">
         <f>D182</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E183" t="s">
         <v>11</v>
@@ -7540,17 +7659,17 @@
       </c>
       <c r="H183">
         <f>H182+C183</f>
-        <v>338852.03654376522</v>
+        <v>8001700.6163581135</v>
       </c>
     </row>
     <row r="184" spans="1:57" ht="19.5">
       <c r="C184">
         <f>H183*D184</f>
-        <v>9857.0286527994958</v>
+        <v>314254.46713889687</v>
       </c>
       <c r="D184">
         <f>D183</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E184" t="s">
         <v>12</v>
@@ -7560,17 +7679,17 @@
       </c>
       <c r="H184">
         <f>H183+C184</f>
-        <v>348709.06519656471</v>
+        <v>8315955.0834970102</v>
       </c>
     </row>
     <row r="185" spans="1:57" ht="19.5">
       <c r="C185">
         <f>H184*D185</f>
-        <v>10143.764464846359</v>
+        <v>326596.32730732934</v>
       </c>
       <c r="D185">
         <f>D184</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E185" t="s">
         <v>13</v>
@@ -7580,17 +7699,17 @@
       </c>
       <c r="H185">
         <f>H184+C185</f>
-        <v>358852.82966141106</v>
+        <v>8642551.4108043388</v>
       </c>
     </row>
     <row r="186" spans="1:57" ht="19.5">
       <c r="C186">
         <f>H185*D186</f>
-        <v>10438.841271812298</v>
+        <v>339422.89502440527</v>
       </c>
       <c r="D186">
         <f>D185</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E186" t="s">
         <v>14</v>
@@ -7600,17 +7719,17 @@
       </c>
       <c r="H186">
         <f>H185+C186</f>
-        <v>369291.67093322333</v>
+        <v>8981974.3058287445</v>
       </c>
     </row>
     <row r="187" spans="1:57" ht="19.5">
       <c r="C187">
         <f>H186*D187</f>
-        <v>10742.501708880351</v>
+        <v>352753.2064325299</v>
       </c>
       <c r="D187">
         <f>D186</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E187" t="s">
         <v>15</v>
@@ -7620,17 +7739,17 @@
       </c>
       <c r="H187">
         <f>H186+C187</f>
-        <v>380034.17264210369</v>
+        <v>9334727.5122612752</v>
       </c>
     </row>
     <row r="188" spans="1:57" ht="19.5">
       <c r="C188">
         <f>H187*D188</f>
-        <v>11054.995469364228</v>
+        <v>366607.04528928112</v>
       </c>
       <c r="D188">
         <f>D187</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E188" t="s">
         <v>16</v>
@@ -7640,17 +7759,17 @@
       </c>
       <c r="H188">
         <f>H187+C188</f>
-        <v>391089.16811146791</v>
+        <v>9701334.557550557</v>
       </c>
     </row>
     <row r="189" spans="1:57" ht="19.5">
       <c r="C189">
         <f>H188*D189</f>
-        <v>11376.579510025638</v>
+        <v>381004.9723288439</v>
       </c>
       <c r="D189">
         <f>D188</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E189" t="s">
         <v>17</v>
@@ -7660,17 +7779,17 @@
       </c>
       <c r="H189">
         <f>H188+C189</f>
-        <v>402465.74762149353</v>
+        <v>10082339.529879401</v>
       </c>
     </row>
     <row r="190" spans="1:57" ht="19.5">
       <c r="C190">
         <f>H189*D190</f>
-        <v>11707.518262364199</v>
+        <v>395968.35577656975</v>
       </c>
       <c r="D190">
         <f>D189</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E190" t="s">
         <v>11</v>
@@ -7680,17 +7799,17 @@
       </c>
       <c r="H190">
         <f>H189+C190</f>
-        <v>414173.26588385773</v>
+        <v>10478307.885655969</v>
       </c>
     </row>
     <row r="191" spans="1:57" ht="19.5">
       <c r="C191">
         <f>H190*D191</f>
-        <v>12048.083850053657</v>
+        <v>411519.40306194866</v>
       </c>
       <c r="D191">
         <f>D190</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E191" t="s">
         <v>12</v>
@@ -7700,17 +7819,17 @@
       </c>
       <c r="H191">
         <f>H190+C191</f>
-        <v>426221.3497339114</v>
+        <v>10889827.288717918</v>
       </c>
     </row>
     <row r="192" spans="1:57" ht="19.5">
       <c r="C192">
         <f>H191*D192</f>
-        <v>12398.556312703211</v>
+        <v>427681.19377705909</v>
       </c>
       <c r="D192">
         <f>D191</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E192" t="s">
         <v>13</v>
@@ -7720,17 +7839,17 @@
       </c>
       <c r="H192">
         <f>H191+C192</f>
-        <v>438619.90604661463</v>
+        <v>11317508.482494976</v>
       </c>
     </row>
     <row r="193" spans="1:57" ht="19.5">
       <c r="C193">
         <f>H192*D193</f>
-        <v>12759.223836127934</v>
+        <v>444477.71392940986</v>
       </c>
       <c r="D193">
         <f>D192</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E193" t="s">
         <v>14</v>
@@ -7740,17 +7859,17 @@
       </c>
       <c r="H193">
         <f>H192+C193</f>
-        <v>451379.12988274259</v>
+        <v>11761986.196424386</v>
       </c>
     </row>
     <row r="194" spans="1:57" ht="19.5">
       <c r="C194">
         <f>H193*D194</f>
-        <v>13130.382989317653</v>
+        <v>461933.89154001069</v>
       </c>
       <c r="D194">
         <f>D193</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E194" t="s">
         <v>15</v>
@@ -7760,17 +7879,17 @@
       </c>
       <c r="H194">
         <f>H193+C194</f>
-        <v>464509.51287206024</v>
+        <v>12223920.087964397</v>
       </c>
     </row>
     <row r="195" spans="1:57" ht="19.5">
       <c r="C195">
         <f>H194*D195</f>
-        <v>13512.338968299113</v>
+        <v>480075.63363950123</v>
       </c>
       <c r="D195">
         <f>D194</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E195" t="s">
         <v>16</v>
@@ -7780,17 +7899,17 @@
       </c>
       <c r="H195">
         <f>H194+C195</f>
-        <v>478021.85184035933</v>
+        <v>12703995.721603898</v>
       </c>
     </row>
     <row r="196" spans="1:57" ht="19.5">
       <c r="C196">
         <f>H195*D196</f>
-        <v>13905.405847091977</v>
+        <v>498929.86471724615</v>
       </c>
       <c r="D196">
         <f>D195</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E196" t="s">
         <v>17</v>
@@ -7800,17 +7919,17 @@
       </c>
       <c r="H196">
         <f>H195+C196</f>
-        <v>491927.25768745132</v>
+        <v>13202925.586321145</v>
       </c>
     </row>
     <row r="197" spans="1:57" ht="19.5">
       <c r="C197">
         <f>H196*D197</f>
-        <v>14309.906835965001</v>
+        <v>518524.56668045983</v>
       </c>
       <c r="D197">
         <f>D196</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E197" t="s">
         <v>11</v>
@@ -7820,17 +7939,17 @@
       </c>
       <c r="H197">
         <f>H196+C197</f>
-        <v>506237.16452341632</v>
+        <v>13721450.153001605</v>
       </c>
     </row>
     <row r="198" spans="1:57" ht="19.5">
       <c r="C198">
         <f>H197*D198</f>
-        <v>14726.174547204742</v>
+        <v>538888.8203826634</v>
       </c>
       <c r="D198">
         <f>D197</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E198" t="s">
         <v>12</v>
@@ -7840,17 +7959,17 @@
       </c>
       <c r="H198">
         <f>H197+C198</f>
-        <v>520963.33907062106</v>
+        <v>14260338.973384269</v>
       </c>
     </row>
     <row r="199" spans="1:57" ht="19.5">
       <c r="C199">
         <f>H198*D199</f>
-        <v>15154.551268615345</v>
+        <v>560052.84878310852</v>
       </c>
       <c r="D199">
         <f>D198</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E199" t="s">
         <v>13</v>
@@ -7860,17 +7979,17 @@
       </c>
       <c r="H199">
         <f>H198+C199</f>
-        <v>536117.89033923636</v>
+        <v>14820391.822167378</v>
       </c>
     </row>
     <row r="200" spans="1:57" ht="19.5">
       <c r="C200">
         <f>H199*D200</f>
-        <v>15595.389244974289</v>
+        <v>582048.06180122087</v>
       </c>
       <c r="D200">
         <f>D199</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E200" t="s">
         <v>14</v>
@@ -7880,17 +7999,17 @@
       </c>
       <c r="H200">
         <f>H199+C200</f>
-        <v>551713.2795842106</v>
+        <v>15402439.883968599</v>
       </c>
     </row>
     <row r="201" spans="1:57" ht="19.5">
       <c r="C201">
         <f>H200*D201</f>
-        <v>16049.050967675541</v>
+        <v>604907.10293263232</v>
       </c>
       <c r="D201">
         <f>D200</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E201" t="s">
         <v>15</v>
@@ -7900,17 +8019,17 @@
       </c>
       <c r="H201">
         <f>H200+C201</f>
-        <v>567762.33055188612</v>
+        <v>16007346.986901231</v>
       </c>
     </row>
     <row r="202" spans="1:57" ht="19.5">
       <c r="C202">
         <f>H201*D202</f>
-        <v>16515.909472798277</v>
+        <v>628663.8976959869</v>
       </c>
       <c r="D202">
         <f>D201</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E202" t="s">
         <v>16</v>
@@ -7920,17 +8039,17 @@
       </c>
       <c r="H202">
         <f>H201+C202</f>
-        <v>584278.24002468435</v>
+        <v>16636010.884597218</v>
       </c>
     </row>
     <row r="203" spans="1:57" ht="19.5">
       <c r="C203">
         <f>H202*D203</f>
-        <v>16996.348647846258</v>
+        <v>653353.70398242003</v>
       </c>
       <c r="D203">
         <f>D202</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E203" t="s">
         <v>17</v>
@@ -7940,17 +8059,17 @@
       </c>
       <c r="H203">
         <f>H202+C203</f>
-        <v>601274.5886725306</v>
+        <v>17289364.588579636</v>
       </c>
     </row>
     <row r="204" spans="1:57" ht="19.5">
       <c r="C204">
         <f>H203*D204</f>
-        <v>17490.763547410104</v>
+        <v>679013.16438243538</v>
       </c>
       <c r="D204">
         <f>D203</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E204" t="s">
         <v>11</v>
@@ -7960,17 +8079,17 @@
       </c>
       <c r="H204">
         <f>H203+C204</f>
-        <v>618765.35221994075</v>
+        <v>17968377.752962071</v>
       </c>
     </row>
     <row r="205" spans="1:57" ht="19.5">
       <c r="C205">
         <f>H204*D205</f>
-        <v>17999.560718012013</v>
+        <v>705680.36056784051</v>
       </c>
       <c r="D205">
         <f>D204</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E205" t="s">
         <v>12</v>
@@ -7980,17 +8099,17 @@
       </c>
       <c r="H205">
         <f>H204+C205</f>
-        <v>636764.91293795279</v>
+        <v>18674058.113529913</v>
       </c>
     </row>
     <row r="206" spans="1:57" ht="19.5">
       <c r="C206">
         <f>H205*D206</f>
-        <v>18523.158532400044</v>
+        <v>733394.86980944779</v>
       </c>
       <c r="D206">
         <f>D205</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E206" t="s">
         <v>13</v>
@@ -8000,17 +8119,17 @@
       </c>
       <c r="H206">
         <f>H205+C206</f>
-        <v>655288.07147035282</v>
+        <v>19407452.983339362</v>
       </c>
     </row>
     <row r="207" spans="1:57" ht="19.5">
       <c r="C207">
         <f>H206*D207</f>
-        <v>19061.987533566851</v>
+        <v>762197.82371442229</v>
       </c>
       <c r="D207">
         <f>D206</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E207" t="s">
         <v>14</v>
@@ -8020,17 +8139,17 @@
       </c>
       <c r="H207">
         <f>H206+C207</f>
-        <v>674350.05900391971</v>
+        <v>20169650.807053786</v>
       </c>
     </row>
     <row r="208" spans="1:57" ht="19.5">
       <c r="C208">
         <f>H207*D208</f>
-        <v>19616.490788775729</v>
+        <v>792131.96927044785</v>
       </c>
       <c r="D208">
         <f>D207</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E208" t="s">
         <v>15</v>
@@ -8040,17 +8159,17 @@
       </c>
       <c r="H208">
         <f>H207+C208</f>
-        <v>693966.54979269544</v>
+        <v>20961782.776324235</v>
       </c>
     </row>
     <row r="209" spans="1:57" ht="19.5">
       <c r="C209">
         <f>H208*D209</f>
-        <v>20187.124253885111</v>
+        <v>823241.73228730867</v>
       </c>
       <c r="D209">
         <f>D208</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E209" t="s">
         <v>16</v>
@@ -8060,17 +8179,17 @@
       </c>
       <c r="H209">
         <f>H208+C209</f>
-        <v>714153.67404658056</v>
+        <v>21785024.508611545</v>
       </c>
     </row>
     <row r="210" spans="1:57" ht="19.5">
       <c r="C210">
         <f>H209*D210</f>
-        <v>20774.357148271061</v>
+        <v>855573.28333004168</v>
       </c>
       <c r="D210">
         <f>D209</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E210" t="s">
         <v>17</v>
@@ -8080,17 +8199,17 @@
       </c>
       <c r="H210">
         <f>H209+C210</f>
-        <v>734928.03119485162</v>
+        <v>22640597.791941587</v>
       </c>
     </row>
     <row r="211" spans="1:57" ht="19.5">
       <c r="C211">
         <f>H210*D211</f>
-        <v>21378.67234065607</v>
+        <v>889174.60624151188</v>
       </c>
       <c r="D211">
         <f>D210</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E211" t="s">
         <v>11</v>
@@ -8100,17 +8219,17 @@
       </c>
       <c r="H211">
         <f>H210+C211</f>
-        <v>756306.70353550767</v>
+        <v>23529772.3981831</v>
       </c>
     </row>
     <row r="212" spans="1:57" ht="19.5">
       <c r="C212">
         <f>H211*D212</f>
-        <v>22000.56674616141</v>
+        <v>924095.56935610576</v>
       </c>
       <c r="D212">
         <f>D211</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E212" t="s">
         <v>12</v>
@@ -8120,17 +8239,17 @@
       </c>
       <c r="H212">
         <f>H211+C212</f>
-        <v>778307.2702816691</v>
+        <v>24453867.967539206</v>
       </c>
     </row>
     <row r="213" spans="1:57" ht="19.5">
       <c r="C213">
         <f>H212*D213</f>
-        <v>22640.551734909539</v>
+        <v>960387.99951023364</v>
       </c>
       <c r="D213">
         <f>D212</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E213" t="s">
         <v>13</v>
@@ -8140,17 +8259,17 @@
       </c>
       <c r="H213">
         <f>H212+C213</f>
-        <v>800947.82201657863</v>
+        <v>25414255.967049439</v>
       </c>
     </row>
     <row r="214" spans="1:57" ht="19.5">
       <c r="C214">
         <f>H213*D214</f>
-        <v>23299.153552512511</v>
+        <v>998105.75895947975</v>
       </c>
       <c r="D214">
         <f>D213</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E214" t="s">
         <v>14</v>
@@ -8160,17 +8279,17 @@
       </c>
       <c r="H214">
         <f>H213+C214</f>
-        <v>824246.97556909116</v>
+        <v>26412361.726008918</v>
       </c>
     </row>
     <row r="215" spans="1:57" ht="19.5">
       <c r="C215">
         <f>H214*D215</f>
-        <v>23976.913752792225</v>
+        <v>1037304.8253165554</v>
       </c>
       <c r="D215">
         <f>D214</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E215" t="s">
         <v>15</v>
@@ -8180,17 +8299,17 @@
       </c>
       <c r="H215">
         <f>H214+C215</f>
-        <v>848223.88932188333</v>
+        <v>27449666.551325474</v>
       </c>
     </row>
     <row r="216" spans="1:57" ht="19.5">
       <c r="C216">
         <f>H215*D216</f>
-        <v>24674.38964308822</v>
+        <v>1078043.3746286922</v>
       </c>
       <c r="D216">
         <f>D215</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E216" t="s">
         <v>16</v>
@@ -8200,17 +8319,17 @@
       </c>
       <c r="H216">
         <f>H215+C216</f>
-        <v>872898.27896497154</v>
+        <v>28527709.925954167</v>
       </c>
     </row>
     <row r="217" spans="1:57" ht="19.5">
       <c r="C217">
         <f>H216*D217</f>
-        <v>25392.154742519302</v>
+        <v>1120381.8677177713</v>
       </c>
       <c r="D217">
         <f>D216</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E217" t="s">
         <v>17</v>
@@ -8220,17 +8339,17 @@
       </c>
       <c r="H217">
         <f>H216+C217</f>
-        <v>898290.4337074908</v>
+        <v>29648091.79367194</v>
       </c>
     </row>
     <row r="218" spans="1:57" ht="19.5">
       <c r="C218">
         <f>H217*D218</f>
-        <v>26130.799253575689</v>
+        <v>1164383.1399113289</v>
       </c>
       <c r="D218">
         <f>D217</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E218" t="s">
         <v>11</v>
@@ -8240,17 +8359,17 @@
       </c>
       <c r="H218">
         <f>H217+C218</f>
-        <v>924421.23296106653</v>
+        <v>30812474.933583267</v>
       </c>
     </row>
     <row r="219" spans="1:57" ht="19.5">
       <c r="C219">
         <f>H218*D219</f>
-        <v>26890.930547429609</v>
+        <v>1210112.4942976083</v>
       </c>
       <c r="D219">
         <f>D218</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E219" t="s">
         <v>12</v>
@@ -8260,17 +8379,17 @@
       </c>
       <c r="H219">
         <f>H218+C219</f>
-        <v>951312.16350849613</v>
+        <v>32022587.427880876</v>
       </c>
     </row>
     <row r="220" spans="1:57" ht="19.5">
       <c r="C220">
         <f>H219*D220</f>
-        <v>27673.17366336325</v>
+        <v>1257637.798643061</v>
       </c>
       <c r="D220">
         <f>D219</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E220" t="s">
         <v>13</v>
@@ -8280,17 +8399,17 @@
       </c>
       <c r="H220">
         <f>H219+C220</f>
-        <v>978985.33717185934</v>
+        <v>33280225.226523936</v>
       </c>
     </row>
     <row r="221" spans="1:57" ht="19.5">
       <c r="C221">
         <f>H220*D221</f>
-        <v>28478.171822724871</v>
+        <v>1307029.5861161333</v>
       </c>
       <c r="D221">
         <f>D220</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E221" t="s">
         <v>14</v>
@@ -8300,17 +8419,17 @@
       </c>
       <c r="H221">
         <f>H220+C221</f>
-        <v>1007463.5089945842</v>
+        <v>34587254.812640071</v>
       </c>
     </row>
     <row r="222" spans="1:57" ht="19.5">
       <c r="C222">
         <f>H221*D222</f>
-        <v>29306.586957835592</v>
+        <v>1358361.1599668232</v>
       </c>
       <c r="D222">
         <f>D221</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E222" t="s">
         <v>15</v>
@@ -8320,17 +8439,17 @@
       </c>
       <c r="H222">
         <f>H221+C222</f>
-        <v>1036770.0959524198</v>
+        <v>35945615.972606897</v>
       </c>
     </row>
     <row r="223" spans="1:57" ht="19.5">
       <c r="C223">
         <f>H222*D223</f>
-        <v>30159.100256281814</v>
+        <v>1411708.7023173685</v>
       </c>
       <c r="D223">
         <f>D222</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E223" t="s">
         <v>16</v>
@@ -8340,17 +8459,17 @@
       </c>
       <c r="H223">
         <f>H222+C223</f>
-        <v>1066929.1962087017</v>
+        <v>37357324.674924269</v>
       </c>
     </row>
     <row r="224" spans="1:57" ht="19.5">
       <c r="C224">
         <f>H223*D224</f>
-        <v>31036.41272104083</v>
+        <v>1467151.3872255182</v>
       </c>
       <c r="D224">
         <f>D223</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E224" t="s">
         <v>17</v>
@@ -8360,17 +8479,17 @@
       </c>
       <c r="H224">
         <f>H223+C224</f>
-        <v>1097965.6089297426</v>
+        <v>38824476.062149785</v>
       </c>
     </row>
     <row r="225" spans="1:57" ht="19.5">
       <c r="C225">
         <f>H224*D225</f>
-        <v>31939.245746900182</v>
+        <v>1524771.4981881918</v>
       </c>
       <c r="D225">
         <f>D224</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E225" t="s">
         <v>11</v>
@@ -8380,17 +8499,17 @@
       </c>
       <c r="H225">
         <f>H224+C225</f>
-        <v>1129904.8546766427</v>
+        <v>40349247.560337976</v>
       </c>
     </row>
     <row r="226" spans="1:57" ht="19.5">
       <c r="C226">
         <f>H225*D226</f>
-        <v>32868.341713644761</v>
+        <v>1584654.5502599142</v>
       </c>
       <c r="D226">
         <f>D225</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E226" t="s">
         <v>12</v>
@@ -8400,17 +8519,17 @@
       </c>
       <c r="H226">
         <f>H225+C226</f>
-        <v>1162773.1963902875</v>
+        <v>41933902.110597894</v>
       </c>
     </row>
     <row r="227" spans="1:57" ht="19.5">
       <c r="C227">
         <f>H226*D227</f>
-        <v>33824.464596499434</v>
+        <v>1646889.4169672632</v>
       </c>
       <c r="D227">
         <f>D226</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E227" t="s">
         <v>13</v>
@@ -8420,17 +8539,17 @@
       </c>
       <c r="H227">
         <f>H226+C227</f>
-        <v>1196597.6609867869</v>
+        <v>43580791.527565159</v>
       </c>
     </row>
     <row r="228" spans="1:57" ht="19.5">
       <c r="C228">
         <f>H227*D228</f>
-        <v>34808.400594329076</v>
+        <v>1711568.4622076848</v>
       </c>
       <c r="D228">
         <f>D227</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E228" t="s">
         <v>14</v>
@@ -8440,17 +8559,17 @@
       </c>
       <c r="H228">
         <f>H227+C228</f>
-        <v>1231406.0615811159</v>
+        <v>45292359.989772841</v>
       </c>
     </row>
     <row r="229" spans="1:57" ht="19.5">
       <c r="C229">
         <f>H228*D229</f>
-        <v>35820.958776112675</v>
+        <v>1778787.6773284352</v>
       </c>
       <c r="D229">
         <f>D228</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E229" t="s">
         <v>15</v>
@@ -8460,17 +8579,17 @@
       </c>
       <c r="H229">
         <f>H228+C229</f>
-        <v>1267227.0203572286</v>
+        <v>47071147.667101279</v>
       </c>
     </row>
     <row r="230" spans="1:57" ht="19.5">
       <c r="C230">
         <f>H229*D230</f>
-        <v>36862.971746222975</v>
+        <v>1848646.8235890837</v>
       </c>
       <c r="D230">
         <f>D229</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E230" t="s">
         <v>16</v>
@@ -8480,17 +8599,17 @@
       </c>
       <c r="H230">
         <f>H229+C230</f>
-        <v>1304089.9921034516</v>
+        <v>48919794.490690365</v>
       </c>
     </row>
     <row r="231" spans="1:57" ht="19.5">
       <c r="C231">
         <f>H230*D231</f>
-        <v>37935.296329058787</v>
+        <v>1921249.5802190129</v>
       </c>
       <c r="D231">
         <f>D230</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E231" t="s">
         <v>17</v>
@@ -8500,17 +8619,17 @@
       </c>
       <c r="H231">
         <f>H230+C231</f>
-        <v>1342025.2884325103</v>
+        <v>50841044.070909381</v>
       </c>
     </row>
     <row r="232" spans="1:57" ht="19.5">
       <c r="C232">
         <f>H231*D232</f>
-        <v>39038.814273592892</v>
+        <v>1996703.6982896477</v>
       </c>
       <c r="D232">
         <f>D231</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E232" t="s">
         <v>11</v>
@@ -8520,17 +8639,17 @@
       </c>
       <c r="H232">
         <f>H231+C232</f>
-        <v>1381064.1027061031</v>
+        <v>52837747.769199029</v>
       </c>
     </row>
     <row r="233" spans="1:57" ht="19.5">
       <c r="C233">
         <f>H232*D233</f>
-        <v>40174.432978414872</v>
+        <v>2075121.1606297803</v>
       </c>
       <c r="D233">
         <f>D232</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E233" t="s">
         <v>12</v>
@@ -8540,17 +8659,17 @@
       </c>
       <c r="H233">
         <f>H232+C233</f>
-        <v>1421238.5356845181</v>
+        <v>54912868.929828808</v>
       </c>
     </row>
     <row r="234" spans="1:57" ht="19.5">
       <c r="C234">
         <f>H233*D234</f>
-        <v>41343.086237865071</v>
+        <v>2156618.3480213233</v>
       </c>
       <c r="D234">
         <f>D233</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E234" t="s">
         <v>13</v>
@@ -8560,17 +8679,17 @@
       </c>
       <c r="H234">
         <f>H233+C234</f>
-        <v>1462581.6219223831</v>
+        <v>57069487.277850129</v>
       </c>
     </row>
     <row r="235" spans="1:57" ht="19.5">
       <c r="C235">
         <f>H234*D235</f>
-        <v>42545.735009873155</v>
+        <v>2241316.2119221431</v>
       </c>
       <c r="D235">
         <f>D234</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E235" t="s">
         <v>14</v>
@@ -8580,17 +8699,17 @@
       </c>
       <c r="H235">
         <f>H234+C235</f>
-        <v>1505127.3569322561</v>
+        <v>59310803.489772275</v>
       </c>
     </row>
     <row r="236" spans="1:57" ht="19.5">
       <c r="C236">
         <f>H235*D236</f>
-        <v>43783.368206132749</v>
+        <v>2329340.4539723215</v>
       </c>
       <c r="D236">
         <f>D235</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E236" t="s">
         <v>15</v>
@@ -8600,17 +8719,17 @@
       </c>
       <c r="H236">
         <f>H235+C236</f>
-        <v>1548910.7251383888</v>
+        <v>61640143.9437446</v>
       </c>
     </row>
     <row r="237" spans="1:57" ht="19.5">
       <c r="C237">
         <f>H236*D237</f>
-        <v>45057.00350526184</v>
+        <v>2420821.7125502401</v>
       </c>
       <c r="D237">
         <f>D236</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E237" t="s">
         <v>16</v>
@@ -8620,17 +8739,17 @@
       </c>
       <c r="H237">
         <f>H236+C237</f>
-        <v>1593967.7286436507</v>
+        <v>64060965.656294838</v>
       </c>
     </row>
     <row r="238" spans="1:57" ht="19.5">
       <c r="C238">
         <f>H237*D238</f>
-        <v>46367.688189617547</v>
+        <v>2515895.7566553787</v>
       </c>
       <c r="D238">
         <f>D237</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E238" t="s">
         <v>17</v>
@@ -8640,17 +8759,17 @@
       </c>
       <c r="H238">
         <f>H237+C238</f>
-        <v>1640335.4168332682</v>
+        <v>66576861.412950218</v>
       </c>
     </row>
     <row r="239" spans="1:57" ht="19.5">
       <c r="C239">
         <f>H238*D239</f>
-        <v>47716.500006453425</v>
+        <v>2614703.6874055541</v>
       </c>
       <c r="D239">
         <f>D238</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E239" t="s">
         <v>11</v>
@@ -8660,17 +8779,17 @@
       </c>
       <c r="H239">
         <f>H238+C239</f>
-        <v>1688051.9168397216</v>
+        <v>69191565.100355774</v>
       </c>
     </row>
     <row r="240" spans="1:57" ht="19.5">
       <c r="C240">
         <f>H239*D240</f>
-        <v>49104.548054127379</v>
+        <v>2717392.147447655</v>
       </c>
       <c r="D240">
         <f>D239</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E240" t="s">
         <v>12</v>
@@ -8680,17 +8799,17 @@
       </c>
       <c r="H240">
         <f>H239+C240</f>
-        <v>1737156.4648938491</v>
+        <v>71908957.247803435</v>
       </c>
     </row>
     <row r="241" spans="1:57" ht="19.5">
       <c r="C241">
         <f>H240*D241</f>
-        <v>50532.973694088942</v>
+        <v>2824113.5385926603</v>
       </c>
       <c r="D241">
         <f>D240</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E241" t="s">
         <v>13</v>
@@ -8700,17 +8819,17 @@
       </c>
       <c r="H241">
         <f>H240+C241</f>
-        <v>1787689.438587938</v>
+        <v>74733070.786396101</v>
       </c>
     </row>
     <row r="242" spans="1:57" ht="19.5">
       <c r="C242">
         <f>H241*D242</f>
-        <v>52002.951489395658</v>
+        <v>2935026.247997941</v>
       </c>
       <c r="D242">
         <f>D241</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E242" t="s">
         <v>14</v>
@@ -8720,17 +8839,17 @@
       </c>
       <c r="H242">
         <f>H241+C242</f>
-        <v>1839692.3900773337</v>
+        <v>77668097.034394041</v>
       </c>
     </row>
     <row r="243" spans="1:57" ht="19.5">
       <c r="C243">
         <f>H242*D243</f>
-        <v>53515.690170530637</v>
+        <v>3050294.8832325176</v>
       </c>
       <c r="D243">
         <f>D242</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E243" t="s">
         <v>15</v>
@@ -8740,17 +8859,17 @@
       </c>
       <c r="H243">
         <f>H242+C243</f>
-        <v>1893208.0802478644</v>
+        <v>80718391.91762656</v>
       </c>
     </row>
     <row r="244" spans="1:57" ht="19.5">
       <c r="C244">
         <f>H243*D244</f>
-        <v>55072.433629314983</v>
+        <v>3170090.5165741486</v>
       </c>
       <c r="D244">
         <f>D243</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E244" t="s">
         <v>16</v>
@@ -8760,17 +8879,17 @@
       </c>
       <c r="H244">
         <f>H243+C244</f>
-        <v>1948280.5138771792</v>
+        <v>83888482.434200704</v>
       </c>
     </row>
     <row r="245" spans="1:57" ht="19.5">
       <c r="C245">
         <f>H244*D245</f>
-        <v>56674.461941732821</v>
+        <v>3294590.9389008079</v>
       </c>
       <c r="D245">
         <f>D244</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E245" t="s">
         <v>17</v>
@@ -8780,17 +8899,17 @@
       </c>
       <c r="H245">
         <f>H244+C245</f>
-        <v>2004954.975818912</v>
+        <v>87183073.373101518</v>
       </c>
     </row>
     <row r="246" spans="1:57" ht="19.5">
       <c r="C246">
         <f>H245*D246</f>
-        <v>58323.09242050966</v>
+        <v>3423980.9235533625</v>
       </c>
       <c r="D246">
         <f>D245</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E246" t="s">
         <v>11</v>
@@ -8800,17 +8919,17 @@
       </c>
       <c r="H246">
         <f>H245+C246</f>
-        <v>2063278.0682394216</v>
+        <v>90607054.29665488</v>
       </c>
     </row>
     <row r="247" spans="1:57" ht="19.5">
       <c r="C247">
         <f>H246*D247</f>
-        <v>60019.680698309741</v>
+        <v>3558452.5005610441</v>
       </c>
       <c r="D247">
         <f>D246</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E247" t="s">
         <v>12</v>
@@ -8820,17 +8939,17 @@
       </c>
       <c r="H247">
         <f>H246+C247</f>
-        <v>2123297.7489377311</v>
+        <v>94165506.797215924</v>
       </c>
     </row>
     <row r="248" spans="1:57" ht="19.5">
       <c r="C248">
         <f>H247*D248</f>
-        <v>61765.621842443019</v>
+        <v>3698205.2416367088</v>
       </c>
       <c r="D248">
         <f>D247</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E248" t="s">
         <v>13</v>
@@ -8840,17 +8959,17 @@
       </c>
       <c r="H248">
         <f>H247+C248</f>
-        <v>2185063.3707801742</v>
+        <v>97863712.038852632</v>
       </c>
     </row>
     <row r="249" spans="1:57" ht="19.5">
       <c r="C249">
         <f>H248*D249</f>
-        <v>63562.351501998441</v>
+        <v>3843446.5563648487</v>
       </c>
       <c r="D249">
         <f>D248</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E249" t="s">
         <v>14</v>
@@ -8860,17 +8979,17 @@
       </c>
       <c r="H249">
         <f>H248+C249</f>
-        <v>2248625.7222821726</v>
+        <v>101707158.59521748</v>
       </c>
     </row>
     <row r="250" spans="1:57" ht="19.5">
       <c r="C250">
         <f>H249*D250</f>
-        <v>65411.347088346614</v>
+        <v>3994392.0000219238</v>
       </c>
       <c r="D250">
         <f>D249</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E250" t="s">
         <v>15</v>
@@ -8880,17 +8999,17 @@
       </c>
       <c r="H250">
         <f>H249+C250</f>
-        <v>2314037.0693705194</v>
+        <v>105701550.5952394</v>
       </c>
     </row>
     <row r="251" spans="1:57" ht="19.5">
       <c r="C251">
         <f>H250*D251</f>
-        <v>67314.128989982812</v>
+        <v>4151265.5934858685</v>
       </c>
       <c r="D251">
         <f>D250</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E251" t="s">
         <v>16</v>
@@ -8900,17 +9019,17 @@
       </c>
       <c r="H251">
         <f>H250+C251</f>
-        <v>2381351.1983605023</v>
+        <v>109852816.18872526</v>
       </c>
     </row>
     <row r="252" spans="1:57" ht="19.5">
       <c r="C252">
         <f>H251*D252</f>
-        <v>69272.261822709072</v>
+        <v>4314300.1557095535</v>
       </c>
       <c r="D252">
         <f>D251</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E252" t="s">
         <v>17</v>
@@ -8920,17 +9039,17 @@
       </c>
       <c r="H252">
         <f>H251+C252</f>
-        <v>2450623.4601832111</v>
+        <v>114167116.34443481</v>
       </c>
     </row>
     <row r="253" spans="1:57" ht="19.5">
       <c r="C253">
         <f>H252*D253</f>
-        <v>71287.35571618336</v>
+        <v>4483737.6492516249</v>
       </c>
       <c r="D253">
         <f>D252</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E253" t="s">
         <v>11</v>
@@ -8940,17 +9059,17 @@
       </c>
       <c r="H253">
         <f>H252+C253</f>
-        <v>2521910.8158993945</v>
+        <v>118650853.99368644</v>
       </c>
     </row>
     <row r="254" spans="1:57" ht="19.5">
       <c r="C254">
         <f>H253*D254</f>
-        <v>73361.067637893982</v>
+        <v>4659829.5393775376</v>
       </c>
       <c r="D254">
         <f>D253</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E254" t="s">
         <v>12</v>
@@ -8960,17 +9079,17 @@
       </c>
       <c r="H254">
         <f>H253+C254</f>
-        <v>2595271.8835372883</v>
+        <v>123310683.53306398</v>
       </c>
     </row>
     <row r="255" spans="1:57" ht="19.5">
       <c r="C255">
         <f>H254*D255</f>
-        <v>75495.102755647473</v>
+        <v>4842837.1672637295</v>
       </c>
       <c r="D255">
         <f>D254</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E255" t="s">
         <v>13</v>
@@ -8980,17 +9099,17 @@
       </c>
       <c r="H255">
         <f>H254+C255</f>
-        <v>2670766.9862929359</v>
+        <v>128153520.70032771</v>
       </c>
     </row>
     <row r="256" spans="1:57" ht="19.5">
       <c r="C256">
         <f>H255*D256</f>
-        <v>77691.215839690703</v>
+        <v>5033032.1378588146</v>
       </c>
       <c r="D256">
         <f>D255</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E256" t="s">
         <v>14</v>
@@ -9000,17 +9119,17 @@
       </c>
       <c r="H256">
         <f>H255+C256</f>
-        <v>2748458.2021326264</v>
+        <v>133186552.83818652</v>
       </c>
     </row>
     <row r="257" spans="1:57" ht="19.5">
       <c r="C257">
         <f>H256*D257</f>
-        <v>79951.212705619982</v>
+        <v>5230696.7229774259</v>
       </c>
       <c r="D257">
         <f>D256</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E257" t="s">
         <v>15</v>
@@ -9020,17 +9139,17 @@
       </c>
       <c r="H257">
         <f>H256+C257</f>
-        <v>2828409.4148382465</v>
+        <v>138417249.56116393</v>
       </c>
     </row>
     <row r="258" spans="1:57" ht="19.5">
       <c r="C258">
         <f>H257*D258</f>
-        <v>82276.951699263533</v>
+        <v>5436124.2802249482</v>
       </c>
       <c r="D258">
         <f>D257</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E258" t="s">
         <v>16</v>
@@ -9040,17 +9159,17 @@
       </c>
       <c r="H258">
         <f>H257+C258</f>
-        <v>2910686.36653751</v>
+        <v>143853373.84138888</v>
       </c>
     </row>
     <row r="259" spans="1:57" ht="19.5">
       <c r="C259">
         <f>H258*D259</f>
-        <v>84670.345224758523</v>
+        <v>5649619.688374877</v>
       </c>
       <c r="D259">
         <f>D258</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E259" t="s">
         <v>17</v>
@@ -9060,17 +9179,17 @@
       </c>
       <c r="H259">
         <f>H258+C259</f>
-        <v>2995356.7117622686</v>
+        <v>149502993.52976376</v>
       </c>
     </row>
     <row r="260" spans="1:57" ht="19.5">
       <c r="C260">
         <f>H259*D260</f>
-        <v>87133.361317079019</v>
+        <v>5871499.7998449476</v>
       </c>
       <c r="D260">
         <f>D259</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E260" t="s">
         <v>11</v>
@@ -9080,17 +9199,17 @@
       </c>
       <c r="H260">
         <f>H259+C260</f>
-        <v>3082490.0730793476</v>
+        <v>155374493.32960871</v>
       </c>
     </row>
     <row r="261" spans="1:57" ht="19.5">
       <c r="C261">
         <f>H260*D261</f>
-        <v>89668.025260307972</v>
+        <v>6102093.9109435715</v>
       </c>
       <c r="D261">
         <f>D260</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E261" t="s">
         <v>12</v>
@@ -9100,17 +9219,17 @@
       </c>
       <c r="H261">
         <f>H260+C261</f>
-        <v>3172158.0983396554</v>
+        <v>161476587.24055228</v>
       </c>
     </row>
     <row r="262" spans="1:57" ht="19.5">
       <c r="C262">
         <f>H261*D262</f>
-        <v>92276.421252983811</v>
+        <v>6341744.2505844794</v>
       </c>
       <c r="D262">
         <f>D261</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E262" t="s">
         <v>13</v>
@@ -9120,17 +9239,17 @@
       </c>
       <c r="H262">
         <f>H261+C262</f>
-        <v>3264434.5195926391</v>
+        <v>167818331.49113676</v>
       </c>
     </row>
     <row r="263" spans="1:57" ht="19.5">
       <c r="C263">
         <f>H262*D263</f>
-        <v>94960.69412189124</v>
+        <v>6590806.4881948689</v>
       </c>
       <c r="D263">
         <f>D262</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E263" t="s">
         <v>14</v>
@@ -9140,17 +9259,17 @@
       </c>
       <c r="H263">
         <f>H262+C263</f>
-        <v>3359395.2137145302</v>
+        <v>174409137.97933164</v>
       </c>
     </row>
     <row r="264" spans="1:57" ht="19.5">
       <c r="C264">
         <f>H263*D264</f>
-        <v>97723.051085705185</v>
+        <v>6849650.2615708774</v>
       </c>
       <c r="D264">
         <f>D263</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E264" t="s">
         <v>15</v>
@@ -9160,17 +9279,17 @@
       </c>
       <c r="H264">
         <f>H263+C264</f>
-        <v>3457118.2648002356</v>
+        <v>181258788.24090251</v>
       </c>
     </row>
     <row r="265" spans="1:57" ht="19.5">
       <c r="C265">
         <f>H264*D265</f>
-        <v>100565.76356993832</v>
+        <v>7118659.7254637498</v>
       </c>
       <c r="D265">
         <f>D264</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E265" t="s">
         <v>16</v>
@@ -9180,17 +9299,17 @@
       </c>
       <c r="H265">
         <f>H264+C265</f>
-        <v>3557684.0283701741</v>
+        <v>188377447.96636626</v>
       </c>
     </row>
     <row r="266" spans="1:57" ht="19.5">
       <c r="C266">
         <f>H265*D266</f>
-        <v>103491.16907468438</v>
+        <v>7398234.1217108956</v>
       </c>
       <c r="D266">
         <f>D265</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E266" t="s">
         <v>17</v>
@@ -9200,17 +9319,17 @@
       </c>
       <c r="H266">
         <f>H265+C266</f>
-        <v>3661175.1974448585</v>
+        <v>195775682.08807716</v>
       </c>
     </row>
     <row r="267" spans="1:57" ht="19.5">
       <c r="C267">
         <f>H266*D267</f>
-        <v>106501.67309669319</v>
+        <v>7688788.3717579599</v>
       </c>
       <c r="D267">
         <f>D266</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E267" t="s">
         <v>11</v>
@@ -9220,17 +9339,17 @@
       </c>
       <c r="H267">
         <f>H266+C267</f>
-        <v>3767676.8705415516</v>
+        <v>203464470.45983511</v>
       </c>
     </row>
     <row r="268" spans="1:57" ht="19.5">
       <c r="C268">
         <f>H267*D268</f>
-        <v>109599.75110735789</v>
+        <v>7990753.6924512833</v>
       </c>
       <c r="D268">
         <f>D267</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E268" t="s">
         <v>12</v>
@@ -9240,17 +9359,17 @@
       </c>
       <c r="H268">
         <f>H267+C268</f>
-        <v>3877276.6216489095</v>
+        <v>211455224.15228641</v>
       </c>
     </row>
     <row r="269" spans="1:57" ht="19.5">
       <c r="C269">
         <f>H268*D269</f>
-        <v>112787.95058824072</v>
+        <v>8304578.2360146698</v>
       </c>
       <c r="D269">
         <f>D268</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E269" t="s">
         <v>13</v>
@@ -9260,17 +9379,17 @@
       </c>
       <c r="H269">
         <f>H268+C269</f>
-        <v>3990064.5722371503</v>
+        <v>219759802.38830107</v>
       </c>
     </row>
     <row r="270" spans="1:57" ht="19.5">
       <c r="C270">
         <f>H269*D270</f>
-        <v>116068.89312581118</v>
+        <v>8630727.7551602479</v>
       </c>
       <c r="D270">
         <f>D269</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E270" t="s">
         <v>14</v>
@@ -9280,17 +9399,17 @@
       </c>
       <c r="H270">
         <f>H269+C270</f>
-        <v>4106133.4653629614</v>
+        <v>228390530.14346132</v>
       </c>
     </row>
     <row r="271" spans="1:57" ht="19.5">
       <c r="C271">
         <f>H270*D271</f>
-        <v>119445.27656711913</v>
+        <v>8969686.2943205405</v>
       </c>
       <c r="D271">
         <f>D270</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E271" t="s">
         <v>15</v>
@@ -9300,17 +9419,17 @@
       </c>
       <c r="H271">
         <f>H270+C271</f>
-        <v>4225578.7419300806</v>
+        <v>237360216.43778187</v>
       </c>
     </row>
     <row r="272" spans="1:57" ht="19.5">
       <c r="C272">
         <f>H271*D272</f>
-        <v>122919.87723817512</v>
+        <v>9321956.9080276191</v>
       </c>
       <c r="D272">
         <f>D271</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E272" t="s">
         <v>16</v>
@@ -9320,17 +9439,17 @@
       </c>
       <c r="H272">
         <f>H271+C272</f>
-        <v>4348498.6191682555</v>
+        <v>246682173.34580949</v>
       </c>
     </row>
     <row r="273" spans="1:57" ht="19.5">
       <c r="C273">
         <f>H272*D273</f>
-        <v>126495.55222686239</v>
+        <v>9688062.4075054657</v>
       </c>
       <c r="D273">
         <f>D272</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E273" t="s">
         <v>17</v>
@@ -9340,17 +9459,17 @@
       </c>
       <c r="H273">
         <f>H272+C273</f>
-        <v>4474994.1713951174</v>
+        <v>256370235.75331494</v>
       </c>
     </row>
     <row r="274" spans="1:57" ht="19.5">
       <c r="C274">
         <f>H273*D274</f>
-        <v>130175.24173225756</v>
+        <v>10068546.136583632</v>
       </c>
       <c r="D274">
         <f>D273</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E274" t="s">
         <v>11</v>
@@ -9360,17 +9479,17 @@
       </c>
       <c r="H274">
         <f>H273+C274</f>
-        <v>4605169.4131273748</v>
+        <v>266438781.88989857</v>
       </c>
     </row>
     <row r="275" spans="1:57" ht="19.5">
       <c r="C275">
         <f>H274*D275</f>
-        <v>133961.97148229179</v>
+        <v>10463972.778083697</v>
       </c>
       <c r="D275">
         <f>D274</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E275" t="s">
         <v>12</v>
@@ -9380,17 +9499,17 @@
       </c>
       <c r="H275">
         <f>H274+C275</f>
-        <v>4739131.3846096667</v>
+        <v>276902754.66798228</v>
       </c>
     </row>
     <row r="276" spans="1:57" ht="19.5">
       <c r="C276">
         <f>H275*D276</f>
-        <v>137858.85522174044</v>
+        <v>10874929.191875303</v>
       </c>
       <c r="D276">
         <f>D275</f>
-        <v>0.029089477381749152</v>
+        <v>0.039273459756349438</v>
       </c>
       <c r="E276" t="s">
         <v>13</v>
@@ -9400,7 +9519,7 @@
       </c>
       <c r="H276">
         <f>H275+C276</f>
-        <v>4876990.2398314066</v>
+        <v>287777683.85985756</v>
       </c>
     </row>
     <row r="277" spans="1:57" ht="19.5">

--- a/converted.d/covid-19_progression_math.xlsx
+++ b/converted.d/covid-19_progression_math.xlsx
@@ -182,7 +182,7 @@
     <col min="9" max="9" style="1" width="19.427403846153847" customWidth="1"/>
     <col min="10" max="10" style="2" width="22.855769230769234" customWidth="1"/>
     <col min="11" max="11" style="1" width="24.569951923076925" customWidth="1"/>
-    <col min="12" max="12" style="1" width="9.142307692307693"/>
+    <col min="12" max="12" style="1" width="11.85643028846154" bestFit="1" customWidth="1"/>
     <col min="13" max="13" style="1" width="21.141586538461542" customWidth="1"/>
     <col min="14" max="14" style="1" width="10.570793269230771" customWidth="1"/>
     <col min="15" max="15" style="1" width="10.856490384615386" customWidth="1"/>
@@ -246,7 +246,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Last revision:  Friday, 03 Apr 2020 22:11 UTC</t>
+          <t>Last revision:  Saturday, 04 Apr 2020 21:31 UTC</t>
         </is>
       </c>
     </row>
@@ -3300,11 +3300,6 @@
         <f>S32+2</f>
         <v>13</v>
       </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>UPDATED - finished this line's entry and won't require further update.</t>
-        </is>
-      </c>
       <c r="U33">
         <f>U32+36</f>
         <v>647</v>
@@ -3396,11 +3391,6 @@
       <c r="AY33">
         <f>O33+S33+W33+AA33+AE33+AI33+AM33+AQ33+AU33</f>
         <v>112</v>
-      </c>
-      <c r="AZ33" t="inlineStr">
-        <is>
-          <t>CORRECT - no errors seen.  Ready for permanent record.</t>
-        </is>
       </c>
       <c r="BA33" s="5">
         <v>43875</v>
@@ -3438,1046 +3428,1194 @@
       <c r="I34">
         <v>4914</v>
       </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>*275586*</t>
+        </is>
+      </c>
       <c r="K34">
         <f>M34+Q34+U34+Y34+AC34+AG34+AK34+AO34+AS34</f>
         <v>4914</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="M34">
+        <f>M33+32</f>
+        <v>173</v>
+      </c>
+      <c r="N34">
+        <f>N33+3</f>
+        <v>14</v>
+      </c>
+      <c r="O34">
+        <f>O33+2</f>
+        <v>4</v>
+      </c>
+      <c r="Q34">
+        <f>Q33+140</f>
+        <v>679</v>
+      </c>
+      <c r="R34">
+        <f>R33+30</f>
+        <v>166</v>
+      </c>
+      <c r="S34">
+        <f>S33+5</f>
+        <v>18</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>UPDATED - finished this line's entry and won't require further update.</t>
+        </is>
+      </c>
+      <c r="U34">
+        <f>U33+244</f>
+        <v>891</v>
+      </c>
+      <c r="V34">
+        <f>V33+19</f>
+        <v>293</v>
+      </c>
+      <c r="W34">
+        <f>W33+1</f>
+        <v>18</v>
+      </c>
+      <c r="Y34">
+        <f>Y33+584</f>
+        <v>2716</v>
+      </c>
+      <c r="Z34">
+        <f>Z33+28</f>
+        <v>409</v>
+      </c>
+      <c r="AA34">
+        <f>AA33+10</f>
+        <v>75</v>
+      </c>
+      <c r="AC34">
+        <f>AC33+17</f>
+        <v>91</v>
+      </c>
+      <c r="AD34">
+        <f>AD33+1</f>
+        <v>12</v>
+      </c>
+      <c r="AE34">
+        <f>AE33+-1</f>
+        <v>2</v>
+      </c>
+      <c r="AG34">
+        <f>AG33+12</f>
+        <v>79</v>
+      </c>
+      <c r="AH34">
+        <f>AH33+1</f>
+        <v>3</v>
+      </c>
+      <c r="AI34">
+        <f>AI33+0</f>
+        <v>10</v>
+      </c>
+      <c r="AK34">
+        <f>AK33+6</f>
+        <v>27</v>
+      </c>
+      <c r="AL34">
+        <f>AL33+0</f>
+        <v>3</v>
+      </c>
+      <c r="AM34">
+        <f>AM33+0</f>
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <f>AO33+11</f>
+        <v>40</v>
+      </c>
+      <c r="AP34">
+        <f>AP33+0</f>
+        <v>9</v>
+      </c>
+      <c r="AQ34">
+        <f>AQ33+2</f>
+        <v>3</v>
+      </c>
+      <c r="AS34">
+        <f>AS33+44</f>
+        <v>218</v>
+      </c>
+      <c r="AU34">
+        <f>AU33+0</f>
+        <v>1</v>
+      </c>
+      <c r="AW34">
+        <f>M34+Q34+U34+Y34+AC34+AG34+AK34+AO34+AS34</f>
+        <v>4914</v>
+      </c>
+      <c r="AX34">
+        <f>N34+R34+V34+Z34+AD34+AH34+AL34+AP34+AT34</f>
+        <v>909</v>
+      </c>
+      <c r="AY34">
+        <f>O34+S34+W34+AA34+AE34+AI34+AM34+AQ34+AU34</f>
+        <v>131</v>
+      </c>
+      <c r="AZ34" t="inlineStr">
+        <is>
+          <t>CORRECT - no errors seen.  Ready for permanent record.</t>
+        </is>
+      </c>
+      <c r="BA34" s="5">
+        <v>43876</v>
+      </c>
+      <c r="BB34">
+        <v>13</v>
+      </c>
+      <c r="BC34">
+        <f>(BB34/BB33)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:57" ht="19.5">
+      <c r="C35">
+        <f>H34*D35</f>
+        <v>361.99999999739401</v>
+      </c>
+      <c r="D35">
+        <v>0.0736670736671</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="5">
+        <v>43925</v>
+      </c>
+      <c r="G35" s="2">
+        <f>H35*100</f>
+        <v>527599.99999602628</v>
+      </c>
+      <c r="H35">
+        <f>H34+C35</f>
+        <v>5275.9999999602624</v>
+      </c>
+      <c r="I35">
+        <v>5276</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="K35">
+        <f>M35+Q35+U35+Y35+AC35+AG35+AK35+AO35+AS35</f>
+        <v>5276</v>
+      </c>
+      <c r="L35" t="inlineStr">
         <is>
           <t>NEW:</t>
         </is>
       </c>
-      <c r="M34">
-        <f>M33+32</f>
-        <v>173</v>
-      </c>
-      <c r="N34">
-        <f>N33+3</f>
-        <v>14</v>
-      </c>
-      <c r="O34">
-        <f>O33+2</f>
-        <v>4</v>
-      </c>
-      <c r="Q34">
-        <f>Q33+140</f>
-        <v>679</v>
-      </c>
-      <c r="R34">
-        <f>R33+30</f>
-        <v>166</v>
-      </c>
-      <c r="S34">
-        <f>S33+5</f>
-        <v>18</v>
-      </c>
-      <c r="T34" t="inlineStr">
+      <c r="M35">
+        <f>M34+9</f>
+        <v>182</v>
+      </c>
+      <c r="N35">
+        <f>N34+1</f>
+        <v>15</v>
+      </c>
+      <c r="O35">
+        <f>O34+1</f>
+        <v>5</v>
+      </c>
+      <c r="Q35">
+        <f>Q34+47</f>
+        <v>726</v>
+      </c>
+      <c r="R35">
+        <f>R34+18</f>
+        <v>184</v>
+      </c>
+      <c r="S35">
+        <f>S34+8</f>
+        <v>26</v>
+      </c>
+      <c r="T35" t="inlineStr">
         <is>
           <t>PROPOSED - open to proposal now - subject to revision.</t>
         </is>
       </c>
-      <c r="U34">
-        <f>U33+244</f>
-        <v>891</v>
-      </c>
-      <c r="V34">
-        <f>V33+19</f>
-        <v>293</v>
-      </c>
-      <c r="W34">
-        <f>W33+1</f>
-        <v>18</v>
-      </c>
-      <c r="Y34">
-        <f>Y33+584</f>
-        <v>2716</v>
-      </c>
-      <c r="Z34">
-        <f>Z33+28</f>
-        <v>409</v>
-      </c>
-      <c r="AA34">
-        <f>AA33+10</f>
-        <v>75</v>
-      </c>
-      <c r="AC34">
-        <f>AC33+17</f>
+      <c r="U35">
+        <f>U34+133</f>
+        <v>1024</v>
+      </c>
+      <c r="V35">
+        <f>V34+31</f>
+        <v>324</v>
+      </c>
+      <c r="W35">
+        <f>W34+11</f>
+        <v>29</v>
+      </c>
+      <c r="Y35">
+        <f>Y34+108</f>
+        <v>2824</v>
+      </c>
+      <c r="Z35">
+        <f>Z34+66</f>
+        <v>475</v>
+      </c>
+      <c r="AA35">
+        <f>AA34+11</f>
+        <v>86</v>
+      </c>
+      <c r="AC35">
+        <f>AC34+9</f>
+        <v>100</v>
+      </c>
+      <c r="AD35">
+        <f>AD34+7</f>
+        <v>19</v>
+      </c>
+      <c r="AE35">
+        <f>AE34+2</f>
+        <v>4</v>
+      </c>
+      <c r="AG35">
+        <f>AG34+12</f>
         <v>91</v>
       </c>
-      <c r="AD34">
-        <f>AD33+1</f>
-        <v>12</v>
-      </c>
-      <c r="AE34">
-        <f>AE33+-1</f>
-        <v>2</v>
-      </c>
-      <c r="AG34">
-        <f>AG33+12</f>
-        <v>79</v>
-      </c>
-      <c r="AH34">
-        <f>AH33+1</f>
+      <c r="AH35">
+        <f>AH34+0</f>
         <v>3</v>
       </c>
-      <c r="AI34">
-        <f>AI33+0</f>
+      <c r="AI35">
+        <f>AI34+0</f>
         <v>10</v>
       </c>
-      <c r="AK34">
-        <f>AK33+6</f>
-        <v>27</v>
-      </c>
-      <c r="AL34">
-        <f>AL33+0</f>
+      <c r="AK35">
+        <f>AK34+4</f>
+        <v>31</v>
+      </c>
+      <c r="AL35">
+        <f>AL34+0</f>
         <v>3</v>
       </c>
-      <c r="AM34">
-        <f>AM33+0</f>
+      <c r="AM35">
+        <f>AM34+1</f>
+        <v>1</v>
+      </c>
+      <c r="AO35">
+        <f>AO34+17</f>
+        <v>57</v>
+      </c>
+      <c r="AP35">
+        <f>AP34+1</f>
+        <v>10</v>
+      </c>
+      <c r="AQ35">
+        <f>AQ34+0</f>
+        <v>3</v>
+      </c>
+      <c r="AS35">
+        <f>AS34+23</f>
+        <v>241</v>
+      </c>
+      <c r="AU35">
+        <f>AU34+0</f>
+        <v>1</v>
+      </c>
+      <c r="AW35">
+        <f>M35+Q35+U35+Y35+AC35+AG35+AK35+AO35+AS35</f>
+        <v>5276</v>
+      </c>
+      <c r="AX35">
+        <f>N35+R35+V35+Z35+AD35+AH35+AL35+AP35+AT35</f>
+        <v>1033</v>
+      </c>
+      <c r="AY35">
+        <f>O35+S35+W35+AA35+AE35+AI35+AM35+AQ35+AU35</f>
+        <v>165</v>
+      </c>
+      <c r="BA35" s="5">
+        <v>43877</v>
+      </c>
+      <c r="BB35">
+        <v>13</v>
+      </c>
+      <c r="BC35">
+        <f>(BB35/BB34)-1</f>
         <v>0</v>
       </c>
-      <c r="AO34">
-        <f>AO33+11</f>
-        <v>40</v>
-      </c>
-      <c r="AP34">
-        <f>AP33+0</f>
-        <v>9</v>
-      </c>
-      <c r="AQ34">
-        <f>AQ33+2</f>
-        <v>3</v>
-      </c>
-      <c r="AS34">
-        <f>AS33+44</f>
-        <v>218</v>
-      </c>
-      <c r="AU34">
-        <f>AU33+0</f>
-        <v>1</v>
-      </c>
-      <c r="AW34">
-        <f>M34+Q34+U34+Y34+AC34+AG34+AK34+AO34+AS34</f>
-        <v>4914</v>
-      </c>
-      <c r="AX34">
-        <f>N34+R34+V34+Z34+AD34+AH34+AL34+AP34+AT34</f>
-        <v>909</v>
-      </c>
-      <c r="AY34">
-        <f>O34+S34+W34+AA34+AE34+AI34+AM34+AQ34+AU34</f>
-        <v>131</v>
-      </c>
-      <c r="BA34" s="5">
-        <v>43876</v>
-      </c>
-      <c r="BB34">
-        <v>13</v>
-      </c>
-      <c r="BC34">
-        <f>(BB34/BB33)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:57" ht="19.5">
-      <c r="C35">
-        <f>H34*D35</f>
-        <v>1285.041840975611</v>
-      </c>
-      <c r="D35">
-        <f>D34/1.0900000000000001</f>
-        <v>0.26150627614678901</v>
-      </c>
-      <c r="E35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" t="inlineStr">
+    </row>
+    <row r="36" spans="1:57" ht="19.5">
+      <c r="C36">
+        <f>H35*D36</f>
+        <v>356.57567033458002</v>
+      </c>
+      <c r="D36">
+        <f>D35/1.0900000000000001</f>
+        <v>0.06758447125422018</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="inlineStr">
         <is>
           <t>day two</t>
         </is>
       </c>
-      <c r="G35" s="2">
-        <f>H35*100</f>
-        <v>619904.18409384787</v>
-      </c>
-      <c r="H35">
-        <f>H34+C35</f>
-        <v>6199.0418409384793</v>
-      </c>
-      <c r="J35" s="1"/>
-      <c r="AE35" t="inlineStr">
-        <is>
-          <t>mistake ^ ^</t>
-        </is>
-      </c>
-      <c r="BA35" s="5">
-        <v>43877</v>
-      </c>
-      <c r="BB35">
+      <c r="G36" s="2">
+        <f>H36*100</f>
+        <v>563257.5670294842</v>
+      </c>
+      <c r="H36">
+        <f>H35+C36</f>
+        <v>5632.575670294842</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="BA36" s="5">
+        <v>43878</v>
+      </c>
+      <c r="BB36">
         <v>13</v>
       </c>
-      <c r="BC35">
-        <f>(BB35/BB34)-1</f>
+      <c r="BC36">
+        <f>(BB36/BB35)-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:57" ht="19.5">
-      <c r="C36">
-        <f>H35*D36</f>
-        <v>1487.2370160568414</v>
-      </c>
-      <c r="D36">
-        <f>D35/1.0900000000000001</f>
-        <v>0.23991401481356789</v>
-      </c>
-      <c r="E36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" t="inlineStr">
+    <row r="37" spans="1:57" ht="19.5">
+      <c r="C37">
+        <f>H36*D37</f>
+        <v>349.24279676721255</v>
+      </c>
+      <c r="D37">
+        <f>D36/1.0900000000000001</f>
+        <v>0.062004102068091906</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="inlineStr">
         <is>
           <t>day three</t>
         </is>
       </c>
-      <c r="G36" s="2">
-        <f>H36*100</f>
-        <v>768627.88569953211</v>
-      </c>
-      <c r="H36">
-        <f>H35+C36</f>
-        <v>7686.2788569953209</v>
-      </c>
-      <c r="J36" s="1"/>
-      <c r="BA36" s="5">
-        <v>43878</v>
-      </c>
-      <c r="BB36">
+      <c r="G37" s="2">
+        <f>H37*100</f>
+        <v>598181.84670620551</v>
+      </c>
+      <c r="H37">
+        <f>H36+C37</f>
+        <v>5981.8184670620549</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="BA37" s="5">
+        <v>43879</v>
+      </c>
+      <c r="BB37">
         <v>13</v>
       </c>
-      <c r="BC36">
-        <f>(BB36/BB35)-1</f>
+      <c r="BC37">
+        <f>(BB37/BB36)-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:57" ht="19.5">
-      <c r="C37">
-        <f>H36*D37</f>
-        <v>1691.7853390443936</v>
-      </c>
-      <c r="D37">
-        <f>D36/1.0900000000000001</f>
-        <v>0.22010460074639254</v>
-      </c>
-      <c r="E37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" t="inlineStr">
+    <row r="38" spans="1:57" ht="19.5">
+      <c r="C38">
+        <f>H37*D38</f>
+        <v>340.27273649955293</v>
+      </c>
+      <c r="D38">
+        <f>D37/1.0900000000000001</f>
+        <v>0.056884497310176058</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="inlineStr">
         <is>
           <t>day four</t>
         </is>
       </c>
-      <c r="G37" s="2">
-        <f>H37*100</f>
-        <v>937806.41960397153</v>
-      </c>
-      <c r="H37">
-        <f>H36+C37</f>
-        <v>9378.0641960397152</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="G38" s="2">
+        <f>H38*100</f>
+        <v>632209.1203561608</v>
+      </c>
+      <c r="H38">
+        <f>H37+C38</f>
+        <v>6322.0912035616075</v>
+      </c>
+      <c r="J38" t="inlineStr">
         <is>
           <t>*preliminary*</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>TODAY:</t>
         </is>
       </c>
-      <c r="M37" s="6">
-        <f>(M34/M33)-1</f>
-        <v>0.22695035460992918</v>
-      </c>
-      <c r="N37" s="6">
-        <f>(N34/N33)-1</f>
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="O37" s="6">
-        <f>(O34/O33)-1</f>
+      <c r="M38" s="6">
+        <f>(M35/M34)-1</f>
+        <v>0.052023121387283267</v>
+      </c>
+      <c r="N38" s="6">
+        <f>(N35/N34)-1</f>
+        <v>0.071428571428571397</v>
+      </c>
+      <c r="O38" s="6">
+        <f>(O35/O34)-1</f>
+        <v>0.25</v>
+      </c>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="6">
+        <f>(Q35/Q34)-1</f>
+        <v>0.069219440353460948</v>
+      </c>
+      <c r="R38" s="6">
+        <f>(R35/R34)-1</f>
+        <v>0.10843373493975905</v>
+      </c>
+      <c r="S38" s="6">
+        <f>(S35/S34)-1</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="T38" s="4"/>
+      <c r="U38" s="6">
+        <f>(U35/U34)-1</f>
+        <v>0.14927048260381603</v>
+      </c>
+      <c r="V38" s="6">
+        <f>(V35/V34)-1</f>
+        <v>0.10580204778156999</v>
+      </c>
+      <c r="W38" s="6">
+        <f>(W35/W34)-1</f>
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="6">
+        <f>(Y35/Y34)-1</f>
+        <v>0.039764359351988299</v>
+      </c>
+      <c r="Z38" s="6">
+        <f>(Z35/Z34)-1</f>
+        <v>0.1613691931540342</v>
+      </c>
+      <c r="AA38" s="6">
+        <f>(AA35/AA34)-1</f>
+        <v>0.14666666666666672</v>
+      </c>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="6">
+        <f>(AC35/AC34)-1</f>
+        <v>0.098901098901098994</v>
+      </c>
+      <c r="AD38" s="6">
+        <f>(AD35/AD34)-1</f>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="AE38" s="6">
+        <f>(AE35/AE34)-1</f>
         <v>1</v>
       </c>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="6">
-        <f>(Q34/Q33)-1</f>
-        <v>0.25974025974025983</v>
-      </c>
-      <c r="R37" s="6">
-        <f>(R34/R33)-1</f>
-        <v>0.22058823529411775</v>
-      </c>
-      <c r="S37" s="6">
-        <f>(S34/S33)-1</f>
-        <v>0.38461538461538458</v>
-      </c>
-      <c r="T37" s="4"/>
-      <c r="U37" s="6">
-        <f>(U34/U33)-1</f>
-        <v>0.37712519319938176</v>
-      </c>
-      <c r="V37" s="6">
-        <f>(V34/V33)-1</f>
-        <v>0.069343065693430628</v>
-      </c>
-      <c r="W37" s="6">
-        <f>(W34/W33)-1</f>
-        <v>0.058823529411764719</v>
-      </c>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="6">
-        <f>(Y34/Y33)-1</f>
-        <v>0.273921200750469</v>
-      </c>
-      <c r="Z37" s="6">
-        <f>(Z34/Z33)-1</f>
-        <v>0.073490813648293907</v>
-      </c>
-      <c r="AA37" s="6">
-        <f>(AA34/AA33)-1</f>
-        <v>0.15384615384615374</v>
-      </c>
-      <c r="AB37" s="4"/>
-      <c r="AC37" s="6">
-        <f>(AC34/AC33)-1</f>
-        <v>0.22972972972972983</v>
-      </c>
-      <c r="AD37" s="6">
-        <f>(AD34/AD33)-1</f>
-        <v>0.090909090909090828</v>
-      </c>
-      <c r="AE37" s="6">
-        <f>(AE34/AE33)-1</f>
-        <v>-0.33333333333333337</v>
-      </c>
-      <c r="AF37" s="4"/>
-      <c r="AG37" s="6">
-        <f>(AG34/AG33)-1</f>
-        <v>0.17910447761194037</v>
-      </c>
-      <c r="AH37" s="6">
-        <f>(AH34/AH33)-1</f>
-        <v>0.5</v>
-      </c>
-      <c r="AI37" s="6">
-        <f>(AI34/AI33)-1</f>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="6">
+        <f>(AG35/AG34)-1</f>
+        <v>0.15189873417721511</v>
+      </c>
+      <c r="AH38" s="6">
+        <f>(AH35/AH34)-1</f>
         <v>0</v>
       </c>
-      <c r="AJ37" s="4"/>
-      <c r="AK37" s="6">
-        <f>(AK34/AK33)-1</f>
-        <v>0.28571428571428581</v>
-      </c>
-      <c r="AL37" s="6">
-        <f>(AL34/AL33)-1</f>
+      <c r="AI38" s="6">
+        <f>(AI35/AI34)-1</f>
         <v>0</v>
       </c>
-      <c r="AM37" s="6">
+      <c r="AJ38" s="4"/>
+      <c r="AK38" s="6">
+        <f>(AK35/AK34)-1</f>
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="AL38" s="6">
+        <f>(AL35/AL34)-1</f>
         <v>0</v>
       </c>
-      <c r="AN37" s="4"/>
-      <c r="AO37" s="6">
-        <f>(AO34/AO33)-1</f>
-        <v>0.3793103448275863</v>
-      </c>
-      <c r="AP37" s="6">
-        <f>(AP34/AP33)-1</f>
+      <c r="AM38" s="6">
         <v>0</v>
       </c>
-      <c r="AQ37" s="6">
-        <f>(AQ34/AQ33)-1</f>
-        <v>2</v>
-      </c>
-      <c r="AR37" s="4"/>
-      <c r="AS37" s="6">
-        <f>(AS34/AS33)-1</f>
-        <v>0.25287356321839072</v>
-      </c>
-      <c r="AT37" s="6"/>
-      <c r="AU37" s="6">
-        <f>(AU34/AU33)-1</f>
+      <c r="AN38" s="4"/>
+      <c r="AO38" s="6">
+        <f>(AO35/AO34)-1</f>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="AP38" s="6">
+        <f>(AP35/AP34)-1</f>
+        <v>0.11111111111111116</v>
+      </c>
+      <c r="AQ38" s="6">
+        <f>(AQ35/AQ34)-1</f>
         <v>0</v>
       </c>
-      <c r="AV37" s="4"/>
-      <c r="AW37" s="6">
-        <f>(AW34/AW33)-1</f>
-        <v>0.28504184100418417</v>
-      </c>
-      <c r="AX37" s="6">
-        <f>(AX34/AX33)-1</f>
-        <v>0.099153567110036311</v>
-      </c>
-      <c r="AY37" s="6">
-        <f>(AY34/AY33)-1</f>
-        <v>0.16964285714285721</v>
-      </c>
-      <c r="BA37" s="5">
-        <v>43879</v>
-      </c>
-      <c r="BB37">
+      <c r="AR38" s="4"/>
+      <c r="AS38" s="6">
+        <f>(AS35/AS34)-1</f>
+        <v>0.10550458715596323</v>
+      </c>
+      <c r="AT38" s="6"/>
+      <c r="AU38" s="6">
+        <f>(AU35/AU34)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AV38" s="4"/>
+      <c r="AW38" s="6">
+        <f>(AW35/AW34)-1</f>
+        <v>0.073667073667073701</v>
+      </c>
+      <c r="AX38" s="6">
+        <f>(AX35/AX34)-1</f>
+        <v>0.13641364136413636</v>
+      </c>
+      <c r="AY38" s="6">
+        <f>(AY35/AY34)-1</f>
+        <v>0.25954198473282442</v>
+      </c>
+      <c r="BA38" s="5">
+        <v>43880</v>
+      </c>
+      <c r="BB38">
         <v>13</v>
       </c>
-      <c r="BC37">
-        <f>(BB37/BB36)-1</f>
+      <c r="BC38">
+        <f>(BB38/BB37)-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:57" ht="19.5">
-      <c r="C38">
-        <f>H37*D38</f>
-        <v>1893.7202528838168</v>
-      </c>
-      <c r="D38">
-        <f>D37/1.0900000000000001</f>
-        <v>0.20193082637283719</v>
-      </c>
-      <c r="E38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" t="inlineStr">
+    <row r="39" spans="1:57" ht="19.5">
+      <c r="C39">
+        <f>H38*D39</f>
+        <v>329.93484409512655</v>
+      </c>
+      <c r="D39">
+        <f>D38/1.0900000000000001</f>
+        <v>0.052187612211170693</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="inlineStr">
         <is>
           <t>day five</t>
         </is>
       </c>
-      <c r="G38" s="2">
-        <f>H38*100</f>
-        <v>1127178.4448923531</v>
-      </c>
-      <c r="H38">
-        <f>H37+C38</f>
-        <v>11271.784448923532</v>
-      </c>
-      <c r="I38" t="inlineStr">
+      <c r="G39" s="2">
+        <f>H39*100</f>
+        <v>665202.6047656734</v>
+      </c>
+      <c r="H39">
+        <f>H38+C39</f>
+        <v>6652.0260476567337</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="BA39" s="5">
+        <v>43881</v>
+      </c>
+      <c r="BB39">
+        <v>13</v>
+      </c>
+      <c r="BC39">
+        <f>(BB39/BB38)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:57" ht="19.5">
+      <c r="C40">
+        <f>H39*D40</f>
+        <v>318.48931724194136</v>
+      </c>
+      <c r="D40">
+        <f>D39/1.0900000000000001</f>
+        <v>0.047878543313000635</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>above: moving target</t>
+        </is>
+      </c>
+      <c r="G40" s="2">
+        <f>H40*100</f>
+        <v>697051.53648986749</v>
+      </c>
+      <c r="H40">
+        <f>H39+C40</f>
+        <v>6970.5153648986752</v>
+      </c>
+      <c r="BA40" s="5">
+        <v>43882</v>
+      </c>
+      <c r="BB40">
+        <v>15</v>
+      </c>
+      <c r="BC40">
+        <f>(BB40/BB39)-1</f>
+        <v>0.15384615384615374</v>
+      </c>
+    </row>
+    <row r="41" spans="1:57" ht="19.5">
+      <c r="C41">
+        <f>H40*D41</f>
+        <v>306.18176313049321</v>
+      </c>
+      <c r="D41">
+        <f>D40/1.0900000000000001</f>
+        <v>0.04392526909449599</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="5">
+        <v>43931</v>
+      </c>
+      <c r="G41" s="2">
+        <f>H41*100</f>
+        <v>727669.71280291677</v>
+      </c>
+      <c r="H41">
+        <f>H40+C41</f>
+        <v>7276.6971280291682</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Yesterday:</t>
+        </is>
+      </c>
+      <c r="M41" s="6">
+        <v>0.23000000000000001</v>
+      </c>
+      <c r="N41" s="6">
+        <v>0.27000000000000002</v>
+      </c>
+      <c r="O41" s="6">
+        <v>1</v>
+      </c>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6">
+        <v>0.26000000000000001</v>
+      </c>
+      <c r="R41" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="S41" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="V41" s="6">
+        <v>0.070000000000000007</v>
+      </c>
+      <c r="W41" s="6">
+        <v>0.059999999999999998</v>
+      </c>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6">
+        <v>0.27000000000000002</v>
+      </c>
+      <c r="Z41" s="6">
+        <v>0.070000000000000007</v>
+      </c>
+      <c r="AA41" s="6">
+        <v>0.14999999999999999</v>
+      </c>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6">
+        <v>0.23000000000000001</v>
+      </c>
+      <c r="AD41" s="6">
+        <v>0.089999999999999997</v>
+      </c>
+      <c r="AE41" s="6">
+        <v>-0.33000000000000002</v>
+      </c>
+      <c r="AF41" s="6"/>
+      <c r="AG41" s="6">
+        <v>0.17999999999999999</v>
+      </c>
+      <c r="AH41" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AI41" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AL41" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="6"/>
+      <c r="AO41" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="AP41" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="6">
+        <v>2</v>
+      </c>
+      <c r="AR41" s="6"/>
+      <c r="AS41" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="AT41" s="6"/>
+      <c r="AU41" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV41" s="6"/>
+      <c r="AW41" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AX41" s="6">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AY41" s="6">
+        <v>0.17000000000000001</v>
+      </c>
+      <c r="BA41" s="5">
+        <v>43883</v>
+      </c>
+      <c r="BB41">
+        <v>15</v>
+      </c>
+      <c r="BC41">
+        <f>(BB41/BB40)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:57" ht="19.5">
+      <c r="C42">
+        <f>H41*D42</f>
+        <v>293.23933896130944</v>
+      </c>
+      <c r="D42">
+        <f>D41/1.0900000000000001</f>
+        <v>0.040298412013299069</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="5">
+        <v>43932</v>
+      </c>
+      <c r="G42" s="2">
+        <f>H42*100</f>
+        <v>756993.64669904776</v>
+      </c>
+      <c r="H42">
+        <f>H41+C42</f>
+        <v>7569.936466990478</v>
+      </c>
+      <c r="BA42" s="5">
+        <v>43884</v>
+      </c>
+      <c r="BB42">
+        <v>15</v>
+      </c>
+      <c r="BC42">
+        <f>(BB42/BB41)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:57" ht="19.5">
+      <c r="C43">
+        <f>H42*D43</f>
+        <v>279.86827400117409</v>
+      </c>
+      <c r="D43">
+        <f>D42/1.0900000000000001</f>
+        <v>0.036971020195687217</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="5">
+        <v>43933</v>
+      </c>
+      <c r="G43" s="2">
+        <f>H43*100</f>
+        <v>784980.47409916529</v>
+      </c>
+      <c r="H43">
+        <f>H42+C43</f>
+        <v>7849.8047409916526</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>older Source: https://portal.ct.gov/Coronavirus/Pages/Governors-Press-Releases</t>
+        </is>
+      </c>
+      <c r="AQ43" s="6"/>
+      <c r="BA43" s="5">
+        <v>43885</v>
+      </c>
+      <c r="BB43">
+        <v>51</v>
+      </c>
+      <c r="BC43">
+        <f>(BB43/BB42)-1</f>
+        <v>2.3999999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:57" ht="19.5">
+      <c r="C44">
+        <f>H43*D44</f>
+        <v>266.2525592765171</v>
+      </c>
+      <c r="D44">
+        <f>D43/1.0900000000000001</f>
+        <v>0.03391836715200662</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="5">
+        <v>43934</v>
+      </c>
+      <c r="G44" s="2">
+        <f>H44*100</f>
+        <v>811605.73002681695</v>
+      </c>
+      <c r="H44">
+        <f>H43+C44</f>
+        <v>8116.0573002681695</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="AL44" t="inlineStr">
+        <is>
+          <t>any zero-to-positive int gets the 'r: +n' entry.</t>
+        </is>
+      </c>
+      <c r="BA44" s="5">
+        <v>43886</v>
+      </c>
+      <c r="BB44">
+        <v>51</v>
+      </c>
+      <c r="BC44">
+        <f>(BB44/BB43)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:57" ht="19.5">
+      <c r="C45">
+        <f>H44*D45</f>
+        <v>252.55358838277007</v>
+      </c>
+      <c r="D45">
+        <f>D44/1.0900000000000001</f>
+        <v>0.031117768029363869</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="5">
+        <v>43935</v>
+      </c>
+      <c r="G45" s="2">
+        <f>H45*100</f>
+        <v>836861.08886509389</v>
+      </c>
+      <c r="H45">
+        <f>H44+C45</f>
+        <v>8368.6108886509392</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>recent Source: https://portal.ct.gov/-/media/Coronavirus/CTDPHCOVID19summary3312020.pdf?la=en</t>
+        </is>
+      </c>
+      <c r="BA45" s="5">
+        <v>43887</v>
+      </c>
+      <c r="BB45">
+        <v>57</v>
+      </c>
+      <c r="BC45">
+        <f>(BB45/BB44)-1</f>
+        <v>0.11764705882352944</v>
+      </c>
+    </row>
+    <row r="46" spans="1:57" ht="19.5">
+      <c r="C46">
+        <f>H45*D46</f>
+        <v>238.91054345050324</v>
+      </c>
+      <c r="D46">
+        <f>D45/1.0900000000000001</f>
+        <v>0.028548411036113639</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="5">
+        <v>43936</v>
+      </c>
+      <c r="G46" s="2">
+        <f>H46*100</f>
+        <v>860752.14321014425</v>
+      </c>
+      <c r="H46">
+        <f>H45+C46</f>
+        <v>8607.5214321014428</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>&lt;&lt; transmission under 3 percent growth (per day)</t>
+        </is>
+      </c>
+      <c r="AL46" t="inlineStr">
+        <is>
+          <t>r: +3</t>
+        </is>
+      </c>
+      <c r="BA46" s="5">
+        <v>43888</v>
+      </c>
+      <c r="BB46">
+        <v>58</v>
+      </c>
+      <c r="BC46">
+        <f>(BB46/BB45)-1</f>
+        <v>0.017543859649122862</v>
+      </c>
+    </row>
+    <row r="47" spans="1:57" ht="19.5">
+      <c r="C47">
+        <f>H46*D47</f>
+        <v>245.7310598457895</v>
+      </c>
+      <c r="D47">
+        <f>D46</f>
+        <v>0.028548411036113639</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="5">
+        <v>43937</v>
+      </c>
+      <c r="G47" s="2">
+        <f>H47*100</f>
+        <v>885325.2491947232</v>
+      </c>
+      <c r="H47">
+        <f>H46+C47</f>
+        <v>8853.2524919472326</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>export: $ ssconvert -T Gnumeric_stf:stf_csv thisfile.gnumeric thisfile.csv</t>
+        </is>
+      </c>
+      <c r="BA47" s="5">
+        <v>43889</v>
+      </c>
+      <c r="BB47">
+        <v>60</v>
+      </c>
+      <c r="BC47">
+        <f>(BB47/BB46)-1</f>
+        <v>0.034482758620689724</v>
+      </c>
+    </row>
+    <row r="48" spans="1:57" ht="19.5">
+      <c r="C48">
+        <f>H47*D48</f>
+        <v>252.74629114660695</v>
+      </c>
+      <c r="D48">
+        <f>D47</f>
+        <v>0.028548411036113639</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="5">
+        <v>43938</v>
+      </c>
+      <c r="G48" s="2">
+        <f>H48*100</f>
+        <v>910599.87830938387</v>
+      </c>
+      <c r="H48">
+        <f>H47+C48</f>
+        <v>9105.9987830938389</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>(three percent arbitrarily chosen)</t>
+        </is>
+      </c>
+      <c r="BA48" s="5">
+        <v>43890</v>
+      </c>
+      <c r="BB48">
+        <v>68</v>
+      </c>
+      <c r="BC48">
+        <f>(BB48/BB47)-1</f>
+        <v>0.1333333333333333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:57" ht="19.5">
+      <c r="C49">
+        <f>H48*D49</f>
+        <v>259.96179615411353</v>
+      </c>
+      <c r="D49">
+        <f>D48</f>
+        <v>0.028548411036113639</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="5">
+        <v>43939</v>
+      </c>
+      <c r="G49" s="2">
+        <f>H49*100</f>
+        <v>936596.0579247952</v>
+      </c>
+      <c r="H49">
+        <f>H48+C49</f>
+        <v>9365.9605792479524</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>March 31: Hospitalization by county presented in a graphic (only?)</t>
+        </is>
+      </c>
+      <c r="BA49" s="5">
+        <v>43891</v>
+      </c>
+      <c r="BB49">
+        <v>74</v>
+      </c>
+      <c r="BC49">
+        <f>(BB49/BB48)-1</f>
+        <v>0.088235294117646967</v>
+      </c>
+    </row>
+    <row r="50" spans="1:57" ht="19.5">
+      <c r="C50">
+        <f>H49*D50</f>
+        <v>267.38329236440751</v>
+      </c>
+      <c r="D50">
+        <f>D49</f>
+        <v>0.028548411036113639</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="5">
+        <v>43940</v>
+      </c>
+      <c r="G50" s="2">
+        <f>H50*100</f>
+        <v>963334.38716123602</v>
+      </c>
+      <c r="H50">
+        <f>H49+C50</f>
+        <v>9633.3438716123601</v>
+      </c>
+      <c r="BA50" s="5">
+        <v>43892</v>
+      </c>
+      <c r="BB50">
+        <v>98</v>
+      </c>
+      <c r="BC50">
+        <f>(BB50/BB49)-1</f>
+        <v>0.32432432432432434</v>
+      </c>
+    </row>
+    <row r="51" spans="1:57" ht="19.5">
+      <c r="C51">
+        <f>H50*D51</f>
+        <v>275.01666049901598</v>
+      </c>
+      <c r="D51">
+        <f>D50</f>
+        <v>0.028548411036113639</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="5">
+        <v>43941</v>
+      </c>
+      <c r="G51" s="2">
+        <f>H51*100</f>
+        <v>990836.05321113754</v>
+      </c>
+      <c r="H51">
+        <f>H50+C51</f>
+        <v>9908.3605321113755</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>31 March 23:09 UTC: many cosmetic changes, columns deleted (or added).</t>
+        </is>
+      </c>
+      <c r="BA51" s="5">
+        <v>43893</v>
+      </c>
+      <c r="BB51">
+        <v>118</v>
+      </c>
+      <c r="BC51">
+        <f>(BB51/BB50)-1</f>
+        <v>0.20408163265306123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:57" ht="19.5">
+      <c r="C52">
+        <f>H51*D52</f>
+        <v>282.86794916472121</v>
+      </c>
+      <c r="D52">
+        <f>D51</f>
+        <v>0.028548411036113639</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="5">
+        <v>43942</v>
+      </c>
+      <c r="G52" s="2">
+        <f>H52*100</f>
+        <v>1019122.8481276097</v>
+      </c>
+      <c r="H52">
+        <f>H51+C52</f>
+        <v>10191.228481276097</v>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>&lt;&lt;  arbitrary peak number (1 million)</t>
         </is>
       </c>
-      <c r="J38" s="1"/>
-      <c r="BA38" s="5">
-        <v>43880</v>
-      </c>
-      <c r="BB38">
-        <v>13</v>
-      </c>
-      <c r="BC38">
-        <f>(BB38/BB37)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:57" ht="19.5">
-      <c r="C39">
-        <f>H38*D39</f>
-        <v>2088.184172906077</v>
-      </c>
-      <c r="D39">
-        <f>D38/1.0900000000000001</f>
-        <v>0.18525763887416255</v>
-      </c>
-      <c r="E39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>above: moving target</t>
-        </is>
-      </c>
-      <c r="G39" s="2">
-        <f>H39*100</f>
-        <v>1335996.8621829608</v>
-      </c>
-      <c r="H39">
-        <f>H38+C39</f>
-        <v>13359.968621829608</v>
-      </c>
-      <c r="BA39" s="5">
-        <v>43881</v>
-      </c>
-      <c r="BB39">
-        <v>13</v>
-      </c>
-      <c r="BC39">
-        <f>(BB39/BB38)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:57" ht="19.5">
-      <c r="C40">
-        <f>H39*D40</f>
-        <v>2270.6754516633509</v>
-      </c>
-      <c r="D40">
-        <f>D39/1.0900000000000001</f>
-        <v>0.16996113658180048</v>
-      </c>
-      <c r="E40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="5">
-        <v>43930</v>
-      </c>
-      <c r="G40" s="2">
-        <f>H40*100</f>
-        <v>1563064.4073492959</v>
-      </c>
-      <c r="H40">
-        <f>H39+C40</f>
-        <v>15630.64407349296</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Yesterday:</t>
-        </is>
-      </c>
-      <c r="M40" s="6">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="N40" s="6">
-        <v>0</v>
-      </c>
-      <c r="O40" s="6">
-        <v>1</v>
-      </c>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6">
-        <v>0.14999999999999999</v>
-      </c>
-      <c r="R40" s="6">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="S40" s="6">
-        <v>0.17999999999999999</v>
-      </c>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6">
-        <v>0.059999999999999998</v>
-      </c>
-      <c r="V40" s="6">
-        <v>0.089999999999999997</v>
-      </c>
-      <c r="W40" s="6">
-        <v>0.13</v>
-      </c>
-      <c r="X40" s="6"/>
-      <c r="Y40" s="6">
-        <v>0.070000000000000007</v>
-      </c>
-      <c r="Z40" s="6">
-        <v>0.059999999999999998</v>
-      </c>
-      <c r="AA40" s="6">
-        <v>0.40999999999999998</v>
-      </c>
-      <c r="AB40" s="6"/>
-      <c r="AC40" s="6">
-        <v>0.12</v>
-      </c>
-      <c r="AD40" s="6">
-        <v>0.38</v>
-      </c>
-      <c r="AE40" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="AF40" s="6"/>
-      <c r="AG40" s="6">
-        <v>0.10000000000000001</v>
-      </c>
-      <c r="AH40" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI40" s="6">
-        <v>0.42999999999999999</v>
-      </c>
-      <c r="AJ40" s="6"/>
-      <c r="AK40" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="AL40" s="6" t="inlineStr">
-        <is>
-          <t>r: +3</t>
-        </is>
-      </c>
-      <c r="AM40" s="6">
-        <v>0</v>
-      </c>
-      <c r="AN40" s="6"/>
-      <c r="AO40" s="6">
-        <v>0</v>
-      </c>
-      <c r="AP40" s="6">
-        <v>-0.10000000000000001</v>
-      </c>
-      <c r="AQ40" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR40" s="6"/>
-      <c r="AS40" s="6">
-        <v>-0.059999999999999998</v>
-      </c>
-      <c r="AT40" s="6"/>
-      <c r="AU40" s="6">
-        <v>-0.5</v>
-      </c>
-      <c r="AV40" s="6"/>
-      <c r="AW40" s="6">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="AX40" s="6">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="AY40" s="6">
-        <v>0.32000000000000001</v>
-      </c>
-      <c r="BA40" s="5">
-        <v>43882</v>
-      </c>
-      <c r="BB40">
-        <v>15</v>
-      </c>
-      <c r="BC40">
-        <f>(BB40/BB39)-1</f>
-        <v>0.15384615384615374</v>
-      </c>
-    </row>
-    <row r="41" spans="1:57" ht="19.5">
-      <c r="C41">
-        <f>H40*D41</f>
-        <v>2437.2495708591259</v>
-      </c>
-      <c r="D41">
-        <f>D40/1.0900000000000001</f>
-        <v>0.15592764824018393</v>
-      </c>
-      <c r="E41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="5">
-        <v>43931</v>
-      </c>
-      <c r="G41" s="2">
-        <f>H41*100</f>
-        <v>1806789.3644352087</v>
-      </c>
-      <c r="H41">
-        <f>H40+C41</f>
-        <v>18067.893644352087</v>
-      </c>
-      <c r="BA41" s="5">
-        <v>43883</v>
-      </c>
-      <c r="BB41">
-        <v>15</v>
-      </c>
-      <c r="BC41">
-        <f>(BB41/BB40)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:57" ht="19.5">
-      <c r="C42">
-        <f>H41*D42</f>
-        <v>2584.6643712087953</v>
-      </c>
-      <c r="D42">
-        <f>D41/1.0900000000000001</f>
-        <v>0.14305288829374671</v>
-      </c>
-      <c r="E42" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="5">
-        <v>43932</v>
-      </c>
-      <c r="G42" s="2">
-        <f>H42*100</f>
-        <v>2065255.8015560885</v>
-      </c>
-      <c r="H42">
-        <f>H41+C42</f>
-        <v>20652.558015560884</v>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>older Source: https://portal.ct.gov/Coronavirus/Pages/Governors-Press-Releases</t>
-        </is>
-      </c>
-      <c r="AQ42" s="6"/>
-      <c r="BA42" s="5">
-        <v>43884</v>
-      </c>
-      <c r="BB42">
-        <v>15</v>
-      </c>
-      <c r="BC42">
-        <f>(BB42/BB41)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:57" ht="19.5">
-      <c r="C43">
-        <f>H42*D43</f>
-        <v>2710.4661236515176</v>
-      </c>
-      <c r="D43">
-        <f>D42/1.0900000000000001</f>
-        <v>0.13124118192086853</v>
-      </c>
-      <c r="E43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="5">
-        <v>43933</v>
-      </c>
-      <c r="G43" s="2">
-        <f>H43*100</f>
-        <v>2336302.4139212403</v>
-      </c>
-      <c r="H43">
-        <f>H42+C43</f>
-        <v>23363.024139212401</v>
-      </c>
-      <c r="AL43" t="inlineStr">
-        <is>
-          <t>any zero-to-positive int gets the 'r: +n' entry.</t>
-        </is>
-      </c>
-      <c r="BA43" s="5">
-        <v>43885</v>
-      </c>
-      <c r="BB43">
-        <v>51</v>
-      </c>
-      <c r="BC43">
-        <f>(BB43/BB42)-1</f>
-        <v>2.3999999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:57" ht="19.5">
-      <c r="C44">
-        <f>H43*D44</f>
-        <v>2813.0191754825846</v>
-      </c>
-      <c r="D44">
-        <f>D43/1.0900000000000001</f>
-        <v>0.12040475405584268</v>
-      </c>
-      <c r="E44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="5">
-        <v>43934</v>
-      </c>
-      <c r="G44" s="2">
-        <f>H44*100</f>
-        <v>2617604.3314694986</v>
-      </c>
-      <c r="H44">
-        <f>H43+C44</f>
-        <v>26176.043314694987</v>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>recent Source: https://portal.ct.gov/-/media/Coronavirus/CTDPHCOVID19summary3312020.pdf?la=en</t>
-        </is>
-      </c>
-      <c r="BA44" s="5">
-        <v>43886</v>
-      </c>
-      <c r="BB44">
-        <v>51</v>
-      </c>
-      <c r="BC44">
-        <f>(BB44/BB43)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:57" ht="19.5">
-      <c r="C45">
-        <f>H44*D45</f>
-        <v>2891.4862912485637</v>
-      </c>
-      <c r="D45">
-        <f>D44/1.0900000000000001</f>
-        <v>0.11046307711545199</v>
-      </c>
-      <c r="E45" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="5">
-        <v>43935</v>
-      </c>
-      <c r="G45" s="2">
-        <f>H45*100</f>
-        <v>2906752.9605943551</v>
-      </c>
-      <c r="H45">
-        <f>H44+C45</f>
-        <v>29067.52960594355</v>
-      </c>
-      <c r="BA45" s="5">
-        <v>43887</v>
-      </c>
-      <c r="BB45">
-        <v>57</v>
-      </c>
-      <c r="BC45">
-        <f>(BB45/BB44)-1</f>
-        <v>0.11764705882352944</v>
-      </c>
-    </row>
-    <row r="46" spans="1:57" ht="19.5">
-      <c r="C46">
-        <f>H45*D46</f>
-        <v>2945.7695086394733</v>
-      </c>
-      <c r="D46">
-        <f>D45/1.0900000000000001</f>
-        <v>0.10134227258298346</v>
-      </c>
-      <c r="E46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="5">
-        <v>43936</v>
-      </c>
-      <c r="G46" s="2">
-        <f>H46*100</f>
-        <v>3201329.9114583023</v>
-      </c>
-      <c r="H46">
-        <f>H45+C46</f>
-        <v>32013.299114583024</v>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>export: $ ssconvert -T Gnumeric_stf:stf_csv thisfile.gnumeric thisfile.csv</t>
-        </is>
-      </c>
-      <c r="BA46" s="5">
-        <v>43888</v>
-      </c>
-      <c r="BB46">
-        <v>58</v>
-      </c>
-      <c r="BC46">
-        <f>(BB46/BB45)-1</f>
-        <v>0.017543859649122862</v>
-      </c>
-    </row>
-    <row r="47" spans="1:57" ht="19.5">
-      <c r="C47">
-        <f>H46*D47</f>
-        <v>2976.4224634409684</v>
-      </c>
-      <c r="D47">
-        <f>D46/1.0900000000000001</f>
-        <v>0.092974562002737113</v>
-      </c>
-      <c r="E47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="5">
-        <v>43937</v>
-      </c>
-      <c r="G47" s="2">
-        <f>H47*100</f>
-        <v>3498972.1578023992</v>
-      </c>
-      <c r="H47">
-        <f>H46+C47</f>
-        <v>34989.721578023993</v>
-      </c>
-      <c r="BA47" s="5">
-        <v>43889</v>
-      </c>
-      <c r="BB47">
-        <v>60</v>
-      </c>
-      <c r="BC47">
-        <f>(BB47/BB46)-1</f>
-        <v>0.034482758620689724</v>
-      </c>
-    </row>
-    <row r="48" spans="1:57" ht="19.5">
-      <c r="C48">
-        <f>H47*D48</f>
-        <v>2984.5449892793577</v>
-      </c>
-      <c r="D48">
-        <f>D47/1.0900000000000001</f>
-        <v>0.085297763305263397</v>
-      </c>
-      <c r="E48" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="5">
-        <v>43938</v>
-      </c>
-      <c r="G48" s="2">
-        <f>H48*100</f>
-        <v>3797426.6567303347</v>
-      </c>
-      <c r="H48">
-        <f>H47+C48</f>
-        <v>37974.266567303348</v>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>March 31: Hospitalization by county presented in a graphic (only?)</t>
-        </is>
-      </c>
-      <c r="BA48" s="5">
-        <v>43890</v>
-      </c>
-      <c r="BB48">
-        <v>68</v>
-      </c>
-      <c r="BC48">
-        <f>(BB48/BB47)-1</f>
-        <v>0.1333333333333333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:57" ht="19.5">
-      <c r="C49">
-        <f>H48*D49</f>
-        <v>2971.66972600809</v>
-      </c>
-      <c r="D49">
-        <f>D48/1.0900000000000001</f>
-        <v>0.078254828720425135</v>
-      </c>
-      <c r="E49" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="5">
-        <v>43939</v>
-      </c>
-      <c r="G49" s="2">
-        <f>H49*100</f>
-        <v>4094593.629331144</v>
-      </c>
-      <c r="H49">
-        <f>H48+C49</f>
-        <v>40945.936293311439</v>
-      </c>
-      <c r="BA49" s="5">
-        <v>43891</v>
-      </c>
-      <c r="BB49">
-        <v>74</v>
-      </c>
-      <c r="BC49">
-        <f>(BB49/BB48)-1</f>
-        <v>0.088235294117646967</v>
-      </c>
-    </row>
-    <row r="50" spans="1:57" ht="19.5">
-      <c r="C50">
-        <f>H49*D50</f>
-        <v>2939.6488361747938</v>
-      </c>
-      <c r="D50">
-        <f>D49/1.0900000000000001</f>
-        <v>0.07179342084442672</v>
-      </c>
-      <c r="E50" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="5">
-        <v>43940</v>
-      </c>
-      <c r="G50" s="2">
-        <f>H50*100</f>
-        <v>4388558.5129486229</v>
-      </c>
-      <c r="H50">
-        <f>H49+C50</f>
-        <v>43885.58512948623</v>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>31 March 23:09 UTC: many cosmetic changes, columns deleted (or added).</t>
-        </is>
-      </c>
-      <c r="BA50" s="5">
-        <v>43892</v>
-      </c>
-      <c r="BB50">
-        <v>98</v>
-      </c>
-      <c r="BC50">
-        <f>(BB50/BB49)-1</f>
-        <v>0.32432432432432434</v>
-      </c>
-    </row>
-    <row r="51" spans="1:57" ht="19.5">
-      <c r="C51">
-        <f>H50*D51</f>
-        <v>2890.5470478946054</v>
-      </c>
-      <c r="D51">
-        <f>D50/1.0900000000000001</f>
-        <v>0.065865523710483223</v>
-      </c>
-      <c r="E51" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="5">
-        <v>43941</v>
-      </c>
-      <c r="G51" s="2">
-        <f>H51*100</f>
-        <v>4677613.2177380836</v>
-      </c>
-      <c r="H51">
-        <f>H50+C51</f>
-        <v>46776.132177380838</v>
-      </c>
-      <c r="P51" t="inlineStr">
+      <c r="P52" t="inlineStr">
         <is>
           <t>Hopefully, no major corruption of data/forumlas present after these major edits.</t>
         </is>
       </c>
-      <c r="BA51" s="5">
-        <v>43893</v>
-      </c>
-      <c r="BB51">
-        <v>118</v>
-      </c>
-      <c r="BC51">
-        <f>(BB51/BB50)-1</f>
-        <v>0.20408163265306123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:57" ht="19.5">
-      <c r="C52">
-        <f>H51*D52</f>
-        <v>2826.5453605632792</v>
-      </c>
-      <c r="D52">
-        <f>D51/1.0900000000000001</f>
-        <v>0.060427085972920382</v>
-      </c>
-      <c r="E52" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="5">
-        <v>43942</v>
-      </c>
-      <c r="G52" s="2">
-        <f>H52*100</f>
-        <v>4960267.7537944121</v>
-      </c>
-      <c r="H52">
-        <f>H51+C52</f>
-        <v>49602.677537944117</v>
-      </c>
       <c r="BA52" s="5">
         <v>43894</v>
       </c>
@@ -4492,11 +4630,11 @@
     <row r="53" spans="1:57" ht="19.5">
       <c r="C53">
         <f>H52*D53</f>
-        <v>2749.858036763666</v>
+        <v>290.94337964641818</v>
       </c>
       <c r="D53">
-        <f>D52/1.0900000000000001</f>
-        <v>0.055437693553137962</v>
+        <f>D52</f>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E53" t="s">
         <v>14</v>
@@ -4506,51 +4644,51 @@
       </c>
       <c r="G53" s="2">
         <f>H53*100</f>
-        <v>5235253.557470778</v>
+        <v>1048217.1860922516</v>
       </c>
       <c r="H53">
         <f>H52+C53</f>
-        <v>52352.535574707785</v>
-      </c>
-      <c r="P53" t="inlineStr">
+        <v>10482.171860922515</v>
+      </c>
+      <c r="BA53" s="5">
+        <v>43895</v>
+      </c>
+      <c r="BB53">
+        <v>217</v>
+      </c>
+      <c r="BC53">
+        <f>(BB53/BB52)-1</f>
+        <v>0.4563758389261745</v>
+      </c>
+    </row>
+    <row r="54" spans="1:57" ht="19.5">
+      <c r="C54">
+        <f>H53*D54</f>
+        <v>299.2493508368002</v>
+      </c>
+      <c r="D54">
+        <f>D53</f>
+        <v>0.028548411036113639</v>
+      </c>
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="5">
+        <v>43944</v>
+      </c>
+      <c r="G54" s="2">
+        <f>H54*100</f>
+        <v>1078142.1211759315</v>
+      </c>
+      <c r="H54">
+        <f>H53+C54</f>
+        <v>10781.421211759316</v>
+      </c>
+      <c r="P54" t="inlineStr">
         <is>
           <t>1 April: Column D now formatted as percentile</t>
         </is>
       </c>
-      <c r="BA53" s="5">
-        <v>43895</v>
-      </c>
-      <c r="BB53">
-        <v>217</v>
-      </c>
-      <c r="BC53">
-        <f>(BB53/BB52)-1</f>
-        <v>0.4563758389261745</v>
-      </c>
-    </row>
-    <row r="54" spans="1:57" ht="19.5">
-      <c r="C54">
-        <f>H53*D54</f>
-        <v>2662.6640586425719</v>
-      </c>
-      <c r="D54">
-        <f>D53/1.0900000000000001</f>
-        <v>0.050860269314805466</v>
-      </c>
-      <c r="E54" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="5">
-        <v>43944</v>
-      </c>
-      <c r="G54" s="2">
-        <f>H54*100</f>
-        <v>5501519.9633350354</v>
-      </c>
-      <c r="H54">
-        <f>H53+C54</f>
-        <v>55015.199633350356</v>
-      </c>
       <c r="BA54" s="5">
         <v>43896</v>
       </c>
@@ -4565,11 +4703,11 @@
     <row r="55" spans="1:57" ht="19.5">
       <c r="C55">
         <f>H54*D55</f>
-        <v>2567.0530915229228</v>
+        <v>307.79244430677932</v>
       </c>
       <c r="D55">
-        <f>D54/1.0900000000000001</f>
-        <v>0.046660797536518771</v>
+        <f>D54</f>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E55" t="s">
         <v>16</v>
@@ -4579,11 +4717,11 @@
       </c>
       <c r="G55" s="2">
         <f>H55*100</f>
-        <v>5758225.2724873284</v>
+        <v>1108921.3656066095</v>
       </c>
       <c r="H55">
         <f>H54+C55</f>
-        <v>57582.25272487328</v>
+        <v>11089.213656066095</v>
       </c>
       <c r="BA55" s="5">
         <v>43897</v>
@@ -4599,11 +4737,11 @@
     <row r="56" spans="1:57" ht="19.5">
       <c r="C56">
         <f>H55*D56</f>
-        <v>2464.9851707265761</v>
+        <v>316.57942952065935</v>
       </c>
       <c r="D56">
-        <f>D55/1.0900000000000001</f>
-        <v>0.042808071134420887</v>
+        <f>D55</f>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E56" t="s">
         <v>17</v>
@@ -4613,11 +4751,11 @@
       </c>
       <c r="G56" s="2">
         <f>H56*100</f>
-        <v>6004723.7895599855</v>
+        <v>1140579.3085586755</v>
       </c>
       <c r="H56">
         <f>H55+C56</f>
-        <v>60047.237895599857</v>
+        <v>11405.793085586754</v>
       </c>
       <c r="BA56" s="5">
         <v>43898</v>
@@ -4633,11 +4771,11 @@
     <row r="57" spans="1:57" ht="19.5">
       <c r="C57">
         <f>H56*D57</f>
-        <v>2358.2627809727819</v>
+        <v>325.61726920019356</v>
       </c>
       <c r="D57">
-        <f>D56/1.0900000000000001</f>
-        <v>0.039273459756349438</v>
+        <f>D56</f>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -4647,16 +4785,11 @@
       </c>
       <c r="G57" s="2">
         <f>H57*100</f>
-        <v>6240550.0676572639</v>
+        <v>1173141.0354786948</v>
       </c>
       <c r="H57">
         <f>H56+C57</f>
-        <v>62405.500676572643</v>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>&lt;&lt; transmission under 4 percent growth (per day)</t>
-        </is>
+        <v>11731.410354786947</v>
       </c>
       <c r="BA57" s="5">
         <v>43899</v>
@@ -4672,11 +4805,11 @@
     <row r="58" spans="1:57" ht="19.5">
       <c r="C58">
         <f>H57*D58</f>
-        <v>2450.8799193962132</v>
+        <v>334.91312484177752</v>
       </c>
       <c r="D58">
         <f>D57</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E58" t="s">
         <v>12</v>
@@ -4686,11 +4819,11 @@
       </c>
       <c r="G58" s="2">
         <f>H58*100</f>
-        <v>6485638.059596885</v>
+        <v>1206632.3479628726</v>
       </c>
       <c r="H58">
         <f>H57+C58</f>
-        <v>64856.380595968854</v>
+        <v>12066.323479628725</v>
       </c>
       <c r="BA58" s="5">
         <v>43900</v>
@@ -4706,11 +4839,11 @@
     <row r="59" spans="1:57" ht="19.5">
       <c r="C59">
         <f>H58*D59</f>
-        <v>2547.1344532782655</v>
+        <v>344.47436239114984</v>
       </c>
       <c r="D59">
         <f>D58</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E59" t="s">
         <v>13</v>
@@ -4720,16 +4853,11 @@
       </c>
       <c r="G59" s="2">
         <f>H59*100</f>
-        <v>6740351.5049247118</v>
+        <v>1241079.7842019873</v>
       </c>
       <c r="H59">
         <f>H58+C59</f>
-        <v>67403.515049247115</v>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>(four percent arbitrarily chosen)</t>
-        </is>
+        <v>12410.797842019874</v>
       </c>
       <c r="BA59" s="5">
         <v>43901</v>
@@ -4745,11 +4873,11 @@
     <row r="60" spans="1:57" ht="19.5">
       <c r="C60">
         <f>H59*D60</f>
-        <v>2647.1692357231004</v>
+        <v>354.30855808009551</v>
       </c>
       <c r="D60">
         <f>D59</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E60" t="s">
         <v>14</v>
@@ -4759,11 +4887,11 @@
       </c>
       <c r="G60" s="2">
         <f>H60*100</f>
-        <v>7005068.428497022</v>
+        <v>1276510.6400099969</v>
       </c>
       <c r="H60">
         <f>H59+C60</f>
-        <v>70050.684284970223</v>
+        <v>12765.10640009997</v>
       </c>
       <c r="BA60" s="5">
         <v>43902</v>
@@ -4779,11 +4907,11 @@
     <row r="61" spans="1:57" ht="19.5">
       <c r="C61">
         <f>H60*D61</f>
-        <v>2751.1327301705182</v>
+        <v>364.42350442977886</v>
       </c>
       <c r="D61">
         <f>D60</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E61" t="s">
         <v>15</v>
@@ -4793,11 +4921,11 @@
       </c>
       <c r="G61" s="2">
         <f>H61*100</f>
-        <v>7280181.7015140736</v>
+        <v>1312952.9904529748</v>
       </c>
       <c r="H61">
         <f>H60+C61</f>
-        <v>72801.817015140739</v>
+        <v>13129.529904529749</v>
       </c>
       <c r="BA61" s="5">
         <v>43903</v>
@@ -4813,11 +4941,11 @@
     <row r="62" spans="1:57" ht="19.5">
       <c r="C62">
         <f>H61*D62</f>
-        <v>2859.1792307332457</v>
+        <v>374.82721642546113</v>
       </c>
       <c r="D62">
         <f>D61</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E62" t="s">
         <v>16</v>
@@ -4827,11 +4955,11 @@
       </c>
       <c r="G62" s="2">
         <f>H62*100</f>
-        <v>7566099.624587399</v>
+        <v>1350435.7120955209</v>
       </c>
       <c r="H62">
         <f>H61+C62</f>
-        <v>75660.99624587399</v>
+        <v>13504.35712095521</v>
       </c>
       <c r="BA62" s="5">
         <v>43904</v>
@@ -4847,11 +4975,11 @@
     <row r="63" spans="1:57" ht="19.5">
       <c r="C63">
         <f>H62*D63</f>
-        <v>2971.4690911876382</v>
+        <v>385.52793786749754</v>
       </c>
       <c r="D63">
         <f>D62</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E63" t="s">
         <v>17</v>
@@ -4861,11 +4989,11 @@
       </c>
       <c r="G63" s="2">
         <f>H63*100</f>
-        <v>7863246.5337061631</v>
+        <v>1388988.5058822706</v>
       </c>
       <c r="H63">
         <f>H62+C63</f>
-        <v>78632.465337061629</v>
+        <v>13889.885058822707</v>
       </c>
       <c r="BA63" s="5">
         <v>43905</v>
@@ -4881,11 +5009,11 @@
     <row r="64" spans="1:57" ht="19.5">
       <c r="C64">
         <f>H63*D64</f>
-        <v>3088.1689629576322</v>
+        <v>396.53414790364411</v>
       </c>
       <c r="D64">
         <f>D63</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
@@ -4895,11 +5023,11 @@
       </c>
       <c r="G64" s="2">
         <f>H64*100</f>
-        <v>8172063.4300019257</v>
+        <v>1428641.9206726351</v>
       </c>
       <c r="H64">
         <f>H63+C64</f>
-        <v>81720.634300019257</v>
+        <v>14286.41920672635</v>
       </c>
       <c r="BA64" s="5">
         <v>43906</v>
@@ -4915,11 +5043,11 @@
     <row r="65" spans="1:57" ht="19.5">
       <c r="C65">
         <f>H64*D65</f>
-        <v>3209.4520424451557</v>
+        <v>407.8545677478524</v>
       </c>
       <c r="D65">
         <f>D64</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E65" t="s">
         <v>12</v>
@@ -4929,11 +5057,11 @@
       </c>
       <c r="G65" s="2">
         <f>H65*100</f>
-        <v>8493008.6342464425</v>
+        <v>1469427.3774474203</v>
       </c>
       <c r="H65">
         <f>H64+C65</f>
-        <v>84930.086342464419</v>
+        <v>14694.273774474203</v>
       </c>
       <c r="BA65" s="5">
         <v>43907</v>
@@ -4949,11 +5077,11 @@
     <row r="66" spans="1:57" ht="19.5">
       <c r="C66">
         <f>H65*D66</f>
-        <v>3335.4983280740594</v>
+        <v>419.49816759087452</v>
       </c>
       <c r="D66">
         <f>D65</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E66" t="s">
         <v>13</v>
@@ -4963,11 +5091,11 @@
       </c>
       <c r="G66" s="2">
         <f>H66*100</f>
-        <v>8826558.4670538474</v>
+        <v>1511377.1942065076</v>
       </c>
       <c r="H66">
         <f>H65+C66</f>
-        <v>88265.584670538476</v>
+        <v>15113.771942065077</v>
       </c>
       <c r="BA66" s="5">
         <v>43908</v>
@@ -4983,11 +5111,11 @@
     <row r="67" spans="1:57" ht="19.5">
       <c r="C67">
         <f>H66*D67</f>
-        <v>3466.4948874290467</v>
+        <v>431.47417370815532</v>
       </c>
       <c r="D67">
         <f>D66</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E67" t="s">
         <v>14</v>
@@ -4997,11 +5125,11 @@
       </c>
       <c r="G67" s="2">
         <f>H67*100</f>
-        <v>9173207.9557967521</v>
+        <v>1554524.6115773232</v>
       </c>
       <c r="H67">
         <f>H66+C67</f>
-        <v>91732.079557967518</v>
+        <v>15545.246115773232</v>
       </c>
       <c r="BA67" s="5">
         <v>43909</v>
@@ -5017,11 +5145,11 @@
     <row r="68" spans="1:57" ht="19.5">
       <c r="C68">
         <f>H67*D68</f>
-        <v>3602.6361348860823</v>
+        <v>443.79207577064324</v>
       </c>
       <c r="D68">
         <f>D67</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E68" t="s">
         <v>15</v>
@@ -5031,11 +5159,11 @@
       </c>
       <c r="G68" s="2">
         <f>H68*100</f>
-        <v>9533471.5692853592</v>
+        <v>1598903.8191543876</v>
       </c>
       <c r="H68">
         <f>H67+C68</f>
-        <v>95334.715692853599</v>
+        <v>15989.038191543876</v>
       </c>
       <c r="BA68" s="5">
         <v>43910</v>
@@ -5051,11 +5179,11 @@
     <row r="69" spans="1:57" ht="19.5">
       <c r="C69">
         <f>H68*D69</f>
-        <v>3744.1241201463013</v>
+        <v>456.46163436431362</v>
       </c>
       <c r="D69">
         <f>D68</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E69" t="s">
         <v>16</v>
@@ -5065,11 +5193,11 @@
       </c>
       <c r="G69" s="2">
         <f>H69*100</f>
-        <v>9907883.9812999889</v>
+        <v>1644549.9825908188</v>
       </c>
       <c r="H69">
         <f>H68+C69</f>
-        <v>99078.839812999897</v>
+        <v>16445.499825908188</v>
       </c>
       <c r="BA69" s="5">
         <v>43911</v>
@@ -5085,11 +5213,11 @@
     <row r="70" spans="1:57" ht="19.5">
       <c r="C70">
         <f>H69*D70</f>
-        <v>3891.1688281016441</v>
+        <v>469.49288872436222</v>
       </c>
       <c r="D70">
         <f>D69</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E70" t="s">
         <v>17</v>
@@ -5099,11 +5227,11 @@
       </c>
       <c r="G70" s="2">
         <f>H70*100</f>
-        <v>10297000.864110153</v>
+        <v>1691499.2714632549</v>
       </c>
       <c r="H70">
         <f>H69+C70</f>
-        <v>102970.00864110154</v>
+        <v>16914.99271463255</v>
       </c>
       <c r="BA70" s="5">
         <v>43912</v>
@@ -5119,11 +5247,11 @@
     <row r="71" spans="1:57" ht="19.5">
       <c r="C71">
         <f>H70*D71</f>
-        <v>4043.9884904772553</v>
+        <v>482.89616469019768</v>
       </c>
       <c r="D71">
         <f>D70</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
@@ -5133,11 +5261,11 @@
       </c>
       <c r="G71" s="2">
         <f>H71*100</f>
-        <v>10701399.713157879</v>
+        <v>1739788.887932275</v>
       </c>
       <c r="H71">
         <f>H70+C71</f>
-        <v>107013.9971315788</v>
+        <v>17397.888879322749</v>
       </c>
       <c r="BA71" s="5">
         <v>43913</v>
@@ -5153,11 +5281,11 @@
     <row r="72" spans="1:57" ht="19.5">
       <c r="C72">
         <f>H71*D72</f>
-        <v>4202.8099097131544</v>
+        <v>496.6820828875363</v>
       </c>
       <c r="D72">
         <f>D71</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E72" t="s">
         <v>12</v>
@@ -5167,11 +5295,11 @@
       </c>
       <c r="G72" s="2">
         <f>H72*100</f>
-        <v>11121680.704129195</v>
+        <v>1789457.0962210284</v>
       </c>
       <c r="H72">
         <f>H71+C72</f>
-        <v>111216.80704129195</v>
+        <v>17894.570962210284</v>
       </c>
       <c r="BA72" s="5">
         <v>43914</v>
@@ -5187,11 +5315,11 @@
     <row r="73" spans="1:57" ht="19.5">
       <c r="C73">
         <f>H72*D73</f>
-        <v>4367.8687955658597</v>
+        <v>510.86156714408276</v>
       </c>
       <c r="D73">
         <f>D72</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E73" t="s">
         <v>13</v>
@@ -5201,11 +5329,11 @@
       </c>
       <c r="G73" s="2">
         <f>H73*100</f>
-        <v>11558467.58368578</v>
+        <v>1840543.2529354366</v>
       </c>
       <c r="H73">
         <f>H72+C73</f>
-        <v>115584.6758368578</v>
+        <v>18405.432529354366</v>
       </c>
       <c r="BA73" s="5">
         <v>43915</v>
@@ -5221,11 +5349,11 @@
     <row r="74" spans="1:57" ht="19.5">
       <c r="C74">
         <f>H73*D74</f>
-        <v>4539.4101149295302</v>
+        <v>525.44585314546521</v>
       </c>
       <c r="D74">
         <f>D73</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E74" t="s">
         <v>14</v>
@@ -5236,7 +5364,7 @@
       <c r="G74" s="2"/>
       <c r="H74">
         <f>H73+C74</f>
-        <v>120124.08595178733</v>
+        <v>18930.878382499832</v>
       </c>
       <c r="BA74" s="5">
         <v>43916</v>
@@ -5252,11 +5380,11 @@
     <row r="75" spans="1:57" ht="19.5">
       <c r="C75">
         <f>H74*D75</f>
-        <v>4717.6884553957807</v>
+        <v>540.44649733828328</v>
       </c>
       <c r="D75">
         <f>D74</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E75" t="s">
         <v>15</v>
@@ -5267,7 +5395,7 @@
       <c r="G75" s="2"/>
       <c r="H75">
         <f>H74+C75</f>
-        <v>124841.77440718311</v>
+        <v>19471.324879838114</v>
       </c>
       <c r="BA75" s="5">
         <v>43917</v>
@@ -5283,11 +5411,11 @@
     <row r="76" spans="1:57" ht="19.5">
       <c r="C76">
         <f>H75*D76</f>
-        <v>4902.9684030917615</v>
+        <v>555.8753860873245</v>
       </c>
       <c r="D76">
         <f>D75</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E76" t="s">
         <v>16</v>
@@ -5298,7 +5426,7 @@
       <c r="G76" s="2"/>
       <c r="H76">
         <f>H75+C76</f>
-        <v>129744.74281027487</v>
+        <v>20027.200265925439</v>
       </c>
       <c r="BA76" s="5">
         <v>43918</v>
@@ -5314,11 +5442,11 @@
     <row r="77" spans="1:57" ht="19.5">
       <c r="C77">
         <f>H76*D77</f>
-        <v>5095.5249353572381</v>
+        <v>571.74474509420384</v>
       </c>
       <c r="D77">
         <f>D76</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E77" t="s">
         <v>17</v>
@@ -5329,7 +5457,7 @@
       <c r="G77" s="2"/>
       <c r="H77">
         <f>H76+C77</f>
-        <v>134840.2677456321</v>
+        <v>20598.945011019645</v>
       </c>
       <c r="BA77" s="5">
         <v>43919</v>
@@ -5345,11 +5473,11 @@
     <row r="78" spans="1:57" ht="19.5">
       <c r="C78">
         <f>H77*D78</f>
-        <v>5295.6438288434656</v>
+        <v>588.06714908489118</v>
       </c>
       <c r="D78">
         <f>D77</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
@@ -5360,7 +5488,7 @@
       <c r="G78" s="2"/>
       <c r="H78">
         <f>H77+C78</f>
-        <v>140135.91157447555</v>
+        <v>21187.012160104536</v>
       </c>
       <c r="BA78" s="5">
         <v>43920</v>
@@ -5376,11 +5504,11 @@
     <row r="79" spans="1:57" ht="19.5">
       <c r="C79">
         <f>H78*D79</f>
-        <v>5503.6220836395087</v>
+        <v>604.85553177380223</v>
       </c>
       <c r="D79">
         <f>D78</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E79" t="s">
         <v>12</v>
@@ -5391,7 +5519,7 @@
       <c r="G79" s="2"/>
       <c r="H79">
         <f>H78+C79</f>
-        <v>145639.53365811508</v>
+        <v>21791.867691878339</v>
       </c>
       <c r="BA79" s="5">
         <v>43921</v>
@@ -5407,11 +5535,11 @@
     <row r="80" spans="1:57" ht="19.5">
       <c r="C80">
         <f>H79*D80</f>
-        <v>5719.7683640554824</v>
+        <v>622.12319611234784</v>
       </c>
       <c r="D80">
         <f>D79</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E80" t="s">
         <v>13</v>
@@ -5422,7 +5550,7 @@
       <c r="G80" s="2"/>
       <c r="H80">
         <f>H79+C80</f>
-        <v>151359.30202217057</v>
+        <v>22413.990887990687</v>
       </c>
       <c r="BA80" s="5">
         <v>43922</v>
@@ -5434,78 +5562,83 @@
         <f>(BB80/BB79)-1</f>
         <v>0.13392003061029278</v>
       </c>
-      <c r="BE80" t="inlineStr">
+    </row>
+    <row r="81" spans="1:57" ht="19.5">
+      <c r="C81">
+        <f>H80*D81</f>
+        <v>639.88382483006387</v>
+      </c>
+      <c r="D81">
+        <f>D80</f>
+        <v>0.028548411036113639</v>
+      </c>
+      <c r="E81" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="5">
+        <v>43971</v>
+      </c>
+      <c r="G81" s="2"/>
+      <c r="H81">
+        <f>H80+C81</f>
+        <v>23053.874712820751</v>
+      </c>
+      <c r="BA81" s="5">
+        <v>43923</v>
+      </c>
+      <c r="BB81">
+        <v>243453</v>
+      </c>
+      <c r="BC81">
+        <f>(BB81/BB80)-1</f>
+        <v>0.1409791350317755</v>
+      </c>
+    </row>
+    <row r="82" spans="1:57" ht="19.5">
+      <c r="C82">
+        <f>H81*D82</f>
+        <v>658.15149127667303</v>
+      </c>
+      <c r="D82">
+        <f>D81</f>
+        <v>0.028548411036113639</v>
+      </c>
+      <c r="E82" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" s="5">
+        <v>43972</v>
+      </c>
+      <c r="G82" s="2"/>
+      <c r="H82">
+        <f>H81+C82</f>
+        <v>23712.026204097423</v>
+      </c>
+      <c r="AW82" s="2"/>
+      <c r="BA82" s="5">
+        <v>43924</v>
+      </c>
+      <c r="BB82">
+        <v>275586</v>
+      </c>
+      <c r="BC82">
+        <f>(BB82/BB81)-1</f>
+        <v>0.13198851523702726</v>
+      </c>
+      <c r="BE82" t="inlineStr">
         <is>
           <t>preliminary or provisional</t>
         </is>
       </c>
     </row>
-    <row r="81" spans="1:57" ht="19.5">
-      <c r="C81">
-        <f>H80*D81</f>
-        <v>5944.4034567168555</v>
-      </c>
-      <c r="D81">
-        <f>D80</f>
-        <v>0.039273459756349438</v>
-      </c>
-      <c r="E81" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="5">
-        <v>43971</v>
-      </c>
-      <c r="G81" s="2"/>
-      <c r="H81">
-        <f>H80+C81</f>
-        <v>157303.70547888742</v>
-      </c>
-      <c r="BA81" s="5">
-        <v>43923</v>
-      </c>
-      <c r="BB81">
-        <v>243453</v>
-      </c>
-      <c r="BC81">
-        <f>(BB81/BB80)-1</f>
-        <v>0.1409791350317755</v>
-      </c>
-    </row>
-    <row r="82" spans="1:57" ht="19.5">
-      <c r="C82">
-        <f>H81*D82</f>
-        <v>6177.8607466497297</v>
-      </c>
-      <c r="D82">
-        <f>D81</f>
-        <v>0.039273459756349438</v>
-      </c>
-      <c r="E82" t="s">
-        <v>15</v>
-      </c>
-      <c r="F82" s="5">
-        <v>43972</v>
-      </c>
-      <c r="G82" s="2"/>
-      <c r="H82">
-        <f>H81+C82</f>
-        <v>163481.56622553716</v>
-      </c>
-      <c r="AW82" s="2"/>
-      <c r="BE82" t="inlineStr">
-        <is>
-          <t>The 213372 number is</t>
-        </is>
-      </c>
-    </row>
     <row r="83" spans="1:57" ht="19.5">
       <c r="C83">
         <f>H82*D83</f>
-        <v>6420.486712063609</v>
+        <v>676.94067057367067</v>
       </c>
       <c r="D83">
         <f>D82</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E83" t="s">
         <v>16</v>
@@ -5516,24 +5649,19 @@
       <c r="G83" s="2"/>
       <c r="H83">
         <f>H82+C83</f>
-        <v>169902.05293760076</v>
+        <v>24388.966874671092</v>
       </c>
       <c r="AW83" s="2"/>
       <c r="BB83" s="1"/>
-      <c r="BE83" t="inlineStr">
-        <is>
-          <t>unique in this series, in that</t>
-        </is>
-      </c>
     </row>
     <row r="84" spans="1:57" ht="19.5">
       <c r="C84">
         <f>H83*D84</f>
-        <v>6672.6414385660155</v>
+        <v>696.26625108427015</v>
       </c>
       <c r="D84">
         <f>D83</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E84" t="s">
         <v>17</v>
@@ -5544,24 +5672,24 @@
       <c r="G84" s="2"/>
       <c r="H84">
         <f>H83+C84</f>
-        <v>176574.69437616676</v>
+        <v>25085.233125755363</v>
       </c>
       <c r="AW84" s="2"/>
       <c r="BB84" s="1"/>
       <c r="BE84" t="inlineStr">
         <is>
-          <t>it is the very last number</t>
+          <t>The 275,586 number is</t>
         </is>
       </c>
     </row>
     <row r="85" spans="1:57" ht="19.5">
       <c r="C85">
         <f>H84*D85</f>
-        <v>6934.6991535720872</v>
+        <v>716.14354621079781</v>
       </c>
       <c r="D85">
         <f>D84</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
@@ -5572,24 +5700,24 @@
       <c r="G85" s="2"/>
       <c r="H85">
         <f>H84+C85</f>
-        <v>183509.39352973885</v>
+        <v>25801.376671966162</v>
       </c>
       <c r="AW85" s="2"/>
       <c r="BB85" s="1"/>
       <c r="BE85" t="inlineStr">
         <is>
-          <t>reported.</t>
+          <t>unique in this series, in that</t>
         </is>
       </c>
     </row>
     <row r="86" spans="1:57" ht="19.5">
       <c r="C86">
         <f>H85*D86</f>
-        <v>7207.0487817022904</v>
+        <v>736.58830652888378</v>
       </c>
       <c r="D86">
         <f>D85</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E86" t="s">
         <v>12</v>
@@ -5600,19 +5728,24 @@
       <c r="G86" s="2"/>
       <c r="H86">
         <f>H85+C86</f>
-        <v>190716.44231144115</v>
+        <v>26537.964978495045</v>
       </c>
       <c r="AW86" s="2"/>
       <c r="BB86" s="1"/>
+      <c r="BE86" t="inlineStr">
+        <is>
+          <t>it is the very last number</t>
+        </is>
+      </c>
     </row>
     <row r="87" spans="1:57" ht="19.5">
       <c r="C87">
         <f>H86*D87</f>
-        <v>7490.0945219925234</v>
+        <v>757.61673226806522</v>
       </c>
       <c r="D87">
         <f>D86</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E87" t="s">
         <v>13</v>
@@ -5623,24 +5756,24 @@
       <c r="G87" s="2"/>
       <c r="H87">
         <f>H86+C87</f>
-        <v>198206.53683343367</v>
+        <v>27295.581710763112</v>
       </c>
       <c r="AW87" s="2"/>
       <c r="BB87" s="1"/>
       <c r="BE87" t="inlineStr">
         <is>
-          <t>It is (therefore) not locked in</t>
+          <t>reported.</t>
         </is>
       </c>
     </row>
     <row r="88" spans="1:57" ht="19.5">
       <c r="C88">
         <f>H87*D88</f>
-        <v>7784.2564477732494</v>
+        <v>779.24548614869127</v>
       </c>
       <c r="D88">
         <f>D87</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
@@ -5651,24 +5784,19 @@
       <c r="G88" s="2"/>
       <c r="H88">
         <f>H87+C88</f>
-        <v>205990.79328120692</v>
+        <v>28074.827196911803</v>
       </c>
       <c r="AW88" s="2"/>
       <c r="BB88" s="1"/>
-      <c r="BE88" t="inlineStr">
-        <is>
-          <t>value, by the next number in</t>
-        </is>
-      </c>
     </row>
     <row r="89" spans="1:57" ht="19.5">
       <c r="C89">
         <f>H88*D89</f>
-        <v>8089.971130107976</v>
+        <v>801.49170658530022</v>
       </c>
       <c r="D89">
         <f>D88</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E89" t="s">
         <v>15</v>
@@ -5679,24 +5807,24 @@
       <c r="G89" s="2"/>
       <c r="H89">
         <f>H88+C89</f>
-        <v>214080.76441131489</v>
+        <v>28876.318903497104</v>
       </c>
       <c r="AW89" s="2"/>
       <c r="BB89" s="1"/>
       <c r="BE89" t="inlineStr">
         <is>
-          <t>sequence (as it would be</t>
+          <t>It is (therefore) not locked in</t>
         </is>
       </c>
     </row>
     <row r="90" spans="1:57" ht="19.5">
       <c r="C90">
         <f>H89*D90</f>
-        <v>8407.6922857163008</v>
+        <v>824.37302126693362</v>
       </c>
       <c r="D90">
         <f>D89</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E90" t="s">
         <v>16</v>
@@ -5707,23 +5835,23 @@
       <c r="G90" s="2"/>
       <c r="H90">
         <f>H89+C90</f>
-        <v>222488.45669703119</v>
+        <v>29700.691924764036</v>
       </c>
       <c r="BB90" s="1"/>
       <c r="BE90" t="inlineStr">
         <is>
-          <t>expected to be, once the next</t>
+          <t>value, by the next number in</t>
         </is>
       </c>
     </row>
     <row r="91" spans="1:57" ht="19.5">
       <c r="C91">
         <f>H90*D91</f>
-        <v>8737.8914503431497</v>
+        <v>847.90756112514487</v>
       </c>
       <c r="D91">
         <f>D90</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E91" t="s">
         <v>17</v>
@@ -5734,314 +5862,324 @@
       <c r="G91" s="2"/>
       <c r="H91">
         <f>H90+C91</f>
-        <v>231226.34814737434</v>
+        <v>30548.599485889183</v>
       </c>
       <c r="BE91" t="inlineStr">
+        <is>
+          <t>sequence (as it would be</t>
+        </is>
+      </c>
+    </row>
+    <row r="92" spans="1:57" ht="19.5">
+      <c r="C92">
+        <f>H91*D92</f>
+        <v>872.11397470077418</v>
+      </c>
+      <c r="D92">
+        <f>D91</f>
+        <v>0.028548411036113639</v>
+      </c>
+      <c r="E92" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="5">
+        <v>43982</v>
+      </c>
+      <c r="G92" s="2"/>
+      <c r="H92">
+        <f>H91+C92</f>
+        <v>31420.713460589956</v>
+      </c>
+      <c r="BE92" t="inlineStr">
+        <is>
+          <t>expected to be, once the next</t>
+        </is>
+      </c>
+    </row>
+    <row r="93" spans="1:57" ht="19.5">
+      <c r="C93">
+        <f>H92*D93</f>
+        <v>897.01144292087065</v>
+      </c>
+      <c r="D93">
+        <f>D92</f>
+        <v>0.028548411036113639</v>
+      </c>
+      <c r="E93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="5">
+        <v>43983</v>
+      </c>
+      <c r="G93" s="2"/>
+      <c r="H93">
+        <f>H92+C93</f>
+        <v>32317.724903510825</v>
+      </c>
+      <c r="BE93" t="inlineStr">
         <is>
           <t>number in sequence has been</t>
         </is>
       </c>
     </row>
-    <row r="92" spans="1:57" ht="19.5">
-      <c r="C92">
-        <f>H91*D92</f>
-        <v>9081.0586785735504</v>
-      </c>
-      <c r="D92">
-        <f>D91</f>
-        <v>0.039273459756349438</v>
-      </c>
-      <c r="E92" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" s="5">
-        <v>43982</v>
-      </c>
-      <c r="G92" s="2"/>
-      <c r="H92">
-        <f>H91+C92</f>
-        <v>240307.4068259479</v>
-      </c>
-      <c r="BE92" t="inlineStr">
+    <row r="94" spans="1:57" ht="19.5">
+      <c r="C94">
+        <f>H93*D94</f>
+        <v>922.61969429747307</v>
+      </c>
+      <c r="D94">
+        <f>D93</f>
+        <v>0.028548411036113639</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="5">
+        <v>43984</v>
+      </c>
+      <c r="G94" s="2"/>
+      <c r="H94">
+        <f>H93+C94</f>
+        <v>33240.344597808296</v>
+      </c>
+      <c r="BE94" t="inlineStr">
         <is>
           <t>given).</t>
         </is>
       </c>
     </row>
-    <row r="93" spans="1:57" ht="19.5">
-      <c r="C93">
-        <f>H92*D93</f>
-        <v>9437.7032711315569</v>
-      </c>
-      <c r="D93">
-        <f>D92</f>
-        <v>0.039273459756349438</v>
-      </c>
-      <c r="E93" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" s="5">
-        <v>43983</v>
-      </c>
-      <c r="G93" s="2"/>
-      <c r="H93">
-        <f>H92+C93</f>
-        <v>249745.11009707945</v>
-      </c>
-    </row>
-    <row r="94" spans="1:57" ht="19.5">
-      <c r="C94">
-        <f>H93*D94</f>
-        <v>9808.3545307427103</v>
-      </c>
-      <c r="D94">
-        <f>D93</f>
-        <v>0.039273459756349438</v>
-      </c>
-      <c r="E94" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" s="5">
-        <v>43984</v>
-      </c>
-      <c r="G94" s="2"/>
-      <c r="H94">
-        <f>H93+C94</f>
-        <v>259553.46462782216</v>
-      </c>
-      <c r="BE94" t="inlineStr">
+    <row r="95" spans="1:57" ht="19.5">
+      <c r="C95">
+        <f>H94*D95</f>
+        <v>948.9590205602907</v>
+      </c>
+      <c r="D95">
+        <f>D94</f>
+        <v>0.028548411036113639</v>
+      </c>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="5">
+        <v>43985</v>
+      </c>
+      <c r="G95" s="2"/>
+      <c r="H95">
+        <f>H94+C95</f>
+        <v>34189.303618368584</v>
+      </c>
+    </row>
+    <row r="96" spans="1:57" ht="19.5">
+      <c r="C96">
+        <f>H95*D96</f>
+        <v>976.05029273567368</v>
+      </c>
+      <c r="D96">
+        <f>D95</f>
+        <v>0.028548411036113639</v>
+      </c>
+      <c r="E96" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96" s="5">
+        <v>43986</v>
+      </c>
+      <c r="G96" s="2"/>
+      <c r="H96">
+        <f>H95+C96</f>
+        <v>35165.353911104256</v>
+      </c>
+      <c r="BE96" t="inlineStr">
         <is>
           <t>In other words, it is not subject</t>
         </is>
       </c>
     </row>
-    <row r="95" spans="1:57" ht="19.5">
-      <c r="C95">
-        <f>H94*D95</f>
-        <v>10193.56254768184</v>
-      </c>
-      <c r="D95">
-        <f>D94</f>
-        <v>0.039273459756349438</v>
-      </c>
-      <c r="E95" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="5">
-        <v>43985</v>
-      </c>
-      <c r="G95" s="2"/>
-      <c r="H95">
-        <f>H94+C95</f>
-        <v>269747.02717550402</v>
-      </c>
-      <c r="BE95" t="inlineStr">
+    <row r="97" spans="1:57" ht="19.5">
+      <c r="C97">
+        <f>H96*D97</f>
+        <v>1003.9149776846107</v>
+      </c>
+      <c r="D97">
+        <f>D96</f>
+        <v>0.028548411036113639</v>
+      </c>
+      <c r="E97" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97" s="5">
+        <v>43987</v>
+      </c>
+      <c r="G97" s="2"/>
+      <c r="H97">
+        <f>H96+C97</f>
+        <v>36169.268888788865</v>
+      </c>
+      <c r="BE97" t="inlineStr">
         <is>
           <t>to further revision, once the next</t>
         </is>
       </c>
     </row>
-    <row r="96" spans="1:57" ht="19.5">
-      <c r="C96">
-        <f>H95*D96</f>
-        <v>10593.899016172056</v>
-      </c>
-      <c r="D96">
-        <f>D95</f>
-        <v>0.039273459756349438</v>
-      </c>
-      <c r="E96" t="s">
-        <v>15</v>
-      </c>
-      <c r="F96" s="5">
-        <v>43986</v>
-      </c>
-      <c r="G96" s="2"/>
-      <c r="H96">
-        <f>H95+C96</f>
-        <v>280340.92619167606</v>
-      </c>
-      <c r="BE96" t="inlineStr">
+    <row r="98" spans="1:57" ht="19.5">
+      <c r="C98">
+        <f>H97*D98</f>
+        <v>1032.5751551128617</v>
+      </c>
+      <c r="D98">
+        <f>D97</f>
+        <v>0.028548411036113639</v>
+      </c>
+      <c r="E98" t="s">
+        <v>17</v>
+      </c>
+      <c r="F98" s="5">
+        <v>43988</v>
+      </c>
+      <c r="G98" s="2"/>
+      <c r="H98">
+        <f>H97+C98</f>
+        <v>37201.844043901729</v>
+      </c>
+      <c r="BE98" t="inlineStr">
         <is>
           <t>day's figure has been posted.</t>
         </is>
       </c>
     </row>
-    <row r="97" spans="1:57" ht="19.5">
-      <c r="C97">
-        <f>H96*D97</f>
-        <v>11009.958082846519</v>
-      </c>
-      <c r="D97">
-        <f>D96</f>
-        <v>0.039273459756349438</v>
-      </c>
-      <c r="E97" t="s">
-        <v>16</v>
-      </c>
-      <c r="F97" s="5">
-        <v>43987</v>
-      </c>
-      <c r="G97" s="2"/>
-      <c r="H97">
-        <f>H96+C97</f>
-        <v>291350.8842745226</v>
-      </c>
-    </row>
-    <row r="98" spans="1:57" ht="19.5">
-      <c r="C98">
-        <f>H97*D98</f>
-        <v>11442.357228532286</v>
-      </c>
-      <c r="D98">
-        <f>D97</f>
-        <v>0.039273459756349438</v>
-      </c>
-      <c r="E98" t="s">
-        <v>17</v>
-      </c>
-      <c r="F98" s="5">
-        <v>43988</v>
-      </c>
-      <c r="G98" s="2"/>
-      <c r="H98">
-        <f>H97+C98</f>
-        <v>302793.24150305486</v>
-      </c>
-      <c r="BE98" t="inlineStr">
+    <row r="99" spans="1:57" ht="19.5">
+      <c r="C99">
+        <f>H98*D99</f>
+        <v>1062.0535350667026</v>
+      </c>
+      <c r="D99">
+        <f>D98</f>
+        <v>0.028548411036113639</v>
+      </c>
+      <c r="E99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="5">
+        <v>43989</v>
+      </c>
+      <c r="G99" s="2"/>
+      <c r="H99">
+        <f>H98+C99</f>
+        <v>38263.897578968434</v>
+      </c>
+    </row>
+    <row r="100" spans="1:57" ht="19.5">
+      <c r="C100">
+        <f>H99*D100</f>
+        <v>1092.3734759281444</v>
+      </c>
+      <c r="D100">
+        <f>D99</f>
+        <v>0.028548411036113639</v>
+      </c>
+      <c r="E100" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="5">
+        <v>43990</v>
+      </c>
+      <c r="G100" s="2"/>
+      <c r="H100">
+        <f>H99+C100</f>
+        <v>39356.271054896577</v>
+      </c>
+      <c r="BE100" t="inlineStr">
         <is>
           <t>In other words, the very last number</t>
         </is>
       </c>
     </row>
-    <row r="99" spans="1:57" ht="19.5">
-      <c r="C99">
-        <f>H98*D99</f>
-        <v>11891.738184664822</v>
-      </c>
-      <c r="D99">
-        <f>D98</f>
-        <v>0.039273459756349438</v>
-      </c>
-      <c r="E99" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="5">
-        <v>43989</v>
-      </c>
-      <c r="G99" s="2"/>
-      <c r="H99">
-        <f>H98+C99</f>
-        <v>314684.97968771966</v>
-      </c>
-      <c r="BE99" t="inlineStr">
+    <row r="101" spans="1:57" ht="19.5">
+      <c r="C101">
+        <f>H100*D101</f>
+        <v>1123.5590029238892</v>
+      </c>
+      <c r="D101">
+        <f>D100</f>
+        <v>0.028548411036113639</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="5">
+        <v>43991</v>
+      </c>
+      <c r="G101" s="2"/>
+      <c r="H101">
+        <f>H100+C101</f>
+        <v>40479.830057820465</v>
+      </c>
+      <c r="BE101" t="inlineStr">
         <is>
           <t>in this sequence is perpetually taken</t>
         </is>
       </c>
     </row>
-    <row r="100" spans="1:57" ht="19.5">
-      <c r="C100">
-        <f>H99*D100</f>
-        <v>12358.767885693298</v>
-      </c>
-      <c r="D100">
-        <f>D99</f>
-        <v>0.039273459756349438</v>
-      </c>
-      <c r="E100" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="5">
-        <v>43990</v>
-      </c>
-      <c r="G100" s="2"/>
-      <c r="H100">
-        <f>H99+C100</f>
-        <v>327043.74757341295</v>
-      </c>
-      <c r="BE100" t="inlineStr">
+    <row r="102" spans="1:57" ht="19.5">
+      <c r="C102">
+        <f>H101*D102</f>
+        <v>1155.6348271626864</v>
+      </c>
+      <c r="D102">
+        <f>D101</f>
+        <v>0.028548411036113639</v>
+      </c>
+      <c r="E102" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="5">
+        <v>43992</v>
+      </c>
+      <c r="G102" s="2"/>
+      <c r="H102">
+        <f>H101+C102</f>
+        <v>41635.46488498315</v>
+      </c>
+      <c r="BE102" t="inlineStr">
         <is>
           <t>as other than final for that day's</t>
         </is>
       </c>
     </row>
-    <row r="101" spans="1:57" ht="19.5">
-      <c r="C101">
-        <f>H100*D101</f>
-        <v>12844.139458890138</v>
-      </c>
-      <c r="D101">
-        <f>D100</f>
-        <v>0.039273459756349438</v>
-      </c>
-      <c r="E101" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" s="5">
-        <v>43991</v>
-      </c>
-      <c r="G101" s="2"/>
-      <c r="H101">
-        <f>H100+C101</f>
-        <v>339887.88703230309</v>
-      </c>
-      <c r="BE101" t="inlineStr">
+    <row r="103" spans="1:57" ht="19.5">
+      <c r="C103">
+        <f>H102*D103</f>
+        <v>1188.6263652161749</v>
+      </c>
+      <c r="D103">
+        <f>D102</f>
+        <v>0.028548411036113639</v>
+      </c>
+      <c r="E103" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" s="5">
+        <v>43993</v>
+      </c>
+      <c r="G103" s="2"/>
+      <c r="H103">
+        <f>H102+C103</f>
+        <v>42824.091250199323</v>
+      </c>
+      <c r="BE103" t="inlineStr">
         <is>
           <t>reportage.</t>
         </is>
       </c>
     </row>
-    <row r="102" spans="1:57" ht="19.5">
-      <c r="C102">
-        <f>H101*D102</f>
-        <v>13348.573253033799</v>
-      </c>
-      <c r="D102">
-        <f>D101</f>
-        <v>0.039273459756349438</v>
-      </c>
-      <c r="E102" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="5">
-        <v>43992</v>
-      </c>
-      <c r="G102" s="2"/>
-      <c r="H102">
-        <f>H101+C102</f>
-        <v>353236.46028533689</v>
-      </c>
-    </row>
-    <row r="103" spans="1:57" ht="19.5">
-      <c r="C103">
-        <f>H102*D103</f>
-        <v>13872.817907491504</v>
-      </c>
-      <c r="D103">
-        <f>D102</f>
-        <v>0.039273459756349438</v>
-      </c>
-      <c r="E103" t="s">
-        <v>15</v>
-      </c>
-      <c r="F103" s="5">
-        <v>43993</v>
-      </c>
-      <c r="G103" s="2"/>
-      <c r="H103">
-        <f>H102+C103</f>
-        <v>367109.27819282841</v>
-      </c>
-    </row>
     <row r="104" spans="1:57" ht="19.5">
       <c r="C104">
         <f>H103*D104</f>
-        <v>14417.651463288537</v>
+        <v>1222.5597592587278</v>
       </c>
       <c r="D104">
         <f>D103</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E104" t="s">
         <v>16</v>
@@ -6052,17 +6190,17 @@
       <c r="G104" s="2"/>
       <c r="H104">
         <f>H103+C104</f>
-        <v>381526.92965611693</v>
+        <v>44046.651009458052</v>
       </c>
     </row>
     <row r="105" spans="1:57" ht="19.5">
       <c r="C105">
         <f>H104*D105</f>
-        <v>14983.882517813072</v>
+        <v>1257.4618977822581</v>
       </c>
       <c r="D105">
         <f>D104</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E105" t="s">
         <v>17</v>
@@ -6073,17 +6211,17 @@
       <c r="G105" s="2"/>
       <c r="H105">
         <f>H104+C105</f>
-        <v>396510.81217393</v>
+        <v>45304.112907240313</v>
       </c>
     </row>
     <row r="106" spans="1:57" ht="19.5">
       <c r="C106">
         <f>H105*D106</f>
-        <v>15572.35142487027</v>
+        <v>1293.3604369023976</v>
       </c>
       <c r="D106">
         <f>D105</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
@@ -6094,17 +6232,17 @@
       <c r="G106" s="2"/>
       <c r="H106">
         <f>H105+C106</f>
-        <v>412083.16359880025</v>
+        <v>46597.473344142709</v>
       </c>
     </row>
     <row r="107" spans="1:57" ht="19.5">
       <c r="C107">
         <f>H106*D107</f>
-        <v>16183.931541866643</v>
+        <v>1330.2838222729349</v>
       </c>
       <c r="D107">
         <f>D106</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E107" t="s">
         <v>12</v>
@@ -6115,17 +6253,17 @@
       <c r="G107" s="2"/>
       <c r="H107">
         <f>H106+C107</f>
-        <v>428267.09514066688</v>
+        <v>47927.757166415642</v>
       </c>
     </row>
     <row r="108" spans="1:57" ht="19.5">
       <c r="C108">
         <f>H107*D108</f>
-        <v>16819.530525975657</v>
+        <v>1368.2613116258749</v>
       </c>
       <c r="D108">
         <f>D107</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E108" t="s">
         <v>13</v>
@@ -6136,17 +6274,17 @@
       <c r="G108" s="2"/>
       <c r="H108">
         <f>H107+C108</f>
-        <v>445086.62566664256</v>
+        <v>49296.018478041515</v>
       </c>
     </row>
     <row r="109" spans="1:57" ht="19.5">
       <c r="C109">
         <f>H108*D109</f>
-        <v>17480.091681208254</v>
+        <v>1407.3229979549822</v>
       </c>
       <c r="D109">
         <f>D108</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E109" t="s">
         <v>14</v>
@@ -6157,17 +6295,17 @@
       <c r="G109" s="2"/>
       <c r="H109">
         <f>H108+C109</f>
-        <v>462566.71734785079</v>
+        <v>50703.341475996494</v>
       </c>
     </row>
     <row r="110" spans="1:57" ht="19.5">
       <c r="C110">
         <f>H109*D110</f>
-        <v>18166.595358387483</v>
+        <v>1447.4998333611768</v>
       </c>
       <c r="D110">
         <f>D109</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E110" t="s">
         <v>15</v>
@@ -6178,17 +6316,17 @@
       <c r="G110" s="2"/>
       <c r="H110">
         <f>H109+C110</f>
-        <v>480733.3127062383</v>
+        <v>52150.841309357675</v>
       </c>
     </row>
     <row r="111" spans="1:57" ht="19.5">
       <c r="C111">
         <f>H110*D111</f>
-        <v>18880.060410105001</v>
+        <v>1488.8236535786777</v>
       </c>
       <c r="D111">
         <f>D110</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E111" t="s">
         <v>16</v>
@@ -6199,17 +6337,17 @@
       <c r="G111" s="2"/>
       <c r="H111">
         <f>H110+C111</f>
-        <v>499613.37311634328</v>
+        <v>53639.664962936353</v>
       </c>
     </row>
     <row r="112" spans="1:57" ht="19.5">
       <c r="C112">
         <f>H111*D112</f>
-        <v>19621.545702818705</v>
+        <v>1531.3272032013303</v>
       </c>
       <c r="D112">
         <f>D111</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E112" t="s">
         <v>17</v>
@@ -6220,17 +6358,17 @@
       <c r="G112" s="2"/>
       <c r="H112">
         <f>H111+C112</f>
-        <v>519234.91881916201</v>
+        <v>55170.992166137687</v>
       </c>
     </row>
     <row r="113" spans="1:57" ht="19.5">
       <c r="C113">
         <f>H112*D113</f>
-        <v>20392.151688335725</v>
+        <v>1575.0441616291043</v>
       </c>
       <c r="D113">
         <f>D112</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
@@ -6241,17 +6379,17 @@
       <c r="G113" s="2"/>
       <c r="H113">
         <f>H112+C113</f>
-        <v>539627.07050749776</v>
+        <v>56746.036327766793</v>
       </c>
     </row>
     <row r="114" spans="1:57" ht="19.5">
       <c r="C114">
         <f>H113*D114</f>
-        <v>21193.022037012954</v>
+        <v>1620.009169755323</v>
       </c>
       <c r="D114">
         <f>D113</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E114" t="s">
         <v>12</v>
@@ -6262,17 +6400,17 @@
       <c r="G114" s="2"/>
       <c r="H114">
         <f>H113+C114</f>
-        <v>560820.09254451073</v>
+        <v>58366.045497522115</v>
       </c>
     </row>
     <row r="115" spans="1:57" ht="19.5">
       <c r="C115">
         <f>H114*D115</f>
-        <v>22025.345335099009</v>
+        <v>1666.257857415771</v>
       </c>
       <c r="D115">
         <f>D114</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E115" t="s">
         <v>13</v>
@@ -6283,17 +6421,17 @@
       <c r="G115" s="2"/>
       <c r="H115">
         <f>H114+C115</f>
-        <v>582845.43787960976</v>
+        <v>60032.303354937889</v>
       </c>
     </row>
     <row r="116" spans="1:57" ht="19.5">
       <c r="C116">
         <f>H115*D116</f>
-        <v>22890.356848736719</v>
+        <v>1713.8268716214307</v>
       </c>
       <c r="D116">
         <f>D115</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
@@ -6304,17 +6442,17 @@
       <c r="G116" s="2"/>
       <c r="H116">
         <f>H115+C116</f>
-        <v>605735.79472834652</v>
+        <v>61746.130226559319</v>
       </c>
     </row>
     <row r="117" spans="1:57" ht="19.5">
       <c r="C117">
         <f>H116*D117</f>
-        <v>23789.340357244062</v>
+        <v>1762.7539055972161</v>
       </c>
       <c r="D117">
         <f>D116</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E117" t="s">
         <v>15</v>
@@ -6325,17 +6463,17 @@
       <c r="G117" s="2"/>
       <c r="H117">
         <f>H116+C117</f>
-        <v>629525.13508559053</v>
+        <v>63508.884132156534</v>
       </c>
     </row>
     <row r="118" spans="1:57" ht="19.5">
       <c r="C118">
         <f>H117*D118</f>
-        <v>24723.630058394385</v>
+        <v>1813.07772864972</v>
       </c>
       <c r="D118">
         <f>D117</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E118" t="s">
         <v>16</v>
@@ -6346,17 +6484,17 @@
       <c r="G118" s="2"/>
       <c r="H118">
         <f>H117+C118</f>
-        <v>654248.76514398493</v>
+        <v>65321.961860806252</v>
       </c>
     </row>
     <row r="119" spans="1:57" ht="19.5">
       <c r="C119">
         <f>H118*D119</f>
-        <v>25694.612548523608</v>
+        <v>1864.8382168876353</v>
       </c>
       <c r="D119">
         <f>D118</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E119" t="s">
         <v>17</v>
@@ -6367,17 +6505,17 @@
       <c r="G119" s="2"/>
       <c r="H119">
         <f>H118+C119</f>
-        <v>679943.37769250851</v>
+        <v>67186.800077693886</v>
       </c>
     </row>
     <row r="120" spans="1:57" ht="19.5">
       <c r="C120">
         <f>H119*D120</f>
-        <v>26703.72888040304</v>
+        <v>1918.0763848191968</v>
       </c>
       <c r="D120">
         <f>D119</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
@@ -6388,17 +6526,17 @@
       <c r="G120" s="2"/>
       <c r="H120">
         <f>H119+C120</f>
-        <v>706647.10657291161</v>
+        <v>69104.876462513086</v>
       </c>
     </row>
     <row r="121" spans="1:57" ht="19.5">
       <c r="C121">
         <f>H120*D121</f>
-        <v>27752.476701932017</v>
+        <v>1972.8344178516782</v>
       </c>
       <c r="D121">
         <f>D120</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E121" t="s">
         <v>12</v>
@@ -6409,17 +6547,17 @@
       <c r="G121" s="2"/>
       <c r="H121">
         <f>H120+C121</f>
-        <v>734399.58327484364</v>
+        <v>71077.710880364757</v>
       </c>
     </row>
     <row r="122" spans="1:57" ht="19.5">
       <c r="C122">
         <f>H121*D122</f>
-        <v>28842.412478824368</v>
+        <v>2029.1557057186997</v>
       </c>
       <c r="D122">
         <f>D121</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E122" t="s">
         <v>13</v>
@@ -6430,17 +6568,17 @@
       <c r="G122" s="2"/>
       <c r="H122">
         <f>H121+C122</f>
-        <v>763241.99575366802</v>
+        <v>73106.866586083459</v>
       </c>
     </row>
     <row r="123" spans="1:57" ht="19.5">
       <c r="C123">
         <f>H122*D123</f>
-        <v>29975.15380458751</v>
+        <v>2087.0848768618325</v>
       </c>
       <c r="D123">
         <f>D122</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E123" t="s">
         <v>14</v>
@@ -6451,17 +6589,17 @@
       <c r="G123" s="2"/>
       <c r="H123">
         <f>H122+C123</f>
-        <v>793217.14955825557</v>
+        <v>75193.95146294529</v>
       </c>
     </row>
     <row r="124" spans="1:57" ht="19.5">
       <c r="C124">
         <f>H123*D124</f>
-        <v>31152.381801222364</v>
+        <v>2146.6678337937406</v>
       </c>
       <c r="D124">
         <f>D123</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E124" t="s">
         <v>15</v>
@@ -6472,17 +6610,17 @@
       <c r="G124" s="2"/>
       <c r="H124">
         <f>H123+C124</f>
-        <v>824369.5313594779</v>
+        <v>77340.619296739023</v>
       </c>
     </row>
     <row r="125" spans="1:57" ht="19.5">
       <c r="C125">
         <f>H124*D125</f>
-        <v>32375.8436142071</v>
+        <v>2207.9517894708879</v>
       </c>
       <c r="D125">
         <f>D124</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E125" t="s">
         <v>16</v>
@@ -6493,17 +6631,17 @@
       <c r="G125" s="2"/>
       <c r="H125">
         <f>H124+C125</f>
-        <v>856745.37497368501</v>
+        <v>79548.571086209908</v>
       </c>
     </row>
     <row r="126" spans="1:57" ht="19.5">
       <c r="C126">
         <f>H125*D126</f>
-        <v>33647.355005467529</v>
+        <v>2270.9853047046254</v>
       </c>
       <c r="D126">
         <f>D125</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E126" t="s">
         <v>17</v>
@@ -6514,17 +6652,17 @@
       <c r="G126" s="2"/>
       <c r="H126">
         <f>H125+C126</f>
-        <v>890392.72997915256</v>
+        <v>81819.556390914528</v>
       </c>
     </row>
     <row r="127" spans="1:57" ht="19.5">
       <c r="C127">
         <f>H126*D127</f>
-        <v>34968.803048182359</v>
+        <v>2335.8183266403066</v>
       </c>
       <c r="D127">
         <f>D126</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E127" t="s">
         <v>11</v>
@@ -6535,17 +6673,17 @@
       <c r="G127" s="2"/>
       <c r="H127">
         <f>H126+C127</f>
-        <v>925361.53302733495</v>
+        <v>84155.374717554834</v>
       </c>
     </row>
     <row r="128" spans="1:57" ht="19.5">
       <c r="C128">
         <f>H127*D128</f>
-        <v>36342.148927422859</v>
+        <v>2402.5022283349213</v>
       </c>
       <c r="D128">
         <f>D127</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E128" t="s">
         <v>12</v>
@@ -6556,17 +6694,17 @@
       <c r="G128" s="2"/>
       <c r="H128">
         <f>H127+C128</f>
-        <v>961703.68195475778</v>
+        <v>86557.876945889759</v>
       </c>
     </row>
     <row r="129" spans="1:57" ht="19.5">
       <c r="C129">
         <f>H128*D129</f>
-        <v>37769.430850783261</v>
+        <v>2471.0898494646053</v>
       </c>
       <c r="D129">
         <f>D128</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E129" t="s">
         <v>13</v>
@@ -6577,17 +6715,17 @@
       <c r="G129" s="2"/>
       <c r="H129">
         <f>H128+C129</f>
-        <v>999473.11280554102</v>
+        <v>89028.966795354369</v>
       </c>
     </row>
     <row r="130" spans="1:57" ht="19.5">
       <c r="C130">
         <f>H129*D130</f>
-        <v>39252.767073321716</v>
+        <v>2541.6355381942894</v>
       </c>
       <c r="D130">
         <f>D129</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E130" t="s">
         <v>14</v>
@@ -6598,17 +6736,17 @@
       <c r="G130" s="2"/>
       <c r="H130">
         <f>H129+C130</f>
-        <v>1038725.8798788628</v>
+        <v>91570.602333548653</v>
       </c>
     </row>
     <row r="131" spans="1:57" ht="19.5">
       <c r="C131">
         <f>H130*D131</f>
-        <v>40794.359041301177</v>
+        <v>2614.1951942426535</v>
       </c>
       <c r="D131">
         <f>D130</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E131" t="s">
         <v>15</v>
@@ -6619,17 +6757,17 @@
       <c r="G131" s="2"/>
       <c r="H131">
         <f>H130+C131</f>
-        <v>1079520.2389201638</v>
+        <v>94184.797527791306</v>
       </c>
     </row>
     <row r="132" spans="1:57" ht="19.5">
       <c r="C132">
         <f>H131*D132</f>
-        <v>42396.494659395787</v>
+        <v>2688.8263131765261</v>
       </c>
       <c r="D132">
         <f>D131</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E132" t="s">
         <v>16</v>
@@ -6639,17 +6777,17 @@
       </c>
       <c r="H132">
         <f>H131+C132</f>
-        <v>1121916.7335795597</v>
+        <v>96873.623840967834</v>
       </c>
     </row>
     <row r="133" spans="1:57" ht="19.5">
       <c r="C133">
         <f>H132*D133</f>
-        <v>44061.551686211853</v>
+        <v>2765.5880319698076</v>
       </c>
       <c r="D133">
         <f>D132</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E133" t="s">
         <v>17</v>
@@ -6659,17 +6797,17 @@
       </c>
       <c r="H133">
         <f>H132+C133</f>
-        <v>1165978.2852657717</v>
+        <v>99639.211872937638</v>
       </c>
     </row>
     <row r="134" spans="1:57" ht="19.5">
       <c r="C134">
         <f>H133*D134</f>
-        <v>45792.001263162609</v>
+        <v>2844.541175863038</v>
       </c>
       <c r="D134">
         <f>D133</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E134" t="s">
         <v>11</v>
@@ -6679,17 +6817,17 @@
       </c>
       <c r="H134">
         <f>H133+C134</f>
-        <v>1211770.2865289343</v>
+        <v>102483.75304880067</v>
       </c>
     </row>
     <row r="135" spans="1:57" ht="19.5">
       <c r="C135">
         <f>H134*D135</f>
-        <v>47590.411581934124</v>
+        <v>2925.7483065607262</v>
       </c>
       <c r="D135">
         <f>D134</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E135" t="s">
         <v>12</v>
@@ -6699,17 +6837,17 @@
       </c>
       <c r="H135">
         <f>H134+C135</f>
-        <v>1259360.6981108685</v>
+        <v>105409.5013553614</v>
       </c>
     </row>
     <row r="136" spans="1:57" ht="19.5">
       <c r="C136">
         <f>H135*D136</f>
-        <v>49459.451695985328</v>
+        <v>3009.2737718046351</v>
       </c>
       <c r="D136">
         <f>D135</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E136" t="s">
         <v>13</v>
@@ -6719,17 +6857,17 @@
       </c>
       <c r="H136">
         <f>H135+C136</f>
-        <v>1308820.1498068538</v>
+        <v>108418.77512716604</v>
       </c>
     </row>
     <row r="137" spans="1:57" ht="19.5">
       <c r="C137">
         <f>H136*D137</f>
-        <v>51401.89548173872</v>
+        <v>3095.1837563623099</v>
       </c>
       <c r="D137">
         <f>D136</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E137" t="s">
         <v>14</v>
@@ -6739,17 +6877,17 @@
       </c>
       <c r="H137">
         <f>H136+C137</f>
-        <v>1360222.0452885926</v>
+        <v>111513.95888352835</v>
       </c>
     </row>
     <row r="138" spans="1:57" ht="19.5">
       <c r="C138">
         <f>H137*D138</f>
-        <v>53420.625755340865</v>
+        <v>3183.5463344712434</v>
       </c>
       <c r="D138">
         <f>D137</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E138" t="s">
         <v>15</v>
@@ -6759,17 +6897,17 @@
       </c>
       <c r="H138">
         <f>H137+C138</f>
-        <v>1413642.6710439334</v>
+        <v>114697.5052179996</v>
       </c>
     </row>
     <row r="139" spans="1:57" ht="19.5">
       <c r="C139">
         <f>H138*D139</f>
-        <v>55518.638551102245</v>
+        <v>3274.4315237802416</v>
       </c>
       <c r="D139">
         <f>D138</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E139" t="s">
         <v>16</v>
@@ -6779,17 +6917,17 @@
       </c>
       <c r="H139">
         <f>H138+C139</f>
-        <v>1469161.3095950356</v>
+        <v>117971.93674177983</v>
       </c>
     </row>
     <row r="140" spans="1:57" ht="19.5">
       <c r="C140">
         <f>H139*D140</f>
-        <v>57699.04756796627</v>
+        <v>3367.9113408307276</v>
       </c>
       <c r="D140">
         <f>D139</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E140" t="s">
         <v>17</v>
@@ -6799,17 +6937,17 @@
       </c>
       <c r="H140">
         <f>H139+C140</f>
-        <v>1526860.3571630018</v>
+        <v>121339.84808261057</v>
       </c>
     </row>
     <row r="141" spans="1:57" ht="19.5">
       <c r="C141">
         <f>H140*D141</f>
-        <v>59965.088790606482</v>
+        <v>3464.0598581219519</v>
       </c>
       <c r="D141">
         <f>D140</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E141" t="s">
         <v>11</v>
@@ -6819,17 +6957,17 @@
       </c>
       <c r="H141">
         <f>H140+C141</f>
-        <v>1586825.4459536083</v>
+        <v>124803.90794073252</v>
       </c>
     </row>
     <row r="142" spans="1:57" ht="19.5">
       <c r="C142">
         <f>H141*D142</f>
-        <v>62320.125292010285</v>
+        <v>3562.9532628053189</v>
       </c>
       <c r="D142">
         <f>D141</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E142" t="s">
         <v>12</v>
@@ -6839,17 +6977,17 @@
       </c>
       <c r="H142">
         <f>H141+C142</f>
-        <v>1649145.5712456186</v>
+        <v>128366.86120353783</v>
       </c>
     </row>
     <row r="143" spans="1:57" ht="19.5">
       <c r="C143">
         <f>H142*D143</f>
-        <v>64767.652224676705</v>
+        <v>3664.669917054347</v>
       </c>
       <c r="D143">
         <f>D142</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E143" t="s">
         <v>13</v>
@@ -6859,17 +6997,17 @@
       </c>
       <c r="H143">
         <f>H142+C143</f>
-        <v>1713913.2234702953</v>
+        <v>132031.53112059218</v>
       </c>
     </row>
     <row r="144" spans="1:57" ht="19.5">
       <c r="C144">
         <f>H143*D144</f>
-        <v>67311.30200783578</v>
+        <v>3769.290420158095</v>
       </c>
       <c r="D144">
         <f>D143</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E144" t="s">
         <v>14</v>
@@ -6879,17 +7017,17 @@
       </c>
       <c r="H144">
         <f>H143+C144</f>
-        <v>1781224.5254781311</v>
+        <v>135800.82154075027</v>
       </c>
     </row>
     <row r="145" spans="1:57" ht="19.5">
       <c r="C145">
         <f>H144*D145</f>
-        <v>69954.84971838801</v>
+        <v>3876.8976723872538</v>
       </c>
       <c r="D145">
         <f>D144</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E145" t="s">
         <v>15</v>
@@ -6899,17 +7037,17 @@
       </c>
       <c r="H145">
         <f>H144+C145</f>
-        <v>1851179.3751965191</v>
+        <v>139677.71921313752</v>
       </c>
     </row>
     <row r="146" spans="1:57" ht="19.5">
       <c r="C146">
         <f>H145*D146</f>
-        <v>72702.218693564588</v>
+        <v>3987.576940683517</v>
       </c>
       <c r="D146">
         <f>D145</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E146" t="s">
         <v>16</v>
@@ -6919,17 +7057,17 @@
       </c>
       <c r="H146">
         <f>H145+C146</f>
-        <v>1923881.5938900837</v>
+        <v>143665.29615382105</v>
       </c>
     </row>
     <row r="147" spans="1:57" ht="19.5">
       <c r="C147">
         <f>H146*D147</f>
-        <v>75557.486353623623</v>
+        <v>4101.4159262242792</v>
       </c>
       <c r="D147">
         <f>D146</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E147" t="s">
         <v>17</v>
@@ -6939,17 +7077,17 @@
       </c>
       <c r="H147">
         <f>H146+C147</f>
-        <v>1999439.0802437074</v>
+        <v>147766.71208004534</v>
       </c>
     </row>
     <row r="148" spans="1:57" ht="19.5">
       <c r="C148">
         <f>H147*D148</f>
-        <v>78524.890253223581</v>
+        <v>4218.5048339161931</v>
       </c>
       <c r="D148">
         <f>D147</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E148" t="s">
         <v>11</v>
@@ -6959,17 +7097,17 @@
       </c>
       <c r="H148">
         <f>H147+C148</f>
-        <v>2077963.9704969309</v>
+        <v>151985.21691396154</v>
       </c>
     </row>
     <row r="149" spans="1:57" ht="19.5">
       <c r="C149">
         <f>H148*D149</f>
-        <v>81608.834370455312</v>
+        <v>4338.9364438726652</v>
       </c>
       <c r="D149">
         <f>D148</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E149" t="s">
         <v>12</v>
@@ -6979,17 +7117,17 @@
       </c>
       <c r="H149">
         <f>H148+C149</f>
-        <v>2159572.8048673864</v>
+        <v>156324.15335783421</v>
       </c>
     </row>
     <row r="150" spans="1:57" ht="19.5">
       <c r="C150">
         <f>H149*D150</f>
-        <v>84813.895642865973</v>
+        <v>4462.8061849319147</v>
       </c>
       <c r="D150">
         <f>D149</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E150" t="s">
         <v>13</v>
@@ -6999,17 +7137,17 @@
       </c>
       <c r="H150">
         <f>H149+C150</f>
-        <v>2244386.7005102523</v>
+        <v>160786.95954276613</v>
       </c>
     </row>
     <row r="151" spans="1:57" ht="19.5">
       <c r="C151">
         <f>H150*D151</f>
-        <v>88144.830760175289</v>
+        <v>4590.2122102738613</v>
       </c>
       <c r="D151">
         <f>D150</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E151" t="s">
         <v>14</v>
@@ -7019,17 +7157,17 @@
       </c>
       <c r="H151">
         <f>H150+C151</f>
-        <v>2332531.5312704276</v>
+        <v>165377.17175303999</v>
       </c>
     </row>
     <row r="152" spans="1:57" ht="19.5">
       <c r="C152">
         <f>H151*D152</f>
-        <v>91606.583223765265</v>
+        <v>4721.2554751957477</v>
       </c>
       <c r="D152">
         <f>D151</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E152" t="s">
         <v>15</v>
@@ -7039,17 +7177,17 @@
       </c>
       <c r="H152">
         <f>H151+C152</f>
-        <v>2424138.1144941929</v>
+        <v>170098.42722823573</v>
       </c>
     </row>
     <row r="153" spans="1:57" ht="19.5">
       <c r="C153">
         <f>H152*D153</f>
-        <v>95204.290683420491</v>
+        <v>4856.0398171081379</v>
       </c>
       <c r="D153">
         <f>D152</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E153" t="s">
         <v>16</v>
@@ -7059,17 +7197,17 @@
       </c>
       <c r="H153">
         <f>H152+C153</f>
-        <v>2519342.4051776133</v>
+        <v>174954.46704534386</v>
       </c>
     </row>
     <row r="154" spans="1:57" ht="19.5">
       <c r="C154">
         <f>H153*D154</f>
-        <v>98943.2925622076</v>
+        <v>4994.6720378146747</v>
       </c>
       <c r="D154">
         <f>D153</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E154" t="s">
         <v>17</v>
@@ -7079,17 +7217,17 @@
       </c>
       <c r="H154">
         <f>H153+C154</f>
-        <v>2618285.6977398209</v>
+        <v>179949.13908315854</v>
       </c>
     </row>
     <row r="155" spans="1:57" ht="19.5">
       <c r="C155">
         <f>H154*D155</f>
-        <v>102829.13798081016</v>
+        <v>5137.2619881407918</v>
       </c>
       <c r="D155">
         <f>D154</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E155" t="s">
         <v>11</v>
@@ -7099,17 +7237,17 @@
       </c>
       <c r="H155">
         <f>H154+C155</f>
-        <v>2721114.8357206313</v>
+        <v>185086.40107129933</v>
       </c>
     </row>
     <row r="156" spans="1:57" ht="19.5">
       <c r="C156">
         <f>H155*D156</f>
-        <v>106867.59399307963</v>
+        <v>5283.9226549784371</v>
       </c>
       <c r="D156">
         <f>D155</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E156" t="s">
         <v>12</v>
@@ -7119,17 +7257,17 @@
       </c>
       <c r="H156">
         <f>H155+C156</f>
-        <v>2827982.4297137111</v>
+        <v>190370.32372627777</v>
       </c>
     </row>
     <row r="157" spans="1:57" ht="19.5">
       <c r="C157">
         <f>H156*D157</f>
-        <v>111064.65414502473</v>
+        <v>5434.7702508157945</v>
       </c>
       <c r="D157">
         <f>D156</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E157" t="s">
         <v>13</v>
@@ -7139,17 +7277,17 @@
       </c>
       <c r="H157">
         <f>H156+C157</f>
-        <v>2939047.0838587359</v>
+        <v>195805.09397709355</v>
       </c>
     </row>
     <row r="158" spans="1:57" ht="19.5">
       <c r="C158">
         <f>H157*D158</f>
-        <v>115426.54736994223</v>
+        <v>5589.9243058229258</v>
       </c>
       <c r="D158">
         <f>D157</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E158" t="s">
         <v>14</v>
@@ -7159,17 +7297,17 @@
       </c>
       <c r="H158">
         <f>H157+C158</f>
-        <v>3054473.6312286779</v>
+        <v>201395.01828291648</v>
       </c>
     </row>
     <row r="159" spans="1:57" ht="19.5">
       <c r="C159">
         <f>H158*D159</f>
-        <v>119959.74723289002</v>
+        <v>5749.5077625663207</v>
       </c>
       <c r="D159">
         <f>D158</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E159" t="s">
         <v>15</v>
@@ -7179,17 +7317,17 @@
       </c>
       <c r="H159">
         <f>H158+C159</f>
-        <v>3174433.3784615682</v>
+        <v>207144.52604548281</v>
       </c>
     </row>
     <row r="160" spans="1:57" ht="19.5">
       <c r="C160">
         <f>H159*D160</f>
-        <v>124670.98153822278</v>
+        <v>5913.6470734273908</v>
       </c>
       <c r="D160">
         <f>D159</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E160" t="s">
         <v>16</v>
@@ -7199,17 +7337,17 @@
       </c>
       <c r="H160">
         <f>H159+C160</f>
-        <v>3299104.3599997908</v>
+        <v>213058.1731189102</v>
       </c>
     </row>
     <row r="161" spans="1:57" ht="19.5">
       <c r="C161">
         <f>H160*D161</f>
-        <v>129567.24231444875</v>
+        <v>6082.4723008021065</v>
       </c>
       <c r="D161">
         <f>D160</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E161" t="s">
         <v>17</v>
@@ -7219,17 +7357,17 @@
       </c>
       <c r="H161">
         <f>H160+C161</f>
-        <v>3428671.6023142394</v>
+        <v>219140.64541971229</v>
       </c>
     </row>
     <row r="162" spans="1:57" ht="19.5">
       <c r="C162">
         <f>H161*D162</f>
-        <v>134655.79619122643</v>
+        <v>6256.1172201611798</v>
       </c>
       <c r="D162">
         <f>D161</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E162" t="s">
         <v>11</v>
@@ -7239,17 +7377,17 @@
       </c>
       <c r="H162">
         <f>H161+C162</f>
-        <v>3563327.3985054656</v>
+        <v>225396.76263987349</v>
       </c>
     </row>
     <row r="163" spans="1:57" ht="19.5">
       <c r="C163">
         <f>H162*D163</f>
-        <v>139944.19518390173</v>
+        <v>6434.7194260524502</v>
       </c>
       <c r="D163">
         <f>D162</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E163" t="s">
         <v>12</v>
@@ -7259,17 +7397,17 @@
       </c>
       <c r="H163">
         <f>H162+C163</f>
-        <v>3703271.5936893672</v>
+        <v>231831.48206592593</v>
       </c>
     </row>
     <row r="164" spans="1:57" ht="19.5">
       <c r="C164">
         <f>H163*D164</f>
-        <v>145440.28790159142</v>
+        <v>6618.4204411294613</v>
       </c>
       <c r="D164">
         <f>D163</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E164" t="s">
         <v>13</v>
@@ -7279,17 +7417,17 @@
       </c>
       <c r="H164">
         <f>H163+C164</f>
-        <v>3848711.8815909587</v>
+        <v>238449.90250705538</v>
       </c>
     </row>
     <row r="165" spans="1:57" ht="19.5">
       <c r="C165">
         <f>H164*D165</f>
-        <v>151152.23119544645</v>
+        <v>6807.3658282926408</v>
       </c>
       <c r="D165">
         <f>D164</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E165" t="s">
         <v>14</v>
@@ -7299,17 +7437,17 @@
       </c>
       <c r="H165">
         <f>H164+C165</f>
-        <v>3999864.1127864053</v>
+        <v>245257.26833534802</v>
       </c>
     </row>
     <row r="166" spans="1:57" ht="19.5">
       <c r="C166">
         <f>H165*D166</f>
-        <v>157088.50226438325</v>
+        <v>7001.705306031934</v>
       </c>
       <c r="D166">
         <f>D165</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E166" t="s">
         <v>15</v>
@@ -7319,17 +7457,17 @@
       </c>
       <c r="H166">
         <f>H165+C166</f>
-        <v>4156952.6150507885</v>
+        <v>252258.97364137997</v>
       </c>
     </row>
     <row r="167" spans="1:57" ht="19.5">
       <c r="C167">
         <f>H166*D167</f>
-        <v>163257.91123624871</v>
+        <v>7201.5928670622716</v>
       </c>
       <c r="D167">
         <f>D166</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E167" t="s">
         <v>16</v>
@@ -7339,17 +7477,17 @@
       </c>
       <c r="H167">
         <f>H166+C167</f>
-        <v>4320210.5262870369</v>
+        <v>259460.56650844225</v>
       </c>
     </row>
     <row r="168" spans="1:57" ht="19.5">
       <c r="C168">
         <f>H167*D168</f>
-        <v>169669.61424309117</v>
+        <v>7407.1869003459096</v>
       </c>
       <c r="D168">
         <f>D167</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E168" t="s">
         <v>17</v>
@@ -7359,17 +7497,17 @@
       </c>
       <c r="H168">
         <f>H167+C168</f>
-        <v>4489880.140530128</v>
+        <v>266867.75340878818</v>
       </c>
     </row>
     <row r="169" spans="1:57" ht="19.5">
       <c r="C169">
         <f>H168*D169</f>
-        <v>176333.12700994255</v>
+        <v>7618.6503165983013</v>
       </c>
       <c r="D169">
         <f>D168</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E169" t="s">
         <v>11</v>
@@ -7379,17 +7517,17 @@
       </c>
       <c r="H169">
         <f>H168+C169</f>
-        <v>4666213.2675400702</v>
+        <v>274486.40372538648</v>
       </c>
     </row>
     <row r="170" spans="1:57" ht="19.5">
       <c r="C170">
         <f>H169*D170</f>
-        <v>183258.33897727876</v>
+        <v>7836.150677376967</v>
       </c>
       <c r="D170">
         <f>D169</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E170" t="s">
         <v>12</v>
@@ -7399,17 +7537,17 @@
       </c>
       <c r="H170">
         <f>H169+C170</f>
-        <v>4849471.6065173494</v>
+        <v>282322.55440276343</v>
       </c>
     </row>
     <row r="171" spans="1:57" ht="19.5">
       <c r="C171">
         <f>H170*D171</f>
-        <v>190455.52797811836</v>
+        <v>8059.8603278556448</v>
       </c>
       <c r="D171">
         <f>D170</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E171" t="s">
         <v>13</v>
@@ -7419,17 +7557,17 @@
       </c>
       <c r="H171">
         <f>H170+C171</f>
-        <v>5039927.1344954679</v>
+        <v>290382.41473061906</v>
       </c>
     </row>
     <row r="172" spans="1:57" ht="19.5">
       <c r="C172">
         <f>H171*D172</f>
-        <v>197935.37549154129</v>
+        <v>8289.9565333889332</v>
       </c>
       <c r="D172">
         <f>D171</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E172" t="s">
         <v>14</v>
@@ -7439,17 +7577,17 @@
       </c>
       <c r="H172">
         <f>H171+C172</f>
-        <v>5237862.5099870088</v>
+        <v>298672.37126400799</v>
       </c>
     </row>
     <row r="173" spans="1:57" ht="19.5">
       <c r="C173">
         <f>H172*D173</f>
-        <v>205708.98249526625</v>
+        <v>8526.6216199756363</v>
       </c>
       <c r="D173">
         <f>D172</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E173" t="s">
         <v>15</v>
@@ -7459,17 +7597,17 @@
       </c>
       <c r="H173">
         <f>H172+C173</f>
-        <v>5443571.4924822748</v>
+        <v>307198.99288398365</v>
       </c>
     </row>
     <row r="174" spans="1:57" ht="19.5">
       <c r="C174">
         <f>H173*D174</f>
-        <v>213787.88594081366</v>
+        <v>8770.0431187321137</v>
       </c>
       <c r="D174">
         <f>D173</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E174" t="s">
         <v>16</v>
@@ -7479,17 +7617,17 @@
       </c>
       <c r="H174">
         <f>H173+C174</f>
-        <v>5657359.3784230882</v>
+        <v>315969.03600271576</v>
       </c>
     </row>
     <row r="175" spans="1:57" ht="19.5">
       <c r="C175">
         <f>H174*D175</f>
-        <v>222184.07587570522</v>
+        <v>9020.4139144901183</v>
       </c>
       <c r="D175">
         <f>D174</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E175" t="s">
         <v>17</v>
@@ -7499,17 +7637,17 @@
       </c>
       <c r="H175">
         <f>H174+C175</f>
-        <v>5879543.4542987933</v>
+        <v>324989.4499172059</v>
       </c>
     </row>
     <row r="176" spans="1:57" ht="19.5">
       <c r="C176">
         <f>H175*D176</f>
-        <v>230910.01323811142</v>
+        <v>9277.9323986368618</v>
       </c>
       <c r="D176">
         <f>D175</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E176" t="s">
         <v>11</v>
@@ -7519,17 +7657,17 @@
       </c>
       <c r="H176">
         <f>H175+C176</f>
-        <v>6110453.4675369048</v>
+        <v>334267.38231584278</v>
       </c>
     </row>
     <row r="177" spans="1:57" ht="19.5">
       <c r="C177">
         <f>H176*D177</f>
-        <v>239978.6483503565</v>
+        <v>9542.8026263184238</v>
       </c>
       <c r="D177">
         <f>D176</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E177" t="s">
         <v>12</v>
@@ -7539,17 +7677,17 @@
       </c>
       <c r="H177">
         <f>H176+C177</f>
-        <v>6350432.115887261</v>
+        <v>343810.1849421612</v>
       </c>
     </row>
     <row r="178" spans="1:57" ht="19.5">
       <c r="C178">
         <f>H177*D178</f>
-        <v>249403.44013872737</v>
+        <v>9815.2344781310658</v>
       </c>
       <c r="D178">
         <f>D177</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E178" t="s">
         <v>13</v>
@@ -7559,17 +7697,17 @@
       </c>
       <c r="H178">
         <f>H177+C178</f>
-        <v>6599835.5560259884</v>
+        <v>353625.41942029225</v>
       </c>
     </row>
     <row r="179" spans="1:57" ht="19.5">
       <c r="C179">
         <f>H178*D179</f>
-        <v>259198.37610811077</v>
+        <v>10095.443826428585</v>
       </c>
       <c r="D179">
         <f>D178</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E179" t="s">
         <v>14</v>
@@ -7579,17 +7717,17 @@
       </c>
       <c r="H179">
         <f>H178+C179</f>
-        <v>6859033.9321340993</v>
+        <v>363720.86324672087</v>
       </c>
     </row>
     <row r="180" spans="1:57" ht="19.5">
       <c r="C180">
         <f>H179*D180</f>
-        <v>269377.99310110381</v>
+        <v>10383.652706377467</v>
       </c>
       <c r="D180">
         <f>D179</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E180" t="s">
         <v>15</v>
@@ -7599,17 +7737,17 @@
       </c>
       <c r="H180">
         <f>H179+C180</f>
-        <v>7128411.9252352035</v>
+        <v>374104.51595309831</v>
       </c>
     </row>
     <row r="181" spans="1:57" ht="19.5">
       <c r="C181">
         <f>H180*D181</f>
-        <v>279957.39887240616</v>
+        <v>10680.089491895382</v>
       </c>
       <c r="D181">
         <f>D180</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E181" t="s">
         <v>16</v>
@@ -7619,17 +7757,17 @@
       </c>
       <c r="H181">
         <f>H180+C181</f>
-        <v>7408369.3241076097</v>
+        <v>384784.60544499371</v>
       </c>
     </row>
     <row r="182" spans="1:57" ht="19.5">
       <c r="C182">
         <f>H181*D182</f>
-        <v>290952.29451051389</v>
+        <v>10984.98907661249</v>
       </c>
       <c r="D182">
         <f>D181</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E182" t="s">
         <v>17</v>
@@ -7639,17 +7777,17 @@
       </c>
       <c r="H182">
         <f>H181+C182</f>
-        <v>7699321.6186181232</v>
+        <v>395769.59452160622</v>
       </c>
     </row>
     <row r="183" spans="1:57" ht="19.5">
       <c r="C183">
         <f>H182*D183</f>
-        <v>302378.99773999007</v>
+        <v>11298.593059998842</v>
       </c>
       <c r="D183">
         <f>D182</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E183" t="s">
         <v>11</v>
@@ -7659,17 +7797,17 @@
       </c>
       <c r="H183">
         <f>H182+C183</f>
-        <v>8001700.6163581135</v>
+        <v>407068.18758160505</v>
       </c>
     </row>
     <row r="184" spans="1:57" ht="19.5">
       <c r="C184">
         <f>H183*D184</f>
-        <v>314254.46713889687</v>
+        <v>11621.149938805471</v>
       </c>
       <c r="D184">
         <f>D183</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E184" t="s">
         <v>12</v>
@@ -7679,17 +7817,17 @@
       </c>
       <c r="H184">
         <f>H183+C184</f>
-        <v>8315955.0834970102</v>
+        <v>418689.33752041054</v>
       </c>
     </row>
     <row r="185" spans="1:57" ht="19.5">
       <c r="C185">
         <f>H184*D185</f>
-        <v>326596.32730732934</v>
+        <v>11952.915303970796</v>
       </c>
       <c r="D185">
         <f>D184</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E185" t="s">
         <v>13</v>
@@ -7699,17 +7837,17 @@
       </c>
       <c r="H185">
         <f>H184+C185</f>
-        <v>8642551.4108043388</v>
+        <v>430642.25282438134</v>
       </c>
     </row>
     <row r="186" spans="1:57" ht="19.5">
       <c r="C186">
         <f>H185*D186</f>
-        <v>339422.89502440527</v>
+        <v>12294.152043148408</v>
       </c>
       <c r="D186">
         <f>D185</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E186" t="s">
         <v>14</v>
@@ -7719,17 +7857,17 @@
       </c>
       <c r="H186">
         <f>H185+C186</f>
-        <v>8981974.3058287445</v>
+        <v>442936.40486752975</v>
       </c>
     </row>
     <row r="187" spans="1:57" ht="19.5">
       <c r="C187">
         <f>H186*D187</f>
-        <v>352753.2064325299</v>
+        <v>12645.130549016685</v>
       </c>
       <c r="D187">
         <f>D186</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E187" t="s">
         <v>15</v>
@@ -7739,17 +7877,17 @@
       </c>
       <c r="H187">
         <f>H186+C187</f>
-        <v>9334727.5122612752</v>
+        <v>455581.53541654645</v>
       </c>
     </row>
     <row r="188" spans="1:57" ht="19.5">
       <c r="C188">
         <f>H187*D188</f>
-        <v>366607.04528928112</v>
+        <v>13006.128933535332</v>
       </c>
       <c r="D188">
         <f>D187</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E188" t="s">
         <v>16</v>
@@ -7759,17 +7897,17 @@
       </c>
       <c r="H188">
         <f>H187+C188</f>
-        <v>9701334.557550557</v>
+        <v>468587.66435008176</v>
       </c>
     </row>
     <row r="189" spans="1:57" ht="19.5">
       <c r="C189">
         <f>H188*D189</f>
-        <v>381004.9723288439</v>
+        <v>13377.433248318588</v>
       </c>
       <c r="D189">
         <f>D188</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E189" t="s">
         <v>17</v>
@@ -7779,17 +7917,17 @@
       </c>
       <c r="H189">
         <f>H188+C189</f>
-        <v>10082339.529879401</v>
+        <v>481965.09759840037</v>
       </c>
     </row>
     <row r="190" spans="1:57" ht="19.5">
       <c r="C190">
         <f>H189*D190</f>
-        <v>395968.35577656975</v>
+        <v>13759.33771129976</v>
       </c>
       <c r="D190">
         <f>D189</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E190" t="s">
         <v>11</v>
@@ -7799,17 +7937,17 @@
       </c>
       <c r="H190">
         <f>H189+C190</f>
-        <v>10478307.885655969</v>
+        <v>495724.43530970014</v>
       </c>
     </row>
     <row r="191" spans="1:57" ht="19.5">
       <c r="C191">
         <f>H190*D191</f>
-        <v>411519.40306194866</v>
+        <v>14152.144939866645</v>
       </c>
       <c r="D191">
         <f>D190</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E191" t="s">
         <v>12</v>
@@ -7819,17 +7957,17 @@
       </c>
       <c r="H191">
         <f>H190+C191</f>
-        <v>10889827.288717918</v>
+        <v>509876.58024956682</v>
       </c>
     </row>
     <row r="192" spans="1:57" ht="19.5">
       <c r="C192">
         <f>H191*D192</f>
-        <v>427681.19377705909</v>
+        <v>14556.166190652615</v>
       </c>
       <c r="D192">
         <f>D191</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E192" t="s">
         <v>13</v>
@@ -7839,17 +7977,17 @@
       </c>
       <c r="H192">
         <f>H191+C192</f>
-        <v>11317508.482494976</v>
+        <v>524432.74644021946</v>
       </c>
     </row>
     <row r="193" spans="1:57" ht="19.5">
       <c r="C193">
         <f>H192*D193</f>
-        <v>444477.71392940986</v>
+        <v>14971.721606173347</v>
       </c>
       <c r="D193">
         <f>D192</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E193" t="s">
         <v>14</v>
@@ -7859,17 +7997,17 @@
       </c>
       <c r="H193">
         <f>H192+C193</f>
-        <v>11761986.196424386</v>
+        <v>539404.46804639278</v>
       </c>
     </row>
     <row r="194" spans="1:57" ht="19.5">
       <c r="C194">
         <f>H193*D194</f>
-        <v>461933.89154001069</v>
+        <v>15399.140468504647</v>
       </c>
       <c r="D194">
         <f>D193</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E194" t="s">
         <v>15</v>
@@ -7879,17 +8017,17 @@
       </c>
       <c r="H194">
         <f>H193+C194</f>
-        <v>12223920.087964397</v>
+        <v>554803.60851489741</v>
       </c>
     </row>
     <row r="195" spans="1:57" ht="19.5">
       <c r="C195">
         <f>H194*D195</f>
-        <v>480075.63363950123</v>
+        <v>15838.761460202368</v>
       </c>
       <c r="D195">
         <f>D194</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E195" t="s">
         <v>16</v>
@@ -7899,17 +8037,17 @@
       </c>
       <c r="H195">
         <f>H194+C195</f>
-        <v>12703995.721603898</v>
+        <v>570642.36997509981</v>
       </c>
     </row>
     <row r="196" spans="1:57" ht="19.5">
       <c r="C196">
         <f>H195*D196</f>
-        <v>498929.86471724615</v>
+        <v>16290.932932671181</v>
       </c>
       <c r="D196">
         <f>D195</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E196" t="s">
         <v>17</v>
@@ -7919,17 +8057,17 @@
       </c>
       <c r="H196">
         <f>H195+C196</f>
-        <v>13202925.586321145</v>
+        <v>586933.30290777097</v>
       </c>
     </row>
     <row r="197" spans="1:57" ht="19.5">
       <c r="C197">
         <f>H196*D197</f>
-        <v>518524.56668045983</v>
+        <v>16756.013182194838</v>
       </c>
       <c r="D197">
         <f>D196</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E197" t="s">
         <v>11</v>
@@ -7939,17 +8077,17 @@
       </c>
       <c r="H197">
         <f>H196+C197</f>
-        <v>13721450.153001605</v>
+        <v>603689.31608996575</v>
       </c>
     </row>
     <row r="198" spans="1:57" ht="19.5">
       <c r="C198">
         <f>H197*D198</f>
-        <v>538888.8203826634</v>
+        <v>17234.370733846674</v>
       </c>
       <c r="D198">
         <f>D197</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E198" t="s">
         <v>12</v>
@@ -7959,17 +8097,17 @@
       </c>
       <c r="H198">
         <f>H197+C198</f>
-        <v>14260338.973384269</v>
+        <v>620923.68682381243</v>
       </c>
     </row>
     <row r="199" spans="1:57" ht="19.5">
       <c r="C199">
         <f>H198*D199</f>
-        <v>560052.84878310852</v>
+        <v>17726.384633505295</v>
       </c>
       <c r="D199">
         <f>D198</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E199" t="s">
         <v>13</v>
@@ -7979,17 +8117,17 @@
       </c>
       <c r="H199">
         <f>H198+C199</f>
-        <v>14820391.822167378</v>
+        <v>638650.07145731768</v>
       </c>
     </row>
     <row r="200" spans="1:57" ht="19.5">
       <c r="C200">
         <f>H199*D200</f>
-        <v>582048.06180122087</v>
+        <v>18232.444748206854</v>
       </c>
       <c r="D200">
         <f>D199</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E200" t="s">
         <v>14</v>
@@ -7999,17 +8137,17 @@
       </c>
       <c r="H200">
         <f>H199+C200</f>
-        <v>15402439.883968599</v>
+        <v>656882.51620552456</v>
       </c>
     </row>
     <row r="201" spans="1:57" ht="19.5">
       <c r="C201">
         <f>H200*D201</f>
-        <v>604907.10293263232</v>
+        <v>18752.952075071895</v>
       </c>
       <c r="D201">
         <f>D200</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E201" t="s">
         <v>15</v>
@@ -8019,17 +8157,17 @@
       </c>
       <c r="H201">
         <f>H200+C201</f>
-        <v>16007346.986901231</v>
+        <v>675635.46828059643</v>
       </c>
     </row>
     <row r="202" spans="1:57" ht="19.5">
       <c r="C202">
         <f>H201*D202</f>
-        <v>628663.8976959869</v>
+        <v>19288.319059051584</v>
       </c>
       <c r="D202">
         <f>D201</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E202" t="s">
         <v>16</v>
@@ -8039,17 +8177,17 @@
       </c>
       <c r="H202">
         <f>H201+C202</f>
-        <v>16636010.884597218</v>
+        <v>694923.787339648</v>
       </c>
     </row>
     <row r="203" spans="1:57" ht="19.5">
       <c r="C203">
         <f>H202*D203</f>
-        <v>653353.70398242003</v>
+        <v>19838.969919745094</v>
       </c>
       <c r="D203">
         <f>D202</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E203" t="s">
         <v>17</v>
@@ -8059,17 +8197,17 @@
       </c>
       <c r="H203">
         <f>H202+C203</f>
-        <v>17289364.588579636</v>
+        <v>714762.75725939311</v>
       </c>
     </row>
     <row r="204" spans="1:57" ht="19.5">
       <c r="C204">
         <f>H203*D204</f>
-        <v>679013.16438243538</v>
+        <v>20405.340987547072</v>
       </c>
       <c r="D204">
         <f>D203</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E204" t="s">
         <v>11</v>
@@ -8079,17 +8217,17 @@
       </c>
       <c r="H204">
         <f>H203+C204</f>
-        <v>17968377.752962071</v>
+        <v>735168.09824694018</v>
       </c>
     </row>
     <row r="205" spans="1:57" ht="19.5">
       <c r="C205">
         <f>H204*D205</f>
-        <v>705680.36056784051</v>
+        <v>20987.881049391624</v>
       </c>
       <c r="D205">
         <f>D204</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E205" t="s">
         <v>12</v>
@@ -8099,17 +8237,17 @@
       </c>
       <c r="H205">
         <f>H204+C205</f>
-        <v>18674058.113529913</v>
+        <v>756155.97929633176</v>
       </c>
     </row>
     <row r="206" spans="1:57" ht="19.5">
       <c r="C206">
         <f>H205*D206</f>
-        <v>733394.86980944779</v>
+        <v>21587.051704366713</v>
       </c>
       <c r="D206">
         <f>D205</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E206" t="s">
         <v>13</v>
@@ -8119,17 +8257,17 @@
       </c>
       <c r="H206">
         <f>H205+C206</f>
-        <v>19407452.983339362</v>
+        <v>777743.03100069845</v>
       </c>
     </row>
     <row r="207" spans="1:57" ht="19.5">
       <c r="C207">
         <f>H206*D207</f>
-        <v>762197.82371442229</v>
+        <v>22203.32772948081</v>
       </c>
       <c r="D207">
         <f>D206</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E207" t="s">
         <v>14</v>
@@ -8139,17 +8277,17 @@
       </c>
       <c r="H207">
         <f>H206+C207</f>
-        <v>20169650.807053786</v>
+        <v>799946.35873017926</v>
       </c>
     </row>
     <row r="208" spans="1:57" ht="19.5">
       <c r="C208">
         <f>H207*D208</f>
-        <v>792131.96927044785</v>
+        <v>22837.19745587157</v>
       </c>
       <c r="D208">
         <f>D207</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E208" t="s">
         <v>15</v>
@@ -8159,17 +8297,17 @@
       </c>
       <c r="H208">
         <f>H207+C208</f>
-        <v>20961782.776324235</v>
+        <v>822783.55618605088</v>
       </c>
     </row>
     <row r="209" spans="1:57" ht="19.5">
       <c r="C209">
         <f>H208*D209</f>
-        <v>823241.73228730867</v>
+        <v>23489.163155754683</v>
       </c>
       <c r="D209">
         <f>D208</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E209" t="s">
         <v>16</v>
@@ -8179,17 +8317,17 @@
       </c>
       <c r="H209">
         <f>H208+C209</f>
-        <v>21785024.508611545</v>
+        <v>846272.71934180555</v>
       </c>
     </row>
     <row r="210" spans="1:57" ht="19.5">
       <c r="C210">
         <f>H209*D210</f>
-        <v>855573.28333004168</v>
+        <v>24159.741440419501</v>
       </c>
       <c r="D210">
         <f>D209</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E210" t="s">
         <v>17</v>
@@ -8199,17 +8337,17 @@
       </c>
       <c r="H210">
         <f>H209+C210</f>
-        <v>22640597.791941587</v>
+        <v>870432.46078222501</v>
       </c>
     </row>
     <row r="211" spans="1:57" ht="19.5">
       <c r="C211">
         <f>H210*D211</f>
-        <v>889174.60624151188</v>
+        <v>24849.463669586825</v>
       </c>
       <c r="D211">
         <f>D210</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E211" t="s">
         <v>11</v>
@@ -8219,17 +8357,17 @@
       </c>
       <c r="H211">
         <f>H210+C211</f>
-        <v>23529772.3981831</v>
+        <v>895281.92445181182</v>
       </c>
     </row>
     <row r="212" spans="1:57" ht="19.5">
       <c r="C212">
         <f>H211*D212</f>
-        <v>924095.56935610576</v>
+        <v>25558.876372453164</v>
       </c>
       <c r="D212">
         <f>D211</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E212" t="s">
         <v>12</v>
@@ -8239,17 +8377,17 @@
       </c>
       <c r="H212">
         <f>H211+C212</f>
-        <v>24453867.967539206</v>
+        <v>920840.800824265</v>
       </c>
     </row>
     <row r="213" spans="1:57" ht="19.5">
       <c r="C213">
         <f>H212*D213</f>
-        <v>960387.99951023364</v>
+        <v>26288.541680755166</v>
       </c>
       <c r="D213">
         <f>D212</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E213" t="s">
         <v>13</v>
@@ -8259,17 +8397,17 @@
       </c>
       <c r="H213">
         <f>H212+C213</f>
-        <v>25414255.967049439</v>
+        <v>947129.34250502021</v>
       </c>
     </row>
     <row r="214" spans="1:57" ht="19.5">
       <c r="C214">
         <f>H213*D214</f>
-        <v>998105.75895947975</v>
+        <v>27039.037774197375</v>
       </c>
       <c r="D214">
         <f>D213</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E214" t="s">
         <v>14</v>
@@ -8279,17 +8417,17 @@
       </c>
       <c r="H214">
         <f>H213+C214</f>
-        <v>26412361.726008918</v>
+        <v>974168.38027921761</v>
       </c>
     </row>
     <row r="215" spans="1:57" ht="19.5">
       <c r="C215">
         <f>H214*D215</f>
-        <v>1037304.8253165554</v>
+        <v>27810.959338596163</v>
       </c>
       <c r="D215">
         <f>D214</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E215" t="s">
         <v>15</v>
@@ -8299,17 +8437,17 @@
       </c>
       <c r="H215">
         <f>H214+C215</f>
-        <v>27449666.551325474</v>
+        <v>1001979.3396178138</v>
       </c>
     </row>
     <row r="216" spans="1:57" ht="19.5">
       <c r="C216">
         <f>H215*D216</f>
-        <v>1078043.3746286922</v>
+        <v>28604.918037103052</v>
       </c>
       <c r="D216">
         <f>D215</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E216" t="s">
         <v>16</v>
@@ -8319,17 +8457,17 @@
       </c>
       <c r="H216">
         <f>H215+C216</f>
-        <v>28527709.925954167</v>
+        <v>1030584.2576549168</v>
       </c>
     </row>
     <row r="217" spans="1:57" ht="19.5">
       <c r="C217">
         <f>H216*D217</f>
-        <v>1120381.8677177713</v>
+        <v>29421.542994880609</v>
       </c>
       <c r="D217">
         <f>D216</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E217" t="s">
         <v>17</v>
@@ -8339,17 +8477,17 @@
       </c>
       <c r="H217">
         <f>H216+C217</f>
-        <v>29648091.79367194</v>
+        <v>1060005.8006497975</v>
       </c>
     </row>
     <row r="218" spans="1:57" ht="19.5">
       <c r="C218">
         <f>H217*D218</f>
-        <v>1164383.1399113289</v>
+        <v>30261.481297615155</v>
       </c>
       <c r="D218">
         <f>D217</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E218" t="s">
         <v>11</v>
@@ -8359,17 +8497,17 @@
       </c>
       <c r="H218">
         <f>H217+C218</f>
-        <v>30812474.933583267</v>
+        <v>1090267.2819474128</v>
       </c>
     </row>
     <row r="219" spans="1:57" ht="19.5">
       <c r="C219">
         <f>H218*D219</f>
-        <v>1210112.4942976083</v>
+        <v>31125.398504261138</v>
       </c>
       <c r="D219">
         <f>D218</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E219" t="s">
         <v>12</v>
@@ -8379,17 +8517,17 @@
       </c>
       <c r="H219">
         <f>H218+C219</f>
-        <v>32022587.427880876</v>
+        <v>1121392.6804516739</v>
       </c>
     </row>
     <row r="220" spans="1:57" ht="19.5">
       <c r="C220">
         <f>H219*D220</f>
-        <v>1257637.798643061</v>
+        <v>32013.979174423624</v>
       </c>
       <c r="D220">
         <f>D219</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E220" t="s">
         <v>13</v>
@@ -8399,17 +8537,17 @@
       </c>
       <c r="H220">
         <f>H219+C220</f>
-        <v>33280225.226523936</v>
+        <v>1153406.6596260977</v>
       </c>
     </row>
     <row r="221" spans="1:57" ht="19.5">
       <c r="C221">
         <f>H220*D221</f>
-        <v>1307029.5861161333</v>
+        <v>32927.927410796656</v>
       </c>
       <c r="D221">
         <f>D220</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E221" t="s">
         <v>14</v>
@@ -8419,17 +8557,17 @@
       </c>
       <c r="H221">
         <f>H220+C221</f>
-        <v>34587254.812640071</v>
+        <v>1186334.5870368944</v>
       </c>
     </row>
     <row r="222" spans="1:57" ht="19.5">
       <c r="C222">
         <f>H221*D222</f>
-        <v>1358361.1599668232</v>
+        <v>33867.967417087391</v>
       </c>
       <c r="D222">
         <f>D221</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E222" t="s">
         <v>15</v>
@@ -8439,17 +8577,17 @@
       </c>
       <c r="H222">
         <f>H221+C222</f>
-        <v>35945615.972606897</v>
+        <v>1220202.5544539818</v>
       </c>
     </row>
     <row r="223" spans="1:57" ht="19.5">
       <c r="C223">
         <f>H222*D223</f>
-        <v>1411708.7023173685</v>
+        <v>34834.844071868109</v>
       </c>
       <c r="D223">
         <f>D222</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E223" t="s">
         <v>16</v>
@@ -8459,17 +8597,17 @@
       </c>
       <c r="H223">
         <f>H222+C223</f>
-        <v>37357324.674924269</v>
+        <v>1255037.3985258499</v>
       </c>
     </row>
     <row r="224" spans="1:57" ht="19.5">
       <c r="C224">
         <f>H223*D224</f>
-        <v>1467151.3872255182</v>
+        <v>35829.323518810728</v>
       </c>
       <c r="D224">
         <f>D223</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E224" t="s">
         <v>17</v>
@@ -8479,17 +8617,17 @@
       </c>
       <c r="H224">
         <f>H223+C224</f>
-        <v>38824476.062149785</v>
+        <v>1290866.7220446607</v>
       </c>
     </row>
     <row r="225" spans="1:57" ht="19.5">
       <c r="C225">
         <f>H224*D225</f>
-        <v>1524771.4981881918</v>
+        <v>36852.193773771629</v>
       </c>
       <c r="D225">
         <f>D224</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E225" t="s">
         <v>11</v>
@@ -8499,17 +8637,17 @@
       </c>
       <c r="H225">
         <f>H224+C225</f>
-        <v>40349247.560337976</v>
+        <v>1327718.9158184323</v>
       </c>
     </row>
     <row r="226" spans="1:57" ht="19.5">
       <c r="C226">
         <f>H225*D226</f>
-        <v>1584654.5502599142</v>
+        <v>37904.265349207766</v>
       </c>
       <c r="D226">
         <f>D225</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E226" t="s">
         <v>12</v>
@@ -8519,17 +8657,17 @@
       </c>
       <c r="H226">
         <f>H225+C226</f>
-        <v>41933902.110597894</v>
+        <v>1365623.18116764</v>
       </c>
     </row>
     <row r="227" spans="1:57" ht="19.5">
       <c r="C227">
         <f>H226*D227</f>
-        <v>1646889.4169672632</v>
+        <v>38986.371896418867</v>
       </c>
       <c r="D227">
         <f>D226</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E227" t="s">
         <v>13</v>
@@ -8539,17 +8677,17 @@
       </c>
       <c r="H227">
         <f>H226+C227</f>
-        <v>43580791.527565159</v>
+        <v>1404609.553064059</v>
       </c>
     </row>
     <row r="228" spans="1:57" ht="19.5">
       <c r="C228">
         <f>H227*D228</f>
-        <v>1711568.4622076848</v>
+        <v>40099.370866124627</v>
       </c>
       <c r="D228">
         <f>D227</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E228" t="s">
         <v>14</v>
@@ -8559,17 +8697,17 @@
       </c>
       <c r="H228">
         <f>H227+C228</f>
-        <v>45292359.989772841</v>
+        <v>1444708.9239301835</v>
       </c>
     </row>
     <row r="229" spans="1:57" ht="19.5">
       <c r="C229">
         <f>H228*D229</f>
-        <v>1778787.6773284352</v>
+        <v>41244.14418790031</v>
       </c>
       <c r="D229">
         <f>D228</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E229" t="s">
         <v>15</v>
@@ -8579,17 +8717,17 @@
       </c>
       <c r="H229">
         <f>H228+C229</f>
-        <v>47071147.667101279</v>
+        <v>1485953.0681180838</v>
       </c>
     </row>
     <row r="230" spans="1:57" ht="19.5">
       <c r="C230">
         <f>H229*D230</f>
-        <v>1848646.8235890837</v>
+        <v>42421.598969009225</v>
       </c>
       <c r="D230">
         <f>D229</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E230" t="s">
         <v>16</v>
@@ -8599,17 +8737,17 @@
       </c>
       <c r="H230">
         <f>H229+C230</f>
-        <v>48919794.490690365</v>
+        <v>1528374.667087093</v>
       </c>
     </row>
     <row r="231" spans="1:57" ht="19.5">
       <c r="C231">
         <f>H230*D231</f>
-        <v>1921249.5802190129</v>
+        <v>43632.668213185672</v>
       </c>
       <c r="D231">
         <f>D230</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E231" t="s">
         <v>17</v>
@@ -8619,17 +8757,17 @@
       </c>
       <c r="H231">
         <f>H230+C231</f>
-        <v>50841044.070909381</v>
+        <v>1572007.3353002786</v>
       </c>
     </row>
     <row r="232" spans="1:57" ht="19.5">
       <c r="C232">
         <f>H231*D232</f>
-        <v>1996703.6982896477</v>
+        <v>44878.311559938069</v>
       </c>
       <c r="D232">
         <f>D231</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E232" t="s">
         <v>11</v>
@@ -8639,17 +8777,17 @@
       </c>
       <c r="H232">
         <f>H231+C232</f>
-        <v>52837747.769199029</v>
+        <v>1616885.6468602167</v>
       </c>
     </row>
     <row r="233" spans="1:57" ht="19.5">
       <c r="C233">
         <f>H232*D233</f>
-        <v>2075121.1606297803</v>
+        <v>46159.516044957949</v>
       </c>
       <c r="D233">
         <f>D232</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E233" t="s">
         <v>12</v>
@@ -8659,17 +8797,17 @@
       </c>
       <c r="H233">
         <f>H232+C233</f>
-        <v>54912868.929828808</v>
+        <v>1663045.1629051748</v>
       </c>
     </row>
     <row r="234" spans="1:57" ht="19.5">
       <c r="C234">
         <f>H233*D234</f>
-        <v>2156618.3480213233</v>
+        <v>47477.296882237497</v>
       </c>
       <c r="D234">
         <f>D233</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E234" t="s">
         <v>13</v>
@@ -8679,17 +8817,17 @@
       </c>
       <c r="H234">
         <f>H233+C234</f>
-        <v>57069487.277850129</v>
+        <v>1710522.4597874123</v>
       </c>
     </row>
     <row r="235" spans="1:57" ht="19.5">
       <c r="C235">
         <f>H234*D235</f>
-        <v>2241316.2119221431</v>
+        <v>48832.698268515211</v>
       </c>
       <c r="D235">
         <f>D234</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E235" t="s">
         <v>14</v>
@@ -8699,17 +8837,17 @@
       </c>
       <c r="H235">
         <f>H234+C235</f>
-        <v>59310803.489772275</v>
+        <v>1759355.1580559276</v>
       </c>
     </row>
     <row r="236" spans="1:57" ht="19.5">
       <c r="C236">
         <f>H235*D236</f>
-        <v>2329340.4539723215</v>
+        <v>50226.794210687302</v>
       </c>
       <c r="D236">
         <f>D235</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E236" t="s">
         <v>15</v>
@@ -8719,17 +8857,17 @@
       </c>
       <c r="H236">
         <f>H235+C236</f>
-        <v>61640143.9437446</v>
+        <v>1809581.9522666149</v>
       </c>
     </row>
     <row r="237" spans="1:57" ht="19.5">
       <c r="C237">
         <f>H236*D237</f>
-        <v>2420821.7125502401</v>
+        <v>51660.689376840295</v>
       </c>
       <c r="D237">
         <f>D236</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E237" t="s">
         <v>16</v>
@@ -8739,17 +8877,17 @@
       </c>
       <c r="H237">
         <f>H236+C237</f>
-        <v>64060965.656294838</v>
+        <v>1861242.6416434553</v>
       </c>
     </row>
     <row r="238" spans="1:57" ht="19.5">
       <c r="C238">
         <f>H237*D238</f>
-        <v>2515895.7566553787</v>
+        <v>53135.519971579321</v>
       </c>
       <c r="D238">
         <f>D237</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E238" t="s">
         <v>17</v>
@@ -8759,17 +8897,17 @@
       </c>
       <c r="H238">
         <f>H237+C238</f>
-        <v>66576861.412950218</v>
+        <v>1914378.1616150346</v>
       </c>
     </row>
     <row r="239" spans="1:57" ht="19.5">
       <c r="C239">
         <f>H238*D239</f>
-        <v>2614703.6874055541</v>
+        <v>54652.454636345596</v>
       </c>
       <c r="D239">
         <f>D238</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E239" t="s">
         <v>11</v>
@@ -8779,17 +8917,17 @@
       </c>
       <c r="H239">
         <f>H238+C239</f>
-        <v>69191565.100355774</v>
+        <v>1969030.6162513802</v>
       </c>
     </row>
     <row r="240" spans="1:57" ht="19.5">
       <c r="C240">
         <f>H239*D240</f>
-        <v>2717392.147447655</v>
+        <v>56212.695375436539</v>
       </c>
       <c r="D240">
         <f>D239</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E240" t="s">
         <v>12</v>
@@ -8799,17 +8937,17 @@
       </c>
       <c r="H240">
         <f>H239+C240</f>
-        <v>71908957.247803435</v>
+        <v>2025243.3116268166</v>
       </c>
     </row>
     <row r="241" spans="1:57" ht="19.5">
       <c r="C241">
         <f>H240*D241</f>
-        <v>2824113.5385926603</v>
+        <v>57817.478508462344</v>
       </c>
       <c r="D241">
         <f>D240</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E241" t="s">
         <v>13</v>
@@ -8819,17 +8957,17 @@
       </c>
       <c r="H241">
         <f>H240+C241</f>
-        <v>74733070.786396101</v>
+        <v>2083060.7901352791</v>
       </c>
     </row>
     <row r="242" spans="1:57" ht="19.5">
       <c r="C242">
         <f>H241*D242</f>
-        <v>2935026.247997941</v>
+        <v>59468.075649993596</v>
       </c>
       <c r="D242">
         <f>D241</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E242" t="s">
         <v>14</v>
@@ -8839,17 +8977,17 @@
       </c>
       <c r="H242">
         <f>H241+C242</f>
-        <v>77668097.034394041</v>
+        <v>2142528.8657852728</v>
       </c>
     </row>
     <row r="243" spans="1:57" ht="19.5">
       <c r="C243">
         <f>H242*D243</f>
-        <v>3050294.8832325176</v>
+        <v>61165.794717176323</v>
       </c>
       <c r="D243">
         <f>D242</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E243" t="s">
         <v>15</v>
@@ -8859,17 +8997,17 @@
       </c>
       <c r="H243">
         <f>H242+C243</f>
-        <v>80718391.91762656</v>
+        <v>2203694.6605024491</v>
       </c>
     </row>
     <row r="244" spans="1:57" ht="19.5">
       <c r="C244">
         <f>H243*D244</f>
-        <v>3170090.5165741486</v>
+        <v>62911.980966112817</v>
       </c>
       <c r="D244">
         <f>D243</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E244" t="s">
         <v>16</v>
@@ -8879,17 +9017,17 @@
       </c>
       <c r="H244">
         <f>H243+C244</f>
-        <v>83888482.434200704</v>
+        <v>2266606.6414685622</v>
       </c>
     </row>
     <row r="245" spans="1:57" ht="19.5">
       <c r="C245">
         <f>H244*D245</f>
-        <v>3294590.9389008079</v>
+        <v>64708.018057829569</v>
       </c>
       <c r="D245">
         <f>D244</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E245" t="s">
         <v>17</v>
@@ -8899,17 +9037,17 @@
       </c>
       <c r="H245">
         <f>H244+C245</f>
-        <v>87183073.373101518</v>
+        <v>2331314.6595263919</v>
       </c>
     </row>
     <row r="246" spans="1:57" ht="19.5">
       <c r="C246">
         <f>H245*D246</f>
-        <v>3423980.9235533625</v>
+        <v>66555.329154676758</v>
       </c>
       <c r="D246">
         <f>D245</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E246" t="s">
         <v>11</v>
@@ -8919,17 +9057,17 @@
       </c>
       <c r="H246">
         <f>H245+C246</f>
-        <v>90607054.29665488</v>
+        <v>2397869.9886810686</v>
       </c>
     </row>
     <row r="247" spans="1:57" ht="19.5">
       <c r="C247">
         <f>H246*D247</f>
-        <v>3558452.5005610441</v>
+        <v>68455.378048028302</v>
       </c>
       <c r="D247">
         <f>D246</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E247" t="s">
         <v>12</v>
@@ -8939,17 +9077,17 @@
       </c>
       <c r="H247">
         <f>H246+C247</f>
-        <v>94165506.797215924</v>
+        <v>2466325.366729097</v>
       </c>
     </row>
     <row r="248" spans="1:57" ht="19.5">
       <c r="C248">
         <f>H247*D248</f>
-        <v>3698205.2416367088</v>
+        <v>70409.670318175966</v>
       </c>
       <c r="D248">
         <f>D247</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E248" t="s">
         <v>13</v>
@@ -8959,17 +9097,17 @@
       </c>
       <c r="H248">
         <f>H247+C248</f>
-        <v>97863712.038852632</v>
+        <v>2536735.037047273</v>
       </c>
     </row>
     <row r="249" spans="1:57" ht="19.5">
       <c r="C249">
         <f>H248*D249</f>
-        <v>3843446.5563648487</v>
+        <v>72419.75452733651</v>
       </c>
       <c r="D249">
         <f>D248</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E249" t="s">
         <v>14</v>
@@ -8979,17 +9117,17 @@
       </c>
       <c r="H249">
         <f>H248+C249</f>
-        <v>101707158.59521748</v>
+        <v>2609154.7915746095</v>
       </c>
     </row>
     <row r="250" spans="1:57" ht="19.5">
       <c r="C250">
         <f>H249*D250</f>
-        <v>3994392.0000219238</v>
+        <v>74487.223446717369</v>
       </c>
       <c r="D250">
         <f>D249</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E250" t="s">
         <v>15</v>
@@ -8999,17 +9137,17 @@
       </c>
       <c r="H250">
         <f>H249+C250</f>
-        <v>105701550.5952394</v>
+        <v>2683642.015021327</v>
       </c>
     </row>
     <row r="251" spans="1:57" ht="19.5">
       <c r="C251">
         <f>H250*D251</f>
-        <v>4151265.5934858685</v>
+        <v>76613.715318613089</v>
       </c>
       <c r="D251">
         <f>D250</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E251" t="s">
         <v>16</v>
@@ -9019,17 +9157,17 @@
       </c>
       <c r="H251">
         <f>H250+C251</f>
-        <v>109852816.18872526</v>
+        <v>2760255.7303399402</v>
       </c>
     </row>
     <row r="252" spans="1:57" ht="19.5">
       <c r="C252">
         <f>H251*D252</f>
-        <v>4314300.1557095535</v>
+        <v>78800.91515453266</v>
       </c>
       <c r="D252">
         <f>D251</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E252" t="s">
         <v>17</v>
@@ -9039,17 +9177,17 @@
       </c>
       <c r="H252">
         <f>H251+C252</f>
-        <v>114167116.34443481</v>
+        <v>2839056.6454944727</v>
       </c>
     </row>
     <row r="253" spans="1:57" ht="19.5">
       <c r="C253">
         <f>H252*D253</f>
-        <v>4483737.6492516249</v>
+        <v>81050.55607038617</v>
       </c>
       <c r="D253">
         <f>D252</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E253" t="s">
         <v>11</v>
@@ -9059,17 +9197,17 @@
       </c>
       <c r="H253">
         <f>H252+C253</f>
-        <v>118650853.99368644</v>
+        <v>2920107.2015648587</v>
       </c>
     </row>
     <row r="254" spans="1:57" ht="19.5">
       <c r="C254">
         <f>H253*D254</f>
-        <v>4659829.5393775376</v>
+        <v>83364.420659789132</v>
       </c>
       <c r="D254">
         <f>D253</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E254" t="s">
         <v>12</v>
@@ -9079,17 +9217,17 @@
       </c>
       <c r="H254">
         <f>H253+C254</f>
-        <v>123310683.53306398</v>
+        <v>3003471.622224648</v>
       </c>
     </row>
     <row r="255" spans="1:57" ht="19.5">
       <c r="C255">
         <f>H254*D255</f>
-        <v>4842837.1672637295</v>
+        <v>85744.342406572279</v>
       </c>
       <c r="D255">
         <f>D254</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E255" t="s">
         <v>13</v>
@@ -9099,17 +9237,17 @@
       </c>
       <c r="H255">
         <f>H254+C255</f>
-        <v>128153520.70032771</v>
+        <v>3089215.9646312203</v>
       </c>
     </row>
     <row r="256" spans="1:57" ht="19.5">
       <c r="C256">
         <f>H255*D256</f>
-        <v>5033032.1378588146</v>
+        <v>88192.207137616366</v>
       </c>
       <c r="D256">
         <f>D255</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E256" t="s">
         <v>14</v>
@@ -9119,17 +9257,17 @@
       </c>
       <c r="H256">
         <f>H255+C256</f>
-        <v>133186552.83818652</v>
+        <v>3177408.1717688367</v>
       </c>
     </row>
     <row r="257" spans="1:57" ht="19.5">
       <c r="C257">
         <f>H256*D257</f>
-        <v>5230696.7229774259</v>
+        <v>90709.954517163118</v>
       </c>
       <c r="D257">
         <f>D256</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E257" t="s">
         <v>15</v>
@@ -9139,17 +9277,17 @@
       </c>
       <c r="H257">
         <f>H256+C257</f>
-        <v>138417249.56116393</v>
+        <v>3268118.126286</v>
       </c>
     </row>
     <row r="258" spans="1:57" ht="19.5">
       <c r="C258">
         <f>H257*D258</f>
-        <v>5436124.2802249482</v>
+        <v>93299.579583786268</v>
       </c>
       <c r="D258">
         <f>D257</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E258" t="s">
         <v>16</v>
@@ -9159,17 +9297,17 @@
       </c>
       <c r="H258">
         <f>H257+C258</f>
-        <v>143853373.84138888</v>
+        <v>3361417.7058697864</v>
       </c>
     </row>
     <row r="259" spans="1:57" ht="19.5">
       <c r="C259">
         <f>H258*D259</f>
-        <v>5649619.688374877</v>
+        <v>95963.134331240799</v>
       </c>
       <c r="D259">
         <f>D258</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E259" t="s">
         <v>17</v>
@@ -9179,17 +9317,17 @@
       </c>
       <c r="H259">
         <f>H258+C259</f>
-        <v>149502993.52976376</v>
+        <v>3457380.8402010272</v>
       </c>
     </row>
     <row r="260" spans="1:57" ht="19.5">
       <c r="C260">
         <f>H259*D260</f>
-        <v>5871499.7998449476</v>
+        <v>98702.729334442847</v>
       </c>
       <c r="D260">
         <f>D259</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E260" t="s">
         <v>11</v>
@@ -9199,17 +9337,17 @@
       </c>
       <c r="H260">
         <f>H259+C260</f>
-        <v>155374493.32960871</v>
+        <v>3556083.5695354701</v>
       </c>
     </row>
     <row r="261" spans="1:57" ht="19.5">
       <c r="C261">
         <f>H260*D261</f>
-        <v>6102093.9109435715</v>
+        <v>101520.5354218688</v>
       </c>
       <c r="D261">
         <f>D260</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E261" t="s">
         <v>12</v>
@@ -9219,17 +9357,17 @@
       </c>
       <c r="H261">
         <f>H260+C261</f>
-        <v>161476587.24055228</v>
+        <v>3657604.1049573389</v>
       </c>
     </row>
     <row r="262" spans="1:57" ht="19.5">
       <c r="C262">
         <f>H261*D262</f>
-        <v>6341744.2505844794</v>
+        <v>104418.78539569864</v>
       </c>
       <c r="D262">
         <f>D261</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E262" t="s">
         <v>13</v>
@@ -9239,17 +9377,17 @@
       </c>
       <c r="H262">
         <f>H261+C262</f>
-        <v>167818331.49113676</v>
+        <v>3762022.8903530375</v>
       </c>
     </row>
     <row r="263" spans="1:57" ht="19.5">
       <c r="C263">
         <f>H262*D263</f>
-        <v>6590806.4881948689</v>
+        <v>107399.77580106679</v>
       </c>
       <c r="D263">
         <f>D262</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E263" t="s">
         <v>14</v>
@@ -9259,17 +9397,17 @@
       </c>
       <c r="H263">
         <f>H262+C263</f>
-        <v>174409137.97933164</v>
+        <v>3869422.6661541043</v>
       </c>
     </row>
     <row r="264" spans="1:57" ht="19.5">
       <c r="C264">
         <f>H263*D264</f>
-        <v>6849650.2615708774</v>
+        <v>110465.8687458221</v>
       </c>
       <c r="D264">
         <f>D263</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E264" t="s">
         <v>15</v>
@@ -9279,17 +9417,17 @@
       </c>
       <c r="H264">
         <f>H263+C264</f>
-        <v>181258788.24090251</v>
+        <v>3979888.5348999263</v>
       </c>
     </row>
     <row r="265" spans="1:57" ht="19.5">
       <c r="C265">
         <f>H264*D265</f>
-        <v>7118659.7254637498</v>
+        <v>113619.49377223919</v>
       </c>
       <c r="D265">
         <f>D264</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E265" t="s">
         <v>16</v>
@@ -9299,17 +9437,17 @@
       </c>
       <c r="H265">
         <f>H264+C265</f>
-        <v>188377447.96636626</v>
+        <v>4093508.0286721652</v>
       </c>
     </row>
     <row r="266" spans="1:57" ht="19.5">
       <c r="C266">
         <f>H265*D266</f>
-        <v>7398234.1217108956</v>
+        <v>116863.14978216423</v>
       </c>
       <c r="D266">
         <f>D265</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E266" t="s">
         <v>17</v>
@@ -9319,17 +9457,17 @@
       </c>
       <c r="H266">
         <f>H265+C266</f>
-        <v>195775682.08807716</v>
+        <v>4210371.1784543293</v>
       </c>
     </row>
     <row r="267" spans="1:57" ht="19.5">
       <c r="C267">
         <f>H266*D267</f>
-        <v>7688788.3717579599</v>
+        <v>120199.40701712036</v>
       </c>
       <c r="D267">
         <f>D266</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E267" t="s">
         <v>11</v>
@@ -9339,17 +9477,17 @@
       </c>
       <c r="H267">
         <f>H266+C267</f>
-        <v>203464470.45983511</v>
+        <v>4330570.5854714494</v>
       </c>
     </row>
     <row r="268" spans="1:57" ht="19.5">
       <c r="C268">
         <f>H267*D268</f>
-        <v>7990753.6924512833</v>
+        <v>123630.90909494222</v>
       </c>
       <c r="D268">
         <f>D267</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E268" t="s">
         <v>12</v>
@@ -9359,17 +9497,17 @@
       </c>
       <c r="H268">
         <f>H267+C268</f>
-        <v>211455224.15228641</v>
+        <v>4454201.4945663912</v>
       </c>
     </row>
     <row r="269" spans="1:57" ht="19.5">
       <c r="C269">
         <f>H268*D269</f>
-        <v>8304578.2360146698</v>
+        <v>127160.37510455302</v>
       </c>
       <c r="D269">
         <f>D268</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E269" t="s">
         <v>13</v>
@@ -9379,17 +9517,17 @@
       </c>
       <c r="H269">
         <f>H268+C269</f>
-        <v>219759802.38830107</v>
+        <v>4581361.8696709443</v>
       </c>
     </row>
     <row r="270" spans="1:57" ht="19.5">
       <c r="C270">
         <f>H269*D270</f>
-        <v>8630727.7551602479</v>
+        <v>130790.6017605442</v>
       </c>
       <c r="D270">
         <f>D269</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E270" t="s">
         <v>14</v>
@@ -9399,17 +9537,17 @@
       </c>
       <c r="H270">
         <f>H269+C270</f>
-        <v>228390530.14346132</v>
+        <v>4712152.4714314882</v>
       </c>
     </row>
     <row r="271" spans="1:57" ht="19.5">
       <c r="C271">
         <f>H270*D271</f>
-        <v>8969686.2943205405</v>
+        <v>134524.46561926487</v>
       </c>
       <c r="D271">
         <f>D270</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E271" t="s">
         <v>15</v>
@@ -9419,17 +9557,17 @@
       </c>
       <c r="H271">
         <f>H270+C271</f>
-        <v>237360216.43778187</v>
+        <v>4846676.9370507533</v>
       </c>
     </row>
     <row r="272" spans="1:57" ht="19.5">
       <c r="C272">
         <f>H271*D272</f>
-        <v>9321956.9080276191</v>
+        <v>138364.92535817716</v>
       </c>
       <c r="D272">
         <f>D271</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E272" t="s">
         <v>16</v>
@@ -9439,17 +9577,17 @@
       </c>
       <c r="H272">
         <f>H271+C272</f>
-        <v>246682173.34580949</v>
+        <v>4985041.8624089304</v>
       </c>
     </row>
     <row r="273" spans="1:57" ht="19.5">
       <c r="C273">
         <f>H272*D273</f>
-        <v>9688062.4075054657</v>
+        <v>142315.0241202836</v>
       </c>
       <c r="D273">
         <f>D272</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E273" t="s">
         <v>17</v>
@@ -9459,17 +9597,17 @@
       </c>
       <c r="H273">
         <f>H272+C273</f>
-        <v>256370235.75331494</v>
+        <v>5127356.8865292137</v>
       </c>
     </row>
     <row r="274" spans="1:57" ht="19.5">
       <c r="C274">
         <f>H273*D274</f>
-        <v>10068546.136583632</v>
+        <v>146377.89192548388</v>
       </c>
       <c r="D274">
         <f>D273</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E274" t="s">
         <v>11</v>
@@ -9479,17 +9617,17 @@
       </c>
       <c r="H274">
         <f>H273+C274</f>
-        <v>266438781.88989857</v>
+        <v>5273734.7784546977</v>
       </c>
     </row>
     <row r="275" spans="1:57" ht="19.5">
       <c r="C275">
         <f>H274*D275</f>
-        <v>10463972.778083697</v>
+        <v>150556.74815077242</v>
       </c>
       <c r="D275">
         <f>D274</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E275" t="s">
         <v>12</v>
@@ -9499,17 +9637,17 @@
       </c>
       <c r="H275">
         <f>H274+C275</f>
-        <v>276902754.66798228</v>
+        <v>5424291.5266054701</v>
       </c>
     </row>
     <row r="276" spans="1:57" ht="19.5">
       <c r="C276">
         <f>H275*D276</f>
-        <v>10874929.191875303</v>
+        <v>154854.90408124131</v>
       </c>
       <c r="D276">
         <f>D275</f>
-        <v>0.039273459756349438</v>
+        <v>0.028548411036113639</v>
       </c>
       <c r="E276" t="s">
         <v>13</v>
@@ -9519,7 +9657,7 @@
       </c>
       <c r="H276">
         <f>H275+C276</f>
-        <v>287777683.85985756</v>
+        <v>5579146.4306867113</v>
       </c>
     </row>
     <row r="277" spans="1:57" ht="19.5">

--- a/converted.d/covid-19_progression_math.xlsx
+++ b/converted.d/covid-19_progression_math.xlsx
@@ -248,7 +248,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Last revision:  Sunday, 05 Apr 2020 21:15 UTC</t>
+          <t>Last revision:  Tuesday, 06 Apr 2020 05:16 UTC</t>
         </is>
       </c>
     </row>
@@ -329,7 +329,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>100x</t>
+          <t>50x</t>
         </is>
       </c>
       <c r="H5" t="s">
@@ -499,8 +499,8 @@
         <v>43898</v>
       </c>
       <c r="G8" s="2">
-        <f>H8*100</f>
-        <v>100</v>
+        <f>H8*50</f>
+        <v>50</v>
       </c>
       <c r="H8">
         <f>H7+C8</f>
@@ -550,8 +550,8 @@
         <v>43899</v>
       </c>
       <c r="G9" s="2">
-        <f>H9*100</f>
-        <v>200</v>
+        <f>H9*50</f>
+        <v>100</v>
       </c>
       <c r="H9">
         <f>H8+C9</f>
@@ -603,8 +603,8 @@
         <v>43900</v>
       </c>
       <c r="G10" s="2">
-        <f>H10*100</f>
-        <v>200</v>
+        <f>H10*50</f>
+        <v>100</v>
       </c>
       <c r="H10">
         <f>H9+C10</f>
@@ -662,8 +662,8 @@
         <v>43901</v>
       </c>
       <c r="G11" s="2">
-        <f>H11*100</f>
-        <v>300</v>
+        <f>H11*50</f>
+        <v>150</v>
       </c>
       <c r="H11">
         <f>H10+C11</f>
@@ -725,8 +725,8 @@
         <v>43902</v>
       </c>
       <c r="G12" s="2">
-        <f>H12*100</f>
-        <v>600</v>
+        <f>H12*50</f>
+        <v>300</v>
       </c>
       <c r="H12">
         <f>H11+C12</f>
@@ -788,8 +788,8 @@
         <v>43903</v>
       </c>
       <c r="G13" s="2">
-        <f>H13*100</f>
-        <v>1099.9999999997999</v>
+        <f>H13*50</f>
+        <v>549.99999999989996</v>
       </c>
       <c r="H13">
         <f>H12+C13</f>
@@ -850,8 +850,8 @@
         <v>43904</v>
       </c>
       <c r="G14" s="2">
-        <f>H14*100</f>
-        <v>1999.9999999998363</v>
+        <f>H14*50</f>
+        <v>999.99999999991815</v>
       </c>
       <c r="H14">
         <f>H13+C14</f>
@@ -921,8 +921,8 @@
         <v>43905</v>
       </c>
       <c r="G15" s="2">
-        <f>H15*100</f>
-        <v>2599.9999999997872</v>
+        <f>H15*50</f>
+        <v>1299.9999999998936</v>
       </c>
       <c r="H15">
         <f>H14+C15</f>
@@ -992,8 +992,8 @@
         <v>43906</v>
       </c>
       <c r="G16" s="2">
-        <f>H16*100</f>
-        <v>4099.9999999994643</v>
+        <f>H16*50</f>
+        <v>2049.9999999997322</v>
       </c>
       <c r="H16">
         <f>H15+C16</f>
@@ -1063,8 +1063,8 @@
         <v>43907</v>
       </c>
       <c r="G17" s="2">
-        <f>H17*100</f>
-        <v>6799.9999999997117</v>
+        <f>H17*50</f>
+        <v>3399.9999999998558</v>
       </c>
       <c r="H17">
         <f>H16+C17</f>
@@ -1134,8 +1134,8 @@
         <v>43908</v>
       </c>
       <c r="G18" s="2">
-        <f>H18*100</f>
-        <v>9599.9999999971915</v>
+        <f>H18*50</f>
+        <v>4799.9999999985957</v>
       </c>
       <c r="H18">
         <f>H17+C18</f>
@@ -1225,8 +1225,8 @@
         <v>43909</v>
       </c>
       <c r="G19" s="2">
-        <f>H19*100</f>
-        <v>15899.999999995351</v>
+        <f>H19*50</f>
+        <v>7949.9999999976753</v>
       </c>
       <c r="H19">
         <f>H18+C19</f>
@@ -1320,8 +1320,8 @@
         <v>43910</v>
       </c>
       <c r="G20" s="2">
-        <f>H20*100</f>
-        <v>19400.000000001928</v>
+        <f>H20*50</f>
+        <v>9700.0000000009641</v>
       </c>
       <c r="H20">
         <f>H19+C20</f>
@@ -1431,8 +1431,8 @@
         <v>43911</v>
       </c>
       <c r="G21" s="2">
-        <f>H21*100</f>
-        <v>22299.999999993015</v>
+        <f>H21*50</f>
+        <v>11149.999999996508</v>
       </c>
       <c r="H21">
         <f>H20+C21</f>
@@ -1574,8 +1574,8 @@
         <v>43912</v>
       </c>
       <c r="G22" s="2">
-        <f>H22*100</f>
-        <v>32699.999999889758</v>
+        <f>H22*50</f>
+        <v>16349.999999944879</v>
       </c>
       <c r="H22">
         <f>H21+C22</f>
@@ -1725,8 +1725,8 @@
         <v>43913</v>
       </c>
       <c r="G23" s="2">
-        <f>H23*100</f>
-        <v>41499.999999856991</v>
+        <f>H23*50</f>
+        <v>20749.999999928496</v>
       </c>
       <c r="H23">
         <f>H22+C23</f>
@@ -1876,8 +1876,8 @@
         <v>43914</v>
       </c>
       <c r="G24" s="2">
-        <f>H24*100</f>
-        <v>61799.999999786043</v>
+        <f>H24*50</f>
+        <v>30899.999999893022</v>
       </c>
       <c r="H24">
         <f>H23+C24</f>
@@ -2027,8 +2027,8 @@
         <v>43915</v>
       </c>
       <c r="G25" s="2">
-        <f>H25*100</f>
-        <v>87499.999999697466</v>
+        <f>H25*50</f>
+        <v>43749.999999848733</v>
       </c>
       <c r="H25">
         <f>H24+C25</f>
@@ -2178,8 +2178,8 @@
         <v>43916</v>
       </c>
       <c r="G26" s="2">
-        <f>H26*100</f>
-        <v>101199.9999996126</v>
+        <f>H26*50</f>
+        <v>50599.999999806299</v>
       </c>
       <c r="H26">
         <f>H25+C26</f>
@@ -2329,8 +2329,8 @@
         <v>43917</v>
       </c>
       <c r="G27" s="2">
-        <f>H27*100</f>
-        <v>129099.99999902579</v>
+        <f>H27*50</f>
+        <v>64549.999999512896</v>
       </c>
       <c r="H27">
         <f>H26+C27</f>
@@ -2480,8 +2480,8 @@
         <v>43918</v>
       </c>
       <c r="G28" s="2">
-        <f>H28*100</f>
-        <v>152399.99999886699</v>
+        <f>H28*50</f>
+        <v>76199.999999433494</v>
       </c>
       <c r="H28">
         <f>H27+C28</f>
@@ -2631,8 +2631,8 @@
         <v>43919</v>
       </c>
       <c r="G29" s="2">
-        <f>H29*100</f>
-        <v>199299.99999848311</v>
+        <f>H29*50</f>
+        <v>99649.999999241554</v>
       </c>
       <c r="H29">
         <f>H28+C29</f>
@@ -2783,8 +2783,8 @@
         <v>43920</v>
       </c>
       <c r="G30" s="2">
-        <f>H30*100</f>
-        <v>257099.99999796436</v>
+        <f>H30*50</f>
+        <v>128549.99999898218</v>
       </c>
       <c r="H30">
         <f>H29+C30</f>
@@ -2943,8 +2943,8 @@
         <v>43921</v>
       </c>
       <c r="G31" s="2">
-        <f>H31*100</f>
-        <v>312799.99999753846</v>
+        <f>H31*50</f>
+        <v>156399.99999876923</v>
       </c>
       <c r="H31">
         <f>H30+C31</f>
@@ -3102,8 +3102,8 @@
         <v>43922</v>
       </c>
       <c r="G32" s="2">
-        <f>H32*100</f>
-        <v>355699.9999984809</v>
+        <f>H32*50</f>
+        <v>177849.99999924045</v>
       </c>
       <c r="H32">
         <f>H31+C32</f>
@@ -3261,8 +3261,8 @@
         <v>43923</v>
       </c>
       <c r="G33" s="2">
-        <f>H33*100</f>
-        <v>382399.99999835552</v>
+        <f>H33*50</f>
+        <v>191199.99999917776</v>
       </c>
       <c r="H33">
         <f>H32+C33</f>
@@ -3420,8 +3420,8 @@
         <v>43924</v>
       </c>
       <c r="G34" s="2">
-        <f>H34*100</f>
-        <v>491399.99999628682</v>
+        <f>H34*50</f>
+        <v>245699.99999814341</v>
       </c>
       <c r="H34">
         <f>H33+C34</f>
@@ -3579,8 +3579,8 @@
         <v>43925</v>
       </c>
       <c r="G35" s="2">
-        <f>H35*100</f>
-        <v>527599.99999602628</v>
+        <f>H35*50</f>
+        <v>263799.99999801314</v>
       </c>
       <c r="H35">
         <f>H34+C35</f>
@@ -3589,10 +3589,8 @@
       <c r="I35">
         <v>5276</v>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>*308850*</t>
-        </is>
+      <c r="J35">
+        <v>308850</v>
       </c>
       <c r="K35">
         <f>M35+Q35+U35+Y35+AC35+AG35+AK35+AO35+AS35</f>
@@ -3622,11 +3620,6 @@
         <f>S34+8</f>
         <v>26</v>
       </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>UPDATED - finished this line's entry and won't require further update.</t>
-        </is>
-      </c>
       <c r="U35">
         <f>U34+133</f>
         <v>1024</v>
@@ -3718,11 +3711,6 @@
       <c r="AY35">
         <f>O35+S35+W35+AA35+AE35+AI35+AM35+AQ35+AU35</f>
         <v>165</v>
-      </c>
-      <c r="AZ35" t="inlineStr">
-        <is>
-          <t>CORRECT - no errors seen.  Ready for permanent record.</t>
-        </is>
       </c>
       <c r="BA35" s="5">
         <v>43877</v>
@@ -3750,8 +3738,8 @@
         <v>43926</v>
       </c>
       <c r="G36" s="2">
-        <f>H36*100</f>
-        <v>567499.99999571464</v>
+        <f>H36*50</f>
+        <v>283749.99999785732</v>
       </c>
       <c r="H36">
         <f>H35+C36</f>
@@ -3760,625 +3748,783 @@
       <c r="I36">
         <v>5675</v>
       </c>
-      <c r="J36" s="1"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>*337072*</t>
+        </is>
+      </c>
       <c r="K36">
         <f>M36+Q36+U36+Y36+AC36+AG36+AK36+AO36+AS36</f>
         <v>5675</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="M36">
+        <f>M35+15</f>
+        <v>197</v>
+      </c>
+      <c r="N36">
+        <f>N35+0</f>
+        <v>15</v>
+      </c>
+      <c r="O36">
+        <f>O35+1</f>
+        <v>6</v>
+      </c>
+      <c r="Q36">
+        <f>Q35+25</f>
+        <v>751</v>
+      </c>
+      <c r="R36">
+        <f>R35+5</f>
+        <v>189</v>
+      </c>
+      <c r="S36">
+        <f>S35+3</f>
+        <v>29</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>UPDATED - finished this line's entry and won't require further update.</t>
+        </is>
+      </c>
+      <c r="U36">
+        <f>U35+138</f>
+        <v>1162</v>
+      </c>
+      <c r="V36">
+        <f>V35+48</f>
+        <v>372</v>
+      </c>
+      <c r="W36">
+        <f>W35+7</f>
+        <v>36</v>
+      </c>
+      <c r="Y36">
+        <f>Y35+226</f>
+        <v>3050</v>
+      </c>
+      <c r="Z36">
+        <f>Z35+56</f>
+        <v>531</v>
+      </c>
+      <c r="AA36">
+        <f>AA35+10</f>
+        <v>96</v>
+      </c>
+      <c r="AC36">
+        <f>AC35+10</f>
+        <v>110</v>
+      </c>
+      <c r="AD36">
+        <f>AD35+0</f>
+        <v>19</v>
+      </c>
+      <c r="AE36">
+        <f>AE35+1</f>
+        <v>5</v>
+      </c>
+      <c r="AG36">
+        <f>AG35+3</f>
+        <v>94</v>
+      </c>
+      <c r="AH36">
+        <f>AH35+0</f>
+        <v>3</v>
+      </c>
+      <c r="AI36">
+        <f>AI35+1</f>
+        <v>11</v>
+      </c>
+      <c r="AK36">
+        <f>AK35+1</f>
+        <v>32</v>
+      </c>
+      <c r="AL36">
+        <f>AL35+0</f>
+        <v>3</v>
+      </c>
+      <c r="AM36">
+        <f>AM35+0</f>
+        <v>1</v>
+      </c>
+      <c r="AO36">
+        <f>AO35+0</f>
+        <v>57</v>
+      </c>
+      <c r="AP36">
+        <f>AP35+0</f>
+        <v>10</v>
+      </c>
+      <c r="AQ36">
+        <f>AQ35+1</f>
+        <v>4</v>
+      </c>
+      <c r="AS36">
+        <f>AS35+-19</f>
+        <v>222</v>
+      </c>
+      <c r="AU36">
+        <f>AU35+0</f>
+        <v>1</v>
+      </c>
+      <c r="AW36">
+        <f>M36+Q36+U36+Y36+AC36+AG36+AK36+AO36+AS36</f>
+        <v>5675</v>
+      </c>
+      <c r="AX36">
+        <f>N36+R36+V36+Z36+AD36+AH36+AL36+AP36+AT36</f>
+        <v>1142</v>
+      </c>
+      <c r="AY36">
+        <f>O36+S36+W36+AA36+AE36+AI36+AM36+AQ36+AU36</f>
+        <v>189</v>
+      </c>
+      <c r="AZ36" t="inlineStr">
+        <is>
+          <t>CORRECT - no errors seen.  Ready for permanent record.</t>
+        </is>
+      </c>
+      <c r="BA36" s="5">
+        <v>43878</v>
+      </c>
+      <c r="BB36">
+        <v>13</v>
+      </c>
+      <c r="BC36">
+        <f>(BB36/BB35)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:65" ht="19.5">
+      <c r="C37">
+        <f>H36*D37</f>
+        <v>1230.9999999880292</v>
+      </c>
+      <c r="D37">
+        <v>0.21691629955899999</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="5">
+        <v>43927</v>
+      </c>
+      <c r="G37" s="2">
+        <f>H37*50</f>
+        <v>345299.99999725877</v>
+      </c>
+      <c r="H37">
+        <f>H36+C37</f>
+        <v>6905.9999999451757</v>
+      </c>
+      <c r="I37">
+        <v>6906</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37">
+        <f>M37+Q37+U37+Y37+AC37+AG37+AK37+AO37+AS37</f>
+        <v>6906</v>
+      </c>
+      <c r="L37" t="inlineStr">
         <is>
           <t>NEW:</t>
         </is>
       </c>
-      <c r="M36">
-        <f>M35+15</f>
-        <v>197</v>
-      </c>
-      <c r="N36">
-        <f>N35+0</f>
+      <c r="M37">
+        <f>M36+33</f>
+        <v>230</v>
+      </c>
+      <c r="N37">
+        <f>N36+0</f>
         <v>15</v>
       </c>
-      <c r="O36">
-        <f>O35+1</f>
-        <v>6</v>
-      </c>
-      <c r="Q36">
-        <f>Q35+25</f>
-        <v>751</v>
-      </c>
-      <c r="R36">
-        <f>R35+5</f>
-        <v>189</v>
-      </c>
-      <c r="S36">
-        <f>S35+3</f>
-        <v>29</v>
-      </c>
-      <c r="T36" t="inlineStr">
+      <c r="O37">
+        <f>O36+2</f>
+        <v>8</v>
+      </c>
+      <c r="Q37">
+        <f>Q36+131</f>
+        <v>882</v>
+      </c>
+      <c r="R37">
+        <f>R36+24</f>
+        <v>213</v>
+      </c>
+      <c r="S37">
+        <f>S36+2</f>
+        <v>31</v>
+      </c>
+      <c r="T37" t="inlineStr">
         <is>
           <t>PROPOSED - open to proposal now - subject to revision.</t>
         </is>
       </c>
-      <c r="U36">
-        <f>U35+138</f>
-        <v>1162</v>
-      </c>
-      <c r="V36">
-        <f>V35+48</f>
-        <v>372</v>
-      </c>
-      <c r="W36">
-        <f>W35+7</f>
-        <v>36</v>
-      </c>
-      <c r="Y36">
-        <f>Y35+226</f>
-        <v>3050</v>
-      </c>
-      <c r="Z36">
-        <f>Z35+56</f>
-        <v>531</v>
-      </c>
-      <c r="AA36">
-        <f>AA35+10</f>
-        <v>96</v>
-      </c>
-      <c r="AC36">
-        <f>AC35+10</f>
-        <v>110</v>
-      </c>
-      <c r="AD36">
-        <f>AD35+0</f>
-        <v>19</v>
-      </c>
-      <c r="AE36">
-        <f>AE35+1</f>
-        <v>5</v>
-      </c>
-      <c r="AG36">
-        <f>AG35+3</f>
-        <v>94</v>
-      </c>
-      <c r="AH36">
-        <f>AH35+0</f>
+      <c r="U37">
+        <f>U36+306</f>
+        <v>1468</v>
+      </c>
+      <c r="V37">
+        <f>V36+12</f>
+        <v>384</v>
+      </c>
+      <c r="W37">
+        <f>W36+5</f>
+        <v>41</v>
+      </c>
+      <c r="Y37">
+        <f>Y36+669</f>
+        <v>3719</v>
+      </c>
+      <c r="Z37">
+        <f>Z36+41</f>
+        <v>572</v>
+      </c>
+      <c r="AA37">
+        <f>AA36+5</f>
+        <v>101</v>
+      </c>
+      <c r="AC37">
+        <f>AC36+25</f>
+        <v>135</v>
+      </c>
+      <c r="AD37">
+        <f>AD36+3</f>
+        <v>22</v>
+      </c>
+      <c r="AE37">
+        <f>AE36+2</f>
+        <v>7</v>
+      </c>
+      <c r="AG37">
+        <f>AG36+9</f>
+        <v>103</v>
+      </c>
+      <c r="AH37">
+        <f>AH36+0</f>
         <v>3</v>
       </c>
-      <c r="AI36">
-        <f>AI35+1</f>
-        <v>11</v>
-      </c>
-      <c r="AK36">
-        <f>AK35+1</f>
-        <v>32</v>
-      </c>
-      <c r="AL36">
-        <f>AL35+0</f>
-        <v>3</v>
-      </c>
-      <c r="AM36">
-        <f>AM35+0</f>
+      <c r="AI37">
+        <f>AI36+2</f>
+        <v>13</v>
+      </c>
+      <c r="AK37">
+        <f>AK36+8</f>
+        <v>40</v>
+      </c>
+      <c r="AL37">
+        <f>AL36+-1</f>
+        <v>2</v>
+      </c>
+      <c r="AM37">
+        <f>AM36+0</f>
         <v>1</v>
       </c>
-      <c r="AO36">
-        <f>AO35+0</f>
-        <v>57</v>
-      </c>
-      <c r="AP36">
-        <f>AP35+0</f>
+      <c r="AO37">
+        <f>AO36+8</f>
+        <v>65</v>
+      </c>
+      <c r="AP37">
+        <f>AP36+0</f>
         <v>10</v>
       </c>
-      <c r="AQ36">
-        <f>AQ35+1</f>
+      <c r="AQ37">
+        <f>AQ36+0</f>
         <v>4</v>
       </c>
-      <c r="AS36">
-        <f>AS35+-19</f>
-        <v>222</v>
-      </c>
-      <c r="AU36">
-        <f>AU35+0</f>
-        <v>1</v>
-      </c>
-      <c r="AW36">
-        <f>M36+Q36+U36+Y36+AC36+AG36+AK36+AO36+AS36</f>
-        <v>5675</v>
-      </c>
-      <c r="AX36">
-        <f>N36+R36+V36+Z36+AD36+AH36+AL36+AP36+AT36</f>
-        <v>1142</v>
-      </c>
-      <c r="AY36">
-        <f>O36+S36+W36+AA36+AE36+AI36+AM36+AQ36+AU36</f>
-        <v>189</v>
-      </c>
-      <c r="BA36" s="5">
-        <v>43878</v>
-      </c>
-      <c r="BB36">
+      <c r="AS37">
+        <f>AS36+42</f>
+        <v>264</v>
+      </c>
+      <c r="AU37">
+        <f>AU36+-1</f>
+        <v>0</v>
+      </c>
+      <c r="AW37">
+        <f>M37+Q37+U37+Y37+AC37+AG37+AK37+AO37+AS37</f>
+        <v>6906</v>
+      </c>
+      <c r="AX37">
+        <f>N37+R37+V37+Z37+AD37+AH37+AL37+AP37+AT37</f>
+        <v>1221</v>
+      </c>
+      <c r="AY37">
+        <f>O37+S37+W37+AA37+AE37+AI37+AM37+AQ37+AU37</f>
+        <v>206</v>
+      </c>
+      <c r="BA37" s="5">
+        <v>43879</v>
+      </c>
+      <c r="BB37">
         <v>13</v>
       </c>
-      <c r="BC36">
-        <f>(BB36/BB35)-1</f>
+      <c r="BC37">
+        <f>(BB37/BB36)-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:65" ht="19.5">
-      <c r="C37">
-        <f>H36*D37</f>
-        <v>393.73813216543499</v>
-      </c>
-      <c r="D37">
-        <f>D36/1.0900000000000001</f>
-        <v>0.069381168664036694</v>
-      </c>
-      <c r="E37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" t="inlineStr">
+    <row r="38" spans="1:65" ht="19.5">
+      <c r="C38">
+        <f>H37*D38</f>
+        <v>1349.571139407713</v>
+      </c>
+      <c r="D38">
+        <f>D37/1.1100000000000001</f>
+        <v>0.19542008969279276</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="inlineStr">
         <is>
           <t>day two</t>
         </is>
       </c>
-      <c r="G37" s="2">
-        <f>H37*100</f>
-        <v>606873.81321225816</v>
-      </c>
-      <c r="H37">
-        <f>H36+C37</f>
-        <v>6068.7381321225812</v>
-      </c>
-      <c r="J37" s="1"/>
-      <c r="BA37" s="5">
-        <v>43879</v>
-      </c>
-      <c r="BB37">
+      <c r="G38" s="2">
+        <f>H38*50</f>
+        <v>412778.55696764443</v>
+      </c>
+      <c r="H38">
+        <f>H37+C38</f>
+        <v>8255.5711393528891</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="BA38" s="5">
+        <v>43880</v>
+      </c>
+      <c r="BB38">
         <v>13</v>
       </c>
-      <c r="BC37">
-        <f>(BB37/BB36)-1</f>
+      <c r="BC38">
+        <f>(BB38/BB37)-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:65" ht="19.5">
-      <c r="C38">
-        <f>H37*D38</f>
-        <v>386.2900402960255</v>
-      </c>
-      <c r="D38">
-        <f>D37/1.0900000000000001</f>
-        <v>0.063652448315629995</v>
-      </c>
-      <c r="E38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" t="inlineStr">
+    <row r="39" spans="1:65" ht="19.5">
+      <c r="C39">
+        <f>H38*D39</f>
+        <v>1453.427434700516</v>
+      </c>
+      <c r="D39">
+        <f>D38/1.1100000000000001</f>
+        <v>0.17605413485837185</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="inlineStr">
         <is>
           <t>day three</t>
         </is>
       </c>
-      <c r="G38" s="2">
-        <f>H38*100</f>
-        <v>645502.81724186067</v>
-      </c>
-      <c r="H38">
-        <f>H37+C38</f>
-        <v>6455.028172418607</v>
-      </c>
-      <c r="J38" s="1"/>
-      <c r="BA38" s="5">
-        <v>43880</v>
-      </c>
-      <c r="BB38">
-        <v>13</v>
-      </c>
-      <c r="BC38">
-        <f>(BB38/BB37)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:65" ht="19.5">
-      <c r="C39">
-        <f>H38*D39</f>
-        <v>376.95261203744121</v>
-      </c>
-      <c r="D39">
-        <f>D38/1.0900000000000001</f>
-        <v>0.058396741573972469</v>
-      </c>
-      <c r="E39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>day four</t>
-        </is>
-      </c>
       <c r="G39" s="2">
-        <f>H39*100</f>
-        <v>683198.07844560477</v>
+        <f>H39*50</f>
+        <v>485449.92870267027</v>
       </c>
       <c r="H39">
         <f>H38+C39</f>
-        <v>6831.9807844560482</v>
+        <v>9708.9985740534048</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
           <t>*preliminary*</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="BA39" s="5">
+        <v>43881</v>
+      </c>
+      <c r="BB39">
+        <v>13</v>
+      </c>
+      <c r="BC39">
+        <f>(BB39/BB38)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:65" ht="19.5">
+      <c r="C40">
+        <f>H39*D40</f>
+        <v>1539.9183281947189</v>
+      </c>
+      <c r="D40">
+        <f>D39/1.1100000000000001</f>
+        <v>0.15860732870123589</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>day four</t>
+        </is>
+      </c>
+      <c r="G40" s="2">
+        <f>H40*50</f>
+        <v>562445.84511240618</v>
+      </c>
+      <c r="H40">
+        <f>H39+C40</f>
+        <v>11248.916902248124</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" t="inlineStr">
         <is>
           <t>TODAY:</t>
         </is>
       </c>
-      <c r="M39" s="6">
-        <f>(M36/M35)-1</f>
-        <v>0.082417582417582347</v>
-      </c>
-      <c r="N39" s="6">
-        <f>(N36/N35)-1</f>
+      <c r="M40" s="6">
+        <f>(M37/M36)-1</f>
+        <v>0.1675126903553299</v>
+      </c>
+      <c r="N40" s="6">
+        <f>(N37/N36)-1</f>
         <v>0</v>
       </c>
-      <c r="O39" s="6">
-        <f>(O36/O35)-1</f>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="6">
-        <f>(Q36/Q35)-1</f>
-        <v>0.034435261707989051</v>
-      </c>
-      <c r="R39" s="6">
-        <f>(R36/R35)-1</f>
-        <v>0.027173913043478271</v>
-      </c>
-      <c r="S39" s="6">
-        <f>(S36/S35)-1</f>
-        <v>0.11538461538461542</v>
-      </c>
-      <c r="T39" s="4"/>
-      <c r="U39" s="6">
-        <f>(U36/U35)-1</f>
-        <v>0.134765625</v>
-      </c>
-      <c r="V39" s="6">
-        <f>(V36/V35)-1</f>
-        <v>0.14814814814814814</v>
-      </c>
-      <c r="W39" s="6">
-        <f>(W36/W35)-1</f>
-        <v>0.24137931034482762</v>
-      </c>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="6">
-        <f>(Y36/Y35)-1</f>
-        <v>0.080028328611898125</v>
-      </c>
-      <c r="Z39" s="6">
-        <f>(Z36/Z35)-1</f>
-        <v>0.11789473684210527</v>
-      </c>
-      <c r="AA39" s="6">
-        <f>(AA36/AA35)-1</f>
-        <v>0.11627906976744184</v>
-      </c>
-      <c r="AB39" s="4"/>
-      <c r="AC39" s="6">
-        <f>(AC36/AC35)-1</f>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AD39" s="6">
-        <f>(AD36/AD35)-1</f>
+      <c r="O40" s="6">
+        <f>(O37/O36)-1</f>
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="6">
+        <f>(Q37/Q36)-1</f>
+        <v>0.174434087882823</v>
+      </c>
+      <c r="R40" s="6">
+        <f>(R37/R36)-1</f>
+        <v>0.12698412698412698</v>
+      </c>
+      <c r="S40" s="6">
+        <f>(S37/S36)-1</f>
+        <v>0.068965517241379226</v>
+      </c>
+      <c r="T40" s="4"/>
+      <c r="U40" s="6">
+        <f>(U37/U36)-1</f>
+        <v>0.26333907056798633</v>
+      </c>
+      <c r="V40" s="6">
+        <f>(V37/V36)-1</f>
+        <v>0.032258064516129004</v>
+      </c>
+      <c r="W40" s="6">
+        <f>(W37/W36)-1</f>
+        <v>0.13888888888888884</v>
+      </c>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="6">
+        <f>(Y37/Y36)-1</f>
+        <v>0.21934426229508186</v>
+      </c>
+      <c r="Z40" s="6">
+        <f>(Z37/Z36)-1</f>
+        <v>0.077212806026365266</v>
+      </c>
+      <c r="AA40" s="6">
+        <f>(AA37/AA36)-1</f>
+        <v>0.052083333333333259</v>
+      </c>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="6">
+        <f>(AC37/AC36)-1</f>
+        <v>0.22727272727272729</v>
+      </c>
+      <c r="AD40" s="6">
+        <f>(AD37/AD36)-1</f>
+        <v>0.15789473684210531</v>
+      </c>
+      <c r="AE40" s="6">
+        <f>(AE37/AE36)-1</f>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="6">
+        <f>(AG37/AG36)-1</f>
+        <v>0.095744680851063801</v>
+      </c>
+      <c r="AH40" s="6">
+        <f>(AH37/AH36)-1</f>
         <v>0</v>
       </c>
-      <c r="AE39" s="6">
-        <f>(AE36/AE35)-1</f>
+      <c r="AI40" s="6">
+        <f>(AI37/AI36)-1</f>
+        <v>0.18181818181818188</v>
+      </c>
+      <c r="AJ40" s="4"/>
+      <c r="AK40" s="6">
+        <f>(AK37/AK36)-1</f>
         <v>0.25</v>
       </c>
-      <c r="AF39" s="4"/>
-      <c r="AG39" s="6">
-        <f>(AG36/AG35)-1</f>
-        <v>0.032967032967033072</v>
-      </c>
-      <c r="AH39" s="6">
-        <f>(AH36/AH35)-1</f>
+      <c r="AL40" s="6">
+        <f>(AL37/AL36)-1</f>
+        <v>-0.33333333333333337</v>
+      </c>
+      <c r="AM40" s="6">
+        <f>(AM37/AM36)-1</f>
         <v>0</v>
       </c>
-      <c r="AI39" s="6">
-        <f>(AI36/AI35)-1</f>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AJ39" s="4"/>
-      <c r="AK39" s="6">
-        <f>(AK36/AK35)-1</f>
-        <v>0.032258064516129004</v>
-      </c>
-      <c r="AL39" s="6">
-        <f>(AL36/AL35)-1</f>
+      <c r="AN40" s="4"/>
+      <c r="AO40" s="6">
+        <f>(AO37/AO36)-1</f>
+        <v>0.14035087719298245</v>
+      </c>
+      <c r="AP40" s="6">
+        <f>(AP37/AP36)-1</f>
         <v>0</v>
       </c>
-      <c r="AM39" s="6">
-        <f>(AM36/AM35)-1</f>
+      <c r="AQ40" s="6">
+        <f>(AQ37/AQ36)-1</f>
         <v>0</v>
       </c>
-      <c r="AN39" s="4"/>
-      <c r="AO39" s="6">
-        <f>(AO36/AO35)-1</f>
-        <v>0</v>
-      </c>
-      <c r="AP39" s="6">
-        <f>(AP36/AP35)-1</f>
-        <v>0</v>
-      </c>
-      <c r="AQ39" s="6">
-        <f>(AQ36/AQ35)-1</f>
-        <v>0.33333333333333326</v>
-      </c>
-      <c r="AR39" s="4"/>
-      <c r="AS39" s="6">
-        <f>(AS36/AS35)-1</f>
-        <v>-0.078838174273858974</v>
-      </c>
-      <c r="AT39" s="6"/>
-      <c r="AU39" s="6">
-        <f>(AU36/AU35)-1</f>
-        <v>0</v>
-      </c>
-      <c r="AV39" s="4"/>
-      <c r="AW39" s="6">
-        <f>(AW36/AW35)-1</f>
-        <v>0.075625473843821123</v>
-      </c>
-      <c r="AX39" s="6">
-        <f>(AX36/AX35)-1</f>
-        <v>0.10551790900290414</v>
-      </c>
-      <c r="AY39" s="6">
-        <f>(AY36/AY35)-1</f>
-        <v>0.1454545454545455</v>
-      </c>
-      <c r="BA39" s="5">
-        <v>43881</v>
-      </c>
-      <c r="BB39">
-        <v>13</v>
-      </c>
-      <c r="BC39">
-        <f>(BB39/BB38)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:65" ht="19.5">
-      <c r="C40">
-        <f>H39*D40</f>
-        <v>366.02331771396837</v>
-      </c>
-      <c r="D40">
-        <f>D39/1.0900000000000001</f>
-        <v>0.053574992269699508</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="AR40" s="4"/>
+      <c r="AS40" s="6">
+        <f>(AS37/AS36)-1</f>
+        <v>0.18918918918918926</v>
+      </c>
+      <c r="AT40" s="6"/>
+      <c r="AU40" s="6">
+        <f>(AU37/AU36)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="AV40" s="4"/>
+      <c r="AW40" s="6">
+        <f>(AW37/AW36)-1</f>
+        <v>0.21691629955947134</v>
+      </c>
+      <c r="AX40" s="6">
+        <f>(AX37/AX36)-1</f>
+        <v>0.069176882661996508</v>
+      </c>
+      <c r="AY40" s="6">
+        <f>(AY37/AY36)-1</f>
+        <v>0.089947089947089998</v>
+      </c>
+      <c r="BA40" s="5">
+        <v>43882</v>
+      </c>
+      <c r="BB40">
         <v>15</v>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="BC40">
+        <f>(BB40/BB39)-1</f>
+        <v>0.15384615384615374</v>
+      </c>
+    </row>
+    <row r="41" spans="1:65" ht="19.5">
+      <c r="C41">
+        <f>H40*D41</f>
+        <v>1607.3519465295101</v>
+      </c>
+      <c r="D41">
+        <f>D40/1.1100000000000001</f>
+        <v>0.14288948531642873</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" t="inlineStr">
         <is>
           <t>day five</t>
         </is>
       </c>
-      <c r="G40" s="2">
-        <f>H40*100</f>
-        <v>719800.41021700157</v>
-      </c>
-      <c r="H40">
-        <f>H39+C40</f>
-        <v>7198.0041021700163</v>
-      </c>
-      <c r="J40" s="1"/>
-      <c r="BA40" s="5">
-        <v>43882</v>
-      </c>
-      <c r="BB40">
+      <c r="G41" s="2">
+        <f>H41*50</f>
+        <v>642813.44243888173</v>
+      </c>
+      <c r="H41">
+        <f>H40+C41</f>
+        <v>12856.268848777634</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="BA41" s="5">
+        <v>43883</v>
+      </c>
+      <c r="BB41">
         <v>15</v>
       </c>
-      <c r="BC40">
-        <f>(BB40/BB39)-1</f>
-        <v>0.15384615384615374</v>
-      </c>
-    </row>
-    <row r="41" spans="1:65" ht="19.5">
-      <c r="C41">
-        <f>H40*D41</f>
-        <v>353.79175608350823</v>
-      </c>
-      <c r="D41">
-        <f>D40/1.0900000000000001</f>
-        <v>0.049151369054770189</v>
-      </c>
-      <c r="E41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" t="inlineStr">
+      <c r="BC41">
+        <f>(BB41/BB40)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:65" ht="19.5">
+      <c r="C42">
+        <f>H41*D42</f>
+        <v>1654.9780530553799</v>
+      </c>
+      <c r="D42">
+        <f>D41/1.1100000000000001</f>
+        <v>0.12872926605083668</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" t="inlineStr">
         <is>
           <t>above: moving target</t>
         </is>
       </c>
-      <c r="G41" s="2">
-        <f>H41*100</f>
-        <v>755179.58582535246</v>
-      </c>
-      <c r="H41">
-        <f>H40+C41</f>
-        <v>7551.7958582535248</v>
-      </c>
-      <c r="BA41" s="5">
-        <v>43883</v>
-      </c>
-      <c r="BB41">
-        <v>15</v>
-      </c>
-      <c r="BC41">
-        <f>(BB41/BB40)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:65" ht="19.5">
-      <c r="C42">
-        <f>H41*D42</f>
-        <v>340.53312408743483</v>
-      </c>
-      <c r="D42">
-        <f>D41/1.0900000000000001</f>
-        <v>0.045092999132816683</v>
-      </c>
-      <c r="E42" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="5">
-        <v>43932</v>
-      </c>
       <c r="G42" s="2">
-        <f>H42*100</f>
-        <v>789232.89823409601</v>
+        <f>H42*50</f>
+        <v>725562.34509165073</v>
       </c>
       <c r="H42">
         <f>H41+C42</f>
-        <v>7892.3289823409596</v>
-      </c>
-      <c r="K42" t="inlineStr">
+        <v>14511.246901833014</v>
+      </c>
+      <c r="BA42" s="5">
+        <v>43884</v>
+      </c>
+      <c r="BB42">
+        <v>15</v>
+      </c>
+      <c r="BC42">
+        <f>(BB42/BB41)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:65" ht="19.5">
+      <c r="C43">
+        <f>H42*D43</f>
+        <v>1682.9028496895867</v>
+      </c>
+      <c r="D43">
+        <f>D42/1.1100000000000001</f>
+        <v>0.11597231175751051</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="5">
+        <v>43933</v>
+      </c>
+      <c r="G43" s="2">
+        <f>H43*50</f>
+        <v>809707.48757612996</v>
+      </c>
+      <c r="H43">
+        <f>H42+C43</f>
+        <v>16194.1497515226</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>Yesterday:</t>
         </is>
       </c>
-      <c r="M42" s="6">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="N42" s="6">
-        <v>0.070000000000000007</v>
-      </c>
-      <c r="O42" s="6">
+      <c r="M43" s="6">
+        <f>0.080000000000000002</f>
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="N43" s="6">
+        <v>0</v>
+      </c>
+      <c r="O43" s="6">
+        <f>0.20000000000000001</f>
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6">
+        <f>0.029999999999999999</f>
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="R43" s="6">
+        <f>0.029999999999999999</f>
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="S43" s="6">
+        <f>0.12</f>
+        <v>0.12</v>
+      </c>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6">
+        <f>0.13</f>
+        <v>0.13</v>
+      </c>
+      <c r="V43" s="6">
+        <f>0.14999999999999999</f>
+        <v>0.14999999999999999</v>
+      </c>
+      <c r="W43" s="6">
+        <f>0.23999999999999999</f>
+        <v>0.23999999999999999</v>
+      </c>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6">
+        <f>0.080000000000000002</f>
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="Z43" s="6">
+        <f>0.12</f>
+        <v>0.12</v>
+      </c>
+      <c r="AA43" s="6">
+        <f>0.12</f>
+        <v>0.12</v>
+      </c>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6">
+        <f>0.10000000000000001</f>
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AD43" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="6">
+        <f>0.25</f>
         <v>0.25</v>
       </c>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6">
-        <v>0.070000000000000007</v>
-      </c>
-      <c r="R42" s="6">
+      <c r="AF43" s="6"/>
+      <c r="AG43" s="6">
+        <f>0.029999999999999999</f>
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="AH43" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="6">
+        <f>0.10000000000000001</f>
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AJ43" s="6"/>
+      <c r="AK43" s="6">
+        <f>0.029999999999999999</f>
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="AL43" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN43" s="6"/>
+      <c r="AO43" s="6">
+        <v>0</v>
+      </c>
+      <c r="AP43" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="6">
+        <f>0.33000000000000002</f>
+        <v>0.33000000000000002</v>
+      </c>
+      <c r="AR43" s="6"/>
+      <c r="AS43" s="6">
+        <f>-0.080000000000000002</f>
+        <v>-0.080000000000000002</v>
+      </c>
+      <c r="AT43" s="6"/>
+      <c r="AU43" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV43" s="6"/>
+      <c r="AW43" s="6">
+        <f>0.080000000000000002</f>
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="AX43" s="6">
+        <f>0.11</f>
         <v>0.11</v>
       </c>
-      <c r="S42" s="6">
-        <v>0.44</v>
-      </c>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6">
+      <c r="AY43" s="6">
+        <f>0.14999999999999999</f>
         <v>0.14999999999999999</v>
-      </c>
-      <c r="V42" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="W42" s="6">
-        <v>0.60999999999999999</v>
-      </c>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="Z42" s="6">
-        <v>0.16</v>
-      </c>
-      <c r="AA42" s="6">
-        <v>0.14999999999999999</v>
-      </c>
-      <c r="AB42" s="6"/>
-      <c r="AC42" s="6">
-        <v>0.10000000000000001</v>
-      </c>
-      <c r="AD42" s="6">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AE42" s="6">
-        <v>1</v>
-      </c>
-      <c r="AF42" s="6"/>
-      <c r="AG42" s="6">
-        <v>0.14999999999999999</v>
-      </c>
-      <c r="AH42" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI42" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="6"/>
-      <c r="AK42" s="6">
-        <v>0.14999999999999999</v>
-      </c>
-      <c r="AL42" s="6">
-        <v>0</v>
-      </c>
-      <c r="AM42" s="6">
-        <v>0</v>
-      </c>
-      <c r="AN42" s="6"/>
-      <c r="AO42" s="6">
-        <v>0.42999999999999999</v>
-      </c>
-      <c r="AP42" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="AQ42" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR42" s="6"/>
-      <c r="AS42" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="AT42" s="6"/>
-      <c r="AU42" s="6">
-        <v>0</v>
-      </c>
-      <c r="AV42" s="6"/>
-      <c r="AW42" s="6">
-        <v>0.070000000000000007</v>
-      </c>
-      <c r="AX42" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AY42" s="6">
-        <v>0.26000000000000001</v>
-      </c>
-      <c r="BA42" s="5">
-        <v>43884</v>
-      </c>
-      <c r="BB42">
-        <v>15</v>
-      </c>
-      <c r="BC42">
-        <f>(BB42/BB41)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:65" ht="19.5">
-      <c r="C43">
-        <f>H42*D43</f>
-        <v>326.50347151982095</v>
-      </c>
-      <c r="D43">
-        <f>D42/1.0900000000000001</f>
-        <v>0.041369723975061175</v>
-      </c>
-      <c r="E43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="5">
-        <v>43933</v>
-      </c>
-      <c r="G43" s="2">
-        <f>H43*100</f>
-        <v>821883.24538607814</v>
-      </c>
-      <c r="H43">
-        <f>H42+C43</f>
-        <v>8218.8324538607812</v>
       </c>
       <c r="BA43" s="5">
         <v>43885</v>
@@ -4394,11 +4540,11 @@
     <row r="44" spans="1:65" ht="19.5">
       <c r="C44">
         <f>H43*D44</f>
-        <v>311.93654129678458</v>
+        <v>1691.9576429111623</v>
       </c>
       <c r="D44">
-        <f>D43/1.0900000000000001</f>
-        <v>0.037953875206478138</v>
+        <f>D43/1.1100000000000001</f>
+        <v>0.10447956014190135</v>
       </c>
       <c r="E44" t="s">
         <v>12</v>
@@ -4407,221 +4553,211 @@
         <v>43934</v>
       </c>
       <c r="G44" s="2">
-        <f>H44*100</f>
-        <v>853076.89951575664</v>
+        <f>H44*50</f>
+        <v>894305.3697216881</v>
       </c>
       <c r="H44">
         <f>H43+C44</f>
-        <v>8530.7689951575667</v>
-      </c>
-      <c r="J44" s="1"/>
-      <c r="P44" t="inlineStr">
+        <v>17886.107394433762</v>
+      </c>
+      <c r="BA44" s="5">
+        <v>43886</v>
+      </c>
+      <c r="BB44">
+        <v>51</v>
+      </c>
+      <c r="BC44">
+        <f>(BB44/BB43)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:65" ht="19.5">
+      <c r="C45">
+        <f>H44*D45</f>
+        <v>1683.5429128119356</v>
+      </c>
+      <c r="D45">
+        <f>D44/1.1100000000000001</f>
+        <v>0.094125729857568771</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="5">
+        <v>43935</v>
+      </c>
+      <c r="G45" s="2">
+        <f>H45*50</f>
+        <v>978482.51536228484</v>
+      </c>
+      <c r="H45">
+        <f>H44+C45</f>
+        <v>19569.650307245698</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="P45" t="inlineStr">
         <is>
           <t>older Source: https://portal.ct.gov/Coronavirus/Pages/Governors-Press-Releases</t>
         </is>
       </c>
-      <c r="AQ44" s="6"/>
-      <c r="BA44" s="5">
-        <v>43886</v>
-      </c>
-      <c r="BB44">
-        <v>51</v>
-      </c>
-      <c r="BC44">
-        <f>(BB44/BB43)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:65" ht="19.5">
-      <c r="C45">
-        <f>H44*D45</f>
-        <v>297.04196500688369</v>
-      </c>
-      <c r="D45">
-        <f>D44/1.0900000000000001</f>
-        <v>0.034820068996768934</v>
-      </c>
-      <c r="E45" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="5">
-        <v>43935</v>
-      </c>
-      <c r="G45" s="2">
-        <f>H45*100</f>
-        <v>882781.09601644496</v>
-      </c>
-      <c r="H45">
-        <f>H44+C45</f>
-        <v>8827.8109601644501</v>
-      </c>
-      <c r="J45" s="1"/>
-      <c r="AL45" t="inlineStr">
+      <c r="AQ45" s="6"/>
+      <c r="BA45" s="5">
+        <v>43887</v>
+      </c>
+      <c r="BB45">
+        <v>57</v>
+      </c>
+      <c r="BC45">
+        <f>(BB45/BB44)-1</f>
+        <v>0.11764705882352944</v>
+      </c>
+    </row>
+    <row r="46" spans="1:65" ht="19.5">
+      <c r="C46">
+        <f>H45*D46</f>
+        <v>1659.4663227269336</v>
+      </c>
+      <c r="D46">
+        <f>D45/1.1100000000000001</f>
+        <v>0.08479795482663853</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="5">
+        <v>43936</v>
+      </c>
+      <c r="G46" s="2">
+        <f>H46*50</f>
+        <v>1061455.8314986315</v>
+      </c>
+      <c r="H46">
+        <f>H45+C46</f>
+        <v>21229.116629972632</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="AL46" t="inlineStr">
         <is>
           <t>any zero-to-positive int gets the 'r: +n' entry.</t>
         </is>
       </c>
-      <c r="BA45" s="5">
-        <v>43887</v>
-      </c>
-      <c r="BB45">
-        <v>57</v>
-      </c>
-      <c r="BC45">
-        <f>(BB45/BB44)-1</f>
-        <v>0.11764705882352944</v>
-      </c>
-    </row>
-    <row r="46" spans="1:65" ht="19.5">
-      <c r="C46">
-        <f>H45*D46</f>
-        <v>282.00457497555885</v>
-      </c>
-      <c r="D46">
-        <f>D45/1.0900000000000001</f>
-        <v>0.031945017428228376</v>
-      </c>
-      <c r="E46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="5">
-        <v>43936</v>
-      </c>
-      <c r="G46" s="2">
-        <f>H46*100</f>
-        <v>910981.55351400096</v>
-      </c>
-      <c r="H46">
-        <f>H45+C46</f>
-        <v>9109.8155351400092</v>
-      </c>
-      <c r="P46" t="inlineStr">
+      <c r="BA46" s="5">
+        <v>43888</v>
+      </c>
+      <c r="BB46">
+        <v>58</v>
+      </c>
+      <c r="BC46">
+        <f>(BB46/BB45)-1</f>
+        <v>0.017543859649122862</v>
+      </c>
+    </row>
+    <row r="47" spans="1:65" ht="19.5">
+      <c r="C47">
+        <f>H46*D47</f>
+        <v>1621.7888945926666</v>
+      </c>
+      <c r="D47">
+        <f>D46/1.1100000000000001</f>
+        <v>0.076394553897872544</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="5">
+        <v>43937</v>
+      </c>
+      <c r="G47" s="2">
+        <f>H47*50</f>
+        <v>1142545.2762282649</v>
+      </c>
+      <c r="H47">
+        <f>H46+C47</f>
+        <v>22850.9055245653</v>
+      </c>
+      <c r="P47" t="inlineStr">
         <is>
           <t>recent Source: https://portal.ct.gov/-/media/Coronavirus/CTDPHCOVID19summary3312020.pdf?la=en</t>
         </is>
       </c>
-      <c r="BA46" s="5">
-        <v>43888</v>
-      </c>
-      <c r="BB46">
-        <v>58</v>
-      </c>
-      <c r="BC46">
-        <f>(BB46/BB45)-1</f>
-        <v>0.017543859649122862</v>
-      </c>
-    </row>
-    <row r="47" spans="1:65" ht="19.5">
-      <c r="C47">
-        <f>H46*D47</f>
-        <v>266.98460186971852</v>
-      </c>
-      <c r="D47">
-        <f>D46/1.0900000000000001</f>
-        <v>0.029307355438741627</v>
-      </c>
-      <c r="E47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="5">
-        <v>43937</v>
-      </c>
-      <c r="G47" s="2">
-        <f>H47*100</f>
-        <v>937680.01370097278</v>
-      </c>
-      <c r="H47">
-        <f>H46+C47</f>
-        <v>9376.8001370097281</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>&lt;&lt; transmission under 3 percent growth (per day)</t>
-        </is>
-      </c>
-      <c r="AL47" t="inlineStr">
+      <c r="BA47" s="5">
+        <v>43889</v>
+      </c>
+      <c r="BB47">
+        <v>60</v>
+      </c>
+      <c r="BC47">
+        <f>(BB47/BB46)-1</f>
+        <v>0.034482758620689724</v>
+      </c>
+    </row>
+    <row r="48" spans="1:65" ht="19.5">
+      <c r="C48">
+        <f>H47*D48</f>
+        <v>1572.6889492897271</v>
+      </c>
+      <c r="D48">
+        <f>D47/1.1100000000000001</f>
+        <v>0.068823922430515799</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="5">
+        <v>43938</v>
+      </c>
+      <c r="G48" s="2">
+        <f>H48*50</f>
+        <v>1221179.7236927515</v>
+      </c>
+      <c r="H48">
+        <f>H47+C48</f>
+        <v>24423.594473855028</v>
+      </c>
+      <c r="AL48" t="inlineStr">
         <is>
           <t>r: +3</t>
         </is>
       </c>
-      <c r="BA47" s="5">
-        <v>43889</v>
-      </c>
-      <c r="BB47">
-        <v>60</v>
-      </c>
-      <c r="BC47">
-        <f>(BB47/BB46)-1</f>
-        <v>0.034482758620689724</v>
-      </c>
-    </row>
-    <row r="48" spans="1:65" ht="19.5">
-      <c r="C48">
-        <f>H47*D48</f>
-        <v>274.8092144933853</v>
-      </c>
-      <c r="D48">
-        <f>D47</f>
-        <v>0.029307355438741627</v>
-      </c>
-      <c r="E48" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="5">
-        <v>43938</v>
-      </c>
-      <c r="G48" s="2">
-        <f>H48*100</f>
-        <v>965160.93515031133</v>
-      </c>
-      <c r="H48">
-        <f>H47+C48</f>
-        <v>9651.6093515031134</v>
-      </c>
-      <c r="P48" t="inlineStr">
+      <c r="BA48" s="5">
+        <v>43890</v>
+      </c>
+      <c r="BB48">
+        <v>68</v>
+      </c>
+      <c r="BC48">
+        <f>(BB48/BB47)-1</f>
+        <v>0.1333333333333333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:65" ht="19.5">
+      <c r="C49">
+        <f>H48*D49</f>
+        <v>1514.3491635522278</v>
+      </c>
+      <c r="D49">
+        <f>D48/1.1100000000000001</f>
+        <v>0.062003533721185403</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="5">
+        <v>43939</v>
+      </c>
+      <c r="G49" s="2">
+        <f>H49*50</f>
+        <v>1296897.1818703627</v>
+      </c>
+      <c r="H49">
+        <f>H48+C49</f>
+        <v>25937.943637407254</v>
+      </c>
+      <c r="P49" t="inlineStr">
         <is>
           <t>export: $ ssconvert -T Gnumeric_stf:stf_csv thisfile.gnumeric thisfile.csv</t>
         </is>
       </c>
-      <c r="BA48" s="5">
-        <v>43890</v>
-      </c>
-      <c r="BB48">
-        <v>68</v>
-      </c>
-      <c r="BC48">
-        <f>(BB48/BB47)-1</f>
-        <v>0.1333333333333333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:65" ht="19.5">
-      <c r="C49">
-        <f>H48*D49</f>
-        <v>282.86314582038432</v>
-      </c>
-      <c r="D49">
-        <f>D48</f>
-        <v>0.029307355438741627</v>
-      </c>
-      <c r="E49" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="5">
-        <v>43939</v>
-      </c>
-      <c r="G49" s="2">
-        <f>H49*100</f>
-        <v>993447.24973234965</v>
-      </c>
-      <c r="H49">
-        <f>H48+C49</f>
-        <v>9934.472497323497</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>(three percent arbitrarily chosen)</t>
-        </is>
-      </c>
       <c r="BA49" s="5">
         <v>43891</v>
       </c>
@@ -4636,11 +4772,11 @@
     <row r="50" spans="1:65" ht="19.5">
       <c r="C50">
         <f>H49*D50</f>
-        <v>291.15311657546289</v>
+        <v>1448.8686152974658</v>
       </c>
       <c r="D50">
-        <f>D49</f>
-        <v>0.029307355438741627</v>
+        <f>D49/1.1100000000000001</f>
+        <v>0.055859039388455316</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
@@ -4649,57 +4785,52 @@
         <v>43940</v>
       </c>
       <c r="G50" s="2">
-        <f>H50*100</f>
-        <v>1022562.561389896</v>
+        <f>H50*50</f>
+        <v>1369340.612635236</v>
       </c>
       <c r="H50">
         <f>H49+C50</f>
-        <v>10225.625613898959</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>&lt;&lt;  arbitrary peak number (1 million)</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
+        <v>27386.81225270472</v>
+      </c>
+      <c r="BA50" s="5">
+        <v>43892</v>
+      </c>
+      <c r="BB50">
+        <v>98</v>
+      </c>
+      <c r="BC50">
+        <f>(BB50/BB49)-1</f>
+        <v>0.32432432432432434</v>
+      </c>
+    </row>
+    <row r="51" spans="1:65" ht="19.5">
+      <c r="C51">
+        <f>H50*D51</f>
+        <v>1378.1991210342915</v>
+      </c>
+      <c r="D51">
+        <f>D50/1.1100000000000001</f>
+        <v>0.050323458908518297</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="5">
+        <v>43941</v>
+      </c>
+      <c r="G51" s="2">
+        <f>H51*50</f>
+        <v>1438250.5686869507</v>
+      </c>
+      <c r="H51">
+        <f>H50+C51</f>
+        <v>28765.011373739013</v>
+      </c>
+      <c r="P51" t="inlineStr">
         <is>
           <t>March 31: Hospitalization by county presented in a graphic (only?)</t>
         </is>
       </c>
-      <c r="BA50" s="5">
-        <v>43892</v>
-      </c>
-      <c r="BB50">
-        <v>98</v>
-      </c>
-      <c r="BC50">
-        <f>(BB50/BB49)-1</f>
-        <v>0.32432432432432434</v>
-      </c>
-    </row>
-    <row r="51" spans="1:65" ht="19.5">
-      <c r="C51">
-        <f>H50*D51</f>
-        <v>299.68604445003734</v>
-      </c>
-      <c r="D51">
-        <f>D50</f>
-        <v>0.029307355438741627</v>
-      </c>
-      <c r="E51" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="5">
-        <v>43941</v>
-      </c>
-      <c r="G51" s="2">
-        <f>H51*100</f>
-        <v>1052531.1658348998</v>
-      </c>
-      <c r="H51">
-        <f>H50+C51</f>
-        <v>10525.311658348997</v>
-      </c>
       <c r="BA51" s="5">
         <v>43893</v>
       </c>
@@ -4714,11 +4845,11 @@
     <row r="52" spans="1:65" ht="19.5">
       <c r="C52">
         <f>H51*D52</f>
-        <v>308.46904987476512</v>
+        <v>1304.103484567042</v>
       </c>
       <c r="D52">
-        <f>D51</f>
-        <v>0.029307355438741627</v>
+        <f>D51/1.1100000000000001</f>
+        <v>0.045336449467133597</v>
       </c>
       <c r="E52" t="s">
         <v>13</v>
@@ -4727,101 +4858,96 @@
         <v>43942</v>
       </c>
       <c r="G52" s="2">
-        <f>H52*100</f>
-        <v>1083378.0708223763</v>
+        <f>H52*50</f>
+        <v>1503455.7429153027</v>
       </c>
       <c r="H52">
         <f>H51+C52</f>
-        <v>10833.780708223763</v>
-      </c>
-      <c r="P52" t="inlineStr">
+        <v>30069.114858306057</v>
+      </c>
+      <c r="BA52" s="5">
+        <v>43894</v>
+      </c>
+      <c r="BB52">
+        <v>149</v>
+      </c>
+      <c r="BC52">
+        <f>(BB52/BB51)-1</f>
+        <v>0.26271186440677963</v>
+      </c>
+    </row>
+    <row r="53" spans="1:65" ht="19.5">
+      <c r="C53">
+        <f>H52*D53</f>
+        <v>1228.1323480135391</v>
+      </c>
+      <c r="D53">
+        <f>D52/1.1100000000000001</f>
+        <v>0.04084364816858882</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="5">
+        <v>43943</v>
+      </c>
+      <c r="G53" s="2">
+        <f>H53*50</f>
+        <v>1564862.3603159799</v>
+      </c>
+      <c r="H53">
+        <f>H52+C53</f>
+        <v>31297.247206319596</v>
+      </c>
+      <c r="P53" t="inlineStr">
         <is>
           <t>31 March 23:09 UTC: many cosmetic changes, columns deleted (or added).</t>
         </is>
       </c>
-      <c r="BA52" s="5">
-        <v>43894</v>
-      </c>
-      <c r="BB52">
-        <v>149</v>
-      </c>
-      <c r="BC52">
-        <f>(BB52/BB51)-1</f>
-        <v>0.26271186440677963</v>
-      </c>
-    </row>
-    <row r="53" spans="1:65" ht="19.5">
-      <c r="C53">
-        <f>H52*D53</f>
-        <v>317.50946196129581</v>
-      </c>
-      <c r="D53">
-        <f>D52</f>
-        <v>0.029307355438741627</v>
-      </c>
-      <c r="E53" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="5">
-        <v>43943</v>
-      </c>
-      <c r="G53" s="2">
-        <f>H53*100</f>
-        <v>1115129.0170185058</v>
-      </c>
-      <c r="H53">
-        <f>H52+C53</f>
-        <v>11151.290170185059</v>
-      </c>
-      <c r="I53" t="inlineStr">
+      <c r="BA53" s="5">
+        <v>43895</v>
+      </c>
+      <c r="BB53">
+        <v>217</v>
+      </c>
+      <c r="BC53">
+        <f>(BB53/BB52)-1</f>
+        <v>0.4563758389261745</v>
+      </c>
+    </row>
+    <row r="54" spans="1:65" ht="19.5">
+      <c r="C54">
+        <f>H53*D54</f>
+        <v>1151.6159941804206</v>
+      </c>
+      <c r="D54">
+        <f>D53/1.1100000000000001</f>
+        <v>0.036796079431161095</v>
+      </c>
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="5">
+        <v>43944</v>
+      </c>
+      <c r="G54" s="2">
+        <f>H54*50</f>
+        <v>1622443.1600250008</v>
+      </c>
+      <c r="H54">
+        <f>H53+C54</f>
+        <v>32448.863200500018</v>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
-          <t>Note: the 3% figure is very generous; 7.9 percent now typical (05 April)</t>
+          <t>&lt;&lt; transmission under 4 percent growth (per day)</t>
         </is>
       </c>
-      <c r="P53" t="inlineStr">
+      <c r="P54" t="inlineStr">
         <is>
           <t>Hopefully, no major corruption of data/forumlas present after these major edits.</t>
         </is>
       </c>
-      <c r="BA53" s="5">
-        <v>43895</v>
-      </c>
-      <c r="BB53">
-        <v>217</v>
-      </c>
-      <c r="BC53">
-        <f>(BB53/BB52)-1</f>
-        <v>0.4563758389261745</v>
-      </c>
-    </row>
-    <row r="54" spans="1:65" ht="19.5">
-      <c r="C54">
-        <f>H53*D54</f>
-        <v>326.81482461815909</v>
-      </c>
-      <c r="D54">
-        <f>D53</f>
-        <v>0.029307355438741627</v>
-      </c>
-      <c r="E54" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="5">
-        <v>43944</v>
-      </c>
-      <c r="G54" s="2">
-        <f>H54*100</f>
-        <v>1147810.4994803218</v>
-      </c>
-      <c r="H54">
-        <f>H53+C54</f>
-        <v>11478.104994803218</v>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>Because of this, the peak will arrive sooner, not later.</t>
-        </is>
-      </c>
       <c r="BA54" s="5">
         <v>43896</v>
       </c>
@@ -4836,11 +4962,11 @@
     <row r="55" spans="1:65" ht="19.5">
       <c r="C55">
         <f>H54*D55</f>
-        <v>336.3929028458935</v>
+        <v>1193.9909477764788</v>
       </c>
       <c r="D55">
         <f>D54</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E55" t="s">
         <v>16</v>
@@ -4849,52 +4975,57 @@
         <v>43945</v>
       </c>
       <c r="G55" s="2">
-        <f>H55*100</f>
-        <v>1181449.7897649112</v>
+        <f>H55*50</f>
+        <v>1682142.707413825</v>
       </c>
       <c r="H55">
         <f>H54+C55</f>
-        <v>11814.497897649111</v>
-      </c>
-      <c r="P55" t="inlineStr">
+        <v>33642.854148276499</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>(four percent arbitrarily chosen)</t>
+        </is>
+      </c>
+      <c r="BA55" s="5">
+        <v>43897</v>
+      </c>
+      <c r="BB55">
+        <v>402</v>
+      </c>
+      <c r="BC55">
+        <f>(BB55/BB54)-1</f>
+        <v>0.53435114503816794</v>
+      </c>
+    </row>
+    <row r="56" spans="1:65" ht="19.5">
+      <c r="C56">
+        <f>H55*D56</f>
+        <v>1237.9251335309496</v>
+      </c>
+      <c r="D56">
+        <f>D55</f>
+        <v>0.036796079431161095</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="5">
+        <v>43946</v>
+      </c>
+      <c r="G56" s="2">
+        <f>H56*50</f>
+        <v>1744038.9640903727</v>
+      </c>
+      <c r="H56">
+        <f>H55+C56</f>
+        <v>34880.779281807452</v>
+      </c>
+      <c r="P56" t="inlineStr">
         <is>
           <t>1 April: Column D now formatted as percentile</t>
         </is>
       </c>
-      <c r="BA55" s="5">
-        <v>43897</v>
-      </c>
-      <c r="BB55">
-        <v>402</v>
-      </c>
-      <c r="BC55">
-        <f>(BB55/BB54)-1</f>
-        <v>0.53435114503816794</v>
-      </c>
-    </row>
-    <row r="56" spans="1:65" ht="19.5">
-      <c r="C56">
-        <f>H55*D56</f>
-        <v>346.25168921666818</v>
-      </c>
-      <c r="D56">
-        <f>D55</f>
-        <v>0.029307355438741627</v>
-      </c>
-      <c r="E56" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" s="5">
-        <v>43946</v>
-      </c>
-      <c r="G56" s="2">
-        <f>H56*100</f>
-        <v>1216074.9586865779</v>
-      </c>
-      <c r="H56">
-        <f>H55+C56</f>
-        <v>12160.749586865779</v>
-      </c>
       <c r="BA56" s="5">
         <v>43898</v>
       </c>
@@ -4909,11 +5040,11 @@
     <row r="57" spans="1:65" ht="19.5">
       <c r="C57">
         <f>H56*D57</f>
-        <v>356.3994105438058</v>
+        <v>1283.4759250741852</v>
       </c>
       <c r="D57">
         <f>D56</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -4922,12 +5053,17 @@
         <v>43947</v>
       </c>
       <c r="G57" s="2">
-        <f>H57*100</f>
-        <v>1251714.8997409584</v>
+        <f>H57*50</f>
+        <v>1808212.7603440818</v>
       </c>
       <c r="H57">
         <f>H56+C57</f>
-        <v>12517.148997409584</v>
+        <v>36164.255206881637</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>7 April: 1.09 becomes 1.11 for arbitrary growth reduction supposition expressed in Column D (Multiplier).</t>
+        </is>
       </c>
       <c r="BA57" s="5">
         <v>43899</v>
@@ -4943,11 +5079,11 @@
     <row r="58" spans="1:65" ht="19.5">
       <c r="C58">
         <f>H57*D58</f>
-        <v>366.84453474677105</v>
+        <v>1330.7028071611978</v>
       </c>
       <c r="D58">
         <f>D57</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E58" t="s">
         <v>12</v>
@@ -4956,12 +5092,17 @@
         <v>43948</v>
       </c>
       <c r="G58" s="2">
-        <f>H58*100</f>
-        <v>1288399.3532156355</v>
+        <f>H58*50</f>
+        <v>1874747.9007021419</v>
       </c>
       <c r="H58">
         <f>H57+C58</f>
-        <v>12883.993532156355</v>
+        <v>37494.958014042837</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>7 April: Column G goes from 100x to 50x (arbitrary value chosen)</t>
+        </is>
       </c>
       <c r="BA58" s="5">
         <v>43900</v>
@@ -4977,11 +5118,11 @@
     <row r="59" spans="1:65" ht="19.5">
       <c r="C59">
         <f>H58*D59</f>
-        <v>377.5957779173545</v>
+        <v>1379.6674533527705</v>
       </c>
       <c r="D59">
         <f>D58</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E59" t="s">
         <v>13</v>
@@ -4990,12 +5131,17 @@
         <v>43949</v>
       </c>
       <c r="G59" s="2">
-        <f>H59*100</f>
-        <v>1326158.9310073711</v>
+        <f>H59*50</f>
+        <v>1943731.2733697803</v>
       </c>
       <c r="H59">
         <f>H58+C59</f>
-        <v>13261.58931007371</v>
+        <v>38874.625467395606</v>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>(the 100x scaling factor was also arbitrary)</t>
+        </is>
       </c>
       <c r="BA59" s="5">
         <v>43901</v>
@@ -5011,11 +5157,11 @@
     <row r="60" spans="1:65" ht="19.5">
       <c r="C60">
         <f>H59*D60</f>
-        <v>388.66211159294659</v>
+        <v>1430.4338065549268</v>
       </c>
       <c r="D60">
         <f>D59</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E60" t="s">
         <v>14</v>
@@ -5024,12 +5170,12 @@
         <v>43950</v>
       </c>
       <c r="G60" s="2">
-        <f>H60*100</f>
-        <v>1365025.1421666658</v>
+        <f>H60*50</f>
+        <v>2015252.9636975266</v>
       </c>
       <c r="H60">
         <f>H59+C60</f>
-        <v>13650.251421666657</v>
+        <v>40305.05927395053</v>
       </c>
       <c r="BA60" s="5">
         <v>43902</v>
@@ -5045,11 +5191,11 @@
     <row r="61" spans="1:65" ht="19.5">
       <c r="C61">
         <f>H60*D61</f>
-        <v>400.05277024297294</v>
+        <v>1483.0681625219399</v>
       </c>
       <c r="D61">
         <f>D60</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E61" t="s">
         <v>15</v>
@@ -5058,12 +5204,12 @@
         <v>43951</v>
       </c>
       <c r="G61" s="2">
-        <f>H61*100</f>
-        <v>1405030.419190963</v>
+        <f>H61*50</f>
+        <v>2089406.3718236233</v>
       </c>
       <c r="H61">
         <f>H60+C61</f>
-        <v>14050.30419190963</v>
+        <v>41788.127436472467</v>
       </c>
       <c r="BA61" s="5">
         <v>43903</v>
@@ -5079,11 +5225,11 @@
     <row r="62" spans="1:65" ht="19.5">
       <c r="C62">
         <f>H61*D62</f>
-        <v>411.77725897473698</v>
+        <v>1537.6392564319231</v>
       </c>
       <c r="D62">
         <f>D61</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E62" t="s">
         <v>16</v>
@@ -5092,12 +5238,12 @@
         <v>43952</v>
       </c>
       <c r="G62" s="2">
-        <f>H62*100</f>
-        <v>1446208.1450884368</v>
+        <f>H62*50</f>
+        <v>2166288.3346452196</v>
       </c>
       <c r="H62">
         <f>H61+C62</f>
-        <v>14462.081450884367</v>
+        <v>43325.766692904392</v>
       </c>
       <c r="BA62" s="5">
         <v>43904</v>
@@ -5113,11 +5259,11 @@
     <row r="63" spans="1:65" ht="19.5">
       <c r="C63">
         <f>H62*D63</f>
-        <v>423.84536146510032</v>
+        <v>1594.2183526480637</v>
       </c>
       <c r="D63">
         <f>D62</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E63" t="s">
         <v>17</v>
@@ -5126,12 +5272,12 @@
         <v>43953</v>
       </c>
       <c r="G63" s="2">
-        <f>H63*100</f>
-        <v>1488592.6812349467</v>
+        <f>H63*50</f>
+        <v>2245999.2522776229</v>
       </c>
       <c r="H63">
         <f>H62+C63</f>
-        <v>14885.926812349468</v>
+        <v>44919.985045552457</v>
       </c>
       <c r="BA63" s="5">
         <v>43905</v>
@@ -5147,11 +5293,11 @@
     <row r="64" spans="1:65" ht="19.5">
       <c r="C64">
         <f>H63*D64</f>
-        <v>436.26714812461995</v>
+        <v>1652.8793377827167</v>
       </c>
       <c r="D64">
         <f>D63</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
@@ -5160,12 +5306,12 @@
         <v>43954</v>
       </c>
       <c r="G64" s="2">
-        <f>H64*100</f>
-        <v>1532219.3960474087</v>
+        <f>H64*50</f>
+        <v>2328643.2191667589</v>
       </c>
       <c r="H64">
         <f>H63+C64</f>
-        <v>15322.193960474087</v>
+        <v>46572.864383335174</v>
       </c>
       <c r="BA64" s="5">
         <v>43906</v>
@@ -5181,11 +5327,11 @@
     <row r="65" spans="1:65" ht="19.5">
       <c r="C65">
         <f>H64*D65</f>
-        <v>449.05298450095432</v>
+        <v>1713.6988171858945</v>
       </c>
       <c r="D65">
         <f>D64</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E65" t="s">
         <v>12</v>
@@ -5194,12 +5340,12 @@
         <v>43955</v>
       </c>
       <c r="G65" s="2">
-        <f>H65*100</f>
-        <v>1577124.6944975043</v>
+        <f>H65*50</f>
+        <v>2414328.1600260534</v>
       </c>
       <c r="H65">
         <f>H64+C65</f>
-        <v>15771.246944975042</v>
+        <v>48286.563200521072</v>
       </c>
       <c r="BA65" s="5">
         <v>43907</v>
@@ -5215,11 +5361,11 @@
     <row r="66" spans="1:65" ht="19.5">
       <c r="C66">
         <f>H65*D66</f>
-        <v>462.2135399285516</v>
+        <v>1776.7562149841538</v>
       </c>
       <c r="D66">
         <f>D65</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E66" t="s">
         <v>13</v>
@@ -5228,12 +5374,12 @@
         <v>43956</v>
       </c>
       <c r="G66" s="2">
-        <f>H66*100</f>
-        <v>1623346.0484903592</v>
+        <f>H66*50</f>
+        <v>2503165.9707752615</v>
       </c>
       <c r="H66">
         <f>H65+C66</f>
-        <v>16233.460484903593</v>
+        <v>50063.319415505226</v>
       </c>
       <c r="BA66" s="5">
         <v>43908</v>
@@ -5249,11 +5395,11 @@
     <row r="67" spans="1:65" ht="19.5">
       <c r="C67">
         <f>H66*D67</f>
-        <v>475.75979643183661</v>
+        <v>1842.1338778005197</v>
       </c>
       <c r="D67">
         <f>D66</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E67" t="s">
         <v>14</v>
@@ -5262,12 +5408,12 @@
         <v>43957</v>
       </c>
       <c r="G67" s="2">
-        <f>H67*100</f>
-        <v>1670922.028133543</v>
+        <f>H67*50</f>
+        <v>2595272.6646652874</v>
       </c>
       <c r="H67">
         <f>H66+C67</f>
-        <v>16709.220281335431</v>
+        <v>51905.453293305749</v>
       </c>
       <c r="BA67" s="5">
         <v>43909</v>
@@ -5283,11 +5429,11 @@
     <row r="68" spans="1:65" ht="19.5">
       <c r="C68">
         <f>H67*D68</f>
-        <v>489.70305788932785</v>
+        <v>1909.9171822909007</v>
       </c>
       <c r="D68">
         <f>D67</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E68" t="s">
         <v>15</v>
@@ -5296,12 +5442,12 @@
         <v>43958</v>
       </c>
       <c r="G68" s="2">
-        <f>H68*100</f>
-        <v>1719892.3339224758</v>
+        <f>H68*50</f>
+        <v>2690768.5237798323</v>
       </c>
       <c r="H68">
         <f>H67+C68</f>
-        <v>17198.923339224759</v>
+        <v>53815.370475596646</v>
       </c>
       <c r="BA68" s="5">
         <v>43910</v>
@@ -5317,11 +5463,11 @@
     <row r="69" spans="1:65" ht="19.5">
       <c r="C69">
         <f>H68*D69</f>
-        <v>504.05495946632902</v>
+        <v>1980.1946466374159</v>
       </c>
       <c r="D69">
         <f>D68</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E69" t="s">
         <v>16</v>
@@ -5330,12 +5476,12 @@
         <v>43959</v>
       </c>
       <c r="G69" s="2">
-        <f>H69*100</f>
-        <v>1770297.8298691087</v>
+        <f>H69*50</f>
+        <v>2789778.2561117029</v>
       </c>
       <c r="H69">
         <f>H68+C69</f>
-        <v>17702.978298691087</v>
+        <v>55795.56512223406</v>
       </c>
       <c r="BA69" s="5">
         <v>43911</v>
@@ -5351,11 +5497,11 @@
     <row r="70" spans="1:65" ht="19.5">
       <c r="C70">
         <f>H69*D70</f>
-        <v>518.82747732406926</v>
+        <v>2053.058046144246</v>
       </c>
       <c r="D70">
         <f>D69</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E70" t="s">
         <v>17</v>
@@ -5364,12 +5510,12 @@
         <v>43960</v>
       </c>
       <c r="G70" s="2">
-        <f>H70*100</f>
-        <v>1822180.5776015157</v>
+        <f>H70*50</f>
+        <v>2892431.1584189152</v>
       </c>
       <c r="H70">
         <f>H69+C70</f>
-        <v>18221.805776015157</v>
+        <v>57848.623168378304</v>
       </c>
       <c r="BA70" s="5">
         <v>43912</v>
@@ -5385,11 +5531,11 @@
     <row r="71" spans="1:65" ht="19.5">
       <c r="C71">
         <f>H70*D71</f>
-        <v>534.03293861339137</v>
+        <v>2128.6025330869543</v>
       </c>
       <c r="D71">
         <f>D70</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
@@ -5398,12 +5544,12 @@
         <v>43961</v>
       </c>
       <c r="G71" s="2">
-        <f>H71*100</f>
-        <v>1875583.871462855</v>
+        <f>H71*50</f>
+        <v>2998861.2850732626</v>
       </c>
       <c r="H71">
         <f>H70+C71</f>
-        <v>18755.838714628549</v>
+        <v>59977.225701465257</v>
       </c>
       <c r="BA71" s="5">
         <v>43913</v>
@@ -5419,11 +5565,11 @@
     <row r="72" spans="1:65" ht="19.5">
       <c r="C72">
         <f>H71*D72</f>
-        <v>549.68403176132983</v>
+        <v>2206.9267609717922</v>
       </c>
       <c r="D72">
         <f>D71</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E72" t="s">
         <v>12</v>
@@ -5432,12 +5578,12 @@
         <v>43962</v>
       </c>
       <c r="G72" s="2">
-        <f>H72*100</f>
-        <v>1930552.2746389881</v>
+        <f>H72*50</f>
+        <v>3109207.6231218525</v>
       </c>
       <c r="H72">
         <f>H71+C72</f>
-        <v>19305.522746389881</v>
+        <v>62184.15246243705</v>
       </c>
       <c r="BA72" s="5">
         <v>43914</v>
@@ -5453,11 +5599,11 @@
     <row r="73" spans="1:65" ht="19.5">
       <c r="C73">
         <f>H72*D73</f>
-        <v>565.79381705915966</v>
+        <v>2288.1330133672654</v>
       </c>
       <c r="D73">
         <f>D72</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E73" t="s">
         <v>13</v>
@@ -5466,12 +5612,12 @@
         <v>43963</v>
       </c>
       <c r="G73" s="2">
-        <f>H73*100</f>
-        <v>1987131.6563449039</v>
+        <f>H73*50</f>
+        <v>3223614.2737902161</v>
       </c>
       <c r="H73">
         <f>H72+C73</f>
-        <v>19871.31656344904</v>
+        <v>64472.285475804318</v>
       </c>
       <c r="BA73" s="5">
         <v>43915</v>
@@ -5487,11 +5633,11 @@
     <row r="74" spans="1:65" ht="19.5">
       <c r="C74">
         <f>H73*D74</f>
-        <v>582.37573756075483</v>
+        <v>2372.3273374761893</v>
       </c>
       <c r="D74">
         <f>D73</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E74" t="s">
         <v>14</v>
@@ -5502,7 +5648,7 @@
       <c r="G74" s="2"/>
       <c r="H74">
         <f>H73+C74</f>
-        <v>20453.692301009796</v>
+        <v>66844.612813280502</v>
       </c>
       <c r="BA74" s="5">
         <v>43916</v>
@@ -5518,11 +5664,11 @@
     <row r="75" spans="1:65" ht="19.5">
       <c r="C75">
         <f>H74*D75</f>
-        <v>599.44363030034719</v>
+        <v>2459.6196826226783</v>
       </c>
       <c r="D75">
         <f>D74</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E75" t="s">
         <v>15</v>
@@ -5533,7 +5679,7 @@
       <c r="G75" s="2"/>
       <c r="H75">
         <f>H74+C75</f>
-        <v>21053.135931310142</v>
+        <v>69304.232495903183</v>
       </c>
       <c r="BA75" s="5">
         <v>43917</v>
@@ -5549,11 +5695,11 @@
     <row r="76" spans="1:65" ht="19.5">
       <c r="C76">
         <f>H75*D76</f>
-        <v>617.01173783904903</v>
+        <v>2550.1240438349096</v>
       </c>
       <c r="D76">
         <f>D75</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E76" t="s">
         <v>16</v>
@@ -5564,7 +5710,7 @@
       <c r="G76" s="2"/>
       <c r="H76">
         <f>H75+C76</f>
-        <v>21670.147669149192</v>
+        <v>71854.356539738088</v>
       </c>
       <c r="BA76" s="5">
         <v>43918</v>
@@ -5580,11 +5726,11 @@
     <row r="77" spans="1:65" ht="19.5">
       <c r="C77">
         <f>H76*D77</f>
-        <v>635.09472014977371</v>
+        <v>2643.9586107111722</v>
       </c>
       <c r="D77">
         <f>D76</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E77" t="s">
         <v>17</v>
@@ -5595,7 +5741,7 @@
       <c r="G77" s="2"/>
       <c r="H77">
         <f>H76+C77</f>
-        <v>22305.242389298965</v>
+        <v>74498.315150449256</v>
       </c>
       <c r="BA77" s="5">
         <v>43919</v>
@@ -5611,11 +5757,11 @@
     <row r="78" spans="1:65" ht="19.5">
       <c r="C78">
         <f>H77*D78</f>
-        <v>653.70766685047124</v>
+        <v>2741.2459217636028</v>
       </c>
       <c r="D78">
         <f>D77</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
@@ -5626,7 +5772,7 @@
       <c r="G78" s="2"/>
       <c r="H78">
         <f>H77+C78</f>
-        <v>22958.950056149435</v>
+        <v>77239.561072212862</v>
       </c>
       <c r="BA78" s="5">
         <v>43920</v>
@@ -5642,11 +5788,11 @@
     <row r="79" spans="1:65" ht="19.5">
       <c r="C79">
         <f>H78*D79</f>
-        <v>672.86610979588852</v>
+        <v>2842.1130244411629</v>
       </c>
       <c r="D79">
         <f>D78</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E79" t="s">
         <v>12</v>
@@ -5657,7 +5803,7 @@
       <c r="G79" s="2"/>
       <c r="H79">
         <f>H78+C79</f>
-        <v>23631.816165945325</v>
+        <v>80081.674096654024</v>
       </c>
       <c r="BA79" s="5">
         <v>43921</v>
@@ -5673,11 +5819,11 @@
     <row r="80" spans="1:65" ht="19.5">
       <c r="C80">
         <f>H79*D80</f>
-        <v>692.58603603836002</v>
+        <v>2946.6916410408376</v>
       </c>
       <c r="D80">
         <f>D79</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E80" t="s">
         <v>13</v>
@@ -5688,7 +5834,7 @@
       <c r="G80" s="2"/>
       <c r="H80">
         <f>H79+C80</f>
-        <v>24324.402201983685</v>
+        <v>83028.365737694869</v>
       </c>
       <c r="BA80" s="5">
         <v>43922</v>
@@ -5704,11 +5850,11 @@
     <row r="81" spans="1:65" ht="19.5">
       <c r="C81">
         <f>H80*D81</f>
-        <v>712.88390116844539</v>
+        <v>3055.1183407237149</v>
       </c>
       <c r="D81">
         <f>D80</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E81" t="s">
         <v>14</v>
@@ -5719,7 +5865,7 @@
       <c r="G81" s="2"/>
       <c r="H81">
         <f>H80+C81</f>
-        <v>25037.286103152132</v>
+        <v>86083.48407841858</v>
       </c>
       <c r="BA81" s="5">
         <v>43923</v>
@@ -5735,11 +5881,11 @@
     <row r="82" spans="1:65" ht="19.5">
       <c r="C82">
         <f>H81*D82</f>
-        <v>733.77664304654581</v>
+        <v>3167.5347178605816</v>
       </c>
       <c r="D82">
         <f>D81</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E82" t="s">
         <v>15</v>
@@ -5750,7 +5896,7 @@
       <c r="G82" s="2"/>
       <c r="H82">
         <f>H81+C82</f>
-        <v>25771.062746198677</v>
+        <v>89251.018796279168</v>
       </c>
       <c r="AW82" s="2"/>
       <c r="BA82" s="5">
@@ -5767,11 +5913,11 @@
     <row r="83" spans="1:65" ht="19.5">
       <c r="C83">
         <f>H82*D83</f>
-        <v>755.28169593695748</v>
+        <v>3284.0875769399404</v>
       </c>
       <c r="D83">
         <f>D82</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E83" t="s">
         <v>16</v>
@@ -5782,7 +5928,7 @@
       <c r="G83" s="2"/>
       <c r="H83">
         <f>H82+C83</f>
-        <v>26526.344442135633</v>
+        <v>92535.106373219111</v>
       </c>
       <c r="AW83" s="2"/>
       <c r="BA83" s="5">
@@ -5795,43 +5941,57 @@
         <f>(BB83/BB82)-1</f>
         <v>0.12070279332041545</v>
       </c>
-      <c r="BE83" t="inlineStr">
+    </row>
+    <row r="84" spans="1:65" ht="19.5">
+      <c r="C84">
+        <f>H83*D84</f>
+        <v>3404.9291242799118</v>
+      </c>
+      <c r="D84">
+        <f>D83</f>
+        <v>0.036796079431161095</v>
+      </c>
+      <c r="E84" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84" s="5">
+        <v>43974</v>
+      </c>
+      <c r="G84" s="2"/>
+      <c r="H84">
+        <f>H83+C84</f>
+        <v>95940.035497499019</v>
+      </c>
+      <c r="AW84" s="2"/>
+      <c r="AZ84" t="inlineStr">
+        <is>
+          <t>May be current:</t>
+        </is>
+      </c>
+      <c r="BA84" s="5">
+        <v>43926</v>
+      </c>
+      <c r="BB84">
+        <v>337072</v>
+      </c>
+      <c r="BC84">
+        <f>(BB84/BB83)-1</f>
+        <v>0.091377691435972075</v>
+      </c>
+      <c r="BE84" t="inlineStr">
         <is>
           <t>preliminary or provisional</t>
         </is>
       </c>
     </row>
-    <row r="84" spans="1:65" ht="19.5">
-      <c r="C84">
-        <f>H83*D84</f>
-        <v>777.41700505615745</v>
-      </c>
-      <c r="D84">
-        <f>D83</f>
-        <v>0.029307355438741627</v>
-      </c>
-      <c r="E84" t="s">
-        <v>17</v>
-      </c>
-      <c r="F84" s="5">
-        <v>43974</v>
-      </c>
-      <c r="G84" s="2"/>
-      <c r="H84">
-        <f>H83+C84</f>
-        <v>27303.761447191791</v>
-      </c>
-      <c r="AW84" s="2"/>
-      <c r="BB84" s="1"/>
-    </row>
     <row r="85" spans="1:65" ht="19.5">
       <c r="C85">
         <f>H84*D85</f>
-        <v>800.20104154746025</v>
+        <v>3530.217166794389</v>
       </c>
       <c r="D85">
         <f>D84</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
@@ -5842,24 +6002,34 @@
       <c r="G85" s="2"/>
       <c r="H85">
         <f>H84+C85</f>
-        <v>28103.962488739253</v>
+        <v>99470.25266429341</v>
       </c>
       <c r="AW85" s="2"/>
-      <c r="BB85" s="1"/>
+      <c r="AZ85" t="inlineStr">
+        <is>
+          <t>TENTATIVE</t>
+        </is>
+      </c>
+      <c r="BA85" s="5">
+        <v>43927</v>
+      </c>
+      <c r="BB85">
+        <v>366614</v>
+      </c>
       <c r="BE85" t="inlineStr">
         <is>
-          <t>The 308,850 number is</t>
+          <t>(early return on this LINE 85)</t>
         </is>
       </c>
     </row>
     <row r="86" spans="1:65" ht="19.5">
       <c r="C86">
         <f>H85*D86</f>
-        <v>823.65281789454298</v>
+        <v>3660.1153180730039</v>
       </c>
       <c r="D86">
         <f>D85</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E86" t="s">
         <v>12</v>
@@ -5870,24 +6040,19 @@
       <c r="G86" s="2"/>
       <c r="H86">
         <f>H85+C86</f>
-        <v>28927.615306633797</v>
+        <v>103130.36798236641</v>
       </c>
       <c r="AW86" s="2"/>
       <c r="BB86" s="1"/>
-      <c r="BE86" t="inlineStr">
-        <is>
-          <t>unique in this series, in that</t>
-        </is>
-      </c>
     </row>
     <row r="87" spans="1:65" ht="19.5">
       <c r="C87">
         <f>H86*D87</f>
-        <v>847.79190378669955</v>
+        <v>3794.7932120440278</v>
       </c>
       <c r="D87">
         <f>D86</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E87" t="s">
         <v>13</v>
@@ -5898,24 +6063,24 @@
       <c r="G87" s="2"/>
       <c r="H87">
         <f>H86+C87</f>
-        <v>29775.407210420497</v>
+        <v>106925.16119441044</v>
       </c>
       <c r="BB87" s="1"/>
       <c r="BC87" s="1"/>
       <c r="BE87" t="inlineStr">
         <is>
-          <t>it is the very last number</t>
+          <t>The 337,072 number is</t>
         </is>
       </c>
     </row>
     <row r="88" spans="1:65" ht="19.5">
       <c r="C88">
         <f>H87*D88</f>
-        <v>872.63844244906375</v>
+        <v>3934.4267244992302</v>
       </c>
       <c r="D88">
         <f>D87</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
@@ -5926,19 +6091,24 @@
       <c r="G88" s="2"/>
       <c r="H88">
         <f>H87+C88</f>
-        <v>30648.045652869561</v>
+        <v>110859.58791890967</v>
       </c>
       <c r="AW88" s="2"/>
       <c r="BB88" s="1"/>
+      <c r="BE88" t="inlineStr">
+        <is>
+          <t>unique in this series, in that</t>
+        </is>
+      </c>
     </row>
     <row r="89" spans="1:65" ht="19.5">
       <c r="C89">
         <f>H88*D89</f>
-        <v>898.21316745142838</v>
+        <v>4079.1982027699873</v>
       </c>
       <c r="D89">
         <f>D88</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E89" t="s">
         <v>15</v>
@@ -5949,19 +6119,24 @@
       <c r="G89" s="2"/>
       <c r="H89">
         <f>H88+C89</f>
-        <v>31546.258820320989</v>
+        <v>114938.78612167966</v>
       </c>
       <c r="AW89" s="2"/>
       <c r="BB89" s="1"/>
+      <c r="BE89" t="inlineStr">
+        <is>
+          <t>it is the very last number</t>
+        </is>
+      </c>
     </row>
     <row r="90" spans="1:65" ht="19.5">
       <c r="C90">
         <f>H89*D90</f>
-        <v>924.53742000968532</v>
+        <v>4229.2967038545612</v>
       </c>
       <c r="D90">
         <f>D89</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E90" t="s">
         <v>16</v>
@@ -5972,419 +6147,419 @@
       <c r="G90" s="2"/>
       <c r="H90">
         <f>H89+C90</f>
-        <v>32470.796240330674</v>
+        <v>119168.08282553422</v>
       </c>
       <c r="BB90" s="1"/>
-      <c r="BE90" t="inlineStr">
+    </row>
+    <row r="91" spans="1:65" ht="19.5">
+      <c r="C91">
+        <f>H90*D91</f>
+        <v>4384.9182413075414</v>
+      </c>
+      <c r="D91">
+        <f>D90</f>
+        <v>0.036796079431161095</v>
+      </c>
+      <c r="E91" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91" s="5">
+        <v>43981</v>
+      </c>
+      <c r="G91" s="2"/>
+      <c r="H91">
+        <f>H90+C91</f>
+        <v>123553.00106684177</v>
+      </c>
+    </row>
+    <row r="92" spans="1:65" ht="19.5">
+      <c r="C92">
+        <f>H91*D92</f>
+        <v>4546.2660412138412</v>
+      </c>
+      <c r="D92">
+        <f>D91</f>
+        <v>0.036796079431161095</v>
+      </c>
+      <c r="E92" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="5">
+        <v>43982</v>
+      </c>
+      <c r="G92" s="2"/>
+      <c r="H92">
+        <f>H91+C92</f>
+        <v>128099.2671080556</v>
+      </c>
+      <c r="BE92" t="inlineStr">
         <is>
           <t>It is (therefore) not locked in</t>
         </is>
       </c>
     </row>
-    <row r="91" spans="1:65" ht="19.5">
-      <c r="C91">
-        <f>H90*D91</f>
-        <v>951.63316679432637</v>
-      </c>
-      <c r="D91">
-        <f>D90</f>
-        <v>0.029307355438741627</v>
-      </c>
-      <c r="E91" t="s">
-        <v>17</v>
-      </c>
-      <c r="F91" s="5">
-        <v>43981</v>
-      </c>
-      <c r="G91" s="2"/>
-      <c r="H91">
-        <f>H90+C91</f>
-        <v>33422.429407124997</v>
-      </c>
-      <c r="BE91" t="inlineStr">
+    <row r="93" spans="1:65" ht="19.5">
+      <c r="C93">
+        <f>H92*D93</f>
+        <v>4713.550807581536</v>
+      </c>
+      <c r="D93">
+        <f>D92</f>
+        <v>0.036796079431161095</v>
+      </c>
+      <c r="E93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="5">
+        <v>43983</v>
+      </c>
+      <c r="G93" s="2"/>
+      <c r="H93">
+        <f>H92+C93</f>
+        <v>132812.81791563713</v>
+      </c>
+      <c r="BE93" t="inlineStr">
         <is>
           <t>value, by the next number in</t>
         </is>
       </c>
     </row>
-    <row r="92" spans="1:65" ht="19.5">
-      <c r="C92">
-        <f>H91*D92</f>
-        <v>979.52301826086284</v>
-      </c>
-      <c r="D92">
-        <f>D91</f>
-        <v>0.029307355438741627</v>
-      </c>
-      <c r="E92" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" s="5">
-        <v>43982</v>
-      </c>
-      <c r="G92" s="2"/>
-      <c r="H92">
-        <f>H91+C92</f>
-        <v>34401.952425385862</v>
-      </c>
-      <c r="BE92" t="inlineStr">
+    <row r="94" spans="1:65" ht="19.5">
+      <c r="C94">
+        <f>H93*D94</f>
+        <v>4886.9909975001192</v>
+      </c>
+      <c r="D94">
+        <f>D93</f>
+        <v>0.036796079431161095</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="5">
+        <v>43984</v>
+      </c>
+      <c r="G94" s="2"/>
+      <c r="H94">
+        <f>H93+C94</f>
+        <v>137699.80891313724</v>
+      </c>
+      <c r="BE94" t="inlineStr">
         <is>
           <t>sequence (as it would be</t>
         </is>
       </c>
     </row>
-    <row r="93" spans="1:65" ht="19.5">
-      <c r="C93">
-        <f>H92*D93</f>
-        <v>1008.230247517463</v>
-      </c>
-      <c r="D93">
-        <f>D92</f>
-        <v>0.029307355438741627</v>
-      </c>
-      <c r="E93" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" s="5">
-        <v>43983</v>
-      </c>
-      <c r="G93" s="2"/>
-      <c r="H93">
-        <f>H92+C93</f>
-        <v>35410.182672903327</v>
-      </c>
-      <c r="BE93" t="inlineStr">
+    <row r="95" spans="1:65" ht="19.5">
+      <c r="C95">
+        <f>H94*D95</f>
+        <v>5066.8131064235022</v>
+      </c>
+      <c r="D95">
+        <f>D94</f>
+        <v>0.036796079431161095</v>
+      </c>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="5">
+        <v>43985</v>
+      </c>
+      <c r="G95" s="2"/>
+      <c r="H95">
+        <f>H94+C95</f>
+        <v>142766.62201956075</v>
+      </c>
+      <c r="BE95" t="inlineStr">
         <is>
           <t>expected to be, once the next</t>
         </is>
       </c>
     </row>
-    <row r="94" spans="1:65" ht="19.5">
-      <c r="C94">
-        <f>H93*D94</f>
-        <v>1037.7788097455477</v>
-      </c>
-      <c r="D94">
-        <f>D93</f>
-        <v>0.029307355438741627</v>
-      </c>
-      <c r="E94" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" s="5">
-        <v>43984</v>
-      </c>
-      <c r="G94" s="2"/>
-      <c r="H94">
-        <f>H93+C94</f>
-        <v>36447.961482648876</v>
-      </c>
-      <c r="BE94" t="inlineStr">
+    <row r="96" spans="1:65" ht="19.5">
+      <c r="C96">
+        <f>H95*D96</f>
+        <v>5253.2519639503098</v>
+      </c>
+      <c r="D96">
+        <f>D95</f>
+        <v>0.036796079431161095</v>
+      </c>
+      <c r="E96" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96" s="5">
+        <v>43986</v>
+      </c>
+      <c r="G96" s="2"/>
+      <c r="H96">
+        <f>H95+C96</f>
+        <v>148019.87398351106</v>
+      </c>
+      <c r="BE96" t="inlineStr">
         <is>
           <t>number in sequence has been</t>
         </is>
       </c>
     </row>
-    <row r="95" spans="1:65" ht="19.5">
-      <c r="C95">
-        <f>H94*D95</f>
-        <v>1068.1933621895548</v>
-      </c>
-      <c r="D95">
-        <f>D94</f>
-        <v>0.029307355438741627</v>
-      </c>
-      <c r="E95" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="5">
-        <v>43985</v>
-      </c>
-      <c r="G95" s="2"/>
-      <c r="H95">
-        <f>H94+C95</f>
-        <v>37516.154844838427</v>
-      </c>
-      <c r="BE95" t="inlineStr">
+    <row r="97" spans="1:65" ht="19.5">
+      <c r="C97">
+        <f>H96*D97</f>
+        <v>5446.5510404877286</v>
+      </c>
+      <c r="D97">
+        <f>D96</f>
+        <v>0.036796079431161095</v>
+      </c>
+      <c r="E97" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97" s="5">
+        <v>43987</v>
+      </c>
+      <c r="G97" s="2"/>
+      <c r="H97">
+        <f>H96+C97</f>
+        <v>153466.4250239988</v>
+      </c>
+      <c r="BE97" t="inlineStr">
         <is>
           <t>given).</t>
         </is>
       </c>
     </row>
-    <row r="96" spans="1:65" ht="19.5">
-      <c r="C96">
-        <f>H95*D96</f>
-        <v>1099.4992847325484</v>
-      </c>
-      <c r="D96">
-        <f>D95</f>
-        <v>0.029307355438741627</v>
-      </c>
-      <c r="E96" t="s">
-        <v>15</v>
-      </c>
-      <c r="F96" s="5">
-        <v>43986</v>
-      </c>
-      <c r="G96" s="2"/>
-      <c r="H96">
-        <f>H95+C96</f>
-        <v>38615.654129570976</v>
-      </c>
-    </row>
-    <row r="97" spans="1:65" ht="19.5">
-      <c r="C97">
-        <f>H96*D97</f>
-        <v>1131.7227010748475</v>
-      </c>
-      <c r="D97">
-        <f>D96</f>
-        <v>0.029307355438741627</v>
-      </c>
-      <c r="E97" t="s">
-        <v>16</v>
-      </c>
-      <c r="F97" s="5">
-        <v>43987</v>
-      </c>
-      <c r="G97" s="2"/>
-      <c r="H97">
-        <f>H96+C97</f>
-        <v>39747.376830645822</v>
-      </c>
-      <c r="BE97" t="inlineStr">
+    <row r="98" spans="1:65" ht="19.5">
+      <c r="C98">
+        <f>H97*D98</f>
+        <v>5646.9627651993887</v>
+      </c>
+      <c r="D98">
+        <f>D97</f>
+        <v>0.036796079431161095</v>
+      </c>
+      <c r="E98" t="s">
+        <v>17</v>
+      </c>
+      <c r="F98" s="5">
+        <v>43988</v>
+      </c>
+      <c r="G98" s="2"/>
+      <c r="H98">
+        <f>H97+C98</f>
+        <v>159113.3877891982</v>
+      </c>
+    </row>
+    <row r="99" spans="1:65" ht="19.5">
+      <c r="C99">
+        <f>H98*D99</f>
+        <v>5854.748855652475</v>
+      </c>
+      <c r="D99">
+        <f>D98</f>
+        <v>0.036796079431161095</v>
+      </c>
+      <c r="E99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="5">
+        <v>43989</v>
+      </c>
+      <c r="G99" s="2"/>
+      <c r="H99">
+        <f>H98+C99</f>
+        <v>164968.13664485066</v>
+      </c>
+      <c r="BE99" t="inlineStr">
         <is>
           <t>In other words, it is not subject</t>
         </is>
       </c>
     </row>
-    <row r="98" spans="1:65" ht="19.5">
-      <c r="C98">
-        <f>H97*D98</f>
-        <v>1164.8905005333409</v>
-      </c>
-      <c r="D98">
-        <f>D97</f>
-        <v>0.029307355438741627</v>
-      </c>
-      <c r="E98" t="s">
-        <v>17</v>
-      </c>
-      <c r="F98" s="5">
-        <v>43988</v>
-      </c>
-      <c r="G98" s="2"/>
-      <c r="H98">
-        <f>H97+C98</f>
-        <v>40912.267331179166</v>
-      </c>
-      <c r="BE98" t="inlineStr">
+    <row r="100" spans="1:65" ht="19.5">
+      <c r="C100">
+        <f>H99*D100</f>
+        <v>6070.1806595945627</v>
+      </c>
+      <c r="D100">
+        <f>D99</f>
+        <v>0.036796079431161095</v>
+      </c>
+      <c r="E100" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="5">
+        <v>43990</v>
+      </c>
+      <c r="G100" s="2"/>
+      <c r="H100">
+        <f>H99+C100</f>
+        <v>171038.31730444523</v>
+      </c>
+      <c r="BE100" t="inlineStr">
         <is>
           <t>to further revision, once the next</t>
         </is>
       </c>
     </row>
-    <row r="99" spans="1:65" ht="19.5">
-      <c r="C99">
-        <f>H98*D99</f>
-        <v>1199.030360479685</v>
-      </c>
-      <c r="D99">
-        <f>D98</f>
-        <v>0.029307355438741627</v>
-      </c>
-      <c r="E99" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="5">
-        <v>43989</v>
-      </c>
-      <c r="G99" s="2"/>
-      <c r="H99">
-        <f>H98+C99</f>
-        <v>42111.297691658852</v>
-      </c>
-      <c r="BE99" t="inlineStr">
+    <row r="101" spans="1:65" ht="19.5">
+      <c r="C101">
+        <f>H100*D101</f>
+        <v>6293.5395093065017</v>
+      </c>
+      <c r="D101">
+        <f>D100</f>
+        <v>0.036796079431161095</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="5">
+        <v>43991</v>
+      </c>
+      <c r="G101" s="2"/>
+      <c r="H101">
+        <f>H100+C101</f>
+        <v>177331.85681375174</v>
+      </c>
+      <c r="BE101" t="inlineStr">
         <is>
           <t>day's figure has been posted.</t>
         </is>
       </c>
     </row>
-    <row r="100" spans="1:65" ht="19.5">
-      <c r="C100">
-        <f>H99*D100</f>
-        <v>1234.1707694361057</v>
-      </c>
-      <c r="D100">
-        <f>D99</f>
-        <v>0.029307355438741627</v>
-      </c>
-      <c r="E100" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="5">
-        <v>43990</v>
-      </c>
-      <c r="G100" s="2"/>
-      <c r="H100">
-        <f>H99+C100</f>
-        <v>43345.468461094955</v>
-      </c>
-    </row>
-    <row r="101" spans="1:65" ht="19.5">
-      <c r="C101">
-        <f>H100*D101</f>
-        <v>1270.3410508480749</v>
-      </c>
-      <c r="D101">
-        <f>D100</f>
-        <v>0.029307355438741627</v>
-      </c>
-      <c r="E101" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" s="5">
-        <v>43991</v>
-      </c>
-      <c r="G101" s="2"/>
-      <c r="H101">
-        <f>H100+C101</f>
-        <v>44615.809511943029</v>
-      </c>
-      <c r="BE101" t="inlineStr">
+    <row r="102" spans="1:65" ht="19.5">
+      <c r="C102">
+        <f>H101*D102</f>
+        <v>6525.117088994095</v>
+      </c>
+      <c r="D102">
+        <f>D101</f>
+        <v>0.036796079431161095</v>
+      </c>
+      <c r="E102" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="5">
+        <v>43992</v>
+      </c>
+      <c r="G102" s="2"/>
+      <c r="H102">
+        <f>H101+C102</f>
+        <v>183856.97390274584</v>
+      </c>
+    </row>
+    <row r="103" spans="1:65" ht="19.5">
+      <c r="C103">
+        <f>H102*D103</f>
+        <v>6765.2158156983487</v>
+      </c>
+      <c r="D103">
+        <f>D102</f>
+        <v>0.036796079431161095</v>
+      </c>
+      <c r="E103" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" s="5">
+        <v>43993</v>
+      </c>
+      <c r="G103" s="2"/>
+      <c r="H103">
+        <f>H102+C103</f>
+        <v>190622.18971844419</v>
+      </c>
+      <c r="BE103" t="inlineStr">
         <is>
           <t>In other words, the very last number</t>
         </is>
       </c>
     </row>
-    <row r="102" spans="1:65" ht="19.5">
-      <c r="C102">
-        <f>H101*D102</f>
-        <v>1307.571387553704</v>
-      </c>
-      <c r="D102">
-        <f>D101</f>
-        <v>0.029307355438741627</v>
-      </c>
-      <c r="E102" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="5">
-        <v>43992</v>
-      </c>
-      <c r="G102" s="2"/>
-      <c r="H102">
-        <f>H101+C102</f>
-        <v>45923.380899496733</v>
-      </c>
-      <c r="BE102" t="inlineStr">
+    <row r="104" spans="1:65" ht="19.5">
+      <c r="C104">
+        <f>H103*D104</f>
+        <v>7014.1492342217325</v>
+      </c>
+      <c r="D104">
+        <f>D103</f>
+        <v>0.036796079431161095</v>
+      </c>
+      <c r="E104" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" s="5">
+        <v>43994</v>
+      </c>
+      <c r="G104" s="2"/>
+      <c r="H104">
+        <f>H103+C104</f>
+        <v>197636.33895266592</v>
+      </c>
+      <c r="BE104" t="inlineStr">
         <is>
           <t>in this sequence is perpetually taken</t>
         </is>
       </c>
     </row>
-    <row r="103" spans="1:65" ht="19.5">
-      <c r="C103">
-        <f>H102*D103</f>
-        <v>1345.8928469702689</v>
-      </c>
-      <c r="D103">
-        <f>D102</f>
-        <v>0.029307355438741627</v>
-      </c>
-      <c r="E103" t="s">
-        <v>15</v>
-      </c>
-      <c r="F103" s="5">
-        <v>43993</v>
-      </c>
-      <c r="G103" s="2"/>
-      <c r="H103">
-        <f>H102+C103</f>
-        <v>47269.273746466999</v>
-      </c>
-      <c r="BE103" t="inlineStr">
+    <row r="105" spans="1:65" ht="19.5">
+      <c r="C105">
+        <f>H104*D105</f>
+        <v>7272.2424265861728</v>
+      </c>
+      <c r="D105">
+        <f>D104</f>
+        <v>0.036796079431161095</v>
+      </c>
+      <c r="E105" t="s">
+        <v>17</v>
+      </c>
+      <c r="F105" s="5">
+        <v>43995</v>
+      </c>
+      <c r="G105" s="2"/>
+      <c r="H105">
+        <f>H104+C105</f>
+        <v>204908.58137925208</v>
+      </c>
+      <c r="BE105" t="inlineStr">
         <is>
           <t>as other than final for that day's</t>
         </is>
       </c>
     </row>
-    <row r="104" spans="1:65" ht="19.5">
-      <c r="C104">
-        <f>H103*D104</f>
-        <v>1385.3374070188863</v>
-      </c>
-      <c r="D104">
-        <f>D103</f>
-        <v>0.029307355438741627</v>
-      </c>
-      <c r="E104" t="s">
-        <v>16</v>
-      </c>
-      <c r="F104" s="5">
-        <v>43994</v>
-      </c>
-      <c r="G104" s="2"/>
-      <c r="H104">
-        <f>H103+C104</f>
-        <v>48654.611153485886</v>
-      </c>
-      <c r="BE104" t="inlineStr">
+    <row r="106" spans="1:65" ht="19.5">
+      <c r="C106">
+        <f>H105*D106</f>
+        <v>7539.8324365574972</v>
+      </c>
+      <c r="D106">
+        <f>D105</f>
+        <v>0.036796079431161095</v>
+      </c>
+      <c r="E106" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="5">
+        <v>43996</v>
+      </c>
+      <c r="G106" s="2"/>
+      <c r="H106">
+        <f>H105+C106</f>
+        <v>212448.41381580959</v>
+      </c>
+      <c r="BE106" t="inlineStr">
         <is>
           <t>reportage.</t>
         </is>
       </c>
     </row>
-    <row r="105" spans="1:65" ht="19.5">
-      <c r="C105">
-        <f>H104*D105</f>
-        <v>1425.9379828089736</v>
-      </c>
-      <c r="D105">
-        <f>D104</f>
-        <v>0.029307355438741627</v>
-      </c>
-      <c r="E105" t="s">
-        <v>17</v>
-      </c>
-      <c r="F105" s="5">
-        <v>43995</v>
-      </c>
-      <c r="G105" s="2"/>
-      <c r="H105">
-        <f>H104+C105</f>
-        <v>50080.54913629486</v>
-      </c>
-    </row>
-    <row r="106" spans="1:65" ht="19.5">
-      <c r="C106">
-        <f>H105*D106</f>
-        <v>1467.7284541047584</v>
-      </c>
-      <c r="D106">
-        <f>D105</f>
-        <v>0.029307355438741627</v>
-      </c>
-      <c r="E106" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" s="5">
-        <v>43996</v>
-      </c>
-      <c r="G106" s="2"/>
-      <c r="H106">
-        <f>H105+C106</f>
-        <v>51548.277590399615</v>
-      </c>
-    </row>
     <row r="107" spans="1:65" ht="19.5">
       <c r="C107">
         <f>H106*D107</f>
-        <v>1510.7436935967612</v>
+        <v>7817.2687097907119</v>
       </c>
       <c r="D107">
         <f>D106</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E107" t="s">
         <v>12</v>
@@ -6395,17 +6570,17 @@
       <c r="G107" s="2"/>
       <c r="H107">
         <f>H106+C107</f>
-        <v>53059.021283996379</v>
+        <v>220265.68252560031</v>
       </c>
     </row>
     <row r="108" spans="1:65" ht="19.5">
       <c r="C108">
         <f>H107*D108</f>
-        <v>1555.0195960018391</v>
+        <v>8104.9135501709015</v>
       </c>
       <c r="D108">
         <f>D107</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E108" t="s">
         <v>13</v>
@@ -6416,17 +6591,17 @@
       <c r="G108" s="2"/>
       <c r="H108">
         <f>H107+C108</f>
-        <v>54614.040879998218</v>
+        <v>228370.5960757712</v>
       </c>
     </row>
     <row r="109" spans="1:65" ht="19.5">
       <c r="C109">
         <f>H108*D109</f>
-        <v>1600.5931080160733</v>
+        <v>8403.1425929456836</v>
       </c>
       <c r="D109">
         <f>D108</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E109" t="s">
         <v>14</v>
@@ -6437,17 +6612,17 @@
       <c r="G109" s="2"/>
       <c r="H109">
         <f>H108+C109</f>
-        <v>56214.633988014291</v>
+        <v>236773.73866871689</v>
       </c>
     </row>
     <row r="110" spans="1:65" ht="19.5">
       <c r="C110">
         <f>H109*D110</f>
-        <v>1647.5022591455006</v>
+        <v>8712.3452952670868</v>
       </c>
       <c r="D110">
         <f>D109</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E110" t="s">
         <v>15</v>
@@ -6458,17 +6633,17 @@
       <c r="G110" s="2"/>
       <c r="H110">
         <f>H109+C110</f>
-        <v>57862.136247159789</v>
+        <v>245486.08396398398</v>
       </c>
     </row>
     <row r="111" spans="1:65" ht="19.5">
       <c r="C111">
         <f>H110*D111</f>
-        <v>1695.7861934404075</v>
+        <v>9032.9254447834373</v>
       </c>
       <c r="D111">
         <f>D110</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E111" t="s">
         <v>16</v>
@@ -6479,17 +6654,17 @@
       <c r="G111" s="2"/>
       <c r="H111">
         <f>H110+C111</f>
-        <v>59557.922440600196</v>
+        <v>254519.00940876742</v>
       </c>
     </row>
     <row r="112" spans="1:65" ht="19.5">
       <c r="C112">
         <f>H111*D112</f>
-        <v>1745.4852021596762</v>
+        <v>9365.3016869454441</v>
       </c>
       <c r="D112">
         <f>D111</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E112" t="s">
         <v>17</v>
@@ -6500,17 +6675,17 @@
       <c r="G112" s="2"/>
       <c r="H112">
         <f>H111+C112</f>
-        <v>61303.40764275987</v>
+        <v>263884.31109571288</v>
       </c>
     </row>
     <row r="113" spans="1:65" ht="19.5">
       <c r="C113">
         <f>H112*D113</f>
-        <v>1796.6407573924334</v>
+        <v>9709.9080717150755</v>
       </c>
       <c r="D113">
         <f>D112</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
@@ -6521,17 +6696,17 @@
       <c r="G113" s="2"/>
       <c r="H113">
         <f>H112+C113</f>
-        <v>63100.0484001523</v>
+        <v>273594.21916742797</v>
       </c>
     </row>
     <row r="114" spans="1:65" ht="19.5">
       <c r="C114">
         <f>H113*D114</f>
-        <v>1849.2955466650633</v>
+        <v>10067.194620391178</v>
       </c>
       <c r="D114">
         <f>D113</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E114" t="s">
         <v>12</v>
@@ -6542,17 +6717,17 @@
       <c r="G114" s="2"/>
       <c r="H114">
         <f>H113+C114</f>
-        <v>64949.34394681736</v>
+        <v>283661.41378781915</v>
       </c>
     </row>
     <row r="115" spans="1:65" ht="19.5">
       <c r="C115">
         <f>H114*D115</f>
-        <v>1903.4935085624584</v>
+        <v>10437.627913292048</v>
       </c>
       <c r="D115">
         <f>D114</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E115" t="s">
         <v>13</v>
@@ -6563,17 +6738,17 @@
       <c r="G115" s="2"/>
       <c r="H115">
         <f>H114+C115</f>
-        <v>66852.83745537982</v>
+        <v>294099.04170111119</v>
       </c>
     </row>
     <row r="116" spans="1:65" ht="19.5">
       <c r="C116">
         <f>H115*D116</f>
-        <v>1959.2798693932357</v>
+        <v>10821.691699062447</v>
       </c>
       <c r="D116">
         <f>D115</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
@@ -6584,17 +6759,17 @@
       <c r="G116" s="2"/>
       <c r="H116">
         <f>H115+C116</f>
-        <v>68812.117324773062</v>
+        <v>304920.73340017366</v>
       </c>
     </row>
     <row r="117" spans="1:65" ht="19.5">
       <c r="C117">
         <f>H116*D117</f>
-        <v>2016.7011809295147</v>
+        <v>11219.887526400686</v>
       </c>
       <c r="D117">
         <f>D116</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E117" t="s">
         <v>15</v>
@@ -6605,17 +6780,17 @@
       <c r="G117" s="2"/>
       <c r="H117">
         <f>H116+C117</f>
-        <v>70828.818505702584</v>
+        <v>316140.62092657434</v>
       </c>
     </row>
     <row r="118" spans="1:65" ht="19.5">
       <c r="C118">
         <f>H117*D118</f>
-        <v>2075.8053592527463</v>
+        <v>11632.735399030818</v>
       </c>
       <c r="D118">
         <f>D117</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E118" t="s">
         <v>16</v>
@@ -6626,17 +6801,17 @@
       <c r="G118" s="2"/>
       <c r="H118">
         <f>H117+C118</f>
-        <v>72904.623864955327</v>
+        <v>327773.35632560519</v>
       </c>
     </row>
     <row r="119" spans="1:65" ht="19.5">
       <c r="C119">
         <f>H118*D119</f>
-        <v>2136.6417247380109</v>
+        <v>12060.774454775237</v>
       </c>
       <c r="D119">
         <f>D118</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E119" t="s">
         <v>17</v>
@@ -6647,17 +6822,17 @@
       <c r="G119" s="2"/>
       <c r="H119">
         <f>H118+C119</f>
-        <v>75041.265589693343</v>
+        <v>339834.13078038045</v>
       </c>
     </row>
     <row r="120" spans="1:65" ht="19.5">
       <c r="C120">
         <f>H119*D120</f>
-        <v>2199.2610432101542</v>
+        <v>12504.563669614467</v>
       </c>
       <c r="D120">
         <f>D119</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
@@ -6668,17 +6843,17 @@
       <c r="G120" s="2"/>
       <c r="H120">
         <f>H119+C120</f>
-        <v>77240.526632903493</v>
+        <v>352338.69444999495</v>
       </c>
     </row>
     <row r="121" spans="1:65" ht="19.5">
       <c r="C121">
         <f>H120*D121</f>
-        <v>2263.7155683060914</v>
+        <v>12964.682587653613</v>
       </c>
       <c r="D121">
         <f>D120</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E121" t="s">
         <v>12</v>
@@ -6689,17 +6864,17 @@
       <c r="G121" s="2"/>
       <c r="H121">
         <f>H120+C121</f>
-        <v>79504.242201209578</v>
+        <v>365303.37703764858</v>
       </c>
     </row>
     <row r="122" spans="1:65" ht="19.5">
       <c r="C122">
         <f>H121*D122</f>
-        <v>2330.0590850786512</v>
+        <v>13441.732077948707</v>
       </c>
       <c r="D122">
         <f>D121</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E122" t="s">
         <v>13</v>
@@ -6710,17 +6885,17 @@
       <c r="G122" s="2"/>
       <c r="H122">
         <f>H121+C122</f>
-        <v>81834.301286288231</v>
+        <v>378745.10911559727</v>
       </c>
     </row>
     <row r="123" spans="1:65" ht="19.5">
       <c r="C123">
         <f>H122*D123</f>
-        <v>2398.3469548783205</v>
+        <v>13936.335119181293</v>
       </c>
       <c r="D123">
         <f>D122</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E123" t="s">
         <v>14</v>
@@ -6731,17 +6906,17 @@
       <c r="G123" s="2"/>
       <c r="H123">
         <f>H122+C123</f>
-        <v>84232.648241166549</v>
+        <v>392681.44423477858</v>
       </c>
     </row>
     <row r="124" spans="1:65" ht="19.5">
       <c r="C124">
         <f>H123*D124</f>
-        <v>2468.6361615503629</v>
+        <v>14449.137613205969</v>
       </c>
       <c r="D124">
         <f>D123</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E124" t="s">
         <v>15</v>
@@ -6752,17 +6927,17 @@
       <c r="G124" s="2"/>
       <c r="H124">
         <f>H123+C124</f>
-        <v>86701.284402716905</v>
+        <v>407130.58184798458</v>
       </c>
     </row>
     <row r="125" spans="1:65" ht="19.5">
       <c r="C125">
         <f>H124*D125</f>
-        <v>2540.9853589858499</v>
+        <v>14980.809228533273</v>
       </c>
       <c r="D125">
         <f>D124</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E125" t="s">
         <v>16</v>
@@ -6773,17 +6948,17 @@
       <c r="G125" s="2"/>
       <c r="H125">
         <f>H124+C125</f>
-        <v>89242.269761702759</v>
+        <v>422111.39107651787</v>
       </c>
     </row>
     <row r="126" spans="1:65" ht="19.5">
       <c r="C126">
         <f>H125*D126</f>
-        <v>2615.4549200662868</v>
+        <v>15532.044274849457</v>
       </c>
       <c r="D126">
         <f>D125</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E126" t="s">
         <v>17</v>
@@ -6794,17 +6969,17 @@
       <c r="G126" s="2"/>
       <c r="H126">
         <f>H125+C126</f>
-        <v>91857.724681769047</v>
+        <v>437643.43535136734</v>
       </c>
     </row>
     <row r="127" spans="1:65" ht="19.5">
       <c r="C127">
         <f>H126*D127</f>
-        <v>2692.106987042675</v>
+        <v>16103.562609715129</v>
       </c>
       <c r="D127">
         <f>D126</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E127" t="s">
         <v>11</v>
@@ -6815,17 +6990,17 @@
       <c r="G127" s="2"/>
       <c r="H127">
         <f>H126+C127</f>
-        <v>94549.831668811719</v>
+        <v>453746.9979610825</v>
       </c>
     </row>
     <row r="128" spans="1:65" ht="19.5">
       <c r="C128">
         <f>H127*D128</f>
-        <v>2771.0055233910543</v>
+        <v>16696.110578626882</v>
       </c>
       <c r="D128">
         <f>D127</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E128" t="s">
         <v>12</v>
@@ -6836,17 +7011,17 @@
       <c r="G128" s="2"/>
       <c r="H128">
         <f>H127+C128</f>
-        <v>97320.837192202773</v>
+        <v>470443.10853970936</v>
       </c>
     </row>
     <row r="129" spans="1:65" ht="19.5">
       <c r="C129">
         <f>H128*D129</f>
-        <v>2852.2163671877925</v>
+        <v>17310.461989669486</v>
       </c>
       <c r="D129">
         <f>D128</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E129" t="s">
         <v>13</v>
@@ -6857,17 +7032,17 @@
       <c r="G129" s="2"/>
       <c r="H129">
         <f>H128+C129</f>
-        <v>100173.05355939057</v>
+        <v>487753.57052937883</v>
       </c>
     </row>
     <row r="130" spans="1:65" ht="19.5">
       <c r="C130">
         <f>H129*D130</f>
-        <v>2935.8072860491616</v>
+        <v>17947.419124031458</v>
       </c>
       <c r="D130">
         <f>D129</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E130" t="s">
         <v>14</v>
@@ -6878,17 +7053,17 @@
       <c r="G130" s="2"/>
       <c r="H130">
         <f>H129+C130</f>
-        <v>103108.86084543973</v>
+        <v>505700.98965341027</v>
       </c>
     </row>
     <row r="131" spans="1:65" ht="19.5">
       <c r="C131">
         <f>H130*D131</f>
-        <v>3021.8480336810517</v>
+        <v>18607.813783703659</v>
       </c>
       <c r="D131">
         <f>D130</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E131" t="s">
         <v>15</v>
@@ -6899,17 +7074,17 @@
       <c r="G131" s="2"/>
       <c r="H131">
         <f>H130+C131</f>
-        <v>106130.70887912078</v>
+        <v>524308.80343711388</v>
       </c>
     </row>
     <row r="132" spans="1:65" ht="19.5">
       <c r="C132">
         <f>H131*D132</f>
-        <v>3110.4104080860047</v>
+        <v>19292.508377729071</v>
       </c>
       <c r="D132">
         <f>D131</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E132" t="s">
         <v>16</v>
@@ -6919,17 +7094,17 @@
       </c>
       <c r="H132">
         <f>H131+C132</f>
-        <v>109241.11928720678</v>
+        <v>543601.31181484298</v>
       </c>
     </row>
     <row r="133" spans="1:65" ht="19.5">
       <c r="C133">
         <f>H132*D133</f>
-        <v>3201.5683114761423</v>
+        <v>20002.397048422332</v>
       </c>
       <c r="D133">
         <f>D132</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E133" t="s">
         <v>17</v>
@@ -6939,17 +7114,17 @@
       </c>
       <c r="H133">
         <f>H132+C133</f>
-        <v>112442.68759868293</v>
+        <v>563603.70886326535</v>
       </c>
     </row>
     <row r="134" spans="1:65" ht="19.5">
       <c r="C134">
         <f>H133*D134</f>
-        <v>3295.3978119419858</v>
+        <v>20738.406839029703</v>
       </c>
       <c r="D134">
         <f>D133</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E134" t="s">
         <v>11</v>
@@ -6959,17 +7134,17 @@
       </c>
       <c r="H134">
         <f>H133+C134</f>
-        <v>115738.08541062492</v>
+        <v>584342.11570229509</v>
       </c>
     </row>
     <row r="135" spans="1:65" ht="19.5">
       <c r="C135">
         <f>H134*D135</f>
-        <v>3391.9772069286209</v>
+        <v>21501.498904354379</v>
       </c>
       <c r="D135">
         <f>D134</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E135" t="s">
         <v>12</v>
@@ -6979,17 +7154,17 @@
       </c>
       <c r="H135">
         <f>H134+C135</f>
-        <v>119130.06261755354</v>
+        <v>605843.6146066495</v>
       </c>
     </row>
     <row r="136" spans="1:65" ht="19.5">
       <c r="C136">
         <f>H135*D136</f>
-        <v>3491.3870885721885</v>
+        <v>22292.669765928025</v>
       </c>
       <c r="D136">
         <f>D135</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E136" t="s">
         <v>13</v>
@@ -6999,17 +7174,17 @@
       </c>
       <c r="H136">
         <f>H135+C136</f>
-        <v>122621.44970612573</v>
+        <v>628136.28437257756</v>
       </c>
     </row>
     <row r="137" spans="1:65" ht="19.5">
       <c r="C137">
         <f>H136*D137</f>
-        <v>3593.7104109512065</v>
+        <v>23112.952613367757</v>
       </c>
       <c r="D137">
         <f>D136</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E137" t="s">
         <v>14</v>
@@ -7019,17 +7194,17 @@
       </c>
       <c r="H137">
         <f>H136+C137</f>
-        <v>126215.16011707693</v>
+        <v>651249.23698594538</v>
       </c>
     </row>
     <row r="138" spans="1:65" ht="19.5">
       <c r="C138">
         <f>H137*D138</f>
-        <v>3699.0325593088596</v>
+        <v>23963.418653617904</v>
       </c>
       <c r="D138">
         <f>D137</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E138" t="s">
         <v>15</v>
@@ -7039,17 +7214,17 @@
       </c>
       <c r="H138">
         <f>H137+C138</f>
-        <v>129914.19267638579</v>
+        <v>675212.65563956322</v>
       </c>
     </row>
     <row r="139" spans="1:65" ht="19.5">
       <c r="C139">
         <f>H138*D139</f>
-        <v>3807.4414213040027</v>
+        <v>24845.178509838592</v>
       </c>
       <c r="D139">
         <f>D138</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E139" t="s">
         <v>16</v>
@@ -7059,17 +7234,17 @@
       </c>
       <c r="H139">
         <f>H138+C139</f>
-        <v>133721.63409768979</v>
+        <v>700057.83414940187</v>
       </c>
     </row>
     <row r="140" spans="1:65" ht="19.5">
       <c r="C140">
         <f>H139*D140</f>
-        <v>3919.0274603503467</v>
+        <v>25759.383671767991</v>
       </c>
       <c r="D140">
         <f>D139</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E140" t="s">
         <v>17</v>
@@ -7079,17 +7254,17 @@
       </c>
       <c r="H140">
         <f>H139+C140</f>
-        <v>137640.66155804013</v>
+        <v>725817.21782116988</v>
       </c>
     </row>
     <row r="141" spans="1:65" ht="19.5">
       <c r="C141">
         <f>H140*D141</f>
-        <v>4033.8837911050227</v>
+        <v>26707.22799945212</v>
       </c>
       <c r="D141">
         <f>D140</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E141" t="s">
         <v>11</v>
@@ -7099,17 +7274,17 @@
       </c>
       <c r="H141">
         <f>H140+C141</f>
-        <v>141674.54534914516</v>
+        <v>752524.44582062203</v>
       </c>
     </row>
     <row r="142" spans="1:65" ht="19.5">
       <c r="C142">
         <f>H141*D142</f>
-        <v>4152.1062571695165</v>
+        <v>27689.949282306094</v>
       </c>
       <c r="D142">
         <f>D141</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E142" t="s">
         <v>12</v>
@@ -7119,17 +7294,17 @@
       </c>
       <c r="H142">
         <f>H141+C142</f>
-        <v>145826.65160631467</v>
+        <v>780214.39510292816</v>
       </c>
     </row>
     <row r="143" spans="1:65" ht="19.5">
       <c r="C143">
         <f>H142*D143</f>
-        <v>4273.7935110678063</v>
+        <v>28708.830855542652</v>
       </c>
       <c r="D143">
         <f>D142</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E143" t="s">
         <v>13</v>
@@ -7139,17 +7314,17 @@
       </c>
       <c r="H143">
         <f>H142+C143</f>
-        <v>150100.44511738248</v>
+        <v>808923.22595847084</v>
       </c>
     </row>
     <row r="144" spans="1:65" ht="19.5">
       <c r="C144">
         <f>H143*D144</f>
-        <v>4399.0470965684581</v>
+        <v>29765.203276078966</v>
       </c>
       <c r="D144">
         <f>D143</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E144" t="s">
         <v>14</v>
@@ -7159,17 +7334,17 @@
       </c>
       <c r="H144">
         <f>H143+C144</f>
-        <v>154499.49221395093</v>
+        <v>838688.42923454975</v>
       </c>
     </row>
     <row r="145" spans="1:65" ht="19.5">
       <c r="C145">
         <f>H144*D145</f>
-        <v>4527.9715334193543</v>
+        <v>30860.446060110226</v>
       </c>
       <c r="D145">
         <f>D144</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E145" t="s">
         <v>15</v>
@@ -7179,17 +7354,17 @@
       </c>
       <c r="H145">
         <f>H144+C145</f>
-        <v>159027.46374737029</v>
+        <v>869548.87529465999</v>
       </c>
     </row>
     <row r="146" spans="1:65" ht="19.5">
       <c r="C146">
         <f>H145*D146</f>
-        <v>4660.6744045657797</v>
+        <v>31995.989484619102</v>
       </c>
       <c r="D146">
         <f>D145</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E146" t="s">
         <v>16</v>
@@ -7199,17 +7374,17 @@
       </c>
       <c r="H146">
         <f>H145+C146</f>
-        <v>163688.13815193606</v>
+        <v>901544.8647792791</v>
       </c>
     </row>
     <row r="147" spans="1:65" ht="19.5">
       <c r="C147">
         <f>H146*D147</f>
-        <v>4797.2664459246344</v>
+        <v>33173.316455173743</v>
       </c>
       <c r="D147">
         <f>D146</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E147" t="s">
         <v>17</v>
@@ -7219,17 +7394,17 @@
       </c>
       <c r="H147">
         <f>H146+C147</f>
-        <v>168485.4045978607</v>
+        <v>934718.18123445287</v>
       </c>
     </row>
     <row r="148" spans="1:65" ht="19.5">
       <c r="C148">
         <f>H147*D148</f>
-        <v>4937.8616387896964</v>
+        <v>34393.964442453362</v>
       </c>
       <c r="D148">
         <f>D147</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E148" t="s">
         <v>11</v>
@@ -7239,17 +7414,17 @@
       </c>
       <c r="H148">
         <f>H147+C148</f>
-        <v>173423.26623665041</v>
+        <v>969112.14567690622</v>
       </c>
     </row>
     <row r="149" spans="1:65" ht="19.5">
       <c r="C149">
         <f>H148*D149</f>
-        <v>5082.5773049450336</v>
+        <v>35659.527490030407</v>
       </c>
       <c r="D149">
         <f>D148</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E149" t="s">
         <v>12</v>
@@ -7259,17 +7434,17 @@
       </c>
       <c r="H149">
         <f>H148+C149</f>
-        <v>178505.84354159544</v>
+        <v>1004771.6731669366</v>
       </c>
     </row>
     <row r="150" spans="1:65" ht="19.5">
       <c r="C150">
         <f>H149*D150</f>
-        <v>5231.534204565939</v>
+        <v>36971.658296031237</v>
       </c>
       <c r="D150">
         <f>D149</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E150" t="s">
         <v>13</v>
@@ -7279,17 +7454,17 @@
       </c>
       <c r="H150">
         <f>H149+C150</f>
-        <v>183737.37774616139</v>
+        <v>1041743.3314629679</v>
       </c>
     </row>
     <row r="151" spans="1:65" ht="19.5">
       <c r="C151">
         <f>H150*D151</f>
-        <v>5384.8566369890877</v>
+        <v>38332.070371393747</v>
       </c>
       <c r="D151">
         <f>D150</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E151" t="s">
         <v>14</v>
@@ -7299,17 +7474,17 @@
       </c>
       <c r="H151">
         <f>H150+C151</f>
-        <v>189122.23438315047</v>
+        <v>1080075.4018343617</v>
       </c>
     </row>
     <row r="152" spans="1:65" ht="19.5">
       <c r="C152">
         <f>H151*D152</f>
-        <v>5542.6725444359936</v>
+        <v>39742.540277540415</v>
       </c>
       <c r="D152">
         <f>D151</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E152" t="s">
         <v>15</v>
@@ -7319,17 +7494,17 @@
       </c>
       <c r="H152">
         <f>H151+C152</f>
-        <v>194664.90692758647</v>
+        <v>1119817.9421119022</v>
       </c>
     </row>
     <row r="153" spans="1:65" ht="19.5">
       <c r="C153">
         <f>H152*D153</f>
-        <v>5705.1136187763341</v>
+        <v>41204.909946388907</v>
       </c>
       <c r="D153">
         <f>D152</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E153" t="s">
         <v>16</v>
@@ -7339,17 +7514,17 @@
       </c>
       <c r="H153">
         <f>H152+C153</f>
-        <v>200370.02054636282</v>
+        <v>1161022.852058291</v>
       </c>
     </row>
     <row r="154" spans="1:65" ht="19.5">
       <c r="C154">
         <f>H153*D154</f>
-        <v>5872.315411420218</v>
+        <v>42721.089085730069</v>
       </c>
       <c r="D154">
         <f>D153</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E154" t="s">
         <v>17</v>
@@ -7359,17 +7534,17 @@
       </c>
       <c r="H154">
         <f>H153+C154</f>
-        <v>206242.33595778304</v>
+        <v>1203743.941144021</v>
       </c>
     </row>
     <row r="155" spans="1:65" ht="19.5">
       <c r="C155">
         <f>H154*D155</f>
-        <v>6044.4174464311109</v>
+        <v>44293.057673114301</v>
       </c>
       <c r="D155">
         <f>D154</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E155" t="s">
         <v>11</v>
@@ -7379,17 +7554,17 @@
       </c>
       <c r="H155">
         <f>H154+C155</f>
-        <v>212286.75340421416</v>
+        <v>1248036.9988171353</v>
       </c>
     </row>
     <row r="156" spans="1:65" ht="19.5">
       <c r="C156">
         <f>H155*D156</f>
-        <v>6221.5633369537982</v>
+        <v>45922.868541503216</v>
       </c>
       <c r="D156">
         <f>D155</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E156" t="s">
         <v>12</v>
@@ -7399,17 +7574,17 @@
       </c>
       <c r="H156">
         <f>H155+C156</f>
-        <v>218508.31674116798</v>
+        <v>1293959.8673586387</v>
       </c>
     </row>
     <row r="157" spans="1:65" ht="19.5">
       <c r="C157">
         <f>H156*D157</f>
-        <v>6403.9009050545474</v>
+        <v>47612.650060063141</v>
       </c>
       <c r="D157">
         <f>D156</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E157" t="s">
         <v>13</v>
@@ -7419,17 +7594,17 @@
       </c>
       <c r="H157">
         <f>H156+C157</f>
-        <v>224912.21764622253</v>
+        <v>1341572.5174187019</v>
       </c>
     </row>
     <row r="158" spans="1:65" ht="19.5">
       <c r="C158">
         <f>H157*D158</f>
-        <v>6591.5823050734607</v>
+        <v>49364.608913601311</v>
       </c>
       <c r="D158">
         <f>D157</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E158" t="s">
         <v>14</v>
@@ -7439,17 +7614,17 @@
       </c>
       <c r="H158">
         <f>H157+C158</f>
-        <v>231503.79995129598</v>
+        <v>1390937.1263323033</v>
       </c>
     </row>
     <row r="159" spans="1:65" ht="19.5">
       <c r="C159">
         <f>H158*D159</f>
-        <v>6784.7641505919673</v>
+        <v>51181.032984274389</v>
       </c>
       <c r="D159">
         <f>D158</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E159" t="s">
         <v>15</v>
@@ -7459,17 +7634,17 @@
       </c>
       <c r="H159">
         <f>H158+C159</f>
-        <v>238288.56410188795</v>
+        <v>1442118.1593165777</v>
       </c>
     </row>
     <row r="160" spans="1:65" ht="19.5">
       <c r="C160">
         <f>H159*D160</f>
-        <v>6983.6076451213985</v>
+        <v>53064.294339332628</v>
       </c>
       <c r="D160">
         <f>D159</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E160" t="s">
         <v>16</v>
@@ -7479,17 +7654,17 @@
       </c>
       <c r="H160">
         <f>H159+C160</f>
-        <v>245272.17174700936</v>
+        <v>1495182.4536559104</v>
       </c>
     </row>
     <row r="161" spans="1:65" ht="19.5">
       <c r="C161">
         <f>H160*D161</f>
-        <v>7188.2787166216849</v>
+        <v>55016.852328801222</v>
       </c>
       <c r="D161">
         <f>D160</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E161" t="s">
         <v>17</v>
@@ -7499,17 +7674,17 @@
       </c>
       <c r="H161">
         <f>H160+C161</f>
-        <v>252460.45046363104</v>
+        <v>1550199.3059847117</v>
       </c>
     </row>
     <row r="162" spans="1:65" ht="19.5">
       <c r="C162">
         <f>H161*D162</f>
-        <v>7398.9481559624583</v>
+        <v>57041.256797144255</v>
       </c>
       <c r="D162">
         <f>D161</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E162" t="s">
         <v>11</v>
@@ -7519,17 +7694,17 @@
       </c>
       <c r="H162">
         <f>H161+C162</f>
-        <v>259859.3986195935</v>
+        <v>1607240.5627818559</v>
       </c>
     </row>
     <row r="163" spans="1:65" ht="19.5">
       <c r="C163">
         <f>H162*D163</f>
-        <v>7615.7917594420715</v>
+        <v>59140.151413105232</v>
       </c>
       <c r="D163">
         <f>D162</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E163" t="s">
         <v>12</v>
@@ -7539,17 +7714,17 @@
       </c>
       <c r="H163">
         <f>H162+C163</f>
-        <v>267475.19037903554</v>
+        <v>1666380.7141949611</v>
       </c>
     </row>
     <row r="164" spans="1:65" ht="19.5">
       <c r="C164">
         <f>H163*D164</f>
-        <v>7838.9904754834797</v>
+        <v>61316.277122072745</v>
       </c>
       <c r="D164">
         <f>D163</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E164" t="s">
         <v>13</v>
@@ -7559,17 +7734,17 @@
       </c>
       <c r="H164">
         <f>H163+C164</f>
-        <v>275314.18085451901</v>
+        <v>1727696.9913170338</v>
       </c>
     </row>
     <row r="165" spans="1:65" ht="19.5">
       <c r="C165">
         <f>H164*D165</f>
-        <v>8068.7305556293841</v>
+        <v>63572.475725479613</v>
       </c>
       <c r="D165">
         <f>D164</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E165" t="s">
         <v>14</v>
@@ -7579,17 +7754,17 @@
       </c>
       <c r="H165">
         <f>H164+C165</f>
-        <v>283382.91141014837</v>
+        <v>1791269.4670425134</v>
       </c>
     </row>
     <row r="166" spans="1:65" ht="19.5">
       <c r="C166">
         <f>H165*D166</f>
-        <v>8305.2037099626486</v>
+        <v>65911.69359190992</v>
       </c>
       <c r="D166">
         <f>D165</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E166" t="s">
         <v>15</v>
@@ -7599,17 +7774,17 @@
       </c>
       <c r="H166">
         <f>H165+C166</f>
-        <v>291688.11512011103</v>
+        <v>1857181.1606344234</v>
       </c>
     </row>
     <row r="167" spans="1:65" ht="19.5">
       <c r="C167">
         <f>H166*D167</f>
-        <v>8548.6072670816793</v>
+        <v>68336.985504760203</v>
       </c>
       <c r="D167">
         <f>D166</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E167" t="s">
         <v>16</v>
@@ -7619,17 +7794,17 @@
       </c>
       <c r="H167">
         <f>H166+C167</f>
-        <v>300236.72238719271</v>
+        <v>1925518.1461391835</v>
       </c>
     </row>
     <row r="168" spans="1:65" ht="19.5">
       <c r="C168">
         <f>H167*D168</f>
-        <v>8799.1443387642521</v>
+        <v>70851.518651479462</v>
       </c>
       <c r="D168">
         <f>D167</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E168" t="s">
         <v>17</v>
@@ -7639,17 +7814,17 @@
       </c>
       <c r="H168">
         <f>H167+C168</f>
-        <v>309035.86672595696</v>
+        <v>1996369.6647906629</v>
       </c>
     </row>
     <row r="169" spans="1:65" ht="19.5">
       <c r="C169">
         <f>H168*D169</f>
-        <v>9057.0239894572078</v>
+        <v>73458.576759597679</v>
       </c>
       <c r="D169">
         <f>D168</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E169" t="s">
         <v>11</v>
@@ -7659,17 +7834,17 @@
       </c>
       <c r="H169">
         <f>H168+C169</f>
-        <v>318092.89071541419</v>
+        <v>2069828.2415502607</v>
       </c>
     </row>
     <row r="170" spans="1:65" ht="19.5">
       <c r="C170">
         <f>H169*D170</f>
-        <v>9322.4614107334401</v>
+        <v>76161.564384943893</v>
       </c>
       <c r="D170">
         <f>D169</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E170" t="s">
         <v>12</v>
@@ -7679,17 +7854,17 @@
       </c>
       <c r="H170">
         <f>H169+C170</f>
-        <v>327415.35212614766</v>
+        <v>2145989.8059352045</v>
       </c>
     </row>
     <row r="171" spans="1:65" ht="19.5">
       <c r="C171">
         <f>H170*D171</f>
-        <v>9595.6781008617581</v>
+        <v>78964.01135765377</v>
       </c>
       <c r="D171">
         <f>D170</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E171" t="s">
         <v>13</v>
@@ -7699,17 +7874,17 @@
       </c>
       <c r="H171">
         <f>H170+C171</f>
-        <v>337011.03022700944</v>
+        <v>2224953.8172928584</v>
       </c>
     </row>
     <row r="172" spans="1:65" ht="19.5">
       <c r="C172">
         <f>H171*D172</f>
-        <v>9876.9020496394642</v>
+        <v>81869.577391773113</v>
       </c>
       <c r="D172">
         <f>D171</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E172" t="s">
         <v>14</v>
@@ -7719,17 +7894,17 @@
       </c>
       <c r="H172">
         <f>H171+C172</f>
-        <v>346887.93227664888</v>
+        <v>2306823.3946846314</v>
       </c>
     </row>
     <row r="173" spans="1:65" ht="19.5">
       <c r="C173">
         <f>H172*D173</f>
-        <v>10166.367928641883</v>
+        <v>84882.056864476384</v>
       </c>
       <c r="D173">
         <f>D172</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E173" t="s">
         <v>15</v>
@@ -7739,17 +7914,17 @@
       </c>
       <c r="H173">
         <f>H172+C173</f>
-        <v>357054.30020529078</v>
+        <v>2391705.4515491077</v>
       </c>
     </row>
     <row r="174" spans="1:65" ht="19.5">
       <c r="C174">
         <f>H173*D174</f>
-        <v>10464.317287047614</v>
+        <v>88005.383771141976</v>
       </c>
       <c r="D174">
         <f>D173</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E174" t="s">
         <v>16</v>
@@ -7759,17 +7934,17 @@
       </c>
       <c r="H174">
         <f>H173+C174</f>
-        <v>367518.61749233841</v>
+        <v>2479710.8353202497</v>
       </c>
     </row>
     <row r="175" spans="1:65" ht="19.5">
       <c r="C175">
         <f>H174*D175</f>
-        <v>10770.998753202888</v>
+        <v>91243.636862754734</v>
       </c>
       <c r="D175">
         <f>D174</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E175" t="s">
         <v>17</v>
@@ -7779,17 +7954,17 @@
       </c>
       <c r="H175">
         <f>H174+C175</f>
-        <v>378289.61624554131</v>
+        <v>2570954.4721830045</v>
       </c>
     </row>
     <row r="176" spans="1:65" ht="19.5">
       <c r="C176">
         <f>H175*D176</f>
-        <v>11086.668242093248</v>
+        <v>94601.04497234468</v>
       </c>
       <c r="D176">
         <f>D175</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E176" t="s">
         <v>11</v>
@@ -7799,17 +7974,17 @@
       </c>
       <c r="H176">
         <f>H175+C176</f>
-        <v>389376.28448763455</v>
+        <v>2665555.5171553493</v>
       </c>
     </row>
     <row r="177" spans="1:65" ht="19.5">
       <c r="C177">
         <f>H176*D177</f>
-        <v>11411.589168895684</v>
+        <v>98081.992537417929</v>
       </c>
       <c r="D177">
         <f>D176</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E177" t="s">
         <v>12</v>
@@ -7819,17 +7994,17 @@
       </c>
       <c r="H177">
         <f>H176+C177</f>
-        <v>400787.87365653022</v>
+        <v>2763637.5096927672</v>
       </c>
     </row>
     <row r="178" spans="1:65" ht="19.5">
       <c r="C178">
         <f>H177*D178</f>
-        <v>11746.032668789403</v>
+        <v>101691.0253255913</v>
       </c>
       <c r="D178">
         <f>D177</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E178" t="s">
         <v>13</v>
@@ -7839,17 +8014,17 @@
       </c>
       <c r="H178">
         <f>H177+C178</f>
-        <v>412533.90632531961</v>
+        <v>2865328.5350183584</v>
       </c>
     </row>
     <row r="179" spans="1:65" ht="19.5">
       <c r="C179">
         <f>H178*D179</f>
-        <v>12090.277823208684</v>
+        <v>105432.85637090798</v>
       </c>
       <c r="D179">
         <f>D178</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E179" t="s">
         <v>14</v>
@@ -7859,17 +8034,17 @@
       </c>
       <c r="H179">
         <f>H178+C179</f>
-        <v>424624.18414852826</v>
+        <v>2970761.3913892666</v>
       </c>
     </row>
     <row r="180" spans="1:65" ht="19.5">
       <c r="C180">
         <f>H179*D180</f>
-        <v>12444.611892726596</v>
+        <v>109312.37212858611</v>
       </c>
       <c r="D180">
         <f>D179</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E180" t="s">
         <v>15</v>
@@ -7879,17 +8054,17 @@
       </c>
       <c r="H180">
         <f>H179+C180</f>
-        <v>437068.79604125489</v>
+        <v>3080073.7635178529</v>
       </c>
     </row>
     <row r="181" spans="1:65" ht="19.5">
       <c r="C181">
         <f>H180*D181</f>
-        <v>12809.330556763925</v>
+        <v>113334.63885623821</v>
       </c>
       <c r="D181">
         <f>D180</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E181" t="s">
         <v>16</v>
@@ -7899,17 +8074,17 @@
       </c>
       <c r="H181">
         <f>H180+C181</f>
-        <v>449878.1265980188</v>
+        <v>3193408.4023740911</v>
       </c>
     </row>
     <row r="182" spans="1:65" ht="19.5">
       <c r="C182">
         <f>H181*D182</f>
-        <v>13184.738160323341</v>
+        <v>117504.90922989431</v>
       </c>
       <c r="D182">
         <f>D181</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E182" t="s">
         <v>17</v>
@@ -7919,17 +8094,17 @@
       </c>
       <c r="H182">
         <f>H181+C182</f>
-        <v>463062.86475834216</v>
+        <v>3310913.3116039853</v>
       </c>
     </row>
     <row r="183" spans="1:65" ht="19.5">
       <c r="C183">
         <f>H182*D183</f>
-        <v>13571.147967954677</v>
+        <v>121828.62920346887</v>
       </c>
       <c r="D183">
         <f>D182</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E183" t="s">
         <v>11</v>
@@ -7939,17 +8114,17 @@
       </c>
       <c r="H183">
         <f>H182+C183</f>
-        <v>476634.01272629685</v>
+        <v>3432741.9408074543</v>
       </c>
     </row>
     <row r="184" spans="1:65" ht="19.5">
       <c r="C184">
         <f>H183*D184</f>
-        <v>13968.882425163281</v>
+        <v>126311.44512062919</v>
       </c>
       <c r="D184">
         <f>D183</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E184" t="s">
         <v>12</v>
@@ -7959,17 +8134,17 @@
       </c>
       <c r="H184">
         <f>H183+C184</f>
-        <v>490602.89515146014</v>
+        <v>3559053.3859280837</v>
       </c>
     </row>
     <row r="185" spans="1:65" ht="19.5">
       <c r="C185">
         <f>H184*D185</f>
-        <v>14378.273427479533</v>
+        <v>130959.21108835262</v>
       </c>
       <c r="D185">
         <f>D184</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E185" t="s">
         <v>13</v>
@@ -7979,17 +8154,17 @@
       </c>
       <c r="H185">
         <f>H184+C185</f>
-        <v>504981.16857893969</v>
+        <v>3690012.5970164365</v>
       </c>
     </row>
     <row r="186" spans="1:65" ht="19.5">
       <c r="C186">
         <f>H185*D186</f>
-        <v>14799.66259741409</v>
+        <v>135777.99662180184</v>
       </c>
       <c r="D186">
         <f>D185</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E186" t="s">
         <v>14</v>
@@ -7999,17 +8174,17 @@
       </c>
       <c r="H186">
         <f>H185+C186</f>
-        <v>519780.83117635379</v>
+        <v>3825790.5936382385</v>
       </c>
     </row>
     <row r="187" spans="1:65" ht="19.5">
       <c r="C187">
         <f>H186*D187</f>
-        <v>15233.401569529955</v>
+        <v>140774.09457050159</v>
       </c>
       <c r="D187">
         <f>D186</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E187" t="s">
         <v>15</v>
@@ -8019,17 +8194,17 @@
       </c>
       <c r="H187">
         <f>H186+C187</f>
-        <v>535014.23274588375</v>
+        <v>3966564.6882087402</v>
       </c>
     </row>
     <row r="188" spans="1:65" ht="19.5">
       <c r="C188">
         <f>H187*D188</f>
-        <v>15679.852283869255</v>
+        <v>145954.02933616756</v>
       </c>
       <c r="D188">
         <f>D187</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E188" t="s">
         <v>16</v>
@@ -8039,17 +8214,17 @@
       </c>
       <c r="H188">
         <f>H187+C188</f>
-        <v>550694.08502975304</v>
+        <v>4112518.7175449077</v>
       </c>
     </row>
     <row r="189" spans="1:65" ht="19.5">
       <c r="C189">
         <f>H188*D189</f>
-        <v>16139.387287979576</v>
+        <v>151324.56539291918</v>
       </c>
       <c r="D189">
         <f>D188</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E189" t="s">
         <v>17</v>
@@ -8059,17 +8234,17 @@
       </c>
       <c r="H189">
         <f>H188+C189</f>
-        <v>566833.47231773264</v>
+        <v>4263843.2829378266</v>
       </c>
     </row>
     <row r="190" spans="1:65" ht="19.5">
       <c r="C190">
         <f>H189*D190</f>
-        <v>16612.390047791901</v>
+        <v>156892.71612100297</v>
       </c>
       <c r="D190">
         <f>D189</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E190" t="s">
         <v>11</v>
@@ -8079,17 +8254,17 @@
       </c>
       <c r="H190">
         <f>H189+C190</f>
-        <v>583445.86236552452</v>
+        <v>4420735.9990588296</v>
       </c>
     </row>
     <row r="191" spans="1:65" ht="19.5">
       <c r="C191">
         <f>H190*D191</f>
-        <v>17099.255267609555</v>
+        <v>162665.75296556199</v>
       </c>
       <c r="D191">
         <f>D190</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E191" t="s">
         <v>12</v>
@@ -8099,17 +8274,17 @@
       </c>
       <c r="H191">
         <f>H190+C191</f>
-        <v>600545.11763313413</v>
+        <v>4583401.7520243917</v>
       </c>
     </row>
     <row r="192" spans="1:65" ht="19.5">
       <c r="C192">
         <f>H191*D192</f>
-        <v>17600.389219475164</v>
+        <v>168651.21493241243</v>
       </c>
       <c r="D192">
         <f>D191</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E192" t="s">
         <v>13</v>
@@ -8119,17 +8294,17 @@
       </c>
       <c r="H192">
         <f>H191+C192</f>
-        <v>618145.50685260934</v>
+        <v>4752052.9669568045</v>
       </c>
     </row>
     <row r="193" spans="1:65" ht="19.5">
       <c r="C193">
         <f>H192*D193</f>
-        <v>18116.210082190519</v>
+        <v>174856.91843322734</v>
       </c>
       <c r="D193">
         <f>D192</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E193" t="s">
         <v>14</v>
@@ -8139,17 +8314,17 @@
       </c>
       <c r="H193">
         <f>H192+C193</f>
-        <v>636261.71693479992</v>
+        <v>4926909.8853900321</v>
       </c>
     </row>
     <row r="194" spans="1:65" ht="19.5">
       <c r="C194">
         <f>H193*D194</f>
-        <v>18647.148290272195</v>
+        <v>181290.96749298443</v>
       </c>
       <c r="D194">
         <f>D193</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E194" t="s">
         <v>15</v>
@@ -8159,17 +8334,17 @@
       </c>
       <c r="H194">
         <f>H193+C194</f>
-        <v>654908.86522507214</v>
+        <v>5108200.8528830167</v>
       </c>
     </row>
     <row r="195" spans="1:65" ht="19.5">
       <c r="C195">
         <f>H194*D195</f>
-        <v>19193.646893134126</v>
+        <v>187961.76433300832</v>
       </c>
       <c r="D195">
         <f>D194</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E195" t="s">
         <v>16</v>
@@ -8179,17 +8354,17 @@
       </c>
       <c r="H195">
         <f>H194+C195</f>
-        <v>674102.51211820624</v>
+        <v>5296162.6172160245</v>
       </c>
     </row>
     <row r="196" spans="1:65" ht="19.5">
       <c r="C196">
         <f>H195*D196</f>
-        <v>19756.161924796907</v>
+        <v>194878.02034342688</v>
       </c>
       <c r="D196">
         <f>D195</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E196" t="s">
         <v>17</v>
@@ -8199,17 +8374,17 @@
       </c>
       <c r="H196">
         <f>H195+C196</f>
-        <v>693858.67404300312</v>
+        <v>5491040.6375594512</v>
       </c>
     </row>
     <row r="197" spans="1:65" ht="19.5">
       <c r="C197">
         <f>H196*D197</f>
-        <v>20335.162784432261</v>
+        <v>202048.76745937104</v>
       </c>
       <c r="D197">
         <f>D196</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E197" t="s">
         <v>11</v>
@@ -8219,17 +8394,17 @@
       </c>
       <c r="H197">
         <f>H196+C197</f>
-        <v>714193.83682743541</v>
+        <v>5693089.4050188223</v>
       </c>
     </row>
     <row r="198" spans="1:65" ht="19.5">
       <c r="C198">
         <f>H197*D198</f>
-        <v>20931.132628060288</v>
+        <v>209483.36995577425</v>
       </c>
       <c r="D198">
         <f>D197</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E198" t="s">
         <v>12</v>
@@ -8239,17 +8414,17 @@
       </c>
       <c r="H198">
         <f>H197+C198</f>
-        <v>735124.96945549571</v>
+        <v>5902572.7749745967</v>
       </c>
     </row>
     <row r="199" spans="1:65" ht="19.5">
       <c r="C199">
         <f>H198*D199</f>
-        <v>21544.568771726295</v>
+        <v>217191.53667617423</v>
       </c>
       <c r="D199">
         <f>D198</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E199" t="s">
         <v>13</v>
@@ -8259,17 +8434,17 @@
       </c>
       <c r="H199">
         <f>H198+C199</f>
-        <v>756669.53822722204</v>
+        <v>6119764.3116507707</v>
       </c>
     </row>
     <row r="200" spans="1:65" ht="19.5">
       <c r="C200">
         <f>H199*D200</f>
-        <v>22175.983106493692</v>
+        <v>225183.33371148666</v>
       </c>
       <c r="D200">
         <f>D199</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E200" t="s">
         <v>14</v>
@@ -8279,17 +8454,17 @@
       </c>
       <c r="H200">
         <f>H199+C200</f>
-        <v>778845.52133371576</v>
+        <v>6344947.645362257</v>
       </c>
     </row>
     <row r="201" spans="1:65" ht="19.5">
       <c r="C201">
         <f>H200*D201</f>
-        <v>22825.902525599231</v>
+        <v>233469.19754530818</v>
       </c>
       <c r="D201">
         <f>D200</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E201" t="s">
         <v>15</v>
@@ -8299,17 +8474,17 @@
       </c>
       <c r="H201">
         <f>H200+C201</f>
-        <v>801671.42385931499</v>
+        <v>6578416.8429075656</v>
       </c>
     </row>
     <row r="202" spans="1:65" ht="19.5">
       <c r="C202">
         <f>H201*D202</f>
-        <v>23494.86936412704</v>
+        <v>242059.94868291478</v>
       </c>
       <c r="D202">
         <f>D201</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E202" t="s">
         <v>16</v>
@@ -8319,17 +8494,17 @@
       </c>
       <c r="H202">
         <f>H201+C202</f>
-        <v>825166.29322344204</v>
+        <v>6820476.7915904801</v>
       </c>
     </row>
     <row r="203" spans="1:65" ht="19.5">
       <c r="C203">
         <f>H202*D203</f>
-        <v>24183.441851568314</v>
+        <v>250966.80578175408</v>
       </c>
       <c r="D203">
         <f>D202</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E203" t="s">
         <v>17</v>
@@ -8339,17 +8514,17 @@
       </c>
       <c r="H203">
         <f>H202+C203</f>
-        <v>849349.73507501034</v>
+        <v>7071443.5973722339</v>
       </c>
     </row>
     <row r="204" spans="1:65" ht="19.5">
       <c r="C204">
         <f>H203*D204</f>
-        <v>24892.194577644364</v>
+        <v>260201.40030188428</v>
       </c>
       <c r="D204">
         <f>D203</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E204" t="s">
         <v>11</v>
@@ -8359,17 +8534,17 @@
       </c>
       <c r="H204">
         <f>H203+C204</f>
-        <v>874241.92965265468</v>
+        <v>7331644.9976741178</v>
       </c>
     </row>
     <row r="205" spans="1:65" ht="19.5">
       <c r="C205">
         <f>H204*D205</f>
-        <v>25621.718971781705</v>
+        <v>269775.79169549176</v>
       </c>
       <c r="D205">
         <f>D204</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E205" t="s">
         <v>12</v>
@@ -8379,17 +8554,17 @@
       </c>
       <c r="H205">
         <f>H204+C205</f>
-        <v>899863.64862443635</v>
+        <v>7601420.7893696092</v>
       </c>
     </row>
     <row r="206" spans="1:65" ht="19.5">
       <c r="C206">
         <f>H205*D206</f>
-        <v>26372.623796639258</v>
+        <v>279702.48315532343</v>
       </c>
       <c r="D206">
         <f>D205</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E206" t="s">
         <v>13</v>
@@ -8399,17 +8574,17 @@
       </c>
       <c r="H206">
         <f>H205+C206</f>
-        <v>926236.27242107561</v>
+        <v>7881123.2725249324</v>
       </c>
     </row>
     <row r="207" spans="1:65" ht="19.5">
       <c r="C207">
         <f>H206*D207</f>
-        <v>27145.535656099582</v>
+        <v>289994.4379425997</v>
       </c>
       <c r="D207">
         <f>D206</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E207" t="s">
         <v>14</v>
@@ -8419,17 +8594,17 @@
       </c>
       <c r="H207">
         <f>H206+C207</f>
-        <v>953381.80807717517</v>
+        <v>8171117.7104675323</v>
       </c>
     </row>
     <row r="208" spans="1:65" ht="19.5">
       <c r="C208">
         <f>H207*D208</f>
-        <v>27941.099518147927</v>
+        <v>300665.09631573048</v>
       </c>
       <c r="D208">
         <f>D207</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E208" t="s">
         <v>15</v>
@@ -8439,17 +8614,17 @@
       </c>
       <c r="H208">
         <f>H207+C208</f>
-        <v>981322.90759532305</v>
+        <v>8471782.8067832626</v>
       </c>
     </row>
     <row r="209" spans="1:65" ht="19.5">
       <c r="C209">
         <f>H208*D209</f>
-        <v>28759.979253075537</v>
+        <v>311728.39308194182</v>
       </c>
       <c r="D209">
         <f>D208</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E209" t="s">
         <v>16</v>
@@ -8459,17 +8634,17 @@
       </c>
       <c r="H209">
         <f>H208+C209</f>
-        <v>1010082.8868483986</v>
+        <v>8783511.1998652052</v>
       </c>
     </row>
     <row r="210" spans="1:65" ht="19.5">
       <c r="C210">
         <f>H209*D210</f>
-        <v>29602.858187456259</v>
+        <v>323198.7757947332</v>
       </c>
       <c r="D210">
         <f>D209</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E210" t="s">
         <v>17</v>
@@ -8479,17 +8654,17 @@
       </c>
       <c r="H210">
         <f>H209+C210</f>
-        <v>1039685.7450358549</v>
+        <v>9106709.9756599385</v>
       </c>
     </row>
     <row r="211" spans="1:65" ht="19.5">
       <c r="C211">
         <f>H210*D211</f>
-        <v>30470.439674358702</v>
+        <v>335091.22362093022</v>
       </c>
       <c r="D211">
         <f>D210</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E211" t="s">
         <v>11</v>
@@ -8499,17 +8674,17 @@
       </c>
       <c r="H211">
         <f>H210+C211</f>
-        <v>1070156.1847102137</v>
+        <v>9441801.1992808692</v>
       </c>
     </row>
     <row r="212" spans="1:65" ht="19.5">
       <c r="C212">
         <f>H211*D212</f>
-        <v>31363.44768026987</v>
+        <v>347421.26690197096</v>
       </c>
       <c r="D212">
         <f>D211</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E212" t="s">
         <v>12</v>
@@ -8519,17 +8694,17 @@
       </c>
       <c r="H212">
         <f>H211+C212</f>
-        <v>1101519.6323904835</v>
+        <v>9789222.466182841</v>
       </c>
     </row>
     <row r="213" spans="1:65" ht="19.5">
       <c r="C213">
         <f>H212*D213</f>
-        <v>32282.627389219913</v>
+        <v>360205.00743497052</v>
       </c>
       <c r="D213">
         <f>D212</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E213" t="s">
         <v>13</v>
@@ -8539,17 +8714,17 @@
       </c>
       <c r="H213">
         <f>H212+C213</f>
-        <v>1133802.2597797033</v>
+        <v>10149427.473617811</v>
       </c>
     </row>
     <row r="214" spans="1:65" ht="19.5">
       <c r="C214">
         <f>H213*D214</f>
-        <v>33228.745824612233</v>
+        <v>373459.13950004964</v>
       </c>
       <c r="D214">
         <f>D213</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E214" t="s">
         <v>14</v>
@@ -8559,17 +8734,17 @@
       </c>
       <c r="H214">
         <f>H213+C214</f>
-        <v>1167031.0056043155</v>
+        <v>10522886.613117861</v>
       </c>
     </row>
     <row r="215" spans="1:65" ht="19.5">
       <c r="C215">
         <f>H214*D215</f>
-        <v>34202.592489277748</v>
+        <v>387200.97166138655</v>
       </c>
       <c r="D215">
         <f>D214</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E215" t="s">
         <v>15</v>
@@ -8579,17 +8754,17 @@
       </c>
       <c r="H215">
         <f>H214+C215</f>
-        <v>1201233.5980935933</v>
+        <v>10910087.584779248</v>
       </c>
     </row>
     <row r="216" spans="1:65" ht="19.5">
       <c r="C216">
         <f>H215*D216</f>
-        <v>35204.980024287441</v>
+        <v>401448.44937046169</v>
       </c>
       <c r="D216">
         <f>D215</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E216" t="s">
         <v>16</v>
@@ -8599,17 +8774,17 @@
       </c>
       <c r="H216">
         <f>H215+C216</f>
-        <v>1236438.5781178807</v>
+        <v>11311536.03414971</v>
       </c>
     </row>
     <row r="217" spans="1:65" ht="19.5">
       <c r="C217">
         <f>H216*D217</f>
-        <v>36236.744887073037</v>
+        <v>416220.17840101372</v>
       </c>
       <c r="D217">
         <f>D216</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E217" t="s">
         <v>17</v>
@@ -8619,17 +8794,17 @@
       </c>
       <c r="H217">
         <f>H216+C217</f>
-        <v>1272675.3230049538</v>
+        <v>11727756.212550724</v>
       </c>
     </row>
     <row r="218" spans="1:65" ht="19.5">
       <c r="C218">
         <f>H217*D218</f>
-        <v>37298.748049421491</v>
+        <v>431535.44914630946</v>
       </c>
       <c r="D218">
         <f>D217</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E218" t="s">
         <v>11</v>
@@ -8639,17 +8814,17 @@
       </c>
       <c r="H218">
         <f>H217+C218</f>
-        <v>1309974.0710543753</v>
+        <v>12159291.661697034</v>
       </c>
     </row>
     <row r="219" spans="1:65" ht="19.5">
       <c r="C219">
         <f>H218*D219</f>
-        <v>38391.875715925955</v>
+        <v>447414.26181045885</v>
       </c>
       <c r="D219">
         <f>D218</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E219" t="s">
         <v>12</v>
@@ -8659,17 +8834,17 @@
       </c>
       <c r="H219">
         <f>H218+C219</f>
-        <v>1348365.9467703013</v>
+        <v>12606705.923507493</v>
       </c>
     </row>
     <row r="220" spans="1:65" ht="19.5">
       <c r="C220">
         <f>H219*D220</f>
-        <v>39517.04006349259</v>
+        <v>463877.35252667079</v>
       </c>
       <c r="D220">
         <f>D219</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E220" t="s">
         <v>13</v>
@@ -8679,17 +8854,17 @@
       </c>
       <c r="H220">
         <f>H219+C220</f>
-        <v>1387882.9868337938</v>
+        <v>13070583.276034163</v>
       </c>
     </row>
     <row r="221" spans="1:65" ht="19.5">
       <c r="C221">
         <f>H220*D221</f>
-        <v>40675.180002520363</v>
+        <v>480946.22043655888</v>
       </c>
       <c r="D221">
         <f>D220</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E221" t="s">
         <v>14</v>
@@ -8699,17 +8874,17 @@
       </c>
       <c r="H221">
         <f>H220+C221</f>
-        <v>1428558.1668363141</v>
+        <v>13551529.496470721</v>
       </c>
     </row>
     <row r="222" spans="1:65" ht="19.5">
       <c r="C222">
         <f>H221*D222</f>
-        <v>41867.26196038902</v>
+        <v>498643.15576585918</v>
       </c>
       <c r="D222">
         <f>D221</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E222" t="s">
         <v>15</v>
@@ -8719,17 +8894,17 @@
       </c>
       <c r="H222">
         <f>H221+C222</f>
-        <v>1470425.4287967032</v>
+        <v>14050172.652236581</v>
       </c>
     </row>
     <row r="223" spans="1:65" ht="19.5">
       <c r="C223">
         <f>H222*D223</f>
-        <v>43094.280687909049</v>
+        <v>516991.26893322461</v>
       </c>
       <c r="D223">
         <f>D222</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E223" t="s">
         <v>16</v>
@@ -8739,17 +8914,17 @@
       </c>
       <c r="H223">
         <f>H222+C223</f>
-        <v>1513519.7094846123</v>
+        <v>14567163.921169806</v>
       </c>
     </row>
     <row r="224" spans="1:65" ht="19.5">
       <c r="C224">
         <f>H223*D224</f>
-        <v>44357.260089406504</v>
+        <v>536014.52073010837</v>
       </c>
       <c r="D224">
         <f>D223</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E224" t="s">
         <v>17</v>
@@ -8759,17 +8934,17 @@
       </c>
       <c r="H224">
         <f>H223+C224</f>
-        <v>1557876.9695740188</v>
+        <v>15103178.441899914</v>
       </c>
     </row>
     <row r="225" spans="1:65" ht="19.5">
       <c r="C225">
         <f>H224*D225</f>
-        <v>45657.254077135447</v>
+        <v>555737.75361114915</v>
       </c>
       <c r="D225">
         <f>D224</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E225" t="s">
         <v>11</v>
@@ -8779,17 +8954,17 @@
       </c>
       <c r="H225">
         <f>H224+C225</f>
-        <v>1603534.2236511542</v>
+        <v>15658916.195511064</v>
       </c>
     </row>
     <row r="226" spans="1:65" ht="19.5">
       <c r="C226">
         <f>H225*D226</f>
-        <v>46995.347450730987</v>
+        <v>576186.72413592006</v>
       </c>
       <c r="D226">
         <f>D225</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E226" t="s">
         <v>12</v>
@@ -8799,17 +8974,17 @@
       </c>
       <c r="H226">
         <f>H225+C226</f>
-        <v>1650529.5711018853</v>
+        <v>16235102.919646984</v>
       </c>
     </row>
     <row r="227" spans="1:65" ht="19.5">
       <c r="C227">
         <f>H226*D227</f>
-        <v>48372.656802436723</v>
+        <v>597388.13660440582</v>
       </c>
       <c r="D227">
         <f>D226</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E227" t="s">
         <v>13</v>
@@ -8819,17 +8994,17 @@
       </c>
       <c r="H227">
         <f>H226+C227</f>
-        <v>1698902.2279043221</v>
+        <v>16832491.056251388</v>
       </c>
     </row>
     <row r="228" spans="1:65" ht="19.5">
       <c r="C228">
         <f>H227*D228</f>
-        <v>49790.331448862002</v>
+        <v>619369.67793013481</v>
       </c>
       <c r="D228">
         <f>D227</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E228" t="s">
         <v>14</v>
@@ -8839,17 +9014,17 @@
       </c>
       <c r="H228">
         <f>H227+C228</f>
-        <v>1748692.5593531842</v>
+        <v>17451860.734181523</v>
       </c>
     </row>
     <row r="229" spans="1:65" ht="19.5">
       <c r="C229">
         <f>H228*D229</f>
-        <v>51249.554390046556</v>
+        <v>642160.05379650474</v>
       </c>
       <c r="D229">
         <f>D228</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E229" t="s">
         <v>15</v>
@@ -8859,17 +9034,17 @@
       </c>
       <c r="H229">
         <f>H228+C229</f>
-        <v>1799942.1137432307</v>
+        <v>18094020.787978027</v>
       </c>
     </row>
     <row r="230" spans="1:65" ht="19.5">
       <c r="C230">
         <f>H229*D230</f>
-        <v>52751.543296632772</v>
+        <v>665789.02614351956</v>
       </c>
       <c r="D230">
         <f>D229</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E230" t="s">
         <v>16</v>
@@ -8879,17 +9054,17 @@
       </c>
       <c r="H230">
         <f>H229+C230</f>
-        <v>1852693.6570398635</v>
+        <v>18759809.814121548</v>
       </c>
     </row>
     <row r="231" spans="1:65" ht="19.5">
       <c r="C231">
         <f>H230*D231</f>
-        <v>54297.551525969357</v>
+        <v>690287.45203389192</v>
       </c>
       <c r="D231">
         <f>D230</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E231" t="s">
         <v>17</v>
@@ -8899,17 +9074,17 @@
       </c>
       <c r="H231">
         <f>H230+C231</f>
-        <v>1906991.2085658328</v>
+        <v>19450097.26615544</v>
       </c>
     </row>
     <row r="232" spans="1:65" ht="19.5">
       <c r="C232">
         <f>H231*D232</f>
-        <v>55888.869167994329</v>
+        <v>715687.32394926483</v>
       </c>
       <c r="D232">
         <f>D231</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E232" t="s">
         <v>11</v>
@@ -8919,17 +9094,17 @@
       </c>
       <c r="H232">
         <f>H231+C232</f>
-        <v>1962880.0777338271</v>
+        <v>20165784.590104707</v>
       </c>
     </row>
     <row r="233" spans="1:65" ht="19.5">
       <c r="C233">
         <f>H232*D233</f>
-        <v>57526.824121770063</v>
+        <v>742021.8115691772</v>
       </c>
       <c r="D233">
         <f>D232</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E233" t="s">
         <v>12</v>
@@ -8939,17 +9114,17 @@
       </c>
       <c r="H233">
         <f>H232+C233</f>
-        <v>2020406.901855597</v>
+        <v>20907806.401673883</v>
       </c>
     </row>
     <row r="234" spans="1:65" ht="19.5">
       <c r="C234">
         <f>H233*D234</f>
-        <v>59212.783203568753</v>
+        <v>769325.30508733063</v>
       </c>
       <c r="D234">
         <f>D233</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E234" t="s">
         <v>13</v>
@@ -8959,17 +9134,17 @@
       </c>
       <c r="H234">
         <f>H233+C234</f>
-        <v>2079619.6850591658</v>
+        <v>21677131.706761215</v>
       </c>
     </row>
     <row r="235" spans="1:65" ht="19.5">
       <c r="C235">
         <f>H234*D235</f>
-        <v>60948.153287432891</v>
+        <v>797633.46012172638</v>
       </c>
       <c r="D235">
         <f>D234</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E235" t="s">
         <v>14</v>
@@ -8979,17 +9154,17 @@
       </c>
       <c r="H235">
         <f>H234+C235</f>
-        <v>2140567.8383465987</v>
+        <v>22474765.16688294</v>
       </c>
     </row>
     <row r="236" spans="1:65" ht="19.5">
       <c r="C236">
         <f>H235*D236</f>
-        <v>62734.382479162596</v>
+        <v>826983.24427731719</v>
       </c>
       <c r="D236">
         <f>D235</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E236" t="s">
         <v>15</v>
@@ -8999,17 +9174,17 @@
       </c>
       <c r="H236">
         <f>H235+C236</f>
-        <v>2203302.2208257611</v>
+        <v>23301748.411160257</v>
       </c>
     </row>
     <row r="237" spans="1:65" ht="19.5">
       <c r="C237">
         <f>H236*D237</f>
-        <v>64572.961324709373</v>
+        <v>857412.98542198469</v>
       </c>
       <c r="D237">
         <f>D236</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E237" t="s">
         <v>16</v>
@@ -9019,17 +9194,17 @@
       </c>
       <c r="H237">
         <f>H236+C237</f>
-        <v>2267875.1821504706</v>
+        <v>24159161.396582242</v>
       </c>
     </row>
     <row r="238" spans="1:65" ht="19.5">
       <c r="C238">
         <f>H237*D238</f>
-        <v>66465.424053984752</v>
+        <v>888962.42173888104</v>
       </c>
       <c r="D238">
         <f>D237</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E238" t="s">
         <v>17</v>
@@ -9039,17 +9214,17 @@
       </c>
       <c r="H238">
         <f>H237+C238</f>
-        <v>2334340.6062044553</v>
+        <v>25048123.818321124</v>
       </c>
     </row>
     <row r="239" spans="1:65" ht="19.5">
       <c r="C239">
         <f>H238*D239</f>
-        <v>68413.349861121562</v>
+        <v>921672.75362050219</v>
       </c>
       <c r="D239">
         <f>D238</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E239" t="s">
         <v>11</v>
@@ -9059,17 +9234,17 @@
       </c>
       <c r="H239">
         <f>H238+C239</f>
-        <v>2402753.956065577</v>
+        <v>25969796.571941625</v>
       </c>
     </row>
     <row r="240" spans="1:65" ht="19.5">
       <c r="C240">
         <f>H239*D240</f>
-        <v>70418.364222256452</v>
+        <v>955586.69747225917</v>
       </c>
       <c r="D240">
         <f>D239</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E240" t="s">
         <v>12</v>
@@ -9079,17 +9254,17 @@
       </c>
       <c r="H240">
         <f>H239+C240</f>
-        <v>2473172.3202878335</v>
+        <v>26925383.269413885</v>
       </c>
     </row>
     <row r="241" spans="1:65" ht="19.5">
       <c r="C241">
         <f>H240*D241</f>
-        <v>72482.140251932884</v>
+        <v>990748.54149580933</v>
       </c>
       <c r="D241">
         <f>D240</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E241" t="s">
         <v>13</v>
@@ -9099,17 +9274,17 @@
       </c>
       <c r="H241">
         <f>H240+C241</f>
-        <v>2545654.4605397661</v>
+        <v>27916131.810909696</v>
       </c>
     </row>
     <row r="242" spans="1:65" ht="19.5">
       <c r="C242">
         <f>H241*D242</f>
-        <v>74606.400099256993</v>
+        <v>1027204.2035249962</v>
       </c>
       <c r="D242">
         <f>D241</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E242" t="s">
         <v>14</v>
@@ -9119,17 +9294,17 @@
       </c>
       <c r="H242">
         <f>H241+C242</f>
-        <v>2620260.8606390231</v>
+        <v>28943336.014434692</v>
       </c>
     </row>
     <row r="243" spans="1:65" ht="19.5">
       <c r="C243">
         <f>H242*D243</f>
-        <v>76792.916384970886</v>
+        <v>1065001.2909899245</v>
       </c>
       <c r="D243">
         <f>D242</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E243" t="s">
         <v>15</v>
@@ -9139,17 +9314,17 @@
       </c>
       <c r="H243">
         <f>H242+C243</f>
-        <v>2697053.7770239939</v>
+        <v>30008337.305424616</v>
       </c>
     </row>
     <row r="244" spans="1:65" ht="19.5">
       <c r="C244">
         <f>H243*D244</f>
-        <v>79043.513680642791</v>
+        <v>1104189.1630874788</v>
       </c>
       <c r="D244">
         <f>D243</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E244" t="s">
         <v>16</v>
@@ -9159,17 +9334,17 @@
       </c>
       <c r="H244">
         <f>H243+C244</f>
-        <v>2776097.2907046368</v>
+        <v>31112526.468512096</v>
       </c>
     </row>
     <row r="245" spans="1:65" ht="19.5">
       <c r="C245">
         <f>H244*D245</f>
-        <v>81360.070031208437</v>
+        <v>1144818.9952394732</v>
       </c>
       <c r="D245">
         <f>D244</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E245" t="s">
         <v>17</v>
@@ -9179,17 +9354,17 @@
       </c>
       <c r="H245">
         <f>H244+C245</f>
-        <v>2857457.3607358453</v>
+        <v>32257345.463751569</v>
       </c>
     </row>
     <row r="246" spans="1:65" ht="19.5">
       <c r="C246">
         <f>H245*D246</f>
-        <v>83744.518522133963</v>
+        <v>1186943.8459226068</v>
       </c>
       <c r="D246">
         <f>D245</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E246" t="s">
         <v>11</v>
@@ -9199,17 +9374,17 @@
       </c>
       <c r="H246">
         <f>H245+C246</f>
-        <v>2941201.8792579793</v>
+        <v>33444289.309674177</v>
       </c>
     </row>
     <row r="247" spans="1:65" ht="19.5">
       <c r="C247">
         <f>H246*D247</f>
-        <v>86198.848892508438</v>
+        <v>1230618.7259575028</v>
       </c>
       <c r="D247">
         <f>D246</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E247" t="s">
         <v>12</v>
@@ -9219,17 +9394,17 @@
       </c>
       <c r="H247">
         <f>H246+C247</f>
-        <v>3027400.7281504879</v>
+        <v>34674908.035631679</v>
       </c>
     </row>
     <row r="248" spans="1:65" ht="19.5">
       <c r="C248">
         <f>H247*D248</f>
-        <v>88725.109195411555</v>
+        <v>1275900.6703473094</v>
       </c>
       <c r="D248">
         <f>D247</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E248" t="s">
         <v>13</v>
@@ -9239,17 +9414,17 @@
       </c>
       <c r="H248">
         <f>H247+C248</f>
-        <v>3116125.8373458995</v>
+        <v>35950808.70597899</v>
       </c>
     </row>
     <row r="249" spans="1:65" ht="19.5">
       <c r="C249">
         <f>H248*D249</f>
-        <v>91325.407506942647</v>
+        <v>1322848.8127596807</v>
       </c>
       <c r="D249">
         <f>D248</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E249" t="s">
         <v>14</v>
@@ -9259,17 +9434,17 @@
       </c>
       <c r="H249">
         <f>H248+C249</f>
-        <v>3207451.2448528423</v>
+        <v>37273657.518738672</v>
       </c>
     </row>
     <row r="250" spans="1:65" ht="19.5">
       <c r="C250">
         <f>H249*D250</f>
-        <v>94001.913685336549</v>
+        <v>1371524.4627494032</v>
       </c>
       <c r="D250">
         <f>D249</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E250" t="s">
         <v>15</v>
@@ -9279,17 +9454,17 @@
       </c>
       <c r="H250">
         <f>H249+C250</f>
-        <v>3301453.158538179</v>
+        <v>38645181.981488079</v>
       </c>
     </row>
     <row r="251" spans="1:65" ht="19.5">
       <c r="C251">
         <f>H250*D251</f>
-        <v>96756.861181634624</v>
+        <v>1421991.1858225109</v>
       </c>
       <c r="D251">
         <f>D250</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E251" t="s">
         <v>16</v>
@@ -9299,17 +9474,17 @@
       </c>
       <c r="H251">
         <f>H250+C251</f>
-        <v>3398210.0197198135</v>
+        <v>40067173.167310588</v>
       </c>
     </row>
     <row r="252" spans="1:65" ht="19.5">
       <c r="C252">
         <f>H251*D252</f>
-        <v>99592.548903421761</v>
+        <v>1474314.8864464469</v>
       </c>
       <c r="D252">
         <f>D251</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E252" t="s">
         <v>17</v>
@@ -9319,17 +9494,17 @@
       </c>
       <c r="H252">
         <f>H251+C252</f>
-        <v>3497802.5686232354</v>
+        <v>41541488.053757034</v>
       </c>
     </row>
     <row r="253" spans="1:65" ht="19.5">
       <c r="C253">
         <f>H252*D253</f>
-        <v>102511.34313318461</v>
+        <v>1528563.8941146736</v>
       </c>
       <c r="D253">
         <f>D252</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E253" t="s">
         <v>11</v>
@@ -9339,17 +9514,17 @@
       </c>
       <c r="H253">
         <f>H252+C253</f>
-        <v>3600313.91175642</v>
+        <v>43070051.947871707</v>
       </c>
     </row>
     <row r="254" spans="1:65" ht="19.5">
       <c r="C254">
         <f>H253*D254</f>
-        <v>105515.67950289165</v>
+        <v>1584809.0525781219</v>
       </c>
       <c r="D254">
         <f>D253</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E254" t="s">
         <v>12</v>
@@ -9359,17 +9534,17 @@
       </c>
       <c r="H254">
         <f>H253+C254</f>
-        <v>3705829.5912593119</v>
+        <v>44654861.000449829</v>
       </c>
     </row>
     <row r="255" spans="1:65" ht="19.5">
       <c r="C255">
         <f>H254*D255</f>
-        <v>108608.06502644325</v>
+        <v>1643123.8123600096</v>
       </c>
       <c r="D255">
         <f>D254</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E255" t="s">
         <v>13</v>
@@ -9379,17 +9554,17 @@
       </c>
       <c r="H255">
         <f>H254+C255</f>
-        <v>3814437.6562857553</v>
+        <v>46297984.81280984</v>
       </c>
     </row>
     <row r="256" spans="1:65" ht="19.5">
       <c r="C256">
         <f>H255*D256</f>
-        <v>111791.0801916872</v>
+        <v>1703584.3266748409</v>
       </c>
       <c r="D256">
         <f>D255</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E256" t="s">
         <v>14</v>
@@ -9399,17 +9574,17 @@
       </c>
       <c r="H256">
         <f>H255+C256</f>
-        <v>3926228.7364774426</v>
+        <v>48001569.139484681</v>
       </c>
     </row>
     <row r="257" spans="1:65" ht="19.5">
       <c r="C257">
         <f>H256*D257</f>
-        <v>115067.38111374584</v>
+        <v>1766269.5508768496</v>
       </c>
       <c r="D257">
         <f>D256</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E257" t="s">
         <v>15</v>
@@ -9419,17 +9594,17 @@
       </c>
       <c r="H257">
         <f>H256+C257</f>
-        <v>4041296.1175911883</v>
+        <v>49767838.69036153</v>
       </c>
     </row>
     <row r="258" spans="1:65" ht="19.5">
       <c r="C258">
         <f>H257*D258</f>
-        <v>118439.70175145153</v>
+        <v>1831261.3455677552</v>
       </c>
       <c r="D258">
         <f>D257</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E258" t="s">
         <v>16</v>
@@ -9439,17 +9614,17 @@
       </c>
       <c r="H258">
         <f>H257+C258</f>
-        <v>4159735.8193426398</v>
+        <v>51599100.035929285</v>
       </c>
     </row>
     <row r="259" spans="1:65" ht="19.5">
       <c r="C259">
         <f>H258*D259</f>
-        <v>121910.85618873987</v>
+        <v>1898644.5834984812</v>
       </c>
       <c r="D259">
         <f>D258</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E259" t="s">
         <v>17</v>
@@ -9459,17 +9634,17 @@
       </c>
       <c r="H259">
         <f>H258+C259</f>
-        <v>4281646.6755313799</v>
+        <v>53497744.619427763</v>
       </c>
     </row>
     <row r="260" spans="1:65" ht="19.5">
       <c r="C260">
         <f>H259*D260</f>
-        <v>125483.74098290459</v>
+        <v>1968507.260404435</v>
       </c>
       <c r="D260">
         <f>D259</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E260" t="s">
         <v>11</v>
@@ -9479,17 +9654,17 @@
       </c>
       <c r="H260">
         <f>H259+C260</f>
-        <v>4407130.4165142849</v>
+        <v>55466251.879832201</v>
       </c>
     </row>
     <row r="261" spans="1:65" ht="19.5">
       <c r="C261">
         <f>H260*D261</f>
-        <v>129161.33758167358</v>
+        <v>2040940.609919094</v>
       </c>
       <c r="D261">
         <f>D260</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E261" t="s">
         <v>12</v>
@@ -9499,17 +9674,17 @@
       </c>
       <c r="H261">
         <f>H260+C261</f>
-        <v>4536291.7540959585</v>
+        <v>57507192.489751294</v>
       </c>
     </row>
     <row r="262" spans="1:65" ht="19.5">
       <c r="C262">
         <f>H261*D262</f>
-        <v>132946.71481112298</v>
+        <v>2116039.2227159594</v>
       </c>
       <c r="D262">
         <f>D261</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E262" t="s">
         <v>13</v>
@@ -9519,17 +9694,17 @@
       </c>
       <c r="H262">
         <f>H261+C262</f>
-        <v>4669238.4689070815</v>
+        <v>59623231.712467253</v>
       </c>
     </row>
     <row r="263" spans="1:65" ht="19.5">
       <c r="C263">
         <f>H262*D263</f>
-        <v>136843.03143650558</v>
+        <v>2193901.1700344682</v>
       </c>
       <c r="D263">
         <f>D262</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E263" t="s">
         <v>14</v>
@@ -9539,17 +9714,17 @@
       </c>
       <c r="H263">
         <f>H262+C263</f>
-        <v>4806081.5003435872</v>
+        <v>61817132.882501721</v>
       </c>
     </row>
     <row r="264" spans="1:65" ht="19.5">
       <c r="C264">
         <f>H263*D264</f>
-        <v>140853.53879813015</v>
+        <v>2274628.1317511736</v>
       </c>
       <c r="D264">
         <f>D263</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E264" t="s">
         <v>15</v>
@@ -9559,17 +9734,17 @@
       </c>
       <c r="H264">
         <f>H263+C264</f>
-        <v>4946935.0391417174</v>
+        <v>64091761.014252894</v>
       </c>
     </row>
     <row r="265" spans="1:65" ht="19.5">
       <c r="C265">
         <f>H264*D265</f>
-        <v>144981.58352449152</v>
+        <v>2358325.5291634435</v>
       </c>
       <c r="D265">
         <f>D264</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E265" t="s">
         <v>16</v>
@@ -9579,17 +9754,17 @@
       </c>
       <c r="H265">
         <f>H264+C265</f>
-        <v>5091916.622666209</v>
+        <v>66450086.543416336</v>
       </c>
     </row>
     <row r="266" spans="1:65" ht="19.5">
       <c r="C266">
         <f>H265*D266</f>
-        <v>149230.61032491541</v>
+        <v>2445102.6626590765</v>
       </c>
       <c r="D266">
         <f>D265</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E266" t="s">
         <v>17</v>
@@ -9599,17 +9774,17 @@
       </c>
       <c r="H266">
         <f>H265+C266</f>
-        <v>5241147.2329911245</v>
+        <v>68895189.206075415</v>
       </c>
     </row>
     <row r="267" spans="1:65" ht="19.5">
       <c r="C267">
         <f>H266*D267</f>
-        <v>153604.16486404807</v>
+        <v>2535072.8544516233</v>
       </c>
       <c r="D267">
         <f>D266</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E267" t="s">
         <v>11</v>
@@ -9619,17 +9794,17 @@
       </c>
       <c r="H267">
         <f>H266+C267</f>
-        <v>5394751.3978551729</v>
+        <v>71430262.060527042</v>
       </c>
     </row>
     <row r="268" spans="1:65" ht="19.5">
       <c r="C268">
         <f>H267*D268</f>
-        <v>158105.89672058978</v>
+        <v>2628353.5965678059</v>
       </c>
       <c r="D268">
         <f>D267</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E268" t="s">
         <v>12</v>
@@ -9639,17 +9814,17 @@
       </c>
       <c r="H268">
         <f>H267+C268</f>
-        <v>5552857.2945757629</v>
+        <v>74058615.657094851</v>
       </c>
     </row>
     <row r="269" spans="1:65" ht="19.5">
       <c r="C269">
         <f>H268*D269</f>
-        <v>162739.56243274111</v>
+        <v>2725066.7042802931</v>
       </c>
       <c r="D269">
         <f>D268</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E269" t="s">
         <v>13</v>
@@ -9659,17 +9834,17 @@
       </c>
       <c r="H269">
         <f>H268+C269</f>
-        <v>5715596.8570085037</v>
+        <v>76783682.361375138</v>
       </c>
     </row>
     <row r="270" spans="1:65" ht="19.5">
       <c r="C270">
         <f>H269*D270</f>
-        <v>167509.02863290271</v>
+        <v>2825338.4751862027</v>
       </c>
       <c r="D270">
         <f>D269</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E270" t="s">
         <v>14</v>
@@ -9679,17 +9854,17 @@
       </c>
       <c r="H270">
         <f>H269+C270</f>
-        <v>5883105.8856414063</v>
+        <v>79609020.836561337</v>
       </c>
     </row>
     <row r="271" spans="1:65" ht="19.5">
       <c r="C271">
         <f>H270*D271</f>
-        <v>172418.27527424553</v>
+        <v>2929299.8541390696</v>
       </c>
       <c r="D271">
         <f>D270</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E271" t="s">
         <v>15</v>
@@ -9699,17 +9874,17 @@
       </c>
       <c r="H271">
         <f>H270+C271</f>
-        <v>6055524.1609156523</v>
+        <v>82538320.690700412</v>
       </c>
     </row>
     <row r="272" spans="1:65" ht="19.5">
       <c r="C272">
         <f>H271*D272</f>
-        <v>177471.39895184265</v>
+        <v>3037086.6042496595</v>
       </c>
       <c r="D272">
         <f>D271</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E272" t="s">
         <v>16</v>
@@ -9719,17 +9894,17 @@
       </c>
       <c r="H272">
         <f>H271+C272</f>
-        <v>6232995.5598674947</v>
+        <v>85575407.294950068</v>
       </c>
     </row>
     <row r="273" spans="1:65" ht="19.5">
       <c r="C273">
         <f>H272*D273</f>
-        <v>182672.61632113502</v>
+        <v>3148839.4841789454</v>
       </c>
       <c r="D273">
         <f>D272</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E273" t="s">
         <v>17</v>
@@ -9739,17 +9914,17 @@
       </c>
       <c r="H273">
         <f>H272+C273</f>
-        <v>6415668.1761886301</v>
+        <v>88724246.779129013</v>
       </c>
     </row>
     <row r="274" spans="1:65" ht="19.5">
       <c r="C274">
         <f>H273*D274</f>
-        <v>188026.26761658341</v>
+        <v>3264704.4319547703</v>
       </c>
       <c r="D274">
         <f>D273</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E274" t="s">
         <v>11</v>
@@ -9759,17 +9934,17 @@
       </c>
       <c r="H274">
         <f>H273+C274</f>
-        <v>6603694.4438052131</v>
+        <v>91988951.211083785</v>
       </c>
     </row>
     <row r="275" spans="1:65" ht="19.5">
       <c r="C275">
         <f>H274*D275</f>
-        <v>193536.82027344257</v>
+        <v>3384832.7555522416</v>
       </c>
       <c r="D275">
         <f>D274</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E275" t="s">
         <v>12</v>
@@ -9779,17 +9954,17 @@
       </c>
       <c r="H275">
         <f>H274+C275</f>
-        <v>6797231.2640786553</v>
+        <v>95373783.966636032</v>
       </c>
     </row>
     <row r="276" spans="1:65" ht="19.5">
       <c r="C276">
         <f>H275*D276</f>
-        <v>199208.8726556802</v>
+        <v>3509381.3304867381</v>
       </c>
       <c r="D276">
         <f>D275</f>
-        <v>0.029307355438741627</v>
+        <v>0.036796079431161095</v>
       </c>
       <c r="E276" t="s">
         <v>13</v>
@@ -9799,7 +9974,7 @@
       </c>
       <c r="H276">
         <f>H275+C276</f>
-        <v>6996440.1367343357</v>
+        <v>98883165.297122777</v>
       </c>
     </row>
     <row r="277" spans="1:65" ht="19.5">

--- a/converted.d/covid-19_progression_math.xlsx
+++ b/converted.d/covid-19_progression_math.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19" count="19">
   <si>
     <t>Non-</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Sat</t>
+  </si>
+  <si>
+    <t>r: +3</t>
   </si>
 </sst>
 </file>
@@ -248,7 +251,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Last revision:  Tuesday, 06 Apr 2020 05:16 UTC</t>
+          <t>Last revision:  Tuesday, 06 Apr 2020 21:42 UTC</t>
         </is>
       </c>
     </row>
@@ -3748,10 +3751,8 @@
       <c r="I36">
         <v>5675</v>
       </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>*337072*</t>
-        </is>
+      <c r="J36">
+        <v>337072</v>
       </c>
       <c r="K36">
         <f>M36+Q36+U36+Y36+AC36+AG36+AK36+AO36+AS36</f>
@@ -3781,11 +3782,6 @@
         <f>S35+3</f>
         <v>29</v>
       </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>UPDATED - finished this line's entry and won't require further update.</t>
-        </is>
-      </c>
       <c r="U36">
         <f>U35+138</f>
         <v>1162</v>
@@ -3877,11 +3873,6 @@
       <c r="AY36">
         <f>O36+S36+W36+AA36+AE36+AI36+AM36+AQ36+AU36</f>
         <v>189</v>
-      </c>
-      <c r="AZ36" t="inlineStr">
-        <is>
-          <t>CORRECT - no errors seen.  Ready for permanent record.</t>
-        </is>
       </c>
       <c r="BA36" s="5">
         <v>43878</v>
@@ -3919,646 +3910,791 @@
       <c r="I37">
         <v>6906</v>
       </c>
-      <c r="J37" s="1"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>*366614*</t>
+        </is>
+      </c>
       <c r="K37">
         <f>M37+Q37+U37+Y37+AC37+AG37+AK37+AO37+AS37</f>
         <v>6906</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="M37">
+        <f>M36+33</f>
+        <v>230</v>
+      </c>
+      <c r="N37">
+        <f>N36+0</f>
+        <v>15</v>
+      </c>
+      <c r="O37">
+        <f>O36+2</f>
+        <v>8</v>
+      </c>
+      <c r="Q37">
+        <f>Q36+131</f>
+        <v>882</v>
+      </c>
+      <c r="R37">
+        <f>R36+24</f>
+        <v>213</v>
+      </c>
+      <c r="S37">
+        <f>S36+2</f>
+        <v>31</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>UPDATED - finished this line's entry and won't require further update.</t>
+        </is>
+      </c>
+      <c r="U37">
+        <f>U36+306</f>
+        <v>1468</v>
+      </c>
+      <c r="V37">
+        <f>V36+12</f>
+        <v>384</v>
+      </c>
+      <c r="W37">
+        <f>W36+5</f>
+        <v>41</v>
+      </c>
+      <c r="Y37">
+        <f>Y36+669</f>
+        <v>3719</v>
+      </c>
+      <c r="Z37">
+        <f>Z36+41</f>
+        <v>572</v>
+      </c>
+      <c r="AA37">
+        <f>AA36+5</f>
+        <v>101</v>
+      </c>
+      <c r="AC37">
+        <f>AC36+25</f>
+        <v>135</v>
+      </c>
+      <c r="AD37">
+        <f>AD36+3</f>
+        <v>22</v>
+      </c>
+      <c r="AE37">
+        <f>AE36+2</f>
+        <v>7</v>
+      </c>
+      <c r="AG37">
+        <f>AG36+9</f>
+        <v>103</v>
+      </c>
+      <c r="AH37">
+        <f>AH36+0</f>
+        <v>3</v>
+      </c>
+      <c r="AI37">
+        <f>AI36+2</f>
+        <v>13</v>
+      </c>
+      <c r="AK37">
+        <f>AK36+8</f>
+        <v>40</v>
+      </c>
+      <c r="AL37">
+        <f>AL36+-1</f>
+        <v>2</v>
+      </c>
+      <c r="AM37">
+        <f>AM36+0</f>
+        <v>1</v>
+      </c>
+      <c r="AO37">
+        <f>AO36+8</f>
+        <v>65</v>
+      </c>
+      <c r="AP37">
+        <f>AP36+0</f>
+        <v>10</v>
+      </c>
+      <c r="AQ37">
+        <f>AQ36+0</f>
+        <v>4</v>
+      </c>
+      <c r="AS37">
+        <f>AS36+42</f>
+        <v>264</v>
+      </c>
+      <c r="AU37">
+        <f>AU36+-1</f>
+        <v>0</v>
+      </c>
+      <c r="AW37">
+        <f>M37+Q37+U37+Y37+AC37+AG37+AK37+AO37+AS37</f>
+        <v>6906</v>
+      </c>
+      <c r="AX37">
+        <f>N37+R37+V37+Z37+AD37+AH37+AL37+AP37+AT37</f>
+        <v>1221</v>
+      </c>
+      <c r="AY37">
+        <f>O37+S37+W37+AA37+AE37+AI37+AM37+AQ37+AU37</f>
+        <v>206</v>
+      </c>
+      <c r="AZ37" t="inlineStr">
+        <is>
+          <t>CORRECT - no errors seen.  Ready for permanent record.</t>
+        </is>
+      </c>
+      <c r="BA37" s="5">
+        <v>43879</v>
+      </c>
+      <c r="BB37">
+        <v>13</v>
+      </c>
+      <c r="BC37">
+        <f>(BB37/BB36)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:65" ht="19.5">
+      <c r="C38">
+        <f>H37*D38</f>
+        <v>874.99999999378963</v>
+      </c>
+      <c r="D38">
+        <v>0.12670141905599999</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="5">
+        <v>43928</v>
+      </c>
+      <c r="G38" s="2">
+        <f>H38*50</f>
+        <v>389049.99999694829</v>
+      </c>
+      <c r="H38">
+        <f>H37+C38</f>
+        <v>7780.9999999389656</v>
+      </c>
+      <c r="I38">
+        <v>7781</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38">
+        <f>M38+Q38+U38+Y38+AC38+AG38+AK38+AO38+AS38</f>
+        <v>7781</v>
+      </c>
+      <c r="L38" t="inlineStr">
         <is>
           <t>NEW:</t>
         </is>
       </c>
-      <c r="M37">
-        <f>M36+33</f>
-        <v>230</v>
-      </c>
-      <c r="N37">
-        <f>N36+0</f>
-        <v>15</v>
-      </c>
-      <c r="O37">
-        <f>O36+2</f>
-        <v>8</v>
-      </c>
-      <c r="Q37">
-        <f>Q36+131</f>
-        <v>882</v>
-      </c>
-      <c r="R37">
-        <f>R36+24</f>
-        <v>213</v>
-      </c>
-      <c r="S37">
-        <f>S36+2</f>
-        <v>31</v>
-      </c>
-      <c r="T37" t="inlineStr">
+      <c r="M38">
+        <f>M37+25</f>
+        <v>255</v>
+      </c>
+      <c r="N38">
+        <f>N37+2</f>
+        <v>17</v>
+      </c>
+      <c r="O38">
+        <f>O37+1</f>
+        <v>9</v>
+      </c>
+      <c r="Q38">
+        <f>Q37+163</f>
+        <v>1045</v>
+      </c>
+      <c r="R38">
+        <f>R37+30</f>
+        <v>243</v>
+      </c>
+      <c r="S38">
+        <f>S37+17</f>
+        <v>48</v>
+      </c>
+      <c r="T38" t="inlineStr">
         <is>
           <t>PROPOSED - open to proposal now - subject to revision.</t>
         </is>
       </c>
-      <c r="U37">
-        <f>U36+306</f>
-        <v>1468</v>
-      </c>
-      <c r="V37">
-        <f>V36+12</f>
-        <v>384</v>
-      </c>
-      <c r="W37">
-        <f>W36+5</f>
-        <v>41</v>
-      </c>
-      <c r="Y37">
-        <f>Y36+669</f>
-        <v>3719</v>
-      </c>
-      <c r="Z37">
-        <f>Z36+41</f>
-        <v>572</v>
-      </c>
-      <c r="AA37">
-        <f>AA36+5</f>
-        <v>101</v>
-      </c>
-      <c r="AC37">
-        <f>AC36+25</f>
-        <v>135</v>
-      </c>
-      <c r="AD37">
-        <f>AD36+3</f>
-        <v>22</v>
-      </c>
-      <c r="AE37">
-        <f>AE36+2</f>
+      <c r="U38">
+        <f>U37+196</f>
+        <v>1664</v>
+      </c>
+      <c r="V38">
+        <f>V37+6</f>
+        <v>390</v>
+      </c>
+      <c r="W38">
+        <f>W37+19</f>
+        <v>60</v>
+      </c>
+      <c r="Y38">
+        <f>Y37+417</f>
+        <v>4136</v>
+      </c>
+      <c r="Z38">
+        <f>Z37+41</f>
+        <v>613</v>
+      </c>
+      <c r="AA38">
+        <f>AA37+31</f>
+        <v>132</v>
+      </c>
+      <c r="AC38">
+        <f>AC37+15</f>
+        <v>150</v>
+      </c>
+      <c r="AD38">
+        <f>AD37+4</f>
+        <v>26</v>
+      </c>
+      <c r="AE38">
+        <f>AE37+0</f>
         <v>7</v>
       </c>
-      <c r="AG37">
-        <f>AG36+9</f>
-        <v>103</v>
-      </c>
-      <c r="AH37">
-        <f>AH36+0</f>
+      <c r="AG38">
+        <f>AG37+8</f>
+        <v>111</v>
+      </c>
+      <c r="AH38">
+        <f>AH37+1</f>
+        <v>4</v>
+      </c>
+      <c r="AI38">
+        <f>AI37+0</f>
+        <v>13</v>
+      </c>
+      <c r="AK38">
+        <f>AK37+3</f>
+        <v>43</v>
+      </c>
+      <c r="AL38">
+        <f>AL37+1</f>
         <v>3</v>
       </c>
-      <c r="AI37">
-        <f>AI36+2</f>
+      <c r="AM38">
+        <f>AM37+0</f>
+        <v>1</v>
+      </c>
+      <c r="AO38">
+        <f>AO37+20</f>
+        <v>85</v>
+      </c>
+      <c r="AP38">
+        <f>AP37+2</f>
+        <v>12</v>
+      </c>
+      <c r="AQ38">
+        <f>AQ37+0</f>
+        <v>4</v>
+      </c>
+      <c r="AS38">
+        <f>AS37+28</f>
+        <v>292</v>
+      </c>
+      <c r="AU38">
+        <f>AU37+3</f>
+        <v>3</v>
+      </c>
+      <c r="AW38">
+        <f>M38+Q38+U38+Y38+AC38+AG38+AK38+AO38+AS38</f>
+        <v>7781</v>
+      </c>
+      <c r="AX38">
+        <f>N38+R38+V38+Z38+AD38+AH38+AL38+AP38+AT38</f>
+        <v>1308</v>
+      </c>
+      <c r="AY38">
+        <f>O38+S38+W38+AA38+AE38+AI38+AM38+AQ38+AU38</f>
+        <v>277</v>
+      </c>
+      <c r="BA38" s="5">
+        <v>43880</v>
+      </c>
+      <c r="BB38">
         <v>13</v>
       </c>
-      <c r="AK37">
-        <f>AK36+8</f>
-        <v>40</v>
-      </c>
-      <c r="AL37">
-        <f>AL36+-1</f>
-        <v>2</v>
-      </c>
-      <c r="AM37">
-        <f>AM36+0</f>
-        <v>1</v>
-      </c>
-      <c r="AO37">
-        <f>AO36+8</f>
-        <v>65</v>
-      </c>
-      <c r="AP37">
-        <f>AP36+0</f>
-        <v>10</v>
-      </c>
-      <c r="AQ37">
-        <f>AQ36+0</f>
-        <v>4</v>
-      </c>
-      <c r="AS37">
-        <f>AS36+42</f>
-        <v>264</v>
-      </c>
-      <c r="AU37">
-        <f>AU36+-1</f>
+      <c r="BC38">
+        <f>(BB38/BB37)-1</f>
         <v>0</v>
       </c>
-      <c r="AW37">
-        <f>M37+Q37+U37+Y37+AC37+AG37+AK37+AO37+AS37</f>
-        <v>6906</v>
-      </c>
-      <c r="AX37">
-        <f>N37+R37+V37+Z37+AD37+AH37+AL37+AP37+AT37</f>
-        <v>1221</v>
-      </c>
-      <c r="AY37">
-        <f>O37+S37+W37+AA37+AE37+AI37+AM37+AQ37+AU37</f>
-        <v>206</v>
-      </c>
-      <c r="BA37" s="5">
-        <v>43879</v>
-      </c>
-      <c r="BB37">
-        <v>13</v>
-      </c>
-      <c r="BC37">
-        <f>(BB37/BB36)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:65" ht="19.5">
-      <c r="C38">
-        <f>H37*D38</f>
-        <v>1349.571139407713</v>
-      </c>
-      <c r="D38">
-        <f>D37/1.1100000000000001</f>
-        <v>0.19542008969279276</v>
-      </c>
-      <c r="E38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" t="inlineStr">
+    </row>
+    <row r="39" spans="1:65" ht="19.5">
+      <c r="C39">
+        <f>H38*D39</f>
+        <v>888.16553303333581</v>
+      </c>
+      <c r="D39">
+        <f>D38/1.1100000000000001</f>
+        <v>0.11414542257297296</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="inlineStr">
         <is>
           <t>day two</t>
         </is>
       </c>
-      <c r="G38" s="2">
-        <f>H38*50</f>
-        <v>412778.55696764443</v>
-      </c>
-      <c r="H38">
-        <f>H37+C38</f>
-        <v>8255.5711393528891</v>
-      </c>
-      <c r="J38" s="1"/>
-      <c r="BA38" s="5">
-        <v>43880</v>
-      </c>
-      <c r="BB38">
+      <c r="G39" s="2">
+        <f>H39*50</f>
+        <v>433458.27664861508</v>
+      </c>
+      <c r="H39">
+        <f>H38+C39</f>
+        <v>8669.1655329723017</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="BA39" s="5">
+        <v>43881</v>
+      </c>
+      <c r="BB39">
         <v>13</v>
       </c>
-      <c r="BC38">
-        <f>(BB38/BB37)-1</f>
+      <c r="BC39">
+        <f>(BB39/BB38)-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:65" ht="19.5">
-      <c r="C39">
-        <f>H38*D39</f>
-        <v>1453.427434700516</v>
-      </c>
-      <c r="D39">
-        <f>D38/1.1100000000000001</f>
-        <v>0.17605413485837185</v>
-      </c>
-      <c r="E39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" t="inlineStr">
+    <row r="40" spans="1:65" ht="19.5">
+      <c r="C40">
+        <f>H39*D40</f>
+        <v>891.48248929385193</v>
+      </c>
+      <c r="D40">
+        <f>D39/1.1100000000000001</f>
+        <v>0.10283371402970536</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" t="inlineStr">
         <is>
           <t>day three</t>
         </is>
       </c>
-      <c r="G39" s="2">
-        <f>H39*50</f>
-        <v>485449.92870267027</v>
-      </c>
-      <c r="H39">
-        <f>H38+C39</f>
-        <v>9708.9985740534048</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="G40" s="2">
+        <f>H40*50</f>
+        <v>478032.40111330769</v>
+      </c>
+      <c r="H40">
+        <f>H39+C40</f>
+        <v>9560.6480222661539</v>
+      </c>
+      <c r="J40" t="inlineStr">
         <is>
           <t>*preliminary*</t>
         </is>
       </c>
-      <c r="BA39" s="5">
-        <v>43881</v>
-      </c>
-      <c r="BB39">
-        <v>13</v>
-      </c>
-      <c r="BC39">
-        <f>(BB39/BB38)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:65" ht="19.5">
-      <c r="C40">
-        <f>H39*D40</f>
-        <v>1539.9183281947189</v>
-      </c>
-      <c r="D40">
-        <f>D39/1.1100000000000001</f>
-        <v>0.15860732870123589</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="BA40" s="5">
+        <v>43882</v>
+      </c>
+      <c r="BB40">
         <v>15</v>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="BC40">
+        <f>(BB40/BB39)-1</f>
+        <v>0.15384615384615374</v>
+      </c>
+    </row>
+    <row r="41" spans="1:65" ht="19.5">
+      <c r="C41">
+        <f>H40*D41</f>
+        <v>885.72697717151857</v>
+      </c>
+      <c r="D41">
+        <f>D40/1.1100000000000001</f>
+        <v>0.092642985612347156</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" t="inlineStr">
         <is>
           <t>day four</t>
         </is>
       </c>
-      <c r="G40" s="2">
-        <f>H40*50</f>
-        <v>562445.84511240618</v>
-      </c>
-      <c r="H40">
-        <f>H39+C40</f>
-        <v>11248.916902248124</v>
-      </c>
-      <c r="J40" s="1"/>
-      <c r="K40" t="inlineStr">
+      <c r="G41" s="2">
+        <f>H41*50</f>
+        <v>522318.7499718836</v>
+      </c>
+      <c r="H41">
+        <f>H40+C41</f>
+        <v>10446.374999437672</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" t="inlineStr">
         <is>
           <t>TODAY:</t>
         </is>
       </c>
-      <c r="M40" s="6">
-        <f>(M37/M36)-1</f>
-        <v>0.1675126903553299</v>
-      </c>
-      <c r="N40" s="6">
-        <f>(N37/N36)-1</f>
+      <c r="M41" s="6">
+        <f>(M38/M37)-1</f>
+        <v>0.10869565217391308</v>
+      </c>
+      <c r="N41" s="6">
+        <f>(N38/N37)-1</f>
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="O41" s="6">
+        <f>(O38/O37)-1</f>
+        <v>0.125</v>
+      </c>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="6">
+        <f>(Q38/Q37)-1</f>
+        <v>0.18480725623582761</v>
+      </c>
+      <c r="R41" s="6">
+        <f>(R38/R37)-1</f>
+        <v>0.14084507042253525</v>
+      </c>
+      <c r="S41" s="6">
+        <f>(S38/S37)-1</f>
+        <v>0.54838709677419351</v>
+      </c>
+      <c r="T41" s="4"/>
+      <c r="U41" s="6">
+        <f>(U38/U37)-1</f>
+        <v>0.13351498637602188</v>
+      </c>
+      <c r="V41" s="6">
+        <f>(V38/V37)-1</f>
+        <v>0.015625</v>
+      </c>
+      <c r="W41" s="6">
+        <f>(W38/W37)-1</f>
+        <v>0.46341463414634143</v>
+      </c>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="6">
+        <f>(Y38/Y37)-1</f>
+        <v>0.11212691583759082</v>
+      </c>
+      <c r="Z41" s="6">
+        <f>(Z38/Z37)-1</f>
+        <v>0.071678321678321666</v>
+      </c>
+      <c r="AA41" s="6">
+        <f>(AA38/AA37)-1</f>
+        <v>0.30693069306930698</v>
+      </c>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="6">
+        <f>(AC38/AC37)-1</f>
+        <v>0.11111111111111116</v>
+      </c>
+      <c r="AD41" s="6">
+        <f>(AD38/AD37)-1</f>
+        <v>0.18181818181818188</v>
+      </c>
+      <c r="AE41" s="6">
+        <f>(AE38/AE37)-1</f>
         <v>0</v>
       </c>
-      <c r="O40" s="6">
-        <f>(O37/O36)-1</f>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="6">
+        <f>(AG38/AG37)-1</f>
+        <v>0.077669902912621325</v>
+      </c>
+      <c r="AH41" s="6">
+        <f>(AH38/AH37)-1</f>
         <v>0.33333333333333326</v>
       </c>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="6">
-        <f>(Q37/Q36)-1</f>
-        <v>0.174434087882823</v>
-      </c>
-      <c r="R40" s="6">
-        <f>(R37/R36)-1</f>
-        <v>0.12698412698412698</v>
-      </c>
-      <c r="S40" s="6">
-        <f>(S37/S36)-1</f>
-        <v>0.068965517241379226</v>
-      </c>
-      <c r="T40" s="4"/>
-      <c r="U40" s="6">
-        <f>(U37/U36)-1</f>
-        <v>0.26333907056798633</v>
-      </c>
-      <c r="V40" s="6">
-        <f>(V37/V36)-1</f>
-        <v>0.032258064516129004</v>
-      </c>
-      <c r="W40" s="6">
-        <f>(W37/W36)-1</f>
-        <v>0.13888888888888884</v>
-      </c>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="6">
-        <f>(Y37/Y36)-1</f>
-        <v>0.21934426229508186</v>
-      </c>
-      <c r="Z40" s="6">
-        <f>(Z37/Z36)-1</f>
-        <v>0.077212806026365266</v>
-      </c>
-      <c r="AA40" s="6">
-        <f>(AA37/AA36)-1</f>
-        <v>0.052083333333333259</v>
-      </c>
-      <c r="AB40" s="4"/>
-      <c r="AC40" s="6">
-        <f>(AC37/AC36)-1</f>
-        <v>0.22727272727272729</v>
-      </c>
-      <c r="AD40" s="6">
-        <f>(AD37/AD36)-1</f>
-        <v>0.15789473684210531</v>
-      </c>
-      <c r="AE40" s="6">
-        <f>(AE37/AE36)-1</f>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="AF40" s="4"/>
-      <c r="AG40" s="6">
-        <f>(AG37/AG36)-1</f>
-        <v>0.095744680851063801</v>
-      </c>
-      <c r="AH40" s="6">
-        <f>(AH37/AH36)-1</f>
+      <c r="AI41" s="6">
+        <f>(AI38/AI37)-1</f>
         <v>0</v>
       </c>
-      <c r="AI40" s="6">
-        <f>(AI37/AI36)-1</f>
-        <v>0.18181818181818188</v>
-      </c>
-      <c r="AJ40" s="4"/>
-      <c r="AK40" s="6">
-        <f>(AK37/AK36)-1</f>
-        <v>0.25</v>
-      </c>
-      <c r="AL40" s="6">
-        <f>(AL37/AL36)-1</f>
-        <v>-0.33333333333333337</v>
-      </c>
-      <c r="AM40" s="6">
-        <f>(AM37/AM36)-1</f>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="6">
+        <f>(AK38/AK37)-1</f>
+        <v>0.074999999999999956</v>
+      </c>
+      <c r="AL41" s="6">
+        <f>(AL38/AL37)-1</f>
+        <v>0.5</v>
+      </c>
+      <c r="AM41" s="6">
+        <f>(AM38/AM37)-1</f>
         <v>0</v>
       </c>
-      <c r="AN40" s="4"/>
-      <c r="AO40" s="6">
-        <f>(AO37/AO36)-1</f>
-        <v>0.14035087719298245</v>
-      </c>
-      <c r="AP40" s="6">
-        <f>(AP37/AP36)-1</f>
+      <c r="AN41" s="4"/>
+      <c r="AO41" s="6">
+        <f>(AO38/AO37)-1</f>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="AP41" s="6">
+        <f>(AP38/AP37)-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AQ41" s="6">
+        <f>(AQ38/AQ37)-1</f>
         <v>0</v>
       </c>
-      <c r="AQ40" s="6">
-        <f>(AQ37/AQ36)-1</f>
+      <c r="AR41" s="4"/>
+      <c r="AS41" s="6">
+        <f>(AS38/AS37)-1</f>
+        <v>0.10606060606060597</v>
+      </c>
+      <c r="AT41" s="6"/>
+      <c r="AU41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV41" s="4"/>
+      <c r="AW41" s="6">
+        <f>(AW38/AW37)-1</f>
+        <v>0.12670141905589349</v>
+      </c>
+      <c r="AX41" s="6">
+        <f>(AX38/AX37)-1</f>
+        <v>0.071253071253071232</v>
+      </c>
+      <c r="AY41" s="6">
+        <f>(AY38/AY37)-1</f>
+        <v>0.34466019417475735</v>
+      </c>
+      <c r="BA41" s="5">
+        <v>43883</v>
+      </c>
+      <c r="BB41">
+        <v>15</v>
+      </c>
+      <c r="BC41">
+        <f>(BB41/BB40)-1</f>
         <v>0</v>
       </c>
-      <c r="AR40" s="4"/>
-      <c r="AS40" s="6">
-        <f>(AS37/AS36)-1</f>
-        <v>0.18918918918918926</v>
-      </c>
-      <c r="AT40" s="6"/>
-      <c r="AU40" s="6">
-        <f>(AU37/AU36)-1</f>
-        <v>-1</v>
-      </c>
-      <c r="AV40" s="4"/>
-      <c r="AW40" s="6">
-        <f>(AW37/AW36)-1</f>
-        <v>0.21691629955947134</v>
-      </c>
-      <c r="AX40" s="6">
-        <f>(AX37/AX36)-1</f>
-        <v>0.069176882661996508</v>
-      </c>
-      <c r="AY40" s="6">
-        <f>(AY37/AY36)-1</f>
-        <v>0.089947089947089998</v>
-      </c>
-      <c r="BA40" s="5">
-        <v>43882</v>
-      </c>
-      <c r="BB40">
-        <v>15</v>
-      </c>
-      <c r="BC40">
-        <f>(BB40/BB39)-1</f>
-        <v>0.15384615384615374</v>
-      </c>
-    </row>
-    <row r="41" spans="1:65" ht="19.5">
-      <c r="C41">
-        <f>H40*D41</f>
-        <v>1607.3519465295101</v>
-      </c>
-      <c r="D41">
-        <f>D40/1.1100000000000001</f>
-        <v>0.14288948531642873</v>
-      </c>
-      <c r="E41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" t="inlineStr">
+    </row>
+    <row r="42" spans="1:65" ht="19.5">
+      <c r="C42">
+        <f>H41*D42</f>
+        <v>871.87690880548405</v>
+      </c>
+      <c r="D42">
+        <f>D41/1.1100000000000001</f>
+        <v>0.083462149200312752</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" t="inlineStr">
         <is>
           <t>day five</t>
         </is>
       </c>
-      <c r="G41" s="2">
-        <f>H41*50</f>
-        <v>642813.44243888173</v>
-      </c>
-      <c r="H41">
-        <f>H40+C41</f>
-        <v>12856.268848777634</v>
-      </c>
-      <c r="J41" s="1"/>
-      <c r="BA41" s="5">
-        <v>43883</v>
-      </c>
-      <c r="BB41">
+      <c r="G42" s="2">
+        <f>H42*50</f>
+        <v>565912.59541215783</v>
+      </c>
+      <c r="H42">
+        <f>H41+C42</f>
+        <v>11318.251908243155</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="BA42" s="5">
+        <v>43884</v>
+      </c>
+      <c r="BB42">
         <v>15</v>
       </c>
-      <c r="BC41">
-        <f>(BB41/BB40)-1</f>
+      <c r="BC42">
+        <f>(BB42/BB41)-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:65" ht="19.5">
-      <c r="C42">
-        <f>H41*D42</f>
-        <v>1654.9780530553799</v>
-      </c>
-      <c r="D42">
-        <f>D41/1.1100000000000001</f>
-        <v>0.12872926605083668</v>
-      </c>
-      <c r="E42" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" t="inlineStr">
+    <row r="43" spans="1:65" ht="19.5">
+      <c r="C43">
+        <f>H42*D43</f>
+        <v>851.03209860586912</v>
+      </c>
+      <c r="D43">
+        <f>D42/1.1100000000000001</f>
+        <v>0.075191125405687162</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="inlineStr">
         <is>
           <t>above: moving target</t>
         </is>
       </c>
-      <c r="G42" s="2">
-        <f>H42*50</f>
-        <v>725562.34509165073</v>
-      </c>
-      <c r="H42">
-        <f>H41+C42</f>
-        <v>14511.246901833014</v>
-      </c>
-      <c r="BA42" s="5">
-        <v>43884</v>
-      </c>
-      <c r="BB42">
-        <v>15</v>
-      </c>
-      <c r="BC42">
-        <f>(BB42/BB41)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:65" ht="19.5">
-      <c r="C43">
-        <f>H42*D43</f>
-        <v>1682.9028496895867</v>
-      </c>
-      <c r="D43">
-        <f>D42/1.1100000000000001</f>
-        <v>0.11597231175751051</v>
-      </c>
-      <c r="E43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="5">
-        <v>43933</v>
-      </c>
       <c r="G43" s="2">
         <f>H43*50</f>
-        <v>809707.48757612996</v>
+        <v>608464.20034245122</v>
       </c>
       <c r="H43">
         <f>H42+C43</f>
-        <v>16194.1497515226</v>
-      </c>
-      <c r="K43" t="inlineStr">
+        <v>12169.284006849024</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="BA43" s="5">
+        <v>43885</v>
+      </c>
+      <c r="BB43">
+        <v>51</v>
+      </c>
+      <c r="BC43">
+        <f>(BB43/BB42)-1</f>
+        <v>2.3999999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:65" ht="19.5">
+      <c r="C44">
+        <f>H43*D44</f>
+        <v>824.34428815892625</v>
+      </c>
+      <c r="D44">
+        <f>D43/1.1100000000000001</f>
+        <v>0.067739752617736182</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="5">
+        <v>43934</v>
+      </c>
+      <c r="G44" s="2">
+        <f>H44*50</f>
+        <v>649681.41475039755</v>
+      </c>
+      <c r="H44">
+        <f>H43+C44</f>
+        <v>12993.628295007951</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>Yesterday:</t>
         </is>
       </c>
-      <c r="M43" s="6">
+      <c r="M44" s="6">
+        <f>0.17000000000000001</f>
+        <v>0.17000000000000001</v>
+      </c>
+      <c r="N44" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O44" s="6">
+        <f>0.33000000000000002</f>
+        <v>0.33000000000000002</v>
+      </c>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6">
+        <f>0.17000000000000001</f>
+        <v>0.17000000000000001</v>
+      </c>
+      <c r="R44" s="6">
+        <f>0.13</f>
+        <v>0.13</v>
+      </c>
+      <c r="S44" s="6">
+        <f>0.070000000000000007</f>
+        <v>0.070000000000000007</v>
+      </c>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6">
+        <f>0.26000000000000001</f>
+        <v>0.26000000000000001</v>
+      </c>
+      <c r="V44" s="6">
+        <f>0.029999999999999999</f>
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="W44" s="6">
+        <f>0.14000000000000001</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6">
+        <f>0.22</f>
+        <v>0.22</v>
+      </c>
+      <c r="Z44" s="6">
         <f>0.080000000000000002</f>
         <v>0.080000000000000002</v>
       </c>
-      <c r="N43" s="6">
-        <v>0</v>
-      </c>
-      <c r="O43" s="6">
-        <f>0.20000000000000001</f>
-        <v>0.20000000000000001</v>
-      </c>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6">
-        <f>0.029999999999999999</f>
-        <v>0.029999999999999999</v>
-      </c>
-      <c r="R43" s="6">
-        <f>0.029999999999999999</f>
-        <v>0.029999999999999999</v>
-      </c>
-      <c r="S43" s="6">
-        <f>0.12</f>
-        <v>0.12</v>
-      </c>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6">
-        <f>0.13</f>
-        <v>0.13</v>
-      </c>
-      <c r="V43" s="6">
-        <f>0.14999999999999999</f>
-        <v>0.14999999999999999</v>
-      </c>
-      <c r="W43" s="6">
-        <f>0.23999999999999999</f>
-        <v>0.23999999999999999</v>
-      </c>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6">
-        <f>0.080000000000000002</f>
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="Z43" s="6">
-        <f>0.12</f>
-        <v>0.12</v>
-      </c>
-      <c r="AA43" s="6">
-        <f>0.12</f>
-        <v>0.12</v>
-      </c>
-      <c r="AB43" s="6"/>
-      <c r="AC43" s="6">
+      <c r="AA44" s="6">
+        <f>0.050000000000000003</f>
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="6">
+        <f>0.23000000000000001</f>
+        <v>0.23000000000000001</v>
+      </c>
+      <c r="AD44" s="6">
+        <f>0.16</f>
+        <v>0.16</v>
+      </c>
+      <c r="AE44" s="6">
+        <f>0.40000000000000002</f>
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="AF44" s="6"/>
+      <c r="AG44" s="6">
         <f>0.10000000000000001</f>
         <v>0.10000000000000001</v>
       </c>
-      <c r="AD43" s="6">
+      <c r="AH44" s="6">
+        <f>0</f>
         <v>0</v>
       </c>
-      <c r="AE43" s="6">
+      <c r="AI44" s="6">
+        <f>0.17999999999999999</f>
+        <v>0.17999999999999999</v>
+      </c>
+      <c r="AJ44" s="6"/>
+      <c r="AK44" s="6">
         <f>0.25</f>
         <v>0.25</v>
       </c>
-      <c r="AF43" s="6"/>
-      <c r="AG43" s="6">
-        <f>0.029999999999999999</f>
-        <v>0.029999999999999999</v>
-      </c>
-      <c r="AH43" s="6">
+      <c r="AL44" s="6">
+        <f>-0.33000000000000002</f>
+        <v>-0.33000000000000002</v>
+      </c>
+      <c r="AM44" s="6">
+        <f>0</f>
         <v>0</v>
       </c>
-      <c r="AI43" s="6">
-        <f>0.10000000000000001</f>
-        <v>0.10000000000000001</v>
-      </c>
-      <c r="AJ43" s="6"/>
-      <c r="AK43" s="6">
-        <f>0.029999999999999999</f>
-        <v>0.029999999999999999</v>
-      </c>
-      <c r="AL43" s="6">
+      <c r="AN44" s="6"/>
+      <c r="AO44" s="6">
+        <f>0.14000000000000001</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AP44" s="6">
+        <f>0</f>
         <v>0</v>
       </c>
-      <c r="AM43" s="6">
+      <c r="AQ44" s="6">
+        <f>0</f>
         <v>0</v>
       </c>
-      <c r="AN43" s="6"/>
-      <c r="AO43" s="6">
-        <v>0</v>
-      </c>
-      <c r="AP43" s="6">
-        <v>0</v>
-      </c>
-      <c r="AQ43" s="6">
-        <f>0.33000000000000002</f>
-        <v>0.33000000000000002</v>
-      </c>
-      <c r="AR43" s="6"/>
-      <c r="AS43" s="6">
-        <f>-0.080000000000000002</f>
-        <v>-0.080000000000000002</v>
-      </c>
-      <c r="AT43" s="6"/>
-      <c r="AU43" s="6">
-        <v>0</v>
-      </c>
-      <c r="AV43" s="6"/>
-      <c r="AW43" s="6">
-        <f>0.080000000000000002</f>
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="AX43" s="6">
-        <f>0.11</f>
-        <v>0.11</v>
-      </c>
-      <c r="AY43" s="6">
-        <f>0.14999999999999999</f>
-        <v>0.14999999999999999</v>
-      </c>
-      <c r="BA43" s="5">
-        <v>43885</v>
-      </c>
-      <c r="BB43">
-        <v>51</v>
-      </c>
-      <c r="BC43">
-        <f>(BB43/BB42)-1</f>
-        <v>2.3999999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:65" ht="19.5">
-      <c r="C44">
-        <f>H43*D44</f>
-        <v>1691.9576429111623</v>
-      </c>
-      <c r="D44">
-        <f>D43/1.1100000000000001</f>
-        <v>0.10447956014190135</v>
-      </c>
-      <c r="E44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="5">
-        <v>43934</v>
-      </c>
-      <c r="G44" s="2">
-        <f>H44*50</f>
-        <v>894305.3697216881</v>
-      </c>
-      <c r="H44">
-        <f>H43+C44</f>
-        <v>17886.107394433762</v>
+      <c r="AR44" s="6"/>
+      <c r="AS44" s="6">
+        <f>0.19</f>
+        <v>0.19</v>
+      </c>
+      <c r="AT44" s="6"/>
+      <c r="AU44" s="6">
+        <f>-1</f>
+        <v>-1</v>
+      </c>
+      <c r="AV44" s="6"/>
+      <c r="AW44" s="6">
+        <f>0.22</f>
+        <v>0.22</v>
+      </c>
+      <c r="AX44" s="6">
+        <f>0.070000000000000007</f>
+        <v>0.070000000000000007</v>
+      </c>
+      <c r="AY44" s="6">
+        <f>0.089999999999999997</f>
+        <v>0.089999999999999997</v>
       </c>
       <c r="BA44" s="5">
         <v>43886</v>
@@ -4574,11 +4710,11 @@
     <row r="45" spans="1:65" ht="19.5">
       <c r="C45">
         <f>H44*D45</f>
-        <v>1683.5429128119356</v>
+        <v>792.95960928887905</v>
       </c>
       <c r="D45">
         <f>D44/1.1100000000000001</f>
-        <v>0.094125729857568771</v>
+        <v>0.061026804160122683</v>
       </c>
       <c r="E45" t="s">
         <v>13</v>
@@ -4588,137 +4724,132 @@
       </c>
       <c r="G45" s="2">
         <f>H45*50</f>
-        <v>978482.51536228484</v>
+        <v>689329.39521484147</v>
       </c>
       <c r="H45">
         <f>H44+C45</f>
-        <v>19569.650307245698</v>
-      </c>
-      <c r="J45" s="1"/>
-      <c r="P45" t="inlineStr">
+        <v>13786.58790429683</v>
+      </c>
+      <c r="BA45" s="5">
+        <v>43887</v>
+      </c>
+      <c r="BB45">
+        <v>57</v>
+      </c>
+      <c r="BC45">
+        <f>(BB45/BB44)-1</f>
+        <v>0.11764705882352944</v>
+      </c>
+    </row>
+    <row r="46" spans="1:65" ht="19.5">
+      <c r="C46">
+        <f>H45*D46</f>
+        <v>757.97423429895389</v>
+      </c>
+      <c r="D46">
+        <f>D45/1.1100000000000001</f>
+        <v>0.054979102846957367</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="5">
+        <v>43936</v>
+      </c>
+      <c r="G46" s="2">
+        <f>H46*50</f>
+        <v>727228.10692978918</v>
+      </c>
+      <c r="H46">
+        <f>H45+C46</f>
+        <v>14544.562138595784</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="P46" t="inlineStr">
         <is>
           <t>older Source: https://portal.ct.gov/Coronavirus/Pages/Governors-Press-Releases</t>
         </is>
       </c>
-      <c r="AQ45" s="6"/>
-      <c r="BA45" s="5">
-        <v>43887</v>
-      </c>
-      <c r="BB45">
-        <v>57</v>
-      </c>
-      <c r="BC45">
-        <f>(BB45/BB44)-1</f>
-        <v>0.11764705882352944</v>
-      </c>
-    </row>
-    <row r="46" spans="1:65" ht="19.5">
-      <c r="C46">
-        <f>H45*D46</f>
-        <v>1659.4663227269336</v>
-      </c>
-      <c r="D46">
-        <f>D45/1.1100000000000001</f>
-        <v>0.08479795482663853</v>
-      </c>
-      <c r="E46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="5">
-        <v>43936</v>
-      </c>
-      <c r="G46" s="2">
-        <f>H46*50</f>
-        <v>1061455.8314986315</v>
-      </c>
-      <c r="H46">
-        <f>H45+C46</f>
-        <v>21229.116629972632</v>
-      </c>
-      <c r="J46" s="1"/>
-      <c r="AL46" t="inlineStr">
+      <c r="AQ46" s="6"/>
+      <c r="BA46" s="5">
+        <v>43888</v>
+      </c>
+      <c r="BB46">
+        <v>58</v>
+      </c>
+      <c r="BC46">
+        <f>(BB46/BB45)-1</f>
+        <v>0.017543859649122862</v>
+      </c>
+    </row>
+    <row r="47" spans="1:65" ht="19.5">
+      <c r="C47">
+        <f>H46*D47</f>
+        <v>720.40268259623406</v>
+      </c>
+      <c r="D47">
+        <f>D46/1.1100000000000001</f>
+        <v>0.049530723285547175</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="5">
+        <v>43937</v>
+      </c>
+      <c r="G47" s="2">
+        <f>H47*50</f>
+        <v>763248.24105960084</v>
+      </c>
+      <c r="H47">
+        <f>H46+C47</f>
+        <v>15264.964821192018</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="AL47" t="inlineStr">
         <is>
           <t>any zero-to-positive int gets the 'r: +n' entry.</t>
         </is>
       </c>
-      <c r="BA46" s="5">
-        <v>43888</v>
-      </c>
-      <c r="BB46">
-        <v>58</v>
-      </c>
-      <c r="BC46">
-        <f>(BB46/BB45)-1</f>
-        <v>0.017543859649122862</v>
-      </c>
-    </row>
-    <row r="47" spans="1:65" ht="19.5">
-      <c r="C47">
-        <f>H46*D47</f>
-        <v>1621.7888945926666</v>
-      </c>
-      <c r="D47">
-        <f>D46/1.1100000000000001</f>
-        <v>0.076394553897872544</v>
-      </c>
-      <c r="E47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="5">
-        <v>43937</v>
-      </c>
-      <c r="G47" s="2">
-        <f>H47*50</f>
-        <v>1142545.2762282649</v>
-      </c>
-      <c r="H47">
-        <f>H46+C47</f>
-        <v>22850.9055245653</v>
-      </c>
-      <c r="P47" t="inlineStr">
+      <c r="BA47" s="5">
+        <v>43889</v>
+      </c>
+      <c r="BB47">
+        <v>60</v>
+      </c>
+      <c r="BC47">
+        <f>(BB47/BB46)-1</f>
+        <v>0.034482758620689724</v>
+      </c>
+    </row>
+    <row r="48" spans="1:65" ht="19.5">
+      <c r="C48">
+        <f>H47*D48</f>
+        <v>681.15743110096753</v>
+      </c>
+      <c r="D48">
+        <f>D47/1.1100000000000001</f>
+        <v>0.044622273230222678</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="5">
+        <v>43938</v>
+      </c>
+      <c r="G48" s="2">
+        <f>H48*50</f>
+        <v>797306.11261464923</v>
+      </c>
+      <c r="H48">
+        <f>H47+C48</f>
+        <v>15946.122252292986</v>
+      </c>
+      <c r="P48" t="inlineStr">
         <is>
           <t>recent Source: https://portal.ct.gov/-/media/Coronavirus/CTDPHCOVID19summary3312020.pdf?la=en</t>
         </is>
       </c>
-      <c r="BA47" s="5">
-        <v>43889</v>
-      </c>
-      <c r="BB47">
-        <v>60</v>
-      </c>
-      <c r="BC47">
-        <f>(BB47/BB46)-1</f>
-        <v>0.034482758620689724</v>
-      </c>
-    </row>
-    <row r="48" spans="1:65" ht="19.5">
-      <c r="C48">
-        <f>H47*D48</f>
-        <v>1572.6889492897271</v>
-      </c>
-      <c r="D48">
-        <f>D47/1.1100000000000001</f>
-        <v>0.068823922430515799</v>
-      </c>
-      <c r="E48" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="5">
-        <v>43938</v>
-      </c>
-      <c r="G48" s="2">
-        <f>H48*50</f>
-        <v>1221179.7236927515</v>
-      </c>
-      <c r="H48">
-        <f>H47+C48</f>
-        <v>24423.594473855028</v>
-      </c>
-      <c r="AL48" t="inlineStr">
-        <is>
-          <t>r: +3</t>
-        </is>
-      </c>
       <c r="BA48" s="5">
         <v>43890</v>
       </c>
@@ -4733,11 +4864,11 @@
     <row r="49" spans="1:65" ht="19.5">
       <c r="C49">
         <f>H48*D49</f>
-        <v>1514.3491635522278</v>
+        <v>641.03803973364995</v>
       </c>
       <c r="D49">
         <f>D48/1.1100000000000001</f>
-        <v>0.062003533721185403</v>
+        <v>0.040200246153353762</v>
       </c>
       <c r="E49" t="s">
         <v>17</v>
@@ -4747,51 +4878,59 @@
       </c>
       <c r="G49" s="2">
         <f>H49*50</f>
-        <v>1296897.1818703627</v>
+        <v>829358.01460133167</v>
       </c>
       <c r="H49">
         <f>H48+C49</f>
-        <v>25937.943637407254</v>
-      </c>
-      <c r="P49" t="inlineStr">
+        <v>16587.160292026634</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>18</v>
+      </c>
+      <c r="BA49" s="5">
+        <v>43891</v>
+      </c>
+      <c r="BB49">
+        <v>74</v>
+      </c>
+      <c r="BC49">
+        <f>(BB49/BB48)-1</f>
+        <v>0.088235294117646967</v>
+      </c>
+    </row>
+    <row r="50" spans="1:65" ht="19.5">
+      <c r="C50">
+        <f>H49*D50</f>
+        <v>600.72786191405942</v>
+      </c>
+      <c r="D50">
+        <f>D49/1.1100000000000001</f>
+        <v>0.03621643797599438</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="5">
+        <v>43940</v>
+      </c>
+      <c r="G50" s="2">
+        <f>H50*50</f>
+        <v>859394.40769703465</v>
+      </c>
+      <c r="H50">
+        <f>H49+C50</f>
+        <v>17187.888153940694</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>&lt;&lt; transmission under 4 percent growth (per day)</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
         <is>
           <t>export: $ ssconvert -T Gnumeric_stf:stf_csv thisfile.gnumeric thisfile.csv</t>
         </is>
       </c>
-      <c r="BA49" s="5">
-        <v>43891</v>
-      </c>
-      <c r="BB49">
-        <v>74</v>
-      </c>
-      <c r="BC49">
-        <f>(BB49/BB48)-1</f>
-        <v>0.088235294117646967</v>
-      </c>
-    </row>
-    <row r="50" spans="1:65" ht="19.5">
-      <c r="C50">
-        <f>H49*D50</f>
-        <v>1448.8686152974658</v>
-      </c>
-      <c r="D50">
-        <f>D49/1.1100000000000001</f>
-        <v>0.055859039388455316</v>
-      </c>
-      <c r="E50" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="5">
-        <v>43940</v>
-      </c>
-      <c r="G50" s="2">
-        <f>H50*50</f>
-        <v>1369340.612635236</v>
-      </c>
-      <c r="H50">
-        <f>H49+C50</f>
-        <v>27386.81225270472</v>
-      </c>
       <c r="BA50" s="5">
         <v>43892</v>
       </c>
@@ -4806,11 +4945,11 @@
     <row r="51" spans="1:65" ht="19.5">
       <c r="C51">
         <f>H50*D51</f>
-        <v>1378.1991210342915</v>
+        <v>622.48408526552168</v>
       </c>
       <c r="D51">
-        <f>D50/1.1100000000000001</f>
-        <v>0.050323458908518297</v>
+        <f>D50</f>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E51" t="s">
         <v>12</v>
@@ -4820,51 +4959,56 @@
       </c>
       <c r="G51" s="2">
         <f>H51*50</f>
-        <v>1438250.5686869507</v>
+        <v>890518.61196031072</v>
       </c>
       <c r="H51">
         <f>H50+C51</f>
-        <v>28765.011373739013</v>
-      </c>
-      <c r="P51" t="inlineStr">
+        <v>17810.372239206215</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>(four percent arbitrarily chosen)</t>
+        </is>
+      </c>
+      <c r="BA51" s="5">
+        <v>43893</v>
+      </c>
+      <c r="BB51">
+        <v>118</v>
+      </c>
+      <c r="BC51">
+        <f>(BB51/BB50)-1</f>
+        <v>0.20408163265306123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:65" ht="19.5">
+      <c r="C52">
+        <f>H51*D52</f>
+        <v>645.02824153058407</v>
+      </c>
+      <c r="D52">
+        <f>D51</f>
+        <v>0.03621643797599438</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="5">
+        <v>43942</v>
+      </c>
+      <c r="G52" s="2">
+        <f>H52*50</f>
+        <v>922770.02403683995</v>
+      </c>
+      <c r="H52">
+        <f>H51+C52</f>
+        <v>18455.4004807368</v>
+      </c>
+      <c r="P52" t="inlineStr">
         <is>
           <t>March 31: Hospitalization by county presented in a graphic (only?)</t>
         </is>
       </c>
-      <c r="BA51" s="5">
-        <v>43893</v>
-      </c>
-      <c r="BB51">
-        <v>118</v>
-      </c>
-      <c r="BC51">
-        <f>(BB51/BB50)-1</f>
-        <v>0.20408163265306123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:65" ht="19.5">
-      <c r="C52">
-        <f>H51*D52</f>
-        <v>1304.103484567042</v>
-      </c>
-      <c r="D52">
-        <f>D51/1.1100000000000001</f>
-        <v>0.045336449467133597</v>
-      </c>
-      <c r="E52" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="5">
-        <v>43942</v>
-      </c>
-      <c r="G52" s="2">
-        <f>H52*50</f>
-        <v>1503455.7429153027</v>
-      </c>
-      <c r="H52">
-        <f>H51+C52</f>
-        <v>30069.114858306057</v>
-      </c>
       <c r="BA52" s="5">
         <v>43894</v>
       </c>
@@ -4879,11 +5023,11 @@
     <row r="53" spans="1:65" ht="19.5">
       <c r="C53">
         <f>H52*D53</f>
-        <v>1228.1323480135391</v>
+        <v>668.3888668327412</v>
       </c>
       <c r="D53">
-        <f>D52/1.1100000000000001</f>
-        <v>0.04084364816858882</v>
+        <f>D52</f>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E53" t="s">
         <v>14</v>
@@ -4893,100 +5037,95 @@
       </c>
       <c r="G53" s="2">
         <f>H53*50</f>
-        <v>1564862.3603159799</v>
+        <v>956189.4673784771</v>
       </c>
       <c r="H53">
         <f>H52+C53</f>
-        <v>31297.247206319596</v>
-      </c>
-      <c r="P53" t="inlineStr">
+        <v>19123.789347569542</v>
+      </c>
+      <c r="BA53" s="5">
+        <v>43895</v>
+      </c>
+      <c r="BB53">
+        <v>217</v>
+      </c>
+      <c r="BC53">
+        <f>(BB53/BB52)-1</f>
+        <v>0.4563758389261745</v>
+      </c>
+    </row>
+    <row r="54" spans="1:65" ht="19.5">
+      <c r="C54">
+        <f>H53*D54</f>
+        <v>692.59553077223438</v>
+      </c>
+      <c r="D54">
+        <f>D53</f>
+        <v>0.03621643797599438</v>
+      </c>
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="5">
+        <v>43944</v>
+      </c>
+      <c r="G54" s="2">
+        <f>H54*50</f>
+        <v>990819.24391708896</v>
+      </c>
+      <c r="H54">
+        <f>H53+C54</f>
+        <v>19816.384878341778</v>
+      </c>
+      <c r="P54" t="inlineStr">
         <is>
           <t>31 March 23:09 UTC: many cosmetic changes, columns deleted (or added).</t>
         </is>
       </c>
-      <c r="BA53" s="5">
-        <v>43895</v>
-      </c>
-      <c r="BB53">
-        <v>217</v>
-      </c>
-      <c r="BC53">
-        <f>(BB53/BB52)-1</f>
-        <v>0.4563758389261745</v>
-      </c>
-    </row>
-    <row r="54" spans="1:65" ht="19.5">
-      <c r="C54">
-        <f>H53*D54</f>
-        <v>1151.6159941804206</v>
-      </c>
-      <c r="D54">
-        <f>D53/1.1100000000000001</f>
-        <v>0.036796079431161095</v>
-      </c>
-      <c r="E54" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="5">
-        <v>43944</v>
-      </c>
-      <c r="G54" s="2">
-        <f>H54*50</f>
-        <v>1622443.1600250008</v>
-      </c>
-      <c r="H54">
-        <f>H53+C54</f>
-        <v>32448.863200500018</v>
-      </c>
-      <c r="I54" t="inlineStr">
+      <c r="BA54" s="5">
+        <v>43896</v>
+      </c>
+      <c r="BB54">
+        <v>262</v>
+      </c>
+      <c r="BC54">
+        <f>(BB54/BB53)-1</f>
+        <v>0.20737327188940102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:65" ht="19.5">
+      <c r="C55">
+        <f>H54*D55</f>
+        <v>717.67887385489792</v>
+      </c>
+      <c r="D55">
+        <f>D54</f>
+        <v>0.03621643797599438</v>
+      </c>
+      <c r="E55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="5">
+        <v>43945</v>
+      </c>
+      <c r="G55" s="2">
+        <f>H55*50</f>
+        <v>1026703.1876098338</v>
+      </c>
+      <c r="H55">
+        <f>H54+C55</f>
+        <v>20534.063752196675</v>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
-          <t>&lt;&lt; transmission under 4 percent growth (per day)</t>
+          <t>&lt;&lt; 1 million (50x measured)</t>
         </is>
       </c>
-      <c r="P54" t="inlineStr">
+      <c r="P55" t="inlineStr">
         <is>
           <t>Hopefully, no major corruption of data/forumlas present after these major edits.</t>
         </is>
       </c>
-      <c r="BA54" s="5">
-        <v>43896</v>
-      </c>
-      <c r="BB54">
-        <v>262</v>
-      </c>
-      <c r="BC54">
-        <f>(BB54/BB53)-1</f>
-        <v>0.20737327188940102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:65" ht="19.5">
-      <c r="C55">
-        <f>H54*D55</f>
-        <v>1193.9909477764788</v>
-      </c>
-      <c r="D55">
-        <f>D54</f>
-        <v>0.036796079431161095</v>
-      </c>
-      <c r="E55" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="5">
-        <v>43945</v>
-      </c>
-      <c r="G55" s="2">
-        <f>H55*50</f>
-        <v>1682142.707413825</v>
-      </c>
-      <c r="H55">
-        <f>H54+C55</f>
-        <v>33642.854148276499</v>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>(four percent arbitrarily chosen)</t>
-        </is>
-      </c>
       <c r="BA55" s="5">
         <v>43897</v>
       </c>
@@ -5001,11 +5140,11 @@
     <row r="56" spans="1:65" ht="19.5">
       <c r="C56">
         <f>H55*D56</f>
-        <v>1237.9251335309496</v>
+        <v>743.67064627654531</v>
       </c>
       <c r="D56">
         <f>D55</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E56" t="s">
         <v>17</v>
@@ -5015,168 +5154,168 @@
       </c>
       <c r="G56" s="2">
         <f>H56*50</f>
-        <v>1744038.9640903727</v>
+        <v>1063886.7199236611</v>
       </c>
       <c r="H56">
         <f>H55+C56</f>
-        <v>34880.779281807452</v>
-      </c>
-      <c r="P56" t="inlineStr">
+        <v>21277.734398473222</v>
+      </c>
+      <c r="BA56" s="5">
+        <v>43898</v>
+      </c>
+      <c r="BB56">
+        <v>518</v>
+      </c>
+      <c r="BC56">
+        <f>(BB56/BB55)-1</f>
+        <v>0.28855721393034828</v>
+      </c>
+    </row>
+    <row r="57" spans="1:65" ht="19.5">
+      <c r="C57">
+        <f>H56*D57</f>
+        <v>770.60374811198756</v>
+      </c>
+      <c r="D57">
+        <f>D56</f>
+        <v>0.03621643797599438</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="5">
+        <v>43947</v>
+      </c>
+      <c r="G57" s="2">
+        <f>H57*50</f>
+        <v>1102416.9073292606</v>
+      </c>
+      <c r="H57">
+        <f>H56+C57</f>
+        <v>22048.338146585211</v>
+      </c>
+      <c r="P57" t="inlineStr">
         <is>
           <t>1 April: Column D now formatted as percentile</t>
         </is>
       </c>
-      <c r="BA56" s="5">
-        <v>43898</v>
-      </c>
-      <c r="BB56">
-        <v>518</v>
-      </c>
-      <c r="BC56">
-        <f>(BB56/BB55)-1</f>
-        <v>0.28855721393034828</v>
-      </c>
-    </row>
-    <row r="57" spans="1:65" ht="19.5">
-      <c r="C57">
-        <f>H56*D57</f>
-        <v>1283.4759250741852</v>
-      </c>
-      <c r="D57">
-        <f>D56</f>
-        <v>0.036796079431161095</v>
-      </c>
-      <c r="E57" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="5">
-        <v>43947</v>
-      </c>
-      <c r="G57" s="2">
-        <f>H57*50</f>
-        <v>1808212.7603440818</v>
-      </c>
-      <c r="H57">
-        <f>H56+C57</f>
-        <v>36164.255206881637</v>
-      </c>
-      <c r="P57" t="inlineStr">
+      <c r="BA57" s="5">
+        <v>43899</v>
+      </c>
+      <c r="BB57">
+        <v>583</v>
+      </c>
+      <c r="BC57">
+        <f>(BB57/BB56)-1</f>
+        <v>0.12548262548262556</v>
+      </c>
+    </row>
+    <row r="58" spans="1:65" ht="19.5">
+      <c r="C58">
+        <f>H57*D58</f>
+        <v>798.51227095955414</v>
+      </c>
+      <c r="D58">
+        <f>D57</f>
+        <v>0.03621643797599438</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="5">
+        <v>43948</v>
+      </c>
+      <c r="G58" s="2">
+        <f>H58*50</f>
+        <v>1142342.5208772381</v>
+      </c>
+      <c r="H58">
+        <f>H57+C58</f>
+        <v>22846.850417544763</v>
+      </c>
+      <c r="P58" t="inlineStr">
         <is>
           <t>7 April: 1.09 becomes 1.11 for arbitrary growth reduction supposition expressed in Column D (Multiplier).</t>
         </is>
       </c>
-      <c r="BA57" s="5">
-        <v>43899</v>
-      </c>
-      <c r="BB57">
-        <v>583</v>
-      </c>
-      <c r="BC57">
-        <f>(BB57/BB56)-1</f>
-        <v>0.12548262548262556</v>
-      </c>
-    </row>
-    <row r="58" spans="1:65" ht="19.5">
-      <c r="C58">
-        <f>H57*D58</f>
-        <v>1330.7028071611978</v>
-      </c>
-      <c r="D58">
-        <f>D57</f>
-        <v>0.036796079431161095</v>
-      </c>
-      <c r="E58" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="5">
-        <v>43948</v>
-      </c>
-      <c r="G58" s="2">
-        <f>H58*50</f>
-        <v>1874747.9007021419</v>
-      </c>
-      <c r="H58">
-        <f>H57+C58</f>
-        <v>37494.958014042837</v>
-      </c>
-      <c r="P58" t="inlineStr">
+      <c r="BA58" s="5">
+        <v>43900</v>
+      </c>
+      <c r="BB58">
+        <v>959</v>
+      </c>
+      <c r="BC58">
+        <f>(BB58/BB57)-1</f>
+        <v>0.64493996569468259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:65" ht="19.5">
+      <c r="C59">
+        <f>H58*D59</f>
+        <v>827.43154109383124</v>
+      </c>
+      <c r="D59">
+        <f>D58</f>
+        <v>0.03621643797599438</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="5">
+        <v>43949</v>
+      </c>
+      <c r="G59" s="2">
+        <f>H59*50</f>
+        <v>1183714.0979319299</v>
+      </c>
+      <c r="H59">
+        <f>H58+C59</f>
+        <v>23674.281958638596</v>
+      </c>
+      <c r="P59" t="inlineStr">
         <is>
           <t>7 April: Column G goes from 100x to 50x (arbitrary value chosen)</t>
         </is>
       </c>
-      <c r="BA58" s="5">
-        <v>43900</v>
-      </c>
-      <c r="BB58">
-        <v>959</v>
-      </c>
-      <c r="BC58">
-        <f>(BB58/BB57)-1</f>
-        <v>0.64493996569468259</v>
-      </c>
-    </row>
-    <row r="59" spans="1:65" ht="19.5">
-      <c r="C59">
-        <f>H58*D59</f>
-        <v>1379.6674533527705</v>
-      </c>
-      <c r="D59">
-        <f>D58</f>
-        <v>0.036796079431161095</v>
-      </c>
-      <c r="E59" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="5">
-        <v>43949</v>
-      </c>
-      <c r="G59" s="2">
-        <f>H59*50</f>
-        <v>1943731.2733697803</v>
-      </c>
-      <c r="H59">
-        <f>H58+C59</f>
-        <v>38874.625467395606</v>
-      </c>
-      <c r="P59" t="inlineStr">
+      <c r="BA59" s="5">
+        <v>43901</v>
+      </c>
+      <c r="BB59">
+        <v>1281</v>
+      </c>
+      <c r="BC59">
+        <f>(BB59/BB58)-1</f>
+        <v>0.33576642335766427</v>
+      </c>
+    </row>
+    <row r="60" spans="1:65" ht="19.5">
+      <c r="C60">
+        <f>H59*D60</f>
+        <v>857.39816418123746</v>
+      </c>
+      <c r="D60">
+        <f>D59</f>
+        <v>0.03621643797599438</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="5">
+        <v>43950</v>
+      </c>
+      <c r="G60" s="2">
+        <f>H60*50</f>
+        <v>1226584.0061409918</v>
+      </c>
+      <c r="H60">
+        <f>H59+C60</f>
+        <v>24531.680122819835</v>
+      </c>
+      <c r="P60" t="inlineStr">
         <is>
           <t>(the 100x scaling factor was also arbitrary)</t>
         </is>
       </c>
-      <c r="BA59" s="5">
-        <v>43901</v>
-      </c>
-      <c r="BB59">
-        <v>1281</v>
-      </c>
-      <c r="BC59">
-        <f>(BB59/BB58)-1</f>
-        <v>0.33576642335766427</v>
-      </c>
-    </row>
-    <row r="60" spans="1:65" ht="19.5">
-      <c r="C60">
-        <f>H59*D60</f>
-        <v>1430.4338065549268</v>
-      </c>
-      <c r="D60">
-        <f>D59</f>
-        <v>0.036796079431161095</v>
-      </c>
-      <c r="E60" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="5">
-        <v>43950</v>
-      </c>
-      <c r="G60" s="2">
-        <f>H60*50</f>
-        <v>2015252.9636975266</v>
-      </c>
-      <c r="H60">
-        <f>H59+C60</f>
-        <v>40305.05927395053</v>
-      </c>
       <c r="BA60" s="5">
         <v>43902</v>
       </c>
@@ -5191,11 +5330,11 @@
     <row r="61" spans="1:65" ht="19.5">
       <c r="C61">
         <f>H60*D61</f>
-        <v>1483.0681625219399</v>
+        <v>888.45007161503872</v>
       </c>
       <c r="D61">
         <f>D60</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E61" t="s">
         <v>15</v>
@@ -5205,11 +5344,17 @@
       </c>
       <c r="G61" s="2">
         <f>H61*50</f>
-        <v>2089406.3718236233</v>
+        <v>1271006.5097217436</v>
       </c>
       <c r="H61">
         <f>H60+C61</f>
-        <v>41788.127436472467</v>
+        <v>25420.130194434874</v>
+      </c>
+      <c r="J61" s="1"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>7 April: Litchfield County is doubling its Confirmed cases every 6.5 days or so.</t>
+        </is>
       </c>
       <c r="BA61" s="5">
         <v>43903</v>
@@ -5225,11 +5370,11 @@
     <row r="62" spans="1:65" ht="19.5">
       <c r="C62">
         <f>H61*D62</f>
-        <v>1537.6392564319231</v>
+        <v>920.62656852845259</v>
       </c>
       <c r="D62">
         <f>D61</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E62" t="s">
         <v>16</v>
@@ -5239,11 +5384,16 @@
       </c>
       <c r="G62" s="2">
         <f>H62*50</f>
-        <v>2166288.3346452196</v>
+        <v>1317037.8381481664</v>
       </c>
       <c r="H62">
         <f>H61+C62</f>
-        <v>43325.766692904392</v>
+        <v>26340.756762963327</v>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>(own analysis; ignorant and simplistic, there, on Litchfield Cty doublings. ;)</t>
+        </is>
       </c>
       <c r="BA62" s="5">
         <v>43904</v>
@@ -5259,11 +5409,11 @@
     <row r="63" spans="1:65" ht="19.5">
       <c r="C63">
         <f>H62*D63</f>
-        <v>1594.2183526480637</v>
+        <v>953.96838354661577</v>
       </c>
       <c r="D63">
         <f>D62</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E63" t="s">
         <v>17</v>
@@ -5273,11 +5423,11 @@
       </c>
       <c r="G63" s="2">
         <f>H63*50</f>
-        <v>2245999.2522776229</v>
+        <v>1364736.2573254972</v>
       </c>
       <c r="H63">
         <f>H62+C63</f>
-        <v>44919.985045552457</v>
+        <v>27294.725146509943</v>
       </c>
       <c r="BA63" s="5">
         <v>43905</v>
@@ -5293,11 +5443,11 @@
     <row r="64" spans="1:65" ht="19.5">
       <c r="C64">
         <f>H63*D64</f>
-        <v>1652.8793377827167</v>
+        <v>988.51772034039152</v>
       </c>
       <c r="D64">
         <f>D63</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
@@ -5307,11 +5457,11 @@
       </c>
       <c r="G64" s="2">
         <f>H64*50</f>
-        <v>2328643.2191667589</v>
+        <v>1414162.1433425166</v>
       </c>
       <c r="H64">
         <f>H63+C64</f>
-        <v>46572.864383335174</v>
+        <v>28283.242866850334</v>
       </c>
       <c r="BA64" s="5">
         <v>43906</v>
@@ -5327,11 +5477,11 @@
     <row r="65" spans="1:65" ht="19.5">
       <c r="C65">
         <f>H64*D65</f>
-        <v>1713.6988171858945</v>
+        <v>1024.3183110472705</v>
       </c>
       <c r="D65">
         <f>D64</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E65" t="s">
         <v>12</v>
@@ -5341,11 +5491,11 @@
       </c>
       <c r="G65" s="2">
         <f>H65*50</f>
-        <v>2414328.1600260534</v>
+        <v>1465378.0588948803</v>
       </c>
       <c r="H65">
         <f>H64+C65</f>
-        <v>48286.563200521072</v>
+        <v>29307.561177897605</v>
       </c>
       <c r="BA65" s="5">
         <v>43907</v>
@@ -5361,11 +5511,11 @@
     <row r="66" spans="1:65" ht="19.5">
       <c r="C66">
         <f>H65*D66</f>
-        <v>1776.7562149841538</v>
+        <v>1061.4154716269893</v>
       </c>
       <c r="D66">
         <f>D65</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E66" t="s">
         <v>13</v>
@@ -5375,11 +5525,11 @@
       </c>
       <c r="G66" s="2">
         <f>H66*50</f>
-        <v>2503165.9707752615</v>
+        <v>1518448.8324762296</v>
       </c>
       <c r="H66">
         <f>H65+C66</f>
-        <v>50063.319415505226</v>
+        <v>30368.976649524593</v>
       </c>
       <c r="BA66" s="5">
         <v>43908</v>
@@ -5395,11 +5545,11 @@
     <row r="67" spans="1:65" ht="19.5">
       <c r="C67">
         <f>H66*D67</f>
-        <v>1842.1338778005197</v>
+        <v>1099.8561592219289</v>
       </c>
       <c r="D67">
         <f>D66</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E67" t="s">
         <v>14</v>
@@ -5409,12 +5559,13 @@
       </c>
       <c r="G67" s="2">
         <f>H67*50</f>
-        <v>2595272.6646652874</v>
+        <v>1573441.6404373262</v>
       </c>
       <c r="H67">
         <f>H66+C67</f>
-        <v>51905.453293305749</v>
-      </c>
+        <v>31468.832808746523</v>
+      </c>
+      <c r="J67" s="1"/>
       <c r="BA67" s="5">
         <v>43909</v>
       </c>
@@ -5429,11 +5580,11 @@
     <row r="68" spans="1:65" ht="19.5">
       <c r="C68">
         <f>H67*D68</f>
-        <v>1909.9171822909007</v>
+        <v>1139.6890315949054</v>
       </c>
       <c r="D68">
         <f>D67</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E68" t="s">
         <v>15</v>
@@ -5443,11 +5594,11 @@
       </c>
       <c r="G68" s="2">
         <f>H68*50</f>
-        <v>2690768.5237798323</v>
+        <v>1630426.0920170716</v>
       </c>
       <c r="H68">
         <f>H67+C68</f>
-        <v>53815.370475596646</v>
+        <v>32608.521840341429</v>
       </c>
       <c r="BA68" s="5">
         <v>43910</v>
@@ -5463,11 +5614,11 @@
     <row r="69" spans="1:65" ht="19.5">
       <c r="C69">
         <f>H68*D69</f>
-        <v>1980.1946466374159</v>
+        <v>1180.9645087195834</v>
       </c>
       <c r="D69">
         <f>D68</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E69" t="s">
         <v>16</v>
@@ -5477,11 +5628,11 @@
       </c>
       <c r="G69" s="2">
         <f>H69*50</f>
-        <v>2789778.2561117029</v>
+        <v>1689474.3174530508</v>
       </c>
       <c r="H69">
         <f>H68+C69</f>
-        <v>55795.56512223406</v>
+        <v>33789.486349061015</v>
       </c>
       <c r="BA69" s="5">
         <v>43911</v>
@@ -5497,11 +5648,11 @@
     <row r="70" spans="1:65" ht="19.5">
       <c r="C70">
         <f>H69*D70</f>
-        <v>2053.058046144246</v>
+        <v>1223.7348366014771</v>
       </c>
       <c r="D70">
         <f>D69</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E70" t="s">
         <v>17</v>
@@ -5511,11 +5662,11 @@
       </c>
       <c r="G70" s="2">
         <f>H70*50</f>
-        <v>2892431.1584189152</v>
+        <v>1750661.0592831247</v>
       </c>
       <c r="H70">
         <f>H69+C70</f>
-        <v>57848.623168378304</v>
+        <v>35013.221185662493</v>
       </c>
       <c r="BA70" s="5">
         <v>43912</v>
@@ -5531,11 +5682,11 @@
     <row r="71" spans="1:65" ht="19.5">
       <c r="C71">
         <f>H70*D71</f>
-        <v>2128.6025330869543</v>
+        <v>1268.0541534103181</v>
       </c>
       <c r="D71">
         <f>D70</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
@@ -5545,11 +5696,11 @@
       </c>
       <c r="G71" s="2">
         <f>H71*50</f>
-        <v>2998861.2850732626</v>
+        <v>1814063.7669536406</v>
       </c>
       <c r="H71">
         <f>H70+C71</f>
-        <v>59977.225701465257</v>
+        <v>36281.27533907281</v>
       </c>
       <c r="BA71" s="5">
         <v>43913</v>
@@ -5565,11 +5716,11 @@
     <row r="72" spans="1:65" ht="19.5">
       <c r="C72">
         <f>H71*D72</f>
-        <v>2206.9267609717922</v>
+        <v>1313.9785580075049</v>
       </c>
       <c r="D72">
         <f>D71</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E72" t="s">
         <v>12</v>
@@ -5579,11 +5730,11 @@
       </c>
       <c r="G72" s="2">
         <f>H72*50</f>
-        <v>3109207.6231218525</v>
+        <v>1879762.6948540157</v>
       </c>
       <c r="H72">
         <f>H71+C72</f>
-        <v>62184.15246243705</v>
+        <v>37595.253897080314</v>
       </c>
       <c r="BA72" s="5">
         <v>43914</v>
@@ -5599,11 +5750,11 @@
     <row r="73" spans="1:65" ht="19.5">
       <c r="C73">
         <f>H72*D73</f>
-        <v>2288.1330133672654</v>
+        <v>1361.5661809553701</v>
       </c>
       <c r="D73">
         <f>D72</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E73" t="s">
         <v>13</v>
@@ -5613,11 +5764,11 @@
       </c>
       <c r="G73" s="2">
         <f>H73*50</f>
-        <v>3223614.2737902161</v>
+        <v>1947841.0039017843</v>
       </c>
       <c r="H73">
         <f>H72+C73</f>
-        <v>64472.285475804318</v>
+        <v>38956.820078035686</v>
       </c>
       <c r="BA73" s="5">
         <v>43915</v>
@@ -5633,11 +5784,11 @@
     <row r="74" spans="1:65" ht="19.5">
       <c r="C74">
         <f>H73*D74</f>
-        <v>2372.3273374761893</v>
+        <v>1410.877258098152</v>
       </c>
       <c r="D74">
         <f>D73</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E74" t="s">
         <v>14</v>
@@ -5648,7 +5799,7 @@
       <c r="G74" s="2"/>
       <c r="H74">
         <f>H73+C74</f>
-        <v>66844.612813280502</v>
+        <v>40367.697336133839</v>
       </c>
       <c r="BA74" s="5">
         <v>43916</v>
@@ -5664,11 +5815,11 @@
     <row r="75" spans="1:65" ht="19.5">
       <c r="C75">
         <f>H74*D75</f>
-        <v>2459.6196826226783</v>
+        <v>1461.9742068078046</v>
       </c>
       <c r="D75">
         <f>D74</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E75" t="s">
         <v>15</v>
@@ -5679,7 +5830,7 @@
       <c r="G75" s="2"/>
       <c r="H75">
         <f>H74+C75</f>
-        <v>69304.232495903183</v>
+        <v>41829.671542941644</v>
       </c>
       <c r="BA75" s="5">
         <v>43917</v>
@@ -5695,11 +5846,11 @@
     <row r="76" spans="1:65" ht="19.5">
       <c r="C76">
         <f>H75*D76</f>
-        <v>2550.1240438349096</v>
+        <v>1514.9217049911631</v>
       </c>
       <c r="D76">
         <f>D75</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E76" t="s">
         <v>16</v>
@@ -5710,7 +5861,7 @@
       <c r="G76" s="2"/>
       <c r="H76">
         <f>H75+C76</f>
-        <v>71854.356539738088</v>
+        <v>43344.593247932804</v>
       </c>
       <c r="BA76" s="5">
         <v>43918</v>
@@ -5726,11 +5877,11 @@
     <row r="77" spans="1:65" ht="19.5">
       <c r="C77">
         <f>H76*D77</f>
-        <v>2643.9586107111722</v>
+        <v>1569.7867729584632</v>
       </c>
       <c r="D77">
         <f>D76</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E77" t="s">
         <v>17</v>
@@ -5741,7 +5892,7 @@
       <c r="G77" s="2"/>
       <c r="H77">
         <f>H76+C77</f>
-        <v>74498.315150449256</v>
+        <v>44914.380020891265</v>
       </c>
       <c r="BA77" s="5">
         <v>43919</v>
@@ -5757,11 +5908,11 @@
     <row r="78" spans="1:65" ht="19.5">
       <c r="C78">
         <f>H77*D78</f>
-        <v>2741.2459217636028</v>
+        <v>1626.6388582568497</v>
       </c>
       <c r="D78">
         <f>D77</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
@@ -5772,7 +5923,7 @@
       <c r="G78" s="2"/>
       <c r="H78">
         <f>H77+C78</f>
-        <v>77239.561072212862</v>
+        <v>46541.018879148112</v>
       </c>
       <c r="BA78" s="5">
         <v>43920</v>
@@ -5788,11 +5939,11 @@
     <row r="79" spans="1:65" ht="19.5">
       <c r="C79">
         <f>H78*D79</f>
-        <v>2842.1130244411629</v>
+        <v>1685.5499235762511</v>
       </c>
       <c r="D79">
         <f>D78</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E79" t="s">
         <v>12</v>
@@ -5803,7 +5954,7 @@
       <c r="G79" s="2"/>
       <c r="H79">
         <f>H78+C79</f>
-        <v>80081.674096654024</v>
+        <v>48226.568802724367</v>
       </c>
       <c r="BA79" s="5">
         <v>43921</v>
@@ -5819,11 +5970,11 @@
     <row r="80" spans="1:65" ht="19.5">
       <c r="C80">
         <f>H79*D80</f>
-        <v>2946.6916410408376</v>
+        <v>1746.5945378388926</v>
       </c>
       <c r="D80">
         <f>D79</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E80" t="s">
         <v>13</v>
@@ -5834,7 +5985,7 @@
       <c r="G80" s="2"/>
       <c r="H80">
         <f>H79+C80</f>
-        <v>83028.365737694869</v>
+        <v>49973.16334056326</v>
       </c>
       <c r="BA80" s="5">
         <v>43922</v>
@@ -5850,11 +6001,11 @@
     <row r="81" spans="1:65" ht="19.5">
       <c r="C81">
         <f>H80*D81</f>
-        <v>3055.1183407237149</v>
+        <v>1809.8499705877455</v>
       </c>
       <c r="D81">
         <f>D80</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E81" t="s">
         <v>14</v>
@@ -5865,7 +6016,7 @@
       <c r="G81" s="2"/>
       <c r="H81">
         <f>H80+C81</f>
-        <v>86083.48407841858</v>
+        <v>51783.013311151008</v>
       </c>
       <c r="BA81" s="5">
         <v>43923</v>
@@ -5881,11 +6032,11 @@
     <row r="82" spans="1:65" ht="19.5">
       <c r="C82">
         <f>H81*D82</f>
-        <v>3167.5347178605816</v>
+        <v>1875.3962897933918</v>
       </c>
       <c r="D82">
         <f>D81</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E82" t="s">
         <v>15</v>
@@ -5896,7 +6047,7 @@
       <c r="G82" s="2"/>
       <c r="H82">
         <f>H81+C82</f>
-        <v>89251.018796279168</v>
+        <v>53658.409600944397</v>
       </c>
       <c r="AW82" s="2"/>
       <c r="BA82" s="5">
@@ -5913,11 +6064,11 @@
     <row r="83" spans="1:65" ht="19.5">
       <c r="C83">
         <f>H82*D83</f>
-        <v>3284.0875769399404</v>
+        <v>1943.3164632031041</v>
       </c>
       <c r="D83">
         <f>D82</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E83" t="s">
         <v>16</v>
@@ -5928,7 +6079,7 @@
       <c r="G83" s="2"/>
       <c r="H83">
         <f>H82+C83</f>
-        <v>92535.106373219111</v>
+        <v>55601.7260641475</v>
       </c>
       <c r="AW83" s="2"/>
       <c r="BA83" s="5">
@@ -5945,11 +6096,11 @@
     <row r="84" spans="1:65" ht="19.5">
       <c r="C84">
         <f>H83*D84</f>
-        <v>3404.9291242799118</v>
+        <v>2013.696463360428</v>
       </c>
       <c r="D84">
         <f>D83</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E84" t="s">
         <v>17</v>
@@ -5960,7 +6111,7 @@
       <c r="G84" s="2"/>
       <c r="H84">
         <f>H83+C84</f>
-        <v>95940.035497499019</v>
+        <v>57615.42252750793</v>
       </c>
       <c r="AW84" s="2"/>
       <c r="AZ84" t="inlineStr">
@@ -5987,11 +6138,11 @@
     <row r="85" spans="1:65" ht="19.5">
       <c r="C85">
         <f>H84*D85</f>
-        <v>3530.217166794389</v>
+        <v>2086.6253764282001</v>
       </c>
       <c r="D85">
         <f>D84</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
@@ -6002,7 +6153,7 @@
       <c r="G85" s="2"/>
       <c r="H85">
         <f>H84+C85</f>
-        <v>99470.25266429341</v>
+        <v>59702.047903936131</v>
       </c>
       <c r="AW85" s="2"/>
       <c r="AZ85" t="inlineStr">
@@ -6025,11 +6176,11 @@
     <row r="86" spans="1:65" ht="19.5">
       <c r="C86">
         <f>H85*D86</f>
-        <v>3660.1153180730039</v>
+        <v>2162.195514952748</v>
       </c>
       <c r="D86">
         <f>D85</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E86" t="s">
         <v>12</v>
@@ -6040,7 +6191,7 @@
       <c r="G86" s="2"/>
       <c r="H86">
         <f>H85+C86</f>
-        <v>103130.36798236641</v>
+        <v>61864.24341888888</v>
       </c>
       <c r="AW86" s="2"/>
       <c r="BB86" s="1"/>
@@ -6048,11 +6199,11 @@
     <row r="87" spans="1:65" ht="19.5">
       <c r="C87">
         <f>H86*D87</f>
-        <v>3794.7932120440278</v>
+        <v>2240.5025347120077</v>
       </c>
       <c r="D87">
         <f>D86</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E87" t="s">
         <v>13</v>
@@ -6063,7 +6214,7 @@
       <c r="G87" s="2"/>
       <c r="H87">
         <f>H86+C87</f>
-        <v>106925.16119441044</v>
+        <v>64104.74595360089</v>
       </c>
       <c r="BB87" s="1"/>
       <c r="BC87" s="1"/>
@@ -6076,11 +6227,11 @@
     <row r="88" spans="1:65" ht="19.5">
       <c r="C88">
         <f>H87*D88</f>
-        <v>3934.4267244992302</v>
+        <v>2321.6455557954632</v>
       </c>
       <c r="D88">
         <f>D87</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
@@ -6091,7 +6242,7 @@
       <c r="G88" s="2"/>
       <c r="H88">
         <f>H87+C88</f>
-        <v>110859.58791890967</v>
+        <v>66426.391509396359</v>
       </c>
       <c r="AW88" s="2"/>
       <c r="BB88" s="1"/>
@@ -6104,11 +6255,11 @@
     <row r="89" spans="1:65" ht="19.5">
       <c r="C89">
         <f>H88*D89</f>
-        <v>4079.1982027699873</v>
+        <v>2405.727288069173</v>
       </c>
       <c r="D89">
         <f>D88</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E89" t="s">
         <v>15</v>
@@ -6119,10 +6270,9 @@
       <c r="G89" s="2"/>
       <c r="H89">
         <f>H88+C89</f>
-        <v>114938.78612167966</v>
+        <v>68832.118797465533</v>
       </c>
       <c r="AW89" s="2"/>
-      <c r="BB89" s="1"/>
       <c r="BE89" t="inlineStr">
         <is>
           <t>it is the very last number</t>
@@ -6132,11 +6282,11 @@
     <row r="90" spans="1:65" ht="19.5">
       <c r="C90">
         <f>H89*D90</f>
-        <v>4229.2967038545612</v>
+        <v>2492.8541611846872</v>
       </c>
       <c r="D90">
         <f>D89</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E90" t="s">
         <v>16</v>
@@ -6147,18 +6297,17 @@
       <c r="G90" s="2"/>
       <c r="H90">
         <f>H89+C90</f>
-        <v>119168.08282553422</v>
-      </c>
-      <c r="BB90" s="1"/>
+        <v>71324.972958650222</v>
+      </c>
     </row>
     <row r="91" spans="1:65" ht="19.5">
       <c r="C91">
         <f>H90*D91</f>
-        <v>4384.9182413075414</v>
+        <v>2583.1364592964319</v>
       </c>
       <c r="D91">
         <f>D90</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E91" t="s">
         <v>17</v>
@@ -6169,17 +6318,17 @@
       <c r="G91" s="2"/>
       <c r="H91">
         <f>H90+C91</f>
-        <v>123553.00106684177</v>
+        <v>73908.10941794666</v>
       </c>
     </row>
     <row r="92" spans="1:65" ht="19.5">
       <c r="C92">
         <f>H91*D92</f>
-        <v>4546.2660412138412</v>
+        <v>2676.6884606580711</v>
       </c>
       <c r="D92">
         <f>D91</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
@@ -6190,7 +6339,7 @@
       <c r="G92" s="2"/>
       <c r="H92">
         <f>H91+C92</f>
-        <v>128099.2671080556</v>
+        <v>76584.797878604732</v>
       </c>
       <c r="BE92" t="inlineStr">
         <is>
@@ -6201,11 +6350,11 @@
     <row r="93" spans="1:65" ht="19.5">
       <c r="C93">
         <f>H92*D93</f>
-        <v>4713.550807581536</v>
+        <v>2773.628582274554</v>
       </c>
       <c r="D93">
         <f>D92</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E93" t="s">
         <v>12</v>
@@ -6216,7 +6365,7 @@
       <c r="G93" s="2"/>
       <c r="H93">
         <f>H92+C93</f>
-        <v>132812.81791563713</v>
+        <v>79358.426460879287</v>
       </c>
       <c r="BE93" t="inlineStr">
         <is>
@@ -6227,11 +6376,11 @@
     <row r="94" spans="1:65" ht="19.5">
       <c r="C94">
         <f>H93*D94</f>
-        <v>4886.9909975001192</v>
+        <v>2874.0795297929458</v>
       </c>
       <c r="D94">
         <f>D93</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E94" t="s">
         <v>13</v>
@@ -6242,7 +6391,7 @@
       <c r="G94" s="2"/>
       <c r="H94">
         <f>H93+C94</f>
-        <v>137699.80891313724</v>
+        <v>82232.505990672231</v>
       </c>
       <c r="BE94" t="inlineStr">
         <is>
@@ -6253,11 +6402,11 @@
     <row r="95" spans="1:65" ht="19.5">
       <c r="C95">
         <f>H94*D95</f>
-        <v>5066.8131064235022</v>
+        <v>2978.168452821767</v>
       </c>
       <c r="D95">
         <f>D94</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E95" t="s">
         <v>14</v>
@@ -6268,7 +6417,7 @@
       <c r="G95" s="2"/>
       <c r="H95">
         <f>H94+C95</f>
-        <v>142766.62201956075</v>
+        <v>85210.674443494005</v>
       </c>
       <c r="BE95" t="inlineStr">
         <is>
@@ -6279,11 +6428,11 @@
     <row r="96" spans="1:65" ht="19.5">
       <c r="C96">
         <f>H95*D96</f>
-        <v>5253.2519639503098</v>
+        <v>3086.0271058754502</v>
       </c>
       <c r="D96">
         <f>D95</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E96" t="s">
         <v>15</v>
@@ -6294,7 +6443,7 @@
       <c r="G96" s="2"/>
       <c r="H96">
         <f>H95+C96</f>
-        <v>148019.87398351106</v>
+        <v>88296.701549369449</v>
       </c>
       <c r="BE96" t="inlineStr">
         <is>
@@ -6305,11 +6454,11 @@
     <row r="97" spans="1:65" ht="19.5">
       <c r="C97">
         <f>H96*D97</f>
-        <v>5446.5510404877286</v>
+        <v>3197.7920151476255</v>
       </c>
       <c r="D97">
         <f>D96</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E97" t="s">
         <v>16</v>
@@ -6320,7 +6469,7 @@
       <c r="G97" s="2"/>
       <c r="H97">
         <f>H96+C97</f>
-        <v>153466.4250239988</v>
+        <v>91494.493564517077</v>
       </c>
       <c r="BE97" t="inlineStr">
         <is>
@@ -6331,11 +6480,11 @@
     <row r="98" spans="1:65" ht="19.5">
       <c r="C98">
         <f>H97*D98</f>
-        <v>5646.9627651993887</v>
+        <v>3313.6046513243496</v>
       </c>
       <c r="D98">
         <f>D97</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E98" t="s">
         <v>17</v>
@@ -6346,17 +6495,17 @@
       <c r="G98" s="2"/>
       <c r="H98">
         <f>H97+C98</f>
-        <v>159113.3877891982</v>
+        <v>94808.098215841426</v>
       </c>
     </row>
     <row r="99" spans="1:65" ht="19.5">
       <c r="C99">
         <f>H98*D99</f>
-        <v>5854.748855652475</v>
+        <v>3433.6116086560046</v>
       </c>
       <c r="D99">
         <f>D98</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E99" t="s">
         <v>11</v>
@@ -6367,7 +6516,7 @@
       <c r="G99" s="2"/>
       <c r="H99">
         <f>H98+C99</f>
-        <v>164968.13664485066</v>
+        <v>98241.709824497433</v>
       </c>
       <c r="BE99" t="inlineStr">
         <is>
@@ -6378,11 +6527,11 @@
     <row r="100" spans="1:65" ht="19.5">
       <c r="C100">
         <f>H99*D100</f>
-        <v>6070.1806595945627</v>
+        <v>3557.9647905145489</v>
       </c>
       <c r="D100">
         <f>D99</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E100" t="s">
         <v>12</v>
@@ -6393,7 +6542,7 @@
       <c r="G100" s="2"/>
       <c r="H100">
         <f>H99+C100</f>
-        <v>171038.31730444523</v>
+        <v>101799.67461501199</v>
       </c>
       <c r="BE100" t="inlineStr">
         <is>
@@ -6404,11 +6553,11 @@
     <row r="101" spans="1:65" ht="19.5">
       <c r="C101">
         <f>H100*D101</f>
-        <v>6293.5395093065017</v>
+        <v>3686.8216016709912</v>
       </c>
       <c r="D101">
         <f>D100</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E101" t="s">
         <v>13</v>
@@ -6419,7 +6568,7 @@
       <c r="G101" s="2"/>
       <c r="H101">
         <f>H100+C101</f>
-        <v>177331.85681375174</v>
+        <v>105486.49621668298</v>
       </c>
       <c r="BE101" t="inlineStr">
         <is>
@@ -6430,11 +6579,11 @@
     <row r="102" spans="1:65" ht="19.5">
       <c r="C102">
         <f>H101*D102</f>
-        <v>6525.117088994095</v>
+        <v>3820.345147536465</v>
       </c>
       <c r="D102">
         <f>D101</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E102" t="s">
         <v>14</v>
@@ -6445,17 +6594,17 @@
       <c r="G102" s="2"/>
       <c r="H102">
         <f>H101+C102</f>
-        <v>183856.97390274584</v>
+        <v>109306.84136421945</v>
       </c>
     </row>
     <row r="103" spans="1:65" ht="19.5">
       <c r="C103">
         <f>H102*D103</f>
-        <v>6765.2158156983487</v>
+        <v>3958.7044406191108</v>
       </c>
       <c r="D103">
         <f>D102</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E103" t="s">
         <v>15</v>
@@ -6466,7 +6615,7 @@
       <c r="G103" s="2"/>
       <c r="H103">
         <f>H102+C103</f>
-        <v>190622.18971844419</v>
+        <v>113265.54580483856</v>
       </c>
       <c r="BE103" t="inlineStr">
         <is>
@@ -6477,11 +6626,11 @@
     <row r="104" spans="1:65" ht="19.5">
       <c r="C104">
         <f>H103*D104</f>
-        <v>7014.1492342217325</v>
+        <v>4102.0746144580862</v>
       </c>
       <c r="D104">
         <f>D103</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E104" t="s">
         <v>16</v>
@@ -6492,7 +6641,7 @@
       <c r="G104" s="2"/>
       <c r="H104">
         <f>H103+C104</f>
-        <v>197636.33895266592</v>
+        <v>117367.62041929665</v>
       </c>
       <c r="BE104" t="inlineStr">
         <is>
@@ -6503,11 +6652,11 @@
     <row r="105" spans="1:65" ht="19.5">
       <c r="C105">
         <f>H104*D105</f>
-        <v>7272.2424265861728</v>
+        <v>4250.637145305509</v>
       </c>
       <c r="D105">
         <f>D104</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E105" t="s">
         <v>17</v>
@@ -6518,7 +6667,7 @@
       <c r="G105" s="2"/>
       <c r="H105">
         <f>H104+C105</f>
-        <v>204908.58137925208</v>
+        <v>121618.25756460216</v>
       </c>
       <c r="BE105" t="inlineStr">
         <is>
@@ -6529,11 +6678,11 @@
     <row r="106" spans="1:65" ht="19.5">
       <c r="C106">
         <f>H105*D106</f>
-        <v>7539.8324365574972</v>
+        <v>4404.5800818369235</v>
       </c>
       <c r="D106">
         <f>D105</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
@@ -6544,7 +6693,7 @@
       <c r="G106" s="2"/>
       <c r="H106">
         <f>H105+C106</f>
-        <v>212448.41381580959</v>
+        <v>126022.83764643907</v>
       </c>
       <c r="BE106" t="inlineStr">
         <is>
@@ -6555,11 +6704,11 @@
     <row r="107" spans="1:65" ht="19.5">
       <c r="C107">
         <f>H106*D107</f>
-        <v>7817.2687097907119</v>
+        <v>4564.0982831810707</v>
       </c>
       <c r="D107">
         <f>D106</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E107" t="s">
         <v>12</v>
@@ -6570,17 +6719,17 @@
       <c r="G107" s="2"/>
       <c r="H107">
         <f>H106+C107</f>
-        <v>220265.68252560031</v>
+        <v>130586.93592962014</v>
       </c>
     </row>
     <row r="108" spans="1:65" ht="19.5">
       <c r="C108">
         <f>H107*D108</f>
-        <v>8104.9135501709015</v>
+        <v>4729.39366557024</v>
       </c>
       <c r="D108">
         <f>D107</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E108" t="s">
         <v>13</v>
@@ -6591,17 +6740,17 @@
       <c r="G108" s="2"/>
       <c r="H108">
         <f>H107+C108</f>
-        <v>228370.5960757712</v>
+        <v>135316.32959519039</v>
       </c>
     </row>
     <row r="109" spans="1:65" ht="19.5">
       <c r="C109">
         <f>H108*D109</f>
-        <v>8403.1425929456836</v>
+        <v>4900.6754579234257</v>
       </c>
       <c r="D109">
         <f>D108</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E109" t="s">
         <v>14</v>
@@ -6612,17 +6761,17 @@
       <c r="G109" s="2"/>
       <c r="H109">
         <f>H108+C109</f>
-        <v>236773.73866871689</v>
+        <v>140217.0050531138</v>
       </c>
     </row>
     <row r="110" spans="1:65" ht="19.5">
       <c r="C110">
         <f>H109*D110</f>
-        <v>8712.3452952670868</v>
+        <v>5078.1604666857866</v>
       </c>
       <c r="D110">
         <f>D109</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E110" t="s">
         <v>15</v>
@@ -6633,17 +6782,17 @@
       <c r="G110" s="2"/>
       <c r="H110">
         <f>H109+C110</f>
-        <v>245486.08396398398</v>
+        <v>145295.16551979957</v>
       </c>
     </row>
     <row r="111" spans="1:65" ht="19.5">
       <c r="C111">
         <f>H110*D111</f>
-        <v>9032.9254447834373</v>
+        <v>5262.0733502596586</v>
       </c>
       <c r="D111">
         <f>D110</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E111" t="s">
         <v>16</v>
@@ -6654,17 +6803,17 @@
       <c r="G111" s="2"/>
       <c r="H111">
         <f>H110+C111</f>
-        <v>254519.00940876742</v>
+        <v>150557.23887005923</v>
       </c>
     </row>
     <row r="112" spans="1:65" ht="19.5">
       <c r="C112">
         <f>H111*D112</f>
-        <v>9365.3016869454441</v>
+        <v>5452.6469033744697</v>
       </c>
       <c r="D112">
         <f>D111</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E112" t="s">
         <v>17</v>
@@ -6675,17 +6824,17 @@
       <c r="G112" s="2"/>
       <c r="H112">
         <f>H111+C112</f>
-        <v>263884.31109571288</v>
+        <v>156009.88577343369</v>
       </c>
     </row>
     <row r="113" spans="1:65" ht="19.5">
       <c r="C113">
         <f>H112*D113</f>
-        <v>9709.9080717150755</v>
+        <v>5650.1223517555291</v>
       </c>
       <c r="D113">
         <f>D112</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
@@ -6696,17 +6845,17 @@
       <c r="G113" s="2"/>
       <c r="H113">
         <f>H112+C113</f>
-        <v>273594.21916742797</v>
+        <v>161660.00812518923</v>
       </c>
     </row>
     <row r="114" spans="1:65" ht="19.5">
       <c r="C114">
         <f>H113*D114</f>
-        <v>10067.194620391178</v>
+        <v>5854.749657464663</v>
       </c>
       <c r="D114">
         <f>D113</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E114" t="s">
         <v>12</v>
@@ -6717,17 +6866,17 @@
       <c r="G114" s="2"/>
       <c r="H114">
         <f>H113+C114</f>
-        <v>283661.41378781915</v>
+        <v>167514.75778265388</v>
       </c>
     </row>
     <row r="115" spans="1:65" ht="19.5">
       <c r="C115">
         <f>H114*D115</f>
-        <v>10437.627913292048</v>
+        <v>6066.7878352992057</v>
       </c>
       <c r="D115">
         <f>D114</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E115" t="s">
         <v>13</v>
@@ -6738,17 +6887,17 @@
       <c r="G115" s="2"/>
       <c r="H115">
         <f>H114+C115</f>
-        <v>294099.04170111119</v>
+        <v>173581.54561795309</v>
       </c>
     </row>
     <row r="116" spans="1:65" ht="19.5">
       <c r="C116">
         <f>H115*D116</f>
-        <v>10821.691699062447</v>
+        <v>6286.505280649837</v>
       </c>
       <c r="D116">
         <f>D115</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
@@ -6759,17 +6908,17 @@
       <c r="G116" s="2"/>
       <c r="H116">
         <f>H115+C116</f>
-        <v>304920.73340017366</v>
+        <v>179868.05089860293</v>
       </c>
     </row>
     <row r="117" spans="1:65" ht="19.5">
       <c r="C117">
         <f>H116*D117</f>
-        <v>11219.887526400686</v>
+        <v>6514.180109232253</v>
       </c>
       <c r="D117">
         <f>D116</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E117" t="s">
         <v>15</v>
@@ -6780,17 +6929,17 @@
       <c r="G117" s="2"/>
       <c r="H117">
         <f>H116+C117</f>
-        <v>316140.62092657434</v>
+        <v>186382.23100783519</v>
       </c>
     </row>
     <row r="118" spans="1:65" ht="19.5">
       <c r="C118">
         <f>H117*D118</f>
-        <v>11632.735399030818</v>
+        <v>6750.1005091227198</v>
       </c>
       <c r="D118">
         <f>D117</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E118" t="s">
         <v>16</v>
@@ -6801,17 +6950,17 @@
       <c r="G118" s="2"/>
       <c r="H118">
         <f>H117+C118</f>
-        <v>327773.35632560519</v>
+        <v>193132.3315169579</v>
       </c>
     </row>
     <row r="119" spans="1:65" ht="19.5">
       <c r="C119">
         <f>H118*D119</f>
-        <v>12060.774454775237</v>
+        <v>6994.5651055430899</v>
       </c>
       <c r="D119">
         <f>D118</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E119" t="s">
         <v>17</v>
@@ -6822,17 +6971,17 @@
       <c r="G119" s="2"/>
       <c r="H119">
         <f>H118+C119</f>
-        <v>339834.13078038045</v>
+        <v>200126.89662250099</v>
       </c>
     </row>
     <row r="120" spans="1:65" ht="19.5">
       <c r="C120">
         <f>H119*D120</f>
-        <v>12504.563669614467</v>
+        <v>7247.8833388570465</v>
       </c>
       <c r="D120">
         <f>D119</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
@@ -6843,17 +6992,17 @@
       <c r="G120" s="2"/>
       <c r="H120">
         <f>H119+C120</f>
-        <v>352338.69444999495</v>
+        <v>207374.77996135803</v>
       </c>
     </row>
     <row r="121" spans="1:65" ht="19.5">
       <c r="C121">
         <f>H120*D121</f>
-        <v>12964.682587653613</v>
+        <v>7510.3758562560051</v>
       </c>
       <c r="D121">
         <f>D120</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E121" t="s">
         <v>12</v>
@@ -6864,17 +7013,17 @@
       <c r="G121" s="2"/>
       <c r="H121">
         <f>H120+C121</f>
-        <v>365303.37703764858</v>
+        <v>214885.15581761402</v>
       </c>
     </row>
     <row r="122" spans="1:65" ht="19.5">
       <c r="C122">
         <f>H121*D122</f>
-        <v>13441.732077948707</v>
+        <v>7782.3749176305064</v>
       </c>
       <c r="D122">
         <f>D121</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E122" t="s">
         <v>13</v>
@@ -6885,17 +7034,17 @@
       <c r="G122" s="2"/>
       <c r="H122">
         <f>H121+C122</f>
-        <v>378745.10911559727</v>
+        <v>222667.53073524454</v>
       </c>
     </row>
     <row r="123" spans="1:65" ht="19.5">
       <c r="C123">
         <f>H122*D123</f>
-        <v>13936.335119181293</v>
+        <v>8064.2248161408061</v>
       </c>
       <c r="D123">
         <f>D122</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E123" t="s">
         <v>14</v>
@@ -6906,17 +7055,17 @@
       <c r="G123" s="2"/>
       <c r="H123">
         <f>H122+C123</f>
-        <v>392681.44423477858</v>
+        <v>230731.75555138534</v>
       </c>
     </row>
     <row r="124" spans="1:65" ht="19.5">
       <c r="C124">
         <f>H123*D124</f>
-        <v>14449.137613205969</v>
+        <v>8356.2823140190449</v>
       </c>
       <c r="D124">
         <f>D123</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E124" t="s">
         <v>15</v>
@@ -6927,17 +7076,17 @@
       <c r="G124" s="2"/>
       <c r="H124">
         <f>H123+C124</f>
-        <v>407130.58184798458</v>
+        <v>239088.03786540439</v>
       </c>
     </row>
     <row r="125" spans="1:65" ht="19.5">
       <c r="C125">
         <f>H124*D125</f>
-        <v>14980.809228533273</v>
+        <v>8658.9170941546145</v>
       </c>
       <c r="D125">
         <f>D124</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E125" t="s">
         <v>16</v>
@@ -6948,17 +7097,17 @@
       <c r="G125" s="2"/>
       <c r="H125">
         <f>H124+C125</f>
-        <v>422111.39107651787</v>
+        <v>247746.95495955899</v>
       </c>
     </row>
     <row r="126" spans="1:65" ht="19.5">
       <c r="C126">
         <f>H125*D126</f>
-        <v>15532.044274849457</v>
+        <v>8972.5122280343421</v>
       </c>
       <c r="D126">
         <f>D125</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E126" t="s">
         <v>17</v>
@@ -6969,17 +7118,17 @@
       <c r="G126" s="2"/>
       <c r="H126">
         <f>H125+C126</f>
-        <v>437643.43535136734</v>
+        <v>256719.46718759334</v>
       </c>
     </row>
     <row r="127" spans="1:65" ht="19.5">
       <c r="C127">
         <f>H126*D127</f>
-        <v>16103.562609715129</v>
+        <v>9297.4646606297993</v>
       </c>
       <c r="D127">
         <f>D126</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E127" t="s">
         <v>11</v>
@@ -6990,17 +7139,17 @@
       <c r="G127" s="2"/>
       <c r="H127">
         <f>H126+C127</f>
-        <v>453746.9979610825</v>
+        <v>266016.93184822315</v>
       </c>
     </row>
     <row r="128" spans="1:65" ht="19.5">
       <c r="C128">
         <f>H127*D128</f>
-        <v>16696.110578626882</v>
+        <v>9634.1857128454976</v>
       </c>
       <c r="D128">
         <f>D127</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E128" t="s">
         <v>12</v>
@@ -7011,17 +7160,17 @@
       <c r="G128" s="2"/>
       <c r="H128">
         <f>H127+C128</f>
-        <v>470443.10853970936</v>
+        <v>275651.11756106862</v>
       </c>
     </row>
     <row r="129" spans="1:65" ht="19.5">
       <c r="C129">
         <f>H128*D129</f>
-        <v>17310.461989669486</v>
+        <v>9983.1016021639771</v>
       </c>
       <c r="D129">
         <f>D128</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E129" t="s">
         <v>13</v>
@@ -7032,17 +7181,17 @@
       <c r="G129" s="2"/>
       <c r="H129">
         <f>H128+C129</f>
-        <v>487753.57052937883</v>
+        <v>285634.2191632326</v>
       </c>
     </row>
     <row r="130" spans="1:65" ht="19.5">
       <c r="C130">
         <f>H129*D130</f>
-        <v>17947.419124031458</v>
+        <v>10344.6539821468</v>
       </c>
       <c r="D130">
         <f>D129</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E130" t="s">
         <v>14</v>
@@ -7053,17 +7202,17 @@
       <c r="G130" s="2"/>
       <c r="H130">
         <f>H129+C130</f>
-        <v>505700.98965341027</v>
+        <v>295978.87314537942</v>
       </c>
     </row>
     <row r="131" spans="1:65" ht="19.5">
       <c r="C131">
         <f>H130*D131</f>
-        <v>18607.813783703659</v>
+        <v>10719.300501474343</v>
       </c>
       <c r="D131">
         <f>D130</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E131" t="s">
         <v>15</v>
@@ -7074,17 +7223,17 @@
       <c r="G131" s="2"/>
       <c r="H131">
         <f>H130+C131</f>
-        <v>524308.80343711388</v>
+        <v>306698.17364685377</v>
       </c>
     </row>
     <row r="132" spans="1:65" ht="19.5">
       <c r="C132">
         <f>H131*D132</f>
-        <v>19292.508377729071</v>
+        <v>11107.515383232034</v>
       </c>
       <c r="D132">
         <f>D131</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E132" t="s">
         <v>16</v>
@@ -7094,17 +7243,17 @@
       </c>
       <c r="H132">
         <f>H131+C132</f>
-        <v>543601.31181484298</v>
+        <v>317805.68903008581</v>
       </c>
     </row>
     <row r="133" spans="1:65" ht="19.5">
       <c r="C133">
         <f>H132*D133</f>
-        <v>20002.397048422332</v>
+        <v>11509.79002517626</v>
       </c>
       <c r="D133">
         <f>D132</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E133" t="s">
         <v>17</v>
@@ -7114,17 +7263,17 @@
       </c>
       <c r="H133">
         <f>H132+C133</f>
-        <v>563603.70886326535</v>
+        <v>329315.47905526205</v>
       </c>
     </row>
     <row r="134" spans="1:65" ht="19.5">
       <c r="C134">
         <f>H133*D134</f>
-        <v>20738.406839029703</v>
+        <v>11926.633621739775</v>
       </c>
       <c r="D134">
         <f>D133</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E134" t="s">
         <v>11</v>
@@ -7134,17 +7283,17 @@
       </c>
       <c r="H134">
         <f>H133+C134</f>
-        <v>584342.11570229509</v>
+        <v>341242.1126770018</v>
       </c>
     </row>
     <row r="135" spans="1:65" ht="19.5">
       <c r="C135">
         <f>H134*D135</f>
-        <v>21501.498904354379</v>
+        <v>12358.57380856392</v>
       </c>
       <c r="D135">
         <f>D134</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E135" t="s">
         <v>12</v>
@@ -7154,17 +7303,17 @@
       </c>
       <c r="H135">
         <f>H134+C135</f>
-        <v>605843.6146066495</v>
+        <v>353600.68648556573</v>
       </c>
     </row>
     <row r="136" spans="1:65" ht="19.5">
       <c r="C136">
         <f>H135*D136</f>
-        <v>22292.669765928025</v>
+        <v>12806.157330373526</v>
       </c>
       <c r="D136">
         <f>D135</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E136" t="s">
         <v>13</v>
@@ -7174,17 +7323,17 @@
       </c>
       <c r="H136">
         <f>H135+C136</f>
-        <v>628136.28437257756</v>
+        <v>366406.84381593927</v>
       </c>
     </row>
     <row r="137" spans="1:65" ht="19.5">
       <c r="C137">
         <f>H136*D137</f>
-        <v>23112.952613367757</v>
+        <v>13269.950733039825</v>
       </c>
       <c r="D137">
         <f>D136</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E137" t="s">
         <v>14</v>
@@ -7194,17 +7343,17 @@
       </c>
       <c r="H137">
         <f>H136+C137</f>
-        <v>651249.23698594538</v>
+        <v>379676.79454897909</v>
       </c>
     </row>
     <row r="138" spans="1:65" ht="19.5">
       <c r="C138">
         <f>H137*D138</f>
-        <v>23963.418653617904</v>
+        <v>13750.541080707462</v>
       </c>
       <c r="D138">
         <f>D137</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E138" t="s">
         <v>15</v>
@@ -7214,17 +7363,17 @@
       </c>
       <c r="H138">
         <f>H137+C138</f>
-        <v>675212.65563956322</v>
+        <v>393427.33562968654</v>
       </c>
     </row>
     <row r="139" spans="1:65" ht="19.5">
       <c r="C139">
         <f>H138*D139</f>
-        <v>24845.178509838592</v>
+        <v>14248.536698893266</v>
       </c>
       <c r="D139">
         <f>D138</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E139" t="s">
         <v>16</v>
@@ -7234,17 +7383,17 @@
       </c>
       <c r="H139">
         <f>H138+C139</f>
-        <v>700057.83414940187</v>
+        <v>407675.87232857978</v>
       </c>
     </row>
     <row r="140" spans="1:65" ht="19.5">
       <c r="C140">
         <f>H139*D140</f>
-        <v>25759.383671767991</v>
+        <v>14764.567944497412</v>
       </c>
       <c r="D140">
         <f>D139</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E140" t="s">
         <v>17</v>
@@ -7254,17 +7403,17 @@
       </c>
       <c r="H140">
         <f>H139+C140</f>
-        <v>725817.21782116988</v>
+        <v>422440.44027307717</v>
       </c>
     </row>
     <row r="141" spans="1:65" ht="19.5">
       <c r="C141">
         <f>H140*D141</f>
-        <v>26707.22799945212</v>
+        <v>15299.288003701658</v>
       </c>
       <c r="D141">
         <f>D140</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E141" t="s">
         <v>11</v>
@@ -7274,17 +7423,17 @@
       </c>
       <c r="H141">
         <f>H140+C141</f>
-        <v>752524.44582062203</v>
+        <v>437739.72827677883</v>
       </c>
     </row>
     <row r="142" spans="1:65" ht="19.5">
       <c r="C142">
         <f>H141*D142</f>
-        <v>27689.949282306094</v>
+        <v>15853.373718764593</v>
       </c>
       <c r="D142">
         <f>D141</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E142" t="s">
         <v>12</v>
@@ -7294,17 +7443,17 @@
       </c>
       <c r="H142">
         <f>H141+C142</f>
-        <v>780214.39510292816</v>
+        <v>453593.1019955434</v>
       </c>
     </row>
     <row r="143" spans="1:65" ht="19.5">
       <c r="C143">
         <f>H142*D143</f>
-        <v>28708.830855542652</v>
+        <v>16427.52644476049</v>
       </c>
       <c r="D143">
         <f>D142</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E143" t="s">
         <v>13</v>
@@ -7314,17 +7463,17 @@
       </c>
       <c r="H143">
         <f>H142+C143</f>
-        <v>808923.22595847084</v>
+        <v>470020.6284403039</v>
       </c>
     </row>
     <row r="144" spans="1:65" ht="19.5">
       <c r="C144">
         <f>H143*D144</f>
-        <v>29765.203276078966</v>
+        <v>17022.472937346167</v>
       </c>
       <c r="D144">
         <f>D143</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E144" t="s">
         <v>14</v>
@@ -7334,17 +7483,17 @@
       </c>
       <c r="H144">
         <f>H143+C144</f>
-        <v>838688.42923454975</v>
+        <v>487043.10137765005</v>
       </c>
     </row>
     <row r="145" spans="1:65" ht="19.5">
       <c r="C145">
         <f>H144*D145</f>
-        <v>30860.446060110226</v>
+        <v>17638.966272679605</v>
       </c>
       <c r="D145">
         <f>D144</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E145" t="s">
         <v>15</v>
@@ -7354,17 +7503,17 @@
       </c>
       <c r="H145">
         <f>H144+C145</f>
-        <v>869548.87529465999</v>
+        <v>504682.06765032967</v>
       </c>
     </row>
     <row r="146" spans="1:65" ht="19.5">
       <c r="C146">
         <f>H145*D146</f>
-        <v>31995.989484619102</v>
+        <v>18277.786800654765</v>
       </c>
       <c r="D146">
         <f>D145</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E146" t="s">
         <v>16</v>
@@ -7374,17 +7523,17 @@
       </c>
       <c r="H146">
         <f>H145+C146</f>
-        <v>901544.8647792791</v>
+        <v>522959.85445098445</v>
       </c>
     </row>
     <row r="147" spans="1:65" ht="19.5">
       <c r="C147">
         <f>H146*D147</f>
-        <v>33173.316455173743</v>
+        <v>18939.743132659125</v>
       </c>
       <c r="D147">
         <f>D146</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E147" t="s">
         <v>17</v>
@@ -7394,17 +7543,17 @@
       </c>
       <c r="H147">
         <f>H146+C147</f>
-        <v>934718.18123445287</v>
+        <v>541899.59758364363</v>
       </c>
     </row>
     <row r="148" spans="1:65" ht="19.5">
       <c r="C148">
         <f>H147*D148</f>
-        <v>34393.964442453362</v>
+        <v>19625.673165104345</v>
       </c>
       <c r="D148">
         <f>D147</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E148" t="s">
         <v>11</v>
@@ -7414,17 +7563,17 @@
       </c>
       <c r="H148">
         <f>H147+C148</f>
-        <v>969112.14567690622</v>
+        <v>561525.27074874798</v>
       </c>
     </row>
     <row r="149" spans="1:65" ht="19.5">
       <c r="C149">
         <f>H148*D149</f>
-        <v>35659.527490030407</v>
+        <v>20336.445140025484</v>
       </c>
       <c r="D149">
         <f>D148</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E149" t="s">
         <v>12</v>
@@ -7434,17 +7583,17 @@
       </c>
       <c r="H149">
         <f>H148+C149</f>
-        <v>1004771.6731669366</v>
+        <v>581861.71588877344</v>
       </c>
     </row>
     <row r="150" spans="1:65" ht="19.5">
       <c r="C150">
         <f>H149*D150</f>
-        <v>36971.658296031237</v>
+        <v>21072.958744091426</v>
       </c>
       <c r="D150">
         <f>D149</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E150" t="s">
         <v>13</v>
@@ -7454,17 +7603,17 @@
       </c>
       <c r="H150">
         <f>H149+C150</f>
-        <v>1041743.3314629679</v>
+        <v>602934.67463286489</v>
       </c>
     </row>
     <row r="151" spans="1:65" ht="19.5">
       <c r="C151">
         <f>H150*D151</f>
-        <v>38332.070371393747</v>
+        <v>21836.146247417502</v>
       </c>
       <c r="D151">
         <f>D150</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E151" t="s">
         <v>14</v>
@@ -7474,17 +7623,17 @@
       </c>
       <c r="H151">
         <f>H150+C151</f>
-        <v>1080075.4018343617</v>
+        <v>624770.82088028244</v>
       </c>
     </row>
     <row r="152" spans="1:65" ht="19.5">
       <c r="C152">
         <f>H151*D152</f>
-        <v>39742.540277540415</v>
+        <v>22626.973683621844</v>
       </c>
       <c r="D152">
         <f>D151</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E152" t="s">
         <v>15</v>
@@ -7494,17 +7643,17 @@
       </c>
       <c r="H152">
         <f>H151+C152</f>
-        <v>1119817.9421119022</v>
+        <v>647397.79456390429</v>
       </c>
     </row>
     <row r="153" spans="1:65" ht="19.5">
       <c r="C153">
         <f>H152*D153</f>
-        <v>41204.909946388907</v>
+        <v>23446.442072619189</v>
       </c>
       <c r="D153">
         <f>D152</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E153" t="s">
         <v>16</v>
@@ -7514,17 +7663,17 @@
       </c>
       <c r="H153">
         <f>H152+C153</f>
-        <v>1161022.852058291</v>
+        <v>670844.23663652351</v>
       </c>
     </row>
     <row r="154" spans="1:65" ht="19.5">
       <c r="C154">
         <f>H153*D154</f>
-        <v>42721.089085730069</v>
+        <v>24295.58868769995</v>
       </c>
       <c r="D154">
         <f>D153</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E154" t="s">
         <v>17</v>
@@ -7534,17 +7683,17 @@
       </c>
       <c r="H154">
         <f>H153+C154</f>
-        <v>1203743.941144021</v>
+        <v>695139.82532422349</v>
       </c>
     </row>
     <row r="155" spans="1:65" ht="19.5">
       <c r="C155">
         <f>H154*D155</f>
-        <v>44293.057673114301</v>
+        <v>25175.488368498307</v>
       </c>
       <c r="D155">
         <f>D154</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E155" t="s">
         <v>11</v>
@@ -7554,17 +7703,17 @@
       </c>
       <c r="H155">
         <f>H154+C155</f>
-        <v>1248036.9988171353</v>
+        <v>720315.31369272177</v>
       </c>
     </row>
     <row r="156" spans="1:65" ht="19.5">
       <c r="C156">
         <f>H155*D156</f>
-        <v>45922.868541503216</v>
+        <v>26087.254881511391</v>
       </c>
       <c r="D156">
         <f>D155</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E156" t="s">
         <v>12</v>
@@ -7574,17 +7723,17 @@
       </c>
       <c r="H156">
         <f>H155+C156</f>
-        <v>1293959.8673586387</v>
+        <v>746402.56857423321</v>
       </c>
     </row>
     <row r="157" spans="1:65" ht="19.5">
       <c r="C157">
         <f>H156*D157</f>
-        <v>47612.650060063141</v>
+        <v>27032.04232989161</v>
       </c>
       <c r="D157">
         <f>D156</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E157" t="s">
         <v>13</v>
@@ -7594,17 +7743,17 @@
       </c>
       <c r="H157">
         <f>H156+C157</f>
-        <v>1341572.5174187019</v>
+        <v>773434.6109041248</v>
       </c>
     </row>
     <row r="158" spans="1:65" ht="19.5">
       <c r="C158">
         <f>H157*D158</f>
-        <v>49364.608913601311</v>
+        <v>28011.046614296582</v>
       </c>
       <c r="D158">
         <f>D157</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E158" t="s">
         <v>14</v>
@@ -7614,17 +7763,17 @@
       </c>
       <c r="H158">
         <f>H157+C158</f>
-        <v>1390937.1263323033</v>
+        <v>801445.65751842142</v>
       </c>
     </row>
     <row r="159" spans="1:65" ht="19.5">
       <c r="C159">
         <f>H158*D159</f>
-        <v>51181.032984274389</v>
+        <v>29025.506946645943</v>
       </c>
       <c r="D159">
         <f>D158</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E159" t="s">
         <v>15</v>
@@ -7634,17 +7783,17 @@
       </c>
       <c r="H159">
         <f>H158+C159</f>
-        <v>1442118.1593165777</v>
+        <v>830471.16446506733</v>
       </c>
     </row>
     <row r="160" spans="1:65" ht="19.5">
       <c r="C160">
         <f>H159*D160</f>
-        <v>53064.294339332628</v>
+        <v>30076.707418700938</v>
       </c>
       <c r="D160">
         <f>D159</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E160" t="s">
         <v>16</v>
@@ -7654,17 +7803,17 @@
       </c>
       <c r="H160">
         <f>H159+C160</f>
-        <v>1495182.4536559104</v>
+        <v>860547.87188376824</v>
       </c>
     </row>
     <row r="161" spans="1:65" ht="19.5">
       <c r="C161">
         <f>H160*D161</f>
-        <v>55016.852328801222</v>
+        <v>31165.978627452449</v>
       </c>
       <c r="D161">
         <f>D160</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E161" t="s">
         <v>17</v>
@@ -7674,17 +7823,17 @@
       </c>
       <c r="H161">
         <f>H160+C161</f>
-        <v>1550199.3059847117</v>
+        <v>891713.85051122063</v>
       </c>
     </row>
     <row r="162" spans="1:65" ht="19.5">
       <c r="C162">
         <f>H161*D162</f>
-        <v>57041.256797144255</v>
+        <v>32294.699359374747</v>
       </c>
       <c r="D162">
         <f>D161</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E162" t="s">
         <v>11</v>
@@ -7694,17 +7843,17 @@
       </c>
       <c r="H162">
         <f>H161+C162</f>
-        <v>1607240.5627818559</v>
+        <v>924008.54987059534</v>
       </c>
     </row>
     <row r="163" spans="1:65" ht="19.5">
       <c r="C163">
         <f>H162*D163</f>
-        <v>59140.151413105232</v>
+        <v>33464.298335676925</v>
       </c>
       <c r="D163">
         <f>D162</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E163" t="s">
         <v>12</v>
@@ -7714,17 +7863,17 @@
       </c>
       <c r="H163">
         <f>H162+C163</f>
-        <v>1666380.7141949611</v>
+        <v>957472.84820627223</v>
       </c>
     </row>
     <row r="164" spans="1:65" ht="19.5">
       <c r="C164">
         <f>H163*D164</f>
-        <v>61316.277122072745</v>
+        <v>34676.256020761139</v>
       </c>
       <c r="D164">
         <f>D163</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E164" t="s">
         <v>13</v>
@@ -7734,17 +7883,17 @@
       </c>
       <c r="H164">
         <f>H163+C164</f>
-        <v>1727696.9913170338</v>
+        <v>992149.10422703333</v>
       </c>
     </row>
     <row r="165" spans="1:65" ht="19.5">
       <c r="C165">
         <f>H164*D165</f>
-        <v>63572.475725479613</v>
+        <v>35932.106496176733</v>
       </c>
       <c r="D165">
         <f>D164</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E165" t="s">
         <v>14</v>
@@ -7754,17 +7903,17 @@
       </c>
       <c r="H165">
         <f>H164+C165</f>
-        <v>1791269.4670425134</v>
+        <v>1028081.21072321</v>
       </c>
     </row>
     <row r="166" spans="1:65" ht="19.5">
       <c r="C166">
         <f>H165*D166</f>
-        <v>65911.69359190992</v>
+        <v>37233.439402442345</v>
       </c>
       <c r="D166">
         <f>D165</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E166" t="s">
         <v>15</v>
@@ -7774,17 +7923,17 @@
       </c>
       <c r="H166">
         <f>H165+C166</f>
-        <v>1857181.1606344234</v>
+        <v>1065314.6501256523</v>
       </c>
     </row>
     <row r="167" spans="1:65" ht="19.5">
       <c r="C167">
         <f>H166*D167</f>
-        <v>68336.985504760203</v>
+        <v>38581.901951193839</v>
       </c>
       <c r="D167">
         <f>D166</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E167" t="s">
         <v>16</v>
@@ -7794,17 +7943,17 @@
       </c>
       <c r="H167">
         <f>H166+C167</f>
-        <v>1925518.1461391835</v>
+        <v>1103896.5520768461</v>
       </c>
     </row>
     <row r="168" spans="1:65" ht="19.5">
       <c r="C168">
         <f>H167*D168</f>
-        <v>70851.518651479462</v>
+        <v>39979.20101020515</v>
       </c>
       <c r="D168">
         <f>D167</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E168" t="s">
         <v>17</v>
@@ -7814,17 +7963,17 @@
       </c>
       <c r="H168">
         <f>H167+C168</f>
-        <v>1996369.6647906629</v>
+        <v>1143875.7530870512</v>
       </c>
     </row>
     <row r="169" spans="1:65" ht="19.5">
       <c r="C169">
         <f>H168*D169</f>
-        <v>73458.576759597679</v>
+        <v>41427.105263921054</v>
       </c>
       <c r="D169">
         <f>D168</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E169" t="s">
         <v>11</v>
@@ -7834,17 +7983,17 @@
       </c>
       <c r="H169">
         <f>H168+C169</f>
-        <v>2069828.2415502607</v>
+        <v>1185302.8583509722</v>
       </c>
     </row>
     <row r="170" spans="1:65" ht="19.5">
       <c r="C170">
         <f>H169*D170</f>
-        <v>76161.564384943893</v>
+        <v>42927.447452236833</v>
       </c>
       <c r="D170">
         <f>D169</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E170" t="s">
         <v>12</v>
@@ -7854,17 +8003,17 @@
       </c>
       <c r="H170">
         <f>H169+C170</f>
-        <v>2145989.8059352045</v>
+        <v>1228230.3058032091</v>
       </c>
     </row>
     <row r="171" spans="1:65" ht="19.5">
       <c r="C171">
         <f>H170*D171</f>
-        <v>78964.01135765377</v>
+        <v>44482.126690358535</v>
       </c>
       <c r="D171">
         <f>D170</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E171" t="s">
         <v>13</v>
@@ -7874,17 +8023,17 @@
       </c>
       <c r="H171">
         <f>H170+C171</f>
-        <v>2224953.8172928584</v>
+        <v>1272712.4324935677</v>
       </c>
     </row>
     <row r="172" spans="1:65" ht="19.5">
       <c r="C172">
         <f>H171*D172</f>
-        <v>81869.577391773113</v>
+        <v>46093.110872680227</v>
       </c>
       <c r="D172">
         <f>D171</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E172" t="s">
         <v>14</v>
@@ -7894,17 +8043,17 @@
       </c>
       <c r="H172">
         <f>H171+C172</f>
-        <v>2306823.3946846314</v>
+        <v>1318805.543366248</v>
       </c>
     </row>
     <row r="173" spans="1:65" ht="19.5">
       <c r="C173">
         <f>H172*D173</f>
-        <v>84882.056864476384</v>
+        <v>47762.43916372129</v>
       </c>
       <c r="D173">
         <f>D172</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E173" t="s">
         <v>15</v>
@@ -7914,17 +8063,17 @@
       </c>
       <c r="H173">
         <f>H172+C173</f>
-        <v>2391705.4515491077</v>
+        <v>1366567.9825299694</v>
       </c>
     </row>
     <row r="174" spans="1:65" ht="19.5">
       <c r="C174">
         <f>H173*D174</f>
-        <v>88005.383771141976</v>
+        <v>49492.224579276408</v>
       </c>
       <c r="D174">
         <f>D173</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E174" t="s">
         <v>16</v>
@@ -7934,17 +8083,17 @@
       </c>
       <c r="H174">
         <f>H173+C174</f>
-        <v>2479710.8353202497</v>
+        <v>1416060.2071092459</v>
       </c>
     </row>
     <row r="175" spans="1:65" ht="19.5">
       <c r="C175">
         <f>H174*D175</f>
-        <v>91243.636862754734</v>
+        <v>51284.656661045759</v>
       </c>
       <c r="D175">
         <f>D174</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E175" t="s">
         <v>17</v>
@@ -7954,17 +8103,17 @@
       </c>
       <c r="H175">
         <f>H174+C175</f>
-        <v>2570954.4721830045</v>
+        <v>1467344.8637702917</v>
       </c>
     </row>
     <row r="176" spans="1:65" ht="19.5">
       <c r="C176">
         <f>H175*D176</f>
-        <v>94601.04497234468</v>
+        <v>53142.004248130688</v>
       </c>
       <c r="D176">
         <f>D175</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E176" t="s">
         <v>11</v>
@@ -7974,17 +8123,17 @@
       </c>
       <c r="H176">
         <f>H175+C176</f>
-        <v>2665555.5171553493</v>
+        <v>1520486.8680184223</v>
       </c>
     </row>
     <row r="177" spans="1:65" ht="19.5">
       <c r="C177">
         <f>H176*D177</f>
-        <v>98081.992537417929</v>
+        <v>55066.618348903146</v>
       </c>
       <c r="D177">
         <f>D176</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E177" t="s">
         <v>12</v>
@@ -7994,17 +8143,17 @@
       </c>
       <c r="H177">
         <f>H176+C177</f>
-        <v>2763637.5096927672</v>
+        <v>1575553.4863673255</v>
       </c>
     </row>
     <row r="178" spans="1:65" ht="19.5">
       <c r="C178">
         <f>H177*D178</f>
-        <v>101691.0253255913</v>
+        <v>57060.935116883949</v>
       </c>
       <c r="D178">
         <f>D177</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E178" t="s">
         <v>13</v>
@@ -8014,17 +8163,17 @@
       </c>
       <c r="H178">
         <f>H177+C178</f>
-        <v>2865328.5350183584</v>
+        <v>1632614.4214842096</v>
       </c>
     </row>
     <row r="179" spans="1:65" ht="19.5">
       <c r="C179">
         <f>H178*D179</f>
-        <v>105432.85637090798</v>
+        <v>59127.478934396822</v>
       </c>
       <c r="D179">
         <f>D178</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E179" t="s">
         <v>14</v>
@@ -8034,17 +8183,17 @@
       </c>
       <c r="H179">
         <f>H178+C179</f>
-        <v>2970761.3913892666</v>
+        <v>1691741.9004186064</v>
       </c>
     </row>
     <row r="180" spans="1:65" ht="19.5">
       <c r="C180">
         <f>H179*D180</f>
-        <v>109312.37212858611</v>
+        <v>61268.865607901316</v>
       </c>
       <c r="D180">
         <f>D179</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E180" t="s">
         <v>15</v>
@@ -8054,17 +8203,17 @@
       </c>
       <c r="H180">
         <f>H179+C180</f>
-        <v>3080073.7635178529</v>
+        <v>1753010.7660265076</v>
       </c>
     </row>
     <row r="181" spans="1:65" ht="19.5">
       <c r="C181">
         <f>H180*D181</f>
-        <v>113334.63885623821</v>
+        <v>63487.805679049408</v>
       </c>
       <c r="D181">
         <f>D180</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E181" t="s">
         <v>16</v>
@@ -8074,17 +8223,17 @@
       </c>
       <c r="H181">
         <f>H180+C181</f>
-        <v>3193408.4023740911</v>
+        <v>1816498.5717055569</v>
       </c>
     </row>
     <row r="182" spans="1:65" ht="19.5">
       <c r="C182">
         <f>H181*D182</f>
-        <v>117504.90922989431</v>
+        <v>65787.107855656679</v>
       </c>
       <c r="D182">
         <f>D181</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E182" t="s">
         <v>17</v>
@@ -8094,17 +8243,17 @@
       </c>
       <c r="H182">
         <f>H181+C182</f>
-        <v>3310913.3116039853</v>
+        <v>1882285.6795612136</v>
       </c>
     </row>
     <row r="183" spans="1:65" ht="19.5">
       <c r="C183">
         <f>H182*D183</f>
-        <v>121828.62920346887</v>
+        <v>68169.682566931122</v>
       </c>
       <c r="D183">
         <f>D182</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E183" t="s">
         <v>11</v>
@@ -8114,17 +8263,17 @@
       </c>
       <c r="H183">
         <f>H182+C183</f>
-        <v>3432741.9408074543</v>
+        <v>1950455.3621281446</v>
       </c>
     </row>
     <row r="184" spans="1:65" ht="19.5">
       <c r="C184">
         <f>H183*D184</f>
-        <v>126311.44512062919</v>
+        <v>70638.545647459599</v>
       </c>
       <c r="D184">
         <f>D183</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E184" t="s">
         <v>12</v>
@@ -8134,17 +8283,17 @@
       </c>
       <c r="H184">
         <f>H183+C184</f>
-        <v>3559053.3859280837</v>
+        <v>2021093.9077756042</v>
       </c>
     </row>
     <row r="185" spans="1:65" ht="19.5">
       <c r="C185">
         <f>H184*D185</f>
-        <v>130959.21108835262</v>
+        <v>73196.822154615278</v>
       </c>
       <c r="D185">
         <f>D184</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E185" t="s">
         <v>13</v>
@@ -8154,17 +8303,17 @@
       </c>
       <c r="H185">
         <f>H184+C185</f>
-        <v>3690012.5970164365</v>
+        <v>2094290.7299302195</v>
       </c>
     </row>
     <row r="186" spans="1:65" ht="19.5">
       <c r="C186">
         <f>H185*D186</f>
-        <v>135777.99662180184</v>
+        <v>75847.750324217792</v>
       </c>
       <c r="D186">
         <f>D185</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E186" t="s">
         <v>14</v>
@@ -8174,17 +8323,17 @@
       </c>
       <c r="H186">
         <f>H185+C186</f>
-        <v>3825790.5936382385</v>
+        <v>2170138.4802544373</v>
       </c>
     </row>
     <row r="187" spans="1:65" ht="19.5">
       <c r="C187">
         <f>H186*D187</f>
-        <v>140774.09457050159</v>
+        <v>78594.685669453538</v>
       </c>
       <c r="D187">
         <f>D186</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E187" t="s">
         <v>15</v>
@@ -8194,17 +8343,17 @@
       </c>
       <c r="H187">
         <f>H186+C187</f>
-        <v>3966564.6882087402</v>
+        <v>2248733.1659238907</v>
       </c>
     </row>
     <row r="188" spans="1:65" ht="19.5">
       <c r="C188">
         <f>H187*D188</f>
-        <v>145954.02933616756</v>
+        <v>81441.105228244065</v>
       </c>
       <c r="D188">
         <f>D187</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E188" t="s">
         <v>16</v>
@@ -8214,17 +8363,17 @@
       </c>
       <c r="H188">
         <f>H187+C188</f>
-        <v>4112518.7175449077</v>
+        <v>2330174.2711521345</v>
       </c>
     </row>
     <row r="189" spans="1:65" ht="19.5">
       <c r="C189">
         <f>H188*D189</f>
-        <v>151324.56539291918</v>
+        <v>84390.611964439187</v>
       </c>
       <c r="D189">
         <f>D188</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E189" t="s">
         <v>17</v>
@@ -8234,17 +8383,17 @@
       </c>
       <c r="H189">
         <f>H188+C189</f>
-        <v>4263843.2829378266</v>
+        <v>2414564.8831165736</v>
       </c>
     </row>
     <row r="190" spans="1:65" ht="19.5">
       <c r="C190">
         <f>H189*D190</f>
-        <v>156892.71612100297</v>
+        <v>87446.939328405511</v>
       </c>
       <c r="D190">
         <f>D189</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E190" t="s">
         <v>11</v>
@@ -8254,17 +8403,17 @@
       </c>
       <c r="H190">
         <f>H189+C190</f>
-        <v>4420735.9990588296</v>
+        <v>2502011.8224449791</v>
       </c>
     </row>
     <row r="191" spans="1:65" ht="19.5">
       <c r="C191">
         <f>H190*D191</f>
-        <v>162665.75296556199</v>
+        <v>90613.955982783242</v>
       </c>
       <c r="D191">
         <f>D190</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E191" t="s">
         <v>12</v>
@@ -8274,17 +8423,17 @@
       </c>
       <c r="H191">
         <f>H190+C191</f>
-        <v>4583401.7520243917</v>
+        <v>2592625.7784277624</v>
       </c>
     </row>
     <row r="192" spans="1:65" ht="19.5">
       <c r="C192">
         <f>H191*D192</f>
-        <v>168651.21493241243</v>
+        <v>93895.670699393202</v>
       </c>
       <c r="D192">
         <f>D191</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E192" t="s">
         <v>13</v>
@@ -8294,17 +8443,17 @@
       </c>
       <c r="H192">
         <f>H191+C192</f>
-        <v>4752052.9669568045</v>
+        <v>2686521.4491271558</v>
       </c>
     </row>
     <row r="193" spans="1:65" ht="19.5">
       <c r="C193">
         <f>H192*D193</f>
-        <v>174856.91843322734</v>
+        <v>97296.237433492177</v>
       </c>
       <c r="D193">
         <f>D192</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E193" t="s">
         <v>14</v>
@@ -8314,17 +8463,17 @@
       </c>
       <c r="H193">
         <f>H192+C193</f>
-        <v>4926909.8853900321</v>
+        <v>2783817.686560648</v>
       </c>
     </row>
     <row r="194" spans="1:65" ht="19.5">
       <c r="C194">
         <f>H193*D194</f>
-        <v>181290.96749298443</v>
+        <v>100819.96058179987</v>
       </c>
       <c r="D194">
         <f>D193</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E194" t="s">
         <v>15</v>
@@ -8334,17 +8483,17 @@
       </c>
       <c r="H194">
         <f>H193+C194</f>
-        <v>5108200.8528830167</v>
+        <v>2884637.647142448</v>
       </c>
     </row>
     <row r="195" spans="1:65" ht="19.5">
       <c r="C195">
         <f>H194*D195</f>
-        <v>187961.76433300832</v>
+        <v>104471.30043095283</v>
       </c>
       <c r="D195">
         <f>D194</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E195" t="s">
         <v>16</v>
@@ -8354,17 +8503,17 @@
       </c>
       <c r="H195">
         <f>H194+C195</f>
-        <v>5296162.6172160245</v>
+        <v>2989108.947573401</v>
       </c>
     </row>
     <row r="196" spans="1:65" ht="19.5">
       <c r="C196">
         <f>H195*D196</f>
-        <v>194878.02034342688</v>
+        <v>108254.87880328191</v>
       </c>
       <c r="D196">
         <f>D195</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E196" t="s">
         <v>17</v>
@@ -8374,17 +8523,17 @@
       </c>
       <c r="H196">
         <f>H195+C196</f>
-        <v>5491040.6375594512</v>
+        <v>3097363.8263766831</v>
       </c>
     </row>
     <row r="197" spans="1:65" ht="19.5">
       <c r="C197">
         <f>H196*D197</f>
-        <v>202048.76745937104</v>
+        <v>112175.48490705977</v>
       </c>
       <c r="D197">
         <f>D196</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E197" t="s">
         <v>11</v>
@@ -8394,17 +8543,17 @@
       </c>
       <c r="H197">
         <f>H196+C197</f>
-        <v>5693089.4050188223</v>
+        <v>3209539.311283743</v>
       </c>
     </row>
     <row r="198" spans="1:65" ht="19.5">
       <c r="C198">
         <f>H197*D198</f>
-        <v>209483.36995577425</v>
+        <v>116238.0813986234</v>
       </c>
       <c r="D198">
         <f>D197</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E198" t="s">
         <v>12</v>
@@ -8414,17 +8563,17 @@
       </c>
       <c r="H198">
         <f>H197+C198</f>
-        <v>5902572.7749745967</v>
+        <v>3325777.3926823665</v>
       </c>
     </row>
     <row r="199" spans="1:65" ht="19.5">
       <c r="C199">
         <f>H198*D199</f>
-        <v>217191.53667617423</v>
+        <v>120447.81066404523</v>
       </c>
       <c r="D199">
         <f>D198</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E199" t="s">
         <v>13</v>
@@ -8434,17 +8583,17 @@
       </c>
       <c r="H199">
         <f>H198+C199</f>
-        <v>6119764.3116507707</v>
+        <v>3446225.2033464117</v>
       </c>
     </row>
     <row r="200" spans="1:65" ht="19.5">
       <c r="C200">
         <f>H199*D200</f>
-        <v>225183.33371148666</v>
+        <v>124810.00132830394</v>
       </c>
       <c r="D200">
         <f>D199</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E200" t="s">
         <v>14</v>
@@ -8454,17 +8603,17 @@
       </c>
       <c r="H200">
         <f>H199+C200</f>
-        <v>6344947.645362257</v>
+        <v>3571035.2046747156</v>
       </c>
     </row>
     <row r="201" spans="1:65" ht="19.5">
       <c r="C201">
         <f>H200*D201</f>
-        <v>233469.19754530818</v>
+        <v>129330.17500019423</v>
       </c>
       <c r="D201">
         <f>D200</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E201" t="s">
         <v>15</v>
@@ -8474,17 +8623,17 @@
       </c>
       <c r="H201">
         <f>H200+C201</f>
-        <v>6578416.8429075656</v>
+        <v>3700365.3796749096</v>
       </c>
     </row>
     <row r="202" spans="1:65" ht="19.5">
       <c r="C202">
         <f>H201*D202</f>
-        <v>242059.94868291478</v>
+        <v>134014.05326151327</v>
       </c>
       <c r="D202">
         <f>D201</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E202" t="s">
         <v>16</v>
@@ -8494,17 +8643,17 @@
       </c>
       <c r="H202">
         <f>H201+C202</f>
-        <v>6820476.7915904801</v>
+        <v>3834379.432936423</v>
       </c>
     </row>
     <row r="203" spans="1:65" ht="19.5">
       <c r="C203">
         <f>H202*D203</f>
-        <v>250966.80578175408</v>
+        <v>138867.56490937047</v>
       </c>
       <c r="D203">
         <f>D202</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E203" t="s">
         <v>17</v>
@@ -8514,17 +8663,17 @@
       </c>
       <c r="H203">
         <f>H202+C203</f>
-        <v>7071443.5973722339</v>
+        <v>3973246.9978457936</v>
       </c>
     </row>
     <row r="204" spans="1:65" ht="19.5">
       <c r="C204">
         <f>H203*D204</f>
-        <v>260201.40030188428</v>
+        <v>143896.85346078806</v>
       </c>
       <c r="D204">
         <f>D203</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E204" t="s">
         <v>11</v>
@@ -8534,17 +8683,17 @@
       </c>
       <c r="H204">
         <f>H203+C204</f>
-        <v>7331644.9976741178</v>
+        <v>4117143.8513065819</v>
       </c>
     </row>
     <row r="205" spans="1:65" ht="19.5">
       <c r="C205">
         <f>H204*D205</f>
-        <v>269775.79169549176</v>
+        <v>149108.28492909146</v>
       </c>
       <c r="D205">
         <f>D204</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E205" t="s">
         <v>12</v>
@@ -8554,17 +8703,17 @@
       </c>
       <c r="H205">
         <f>H204+C205</f>
-        <v>7601420.7893696092</v>
+        <v>4266252.136235673</v>
       </c>
     </row>
     <row r="206" spans="1:65" ht="19.5">
       <c r="C206">
         <f>H205*D206</f>
-        <v>279702.48315532343</v>
+        <v>154508.45588193278</v>
       </c>
       <c r="D206">
         <f>D205</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E206" t="s">
         <v>13</v>
@@ -8574,17 +8723,17 @@
       </c>
       <c r="H206">
         <f>H205+C206</f>
-        <v>7881123.2725249324</v>
+        <v>4420760.5921176057</v>
       </c>
     </row>
     <row r="207" spans="1:65" ht="19.5">
       <c r="C207">
         <f>H206*D207</f>
-        <v>289994.4379425997</v>
+        <v>160104.20179114747</v>
       </c>
       <c r="D207">
         <f>D206</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E207" t="s">
         <v>14</v>
@@ -8594,17 +8743,17 @@
       </c>
       <c r="H207">
         <f>H206+C207</f>
-        <v>8171117.7104675323</v>
+        <v>4580864.7939087534</v>
       </c>
     </row>
     <row r="208" spans="1:65" ht="19.5">
       <c r="C208">
         <f>H207*D208</f>
-        <v>300665.09631573048</v>
+        <v>165902.60568501265</v>
       </c>
       <c r="D208">
         <f>D207</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E208" t="s">
         <v>15</v>
@@ -8614,17 +8763,17 @@
       </c>
       <c r="H208">
         <f>H207+C208</f>
-        <v>8471782.8067832626</v>
+        <v>4746767.3995937658</v>
       </c>
     </row>
     <row r="209" spans="1:65" ht="19.5">
       <c r="C209">
         <f>H208*D209</f>
-        <v>311728.39308194182</v>
+        <v>171911.00711385976</v>
       </c>
       <c r="D209">
         <f>D208</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E209" t="s">
         <v>16</v>
@@ -8634,17 +8783,17 @@
       </c>
       <c r="H209">
         <f>H208+C209</f>
-        <v>8783511.1998652052</v>
+        <v>4918678.4067076258</v>
       </c>
     </row>
     <row r="210" spans="1:65" ht="19.5">
       <c r="C210">
         <f>H209*D210</f>
-        <v>323198.7757947332</v>
+        <v>178137.01144038959</v>
       </c>
       <c r="D210">
         <f>D209</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E210" t="s">
         <v>17</v>
@@ -8654,17 +8803,17 @@
       </c>
       <c r="H210">
         <f>H209+C210</f>
-        <v>9106709.9756599385</v>
+        <v>5096815.4181480156</v>
       </c>
     </row>
     <row r="211" spans="1:65" ht="19.5">
       <c r="C211">
         <f>H210*D211</f>
-        <v>335091.22362093022</v>
+        <v>184588.49946644946</v>
       </c>
       <c r="D211">
         <f>D210</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E211" t="s">
         <v>11</v>
@@ -8674,17 +8823,17 @@
       </c>
       <c r="H211">
         <f>H210+C211</f>
-        <v>9441801.1992808692</v>
+        <v>5281403.9176144646</v>
       </c>
     </row>
     <row r="212" spans="1:65" ht="19.5">
       <c r="C212">
         <f>H211*D212</f>
-        <v>347421.26690197096</v>
+        <v>191273.63740845799</v>
       </c>
       <c r="D212">
         <f>D211</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E212" t="s">
         <v>12</v>
@@ -8694,17 +8843,17 @@
       </c>
       <c r="H212">
         <f>H211+C212</f>
-        <v>9789222.466182841</v>
+        <v>5472677.5550229223</v>
       </c>
     </row>
     <row r="213" spans="1:65" ht="19.5">
       <c r="C213">
         <f>H212*D213</f>
-        <v>360205.00743497052</v>
+        <v>198200.88723410424</v>
       </c>
       <c r="D213">
         <f>D212</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E213" t="s">
         <v>13</v>
@@ -8714,17 +8863,17 @@
       </c>
       <c r="H213">
         <f>H212+C213</f>
-        <v>10149427.473617811</v>
+        <v>5670878.4422570262</v>
       </c>
     </row>
     <row r="214" spans="1:65" ht="19.5">
       <c r="C214">
         <f>H213*D214</f>
-        <v>373459.13950004964</v>
+        <v>205379.01737340522</v>
       </c>
       <c r="D214">
         <f>D213</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E214" t="s">
         <v>14</v>
@@ -8734,17 +8883,17 @@
       </c>
       <c r="H214">
         <f>H213+C214</f>
-        <v>10522886.613117861</v>
+        <v>5876257.4596304316</v>
       </c>
     </row>
     <row r="215" spans="1:65" ht="19.5">
       <c r="C215">
         <f>H214*D215</f>
-        <v>387200.97166138655</v>
+        <v>212817.11381767981</v>
       </c>
       <c r="D215">
         <f>D214</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E215" t="s">
         <v>15</v>
@@ -8754,17 +8903,17 @@
       </c>
       <c r="H215">
         <f>H214+C215</f>
-        <v>10910087.584779248</v>
+        <v>6089074.5734481113</v>
       </c>
     </row>
     <row r="216" spans="1:65" ht="19.5">
       <c r="C216">
         <f>H215*D216</f>
-        <v>401448.44937046169</v>
+        <v>220524.59162048795</v>
       </c>
       <c r="D216">
         <f>D215</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E216" t="s">
         <v>16</v>
@@ -8774,17 +8923,17 @@
       </c>
       <c r="H216">
         <f>H215+C216</f>
-        <v>11311536.03414971</v>
+        <v>6309599.1650685994</v>
       </c>
     </row>
     <row r="217" spans="1:65" ht="19.5">
       <c r="C217">
         <f>H216*D217</f>
-        <v>416220.17840101372</v>
+        <v>228511.20681509285</v>
       </c>
       <c r="D217">
         <f>D216</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E217" t="s">
         <v>17</v>
@@ -8794,17 +8943,17 @@
       </c>
       <c r="H217">
         <f>H216+C217</f>
-        <v>11727756.212550724</v>
+        <v>6538110.3718836922</v>
       </c>
     </row>
     <row r="218" spans="1:65" ht="19.5">
       <c r="C218">
         <f>H217*D218</f>
-        <v>431535.44914630946</v>
+        <v>236787.06876353128</v>
       </c>
       <c r="D218">
         <f>D217</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E218" t="s">
         <v>11</v>
@@ -8814,17 +8963,17 @@
       </c>
       <c r="H218">
         <f>H217+C218</f>
-        <v>12159291.661697034</v>
+        <v>6774897.440647224</v>
       </c>
     </row>
     <row r="219" spans="1:65" ht="19.5">
       <c r="C219">
         <f>H218*D219</f>
-        <v>447414.26181045885</v>
+        <v>245362.65295292326</v>
       </c>
       <c r="D219">
         <f>D218</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E219" t="s">
         <v>12</v>
@@ -8834,17 +8983,17 @@
       </c>
       <c r="H219">
         <f>H218+C219</f>
-        <v>12606705.923507493</v>
+        <v>7020260.0936001474</v>
       </c>
     </row>
     <row r="220" spans="1:65" ht="19.5">
       <c r="C220">
         <f>H219*D220</f>
-        <v>463877.35252667079</v>
+        <v>254248.81425521823</v>
       </c>
       <c r="D220">
         <f>D219</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E220" t="s">
         <v>13</v>
@@ -8854,17 +9003,17 @@
       </c>
       <c r="H220">
         <f>H219+C220</f>
-        <v>13070583.276034163</v>
+        <v>7274508.9078553654</v>
       </c>
     </row>
     <row r="221" spans="1:65" ht="19.5">
       <c r="C221">
         <f>H220*D221</f>
-        <v>480946.22043655888</v>
+        <v>263456.80066716246</v>
       </c>
       <c r="D221">
         <f>D220</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E221" t="s">
         <v>14</v>
@@ -8874,17 +9023,17 @@
       </c>
       <c r="H221">
         <f>H220+C221</f>
-        <v>13551529.496470721</v>
+        <v>7537965.7085225275</v>
       </c>
     </row>
     <row r="222" spans="1:65" ht="19.5">
       <c r="C222">
         <f>H221*D222</f>
-        <v>498643.15576585918</v>
+        <v>272998.26754787867</v>
       </c>
       <c r="D222">
         <f>D221</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E222" t="s">
         <v>15</v>
@@ -8894,17 +9043,17 @@
       </c>
       <c r="H222">
         <f>H221+C222</f>
-        <v>14050172.652236581</v>
+        <v>7810963.9760704059</v>
       </c>
     </row>
     <row r="223" spans="1:65" ht="19.5">
       <c r="C223">
         <f>H222*D223</f>
-        <v>516991.26893322461</v>
+        <v>282885.29237208032</v>
       </c>
       <c r="D223">
         <f>D222</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E223" t="s">
         <v>16</v>
@@ -8914,17 +9063,17 @@
       </c>
       <c r="H223">
         <f>H222+C223</f>
-        <v>14567163.921169806</v>
+        <v>8093849.2684424864</v>
       </c>
     </row>
     <row r="224" spans="1:65" ht="19.5">
       <c r="C224">
         <f>H223*D224</f>
-        <v>536014.52073010837</v>
+        <v>293130.39001759479</v>
       </c>
       <c r="D224">
         <f>D223</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E224" t="s">
         <v>17</v>
@@ -8934,17 +9083,17 @@
       </c>
       <c r="H224">
         <f>H223+C224</f>
-        <v>15103178.441899914</v>
+        <v>8386979.6584600816</v>
       </c>
     </row>
     <row r="225" spans="1:65" ht="19.5">
       <c r="C225">
         <f>H224*D225</f>
-        <v>555737.75361114915</v>
+        <v>303746.52860654605</v>
       </c>
       <c r="D225">
         <f>D224</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E225" t="s">
         <v>11</v>
@@ -8954,17 +9103,17 @@
       </c>
       <c r="H225">
         <f>H224+C225</f>
-        <v>15658916.195511064</v>
+        <v>8690726.1870666277</v>
       </c>
     </row>
     <row r="226" spans="1:65" ht="19.5">
       <c r="C226">
         <f>H225*D226</f>
-        <v>576186.72413592006</v>
+        <v>314747.14592024864</v>
       </c>
       <c r="D226">
         <f>D225</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E226" t="s">
         <v>12</v>
@@ -8974,17 +9123,17 @@
       </c>
       <c r="H226">
         <f>H225+C226</f>
-        <v>16235102.919646984</v>
+        <v>9005473.3329868764</v>
       </c>
     </row>
     <row r="227" spans="1:65" ht="19.5">
       <c r="C227">
         <f>H226*D227</f>
-        <v>597388.13660440582</v>
+        <v>326146.16640859056</v>
       </c>
       <c r="D227">
         <f>D226</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E227" t="s">
         <v>13</v>
@@ -8994,17 +9143,17 @@
       </c>
       <c r="H227">
         <f>H226+C227</f>
-        <v>16832491.056251388</v>
+        <v>9331619.4993954673</v>
       </c>
     </row>
     <row r="228" spans="1:65" ht="19.5">
       <c r="C228">
         <f>H227*D228</f>
-        <v>619369.67793013481</v>
+        <v>337958.01881543564</v>
       </c>
       <c r="D228">
         <f>D227</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E228" t="s">
         <v>14</v>
@@ -9014,17 +9163,17 @@
       </c>
       <c r="H228">
         <f>H227+C228</f>
-        <v>17451860.734181523</v>
+        <v>9669577.5182109028</v>
       </c>
     </row>
     <row r="229" spans="1:65" ht="19.5">
       <c r="C229">
         <f>H228*D229</f>
-        <v>642160.05379650474</v>
+        <v>350197.6544423548</v>
       </c>
       <c r="D229">
         <f>D228</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E229" t="s">
         <v>15</v>
@@ -9034,17 +9183,17 @@
       </c>
       <c r="H229">
         <f>H228+C229</f>
-        <v>18094020.787978027</v>
+        <v>10019775.172653258</v>
       </c>
     </row>
     <row r="230" spans="1:65" ht="19.5">
       <c r="C230">
         <f>H229*D230</f>
-        <v>665789.02614351956</v>
+        <v>362880.56607380509</v>
       </c>
       <c r="D230">
         <f>D229</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E230" t="s">
         <v>16</v>
@@ -9054,17 +9203,17 @@
       </c>
       <c r="H230">
         <f>H229+C230</f>
-        <v>18759809.814121548</v>
+        <v>10382655.738727063</v>
       </c>
     </row>
     <row r="231" spans="1:65" ht="19.5">
       <c r="C231">
         <f>H230*D231</f>
-        <v>690287.45203389192</v>
+        <v>376022.80758771079</v>
       </c>
       <c r="D231">
         <f>D230</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E231" t="s">
         <v>17</v>
@@ -9074,17 +9223,17 @@
       </c>
       <c r="H231">
         <f>H230+C231</f>
-        <v>19450097.26615544</v>
+        <v>10758678.546314774</v>
       </c>
     </row>
     <row r="232" spans="1:65" ht="19.5">
       <c r="C232">
         <f>H231*D232</f>
-        <v>715687.32394926483</v>
+        <v>389641.01427627041</v>
       </c>
       <c r="D232">
         <f>D231</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E232" t="s">
         <v>11</v>
@@ -9094,17 +9243,17 @@
       </c>
       <c r="H232">
         <f>H231+C232</f>
-        <v>20165784.590104707</v>
+        <v>11148319.560591044</v>
       </c>
     </row>
     <row r="233" spans="1:65" ht="19.5">
       <c r="C233">
         <f>H232*D233</f>
-        <v>742021.8115691772</v>
+        <v>403752.42390271043</v>
       </c>
       <c r="D233">
         <f>D232</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E233" t="s">
         <v>12</v>
@@ -9114,17 +9263,17 @@
       </c>
       <c r="H233">
         <f>H232+C233</f>
-        <v>20907806.401673883</v>
+        <v>11552071.984493755</v>
       </c>
     </row>
     <row r="234" spans="1:65" ht="19.5">
       <c r="C234">
         <f>H233*D234</f>
-        <v>769325.30508733063</v>
+        <v>418374.89852064039</v>
       </c>
       <c r="D234">
         <f>D233</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E234" t="s">
         <v>13</v>
@@ -9134,17 +9283,17 @@
       </c>
       <c r="H234">
         <f>H233+C234</f>
-        <v>21677131.706761215</v>
+        <v>11970446.883014396</v>
       </c>
     </row>
     <row r="235" spans="1:65" ht="19.5">
       <c r="C235">
         <f>H234*D235</f>
-        <v>797633.46012172638</v>
+        <v>433526.94708362612</v>
       </c>
       <c r="D235">
         <f>D234</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E235" t="s">
         <v>14</v>
@@ -9154,17 +9303,17 @@
       </c>
       <c r="H235">
         <f>H234+C235</f>
-        <v>22474765.16688294</v>
+        <v>12403973.830098022</v>
       </c>
     </row>
     <row r="236" spans="1:65" ht="19.5">
       <c r="C236">
         <f>H235*D236</f>
-        <v>826983.24427731719</v>
+        <v>449227.74887360248</v>
       </c>
       <c r="D236">
         <f>D235</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E236" t="s">
         <v>15</v>
@@ -9174,17 +9323,17 @@
       </c>
       <c r="H236">
         <f>H235+C236</f>
-        <v>23301748.411160257</v>
+        <v>12853201.578971624</v>
       </c>
     </row>
     <row r="237" spans="1:65" ht="19.5">
       <c r="C237">
         <f>H236*D237</f>
-        <v>857412.98542198469</v>
+        <v>465497.17777777888</v>
       </c>
       <c r="D237">
         <f>D236</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E237" t="s">
         <v>16</v>
@@ -9194,17 +9343,17 @@
       </c>
       <c r="H237">
         <f>H236+C237</f>
-        <v>24159161.396582242</v>
+        <v>13318698.756749403</v>
       </c>
     </row>
     <row r="238" spans="1:65" ht="19.5">
       <c r="C238">
         <f>H237*D238</f>
-        <v>888962.42173888104</v>
+        <v>482355.82744476822</v>
       </c>
       <c r="D238">
         <f>D237</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E238" t="s">
         <v>17</v>
@@ -9214,17 +9363,17 @@
       </c>
       <c r="H238">
         <f>H237+C238</f>
-        <v>25048123.818321124</v>
+        <v>13801054.58419417</v>
       </c>
     </row>
     <row r="239" spans="1:65" ht="19.5">
       <c r="C239">
         <f>H238*D239</f>
-        <v>921672.75362050219</v>
+        <v>499825.03735178109</v>
       </c>
       <c r="D239">
         <f>D238</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E239" t="s">
         <v>11</v>
@@ -9234,17 +9383,17 @@
       </c>
       <c r="H239">
         <f>H238+C239</f>
-        <v>25969796.571941625</v>
+        <v>14300879.621545952</v>
       </c>
     </row>
     <row r="240" spans="1:65" ht="19.5">
       <c r="C240">
         <f>H239*D240</f>
-        <v>955586.69747225917</v>
+        <v>517926.91981588094</v>
       </c>
       <c r="D240">
         <f>D239</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E240" t="s">
         <v>12</v>
@@ -9254,17 +9403,17 @@
       </c>
       <c r="H240">
         <f>H239+C240</f>
-        <v>26925383.269413885</v>
+        <v>14818806.541361833</v>
       </c>
     </row>
     <row r="241" spans="1:65" ht="19.5">
       <c r="C241">
         <f>H240*D241</f>
-        <v>990748.54149580933</v>
+        <v>536684.3879834906</v>
       </c>
       <c r="D241">
         <f>D240</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E241" t="s">
         <v>13</v>
@@ -9274,17 +9423,17 @@
       </c>
       <c r="H241">
         <f>H240+C241</f>
-        <v>27916131.810909696</v>
+        <v>15355490.929345323</v>
       </c>
     </row>
     <row r="242" spans="1:65" ht="19.5">
       <c r="C242">
         <f>H241*D242</f>
-        <v>1027204.2035249962</v>
+        <v>556121.18483357923</v>
       </c>
       <c r="D242">
         <f>D241</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E242" t="s">
         <v>14</v>
@@ -9294,17 +9443,17 @@
       </c>
       <c r="H242">
         <f>H241+C242</f>
-        <v>28943336.014434692</v>
+        <v>15911612.114178902</v>
       </c>
     </row>
     <row r="243" spans="1:65" ht="19.5">
       <c r="C243">
         <f>H242*D243</f>
-        <v>1065001.2909899245</v>
+        <v>576261.91323124093</v>
       </c>
       <c r="D243">
         <f>D242</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E243" t="s">
         <v>15</v>
@@ -9314,17 +9463,17 @@
       </c>
       <c r="H243">
         <f>H242+C243</f>
-        <v>30008337.305424616</v>
+        <v>16487874.027410142</v>
       </c>
     </row>
     <row r="244" spans="1:65" ht="19.5">
       <c r="C244">
         <f>H243*D244</f>
-        <v>1104189.1630874788</v>
+        <v>597132.06706970802</v>
       </c>
       <c r="D244">
         <f>D243</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E244" t="s">
         <v>16</v>
@@ -9334,17 +9483,17 @@
       </c>
       <c r="H244">
         <f>H243+C244</f>
-        <v>31112526.468512096</v>
+        <v>17085006.094479851</v>
       </c>
     </row>
     <row r="245" spans="1:65" ht="19.5">
       <c r="C245">
         <f>H244*D245</f>
-        <v>1144818.9952394732</v>
+        <v>618758.06354021549</v>
       </c>
       <c r="D245">
         <f>D244</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E245" t="s">
         <v>17</v>
@@ -9354,17 +9503,17 @@
       </c>
       <c r="H245">
         <f>H244+C245</f>
-        <v>32257345.463751569</v>
+        <v>17703764.158020068</v>
       </c>
     </row>
     <row r="246" spans="1:65" ht="19.5">
       <c r="C246">
         <f>H245*D246</f>
-        <v>1186943.8459226068</v>
+        <v>641167.27657056611</v>
       </c>
       <c r="D246">
         <f>D245</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E246" t="s">
         <v>11</v>
@@ -9374,17 +9523,17 @@
       </c>
       <c r="H246">
         <f>H245+C246</f>
-        <v>33444289.309674177</v>
+        <v>18344931.434590634</v>
       </c>
     </row>
     <row r="247" spans="1:65" ht="19.5">
       <c r="C247">
         <f>H246*D247</f>
-        <v>1230618.7259575028</v>
+        <v>664388.07147472131</v>
       </c>
       <c r="D247">
         <f>D246</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E247" t="s">
         <v>12</v>
@@ -9394,17 +9543,17 @@
       </c>
       <c r="H247">
         <f>H246+C247</f>
-        <v>34674908.035631679</v>
+        <v>19009319.506065354</v>
       </c>
     </row>
     <row r="248" spans="1:65" ht="19.5">
       <c r="C248">
         <f>H247*D248</f>
-        <v>1275900.6703473094</v>
+        <v>688449.84085727599</v>
       </c>
       <c r="D248">
         <f>D247</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E248" t="s">
         <v>13</v>
@@ -9414,17 +9563,17 @@
       </c>
       <c r="H248">
         <f>H247+C248</f>
-        <v>35950808.70597899</v>
+        <v>19697769.346922629</v>
       </c>
     </row>
     <row r="249" spans="1:65" ht="19.5">
       <c r="C249">
         <f>H248*D249</f>
-        <v>1322848.8127596807</v>
+        <v>713383.04181826673</v>
       </c>
       <c r="D249">
         <f>D248</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E249" t="s">
         <v>14</v>
@@ -9434,17 +9583,17 @@
       </c>
       <c r="H249">
         <f>H248+C249</f>
-        <v>37273657.518738672</v>
+        <v>20411152.388740897</v>
       </c>
     </row>
     <row r="250" spans="1:65" ht="19.5">
       <c r="C250">
         <f>H249*D250</f>
-        <v>1371524.4627494032</v>
+        <v>739219.23450540425</v>
       </c>
       <c r="D250">
         <f>D249</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E250" t="s">
         <v>15</v>
@@ -9454,17 +9603,17 @@
       </c>
       <c r="H250">
         <f>H249+C250</f>
-        <v>38645181.981488079</v>
+        <v>21150371.623246301</v>
       </c>
     </row>
     <row r="251" spans="1:65" ht="19.5">
       <c r="C251">
         <f>H250*D251</f>
-        <v>1421991.1858225109</v>
+        <v>765991.12206253118</v>
       </c>
       <c r="D251">
         <f>D250</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E251" t="s">
         <v>16</v>
@@ -9474,17 +9623,17 @@
       </c>
       <c r="H251">
         <f>H250+C251</f>
-        <v>40067173.167310588</v>
+        <v>21916362.745308831</v>
       </c>
     </row>
     <row r="252" spans="1:65" ht="19.5">
       <c r="C252">
         <f>H251*D252</f>
-        <v>1474314.8864464469</v>
+        <v>793732.59202487115</v>
       </c>
       <c r="D252">
         <f>D251</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E252" t="s">
         <v>17</v>
@@ -9494,17 +9643,17 @@
       </c>
       <c r="H252">
         <f>H251+C252</f>
-        <v>41541488.053757034</v>
+        <v>22710095.337333702</v>
       </c>
     </row>
     <row r="253" spans="1:65" ht="19.5">
       <c r="C253">
         <f>H252*D253</f>
-        <v>1528563.8941146736</v>
+        <v>822478.75921346515</v>
       </c>
       <c r="D253">
         <f>D252</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E253" t="s">
         <v>11</v>
@@ -9514,17 +9663,17 @@
       </c>
       <c r="H253">
         <f>H252+C253</f>
-        <v>43070051.947871707</v>
+        <v>23532574.096547168</v>
       </c>
     </row>
     <row r="254" spans="1:65" ht="19.5">
       <c r="C254">
         <f>H253*D254</f>
-        <v>1584809.0525781219</v>
+        <v>852266.01018309244</v>
       </c>
       <c r="D254">
         <f>D253</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E254" t="s">
         <v>12</v>
@@ -9534,17 +9683,17 @@
       </c>
       <c r="H254">
         <f>H253+C254</f>
-        <v>44654861.000449829</v>
+        <v>24384840.10673026</v>
       </c>
     </row>
     <row r="255" spans="1:65" ht="19.5">
       <c r="C255">
         <f>H254*D255</f>
-        <v>1643123.8123600096</v>
+        <v>883132.04927993659</v>
       </c>
       <c r="D255">
         <f>D254</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E255" t="s">
         <v>13</v>
@@ -9554,17 +9703,17 @@
       </c>
       <c r="H255">
         <f>H254+C255</f>
-        <v>46297984.81280984</v>
+        <v>25267972.156010196</v>
       </c>
     </row>
     <row r="256" spans="1:65" ht="19.5">
       <c r="C256">
         <f>H255*D256</f>
-        <v>1703584.3266748409</v>
+        <v>915115.94636729627</v>
       </c>
       <c r="D256">
         <f>D255</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E256" t="s">
         <v>14</v>
@@ -9574,17 +9723,17 @@
       </c>
       <c r="H256">
         <f>H255+C256</f>
-        <v>48001569.139484681</v>
+        <v>26183088.102377493</v>
       </c>
     </row>
     <row r="257" spans="1:65" ht="19.5">
       <c r="C257">
         <f>H256*D257</f>
-        <v>1766269.5508768496</v>
+        <v>948258.18627975089</v>
       </c>
       <c r="D257">
         <f>D256</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E257" t="s">
         <v>15</v>
@@ -9594,17 +9743,17 @@
       </c>
       <c r="H257">
         <f>H256+C257</f>
-        <v>49767838.69036153</v>
+        <v>27131346.288657244</v>
       </c>
     </row>
     <row r="258" spans="1:65" ht="19.5">
       <c r="C258">
         <f>H257*D258</f>
-        <v>1831261.3455677552</v>
+        <v>982600.72006838035</v>
       </c>
       <c r="D258">
         <f>D257</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E258" t="s">
         <v>16</v>
@@ -9614,17 +9763,17 @@
       </c>
       <c r="H258">
         <f>H257+C258</f>
-        <v>51599100.035929285</v>
+        <v>28113947.008725625</v>
       </c>
     </row>
     <row r="259" spans="1:65" ht="19.5">
       <c r="C259">
         <f>H258*D259</f>
-        <v>1898644.5834984812</v>
+        <v>1018187.0181019043</v>
       </c>
       <c r="D259">
         <f>D258</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E259" t="s">
         <v>17</v>
@@ -9634,17 +9783,17 @@
       </c>
       <c r="H259">
         <f>H258+C259</f>
-        <v>53497744.619427763</v>
+        <v>29132134.026827529</v>
       </c>
     </row>
     <row r="260" spans="1:65" ht="19.5">
       <c r="C260">
         <f>H259*D260</f>
-        <v>1968507.260404435</v>
+        <v>1055062.1250909546</v>
       </c>
       <c r="D260">
         <f>D259</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E260" t="s">
         <v>11</v>
@@ -9654,17 +9803,17 @@
       </c>
       <c r="H260">
         <f>H259+C260</f>
-        <v>55466251.879832201</v>
+        <v>30187196.151918482</v>
       </c>
     </row>
     <row r="261" spans="1:65" ht="19.5">
       <c r="C261">
         <f>H260*D261</f>
-        <v>2040940.609919094</v>
+        <v>1093272.7171051318</v>
       </c>
       <c r="D261">
         <f>D260</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E261" t="s">
         <v>12</v>
@@ -9674,17 +9823,17 @@
       </c>
       <c r="H261">
         <f>H260+C261</f>
-        <v>57507192.489751294</v>
+        <v>31280468.869023614</v>
       </c>
     </row>
     <row r="262" spans="1:65" ht="19.5">
       <c r="C262">
         <f>H261*D262</f>
-        <v>2116039.2227159594</v>
+        <v>1132867.1606550168</v>
       </c>
       <c r="D262">
         <f>D261</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E262" t="s">
         <v>13</v>
@@ -9694,17 +9843,17 @@
       </c>
       <c r="H262">
         <f>H261+C262</f>
-        <v>59623231.712467253</v>
+        <v>32413336.029678632</v>
       </c>
     </row>
     <row r="263" spans="1:65" ht="19.5">
       <c r="C263">
         <f>H262*D263</f>
-        <v>2193901.1700344682</v>
+        <v>1173895.57391392</v>
       </c>
       <c r="D263">
         <f>D262</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E263" t="s">
         <v>14</v>
@@ -9714,17 +9863,17 @@
       </c>
       <c r="H263">
         <f>H262+C263</f>
-        <v>61817132.882501721</v>
+        <v>33587231.603592552</v>
       </c>
     </row>
     <row r="264" spans="1:65" ht="19.5">
       <c r="C264">
         <f>H263*D264</f>
-        <v>2274628.1317511736</v>
+        <v>1216409.8901568679</v>
       </c>
       <c r="D264">
         <f>D263</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E264" t="s">
         <v>15</v>
@@ -9734,17 +9883,17 @@
       </c>
       <c r="H264">
         <f>H263+C264</f>
-        <v>64091761.014252894</v>
+        <v>34803641.493749417</v>
       </c>
     </row>
     <row r="265" spans="1:65" ht="19.5">
       <c r="C265">
         <f>H264*D265</f>
-        <v>2358325.5291634435</v>
+        <v>1260463.9234971202</v>
       </c>
       <c r="D265">
         <f>D264</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E265" t="s">
         <v>16</v>
@@ -9754,17 +9903,17 @@
       </c>
       <c r="H265">
         <f>H264+C265</f>
-        <v>66450086.543416336</v>
+        <v>36064105.417246535</v>
       </c>
     </row>
     <row r="266" spans="1:65" ht="19.5">
       <c r="C266">
         <f>H265*D266</f>
-        <v>2445102.6626590765</v>
+        <v>1306113.4370034321</v>
       </c>
       <c r="D266">
         <f>D265</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E266" t="s">
         <v>17</v>
@@ -9774,17 +9923,17 @@
       </c>
       <c r="H266">
         <f>H265+C266</f>
-        <v>68895189.206075415</v>
+        <v>37370218.854249969</v>
       </c>
     </row>
     <row r="267" spans="1:65" ht="19.5">
       <c r="C267">
         <f>H266*D267</f>
-        <v>2535072.8544516233</v>
+        <v>1353416.2132842797</v>
       </c>
       <c r="D267">
         <f>D266</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E267" t="s">
         <v>11</v>
@@ -9794,17 +9943,17 @@
       </c>
       <c r="H267">
         <f>H266+C267</f>
-        <v>71430262.060527042</v>
+        <v>38723635.067534246</v>
       </c>
     </row>
     <row r="268" spans="1:65" ht="19.5">
       <c r="C268">
         <f>H267*D268</f>
-        <v>2628353.5965678059</v>
+        <v>1402432.1276283949</v>
       </c>
       <c r="D268">
         <f>D267</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E268" t="s">
         <v>12</v>
@@ -9814,17 +9963,17 @@
       </c>
       <c r="H268">
         <f>H267+C268</f>
-        <v>74058615.657094851</v>
+        <v>40126067.195162639</v>
       </c>
     </row>
     <row r="269" spans="1:65" ht="19.5">
       <c r="C269">
         <f>H268*D269</f>
-        <v>2725066.7042802931</v>
+        <v>1453223.2237941904</v>
       </c>
       <c r="D269">
         <f>D268</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E269" t="s">
         <v>13</v>
@@ -9834,17 +9983,17 @@
       </c>
       <c r="H269">
         <f>H268+C269</f>
-        <v>76783682.361375138</v>
+        <v>41579290.418956831</v>
       </c>
     </row>
     <row r="270" spans="1:65" ht="19.5">
       <c r="C270">
         <f>H269*D270</f>
-        <v>2825338.4751862027</v>
+        <v>1505853.7925440075</v>
       </c>
       <c r="D270">
         <f>D269</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E270" t="s">
         <v>14</v>
@@ -9854,17 +10003,17 @@
       </c>
       <c r="H270">
         <f>H269+C270</f>
-        <v>79609020.836561337</v>
+        <v>43085144.211500838</v>
       </c>
     </row>
     <row r="271" spans="1:65" ht="19.5">
       <c r="C271">
         <f>H270*D271</f>
-        <v>2929299.8541390696</v>
+        <v>1560390.4530225934</v>
       </c>
       <c r="D271">
         <f>D270</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E271" t="s">
         <v>15</v>
@@ -9874,17 +10023,17 @@
       </c>
       <c r="H271">
         <f>H270+C271</f>
-        <v>82538320.690700412</v>
+        <v>44645534.66452343</v>
       </c>
     </row>
     <row r="272" spans="1:65" ht="19.5">
       <c r="C272">
         <f>H271*D272</f>
-        <v>3037086.6042496595</v>
+        <v>1616902.2370828199</v>
       </c>
       <c r="D272">
         <f>D271</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E272" t="s">
         <v>16</v>
@@ -9894,17 +10043,17 @@
       </c>
       <c r="H272">
         <f>H271+C272</f>
-        <v>85575407.294950068</v>
+        <v>46262436.901606247</v>
       </c>
     </row>
     <row r="273" spans="1:65" ht="19.5">
       <c r="C273">
         <f>H272*D273</f>
-        <v>3148839.4841789454</v>
+        <v>1675460.6766653762</v>
       </c>
       <c r="D273">
         <f>D272</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E273" t="s">
         <v>17</v>
@@ -9914,17 +10063,17 @@
       </c>
       <c r="H273">
         <f>H272+C273</f>
-        <v>88724246.779129013</v>
+        <v>47937897.57827162</v>
       </c>
     </row>
     <row r="274" spans="1:65" ht="19.5">
       <c r="C274">
         <f>H273*D274</f>
-        <v>3264704.4319547703</v>
+        <v>1736139.8943430453</v>
       </c>
       <c r="D274">
         <f>D273</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E274" t="s">
         <v>11</v>
@@ -9934,17 +10083,17 @@
       </c>
       <c r="H274">
         <f>H273+C274</f>
-        <v>91988951.211083785</v>
+        <v>49674037.472614668</v>
       </c>
     </row>
     <row r="275" spans="1:65" ht="19.5">
       <c r="C275">
         <f>H274*D275</f>
-        <v>3384832.7555522416</v>
+        <v>1799016.6971441698</v>
       </c>
       <c r="D275">
         <f>D274</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E275" t="s">
         <v>12</v>
@@ -9954,17 +10103,17 @@
       </c>
       <c r="H275">
         <f>H274+C275</f>
-        <v>95373783.966636032</v>
+        <v>51473054.169758841</v>
       </c>
     </row>
     <row r="276" spans="1:65" ht="19.5">
       <c r="C276">
         <f>H275*D276</f>
-        <v>3509381.3304867381</v>
+        <v>1864170.6737740699</v>
       </c>
       <c r="D276">
         <f>D275</f>
-        <v>0.036796079431161095</v>
+        <v>0.03621643797599438</v>
       </c>
       <c r="E276" t="s">
         <v>13</v>
@@ -9974,7 +10123,7 @@
       </c>
       <c r="H276">
         <f>H275+C276</f>
-        <v>98883165.297122777</v>
+        <v>53337224.843532912</v>
       </c>
     </row>
     <row r="277" spans="1:65" ht="19.5">

--- a/converted.d/covid-19_progression_math.xlsx
+++ b/converted.d/covid-19_progression_math.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18" count="18">
   <si>
     <t>Non-</t>
   </si>
@@ -80,18 +80,16 @@
   <si>
     <t>Sat</t>
   </si>
-  <si>
-    <t>r: +3</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt formatCode="0.0%_);(0.0%)" numFmtId="100"/>
     <numFmt formatCode="d-mmm-yyyy" numFmtId="101"/>
     <numFmt formatCode="0%_);(0%)" numFmtId="102"/>
+    <numFmt formatCode="0.000_);(0.000)" numFmtId="103"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -134,7 +132,7 @@
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
@@ -154,6 +152,9 @@
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="102" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="103" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
   </cellXfs>
@@ -251,7 +252,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Last revision:  Tuesday, 06 Apr 2020 21:42 UTC</t>
+          <t>Last revision:  Thursday, 09 Apr 2020 06:10 UTC</t>
         </is>
       </c>
     </row>
@@ -3910,10 +3911,8 @@
       <c r="I37">
         <v>6906</v>
       </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>*366614*</t>
-        </is>
+      <c r="J37">
+        <v>366667</v>
       </c>
       <c r="K37">
         <f>M37+Q37+U37+Y37+AC37+AG37+AK37+AO37+AS37</f>
@@ -3943,11 +3942,6 @@
         <f>S36+2</f>
         <v>31</v>
       </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>UPDATED - finished this line's entry and won't require further update.</t>
-        </is>
-      </c>
       <c r="U37">
         <f>U36+306</f>
         <v>1468</v>
@@ -4039,11 +4033,6 @@
       <c r="AY37">
         <f>O37+S37+W37+AA37+AE37+AI37+AM37+AQ37+AU37</f>
         <v>206</v>
-      </c>
-      <c r="AZ37" t="inlineStr">
-        <is>
-          <t>CORRECT - no errors seen.  Ready for permanent record.</t>
-        </is>
       </c>
       <c r="BA37" s="5">
         <v>43879</v>
@@ -4081,654 +4070,762 @@
       <c r="I38">
         <v>7781</v>
       </c>
-      <c r="J38" s="1"/>
+      <c r="J38">
+        <v>396223</v>
+      </c>
       <c r="K38">
         <f>M38+Q38+U38+Y38+AC38+AG38+AK38+AO38+AS38</f>
         <v>7781</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="M38">
+        <f>M37+25</f>
+        <v>255</v>
+      </c>
+      <c r="N38">
+        <f>N37+2</f>
+        <v>17</v>
+      </c>
+      <c r="O38">
+        <f>O37+1</f>
+        <v>9</v>
+      </c>
+      <c r="Q38">
+        <f>Q37+163</f>
+        <v>1045</v>
+      </c>
+      <c r="R38">
+        <f>R37+30</f>
+        <v>243</v>
+      </c>
+      <c r="S38">
+        <f>S37+17</f>
+        <v>48</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>UPDATED - finished this line's entry and won't require further update.</t>
+        </is>
+      </c>
+      <c r="U38">
+        <f>U37+196</f>
+        <v>1664</v>
+      </c>
+      <c r="V38">
+        <f>V37+6</f>
+        <v>390</v>
+      </c>
+      <c r="W38">
+        <f>W37+19</f>
+        <v>60</v>
+      </c>
+      <c r="Y38">
+        <f>Y37+417</f>
+        <v>4136</v>
+      </c>
+      <c r="Z38">
+        <f>Z37+41</f>
+        <v>613</v>
+      </c>
+      <c r="AA38">
+        <f>AA37+31</f>
+        <v>132</v>
+      </c>
+      <c r="AC38">
+        <f>AC37+15</f>
+        <v>150</v>
+      </c>
+      <c r="AD38">
+        <f>AD37+4</f>
+        <v>26</v>
+      </c>
+      <c r="AE38">
+        <f>AE37+0</f>
+        <v>7</v>
+      </c>
+      <c r="AG38">
+        <f>AG37+8</f>
+        <v>111</v>
+      </c>
+      <c r="AH38">
+        <f>AH37+1</f>
+        <v>4</v>
+      </c>
+      <c r="AI38">
+        <f>AI37+0</f>
+        <v>13</v>
+      </c>
+      <c r="AK38">
+        <f>AK37+3</f>
+        <v>43</v>
+      </c>
+      <c r="AL38">
+        <f>AL37+1</f>
+        <v>3</v>
+      </c>
+      <c r="AM38">
+        <f>AM37+0</f>
+        <v>1</v>
+      </c>
+      <c r="AO38">
+        <f>AO37+20</f>
+        <v>85</v>
+      </c>
+      <c r="AP38">
+        <f>AP37+2</f>
+        <v>12</v>
+      </c>
+      <c r="AQ38">
+        <f>AQ37+0</f>
+        <v>4</v>
+      </c>
+      <c r="AS38">
+        <f>AS37+28</f>
+        <v>292</v>
+      </c>
+      <c r="AU38">
+        <f>AU37+3</f>
+        <v>3</v>
+      </c>
+      <c r="AW38">
+        <f>M38+Q38+U38+Y38+AC38+AG38+AK38+AO38+AS38</f>
+        <v>7781</v>
+      </c>
+      <c r="AX38">
+        <f>N38+R38+V38+Z38+AD38+AH38+AL38+AP38+AT38</f>
+        <v>1308</v>
+      </c>
+      <c r="AY38">
+        <f>O38+S38+W38+AA38+AE38+AI38+AM38+AQ38+AU38</f>
+        <v>277</v>
+      </c>
+      <c r="AZ38" t="inlineStr">
+        <is>
+          <t>CORRECT - no errors seen.  Ready for permanent record.</t>
+        </is>
+      </c>
+      <c r="BA38" s="5">
+        <v>43880</v>
+      </c>
+      <c r="BB38">
+        <v>13</v>
+      </c>
+      <c r="BC38">
+        <f>(BB38/BB37)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:65" ht="19.5">
+      <c r="C39">
+        <f>H38*D39</f>
+        <v>999.99999999041893</v>
+      </c>
+      <c r="D39">
+        <v>0.12851818532299999</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="5">
+        <v>43929</v>
+      </c>
+      <c r="G39" s="2">
+        <f>H39*50</f>
+        <v>439049.99999646924</v>
+      </c>
+      <c r="H39">
+        <f>H38+C39</f>
+        <v>8780.999999929385</v>
+      </c>
+      <c r="I39">
+        <v>8781</v>
+      </c>
+      <c r="J39">
+        <v>429052</v>
+      </c>
+      <c r="K39">
+        <f>M39+Q39+U39+Y39+AC39+AG39+AK39+AO39+AS39</f>
+        <v>8781</v>
+      </c>
+      <c r="L39" t="inlineStr">
         <is>
           <t>NEW:</t>
         </is>
       </c>
-      <c r="M38">
-        <f>M37+25</f>
-        <v>255</v>
-      </c>
-      <c r="N38">
-        <f>N37+2</f>
-        <v>17</v>
-      </c>
-      <c r="O38">
-        <f>O37+1</f>
-        <v>9</v>
-      </c>
-      <c r="Q38">
-        <f>Q37+163</f>
-        <v>1045</v>
-      </c>
-      <c r="R38">
-        <f>R37+30</f>
-        <v>243</v>
-      </c>
-      <c r="S38">
-        <f>S37+17</f>
-        <v>48</v>
-      </c>
-      <c r="T38" t="inlineStr">
+      <c r="M39">
+        <f>M38+37</f>
+        <v>292</v>
+      </c>
+      <c r="N39">
+        <f>N38+3</f>
+        <v>20</v>
+      </c>
+      <c r="O39">
+        <f>O38+3</f>
+        <v>12</v>
+      </c>
+      <c r="Q39">
+        <f>Q38+245</f>
+        <v>1290</v>
+      </c>
+      <c r="R39">
+        <f>R38+8</f>
+        <v>251</v>
+      </c>
+      <c r="S39">
+        <f>S38+20</f>
+        <v>68</v>
+      </c>
+      <c r="T39" t="inlineStr">
         <is>
           <t>PROPOSED - open to proposal now - subject to revision.</t>
         </is>
       </c>
-      <c r="U38">
-        <f>U37+196</f>
-        <v>1664</v>
-      </c>
-      <c r="V38">
-        <f>V37+6</f>
-        <v>390</v>
-      </c>
-      <c r="W38">
-        <f>W37+19</f>
-        <v>60</v>
-      </c>
-      <c r="Y38">
-        <f>Y37+417</f>
-        <v>4136</v>
-      </c>
-      <c r="Z38">
-        <f>Z37+41</f>
-        <v>613</v>
-      </c>
-      <c r="AA38">
-        <f>AA37+31</f>
-        <v>132</v>
-      </c>
-      <c r="AC38">
-        <f>AC37+15</f>
-        <v>150</v>
-      </c>
-      <c r="AD38">
-        <f>AD37+4</f>
-        <v>26</v>
-      </c>
-      <c r="AE38">
-        <f>AE37+0</f>
+      <c r="U39">
+        <f>U38+281</f>
+        <v>1945</v>
+      </c>
+      <c r="V39">
+        <f>V38+38</f>
+        <v>428</v>
+      </c>
+      <c r="W39">
+        <f>W38+10</f>
+        <v>70</v>
+      </c>
+      <c r="Y39">
+        <f>Y38+281</f>
+        <v>4417</v>
+      </c>
+      <c r="Z39">
+        <f>Z38+52</f>
+        <v>665</v>
+      </c>
+      <c r="AA39">
+        <f>AA38+23</f>
+        <v>155</v>
+      </c>
+      <c r="AC39">
+        <f>AC38+24</f>
+        <v>174</v>
+      </c>
+      <c r="AD39">
+        <f>AD38+2</f>
+        <v>28</v>
+      </c>
+      <c r="AE39">
+        <f>AE38+2</f>
+        <v>9</v>
+      </c>
+      <c r="AG39">
+        <f>AG38+17</f>
+        <v>128</v>
+      </c>
+      <c r="AH39">
+        <f>AH38+3</f>
         <v>7</v>
       </c>
-      <c r="AG38">
-        <f>AG37+8</f>
-        <v>111</v>
-      </c>
-      <c r="AH38">
-        <f>AH37+1</f>
-        <v>4</v>
-      </c>
-      <c r="AI38">
-        <f>AI37+0</f>
+      <c r="AI39">
+        <f>AI38+0</f>
         <v>13</v>
       </c>
-      <c r="AK38">
-        <f>AK37+3</f>
-        <v>43</v>
-      </c>
-      <c r="AL38">
-        <f>AL37+1</f>
+      <c r="AK39">
+        <f>AK38+6</f>
+        <v>49</v>
+      </c>
+      <c r="AL39">
+        <f>AL38+0</f>
         <v>3</v>
       </c>
-      <c r="AM38">
-        <f>AM37+0</f>
+      <c r="AM39">
+        <f>AM38+0</f>
         <v>1</v>
       </c>
-      <c r="AO38">
-        <f>AO37+20</f>
-        <v>85</v>
-      </c>
-      <c r="AP38">
-        <f>AP37+2</f>
-        <v>12</v>
-      </c>
-      <c r="AQ38">
-        <f>AQ37+0</f>
-        <v>4</v>
-      </c>
-      <c r="AS38">
-        <f>AS37+28</f>
-        <v>292</v>
-      </c>
-      <c r="AU38">
-        <f>AU37+3</f>
-        <v>3</v>
-      </c>
-      <c r="AW38">
-        <f>M38+Q38+U38+Y38+AC38+AG38+AK38+AO38+AS38</f>
-        <v>7781</v>
-      </c>
-      <c r="AX38">
-        <f>N38+R38+V38+Z38+AD38+AH38+AL38+AP38+AT38</f>
-        <v>1308</v>
-      </c>
-      <c r="AY38">
-        <f>O38+S38+W38+AA38+AE38+AI38+AM38+AQ38+AU38</f>
-        <v>277</v>
-      </c>
-      <c r="BA38" s="5">
-        <v>43880</v>
-      </c>
-      <c r="BB38">
+      <c r="AO39">
+        <f>AO38+35</f>
+        <v>120</v>
+      </c>
+      <c r="AP39">
+        <f>AP38+4</f>
+        <v>16</v>
+      </c>
+      <c r="AQ39">
+        <f>AQ38+1</f>
+        <v>5</v>
+      </c>
+      <c r="AS39">
+        <f>AS38+74</f>
+        <v>366</v>
+      </c>
+      <c r="AU39">
+        <f>AU38+-1</f>
+        <v>2</v>
+      </c>
+      <c r="AW39">
+        <f>M39+Q39+U39+Y39+AC39+AG39+AK39+AO39+AS39</f>
+        <v>8781</v>
+      </c>
+      <c r="AX39">
+        <f>N39+R39+V39+Z39+AD39+AH39+AL39+AP39+AT39</f>
+        <v>1418</v>
+      </c>
+      <c r="AY39">
+        <f>O39+S39+W39+AA39+AE39+AI39+AM39+AQ39+AU39</f>
+        <v>335</v>
+      </c>
+      <c r="BA39" s="5">
+        <v>43881</v>
+      </c>
+      <c r="BB39">
         <v>13</v>
       </c>
-      <c r="BC38">
-        <f>(BB38/BB37)-1</f>
+      <c r="BC39">
+        <f>(BB39/BB38)-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:65" ht="19.5">
-      <c r="C39">
-        <f>H38*D39</f>
-        <v>888.16553303333581</v>
-      </c>
-      <c r="D39">
-        <f>D38/1.1100000000000001</f>
-        <v>0.11414542257297296</v>
-      </c>
-      <c r="E39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" t="inlineStr">
+    <row r="40" spans="1:65" ht="19.5">
+      <c r="C40">
+        <f>H39*D40</f>
+        <v>1016.6830498307996</v>
+      </c>
+      <c r="D40">
+        <f>D39/1.1100000000000001</f>
+        <v>0.11578214893963963</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" t="inlineStr">
         <is>
           <t>day two</t>
         </is>
       </c>
-      <c r="G39" s="2">
-        <f>H39*50</f>
-        <v>433458.27664861508</v>
-      </c>
-      <c r="H39">
-        <f>H38+C39</f>
-        <v>8669.1655329723017</v>
-      </c>
-      <c r="J39" s="1"/>
-      <c r="BA39" s="5">
-        <v>43881</v>
-      </c>
-      <c r="BB39">
-        <v>13</v>
-      </c>
-      <c r="BC39">
-        <f>(BB39/BB38)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:65" ht="19.5">
-      <c r="C40">
-        <f>H39*D40</f>
-        <v>891.48248929385193</v>
-      </c>
-      <c r="D40">
-        <f>D39/1.1100000000000001</f>
-        <v>0.10283371402970536</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="G40" s="2">
+        <f>H40*50</f>
+        <v>489884.15248800919</v>
+      </c>
+      <c r="H40">
+        <f>H39+C40</f>
+        <v>9797.6830497601841</v>
+      </c>
+      <c r="BA40" s="5">
+        <v>43882</v>
+      </c>
+      <c r="BB40">
         <v>15</v>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="BC40">
+        <f>(BB40/BB39)-1</f>
+        <v>0.15384615384615374</v>
+      </c>
+    </row>
+    <row r="41" spans="1:65" ht="19.5">
+      <c r="C41">
+        <f>H40*D41</f>
+        <v>1021.9790974150596</v>
+      </c>
+      <c r="D41">
+        <f>D40/1.1100000000000001</f>
+        <v>0.10430824228796362</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" t="inlineStr">
         <is>
           <t>day three</t>
         </is>
       </c>
-      <c r="G40" s="2">
-        <f>H40*50</f>
-        <v>478032.40111330769</v>
-      </c>
-      <c r="H40">
-        <f>H39+C40</f>
-        <v>9560.6480222661539</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="G41" s="2">
+        <f>H41*50</f>
+        <v>540983.10735876218</v>
+      </c>
+      <c r="H41">
+        <f>H40+C41</f>
+        <v>10819.662147175244</v>
+      </c>
+      <c r="J41" t="inlineStr">
         <is>
           <t>*preliminary*</t>
         </is>
       </c>
-      <c r="BA40" s="5">
-        <v>43882</v>
-      </c>
-      <c r="BB40">
+      <c r="BA41" s="5">
+        <v>43883</v>
+      </c>
+      <c r="BB41">
         <v>15</v>
       </c>
-      <c r="BC40">
-        <f>(BB40/BB39)-1</f>
-        <v>0.15384615384615374</v>
-      </c>
-    </row>
-    <row r="41" spans="1:65" ht="19.5">
-      <c r="C41">
-        <f>H40*D41</f>
-        <v>885.72697717151857</v>
-      </c>
-      <c r="D41">
-        <f>D40/1.1100000000000001</f>
-        <v>0.092642985612347156</v>
-      </c>
-      <c r="E41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" t="inlineStr">
+      <c r="BC41">
+        <f>(BB41/BB40)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:65" ht="19.5">
+      <c r="C42">
+        <f>H41*D42</f>
+        <v>1016.7386853346522</v>
+      </c>
+      <c r="D42">
+        <f>D41/1.1100000000000001</f>
+        <v>0.093971389448615869</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" t="inlineStr">
         <is>
           <t>day four</t>
         </is>
       </c>
-      <c r="G41" s="2">
-        <f>H41*50</f>
-        <v>522318.7499718836</v>
-      </c>
-      <c r="H41">
-        <f>H40+C41</f>
-        <v>10446.374999437672</v>
-      </c>
-      <c r="J41" s="1"/>
-      <c r="K41" t="inlineStr">
+      <c r="G42" s="2">
+        <f>H42*50</f>
+        <v>591820.04162549484</v>
+      </c>
+      <c r="H42">
+        <f>H41+C42</f>
+        <v>11836.400832509897</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" t="inlineStr">
         <is>
           <t>TODAY:</t>
         </is>
       </c>
-      <c r="M41" s="6">
-        <f>(M38/M37)-1</f>
-        <v>0.10869565217391308</v>
-      </c>
-      <c r="N41" s="6">
-        <f>(N38/N37)-1</f>
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="O41" s="6">
-        <f>(O38/O37)-1</f>
-        <v>0.125</v>
-      </c>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="6">
-        <f>(Q38/Q37)-1</f>
-        <v>0.18480725623582761</v>
-      </c>
-      <c r="R41" s="6">
-        <f>(R38/R37)-1</f>
-        <v>0.14084507042253525</v>
-      </c>
-      <c r="S41" s="6">
-        <f>(S38/S37)-1</f>
-        <v>0.54838709677419351</v>
-      </c>
-      <c r="T41" s="4"/>
-      <c r="U41" s="6">
-        <f>(U38/U37)-1</f>
-        <v>0.13351498637602188</v>
-      </c>
-      <c r="V41" s="6">
-        <f>(V38/V37)-1</f>
-        <v>0.015625</v>
-      </c>
-      <c r="W41" s="6">
-        <f>(W38/W37)-1</f>
-        <v>0.46341463414634143</v>
-      </c>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="6">
-        <f>(Y38/Y37)-1</f>
-        <v>0.11212691583759082</v>
-      </c>
-      <c r="Z41" s="6">
-        <f>(Z38/Z37)-1</f>
-        <v>0.071678321678321666</v>
-      </c>
-      <c r="AA41" s="6">
-        <f>(AA38/AA37)-1</f>
-        <v>0.30693069306930698</v>
-      </c>
-      <c r="AB41" s="4"/>
-      <c r="AC41" s="6">
-        <f>(AC38/AC37)-1</f>
-        <v>0.11111111111111116</v>
-      </c>
-      <c r="AD41" s="6">
-        <f>(AD38/AD37)-1</f>
-        <v>0.18181818181818188</v>
-      </c>
-      <c r="AE41" s="6">
-        <f>(AE38/AE37)-1</f>
+      <c r="M42" s="6">
+        <f>(M39/M38)-1</f>
+        <v>0.1450980392156862</v>
+      </c>
+      <c r="N42" s="6">
+        <f>(N39/N38)-1</f>
+        <v>0.17647058823529416</v>
+      </c>
+      <c r="O42" s="6">
+        <f>(O39/O38)-1</f>
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="6">
+        <f>(Q39/Q38)-1</f>
+        <v>0.23444976076555024</v>
+      </c>
+      <c r="R42" s="6">
+        <f>(R39/R38)-1</f>
+        <v>0.03292181069958855</v>
+      </c>
+      <c r="S42" s="6">
+        <f>(S39/S38)-1</f>
+        <v>0.41666666666666674</v>
+      </c>
+      <c r="T42" s="4"/>
+      <c r="U42" s="6">
+        <f>(U39/U38)-1</f>
+        <v>0.16887019230769229</v>
+      </c>
+      <c r="V42" s="6">
+        <f>(V39/V38)-1</f>
+        <v>0.097435897435897534</v>
+      </c>
+      <c r="W42" s="6">
+        <f>(W39/W38)-1</f>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="6">
+        <f>(Y39/Y38)-1</f>
+        <v>0.067940038684719539</v>
+      </c>
+      <c r="Z42" s="6">
+        <f>(Z39/Z38)-1</f>
+        <v>0.084828711256117462</v>
+      </c>
+      <c r="AA42" s="6">
+        <f>(AA39/AA38)-1</f>
+        <v>0.17424242424242431</v>
+      </c>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="6">
+        <f>(AC39/AC38)-1</f>
+        <v>0.15999999999999992</v>
+      </c>
+      <c r="AD42" s="6">
+        <f>(AD39/AD38)-1</f>
+        <v>0.076923076923076872</v>
+      </c>
+      <c r="AE42" s="6">
+        <f>(AE39/AE38)-1</f>
+        <v>0.28571428571428581</v>
+      </c>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="6">
+        <f>(AG39/AG38)-1</f>
+        <v>0.15315315315315314</v>
+      </c>
+      <c r="AH42" s="6">
+        <f>(AH39/AH38)-1</f>
+        <v>0.75</v>
+      </c>
+      <c r="AI42" s="6">
+        <f>(AI39/AI38)-1</f>
         <v>0</v>
       </c>
-      <c r="AF41" s="4"/>
-      <c r="AG41" s="6">
-        <f>(AG38/AG37)-1</f>
-        <v>0.077669902912621325</v>
-      </c>
-      <c r="AH41" s="6">
-        <f>(AH38/AH37)-1</f>
+      <c r="AJ42" s="4"/>
+      <c r="AK42" s="6">
+        <f>(AK39/AK38)-1</f>
+        <v>0.13953488372093026</v>
+      </c>
+      <c r="AL42" s="6">
+        <f>(AL39/AL38)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AM42" s="6">
+        <f>(AM39/AM38)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AN42" s="4"/>
+      <c r="AO42" s="6">
+        <f>(AO39/AO38)-1</f>
+        <v>0.41176470588235303</v>
+      </c>
+      <c r="AP42" s="6">
+        <f>(AP39/AP38)-1</f>
         <v>0.33333333333333326</v>
       </c>
-      <c r="AI41" s="6">
-        <f>(AI38/AI37)-1</f>
+      <c r="AQ42" s="6">
+        <f>(AQ39/AQ38)-1</f>
+        <v>0.25</v>
+      </c>
+      <c r="AR42" s="4"/>
+      <c r="AS42" s="6">
+        <f>(AS39/AS38)-1</f>
+        <v>0.25342465753424648</v>
+      </c>
+      <c r="AT42" s="6"/>
+      <c r="AU42" s="6">
+        <f>(AU39/AU38)-1</f>
+        <v>-0.33333333333333337</v>
+      </c>
+      <c r="AV42" s="4"/>
+      <c r="AW42" s="6">
+        <f>(AW39/AW38)-1</f>
+        <v>0.12851818532322334</v>
+      </c>
+      <c r="AX42" s="6">
+        <f>(AX39/AX38)-1</f>
+        <v>0.084097859327217028</v>
+      </c>
+      <c r="AY42" s="6">
+        <f>(AY39/AY38)-1</f>
+        <v>0.20938628158844774</v>
+      </c>
+      <c r="BA42" s="5">
+        <v>43884</v>
+      </c>
+      <c r="BB42">
+        <v>15</v>
+      </c>
+      <c r="BC42">
+        <f>(BB42/BB41)-1</f>
         <v>0</v>
       </c>
-      <c r="AJ41" s="4"/>
-      <c r="AK41" s="6">
-        <f>(AK38/AK37)-1</f>
-        <v>0.074999999999999956</v>
-      </c>
-      <c r="AL41" s="6">
-        <f>(AL38/AL37)-1</f>
-        <v>0.5</v>
-      </c>
-      <c r="AM41" s="6">
-        <f>(AM38/AM37)-1</f>
-        <v>0</v>
-      </c>
-      <c r="AN41" s="4"/>
-      <c r="AO41" s="6">
-        <f>(AO38/AO37)-1</f>
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="AP41" s="6">
-        <f>(AP38/AP37)-1</f>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="AQ41" s="6">
-        <f>(AQ38/AQ37)-1</f>
-        <v>0</v>
-      </c>
-      <c r="AR41" s="4"/>
-      <c r="AS41" s="6">
-        <f>(AS38/AS37)-1</f>
-        <v>0.10606060606060597</v>
-      </c>
-      <c r="AT41" s="6"/>
-      <c r="AU41" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AV41" s="4"/>
-      <c r="AW41" s="6">
-        <f>(AW38/AW37)-1</f>
-        <v>0.12670141905589349</v>
-      </c>
-      <c r="AX41" s="6">
-        <f>(AX38/AX37)-1</f>
-        <v>0.071253071253071232</v>
-      </c>
-      <c r="AY41" s="6">
-        <f>(AY38/AY37)-1</f>
-        <v>0.34466019417475735</v>
-      </c>
-      <c r="BA41" s="5">
-        <v>43883</v>
-      </c>
-      <c r="BB41">
-        <v>15</v>
-      </c>
-      <c r="BC41">
-        <f>(BB41/BB40)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:65" ht="19.5">
-      <c r="C42">
-        <f>H41*D42</f>
-        <v>871.87690880548405</v>
-      </c>
-      <c r="D42">
-        <f>D41/1.1100000000000001</f>
-        <v>0.083462149200312752</v>
-      </c>
-      <c r="E42" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" t="inlineStr">
+    </row>
+    <row r="43" spans="1:65" ht="19.5">
+      <c r="C43">
+        <f>H42*D43</f>
+        <v>1002.056785857395</v>
+      </c>
+      <c r="D43">
+        <f>D42/1.1100000000000001</f>
+        <v>0.084658909413167435</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="inlineStr">
         <is>
           <t>day five</t>
         </is>
       </c>
-      <c r="G42" s="2">
-        <f>H42*50</f>
-        <v>565912.59541215783</v>
-      </c>
-      <c r="H42">
-        <f>H41+C42</f>
-        <v>11318.251908243155</v>
-      </c>
-      <c r="J42" s="1"/>
-      <c r="BA42" s="5">
-        <v>43884</v>
-      </c>
-      <c r="BB42">
-        <v>15</v>
-      </c>
-      <c r="BC42">
-        <f>(BB42/BB41)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:65" ht="19.5">
-      <c r="C43">
-        <f>H42*D43</f>
-        <v>851.03209860586912</v>
-      </c>
-      <c r="D43">
-        <f>D42/1.1100000000000001</f>
-        <v>0.075191125405687162</v>
-      </c>
-      <c r="E43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" s="2">
+        <f>H43*50</f>
+        <v>641922.88091836451</v>
+      </c>
+      <c r="H43">
+        <f>H42+C43</f>
+        <v>12838.457618367291</v>
+      </c>
+      <c r="BA43" s="5">
+        <v>43885</v>
+      </c>
+      <c r="BB43">
+        <v>51</v>
+      </c>
+      <c r="BC43">
+        <f>(BB43/BB42)-1</f>
+        <v>2.3999999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:65" ht="19.5">
+      <c r="C44">
+        <f>H43*D44</f>
+        <v>979.18001848481595</v>
+      </c>
+      <c r="D44">
+        <f>D43/1.1100000000000001</f>
+        <v>0.076269287759610296</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="inlineStr">
         <is>
           <t>above: moving target</t>
         </is>
       </c>
-      <c r="G43" s="2">
-        <f>H43*50</f>
-        <v>608464.20034245122</v>
-      </c>
-      <c r="H43">
-        <f>H42+C43</f>
-        <v>12169.284006849024</v>
-      </c>
-      <c r="J43" s="1"/>
-      <c r="BA43" s="5">
-        <v>43885</v>
-      </c>
-      <c r="BB43">
-        <v>51</v>
-      </c>
-      <c r="BC43">
-        <f>(BB43/BB42)-1</f>
-        <v>2.3999999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:65" ht="19.5">
-      <c r="C44">
-        <f>H43*D44</f>
-        <v>824.34428815892625</v>
-      </c>
-      <c r="D44">
-        <f>D43/1.1100000000000001</f>
-        <v>0.067739752617736182</v>
-      </c>
-      <c r="E44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="5">
-        <v>43934</v>
-      </c>
       <c r="G44" s="2">
         <f>H44*50</f>
-        <v>649681.41475039755</v>
+        <v>690881.8818426053</v>
       </c>
       <c r="H44">
         <f>H43+C44</f>
-        <v>12993.628295007951</v>
-      </c>
-      <c r="K44" t="inlineStr">
+        <v>13817.637636852107</v>
+      </c>
+      <c r="BA44" s="5">
+        <v>43886</v>
+      </c>
+      <c r="BB44">
+        <v>51</v>
+      </c>
+      <c r="BC44">
+        <f>(BB44/BB43)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:65" ht="19.5">
+      <c r="C45">
+        <f>H44*D45</f>
+        <v>949.42466764242772</v>
+      </c>
+      <c r="D45">
+        <f>D44/1.1100000000000001</f>
+        <v>0.068711070053702958</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="5">
+        <v>43935</v>
+      </c>
+      <c r="G45" s="2">
+        <f>H45*50</f>
+        <v>738353.11522472673</v>
+      </c>
+      <c r="H45">
+        <f>H44+C45</f>
+        <v>14767.062304494535</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>Yesterday:</t>
         </is>
       </c>
-      <c r="M44" s="6">
-        <f>0.17000000000000001</f>
-        <v>0.17000000000000001</v>
-      </c>
-      <c r="N44" s="6">
-        <f>0</f>
+      <c r="M45" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="N45" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="O45" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6">
+        <v>0.17999999999999999</v>
+      </c>
+      <c r="R45" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S45" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="V45" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="W45" s="6">
+        <v>0.46000000000000002</v>
+      </c>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="Z45" s="6">
+        <v>0.070000000000000007</v>
+      </c>
+      <c r="AA45" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="AD45" s="6">
+        <v>0.17999999999999999</v>
+      </c>
+      <c r="AE45" s="6">
         <v>0</v>
       </c>
-      <c r="O44" s="6">
-        <f>0.33000000000000002</f>
+      <c r="AF45" s="6"/>
+      <c r="AG45" s="6">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="AH45" s="6">
         <v>0.33000000000000002</v>
       </c>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6">
-        <f>0.17000000000000001</f>
-        <v>0.17000000000000001</v>
-      </c>
-      <c r="R44" s="6">
-        <f>0.13</f>
+      <c r="AI45" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="6"/>
+      <c r="AK45" s="6">
+        <v>0.070000000000000007</v>
+      </c>
+      <c r="AL45" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AM45" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN45" s="6"/>
+      <c r="AO45" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="AP45" s="6">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="AQ45" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR45" s="6"/>
+      <c r="AS45" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="AT45" s="6"/>
+      <c r="AU45" s="6" t="inlineStr">
+        <is>
+          <t>r: +3</t>
+        </is>
+      </c>
+      <c r="AV45" s="6"/>
+      <c r="AW45" s="6">
         <v>0.13</v>
       </c>
-      <c r="S44" s="6">
-        <f>0.070000000000000007</f>
+      <c r="AX45" s="6">
         <v>0.070000000000000007</v>
       </c>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6">
-        <f>0.26000000000000001</f>
-        <v>0.26000000000000001</v>
-      </c>
-      <c r="V44" s="6">
-        <f>0.029999999999999999</f>
-        <v>0.029999999999999999</v>
-      </c>
-      <c r="W44" s="6">
-        <f>0.14000000000000001</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="X44" s="6"/>
-      <c r="Y44" s="6">
-        <f>0.22</f>
-        <v>0.22</v>
-      </c>
-      <c r="Z44" s="6">
-        <f>0.080000000000000002</f>
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="AA44" s="6">
-        <f>0.050000000000000003</f>
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="AB44" s="6"/>
-      <c r="AC44" s="6">
-        <f>0.23000000000000001</f>
-        <v>0.23000000000000001</v>
-      </c>
-      <c r="AD44" s="6">
-        <f>0.16</f>
-        <v>0.16</v>
-      </c>
-      <c r="AE44" s="6">
-        <f>0.40000000000000002</f>
-        <v>0.40000000000000002</v>
-      </c>
-      <c r="AF44" s="6"/>
-      <c r="AG44" s="6">
-        <f>0.10000000000000001</f>
-        <v>0.10000000000000001</v>
-      </c>
-      <c r="AH44" s="6">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="AI44" s="6">
-        <f>0.17999999999999999</f>
-        <v>0.17999999999999999</v>
-      </c>
-      <c r="AJ44" s="6"/>
-      <c r="AK44" s="6">
-        <f>0.25</f>
-        <v>0.25</v>
-      </c>
-      <c r="AL44" s="6">
-        <f>-0.33000000000000002</f>
-        <v>-0.33000000000000002</v>
-      </c>
-      <c r="AM44" s="6">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="AN44" s="6"/>
-      <c r="AO44" s="6">
-        <f>0.14000000000000001</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AP44" s="6">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="AQ44" s="6">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="AR44" s="6"/>
-      <c r="AS44" s="6">
-        <f>0.19</f>
-        <v>0.19</v>
-      </c>
-      <c r="AT44" s="6"/>
-      <c r="AU44" s="6">
-        <f>-1</f>
-        <v>-1</v>
-      </c>
-      <c r="AV44" s="6"/>
-      <c r="AW44" s="6">
-        <f>0.22</f>
-        <v>0.22</v>
-      </c>
-      <c r="AX44" s="6">
-        <f>0.070000000000000007</f>
-        <v>0.070000000000000007</v>
-      </c>
-      <c r="AY44" s="6">
-        <f>0.089999999999999997</f>
-        <v>0.089999999999999997</v>
-      </c>
-      <c r="BA44" s="5">
-        <v>43886</v>
-      </c>
-      <c r="BB44">
-        <v>51</v>
-      </c>
-      <c r="BC44">
-        <f>(BB44/BB43)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:65" ht="19.5">
-      <c r="C45">
-        <f>H44*D45</f>
-        <v>792.95960928887905</v>
-      </c>
-      <c r="D45">
-        <f>D44/1.1100000000000001</f>
-        <v>0.061026804160122683</v>
-      </c>
-      <c r="E45" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="5">
-        <v>43935</v>
-      </c>
-      <c r="G45" s="2">
-        <f>H45*50</f>
-        <v>689329.39521484147</v>
-      </c>
-      <c r="H45">
-        <f>H44+C45</f>
-        <v>13786.58790429683</v>
+      <c r="AY45" s="6">
+        <v>0.34000000000000002</v>
       </c>
       <c r="BA45" s="5">
         <v>43887</v>
@@ -4744,11 +4841,11 @@
     <row r="46" spans="1:65" ht="19.5">
       <c r="C46">
         <f>H45*D46</f>
-        <v>757.97423429895389</v>
+        <v>914.10869593830648</v>
       </c>
       <c r="D46">
         <f>D45/1.1100000000000001</f>
-        <v>0.054979102846957367</v>
+        <v>0.061901864913245903</v>
       </c>
       <c r="E46" t="s">
         <v>14</v>
@@ -4758,135 +4855,131 @@
       </c>
       <c r="G46" s="2">
         <f>H46*50</f>
-        <v>727228.10692978918</v>
+        <v>784058.55002164212</v>
       </c>
       <c r="H46">
         <f>H45+C46</f>
-        <v>14544.562138595784</v>
-      </c>
-      <c r="J46" s="1"/>
-      <c r="P46" t="inlineStr">
+        <v>15681.171000432842</v>
+      </c>
+      <c r="BA46" s="5">
+        <v>43888</v>
+      </c>
+      <c r="BB46">
+        <v>58</v>
+      </c>
+      <c r="BC46">
+        <f>(BB46/BB45)-1</f>
+        <v>0.017543859649122862</v>
+      </c>
+    </row>
+    <row r="47" spans="1:65" ht="19.5">
+      <c r="C47">
+        <f>H46*D47</f>
+        <v>874.49885491018267</v>
+      </c>
+      <c r="D47">
+        <f>D46/1.1100000000000001</f>
+        <v>0.055767445867789096</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="5">
+        <v>43937</v>
+      </c>
+      <c r="G47" s="2">
+        <f>H47*50</f>
+        <v>827783.49276715121</v>
+      </c>
+      <c r="H47">
+        <f>H46+C47</f>
+        <v>16555.669855343025</v>
+      </c>
+      <c r="P47" t="inlineStr">
         <is>
           <t>older Source: https://portal.ct.gov/Coronavirus/Pages/Governors-Press-Releases</t>
         </is>
       </c>
-      <c r="AQ46" s="6"/>
-      <c r="BA46" s="5">
-        <v>43888</v>
-      </c>
-      <c r="BB46">
-        <v>58</v>
-      </c>
-      <c r="BC46">
-        <f>(BB46/BB45)-1</f>
-        <v>0.017543859649122862</v>
-      </c>
-    </row>
-    <row r="47" spans="1:65" ht="19.5">
-      <c r="C47">
-        <f>H46*D47</f>
-        <v>720.40268259623406</v>
-      </c>
-      <c r="D47">
-        <f>D46/1.1100000000000001</f>
-        <v>0.049530723285547175</v>
-      </c>
-      <c r="E47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="5">
-        <v>43937</v>
-      </c>
-      <c r="G47" s="2">
-        <f>H47*50</f>
-        <v>763248.24105960084</v>
-      </c>
-      <c r="H47">
-        <f>H46+C47</f>
-        <v>15264.964821192018</v>
-      </c>
-      <c r="J47" s="1"/>
-      <c r="AL47" t="inlineStr">
+      <c r="AQ47" s="6"/>
+      <c r="BA47" s="5">
+        <v>43889</v>
+      </c>
+      <c r="BB47">
+        <v>60</v>
+      </c>
+      <c r="BC47">
+        <f>(BB47/BB46)-1</f>
+        <v>0.034482758620689724</v>
+      </c>
+    </row>
+    <row r="48" spans="1:65" ht="19.5">
+      <c r="C48">
+        <f>H47*D48</f>
+        <v>831.77245266921602</v>
+      </c>
+      <c r="D48">
+        <f>D47/1.1100000000000001</f>
+        <v>0.050240942223233415</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="5">
+        <v>43938</v>
+      </c>
+      <c r="G48" s="2">
+        <f>H48*50</f>
+        <v>869372.11540061201</v>
+      </c>
+      <c r="H48">
+        <f>H47+C48</f>
+        <v>17387.44230801224</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="AL48" t="inlineStr">
         <is>
           <t>any zero-to-positive int gets the 'r: +n' entry.</t>
         </is>
       </c>
-      <c r="BA47" s="5">
-        <v>43889</v>
-      </c>
-      <c r="BB47">
-        <v>60</v>
-      </c>
-      <c r="BC47">
-        <f>(BB47/BB46)-1</f>
-        <v>0.034482758620689724</v>
-      </c>
-    </row>
-    <row r="48" spans="1:65" ht="19.5">
-      <c r="C48">
-        <f>H47*D48</f>
-        <v>681.15743110096753</v>
-      </c>
-      <c r="D48">
-        <f>D47/1.1100000000000001</f>
-        <v>0.044622273230222678</v>
-      </c>
-      <c r="E48" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="5">
-        <v>43938</v>
-      </c>
-      <c r="G48" s="2">
-        <f>H48*50</f>
-        <v>797306.11261464923</v>
-      </c>
-      <c r="H48">
-        <f>H47+C48</f>
-        <v>15946.122252292986</v>
-      </c>
-      <c r="P48" t="inlineStr">
+      <c r="BA48" s="5">
+        <v>43890</v>
+      </c>
+      <c r="BB48">
+        <v>68</v>
+      </c>
+      <c r="BC48">
+        <f>(BB48/BB47)-1</f>
+        <v>0.1333333333333333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:65" ht="19.5">
+      <c r="C49">
+        <f>H48*D49</f>
+        <v>786.9923282942766</v>
+      </c>
+      <c r="D49">
+        <f>D48/1.1100000000000001</f>
+        <v>0.045262110111021089</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="5">
+        <v>43939</v>
+      </c>
+      <c r="G49" s="2">
+        <f>H49*50</f>
+        <v>908721.73181532579</v>
+      </c>
+      <c r="H49">
+        <f>H48+C49</f>
+        <v>18174.434636306516</v>
+      </c>
+      <c r="P49" t="inlineStr">
         <is>
           <t>recent Source: https://portal.ct.gov/-/media/Coronavirus/CTDPHCOVID19summary3312020.pdf?la=en</t>
         </is>
       </c>
-      <c r="BA48" s="5">
-        <v>43890</v>
-      </c>
-      <c r="BB48">
-        <v>68</v>
-      </c>
-      <c r="BC48">
-        <f>(BB48/BB47)-1</f>
-        <v>0.1333333333333333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:65" ht="19.5">
-      <c r="C49">
-        <f>H48*D49</f>
-        <v>641.03803973364995</v>
-      </c>
-      <c r="D49">
-        <f>D48/1.1100000000000001</f>
-        <v>0.040200246153353762</v>
-      </c>
-      <c r="E49" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="5">
-        <v>43939</v>
-      </c>
-      <c r="G49" s="2">
-        <f>H49*50</f>
-        <v>829358.01460133167</v>
-      </c>
-      <c r="H49">
-        <f>H48+C49</f>
-        <v>16587.160292026634</v>
-      </c>
-      <c r="AL49" t="s">
-        <v>18</v>
-      </c>
       <c r="BA49" s="5">
         <v>43891</v>
       </c>
@@ -4901,11 +4994,11 @@
     <row r="50" spans="1:65" ht="19.5">
       <c r="C50">
         <f>H49*D50</f>
-        <v>600.72786191405942</v>
+        <v>741.09302857122611</v>
       </c>
       <c r="D50">
         <f>D49/1.1100000000000001</f>
-        <v>0.03621643797599438</v>
+        <v>0.040776675775694673</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
@@ -4915,134 +5008,134 @@
       </c>
       <c r="G50" s="2">
         <f>H50*50</f>
-        <v>859394.40769703465</v>
+        <v>945776.38324388722</v>
       </c>
       <c r="H50">
         <f>H49+C50</f>
-        <v>17187.888153940694</v>
-      </c>
-      <c r="I50" t="inlineStr">
+        <v>18915.527664877744</v>
+      </c>
+      <c r="BA50" s="5">
+        <v>43892</v>
+      </c>
+      <c r="BB50">
+        <v>98</v>
+      </c>
+      <c r="BC50">
+        <f>(BB50/BB49)-1</f>
+        <v>0.32432432432432434</v>
+      </c>
+    </row>
+    <row r="51" spans="1:65" ht="19.5">
+      <c r="C51">
+        <f>H50*D51</f>
+        <v>694.87598082603847</v>
+      </c>
+      <c r="D51">
+        <f>D50/1.1100000000000001</f>
+        <v>0.036735743942067273</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="5">
+        <v>43941</v>
+      </c>
+      <c r="G51" s="2">
+        <f>H51*50</f>
+        <v>980520.18228518916</v>
+      </c>
+      <c r="H51">
+        <f>H50+C51</f>
+        <v>19610.403645703784</v>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>&lt;&lt; transmission under 4 percent growth (per day)</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
+      <c r="P51" t="inlineStr">
         <is>
           <t>export: $ ssconvert -T Gnumeric_stf:stf_csv thisfile.gnumeric thisfile.csv</t>
         </is>
       </c>
-      <c r="BA50" s="5">
-        <v>43892</v>
-      </c>
-      <c r="BB50">
-        <v>98</v>
-      </c>
-      <c r="BC50">
-        <f>(BB50/BB49)-1</f>
-        <v>0.32432432432432434</v>
-      </c>
-    </row>
-    <row r="51" spans="1:65" ht="19.5">
-      <c r="C51">
-        <f>H50*D51</f>
-        <v>622.48408526552168</v>
-      </c>
-      <c r="D51">
-        <f>D50</f>
-        <v>0.03621643797599438</v>
-      </c>
-      <c r="E51" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="5">
-        <v>43941</v>
-      </c>
-      <c r="G51" s="2">
-        <f>H51*50</f>
-        <v>890518.61196031072</v>
-      </c>
-      <c r="H51">
-        <f>H50+C51</f>
-        <v>17810.372239206215</v>
-      </c>
-      <c r="I51" t="inlineStr">
+      <c r="BA51" s="5">
+        <v>43893</v>
+      </c>
+      <c r="BB51">
+        <v>118</v>
+      </c>
+      <c r="BC51">
+        <f>(BB51/BB50)-1</f>
+        <v>0.20408163265306123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:65" ht="19.5">
+      <c r="C52">
+        <f>H51*D52</f>
+        <v>720.40276692915677</v>
+      </c>
+      <c r="D52">
+        <f>D51</f>
+        <v>0.036735743942067273</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="5">
+        <v>43942</v>
+      </c>
+      <c r="G52" s="2">
+        <f>H52*50</f>
+        <v>1016540.320631647</v>
+      </c>
+      <c r="H52">
+        <f>H51+C52</f>
+        <v>20330.806412632941</v>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>(four percent arbitrarily chosen)</t>
         </is>
       </c>
-      <c r="BA51" s="5">
-        <v>43893</v>
-      </c>
-      <c r="BB51">
-        <v>118</v>
-      </c>
-      <c r="BC51">
-        <f>(BB51/BB50)-1</f>
-        <v>0.20408163265306123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:65" ht="19.5">
-      <c r="C52">
-        <f>H51*D52</f>
-        <v>645.02824153058407</v>
-      </c>
-      <c r="D52">
-        <f>D51</f>
-        <v>0.03621643797599438</v>
-      </c>
-      <c r="E52" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="5">
-        <v>43942</v>
-      </c>
-      <c r="G52" s="2">
-        <f>H52*50</f>
-        <v>922770.02403683995</v>
-      </c>
-      <c r="H52">
-        <f>H51+C52</f>
-        <v>18455.4004807368</v>
-      </c>
-      <c r="P52" t="inlineStr">
+      <c r="BA52" s="5">
+        <v>43894</v>
+      </c>
+      <c r="BB52">
+        <v>149</v>
+      </c>
+      <c r="BC52">
+        <f>(BB52/BB51)-1</f>
+        <v>0.26271186440677963</v>
+      </c>
+    </row>
+    <row r="53" spans="1:65" ht="19.5">
+      <c r="C53">
+        <f>H52*D53</f>
+        <v>746.86729851022301</v>
+      </c>
+      <c r="D53">
+        <f>D52</f>
+        <v>0.036735743942067273</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="5">
+        <v>43943</v>
+      </c>
+      <c r="G53" s="2">
+        <f>H53*50</f>
+        <v>1053883.6855571582</v>
+      </c>
+      <c r="H53">
+        <f>H52+C53</f>
+        <v>21077.673711143165</v>
+      </c>
+      <c r="P53" t="inlineStr">
         <is>
           <t>March 31: Hospitalization by county presented in a graphic (only?)</t>
         </is>
       </c>
-      <c r="BA52" s="5">
-        <v>43894</v>
-      </c>
-      <c r="BB52">
-        <v>149</v>
-      </c>
-      <c r="BC52">
-        <f>(BB52/BB51)-1</f>
-        <v>0.26271186440677963</v>
-      </c>
-    </row>
-    <row r="53" spans="1:65" ht="19.5">
-      <c r="C53">
-        <f>H52*D53</f>
-        <v>668.3888668327412</v>
-      </c>
-      <c r="D53">
-        <f>D52</f>
-        <v>0.03621643797599438</v>
-      </c>
-      <c r="E53" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="5">
-        <v>43943</v>
-      </c>
-      <c r="G53" s="2">
-        <f>H53*50</f>
-        <v>956189.4673784771</v>
-      </c>
-      <c r="H53">
-        <f>H52+C53</f>
-        <v>19123.789347569542</v>
-      </c>
       <c r="BA53" s="5">
         <v>43895</v>
       </c>
@@ -5057,11 +5150,11 @@
     <row r="54" spans="1:65" ht="19.5">
       <c r="C54">
         <f>H53*D54</f>
-        <v>692.59553077223438</v>
+        <v>774.30402434699818</v>
       </c>
       <c r="D54">
         <f>D53</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E54" t="s">
         <v>15</v>
@@ -5071,95 +5164,95 @@
       </c>
       <c r="G54" s="2">
         <f>H54*50</f>
-        <v>990819.24391708896</v>
+        <v>1092598.8867745083</v>
       </c>
       <c r="H54">
         <f>H53+C54</f>
-        <v>19816.384878341778</v>
-      </c>
-      <c r="P54" t="inlineStr">
+        <v>21851.977735490163</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>&lt;&lt; 1.09 million (50x measured)</t>
+        </is>
+      </c>
+      <c r="BA54" s="5">
+        <v>43896</v>
+      </c>
+      <c r="BB54">
+        <v>262</v>
+      </c>
+      <c r="BC54">
+        <f>(BB54/BB53)-1</f>
+        <v>0.20737327188940102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:65" ht="19.5">
+      <c r="C55">
+        <f>H54*D55</f>
+        <v>802.74865871872169</v>
+      </c>
+      <c r="D55">
+        <f>D54</f>
+        <v>0.036735743942067273</v>
+      </c>
+      <c r="E55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="5">
+        <v>43945</v>
+      </c>
+      <c r="G55" s="2">
+        <f>H55*50</f>
+        <v>1132736.3197104444</v>
+      </c>
+      <c r="H55">
+        <f>H54+C55</f>
+        <v>22654.726394208887</v>
+      </c>
+      <c r="P55" t="inlineStr">
         <is>
           <t>31 March 23:09 UTC: many cosmetic changes, columns deleted (or added).</t>
         </is>
       </c>
-      <c r="BA54" s="5">
-        <v>43896</v>
-      </c>
-      <c r="BB54">
-        <v>262</v>
-      </c>
-      <c r="BC54">
-        <f>(BB54/BB53)-1</f>
-        <v>0.20737327188940102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:65" ht="19.5">
-      <c r="C55">
-        <f>H54*D55</f>
-        <v>717.67887385489792</v>
-      </c>
-      <c r="D55">
-        <f>D54</f>
-        <v>0.03621643797599438</v>
-      </c>
-      <c r="E55" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="5">
-        <v>43945</v>
-      </c>
-      <c r="G55" s="2">
-        <f>H55*50</f>
-        <v>1026703.1876098338</v>
-      </c>
-      <c r="H55">
-        <f>H54+C55</f>
-        <v>20534.063752196675</v>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>&lt;&lt; 1 million (50x measured)</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
+      <c r="BA55" s="5">
+        <v>43897</v>
+      </c>
+      <c r="BB55">
+        <v>402</v>
+      </c>
+      <c r="BC55">
+        <f>(BB55/BB54)-1</f>
+        <v>0.53435114503816794</v>
+      </c>
+    </row>
+    <row r="56" spans="1:65" ht="19.5">
+      <c r="C56">
+        <f>H55*D56</f>
+        <v>832.2382278952507</v>
+      </c>
+      <c r="D56">
+        <f>D55</f>
+        <v>0.036735743942067273</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="5">
+        <v>43946</v>
+      </c>
+      <c r="G56" s="2">
+        <f>H56*50</f>
+        <v>1174348.2311052068</v>
+      </c>
+      <c r="H56">
+        <f>H55+C56</f>
+        <v>23486.964622104137</v>
+      </c>
+      <c r="P56" t="inlineStr">
         <is>
           <t>Hopefully, no major corruption of data/forumlas present after these major edits.</t>
         </is>
       </c>
-      <c r="BA55" s="5">
-        <v>43897</v>
-      </c>
-      <c r="BB55">
-        <v>402</v>
-      </c>
-      <c r="BC55">
-        <f>(BB55/BB54)-1</f>
-        <v>0.53435114503816794</v>
-      </c>
-    </row>
-    <row r="56" spans="1:65" ht="19.5">
-      <c r="C56">
-        <f>H55*D56</f>
-        <v>743.67064627654531</v>
-      </c>
-      <c r="D56">
-        <f>D55</f>
-        <v>0.03621643797599438</v>
-      </c>
-      <c r="E56" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" s="5">
-        <v>43946</v>
-      </c>
-      <c r="G56" s="2">
-        <f>H56*50</f>
-        <v>1063886.7199236611</v>
-      </c>
-      <c r="H56">
-        <f>H55+C56</f>
-        <v>21277.734398473222</v>
-      </c>
       <c r="BA56" s="5">
         <v>43898</v>
       </c>
@@ -5174,11 +5267,11 @@
     <row r="57" spans="1:65" ht="19.5">
       <c r="C57">
         <f>H56*D57</f>
-        <v>770.60374811198756</v>
+        <v>862.81111833401042</v>
       </c>
       <c r="D57">
         <f>D56</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -5188,247 +5281,247 @@
       </c>
       <c r="G57" s="2">
         <f>H57*50</f>
-        <v>1102416.9073292606</v>
+        <v>1217488.7870219075</v>
       </c>
       <c r="H57">
         <f>H56+C57</f>
-        <v>22048.338146585211</v>
-      </c>
-      <c r="P57" t="inlineStr">
+        <v>24349.775740438148</v>
+      </c>
+      <c r="BA57" s="5">
+        <v>43899</v>
+      </c>
+      <c r="BB57">
+        <v>583</v>
+      </c>
+      <c r="BC57">
+        <f>(BB57/BB56)-1</f>
+        <v>0.12548262548262556</v>
+      </c>
+    </row>
+    <row r="58" spans="1:65" ht="19.5">
+      <c r="C58">
+        <f>H57*D58</f>
+        <v>894.50712664749733</v>
+      </c>
+      <c r="D58">
+        <f>D57</f>
+        <v>0.036735743942067273</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="5">
+        <v>43948</v>
+      </c>
+      <c r="G58" s="2">
+        <f>H58*50</f>
+        <v>1262214.1433542822</v>
+      </c>
+      <c r="H58">
+        <f>H57+C58</f>
+        <v>25244.282867085647</v>
+      </c>
+      <c r="P58" t="inlineStr">
         <is>
           <t>1 April: Column D now formatted as percentile</t>
         </is>
       </c>
-      <c r="BA57" s="5">
-        <v>43899</v>
-      </c>
-      <c r="BB57">
-        <v>583</v>
-      </c>
-      <c r="BC57">
-        <f>(BB57/BB56)-1</f>
-        <v>0.12548262548262556</v>
-      </c>
-    </row>
-    <row r="58" spans="1:65" ht="19.5">
-      <c r="C58">
-        <f>H57*D58</f>
-        <v>798.51227095955414</v>
-      </c>
-      <c r="D58">
-        <f>D57</f>
-        <v>0.03621643797599438</v>
-      </c>
-      <c r="E58" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="5">
-        <v>43948</v>
-      </c>
-      <c r="G58" s="2">
-        <f>H58*50</f>
-        <v>1142342.5208772381</v>
-      </c>
-      <c r="H58">
-        <f>H57+C58</f>
-        <v>22846.850417544763</v>
-      </c>
-      <c r="P58" t="inlineStr">
+      <c r="BA58" s="5">
+        <v>43900</v>
+      </c>
+      <c r="BB58">
+        <v>959</v>
+      </c>
+      <c r="BC58">
+        <f>(BB58/BB57)-1</f>
+        <v>0.64493996569468259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:65" ht="19.5">
+      <c r="C59">
+        <f>H58*D59</f>
+        <v>927.36751140637421</v>
+      </c>
+      <c r="D59">
+        <f>D58</f>
+        <v>0.036735743942067273</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="5">
+        <v>43949</v>
+      </c>
+      <c r="G59" s="2">
+        <f>H59*50</f>
+        <v>1308582.5189246009</v>
+      </c>
+      <c r="H59">
+        <f>H58+C59</f>
+        <v>26171.650378492021</v>
+      </c>
+      <c r="P59" t="inlineStr">
         <is>
           <t>7 April: 1.09 becomes 1.11 for arbitrary growth reduction supposition expressed in Column D (Multiplier).</t>
         </is>
       </c>
-      <c r="BA58" s="5">
-        <v>43900</v>
-      </c>
-      <c r="BB58">
-        <v>959</v>
-      </c>
-      <c r="BC58">
-        <f>(BB58/BB57)-1</f>
-        <v>0.64493996569468259</v>
-      </c>
-    </row>
-    <row r="59" spans="1:65" ht="19.5">
-      <c r="C59">
-        <f>H58*D59</f>
-        <v>827.43154109383124</v>
-      </c>
-      <c r="D59">
-        <f>D58</f>
-        <v>0.03621643797599438</v>
-      </c>
-      <c r="E59" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="5">
-        <v>43949</v>
-      </c>
-      <c r="G59" s="2">
-        <f>H59*50</f>
-        <v>1183714.0979319299</v>
-      </c>
-      <c r="H59">
-        <f>H58+C59</f>
-        <v>23674.281958638596</v>
-      </c>
-      <c r="P59" t="inlineStr">
+      <c r="BA59" s="5">
+        <v>43901</v>
+      </c>
+      <c r="BB59">
+        <v>1281</v>
+      </c>
+      <c r="BC59">
+        <f>(BB59/BB58)-1</f>
+        <v>0.33576642335766427</v>
+      </c>
+    </row>
+    <row r="60" spans="1:65" ht="19.5">
+      <c r="C60">
+        <f>H59*D60</f>
+        <v>961.43504684559093</v>
+      </c>
+      <c r="D60">
+        <f>D59</f>
+        <v>0.036735743942067273</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="5">
+        <v>43950</v>
+      </c>
+      <c r="G60" s="2">
+        <f>H60*50</f>
+        <v>1356654.2712668807</v>
+      </c>
+      <c r="H60">
+        <f>H59+C60</f>
+        <v>27133.085425337613</v>
+      </c>
+      <c r="P60" t="inlineStr">
         <is>
           <t>7 April: Column G goes from 100x to 50x (arbitrary value chosen)</t>
         </is>
       </c>
-      <c r="BA59" s="5">
-        <v>43901</v>
-      </c>
-      <c r="BB59">
-        <v>1281</v>
-      </c>
-      <c r="BC59">
-        <f>(BB59/BB58)-1</f>
-        <v>0.33576642335766427</v>
-      </c>
-    </row>
-    <row r="60" spans="1:65" ht="19.5">
-      <c r="C60">
-        <f>H59*D60</f>
-        <v>857.39816418123746</v>
-      </c>
-      <c r="D60">
-        <f>D59</f>
-        <v>0.03621643797599438</v>
-      </c>
-      <c r="E60" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="5">
-        <v>43950</v>
-      </c>
-      <c r="G60" s="2">
-        <f>H60*50</f>
-        <v>1226584.0061409918</v>
-      </c>
-      <c r="H60">
-        <f>H59+C60</f>
-        <v>24531.680122819835</v>
-      </c>
-      <c r="P60" t="inlineStr">
+      <c r="BA60" s="5">
+        <v>43902</v>
+      </c>
+      <c r="BB60">
+        <v>1663</v>
+      </c>
+      <c r="BC60">
+        <f>(BB60/BB59)-1</f>
+        <v>0.29820452771272454</v>
+      </c>
+    </row>
+    <row r="61" spans="1:65" ht="19.5">
+      <c r="C61">
+        <f>H60*D61</f>
+        <v>996.75407854344007</v>
+      </c>
+      <c r="D61">
+        <f>D60</f>
+        <v>0.036735743942067273</v>
+      </c>
+      <c r="E61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="5">
+        <v>43951</v>
+      </c>
+      <c r="G61" s="2">
+        <f>H61*50</f>
+        <v>1406491.9751940526</v>
+      </c>
+      <c r="H61">
+        <f>H60+C61</f>
+        <v>28129.839503881052</v>
+      </c>
+      <c r="Q61" t="inlineStr">
         <is>
           <t>(the 100x scaling factor was also arbitrary)</t>
         </is>
       </c>
-      <c r="BA60" s="5">
-        <v>43902</v>
-      </c>
-      <c r="BB60">
-        <v>1663</v>
-      </c>
-      <c r="BC60">
-        <f>(BB60/BB59)-1</f>
-        <v>0.29820452771272454</v>
-      </c>
-    </row>
-    <row r="61" spans="1:65" ht="19.5">
-      <c r="C61">
-        <f>H60*D61</f>
-        <v>888.45007161503872</v>
-      </c>
-      <c r="D61">
-        <f>D60</f>
-        <v>0.03621643797599438</v>
-      </c>
-      <c r="E61" t="s">
-        <v>15</v>
-      </c>
-      <c r="F61" s="5">
-        <v>43951</v>
-      </c>
-      <c r="G61" s="2">
-        <f>H61*50</f>
-        <v>1271006.5097217436</v>
-      </c>
-      <c r="H61">
-        <f>H60+C61</f>
-        <v>25420.130194434874</v>
-      </c>
-      <c r="J61" s="1"/>
-      <c r="P61" t="inlineStr">
+      <c r="BA61" s="5">
+        <v>43903</v>
+      </c>
+      <c r="BB61">
+        <v>2179</v>
+      </c>
+      <c r="BC61">
+        <f>(BB61/BB60)-1</f>
+        <v>0.31028262176788934</v>
+      </c>
+    </row>
+    <row r="62" spans="1:65" ht="19.5">
+      <c r="C62">
+        <f>H61*D62</f>
+        <v>1033.3705811460229</v>
+      </c>
+      <c r="D62">
+        <f>D61</f>
+        <v>0.036735743942067273</v>
+      </c>
+      <c r="E62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="5">
+        <v>43952</v>
+      </c>
+      <c r="G62" s="2">
+        <f>H62*50</f>
+        <v>1458160.5042513539</v>
+      </c>
+      <c r="H62">
+        <f>H61+C62</f>
+        <v>29163.210085027076</v>
+      </c>
+      <c r="J62" s="1"/>
+      <c r="P62" t="inlineStr">
         <is>
           <t>7 April: Litchfield County is doubling its Confirmed cases every 6.5 days or so.</t>
         </is>
       </c>
-      <c r="BA61" s="5">
-        <v>43903</v>
-      </c>
-      <c r="BB61">
-        <v>2179</v>
-      </c>
-      <c r="BC61">
-        <f>(BB61/BB60)-1</f>
-        <v>0.31028262176788934</v>
-      </c>
-    </row>
-    <row r="62" spans="1:65" ht="19.5">
-      <c r="C62">
-        <f>H61*D62</f>
-        <v>920.62656852845259</v>
-      </c>
-      <c r="D62">
-        <f>D61</f>
-        <v>0.03621643797599438</v>
-      </c>
-      <c r="E62" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" s="5">
-        <v>43952</v>
-      </c>
-      <c r="G62" s="2">
-        <f>H62*50</f>
-        <v>1317037.8381481664</v>
-      </c>
-      <c r="H62">
-        <f>H61+C62</f>
-        <v>26340.756762963327</v>
-      </c>
-      <c r="P62" t="inlineStr">
+      <c r="BA62" s="5">
+        <v>43904</v>
+      </c>
+      <c r="BB62">
+        <v>2727</v>
+      </c>
+      <c r="BC62">
+        <f>(BB62/BB61)-1</f>
+        <v>0.25149150986691149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:65" ht="19.5">
+      <c r="C63">
+        <f>H62*D63</f>
+        <v>1071.3322182122686</v>
+      </c>
+      <c r="D63">
+        <f>D62</f>
+        <v>0.036735743942067273</v>
+      </c>
+      <c r="E63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="5">
+        <v>43953</v>
+      </c>
+      <c r="G63" s="2">
+        <f>H63*50</f>
+        <v>1511727.1151619672</v>
+      </c>
+      <c r="H63">
+        <f>H62+C63</f>
+        <v>30234.542303239345</v>
+      </c>
+      <c r="Q63" t="inlineStr">
         <is>
           <t>(own analysis; ignorant and simplistic, there, on Litchfield Cty doublings. ;)</t>
         </is>
       </c>
-      <c r="BA62" s="5">
-        <v>43904</v>
-      </c>
-      <c r="BB62">
-        <v>2727</v>
-      </c>
-      <c r="BC62">
-        <f>(BB62/BB61)-1</f>
-        <v>0.25149150986691149</v>
-      </c>
-    </row>
-    <row r="63" spans="1:65" ht="19.5">
-      <c r="C63">
-        <f>H62*D63</f>
-        <v>953.96838354661577</v>
-      </c>
-      <c r="D63">
-        <f>D62</f>
-        <v>0.03621643797599438</v>
-      </c>
-      <c r="E63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63" s="5">
-        <v>43953</v>
-      </c>
-      <c r="G63" s="2">
-        <f>H63*50</f>
-        <v>1364736.2573254972</v>
-      </c>
-      <c r="H63">
-        <f>H62+C63</f>
-        <v>27294.725146509943</v>
-      </c>
       <c r="BA63" s="5">
         <v>43905</v>
       </c>
@@ -5443,11 +5536,11 @@
     <row r="64" spans="1:65" ht="19.5">
       <c r="C64">
         <f>H63*D64</f>
-        <v>988.51772034039152</v>
+        <v>1110.6884042574015</v>
       </c>
       <c r="D64">
         <f>D63</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
@@ -5457,11 +5550,16 @@
       </c>
       <c r="G64" s="2">
         <f>H64*50</f>
-        <v>1414162.1433425166</v>
+        <v>1567261.5353748372</v>
       </c>
       <c r="H64">
         <f>H63+C64</f>
-        <v>28283.242866850334</v>
+        <v>31345.230707496747</v>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>9 April: USA Confirmed (far columns, right) now expressed in 3 digits (up from 2 digits, formerly).</t>
+        </is>
       </c>
       <c r="BA64" s="5">
         <v>43906</v>
@@ -5477,11 +5575,11 @@
     <row r="65" spans="1:65" ht="19.5">
       <c r="C65">
         <f>H64*D65</f>
-        <v>1024.3183110472705</v>
+        <v>1151.4903690756246</v>
       </c>
       <c r="D65">
         <f>D64</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E65" t="s">
         <v>12</v>
@@ -5491,11 +5589,16 @@
       </c>
       <c r="G65" s="2">
         <f>H65*50</f>
-        <v>1465378.0588948803</v>
+        <v>1624836.0538286185</v>
       </c>
       <c r="H65">
         <f>H64+C65</f>
-        <v>29307.561177897605</v>
+        <v>32496.721076572372</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>This reflects that they've reached consistently below 10 percent, and so</t>
+        </is>
       </c>
       <c r="BA65" s="5">
         <v>43907</v>
@@ -5511,11 +5614,11 @@
     <row r="66" spans="1:65" ht="19.5">
       <c r="C66">
         <f>H65*D66</f>
-        <v>1061.4154716269893</v>
+        <v>1193.7912244257434</v>
       </c>
       <c r="D66">
         <f>D65</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E66" t="s">
         <v>13</v>
@@ -5525,11 +5628,16 @@
       </c>
       <c r="G66" s="2">
         <f>H66*50</f>
-        <v>1518448.8324762296</v>
+        <v>1684525.6150499058</v>
       </c>
       <c r="H66">
         <f>H65+C66</f>
-        <v>30368.976649524593</v>
+        <v>33690.512300998118</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>require another digit of precision (the decimal point has moved</t>
+        </is>
       </c>
       <c r="BA66" s="5">
         <v>43908</v>
@@ -5545,11 +5653,11 @@
     <row r="67" spans="1:65" ht="19.5">
       <c r="C67">
         <f>H66*D67</f>
-        <v>1099.8561592219289</v>
+        <v>1237.6460331665346</v>
       </c>
       <c r="D67">
         <f>D66</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E67" t="s">
         <v>14</v>
@@ -5559,13 +5667,18 @@
       </c>
       <c r="G67" s="2">
         <f>H67*50</f>
-        <v>1573441.6404373262</v>
+        <v>1746407.9167082328</v>
       </c>
       <c r="H67">
         <f>H66+C67</f>
-        <v>31468.832808746523</v>
+        <v>34928.158334164655</v>
       </c>
       <c r="J67" s="1"/>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>over one place)</t>
+        </is>
+      </c>
       <c r="BA67" s="5">
         <v>43909</v>
       </c>
@@ -5580,11 +5693,11 @@
     <row r="68" spans="1:65" ht="19.5">
       <c r="C68">
         <f>H67*D68</f>
-        <v>1139.6890315949054</v>
+        <v>1283.1118809318557</v>
       </c>
       <c r="D68">
         <f>D67</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E68" t="s">
         <v>15</v>
@@ -5594,11 +5707,16 @@
       </c>
       <c r="G68" s="2">
         <f>H68*50</f>
-        <v>1630426.0920170716</v>
+        <v>1810563.5107548255</v>
       </c>
       <c r="H68">
         <f>H67+C68</f>
-        <v>32608.521840341429</v>
+        <v>36211.270215096512</v>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>9 April: Have not kept up with the state epidemiologist's estimate</t>
+        </is>
       </c>
       <c r="BA68" s="5">
         <v>43910</v>
@@ -5614,11 +5732,11 @@
     <row r="69" spans="1:65" ht="19.5">
       <c r="C69">
         <f>H68*D69</f>
-        <v>1180.9645087195834</v>
+        <v>1330.2479504387927</v>
       </c>
       <c r="D69">
         <f>D68</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E69" t="s">
         <v>16</v>
@@ -5628,11 +5746,16 @@
       </c>
       <c r="G69" s="2">
         <f>H69*50</f>
-        <v>1689474.3174530508</v>
+        <v>1877075.9082767654</v>
       </c>
       <c r="H69">
         <f>H68+C69</f>
-        <v>33789.486349061015</v>
+        <v>37541.518165535308</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>of the multiplier factor (Confirmed and tested vs estimated true count of cases</t>
+        </is>
       </c>
       <c r="BA69" s="5">
         <v>43911</v>
@@ -5648,11 +5771,11 @@
     <row r="70" spans="1:65" ht="19.5">
       <c r="C70">
         <f>H69*D70</f>
-        <v>1223.7348366014771</v>
+        <v>1379.1155985255721</v>
       </c>
       <c r="D70">
         <f>D69</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E70" t="s">
         <v>17</v>
@@ -5662,11 +5785,16 @@
       </c>
       <c r="G70" s="2">
         <f>H70*50</f>
-        <v>1750661.0592831247</v>
+        <v>1946031.6882030442</v>
       </c>
       <c r="H70">
         <f>H69+C70</f>
-        <v>35013.221185662493</v>
+        <v>38920.633764060884</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>in the state of Connecticut) and (therefore) still using a '50x' multiplier,</t>
+        </is>
       </c>
       <c r="BA70" s="5">
         <v>43912</v>
@@ -5682,11 +5810,11 @@
     <row r="71" spans="1:65" ht="19.5">
       <c r="C71">
         <f>H70*D71</f>
-        <v>1268.0541534103181</v>
+        <v>1429.7784360195185</v>
       </c>
       <c r="D71">
         <f>D70</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
@@ -5696,11 +5824,16 @@
       </c>
       <c r="G71" s="2">
         <f>H71*50</f>
-        <v>1814063.7669536406</v>
+        <v>2017520.6100040204</v>
       </c>
       <c r="H71">
         <f>H70+C71</f>
-        <v>36281.27533907281</v>
+        <v>40350.412200080405</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>with no particular justification for this figure.</t>
+        </is>
       </c>
       <c r="BA71" s="5">
         <v>43913</v>
@@ -5716,11 +5849,11 @@
     <row r="72" spans="1:65" ht="19.5">
       <c r="C72">
         <f>H71*D72</f>
-        <v>1313.9785580075049</v>
+        <v>1482.3024105390211</v>
       </c>
       <c r="D72">
         <f>D71</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E72" t="s">
         <v>12</v>
@@ -5730,11 +5863,11 @@
       </c>
       <c r="G72" s="2">
         <f>H72*50</f>
-        <v>1879762.6948540157</v>
+        <v>2091635.7305309714</v>
       </c>
       <c r="H72">
         <f>H71+C72</f>
-        <v>37595.253897080314</v>
+        <v>41832.714610619427</v>
       </c>
       <c r="BA72" s="5">
         <v>43914</v>
@@ -5750,11 +5883,11 @@
     <row r="73" spans="1:65" ht="19.5">
       <c r="C73">
         <f>H72*D73</f>
-        <v>1361.5661809553701</v>
+        <v>1536.7558923372917</v>
       </c>
       <c r="D73">
         <f>D72</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E73" t="s">
         <v>13</v>
@@ -5764,11 +5897,11 @@
       </c>
       <c r="G73" s="2">
         <f>H73*50</f>
-        <v>1947841.0039017843</v>
+        <v>2168473.5251478362</v>
       </c>
       <c r="H73">
         <f>H72+C73</f>
-        <v>38956.820078035686</v>
+        <v>43369.470502956719</v>
       </c>
       <c r="BA73" s="5">
         <v>43915</v>
@@ -5784,11 +5917,11 @@
     <row r="74" spans="1:65" ht="19.5">
       <c r="C74">
         <f>H73*D74</f>
-        <v>1410.877258098152</v>
+        <v>1593.2097632996577</v>
       </c>
       <c r="D74">
         <f>D73</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E74" t="s">
         <v>14</v>
@@ -5799,7 +5932,7 @@
       <c r="G74" s="2"/>
       <c r="H74">
         <f>H73+C74</f>
-        <v>40367.697336133839</v>
+        <v>44962.680266256379</v>
       </c>
       <c r="BA74" s="5">
         <v>43916</v>
@@ -5815,11 +5948,11 @@
     <row r="75" spans="1:65" ht="19.5">
       <c r="C75">
         <f>H74*D75</f>
-        <v>1461.9742068078046</v>
+        <v>1651.7375092102354</v>
       </c>
       <c r="D75">
         <f>D74</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E75" t="s">
         <v>15</v>
@@ -5830,7 +5963,7 @@
       <c r="G75" s="2"/>
       <c r="H75">
         <f>H74+C75</f>
-        <v>41829.671542941644</v>
+        <v>46614.417775466616</v>
       </c>
       <c r="BA75" s="5">
         <v>43917</v>
@@ -5846,11 +5979,11 @@
     <row r="76" spans="1:65" ht="19.5">
       <c r="C76">
         <f>H75*D76</f>
-        <v>1514.9217049911631</v>
+        <v>1712.4153154080907</v>
       </c>
       <c r="D76">
         <f>D75</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E76" t="s">
         <v>16</v>
@@ -5861,7 +5994,7 @@
       <c r="G76" s="2"/>
       <c r="H76">
         <f>H75+C76</f>
-        <v>43344.593247932804</v>
+        <v>48326.833090874708</v>
       </c>
       <c r="BA76" s="5">
         <v>43918</v>
@@ -5877,11 +6010,11 @@
     <row r="77" spans="1:65" ht="19.5">
       <c r="C77">
         <f>H76*D77</f>
-        <v>1569.7867729584632</v>
+        <v>1775.3221659573967</v>
       </c>
       <c r="D77">
         <f>D76</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E77" t="s">
         <v>17</v>
@@ -5892,7 +6025,7 @@
       <c r="G77" s="2"/>
       <c r="H77">
         <f>H76+C77</f>
-        <v>44914.380020891265</v>
+        <v>50102.155256832106</v>
       </c>
       <c r="BA77" s="5">
         <v>43919</v>
@@ -5908,11 +6041,11 @@
     <row r="78" spans="1:65" ht="19.5">
       <c r="C78">
         <f>H77*D78</f>
-        <v>1626.6388582568497</v>
+        <v>1840.539946460684</v>
       </c>
       <c r="D78">
         <f>D77</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
@@ -5923,7 +6056,7 @@
       <c r="G78" s="2"/>
       <c r="H78">
         <f>H77+C78</f>
-        <v>46541.018879148112</v>
+        <v>51942.695203292787</v>
       </c>
       <c r="BA78" s="5">
         <v>43920</v>
@@ -5939,11 +6072,11 @@
     <row r="79" spans="1:65" ht="19.5">
       <c r="C79">
         <f>H78*D79</f>
-        <v>1685.5499235762511</v>
+        <v>1908.1535506490097</v>
       </c>
       <c r="D79">
         <f>D78</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E79" t="s">
         <v>12</v>
@@ -5954,7 +6087,7 @@
       <c r="G79" s="2"/>
       <c r="H79">
         <f>H78+C79</f>
-        <v>48226.568802724367</v>
+        <v>53850.848753941798</v>
       </c>
       <c r="BA79" s="5">
         <v>43921</v>
@@ -5970,11 +6103,11 @@
     <row r="80" spans="1:65" ht="19.5">
       <c r="C80">
         <f>H79*D80</f>
-        <v>1746.5945378388926</v>
+        <v>1978.2509908877983</v>
       </c>
       <c r="D80">
         <f>D79</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E80" t="s">
         <v>13</v>
@@ -5985,7 +6118,7 @@
       <c r="G80" s="2"/>
       <c r="H80">
         <f>H79+C80</f>
-        <v>49973.16334056326</v>
+        <v>55829.099744829597</v>
       </c>
       <c r="BA80" s="5">
         <v>43922</v>
@@ -6001,11 +6134,11 @@
     <row r="81" spans="1:65" ht="19.5">
       <c r="C81">
         <f>H80*D81</f>
-        <v>1809.8499705877455</v>
+        <v>2050.9235127421935</v>
       </c>
       <c r="D81">
         <f>D80</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E81" t="s">
         <v>14</v>
@@ -6016,7 +6149,7 @@
       <c r="G81" s="2"/>
       <c r="H81">
         <f>H80+C81</f>
-        <v>51783.013311151008</v>
+        <v>57880.023257571789</v>
       </c>
       <c r="BA81" s="5">
         <v>43923</v>
@@ -6032,11 +6165,11 @@
     <row r="82" spans="1:65" ht="19.5">
       <c r="C82">
         <f>H81*D82</f>
-        <v>1875.3962897933918</v>
+        <v>2126.2657137510555</v>
       </c>
       <c r="D82">
         <f>D81</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E82" t="s">
         <v>15</v>
@@ -6047,7 +6180,7 @@
       <c r="G82" s="2"/>
       <c r="H82">
         <f>H81+C82</f>
-        <v>53658.409600944397</v>
+        <v>60006.288971322843</v>
       </c>
       <c r="AW82" s="2"/>
       <c r="BA82" s="5">
@@ -6064,11 +6197,11 @@
     <row r="83" spans="1:65" ht="19.5">
       <c r="C83">
         <f>H82*D83</f>
-        <v>1943.3164632031041</v>
+        <v>2204.3756665642113</v>
       </c>
       <c r="D83">
         <f>D82</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E83" t="s">
         <v>16</v>
@@ -6079,7 +6212,7 @@
       <c r="G83" s="2"/>
       <c r="H83">
         <f>H82+C83</f>
-        <v>55601.7260641475</v>
+        <v>62210.664637887057</v>
       </c>
       <c r="AW83" s="2"/>
       <c r="BA83" s="5">
@@ -6096,11 +6229,11 @@
     <row r="84" spans="1:65" ht="19.5">
       <c r="C84">
         <f>H83*D84</f>
-        <v>2013.696463360428</v>
+        <v>2285.355046603238</v>
       </c>
       <c r="D84">
         <f>D83</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E84" t="s">
         <v>17</v>
@@ -6111,127 +6244,145 @@
       <c r="G84" s="2"/>
       <c r="H84">
         <f>H83+C84</f>
-        <v>57615.42252750793</v>
+        <v>64496.019684490297</v>
       </c>
       <c r="AW84" s="2"/>
-      <c r="AZ84" t="inlineStr">
+      <c r="BA84" s="5">
+        <v>43926</v>
+      </c>
+      <c r="BB84">
+        <v>337072</v>
+      </c>
+      <c r="BC84" s="7">
+        <f>(BB84/BB83)-1</f>
+        <v>0.091377691435972075</v>
+      </c>
+      <c r="BE84" t="inlineStr">
+        <is>
+          <t>Under ten percent - add one more digit of precision for context</t>
+        </is>
+      </c>
+    </row>
+    <row r="85" spans="1:65" ht="19.5">
+      <c r="C85">
+        <f>H84*D85</f>
+        <v>2369.3092644119661</v>
+      </c>
+      <c r="D85">
+        <f>D84</f>
+        <v>0.036735743942067273</v>
+      </c>
+      <c r="E85" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="5">
+        <v>43975</v>
+      </c>
+      <c r="G85" s="2"/>
+      <c r="H85">
+        <f>H84+C85</f>
+        <v>66865.328948902257</v>
+      </c>
+      <c r="AW85" s="2"/>
+      <c r="BA85" s="5">
+        <v>43927</v>
+      </c>
+      <c r="BB85">
+        <v>366667</v>
+      </c>
+      <c r="BC85" s="7">
+        <f>(BB85/BB84)-1</f>
+        <v>0.087800232591256577</v>
+      </c>
+    </row>
+    <row r="86" spans="1:65" ht="19.5">
+      <c r="C86">
+        <f>H85*D86</f>
+        <v>2456.3476028689715</v>
+      </c>
+      <c r="D86">
+        <f>D85</f>
+        <v>0.036735743942067273</v>
+      </c>
+      <c r="E86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="5">
+        <v>43976</v>
+      </c>
+      <c r="G86" s="2"/>
+      <c r="H86">
+        <f>H85+C86</f>
+        <v>69321.676551771234</v>
+      </c>
+      <c r="AW86" s="2"/>
+      <c r="AZ86" t="inlineStr">
         <is>
           <t>May be current:</t>
         </is>
       </c>
-      <c r="BA84" s="5">
-        <v>43926</v>
-      </c>
-      <c r="BB84">
-        <v>337072</v>
-      </c>
-      <c r="BC84">
-        <f>(BB84/BB83)-1</f>
-        <v>0.091377691435972075</v>
-      </c>
-      <c r="BE84" t="inlineStr">
+      <c r="BA86" s="5">
+        <v>43928</v>
+      </c>
+      <c r="BB86">
+        <v>396223</v>
+      </c>
+      <c r="BC86" s="7">
+        <f>(BB86/BB85)-1</f>
+        <v>0.080607199448000433</v>
+      </c>
+      <c r="BE86" t="inlineStr">
         <is>
           <t>preliminary or provisional</t>
         </is>
       </c>
     </row>
-    <row r="85" spans="1:65" ht="19.5">
-      <c r="C85">
-        <f>H84*D85</f>
-        <v>2086.6253764282001</v>
-      </c>
-      <c r="D85">
-        <f>D84</f>
-        <v>0.03621643797599438</v>
-      </c>
-      <c r="E85" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="5">
-        <v>43975</v>
-      </c>
-      <c r="G85" s="2"/>
-      <c r="H85">
-        <f>H84+C85</f>
-        <v>59702.047903936131</v>
-      </c>
-      <c r="AW85" s="2"/>
-      <c r="AZ85" t="inlineStr">
+    <row r="87" spans="1:65" ht="19.5">
+      <c r="C87">
+        <f>H86*D87</f>
+        <v>2546.5833594406772</v>
+      </c>
+      <c r="D87">
+        <f>D86</f>
+        <v>0.036735743942067273</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="5">
+        <v>43977</v>
+      </c>
+      <c r="G87" s="2"/>
+      <c r="H87">
+        <f>H86+C87</f>
+        <v>71868.259911211906</v>
+      </c>
+      <c r="AZ87" t="inlineStr">
         <is>
           <t>TENTATIVE</t>
         </is>
       </c>
-      <c r="BA85" s="5">
-        <v>43927</v>
-      </c>
-      <c r="BB85">
-        <v>366614</v>
-      </c>
-      <c r="BE85" t="inlineStr">
+      <c r="BA87" s="5">
+        <v>43929</v>
+      </c>
+      <c r="BB87">
+        <v>429052</v>
+      </c>
+      <c r="BC87" s="1"/>
+      <c r="BE87" t="inlineStr">
         <is>
           <t>(early return on this LINE 85)</t>
         </is>
       </c>
     </row>
-    <row r="86" spans="1:65" ht="19.5">
-      <c r="C86">
-        <f>H85*D86</f>
-        <v>2162.195514952748</v>
-      </c>
-      <c r="D86">
-        <f>D85</f>
-        <v>0.03621643797599438</v>
-      </c>
-      <c r="E86" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" s="5">
-        <v>43976</v>
-      </c>
-      <c r="G86" s="2"/>
-      <c r="H86">
-        <f>H85+C86</f>
-        <v>61864.24341888888</v>
-      </c>
-      <c r="AW86" s="2"/>
-      <c r="BB86" s="1"/>
-    </row>
-    <row r="87" spans="1:65" ht="19.5">
-      <c r="C87">
-        <f>H86*D87</f>
-        <v>2240.5025347120077</v>
-      </c>
-      <c r="D87">
-        <f>D86</f>
-        <v>0.03621643797599438</v>
-      </c>
-      <c r="E87" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" s="5">
-        <v>43977</v>
-      </c>
-      <c r="G87" s="2"/>
-      <c r="H87">
-        <f>H86+C87</f>
-        <v>64104.74595360089</v>
-      </c>
-      <c r="BB87" s="1"/>
-      <c r="BC87" s="1"/>
-      <c r="BE87" t="inlineStr">
-        <is>
-          <t>The 337,072 number is</t>
-        </is>
-      </c>
-    </row>
     <row r="88" spans="1:65" ht="19.5">
       <c r="C88">
         <f>H87*D88</f>
-        <v>2321.6455557954632</v>
+        <v>2640.1339936602189</v>
       </c>
       <c r="D88">
         <f>D87</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
@@ -6242,93 +6393,100 @@
       <c r="G88" s="2"/>
       <c r="H88">
         <f>H87+C88</f>
-        <v>66426.391509396359</v>
+        <v>74508.393904872122</v>
       </c>
       <c r="AW88" s="2"/>
       <c r="BB88" s="1"/>
-      <c r="BE88" t="inlineStr">
+    </row>
+    <row r="89" spans="1:65" ht="19.5">
+      <c r="C89">
+        <f>H88*D89</f>
+        <v>2737.1212800240683</v>
+      </c>
+      <c r="D89">
+        <f>D88</f>
+        <v>0.036735743942067273</v>
+      </c>
+      <c r="E89" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" s="5">
+        <v>43979</v>
+      </c>
+      <c r="G89" s="2"/>
+      <c r="H89">
+        <f>H88+C89</f>
+        <v>77245.515184896183</v>
+      </c>
+      <c r="AW89" s="2"/>
+      <c r="BB89" s="1"/>
+      <c r="BE89" t="inlineStr">
+        <is>
+          <t>The 396,223 number is</t>
+        </is>
+      </c>
+    </row>
+    <row r="90" spans="1:65" ht="19.5">
+      <c r="C90">
+        <f>H89*D90</f>
+        <v>2837.6714665054155</v>
+      </c>
+      <c r="D90">
+        <f>D89</f>
+        <v>0.036735743942067273</v>
+      </c>
+      <c r="E90" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" s="5">
+        <v>43980</v>
+      </c>
+      <c r="G90" s="2"/>
+      <c r="H90">
+        <f>H89+C90</f>
+        <v>80083.1866514016</v>
+      </c>
+      <c r="BE90" t="inlineStr">
         <is>
           <t>unique in this series, in that</t>
         </is>
       </c>
     </row>
-    <row r="89" spans="1:65" ht="19.5">
-      <c r="C89">
-        <f>H88*D89</f>
-        <v>2405.727288069173</v>
-      </c>
-      <c r="D89">
-        <f>D88</f>
-        <v>0.03621643797599438</v>
-      </c>
-      <c r="E89" t="s">
-        <v>15</v>
-      </c>
-      <c r="F89" s="5">
-        <v>43979</v>
-      </c>
-      <c r="G89" s="2"/>
-      <c r="H89">
-        <f>H88+C89</f>
-        <v>68832.118797465533</v>
-      </c>
-      <c r="AW89" s="2"/>
-      <c r="BE89" t="inlineStr">
+    <row r="91" spans="1:65" ht="19.5">
+      <c r="C91">
+        <f>H90*D91</f>
+        <v>2941.9154388906691</v>
+      </c>
+      <c r="D91">
+        <f>D90</f>
+        <v>0.036735743942067273</v>
+      </c>
+      <c r="E91" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91" s="5">
+        <v>43981</v>
+      </c>
+      <c r="G91" s="2"/>
+      <c r="H91">
+        <f>H90+C91</f>
+        <v>83025.102090292276</v>
+      </c>
+      <c r="BB91" s="1"/>
+      <c r="BE91" t="inlineStr">
         <is>
           <t>it is the very last number</t>
         </is>
       </c>
     </row>
-    <row r="90" spans="1:65" ht="19.5">
-      <c r="C90">
-        <f>H89*D90</f>
-        <v>2492.8541611846872</v>
-      </c>
-      <c r="D90">
-        <f>D89</f>
-        <v>0.03621643797599438</v>
-      </c>
-      <c r="E90" t="s">
-        <v>16</v>
-      </c>
-      <c r="F90" s="5">
-        <v>43980</v>
-      </c>
-      <c r="G90" s="2"/>
-      <c r="H90">
-        <f>H89+C90</f>
-        <v>71324.972958650222</v>
-      </c>
-    </row>
-    <row r="91" spans="1:65" ht="19.5">
-      <c r="C91">
-        <f>H90*D91</f>
-        <v>2583.1364592964319</v>
-      </c>
-      <c r="D91">
-        <f>D90</f>
-        <v>0.03621643797599438</v>
-      </c>
-      <c r="E91" t="s">
-        <v>17</v>
-      </c>
-      <c r="F91" s="5">
-        <v>43981</v>
-      </c>
-      <c r="G91" s="2"/>
-      <c r="H91">
-        <f>H90+C91</f>
-        <v>73908.10941794666</v>
-      </c>
-    </row>
     <row r="92" spans="1:65" ht="19.5">
       <c r="C92">
         <f>H91*D92</f>
-        <v>2676.6884606580711</v>
+        <v>3049.9888911529715</v>
       </c>
       <c r="D92">
         <f>D91</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
@@ -6339,418 +6497,419 @@
       <c r="G92" s="2"/>
       <c r="H92">
         <f>H91+C92</f>
-        <v>76584.797878604732</v>
-      </c>
-      <c r="BE92" t="inlineStr">
+        <v>86075.090981445246</v>
+      </c>
+    </row>
+    <row r="93" spans="1:65" ht="19.5">
+      <c r="C93">
+        <f>H92*D93</f>
+        <v>3162.0325020845166</v>
+      </c>
+      <c r="D93">
+        <f>D92</f>
+        <v>0.036735743942067273</v>
+      </c>
+      <c r="E93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="5">
+        <v>43983</v>
+      </c>
+      <c r="G93" s="2"/>
+      <c r="H93">
+        <f>H92+C93</f>
+        <v>89237.123483529766</v>
+      </c>
+      <c r="BB93" s="1"/>
+    </row>
+    <row r="94" spans="1:65" ht="19.5">
+      <c r="C94">
+        <f>H93*D94</f>
+        <v>3278.1921184175876</v>
+      </c>
+      <c r="D94">
+        <f>D93</f>
+        <v>0.036735743942067273</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="5">
+        <v>43984</v>
+      </c>
+      <c r="G94" s="2"/>
+      <c r="H94">
+        <f>H93+C94</f>
+        <v>92515.315601947354</v>
+      </c>
+      <c r="BE94" t="inlineStr">
         <is>
           <t>It is (therefore) not locked in</t>
         </is>
       </c>
     </row>
-    <row r="93" spans="1:65" ht="19.5">
-      <c r="C93">
-        <f>H92*D93</f>
-        <v>2773.628582274554</v>
-      </c>
-      <c r="D93">
-        <f>D92</f>
-        <v>0.03621643797599438</v>
-      </c>
-      <c r="E93" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" s="5">
-        <v>43983</v>
-      </c>
-      <c r="G93" s="2"/>
-      <c r="H93">
-        <f>H92+C93</f>
-        <v>79358.426460879287</v>
-      </c>
-      <c r="BE93" t="inlineStr">
+    <row r="95" spans="1:65" ht="19.5">
+      <c r="C95">
+        <f>H94*D95</f>
+        <v>3398.6189446726794</v>
+      </c>
+      <c r="D95">
+        <f>D94</f>
+        <v>0.036735743942067273</v>
+      </c>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="5">
+        <v>43985</v>
+      </c>
+      <c r="G95" s="2"/>
+      <c r="H95">
+        <f>H94+C95</f>
+        <v>95913.934546620032</v>
+      </c>
+      <c r="BE95" t="inlineStr">
         <is>
           <t>value, by the next number in</t>
         </is>
       </c>
     </row>
-    <row r="94" spans="1:65" ht="19.5">
-      <c r="C94">
-        <f>H93*D94</f>
-        <v>2874.0795297929458</v>
-      </c>
-      <c r="D94">
-        <f>D93</f>
-        <v>0.03621643797599438</v>
-      </c>
-      <c r="E94" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" s="5">
-        <v>43984</v>
-      </c>
-      <c r="G94" s="2"/>
-      <c r="H94">
-        <f>H93+C94</f>
-        <v>82232.505990672231</v>
-      </c>
-      <c r="BE94" t="inlineStr">
+    <row r="96" spans="1:65" ht="19.5">
+      <c r="C96">
+        <f>H95*D96</f>
+        <v>3523.4697399808338</v>
+      </c>
+      <c r="D96">
+        <f>D95</f>
+        <v>0.036735743942067273</v>
+      </c>
+      <c r="E96" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96" s="5">
+        <v>43986</v>
+      </c>
+      <c r="G96" s="2"/>
+      <c r="H96">
+        <f>H95+C96</f>
+        <v>99437.404286600868</v>
+      </c>
+      <c r="BE96" t="inlineStr">
         <is>
           <t>sequence (as it would be</t>
         </is>
       </c>
     </row>
-    <row r="95" spans="1:65" ht="19.5">
-      <c r="C95">
-        <f>H94*D95</f>
-        <v>2978.168452821767</v>
-      </c>
-      <c r="D95">
-        <f>D94</f>
-        <v>0.03621643797599438</v>
-      </c>
-      <c r="E95" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="5">
-        <v>43985</v>
-      </c>
-      <c r="G95" s="2"/>
-      <c r="H95">
-        <f>H94+C95</f>
-        <v>85210.674443494005</v>
-      </c>
-      <c r="BE95" t="inlineStr">
+    <row r="97" spans="1:65" ht="19.5">
+      <c r="C97">
+        <f>H96*D97</f>
+        <v>3652.9070221363922</v>
+      </c>
+      <c r="D97">
+        <f>D96</f>
+        <v>0.036735743942067273</v>
+      </c>
+      <c r="E97" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97" s="5">
+        <v>43987</v>
+      </c>
+      <c r="G97" s="2"/>
+      <c r="H97">
+        <f>H96+C97</f>
+        <v>103090.31130873726</v>
+      </c>
+      <c r="BE97" t="inlineStr">
         <is>
           <t>expected to be, once the next</t>
         </is>
       </c>
     </row>
-    <row r="96" spans="1:65" ht="19.5">
-      <c r="C96">
-        <f>H95*D96</f>
-        <v>3086.0271058754502</v>
-      </c>
-      <c r="D96">
-        <f>D95</f>
-        <v>0.03621643797599438</v>
-      </c>
-      <c r="E96" t="s">
-        <v>15</v>
-      </c>
-      <c r="F96" s="5">
-        <v>43986</v>
-      </c>
-      <c r="G96" s="2"/>
-      <c r="H96">
-        <f>H95+C96</f>
-        <v>88296.701549369449</v>
-      </c>
-      <c r="BE96" t="inlineStr">
+    <row r="98" spans="1:65" ht="19.5">
+      <c r="C98">
+        <f>H97*D98</f>
+        <v>3787.0992791457743</v>
+      </c>
+      <c r="D98">
+        <f>D97</f>
+        <v>0.036735743942067273</v>
+      </c>
+      <c r="E98" t="s">
+        <v>17</v>
+      </c>
+      <c r="F98" s="5">
+        <v>43988</v>
+      </c>
+      <c r="G98" s="2"/>
+      <c r="H98">
+        <f>H97+C98</f>
+        <v>106877.41058788303</v>
+      </c>
+      <c r="BE98" t="inlineStr">
         <is>
           <t>number in sequence has been</t>
         </is>
       </c>
     </row>
-    <row r="97" spans="1:65" ht="19.5">
-      <c r="C97">
-        <f>H96*D97</f>
-        <v>3197.7920151476255</v>
-      </c>
-      <c r="D97">
-        <f>D96</f>
-        <v>0.03621643797599438</v>
-      </c>
-      <c r="E97" t="s">
-        <v>16</v>
-      </c>
-      <c r="F97" s="5">
-        <v>43987</v>
-      </c>
-      <c r="G97" s="2"/>
-      <c r="H97">
-        <f>H96+C97</f>
-        <v>91494.493564517077</v>
-      </c>
-      <c r="BE97" t="inlineStr">
+    <row r="99" spans="1:65" ht="19.5">
+      <c r="C99">
+        <f>H98*D99</f>
+        <v>3926.2211885476604</v>
+      </c>
+      <c r="D99">
+        <f>D98</f>
+        <v>0.036735743942067273</v>
+      </c>
+      <c r="E99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="5">
+        <v>43989</v>
+      </c>
+      <c r="G99" s="2"/>
+      <c r="H99">
+        <f>H98+C99</f>
+        <v>110803.63177643069</v>
+      </c>
+      <c r="BE99" t="inlineStr">
         <is>
           <t>given).</t>
         </is>
       </c>
     </row>
-    <row r="98" spans="1:65" ht="19.5">
-      <c r="C98">
-        <f>H97*D98</f>
-        <v>3313.6046513243496</v>
-      </c>
-      <c r="D98">
-        <f>D97</f>
-        <v>0.03621643797599438</v>
-      </c>
-      <c r="E98" t="s">
-        <v>17</v>
-      </c>
-      <c r="F98" s="5">
-        <v>43988</v>
-      </c>
-      <c r="G98" s="2"/>
-      <c r="H98">
-        <f>H97+C98</f>
-        <v>94808.098215841426</v>
-      </c>
-    </row>
-    <row r="99" spans="1:65" ht="19.5">
-      <c r="C99">
-        <f>H98*D99</f>
-        <v>3433.6116086560046</v>
-      </c>
-      <c r="D99">
-        <f>D98</f>
-        <v>0.03621643797599438</v>
-      </c>
-      <c r="E99" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="5">
-        <v>43989</v>
-      </c>
-      <c r="G99" s="2"/>
-      <c r="H99">
-        <f>H98+C99</f>
-        <v>98241.709824497433</v>
-      </c>
-      <c r="BE99" t="inlineStr">
+    <row r="100" spans="1:65" ht="19.5">
+      <c r="C100">
+        <f>H99*D100</f>
+        <v>4070.4538447900663</v>
+      </c>
+      <c r="D100">
+        <f>D99</f>
+        <v>0.036735743942067273</v>
+      </c>
+      <c r="E100" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="5">
+        <v>43990</v>
+      </c>
+      <c r="G100" s="2"/>
+      <c r="H100">
+        <f>H99+C100</f>
+        <v>114874.08562122076</v>
+      </c>
+    </row>
+    <row r="101" spans="1:65" ht="19.5">
+      <c r="C101">
+        <f>H100*D101</f>
+        <v>4219.9849949602776</v>
+      </c>
+      <c r="D101">
+        <f>D100</f>
+        <v>0.036735743942067273</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="5">
+        <v>43991</v>
+      </c>
+      <c r="G101" s="2"/>
+      <c r="H101">
+        <f>H100+C101</f>
+        <v>119094.07061618104</v>
+      </c>
+      <c r="BE101" t="inlineStr">
         <is>
           <t>In other words, it is not subject</t>
         </is>
       </c>
     </row>
-    <row r="100" spans="1:65" ht="19.5">
-      <c r="C100">
-        <f>H99*D100</f>
-        <v>3557.9647905145489</v>
-      </c>
-      <c r="D100">
-        <f>D99</f>
-        <v>0.03621643797599438</v>
-      </c>
-      <c r="E100" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="5">
-        <v>43990</v>
-      </c>
-      <c r="G100" s="2"/>
-      <c r="H100">
-        <f>H99+C100</f>
-        <v>101799.67461501199</v>
-      </c>
-      <c r="BE100" t="inlineStr">
+    <row r="102" spans="1:65" ht="19.5">
+      <c r="C102">
+        <f>H101*D102</f>
+        <v>4375.0092831745042</v>
+      </c>
+      <c r="D102">
+        <f>D101</f>
+        <v>0.036735743942067273</v>
+      </c>
+      <c r="E102" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="5">
+        <v>43992</v>
+      </c>
+      <c r="G102" s="2"/>
+      <c r="H102">
+        <f>H101+C102</f>
+        <v>123469.07989935554</v>
+      </c>
+      <c r="BE102" t="inlineStr">
         <is>
           <t>to further revision, once the next</t>
         </is>
       </c>
     </row>
-    <row r="101" spans="1:65" ht="19.5">
-      <c r="C101">
-        <f>H100*D101</f>
-        <v>3686.8216016709912</v>
-      </c>
-      <c r="D101">
-        <f>D100</f>
-        <v>0.03621643797599438</v>
-      </c>
-      <c r="E101" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" s="5">
-        <v>43991</v>
-      </c>
-      <c r="G101" s="2"/>
-      <c r="H101">
-        <f>H100+C101</f>
-        <v>105486.49621668298</v>
-      </c>
-      <c r="BE101" t="inlineStr">
+    <row r="103" spans="1:65" ht="19.5">
+      <c r="C103">
+        <f>H102*D103</f>
+        <v>4535.72850394537</v>
+      </c>
+      <c r="D103">
+        <f>D102</f>
+        <v>0.036735743942067273</v>
+      </c>
+      <c r="E103" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" s="5">
+        <v>43993</v>
+      </c>
+      <c r="G103" s="2"/>
+      <c r="H103">
+        <f>H102+C103</f>
+        <v>128004.80840330091</v>
+      </c>
+      <c r="BE103" t="inlineStr">
         <is>
           <t>day's figure has been posted.</t>
         </is>
       </c>
     </row>
-    <row r="102" spans="1:65" ht="19.5">
-      <c r="C102">
-        <f>H101*D102</f>
-        <v>3820.345147536465</v>
-      </c>
-      <c r="D102">
-        <f>D101</f>
-        <v>0.03621643797599438</v>
-      </c>
-      <c r="E102" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="5">
-        <v>43992</v>
-      </c>
-      <c r="G102" s="2"/>
-      <c r="H102">
-        <f>H101+C102</f>
-        <v>109306.84136421945</v>
-      </c>
-    </row>
-    <row r="103" spans="1:65" ht="19.5">
-      <c r="C103">
-        <f>H102*D103</f>
-        <v>3958.7044406191108</v>
-      </c>
-      <c r="D103">
-        <f>D102</f>
-        <v>0.03621643797599438</v>
-      </c>
-      <c r="E103" t="s">
-        <v>15</v>
-      </c>
-      <c r="F103" s="5">
-        <v>43993</v>
-      </c>
-      <c r="G103" s="2"/>
-      <c r="H103">
-        <f>H102+C103</f>
-        <v>113265.54580483856</v>
-      </c>
-      <c r="BE103" t="inlineStr">
+    <row r="104" spans="1:65" ht="19.5">
+      <c r="C104">
+        <f>H103*D104</f>
+        <v>4702.3518648570434</v>
+      </c>
+      <c r="D104">
+        <f>D103</f>
+        <v>0.036735743942067273</v>
+      </c>
+      <c r="E104" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" s="5">
+        <v>43994</v>
+      </c>
+      <c r="G104" s="2"/>
+      <c r="H104">
+        <f>H103+C104</f>
+        <v>132707.16026815795</v>
+      </c>
+    </row>
+    <row r="105" spans="1:65" ht="19.5">
+      <c r="C105">
+        <f>H104*D105</f>
+        <v>4875.0962588899338</v>
+      </c>
+      <c r="D105">
+        <f>D104</f>
+        <v>0.036735743942067273</v>
+      </c>
+      <c r="E105" t="s">
+        <v>17</v>
+      </c>
+      <c r="F105" s="5">
+        <v>43995</v>
+      </c>
+      <c r="G105" s="2"/>
+      <c r="H105">
+        <f>H104+C105</f>
+        <v>137582.2565270479</v>
+      </c>
+      <c r="BE105" t="inlineStr">
         <is>
           <t>In other words, the very last number</t>
         </is>
       </c>
     </row>
-    <row r="104" spans="1:65" ht="19.5">
-      <c r="C104">
-        <f>H103*D104</f>
-        <v>4102.0746144580862</v>
-      </c>
-      <c r="D104">
-        <f>D103</f>
-        <v>0.03621643797599438</v>
-      </c>
-      <c r="E104" t="s">
-        <v>16</v>
-      </c>
-      <c r="F104" s="5">
-        <v>43994</v>
-      </c>
-      <c r="G104" s="2"/>
-      <c r="H104">
-        <f>H103+C104</f>
-        <v>117367.62041929665</v>
-      </c>
-      <c r="BE104" t="inlineStr">
+    <row r="106" spans="1:65" ht="19.5">
+      <c r="C106">
+        <f>H105*D106</f>
+        <v>5054.1865467494454</v>
+      </c>
+      <c r="D106">
+        <f>D105</f>
+        <v>0.036735743942067273</v>
+      </c>
+      <c r="E106" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="5">
+        <v>43996</v>
+      </c>
+      <c r="G106" s="2"/>
+      <c r="H106">
+        <f>H105+C106</f>
+        <v>142636.44307379733</v>
+      </c>
+      <c r="BE106" t="inlineStr">
         <is>
           <t>in this sequence is perpetually taken</t>
         </is>
       </c>
     </row>
-    <row r="105" spans="1:65" ht="19.5">
-      <c r="C105">
-        <f>H104*D105</f>
-        <v>4250.637145305509</v>
-      </c>
-      <c r="D105">
-        <f>D104</f>
-        <v>0.03621643797599438</v>
-      </c>
-      <c r="E105" t="s">
-        <v>17</v>
-      </c>
-      <c r="F105" s="5">
-        <v>43995</v>
-      </c>
-      <c r="G105" s="2"/>
-      <c r="H105">
-        <f>H104+C105</f>
-        <v>121618.25756460216</v>
-      </c>
-      <c r="BE105" t="inlineStr">
+    <row r="107" spans="1:65" ht="19.5">
+      <c r="C107">
+        <f>H106*D107</f>
+        <v>5239.8558495662737</v>
+      </c>
+      <c r="D107">
+        <f>D106</f>
+        <v>0.036735743942067273</v>
+      </c>
+      <c r="E107" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="5">
+        <v>43997</v>
+      </c>
+      <c r="G107" s="2"/>
+      <c r="H107">
+        <f>H106+C107</f>
+        <v>147876.29892336362</v>
+      </c>
+      <c r="BE107" t="inlineStr">
         <is>
           <t>as other than final for that day's</t>
         </is>
       </c>
     </row>
-    <row r="106" spans="1:65" ht="19.5">
-      <c r="C106">
-        <f>H105*D106</f>
-        <v>4404.5800818369235</v>
-      </c>
-      <c r="D106">
-        <f>D105</f>
-        <v>0.03621643797599438</v>
-      </c>
-      <c r="E106" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" s="5">
-        <v>43996</v>
-      </c>
-      <c r="G106" s="2"/>
-      <c r="H106">
-        <f>H105+C106</f>
-        <v>126022.83764643907</v>
-      </c>
-      <c r="BE106" t="inlineStr">
+    <row r="108" spans="1:65" ht="19.5">
+      <c r="C108">
+        <f>H107*D108</f>
+        <v>5432.3458523492845</v>
+      </c>
+      <c r="D108">
+        <f>D107</f>
+        <v>0.036735743942067273</v>
+      </c>
+      <c r="E108" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" s="5">
+        <v>43998</v>
+      </c>
+      <c r="G108" s="2"/>
+      <c r="H108">
+        <f>H107+C108</f>
+        <v>153308.64477571289</v>
+      </c>
+      <c r="BE108" t="inlineStr">
         <is>
           <t>reportage.</t>
         </is>
       </c>
     </row>
-    <row r="107" spans="1:65" ht="19.5">
-      <c r="C107">
-        <f>H106*D107</f>
-        <v>4564.0982831810707</v>
-      </c>
-      <c r="D107">
-        <f>D106</f>
-        <v>0.03621643797599438</v>
-      </c>
-      <c r="E107" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107" s="5">
-        <v>43997</v>
-      </c>
-      <c r="G107" s="2"/>
-      <c r="H107">
-        <f>H106+C107</f>
-        <v>130586.93592962014</v>
-      </c>
-    </row>
-    <row r="108" spans="1:65" ht="19.5">
-      <c r="C108">
-        <f>H107*D108</f>
-        <v>4729.39366557024</v>
-      </c>
-      <c r="D108">
-        <f>D107</f>
-        <v>0.03621643797599438</v>
-      </c>
-      <c r="E108" t="s">
-        <v>13</v>
-      </c>
-      <c r="F108" s="5">
-        <v>43998</v>
-      </c>
-      <c r="G108" s="2"/>
-      <c r="H108">
-        <f>H107+C108</f>
-        <v>135316.32959519039</v>
-      </c>
-    </row>
     <row r="109" spans="1:65" ht="19.5">
       <c r="C109">
         <f>H108*D109</f>
-        <v>4900.6754579234257</v>
+        <v>5631.9071185859384</v>
       </c>
       <c r="D109">
         <f>D108</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E109" t="s">
         <v>14</v>
@@ -6761,17 +6920,17 @@
       <c r="G109" s="2"/>
       <c r="H109">
         <f>H108+C109</f>
-        <v>140217.0050531138</v>
+        <v>158940.55189429884</v>
       </c>
     </row>
     <row r="110" spans="1:65" ht="19.5">
       <c r="C110">
         <f>H109*D110</f>
-        <v>5078.1604666857866</v>
+        <v>5838.7994163998173</v>
       </c>
       <c r="D110">
         <f>D109</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E110" t="s">
         <v>15</v>
@@ -6782,17 +6941,17 @@
       <c r="G110" s="2"/>
       <c r="H110">
         <f>H109+C110</f>
-        <v>145295.16551979957</v>
+        <v>164779.35131069866</v>
       </c>
     </row>
     <row r="111" spans="1:65" ht="19.5">
       <c r="C111">
         <f>H110*D111</f>
-        <v>5262.0733502596586</v>
+        <v>6053.2920566897737</v>
       </c>
       <c r="D111">
         <f>D110</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E111" t="s">
         <v>16</v>
@@ -6803,17 +6962,17 @@
       <c r="G111" s="2"/>
       <c r="H111">
         <f>H110+C111</f>
-        <v>150557.23887005923</v>
+        <v>170832.64336738843</v>
       </c>
     </row>
     <row r="112" spans="1:65" ht="19.5">
       <c r="C112">
         <f>H111*D112</f>
-        <v>5452.6469033744697</v>
+        <v>6275.6642436908787</v>
       </c>
       <c r="D112">
         <f>D111</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E112" t="s">
         <v>17</v>
@@ -6824,17 +6983,17 @@
       <c r="G112" s="2"/>
       <c r="H112">
         <f>H111+C112</f>
-        <v>156009.88577343369</v>
+        <v>177108.3076110793</v>
       </c>
     </row>
     <row r="113" spans="1:65" ht="19.5">
       <c r="C113">
         <f>H112*D113</f>
-        <v>5650.1223517555291</v>
+        <v>6506.2054384134935</v>
       </c>
       <c r="D113">
         <f>D112</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
@@ -6845,17 +7004,17 @@
       <c r="G113" s="2"/>
       <c r="H113">
         <f>H112+C113</f>
-        <v>161660.00812518923</v>
+        <v>183614.51304949279</v>
       </c>
     </row>
     <row r="114" spans="1:65" ht="19.5">
       <c r="C114">
         <f>H113*D114</f>
-        <v>5854.749657464663</v>
+        <v>6745.2157354335368</v>
       </c>
       <c r="D114">
         <f>D113</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E114" t="s">
         <v>12</v>
@@ -6866,17 +7025,17 @@
       <c r="G114" s="2"/>
       <c r="H114">
         <f>H113+C114</f>
-        <v>167514.75778265388</v>
+        <v>190359.72878492632</v>
       </c>
     </row>
     <row r="115" spans="1:65" ht="19.5">
       <c r="C115">
         <f>H114*D115</f>
-        <v>6066.7878352992057</v>
+        <v>6993.006253524426</v>
       </c>
       <c r="D115">
         <f>D114</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E115" t="s">
         <v>13</v>
@@ -6887,17 +7046,17 @@
       <c r="G115" s="2"/>
       <c r="H115">
         <f>H114+C115</f>
-        <v>173581.54561795309</v>
+        <v>197352.73503845074</v>
       </c>
     </row>
     <row r="116" spans="1:65" ht="19.5">
       <c r="C116">
         <f>H115*D116</f>
-        <v>6286.505280649837</v>
+        <v>7249.8995406391741</v>
       </c>
       <c r="D116">
         <f>D115</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
@@ -6908,17 +7067,17 @@
       <c r="G116" s="2"/>
       <c r="H116">
         <f>H115+C116</f>
-        <v>179868.05089860293</v>
+        <v>204602.63457908991</v>
       </c>
     </row>
     <row r="117" spans="1:65" ht="19.5">
       <c r="C117">
         <f>H116*D117</f>
-        <v>6514.180109232253</v>
+        <v>7516.2299937698062</v>
       </c>
       <c r="D117">
         <f>D116</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E117" t="s">
         <v>15</v>
@@ -6929,17 +7088,17 @@
       <c r="G117" s="2"/>
       <c r="H117">
         <f>H116+C117</f>
-        <v>186382.23100783519</v>
+        <v>212118.86457285972</v>
       </c>
     </row>
     <row r="118" spans="1:65" ht="19.5">
       <c r="C118">
         <f>H117*D118</f>
-        <v>6750.1005091227198</v>
+        <v>7792.3442942306192</v>
       </c>
       <c r="D118">
         <f>D117</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E118" t="s">
         <v>16</v>
@@ -6950,17 +7109,17 @@
       <c r="G118" s="2"/>
       <c r="H118">
         <f>H117+C118</f>
-        <v>193132.3315169579</v>
+        <v>219911.20886709035</v>
       </c>
     </row>
     <row r="119" spans="1:65" ht="19.5">
       <c r="C119">
         <f>H118*D119</f>
-        <v>6994.5651055430899</v>
+        <v>8078.6018589319046</v>
       </c>
       <c r="D119">
         <f>D118</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E119" t="s">
         <v>17</v>
@@ -6971,17 +7130,17 @@
       <c r="G119" s="2"/>
       <c r="H119">
         <f>H118+C119</f>
-        <v>200126.89662250099</v>
+        <v>227989.81072602226</v>
       </c>
     </row>
     <row r="120" spans="1:65" ht="19.5">
       <c r="C120">
         <f>H119*D120</f>
-        <v>7247.8833388570465</v>
+        <v>8375.3753082315361</v>
       </c>
       <c r="D120">
         <f>D119</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
@@ -6992,17 +7151,17 @@
       <c r="G120" s="2"/>
       <c r="H120">
         <f>H119+C120</f>
-        <v>207374.77996135803</v>
+        <v>236365.1860342538</v>
       </c>
     </row>
     <row r="121" spans="1:65" ht="19.5">
       <c r="C121">
         <f>H120*D121</f>
-        <v>7510.3758562560051</v>
+        <v>8683.050950973442</v>
       </c>
       <c r="D121">
         <f>D120</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E121" t="s">
         <v>12</v>
@@ -7013,17 +7172,17 @@
       <c r="G121" s="2"/>
       <c r="H121">
         <f>H120+C121</f>
-        <v>214885.15581761402</v>
+        <v>245048.23698522724</v>
       </c>
     </row>
     <row r="122" spans="1:65" ht="19.5">
       <c r="C122">
         <f>H121*D122</f>
-        <v>7782.3749176305064</v>
+        <v>9002.0292873443268</v>
       </c>
       <c r="D122">
         <f>D121</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E122" t="s">
         <v>13</v>
@@ -7034,17 +7193,17 @@
       <c r="G122" s="2"/>
       <c r="H122">
         <f>H121+C122</f>
-        <v>222667.53073524454</v>
+        <v>254050.26627257158</v>
       </c>
     </row>
     <row r="123" spans="1:65" ht="19.5">
       <c r="C123">
         <f>H122*D123</f>
-        <v>8064.2248161408061</v>
+        <v>9332.725530203199</v>
       </c>
       <c r="D123">
         <f>D122</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E123" t="s">
         <v>14</v>
@@ -7055,17 +7214,17 @@
       <c r="G123" s="2"/>
       <c r="H123">
         <f>H122+C123</f>
-        <v>230731.75555138534</v>
+        <v>263382.99180277478</v>
       </c>
     </row>
     <row r="124" spans="1:65" ht="19.5">
       <c r="C124">
         <f>H123*D124</f>
-        <v>8356.2823140190449</v>
+        <v>9675.5701455623384</v>
       </c>
       <c r="D124">
         <f>D123</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E124" t="s">
         <v>15</v>
@@ -7076,17 +7235,17 @@
       <c r="G124" s="2"/>
       <c r="H124">
         <f>H123+C124</f>
-        <v>239088.03786540439</v>
+        <v>273058.56194833713</v>
       </c>
     </row>
     <row r="125" spans="1:65" ht="19.5">
       <c r="C125">
         <f>H124*D125</f>
-        <v>8658.9170941546145</v>
+        <v>10031.009412923228</v>
       </c>
       <c r="D125">
         <f>D124</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E125" t="s">
         <v>16</v>
@@ -7097,17 +7256,17 @@
       <c r="G125" s="2"/>
       <c r="H125">
         <f>H124+C125</f>
-        <v>247746.95495955899</v>
+        <v>283089.57136126037</v>
       </c>
     </row>
     <row r="126" spans="1:65" ht="19.5">
       <c r="C126">
         <f>H125*D126</f>
-        <v>8972.5122280343421</v>
+        <v>10399.506006196842</v>
       </c>
       <c r="D126">
         <f>D125</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E126" t="s">
         <v>17</v>
@@ -7118,17 +7277,17 @@
       <c r="G126" s="2"/>
       <c r="H126">
         <f>H125+C126</f>
-        <v>256719.46718759334</v>
+        <v>293489.07736745721</v>
       </c>
     </row>
     <row r="127" spans="1:65" ht="19.5">
       <c r="C127">
         <f>H126*D127</f>
-        <v>9297.4646606297993</v>
+        <v>10781.539595964479</v>
       </c>
       <c r="D127">
         <f>D126</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E127" t="s">
         <v>11</v>
@@ -7139,17 +7298,17 @@
       <c r="G127" s="2"/>
       <c r="H127">
         <f>H126+C127</f>
-        <v>266016.93184822315</v>
+        <v>304270.61696342169</v>
       </c>
     </row>
     <row r="128" spans="1:65" ht="19.5">
       <c r="C128">
         <f>H127*D128</f>
-        <v>9634.1857128454976</v>
+        <v>11177.60747386309</v>
       </c>
       <c r="D128">
         <f>D127</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E128" t="s">
         <v>12</v>
@@ -7160,17 +7319,17 @@
       <c r="G128" s="2"/>
       <c r="H128">
         <f>H127+C128</f>
-        <v>275651.11756106862</v>
+        <v>315448.22443728481</v>
       </c>
     </row>
     <row r="129" spans="1:65" ht="19.5">
       <c r="C129">
         <f>H128*D129</f>
-        <v>9983.1016021639771</v>
+        <v>11588.225199907863</v>
       </c>
       <c r="D129">
         <f>D128</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E129" t="s">
         <v>13</v>
@@ -7181,17 +7340,17 @@
       <c r="G129" s="2"/>
       <c r="H129">
         <f>H128+C129</f>
-        <v>285634.2191632326</v>
+        <v>327036.44963719265</v>
       </c>
     </row>
     <row r="130" spans="1:65" ht="19.5">
       <c r="C130">
         <f>H129*D130</f>
-        <v>10344.6539821468</v>
+        <v>12013.927273594689</v>
       </c>
       <c r="D130">
         <f>D129</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E130" t="s">
         <v>14</v>
@@ -7202,17 +7361,17 @@
       <c r="G130" s="2"/>
       <c r="H130">
         <f>H129+C130</f>
-        <v>295978.87314537942</v>
+        <v>339050.37691078737</v>
       </c>
     </row>
     <row r="131" spans="1:65" ht="19.5">
       <c r="C131">
         <f>H130*D131</f>
-        <v>10719.300501474343</v>
+        <v>12455.267829656083</v>
       </c>
       <c r="D131">
         <f>D130</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E131" t="s">
         <v>15</v>
@@ -7223,17 +7382,17 @@
       <c r="G131" s="2"/>
       <c r="H131">
         <f>H130+C131</f>
-        <v>306698.17364685377</v>
+        <v>351505.64474044344</v>
       </c>
     </row>
     <row r="132" spans="1:65" ht="19.5">
       <c r="C132">
         <f>H131*D132</f>
-        <v>11107.515383232034</v>
+        <v>12912.821359376196</v>
       </c>
       <c r="D132">
         <f>D131</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E132" t="s">
         <v>16</v>
@@ -7243,17 +7402,17 @@
       </c>
       <c r="H132">
         <f>H131+C132</f>
-        <v>317805.68903008581</v>
+        <v>364418.46609981963</v>
       </c>
     </row>
     <row r="133" spans="1:65" ht="19.5">
       <c r="C133">
         <f>H132*D133</f>
-        <v>11509.79002517626</v>
+        <v>13387.183458403897</v>
       </c>
       <c r="D133">
         <f>D132</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E133" t="s">
         <v>17</v>
@@ -7263,17 +7422,17 @@
       </c>
       <c r="H133">
         <f>H132+C133</f>
-        <v>329315.47905526205</v>
+        <v>377805.64955822355</v>
       </c>
     </row>
     <row r="134" spans="1:65" ht="19.5">
       <c r="C134">
         <f>H133*D134</f>
-        <v>11926.633621739775</v>
+        <v>13878.971602037302</v>
       </c>
       <c r="D134">
         <f>D133</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E134" t="s">
         <v>11</v>
@@ -7283,17 +7442,17 @@
       </c>
       <c r="H134">
         <f>H133+C134</f>
-        <v>341242.1126770018</v>
+        <v>391684.62116026087</v>
       </c>
     </row>
     <row r="135" spans="1:65" ht="19.5">
       <c r="C135">
         <f>H134*D135</f>
-        <v>12358.57380856392</v>
+        <v>14388.825948988968</v>
       </c>
       <c r="D135">
         <f>D134</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E135" t="s">
         <v>12</v>
@@ -7303,17 +7462,17 @@
       </c>
       <c r="H135">
         <f>H134+C135</f>
-        <v>353600.68648556573</v>
+        <v>406073.44710924983</v>
       </c>
     </row>
     <row r="136" spans="1:65" ht="19.5">
       <c r="C136">
         <f>H135*D136</f>
-        <v>12806.157330373526</v>
+        <v>14917.410174678</v>
       </c>
       <c r="D136">
         <f>D135</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E136" t="s">
         <v>13</v>
@@ -7323,17 +7482,17 @@
       </c>
       <c r="H136">
         <f>H135+C136</f>
-        <v>366406.84381593927</v>
+        <v>420990.85728392785</v>
       </c>
     </row>
     <row r="137" spans="1:65" ht="19.5">
       <c r="C137">
         <f>H136*D137</f>
-        <v>13269.950733039825</v>
+        <v>15465.41233513376</v>
       </c>
       <c r="D137">
         <f>D136</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E137" t="s">
         <v>14</v>
@@ -7343,17 +7502,17 @@
       </c>
       <c r="H137">
         <f>H136+C137</f>
-        <v>379676.79454897909</v>
+        <v>436456.26961906161</v>
       </c>
     </row>
     <row r="138" spans="1:65" ht="19.5">
       <c r="C138">
         <f>H137*D138</f>
-        <v>13750.541080707462</v>
+        <v>16033.545762635722</v>
       </c>
       <c r="D138">
         <f>D137</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E138" t="s">
         <v>15</v>
@@ -7363,17 +7522,17 @@
       </c>
       <c r="H138">
         <f>H137+C138</f>
-        <v>393427.33562968654</v>
+        <v>452489.81538169732</v>
       </c>
     </row>
     <row r="139" spans="1:65" ht="19.5">
       <c r="C139">
         <f>H138*D139</f>
-        <v>14248.536698893266</v>
+        <v>16622.549994255325</v>
       </c>
       <c r="D139">
         <f>D138</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E139" t="s">
         <v>16</v>
@@ -7383,17 +7542,17 @@
       </c>
       <c r="H139">
         <f>H138+C139</f>
-        <v>407675.87232857978</v>
+        <v>469112.36537595262</v>
       </c>
     </row>
     <row r="140" spans="1:65" ht="19.5">
       <c r="C140">
         <f>H139*D140</f>
-        <v>14764.567944497412</v>
+        <v>17233.191734508502</v>
       </c>
       <c r="D140">
         <f>D139</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E140" t="s">
         <v>17</v>
@@ -7403,17 +7562,17 @@
       </c>
       <c r="H140">
         <f>H139+C140</f>
-        <v>422440.44027307717</v>
+        <v>486345.55711046112</v>
       </c>
     </row>
     <row r="141" spans="1:65" ht="19.5">
       <c r="C141">
         <f>H140*D141</f>
-        <v>15299.288003701658</v>
+        <v>17866.265853371955</v>
       </c>
       <c r="D141">
         <f>D140</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E141" t="s">
         <v>11</v>
@@ -7423,17 +7582,17 @@
       </c>
       <c r="H141">
         <f>H140+C141</f>
-        <v>437739.72827677883</v>
+        <v>504211.82296383305</v>
       </c>
     </row>
     <row r="142" spans="1:65" ht="19.5">
       <c r="C142">
         <f>H141*D142</f>
-        <v>15853.373718764593</v>
+        <v>18522.596420962327</v>
       </c>
       <c r="D142">
         <f>D141</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E142" t="s">
         <v>12</v>
@@ -7443,17 +7602,17 @@
       </c>
       <c r="H142">
         <f>H141+C142</f>
-        <v>453593.1019955434</v>
+        <v>522734.41938479536</v>
       </c>
     </row>
     <row r="143" spans="1:65" ht="19.5">
       <c r="C143">
         <f>H142*D143</f>
-        <v>16427.52644476049</v>
+        <v>19203.037780225048</v>
       </c>
       <c r="D143">
         <f>D142</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E143" t="s">
         <v>13</v>
@@ -7463,17 +7622,17 @@
       </c>
       <c r="H143">
         <f>H142+C143</f>
-        <v>470020.6284403039</v>
+        <v>541937.4571650204</v>
       </c>
     </row>
     <row r="144" spans="1:65" ht="19.5">
       <c r="C144">
         <f>H143*D144</f>
-        <v>17022.472937346167</v>
+        <v>19908.475659029242</v>
       </c>
       <c r="D144">
         <f>D143</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E144" t="s">
         <v>14</v>
@@ -7483,17 +7642,17 @@
       </c>
       <c r="H144">
         <f>H143+C144</f>
-        <v>487043.10137765005</v>
+        <v>561845.93282404961</v>
       </c>
     </row>
     <row r="145" spans="1:65" ht="19.5">
       <c r="C145">
         <f>H144*D145</f>
-        <v>17638.966272679605</v>
+        <v>20639.828323116217</v>
       </c>
       <c r="D145">
         <f>D144</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E145" t="s">
         <v>15</v>
@@ -7503,17 +7662,17 @@
       </c>
       <c r="H145">
         <f>H144+C145</f>
-        <v>504682.06765032967</v>
+        <v>582485.76114716579</v>
       </c>
     </row>
     <row r="146" spans="1:65" ht="19.5">
       <c r="C146">
         <f>H145*D146</f>
-        <v>18277.786800654765</v>
+        <v>21398.047771402438</v>
       </c>
       <c r="D146">
         <f>D145</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E146" t="s">
         <v>16</v>
@@ -7523,17 +7682,17 @@
       </c>
       <c r="H146">
         <f>H145+C146</f>
-        <v>522959.85445098445</v>
+        <v>603883.80891856819</v>
       </c>
     </row>
     <row r="147" spans="1:65" ht="19.5">
       <c r="C147">
         <f>H146*D147</f>
-        <v>18939.743132659125</v>
+        <v>22184.120975192804</v>
       </c>
       <c r="D147">
         <f>D146</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E147" t="s">
         <v>17</v>
@@ -7543,17 +7702,17 @@
       </c>
       <c r="H147">
         <f>H146+C147</f>
-        <v>541899.59758364363</v>
+        <v>626067.92989376094</v>
       </c>
     </row>
     <row r="148" spans="1:65" ht="19.5">
       <c r="C148">
         <f>H147*D148</f>
-        <v>19625.673165104345</v>
+        <v>22999.071162917327</v>
       </c>
       <c r="D148">
         <f>D147</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E148" t="s">
         <v>11</v>
@@ -7563,17 +7722,17 @@
       </c>
       <c r="H148">
         <f>H147+C148</f>
-        <v>561525.27074874798</v>
+        <v>649067.00105667824</v>
       </c>
     </row>
     <row r="149" spans="1:65" ht="19.5">
       <c r="C149">
         <f>H148*D149</f>
-        <v>20336.445140025484</v>
+        <v>23843.959152063639</v>
       </c>
       <c r="D149">
         <f>D148</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E149" t="s">
         <v>12</v>
@@ -7583,17 +7742,17 @@
       </c>
       <c r="H149">
         <f>H148+C149</f>
-        <v>581861.71588877344</v>
+        <v>672910.96020874183</v>
       </c>
     </row>
     <row r="150" spans="1:65" ht="19.5">
       <c r="C150">
         <f>H149*D150</f>
-        <v>21072.958744091426</v>
+        <v>24719.884730038961</v>
       </c>
       <c r="D150">
         <f>D149</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E150" t="s">
         <v>13</v>
@@ -7603,17 +7762,17 @@
       </c>
       <c r="H150">
         <f>H149+C150</f>
-        <v>602934.67463286489</v>
+        <v>697630.84493878076</v>
       </c>
     </row>
     <row r="151" spans="1:65" ht="19.5">
       <c r="C151">
         <f>H150*D151</f>
-        <v>21836.146247417502</v>
+        <v>25627.988085759087</v>
       </c>
       <c r="D151">
         <f>D150</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E151" t="s">
         <v>14</v>
@@ -7623,17 +7782,17 @@
       </c>
       <c r="H151">
         <f>H150+C151</f>
-        <v>624770.82088028244</v>
+        <v>723258.83302453987</v>
       </c>
     </row>
     <row r="152" spans="1:65" ht="19.5">
       <c r="C152">
         <f>H151*D152</f>
-        <v>22626.973683621844</v>
+        <v>26569.451293827886</v>
       </c>
       <c r="D152">
         <f>D151</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E152" t="s">
         <v>15</v>
@@ -7643,17 +7802,17 @@
       </c>
       <c r="H152">
         <f>H151+C152</f>
-        <v>647397.79456390429</v>
+        <v>749828.28431836772</v>
       </c>
     </row>
     <row r="153" spans="1:65" ht="19.5">
       <c r="C153">
         <f>H152*D153</f>
-        <v>23446.442072619189</v>
+        <v>27545.499853239173</v>
       </c>
       <c r="D153">
         <f>D152</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E153" t="s">
         <v>16</v>
@@ -7663,17 +7822,17 @@
       </c>
       <c r="H153">
         <f>H152+C153</f>
-        <v>670844.23663652351</v>
+        <v>777373.78417160688</v>
       </c>
     </row>
     <row r="154" spans="1:65" ht="19.5">
       <c r="C154">
         <f>H153*D154</f>
-        <v>24295.58868769995</v>
+        <v>28557.40428260402</v>
       </c>
       <c r="D154">
         <f>D153</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E154" t="s">
         <v>17</v>
@@ -7683,17 +7842,17 @@
       </c>
       <c r="H154">
         <f>H153+C154</f>
-        <v>695139.82532422349</v>
+        <v>805931.18845421087</v>
       </c>
     </row>
     <row r="155" spans="1:65" ht="19.5">
       <c r="C155">
         <f>H154*D155</f>
-        <v>25175.488368498307</v>
+        <v>29606.481773979856</v>
       </c>
       <c r="D155">
         <f>D154</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E155" t="s">
         <v>11</v>
@@ -7703,17 +7862,17 @@
       </c>
       <c r="H155">
         <f>H154+C155</f>
-        <v>720315.31369272177</v>
+        <v>835537.67022819072</v>
       </c>
     </row>
     <row r="156" spans="1:65" ht="19.5">
       <c r="C156">
         <f>H155*D156</f>
-        <v>26087.254881511391</v>
+        <v>30694.097907454259</v>
       </c>
       <c r="D156">
         <f>D155</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E156" t="s">
         <v>12</v>
@@ -7723,17 +7882,17 @@
       </c>
       <c r="H156">
         <f>H155+C156</f>
-        <v>746402.56857423321</v>
+        <v>866231.76813564496</v>
       </c>
     </row>
     <row r="157" spans="1:65" ht="19.5">
       <c r="C157">
         <f>H156*D157</f>
-        <v>27032.04232989161</v>
+        <v>31821.668428715242</v>
       </c>
       <c r="D157">
         <f>D156</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E157" t="s">
         <v>13</v>
@@ -7743,17 +7902,17 @@
       </c>
       <c r="H157">
         <f>H156+C157</f>
-        <v>773434.6109041248</v>
+        <v>898053.43656436016</v>
       </c>
     </row>
     <row r="158" spans="1:65" ht="19.5">
       <c r="C158">
         <f>H157*D158</f>
-        <v>28011.046614296582</v>
+        <v>32990.661091921887</v>
       </c>
       <c r="D158">
         <f>D157</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E158" t="s">
         <v>14</v>
@@ -7763,17 +7922,17 @@
       </c>
       <c r="H158">
         <f>H157+C158</f>
-        <v>801445.65751842142</v>
+        <v>931044.09765628201</v>
       </c>
     </row>
     <row r="159" spans="1:65" ht="19.5">
       <c r="C159">
         <f>H158*D159</f>
-        <v>29025.506946645943</v>
+        <v>34202.597570274251</v>
       </c>
       <c r="D159">
         <f>D158</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E159" t="s">
         <v>15</v>
@@ -7783,17 +7942,17 @@
       </c>
       <c r="H159">
         <f>H158+C159</f>
-        <v>830471.16446506733</v>
+        <v>965246.69522655627</v>
       </c>
     </row>
     <row r="160" spans="1:65" ht="19.5">
       <c r="C160">
         <f>H159*D160</f>
-        <v>30076.707418700938</v>
+        <v>35459.05543676942</v>
       </c>
       <c r="D160">
         <f>D159</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E160" t="s">
         <v>16</v>
@@ -7803,17 +7962,17 @@
       </c>
       <c r="H160">
         <f>H159+C160</f>
-        <v>860547.87188376824</v>
+        <v>1000705.7506633257</v>
       </c>
     </row>
     <row r="161" spans="1:65" ht="19.5">
       <c r="C161">
         <f>H160*D161</f>
-        <v>31165.978627452449</v>
+        <v>36761.670217722145</v>
       </c>
       <c r="D161">
         <f>D160</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E161" t="s">
         <v>17</v>
@@ -7823,17 +7982,17 @@
       </c>
       <c r="H161">
         <f>H160+C161</f>
-        <v>891713.85051122063</v>
+        <v>1037467.4208810478</v>
       </c>
     </row>
     <row r="162" spans="1:65" ht="19.5">
       <c r="C162">
         <f>H161*D162</f>
-        <v>32294.699359374747</v>
+        <v>38112.137521723111</v>
       </c>
       <c r="D162">
         <f>D161</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E162" t="s">
         <v>11</v>
@@ -7843,17 +8002,17 @@
       </c>
       <c r="H162">
         <f>H161+C162</f>
-        <v>924008.54987059534</v>
+        <v>1075579.5584027709</v>
       </c>
     </row>
     <row r="163" spans="1:65" ht="19.5">
       <c r="C163">
         <f>H162*D163</f>
-        <v>33464.298335676925</v>
+        <v>39512.215246805987</v>
       </c>
       <c r="D163">
         <f>D162</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E163" t="s">
         <v>12</v>
@@ -7863,17 +8022,17 @@
       </c>
       <c r="H163">
         <f>H162+C163</f>
-        <v>957472.84820627223</v>
+        <v>1115091.7736495768</v>
       </c>
     </row>
     <row r="164" spans="1:65" ht="19.5">
       <c r="C164">
         <f>H163*D164</f>
-        <v>34676.256020761139</v>
+        <v>40963.725868696492</v>
       </c>
       <c r="D164">
         <f>D163</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E164" t="s">
         <v>13</v>
@@ -7883,17 +8042,17 @@
       </c>
       <c r="H164">
         <f>H163+C164</f>
-        <v>992149.10422703333</v>
+        <v>1156055.4995182734</v>
       </c>
     </row>
     <row r="165" spans="1:65" ht="19.5">
       <c r="C165">
         <f>H164*D165</f>
-        <v>35932.106496176733</v>
+        <v>42468.55881312197</v>
       </c>
       <c r="D165">
         <f>D164</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E165" t="s">
         <v>14</v>
@@ -7903,17 +8062,17 @@
       </c>
       <c r="H165">
         <f>H164+C165</f>
-        <v>1028081.21072321</v>
+        <v>1198524.0583313953</v>
       </c>
     </row>
     <row r="166" spans="1:65" ht="19.5">
       <c r="C166">
         <f>H165*D166</f>
-        <v>37233.439402442345</v>
+        <v>44028.672915269439</v>
       </c>
       <c r="D166">
         <f>D165</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E166" t="s">
         <v>15</v>
@@ -7923,17 +8082,17 @@
       </c>
       <c r="H166">
         <f>H165+C166</f>
-        <v>1065314.6501256523</v>
+        <v>1242552.7312466647</v>
       </c>
     </row>
     <row r="167" spans="1:65" ht="19.5">
       <c r="C167">
         <f>H166*D167</f>
-        <v>38581.901951193839</v>
+        <v>45646.098969593804</v>
       </c>
       <c r="D167">
         <f>D166</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E167" t="s">
         <v>16</v>
@@ -7943,17 +8102,17 @@
       </c>
       <c r="H167">
         <f>H166+C167</f>
-        <v>1103896.5520768461</v>
+        <v>1288198.8302162585</v>
       </c>
     </row>
     <row r="168" spans="1:65" ht="19.5">
       <c r="C168">
         <f>H167*D168</f>
-        <v>39979.20101020515</v>
+        <v>47322.942373295067</v>
       </c>
       <c r="D168">
         <f>D167</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E168" t="s">
         <v>17</v>
@@ -7963,17 +8122,17 @@
       </c>
       <c r="H168">
         <f>H167+C168</f>
-        <v>1143875.7530870512</v>
+        <v>1335521.7725895536</v>
       </c>
     </row>
     <row r="169" spans="1:65" ht="19.5">
       <c r="C169">
         <f>H168*D169</f>
-        <v>41427.105263921054</v>
+        <v>49061.385866905643</v>
       </c>
       <c r="D169">
         <f>D168</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E169" t="s">
         <v>11</v>
@@ -7983,17 +8142,17 @@
       </c>
       <c r="H169">
         <f>H168+C169</f>
-        <v>1185302.8583509722</v>
+        <v>1384583.1584564592</v>
       </c>
     </row>
     <row r="170" spans="1:65" ht="19.5">
       <c r="C170">
         <f>H169*D170</f>
-        <v>42927.447452236833</v>
+        <v>50863.692375555242</v>
       </c>
       <c r="D170">
         <f>D169</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E170" t="s">
         <v>12</v>
@@ -8003,17 +8162,17 @@
       </c>
       <c r="H170">
         <f>H169+C170</f>
-        <v>1228230.3058032091</v>
+        <v>1435446.8508320143</v>
       </c>
     </row>
     <row r="171" spans="1:65" ht="19.5">
       <c r="C171">
         <f>H170*D171</f>
-        <v>44482.126690358535</v>
+        <v>52732.207954611717</v>
       </c>
       <c r="D171">
         <f>D170</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E171" t="s">
         <v>13</v>
@@ -8023,17 +8182,17 @@
       </c>
       <c r="H171">
         <f>H170+C171</f>
-        <v>1272712.4324935677</v>
+        <v>1488179.058786626</v>
       </c>
     </row>
     <row r="172" spans="1:65" ht="19.5">
       <c r="C172">
         <f>H171*D172</f>
-        <v>46093.110872680227</v>
+        <v>54669.364843532174</v>
       </c>
       <c r="D172">
         <f>D171</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E172" t="s">
         <v>14</v>
@@ -8043,17 +8202,17 @@
       </c>
       <c r="H172">
         <f>H171+C172</f>
-        <v>1318805.543366248</v>
+        <v>1542848.4236301582</v>
       </c>
     </row>
     <row r="173" spans="1:65" ht="19.5">
       <c r="C173">
         <f>H172*D173</f>
-        <v>47762.43916372129</v>
+        <v>56677.684631899625</v>
       </c>
       <c r="D173">
         <f>D172</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E173" t="s">
         <v>15</v>
@@ -8063,17 +8222,17 @@
       </c>
       <c r="H173">
         <f>H172+C173</f>
-        <v>1366567.9825299694</v>
+        <v>1599526.1082620579</v>
       </c>
     </row>
     <row r="174" spans="1:65" ht="19.5">
       <c r="C174">
         <f>H173*D174</f>
-        <v>49492.224579276408</v>
+        <v>58759.781541766337</v>
       </c>
       <c r="D174">
         <f>D173</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E174" t="s">
         <v>16</v>
@@ -8083,17 +8242,17 @@
       </c>
       <c r="H174">
         <f>H173+C174</f>
-        <v>1416060.2071092459</v>
+        <v>1658285.8898038242</v>
       </c>
     </row>
     <row r="175" spans="1:65" ht="19.5">
       <c r="C175">
         <f>H174*D175</f>
-        <v>51284.656661045759</v>
+        <v>60918.365830576477</v>
       </c>
       <c r="D175">
         <f>D174</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E175" t="s">
         <v>17</v>
@@ -8103,17 +8262,17 @@
       </c>
       <c r="H175">
         <f>H174+C175</f>
-        <v>1467344.8637702917</v>
+        <v>1719204.2556344008</v>
       </c>
     </row>
     <row r="176" spans="1:65" ht="19.5">
       <c r="C176">
         <f>H175*D176</f>
-        <v>53142.004248130688</v>
+        <v>63156.247319097711</v>
       </c>
       <c r="D176">
         <f>D175</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E176" t="s">
         <v>11</v>
@@ -8123,17 +8282,17 @@
       </c>
       <c r="H176">
         <f>H175+C176</f>
-        <v>1520486.8680184223</v>
+        <v>1782360.5029534984</v>
       </c>
     </row>
     <row r="177" spans="1:65" ht="19.5">
       <c r="C177">
         <f>H176*D177</f>
-        <v>55066.618348903146</v>
+        <v>65476.339048953952</v>
       </c>
       <c r="D177">
         <f>D176</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E177" t="s">
         <v>12</v>
@@ -8143,17 +8302,17 @@
       </c>
       <c r="H177">
         <f>H176+C177</f>
-        <v>1575553.4863673255</v>
+        <v>1847836.8420024524</v>
       </c>
     </row>
     <row r="178" spans="1:65" ht="19.5">
       <c r="C178">
         <f>H177*D178</f>
-        <v>57060.935116883949</v>
+        <v>67881.661074520307</v>
       </c>
       <c r="D178">
         <f>D177</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E178" t="s">
         <v>13</v>
@@ -8163,17 +8322,17 @@
       </c>
       <c r="H178">
         <f>H177+C178</f>
-        <v>1632614.4214842096</v>
+        <v>1915718.5030769727</v>
       </c>
     </row>
     <row r="179" spans="1:65" ht="19.5">
       <c r="C179">
         <f>H178*D179</f>
-        <v>59127.478934396822</v>
+        <v>70375.34439411608</v>
       </c>
       <c r="D179">
         <f>D178</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E179" t="s">
         <v>14</v>
@@ -8183,17 +8342,17 @@
       </c>
       <c r="H179">
         <f>H178+C179</f>
-        <v>1691741.9004186064</v>
+        <v>1986093.8474710886</v>
       </c>
     </row>
     <row r="180" spans="1:65" ht="19.5">
       <c r="C180">
         <f>H179*D180</f>
-        <v>61268.865607901316</v>
+        <v>72960.635025613126</v>
       </c>
       <c r="D180">
         <f>D179</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E180" t="s">
         <v>15</v>
@@ -8203,17 +8362,17 @@
       </c>
       <c r="H180">
         <f>H179+C180</f>
-        <v>1753010.7660265076</v>
+        <v>2059054.4824967016</v>
       </c>
     </row>
     <row r="181" spans="1:65" ht="19.5">
       <c r="C181">
         <f>H180*D181</f>
-        <v>63487.805679049408</v>
+        <v>75640.898231764673</v>
       </c>
       <c r="D181">
         <f>D180</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E181" t="s">
         <v>16</v>
@@ -8223,17 +8382,17 @@
       </c>
       <c r="H181">
         <f>H180+C181</f>
-        <v>1816498.5717055569</v>
+        <v>2134695.3807284664</v>
       </c>
     </row>
     <row r="182" spans="1:65" ht="19.5">
       <c r="C182">
         <f>H181*D182</f>
-        <v>65787.107855656679</v>
+        <v>78419.622900754752</v>
       </c>
       <c r="D182">
         <f>D181</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E182" t="s">
         <v>17</v>
@@ -8243,17 +8402,17 @@
       </c>
       <c r="H182">
         <f>H181+C182</f>
-        <v>1882285.6795612136</v>
+        <v>2213115.0036292211</v>
       </c>
     </row>
     <row r="183" spans="1:65" ht="19.5">
       <c r="C183">
         <f>H182*D183</f>
-        <v>68169.682566931122</v>
+        <v>81300.426087670348</v>
       </c>
       <c r="D183">
         <f>D182</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E183" t="s">
         <v>11</v>
@@ -8263,17 +8422,17 @@
       </c>
       <c r="H183">
         <f>H182+C183</f>
-        <v>1950455.3621281446</v>
+        <v>2294415.4297168916</v>
       </c>
     </row>
     <row r="184" spans="1:65" ht="19.5">
       <c r="C184">
         <f>H183*D184</f>
-        <v>70638.545647459599</v>
+        <v>84287.057722807978</v>
       </c>
       <c r="D184">
         <f>D183</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E184" t="s">
         <v>12</v>
@@ -8283,17 +8442,17 @@
       </c>
       <c r="H184">
         <f>H183+C184</f>
-        <v>2021093.9077756042</v>
+        <v>2378702.4874396995</v>
       </c>
     </row>
     <row r="185" spans="1:65" ht="19.5">
       <c r="C185">
         <f>H184*D185</f>
-        <v>73196.822154615278</v>
+        <v>87383.40549294329</v>
       </c>
       <c r="D185">
         <f>D184</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E185" t="s">
         <v>13</v>
@@ -8303,17 +8462,17 @@
       </c>
       <c r="H185">
         <f>H184+C185</f>
-        <v>2094290.7299302195</v>
+        <v>2466085.8929326427</v>
       </c>
     </row>
     <row r="186" spans="1:65" ht="19.5">
       <c r="C186">
         <f>H185*D186</f>
-        <v>75847.750324217792</v>
+        <v>90593.499901917894</v>
       </c>
       <c r="D186">
         <f>D185</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E186" t="s">
         <v>14</v>
@@ -8323,17 +8482,17 @@
       </c>
       <c r="H186">
         <f>H185+C186</f>
-        <v>2170138.4802544373</v>
+        <v>2556679.3928345605</v>
       </c>
     </row>
     <row r="187" spans="1:65" ht="19.5">
       <c r="C187">
         <f>H186*D187</f>
-        <v>78594.685669453538</v>
+        <v>93921.519517130437</v>
       </c>
       <c r="D187">
         <f>D186</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E187" t="s">
         <v>15</v>
@@ -8343,17 +8502,17 @@
       </c>
       <c r="H187">
         <f>H186+C187</f>
-        <v>2248733.1659238907</v>
+        <v>2650600.9123516907</v>
       </c>
     </row>
     <row r="188" spans="1:65" ht="19.5">
       <c r="C188">
         <f>H187*D188</f>
-        <v>81441.105228244065</v>
+        <v>97371.796408761613</v>
       </c>
       <c r="D188">
         <f>D187</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E188" t="s">
         <v>16</v>
@@ -8363,17 +8522,17 @@
       </c>
       <c r="H188">
         <f>H187+C188</f>
-        <v>2330174.2711521345</v>
+        <v>2747972.7087604525</v>
       </c>
     </row>
     <row r="189" spans="1:65" ht="19.5">
       <c r="C189">
         <f>H188*D189</f>
-        <v>84390.611964439187</v>
+        <v>100948.82178881299</v>
       </c>
       <c r="D189">
         <f>D188</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E189" t="s">
         <v>17</v>
@@ -8383,17 +8542,17 @@
       </c>
       <c r="H189">
         <f>H188+C189</f>
-        <v>2414564.8831165736</v>
+        <v>2848921.5305492654</v>
       </c>
     </row>
     <row r="190" spans="1:65" ht="19.5">
       <c r="C190">
         <f>H189*D190</f>
-        <v>87446.939328405511</v>
+        <v>104657.2518573002</v>
       </c>
       <c r="D190">
         <f>D189</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E190" t="s">
         <v>11</v>
@@ -8403,17 +8562,17 @@
       </c>
       <c r="H190">
         <f>H189+C190</f>
-        <v>2502011.8224449791</v>
+        <v>2953578.7824065657</v>
       </c>
     </row>
     <row r="191" spans="1:65" ht="19.5">
       <c r="C191">
         <f>H190*D191</f>
-        <v>90613.955982783242</v>
+        <v>108501.91386321043</v>
       </c>
       <c r="D191">
         <f>D190</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E191" t="s">
         <v>12</v>
@@ -8423,17 +8582,17 @@
       </c>
       <c r="H191">
         <f>H190+C191</f>
-        <v>2592625.7784277624</v>
+        <v>3062080.6962697762</v>
       </c>
     </row>
     <row r="192" spans="1:65" ht="19.5">
       <c r="C192">
         <f>H191*D192</f>
-        <v>93895.670699393202</v>
+        <v>112487.81238811357</v>
       </c>
       <c r="D192">
         <f>D191</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E192" t="s">
         <v>13</v>
@@ -8443,17 +8602,17 @@
       </c>
       <c r="H192">
         <f>H191+C192</f>
-        <v>2686521.4491271558</v>
+        <v>3174568.5086578899</v>
       </c>
     </row>
     <row r="193" spans="1:65" ht="19.5">
       <c r="C193">
         <f>H192*D193</f>
-        <v>97296.237433492177</v>
+        <v>116620.13586060662</v>
       </c>
       <c r="D193">
         <f>D192</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E193" t="s">
         <v>14</v>
@@ -8463,17 +8622,17 @@
       </c>
       <c r="H193">
         <f>H192+C193</f>
-        <v>2783817.686560648</v>
+        <v>3291188.6445184965</v>
       </c>
     </row>
     <row r="194" spans="1:65" ht="19.5">
       <c r="C194">
         <f>H193*D194</f>
-        <v>100819.96058179987</v>
+        <v>120904.26331007095</v>
       </c>
       <c r="D194">
         <f>D193</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E194" t="s">
         <v>15</v>
@@ -8483,17 +8642,17 @@
       </c>
       <c r="H194">
         <f>H193+C194</f>
-        <v>2884637.647142448</v>
+        <v>3412092.9078285675</v>
       </c>
     </row>
     <row r="195" spans="1:65" ht="19.5">
       <c r="C195">
         <f>H194*D195</f>
-        <v>104471.30043095283</v>
+        <v>125345.771368534</v>
       </c>
       <c r="D195">
         <f>D194</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E195" t="s">
         <v>16</v>
@@ -8503,17 +8662,17 @@
       </c>
       <c r="H195">
         <f>H194+C195</f>
-        <v>2989108.947573401</v>
+        <v>3537438.6791971014</v>
       </c>
     </row>
     <row r="196" spans="1:65" ht="19.5">
       <c r="C196">
         <f>H195*D196</f>
-        <v>108254.87880328191</v>
+        <v>129950.44152974937</v>
       </c>
       <c r="D196">
         <f>D195</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E196" t="s">
         <v>17</v>
@@ -8523,17 +8682,17 @@
       </c>
       <c r="H196">
         <f>H195+C196</f>
-        <v>3097363.8263766831</v>
+        <v>3667389.1207268508</v>
       </c>
     </row>
     <row r="197" spans="1:65" ht="19.5">
       <c r="C197">
         <f>H196*D197</f>
-        <v>112175.48490705977</v>
+        <v>134724.26767494483</v>
       </c>
       <c r="D197">
         <f>D196</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E197" t="s">
         <v>11</v>
@@ -8543,17 +8702,17 @@
       </c>
       <c r="H197">
         <f>H196+C197</f>
-        <v>3209539.311283743</v>
+        <v>3802113.3884017956</v>
       </c>
     </row>
     <row r="198" spans="1:65" ht="19.5">
       <c r="C198">
         <f>H197*D198</f>
-        <v>116238.0813986234</v>
+        <v>139673.46387503413</v>
       </c>
       <c r="D198">
         <f>D197</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E198" t="s">
         <v>12</v>
@@ -8563,17 +8722,17 @@
       </c>
       <c r="H198">
         <f>H197+C198</f>
-        <v>3325777.3926823665</v>
+        <v>3941786.85227683</v>
       </c>
     </row>
     <row r="199" spans="1:65" ht="19.5">
       <c r="C199">
         <f>H198*D199</f>
-        <v>120447.81066404523</v>
+        <v>144804.47247944897</v>
       </c>
       <c r="D199">
         <f>D198</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E199" t="s">
         <v>13</v>
@@ -8583,17 +8742,17 @@
       </c>
       <c r="H199">
         <f>H198+C199</f>
-        <v>3446225.2033464117</v>
+        <v>4086591.3247562791</v>
       </c>
     </row>
     <row r="200" spans="1:65" ht="19.5">
       <c r="C200">
         <f>H199*D200</f>
-        <v>124810.00132830394</v>
+        <v>150123.97250212016</v>
       </c>
       <c r="D200">
         <f>D199</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E200" t="s">
         <v>14</v>
@@ -8603,17 +8762,17 @@
       </c>
       <c r="H200">
         <f>H199+C200</f>
-        <v>3571035.2046747156</v>
+        <v>4236715.2972583994</v>
       </c>
     </row>
     <row r="201" spans="1:65" ht="19.5">
       <c r="C201">
         <f>H200*D201</f>
-        <v>129330.17500019423</v>
+        <v>155638.888315524</v>
       </c>
       <c r="D201">
         <f>D200</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E201" t="s">
         <v>15</v>
@@ -8623,17 +8782,17 @@
       </c>
       <c r="H201">
         <f>H200+C201</f>
-        <v>3700365.3796749096</v>
+        <v>4392354.1855739234</v>
       </c>
     </row>
     <row r="202" spans="1:65" ht="19.5">
       <c r="C202">
         <f>H201*D202</f>
-        <v>134014.05326151327</v>
+        <v>161356.3986641111</v>
       </c>
       <c r="D202">
         <f>D201</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E202" t="s">
         <v>16</v>
@@ -8643,17 +8802,17 @@
       </c>
       <c r="H202">
         <f>H201+C202</f>
-        <v>3834379.432936423</v>
+        <v>4553710.5842380347</v>
       </c>
     </row>
     <row r="203" spans="1:65" ht="19.5">
       <c r="C203">
         <f>H202*D203</f>
-        <v>138867.56490937047</v>
+        <v>167283.94600885001</v>
       </c>
       <c r="D203">
         <f>D202</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E203" t="s">
         <v>17</v>
@@ -8663,17 +8822,17 @@
       </c>
       <c r="H203">
         <f>H202+C203</f>
-        <v>3973246.9978457936</v>
+        <v>4720994.5302468846</v>
       </c>
     </row>
     <row r="204" spans="1:65" ht="19.5">
       <c r="C204">
         <f>H203*D204</f>
-        <v>143896.85346078806</v>
+        <v>173429.24621504973</v>
       </c>
       <c r="D204">
         <f>D203</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E204" t="s">
         <v>11</v>
@@ -8683,17 +8842,17 @@
       </c>
       <c r="H204">
         <f>H203+C204</f>
-        <v>4117143.8513065819</v>
+        <v>4894423.7764619347</v>
       </c>
     </row>
     <row r="205" spans="1:65" ht="19.5">
       <c r="C205">
         <f>H204*D205</f>
-        <v>149108.28492909146</v>
+        <v>179800.29859607155</v>
       </c>
       <c r="D205">
         <f>D204</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E205" t="s">
         <v>12</v>
@@ -8703,17 +8862,17 @@
       </c>
       <c r="H205">
         <f>H204+C205</f>
-        <v>4266252.136235673</v>
+        <v>5074224.0750580058</v>
       </c>
     </row>
     <row r="206" spans="1:65" ht="19.5">
       <c r="C206">
         <f>H205*D206</f>
-        <v>154508.45588193278</v>
+        <v>186405.39632600403</v>
       </c>
       <c r="D206">
         <f>D205</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E206" t="s">
         <v>13</v>
@@ -8723,17 +8882,17 @@
       </c>
       <c r="H206">
         <f>H205+C206</f>
-        <v>4420760.5921176057</v>
+        <v>5260629.4713840093</v>
       </c>
     </row>
     <row r="207" spans="1:65" ht="19.5">
       <c r="C207">
         <f>H206*D207</f>
-        <v>160104.20179114747</v>
+        <v>193253.13723485568</v>
       </c>
       <c r="D207">
         <f>D206</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E207" t="s">
         <v>14</v>
@@ -8743,17 +8902,17 @@
       </c>
       <c r="H207">
         <f>H206+C207</f>
-        <v>4580864.7939087534</v>
+        <v>5453882.6086188648</v>
       </c>
     </row>
     <row r="208" spans="1:65" ht="19.5">
       <c r="C208">
         <f>H207*D208</f>
-        <v>165902.60568501265</v>
+        <v>200352.43500031653</v>
       </c>
       <c r="D208">
         <f>D207</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E208" t="s">
         <v>15</v>
@@ -8763,17 +8922,17 @@
       </c>
       <c r="H208">
         <f>H207+C208</f>
-        <v>4746767.3995937658</v>
+        <v>5654235.043619181</v>
       </c>
     </row>
     <row r="209" spans="1:65" ht="19.5">
       <c r="C209">
         <f>H208*D209</f>
-        <v>171911.00711385976</v>
+        <v>207712.53075065781</v>
       </c>
       <c r="D209">
         <f>D208</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E209" t="s">
         <v>16</v>
@@ -8783,17 +8942,17 @@
       </c>
       <c r="H209">
         <f>H208+C209</f>
-        <v>4918678.4067076258</v>
+        <v>5861947.5743698385</v>
       </c>
     </row>
     <row r="210" spans="1:65" ht="19.5">
       <c r="C210">
         <f>H209*D210</f>
-        <v>178137.01144038959</v>
+        <v>215343.00509387275</v>
       </c>
       <c r="D210">
         <f>D209</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E210" t="s">
         <v>17</v>
@@ -8803,17 +8962,17 @@
       </c>
       <c r="H210">
         <f>H209+C210</f>
-        <v>5096815.4181480156</v>
+        <v>6077290.579463711</v>
       </c>
     </row>
     <row r="211" spans="1:65" ht="19.5">
       <c r="C211">
         <f>H210*D211</f>
-        <v>184588.49946644946</v>
+        <v>223253.79058871654</v>
       </c>
       <c r="D211">
         <f>D210</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E211" t="s">
         <v>11</v>
@@ -8823,17 +8982,17 @@
       </c>
       <c r="H211">
         <f>H210+C211</f>
-        <v>5281403.9176144646</v>
+        <v>6300544.370052428</v>
       </c>
     </row>
     <row r="212" spans="1:65" ht="19.5">
       <c r="C212">
         <f>H211*D212</f>
-        <v>191273.63740845799</v>
+        <v>231455.18467387953</v>
       </c>
       <c r="D212">
         <f>D211</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E212" t="s">
         <v>12</v>
@@ -8843,17 +9002,17 @@
       </c>
       <c r="H212">
         <f>H211+C212</f>
-        <v>5472677.5550229223</v>
+        <v>6531999.5547263073</v>
       </c>
     </row>
     <row r="213" spans="1:65" ht="19.5">
       <c r="C213">
         <f>H212*D213</f>
-        <v>198200.88723410424</v>
+        <v>239957.86307212306</v>
       </c>
       <c r="D213">
         <f>D212</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E213" t="s">
         <v>13</v>
@@ -8863,17 +9022,17 @@
       </c>
       <c r="H213">
         <f>H212+C213</f>
-        <v>5670878.4422570262</v>
+        <v>6771957.4177984307</v>
       </c>
     </row>
     <row r="214" spans="1:65" ht="19.5">
       <c r="C214">
         <f>H213*D214</f>
-        <v>205379.01737340522</v>
+        <v>248772.89368682622</v>
       </c>
       <c r="D214">
         <f>D213</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E214" t="s">
         <v>14</v>
@@ -8883,17 +9042,17 @@
       </c>
       <c r="H214">
         <f>H213+C214</f>
-        <v>5876257.4596304316</v>
+        <v>7020730.311485257</v>
       </c>
     </row>
     <row r="215" spans="1:65" ht="19.5">
       <c r="C215">
         <f>H214*D215</f>
-        <v>212817.11381767981</v>
+        <v>257911.7510090326</v>
       </c>
       <c r="D215">
         <f>D214</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E215" t="s">
         <v>15</v>
@@ -8903,17 +9062,17 @@
       </c>
       <c r="H215">
         <f>H214+C215</f>
-        <v>6089074.5734481113</v>
+        <v>7278642.0624942891</v>
       </c>
     </row>
     <row r="216" spans="1:65" ht="19.5">
       <c r="C216">
         <f>H215*D216</f>
-        <v>220524.59162048795</v>
+        <v>267386.33105375065</v>
       </c>
       <c r="D216">
         <f>D215</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E216" t="s">
         <v>16</v>
@@ -8923,17 +9082,17 @@
       </c>
       <c r="H216">
         <f>H215+C216</f>
-        <v>6309599.1650685994</v>
+        <v>7546028.3935480397</v>
       </c>
     </row>
     <row r="217" spans="1:65" ht="19.5">
       <c r="C217">
         <f>H216*D217</f>
-        <v>228511.20681509285</v>
+        <v>277208.96684495005</v>
       </c>
       <c r="D217">
         <f>D216</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E217" t="s">
         <v>17</v>
@@ -8943,17 +9102,17 @@
       </c>
       <c r="H217">
         <f>H216+C217</f>
-        <v>6538110.3718836922</v>
+        <v>7823237.3603929896</v>
       </c>
     </row>
     <row r="218" spans="1:65" ht="19.5">
       <c r="C218">
         <f>H217*D218</f>
-        <v>236787.06876353128</v>
+        <v>287392.4444694111</v>
       </c>
       <c r="D218">
         <f>D217</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E218" t="s">
         <v>11</v>
@@ -8963,17 +9122,17 @@
       </c>
       <c r="H218">
         <f>H217+C218</f>
-        <v>6774897.440647224</v>
+        <v>8110629.8048624005</v>
       </c>
     </row>
     <row r="219" spans="1:65" ht="19.5">
       <c r="C219">
         <f>H218*D219</f>
-        <v>245362.65295292326</v>
+        <v>297950.0197203242</v>
       </c>
       <c r="D219">
         <f>D218</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E219" t="s">
         <v>12</v>
@@ -8983,17 +9142,17 @@
       </c>
       <c r="H219">
         <f>H218+C219</f>
-        <v>7020260.0936001474</v>
+        <v>8408579.8245827239</v>
       </c>
     </row>
     <row r="220" spans="1:65" ht="19.5">
       <c r="C220">
         <f>H219*D220</f>
-        <v>254248.81425521823</v>
+        <v>308895.4353523039</v>
       </c>
       <c r="D220">
         <f>D219</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E220" t="s">
         <v>13</v>
@@ -9003,17 +9162,17 @@
       </c>
       <c r="H220">
         <f>H219+C220</f>
-        <v>7274508.9078553654</v>
+        <v>8717475.259935027</v>
       </c>
     </row>
     <row r="221" spans="1:65" ht="19.5">
       <c r="C221">
         <f>H220*D221</f>
-        <v>263456.80066716246</v>
+        <v>320242.93897027947</v>
       </c>
       <c r="D221">
         <f>D220</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E221" t="s">
         <v>14</v>
@@ -9023,17 +9182,17 @@
       </c>
       <c r="H221">
         <f>H220+C221</f>
-        <v>7537965.7085225275</v>
+        <v>9037718.1989053059</v>
       </c>
     </row>
     <row r="222" spans="1:65" ht="19.5">
       <c r="C222">
         <f>H221*D222</f>
-        <v>272998.26754787867</v>
+        <v>332007.30157554673</v>
       </c>
       <c r="D222">
         <f>D221</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E222" t="s">
         <v>15</v>
@@ -9043,17 +9202,17 @@
       </c>
       <c r="H222">
         <f>H221+C222</f>
-        <v>7810963.9760704059</v>
+        <v>9369725.500480853</v>
       </c>
     </row>
     <row r="223" spans="1:65" ht="19.5">
       <c r="C223">
         <f>H222*D223</f>
-        <v>282885.29237208032</v>
+        <v>344203.83679312275</v>
       </c>
       <c r="D223">
         <f>D222</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E223" t="s">
         <v>16</v>
@@ -9063,17 +9222,17 @@
       </c>
       <c r="H223">
         <f>H222+C223</f>
-        <v>8093849.2684424864</v>
+        <v>9713929.3372739758</v>
       </c>
     </row>
     <row r="224" spans="1:65" ht="19.5">
       <c r="C224">
         <f>H223*D224</f>
-        <v>293130.39001759479</v>
+        <v>356848.42080543202</v>
       </c>
       <c r="D224">
         <f>D223</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E224" t="s">
         <v>17</v>
@@ -9083,17 +9242,17 @@
       </c>
       <c r="H224">
         <f>H223+C224</f>
-        <v>8386979.6584600816</v>
+        <v>10070777.758079408</v>
       </c>
     </row>
     <row r="225" spans="1:65" ht="19.5">
       <c r="C225">
         <f>H224*D225</f>
-        <v>303746.52860654605</v>
+        <v>369957.51301827142</v>
       </c>
       <c r="D225">
         <f>D224</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E225" t="s">
         <v>11</v>
@@ -9103,17 +9262,17 @@
       </c>
       <c r="H225">
         <f>H224+C225</f>
-        <v>8690726.1870666277</v>
+        <v>10440735.271097679</v>
       </c>
     </row>
     <row r="226" spans="1:65" ht="19.5">
       <c r="C226">
         <f>H225*D226</f>
-        <v>314747.14592024864</v>
+        <v>383548.17748595466</v>
       </c>
       <c r="D226">
         <f>D225</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E226" t="s">
         <v>12</v>
@@ -9123,17 +9282,17 @@
       </c>
       <c r="H226">
         <f>H225+C226</f>
-        <v>9005473.3329868764</v>
+        <v>10824283.448583633</v>
       </c>
     </row>
     <row r="227" spans="1:65" ht="19.5">
       <c r="C227">
         <f>H226*D227</f>
-        <v>326146.16640859056</v>
+        <v>397638.10512352525</v>
       </c>
       <c r="D227">
         <f>D226</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E227" t="s">
         <v>13</v>
@@ -9143,17 +9302,17 @@
       </c>
       <c r="H227">
         <f>H226+C227</f>
-        <v>9331619.4993954673</v>
+        <v>11221921.553707158</v>
       </c>
     </row>
     <row r="228" spans="1:65" ht="19.5">
       <c r="C228">
         <f>H227*D228</f>
-        <v>337958.01881543564</v>
+        <v>412245.63673495187</v>
       </c>
       <c r="D228">
         <f>D227</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E228" t="s">
         <v>14</v>
@@ -9163,17 +9322,17 @@
       </c>
       <c r="H228">
         <f>H227+C228</f>
-        <v>9669577.5182109028</v>
+        <v>11634167.190442109</v>
       </c>
     </row>
     <row r="229" spans="1:65" ht="19.5">
       <c r="C229">
         <f>H228*D229</f>
-        <v>350197.6544423548</v>
+        <v>427389.78688728152</v>
       </c>
       <c r="D229">
         <f>D228</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E229" t="s">
         <v>15</v>
@@ -9183,17 +9342,17 @@
       </c>
       <c r="H229">
         <f>H228+C229</f>
-        <v>10019775.172653258</v>
+        <v>12061556.97732939</v>
       </c>
     </row>
     <row r="230" spans="1:65" ht="19.5">
       <c r="C230">
         <f>H229*D230</f>
-        <v>362880.56607380509</v>
+        <v>443090.26866182737</v>
       </c>
       <c r="D230">
         <f>D229</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E230" t="s">
         <v>16</v>
@@ -9203,17 +9362,17 @@
       </c>
       <c r="H230">
         <f>H229+C230</f>
-        <v>10382655.738727063</v>
+        <v>12504647.245991217</v>
       </c>
     </row>
     <row r="231" spans="1:65" ht="19.5">
       <c r="C231">
         <f>H230*D231</f>
-        <v>376022.80758771079</v>
+        <v>459367.51931461005</v>
       </c>
       <c r="D231">
         <f>D230</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E231" t="s">
         <v>17</v>
@@ -9223,17 +9382,17 @@
       </c>
       <c r="H231">
         <f>H230+C231</f>
-        <v>10758678.546314774</v>
+        <v>12964014.765305826</v>
       </c>
     </row>
     <row r="232" spans="1:65" ht="19.5">
       <c r="C232">
         <f>H231*D232</f>
-        <v>389641.01427627041</v>
+        <v>476242.72687945422</v>
       </c>
       <c r="D232">
         <f>D231</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E232" t="s">
         <v>11</v>
@@ -9243,17 +9402,17 @@
       </c>
       <c r="H232">
         <f>H231+C232</f>
-        <v>11148319.560591044</v>
+        <v>13440257.49218528</v>
       </c>
     </row>
     <row r="233" spans="1:65" ht="19.5">
       <c r="C233">
         <f>H232*D233</f>
-        <v>403752.42390271043</v>
+        <v>493737.85774836969</v>
       </c>
       <c r="D233">
         <f>D232</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E233" t="s">
         <v>12</v>
@@ -9263,17 +9422,17 @@
       </c>
       <c r="H233">
         <f>H232+C233</f>
-        <v>11552071.984493755</v>
+        <v>13933995.34993365</v>
       </c>
     </row>
     <row r="234" spans="1:65" ht="19.5">
       <c r="C234">
         <f>H233*D234</f>
-        <v>418374.89852064039</v>
+        <v>511875.68526511866</v>
       </c>
       <c r="D234">
         <f>D233</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E234" t="s">
         <v>13</v>
@@ -9283,17 +9442,17 @@
       </c>
       <c r="H234">
         <f>H233+C234</f>
-        <v>11970446.883014396</v>
+        <v>14445871.035198769</v>
       </c>
     </row>
     <row r="235" spans="1:65" ht="19.5">
       <c r="C235">
         <f>H234*D235</f>
-        <v>433526.94708362612</v>
+        <v>530679.81936918828</v>
       </c>
       <c r="D235">
         <f>D234</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E235" t="s">
         <v>14</v>
@@ -9303,17 +9462,17 @@
       </c>
       <c r="H235">
         <f>H234+C235</f>
-        <v>12403973.830098022</v>
+        <v>14976550.854567956</v>
       </c>
     </row>
     <row r="236" spans="1:65" ht="19.5">
       <c r="C236">
         <f>H235*D236</f>
-        <v>449227.74887360248</v>
+        <v>550174.73732875718</v>
       </c>
       <c r="D236">
         <f>D235</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E236" t="s">
         <v>15</v>
@@ -9323,17 +9482,17 @@
       </c>
       <c r="H236">
         <f>H235+C236</f>
-        <v>12853201.578971624</v>
+        <v>15526725.591896713</v>
       </c>
     </row>
     <row r="237" spans="1:65" ht="19.5">
       <c r="C237">
         <f>H236*D237</f>
-        <v>465497.17777777888</v>
+        <v>570385.81560266053</v>
       </c>
       <c r="D237">
         <f>D236</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E237" t="s">
         <v>16</v>
@@ -9343,17 +9502,17 @@
       </c>
       <c r="H237">
         <f>H236+C237</f>
-        <v>13318698.756749403</v>
+        <v>16097111.407499373</v>
       </c>
     </row>
     <row r="238" spans="1:65" ht="19.5">
       <c r="C238">
         <f>H237*D238</f>
-        <v>482355.82744476822</v>
+        <v>591339.3628728271</v>
       </c>
       <c r="D238">
         <f>D237</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E238" t="s">
         <v>17</v>
@@ -9363,17 +9522,17 @@
       </c>
       <c r="H238">
         <f>H237+C238</f>
-        <v>13801054.58419417</v>
+        <v>16688450.770372201</v>
       </c>
     </row>
     <row r="239" spans="1:65" ht="19.5">
       <c r="C239">
         <f>H238*D239</f>
-        <v>499825.03735178109</v>
+        <v>613062.65429018845</v>
       </c>
       <c r="D239">
         <f>D238</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E239" t="s">
         <v>11</v>
@@ -9383,17 +9542,17 @@
       </c>
       <c r="H239">
         <f>H238+C239</f>
-        <v>14300879.621545952</v>
+        <v>17301513.424662389</v>
       </c>
     </row>
     <row r="240" spans="1:65" ht="19.5">
       <c r="C240">
         <f>H239*D240</f>
-        <v>517926.91981588094</v>
+        <v>635583.96697863692</v>
       </c>
       <c r="D240">
         <f>D239</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E240" t="s">
         <v>12</v>
@@ -9403,17 +9562,17 @@
       </c>
       <c r="H240">
         <f>H239+C240</f>
-        <v>14818806.541361833</v>
+        <v>17937097.391641025</v>
       </c>
     </row>
     <row r="241" spans="1:65" ht="19.5">
       <c r="C241">
         <f>H240*D241</f>
-        <v>536684.3879834906</v>
+        <v>658932.61684324744</v>
       </c>
       <c r="D241">
         <f>D240</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E241" t="s">
         <v>13</v>
@@ -9423,17 +9582,17 @@
       </c>
       <c r="H241">
         <f>H240+C241</f>
-        <v>15355490.929345323</v>
+        <v>18596030.00848427</v>
       </c>
     </row>
     <row r="242" spans="1:65" ht="19.5">
       <c r="C242">
         <f>H241*D242</f>
-        <v>556121.18483357923</v>
+        <v>683138.9967306772</v>
       </c>
       <c r="D242">
         <f>D241</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E242" t="s">
         <v>14</v>
@@ -9443,17 +9602,17 @@
       </c>
       <c r="H242">
         <f>H241+C242</f>
-        <v>15911612.114178902</v>
+        <v>19279169.005214948</v>
       </c>
     </row>
     <row r="243" spans="1:65" ht="19.5">
       <c r="C243">
         <f>H242*D243</f>
-        <v>576261.91323124093</v>
+        <v>708234.61599141615</v>
       </c>
       <c r="D243">
         <f>D242</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E243" t="s">
         <v>15</v>
@@ -9463,17 +9622,17 @@
       </c>
       <c r="H243">
         <f>H242+C243</f>
-        <v>16487874.027410142</v>
+        <v>19987403.621206366</v>
       </c>
     </row>
     <row r="244" spans="1:65" ht="19.5">
       <c r="C244">
         <f>H243*D244</f>
-        <v>597132.06706970802</v>
+        <v>734252.14149538521</v>
       </c>
       <c r="D244">
         <f>D243</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E244" t="s">
         <v>16</v>
@@ -9483,17 +9642,17 @@
       </c>
       <c r="H244">
         <f>H243+C244</f>
-        <v>17085006.094479851</v>
+        <v>20721655.76270175</v>
       </c>
     </row>
     <row r="245" spans="1:65" ht="19.5">
       <c r="C245">
         <f>H244*D245</f>
-        <v>618758.06354021549</v>
+        <v>761225.44015427423</v>
       </c>
       <c r="D245">
         <f>D244</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E245" t="s">
         <v>17</v>
@@ -9503,17 +9662,17 @@
       </c>
       <c r="H245">
         <f>H244+C245</f>
-        <v>17703764.158020068</v>
+        <v>21482881.202856023</v>
       </c>
     </row>
     <row r="246" spans="1:65" ht="19.5">
       <c r="C246">
         <f>H245*D246</f>
-        <v>641167.27657056611</v>
+        <v>789189.62300596898</v>
       </c>
       <c r="D246">
         <f>D245</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E246" t="s">
         <v>11</v>
@@ -9523,17 +9682,17 @@
       </c>
       <c r="H246">
         <f>H245+C246</f>
-        <v>18344931.434590634</v>
+        <v>22272070.82586199</v>
       </c>
     </row>
     <row r="247" spans="1:65" ht="19.5">
       <c r="C247">
         <f>H246*D247</f>
-        <v>664388.07147472131</v>
+        <v>818181.09091845283</v>
       </c>
       <c r="D247">
         <f>D246</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E247" t="s">
         <v>12</v>
@@ -9543,17 +9702,17 @@
       </c>
       <c r="H247">
         <f>H246+C247</f>
-        <v>19009319.506065354</v>
+        <v>23090251.916780442</v>
       </c>
     </row>
     <row r="248" spans="1:65" ht="19.5">
       <c r="C248">
         <f>H247*D248</f>
-        <v>688449.84085727599</v>
+        <v>848237.58197267435</v>
       </c>
       <c r="D248">
         <f>D247</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E248" t="s">
         <v>13</v>
@@ -9563,17 +9722,17 @@
       </c>
       <c r="H248">
         <f>H247+C248</f>
-        <v>19697769.346922629</v>
+        <v>23938489.498753116</v>
       </c>
     </row>
     <row r="249" spans="1:65" ht="19.5">
       <c r="C249">
         <f>H248*D249</f>
-        <v>713383.04181826673</v>
+        <v>879398.22058606078</v>
       </c>
       <c r="D249">
         <f>D248</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E249" t="s">
         <v>14</v>
@@ -9583,17 +9742,17 @@
       </c>
       <c r="H249">
         <f>H248+C249</f>
-        <v>20411152.388740897</v>
+        <v>24817887.719339177</v>
       </c>
     </row>
     <row r="250" spans="1:65" ht="19.5">
       <c r="C250">
         <f>H249*D250</f>
-        <v>739219.23450540425</v>
+        <v>911703.56844061997</v>
       </c>
       <c r="D250">
         <f>D249</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E250" t="s">
         <v>15</v>
@@ -9603,17 +9762,17 @@
       </c>
       <c r="H250">
         <f>H249+C250</f>
-        <v>21150371.623246301</v>
+        <v>25729591.287779797</v>
       </c>
     </row>
     <row r="251" spans="1:65" ht="19.5">
       <c r="C251">
         <f>H250*D251</f>
-        <v>765991.12206253118</v>
+        <v>945195.67728192359</v>
       </c>
       <c r="D251">
         <f>D250</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E251" t="s">
         <v>16</v>
@@ -9623,17 +9782,17 @@
       </c>
       <c r="H251">
         <f>H250+C251</f>
-        <v>21916362.745308831</v>
+        <v>26674786.96506172</v>
       </c>
     </row>
     <row r="252" spans="1:65" ht="19.5">
       <c r="C252">
         <f>H251*D252</f>
-        <v>793732.59202487115</v>
+        <v>979918.14365770109</v>
       </c>
       <c r="D252">
         <f>D251</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E252" t="s">
         <v>17</v>
@@ -9643,17 +9802,17 @@
       </c>
       <c r="H252">
         <f>H251+C252</f>
-        <v>22710095.337333702</v>
+        <v>27654705.108719423</v>
       </c>
     </row>
     <row r="253" spans="1:65" ht="19.5">
       <c r="C253">
         <f>H252*D253</f>
-        <v>822478.75921346515</v>
+        <v>1015916.1656672964</v>
       </c>
       <c r="D253">
         <f>D252</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E253" t="s">
         <v>11</v>
@@ -9663,17 +9822,17 @@
       </c>
       <c r="H253">
         <f>H252+C253</f>
-        <v>23532574.096547168</v>
+        <v>28670621.274386719</v>
       </c>
     </row>
     <row r="254" spans="1:65" ht="19.5">
       <c r="C254">
         <f>H253*D254</f>
-        <v>852266.01018309244</v>
+        <v>1053236.6017958571</v>
       </c>
       <c r="D254">
         <f>D253</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E254" t="s">
         <v>12</v>
@@ -9683,17 +9842,17 @@
       </c>
       <c r="H254">
         <f>H253+C254</f>
-        <v>24384840.10673026</v>
+        <v>29723857.876182575</v>
       </c>
     </row>
     <row r="255" spans="1:65" ht="19.5">
       <c r="C255">
         <f>H254*D255</f>
-        <v>883132.04927993659</v>
+        <v>1091928.0319098425</v>
       </c>
       <c r="D255">
         <f>D254</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E255" t="s">
         <v>13</v>
@@ -9703,17 +9862,17 @@
       </c>
       <c r="H255">
         <f>H254+C255</f>
-        <v>25267972.156010196</v>
+        <v>30815785.908092417</v>
       </c>
     </row>
     <row r="256" spans="1:65" ht="19.5">
       <c r="C256">
         <f>H255*D256</f>
-        <v>915115.94636729627</v>
+        <v>1132040.8204932481</v>
       </c>
       <c r="D256">
         <f>D255</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E256" t="s">
         <v>14</v>
@@ -9723,17 +9882,17 @@
       </c>
       <c r="H256">
         <f>H255+C256</f>
-        <v>26183088.102377493</v>
+        <v>31947826.728585664</v>
       </c>
     </row>
     <row r="257" spans="1:65" ht="19.5">
       <c r="C257">
         <f>H256*D257</f>
-        <v>948258.18627975089</v>
+        <v>1173627.1822068556</v>
       </c>
       <c r="D257">
         <f>D256</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E257" t="s">
         <v>15</v>
@@ -9743,17 +9902,17 @@
       </c>
       <c r="H257">
         <f>H256+C257</f>
-        <v>27131346.288657244</v>
+        <v>33121453.910792518</v>
       </c>
     </row>
     <row r="258" spans="1:65" ht="19.5">
       <c r="C258">
         <f>H257*D258</f>
-        <v>982600.72006838035</v>
+        <v>1216741.2498558566</v>
       </c>
       <c r="D258">
         <f>D257</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E258" t="s">
         <v>16</v>
@@ -9763,17 +9922,17 @@
       </c>
       <c r="H258">
         <f>H257+C258</f>
-        <v>28113947.008725625</v>
+        <v>34338195.160648376</v>
       </c>
     </row>
     <row r="259" spans="1:65" ht="19.5">
       <c r="C259">
         <f>H258*D259</f>
-        <v>1018187.0181019043</v>
+        <v>1261439.1448543123</v>
       </c>
       <c r="D259">
         <f>D258</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E259" t="s">
         <v>17</v>
@@ -9783,17 +9942,17 @@
       </c>
       <c r="H259">
         <f>H258+C259</f>
-        <v>29132134.026827529</v>
+        <v>35599634.30550269</v>
       </c>
     </row>
     <row r="260" spans="1:65" ht="19.5">
       <c r="C260">
         <f>H259*D260</f>
-        <v>1055062.1250909546</v>
+        <v>1307779.0502781807</v>
       </c>
       <c r="D260">
         <f>D259</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E260" t="s">
         <v>11</v>
@@ -9803,17 +9962,17 @@
       </c>
       <c r="H260">
         <f>H259+C260</f>
-        <v>30187196.151918482</v>
+        <v>36907413.35578087</v>
       </c>
     </row>
     <row r="261" spans="1:65" ht="19.5">
       <c r="C261">
         <f>H260*D261</f>
-        <v>1093272.7171051318</v>
+        <v>1355821.2866019998</v>
       </c>
       <c r="D261">
         <f>D260</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E261" t="s">
         <v>12</v>
@@ -9823,17 +9982,17 @@
       </c>
       <c r="H261">
         <f>H260+C261</f>
-        <v>31280468.869023614</v>
+        <v>38263234.642382868</v>
       </c>
     </row>
     <row r="262" spans="1:65" ht="19.5">
       <c r="C262">
         <f>H261*D262</f>
-        <v>1132867.1606550168</v>
+        <v>1405628.3902178151</v>
       </c>
       <c r="D262">
         <f>D261</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E262" t="s">
         <v>13</v>
@@ -9843,17 +10002,17 @@
       </c>
       <c r="H262">
         <f>H261+C262</f>
-        <v>32413336.029678632</v>
+        <v>39668863.032600686</v>
       </c>
     </row>
     <row r="263" spans="1:65" ht="19.5">
       <c r="C263">
         <f>H262*D263</f>
-        <v>1173895.57391392</v>
+        <v>1457265.1948385569</v>
       </c>
       <c r="D263">
         <f>D262</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E263" t="s">
         <v>14</v>
@@ -9863,17 +10022,17 @@
       </c>
       <c r="H263">
         <f>H262+C263</f>
-        <v>33587231.603592552</v>
+        <v>41126128.22743924</v>
       </c>
     </row>
     <row r="264" spans="1:65" ht="19.5">
       <c r="C264">
         <f>H263*D264</f>
-        <v>1216409.8901568679</v>
+        <v>1510798.9158918329</v>
       </c>
       <c r="D264">
         <f>D263</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E264" t="s">
         <v>15</v>
@@ -9883,17 +10042,17 @@
       </c>
       <c r="H264">
         <f>H263+C264</f>
-        <v>34803641.493749417</v>
+        <v>42636927.143331073</v>
       </c>
     </row>
     <row r="265" spans="1:65" ht="19.5">
       <c r="C265">
         <f>H264*D265</f>
-        <v>1260463.9234971202</v>
+        <v>1566299.2380139881</v>
       </c>
       <c r="D265">
         <f>D264</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E265" t="s">
         <v>16</v>
@@ -9903,17 +10062,17 @@
       </c>
       <c r="H265">
         <f>H264+C265</f>
-        <v>36064105.417246535</v>
+        <v>44203226.381345063</v>
       </c>
     </row>
     <row r="266" spans="1:65" ht="19.5">
       <c r="C266">
         <f>H265*D266</f>
-        <v>1306113.4370034321</v>
+        <v>1623838.4057583252</v>
       </c>
       <c r="D266">
         <f>D265</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E266" t="s">
         <v>17</v>
@@ -9923,17 +10082,17 @@
       </c>
       <c r="H266">
         <f>H265+C266</f>
-        <v>37370218.854249969</v>
+        <v>45827064.787103392</v>
       </c>
     </row>
     <row r="267" spans="1:65" ht="19.5">
       <c r="C267">
         <f>H266*D267</f>
-        <v>1353416.2132842797</v>
+        <v>1683491.3176355578</v>
       </c>
       <c r="D267">
         <f>D266</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E267" t="s">
         <v>11</v>
@@ -9943,17 +10102,17 @@
       </c>
       <c r="H267">
         <f>H266+C267</f>
-        <v>38723635.067534246</v>
+        <v>47510556.104738951</v>
       </c>
     </row>
     <row r="268" spans="1:65" ht="19.5">
       <c r="C268">
         <f>H267*D268</f>
-        <v>1402432.1276283949</v>
+        <v>1745335.6236089112</v>
       </c>
       <c r="D268">
         <f>D267</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E268" t="s">
         <v>12</v>
@@ -9963,17 +10122,17 @@
       </c>
       <c r="H268">
         <f>H267+C268</f>
-        <v>40126067.195162639</v>
+        <v>49255891.72834786</v>
       </c>
     </row>
     <row r="269" spans="1:65" ht="19.5">
       <c r="C269">
         <f>H268*D269</f>
-        <v>1453223.2237941904</v>
+        <v>1809451.8261707765</v>
       </c>
       <c r="D269">
         <f>D268</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E269" t="s">
         <v>13</v>
@@ -9983,17 +10142,17 @@
       </c>
       <c r="H269">
         <f>H268+C269</f>
-        <v>41579290.418956831</v>
+        <v>51065343.55451864</v>
       </c>
     </row>
     <row r="270" spans="1:65" ht="19.5">
       <c r="C270">
         <f>H269*D270</f>
-        <v>1505853.7925440075</v>
+        <v>1875923.3851324923</v>
       </c>
       <c r="D270">
         <f>D269</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E270" t="s">
         <v>14</v>
@@ -10003,17 +10162,17 @@
       </c>
       <c r="H270">
         <f>H269+C270</f>
-        <v>43085144.211500838</v>
+        <v>52941266.939651132</v>
       </c>
     </row>
     <row r="271" spans="1:65" ht="19.5">
       <c r="C271">
         <f>H270*D271</f>
-        <v>1560390.4530225934</v>
+        <v>1944836.8262636554</v>
       </c>
       <c r="D271">
         <f>D270</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E271" t="s">
         <v>15</v>
@@ -10023,17 +10182,17 @@
       </c>
       <c r="H271">
         <f>H270+C271</f>
-        <v>44645534.66452343</v>
+        <v>54886103.76591479</v>
       </c>
     </row>
     <row r="272" spans="1:65" ht="19.5">
       <c r="C272">
         <f>H271*D272</f>
-        <v>1616902.2370828199</v>
+        <v>2016281.8539223799</v>
       </c>
       <c r="D272">
         <f>D271</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E272" t="s">
         <v>16</v>
@@ -10043,17 +10202,17 @@
       </c>
       <c r="H272">
         <f>H271+C272</f>
-        <v>46262436.901606247</v>
+        <v>56902385.619837172</v>
       </c>
     </row>
     <row r="273" spans="1:65" ht="19.5">
       <c r="C273">
         <f>H272*D273</f>
-        <v>1675460.6766653762</v>
+        <v>2090351.4678231094</v>
       </c>
       <c r="D273">
         <f>D272</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E273" t="s">
         <v>17</v>
@@ -10063,17 +10222,17 @@
       </c>
       <c r="H273">
         <f>H272+C273</f>
-        <v>47937897.57827162</v>
+        <v>58992737.087660283</v>
       </c>
     </row>
     <row r="274" spans="1:65" ht="19.5">
       <c r="C274">
         <f>H273*D274</f>
-        <v>1736139.8943430453</v>
+        <v>2167142.0840939838</v>
       </c>
       <c r="D274">
         <f>D273</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E274" t="s">
         <v>11</v>
@@ -10083,17 +10242,17 @@
       </c>
       <c r="H274">
         <f>H273+C274</f>
-        <v>49674037.472614668</v>
+        <v>61159879.171754263</v>
       </c>
     </row>
     <row r="275" spans="1:65" ht="19.5">
       <c r="C275">
         <f>H274*D275</f>
-        <v>1799016.6971441698</v>
+        <v>2246753.6607813379</v>
       </c>
       <c r="D275">
         <f>D274</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E275" t="s">
         <v>12</v>
@@ -10103,17 +10262,17 @@
       </c>
       <c r="H275">
         <f>H274+C275</f>
-        <v>51473054.169758841</v>
+        <v>63406632.832535602</v>
       </c>
     </row>
     <row r="276" spans="1:65" ht="19.5">
       <c r="C276">
         <f>H275*D276</f>
-        <v>1864170.6737740699</v>
+        <v>2329289.8279647036</v>
       </c>
       <c r="D276">
         <f>D275</f>
-        <v>0.03621643797599438</v>
+        <v>0.036735743942067273</v>
       </c>
       <c r="E276" t="s">
         <v>13</v>
@@ -10123,7 +10282,7 @@
       </c>
       <c r="H276">
         <f>H275+C276</f>
-        <v>53337224.843532912</v>
+        <v>65735922.660500303</v>
       </c>
     </row>
     <row r="277" spans="1:65" ht="19.5">

--- a/converted.d/covid-19_progression_math.xlsx
+++ b/converted.d/covid-19_progression_math.xlsx
@@ -4,7 +4,7 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="18940" windowHeight="8410"/>
+    <workbookView activeTab="0" windowWidth="19200" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,9 +183,9 @@
     <col min="6" max="6" style="1" width="24.569951923076925" customWidth="1"/>
     <col min="7" max="7" style="1" width="18.284615384615385" customWidth="1"/>
     <col min="8" max="8" style="2" width="19.427403846153847" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" style="1" width="19.427403846153847" customWidth="1"/>
+    <col min="9" max="9" style="2" width="19.427403846153847" customWidth="1"/>
     <col min="10" max="10" style="2" width="22.855769230769234" customWidth="1"/>
-    <col min="11" max="11" style="1" width="24.569951923076925" customWidth="1"/>
+    <col min="11" max="11" style="2" width="24.569951923076925" customWidth="1"/>
     <col min="12" max="12" style="1" width="11.85643028846154" bestFit="1" customWidth="1"/>
     <col min="13" max="13" style="1" width="21.141586538461542" customWidth="1"/>
     <col min="14" max="14" style="1" width="10.570793269230771" customWidth="1"/>
@@ -252,7 +252,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Last revision:  Thursday, 09 Apr 2020 06:10 UTC</t>
+          <t>Last revision:  Saturday, 11 Apr 2020 03:52 UTC - 2 of 2 updates</t>
         </is>
       </c>
     </row>
@@ -4101,11 +4101,6 @@
         <f>S37+17</f>
         <v>48</v>
       </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>UPDATED - finished this line's entry and won't require further update.</t>
-        </is>
-      </c>
       <c r="U38">
         <f>U37+196</f>
         <v>1664</v>
@@ -4197,11 +4192,6 @@
       <c r="AY38">
         <f>O38+S38+W38+AA38+AE38+AI38+AM38+AQ38+AU38</f>
         <v>277</v>
-      </c>
-      <c r="AZ38" t="inlineStr">
-        <is>
-          <t>CORRECT - no errors seen.  Ready for permanent record.</t>
-        </is>
       </c>
       <c r="BA38" s="5">
         <v>43880</v>
@@ -4246,1663 +4236,1951 @@
         <f>M39+Q39+U39+Y39+AC39+AG39+AK39+AO39+AS39</f>
         <v>8781</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="M39">
+        <f>M38+37</f>
+        <v>292</v>
+      </c>
+      <c r="N39">
+        <f>N38+3</f>
+        <v>20</v>
+      </c>
+      <c r="O39">
+        <f>O38+3</f>
+        <v>12</v>
+      </c>
+      <c r="Q39">
+        <f>Q38+245</f>
+        <v>1290</v>
+      </c>
+      <c r="R39">
+        <f>R38+8</f>
+        <v>251</v>
+      </c>
+      <c r="S39">
+        <f>S38+20</f>
+        <v>68</v>
+      </c>
+      <c r="U39">
+        <f>U38+281</f>
+        <v>1945</v>
+      </c>
+      <c r="V39">
+        <f>V38+38</f>
+        <v>428</v>
+      </c>
+      <c r="W39">
+        <f>W38+10</f>
+        <v>70</v>
+      </c>
+      <c r="Y39">
+        <f>Y38+281</f>
+        <v>4417</v>
+      </c>
+      <c r="Z39">
+        <f>Z38+52</f>
+        <v>665</v>
+      </c>
+      <c r="AA39">
+        <f>AA38+23</f>
+        <v>155</v>
+      </c>
+      <c r="AC39">
+        <f>AC38+24</f>
+        <v>174</v>
+      </c>
+      <c r="AD39">
+        <f>AD38+2</f>
+        <v>28</v>
+      </c>
+      <c r="AE39">
+        <f>AE38+2</f>
+        <v>9</v>
+      </c>
+      <c r="AG39">
+        <f>AG38+17</f>
+        <v>128</v>
+      </c>
+      <c r="AH39">
+        <f>AH38+3</f>
+        <v>7</v>
+      </c>
+      <c r="AI39">
+        <f>AI38+0</f>
+        <v>13</v>
+      </c>
+      <c r="AK39">
+        <f>AK38+6</f>
+        <v>49</v>
+      </c>
+      <c r="AL39">
+        <f>AL38+0</f>
+        <v>3</v>
+      </c>
+      <c r="AM39">
+        <f>AM38+0</f>
+        <v>1</v>
+      </c>
+      <c r="AO39">
+        <f>AO38+35</f>
+        <v>120</v>
+      </c>
+      <c r="AP39">
+        <f>AP38+4</f>
+        <v>16</v>
+      </c>
+      <c r="AQ39">
+        <f>AQ38+1</f>
+        <v>5</v>
+      </c>
+      <c r="AS39">
+        <f>AS38+74</f>
+        <v>366</v>
+      </c>
+      <c r="AU39">
+        <f>AU38+-1</f>
+        <v>2</v>
+      </c>
+      <c r="AW39">
+        <f>M39+Q39+U39+Y39+AC39+AG39+AK39+AO39+AS39</f>
+        <v>8781</v>
+      </c>
+      <c r="AX39">
+        <f>N39+R39+V39+Z39+AD39+AH39+AL39+AP39+AT39</f>
+        <v>1418</v>
+      </c>
+      <c r="AY39">
+        <f>O39+S39+W39+AA39+AE39+AI39+AM39+AQ39+AU39</f>
+        <v>335</v>
+      </c>
+      <c r="BA39" s="5">
+        <v>43881</v>
+      </c>
+      <c r="BB39">
+        <v>13</v>
+      </c>
+      <c r="BC39">
+        <f>(BB39/BB38)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:65" ht="19.5">
+      <c r="C40">
+        <f>H39*D40</f>
+        <v>1003.000000034434</v>
+      </c>
+      <c r="D40">
+        <v>0.11422389249999999</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="5">
+        <v>43930</v>
+      </c>
+      <c r="G40" s="2">
+        <f>H40*50</f>
+        <v>489199.99999819091</v>
+      </c>
+      <c r="H40">
+        <f>H39+C40</f>
+        <v>9783.9999999638185</v>
+      </c>
+      <c r="I40">
+        <v>9784</v>
+      </c>
+      <c r="J40">
+        <v>461437</v>
+      </c>
+      <c r="K40">
+        <f>M40+Q40+U40+Y40+AC40+AG40+AK40+AO40+AS40</f>
+        <v>9784</v>
+      </c>
+      <c r="M40">
+        <f>M39+23</f>
+        <v>315</v>
+      </c>
+      <c r="N40">
+        <f>N39+5</f>
+        <v>25</v>
+      </c>
+      <c r="O40">
+        <f>O39+1</f>
+        <v>13</v>
+      </c>
+      <c r="Q40">
+        <f>Q39+181</f>
+        <v>1471</v>
+      </c>
+      <c r="R40">
+        <f>R39+25</f>
+        <v>276</v>
+      </c>
+      <c r="S40">
+        <f>S39+7</f>
+        <v>75</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>UPDATED - finished this line's entry and won't require further update.</t>
+        </is>
+      </c>
+      <c r="U40">
+        <f>U39+238</f>
+        <v>2183</v>
+      </c>
+      <c r="V40">
+        <f>V39+19</f>
+        <v>447</v>
+      </c>
+      <c r="W40">
+        <f>W39+8</f>
+        <v>78</v>
+      </c>
+      <c r="Y40">
+        <f>Y39+465</f>
+        <v>4882</v>
+      </c>
+      <c r="Z40">
+        <f>Z39+-1</f>
+        <v>664</v>
+      </c>
+      <c r="AA40">
+        <f>AA39+23</f>
+        <v>178</v>
+      </c>
+      <c r="AC40">
+        <f>AC39+31</f>
+        <v>205</v>
+      </c>
+      <c r="AD40">
+        <f>AD39+-2</f>
+        <v>26</v>
+      </c>
+      <c r="AE40">
+        <f>AE39+5</f>
+        <v>14</v>
+      </c>
+      <c r="AG40">
+        <f>AG39+17</f>
+        <v>145</v>
+      </c>
+      <c r="AH40">
+        <f>AH39+0</f>
+        <v>7</v>
+      </c>
+      <c r="AI40">
+        <f>AI39+0</f>
+        <v>13</v>
+      </c>
+      <c r="AK40">
+        <f>AK39+3</f>
+        <v>52</v>
+      </c>
+      <c r="AL40">
+        <f>AL39+1</f>
+        <v>4</v>
+      </c>
+      <c r="AM40">
+        <f>AM39+0</f>
+        <v>1</v>
+      </c>
+      <c r="AO40">
+        <f>AO39+19</f>
+        <v>139</v>
+      </c>
+      <c r="AP40">
+        <f>AP39+-1</f>
+        <v>15</v>
+      </c>
+      <c r="AQ40">
+        <f>AQ39+1</f>
+        <v>6</v>
+      </c>
+      <c r="AS40">
+        <f>AS39+26</f>
+        <v>392</v>
+      </c>
+      <c r="AU40">
+        <f>AU39+0</f>
+        <v>2</v>
+      </c>
+      <c r="AW40">
+        <f>M40+Q40+U40+Y40+AC40+AG40+AK40+AO40+AS40</f>
+        <v>9784</v>
+      </c>
+      <c r="AX40">
+        <f>N40+R40+V40+Z40+AD40+AH40+AL40+AP40+AT40</f>
+        <v>1464</v>
+      </c>
+      <c r="AY40">
+        <f>O40+S40+W40+AA40+AE40+AI40+AM40+AQ40+AU40</f>
+        <v>380</v>
+      </c>
+      <c r="AZ40" t="inlineStr">
+        <is>
+          <t>CORRECT - no errors seen.  Ready for permanent record.</t>
+        </is>
+      </c>
+      <c r="BA40" s="5">
+        <v>43882</v>
+      </c>
+      <c r="BB40">
+        <v>15</v>
+      </c>
+      <c r="BC40">
+        <f>(BB40/BB39)-1</f>
+        <v>0.15384615384615374</v>
+      </c>
+    </row>
+    <row r="41" spans="1:65" ht="19.5">
+      <c r="C41">
+        <f>H40*D41</f>
+        <v>753.99999999757006</v>
+      </c>
+      <c r="D41">
+        <v>0.077064595257599997</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="5">
+        <v>43931</v>
+      </c>
+      <c r="G41" s="2">
+        <f>H41*50</f>
+        <v>526899.99999806937</v>
+      </c>
+      <c r="H41">
+        <f>H40+C41</f>
+        <v>10537.999999961388</v>
+      </c>
+      <c r="I41">
+        <v>10538</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41">
+        <f>M41+Q41+U41+Y41+AC41+AG41+AK41+AO41+AS41</f>
+        <v>10538</v>
+      </c>
+      <c r="L41" t="inlineStr">
         <is>
           <t>NEW:</t>
         </is>
       </c>
-      <c r="M39">
-        <f>M38+37</f>
-        <v>292</v>
-      </c>
-      <c r="N39">
-        <f>N38+3</f>
-        <v>20</v>
-      </c>
-      <c r="O39">
-        <f>O38+3</f>
-        <v>12</v>
-      </c>
-      <c r="Q39">
-        <f>Q38+245</f>
-        <v>1290</v>
-      </c>
-      <c r="R39">
-        <f>R38+8</f>
-        <v>251</v>
-      </c>
-      <c r="S39">
-        <f>S38+20</f>
-        <v>68</v>
-      </c>
-      <c r="T39" t="inlineStr">
+      <c r="M41">
+        <f>M40+31</f>
+        <v>346</v>
+      </c>
+      <c r="N41">
+        <f>N40+7</f>
+        <v>32</v>
+      </c>
+      <c r="O41">
+        <f>O40+3</f>
+        <v>16</v>
+      </c>
+      <c r="Q41">
+        <f>Q40+144</f>
+        <v>1615</v>
+      </c>
+      <c r="R41">
+        <f>R40+20</f>
+        <v>296</v>
+      </c>
+      <c r="S41">
+        <f>S40+13</f>
+        <v>88</v>
+      </c>
+      <c r="T41" t="inlineStr">
         <is>
           <t>PROPOSED - open to proposal now - subject to revision.</t>
         </is>
       </c>
-      <c r="U39">
-        <f>U38+281</f>
-        <v>1945</v>
-      </c>
-      <c r="V39">
-        <f>V38+38</f>
-        <v>428</v>
-      </c>
-      <c r="W39">
-        <f>W38+10</f>
-        <v>70</v>
-      </c>
-      <c r="Y39">
-        <f>Y38+281</f>
-        <v>4417</v>
-      </c>
-      <c r="Z39">
-        <f>Z38+52</f>
-        <v>665</v>
-      </c>
-      <c r="AA39">
-        <f>AA38+23</f>
-        <v>155</v>
-      </c>
-      <c r="AC39">
-        <f>AC38+24</f>
-        <v>174</v>
-      </c>
-      <c r="AD39">
-        <f>AD38+2</f>
+      <c r="U41">
+        <f>U40+200</f>
+        <v>2383</v>
+      </c>
+      <c r="V41">
+        <f>V40+46</f>
+        <v>493</v>
+      </c>
+      <c r="W41">
+        <f>W40+20</f>
+        <v>98</v>
+      </c>
+      <c r="Y41">
+        <f>Y40+298</f>
+        <v>5180</v>
+      </c>
+      <c r="Z41">
+        <f>Z40+21</f>
+        <v>685</v>
+      </c>
+      <c r="AA41">
+        <f>AA40+25</f>
+        <v>203</v>
+      </c>
+      <c r="AC41">
+        <f>AC40+35</f>
+        <v>240</v>
+      </c>
+      <c r="AD41">
+        <f>AD40+2</f>
         <v>28</v>
       </c>
-      <c r="AE39">
-        <f>AE38+2</f>
-        <v>9</v>
-      </c>
-      <c r="AG39">
-        <f>AG38+17</f>
-        <v>128</v>
-      </c>
-      <c r="AH39">
-        <f>AH38+3</f>
+      <c r="AE41">
+        <f>AE40+3</f>
+        <v>17</v>
+      </c>
+      <c r="AG41">
+        <f>AG40+7</f>
+        <v>152</v>
+      </c>
+      <c r="AH41">
+        <f>AH40+-1</f>
+        <v>6</v>
+      </c>
+      <c r="AI41">
+        <f>AI40+1</f>
+        <v>14</v>
+      </c>
+      <c r="AK41">
+        <f>AK40+7</f>
+        <v>59</v>
+      </c>
+      <c r="AL41">
+        <f>AL40+1</f>
+        <v>5</v>
+      </c>
+      <c r="AM41">
+        <f>AM40+0</f>
+        <v>1</v>
+      </c>
+      <c r="AO41">
+        <f>AO40+17</f>
+        <v>156</v>
+      </c>
+      <c r="AP41">
+        <f>AP40+2</f>
+        <v>17</v>
+      </c>
+      <c r="AQ41">
+        <f>AQ40+1</f>
         <v>7</v>
       </c>
-      <c r="AI39">
-        <f>AI38+0</f>
-        <v>13</v>
-      </c>
-      <c r="AK39">
-        <f>AK38+6</f>
-        <v>49</v>
-      </c>
-      <c r="AL39">
-        <f>AL38+0</f>
-        <v>3</v>
-      </c>
-      <c r="AM39">
-        <f>AM38+0</f>
-        <v>1</v>
-      </c>
-      <c r="AO39">
-        <f>AO38+35</f>
-        <v>120</v>
-      </c>
-      <c r="AP39">
-        <f>AP38+4</f>
-        <v>16</v>
-      </c>
-      <c r="AQ39">
-        <f>AQ38+1</f>
-        <v>5</v>
-      </c>
-      <c r="AS39">
-        <f>AS38+74</f>
-        <v>366</v>
-      </c>
-      <c r="AU39">
-        <f>AU38+-1</f>
-        <v>2</v>
-      </c>
-      <c r="AW39">
-        <f>M39+Q39+U39+Y39+AC39+AG39+AK39+AO39+AS39</f>
-        <v>8781</v>
-      </c>
-      <c r="AX39">
-        <f>N39+R39+V39+Z39+AD39+AH39+AL39+AP39+AT39</f>
-        <v>1418</v>
-      </c>
-      <c r="AY39">
-        <f>O39+S39+W39+AA39+AE39+AI39+AM39+AQ39+AU39</f>
-        <v>335</v>
-      </c>
-      <c r="BA39" s="5">
-        <v>43881</v>
-      </c>
-      <c r="BB39">
-        <v>13</v>
-      </c>
-      <c r="BC39">
-        <f>(BB39/BB38)-1</f>
+      <c r="AS41">
+        <f>AS40+15</f>
+        <v>407</v>
+      </c>
+      <c r="AU41">
+        <f>AU40+2</f>
+        <v>4</v>
+      </c>
+      <c r="AW41">
+        <f>M41+Q41+U41+Y41+AC41+AG41+AK41+AO41+AS41</f>
+        <v>10538</v>
+      </c>
+      <c r="AX41">
+        <f>N41+R41+V41+Z41+AD41+AH41+AL41+AP41+AT41</f>
+        <v>1562</v>
+      </c>
+      <c r="AY41">
+        <f>O41+S41+W41+AA41+AE41+AI41+AM41+AQ41+AU41</f>
+        <v>448</v>
+      </c>
+      <c r="BA41" s="5">
+        <v>43883</v>
+      </c>
+      <c r="BB41">
+        <v>15</v>
+      </c>
+      <c r="BC41">
+        <f>(BB41/BB40)-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:65" ht="19.5">
-      <c r="C40">
-        <f>H39*D40</f>
-        <v>1016.6830498307996</v>
-      </c>
-      <c r="D40">
-        <f>D39/1.1100000000000001</f>
-        <v>0.11578214893963963</v>
-      </c>
-      <c r="E40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" t="inlineStr">
+    <row r="42" spans="1:65" ht="19.5">
+      <c r="C42">
+        <f>H41*D42</f>
+        <v>731.62766200145325</v>
+      </c>
+      <c r="D42">
+        <f>D41/1.1100000000000001</f>
+        <v>0.069427563295135122</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" t="inlineStr">
         <is>
           <t>day two</t>
         </is>
       </c>
-      <c r="G40" s="2">
-        <f>H40*50</f>
-        <v>489884.15248800919</v>
-      </c>
-      <c r="H40">
-        <f>H39+C40</f>
-        <v>9797.6830497601841</v>
-      </c>
-      <c r="BA40" s="5">
-        <v>43882</v>
-      </c>
-      <c r="BB40">
+      <c r="G42" s="2">
+        <f>H42*50</f>
+        <v>563481.38309814199</v>
+      </c>
+      <c r="H42">
+        <f>H41+C42</f>
+        <v>11269.627661962841</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="BA42" s="5">
+        <v>43884</v>
+      </c>
+      <c r="BB42">
         <v>15</v>
       </c>
-      <c r="BC40">
-        <f>(BB40/BB39)-1</f>
-        <v>0.15384615384615374</v>
-      </c>
-    </row>
-    <row r="41" spans="1:65" ht="19.5">
-      <c r="C41">
-        <f>H40*D41</f>
-        <v>1021.9790974150596</v>
-      </c>
-      <c r="D41">
-        <f>D40/1.1100000000000001</f>
-        <v>0.10430824228796362</v>
-      </c>
-      <c r="E41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" t="inlineStr">
+      <c r="BC42">
+        <f>(BB42/BB41)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:65" ht="19.5">
+      <c r="C43">
+        <f>H42*D43</f>
+        <v>704.88539442660419</v>
+      </c>
+      <c r="D43">
+        <f>D42/1.1100000000000001</f>
+        <v>0.062547354319941545</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="inlineStr">
         <is>
           <t>day three</t>
         </is>
       </c>
-      <c r="G41" s="2">
-        <f>H41*50</f>
-        <v>540983.10735876218</v>
-      </c>
-      <c r="H41">
-        <f>H40+C41</f>
-        <v>10819.662147175244</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="G43" s="2">
+        <f>H43*50</f>
+        <v>598725.65281947225</v>
+      </c>
+      <c r="H43">
+        <f>H42+C43</f>
+        <v>11974.513056389445</v>
+      </c>
+      <c r="J43" t="inlineStr">
         <is>
           <t>*preliminary*</t>
         </is>
       </c>
-      <c r="BA41" s="5">
-        <v>43883</v>
-      </c>
-      <c r="BB41">
-        <v>15</v>
-      </c>
-      <c r="BC41">
-        <f>(BB41/BB40)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:65" ht="19.5">
-      <c r="C42">
-        <f>H41*D42</f>
-        <v>1016.7386853346522</v>
-      </c>
-      <c r="D42">
-        <f>D41/1.1100000000000001</f>
-        <v>0.093971389448615869</v>
-      </c>
-      <c r="E42" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" t="inlineStr">
+      <c r="BA43" s="5">
+        <v>43885</v>
+      </c>
+      <c r="BB43">
+        <v>51</v>
+      </c>
+      <c r="BC43">
+        <f>(BB43/BB42)-1</f>
+        <v>2.3999999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:65" ht="19.5">
+      <c r="C44">
+        <f>H43*D44</f>
+        <v>674.75145130338444</v>
+      </c>
+      <c r="D44">
+        <f>D43/1.1100000000000001</f>
+        <v>0.056348967855803192</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="inlineStr">
         <is>
           <t>day four</t>
         </is>
       </c>
-      <c r="G42" s="2">
-        <f>H42*50</f>
-        <v>591820.04162549484</v>
-      </c>
-      <c r="H42">
-        <f>H41+C42</f>
-        <v>11836.400832509897</v>
-      </c>
-      <c r="J42" s="1"/>
-      <c r="K42" t="inlineStr">
+      <c r="G44" s="2">
+        <f>H44*50</f>
+        <v>632463.22538464144</v>
+      </c>
+      <c r="H44">
+        <f>H43+C44</f>
+        <v>12649.264507692829</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" t="inlineStr">
         <is>
           <t>TODAY:</t>
         </is>
       </c>
-      <c r="M42" s="6">
-        <f>(M39/M38)-1</f>
-        <v>0.1450980392156862</v>
-      </c>
-      <c r="N42" s="6">
-        <f>(N39/N38)-1</f>
-        <v>0.17647058823529416</v>
-      </c>
-      <c r="O42" s="6">
-        <f>(O39/O38)-1</f>
-        <v>0.33333333333333326</v>
-      </c>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="6">
-        <f>(Q39/Q38)-1</f>
-        <v>0.23444976076555024</v>
-      </c>
-      <c r="R42" s="6">
-        <f>(R39/R38)-1</f>
-        <v>0.03292181069958855</v>
-      </c>
-      <c r="S42" s="6">
-        <f>(S39/S38)-1</f>
-        <v>0.41666666666666674</v>
-      </c>
-      <c r="T42" s="4"/>
-      <c r="U42" s="6">
-        <f>(U39/U38)-1</f>
-        <v>0.16887019230769229</v>
-      </c>
-      <c r="V42" s="6">
-        <f>(V39/V38)-1</f>
-        <v>0.097435897435897534</v>
-      </c>
-      <c r="W42" s="6">
-        <f>(W39/W38)-1</f>
+      <c r="M44" s="6">
+        <f>(M41/M40)-1</f>
+        <v>0.098412698412698507</v>
+      </c>
+      <c r="N44" s="6">
+        <f>(N41/N40)-1</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O44" s="6">
+        <f>(O41/O40)-1</f>
+        <v>0.23076923076923084</v>
+      </c>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="6">
+        <f>(Q41/Q40)-1</f>
+        <v>0.097892590074779129</v>
+      </c>
+      <c r="R44" s="6">
+        <f>(R41/R40)-1</f>
+        <v>0.072463768115942129</v>
+      </c>
+      <c r="S44" s="6">
+        <f>(S41/S40)-1</f>
+        <v>0.17333333333333334</v>
+      </c>
+      <c r="T44" s="4"/>
+      <c r="U44" s="6">
+        <f>(U41/U40)-1</f>
+        <v>0.091617040769583102</v>
+      </c>
+      <c r="V44" s="6">
+        <f>(V41/V40)-1</f>
+        <v>0.1029082774049217</v>
+      </c>
+      <c r="W44" s="6">
+        <f>(W41/W40)-1</f>
+        <v>0.25641025641025639</v>
+      </c>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="6">
+        <f>(Y41/Y40)-1</f>
+        <v>0.061040557148709595</v>
+      </c>
+      <c r="Z44" s="6">
+        <f>(Z41/Z40)-1</f>
+        <v>0.031626506024096335</v>
+      </c>
+      <c r="AA44" s="6">
+        <f>(AA41/AA40)-1</f>
+        <v>0.1404494382022472</v>
+      </c>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="6">
+        <f>(AC41/AC40)-1</f>
+        <v>0.1707317073170731</v>
+      </c>
+      <c r="AD44" s="6">
+        <f>(AD41/AD40)-1</f>
+        <v>0.076923076923076872</v>
+      </c>
+      <c r="AE44" s="6">
+        <f>(AE41/AE40)-1</f>
+        <v>0.21428571428571419</v>
+      </c>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="6">
+        <f>(AG41/AG40)-1</f>
+        <v>0.048275862068965614</v>
+      </c>
+      <c r="AH44" s="6">
+        <f>(AH41/AH40)-1</f>
+        <v>-0.1428571428571429</v>
+      </c>
+      <c r="AI44" s="6">
+        <f>(AI41/AI40)-1</f>
+        <v>0.076923076923076872</v>
+      </c>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="6">
+        <f>(AK41/AK40)-1</f>
+        <v>0.13461538461538458</v>
+      </c>
+      <c r="AL44" s="6">
+        <f>(AL41/AL40)-1</f>
+        <v>0.25</v>
+      </c>
+      <c r="AM44" s="6">
+        <f>(AM41/AM40)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AN44" s="4"/>
+      <c r="AO44" s="6">
+        <f>(AO41/AO40)-1</f>
+        <v>0.1223021582733812</v>
+      </c>
+      <c r="AP44" s="6">
+        <f>(AP41/AP40)-1</f>
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="AQ44" s="6">
+        <f>(AQ41/AQ40)-1</f>
         <v>0.16666666666666674</v>
       </c>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="6">
-        <f>(Y39/Y38)-1</f>
-        <v>0.067940038684719539</v>
-      </c>
-      <c r="Z42" s="6">
-        <f>(Z39/Z38)-1</f>
-        <v>0.084828711256117462</v>
-      </c>
-      <c r="AA42" s="6">
-        <f>(AA39/AA38)-1</f>
-        <v>0.17424242424242431</v>
-      </c>
-      <c r="AB42" s="4"/>
-      <c r="AC42" s="6">
-        <f>(AC39/AC38)-1</f>
-        <v>0.15999999999999992</v>
-      </c>
-      <c r="AD42" s="6">
-        <f>(AD39/AD38)-1</f>
-        <v>0.076923076923076872</v>
-      </c>
-      <c r="AE42" s="6">
-        <f>(AE39/AE38)-1</f>
-        <v>0.28571428571428581</v>
-      </c>
-      <c r="AF42" s="4"/>
-      <c r="AG42" s="6">
-        <f>(AG39/AG38)-1</f>
-        <v>0.15315315315315314</v>
-      </c>
-      <c r="AH42" s="6">
-        <f>(AH39/AH38)-1</f>
-        <v>0.75</v>
-      </c>
-      <c r="AI42" s="6">
-        <f>(AI39/AI38)-1</f>
+      <c r="AR44" s="4"/>
+      <c r="AS44" s="6">
+        <f>(AS41/AS40)-1</f>
+        <v>0.038265306122448939</v>
+      </c>
+      <c r="AT44" s="6"/>
+      <c r="AU44" s="6">
+        <f>(AU41/AU40)-1</f>
+        <v>1</v>
+      </c>
+      <c r="AV44" s="4"/>
+      <c r="AW44" s="6">
+        <f>(AW41/AW40)-1</f>
+        <v>0.077064595257563262</v>
+      </c>
+      <c r="AX44" s="6">
+        <f>(AX41/AX40)-1</f>
+        <v>0.066939890710382421</v>
+      </c>
+      <c r="AY44" s="6">
+        <f>(AY41/AY40)-1</f>
+        <v>0.17894736842105252</v>
+      </c>
+      <c r="BA44" s="5">
+        <v>43886</v>
+      </c>
+      <c r="BB44">
+        <v>51</v>
+      </c>
+      <c r="BC44">
+        <f>(BB44/BB43)-1</f>
         <v>0</v>
       </c>
-      <c r="AJ42" s="4"/>
-      <c r="AK42" s="6">
-        <f>(AK39/AK38)-1</f>
-        <v>0.13953488372093026</v>
-      </c>
-      <c r="AL42" s="6">
-        <f>(AL39/AL38)-1</f>
-        <v>0</v>
-      </c>
-      <c r="AM42" s="6">
-        <f>(AM39/AM38)-1</f>
-        <v>0</v>
-      </c>
-      <c r="AN42" s="4"/>
-      <c r="AO42" s="6">
-        <f>(AO39/AO38)-1</f>
-        <v>0.41176470588235303</v>
-      </c>
-      <c r="AP42" s="6">
-        <f>(AP39/AP38)-1</f>
-        <v>0.33333333333333326</v>
-      </c>
-      <c r="AQ42" s="6">
-        <f>(AQ39/AQ38)-1</f>
-        <v>0.25</v>
-      </c>
-      <c r="AR42" s="4"/>
-      <c r="AS42" s="6">
-        <f>(AS39/AS38)-1</f>
-        <v>0.25342465753424648</v>
-      </c>
-      <c r="AT42" s="6"/>
-      <c r="AU42" s="6">
-        <f>(AU39/AU38)-1</f>
-        <v>-0.33333333333333337</v>
-      </c>
-      <c r="AV42" s="4"/>
-      <c r="AW42" s="6">
-        <f>(AW39/AW38)-1</f>
-        <v>0.12851818532322334</v>
-      </c>
-      <c r="AX42" s="6">
-        <f>(AX39/AX38)-1</f>
-        <v>0.084097859327217028</v>
-      </c>
-      <c r="AY42" s="6">
-        <f>(AY39/AY38)-1</f>
-        <v>0.20938628158844774</v>
-      </c>
-      <c r="BA42" s="5">
-        <v>43884</v>
-      </c>
-      <c r="BB42">
-        <v>15</v>
-      </c>
-      <c r="BC42">
-        <f>(BB42/BB41)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:65" ht="19.5">
-      <c r="C43">
-        <f>H42*D43</f>
-        <v>1002.056785857395</v>
-      </c>
-      <c r="D43">
-        <f>D42/1.1100000000000001</f>
-        <v>0.084658909413167435</v>
-      </c>
-      <c r="E43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" t="inlineStr">
+    </row>
+    <row r="45" spans="1:65" ht="19.5">
+      <c r="C45">
+        <f>H44*D45</f>
+        <v>642.13783706624815</v>
+      </c>
+      <c r="D45">
+        <f>D44/1.1100000000000001</f>
+        <v>0.050764835906128999</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="inlineStr">
         <is>
           <t>day five</t>
         </is>
       </c>
-      <c r="G43" s="2">
-        <f>H43*50</f>
-        <v>641922.88091836451</v>
-      </c>
-      <c r="H43">
-        <f>H42+C43</f>
-        <v>12838.457618367291</v>
-      </c>
-      <c r="BA43" s="5">
-        <v>43885</v>
-      </c>
-      <c r="BB43">
-        <v>51</v>
-      </c>
-      <c r="BC43">
-        <f>(BB43/BB42)-1</f>
-        <v>2.3999999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:65" ht="19.5">
-      <c r="C44">
-        <f>H43*D44</f>
-        <v>979.18001848481595</v>
-      </c>
-      <c r="D44">
-        <f>D43/1.1100000000000001</f>
-        <v>0.076269287759610296</v>
-      </c>
-      <c r="E44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" t="inlineStr">
+      <c r="G45" s="2">
+        <f>H45*50</f>
+        <v>664570.11723795382</v>
+      </c>
+      <c r="H45">
+        <f>H44+C45</f>
+        <v>13291.402344759077</v>
+      </c>
+      <c r="BA45" s="5">
+        <v>43887</v>
+      </c>
+      <c r="BB45">
+        <v>57</v>
+      </c>
+      <c r="BC45">
+        <f>(BB45/BB44)-1</f>
+        <v>0.11764705882352944</v>
+      </c>
+    </row>
+    <row r="46" spans="1:65" ht="19.5">
+      <c r="C46">
+        <f>H45*D46</f>
+        <v>607.8701432378673</v>
+      </c>
+      <c r="D46">
+        <f>D45/1.1100000000000001</f>
+        <v>0.045734086401918013</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="inlineStr">
         <is>
           <t>above: moving target</t>
         </is>
       </c>
-      <c r="G44" s="2">
-        <f>H44*50</f>
-        <v>690881.8818426053</v>
-      </c>
-      <c r="H44">
-        <f>H43+C44</f>
-        <v>13817.637636852107</v>
-      </c>
-      <c r="BA44" s="5">
-        <v>43886</v>
-      </c>
-      <c r="BB44">
-        <v>51</v>
-      </c>
-      <c r="BC44">
-        <f>(BB44/BB43)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:65" ht="19.5">
-      <c r="C45">
-        <f>H44*D45</f>
-        <v>949.42466764242772</v>
-      </c>
-      <c r="D45">
-        <f>D44/1.1100000000000001</f>
-        <v>0.068711070053702958</v>
-      </c>
-      <c r="E45" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="5">
-        <v>43935</v>
-      </c>
-      <c r="G45" s="2">
-        <f>H45*50</f>
-        <v>738353.11522472673</v>
-      </c>
-      <c r="H45">
-        <f>H44+C45</f>
-        <v>14767.062304494535</v>
-      </c>
-      <c r="K45" t="inlineStr">
+      <c r="G46" s="2">
+        <f>H46*50</f>
+        <v>694963.62439984723</v>
+      </c>
+      <c r="H46">
+        <f>H45+C46</f>
+        <v>13899.272487996945</v>
+      </c>
+      <c r="BA46" s="5">
+        <v>43888</v>
+      </c>
+      <c r="BB46">
+        <v>58</v>
+      </c>
+      <c r="BC46">
+        <f>(BB46/BB45)-1</f>
+        <v>0.017543859649122862</v>
+      </c>
+    </row>
+    <row r="47" spans="1:65" ht="19.5">
+      <c r="C47">
+        <f>H46*D47</f>
+        <v>572.67615215302169</v>
+      </c>
+      <c r="D47">
+        <f>D46/1.1100000000000001</f>
+        <v>0.041201879641367574</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="5">
+        <v>43937</v>
+      </c>
+      <c r="G47" s="2">
+        <f>H47*50</f>
+        <v>723597.43200749834</v>
+      </c>
+      <c r="H47">
+        <f>H46+C47</f>
+        <v>14471.948640149967</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>Yesterday:</t>
         </is>
       </c>
-      <c r="M45" s="6">
+      <c r="M47" s="6">
+        <f>0.080000000000000002</f>
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="N47" s="6">
+        <f>0.25</f>
+        <v>0.25</v>
+      </c>
+      <c r="O47" s="6">
+        <f>0.080000000000000002</f>
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6">
+        <f>0.14000000000000001</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R47" s="6">
+        <f>0.10000000000000001</f>
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="S47" s="6">
+        <f>0.10000000000000001</f>
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6">
+        <f>0.12</f>
+        <v>0.12</v>
+      </c>
+      <c r="V47" s="6">
+        <f>0.040000000000000001</f>
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="W47" s="6">
+        <f>0.11</f>
         <v>0.11</v>
       </c>
-      <c r="N45" s="6">
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6">
+        <f>0.11</f>
+        <v>0.11</v>
+      </c>
+      <c r="Z47" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AA47" s="6">
+        <f>0.14999999999999999</f>
+        <v>0.14999999999999999</v>
+      </c>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="6">
+        <f>0.17999999999999999</f>
+        <v>0.17999999999999999</v>
+      </c>
+      <c r="AD47" s="6">
+        <f>-0.070000000000000007</f>
+        <v>-0.070000000000000007</v>
+      </c>
+      <c r="AE47" s="6">
+        <f>0.56000000000000005</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AF47" s="6"/>
+      <c r="AG47" s="6">
+        <f>0.13</f>
         <v>0.13</v>
       </c>
-      <c r="O45" s="6">
+      <c r="AH47" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="6"/>
+      <c r="AK47" s="6">
+        <f>0.059999999999999998</f>
+        <v>0.059999999999999998</v>
+      </c>
+      <c r="AL47" s="6">
+        <f>0.33000000000000002</f>
+        <v>0.33000000000000002</v>
+      </c>
+      <c r="AM47" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN47" s="6"/>
+      <c r="AO47" s="6">
+        <f>0.16</f>
+        <v>0.16</v>
+      </c>
+      <c r="AP47" s="6">
+        <f>-0.059999999999999998</f>
+        <v>-0.059999999999999998</v>
+      </c>
+      <c r="AQ47" s="6">
+        <f>0.20000000000000001</f>
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="AR47" s="6"/>
+      <c r="AS47" s="6">
+        <f>0.070000000000000007</f>
+        <v>0.070000000000000007</v>
+      </c>
+      <c r="AT47" s="6"/>
+      <c r="AU47" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AV47" s="6"/>
+      <c r="AW47" s="6">
+        <f>0.11</f>
+        <v>0.11</v>
+      </c>
+      <c r="AX47" s="6">
+        <f>0.029999999999999999</f>
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="AY47" s="6">
+        <f>0.13</f>
         <v>0.13</v>
       </c>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6">
-        <v>0.17999999999999999</v>
-      </c>
-      <c r="R45" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="S45" s="6">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6">
-        <v>0.13</v>
-      </c>
-      <c r="V45" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="W45" s="6">
-        <v>0.46000000000000002</v>
-      </c>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="Z45" s="6">
-        <v>0.070000000000000007</v>
-      </c>
-      <c r="AA45" s="6">
-        <v>0.31</v>
-      </c>
-      <c r="AB45" s="6"/>
-      <c r="AC45" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="AD45" s="6">
-        <v>0.17999999999999999</v>
-      </c>
-      <c r="AE45" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="6"/>
-      <c r="AG45" s="6">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="AH45" s="6">
-        <v>0.33000000000000002</v>
-      </c>
-      <c r="AI45" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="6"/>
-      <c r="AK45" s="6">
-        <v>0.070000000000000007</v>
-      </c>
-      <c r="AL45" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="AM45" s="6">
-        <v>0</v>
-      </c>
-      <c r="AN45" s="6"/>
-      <c r="AO45" s="6">
-        <v>0.31</v>
-      </c>
-      <c r="AP45" s="6">
-        <v>0.20000000000000001</v>
-      </c>
-      <c r="AQ45" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR45" s="6"/>
-      <c r="AS45" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="AT45" s="6"/>
-      <c r="AU45" s="6" t="inlineStr">
+      <c r="BA47" s="5">
+        <v>43889</v>
+      </c>
+      <c r="BB47">
+        <v>60</v>
+      </c>
+      <c r="BC47">
+        <f>(BB47/BB46)-1</f>
+        <v>0.034482758620689724</v>
+      </c>
+    </row>
+    <row r="48" spans="1:65" ht="19.5">
+      <c r="C48">
+        <f>H47*D48</f>
+        <v>537.18151896172253</v>
+      </c>
+      <c r="D48">
+        <f>D47/1.1100000000000001</f>
+        <v>0.037118810487718534</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="5">
+        <v>43938</v>
+      </c>
+      <c r="G48" s="2">
+        <f>H48*50</f>
+        <v>750456.50795558444</v>
+      </c>
+      <c r="H48">
+        <f>H47+C48</f>
+        <v>15009.13015911169</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>&lt;&lt; transmission under 4 percent growth (per day)</t>
+        </is>
+      </c>
+      <c r="BA48" s="5">
+        <v>43890</v>
+      </c>
+      <c r="BB48">
+        <v>68</v>
+      </c>
+      <c r="BC48">
+        <f>(BB48/BB47)-1</f>
+        <v>0.1333333333333333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:65" ht="19.5">
+      <c r="C49">
+        <f>H48*D49</f>
+        <v>557.12105796156754</v>
+      </c>
+      <c r="D49">
+        <f>D48</f>
+        <v>0.037118810487718534</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="5">
+        <v>43939</v>
+      </c>
+      <c r="G49" s="2">
+        <f>H49*50</f>
+        <v>778312.5608536629</v>
+      </c>
+      <c r="H49">
+        <f>H48+C49</f>
+        <v>15566.251217073257</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>(four percent arbitrarily chosen)</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>older Source: https://portal.ct.gov/Coronavirus/Pages/Governors-Press-Releases</t>
+        </is>
+      </c>
+      <c r="AQ49" s="6"/>
+      <c r="AU49" s="6" t="inlineStr">
         <is>
           <t>r: +3</t>
         </is>
       </c>
-      <c r="AV45" s="6"/>
-      <c r="AW45" s="6">
-        <v>0.13</v>
-      </c>
-      <c r="AX45" s="6">
-        <v>0.070000000000000007</v>
-      </c>
-      <c r="AY45" s="6">
-        <v>0.34000000000000002</v>
-      </c>
-      <c r="BA45" s="5">
-        <v>43887</v>
-      </c>
-      <c r="BB45">
-        <v>57</v>
-      </c>
-      <c r="BC45">
-        <f>(BB45/BB44)-1</f>
-        <v>0.11764705882352944</v>
-      </c>
-    </row>
-    <row r="46" spans="1:65" ht="19.5">
-      <c r="C46">
-        <f>H45*D46</f>
-        <v>914.10869593830648</v>
-      </c>
-      <c r="D46">
-        <f>D45/1.1100000000000001</f>
-        <v>0.061901864913245903</v>
-      </c>
-      <c r="E46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="5">
-        <v>43936</v>
-      </c>
-      <c r="G46" s="2">
-        <f>H46*50</f>
-        <v>784058.55002164212</v>
-      </c>
-      <c r="H46">
-        <f>H45+C46</f>
-        <v>15681.171000432842</v>
-      </c>
-      <c r="BA46" s="5">
-        <v>43888</v>
-      </c>
-      <c r="BB46">
-        <v>58</v>
-      </c>
-      <c r="BC46">
-        <f>(BB46/BB45)-1</f>
-        <v>0.017543859649122862</v>
-      </c>
-    </row>
-    <row r="47" spans="1:65" ht="19.5">
-      <c r="C47">
-        <f>H46*D47</f>
-        <v>874.49885491018267</v>
-      </c>
-      <c r="D47">
-        <f>D46/1.1100000000000001</f>
-        <v>0.055767445867789096</v>
-      </c>
-      <c r="E47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="5">
-        <v>43937</v>
-      </c>
-      <c r="G47" s="2">
-        <f>H47*50</f>
-        <v>827783.49276715121</v>
-      </c>
-      <c r="H47">
-        <f>H46+C47</f>
-        <v>16555.669855343025</v>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>older Source: https://portal.ct.gov/Coronavirus/Pages/Governors-Press-Releases</t>
-        </is>
-      </c>
-      <c r="AQ47" s="6"/>
-      <c r="BA47" s="5">
-        <v>43889</v>
-      </c>
-      <c r="BB47">
-        <v>60</v>
-      </c>
-      <c r="BC47">
-        <f>(BB47/BB46)-1</f>
-        <v>0.034482758620689724</v>
-      </c>
-    </row>
-    <row r="48" spans="1:65" ht="19.5">
-      <c r="C48">
-        <f>H47*D48</f>
-        <v>831.77245266921602</v>
-      </c>
-      <c r="D48">
-        <f>D47/1.1100000000000001</f>
-        <v>0.050240942223233415</v>
-      </c>
-      <c r="E48" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="5">
-        <v>43938</v>
-      </c>
-      <c r="G48" s="2">
-        <f>H48*50</f>
-        <v>869372.11540061201</v>
-      </c>
-      <c r="H48">
-        <f>H47+C48</f>
-        <v>17387.44230801224</v>
-      </c>
-      <c r="J48" s="1"/>
-      <c r="AL48" t="inlineStr">
+      <c r="BA49" s="5">
+        <v>43891</v>
+      </c>
+      <c r="BB49">
+        <v>74</v>
+      </c>
+      <c r="BC49">
+        <f>(BB49/BB48)-1</f>
+        <v>0.088235294117646967</v>
+      </c>
+    </row>
+    <row r="50" spans="1:65" ht="19.5">
+      <c r="C50">
+        <f>H49*D50</f>
+        <v>577.80072893076022</v>
+      </c>
+      <c r="D50">
+        <f>D49</f>
+        <v>0.037118810487718534</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="5">
+        <v>43940</v>
+      </c>
+      <c r="G50" s="2">
+        <f>H50*50</f>
+        <v>807202.59730020084</v>
+      </c>
+      <c r="H50">
+        <f>H49+C50</f>
+        <v>16144.051946004018</v>
+      </c>
+      <c r="J50" s="1"/>
+      <c r="AL50" t="inlineStr">
         <is>
           <t>any zero-to-positive int gets the 'r: +n' entry.</t>
         </is>
       </c>
-      <c r="BA48" s="5">
-        <v>43890</v>
-      </c>
-      <c r="BB48">
-        <v>68</v>
-      </c>
-      <c r="BC48">
-        <f>(BB48/BB47)-1</f>
-        <v>0.1333333333333333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:65" ht="19.5">
-      <c r="C49">
-        <f>H48*D49</f>
-        <v>786.9923282942766</v>
-      </c>
-      <c r="D49">
-        <f>D48/1.1100000000000001</f>
-        <v>0.045262110111021089</v>
-      </c>
-      <c r="E49" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="5">
-        <v>43939</v>
-      </c>
-      <c r="G49" s="2">
-        <f>H49*50</f>
-        <v>908721.73181532579</v>
-      </c>
-      <c r="H49">
-        <f>H48+C49</f>
-        <v>18174.434636306516</v>
-      </c>
-      <c r="P49" t="inlineStr">
+      <c r="BA50" s="5">
+        <v>43892</v>
+      </c>
+      <c r="BB50">
+        <v>98</v>
+      </c>
+      <c r="BC50">
+        <f>(BB50/BB49)-1</f>
+        <v>0.32432432432432434</v>
+      </c>
+    </row>
+    <row r="51" spans="1:65" ht="19.5">
+      <c r="C51">
+        <f>H50*D51</f>
+        <v>599.24800468760679</v>
+      </c>
+      <c r="D51">
+        <f>D50</f>
+        <v>0.037118810487718534</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="5">
+        <v>43941</v>
+      </c>
+      <c r="G51" s="2">
+        <f>H51*50</f>
+        <v>837164.99753458123</v>
+      </c>
+      <c r="H51">
+        <f>H50+C51</f>
+        <v>16743.299950691624</v>
+      </c>
+      <c r="P51" t="inlineStr">
         <is>
           <t>recent Source: https://portal.ct.gov/-/media/Coronavirus/CTDPHCOVID19summary3312020.pdf?la=en</t>
         </is>
       </c>
-      <c r="BA49" s="5">
-        <v>43891</v>
-      </c>
-      <c r="BB49">
-        <v>74</v>
-      </c>
-      <c r="BC49">
-        <f>(BB49/BB48)-1</f>
-        <v>0.088235294117646967</v>
-      </c>
-    </row>
-    <row r="50" spans="1:65" ht="19.5">
-      <c r="C50">
-        <f>H49*D50</f>
-        <v>741.09302857122611</v>
-      </c>
-      <c r="D50">
-        <f>D49/1.1100000000000001</f>
-        <v>0.040776675775694673</v>
-      </c>
-      <c r="E50" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="5">
-        <v>43940</v>
-      </c>
-      <c r="G50" s="2">
-        <f>H50*50</f>
-        <v>945776.38324388722</v>
-      </c>
-      <c r="H50">
-        <f>H49+C50</f>
-        <v>18915.527664877744</v>
-      </c>
-      <c r="BA50" s="5">
-        <v>43892</v>
-      </c>
-      <c r="BB50">
-        <v>98</v>
-      </c>
-      <c r="BC50">
-        <f>(BB50/BB49)-1</f>
-        <v>0.32432432432432434</v>
-      </c>
-    </row>
-    <row r="51" spans="1:65" ht="19.5">
-      <c r="C51">
-        <f>H50*D51</f>
-        <v>694.87598082603847</v>
-      </c>
-      <c r="D51">
-        <f>D50/1.1100000000000001</f>
-        <v>0.036735743942067273</v>
-      </c>
-      <c r="E51" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="5">
-        <v>43941</v>
-      </c>
-      <c r="G51" s="2">
-        <f>H51*50</f>
-        <v>980520.18228518916</v>
-      </c>
-      <c r="H51">
-        <f>H50+C51</f>
-        <v>19610.403645703784</v>
-      </c>
-      <c r="I51" t="inlineStr">
+      <c r="BA51" s="5">
+        <v>43893</v>
+      </c>
+      <c r="BB51">
+        <v>118</v>
+      </c>
+      <c r="BC51">
+        <f>(BB51/BB50)-1</f>
+        <v>0.20408163265306123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:65" ht="19.5">
+      <c r="C52">
+        <f>H51*D52</f>
+        <v>621.49137780874946</v>
+      </c>
+      <c r="D52">
+        <f>D51</f>
+        <v>0.037118810487718534</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="5">
+        <v>43942</v>
+      </c>
+      <c r="G52" s="2">
+        <f>H52*50</f>
+        <v>868239.56642501871</v>
+      </c>
+      <c r="H52">
+        <f>H51+C52</f>
+        <v>17364.791328500374</v>
+      </c>
+      <c r="BA52" s="5">
+        <v>43894</v>
+      </c>
+      <c r="BB52">
+        <v>149</v>
+      </c>
+      <c r="BC52">
+        <f>(BB52/BB51)-1</f>
+        <v>0.26271186440677963</v>
+      </c>
+    </row>
+    <row r="53" spans="1:65" ht="19.5">
+      <c r="C53">
+        <f>H52*D53</f>
+        <v>644.56039848138357</v>
+      </c>
+      <c r="D53">
+        <f>D52</f>
+        <v>0.037118810487718534</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="5">
+        <v>43943</v>
+      </c>
+      <c r="G53" s="2">
+        <f>H53*50</f>
+        <v>900467.58634908788</v>
+      </c>
+      <c r="H53">
+        <f>H52+C53</f>
+        <v>18009.351726981757</v>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
-          <t>&lt;&lt; transmission under 4 percent growth (per day)</t>
+          <t>&lt;&lt; 900 thousand (50x measured)</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr">
+      <c r="P53" t="inlineStr">
         <is>
           <t>export: $ ssconvert -T Gnumeric_stf:stf_csv thisfile.gnumeric thisfile.csv</t>
         </is>
       </c>
-      <c r="BA51" s="5">
-        <v>43893</v>
-      </c>
-      <c r="BB51">
-        <v>118</v>
-      </c>
-      <c r="BC51">
-        <f>(BB51/BB50)-1</f>
-        <v>0.20408163265306123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:65" ht="19.5">
-      <c r="C52">
-        <f>H51*D52</f>
-        <v>720.40276692915677</v>
-      </c>
-      <c r="D52">
-        <f>D51</f>
-        <v>0.036735743942067273</v>
-      </c>
-      <c r="E52" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="5">
-        <v>43942</v>
-      </c>
-      <c r="G52" s="2">
-        <f>H52*50</f>
-        <v>1016540.320631647</v>
-      </c>
-      <c r="H52">
-        <f>H51+C52</f>
-        <v>20330.806412632941</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>(four percent arbitrarily chosen)</t>
-        </is>
-      </c>
-      <c r="BA52" s="5">
-        <v>43894</v>
-      </c>
-      <c r="BB52">
-        <v>149</v>
-      </c>
-      <c r="BC52">
-        <f>(BB52/BB51)-1</f>
-        <v>0.26271186440677963</v>
-      </c>
-    </row>
-    <row r="53" spans="1:65" ht="19.5">
-      <c r="C53">
-        <f>H52*D53</f>
-        <v>746.86729851022301</v>
-      </c>
-      <c r="D53">
-        <f>D52</f>
-        <v>0.036735743942067273</v>
-      </c>
-      <c r="E53" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="5">
-        <v>43943</v>
-      </c>
-      <c r="G53" s="2">
-        <f>H53*50</f>
-        <v>1053883.6855571582</v>
-      </c>
-      <c r="H53">
-        <f>H52+C53</f>
-        <v>21077.673711143165</v>
-      </c>
-      <c r="P53" t="inlineStr">
+      <c r="BA53" s="5">
+        <v>43895</v>
+      </c>
+      <c r="BB53">
+        <v>217</v>
+      </c>
+      <c r="BC53">
+        <f>(BB53/BB52)-1</f>
+        <v>0.4563758389261745</v>
+      </c>
+    </row>
+    <row r="54" spans="1:65" ht="19.5">
+      <c r="C54">
+        <f>H53*D54</f>
+        <v>668.48571376050234</v>
+      </c>
+      <c r="D54">
+        <f>D53</f>
+        <v>0.037118810487718534</v>
+      </c>
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="5">
+        <v>43944</v>
+      </c>
+      <c r="G54" s="2">
+        <f>H54*50</f>
+        <v>933891.87203711295</v>
+      </c>
+      <c r="H54">
+        <f>H53+C54</f>
+        <v>18677.83744074226</v>
+      </c>
+      <c r="BA54" s="5">
+        <v>43896</v>
+      </c>
+      <c r="BB54">
+        <v>262</v>
+      </c>
+      <c r="BC54">
+        <f>(BB54/BB53)-1</f>
+        <v>0.20737327188940102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:65" ht="19.5">
+      <c r="C55">
+        <f>H54*D55</f>
+        <v>693.29910828332572</v>
+      </c>
+      <c r="D55">
+        <f>D54</f>
+        <v>0.037118810487718534</v>
+      </c>
+      <c r="E55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="5">
+        <v>43945</v>
+      </c>
+      <c r="G55" s="2">
+        <f>H55*50</f>
+        <v>968556.82745127927</v>
+      </c>
+      <c r="H55">
+        <f>H54+C55</f>
+        <v>19371.136549025585</v>
+      </c>
+      <c r="P55" t="inlineStr">
         <is>
           <t>March 31: Hospitalization by county presented in a graphic (only?)</t>
         </is>
       </c>
-      <c r="BA53" s="5">
-        <v>43895</v>
-      </c>
-      <c r="BB53">
-        <v>217</v>
-      </c>
-      <c r="BC53">
-        <f>(BB53/BB52)-1</f>
-        <v>0.4563758389261745</v>
-      </c>
-    </row>
-    <row r="54" spans="1:65" ht="19.5">
-      <c r="C54">
-        <f>H53*D54</f>
-        <v>774.30402434699818</v>
-      </c>
-      <c r="D54">
-        <f>D53</f>
-        <v>0.036735743942067273</v>
-      </c>
-      <c r="E54" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="5">
-        <v>43944</v>
-      </c>
-      <c r="G54" s="2">
-        <f>H54*50</f>
-        <v>1092598.8867745083</v>
-      </c>
-      <c r="H54">
-        <f>H53+C54</f>
-        <v>21851.977735490163</v>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>&lt;&lt; 1.09 million (50x measured)</t>
-        </is>
-      </c>
-      <c r="BA54" s="5">
-        <v>43896</v>
-      </c>
-      <c r="BB54">
-        <v>262</v>
-      </c>
-      <c r="BC54">
-        <f>(BB54/BB53)-1</f>
-        <v>0.20737327188940102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:65" ht="19.5">
-      <c r="C55">
-        <f>H54*D55</f>
-        <v>802.74865871872169</v>
-      </c>
-      <c r="D55">
-        <f>D54</f>
-        <v>0.036735743942067273</v>
-      </c>
-      <c r="E55" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="5">
-        <v>43945</v>
-      </c>
-      <c r="G55" s="2">
-        <f>H55*50</f>
-        <v>1132736.3197104444</v>
-      </c>
-      <c r="H55">
-        <f>H54+C55</f>
-        <v>22654.726394208887</v>
-      </c>
-      <c r="P55" t="inlineStr">
+      <c r="BA55" s="5">
+        <v>43897</v>
+      </c>
+      <c r="BB55">
+        <v>402</v>
+      </c>
+      <c r="BC55">
+        <f>(BB55/BB54)-1</f>
+        <v>0.53435114503816794</v>
+      </c>
+    </row>
+    <row r="56" spans="1:65" ht="19.5">
+      <c r="C56">
+        <f>H55*D56</f>
+        <v>719.03354649499875</v>
+      </c>
+      <c r="D56">
+        <f>D55</f>
+        <v>0.037118810487718534</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="5">
+        <v>43946</v>
+      </c>
+      <c r="G56" s="2">
+        <f>H56*50</f>
+        <v>1004508.5047760293</v>
+      </c>
+      <c r="H56">
+        <f>H55+C56</f>
+        <v>20090.170095520585</v>
+      </c>
+      <c r="BA56" s="5">
+        <v>43898</v>
+      </c>
+      <c r="BB56">
+        <v>518</v>
+      </c>
+      <c r="BC56">
+        <f>(BB56/BB55)-1</f>
+        <v>0.28855721393034828</v>
+      </c>
+    </row>
+    <row r="57" spans="1:65" ht="19.5">
+      <c r="C57">
+        <f>H56*D57</f>
+        <v>745.72321644165879</v>
+      </c>
+      <c r="D57">
+        <f>D56</f>
+        <v>0.037118810487718534</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="5">
+        <v>43947</v>
+      </c>
+      <c r="G57" s="2">
+        <f>H57*50</f>
+        <v>1041794.6655981123</v>
+      </c>
+      <c r="H57">
+        <f>H56+C57</f>
+        <v>20835.893311962245</v>
+      </c>
+      <c r="P57" t="inlineStr">
         <is>
           <t>31 March 23:09 UTC: many cosmetic changes, columns deleted (or added).</t>
         </is>
       </c>
-      <c r="BA55" s="5">
-        <v>43897</v>
-      </c>
-      <c r="BB55">
-        <v>402</v>
-      </c>
-      <c r="BC55">
-        <f>(BB55/BB54)-1</f>
-        <v>0.53435114503816794</v>
-      </c>
-    </row>
-    <row r="56" spans="1:65" ht="19.5">
-      <c r="C56">
-        <f>H55*D56</f>
-        <v>832.2382278952507</v>
-      </c>
-      <c r="D56">
-        <f>D55</f>
-        <v>0.036735743942067273</v>
-      </c>
-      <c r="E56" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" s="5">
-        <v>43946</v>
-      </c>
-      <c r="G56" s="2">
-        <f>H56*50</f>
-        <v>1174348.2311052068</v>
-      </c>
-      <c r="H56">
-        <f>H55+C56</f>
-        <v>23486.964622104137</v>
-      </c>
-      <c r="P56" t="inlineStr">
+      <c r="BA57" s="5">
+        <v>43899</v>
+      </c>
+      <c r="BB57">
+        <v>583</v>
+      </c>
+      <c r="BC57">
+        <f>(BB57/BB56)-1</f>
+        <v>0.12548262548262556</v>
+      </c>
+    </row>
+    <row r="58" spans="1:65" ht="19.5">
+      <c r="C58">
+        <f>H57*D58</f>
+        <v>773.40357518904864</v>
+      </c>
+      <c r="D58">
+        <f>D57</f>
+        <v>0.037118810487718534</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="5">
+        <v>43948</v>
+      </c>
+      <c r="G58" s="2">
+        <f>H58*50</f>
+        <v>1080464.8443575646</v>
+      </c>
+      <c r="H58">
+        <f>H57+C58</f>
+        <v>21609.296887151293</v>
+      </c>
+      <c r="P58" t="inlineStr">
         <is>
           <t>Hopefully, no major corruption of data/forumlas present after these major edits.</t>
         </is>
       </c>
-      <c r="BA56" s="5">
-        <v>43898</v>
-      </c>
-      <c r="BB56">
-        <v>518</v>
-      </c>
-      <c r="BC56">
-        <f>(BB56/BB55)-1</f>
-        <v>0.28855721393034828</v>
-      </c>
-    </row>
-    <row r="57" spans="1:65" ht="19.5">
-      <c r="C57">
-        <f>H56*D57</f>
-        <v>862.81111833401042</v>
-      </c>
-      <c r="D57">
-        <f>D56</f>
-        <v>0.036735743942067273</v>
-      </c>
-      <c r="E57" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="5">
-        <v>43947</v>
-      </c>
-      <c r="G57" s="2">
-        <f>H57*50</f>
-        <v>1217488.7870219075</v>
-      </c>
-      <c r="H57">
-        <f>H56+C57</f>
-        <v>24349.775740438148</v>
-      </c>
-      <c r="BA57" s="5">
-        <v>43899</v>
-      </c>
-      <c r="BB57">
-        <v>583</v>
-      </c>
-      <c r="BC57">
-        <f>(BB57/BB56)-1</f>
-        <v>0.12548262548262556</v>
-      </c>
-    </row>
-    <row r="58" spans="1:65" ht="19.5">
-      <c r="C58">
-        <f>H57*D58</f>
-        <v>894.50712664749733</v>
-      </c>
-      <c r="D58">
-        <f>D57</f>
-        <v>0.036735743942067273</v>
-      </c>
-      <c r="E58" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="5">
-        <v>43948</v>
-      </c>
-      <c r="G58" s="2">
-        <f>H58*50</f>
-        <v>1262214.1433542822</v>
-      </c>
-      <c r="H58">
-        <f>H57+C58</f>
-        <v>25244.282867085647</v>
-      </c>
-      <c r="P58" t="inlineStr">
+      <c r="BA58" s="5">
+        <v>43900</v>
+      </c>
+      <c r="BB58">
+        <v>959</v>
+      </c>
+      <c r="BC58">
+        <f>(BB58/BB57)-1</f>
+        <v>0.64493996569468259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:65" ht="19.5">
+      <c r="C59">
+        <f>H58*D59</f>
+        <v>802.11139592701488</v>
+      </c>
+      <c r="D59">
+        <f>D58</f>
+        <v>0.037118810487718534</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="5">
+        <v>43949</v>
+      </c>
+      <c r="G59" s="2">
+        <f>H59*50</f>
+        <v>1120570.4141539154</v>
+      </c>
+      <c r="H59">
+        <f>H58+C59</f>
+        <v>22411.408283078308</v>
+      </c>
+      <c r="BA59" s="5">
+        <v>43901</v>
+      </c>
+      <c r="BB59">
+        <v>1281</v>
+      </c>
+      <c r="BC59">
+        <f>(BB59/BB58)-1</f>
+        <v>0.33576642335766427</v>
+      </c>
+    </row>
+    <row r="60" spans="1:65" ht="19.5">
+      <c r="C60">
+        <f>H59*D60</f>
+        <v>831.88481682246913</v>
+      </c>
+      <c r="D60">
+        <f>D59</f>
+        <v>0.037118810487718534</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="5">
+        <v>43950</v>
+      </c>
+      <c r="G60" s="2">
+        <f>H60*50</f>
+        <v>1162164.6549950389</v>
+      </c>
+      <c r="H60">
+        <f>H59+C60</f>
+        <v>23243.293099900777</v>
+      </c>
+      <c r="P60" t="inlineStr">
         <is>
           <t>1 April: Column D now formatted as percentile</t>
         </is>
       </c>
-      <c r="BA58" s="5">
-        <v>43900</v>
-      </c>
-      <c r="BB58">
-        <v>959</v>
-      </c>
-      <c r="BC58">
-        <f>(BB58/BB57)-1</f>
-        <v>0.64493996569468259</v>
-      </c>
-    </row>
-    <row r="59" spans="1:65" ht="19.5">
-      <c r="C59">
-        <f>H58*D59</f>
-        <v>927.36751140637421</v>
-      </c>
-      <c r="D59">
-        <f>D58</f>
-        <v>0.036735743942067273</v>
-      </c>
-      <c r="E59" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="5">
-        <v>43949</v>
-      </c>
-      <c r="G59" s="2">
-        <f>H59*50</f>
-        <v>1308582.5189246009</v>
-      </c>
-      <c r="H59">
-        <f>H58+C59</f>
-        <v>26171.650378492021</v>
-      </c>
-      <c r="P59" t="inlineStr">
+      <c r="BA60" s="5">
+        <v>43902</v>
+      </c>
+      <c r="BB60">
+        <v>1663</v>
+      </c>
+      <c r="BC60">
+        <f>(BB60/BB59)-1</f>
+        <v>0.29820452771272454</v>
+      </c>
+    </row>
+    <row r="61" spans="1:65" ht="19.5">
+      <c r="C61">
+        <f>H60*D61</f>
+        <v>862.7633916857128</v>
+      </c>
+      <c r="D61">
+        <f>D60</f>
+        <v>0.037118810487718534</v>
+      </c>
+      <c r="E61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="5">
+        <v>43951</v>
+      </c>
+      <c r="G61" s="2">
+        <f>H61*50</f>
+        <v>1205302.8245793243</v>
+      </c>
+      <c r="H61">
+        <f>H60+C61</f>
+        <v>24106.056491586489</v>
+      </c>
+      <c r="P61" t="inlineStr">
         <is>
           <t>7 April: 1.09 becomes 1.11 for arbitrary growth reduction supposition expressed in Column D (Multiplier).</t>
         </is>
       </c>
-      <c r="BA59" s="5">
-        <v>43901</v>
-      </c>
-      <c r="BB59">
-        <v>1281</v>
-      </c>
-      <c r="BC59">
-        <f>(BB59/BB58)-1</f>
-        <v>0.33576642335766427</v>
-      </c>
-    </row>
-    <row r="60" spans="1:65" ht="19.5">
-      <c r="C60">
-        <f>H59*D60</f>
-        <v>961.43504684559093</v>
-      </c>
-      <c r="D60">
-        <f>D59</f>
-        <v>0.036735743942067273</v>
-      </c>
-      <c r="E60" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="5">
-        <v>43950</v>
-      </c>
-      <c r="G60" s="2">
-        <f>H60*50</f>
-        <v>1356654.2712668807</v>
-      </c>
-      <c r="H60">
-        <f>H59+C60</f>
-        <v>27133.085425337613</v>
-      </c>
-      <c r="P60" t="inlineStr">
+      <c r="BA61" s="5">
+        <v>43903</v>
+      </c>
+      <c r="BB61">
+        <v>2179</v>
+      </c>
+      <c r="BC61">
+        <f>(BB61/BB60)-1</f>
+        <v>0.31028262176788934</v>
+      </c>
+    </row>
+    <row r="62" spans="1:65" ht="19.5">
+      <c r="C62">
+        <f>H61*D62</f>
+        <v>894.78814251743597</v>
+      </c>
+      <c r="D62">
+        <f>D61</f>
+        <v>0.037118810487718534</v>
+      </c>
+      <c r="E62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="5">
+        <v>43952</v>
+      </c>
+      <c r="G62" s="2">
+        <f>H62*50</f>
+        <v>1250042.2317051962</v>
+      </c>
+      <c r="H62">
+        <f>H61+C62</f>
+        <v>25000.844634103923</v>
+      </c>
+      <c r="P62" t="inlineStr">
         <is>
           <t>7 April: Column G goes from 100x to 50x (arbitrary value chosen)</t>
         </is>
       </c>
-      <c r="BA60" s="5">
-        <v>43902</v>
-      </c>
-      <c r="BB60">
-        <v>1663</v>
-      </c>
-      <c r="BC60">
-        <f>(BB60/BB59)-1</f>
-        <v>0.29820452771272454</v>
-      </c>
-    </row>
-    <row r="61" spans="1:65" ht="19.5">
-      <c r="C61">
-        <f>H60*D61</f>
-        <v>996.75407854344007</v>
-      </c>
-      <c r="D61">
-        <f>D60</f>
-        <v>0.036735743942067273</v>
-      </c>
-      <c r="E61" t="s">
-        <v>15</v>
-      </c>
-      <c r="F61" s="5">
-        <v>43951</v>
-      </c>
-      <c r="G61" s="2">
-        <f>H61*50</f>
-        <v>1406491.9751940526</v>
-      </c>
-      <c r="H61">
-        <f>H60+C61</f>
-        <v>28129.839503881052</v>
-      </c>
-      <c r="Q61" t="inlineStr">
+      <c r="BA62" s="5">
+        <v>43904</v>
+      </c>
+      <c r="BB62">
+        <v>2727</v>
+      </c>
+      <c r="BC62">
+        <f>(BB62/BB61)-1</f>
+        <v>0.25149150986691149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:65" ht="19.5">
+      <c r="C63">
+        <f>H62*D63</f>
+        <v>928.00161400619834</v>
+      </c>
+      <c r="D63">
+        <f>D62</f>
+        <v>0.037118810487718534</v>
+      </c>
+      <c r="E63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="5">
+        <v>43953</v>
+      </c>
+      <c r="G63" s="2">
+        <f>H63*50</f>
+        <v>1296442.3124055061</v>
+      </c>
+      <c r="H63">
+        <f>H62+C63</f>
+        <v>25928.846248110123</v>
+      </c>
+      <c r="Q63" t="inlineStr">
         <is>
           <t>(the 100x scaling factor was also arbitrary)</t>
         </is>
       </c>
-      <c r="BA61" s="5">
-        <v>43903</v>
-      </c>
-      <c r="BB61">
-        <v>2179</v>
-      </c>
-      <c r="BC61">
-        <f>(BB61/BB60)-1</f>
-        <v>0.31028262176788934</v>
-      </c>
-    </row>
-    <row r="62" spans="1:65" ht="19.5">
-      <c r="C62">
-        <f>H61*D62</f>
-        <v>1033.3705811460229</v>
-      </c>
-      <c r="D62">
-        <f>D61</f>
-        <v>0.036735743942067273</v>
-      </c>
-      <c r="E62" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" s="5">
-        <v>43952</v>
-      </c>
-      <c r="G62" s="2">
-        <f>H62*50</f>
-        <v>1458160.5042513539</v>
-      </c>
-      <c r="H62">
-        <f>H61+C62</f>
-        <v>29163.210085027076</v>
-      </c>
-      <c r="J62" s="1"/>
-      <c r="P62" t="inlineStr">
+      <c r="BA63" s="5">
+        <v>43905</v>
+      </c>
+      <c r="BB63">
+        <v>3499</v>
+      </c>
+      <c r="BC63">
+        <f>(BB63/BB62)-1</f>
+        <v>0.28309497616428314</v>
+      </c>
+    </row>
+    <row r="64" spans="1:65" ht="19.5">
+      <c r="C64">
+        <f>H63*D64</f>
+        <v>962.44793004879136</v>
+      </c>
+      <c r="D64">
+        <f>D63</f>
+        <v>0.037118810487718534</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="5">
+        <v>43954</v>
+      </c>
+      <c r="G64" s="2">
+        <f>H64*50</f>
+        <v>1344564.7089079458</v>
+      </c>
+      <c r="H64">
+        <f>H63+C64</f>
+        <v>26891.294178158914</v>
+      </c>
+      <c r="J64" s="1"/>
+      <c r="P64" t="inlineStr">
         <is>
           <t>7 April: Litchfield County is doubling its Confirmed cases every 6.5 days or so.</t>
         </is>
       </c>
-      <c r="BA62" s="5">
-        <v>43904</v>
-      </c>
-      <c r="BB62">
-        <v>2727</v>
-      </c>
-      <c r="BC62">
-        <f>(BB62/BB61)-1</f>
-        <v>0.25149150986691149</v>
-      </c>
-    </row>
-    <row r="63" spans="1:65" ht="19.5">
-      <c r="C63">
-        <f>H62*D63</f>
-        <v>1071.3322182122686</v>
-      </c>
-      <c r="D63">
-        <f>D62</f>
-        <v>0.036735743942067273</v>
-      </c>
-      <c r="E63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63" s="5">
-        <v>43953</v>
-      </c>
-      <c r="G63" s="2">
-        <f>H63*50</f>
-        <v>1511727.1151619672</v>
-      </c>
-      <c r="H63">
-        <f>H62+C63</f>
-        <v>30234.542303239345</v>
-      </c>
-      <c r="Q63" t="inlineStr">
+      <c r="BA64" s="5">
+        <v>43906</v>
+      </c>
+      <c r="BB64">
+        <v>4632</v>
+      </c>
+      <c r="BC64">
+        <f>(BB64/BB63)-1</f>
+        <v>0.32380680194341238</v>
+      </c>
+    </row>
+    <row r="65" spans="1:65" ht="19.5">
+      <c r="C65">
+        <f>H64*D65</f>
+        <v>998.17285236856947</v>
+      </c>
+      <c r="D65">
+        <f>D64</f>
+        <v>0.037118810487718534</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="5">
+        <v>43955</v>
+      </c>
+      <c r="G65" s="2">
+        <f>H65*50</f>
+        <v>1394473.3515263742</v>
+      </c>
+      <c r="H65">
+        <f>H64+C65</f>
+        <v>27889.467030527485</v>
+      </c>
+      <c r="Q65" t="inlineStr">
         <is>
           <t>(own analysis; ignorant and simplistic, there, on Litchfield Cty doublings. ;)</t>
         </is>
       </c>
-      <c r="BA63" s="5">
-        <v>43905</v>
-      </c>
-      <c r="BB63">
-        <v>3499</v>
-      </c>
-      <c r="BC63">
-        <f>(BB63/BB62)-1</f>
-        <v>0.28309497616428314</v>
-      </c>
-    </row>
-    <row r="64" spans="1:65" ht="19.5">
-      <c r="C64">
-        <f>H63*D64</f>
-        <v>1110.6884042574015</v>
-      </c>
-      <c r="D64">
-        <f>D63</f>
-        <v>0.036735743942067273</v>
-      </c>
-      <c r="E64" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="5">
-        <v>43954</v>
-      </c>
-      <c r="G64" s="2">
-        <f>H64*50</f>
-        <v>1567261.5353748372</v>
-      </c>
-      <c r="H64">
-        <f>H63+C64</f>
-        <v>31345.230707496747</v>
-      </c>
-      <c r="P64" t="inlineStr">
+      <c r="BA65" s="5">
+        <v>43907</v>
+      </c>
+      <c r="BB65">
+        <v>6421</v>
+      </c>
+      <c r="BC65">
+        <f>(BB65/BB64)-1</f>
+        <v>0.38622625215889461</v>
+      </c>
+    </row>
+    <row r="66" spans="1:65" ht="19.5">
+      <c r="C66">
+        <f>H65*D66</f>
+        <v>1035.2238413096238</v>
+      </c>
+      <c r="D66">
+        <f>D65</f>
+        <v>0.037118810487718534</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="5">
+        <v>43956</v>
+      </c>
+      <c r="G66" s="2">
+        <f>H66*50</f>
+        <v>1446234.5435918553</v>
+      </c>
+      <c r="H66">
+        <f>H65+C66</f>
+        <v>28924.690871837109</v>
+      </c>
+      <c r="P66" t="inlineStr">
         <is>
           <t>9 April: USA Confirmed (far columns, right) now expressed in 3 digits (up from 2 digits, formerly).</t>
         </is>
       </c>
-      <c r="BA64" s="5">
-        <v>43906</v>
-      </c>
-      <c r="BB64">
-        <v>4632</v>
-      </c>
-      <c r="BC64">
-        <f>(BB64/BB63)-1</f>
-        <v>0.32380680194341238</v>
-      </c>
-    </row>
-    <row r="65" spans="1:65" ht="19.5">
-      <c r="C65">
-        <f>H64*D65</f>
-        <v>1151.4903690756246</v>
-      </c>
-      <c r="D65">
-        <f>D64</f>
-        <v>0.036735743942067273</v>
-      </c>
-      <c r="E65" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="5">
-        <v>43955</v>
-      </c>
-      <c r="G65" s="2">
-        <f>H65*50</f>
-        <v>1624836.0538286185</v>
-      </c>
-      <c r="H65">
-        <f>H64+C65</f>
-        <v>32496.721076572372</v>
-      </c>
-      <c r="Q65" t="inlineStr">
+      <c r="BA66" s="5">
+        <v>43908</v>
+      </c>
+      <c r="BB66">
+        <v>7783</v>
+      </c>
+      <c r="BC66">
+        <f>(BB66/BB65)-1</f>
+        <v>0.21211649275813738</v>
+      </c>
+    </row>
+    <row r="67" spans="1:65" ht="19.5">
+      <c r="C67">
+        <f>H66*D67</f>
+        <v>1073.6501188875638</v>
+      </c>
+      <c r="D67">
+        <f>D66</f>
+        <v>0.037118810487718534</v>
+      </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="5">
+        <v>43957</v>
+      </c>
+      <c r="G67" s="2">
+        <f>H67*50</f>
+        <v>1499917.0495362335</v>
+      </c>
+      <c r="H67">
+        <f>H66+C67</f>
+        <v>29998.340990724671</v>
+      </c>
+      <c r="Q67" t="inlineStr">
         <is>
           <t>This reflects that they've reached consistently below 10 percent, and so</t>
         </is>
       </c>
-      <c r="BA65" s="5">
-        <v>43907</v>
-      </c>
-      <c r="BB65">
-        <v>6421</v>
-      </c>
-      <c r="BC65">
-        <f>(BB65/BB64)-1</f>
-        <v>0.38622625215889461</v>
-      </c>
-    </row>
-    <row r="66" spans="1:65" ht="19.5">
-      <c r="C66">
-        <f>H65*D66</f>
-        <v>1193.7912244257434</v>
-      </c>
-      <c r="D66">
-        <f>D65</f>
-        <v>0.036735743942067273</v>
-      </c>
-      <c r="E66" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="5">
-        <v>43956</v>
-      </c>
-      <c r="G66" s="2">
-        <f>H66*50</f>
-        <v>1684525.6150499058</v>
-      </c>
-      <c r="H66">
-        <f>H65+C66</f>
-        <v>33690.512300998118</v>
-      </c>
-      <c r="Q66" t="inlineStr">
+      <c r="BA67" s="5">
+        <v>43909</v>
+      </c>
+      <c r="BB67">
+        <v>13677</v>
+      </c>
+      <c r="BC67">
+        <f>(BB67/BB66)-1</f>
+        <v>0.75729153282795836</v>
+      </c>
+    </row>
+    <row r="68" spans="1:65" ht="19.5">
+      <c r="C68">
+        <f>H67*D68</f>
+        <v>1113.5027341806676</v>
+      </c>
+      <c r="D68">
+        <f>D67</f>
+        <v>0.037118810487718534</v>
+      </c>
+      <c r="E68" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" s="5">
+        <v>43958</v>
+      </c>
+      <c r="G68" s="2">
+        <f>H68*50</f>
+        <v>1555592.1862452668</v>
+      </c>
+      <c r="H68">
+        <f>H67+C68</f>
+        <v>31111.843724905339</v>
+      </c>
+      <c r="Q68" t="inlineStr">
         <is>
           <t>require another digit of precision (the decimal point has moved</t>
         </is>
       </c>
-      <c r="BA66" s="5">
-        <v>43908</v>
-      </c>
-      <c r="BB66">
-        <v>7783</v>
-      </c>
-      <c r="BC66">
-        <f>(BB66/BB65)-1</f>
-        <v>0.21211649275813738</v>
-      </c>
-    </row>
-    <row r="67" spans="1:65" ht="19.5">
-      <c r="C67">
-        <f>H66*D67</f>
-        <v>1237.6460331665346</v>
-      </c>
-      <c r="D67">
-        <f>D66</f>
-        <v>0.036735743942067273</v>
-      </c>
-      <c r="E67" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="5">
-        <v>43957</v>
-      </c>
-      <c r="G67" s="2">
-        <f>H67*50</f>
-        <v>1746407.9167082328</v>
-      </c>
-      <c r="H67">
-        <f>H66+C67</f>
-        <v>34928.158334164655</v>
-      </c>
-      <c r="J67" s="1"/>
-      <c r="Q67" t="inlineStr">
+      <c r="BA68" s="5">
+        <v>43910</v>
+      </c>
+      <c r="BB68">
+        <v>19100</v>
+      </c>
+      <c r="BC68">
+        <f>(BB68/BB67)-1</f>
+        <v>0.39650508152372588</v>
+      </c>
+    </row>
+    <row r="69" spans="1:65" ht="19.5">
+      <c r="C69">
+        <f>H68*D69</f>
+        <v>1154.8346311482765</v>
+      </c>
+      <c r="D69">
+        <f>D68</f>
+        <v>0.037118810487718534</v>
+      </c>
+      <c r="E69" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="5">
+        <v>43959</v>
+      </c>
+      <c r="G69" s="2">
+        <f>H69*50</f>
+        <v>1613333.9178026807</v>
+      </c>
+      <c r="H69">
+        <f>H68+C69</f>
+        <v>32266.678356053613</v>
+      </c>
+      <c r="J69" s="1"/>
+      <c r="Q69" t="inlineStr">
         <is>
           <t>over one place)</t>
         </is>
       </c>
-      <c r="BA67" s="5">
-        <v>43909</v>
-      </c>
-      <c r="BB67">
-        <v>13677</v>
-      </c>
-      <c r="BC67">
-        <f>(BB67/BB66)-1</f>
-        <v>0.75729153282795836</v>
-      </c>
-    </row>
-    <row r="68" spans="1:65" ht="19.5">
-      <c r="C68">
-        <f>H67*D68</f>
-        <v>1283.1118809318557</v>
-      </c>
-      <c r="D68">
-        <f>D67</f>
-        <v>0.036735743942067273</v>
-      </c>
-      <c r="E68" t="s">
-        <v>15</v>
-      </c>
-      <c r="F68" s="5">
-        <v>43958</v>
-      </c>
-      <c r="G68" s="2">
-        <f>H68*50</f>
-        <v>1810563.5107548255</v>
-      </c>
-      <c r="H68">
-        <f>H67+C68</f>
-        <v>36211.270215096512</v>
-      </c>
-      <c r="P68" t="inlineStr">
+      <c r="BA69" s="5">
+        <v>43911</v>
+      </c>
+      <c r="BB69">
+        <v>25489</v>
+      </c>
+      <c r="BC69">
+        <f>(BB69/BB68)-1</f>
+        <v>0.33450261780104706</v>
+      </c>
+    </row>
+    <row r="70" spans="1:65" ht="19.5">
+      <c r="C70">
+        <f>H69*D70</f>
+        <v>1197.7007189665235</v>
+      </c>
+      <c r="D70">
+        <f>D69</f>
+        <v>0.037118810487718534</v>
+      </c>
+      <c r="E70" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" s="5">
+        <v>43960</v>
+      </c>
+      <c r="G70" s="2">
+        <f>H70*50</f>
+        <v>1673218.9537510069</v>
+      </c>
+      <c r="H70">
+        <f>H69+C70</f>
+        <v>33464.379075020137</v>
+      </c>
+      <c r="P70" t="inlineStr">
         <is>
           <t>9 April: Have not kept up with the state epidemiologist's estimate</t>
         </is>
       </c>
-      <c r="BA68" s="5">
-        <v>43910</v>
-      </c>
-      <c r="BB68">
-        <v>19100</v>
-      </c>
-      <c r="BC68">
-        <f>(BB68/BB67)-1</f>
-        <v>0.39650508152372588</v>
-      </c>
-    </row>
-    <row r="69" spans="1:65" ht="19.5">
-      <c r="C69">
-        <f>H68*D69</f>
-        <v>1330.2479504387927</v>
-      </c>
-      <c r="D69">
-        <f>D68</f>
-        <v>0.036735743942067273</v>
-      </c>
-      <c r="E69" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" s="5">
-        <v>43959</v>
-      </c>
-      <c r="G69" s="2">
-        <f>H69*50</f>
-        <v>1877075.9082767654</v>
-      </c>
-      <c r="H69">
-        <f>H68+C69</f>
-        <v>37541.518165535308</v>
-      </c>
-      <c r="Q69" t="inlineStr">
+      <c r="BA70" s="5">
+        <v>43912</v>
+      </c>
+      <c r="BB70">
+        <v>33276</v>
+      </c>
+      <c r="BC70">
+        <f>(BB70/BB69)-1</f>
+        <v>0.30550433520342102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:65" ht="19.5">
+      <c r="C71">
+        <f>H70*D71</f>
+        <v>1242.157944974846</v>
+      </c>
+      <c r="D71">
+        <f>D70</f>
+        <v>0.037118810487718534</v>
+      </c>
+      <c r="E71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="5">
+        <v>43961</v>
+      </c>
+      <c r="G71" s="2">
+        <f>H71*50</f>
+        <v>1735326.8509997493</v>
+      </c>
+      <c r="H71">
+        <f>H70+C71</f>
+        <v>34706.537019994983</v>
+      </c>
+      <c r="Q71" t="inlineStr">
         <is>
           <t>of the multiplier factor (Confirmed and tested vs estimated true count of cases</t>
         </is>
       </c>
-      <c r="BA69" s="5">
-        <v>43911</v>
-      </c>
-      <c r="BB69">
-        <v>25489</v>
-      </c>
-      <c r="BC69">
-        <f>(BB69/BB68)-1</f>
-        <v>0.33450261780104706</v>
-      </c>
-    </row>
-    <row r="70" spans="1:65" ht="19.5">
-      <c r="C70">
-        <f>H69*D70</f>
-        <v>1379.1155985255721</v>
-      </c>
-      <c r="D70">
-        <f>D69</f>
-        <v>0.036735743942067273</v>
-      </c>
-      <c r="E70" t="s">
-        <v>17</v>
-      </c>
-      <c r="F70" s="5">
-        <v>43960</v>
-      </c>
-      <c r="G70" s="2">
-        <f>H70*50</f>
-        <v>1946031.6882030442</v>
-      </c>
-      <c r="H70">
-        <f>H69+C70</f>
-        <v>38920.633764060884</v>
-      </c>
-      <c r="Q70" t="inlineStr">
+      <c r="BA71" s="5">
+        <v>43913</v>
+      </c>
+      <c r="BB71">
+        <v>43847</v>
+      </c>
+      <c r="BC71">
+        <f>(BB71/BB70)-1</f>
+        <v>0.31767640341387193</v>
+      </c>
+    </row>
+    <row r="72" spans="1:65" ht="19.5">
+      <c r="C72">
+        <f>H71*D72</f>
+        <v>1288.2653703301814</v>
+      </c>
+      <c r="D72">
+        <f>D71</f>
+        <v>0.037118810487718534</v>
+      </c>
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="5">
+        <v>43962</v>
+      </c>
+      <c r="G72" s="2">
+        <f>H72*50</f>
+        <v>1799740.1195162584</v>
+      </c>
+      <c r="H72">
+        <f>H71+C72</f>
+        <v>35994.802390325167</v>
+      </c>
+      <c r="Q72" t="inlineStr">
         <is>
           <t>in the state of Connecticut) and (therefore) still using a '50x' multiplier,</t>
         </is>
       </c>
-      <c r="BA70" s="5">
-        <v>43912</v>
-      </c>
-      <c r="BB70">
-        <v>33276</v>
-      </c>
-      <c r="BC70">
-        <f>(BB70/BB69)-1</f>
-        <v>0.30550433520342102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:65" ht="19.5">
-      <c r="C71">
-        <f>H70*D71</f>
-        <v>1429.7784360195185</v>
-      </c>
-      <c r="D71">
-        <f>D70</f>
-        <v>0.036735743942067273</v>
-      </c>
-      <c r="E71" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="5">
-        <v>43961</v>
-      </c>
-      <c r="G71" s="2">
-        <f>H71*50</f>
-        <v>2017520.6100040204</v>
-      </c>
-      <c r="H71">
-        <f>H70+C71</f>
-        <v>40350.412200080405</v>
-      </c>
-      <c r="Q71" t="inlineStr">
+      <c r="BA72" s="5">
+        <v>43914</v>
+      </c>
+      <c r="BB72">
+        <v>53740</v>
+      </c>
+      <c r="BC72">
+        <f>(BB72/BB71)-1</f>
+        <v>0.22562547038565928</v>
+      </c>
+    </row>
+    <row r="73" spans="1:65" ht="19.5">
+      <c r="C73">
+        <f>H72*D73</f>
+        <v>1336.084248469358</v>
+      </c>
+      <c r="D73">
+        <f>D72</f>
+        <v>0.037118810487718534</v>
+      </c>
+      <c r="E73" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="5">
+        <v>43963</v>
+      </c>
+      <c r="G73" s="2">
+        <f>H73*50</f>
+        <v>1866544.3319397261</v>
+      </c>
+      <c r="H73">
+        <f>H72+C73</f>
+        <v>37330.886638794524</v>
+      </c>
+      <c r="Q73" t="inlineStr">
         <is>
           <t>with no particular justification for this figure.</t>
         </is>
       </c>
-      <c r="BA71" s="5">
-        <v>43913</v>
-      </c>
-      <c r="BB71">
-        <v>43847</v>
-      </c>
-      <c r="BC71">
-        <f>(BB71/BB70)-1</f>
-        <v>0.31767640341387193</v>
-      </c>
-    </row>
-    <row r="72" spans="1:65" ht="19.5">
-      <c r="C72">
-        <f>H71*D72</f>
-        <v>1482.3024105390211</v>
-      </c>
-      <c r="D72">
-        <f>D71</f>
-        <v>0.036735743942067273</v>
-      </c>
-      <c r="E72" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="5">
-        <v>43962</v>
-      </c>
-      <c r="G72" s="2">
-        <f>H72*50</f>
-        <v>2091635.7305309714</v>
-      </c>
-      <c r="H72">
-        <f>H71+C72</f>
-        <v>41832.714610619427</v>
-      </c>
-      <c r="BA72" s="5">
-        <v>43914</v>
-      </c>
-      <c r="BB72">
-        <v>53740</v>
-      </c>
-      <c r="BC72">
-        <f>(BB72/BB71)-1</f>
-        <v>0.22562547038565928</v>
-      </c>
-    </row>
-    <row r="73" spans="1:65" ht="19.5">
-      <c r="C73">
-        <f>H72*D73</f>
-        <v>1536.7558923372917</v>
-      </c>
-      <c r="D73">
-        <f>D72</f>
-        <v>0.036735743942067273</v>
-      </c>
-      <c r="E73" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" s="5">
-        <v>43963</v>
-      </c>
-      <c r="G73" s="2">
-        <f>H73*50</f>
-        <v>2168473.5251478362</v>
-      </c>
-      <c r="H73">
-        <f>H72+C73</f>
-        <v>43369.470502956719</v>
-      </c>
       <c r="BA73" s="5">
         <v>43915</v>
       </c>
@@ -5917,11 +6195,11 @@
     <row r="74" spans="1:65" ht="19.5">
       <c r="C74">
         <f>H73*D74</f>
-        <v>1593.2097632996577</v>
+        <v>1385.6781064839179</v>
       </c>
       <c r="D74">
         <f>D73</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E74" t="s">
         <v>14</v>
@@ -5932,7 +6210,7 @@
       <c r="G74" s="2"/>
       <c r="H74">
         <f>H73+C74</f>
-        <v>44962.680266256379</v>
+        <v>38716.56474527844</v>
       </c>
       <c r="BA74" s="5">
         <v>43916</v>
@@ -5948,11 +6226,11 @@
     <row r="75" spans="1:65" ht="19.5">
       <c r="C75">
         <f>H74*D75</f>
-        <v>1651.7375092102354</v>
+        <v>1437.1128295154749</v>
       </c>
       <c r="D75">
         <f>D74</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E75" t="s">
         <v>15</v>
@@ -5963,7 +6241,13 @@
       <c r="G75" s="2"/>
       <c r="H75">
         <f>H74+C75</f>
-        <v>46614.417775466616</v>
+        <v>40153.677574793917</v>
+      </c>
+      <c r="J75" s="1"/>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>General:</t>
+        </is>
       </c>
       <c r="BA75" s="5">
         <v>43917</v>
@@ -5979,11 +6263,11 @@
     <row r="76" spans="1:65" ht="19.5">
       <c r="C76">
         <f>H75*D76</f>
-        <v>1712.4153154080907</v>
+        <v>1490.456748283729</v>
       </c>
       <c r="D76">
         <f>D75</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E76" t="s">
         <v>16</v>
@@ -5994,7 +6278,13 @@
       <c r="G76" s="2"/>
       <c r="H76">
         <f>H75+C76</f>
-        <v>48326.833090874708</v>
+        <v>41644.134323077647</v>
+      </c>
+      <c r="J76" s="1"/>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>Latency:</t>
+        </is>
       </c>
       <c r="BA76" s="5">
         <v>43918</v>
@@ -6010,11 +6300,11 @@
     <row r="77" spans="1:65" ht="19.5">
       <c r="C77">
         <f>H76*D77</f>
-        <v>1775.3221659573967</v>
+        <v>1545.7807298634139</v>
       </c>
       <c r="D77">
         <f>D76</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E77" t="s">
         <v>17</v>
@@ -6025,7 +6315,13 @@
       <c r="G77" s="2"/>
       <c r="H77">
         <f>H76+C77</f>
-        <v>50102.155256832106</v>
+        <v>43189.915052941062</v>
+      </c>
+      <c r="J77" s="1"/>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>Confirmed: infected 5-7 days ago.</t>
+        </is>
       </c>
       <c r="BA77" s="5">
         <v>43919</v>
@@ -6041,11 +6337,11 @@
     <row r="78" spans="1:65" ht="19.5">
       <c r="C78">
         <f>H77*D78</f>
-        <v>1840.539946460684</v>
+        <v>1603.1582718307814</v>
       </c>
       <c r="D78">
         <f>D77</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
@@ -6056,7 +6352,7 @@
       <c r="G78" s="2"/>
       <c r="H78">
         <f>H77+C78</f>
-        <v>51942.695203292787</v>
+        <v>44793.073324771845</v>
       </c>
       <c r="BA78" s="5">
         <v>43920</v>
@@ -6072,11 +6368,11 @@
     <row r="79" spans="1:65" ht="19.5">
       <c r="C79">
         <f>H78*D79</f>
-        <v>1908.1535506490097</v>
+        <v>1662.6655999046866</v>
       </c>
       <c r="D79">
         <f>D78</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E79" t="s">
         <v>12</v>
@@ -6087,7 +6383,12 @@
       <c r="G79" s="2"/>
       <c r="H79">
         <f>H78+C79</f>
-        <v>53850.848753941798</v>
+        <v>46455.738924676531</v>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>Hospitalized: infected 1-3 weeks ago.</t>
+        </is>
       </c>
       <c r="BA79" s="5">
         <v>43921</v>
@@ -6103,11 +6404,11 @@
     <row r="80" spans="1:65" ht="19.5">
       <c r="C80">
         <f>H79*D80</f>
-        <v>1978.2509908877983</v>
+        <v>1724.3817692119974</v>
       </c>
       <c r="D80">
         <f>D79</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E80" t="s">
         <v>13</v>
@@ -6118,7 +6419,7 @@
       <c r="G80" s="2"/>
       <c r="H80">
         <f>H79+C80</f>
-        <v>55829.099744829597</v>
+        <v>48180.12069388853</v>
       </c>
       <c r="BA80" s="5">
         <v>43922</v>
@@ -6134,11 +6435,11 @@
     <row r="81" spans="1:65" ht="19.5">
       <c r="C81">
         <f>H80*D81</f>
-        <v>2050.9235127421935</v>
+        <v>1788.3887693118543</v>
       </c>
       <c r="D81">
         <f>D80</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E81" t="s">
         <v>14</v>
@@ -6149,7 +6450,12 @@
       <c r="G81" s="2"/>
       <c r="H81">
         <f>H80+C81</f>
-        <v>57880.023257571789</v>
+        <v>49968.509463200382</v>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>Death: infected 3-4 weeks ago.</t>
+        </is>
       </c>
       <c r="BA81" s="5">
         <v>43923</v>
@@ -6165,11 +6471,11 @@
     <row r="82" spans="1:65" ht="19.5">
       <c r="C82">
         <f>H81*D82</f>
-        <v>2126.2657137510555</v>
+        <v>1854.7716331183051</v>
       </c>
       <c r="D82">
         <f>D81</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E82" t="s">
         <v>15</v>
@@ -6180,7 +6486,7 @@
       <c r="G82" s="2"/>
       <c r="H82">
         <f>H81+C82</f>
-        <v>60006.288971322843</v>
+        <v>51823.281096318686</v>
       </c>
       <c r="AW82" s="2"/>
       <c r="BA82" s="5">
@@ -6197,11 +6503,11 @@
     <row r="83" spans="1:65" ht="19.5">
       <c r="C83">
         <f>H82*D83</f>
-        <v>2204.3756665642113</v>
+        <v>1923.6185498660197</v>
       </c>
       <c r="D83">
         <f>D82</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E83" t="s">
         <v>16</v>
@@ -6212,7 +6518,12 @@
       <c r="G83" s="2"/>
       <c r="H83">
         <f>H82+C83</f>
-        <v>62210.664637887057</v>
+        <v>53746.899646184705</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>Source: Osterholm, 8 April 2020 (podcast).</t>
+        </is>
       </c>
       <c r="AW83" s="2"/>
       <c r="BA83" s="5">
@@ -6229,11 +6540,11 @@
     <row r="84" spans="1:65" ht="19.5">
       <c r="C84">
         <f>H83*D84</f>
-        <v>2285.355046603238</v>
+        <v>1995.0209822691563</v>
       </c>
       <c r="D84">
         <f>D83</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E84" t="s">
         <v>17</v>
@@ -6244,7 +6555,7 @@
       <c r="G84" s="2"/>
       <c r="H84">
         <f>H83+C84</f>
-        <v>64496.019684490297</v>
+        <v>55741.92062845386</v>
       </c>
       <c r="AW84" s="2"/>
       <c r="BA84" s="5">
@@ -6266,11 +6577,11 @@
     <row r="85" spans="1:65" ht="19.5">
       <c r="C85">
         <f>H84*D85</f>
-        <v>2369.3092644119661</v>
+        <v>2069.0737880290271</v>
       </c>
       <c r="D85">
         <f>D84</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
@@ -6281,7 +6592,12 @@
       <c r="G85" s="2"/>
       <c r="H85">
         <f>H84+C85</f>
-        <v>66865.328948902257</v>
+        <v>57810.994416482885</v>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>https://twitter.com/CIDRAP/status/1248291432202407939</t>
+        </is>
       </c>
       <c r="AW85" s="2"/>
       <c r="BA85" s="5">
@@ -6298,11 +6614,11 @@
     <row r="86" spans="1:65" ht="19.5">
       <c r="C86">
         <f>H85*D86</f>
-        <v>2456.3476028689715</v>
+        <v>2145.8753458519827</v>
       </c>
       <c r="D86">
         <f>D85</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E86" t="s">
         <v>12</v>
@@ -6313,14 +6629,9 @@
       <c r="G86" s="2"/>
       <c r="H86">
         <f>H85+C86</f>
-        <v>69321.676551771234</v>
+        <v>59956.869762334871</v>
       </c>
       <c r="AW86" s="2"/>
-      <c r="AZ86" t="inlineStr">
-        <is>
-          <t>May be current:</t>
-        </is>
-      </c>
       <c r="BA86" s="5">
         <v>43928</v>
       </c>
@@ -6331,81 +6642,103 @@
         <f>(BB86/BB85)-1</f>
         <v>0.080607199448000433</v>
       </c>
-      <c r="BE86" t="inlineStr">
+    </row>
+    <row r="87" spans="1:65" ht="19.5">
+      <c r="C87">
+        <f>H86*D87</f>
+        <v>2225.5276861449297</v>
+      </c>
+      <c r="D87">
+        <f>D86</f>
+        <v>0.037118810487718534</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="5">
+        <v>43977</v>
+      </c>
+      <c r="G87" s="2"/>
+      <c r="H87">
+        <f>H86+C87</f>
+        <v>62182.397448479802</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>Episode 3 of Osterholm Update:</t>
+        </is>
+      </c>
+      <c r="AZ87" t="inlineStr">
+        <is>
+          <t>May be current (likely to be):</t>
+        </is>
+      </c>
+      <c r="BA87" s="5">
+        <v>43929</v>
+      </c>
+      <c r="BB87">
+        <v>429052</v>
+      </c>
+      <c r="BC87" s="7">
+        <f>(BB87/BB86)-1</f>
+        <v>0.0828548569871006</v>
+      </c>
+      <c r="BE87" t="inlineStr">
         <is>
           <t>preliminary or provisional</t>
         </is>
       </c>
     </row>
-    <row r="87" spans="1:65" ht="19.5">
-      <c r="C87">
-        <f>H86*D87</f>
-        <v>2546.5833594406772</v>
-      </c>
-      <c r="D87">
-        <f>D86</f>
-        <v>0.036735743942067273</v>
-      </c>
-      <c r="E87" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" s="5">
-        <v>43977</v>
-      </c>
-      <c r="G87" s="2"/>
-      <c r="H87">
-        <f>H86+C87</f>
-        <v>71868.259911211906</v>
-      </c>
-      <c r="AZ87" t="inlineStr">
+    <row r="88" spans="1:65" ht="19.5">
+      <c r="C88">
+        <f>H87*D88</f>
+        <v>2308.1366265621141</v>
+      </c>
+      <c r="D88">
+        <f>D87</f>
+        <v>0.037118810487718534</v>
+      </c>
+      <c r="E88" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="5">
+        <v>43978</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="H88">
+        <f>H87+C88</f>
+        <v>64490.534075041913</v>
+      </c>
+      <c r="AW88" s="2"/>
+      <c r="AZ88" t="inlineStr">
         <is>
           <t>TENTATIVE</t>
         </is>
       </c>
-      <c r="BA87" s="5">
-        <v>43929</v>
-      </c>
-      <c r="BB87">
-        <v>429052</v>
-      </c>
-      <c r="BC87" s="1"/>
-      <c r="BE87" t="inlineStr">
+      <c r="BA88" s="5">
+        <v>43930</v>
+      </c>
+      <c r="BB88">
+        <v>461437</v>
+      </c>
+      <c r="BC88" s="7">
+        <f>(BB88/BB87)-1</f>
+        <v>0.07548036135480074</v>
+      </c>
+      <c r="BE88" t="inlineStr">
         <is>
-          <t>(early return on this LINE 85)</t>
+          <t>(early return on this LINE 88)</t>
         </is>
       </c>
-    </row>
-    <row r="88" spans="1:65" ht="19.5">
-      <c r="C88">
-        <f>H87*D88</f>
-        <v>2640.1339936602189</v>
-      </c>
-      <c r="D88">
-        <f>D87</f>
-        <v>0.036735743942067273</v>
-      </c>
-      <c r="E88" t="s">
-        <v>14</v>
-      </c>
-      <c r="F88" s="5">
-        <v>43978</v>
-      </c>
-      <c r="G88" s="2"/>
-      <c r="H88">
-        <f>H87+C88</f>
-        <v>74508.393904872122</v>
-      </c>
-      <c r="AW88" s="2"/>
-      <c r="BB88" s="1"/>
     </row>
     <row r="89" spans="1:65" ht="19.5">
       <c r="C89">
         <f>H88*D89</f>
-        <v>2737.1212800240683</v>
+        <v>2393.8119125832354</v>
       </c>
       <c r="D89">
         <f>D88</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E89" t="s">
         <v>15</v>
@@ -6416,24 +6749,24 @@
       <c r="G89" s="2"/>
       <c r="H89">
         <f>H88+C89</f>
-        <v>77245.515184896183</v>
+        <v>66884.345987625144</v>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>http://ow.ly/d5Gk30qwD7o #Coronavirus</t>
+        </is>
       </c>
       <c r="AW89" s="2"/>
       <c r="BB89" s="1"/>
-      <c r="BE89" t="inlineStr">
-        <is>
-          <t>The 396,223 number is</t>
-        </is>
-      </c>
     </row>
     <row r="90" spans="1:65" ht="19.5">
       <c r="C90">
         <f>H89*D90</f>
-        <v>2837.6714665054155</v>
+        <v>2482.6673633096552</v>
       </c>
       <c r="D90">
         <f>D89</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E90" t="s">
         <v>16</v>
@@ -6444,22 +6777,23 @@
       <c r="G90" s="2"/>
       <c r="H90">
         <f>H89+C90</f>
-        <v>80083.1866514016</v>
-      </c>
+        <v>69367.013350934794</v>
+      </c>
+      <c r="BB90" s="1"/>
       <c r="BE90" t="inlineStr">
         <is>
-          <t>unique in this series, in that</t>
+          <t>The 429,052 number is unique in</t>
         </is>
       </c>
     </row>
     <row r="91" spans="1:65" ht="19.5">
       <c r="C91">
         <f>H90*D91</f>
-        <v>2941.9154388906691</v>
+        <v>2574.82102267239</v>
       </c>
       <c r="D91">
         <f>D90</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E91" t="s">
         <v>17</v>
@@ -6470,23 +6804,28 @@
       <c r="G91" s="2"/>
       <c r="H91">
         <f>H90+C91</f>
-        <v>83025.102090292276</v>
+        <v>71941.834373607184</v>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>#COVID19 is now live:</t>
+        </is>
       </c>
       <c r="BB91" s="1"/>
       <c r="BE91" t="inlineStr">
         <is>
-          <t>it is the very last number</t>
+          <t>this series, as the first unreliable</t>
         </is>
       </c>
     </row>
     <row r="92" spans="1:65" ht="19.5">
       <c r="C92">
         <f>H91*D92</f>
-        <v>3049.9888911529715</v>
+        <v>2670.39531625276</v>
       </c>
       <c r="D92">
         <f>D91</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
@@ -6497,17 +6836,27 @@
       <c r="G92" s="2"/>
       <c r="H92">
         <f>H91+C92</f>
-        <v>86075.090981445246</v>
+        <v>74612.229689859945</v>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>"Preparing For What's To Come,"</t>
+        </is>
+      </c>
+      <c r="BE92" t="inlineStr">
+        <is>
+          <t>value in the series.</t>
+        </is>
       </c>
     </row>
     <row r="93" spans="1:65" ht="19.5">
       <c r="C93">
         <f>H92*D93</f>
-        <v>3162.0325020845166</v>
+        <v>2769.5172139240376</v>
       </c>
       <c r="D93">
         <f>D92</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E93" t="s">
         <v>12</v>
@@ -6518,18 +6867,23 @@
       <c r="G93" s="2"/>
       <c r="H93">
         <f>H92+C93</f>
-        <v>89237.123483529766</v>
+        <v>77381.746903783976</v>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>in which Dr. Osterholm discusses the US situation,</t>
+        </is>
       </c>
       <c r="BB93" s="1"/>
     </row>
     <row r="94" spans="1:65" ht="19.5">
       <c r="C94">
         <f>H93*D94</f>
-        <v>3278.1921184175876</v>
+        <v>2872.318398530158</v>
       </c>
       <c r="D94">
         <f>D93</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E94" t="s">
         <v>13</v>
@@ -6540,22 +6894,27 @@
       <c r="G94" s="2"/>
       <c r="H94">
         <f>H93+C94</f>
-        <v>92515.315601947354</v>
+        <v>80254.065302314135</v>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>the potential for subsequent waves, racial</t>
+        </is>
       </c>
       <c r="BE94" t="inlineStr">
         <is>
-          <t>It is (therefore) not locked in</t>
+          <t>It may in fact become a reliable value,</t>
         </is>
       </c>
     </row>
     <row r="95" spans="1:65" ht="19.5">
       <c r="C95">
         <f>H94*D95</f>
-        <v>3398.6189446726794</v>
+        <v>2978.9354408255858</v>
       </c>
       <c r="D95">
         <f>D94</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E95" t="s">
         <v>14</v>
@@ -6566,22 +6925,27 @@
       <c r="G95" s="2"/>
       <c r="H95">
         <f>H94+C95</f>
-        <v>95913.934546620032</v>
+        <v>83233.000743139724</v>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>and gender disparities,</t>
+        </is>
       </c>
       <c r="BE95" t="inlineStr">
         <is>
-          <t>value, by the next number in</t>
+          <t>24 hours later - it is assumed that once</t>
         </is>
       </c>
     </row>
     <row r="96" spans="1:65" ht="19.5">
       <c r="C96">
         <f>H95*D96</f>
-        <v>3523.4697399808338</v>
+        <v>3089.5099809087392</v>
       </c>
       <c r="D96">
         <f>D95</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E96" t="s">
         <v>15</v>
@@ -6592,22 +6956,27 @@
       <c r="G96" s="2"/>
       <c r="H96">
         <f>H95+C96</f>
-        <v>99437.404286600868</v>
+        <v>86322.510724048465</v>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>and the use of masks by the public</t>
+        </is>
       </c>
       <c r="BE96" t="inlineStr">
         <is>
-          <t>sequence (as it would be</t>
+          <t>the value that follows it has been issued,</t>
         </is>
       </c>
     </row>
     <row r="97" spans="1:65" ht="19.5">
       <c r="C97">
         <f>H96*D97</f>
-        <v>3652.9070221363922</v>
+        <v>3204.1889163900059</v>
       </c>
       <c r="D97">
         <f>D96</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E97" t="s">
         <v>16</v>
@@ -6618,22 +6987,22 @@
       <c r="G97" s="2"/>
       <c r="H97">
         <f>H96+C97</f>
-        <v>103090.31130873726</v>
+        <v>89526.69964043847</v>
       </c>
       <c r="BE97" t="inlineStr">
         <is>
-          <t>expected to be, once the next</t>
+          <t>its value will not change again (and, at</t>
         </is>
       </c>
     </row>
     <row r="98" spans="1:65" ht="19.5">
       <c r="C98">
         <f>H97*D98</f>
-        <v>3787.0992791457743</v>
+        <v>3323.1245975443344</v>
       </c>
       <c r="D98">
         <f>D97</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E98" t="s">
         <v>17</v>
@@ -6644,22 +7013,22 @@
       <c r="G98" s="2"/>
       <c r="H98">
         <f>H97+C98</f>
-        <v>106877.41058788303</v>
+        <v>92849.824237982801</v>
       </c>
       <c r="BE98" t="inlineStr">
         <is>
-          <t>number in sequence has been</t>
+          <t>that time, it will become a reliable</t>
         </is>
       </c>
     </row>
     <row r="99" spans="1:65" ht="19.5">
       <c r="C99">
         <f>H98*D99</f>
-        <v>3926.2211885476604</v>
+        <v>3446.4750297076585</v>
       </c>
       <c r="D99">
         <f>D98</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E99" t="s">
         <v>11</v>
@@ -6670,22 +7039,22 @@
       <c r="G99" s="2"/>
       <c r="H99">
         <f>H98+C99</f>
-        <v>110803.63177643069</v>
+        <v>96296.299267690454</v>
       </c>
       <c r="BE99" t="inlineStr">
         <is>
-          <t>given).</t>
+          <t>value in this series).</t>
         </is>
       </c>
     </row>
     <row r="100" spans="1:65" ht="19.5">
       <c r="C100">
         <f>H99*D100</f>
-        <v>4070.4538447900663</v>
+        <v>3574.4040831860311</v>
       </c>
       <c r="D100">
         <f>D99</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E100" t="s">
         <v>12</v>
@@ -6696,17 +7065,17 @@
       <c r="G100" s="2"/>
       <c r="H100">
         <f>H99+C100</f>
-        <v>114874.08562122076</v>
+        <v>99870.703350876487</v>
       </c>
     </row>
     <row r="101" spans="1:65" ht="19.5">
       <c r="C101">
         <f>H100*D101</f>
-        <v>4219.9849949602776</v>
+        <v>3707.0817109563409</v>
       </c>
       <c r="D101">
         <f>D100</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E101" t="s">
         <v>13</v>
@@ -6717,22 +7086,17 @@
       <c r="G101" s="2"/>
       <c r="H101">
         <f>H100+C101</f>
-        <v>119094.07061618104</v>
-      </c>
-      <c r="BE101" t="inlineStr">
-        <is>
-          <t>In other words, it is not subject</t>
-        </is>
+        <v>103577.78506183282</v>
       </c>
     </row>
     <row r="102" spans="1:65" ht="19.5">
       <c r="C102">
         <f>H101*D102</f>
-        <v>4375.0092831745042</v>
+        <v>3844.6841744478165</v>
       </c>
       <c r="D102">
         <f>D101</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E102" t="s">
         <v>14</v>
@@ -6743,22 +7107,17 @@
       <c r="G102" s="2"/>
       <c r="H102">
         <f>H101+C102</f>
-        <v>123469.07989935554</v>
-      </c>
-      <c r="BE102" t="inlineStr">
-        <is>
-          <t>to further revision, once the next</t>
-        </is>
+        <v>107422.46923628064</v>
       </c>
     </row>
     <row r="103" spans="1:65" ht="19.5">
       <c r="C103">
         <f>H102*D103</f>
-        <v>4535.72850394537</v>
+        <v>3987.3942777042753</v>
       </c>
       <c r="D103">
         <f>D102</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E103" t="s">
         <v>15</v>
@@ -6769,22 +7128,17 @@
       <c r="G103" s="2"/>
       <c r="H103">
         <f>H102+C103</f>
-        <v>128004.80840330091</v>
-      </c>
-      <c r="BE103" t="inlineStr">
-        <is>
-          <t>day's figure has been posted.</t>
-        </is>
+        <v>111409.86351398491</v>
       </c>
     </row>
     <row r="104" spans="1:65" ht="19.5">
       <c r="C104">
         <f>H103*D104</f>
-        <v>4702.3518648570434</v>
+        <v>4135.4016102381938</v>
       </c>
       <c r="D104">
         <f>D103</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E104" t="s">
         <v>16</v>
@@ -6795,17 +7149,17 @@
       <c r="G104" s="2"/>
       <c r="H104">
         <f>H103+C104</f>
-        <v>132707.16026815795</v>
+        <v>115545.26512422311</v>
       </c>
     </row>
     <row r="105" spans="1:65" ht="19.5">
       <c r="C105">
         <f>H104*D105</f>
-        <v>4875.0962588899338</v>
+        <v>4288.9027988992311</v>
       </c>
       <c r="D105">
         <f>D104</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E105" t="s">
         <v>17</v>
@@ -6816,22 +7170,17 @@
       <c r="G105" s="2"/>
       <c r="H105">
         <f>H104+C105</f>
-        <v>137582.2565270479</v>
-      </c>
-      <c r="BE105" t="inlineStr">
-        <is>
-          <t>In other words, the very last number</t>
-        </is>
+        <v>119834.16792312234</v>
       </c>
     </row>
     <row r="106" spans="1:65" ht="19.5">
       <c r="C106">
         <f>H105*D106</f>
-        <v>5054.1865467494454</v>
+        <v>4448.101769091817</v>
       </c>
       <c r="D106">
         <f>D105</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
@@ -6842,22 +7191,17 @@
       <c r="G106" s="2"/>
       <c r="H106">
         <f>H105+C106</f>
-        <v>142636.44307379733</v>
-      </c>
-      <c r="BE106" t="inlineStr">
-        <is>
-          <t>in this sequence is perpetually taken</t>
-        </is>
+        <v>124282.26969221416</v>
       </c>
     </row>
     <row r="107" spans="1:65" ht="19.5">
       <c r="C107">
         <f>H106*D107</f>
-        <v>5239.8558495662737</v>
+        <v>4613.2100156888228</v>
       </c>
       <c r="D107">
         <f>D106</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E107" t="s">
         <v>12</v>
@@ -6868,22 +7212,17 @@
       <c r="G107" s="2"/>
       <c r="H107">
         <f>H106+C107</f>
-        <v>147876.29892336362</v>
-      </c>
-      <c r="BE107" t="inlineStr">
-        <is>
-          <t>as other than final for that day's</t>
-        </is>
+        <v>128895.47970790298</v>
       </c>
     </row>
     <row r="108" spans="1:65" ht="19.5">
       <c r="C108">
         <f>H107*D108</f>
-        <v>5432.3458523492845</v>
+        <v>4784.4468840012205</v>
       </c>
       <c r="D108">
         <f>D107</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E108" t="s">
         <v>13</v>
@@ -6894,22 +7233,17 @@
       <c r="G108" s="2"/>
       <c r="H108">
         <f>H107+C108</f>
-        <v>153308.64477571289</v>
-      </c>
-      <c r="BE108" t="inlineStr">
-        <is>
-          <t>reportage.</t>
-        </is>
+        <v>133679.92659190419</v>
       </c>
     </row>
     <row r="109" spans="1:65" ht="19.5">
       <c r="C109">
         <f>H108*D109</f>
-        <v>5631.9071185859384</v>
+        <v>4962.039861177017</v>
       </c>
       <c r="D109">
         <f>D108</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E109" t="s">
         <v>14</v>
@@ -6920,17 +7254,17 @@
       <c r="G109" s="2"/>
       <c r="H109">
         <f>H108+C109</f>
-        <v>158940.55189429884</v>
+        <v>138641.9664530812</v>
       </c>
     </row>
     <row r="110" spans="1:65" ht="19.5">
       <c r="C110">
         <f>H109*D110</f>
-        <v>5838.7994163998173</v>
+        <v>5146.2248784165513</v>
       </c>
       <c r="D110">
         <f>D109</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E110" t="s">
         <v>15</v>
@@ -6941,17 +7275,17 @@
       <c r="G110" s="2"/>
       <c r="H110">
         <f>H109+C110</f>
-        <v>164779.35131069866</v>
+        <v>143788.19133149774</v>
       </c>
     </row>
     <row r="111" spans="1:65" ht="19.5">
       <c r="C111">
         <f>H110*D111</f>
-        <v>6053.2920566897737</v>
+        <v>5337.2466244056777</v>
       </c>
       <c r="D111">
         <f>D110</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E111" t="s">
         <v>16</v>
@@ -6962,17 +7296,17 @@
       <c r="G111" s="2"/>
       <c r="H111">
         <f>H110+C111</f>
-        <v>170832.64336738843</v>
+        <v>149125.43795590341</v>
       </c>
     </row>
     <row r="112" spans="1:65" ht="19.5">
       <c r="C112">
         <f>H111*D112</f>
-        <v>6275.6642436908787</v>
+        <v>5535.3588703832074</v>
       </c>
       <c r="D112">
         <f>D111</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E112" t="s">
         <v>17</v>
@@ -6983,17 +7317,17 @@
       <c r="G112" s="2"/>
       <c r="H112">
         <f>H111+C112</f>
-        <v>177108.3076110793</v>
+        <v>154660.79682628662</v>
       </c>
     </row>
     <row r="113" spans="1:65" ht="19.5">
       <c r="C113">
         <f>H112*D113</f>
-        <v>6506.2054384134935</v>
+        <v>5740.8248072744736</v>
       </c>
       <c r="D113">
         <f>D112</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
@@ -7004,17 +7338,17 @@
       <c r="G113" s="2"/>
       <c r="H113">
         <f>H112+C113</f>
-        <v>183614.51304949279</v>
+        <v>160401.6216335611</v>
       </c>
     </row>
     <row r="114" spans="1:65" ht="19.5">
       <c r="C114">
         <f>H113*D114</f>
-        <v>6745.2157354335368</v>
+        <v>5953.9173953388881</v>
       </c>
       <c r="D114">
         <f>D113</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E114" t="s">
         <v>12</v>
@@ -7025,17 +7359,17 @@
       <c r="G114" s="2"/>
       <c r="H114">
         <f>H113+C114</f>
-        <v>190359.72878492632</v>
+        <v>166355.53902889998</v>
       </c>
     </row>
     <row r="115" spans="1:65" ht="19.5">
       <c r="C115">
         <f>H114*D115</f>
-        <v>6993.006253524426</v>
+        <v>6174.9197267960026</v>
       </c>
       <c r="D115">
         <f>D114</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E115" t="s">
         <v>13</v>
@@ -7046,17 +7380,17 @@
       <c r="G115" s="2"/>
       <c r="H115">
         <f>H114+C115</f>
-        <v>197352.73503845074</v>
+        <v>172530.45875569599</v>
       </c>
     </row>
     <row r="116" spans="1:65" ht="19.5">
       <c r="C116">
         <f>H115*D116</f>
-        <v>7249.8995406391741</v>
+        <v>6404.1254019118187</v>
       </c>
       <c r="D116">
         <f>D115</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
@@ -7067,17 +7401,17 @@
       <c r="G116" s="2"/>
       <c r="H116">
         <f>H115+C116</f>
-        <v>204602.63457908991</v>
+        <v>178934.58415760781</v>
       </c>
     </row>
     <row r="117" spans="1:65" ht="19.5">
       <c r="C117">
         <f>H116*D117</f>
-        <v>7516.2299937698062</v>
+        <v>6641.838919044967</v>
       </c>
       <c r="D117">
         <f>D116</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E117" t="s">
         <v>15</v>
@@ -7088,17 +7422,17 @@
       <c r="G117" s="2"/>
       <c r="H117">
         <f>H116+C117</f>
-        <v>212118.86457285972</v>
+        <v>185576.42307665278</v>
       </c>
     </row>
     <row r="118" spans="1:65" ht="19.5">
       <c r="C118">
         <f>H117*D118</f>
-        <v>7792.3442942306192</v>
+        <v>6888.376079170951</v>
       </c>
       <c r="D118">
         <f>D117</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E118" t="s">
         <v>16</v>
@@ -7109,17 +7443,17 @@
       <c r="G118" s="2"/>
       <c r="H118">
         <f>H117+C118</f>
-        <v>219911.20886709035</v>
+        <v>192464.79915582374</v>
       </c>
     </row>
     <row r="119" spans="1:65" ht="19.5">
       <c r="C119">
         <f>H118*D119</f>
-        <v>8078.6018589319046</v>
+        <v>7144.0644054218319</v>
       </c>
       <c r="D119">
         <f>D118</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E119" t="s">
         <v>17</v>
@@ -7130,17 +7464,17 @@
       <c r="G119" s="2"/>
       <c r="H119">
         <f>H118+C119</f>
-        <v>227989.81072602226</v>
+        <v>199608.86356124558</v>
       </c>
     </row>
     <row r="120" spans="1:65" ht="19.5">
       <c r="C120">
         <f>H119*D120</f>
-        <v>8375.3753082315361</v>
+        <v>7409.2435781987406</v>
       </c>
       <c r="D120">
         <f>D119</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
@@ -7151,17 +7485,17 @@
       <c r="G120" s="2"/>
       <c r="H120">
         <f>H119+C120</f>
-        <v>236365.1860342538</v>
+        <v>207018.10713944433</v>
       </c>
     </row>
     <row r="121" spans="1:65" ht="19.5">
       <c r="C121">
         <f>H120*D121</f>
-        <v>8683.050950973442</v>
+        <v>7684.2658864352452</v>
       </c>
       <c r="D121">
         <f>D120</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E121" t="s">
         <v>12</v>
@@ -7172,17 +7506,17 @@
       <c r="G121" s="2"/>
       <c r="H121">
         <f>H120+C121</f>
-        <v>245048.23698522724</v>
+        <v>214702.37302587958</v>
       </c>
     </row>
     <row r="122" spans="1:65" ht="19.5">
       <c r="C122">
         <f>H121*D122</f>
-        <v>9002.0292873443268</v>
+        <v>7969.4966956110757</v>
       </c>
       <c r="D122">
         <f>D121</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E122" t="s">
         <v>13</v>
@@ -7193,17 +7527,17 @@
       <c r="G122" s="2"/>
       <c r="H122">
         <f>H121+C122</f>
-        <v>254050.26627257158</v>
+        <v>222671.86972149066</v>
       </c>
     </row>
     <row r="123" spans="1:65" ht="19.5">
       <c r="C123">
         <f>H122*D123</f>
-        <v>9332.725530203199</v>
+        <v>8265.3149331379627</v>
       </c>
       <c r="D123">
         <f>D122</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E123" t="s">
         <v>14</v>
@@ -7214,17 +7548,17 @@
       <c r="G123" s="2"/>
       <c r="H123">
         <f>H122+C123</f>
-        <v>263382.99180277478</v>
+        <v>230937.18465462863</v>
       </c>
     </row>
     <row r="124" spans="1:65" ht="19.5">
       <c r="C124">
         <f>H123*D124</f>
-        <v>9675.5701455623384</v>
+        <v>8572.1135917624215</v>
       </c>
       <c r="D124">
         <f>D123</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E124" t="s">
         <v>15</v>
@@ -7235,17 +7569,17 @@
       <c r="G124" s="2"/>
       <c r="H124">
         <f>H123+C124</f>
-        <v>273058.56194833713</v>
+        <v>239509.29824639106</v>
       </c>
     </row>
     <row r="125" spans="1:65" ht="19.5">
       <c r="C125">
         <f>H124*D125</f>
-        <v>10031.009412923228</v>
+        <v>8890.3002516542474</v>
       </c>
       <c r="D125">
         <f>D124</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E125" t="s">
         <v>16</v>
@@ -7256,17 +7590,17 @@
       <c r="G125" s="2"/>
       <c r="H125">
         <f>H124+C125</f>
-        <v>283089.57136126037</v>
+        <v>248399.59849804529</v>
       </c>
     </row>
     <row r="126" spans="1:65" ht="19.5">
       <c r="C126">
         <f>H125*D126</f>
-        <v>10399.506006196842</v>
+        <v>9220.297621874317</v>
       </c>
       <c r="D126">
         <f>D125</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E126" t="s">
         <v>17</v>
@@ -7277,17 +7611,17 @@
       <c r="G126" s="2"/>
       <c r="H126">
         <f>H125+C126</f>
-        <v>293489.07736745721</v>
+        <v>257619.89611991961</v>
       </c>
     </row>
     <row r="127" spans="1:65" ht="19.5">
       <c r="C127">
         <f>H126*D127</f>
-        <v>10781.539595964479</v>
+        <v>9562.5441019410318</v>
       </c>
       <c r="D127">
         <f>D126</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E127" t="s">
         <v>11</v>
@@ -7298,17 +7632,17 @@
       <c r="G127" s="2"/>
       <c r="H127">
         <f>H126+C127</f>
-        <v>304270.61696342169</v>
+        <v>267182.44022186066</v>
       </c>
     </row>
     <row r="128" spans="1:65" ht="19.5">
       <c r="C128">
         <f>H127*D128</f>
-        <v>11177.60747386309</v>
+        <v>9917.494364241431</v>
       </c>
       <c r="D128">
         <f>D127</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E128" t="s">
         <v>12</v>
@@ -7319,17 +7653,17 @@
       <c r="G128" s="2"/>
       <c r="H128">
         <f>H127+C128</f>
-        <v>315448.22443728481</v>
+        <v>277099.93458610208</v>
       </c>
     </row>
     <row r="129" spans="1:65" ht="19.5">
       <c r="C129">
         <f>H128*D129</f>
-        <v>11588.225199907863</v>
+        <v>10285.619958060726</v>
       </c>
       <c r="D129">
         <f>D128</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E129" t="s">
         <v>13</v>
@@ -7340,17 +7674,17 @@
       <c r="G129" s="2"/>
       <c r="H129">
         <f>H128+C129</f>
-        <v>327036.44963719265</v>
+        <v>287385.55454416282</v>
       </c>
     </row>
     <row r="130" spans="1:65" ht="19.5">
       <c r="C130">
         <f>H129*D130</f>
-        <v>12013.927273594689</v>
+        <v>10667.409936032678</v>
       </c>
       <c r="D130">
         <f>D129</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E130" t="s">
         <v>14</v>
@@ -7361,17 +7695,17 @@
       <c r="G130" s="2"/>
       <c r="H130">
         <f>H129+C130</f>
-        <v>339050.37691078737</v>
+        <v>298052.96448019549</v>
       </c>
     </row>
     <row r="131" spans="1:65" ht="19.5">
       <c r="C131">
         <f>H130*D131</f>
-        <v>12455.267829656083</v>
+        <v>11063.37150384308</v>
       </c>
       <c r="D131">
         <f>D130</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E131" t="s">
         <v>15</v>
@@ -7382,17 +7716,17 @@
       <c r="G131" s="2"/>
       <c r="H131">
         <f>H130+C131</f>
-        <v>351505.64474044344</v>
+        <v>309116.33598403854</v>
       </c>
     </row>
     <row r="132" spans="1:65" ht="19.5">
       <c r="C132">
         <f>H131*D132</f>
-        <v>12912.821359376196</v>
+        <v>11474.030694049456</v>
       </c>
       <c r="D132">
         <f>D131</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E132" t="s">
         <v>16</v>
@@ -7402,17 +7736,17 @@
       </c>
       <c r="H132">
         <f>H131+C132</f>
-        <v>364418.46609981963</v>
+        <v>320590.36667808797</v>
       </c>
     </row>
     <row r="133" spans="1:65" ht="19.5">
       <c r="C133">
         <f>H132*D133</f>
-        <v>13387.183458403897</v>
+        <v>11899.933064912142</v>
       </c>
       <c r="D133">
         <f>D132</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E133" t="s">
         <v>17</v>
@@ -7422,17 +7756,17 @@
       </c>
       <c r="H133">
         <f>H132+C133</f>
-        <v>377805.64955822355</v>
+        <v>332490.29974300013</v>
       </c>
     </row>
     <row r="134" spans="1:65" ht="19.5">
       <c r="C134">
         <f>H133*D134</f>
-        <v>13878.971602037302</v>
+        <v>12341.644425165152</v>
       </c>
       <c r="D134">
         <f>D133</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E134" t="s">
         <v>11</v>
@@ -7442,17 +7776,17 @@
       </c>
       <c r="H134">
         <f>H133+C134</f>
-        <v>391684.62116026087</v>
+        <v>344831.94416816527</v>
       </c>
     </row>
     <row r="135" spans="1:65" ht="19.5">
       <c r="C135">
         <f>H134*D135</f>
-        <v>14388.825948988968</v>
+        <v>12799.751585689664</v>
       </c>
       <c r="D135">
         <f>D134</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E135" t="s">
         <v>12</v>
@@ -7462,17 +7796,17 @@
       </c>
       <c r="H135">
         <f>H134+C135</f>
-        <v>406073.44710924983</v>
+        <v>357631.69575385493</v>
       </c>
     </row>
     <row r="136" spans="1:65" ht="19.5">
       <c r="C136">
         <f>H135*D136</f>
-        <v>14917.410174678</v>
+        <v>13274.863139088755</v>
       </c>
       <c r="D136">
         <f>D135</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E136" t="s">
         <v>13</v>
@@ -7482,17 +7816,17 @@
       </c>
       <c r="H136">
         <f>H135+C136</f>
-        <v>420990.85728392785</v>
+        <v>370906.55889294366</v>
       </c>
     </row>
     <row r="137" spans="1:65" ht="19.5">
       <c r="C137">
         <f>H136*D137</f>
-        <v>15465.41233513376</v>
+        <v>13767.610268198989</v>
       </c>
       <c r="D137">
         <f>D136</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E137" t="s">
         <v>14</v>
@@ -7502,17 +7836,17 @@
       </c>
       <c r="H137">
         <f>H136+C137</f>
-        <v>436456.26961906161</v>
+        <v>384674.16916114266</v>
       </c>
     </row>
     <row r="138" spans="1:65" ht="19.5">
       <c r="C138">
         <f>H137*D138</f>
-        <v>16033.545762635722</v>
+        <v>14278.647584613036</v>
       </c>
       <c r="D138">
         <f>D137</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E138" t="s">
         <v>15</v>
@@ -7522,17 +7856,17 @@
       </c>
       <c r="H138">
         <f>H137+C138</f>
-        <v>452489.81538169732</v>
+        <v>398952.81674575573</v>
       </c>
     </row>
     <row r="139" spans="1:65" ht="19.5">
       <c r="C139">
         <f>H138*D139</f>
-        <v>16622.549994255325</v>
+        <v>14808.653998327209</v>
       </c>
       <c r="D139">
         <f>D138</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E139" t="s">
         <v>16</v>
@@ -7542,17 +7876,17 @@
       </c>
       <c r="H139">
         <f>H138+C139</f>
-        <v>469112.36537595262</v>
+        <v>413761.47074408294</v>
       </c>
     </row>
     <row r="140" spans="1:65" ht="19.5">
       <c r="C140">
         <f>H139*D140</f>
-        <v>17233.191734508502</v>
+        <v>15358.333619669311</v>
       </c>
       <c r="D140">
         <f>D139</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E140" t="s">
         <v>17</v>
@@ -7562,17 +7896,17 @@
       </c>
       <c r="H140">
         <f>H139+C140</f>
-        <v>486345.55711046112</v>
+        <v>429119.80436375225</v>
       </c>
     </row>
     <row r="141" spans="1:65" ht="19.5">
       <c r="C141">
         <f>H140*D141</f>
-        <v>17866.265853371955</v>
+        <v>15928.416694704973</v>
       </c>
       <c r="D141">
         <f>D140</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E141" t="s">
         <v>11</v>
@@ -7582,17 +7916,17 @@
       </c>
       <c r="H141">
         <f>H140+C141</f>
-        <v>504211.82296383305</v>
+        <v>445048.22105845722</v>
       </c>
     </row>
     <row r="142" spans="1:65" ht="19.5">
       <c r="C142">
         <f>H141*D142</f>
-        <v>18522.596420962327</v>
+        <v>16519.660575365138</v>
       </c>
       <c r="D142">
         <f>D141</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E142" t="s">
         <v>12</v>
@@ -7602,17 +7936,17 @@
       </c>
       <c r="H142">
         <f>H141+C142</f>
-        <v>522734.41938479536</v>
+        <v>461567.88163382234</v>
       </c>
     </row>
     <row r="143" spans="1:65" ht="19.5">
       <c r="C143">
         <f>H142*D143</f>
-        <v>19203.037780225048</v>
+        <v>17132.85072558355</v>
       </c>
       <c r="D143">
         <f>D142</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E143" t="s">
         <v>13</v>
@@ -7622,17 +7956,17 @@
       </c>
       <c r="H143">
         <f>H142+C143</f>
-        <v>541937.4571650204</v>
+        <v>478700.7323594059</v>
       </c>
     </row>
     <row r="144" spans="1:65" ht="19.5">
       <c r="C144">
         <f>H143*D144</f>
-        <v>19908.475659029242</v>
+        <v>17768.801764780859</v>
       </c>
       <c r="D144">
         <f>D143</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E144" t="s">
         <v>14</v>
@@ -7642,17 +7976,17 @@
       </c>
       <c r="H144">
         <f>H143+C144</f>
-        <v>561845.93282404961</v>
+        <v>496469.53412418673</v>
       </c>
     </row>
     <row r="145" spans="1:65" ht="19.5">
       <c r="C145">
         <f>H144*D145</f>
-        <v>20639.828323116217</v>
+        <v>18428.358550081597</v>
       </c>
       <c r="D145">
         <f>D144</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E145" t="s">
         <v>15</v>
@@ -7662,17 +7996,17 @@
       </c>
       <c r="H145">
         <f>H144+C145</f>
-        <v>582485.76114716579</v>
+        <v>514897.89267426834</v>
       </c>
     </row>
     <row r="146" spans="1:65" ht="19.5">
       <c r="C146">
         <f>H145*D146</f>
-        <v>21398.047771402438</v>
+        <v>19112.397298701802</v>
       </c>
       <c r="D146">
         <f>D145</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E146" t="s">
         <v>16</v>
@@ -7682,17 +8016,17 @@
       </c>
       <c r="H146">
         <f>H145+C146</f>
-        <v>603883.80891856819</v>
+        <v>534010.28997297015</v>
       </c>
     </row>
     <row r="147" spans="1:65" ht="19.5">
       <c r="C147">
         <f>H146*D147</f>
-        <v>22184.120975192804</v>
+        <v>19821.826751998298</v>
       </c>
       <c r="D147">
         <f>D146</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E147" t="s">
         <v>17</v>
@@ -7702,17 +8036,17 @@
       </c>
       <c r="H147">
         <f>H146+C147</f>
-        <v>626067.92989376094</v>
+        <v>553832.11672496842</v>
       </c>
     </row>
     <row r="148" spans="1:65" ht="19.5">
       <c r="C148">
         <f>H147*D148</f>
-        <v>22999.071162917327</v>
+        <v>20557.589382726113</v>
       </c>
       <c r="D148">
         <f>D147</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E148" t="s">
         <v>11</v>
@@ -7722,17 +8056,17 @@
       </c>
       <c r="H148">
         <f>H147+C148</f>
-        <v>649067.00105667824</v>
+        <v>574389.70610769454</v>
       </c>
     </row>
     <row r="149" spans="1:65" ht="19.5">
       <c r="C149">
         <f>H148*D149</f>
-        <v>23843.959152063639</v>
+        <v>21320.66264710786</v>
       </c>
       <c r="D149">
         <f>D148</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E149" t="s">
         <v>12</v>
@@ -7742,17 +8076,17 @@
       </c>
       <c r="H149">
         <f>H148+C149</f>
-        <v>672910.96020874183</v>
+        <v>595710.36875480239</v>
       </c>
     </row>
     <row r="150" spans="1:65" ht="19.5">
       <c r="C150">
         <f>H149*D150</f>
-        <v>24719.884730038961</v>
+        <v>22112.060283378436</v>
       </c>
       <c r="D150">
         <f>D149</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E150" t="s">
         <v>13</v>
@@ -7762,17 +8096,17 @@
       </c>
       <c r="H150">
         <f>H149+C150</f>
-        <v>697630.84493878076</v>
+        <v>617822.42903818085</v>
       </c>
     </row>
     <row r="151" spans="1:65" ht="19.5">
       <c r="C151">
         <f>H150*D151</f>
-        <v>25627.988085759087</v>
+        <v>22932.833658530166</v>
       </c>
       <c r="D151">
         <f>D150</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E151" t="s">
         <v>14</v>
@@ -7782,17 +8116,17 @@
       </c>
       <c r="H151">
         <f>H150+C151</f>
-        <v>723258.83302453987</v>
+        <v>640755.262696711</v>
       </c>
     </row>
     <row r="152" spans="1:65" ht="19.5">
       <c r="C152">
         <f>H151*D152</f>
-        <v>26569.451293827886</v>
+        <v>23784.073165047521</v>
       </c>
       <c r="D152">
         <f>D151</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E152" t="s">
         <v>15</v>
@@ -7802,17 +8136,17 @@
       </c>
       <c r="H152">
         <f>H151+C152</f>
-        <v>749828.28431836772</v>
+        <v>664539.33586175856</v>
       </c>
     </row>
     <row r="153" spans="1:65" ht="19.5">
       <c r="C153">
         <f>H152*D153</f>
-        <v>27545.499853239173</v>
+        <v>24666.909669486955</v>
       </c>
       <c r="D153">
         <f>D152</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E153" t="s">
         <v>16</v>
@@ -7822,17 +8156,17 @@
       </c>
       <c r="H153">
         <f>H152+C153</f>
-        <v>777373.78417160688</v>
+        <v>689206.24553124548</v>
       </c>
     </row>
     <row r="154" spans="1:65" ht="19.5">
       <c r="C154">
         <f>H153*D154</f>
-        <v>28557.40428260402</v>
+        <v>25582.516014826309</v>
       </c>
       <c r="D154">
         <f>D153</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E154" t="s">
         <v>17</v>
@@ -7842,17 +8176,17 @@
       </c>
       <c r="H154">
         <f>H153+C154</f>
-        <v>805931.18845421087</v>
+        <v>714788.76154607185</v>
       </c>
     </row>
     <row r="155" spans="1:65" ht="19.5">
       <c r="C155">
         <f>H154*D155</f>
-        <v>29606.481773979856</v>
+        <v>26532.108578579675</v>
       </c>
       <c r="D155">
         <f>D154</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E155" t="s">
         <v>11</v>
@@ -7862,17 +8196,17 @@
       </c>
       <c r="H155">
         <f>H154+C155</f>
-        <v>835537.67022819072</v>
+        <v>741320.87012465158</v>
       </c>
     </row>
     <row r="156" spans="1:65" ht="19.5">
       <c r="C156">
         <f>H155*D156</f>
-        <v>30694.097907454259</v>
+        <v>27516.948888747545</v>
       </c>
       <c r="D156">
         <f>D155</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E156" t="s">
         <v>12</v>
@@ -7882,17 +8216,17 @@
       </c>
       <c r="H156">
         <f>H155+C156</f>
-        <v>866231.76813564496</v>
+        <v>768837.81901339907</v>
       </c>
     </row>
     <row r="157" spans="1:65" ht="19.5">
       <c r="C157">
         <f>H156*D157</f>
-        <v>31821.668428715242</v>
+        <v>28538.345299749202</v>
       </c>
       <c r="D157">
         <f>D156</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E157" t="s">
         <v>13</v>
@@ -7902,17 +8236,17 @@
       </c>
       <c r="H157">
         <f>H156+C157</f>
-        <v>898053.43656436016</v>
+        <v>797376.16431314824</v>
       </c>
     </row>
     <row r="158" spans="1:65" ht="19.5">
       <c r="C158">
         <f>H157*D158</f>
-        <v>32990.661091921887</v>
+        <v>29597.654730563663</v>
       </c>
       <c r="D158">
         <f>D157</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E158" t="s">
         <v>14</v>
@@ -7922,17 +8256,17 @@
       </c>
       <c r="H158">
         <f>H157+C158</f>
-        <v>931044.09765628201</v>
+        <v>826973.81904371188</v>
       </c>
     </row>
     <row r="159" spans="1:65" ht="19.5">
       <c r="C159">
         <f>H158*D159</f>
-        <v>34202.597570274251</v>
+        <v>30696.284467388381</v>
       </c>
       <c r="D159">
         <f>D158</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E159" t="s">
         <v>15</v>
@@ -7942,17 +8276,17 @@
       </c>
       <c r="H159">
         <f>H158+C159</f>
-        <v>965246.69522655627</v>
+        <v>857670.10351110029</v>
       </c>
     </row>
     <row r="160" spans="1:65" ht="19.5">
       <c r="C160">
         <f>H159*D160</f>
-        <v>35459.05543676942</v>
+        <v>31835.694033210471</v>
       </c>
       <c r="D160">
         <f>D159</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E160" t="s">
         <v>16</v>
@@ -7962,17 +8296,17 @@
       </c>
       <c r="H160">
         <f>H159+C160</f>
-        <v>1000705.7506633257</v>
+        <v>889505.7975443108</v>
       </c>
     </row>
     <row r="161" spans="1:65" ht="19.5">
       <c r="C161">
         <f>H160*D161</f>
-        <v>36761.670217722145</v>
+        <v>33017.397126774202</v>
       </c>
       <c r="D161">
         <f>D160</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E161" t="s">
         <v>17</v>
@@ -7982,17 +8316,17 @@
       </c>
       <c r="H161">
         <f>H160+C161</f>
-        <v>1037467.4208810478</v>
+        <v>922523.19467108499</v>
       </c>
     </row>
     <row r="162" spans="1:65" ht="19.5">
       <c r="C162">
         <f>H161*D162</f>
-        <v>38112.137521723111</v>
+        <v>34242.963633520674</v>
       </c>
       <c r="D162">
         <f>D161</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E162" t="s">
         <v>11</v>
@@ -8002,17 +8336,17 @@
       </c>
       <c r="H162">
         <f>H161+C162</f>
-        <v>1075579.5584027709</v>
+        <v>956766.15830460563</v>
       </c>
     </row>
     <row r="163" spans="1:65" ht="19.5">
       <c r="C163">
         <f>H162*D163</f>
-        <v>39512.215246805987</v>
+        <v>35514.021711171168</v>
       </c>
       <c r="D163">
         <f>D162</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E163" t="s">
         <v>12</v>
@@ -8022,17 +8356,17 @@
       </c>
       <c r="H163">
         <f>H162+C163</f>
-        <v>1115091.7736495768</v>
+        <v>992280.18001577677</v>
       </c>
     </row>
     <row r="164" spans="1:65" ht="19.5">
       <c r="C164">
         <f>H163*D164</f>
-        <v>40963.725868696492</v>
+        <v>36832.259952724853</v>
       </c>
       <c r="D164">
         <f>D163</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E164" t="s">
         <v>13</v>
@@ -8042,17 +8376,17 @@
       </c>
       <c r="H164">
         <f>H163+C164</f>
-        <v>1156055.4995182734</v>
+        <v>1029112.4399685017</v>
       </c>
     </row>
     <row r="165" spans="1:65" ht="19.5">
       <c r="C165">
         <f>H164*D165</f>
-        <v>42468.55881312197</v>
+        <v>38199.429629744431</v>
       </c>
       <c r="D165">
         <f>D164</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E165" t="s">
         <v>14</v>
@@ -8062,17 +8396,17 @@
       </c>
       <c r="H165">
         <f>H164+C165</f>
-        <v>1198524.0583313953</v>
+        <v>1067311.8695982462</v>
       </c>
     </row>
     <row r="166" spans="1:65" ht="19.5">
       <c r="C166">
         <f>H165*D166</f>
-        <v>44028.672915269439</v>
+        <v>39617.347018909859</v>
       </c>
       <c r="D166">
         <f>D165</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E166" t="s">
         <v>15</v>
@@ -8082,17 +8416,17 @@
       </c>
       <c r="H166">
         <f>H165+C166</f>
-        <v>1242552.7312466647</v>
+        <v>1106929.2166171561</v>
       </c>
     </row>
     <row r="167" spans="1:65" ht="19.5">
       <c r="C167">
         <f>H166*D167</f>
-        <v>45646.098969593804</v>
+        <v>41087.895814930955</v>
       </c>
       <c r="D167">
         <f>D166</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E167" t="s">
         <v>16</v>
@@ -8102,17 +8436,17 @@
       </c>
       <c r="H167">
         <f>H166+C167</f>
-        <v>1288198.8302162585</v>
+        <v>1148017.1124320871</v>
       </c>
     </row>
     <row r="168" spans="1:65" ht="19.5">
       <c r="C168">
         <f>H167*D168</f>
-        <v>47322.942373295067</v>
+        <v>42613.029633024504</v>
       </c>
       <c r="D168">
         <f>D167</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E168" t="s">
         <v>17</v>
@@ -8122,17 +8456,17 @@
       </c>
       <c r="H168">
         <f>H167+C168</f>
-        <v>1335521.7725895536</v>
+        <v>1190630.1420651115</v>
       </c>
     </row>
     <row r="169" spans="1:65" ht="19.5">
       <c r="C169">
         <f>H168*D169</f>
-        <v>49061.385866905643</v>
+        <v>44194.774604280268</v>
       </c>
       <c r="D169">
         <f>D168</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E169" t="s">
         <v>11</v>
@@ -8142,17 +8476,17 @@
       </c>
       <c r="H169">
         <f>H168+C169</f>
-        <v>1384583.1584564592</v>
+        <v>1234824.9166693918</v>
       </c>
     </row>
     <row r="170" spans="1:65" ht="19.5">
       <c r="C170">
         <f>H169*D170</f>
-        <v>50863.692375555242</v>
+        <v>45835.232067363984</v>
       </c>
       <c r="D170">
         <f>D169</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E170" t="s">
         <v>12</v>
@@ -8162,17 +8496,17 @@
       </c>
       <c r="H170">
         <f>H169+C170</f>
-        <v>1435446.8508320143</v>
+        <v>1280660.1487367558</v>
       </c>
     </row>
     <row r="171" spans="1:65" ht="19.5">
       <c r="C171">
         <f>H170*D171</f>
-        <v>52732.207954611717</v>
+        <v>47536.581360133074</v>
       </c>
       <c r="D171">
         <f>D170</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E171" t="s">
         <v>13</v>
@@ -8182,17 +8516,17 @@
       </c>
       <c r="H171">
         <f>H170+C171</f>
-        <v>1488179.058786626</v>
+        <v>1328196.730096889</v>
       </c>
     </row>
     <row r="172" spans="1:65" ht="19.5">
       <c r="C172">
         <f>H171*D172</f>
-        <v>54669.364843532174</v>
+        <v>49301.082714873868</v>
       </c>
       <c r="D172">
         <f>D171</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E172" t="s">
         <v>14</v>
@@ -8202,17 +8536,17 @@
       </c>
       <c r="H172">
         <f>H171+C172</f>
-        <v>1542848.4236301582</v>
+        <v>1377497.8128117628</v>
       </c>
     </row>
     <row r="173" spans="1:65" ht="19.5">
       <c r="C173">
         <f>H172*D173</f>
-        <v>56677.684631899625</v>
+        <v>51131.080261006602</v>
       </c>
       <c r="D173">
         <f>D172</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E173" t="s">
         <v>15</v>
@@ -8222,17 +8556,17 @@
       </c>
       <c r="H173">
         <f>H172+C173</f>
-        <v>1599526.1082620579</v>
+        <v>1428628.8930727695</v>
       </c>
     </row>
     <row r="174" spans="1:65" ht="19.5">
       <c r="C174">
         <f>H173*D174</f>
-        <v>58759.781541766337</v>
+        <v>53029.005139247238</v>
       </c>
       <c r="D174">
         <f>D173</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E174" t="s">
         <v>16</v>
@@ -8242,17 +8576,17 @@
       </c>
       <c r="H174">
         <f>H173+C174</f>
-        <v>1658285.8898038242</v>
+        <v>1481657.8982120168</v>
       </c>
     </row>
     <row r="175" spans="1:65" ht="19.5">
       <c r="C175">
         <f>H174*D175</f>
-        <v>60918.365830576477</v>
+        <v>54997.378731363213</v>
       </c>
       <c r="D175">
         <f>D174</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E175" t="s">
         <v>17</v>
@@ -8262,17 +8596,17 @@
       </c>
       <c r="H175">
         <f>H174+C175</f>
-        <v>1719204.2556344008</v>
+        <v>1536655.27694338</v>
       </c>
     </row>
     <row r="176" spans="1:65" ht="19.5">
       <c r="C176">
         <f>H175*D176</f>
-        <v>63156.247319097711</v>
+        <v>57038.816009813963</v>
       </c>
       <c r="D176">
         <f>D175</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E176" t="s">
         <v>11</v>
@@ -8282,17 +8616,17 @@
       </c>
       <c r="H176">
         <f>H175+C176</f>
-        <v>1782360.5029534984</v>
+        <v>1593694.0929531939</v>
       </c>
     </row>
     <row r="177" spans="1:65" ht="19.5">
       <c r="C177">
         <f>H176*D177</f>
-        <v>65476.339048953952</v>
+        <v>59156.029011726088</v>
       </c>
       <c r="D177">
         <f>D176</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E177" t="s">
         <v>12</v>
@@ -8302,17 +8636,17 @@
       </c>
       <c r="H177">
         <f>H176+C177</f>
-        <v>1847836.8420024524</v>
+        <v>1652850.1219649201</v>
       </c>
     </row>
     <row r="178" spans="1:65" ht="19.5">
       <c r="C178">
         <f>H177*D178</f>
-        <v>67881.661074520307</v>
+        <v>61351.830441818332</v>
       </c>
       <c r="D178">
         <f>D177</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E178" t="s">
         <v>13</v>
@@ -8322,17 +8656,17 @@
       </c>
       <c r="H178">
         <f>H177+C178</f>
-        <v>1915718.5030769727</v>
+        <v>1714201.9524067384</v>
       </c>
     </row>
     <row r="179" spans="1:65" ht="19.5">
       <c r="C179">
         <f>H178*D179</f>
-        <v>70375.34439411608</v>
+        <v>63629.137409062831</v>
       </c>
       <c r="D179">
         <f>D178</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E179" t="s">
         <v>14</v>
@@ -8342,17 +8676,17 @@
       </c>
       <c r="H179">
         <f>H178+C179</f>
-        <v>1986093.8474710886</v>
+        <v>1777831.0898158012</v>
       </c>
     </row>
     <row r="180" spans="1:65" ht="19.5">
       <c r="C180">
         <f>H179*D180</f>
-        <v>72960.635025613126</v>
+        <v>65990.975302046834</v>
       </c>
       <c r="D180">
         <f>D179</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E180" t="s">
         <v>15</v>
@@ -8362,17 +8696,17 @@
       </c>
       <c r="H180">
         <f>H179+C180</f>
-        <v>2059054.4824967016</v>
+        <v>1843822.0651178481</v>
       </c>
     </row>
     <row r="181" spans="1:65" ht="19.5">
       <c r="C181">
         <f>H180*D181</f>
-        <v>75640.898231764673</v>
+        <v>68440.48180818322</v>
       </c>
       <c r="D181">
         <f>D180</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E181" t="s">
         <v>16</v>
@@ -8382,17 +8716,17 @@
       </c>
       <c r="H181">
         <f>H180+C181</f>
-        <v>2134695.3807284664</v>
+        <v>1912262.5469260314</v>
       </c>
     </row>
     <row r="182" spans="1:65" ht="19.5">
       <c r="C182">
         <f>H181*D182</f>
-        <v>78419.622900754752</v>
+        <v>70980.911082109335</v>
       </c>
       <c r="D182">
         <f>D181</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E182" t="s">
         <v>17</v>
@@ -8402,17 +8736,17 @@
       </c>
       <c r="H182">
         <f>H181+C182</f>
-        <v>2213115.0036292211</v>
+        <v>1983243.4580081408</v>
       </c>
     </row>
     <row r="183" spans="1:65" ht="19.5">
       <c r="C183">
         <f>H182*D183</f>
-        <v>81300.426087670348</v>
+        <v>73615.63806881175</v>
       </c>
       <c r="D183">
         <f>D182</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E183" t="s">
         <v>11</v>
@@ -8422,17 +8756,17 @@
       </c>
       <c r="H183">
         <f>H182+C183</f>
-        <v>2294415.4297168916</v>
+        <v>2056859.0960769525</v>
       </c>
     </row>
     <row r="184" spans="1:65" ht="19.5">
       <c r="C184">
         <f>H183*D184</f>
-        <v>84287.057722807978</v>
+        <v>76348.16298722045</v>
       </c>
       <c r="D184">
         <f>D183</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E184" t="s">
         <v>12</v>
@@ -8442,17 +8776,17 @@
       </c>
       <c r="H184">
         <f>H183+C184</f>
-        <v>2378702.4874396995</v>
+        <v>2133207.2590641729</v>
       </c>
     </row>
     <row r="185" spans="1:65" ht="19.5">
       <c r="C185">
         <f>H184*D185</f>
-        <v>87383.40549294329</v>
+        <v>79182.115980228526</v>
       </c>
       <c r="D185">
         <f>D184</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E185" t="s">
         <v>13</v>
@@ -8462,17 +8796,17 @@
       </c>
       <c r="H185">
         <f>H184+C185</f>
-        <v>2466085.8929326427</v>
+        <v>2212389.3750444013</v>
       </c>
     </row>
     <row r="186" spans="1:65" ht="19.5">
       <c r="C186">
         <f>H185*D186</f>
-        <v>90593.499901917894</v>
+        <v>82121.261937315168</v>
       </c>
       <c r="D186">
         <f>D185</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E186" t="s">
         <v>14</v>
@@ -8482,17 +8816,17 @@
       </c>
       <c r="H186">
         <f>H185+C186</f>
-        <v>2556679.3928345605</v>
+        <v>2294510.6369817164</v>
       </c>
     </row>
     <row r="187" spans="1:65" ht="19.5">
       <c r="C187">
         <f>H186*D187</f>
-        <v>93921.519517130437</v>
+        <v>85169.505496178666</v>
       </c>
       <c r="D187">
         <f>D186</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E187" t="s">
         <v>15</v>
@@ -8502,17 +8836,17 @@
       </c>
       <c r="H187">
         <f>H186+C187</f>
-        <v>2650600.9123516907</v>
+        <v>2379680.1424778951</v>
       </c>
     </row>
     <row r="188" spans="1:65" ht="19.5">
       <c r="C188">
         <f>H187*D188</f>
-        <v>97371.796408761613</v>
+        <v>88330.896230024024</v>
       </c>
       <c r="D188">
         <f>D187</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E188" t="s">
         <v>16</v>
@@ -8522,17 +8856,17 @@
       </c>
       <c r="H188">
         <f>H187+C188</f>
-        <v>2747972.7087604525</v>
+        <v>2468011.038707919</v>
       </c>
     </row>
     <row r="189" spans="1:65" ht="19.5">
       <c r="C189">
         <f>H188*D189</f>
-        <v>100948.82178881299</v>
+        <v>91609.63402739662</v>
       </c>
       <c r="D189">
         <f>D188</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E189" t="s">
         <v>17</v>
@@ -8542,17 +8876,17 @@
       </c>
       <c r="H189">
         <f>H188+C189</f>
-        <v>2848921.5305492654</v>
+        <v>2559620.6727353157</v>
       </c>
     </row>
     <row r="190" spans="1:65" ht="19.5">
       <c r="C190">
         <f>H189*D190</f>
-        <v>104657.2518573002</v>
+        <v>95010.074671708804</v>
       </c>
       <c r="D190">
         <f>D189</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E190" t="s">
         <v>11</v>
@@ -8562,17 +8896,17 @@
       </c>
       <c r="H190">
         <f>H189+C190</f>
-        <v>2953578.7824065657</v>
+        <v>2654630.7474070247</v>
       </c>
     </row>
     <row r="191" spans="1:65" ht="19.5">
       <c r="C191">
         <f>H190*D191</f>
-        <v>108501.91386321043</v>
+        <v>98536.735627871967</v>
       </c>
       <c r="D191">
         <f>D190</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E191" t="s">
         <v>12</v>
@@ -8582,17 +8916,17 @@
       </c>
       <c r="H191">
         <f>H190+C191</f>
-        <v>3062080.6962697762</v>
+        <v>2753167.4830348967</v>
       </c>
     </row>
     <row r="192" spans="1:65" ht="19.5">
       <c r="C192">
         <f>H191*D192</f>
-        <v>112487.81238811357</v>
+        <v>102194.30204372136</v>
       </c>
       <c r="D192">
         <f>D191</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E192" t="s">
         <v>13</v>
@@ -8602,17 +8936,17 @@
       </c>
       <c r="H192">
         <f>H191+C192</f>
-        <v>3174568.5086578899</v>
+        <v>2855361.7850786182</v>
       </c>
     </row>
     <row r="193" spans="1:65" ht="19.5">
       <c r="C193">
         <f>H192*D193</f>
-        <v>116620.13586060662</v>
+        <v>105987.63297420694</v>
       </c>
       <c r="D193">
         <f>D192</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E193" t="s">
         <v>14</v>
@@ -8622,17 +8956,17 @@
       </c>
       <c r="H193">
         <f>H192+C193</f>
-        <v>3291188.6445184965</v>
+        <v>2961349.4180528251</v>
       </c>
     </row>
     <row r="194" spans="1:65" ht="19.5">
       <c r="C194">
         <f>H193*D194</f>
-        <v>120904.26331007095</v>
+        <v>109921.76783661838</v>
       </c>
       <c r="D194">
         <f>D193</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E194" t="s">
         <v>15</v>
@@ -8642,17 +8976,17 @@
       </c>
       <c r="H194">
         <f>H193+C194</f>
-        <v>3412092.9078285675</v>
+        <v>3071271.1858894434</v>
       </c>
     </row>
     <row r="195" spans="1:65" ht="19.5">
       <c r="C195">
         <f>H194*D195</f>
-        <v>125345.771368534</v>
+        <v>114001.93310542082</v>
       </c>
       <c r="D195">
         <f>D194</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E195" t="s">
         <v>16</v>
@@ -8662,17 +8996,17 @@
       </c>
       <c r="H195">
         <f>H194+C195</f>
-        <v>3537438.6791971014</v>
+        <v>3185273.1189948642</v>
       </c>
     </row>
     <row r="196" spans="1:65" ht="19.5">
       <c r="C196">
         <f>H195*D196</f>
-        <v>129950.44152974937</v>
+        <v>118233.54925559449</v>
       </c>
       <c r="D196">
         <f>D195</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E196" t="s">
         <v>17</v>
@@ -8682,17 +9016,17 @@
       </c>
       <c r="H196">
         <f>H195+C196</f>
-        <v>3667389.1207268508</v>
+        <v>3303506.6682504588</v>
       </c>
     </row>
     <row r="197" spans="1:65" ht="19.5">
       <c r="C197">
         <f>H196*D197</f>
-        <v>134724.26767494483</v>
+        <v>122622.23796370324</v>
       </c>
       <c r="D197">
         <f>D196</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E197" t="s">
         <v>11</v>
@@ -8702,17 +9036,17 @@
       </c>
       <c r="H197">
         <f>H196+C197</f>
-        <v>3802113.3884017956</v>
+        <v>3426128.9062141622</v>
       </c>
     </row>
     <row r="198" spans="1:65" ht="19.5">
       <c r="C198">
         <f>H197*D198</f>
-        <v>139673.46387503413</v>
+        <v>127173.82957625788</v>
       </c>
       <c r="D198">
         <f>D197</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E198" t="s">
         <v>12</v>
@@ -8722,17 +9056,17 @@
       </c>
       <c r="H198">
         <f>H197+C198</f>
-        <v>3941786.85227683</v>
+        <v>3553302.7357904203</v>
       </c>
     </row>
     <row r="199" spans="1:65" ht="19.5">
       <c r="C199">
         <f>H198*D199</f>
-        <v>144804.47247944897</v>
+        <v>131894.37085529641</v>
       </c>
       <c r="D199">
         <f>D198</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E199" t="s">
         <v>13</v>
@@ -8742,17 +9076,17 @@
       </c>
       <c r="H199">
         <f>H198+C199</f>
-        <v>4086591.3247562791</v>
+        <v>3685197.1066457168</v>
       </c>
     </row>
     <row r="200" spans="1:65" ht="19.5">
       <c r="C200">
         <f>H199*D200</f>
-        <v>150123.97250212016</v>
+        <v>136790.13301147104</v>
       </c>
       <c r="D200">
         <f>D199</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E200" t="s">
         <v>14</v>
@@ -8762,17 +9096,17 @@
       </c>
       <c r="H200">
         <f>H199+C200</f>
-        <v>4236715.2972583994</v>
+        <v>3821987.2396571878</v>
       </c>
     </row>
     <row r="201" spans="1:65" ht="19.5">
       <c r="C201">
         <f>H200*D201</f>
-        <v>155638.888315524</v>
+        <v>141867.62003531362</v>
       </c>
       <c r="D201">
         <f>D200</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E201" t="s">
         <v>15</v>
@@ -8782,17 +9116,17 @@
       </c>
       <c r="H201">
         <f>H200+C201</f>
-        <v>4392354.1855739234</v>
+        <v>3963854.8596925014</v>
       </c>
     </row>
     <row r="202" spans="1:65" ht="19.5">
       <c r="C202">
         <f>H201*D202</f>
-        <v>161356.3986641111</v>
+        <v>147133.57733774811</v>
       </c>
       <c r="D202">
         <f>D201</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E202" t="s">
         <v>16</v>
@@ -8802,17 +9136,17 @@
       </c>
       <c r="H202">
         <f>H201+C202</f>
-        <v>4553710.5842380347</v>
+        <v>4110988.4370302493</v>
       </c>
     </row>
     <row r="203" spans="1:65" ht="19.5">
       <c r="C203">
         <f>H202*D203</f>
-        <v>167283.94600885001</v>
+        <v>152595.00071132803</v>
       </c>
       <c r="D203">
         <f>D202</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E203" t="s">
         <v>17</v>
@@ -8822,17 +9156,17 @@
       </c>
       <c r="H203">
         <f>H202+C203</f>
-        <v>4720994.5302468846</v>
+        <v>4263583.4377415776</v>
       </c>
     </row>
     <row r="204" spans="1:65" ht="19.5">
       <c r="C204">
         <f>H203*D204</f>
-        <v>173429.24621504973</v>
+        <v>158259.14562410512</v>
       </c>
       <c r="D204">
         <f>D203</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E204" t="s">
         <v>11</v>
@@ -8842,17 +9176,17 @@
       </c>
       <c r="H204">
         <f>H203+C204</f>
-        <v>4894423.7764619347</v>
+        <v>4421842.5833656825</v>
       </c>
     </row>
     <row r="205" spans="1:65" ht="19.5">
       <c r="C205">
         <f>H204*D205</f>
-        <v>179800.29859607155</v>
+        <v>164133.53685847452</v>
       </c>
       <c r="D205">
         <f>D204</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E205" t="s">
         <v>12</v>
@@ -8862,17 +9196,17 @@
       </c>
       <c r="H205">
         <f>H204+C205</f>
-        <v>5074224.0750580058</v>
+        <v>4585976.1202241573</v>
       </c>
     </row>
     <row r="206" spans="1:65" ht="19.5">
       <c r="C206">
         <f>H205*D206</f>
-        <v>186405.39632600403</v>
+        <v>170225.9785078032</v>
       </c>
       <c r="D206">
         <f>D205</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E206" t="s">
         <v>13</v>
@@ -8882,17 +9216,17 @@
       </c>
       <c r="H206">
         <f>H205+C206</f>
-        <v>5260629.4713840093</v>
+        <v>4756202.0987319602</v>
       </c>
     </row>
     <row r="207" spans="1:65" ht="19.5">
       <c r="C207">
         <f>H206*D207</f>
-        <v>193253.13723485568</v>
+        <v>176544.56434412079</v>
       </c>
       <c r="D207">
         <f>D206</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E207" t="s">
         <v>14</v>
@@ -8902,17 +9236,17 @@
       </c>
       <c r="H207">
         <f>H206+C207</f>
-        <v>5453882.6086188648</v>
+        <v>4932746.6630760813</v>
       </c>
     </row>
     <row r="208" spans="1:65" ht="19.5">
       <c r="C208">
         <f>H207*D208</f>
-        <v>200352.43500031653</v>
+        <v>183097.68857064706</v>
       </c>
       <c r="D208">
         <f>D207</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E208" t="s">
         <v>15</v>
@@ -8922,17 +9256,17 @@
       </c>
       <c r="H208">
         <f>H207+C208</f>
-        <v>5654235.043619181</v>
+        <v>5115844.3516467288</v>
       </c>
     </row>
     <row r="209" spans="1:65" ht="19.5">
       <c r="C209">
         <f>H208*D209</f>
-        <v>207712.53075065781</v>
+        <v>189894.05697344022</v>
       </c>
       <c r="D209">
         <f>D208</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E209" t="s">
         <v>16</v>
@@ -8942,17 +9276,17 @@
       </c>
       <c r="H209">
         <f>H208+C209</f>
-        <v>5861947.5743698385</v>
+        <v>5305738.4086201694</v>
       </c>
     </row>
     <row r="210" spans="1:65" ht="19.5">
       <c r="C210">
         <f>H209*D210</f>
-        <v>215343.00509387275</v>
+        <v>196942.69848698139</v>
       </c>
       <c r="D210">
         <f>D209</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E210" t="s">
         <v>17</v>
@@ -8962,17 +9296,17 @@
       </c>
       <c r="H210">
         <f>H209+C210</f>
-        <v>6077290.579463711</v>
+        <v>5502681.1071071504</v>
       </c>
     </row>
     <row r="211" spans="1:65" ht="19.5">
       <c r="C211">
         <f>H210*D211</f>
-        <v>223253.79058871654</v>
+        <v>204252.97718905951</v>
       </c>
       <c r="D211">
         <f>D210</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E211" t="s">
         <v>11</v>
@@ -8982,17 +9316,17 @@
       </c>
       <c r="H211">
         <f>H210+C211</f>
-        <v>6300544.370052428</v>
+        <v>5706934.0842962097</v>
       </c>
     </row>
     <row r="212" spans="1:65" ht="19.5">
       <c r="C212">
         <f>H211*D212</f>
-        <v>231455.18467387953</v>
+        <v>211834.60474089251</v>
       </c>
       <c r="D212">
         <f>D211</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E212" t="s">
         <v>12</v>
@@ -9002,17 +9336,17 @@
       </c>
       <c r="H212">
         <f>H211+C212</f>
-        <v>6531999.5547263073</v>
+        <v>5918768.6890371023</v>
       </c>
     </row>
     <row r="213" spans="1:65" ht="19.5">
       <c r="C213">
         <f>H212*D213</f>
-        <v>239957.86307212306</v>
+        <v>219697.65328901049</v>
       </c>
       <c r="D213">
         <f>D212</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E213" t="s">
         <v>13</v>
@@ -9022,17 +9356,17 @@
       </c>
       <c r="H213">
         <f>H212+C213</f>
-        <v>6771957.4177984307</v>
+        <v>6138466.342326113</v>
       </c>
     </row>
     <row r="214" spans="1:65" ht="19.5">
       <c r="C214">
         <f>H213*D214</f>
-        <v>248772.89368682622</v>
+        <v>227852.56884604174</v>
       </c>
       <c r="D214">
         <f>D213</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E214" t="s">
         <v>14</v>
@@ -9042,17 +9376,17 @@
       </c>
       <c r="H214">
         <f>H213+C214</f>
-        <v>7020730.311485257</v>
+        <v>6366318.9111721544</v>
       </c>
     </row>
     <row r="215" spans="1:65" ht="19.5">
       <c r="C215">
         <f>H214*D215</f>
-        <v>257911.7510090326</v>
+        <v>236310.18516817779</v>
       </c>
       <c r="D215">
         <f>D214</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E215" t="s">
         <v>15</v>
@@ -9062,17 +9396,17 @@
       </c>
       <c r="H215">
         <f>H214+C215</f>
-        <v>7278642.0624942891</v>
+        <v>6602629.0963403322</v>
       </c>
     </row>
     <row r="216" spans="1:65" ht="19.5">
       <c r="C216">
         <f>H215*D216</f>
-        <v>267386.33105375065</v>
+        <v>245081.73814775306</v>
       </c>
       <c r="D216">
         <f>D215</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E216" t="s">
         <v>16</v>
@@ -9082,17 +9416,17 @@
       </c>
       <c r="H216">
         <f>H215+C216</f>
-        <v>7546028.3935480397</v>
+        <v>6847710.8344880855</v>
       </c>
     </row>
     <row r="217" spans="1:65" ht="19.5">
       <c r="C217">
         <f>H216*D217</f>
-        <v>277208.96684495005</v>
+        <v>254178.88074006018</v>
       </c>
       <c r="D217">
         <f>D216</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E217" t="s">
         <v>17</v>
@@ -9102,17 +9436,17 @@
       </c>
       <c r="H217">
         <f>H216+C217</f>
-        <v>7823237.3603929896</v>
+        <v>7101889.7152281459</v>
       </c>
     </row>
     <row r="218" spans="1:65" ht="19.5">
       <c r="C218">
         <f>H217*D218</f>
-        <v>287392.4444694111</v>
+        <v>263613.69844423089</v>
       </c>
       <c r="D218">
         <f>D217</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E218" t="s">
         <v>11</v>
@@ -9122,17 +9456,17 @@
       </c>
       <c r="H218">
         <f>H217+C218</f>
-        <v>8110629.8048624005</v>
+        <v>7365503.4136723764</v>
       </c>
     </row>
     <row r="219" spans="1:65" ht="19.5">
       <c r="C219">
         <f>H218*D219</f>
-        <v>297950.0197203242</v>
+        <v>273398.72535874887</v>
       </c>
       <c r="D219">
         <f>D218</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E219" t="s">
         <v>12</v>
@@ -9142,17 +9476,17 @@
       </c>
       <c r="H219">
         <f>H218+C219</f>
-        <v>8408579.8245827239</v>
+        <v>7638902.1390311252</v>
       </c>
     </row>
     <row r="220" spans="1:65" ht="19.5">
       <c r="C220">
         <f>H219*D220</f>
-        <v>308895.4353523039</v>
+        <v>283546.96083292406</v>
       </c>
       <c r="D220">
         <f>D219</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E220" t="s">
         <v>13</v>
@@ -9162,17 +9496,17 @@
       </c>
       <c r="H220">
         <f>H219+C220</f>
-        <v>8717475.259935027</v>
+        <v>7922449.0998640489</v>
       </c>
     </row>
     <row r="221" spans="1:65" ht="19.5">
       <c r="C221">
         <f>H220*D221</f>
-        <v>320242.93897027947</v>
+        <v>294071.8867364499</v>
       </c>
       <c r="D221">
         <f>D220</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E221" t="s">
         <v>14</v>
@@ -9182,17 +9516,17 @@
       </c>
       <c r="H221">
         <f>H220+C221</f>
-        <v>9037718.1989053059</v>
+        <v>8216520.9866004987</v>
       </c>
     </row>
     <row r="222" spans="1:65" ht="19.5">
       <c r="C222">
         <f>H221*D222</f>
-        <v>332007.30157554673</v>
+        <v>304987.48536998604</v>
       </c>
       <c r="D222">
         <f>D221</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E222" t="s">
         <v>15</v>
@@ -9202,17 +9536,17 @@
       </c>
       <c r="H222">
         <f>H221+C222</f>
-        <v>9369725.500480853</v>
+        <v>8521508.4719704855</v>
       </c>
     </row>
     <row r="223" spans="1:65" ht="19.5">
       <c r="C223">
         <f>H222*D223</f>
-        <v>344203.83679312275</v>
+        <v>316308.25804056041</v>
       </c>
       <c r="D223">
         <f>D222</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E223" t="s">
         <v>16</v>
@@ -9222,17 +9556,17 @@
       </c>
       <c r="H223">
         <f>H222+C223</f>
-        <v>9713929.3372739758</v>
+        <v>8837816.7300110459</v>
       </c>
     </row>
     <row r="224" spans="1:65" ht="19.5">
       <c r="C224">
         <f>H223*D224</f>
-        <v>356848.42080543202</v>
+        <v>328049.24432646832</v>
       </c>
       <c r="D224">
         <f>D223</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E224" t="s">
         <v>17</v>
@@ -9242,17 +9576,17 @@
       </c>
       <c r="H224">
         <f>H223+C224</f>
-        <v>10070777.758079408</v>
+        <v>9165865.9743375145</v>
       </c>
     </row>
     <row r="225" spans="1:65" ht="19.5">
       <c r="C225">
         <f>H224*D225</f>
-        <v>369957.51301827142</v>
+        <v>340226.0420572618</v>
       </c>
       <c r="D225">
         <f>D224</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E225" t="s">
         <v>11</v>
@@ -9262,17 +9596,17 @@
       </c>
       <c r="H225">
         <f>H224+C225</f>
-        <v>10440735.271097679</v>
+        <v>9506092.0163947754</v>
       </c>
     </row>
     <row r="226" spans="1:65" ht="19.5">
       <c r="C226">
         <f>H225*D226</f>
-        <v>383548.17748595466</v>
+        <v>352854.82803537184</v>
       </c>
       <c r="D226">
         <f>D225</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E226" t="s">
         <v>12</v>
@@ -9282,17 +9616,17 @@
       </c>
       <c r="H226">
         <f>H225+C226</f>
-        <v>10824283.448583633</v>
+        <v>9858946.8444301467</v>
       </c>
     </row>
     <row r="227" spans="1:65" ht="19.5">
       <c r="C227">
         <f>H226*D227</f>
-        <v>397638.10512352525</v>
+        <v>365952.37952689326</v>
       </c>
       <c r="D227">
         <f>D226</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E227" t="s">
         <v>13</v>
@@ -9302,17 +9636,17 @@
       </c>
       <c r="H227">
         <f>H226+C227</f>
-        <v>11221921.553707158</v>
+        <v>10224899.223957039</v>
       </c>
     </row>
     <row r="228" spans="1:65" ht="19.5">
       <c r="C228">
         <f>H227*D228</f>
-        <v>412245.63673495187</v>
+        <v>379536.09655008168</v>
       </c>
       <c r="D228">
         <f>D227</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E228" t="s">
         <v>14</v>
@@ -9322,17 +9656,17 @@
       </c>
       <c r="H228">
         <f>H227+C228</f>
-        <v>11634167.190442109</v>
+        <v>10604435.32050712</v>
       </c>
     </row>
     <row r="229" spans="1:65" ht="19.5">
       <c r="C229">
         <f>H228*D229</f>
-        <v>427389.78688728152</v>
+        <v>393624.02499117254</v>
       </c>
       <c r="D229">
         <f>D228</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E229" t="s">
         <v>15</v>
@@ -9342,17 +9676,17 @@
       </c>
       <c r="H229">
         <f>H228+C229</f>
-        <v>12061556.97732939</v>
+        <v>10998059.345498294</v>
       </c>
     </row>
     <row r="230" spans="1:65" ht="19.5">
       <c r="C230">
         <f>H229*D230</f>
-        <v>443090.26866182737</v>
+        <v>408234.88057823293</v>
       </c>
       <c r="D230">
         <f>D229</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E230" t="s">
         <v>16</v>
@@ -9362,17 +9696,17 @@
       </c>
       <c r="H230">
         <f>H229+C230</f>
-        <v>12504647.245991217</v>
+        <v>11406294.226076527</v>
       </c>
     </row>
     <row r="231" spans="1:65" ht="19.5">
       <c r="C231">
         <f>H230*D231</f>
-        <v>459367.51931461005</v>
+        <v>423388.07374489272</v>
       </c>
       <c r="D231">
         <f>D230</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E231" t="s">
         <v>17</v>
@@ -9382,17 +9716,17 @@
       </c>
       <c r="H231">
         <f>H230+C231</f>
-        <v>12964014.765305826</v>
+        <v>11829682.29982142</v>
       </c>
     </row>
     <row r="232" spans="1:65" ht="19.5">
       <c r="C232">
         <f>H231*D232</f>
-        <v>476242.72687945422</v>
+        <v>439103.7354169896</v>
       </c>
       <c r="D232">
         <f>D231</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E232" t="s">
         <v>11</v>
@@ -9402,17 +9736,17 @@
       </c>
       <c r="H232">
         <f>H231+C232</f>
-        <v>13440257.49218528</v>
+        <v>12268786.035238409</v>
       </c>
     </row>
     <row r="233" spans="1:65" ht="19.5">
       <c r="C233">
         <f>H232*D233</f>
-        <v>493737.85774836969</v>
+        <v>455402.74375638214</v>
       </c>
       <c r="D233">
         <f>D232</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E233" t="s">
         <v>12</v>
@@ -9422,17 +9756,17 @@
       </c>
       <c r="H233">
         <f>H232+C233</f>
-        <v>13933995.34993365</v>
+        <v>12724188.778994791</v>
       </c>
     </row>
     <row r="234" spans="1:65" ht="19.5">
       <c r="C234">
         <f>H233*D234</f>
-        <v>511875.68526511866</v>
+        <v>472306.75189746235</v>
       </c>
       <c r="D234">
         <f>D233</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E234" t="s">
         <v>13</v>
@@ -9442,17 +9776,17 @@
       </c>
       <c r="H234">
         <f>H233+C234</f>
-        <v>14445871.035198769</v>
+        <v>13196495.530892253</v>
       </c>
     </row>
     <row r="235" spans="1:65" ht="19.5">
       <c r="C235">
         <f>H234*D235</f>
-        <v>530679.81936918828</v>
+        <v>489838.21671321412</v>
       </c>
       <c r="D235">
         <f>D234</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E235" t="s">
         <v>14</v>
@@ -9462,17 +9796,17 @@
       </c>
       <c r="H235">
         <f>H234+C235</f>
-        <v>14976550.854567956</v>
+        <v>13686333.747605467</v>
       </c>
     </row>
     <row r="236" spans="1:65" ht="19.5">
       <c r="C236">
         <f>H235*D236</f>
-        <v>550174.73732875718</v>
+        <v>508020.42864903394</v>
       </c>
       <c r="D236">
         <f>D235</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E236" t="s">
         <v>15</v>
@@ -9482,17 +9816,17 @@
       </c>
       <c r="H236">
         <f>H235+C236</f>
-        <v>15526725.591896713</v>
+        <v>14194354.176254502</v>
       </c>
     </row>
     <row r="237" spans="1:65" ht="19.5">
       <c r="C237">
         <f>H236*D237</f>
-        <v>570385.81560266053</v>
+        <v>526877.54266394698</v>
       </c>
       <c r="D237">
         <f>D236</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E237" t="s">
         <v>16</v>
@@ -9502,17 +9836,17 @@
       </c>
       <c r="H237">
         <f>H236+C237</f>
-        <v>16097111.407499373</v>
+        <v>14721231.718918448</v>
       </c>
     </row>
     <row r="238" spans="1:65" ht="19.5">
       <c r="C238">
         <f>H237*D238</f>
-        <v>591339.3628728271</v>
+        <v>546434.61032032489</v>
       </c>
       <c r="D238">
         <f>D237</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E238" t="s">
         <v>17</v>
@@ -9522,17 +9856,17 @@
       </c>
       <c r="H238">
         <f>H237+C238</f>
-        <v>16688450.770372201</v>
+        <v>15267666.329238772</v>
       </c>
     </row>
     <row r="239" spans="1:65" ht="19.5">
       <c r="C239">
         <f>H238*D239</f>
-        <v>613062.65429018845</v>
+        <v>566717.61306473531</v>
       </c>
       <c r="D239">
         <f>D238</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E239" t="s">
         <v>11</v>
@@ -9542,17 +9876,17 @@
       </c>
       <c r="H239">
         <f>H238+C239</f>
-        <v>17301513.424662389</v>
+        <v>15834383.942303509</v>
       </c>
     </row>
     <row r="240" spans="1:65" ht="19.5">
       <c r="C240">
         <f>H239*D240</f>
-        <v>635583.96697863692</v>
+        <v>587753.49674413737</v>
       </c>
       <c r="D240">
         <f>D239</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E240" t="s">
         <v>12</v>
@@ -9562,17 +9896,17 @@
       </c>
       <c r="H240">
         <f>H239+C240</f>
-        <v>17937097.391641025</v>
+        <v>16422137.439047646</v>
       </c>
     </row>
     <row r="241" spans="1:65" ht="19.5">
       <c r="C241">
         <f>H240*D241</f>
-        <v>658932.61684324744</v>
+        <v>609570.20740327693</v>
       </c>
       <c r="D241">
         <f>D240</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E241" t="s">
         <v>13</v>
@@ -9582,17 +9916,17 @@
       </c>
       <c r="H241">
         <f>H240+C241</f>
-        <v>18596030.00848427</v>
+        <v>17031707.646450922</v>
       </c>
     </row>
     <row r="242" spans="1:65" ht="19.5">
       <c r="C242">
         <f>H241*D242</f>
-        <v>683138.9967306772</v>
+        <v>632196.7284108384</v>
       </c>
       <c r="D242">
         <f>D241</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E242" t="s">
         <v>14</v>
@@ -9602,17 +9936,17 @@
       </c>
       <c r="H242">
         <f>H241+C242</f>
-        <v>19279169.005214948</v>
+        <v>17663904.374861762</v>
       </c>
     </row>
     <row r="243" spans="1:65" ht="19.5">
       <c r="C243">
         <f>H242*D243</f>
-        <v>708234.61599141615</v>
+        <v>655663.11896367604</v>
       </c>
       <c r="D243">
         <f>D242</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E243" t="s">
         <v>15</v>
@@ -9622,17 +9956,17 @@
       </c>
       <c r="H243">
         <f>H242+C243</f>
-        <v>19987403.621206366</v>
+        <v>18319567.493825439</v>
       </c>
     </row>
     <row r="244" spans="1:65" ht="19.5">
       <c r="C244">
         <f>H243*D244</f>
-        <v>734252.14149538521</v>
+        <v>680000.55402027525</v>
       </c>
       <c r="D244">
         <f>D243</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E244" t="s">
         <v>16</v>
@@ -9642,17 +9976,17 @@
       </c>
       <c r="H244">
         <f>H243+C244</f>
-        <v>20721655.76270175</v>
+        <v>18999568.047845714</v>
       </c>
     </row>
     <row r="245" spans="1:65" ht="19.5">
       <c r="C245">
         <f>H244*D245</f>
-        <v>761225.44015427423</v>
+        <v>705241.36571649741</v>
       </c>
       <c r="D245">
         <f>D244</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E245" t="s">
         <v>17</v>
@@ -9662,17 +9996,17 @@
       </c>
       <c r="H245">
         <f>H244+C245</f>
-        <v>21482881.202856023</v>
+        <v>19704809.413562212</v>
       </c>
     </row>
     <row r="246" spans="1:65" ht="19.5">
       <c r="C246">
         <f>H245*D246</f>
-        <v>789189.62300596898</v>
+        <v>731419.08631862793</v>
       </c>
       <c r="D246">
         <f>D245</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E246" t="s">
         <v>11</v>
@@ -9682,17 +10016,17 @@
       </c>
       <c r="H246">
         <f>H245+C246</f>
-        <v>22272070.82586199</v>
+        <v>20436228.499880839</v>
       </c>
     </row>
     <row r="247" spans="1:65" ht="19.5">
       <c r="C247">
         <f>H246*D247</f>
-        <v>818181.09091845283</v>
+        <v>758568.49277078931</v>
       </c>
       <c r="D247">
         <f>D246</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E247" t="s">
         <v>12</v>
@@ -9702,17 +10036,17 @@
       </c>
       <c r="H247">
         <f>H246+C247</f>
-        <v>23090251.916780442</v>
+        <v>21194796.99265163</v>
       </c>
     </row>
     <row r="248" spans="1:65" ht="19.5">
       <c r="C248">
         <f>H247*D248</f>
-        <v>848237.58197267435</v>
+        <v>786725.65289590263</v>
       </c>
       <c r="D248">
         <f>D247</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E248" t="s">
         <v>13</v>
@@ -9722,17 +10056,17 @@
       </c>
       <c r="H248">
         <f>H247+C248</f>
-        <v>23938489.498753116</v>
+        <v>21981522.645547532</v>
       </c>
     </row>
     <row r="249" spans="1:65" ht="19.5">
       <c r="C249">
         <f>H248*D249</f>
-        <v>879398.22058606078</v>
+        <v>815927.97331157222</v>
       </c>
       <c r="D249">
         <f>D248</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E249" t="s">
         <v>14</v>
@@ -9742,17 +10076,17 @@
       </c>
       <c r="H249">
         <f>H248+C249</f>
-        <v>24817887.719339177</v>
+        <v>22797450.618859105</v>
       </c>
     </row>
     <row r="250" spans="1:65" ht="19.5">
       <c r="C250">
         <f>H249*D250</f>
-        <v>911703.56844061997</v>
+        <v>846214.24912455271</v>
       </c>
       <c r="D250">
         <f>D249</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E250" t="s">
         <v>15</v>
@@ -9762,17 +10096,17 @@
       </c>
       <c r="H250">
         <f>H249+C250</f>
-        <v>25729591.287779797</v>
+        <v>23643664.867983658</v>
       </c>
     </row>
     <row r="251" spans="1:65" ht="19.5">
       <c r="C251">
         <f>H250*D251</f>
-        <v>945195.67728192359</v>
+        <v>877624.71546981402</v>
       </c>
       <c r="D251">
         <f>D250</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E251" t="s">
         <v>16</v>
@@ -9782,17 +10116,17 @@
       </c>
       <c r="H251">
         <f>H250+C251</f>
-        <v>26674786.96506172</v>
+        <v>24521289.583453473</v>
       </c>
     </row>
     <row r="252" spans="1:65" ht="19.5">
       <c r="C252">
         <f>H251*D252</f>
-        <v>979918.14365770109</v>
+        <v>910201.10096267599</v>
       </c>
       <c r="D252">
         <f>D251</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E252" t="s">
         <v>17</v>
@@ -9802,17 +10136,17 @@
       </c>
       <c r="H252">
         <f>H251+C252</f>
-        <v>27654705.108719423</v>
+        <v>25431490.684416149</v>
       </c>
     </row>
     <row r="253" spans="1:65" ht="19.5">
       <c r="C253">
         <f>H252*D253</f>
-        <v>1015916.1656672964</v>
+        <v>943986.68313502229</v>
       </c>
       <c r="D253">
         <f>D252</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E253" t="s">
         <v>11</v>
@@ -9822,17 +10156,17 @@
       </c>
       <c r="H253">
         <f>H252+C253</f>
-        <v>28670621.274386719</v>
+        <v>26375477.36755117</v>
       </c>
     </row>
     <row r="254" spans="1:65" ht="19.5">
       <c r="C254">
         <f>H253*D254</f>
-        <v>1053236.6017958571</v>
+        <v>979026.34592924127</v>
       </c>
       <c r="D254">
         <f>D253</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E254" t="s">
         <v>12</v>
@@ -9842,17 +10176,17 @@
       </c>
       <c r="H254">
         <f>H253+C254</f>
-        <v>29723857.876182575</v>
+        <v>27354503.713480413</v>
       </c>
     </row>
     <row r="255" spans="1:65" ht="19.5">
       <c r="C255">
         <f>H254*D255</f>
-        <v>1091928.0319098425</v>
+        <v>1015366.6393262723</v>
       </c>
       <c r="D255">
         <f>D254</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E255" t="s">
         <v>13</v>
@@ -9862,17 +10196,17 @@
       </c>
       <c r="H255">
         <f>H254+C255</f>
-        <v>30815785.908092417</v>
+        <v>28369870.352806684</v>
       </c>
     </row>
     <row r="256" spans="1:65" ht="19.5">
       <c r="C256">
         <f>H255*D256</f>
-        <v>1132040.8204932481</v>
+        <v>1053055.8411869758</v>
       </c>
       <c r="D256">
         <f>D255</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E256" t="s">
         <v>14</v>
@@ -9882,17 +10216,17 @@
       </c>
       <c r="H256">
         <f>H255+C256</f>
-        <v>31947826.728585664</v>
+        <v>29422926.193993658</v>
       </c>
     </row>
     <row r="257" spans="1:65" ht="19.5">
       <c r="C257">
         <f>H256*D257</f>
-        <v>1173627.1822068556</v>
+        <v>1092144.0213889801</v>
       </c>
       <c r="D257">
         <f>D256</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E257" t="s">
         <v>15</v>
@@ -9902,17 +10236,17 @@
       </c>
       <c r="H257">
         <f>H256+C257</f>
-        <v>33121453.910792518</v>
+        <v>30515070.215382639</v>
       </c>
     </row>
     <row r="258" spans="1:65" ht="19.5">
       <c r="C258">
         <f>H257*D258</f>
-        <v>1216741.2498558566</v>
+        <v>1132683.1083442126</v>
       </c>
       <c r="D258">
         <f>D257</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E258" t="s">
         <v>16</v>
@@ -9922,17 +10256,17 @@
       </c>
       <c r="H258">
         <f>H257+C258</f>
-        <v>34338195.160648376</v>
+        <v>31647753.323726851</v>
       </c>
     </row>
     <row r="259" spans="1:65" ht="19.5">
       <c r="C259">
         <f>H258*D259</f>
-        <v>1261439.1448543123</v>
+        <v>1174726.9579854812</v>
       </c>
       <c r="D259">
         <f>D258</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E259" t="s">
         <v>17</v>
@@ -9942,17 +10276,17 @@
       </c>
       <c r="H259">
         <f>H258+C259</f>
-        <v>35599634.30550269</v>
+        <v>32822480.281712331</v>
       </c>
     </row>
     <row r="260" spans="1:65" ht="19.5">
       <c r="C260">
         <f>H259*D260</f>
-        <v>1307779.0502781807</v>
+        <v>1218331.4253137584</v>
       </c>
       <c r="D260">
         <f>D259</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E260" t="s">
         <v>11</v>
@@ -9962,17 +10296,17 @@
       </c>
       <c r="H260">
         <f>H259+C260</f>
-        <v>36907413.35578087</v>
+        <v>34040811.707026087</v>
       </c>
     </row>
     <row r="261" spans="1:65" ht="19.5">
       <c r="C261">
         <f>H260*D261</f>
-        <v>1355821.2866019998</v>
+        <v>1263554.4386012119</v>
       </c>
       <c r="D261">
         <f>D260</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E261" t="s">
         <v>12</v>
@@ -9982,17 +10316,17 @@
       </c>
       <c r="H261">
         <f>H260+C261</f>
-        <v>38263234.642382868</v>
+        <v>35304366.145627297</v>
       </c>
     </row>
     <row r="262" spans="1:65" ht="19.5">
       <c r="C262">
         <f>H261*D262</f>
-        <v>1405628.3902178151</v>
+        <v>1310456.0763485658</v>
       </c>
       <c r="D262">
         <f>D261</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E262" t="s">
         <v>13</v>
@@ -10002,17 +10336,17 @@
       </c>
       <c r="H262">
         <f>H261+C262</f>
-        <v>39668863.032600686</v>
+        <v>36614822.221975863</v>
       </c>
     </row>
     <row r="263" spans="1:65" ht="19.5">
       <c r="C263">
         <f>H262*D263</f>
-        <v>1457265.1948385569</v>
+        <v>1359098.6470990274</v>
       </c>
       <c r="D263">
         <f>D262</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E263" t="s">
         <v>14</v>
@@ -10022,17 +10356,17 @@
       </c>
       <c r="H263">
         <f>H262+C263</f>
-        <v>41126128.22743924</v>
+        <v>37973920.869074889</v>
       </c>
     </row>
     <row r="264" spans="1:65" ht="19.5">
       <c r="C264">
         <f>H263*D264</f>
-        <v>1510798.9158918329</v>
+        <v>1409546.7722148106</v>
       </c>
       <c r="D264">
         <f>D263</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E264" t="s">
         <v>15</v>
@@ -10042,17 +10376,17 @@
       </c>
       <c r="H264">
         <f>H263+C264</f>
-        <v>42636927.143331073</v>
+        <v>39383467.641289696</v>
       </c>
     </row>
     <row r="265" spans="1:65" ht="19.5">
       <c r="C265">
         <f>H264*D265</f>
-        <v>1566299.2380139881</v>
+        <v>1461867.4717262276</v>
       </c>
       <c r="D265">
         <f>D264</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E265" t="s">
         <v>16</v>
@@ -10062,17 +10396,17 @@
       </c>
       <c r="H265">
         <f>H264+C265</f>
-        <v>44203226.381345063</v>
+        <v>40845335.11301592</v>
       </c>
     </row>
     <row r="266" spans="1:65" ht="19.5">
       <c r="C266">
         <f>H265*D266</f>
-        <v>1623838.4057583252</v>
+        <v>1516130.2533673935</v>
       </c>
       <c r="D266">
         <f>D265</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E266" t="s">
         <v>17</v>
@@ -10082,17 +10416,17 @@
       </c>
       <c r="H266">
         <f>H265+C266</f>
-        <v>45827064.787103392</v>
+        <v>42361465.366383314</v>
       </c>
     </row>
     <row r="267" spans="1:65" ht="19.5">
       <c r="C267">
         <f>H266*D267</f>
-        <v>1683491.3176355578</v>
+        <v>1572407.2049168344</v>
       </c>
       <c r="D267">
         <f>D266</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E267" t="s">
         <v>11</v>
@@ -10102,17 +10436,17 @@
       </c>
       <c r="H267">
         <f>H266+C267</f>
-        <v>47510556.104738951</v>
+        <v>43933872.571300149</v>
       </c>
     </row>
     <row r="268" spans="1:65" ht="19.5">
       <c r="C268">
         <f>H267*D268</f>
-        <v>1745335.6236089112</v>
+        <v>1630773.0899656657</v>
       </c>
       <c r="D268">
         <f>D267</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E268" t="s">
         <v>12</v>
@@ -10122,17 +10456,17 @@
       </c>
       <c r="H268">
         <f>H267+C268</f>
-        <v>49255891.72834786</v>
+        <v>45564645.661265813</v>
       </c>
     </row>
     <row r="269" spans="1:65" ht="19.5">
       <c r="C269">
         <f>H268*D269</f>
-        <v>1809451.8261707765</v>
+        <v>1691305.4472405722</v>
       </c>
       <c r="D269">
         <f>D268</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E269" t="s">
         <v>13</v>
@@ -10142,17 +10476,17 @@
       </c>
       <c r="H269">
         <f>H268+C269</f>
-        <v>51065343.55451864</v>
+        <v>47255951.108506382</v>
       </c>
     </row>
     <row r="270" spans="1:65" ht="19.5">
       <c r="C270">
         <f>H269*D270</f>
-        <v>1875923.3851324923</v>
+        <v>1754084.6936135411</v>
       </c>
       <c r="D270">
         <f>D269</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E270" t="s">
         <v>14</v>
@@ -10162,17 +10496,17 @@
       </c>
       <c r="H270">
         <f>H269+C270</f>
-        <v>52941266.939651132</v>
+        <v>49010035.802119926</v>
       </c>
     </row>
     <row r="271" spans="1:65" ht="19.5">
       <c r="C271">
         <f>H270*D271</f>
-        <v>1944836.8262636554</v>
+        <v>1819194.2309351899</v>
       </c>
       <c r="D271">
         <f>D270</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E271" t="s">
         <v>15</v>
@@ -10182,17 +10516,17 @@
       </c>
       <c r="H271">
         <f>H270+C271</f>
-        <v>54886103.76591479</v>
+        <v>50829230.033055112</v>
       </c>
     </row>
     <row r="272" spans="1:65" ht="19.5">
       <c r="C272">
         <f>H271*D272</f>
-        <v>2016281.8539223799</v>
+        <v>1886720.5568336239</v>
       </c>
       <c r="D272">
         <f>D271</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E272" t="s">
         <v>16</v>
@@ -10202,17 +10536,17 @@
       </c>
       <c r="H272">
         <f>H271+C272</f>
-        <v>56902385.619837172</v>
+        <v>52715950.589888737</v>
       </c>
     </row>
     <row r="273" spans="1:65" ht="19.5">
       <c r="C273">
         <f>H272*D273</f>
-        <v>2090351.4678231094</v>
+        <v>1956753.379626014</v>
       </c>
       <c r="D273">
         <f>D272</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E273" t="s">
         <v>17</v>
@@ -10222,17 +10556,17 @@
       </c>
       <c r="H273">
         <f>H272+C273</f>
-        <v>58992737.087660283</v>
+        <v>54672703.96951475</v>
       </c>
     </row>
     <row r="274" spans="1:65" ht="19.5">
       <c r="C274">
         <f>H273*D274</f>
-        <v>2167142.0840939838</v>
+        <v>2029385.7374955548</v>
       </c>
       <c r="D274">
         <f>D273</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E274" t="s">
         <v>11</v>
@@ -10242,17 +10576,17 @@
       </c>
       <c r="H274">
         <f>H273+C274</f>
-        <v>61159879.171754263</v>
+        <v>56702089.707010306</v>
       </c>
     </row>
     <row r="275" spans="1:65" ht="19.5">
       <c r="C275">
         <f>H274*D275</f>
-        <v>2246753.6607813379</v>
+        <v>2104714.1220921315</v>
       </c>
       <c r="D275">
         <f>D274</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E275" t="s">
         <v>12</v>
@@ -10262,17 +10596,17 @@
       </c>
       <c r="H275">
         <f>H274+C275</f>
-        <v>63406632.832535602</v>
+        <v>58806803.829102442</v>
       </c>
     </row>
     <row r="276" spans="1:65" ht="19.5">
       <c r="C276">
         <f>H275*D276</f>
-        <v>2329289.8279647036</v>
+        <v>2182838.6067208941</v>
       </c>
       <c r="D276">
         <f>D275</f>
-        <v>0.036735743942067273</v>
+        <v>0.037118810487718534</v>
       </c>
       <c r="E276" t="s">
         <v>13</v>
@@ -10282,7 +10616,7 @@
       </c>
       <c r="H276">
         <f>H275+C276</f>
-        <v>65735922.660500303</v>
+        <v>60989642.435823336</v>
       </c>
     </row>
     <row r="277" spans="1:65" ht="19.5">

--- a/converted.d/covid-19_progression_math.xlsx
+++ b/converted.d/covid-19_progression_math.xlsx
@@ -252,7 +252,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Last revision:  Saturday, 11 Apr 2020 03:52 UTC - 2 of 2 updates</t>
+          <t>Last revision:  Sunday, 12 Apr 2020 04:08 UTC</t>
         </is>
       </c>
     </row>
@@ -333,7 +333,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>50x</t>
+          <t>35x</t>
         </is>
       </c>
       <c r="H5" t="s">
@@ -503,8 +503,8 @@
         <v>43898</v>
       </c>
       <c r="G8" s="2">
-        <f>H8*50</f>
-        <v>50</v>
+        <f>H8*35</f>
+        <v>35</v>
       </c>
       <c r="H8">
         <f>H7+C8</f>
@@ -554,8 +554,8 @@
         <v>43899</v>
       </c>
       <c r="G9" s="2">
-        <f>H9*50</f>
-        <v>100</v>
+        <f>H9*35</f>
+        <v>70</v>
       </c>
       <c r="H9">
         <f>H8+C9</f>
@@ -590,6 +590,24 @@
       <c r="AY9">
         <f>O9+S9+W9+AA9+AE9+AI9+AM9+AQ9</f>
         <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>366667</v>
+      </c>
+      <c r="BG9">
+        <v>396223</v>
+      </c>
+      <c r="BH9">
+        <v>429052</v>
+      </c>
+      <c r="BI9">
+        <v>461437</v>
+      </c>
+      <c r="BJ9">
+        <v>496535</v>
+      </c>
+      <c r="BK9">
+        <v>526396</v>
       </c>
     </row>
     <row r="10" spans="1:65" ht="19.5">
@@ -607,8 +625,8 @@
         <v>43900</v>
       </c>
       <c r="G10" s="2">
-        <f>H10*50</f>
-        <v>100</v>
+        <f>H10*35</f>
+        <v>70</v>
       </c>
       <c r="H10">
         <f>H9+C10</f>
@@ -666,8 +684,8 @@
         <v>43901</v>
       </c>
       <c r="G11" s="2">
-        <f>H11*50</f>
-        <v>150</v>
+        <f>H11*35</f>
+        <v>105</v>
       </c>
       <c r="H11">
         <f>H10+C11</f>
@@ -729,8 +747,8 @@
         <v>43902</v>
       </c>
       <c r="G12" s="2">
-        <f>H12*50</f>
-        <v>300</v>
+        <f>H12*35</f>
+        <v>210</v>
       </c>
       <c r="H12">
         <f>H11+C12</f>
@@ -792,8 +810,8 @@
         <v>43903</v>
       </c>
       <c r="G13" s="2">
-        <f>H13*50</f>
-        <v>549.99999999989996</v>
+        <f>H13*35</f>
+        <v>384.99999999992997</v>
       </c>
       <c r="H13">
         <f>H12+C13</f>
@@ -854,8 +872,8 @@
         <v>43904</v>
       </c>
       <c r="G14" s="2">
-        <f>H14*50</f>
-        <v>999.99999999991815</v>
+        <f>H14*35</f>
+        <v>699.9999999999427</v>
       </c>
       <c r="H14">
         <f>H13+C14</f>
@@ -925,8 +943,8 @@
         <v>43905</v>
       </c>
       <c r="G15" s="2">
-        <f>H15*50</f>
-        <v>1299.9999999998936</v>
+        <f>H15*35</f>
+        <v>909.99999999992554</v>
       </c>
       <c r="H15">
         <f>H14+C15</f>
@@ -996,8 +1014,8 @@
         <v>43906</v>
       </c>
       <c r="G16" s="2">
-        <f>H16*50</f>
-        <v>2049.9999999997322</v>
+        <f>H16*35</f>
+        <v>1434.9999999998124</v>
       </c>
       <c r="H16">
         <f>H15+C16</f>
@@ -1067,8 +1085,8 @@
         <v>43907</v>
       </c>
       <c r="G17" s="2">
-        <f>H17*50</f>
-        <v>3399.9999999998558</v>
+        <f>H17*35</f>
+        <v>2379.999999999899</v>
       </c>
       <c r="H17">
         <f>H16+C17</f>
@@ -1138,8 +1156,8 @@
         <v>43908</v>
       </c>
       <c r="G18" s="2">
-        <f>H18*50</f>
-        <v>4799.9999999985957</v>
+        <f>H18*35</f>
+        <v>3359.9999999990173</v>
       </c>
       <c r="H18">
         <f>H17+C18</f>
@@ -1229,8 +1247,8 @@
         <v>43909</v>
       </c>
       <c r="G19" s="2">
-        <f>H19*50</f>
-        <v>7949.9999999976753</v>
+        <f>H19*35</f>
+        <v>5564.9999999983729</v>
       </c>
       <c r="H19">
         <f>H18+C19</f>
@@ -1324,8 +1342,8 @@
         <v>43910</v>
       </c>
       <c r="G20" s="2">
-        <f>H20*50</f>
-        <v>9700.0000000009641</v>
+        <f>H20*35</f>
+        <v>6790.0000000006748</v>
       </c>
       <c r="H20">
         <f>H19+C20</f>
@@ -1435,8 +1453,8 @@
         <v>43911</v>
       </c>
       <c r="G21" s="2">
-        <f>H21*50</f>
-        <v>11149.999999996508</v>
+        <f>H21*35</f>
+        <v>7804.9999999975553</v>
       </c>
       <c r="H21">
         <f>H20+C21</f>
@@ -1578,8 +1596,8 @@
         <v>43912</v>
       </c>
       <c r="G22" s="2">
-        <f>H22*50</f>
-        <v>16349.999999944879</v>
+        <f>H22*35</f>
+        <v>11444.999999961416</v>
       </c>
       <c r="H22">
         <f>H21+C22</f>
@@ -1729,8 +1747,8 @@
         <v>43913</v>
       </c>
       <c r="G23" s="2">
-        <f>H23*50</f>
-        <v>20749.999999928496</v>
+        <f>H23*35</f>
+        <v>14524.999999949947</v>
       </c>
       <c r="H23">
         <f>H22+C23</f>
@@ -1880,8 +1898,8 @@
         <v>43914</v>
       </c>
       <c r="G24" s="2">
-        <f>H24*50</f>
-        <v>30899.999999893022</v>
+        <f>H24*35</f>
+        <v>21629.999999925116</v>
       </c>
       <c r="H24">
         <f>H23+C24</f>
@@ -2031,8 +2049,8 @@
         <v>43915</v>
       </c>
       <c r="G25" s="2">
-        <f>H25*50</f>
-        <v>43749.999999848733</v>
+        <f>H25*35</f>
+        <v>30624.999999894113</v>
       </c>
       <c r="H25">
         <f>H24+C25</f>
@@ -2182,8 +2200,8 @@
         <v>43916</v>
       </c>
       <c r="G26" s="2">
-        <f>H26*50</f>
-        <v>50599.999999806299</v>
+        <f>H26*35</f>
+        <v>35419.999999864413</v>
       </c>
       <c r="H26">
         <f>H25+C26</f>
@@ -2333,8 +2351,8 @@
         <v>43917</v>
       </c>
       <c r="G27" s="2">
-        <f>H27*50</f>
-        <v>64549.999999512896</v>
+        <f>H27*35</f>
+        <v>45184.999999659027</v>
       </c>
       <c r="H27">
         <f>H26+C27</f>
@@ -2484,8 +2502,8 @@
         <v>43918</v>
       </c>
       <c r="G28" s="2">
-        <f>H28*50</f>
-        <v>76199.999999433494</v>
+        <f>H28*35</f>
+        <v>53339.999999603438</v>
       </c>
       <c r="H28">
         <f>H27+C28</f>
@@ -2635,8 +2653,8 @@
         <v>43919</v>
       </c>
       <c r="G29" s="2">
-        <f>H29*50</f>
-        <v>99649.999999241554</v>
+        <f>H29*35</f>
+        <v>69754.999999469088</v>
       </c>
       <c r="H29">
         <f>H28+C29</f>
@@ -2787,8 +2805,8 @@
         <v>43920</v>
       </c>
       <c r="G30" s="2">
-        <f>H30*50</f>
-        <v>128549.99999898218</v>
+        <f>H30*35</f>
+        <v>89984.999999287524</v>
       </c>
       <c r="H30">
         <f>H29+C30</f>
@@ -2947,8 +2965,8 @@
         <v>43921</v>
       </c>
       <c r="G31" s="2">
-        <f>H31*50</f>
-        <v>156399.99999876923</v>
+        <f>H31*35</f>
+        <v>109479.99999913845</v>
       </c>
       <c r="H31">
         <f>H30+C31</f>
@@ -3106,8 +3124,8 @@
         <v>43922</v>
       </c>
       <c r="G32" s="2">
-        <f>H32*50</f>
-        <v>177849.99999924045</v>
+        <f>H32*35</f>
+        <v>124494.9999994683</v>
       </c>
       <c r="H32">
         <f>H31+C32</f>
@@ -3265,8 +3283,8 @@
         <v>43923</v>
       </c>
       <c r="G33" s="2">
-        <f>H33*50</f>
-        <v>191199.99999917776</v>
+        <f>H33*35</f>
+        <v>133839.99999942444</v>
       </c>
       <c r="H33">
         <f>H32+C33</f>
@@ -3424,8 +3442,8 @@
         <v>43924</v>
       </c>
       <c r="G34" s="2">
-        <f>H34*50</f>
-        <v>245699.99999814341</v>
+        <f>H34*35</f>
+        <v>171989.99999870037</v>
       </c>
       <c r="H34">
         <f>H33+C34</f>
@@ -3583,8 +3601,8 @@
         <v>43925</v>
       </c>
       <c r="G35" s="2">
-        <f>H35*50</f>
-        <v>263799.99999801314</v>
+        <f>H35*35</f>
+        <v>184659.99999860919</v>
       </c>
       <c r="H35">
         <f>H34+C35</f>
@@ -3742,8 +3760,8 @@
         <v>43926</v>
       </c>
       <c r="G36" s="2">
-        <f>H36*50</f>
-        <v>283749.99999785732</v>
+        <f>H36*35</f>
+        <v>198624.99999850013</v>
       </c>
       <c r="H36">
         <f>H35+C36</f>
@@ -3901,8 +3919,8 @@
         <v>43927</v>
       </c>
       <c r="G37" s="2">
-        <f>H37*50</f>
-        <v>345299.99999725877</v>
+        <f>H37*35</f>
+        <v>241709.99999808116</v>
       </c>
       <c r="H37">
         <f>H36+C37</f>
@@ -4060,8 +4078,8 @@
         <v>43928</v>
       </c>
       <c r="G38" s="2">
-        <f>H38*50</f>
-        <v>389049.99999694829</v>
+        <f>H38*35</f>
+        <v>272334.99999786378</v>
       </c>
       <c r="H38">
         <f>H37+C38</f>
@@ -4219,8 +4237,8 @@
         <v>43929</v>
       </c>
       <c r="G39" s="2">
-        <f>H39*50</f>
-        <v>439049.99999646924</v>
+        <f>H39*35</f>
+        <v>307334.9999975285</v>
       </c>
       <c r="H39">
         <f>H38+C39</f>
@@ -4378,8 +4396,8 @@
         <v>43930</v>
       </c>
       <c r="G40" s="2">
-        <f>H40*50</f>
-        <v>489199.99999819091</v>
+        <f>H40*35</f>
+        <v>342439.99999873363</v>
       </c>
       <c r="H40">
         <f>H39+C40</f>
@@ -4419,11 +4437,6 @@
         <f>S39+7</f>
         <v>75</v>
       </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>UPDATED - finished this line's entry and won't require further update.</t>
-        </is>
-      </c>
       <c r="U40">
         <f>U39+238</f>
         <v>2183</v>
@@ -4515,11 +4528,6 @@
       <c r="AY40">
         <f>O40+S40+W40+AA40+AE40+AI40+AM40+AQ40+AU40</f>
         <v>380</v>
-      </c>
-      <c r="AZ40" t="inlineStr">
-        <is>
-          <t>CORRECT - no errors seen.  Ready for permanent record.</t>
-        </is>
       </c>
       <c r="BA40" s="5">
         <v>43882</v>
@@ -4547,8 +4555,8 @@
         <v>43931</v>
       </c>
       <c r="G41" s="2">
-        <f>H41*50</f>
-        <v>526899.99999806937</v>
+        <f>H41*35</f>
+        <v>368829.99999864859</v>
       </c>
       <c r="H41">
         <f>H40+C41</f>
@@ -4557,1735 +4565,1996 @@
       <c r="I41">
         <v>10538</v>
       </c>
-      <c r="J41" s="1"/>
+      <c r="J41">
+        <v>496535</v>
+      </c>
       <c r="K41">
         <f>M41+Q41+U41+Y41+AC41+AG41+AK41+AO41+AS41</f>
         <v>10538</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="M41">
+        <f>M40+31</f>
+        <v>346</v>
+      </c>
+      <c r="N41">
+        <f>N40+7</f>
+        <v>32</v>
+      </c>
+      <c r="O41">
+        <f>O40+3</f>
+        <v>16</v>
+      </c>
+      <c r="Q41">
+        <f>Q40+144</f>
+        <v>1615</v>
+      </c>
+      <c r="R41">
+        <f>R40+20</f>
+        <v>296</v>
+      </c>
+      <c r="S41">
+        <f>S40+13</f>
+        <v>88</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>UPDATED - finished this line's entry and won't require further update.</t>
+        </is>
+      </c>
+      <c r="U41">
+        <f>U40+200</f>
+        <v>2383</v>
+      </c>
+      <c r="V41">
+        <f>V40+46</f>
+        <v>493</v>
+      </c>
+      <c r="W41">
+        <f>W40+20</f>
+        <v>98</v>
+      </c>
+      <c r="Y41">
+        <f>Y40+298</f>
+        <v>5180</v>
+      </c>
+      <c r="Z41">
+        <f>Z40+21</f>
+        <v>685</v>
+      </c>
+      <c r="AA41">
+        <f>AA40+25</f>
+        <v>203</v>
+      </c>
+      <c r="AC41">
+        <f>AC40+35</f>
+        <v>240</v>
+      </c>
+      <c r="AD41">
+        <f>AD40+2</f>
+        <v>28</v>
+      </c>
+      <c r="AE41">
+        <f>AE40+3</f>
+        <v>17</v>
+      </c>
+      <c r="AG41">
+        <f>AG40+7</f>
+        <v>152</v>
+      </c>
+      <c r="AH41">
+        <f>AH40+-1</f>
+        <v>6</v>
+      </c>
+      <c r="AI41">
+        <f>AI40+1</f>
+        <v>14</v>
+      </c>
+      <c r="AK41">
+        <f>AK40+7</f>
+        <v>59</v>
+      </c>
+      <c r="AL41">
+        <f>AL40+1</f>
+        <v>5</v>
+      </c>
+      <c r="AM41">
+        <f>AM40+0</f>
+        <v>1</v>
+      </c>
+      <c r="AO41">
+        <f>AO40+17</f>
+        <v>156</v>
+      </c>
+      <c r="AP41">
+        <f>AP40+2</f>
+        <v>17</v>
+      </c>
+      <c r="AQ41">
+        <f>AQ40+1</f>
+        <v>7</v>
+      </c>
+      <c r="AS41">
+        <f>AS40+15</f>
+        <v>407</v>
+      </c>
+      <c r="AU41">
+        <f>AU40+2</f>
+        <v>4</v>
+      </c>
+      <c r="AW41">
+        <f>M41+Q41+U41+Y41+AC41+AG41+AK41+AO41+AS41</f>
+        <v>10538</v>
+      </c>
+      <c r="AX41">
+        <f>N41+R41+V41+Z41+AD41+AH41+AL41+AP41+AT41</f>
+        <v>1562</v>
+      </c>
+      <c r="AY41">
+        <f>O41+S41+W41+AA41+AE41+AI41+AM41+AQ41+AU41</f>
+        <v>448</v>
+      </c>
+      <c r="AZ41" t="inlineStr">
+        <is>
+          <t>CORRECT - no errors seen.  Ready for permanent record.</t>
+        </is>
+      </c>
+      <c r="BA41" s="5">
+        <v>43883</v>
+      </c>
+      <c r="BB41">
+        <v>15</v>
+      </c>
+      <c r="BC41">
+        <f>(BB41/BB40)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:65" ht="19.5">
+      <c r="C42">
+        <f>H41*D42</f>
+        <v>971.99999999678664</v>
+      </c>
+      <c r="D42">
+        <f>0.092237616246000007</f>
+        <v>0.092237616246000007</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="5">
+        <v>43932</v>
+      </c>
+      <c r="G42" s="2">
+        <f>H42*35</f>
+        <v>402849.99999853608</v>
+      </c>
+      <c r="H42">
+        <f>H41+C42</f>
+        <v>11509.999999958174</v>
+      </c>
+      <c r="I42">
+        <v>11510</v>
+      </c>
+      <c r="J42">
+        <v>526396</v>
+      </c>
+      <c r="K42">
+        <f>M42+Q42+U42+Y42+AC42+AG42+AK42+AO42+AS42</f>
+        <v>11510</v>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>NEW:</t>
         </is>
       </c>
-      <c r="M41">
-        <f>M40+31</f>
-        <v>346</v>
-      </c>
-      <c r="N41">
-        <f>N40+7</f>
-        <v>32</v>
-      </c>
-      <c r="O41">
-        <f>O40+3</f>
-        <v>16</v>
-      </c>
-      <c r="Q41">
-        <f>Q40+144</f>
-        <v>1615</v>
-      </c>
-      <c r="R41">
-        <f>R40+20</f>
-        <v>296</v>
-      </c>
-      <c r="S41">
-        <f>S40+13</f>
-        <v>88</v>
-      </c>
-      <c r="T41" t="inlineStr">
+      <c r="M42">
+        <f>M41+42</f>
+        <v>388</v>
+      </c>
+      <c r="N42">
+        <f>N41+6</f>
+        <v>38</v>
+      </c>
+      <c r="O42">
+        <f>O41+4</f>
+        <v>20</v>
+      </c>
+      <c r="Q42">
+        <f>Q41+217</f>
+        <v>1832</v>
+      </c>
+      <c r="R42">
+        <f>R41+15</f>
+        <v>311</v>
+      </c>
+      <c r="S42">
+        <f>S41+13</f>
+        <v>101</v>
+      </c>
+      <c r="T42" t="inlineStr">
         <is>
           <t>PROPOSED - open to proposal now - subject to revision.</t>
         </is>
       </c>
-      <c r="U41">
-        <f>U40+200</f>
-        <v>2383</v>
-      </c>
-      <c r="V41">
-        <f>V40+46</f>
-        <v>493</v>
-      </c>
-      <c r="W41">
-        <f>W40+20</f>
-        <v>98</v>
-      </c>
-      <c r="Y41">
-        <f>Y40+298</f>
-        <v>5180</v>
-      </c>
-      <c r="Z41">
-        <f>Z40+21</f>
-        <v>685</v>
-      </c>
-      <c r="AA41">
-        <f>AA40+25</f>
-        <v>203</v>
-      </c>
-      <c r="AC41">
-        <f>AC40+35</f>
-        <v>240</v>
-      </c>
-      <c r="AD41">
-        <f>AD40+2</f>
-        <v>28</v>
-      </c>
-      <c r="AE41">
-        <f>AE40+3</f>
-        <v>17</v>
-      </c>
-      <c r="AG41">
-        <f>AG40+7</f>
-        <v>152</v>
-      </c>
-      <c r="AH41">
-        <f>AH40+-1</f>
-        <v>6</v>
-      </c>
-      <c r="AI41">
-        <f>AI40+1</f>
-        <v>14</v>
-      </c>
-      <c r="AK41">
-        <f>AK40+7</f>
-        <v>59</v>
-      </c>
-      <c r="AL41">
-        <f>AL40+1</f>
+      <c r="U42">
+        <f>U41+332</f>
+        <v>2715</v>
+      </c>
+      <c r="V42">
+        <f>V41+21</f>
+        <v>514</v>
+      </c>
+      <c r="W42">
+        <f>W41+9</f>
+        <v>107</v>
+      </c>
+      <c r="Y42">
+        <f>Y41+227</f>
+        <v>5407</v>
+      </c>
+      <c r="Z42">
+        <f>Z41+-9</f>
+        <v>676</v>
+      </c>
+      <c r="AA42">
+        <f>AA41+17</f>
+        <v>220</v>
+      </c>
+      <c r="AC42">
+        <f>AC41+50</f>
+        <v>290</v>
+      </c>
+      <c r="AD42">
+        <f>AD41+-1</f>
+        <v>27</v>
+      </c>
+      <c r="AE42">
+        <f>AE41+1</f>
+        <v>18</v>
+      </c>
+      <c r="AG42">
+        <f>AG41+19</f>
+        <v>171</v>
+      </c>
+      <c r="AH42">
+        <f>AH41+1</f>
+        <v>7</v>
+      </c>
+      <c r="AI42">
+        <f>AI41+1</f>
+        <v>15</v>
+      </c>
+      <c r="AK42">
+        <f>AK41+7</f>
+        <v>66</v>
+      </c>
+      <c r="AL42">
+        <f>AL41+-1</f>
+        <v>4</v>
+      </c>
+      <c r="AM42">
+        <f>AM41+0</f>
+        <v>1</v>
+      </c>
+      <c r="AO42">
+        <f>AO41+29</f>
+        <v>185</v>
+      </c>
+      <c r="AP42">
+        <f>AP41+-1</f>
+        <v>16</v>
+      </c>
+      <c r="AQ42">
+        <f>AQ41+0</f>
+        <v>7</v>
+      </c>
+      <c r="AS42">
+        <f>AS41+49</f>
+        <v>456</v>
+      </c>
+      <c r="AU42">
+        <f>AU41+1</f>
         <v>5</v>
       </c>
-      <c r="AM41">
-        <f>AM40+0</f>
-        <v>1</v>
-      </c>
-      <c r="AO41">
-        <f>AO40+17</f>
-        <v>156</v>
-      </c>
-      <c r="AP41">
-        <f>AP40+2</f>
-        <v>17</v>
-      </c>
-      <c r="AQ41">
-        <f>AQ40+1</f>
-        <v>7</v>
-      </c>
-      <c r="AS41">
-        <f>AS40+15</f>
-        <v>407</v>
-      </c>
-      <c r="AU41">
-        <f>AU40+2</f>
-        <v>4</v>
-      </c>
-      <c r="AW41">
-        <f>M41+Q41+U41+Y41+AC41+AG41+AK41+AO41+AS41</f>
-        <v>10538</v>
-      </c>
-      <c r="AX41">
-        <f>N41+R41+V41+Z41+AD41+AH41+AL41+AP41+AT41</f>
-        <v>1562</v>
-      </c>
-      <c r="AY41">
-        <f>O41+S41+W41+AA41+AE41+AI41+AM41+AQ41+AU41</f>
-        <v>448</v>
-      </c>
-      <c r="BA41" s="5">
-        <v>43883</v>
-      </c>
-      <c r="BB41">
+      <c r="AW42">
+        <f>M42+Q42+U42+Y42+AC42+AG42+AK42+AO42+AS42</f>
+        <v>11510</v>
+      </c>
+      <c r="AX42">
+        <f>N42+R42+V42+Z42+AD42+AH42+AL42+AP42+AT42</f>
+        <v>1593</v>
+      </c>
+      <c r="AY42">
+        <f>O42+S42+W42+AA42+AE42+AI42+AM42+AQ42+AU42</f>
+        <v>494</v>
+      </c>
+      <c r="BA42" s="5">
+        <v>43884</v>
+      </c>
+      <c r="BB42">
         <v>15</v>
       </c>
-      <c r="BC41">
-        <f>(BB41/BB40)-1</f>
+      <c r="BC42">
+        <f>(BB42/BB41)-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:65" ht="19.5">
-      <c r="C42">
-        <f>H41*D42</f>
-        <v>731.62766200145325</v>
-      </c>
-      <c r="D42">
-        <f>D41/1.1100000000000001</f>
-        <v>0.069427563295135122</v>
-      </c>
-      <c r="E42" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" t="inlineStr">
+    <row r="43" spans="1:65" ht="19.5">
+      <c r="C43">
+        <f>H42*D43</f>
+        <v>956.44591260144341</v>
+      </c>
+      <c r="D43">
+        <f>D42/1.1100000000000001</f>
+        <v>0.083096951572972977</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="inlineStr">
         <is>
           <t>day two</t>
         </is>
       </c>
-      <c r="G42" s="2">
-        <f>H42*50</f>
-        <v>563481.38309814199</v>
-      </c>
-      <c r="H42">
-        <f>H41+C42</f>
-        <v>11269.627661962841</v>
-      </c>
-      <c r="J42" s="1"/>
-      <c r="BA42" s="5">
-        <v>43884</v>
-      </c>
-      <c r="BB42">
-        <v>15</v>
-      </c>
-      <c r="BC42">
-        <f>(BB42/BB41)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:65" ht="19.5">
-      <c r="C43">
-        <f>H42*D43</f>
-        <v>704.88539442660419</v>
-      </c>
-      <c r="D43">
-        <f>D42/1.1100000000000001</f>
-        <v>0.062547354319941545</v>
-      </c>
-      <c r="E43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" s="2">
+        <f>H43*35</f>
+        <v>436325.60693958658</v>
+      </c>
+      <c r="H43">
+        <f>H42+C43</f>
+        <v>12466.445912559617</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="BA43" s="5">
+        <v>43885</v>
+      </c>
+      <c r="BB43">
+        <v>51</v>
+      </c>
+      <c r="BC43">
+        <f>(BB43/BB42)-1</f>
+        <v>2.3999999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:65" ht="19.5">
+      <c r="C44">
+        <f>H43*D44</f>
+        <v>933.26455160635419</v>
+      </c>
+      <c r="D44">
+        <f>D43/1.1100000000000001</f>
+        <v>0.074862118534209876</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="inlineStr">
         <is>
           <t>day three</t>
         </is>
       </c>
-      <c r="G43" s="2">
-        <f>H43*50</f>
-        <v>598725.65281947225</v>
-      </c>
-      <c r="H43">
-        <f>H42+C43</f>
-        <v>11974.513056389445</v>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="G44" s="2">
+        <f>H44*35</f>
+        <v>468989.86624580901</v>
+      </c>
+      <c r="H44">
+        <f>H43+C44</f>
+        <v>13399.710464165972</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="M44">
+        <f>M42-M41</f>
+        <v>42</v>
+      </c>
+      <c r="N44">
+        <f>N42-N41</f>
+        <v>6</v>
+      </c>
+      <c r="O44">
+        <f>O42-O41</f>
+        <v>4</v>
+      </c>
+      <c r="Q44">
+        <f>Q42-Q41</f>
+        <v>217</v>
+      </c>
+      <c r="R44">
+        <f>R42-R41</f>
+        <v>15</v>
+      </c>
+      <c r="S44">
+        <f>S42-S41</f>
+        <v>13</v>
+      </c>
+      <c r="U44">
+        <f>U42-U41</f>
+        <v>332</v>
+      </c>
+      <c r="V44">
+        <f>V42-V41</f>
+        <v>21</v>
+      </c>
+      <c r="W44">
+        <f>W42-W41</f>
+        <v>9</v>
+      </c>
+      <c r="Y44">
+        <f>Y42-Y41</f>
+        <v>227</v>
+      </c>
+      <c r="Z44">
+        <f>Z42-Z41</f>
+        <v>-9</v>
+      </c>
+      <c r="AA44">
+        <f>AA42-AA41</f>
+        <v>17</v>
+      </c>
+      <c r="AC44">
+        <f>AC42-AC41</f>
+        <v>50</v>
+      </c>
+      <c r="AD44">
+        <f>AD42-AD41</f>
+        <v>-1</v>
+      </c>
+      <c r="AE44">
+        <f>AE42-AE41</f>
+        <v>1</v>
+      </c>
+      <c r="AG44">
+        <f>AG42-AG41</f>
+        <v>19</v>
+      </c>
+      <c r="AH44">
+        <f>AH42-AH41</f>
+        <v>1</v>
+      </c>
+      <c r="AI44">
+        <f>AI42-AI41</f>
+        <v>1</v>
+      </c>
+      <c r="AK44">
+        <f>AK42-AK41</f>
+        <v>7</v>
+      </c>
+      <c r="AL44">
+        <f>AL42-AL41</f>
+        <v>-1</v>
+      </c>
+      <c r="AM44">
+        <f>AM42-AM41</f>
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <f>AO42-AO41</f>
+        <v>29</v>
+      </c>
+      <c r="AP44">
+        <f>AP42-AP41</f>
+        <v>-1</v>
+      </c>
+      <c r="AQ44">
+        <f>AQ42-AQ41</f>
+        <v>0</v>
+      </c>
+      <c r="AS44">
+        <f>AS42-AS41</f>
+        <v>49</v>
+      </c>
+      <c r="AU44">
+        <f>AU42-AU41</f>
+        <v>1</v>
+      </c>
+      <c r="AW44">
+        <f>AW42-AW41</f>
+        <v>972</v>
+      </c>
+      <c r="AX44">
+        <f>AX42-AX41</f>
+        <v>31</v>
+      </c>
+      <c r="AY44">
+        <f>AY42-AY41</f>
+        <v>46</v>
+      </c>
+      <c r="BA44" s="5">
+        <v>43886</v>
+      </c>
+      <c r="BB44">
+        <v>51</v>
+      </c>
+      <c r="BC44">
+        <f>(BB44/BB43)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:65" ht="19.5">
+      <c r="C45">
+        <f>H44*D45</f>
+        <v>903.72136314638328</v>
+      </c>
+      <c r="D45">
+        <f>D44/1.1100000000000001</f>
+        <v>0.067443350030819707</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>day four</t>
+        </is>
+      </c>
+      <c r="G45" s="2">
+        <f>H45*35</f>
+        <v>500620.11395593244</v>
+      </c>
+      <c r="H45">
+        <f>H44+C45</f>
+        <v>14303.431827312355</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="BA45" s="5">
+        <v>43887</v>
+      </c>
+      <c r="BB45">
+        <v>57</v>
+      </c>
+      <c r="BC45">
+        <f>(BB45/BB44)-1</f>
+        <v>0.11764705882352944</v>
+      </c>
+    </row>
+    <row r="46" spans="1:65" ht="19.5">
+      <c r="C46">
+        <f>H45*D46</f>
+        <v>869.07329673098582</v>
+      </c>
+      <c r="D46">
+        <f>D45/1.1100000000000001</f>
+        <v>0.060759774802540273</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>day five</t>
+        </is>
+      </c>
+      <c r="G46" s="2">
+        <f>H46*35</f>
+        <v>531037.67934151692</v>
+      </c>
+      <c r="H46">
+        <f>H45+C46</f>
+        <v>15172.50512404334</v>
+      </c>
+      <c r="J46" t="inlineStr">
         <is>
           <t>*preliminary*</t>
         </is>
       </c>
-      <c r="BA43" s="5">
-        <v>43885</v>
-      </c>
-      <c r="BB43">
-        <v>51</v>
-      </c>
-      <c r="BC43">
-        <f>(BB43/BB42)-1</f>
-        <v>2.3999999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:65" ht="19.5">
-      <c r="C44">
-        <f>H43*D44</f>
-        <v>674.75145130338444</v>
-      </c>
-      <c r="D44">
-        <f>D43/1.1100000000000001</f>
-        <v>0.056348967855803192</v>
-      </c>
-      <c r="E44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" t="inlineStr">
+      <c r="BA46" s="5">
+        <v>43888</v>
+      </c>
+      <c r="BB46">
+        <v>58</v>
+      </c>
+      <c r="BC46">
+        <f>(BB46/BB45)-1</f>
+        <v>0.017543859649122862</v>
+      </c>
+    </row>
+    <row r="47" spans="1:65" ht="19.5">
+      <c r="C47">
+        <f>H46*D47</f>
+        <v>830.52071579032588</v>
+      </c>
+      <c r="D47">
+        <f>D46/1.1100000000000001</f>
+        <v>0.054738535858144387</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" t="inlineStr">
         <is>
-          <t>day four</t>
+          <t>above: moving target</t>
         </is>
       </c>
-      <c r="G44" s="2">
-        <f>H44*50</f>
-        <v>632463.22538464144</v>
-      </c>
-      <c r="H44">
-        <f>H43+C44</f>
-        <v>12649.264507692829</v>
-      </c>
-      <c r="J44" s="1"/>
-      <c r="K44" t="inlineStr">
+      <c r="G47" s="2">
+        <f>H47*35</f>
+        <v>560105.9043941783</v>
+      </c>
+      <c r="H47">
+        <f>H46+C47</f>
+        <v>16003.025839833666</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" t="inlineStr">
         <is>
           <t>TODAY:</t>
         </is>
       </c>
-      <c r="M44" s="6">
-        <f>(M41/M40)-1</f>
-        <v>0.098412698412698507</v>
-      </c>
-      <c r="N44" s="6">
-        <f>(N41/N40)-1</f>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="O44" s="6">
-        <f>(O41/O40)-1</f>
-        <v>0.23076923076923084</v>
-      </c>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="6">
-        <f>(Q41/Q40)-1</f>
-        <v>0.097892590074779129</v>
-      </c>
-      <c r="R44" s="6">
-        <f>(R41/R40)-1</f>
-        <v>0.072463768115942129</v>
-      </c>
-      <c r="S44" s="6">
-        <f>(S41/S40)-1</f>
-        <v>0.17333333333333334</v>
-      </c>
-      <c r="T44" s="4"/>
-      <c r="U44" s="6">
-        <f>(U41/U40)-1</f>
-        <v>0.091617040769583102</v>
-      </c>
-      <c r="V44" s="6">
-        <f>(V41/V40)-1</f>
-        <v>0.1029082774049217</v>
-      </c>
-      <c r="W44" s="6">
-        <f>(W41/W40)-1</f>
-        <v>0.25641025641025639</v>
-      </c>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="6">
-        <f>(Y41/Y40)-1</f>
-        <v>0.061040557148709595</v>
-      </c>
-      <c r="Z44" s="6">
-        <f>(Z41/Z40)-1</f>
-        <v>0.031626506024096335</v>
-      </c>
-      <c r="AA44" s="6">
-        <f>(AA41/AA40)-1</f>
-        <v>0.1404494382022472</v>
-      </c>
-      <c r="AB44" s="4"/>
-      <c r="AC44" s="6">
-        <f>(AC41/AC40)-1</f>
-        <v>0.1707317073170731</v>
-      </c>
-      <c r="AD44" s="6">
-        <f>(AD41/AD40)-1</f>
-        <v>0.076923076923076872</v>
-      </c>
-      <c r="AE44" s="6">
-        <f>(AE41/AE40)-1</f>
-        <v>0.21428571428571419</v>
-      </c>
-      <c r="AF44" s="4"/>
-      <c r="AG44" s="6">
-        <f>(AG41/AG40)-1</f>
-        <v>0.048275862068965614</v>
-      </c>
-      <c r="AH44" s="6">
-        <f>(AH41/AH40)-1</f>
-        <v>-0.1428571428571429</v>
-      </c>
-      <c r="AI44" s="6">
-        <f>(AI41/AI40)-1</f>
-        <v>0.076923076923076872</v>
-      </c>
-      <c r="AJ44" s="4"/>
-      <c r="AK44" s="6">
-        <f>(AK41/AK40)-1</f>
-        <v>0.13461538461538458</v>
-      </c>
-      <c r="AL44" s="6">
-        <f>(AL41/AL40)-1</f>
+      <c r="M47" s="6">
+        <f>(M42/M41)-1</f>
+        <v>0.12138728323699421</v>
+      </c>
+      <c r="N47" s="6">
+        <f>(N42/N41)-1</f>
+        <v>0.1875</v>
+      </c>
+      <c r="O47" s="6">
+        <f>(O42/O41)-1</f>
         <v>0.25</v>
       </c>
-      <c r="AM44" s="6">
-        <f>(AM41/AM40)-1</f>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="6">
+        <f>(Q42/Q41)-1</f>
+        <v>0.13436532507739929</v>
+      </c>
+      <c r="R47" s="6">
+        <f>(R42/R41)-1</f>
+        <v>0.050675675675675658</v>
+      </c>
+      <c r="S47" s="6">
+        <f>(S42/S41)-1</f>
+        <v>0.14772727272727271</v>
+      </c>
+      <c r="T47" s="4"/>
+      <c r="U47" s="6">
+        <f>(U42/U41)-1</f>
+        <v>0.13932018464120866</v>
+      </c>
+      <c r="V47" s="6">
+        <f>(V42/V41)-1</f>
+        <v>0.042596348884381241</v>
+      </c>
+      <c r="W47" s="6">
+        <f>(W42/W41)-1</f>
+        <v>0.091836734693877542</v>
+      </c>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="6">
+        <f>(Y42/Y41)-1</f>
+        <v>0.043822393822393835</v>
+      </c>
+      <c r="Z47" s="6">
+        <f>(Z42/Z41)-1</f>
+        <v>-0.013138686131386912</v>
+      </c>
+      <c r="AA47" s="6">
+        <f>(AA42/AA41)-1</f>
+        <v>0.083743842364532028</v>
+      </c>
+      <c r="AB47" s="4"/>
+      <c r="AC47" s="6">
+        <f>(AC42/AC41)-1</f>
+        <v>0.20833333333333326</v>
+      </c>
+      <c r="AD47" s="6">
+        <f>(AD42/AD41)-1</f>
+        <v>-0.035714285714285698</v>
+      </c>
+      <c r="AE47" s="6">
+        <f>(AE42/AE41)-1</f>
+        <v>0.058823529411764719</v>
+      </c>
+      <c r="AF47" s="4"/>
+      <c r="AG47" s="6">
+        <f>(AG42/AG41)-1</f>
+        <v>0.125</v>
+      </c>
+      <c r="AH47" s="6">
+        <f>(AH42/AH41)-1</f>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="AI47" s="6">
+        <f>(AI42/AI41)-1</f>
+        <v>0.071428571428571397</v>
+      </c>
+      <c r="AJ47" s="4"/>
+      <c r="AK47" s="6">
+        <f>(AK42/AK41)-1</f>
+        <v>0.11864406779661008</v>
+      </c>
+      <c r="AL47" s="6">
+        <f>(AL42/AL41)-1</f>
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="AM47" s="6">
+        <f>(AM42/AM41)-1</f>
         <v>0</v>
       </c>
-      <c r="AN44" s="4"/>
-      <c r="AO44" s="6">
-        <f>(AO41/AO40)-1</f>
-        <v>0.1223021582733812</v>
-      </c>
-      <c r="AP44" s="6">
-        <f>(AP41/AP40)-1</f>
+      <c r="AN47" s="4"/>
+      <c r="AO47" s="6">
+        <f>(AO42/AO41)-1</f>
+        <v>0.1858974358974359</v>
+      </c>
+      <c r="AP47" s="6">
+        <f>(AP42/AP41)-1</f>
+        <v>-0.058823529411764719</v>
+      </c>
+      <c r="AQ47" s="6">
+        <f>(AQ42/AQ41)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AR47" s="4"/>
+      <c r="AS47" s="6">
+        <f>(AS42/AS41)-1</f>
+        <v>0.12039312039312033</v>
+      </c>
+      <c r="AT47" s="6"/>
+      <c r="AU47" s="6">
+        <f>(AU42/AU41)-1</f>
+        <v>0.25</v>
+      </c>
+      <c r="AV47" s="4"/>
+      <c r="AW47" s="6">
+        <f>(AW42/AW41)-1</f>
+        <v>0.092237616245967047</v>
+      </c>
+      <c r="AX47" s="6">
+        <f>(AX42/AX41)-1</f>
+        <v>0.01984635083226638</v>
+      </c>
+      <c r="AY47" s="6">
+        <f>(AY42/AY41)-1</f>
+        <v>0.1026785714285714</v>
+      </c>
+      <c r="BA47" s="5">
+        <v>43889</v>
+      </c>
+      <c r="BB47">
+        <v>60</v>
+      </c>
+      <c r="BC47">
+        <f>(BB47/BB46)-1</f>
+        <v>0.034482758620689724</v>
+      </c>
+    </row>
+    <row r="48" spans="1:65" ht="19.5">
+      <c r="C48">
+        <f>H47*D48</f>
+        <v>789.17315655184348</v>
+      </c>
+      <c r="D48">
+        <f>D47/1.1100000000000001</f>
+        <v>0.049313996268598545</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="5">
+        <v>43938</v>
+      </c>
+      <c r="G48" s="2">
+        <f>H48*35</f>
+        <v>587726.96487349283</v>
+      </c>
+      <c r="H48">
+        <f>H47+C48</f>
+        <v>16792.198996385509</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="BA48" s="5">
+        <v>43890</v>
+      </c>
+      <c r="BB48">
+        <v>68</v>
+      </c>
+      <c r="BC48">
+        <f>(BB48/BB47)-1</f>
         <v>0.1333333333333333</v>
       </c>
-      <c r="AQ44" s="6">
-        <f>(AQ41/AQ40)-1</f>
-        <v>0.16666666666666674</v>
-      </c>
-      <c r="AR44" s="4"/>
-      <c r="AS44" s="6">
-        <f>(AS41/AS40)-1</f>
-        <v>0.038265306122448939</v>
-      </c>
-      <c r="AT44" s="6"/>
-      <c r="AU44" s="6">
-        <f>(AU41/AU40)-1</f>
-        <v>1</v>
-      </c>
-      <c r="AV44" s="4"/>
-      <c r="AW44" s="6">
-        <f>(AW41/AW40)-1</f>
-        <v>0.077064595257563262</v>
-      </c>
-      <c r="AX44" s="6">
-        <f>(AX41/AX40)-1</f>
-        <v>0.066939890710382421</v>
-      </c>
-      <c r="AY44" s="6">
-        <f>(AY41/AY40)-1</f>
-        <v>0.17894736842105252</v>
-      </c>
-      <c r="BA44" s="5">
-        <v>43886</v>
-      </c>
-      <c r="BB44">
-        <v>51</v>
-      </c>
-      <c r="BC44">
-        <f>(BB44/BB43)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:65" ht="19.5">
-      <c r="C45">
-        <f>H44*D45</f>
-        <v>642.13783706624815</v>
-      </c>
-      <c r="D45">
-        <f>D44/1.1100000000000001</f>
-        <v>0.050764835906128999</v>
-      </c>
-      <c r="E45" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>day five</t>
-        </is>
-      </c>
-      <c r="G45" s="2">
-        <f>H45*50</f>
-        <v>664570.11723795382</v>
-      </c>
-      <c r="H45">
-        <f>H44+C45</f>
-        <v>13291.402344759077</v>
-      </c>
-      <c r="BA45" s="5">
-        <v>43887</v>
-      </c>
-      <c r="BB45">
-        <v>57</v>
-      </c>
-      <c r="BC45">
-        <f>(BB45/BB44)-1</f>
-        <v>0.11764705882352944</v>
-      </c>
-    </row>
-    <row r="46" spans="1:65" ht="19.5">
-      <c r="C46">
-        <f>H45*D46</f>
-        <v>607.8701432378673</v>
-      </c>
-      <c r="D46">
-        <f>D45/1.1100000000000001</f>
-        <v>0.045734086401918013</v>
-      </c>
-      <c r="E46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>above: moving target</t>
-        </is>
-      </c>
-      <c r="G46" s="2">
-        <f>H46*50</f>
-        <v>694963.62439984723</v>
-      </c>
-      <c r="H46">
-        <f>H45+C46</f>
-        <v>13899.272487996945</v>
-      </c>
-      <c r="BA46" s="5">
-        <v>43888</v>
-      </c>
-      <c r="BB46">
-        <v>58</v>
-      </c>
-      <c r="BC46">
-        <f>(BB46/BB45)-1</f>
-        <v>0.017543859649122862</v>
-      </c>
-    </row>
-    <row r="47" spans="1:65" ht="19.5">
-      <c r="C47">
-        <f>H46*D47</f>
-        <v>572.67615215302169</v>
-      </c>
-      <c r="D47">
-        <f>D46/1.1100000000000001</f>
-        <v>0.041201879641367574</v>
-      </c>
-      <c r="E47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="5">
-        <v>43937</v>
-      </c>
-      <c r="G47" s="2">
-        <f>H47*50</f>
-        <v>723597.43200749834</v>
-      </c>
-      <c r="H47">
-        <f>H46+C47</f>
-        <v>14471.948640149967</v>
-      </c>
-      <c r="K47" t="inlineStr">
+    </row>
+    <row r="49" spans="1:65" ht="19.5">
+      <c r="C49">
+        <f>H48*D49</f>
+        <v>746.02742220659377</v>
+      </c>
+      <c r="D49">
+        <f>D48/1.1100000000000001</f>
+        <v>0.044427023665404089</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="5">
+        <v>43939</v>
+      </c>
+      <c r="G49" s="2">
+        <f>H49*35</f>
+        <v>613837.92465072358</v>
+      </c>
+      <c r="H49">
+        <f>H48+C49</f>
+        <v>17538.226418592101</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="BA49" s="5">
+        <v>43891</v>
+      </c>
+      <c r="BB49">
+        <v>74</v>
+      </c>
+      <c r="BC49">
+        <f>(BB49/BB48)-1</f>
+        <v>0.088235294117646967</v>
+      </c>
+    </row>
+    <row r="50" spans="1:65" ht="19.5">
+      <c r="C50">
+        <f>H49*D50</f>
+        <v>701.95603616937512</v>
+      </c>
+      <c r="D50">
+        <f>D49/1.1100000000000001</f>
+        <v>0.040024345644508186</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="5">
+        <v>43940</v>
+      </c>
+      <c r="G50" s="2">
+        <f>H50*35</f>
+        <v>638406.38591665169</v>
+      </c>
+      <c r="H50">
+        <f>H49+C50</f>
+        <v>18240.182454761478</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" t="inlineStr">
         <is>
           <t>Yesterday:</t>
         </is>
       </c>
-      <c r="M47" s="6">
+      <c r="M50" s="6">
+        <f>0.10000000000000001</f>
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="N50" s="6">
+        <f>0.28000000000000003</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O50" s="6">
+        <f>0.23000000000000001</f>
+        <v>0.23000000000000001</v>
+      </c>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6">
+        <f>0.10000000000000001</f>
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="R50" s="6">
+        <f>0.070000000000000007</f>
+        <v>0.070000000000000007</v>
+      </c>
+      <c r="S50" s="6">
+        <f>0.17000000000000001</f>
+        <v>0.17000000000000001</v>
+      </c>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6">
+        <f>0.089999999999999997</f>
+        <v>0.089999999999999997</v>
+      </c>
+      <c r="V50" s="6">
+        <f>0.10000000000000001</f>
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="W50" s="6">
+        <f>0.26000000000000001</f>
+        <v>0.26000000000000001</v>
+      </c>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6">
+        <f>0.059999999999999998</f>
+        <v>0.059999999999999998</v>
+      </c>
+      <c r="Z50" s="6">
+        <f>0.029999999999999999</f>
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="AA50" s="6">
+        <f>0.14000000000000001</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AB50" s="6"/>
+      <c r="AC50" s="6">
+        <f>0.17000000000000001</f>
+        <v>0.17000000000000001</v>
+      </c>
+      <c r="AD50" s="6">
         <f>0.080000000000000002</f>
         <v>0.080000000000000002</v>
       </c>
-      <c r="N47" s="6">
+      <c r="AE50" s="6">
+        <f>0.20999999999999999</f>
+        <v>0.20999999999999999</v>
+      </c>
+      <c r="AF50" s="6"/>
+      <c r="AG50" s="6">
+        <f>0.050000000000000003</f>
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="AH50" s="6">
+        <f>-0.14000000000000001</f>
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="AI50" s="6">
+        <f>0.080000000000000002</f>
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="AJ50" s="6"/>
+      <c r="AK50" s="6">
+        <f>0.13</f>
+        <v>0.13</v>
+      </c>
+      <c r="AL50" s="6">
         <f>0.25</f>
         <v>0.25</v>
       </c>
-      <c r="O47" s="6">
+      <c r="AM50" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN50" s="6"/>
+      <c r="AO50" s="6">
+        <f>0.12</f>
+        <v>0.12</v>
+      </c>
+      <c r="AP50" s="6">
+        <f>0.13</f>
+        <v>0.13</v>
+      </c>
+      <c r="AQ50" s="6">
+        <f>0.17000000000000001</f>
+        <v>0.17000000000000001</v>
+      </c>
+      <c r="AR50" s="6"/>
+      <c r="AS50" s="6">
+        <f>0.040000000000000001</f>
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="AT50" s="6"/>
+      <c r="AU50" s="6">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="AV50" s="6"/>
+      <c r="AW50" s="6">
         <f>0.080000000000000002</f>
         <v>0.080000000000000002</v>
       </c>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6">
-        <f>0.14000000000000001</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="R47" s="6">
-        <f>0.10000000000000001</f>
-        <v>0.10000000000000001</v>
-      </c>
-      <c r="S47" s="6">
-        <f>0.10000000000000001</f>
-        <v>0.10000000000000001</v>
-      </c>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6">
-        <f>0.12</f>
-        <v>0.12</v>
-      </c>
-      <c r="V47" s="6">
-        <f>0.040000000000000001</f>
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="W47" s="6">
-        <f>0.11</f>
-        <v>0.11</v>
-      </c>
-      <c r="X47" s="6"/>
-      <c r="Y47" s="6">
-        <f>0.11</f>
-        <v>0.11</v>
-      </c>
-      <c r="Z47" s="6">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="AA47" s="6">
-        <f>0.14999999999999999</f>
-        <v>0.14999999999999999</v>
-      </c>
-      <c r="AB47" s="6"/>
-      <c r="AC47" s="6">
+      <c r="AX50" s="6">
+        <f>0.070000000000000007</f>
+        <v>0.070000000000000007</v>
+      </c>
+      <c r="AY50" s="6">
         <f>0.17999999999999999</f>
         <v>0.17999999999999999</v>
       </c>
-      <c r="AD47" s="6">
-        <f>-0.070000000000000007</f>
-        <v>-0.070000000000000007</v>
-      </c>
-      <c r="AE47" s="6">
-        <f>0.56000000000000005</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AF47" s="6"/>
-      <c r="AG47" s="6">
-        <f>0.13</f>
-        <v>0.13</v>
-      </c>
-      <c r="AH47" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI47" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ47" s="6"/>
-      <c r="AK47" s="6">
-        <f>0.059999999999999998</f>
-        <v>0.059999999999999998</v>
-      </c>
-      <c r="AL47" s="6">
-        <f>0.33000000000000002</f>
-        <v>0.33000000000000002</v>
-      </c>
-      <c r="AM47" s="6">
-        <v>0</v>
-      </c>
-      <c r="AN47" s="6"/>
-      <c r="AO47" s="6">
-        <f>0.16</f>
-        <v>0.16</v>
-      </c>
-      <c r="AP47" s="6">
-        <f>-0.059999999999999998</f>
-        <v>-0.059999999999999998</v>
-      </c>
-      <c r="AQ47" s="6">
-        <f>0.20000000000000001</f>
-        <v>0.20000000000000001</v>
-      </c>
-      <c r="AR47" s="6"/>
-      <c r="AS47" s="6">
-        <f>0.070000000000000007</f>
-        <v>0.070000000000000007</v>
-      </c>
-      <c r="AT47" s="6"/>
-      <c r="AU47" s="6">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="AV47" s="6"/>
-      <c r="AW47" s="6">
-        <f>0.11</f>
-        <v>0.11</v>
-      </c>
-      <c r="AX47" s="6">
-        <f>0.029999999999999999</f>
-        <v>0.029999999999999999</v>
-      </c>
-      <c r="AY47" s="6">
-        <f>0.13</f>
-        <v>0.13</v>
-      </c>
-      <c r="BA47" s="5">
-        <v>43889</v>
-      </c>
-      <c r="BB47">
-        <v>60</v>
-      </c>
-      <c r="BC47">
-        <f>(BB47/BB46)-1</f>
-        <v>0.034482758620689724</v>
-      </c>
-    </row>
-    <row r="48" spans="1:65" ht="19.5">
-      <c r="C48">
-        <f>H47*D48</f>
-        <v>537.18151896172253</v>
-      </c>
-      <c r="D48">
-        <f>D47/1.1100000000000001</f>
-        <v>0.037118810487718534</v>
-      </c>
-      <c r="E48" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="5">
-        <v>43938</v>
-      </c>
-      <c r="G48" s="2">
-        <f>H48*50</f>
-        <v>750456.50795558444</v>
-      </c>
-      <c r="H48">
-        <f>H47+C48</f>
-        <v>15009.13015911169</v>
-      </c>
-      <c r="I48" t="inlineStr">
+      <c r="BA50" s="5">
+        <v>43892</v>
+      </c>
+      <c r="BB50">
+        <v>98</v>
+      </c>
+      <c r="BC50">
+        <f>(BB50/BB49)-1</f>
+        <v>0.32432432432432434</v>
+      </c>
+    </row>
+    <row r="51" spans="1:65" ht="19.5">
+      <c r="C51">
+        <f>H50*D51</f>
+        <v>657.7039344038443</v>
+      </c>
+      <c r="D51">
+        <f>D50/1.1100000000000001</f>
+        <v>0.036057969049106471</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="5">
+        <v>43941</v>
+      </c>
+      <c r="G51" s="2">
+        <f>H51*35</f>
+        <v>661426.02362078638</v>
+      </c>
+      <c r="H51">
+        <f>H50+C51</f>
+        <v>18897.886389165324</v>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>&lt;&lt; transmission under 4 percent growth (per day)</t>
         </is>
       </c>
-      <c r="BA48" s="5">
-        <v>43890</v>
-      </c>
-      <c r="BB48">
-        <v>68</v>
-      </c>
-      <c r="BC48">
-        <f>(BB48/BB47)-1</f>
-        <v>0.1333333333333333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:65" ht="19.5">
-      <c r="C49">
-        <f>H48*D49</f>
-        <v>557.12105796156754</v>
-      </c>
-      <c r="D49">
-        <f>D48</f>
-        <v>0.037118810487718534</v>
-      </c>
-      <c r="E49" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="5">
-        <v>43939</v>
-      </c>
-      <c r="G49" s="2">
-        <f>H49*50</f>
-        <v>778312.5608536629</v>
-      </c>
-      <c r="H49">
-        <f>H48+C49</f>
-        <v>15566.251217073257</v>
-      </c>
-      <c r="I49" t="inlineStr">
+      <c r="BA51" s="5">
+        <v>43893</v>
+      </c>
+      <c r="BB51">
+        <v>118</v>
+      </c>
+      <c r="BC51">
+        <f>(BB51/BB50)-1</f>
+        <v>0.20408163265306123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:65" ht="19.5">
+      <c r="C52">
+        <f>H51*D52</f>
+        <v>681.41940251405367</v>
+      </c>
+      <c r="D52">
+        <f>D51</f>
+        <v>0.036057969049106471</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="5">
+        <v>43942</v>
+      </c>
+      <c r="G52" s="2">
+        <f>H52*35</f>
+        <v>685275.7027087782</v>
+      </c>
+      <c r="H52">
+        <f>H51+C52</f>
+        <v>19579.305791679377</v>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>(four percent arbitrarily chosen)</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="P52" t="inlineStr">
         <is>
           <t>older Source: https://portal.ct.gov/Coronavirus/Pages/Governors-Press-Releases</t>
         </is>
       </c>
-      <c r="AQ49" s="6"/>
-      <c r="AU49" s="6" t="inlineStr">
+      <c r="AQ52" s="6"/>
+      <c r="AU52" s="6" t="inlineStr">
         <is>
           <t>r: +3</t>
         </is>
       </c>
-      <c r="BA49" s="5">
-        <v>43891</v>
-      </c>
-      <c r="BB49">
-        <v>74</v>
-      </c>
-      <c r="BC49">
-        <f>(BB49/BB48)-1</f>
-        <v>0.088235294117646967</v>
-      </c>
-    </row>
-    <row r="50" spans="1:65" ht="19.5">
-      <c r="C50">
-        <f>H49*D50</f>
-        <v>577.80072893076022</v>
-      </c>
-      <c r="D50">
-        <f>D49</f>
-        <v>0.037118810487718534</v>
-      </c>
-      <c r="E50" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="5">
-        <v>43940</v>
-      </c>
-      <c r="G50" s="2">
-        <f>H50*50</f>
-        <v>807202.59730020084</v>
-      </c>
-      <c r="H50">
-        <f>H49+C50</f>
-        <v>16144.051946004018</v>
-      </c>
-      <c r="J50" s="1"/>
-      <c r="AL50" t="inlineStr">
+      <c r="BA52" s="5">
+        <v>43894</v>
+      </c>
+      <c r="BB52">
+        <v>149</v>
+      </c>
+      <c r="BC52">
+        <f>(BB52/BB51)-1</f>
+        <v>0.26271186440677963</v>
+      </c>
+    </row>
+    <row r="53" spans="1:65" ht="19.5">
+      <c r="C53">
+        <f>H52*D53</f>
+        <v>705.99000223936605</v>
+      </c>
+      <c r="D53">
+        <f>D52</f>
+        <v>0.036057969049106471</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="5">
+        <v>43943</v>
+      </c>
+      <c r="G53" s="2">
+        <f>H53*35</f>
+        <v>709985.35278715601</v>
+      </c>
+      <c r="H53">
+        <f>H52+C53</f>
+        <v>20285.295793918744</v>
+      </c>
+      <c r="J53" s="1"/>
+      <c r="AL53" t="inlineStr">
         <is>
           <t>any zero-to-positive int gets the 'r: +n' entry.</t>
         </is>
       </c>
-      <c r="BA50" s="5">
-        <v>43892</v>
-      </c>
-      <c r="BB50">
-        <v>98</v>
-      </c>
-      <c r="BC50">
-        <f>(BB50/BB49)-1</f>
-        <v>0.32432432432432434</v>
-      </c>
-    </row>
-    <row r="51" spans="1:65" ht="19.5">
-      <c r="C51">
-        <f>H50*D51</f>
-        <v>599.24800468760679</v>
-      </c>
-      <c r="D51">
-        <f>D50</f>
-        <v>0.037118810487718534</v>
-      </c>
-      <c r="E51" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="5">
-        <v>43941</v>
-      </c>
-      <c r="G51" s="2">
-        <f>H51*50</f>
-        <v>837164.99753458123</v>
-      </c>
-      <c r="H51">
-        <f>H50+C51</f>
-        <v>16743.299950691624</v>
-      </c>
-      <c r="P51" t="inlineStr">
+      <c r="BA53" s="5">
+        <v>43895</v>
+      </c>
+      <c r="BB53">
+        <v>217</v>
+      </c>
+      <c r="BC53">
+        <f>(BB53/BB52)-1</f>
+        <v>0.4563758389261745</v>
+      </c>
+    </row>
+    <row r="54" spans="1:65" ht="19.5">
+      <c r="C54">
+        <f>H53*D54</f>
+        <v>731.44656788909174</v>
+      </c>
+      <c r="D54">
+        <f>D53</f>
+        <v>0.036057969049106471</v>
+      </c>
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="5">
+        <v>43944</v>
+      </c>
+      <c r="G54" s="2">
+        <f>H54*35</f>
+        <v>735585.98266327428</v>
+      </c>
+      <c r="H54">
+        <f>H53+C54</f>
+        <v>21016.742361807836</v>
+      </c>
+      <c r="P54" t="inlineStr">
         <is>
           <t>recent Source: https://portal.ct.gov/-/media/Coronavirus/CTDPHCOVID19summary3312020.pdf?la=en</t>
         </is>
       </c>
-      <c r="BA51" s="5">
-        <v>43893</v>
-      </c>
-      <c r="BB51">
-        <v>118</v>
-      </c>
-      <c r="BC51">
-        <f>(BB51/BB50)-1</f>
-        <v>0.20408163265306123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:65" ht="19.5">
-      <c r="C52">
-        <f>H51*D52</f>
-        <v>621.49137780874946</v>
-      </c>
-      <c r="D52">
-        <f>D51</f>
-        <v>0.037118810487718534</v>
-      </c>
-      <c r="E52" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="5">
-        <v>43942</v>
-      </c>
-      <c r="G52" s="2">
-        <f>H52*50</f>
-        <v>868239.56642501871</v>
-      </c>
-      <c r="H52">
-        <f>H51+C52</f>
-        <v>17364.791328500374</v>
-      </c>
-      <c r="BA52" s="5">
-        <v>43894</v>
-      </c>
-      <c r="BB52">
-        <v>149</v>
-      </c>
-      <c r="BC52">
-        <f>(BB52/BB51)-1</f>
-        <v>0.26271186440677963</v>
-      </c>
-    </row>
-    <row r="53" spans="1:65" ht="19.5">
-      <c r="C53">
-        <f>H52*D53</f>
-        <v>644.56039848138357</v>
-      </c>
-      <c r="D53">
-        <f>D52</f>
-        <v>0.037118810487718534</v>
-      </c>
-      <c r="E53" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="5">
-        <v>43943</v>
-      </c>
-      <c r="G53" s="2">
-        <f>H53*50</f>
-        <v>900467.58634908788</v>
-      </c>
-      <c r="H53">
-        <f>H52+C53</f>
-        <v>18009.351726981757</v>
-      </c>
-      <c r="I53" t="inlineStr">
+      <c r="BA54" s="5">
+        <v>43896</v>
+      </c>
+      <c r="BB54">
+        <v>262</v>
+      </c>
+      <c r="BC54">
+        <f>(BB54/BB53)-1</f>
+        <v>0.20737327188940102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:65" ht="19.5">
+      <c r="C55">
+        <f>H54*D55</f>
+        <v>757.82104559511174</v>
+      </c>
+      <c r="D55">
+        <f>D54</f>
+        <v>0.036057969049106471</v>
+      </c>
+      <c r="E55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="5">
+        <v>43945</v>
+      </c>
+      <c r="G55" s="2">
+        <f>H55*35</f>
+        <v>762109.71925910318</v>
+      </c>
+      <c r="H55">
+        <f>H54+C55</f>
+        <v>21774.563407402948</v>
+      </c>
+      <c r="BA55" s="5">
+        <v>43897</v>
+      </c>
+      <c r="BB55">
+        <v>402</v>
+      </c>
+      <c r="BC55">
+        <f>(BB55/BB54)-1</f>
+        <v>0.53435114503816794</v>
+      </c>
+    </row>
+    <row r="56" spans="1:65" ht="19.5">
+      <c r="C56">
+        <f>H55*D56</f>
+        <v>785.14653340194184</v>
+      </c>
+      <c r="D56">
+        <f>D55</f>
+        <v>0.036057969049106471</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="5">
+        <v>43946</v>
+      </c>
+      <c r="G56" s="2">
+        <f>H56*35</f>
+        <v>789589.84792817116</v>
+      </c>
+      <c r="H56">
+        <f>H55+C56</f>
+        <v>22559.709940804889</v>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
-          <t>&lt;&lt; 900 thousand (50x measured)</t>
+          <t>&lt;&lt; 790 thousand (35x measured)</t>
         </is>
       </c>
-      <c r="P53" t="inlineStr">
+      <c r="P56" t="inlineStr">
         <is>
           <t>export: $ ssconvert -T Gnumeric_stf:stf_csv thisfile.gnumeric thisfile.csv</t>
         </is>
       </c>
-      <c r="BA53" s="5">
-        <v>43895</v>
-      </c>
-      <c r="BB53">
-        <v>217</v>
-      </c>
-      <c r="BC53">
-        <f>(BB53/BB52)-1</f>
-        <v>0.4563758389261745</v>
-      </c>
-    </row>
-    <row r="54" spans="1:65" ht="19.5">
-      <c r="C54">
-        <f>H53*D54</f>
-        <v>668.48571376050234</v>
-      </c>
-      <c r="D54">
-        <f>D53</f>
-        <v>0.037118810487718534</v>
-      </c>
-      <c r="E54" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="5">
-        <v>43944</v>
-      </c>
-      <c r="G54" s="2">
-        <f>H54*50</f>
-        <v>933891.87203711295</v>
-      </c>
-      <c r="H54">
-        <f>H53+C54</f>
-        <v>18677.83744074226</v>
-      </c>
-      <c r="BA54" s="5">
-        <v>43896</v>
-      </c>
-      <c r="BB54">
-        <v>262</v>
-      </c>
-      <c r="BC54">
-        <f>(BB54/BB53)-1</f>
-        <v>0.20737327188940102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:65" ht="19.5">
-      <c r="C55">
-        <f>H54*D55</f>
-        <v>693.29910828332572</v>
-      </c>
-      <c r="D55">
-        <f>D54</f>
-        <v>0.037118810487718534</v>
-      </c>
-      <c r="E55" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="5">
-        <v>43945</v>
-      </c>
-      <c r="G55" s="2">
-        <f>H55*50</f>
-        <v>968556.82745127927</v>
-      </c>
-      <c r="H55">
-        <f>H54+C55</f>
-        <v>19371.136549025585</v>
-      </c>
-      <c r="P55" t="inlineStr">
+      <c r="BA56" s="5">
+        <v>43898</v>
+      </c>
+      <c r="BB56">
+        <v>518</v>
+      </c>
+      <c r="BC56">
+        <f>(BB56/BB55)-1</f>
+        <v>0.28855721393034828</v>
+      </c>
+    </row>
+    <row r="57" spans="1:65" ht="19.5">
+      <c r="C57">
+        <f>H56*D57</f>
+        <v>813.45732280236223</v>
+      </c>
+      <c r="D57">
+        <f>D56</f>
+        <v>0.036057969049106471</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="5">
+        <v>43947</v>
+      </c>
+      <c r="G57" s="2">
+        <f>H57*35</f>
+        <v>818060.85422625381</v>
+      </c>
+      <c r="H57">
+        <f>H56+C57</f>
+        <v>23373.167263607251</v>
+      </c>
+      <c r="BA57" s="5">
+        <v>43899</v>
+      </c>
+      <c r="BB57">
+        <v>583</v>
+      </c>
+      <c r="BC57">
+        <f>(BB57/BB56)-1</f>
+        <v>0.12548262548262556</v>
+      </c>
+    </row>
+    <row r="58" spans="1:65" ht="19.5">
+      <c r="C58">
+        <f>H57*D58</f>
+        <v>842.7889417707388</v>
+      </c>
+      <c r="D58">
+        <f>D57</f>
+        <v>0.036057969049106471</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="5">
+        <v>43948</v>
+      </c>
+      <c r="G58" s="2">
+        <f>H58*35</f>
+        <v>847558.46718822955</v>
+      </c>
+      <c r="H58">
+        <f>H57+C58</f>
+        <v>24215.956205377988</v>
+      </c>
+      <c r="P58" t="inlineStr">
         <is>
           <t>March 31: Hospitalization by county presented in a graphic (only?)</t>
         </is>
       </c>
-      <c r="BA55" s="5">
-        <v>43897</v>
-      </c>
-      <c r="BB55">
-        <v>402</v>
-      </c>
-      <c r="BC55">
-        <f>(BB55/BB54)-1</f>
-        <v>0.53435114503816794</v>
-      </c>
-    </row>
-    <row r="56" spans="1:65" ht="19.5">
-      <c r="C56">
-        <f>H55*D56</f>
-        <v>719.03354649499875</v>
-      </c>
-      <c r="D56">
-        <f>D55</f>
-        <v>0.037118810487718534</v>
-      </c>
-      <c r="E56" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" s="5">
-        <v>43946</v>
-      </c>
-      <c r="G56" s="2">
-        <f>H56*50</f>
-        <v>1004508.5047760293</v>
-      </c>
-      <c r="H56">
-        <f>H55+C56</f>
-        <v>20090.170095520585</v>
-      </c>
-      <c r="BA56" s="5">
-        <v>43898</v>
-      </c>
-      <c r="BB56">
-        <v>518</v>
-      </c>
-      <c r="BC56">
-        <f>(BB56/BB55)-1</f>
-        <v>0.28855721393034828</v>
-      </c>
-    </row>
-    <row r="57" spans="1:65" ht="19.5">
-      <c r="C57">
-        <f>H56*D57</f>
-        <v>745.72321644165879</v>
-      </c>
-      <c r="D57">
-        <f>D56</f>
-        <v>0.037118810487718534</v>
-      </c>
-      <c r="E57" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="5">
-        <v>43947</v>
-      </c>
-      <c r="G57" s="2">
-        <f>H57*50</f>
-        <v>1041794.6655981123</v>
-      </c>
-      <c r="H57">
-        <f>H56+C57</f>
-        <v>20835.893311962245</v>
-      </c>
-      <c r="P57" t="inlineStr">
+      <c r="BA58" s="5">
+        <v>43900</v>
+      </c>
+      <c r="BB58">
+        <v>959</v>
+      </c>
+      <c r="BC58">
+        <f>(BB58/BB57)-1</f>
+        <v>0.64493996569468259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:65" ht="19.5">
+      <c r="C59">
+        <f>H58*D59</f>
+        <v>873.17819934803731</v>
+      </c>
+      <c r="D59">
+        <f>D58</f>
+        <v>0.036057969049106471</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="5">
+        <v>43949</v>
+      </c>
+      <c r="G59" s="2">
+        <f>H59*35</f>
+        <v>878119.70416541083</v>
+      </c>
+      <c r="H59">
+        <f>H58+C59</f>
+        <v>25089.134404726025</v>
+      </c>
+      <c r="BA59" s="5">
+        <v>43901</v>
+      </c>
+      <c r="BB59">
+        <v>1281</v>
+      </c>
+      <c r="BC59">
+        <f>(BB59/BB58)-1</f>
+        <v>0.33576642335766427</v>
+      </c>
+    </row>
+    <row r="60" spans="1:65" ht="19.5">
+      <c r="C60">
+        <f>H59*D60</f>
+        <v>904.66323183448333</v>
+      </c>
+      <c r="D60">
+        <f>D59</f>
+        <v>0.036057969049106471</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="5">
+        <v>43950</v>
+      </c>
+      <c r="G60" s="2">
+        <f>H60*35</f>
+        <v>909782.91727961774</v>
+      </c>
+      <c r="H60">
+        <f>H59+C60</f>
+        <v>25993.797636560506</v>
+      </c>
+      <c r="P60" t="inlineStr">
         <is>
           <t>31 March 23:09 UTC: many cosmetic changes, columns deleted (or added).</t>
         </is>
       </c>
-      <c r="BA57" s="5">
-        <v>43899</v>
-      </c>
-      <c r="BB57">
-        <v>583</v>
-      </c>
-      <c r="BC57">
-        <f>(BB57/BB56)-1</f>
-        <v>0.12548262548262556</v>
-      </c>
-    </row>
-    <row r="58" spans="1:65" ht="19.5">
-      <c r="C58">
-        <f>H57*D58</f>
-        <v>773.40357518904864</v>
-      </c>
-      <c r="D58">
-        <f>D57</f>
-        <v>0.037118810487718534</v>
-      </c>
-      <c r="E58" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="5">
-        <v>43948</v>
-      </c>
-      <c r="G58" s="2">
-        <f>H58*50</f>
-        <v>1080464.8443575646</v>
-      </c>
-      <c r="H58">
-        <f>H57+C58</f>
-        <v>21609.296887151293</v>
-      </c>
-      <c r="P58" t="inlineStr">
+      <c r="BA60" s="5">
+        <v>43902</v>
+      </c>
+      <c r="BB60">
+        <v>1663</v>
+      </c>
+      <c r="BC60">
+        <f>(BB60/BB59)-1</f>
+        <v>0.29820452771272454</v>
+      </c>
+    </row>
+    <row r="61" spans="1:65" ht="19.5">
+      <c r="C61">
+        <f>H60*D61</f>
+        <v>937.28355064783568</v>
+      </c>
+      <c r="D61">
+        <f>D60</f>
+        <v>0.036057969049106471</v>
+      </c>
+      <c r="E61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="5">
+        <v>43951</v>
+      </c>
+      <c r="G61" s="2">
+        <f>H61*35</f>
+        <v>942587.841552292</v>
+      </c>
+      <c r="H61">
+        <f>H60+C61</f>
+        <v>26931.081187208343</v>
+      </c>
+      <c r="P61" t="inlineStr">
         <is>
           <t>Hopefully, no major corruption of data/forumlas present after these major edits.</t>
         </is>
       </c>
-      <c r="BA58" s="5">
-        <v>43900</v>
-      </c>
-      <c r="BB58">
-        <v>959</v>
-      </c>
-      <c r="BC58">
-        <f>(BB58/BB57)-1</f>
-        <v>0.64493996569468259</v>
-      </c>
-    </row>
-    <row r="59" spans="1:65" ht="19.5">
-      <c r="C59">
-        <f>H58*D59</f>
-        <v>802.11139592701488</v>
-      </c>
-      <c r="D59">
-        <f>D58</f>
-        <v>0.037118810487718534</v>
-      </c>
-      <c r="E59" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="5">
-        <v>43949</v>
-      </c>
-      <c r="G59" s="2">
-        <f>H59*50</f>
-        <v>1120570.4141539154</v>
-      </c>
-      <c r="H59">
-        <f>H58+C59</f>
-        <v>22411.408283078308</v>
-      </c>
-      <c r="BA59" s="5">
-        <v>43901</v>
-      </c>
-      <c r="BB59">
-        <v>1281</v>
-      </c>
-      <c r="BC59">
-        <f>(BB59/BB58)-1</f>
-        <v>0.33576642335766427</v>
-      </c>
-    </row>
-    <row r="60" spans="1:65" ht="19.5">
-      <c r="C60">
-        <f>H59*D60</f>
-        <v>831.88481682246913</v>
-      </c>
-      <c r="D60">
-        <f>D59</f>
-        <v>0.037118810487718534</v>
-      </c>
-      <c r="E60" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="5">
-        <v>43950</v>
-      </c>
-      <c r="G60" s="2">
-        <f>H60*50</f>
-        <v>1162164.6549950389</v>
-      </c>
-      <c r="H60">
-        <f>H59+C60</f>
-        <v>23243.293099900777</v>
-      </c>
-      <c r="P60" t="inlineStr">
+      <c r="BA61" s="5">
+        <v>43903</v>
+      </c>
+      <c r="BB61">
+        <v>2179</v>
+      </c>
+      <c r="BC61">
+        <f>(BB61/BB60)-1</f>
+        <v>0.31028262176788934</v>
+      </c>
+    </row>
+    <row r="62" spans="1:65" ht="19.5">
+      <c r="C62">
+        <f>H61*D62</f>
+        <v>971.08009190733196</v>
+      </c>
+      <c r="D62">
+        <f>D61</f>
+        <v>0.036057969049106471</v>
+      </c>
+      <c r="E62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="5">
+        <v>43952</v>
+      </c>
+      <c r="G62" s="2">
+        <f>H62*35</f>
+        <v>976575.64476904867</v>
+      </c>
+      <c r="H62">
+        <f>H61+C62</f>
+        <v>27902.161279115677</v>
+      </c>
+      <c r="J62" s="1"/>
+      <c r="BA62" s="5">
+        <v>43904</v>
+      </c>
+      <c r="BB62">
+        <v>2727</v>
+      </c>
+      <c r="BC62">
+        <f>(BB62/BB61)-1</f>
+        <v>0.25149150986691149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:65" ht="19.5">
+      <c r="C63">
+        <f>H62*D63</f>
+        <v>1006.0952678055301</v>
+      </c>
+      <c r="D63">
+        <f>D62</f>
+        <v>0.036057969049106471</v>
+      </c>
+      <c r="E63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="5">
+        <v>43953</v>
+      </c>
+      <c r="G63" s="2">
+        <f>H63*35</f>
+        <v>1011788.9791422422</v>
+      </c>
+      <c r="H63">
+        <f>H62+C63</f>
+        <v>28908.256546921206</v>
+      </c>
+      <c r="J63" s="1"/>
+      <c r="P63" t="inlineStr">
         <is>
           <t>1 April: Column D now formatted as percentile</t>
         </is>
       </c>
-      <c r="BA60" s="5">
-        <v>43902</v>
-      </c>
-      <c r="BB60">
-        <v>1663</v>
-      </c>
-      <c r="BC60">
-        <f>(BB60/BB59)-1</f>
-        <v>0.29820452771272454</v>
-      </c>
-    </row>
-    <row r="61" spans="1:65" ht="19.5">
-      <c r="C61">
-        <f>H60*D61</f>
-        <v>862.7633916857128</v>
-      </c>
-      <c r="D61">
-        <f>D60</f>
-        <v>0.037118810487718534</v>
-      </c>
-      <c r="E61" t="s">
-        <v>15</v>
-      </c>
-      <c r="F61" s="5">
-        <v>43951</v>
-      </c>
-      <c r="G61" s="2">
-        <f>H61*50</f>
-        <v>1205302.8245793243</v>
-      </c>
-      <c r="H61">
-        <f>H60+C61</f>
-        <v>24106.056491586489</v>
-      </c>
-      <c r="P61" t="inlineStr">
+      <c r="BA63" s="5">
+        <v>43905</v>
+      </c>
+      <c r="BB63">
+        <v>3499</v>
+      </c>
+      <c r="BC63">
+        <f>(BB63/BB62)-1</f>
+        <v>0.28309497616428314</v>
+      </c>
+    </row>
+    <row r="64" spans="1:65" ht="19.5">
+      <c r="C64">
+        <f>H63*D64</f>
+        <v>1042.3730198325143</v>
+      </c>
+      <c r="D64">
+        <f>D63</f>
+        <v>0.036057969049106471</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="5">
+        <v>43954</v>
+      </c>
+      <c r="G64" s="2">
+        <f>H64*35</f>
+        <v>1048272.0348363802</v>
+      </c>
+      <c r="H64">
+        <f>H63+C64</f>
+        <v>29950.62956675372</v>
+      </c>
+      <c r="J64" s="1"/>
+      <c r="P64" t="inlineStr">
         <is>
           <t>7 April: 1.09 becomes 1.11 for arbitrary growth reduction supposition expressed in Column D (Multiplier).</t>
         </is>
       </c>
-      <c r="BA61" s="5">
-        <v>43903</v>
-      </c>
-      <c r="BB61">
-        <v>2179</v>
-      </c>
-      <c r="BC61">
-        <f>(BB61/BB60)-1</f>
-        <v>0.31028262176788934</v>
-      </c>
-    </row>
-    <row r="62" spans="1:65" ht="19.5">
-      <c r="C62">
-        <f>H61*D62</f>
-        <v>894.78814251743597</v>
-      </c>
-      <c r="D62">
-        <f>D61</f>
-        <v>0.037118810487718534</v>
-      </c>
-      <c r="E62" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" s="5">
-        <v>43952</v>
-      </c>
-      <c r="G62" s="2">
-        <f>H62*50</f>
-        <v>1250042.2317051962</v>
-      </c>
-      <c r="H62">
-        <f>H61+C62</f>
-        <v>25000.844634103923</v>
-      </c>
-      <c r="P62" t="inlineStr">
+      <c r="BA64" s="5">
+        <v>43906</v>
+      </c>
+      <c r="BB64">
+        <v>4632</v>
+      </c>
+      <c r="BC64">
+        <f>(BB64/BB63)-1</f>
+        <v>0.32380680194341238</v>
+      </c>
+    </row>
+    <row r="65" spans="1:65" ht="19.5">
+      <c r="C65">
+        <f>H64*D65</f>
+        <v>1079.9588739192588</v>
+      </c>
+      <c r="D65">
+        <f>D64</f>
+        <v>0.036057969049106471</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="5">
+        <v>43955</v>
+      </c>
+      <c r="G65" s="2">
+        <f>H65*35</f>
+        <v>1086070.5954235543</v>
+      </c>
+      <c r="H65">
+        <f>H64+C65</f>
+        <v>31030.588440672978</v>
+      </c>
+      <c r="P65" t="inlineStr">
         <is>
           <t>7 April: Column G goes from 100x to 50x (arbitrary value chosen)</t>
         </is>
       </c>
-      <c r="BA62" s="5">
-        <v>43904</v>
-      </c>
-      <c r="BB62">
-        <v>2727</v>
-      </c>
-      <c r="BC62">
-        <f>(BB62/BB61)-1</f>
-        <v>0.25149150986691149</v>
-      </c>
-    </row>
-    <row r="63" spans="1:65" ht="19.5">
-      <c r="C63">
-        <f>H62*D63</f>
-        <v>928.00161400619834</v>
-      </c>
-      <c r="D63">
-        <f>D62</f>
-        <v>0.037118810487718534</v>
-      </c>
-      <c r="E63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63" s="5">
-        <v>43953</v>
-      </c>
-      <c r="G63" s="2">
-        <f>H63*50</f>
-        <v>1296442.3124055061</v>
-      </c>
-      <c r="H63">
-        <f>H62+C63</f>
-        <v>25928.846248110123</v>
-      </c>
-      <c r="Q63" t="inlineStr">
+      <c r="BA65" s="5">
+        <v>43907</v>
+      </c>
+      <c r="BB65">
+        <v>6421</v>
+      </c>
+      <c r="BC65">
+        <f>(BB65/BB64)-1</f>
+        <v>0.38622625215889461</v>
+      </c>
+    </row>
+    <row r="66" spans="1:65" ht="19.5">
+      <c r="C66">
+        <f>H65*D66</f>
+        <v>1118.8999975693473</v>
+      </c>
+      <c r="D66">
+        <f>D65</f>
+        <v>0.036057969049106471</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="5">
+        <v>43956</v>
+      </c>
+      <c r="G66" s="2">
+        <f>H66*35</f>
+        <v>1125232.0953384815</v>
+      </c>
+      <c r="H66">
+        <f>H65+C66</f>
+        <v>32149.488438242326</v>
+      </c>
+      <c r="Q66" t="inlineStr">
         <is>
           <t>(the 100x scaling factor was also arbitrary)</t>
         </is>
       </c>
-      <c r="BA63" s="5">
-        <v>43905</v>
-      </c>
-      <c r="BB63">
-        <v>3499</v>
-      </c>
-      <c r="BC63">
-        <f>(BB63/BB62)-1</f>
-        <v>0.28309497616428314</v>
-      </c>
-    </row>
-    <row r="64" spans="1:65" ht="19.5">
-      <c r="C64">
-        <f>H63*D64</f>
-        <v>962.44793004879136</v>
-      </c>
-      <c r="D64">
-        <f>D63</f>
-        <v>0.037118810487718534</v>
-      </c>
-      <c r="E64" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="5">
-        <v>43954</v>
-      </c>
-      <c r="G64" s="2">
-        <f>H64*50</f>
-        <v>1344564.7089079458</v>
-      </c>
-      <c r="H64">
-        <f>H63+C64</f>
-        <v>26891.294178158914</v>
-      </c>
-      <c r="J64" s="1"/>
-      <c r="P64" t="inlineStr">
+      <c r="BA66" s="5">
+        <v>43908</v>
+      </c>
+      <c r="BB66">
+        <v>7783</v>
+      </c>
+      <c r="BC66">
+        <f>(BB66/BB65)-1</f>
+        <v>0.21211649275813738</v>
+      </c>
+    </row>
+    <row r="67" spans="1:65" ht="19.5">
+      <c r="C67">
+        <f>H66*D67</f>
+        <v>1159.2452590507482</v>
+      </c>
+      <c r="D67">
+        <f>D66</f>
+        <v>0.036057969049106471</v>
+      </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="5">
+        <v>43957</v>
+      </c>
+      <c r="G67" s="2">
+        <f>H67*35</f>
+        <v>1165805.6794052576</v>
+      </c>
+      <c r="H67">
+        <f>H66+C67</f>
+        <v>33308.733697293072</v>
+      </c>
+      <c r="J67" s="1"/>
+      <c r="P67" t="inlineStr">
         <is>
           <t>7 April: Litchfield County is doubling its Confirmed cases every 6.5 days or so.</t>
         </is>
       </c>
-      <c r="BA64" s="5">
-        <v>43906</v>
-      </c>
-      <c r="BB64">
-        <v>4632</v>
-      </c>
-      <c r="BC64">
-        <f>(BB64/BB63)-1</f>
-        <v>0.32380680194341238</v>
-      </c>
-    </row>
-    <row r="65" spans="1:65" ht="19.5">
-      <c r="C65">
-        <f>H64*D65</f>
-        <v>998.17285236856947</v>
-      </c>
-      <c r="D65">
-        <f>D64</f>
-        <v>0.037118810487718534</v>
-      </c>
-      <c r="E65" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="5">
-        <v>43955</v>
-      </c>
-      <c r="G65" s="2">
-        <f>H65*50</f>
-        <v>1394473.3515263742</v>
-      </c>
-      <c r="H65">
-        <f>H64+C65</f>
-        <v>27889.467030527485</v>
-      </c>
-      <c r="Q65" t="inlineStr">
+      <c r="BA67" s="5">
+        <v>43909</v>
+      </c>
+      <c r="BB67">
+        <v>13677</v>
+      </c>
+      <c r="BC67">
+        <f>(BB67/BB66)-1</f>
+        <v>0.75729153282795836</v>
+      </c>
+    </row>
+    <row r="68" spans="1:65" ht="19.5">
+      <c r="C68">
+        <f>H67*D68</f>
+        <v>1201.0452887219233</v>
+      </c>
+      <c r="D68">
+        <f>D67</f>
+        <v>0.036057969049106471</v>
+      </c>
+      <c r="E68" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" s="5">
+        <v>43958</v>
+      </c>
+      <c r="G68" s="2">
+        <f>H68*35</f>
+        <v>1207842.2645105247</v>
+      </c>
+      <c r="H68">
+        <f>H67+C68</f>
+        <v>34509.778986014993</v>
+      </c>
+      <c r="Q68" t="inlineStr">
         <is>
           <t>(own analysis; ignorant and simplistic, there, on Litchfield Cty doublings. ;)</t>
         </is>
       </c>
-      <c r="BA65" s="5">
-        <v>43907</v>
-      </c>
-      <c r="BB65">
-        <v>6421</v>
-      </c>
-      <c r="BC65">
-        <f>(BB65/BB64)-1</f>
-        <v>0.38622625215889461</v>
-      </c>
-    </row>
-    <row r="66" spans="1:65" ht="19.5">
-      <c r="C66">
-        <f>H65*D66</f>
-        <v>1035.2238413096238</v>
-      </c>
-      <c r="D66">
-        <f>D65</f>
-        <v>0.037118810487718534</v>
-      </c>
-      <c r="E66" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="5">
-        <v>43956</v>
-      </c>
-      <c r="G66" s="2">
-        <f>H66*50</f>
-        <v>1446234.5435918553</v>
-      </c>
-      <c r="H66">
-        <f>H65+C66</f>
-        <v>28924.690871837109</v>
-      </c>
-      <c r="P66" t="inlineStr">
+      <c r="BA68" s="5">
+        <v>43910</v>
+      </c>
+      <c r="BB68">
+        <v>19100</v>
+      </c>
+      <c r="BC68">
+        <f>(BB68/BB67)-1</f>
+        <v>0.39650508152372588</v>
+      </c>
+    </row>
+    <row r="69" spans="1:65" ht="19.5">
+      <c r="C69">
+        <f>H68*D69</f>
+        <v>1244.3525425692335</v>
+      </c>
+      <c r="D69">
+        <f>D68</f>
+        <v>0.036057969049106471</v>
+      </c>
+      <c r="E69" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="5">
+        <v>43959</v>
+      </c>
+      <c r="G69" s="2">
+        <f>H69*35</f>
+        <v>1251394.6035004479</v>
+      </c>
+      <c r="H69">
+        <f>H68+C69</f>
+        <v>35754.131528584228</v>
+      </c>
+      <c r="P69" t="inlineStr">
         <is>
           <t>9 April: USA Confirmed (far columns, right) now expressed in 3 digits (up from 2 digits, formerly).</t>
         </is>
       </c>
-      <c r="BA66" s="5">
-        <v>43908</v>
-      </c>
-      <c r="BB66">
-        <v>7783</v>
-      </c>
-      <c r="BC66">
-        <f>(BB66/BB65)-1</f>
-        <v>0.21211649275813738</v>
-      </c>
-    </row>
-    <row r="67" spans="1:65" ht="19.5">
-      <c r="C67">
-        <f>H66*D67</f>
-        <v>1073.6501188875638</v>
-      </c>
-      <c r="D67">
-        <f>D66</f>
-        <v>0.037118810487718534</v>
-      </c>
-      <c r="E67" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="5">
-        <v>43957</v>
-      </c>
-      <c r="G67" s="2">
-        <f>H67*50</f>
-        <v>1499917.0495362335</v>
-      </c>
-      <c r="H67">
-        <f>H66+C67</f>
-        <v>29998.340990724671</v>
-      </c>
-      <c r="Q67" t="inlineStr">
+      <c r="BA69" s="5">
+        <v>43911</v>
+      </c>
+      <c r="BB69">
+        <v>25489</v>
+      </c>
+      <c r="BC69">
+        <f>(BB69/BB68)-1</f>
+        <v>0.33450261780104706</v>
+      </c>
+    </row>
+    <row r="70" spans="1:65" ht="19.5">
+      <c r="C70">
+        <f>H69*D70</f>
+        <v>1289.2213680353721</v>
+      </c>
+      <c r="D70">
+        <f>D69</f>
+        <v>0.036057969049106471</v>
+      </c>
+      <c r="E70" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" s="5">
+        <v>43960</v>
+      </c>
+      <c r="G70" s="2">
+        <f>H70*35</f>
+        <v>1296517.3513816861</v>
+      </c>
+      <c r="H70">
+        <f>H69+C70</f>
+        <v>37043.352896619603</v>
+      </c>
+      <c r="Q70" t="inlineStr">
         <is>
           <t>This reflects that they've reached consistently below 10 percent, and so</t>
         </is>
       </c>
-      <c r="BA67" s="5">
-        <v>43909</v>
-      </c>
-      <c r="BB67">
-        <v>13677</v>
-      </c>
-      <c r="BC67">
-        <f>(BB67/BB66)-1</f>
-        <v>0.75729153282795836</v>
-      </c>
-    </row>
-    <row r="68" spans="1:65" ht="19.5">
-      <c r="C68">
-        <f>H67*D68</f>
-        <v>1113.5027341806676</v>
-      </c>
-      <c r="D68">
-        <f>D67</f>
-        <v>0.037118810487718534</v>
-      </c>
-      <c r="E68" t="s">
-        <v>15</v>
-      </c>
-      <c r="F68" s="5">
-        <v>43958</v>
-      </c>
-      <c r="G68" s="2">
-        <f>H68*50</f>
-        <v>1555592.1862452668</v>
-      </c>
-      <c r="H68">
-        <f>H67+C68</f>
-        <v>31111.843724905339</v>
-      </c>
-      <c r="Q68" t="inlineStr">
+      <c r="BA70" s="5">
+        <v>43912</v>
+      </c>
+      <c r="BB70">
+        <v>33276</v>
+      </c>
+      <c r="BC70">
+        <f>(BB70/BB69)-1</f>
+        <v>0.30550433520342102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:65" ht="19.5">
+      <c r="C71">
+        <f>H70*D71</f>
+        <v>1335.7080722214382</v>
+      </c>
+      <c r="D71">
+        <f>D70</f>
+        <v>0.036057969049106471</v>
+      </c>
+      <c r="E71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="5">
+        <v>43961</v>
+      </c>
+      <c r="G71" s="2">
+        <f>H71*35</f>
+        <v>1343267.1339094364</v>
+      </c>
+      <c r="H71">
+        <f>H70+C71</f>
+        <v>38379.06096884104</v>
+      </c>
+      <c r="Q71" t="inlineStr">
         <is>
           <t>require another digit of precision (the decimal point has moved</t>
         </is>
       </c>
-      <c r="BA68" s="5">
-        <v>43910</v>
-      </c>
-      <c r="BB68">
-        <v>19100</v>
-      </c>
-      <c r="BC68">
-        <f>(BB68/BB67)-1</f>
-        <v>0.39650508152372588</v>
-      </c>
-    </row>
-    <row r="69" spans="1:65" ht="19.5">
-      <c r="C69">
-        <f>H68*D69</f>
-        <v>1154.8346311482765</v>
-      </c>
-      <c r="D69">
-        <f>D68</f>
-        <v>0.037118810487718534</v>
-      </c>
-      <c r="E69" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" s="5">
-        <v>43959</v>
-      </c>
-      <c r="G69" s="2">
-        <f>H69*50</f>
-        <v>1613333.9178026807</v>
-      </c>
-      <c r="H69">
-        <f>H68+C69</f>
-        <v>32266.678356053613</v>
-      </c>
-      <c r="J69" s="1"/>
-      <c r="Q69" t="inlineStr">
+      <c r="BA71" s="5">
+        <v>43913</v>
+      </c>
+      <c r="BB71">
+        <v>43847</v>
+      </c>
+      <c r="BC71">
+        <f>(BB71/BB70)-1</f>
+        <v>0.31767640341387193</v>
+      </c>
+    </row>
+    <row r="72" spans="1:65" ht="19.5">
+      <c r="C72">
+        <f>H71*D72</f>
+        <v>1383.8709925482403</v>
+      </c>
+      <c r="D72">
+        <f>D71</f>
+        <v>0.036057969049106471</v>
+      </c>
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="5">
+        <v>43962</v>
+      </c>
+      <c r="G72" s="2">
+        <f>H72*35</f>
+        <v>1391702.6186486247</v>
+      </c>
+      <c r="H72">
+        <f>H71+C72</f>
+        <v>39762.93196138928</v>
+      </c>
+      <c r="J72" s="1"/>
+      <c r="Q72" t="inlineStr">
         <is>
           <t>over one place)</t>
         </is>
       </c>
-      <c r="BA69" s="5">
-        <v>43911</v>
-      </c>
-      <c r="BB69">
-        <v>25489</v>
-      </c>
-      <c r="BC69">
-        <f>(BB69/BB68)-1</f>
-        <v>0.33450261780104706</v>
-      </c>
-    </row>
-    <row r="70" spans="1:65" ht="19.5">
-      <c r="C70">
-        <f>H69*D70</f>
-        <v>1197.7007189665235</v>
-      </c>
-      <c r="D70">
-        <f>D69</f>
-        <v>0.037118810487718534</v>
-      </c>
-      <c r="E70" t="s">
-        <v>17</v>
-      </c>
-      <c r="F70" s="5">
-        <v>43960</v>
-      </c>
-      <c r="G70" s="2">
-        <f>H70*50</f>
-        <v>1673218.9537510069</v>
-      </c>
-      <c r="H70">
-        <f>H69+C70</f>
-        <v>33464.379075020137</v>
-      </c>
-      <c r="P70" t="inlineStr">
+      <c r="BA72" s="5">
+        <v>43914</v>
+      </c>
+      <c r="BB72">
+        <v>53740</v>
+      </c>
+      <c r="BC72">
+        <f>(BB72/BB71)-1</f>
+        <v>0.22562547038565928</v>
+      </c>
+    </row>
+    <row r="73" spans="1:65" ht="19.5">
+      <c r="C73">
+        <f>H72*D73</f>
+        <v>1433.7705699655012</v>
+      </c>
+      <c r="D73">
+        <f>D72</f>
+        <v>0.036057969049106471</v>
+      </c>
+      <c r="E73" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="5">
+        <v>43963</v>
+      </c>
+      <c r="G73" s="2">
+        <f>H73*35</f>
+        <v>1441884.5885974173</v>
+      </c>
+      <c r="H73">
+        <f>H72+C73</f>
+        <v>41196.702531354778</v>
+      </c>
+      <c r="P73" t="inlineStr">
         <is>
           <t>9 April: Have not kept up with the state epidemiologist's estimate</t>
         </is>
       </c>
-      <c r="BA70" s="5">
-        <v>43912</v>
-      </c>
-      <c r="BB70">
-        <v>33276</v>
-      </c>
-      <c r="BC70">
-        <f>(BB70/BB69)-1</f>
-        <v>0.30550433520342102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:65" ht="19.5">
-      <c r="C71">
-        <f>H70*D71</f>
-        <v>1242.157944974846</v>
-      </c>
-      <c r="D71">
-        <f>D70</f>
-        <v>0.037118810487718534</v>
-      </c>
-      <c r="E71" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="5">
-        <v>43961</v>
-      </c>
-      <c r="G71" s="2">
-        <f>H71*50</f>
-        <v>1735326.8509997493</v>
-      </c>
-      <c r="H71">
-        <f>H70+C71</f>
-        <v>34706.537019994983</v>
-      </c>
-      <c r="Q71" t="inlineStr">
+      <c r="BA73" s="5">
+        <v>43915</v>
+      </c>
+      <c r="BB73">
+        <v>65778</v>
+      </c>
+      <c r="BC73">
+        <f>(BB73/BB72)-1</f>
+        <v>0.22400446594715295</v>
+      </c>
+    </row>
+    <row r="74" spans="1:65" ht="19.5">
+      <c r="C74">
+        <f>H73*D74</f>
+        <v>1485.4694248008368</v>
+      </c>
+      <c r="D74">
+        <f>D73</f>
+        <v>0.036057969049106471</v>
+      </c>
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="5">
+        <v>43964</v>
+      </c>
+      <c r="G74" s="2">
+        <f>H74*35</f>
+        <v>1493876.0184654465</v>
+      </c>
+      <c r="H74">
+        <f>H73+C74</f>
+        <v>42682.171956155616</v>
+      </c>
+      <c r="Q74" t="inlineStr">
         <is>
           <t>of the multiplier factor (Confirmed and tested vs estimated true count of cases</t>
         </is>
       </c>
-      <c r="BA71" s="5">
-        <v>43913</v>
-      </c>
-      <c r="BB71">
-        <v>43847</v>
-      </c>
-      <c r="BC71">
-        <f>(BB71/BB70)-1</f>
-        <v>0.31767640341387193</v>
-      </c>
-    </row>
-    <row r="72" spans="1:65" ht="19.5">
-      <c r="C72">
-        <f>H71*D72</f>
-        <v>1288.2653703301814</v>
-      </c>
-      <c r="D72">
-        <f>D71</f>
-        <v>0.037118810487718534</v>
-      </c>
-      <c r="E72" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="5">
-        <v>43962</v>
-      </c>
-      <c r="G72" s="2">
-        <f>H72*50</f>
-        <v>1799740.1195162584</v>
-      </c>
-      <c r="H72">
-        <f>H71+C72</f>
-        <v>35994.802390325167</v>
-      </c>
-      <c r="Q72" t="inlineStr">
+      <c r="BA74" s="5">
+        <v>43916</v>
+      </c>
+      <c r="BB74">
+        <v>83836</v>
+      </c>
+      <c r="BC74">
+        <f>(BB74/BB73)-1</f>
+        <v>0.27452947794095284</v>
+      </c>
+    </row>
+    <row r="75" spans="1:65" ht="19.5">
+      <c r="C75">
+        <f>H74*D75</f>
+        <v>1539.0324353436995</v>
+      </c>
+      <c r="D75">
+        <f>D74</f>
+        <v>0.036057969049106471</v>
+      </c>
+      <c r="E75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" s="5">
+        <v>43965</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75">
+        <f>H74+C75</f>
+        <v>44221.204391499319</v>
+      </c>
+      <c r="Q75" t="inlineStr">
         <is>
           <t>in the state of Connecticut) and (therefore) still using a '50x' multiplier,</t>
         </is>
       </c>
-      <c r="BA72" s="5">
-        <v>43914</v>
-      </c>
-      <c r="BB72">
-        <v>53740</v>
-      </c>
-      <c r="BC72">
-        <f>(BB72/BB71)-1</f>
-        <v>0.22562547038565928</v>
-      </c>
-    </row>
-    <row r="73" spans="1:65" ht="19.5">
-      <c r="C73">
-        <f>H72*D73</f>
-        <v>1336.084248469358</v>
-      </c>
-      <c r="D73">
-        <f>D72</f>
-        <v>0.037118810487718534</v>
-      </c>
-      <c r="E73" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" s="5">
-        <v>43963</v>
-      </c>
-      <c r="G73" s="2">
-        <f>H73*50</f>
-        <v>1866544.3319397261</v>
-      </c>
-      <c r="H73">
-        <f>H72+C73</f>
-        <v>37330.886638794524</v>
-      </c>
-      <c r="Q73" t="inlineStr">
+      <c r="BA75" s="5">
+        <v>43917</v>
+      </c>
+      <c r="BB75">
+        <v>101657</v>
+      </c>
+      <c r="BC75">
+        <f>(BB75/BB74)-1</f>
+        <v>0.21256977909251407</v>
+      </c>
+    </row>
+    <row r="76" spans="1:65" ht="19.5">
+      <c r="C76">
+        <f>H75*D76</f>
+        <v>1594.5268192628937</v>
+      </c>
+      <c r="D76">
+        <f>D75</f>
+        <v>0.036057969049106471</v>
+      </c>
+      <c r="E76" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="5">
+        <v>43966</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="H76">
+        <f>H75+C76</f>
+        <v>45815.731210762213</v>
+      </c>
+      <c r="Q76" t="inlineStr">
         <is>
           <t>with no particular justification for this figure.</t>
         </is>
       </c>
-      <c r="BA73" s="5">
-        <v>43915</v>
-      </c>
-      <c r="BB73">
-        <v>65778</v>
-      </c>
-      <c r="BC73">
-        <f>(BB73/BB72)-1</f>
-        <v>0.22400446594715295</v>
-      </c>
-    </row>
-    <row r="74" spans="1:65" ht="19.5">
-      <c r="C74">
-        <f>H73*D74</f>
-        <v>1385.6781064839179</v>
-      </c>
-      <c r="D74">
-        <f>D73</f>
-        <v>0.037118810487718534</v>
-      </c>
-      <c r="E74" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="5">
-        <v>43964</v>
-      </c>
-      <c r="G74" s="2"/>
-      <c r="H74">
-        <f>H73+C74</f>
-        <v>38716.56474527844</v>
-      </c>
-      <c r="BA74" s="5">
-        <v>43916</v>
-      </c>
-      <c r="BB74">
-        <v>83836</v>
-      </c>
-      <c r="BC74">
-        <f>(BB74/BB73)-1</f>
-        <v>0.27452947794095284</v>
-      </c>
-    </row>
-    <row r="75" spans="1:65" ht="19.5">
-      <c r="C75">
-        <f>H74*D75</f>
-        <v>1437.1128295154749</v>
-      </c>
-      <c r="D75">
-        <f>D74</f>
-        <v>0.037118810487718534</v>
-      </c>
-      <c r="E75" t="s">
-        <v>15</v>
-      </c>
-      <c r="F75" s="5">
-        <v>43965</v>
-      </c>
-      <c r="G75" s="2"/>
-      <c r="H75">
-        <f>H74+C75</f>
-        <v>40153.677574793917</v>
-      </c>
-      <c r="J75" s="1"/>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>General:</t>
-        </is>
-      </c>
-      <c r="BA75" s="5">
-        <v>43917</v>
-      </c>
-      <c r="BB75">
-        <v>101657</v>
-      </c>
-      <c r="BC75">
-        <f>(BB75/BB74)-1</f>
-        <v>0.21256977909251407</v>
-      </c>
-    </row>
-    <row r="76" spans="1:65" ht="19.5">
-      <c r="C76">
-        <f>H75*D76</f>
-        <v>1490.456748283729</v>
-      </c>
-      <c r="D76">
-        <f>D75</f>
-        <v>0.037118810487718534</v>
-      </c>
-      <c r="E76" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76" s="5">
-        <v>43966</v>
-      </c>
-      <c r="G76" s="2"/>
-      <c r="H76">
-        <f>H75+C76</f>
-        <v>41644.134323077647</v>
-      </c>
-      <c r="J76" s="1"/>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>Latency:</t>
-        </is>
-      </c>
       <c r="BA76" s="5">
         <v>43918</v>
       </c>
@@ -6300,11 +6569,11 @@
     <row r="77" spans="1:65" ht="19.5">
       <c r="C77">
         <f>H76*D77</f>
-        <v>1545.7807298634139</v>
+        <v>1652.0222179598452</v>
       </c>
       <c r="D77">
         <f>D76</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E77" t="s">
         <v>17</v>
@@ -6315,12 +6584,11 @@
       <c r="G77" s="2"/>
       <c r="H77">
         <f>H76+C77</f>
-        <v>43189.915052941062</v>
-      </c>
-      <c r="J77" s="1"/>
-      <c r="R77" t="inlineStr">
+        <v>47467.753428722055</v>
+      </c>
+      <c r="P77" t="inlineStr">
         <is>
-          <t>Confirmed: infected 5-7 days ago.</t>
+          <t>12 April: demoted from 50x to 35x (measured) transmission multiplier.</t>
         </is>
       </c>
       <c r="BA77" s="5">
@@ -6337,11 +6605,11 @@
     <row r="78" spans="1:65" ht="19.5">
       <c r="C78">
         <f>H77*D78</f>
-        <v>1603.1582718307814</v>
+        <v>1711.5907839634774</v>
       </c>
       <c r="D78">
         <f>D77</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
@@ -6352,7 +6620,13 @@
       <c r="G78" s="2"/>
       <c r="H78">
         <f>H77+C78</f>
-        <v>44793.073324771845</v>
+        <v>49179.34421268553</v>
+      </c>
+      <c r="J78" s="1"/>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>Reference value only - please do not quote it in any context.</t>
+        </is>
       </c>
       <c r="BA78" s="5">
         <v>43920</v>
@@ -6368,11 +6642,11 @@
     <row r="79" spans="1:65" ht="19.5">
       <c r="C79">
         <f>H78*D79</f>
-        <v>1662.6655999046866</v>
+        <v>1773.3072714763682</v>
       </c>
       <c r="D79">
         <f>D78</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E79" t="s">
         <v>12</v>
@@ -6383,11 +6657,12 @@
       <c r="G79" s="2"/>
       <c r="H79">
         <f>H78+C79</f>
-        <v>46455.738924676531</v>
-      </c>
-      <c r="R79" t="inlineStr">
+        <v>50952.651484161899</v>
+      </c>
+      <c r="J79" s="1"/>
+      <c r="Q79" t="inlineStr">
         <is>
-          <t>Hospitalized: infected 1-3 weeks ago.</t>
+          <t>(Assign some other value to it, based on some other</t>
         </is>
       </c>
       <c r="BA79" s="5">
@@ -6404,11 +6679,11 @@
     <row r="80" spans="1:65" ht="19.5">
       <c r="C80">
         <f>H79*D80</f>
-        <v>1724.3817692119974</v>
+        <v>1837.2491301858186</v>
       </c>
       <c r="D80">
         <f>D79</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E80" t="s">
         <v>13</v>
@@ -6419,7 +6694,13 @@
       <c r="G80" s="2"/>
       <c r="H80">
         <f>H79+C80</f>
-        <v>48180.12069388853</v>
+        <v>52789.900614347716</v>
+      </c>
+      <c r="J80" s="1"/>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>findings than given here).</t>
+        </is>
       </c>
       <c r="BA80" s="5">
         <v>43922</v>
@@ -6435,11 +6716,11 @@
     <row r="81" spans="1:65" ht="19.5">
       <c r="C81">
         <f>H80*D81</f>
-        <v>1788.3887693118543</v>
+        <v>1903.4966024575567</v>
       </c>
       <c r="D81">
         <f>D80</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E81" t="s">
         <v>14</v>
@@ -6450,12 +6731,7 @@
       <c r="G81" s="2"/>
       <c r="H81">
         <f>H80+C81</f>
-        <v>49968.509463200382</v>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>Death: infected 3-4 weeks ago.</t>
-        </is>
+        <v>54693.397216805271</v>
       </c>
       <c r="BA81" s="5">
         <v>43923</v>
@@ -6471,11 +6747,11 @@
     <row r="82" spans="1:65" ht="19.5">
       <c r="C82">
         <f>H81*D82</f>
-        <v>1854.7716331183051</v>
+        <v>1972.1328240340506</v>
       </c>
       <c r="D82">
         <f>D81</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E82" t="s">
         <v>15</v>
@@ -6486,9 +6762,8 @@
       <c r="G82" s="2"/>
       <c r="H82">
         <f>H81+C82</f>
-        <v>51823.281096318686</v>
-      </c>
-      <c r="AW82" s="2"/>
+        <v>56665.530040839323</v>
+      </c>
       <c r="BA82" s="5">
         <v>43924</v>
       </c>
@@ -6503,11 +6778,11 @@
     <row r="83" spans="1:65" ht="19.5">
       <c r="C83">
         <f>H82*D83</f>
-        <v>1923.6185498660197</v>
+        <v>2043.2439283637973</v>
       </c>
       <c r="D83">
         <f>D82</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E83" t="s">
         <v>16</v>
@@ -6518,14 +6793,8 @@
       <c r="G83" s="2"/>
       <c r="H83">
         <f>H82+C83</f>
-        <v>53746.899646184705</v>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>Source: Osterholm, 8 April 2020 (podcast).</t>
-        </is>
-      </c>
-      <c r="AW83" s="2"/>
+        <v>58708.773969203117</v>
+      </c>
       <c r="BA83" s="5">
         <v>43925</v>
       </c>
@@ -6540,11 +6809,11 @@
     <row r="84" spans="1:65" ht="19.5">
       <c r="C84">
         <f>H83*D84</f>
-        <v>1995.0209822691563</v>
+        <v>2116.9191546925135</v>
       </c>
       <c r="D84">
         <f>D83</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E84" t="s">
         <v>17</v>
@@ -6555,9 +6824,8 @@
       <c r="G84" s="2"/>
       <c r="H84">
         <f>H83+C84</f>
-        <v>55741.92062845386</v>
-      </c>
-      <c r="AW84" s="2"/>
+        <v>60825.693123895631</v>
+      </c>
       <c r="BA84" s="5">
         <v>43926</v>
       </c>
@@ -6577,11 +6845,11 @@
     <row r="85" spans="1:65" ht="19.5">
       <c r="C85">
         <f>H84*D85</f>
-        <v>2069.0737880290271</v>
+        <v>2193.250960051877</v>
       </c>
       <c r="D85">
         <f>D84</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
@@ -6592,11 +6860,11 @@
       <c r="G85" s="2"/>
       <c r="H85">
         <f>H84+C85</f>
-        <v>57810.994416482885</v>
-      </c>
-      <c r="T85" t="inlineStr">
+        <v>63018.944083947506</v>
+      </c>
+      <c r="P85" t="inlineStr">
         <is>
-          <t>https://twitter.com/CIDRAP/status/1248291432202407939</t>
+          <t>General:</t>
         </is>
       </c>
       <c r="AW85" s="2"/>
@@ -6614,11 +6882,11 @@
     <row r="86" spans="1:65" ht="19.5">
       <c r="C86">
         <f>H85*D86</f>
-        <v>2145.8753458519827</v>
+        <v>2272.3351352863506</v>
       </c>
       <c r="D86">
         <f>D85</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E86" t="s">
         <v>12</v>
@@ -6629,7 +6897,12 @@
       <c r="G86" s="2"/>
       <c r="H86">
         <f>H85+C86</f>
-        <v>59956.869762334871</v>
+        <v>65291.27921923386</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>Latency:</t>
+        </is>
       </c>
       <c r="AW86" s="2"/>
       <c r="BA86" s="5">
@@ -6646,11 +6919,11 @@
     <row r="87" spans="1:65" ht="19.5">
       <c r="C87">
         <f>H86*D87</f>
-        <v>2225.5276861449297</v>
+        <v>2354.2709252637032</v>
       </c>
       <c r="D87">
         <f>D86</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E87" t="s">
         <v>13</v>
@@ -6661,18 +6934,14 @@
       <c r="G87" s="2"/>
       <c r="H87">
         <f>H86+C87</f>
-        <v>62182.397448479802</v>
-      </c>
-      <c r="U87" t="inlineStr">
+        <v>67645.550144497567</v>
+      </c>
+      <c r="R87" t="inlineStr">
         <is>
-          <t>Episode 3 of Osterholm Update:</t>
+          <t>Confirmed: infected 5-7 days ago.</t>
         </is>
       </c>
-      <c r="AZ87" t="inlineStr">
-        <is>
-          <t>May be current (likely to be):</t>
-        </is>
-      </c>
+      <c r="AW87" s="2"/>
       <c r="BA87" s="5">
         <v>43929</v>
       </c>
@@ -6692,11 +6961,11 @@
     <row r="88" spans="1:65" ht="19.5">
       <c r="C88">
         <f>H87*D88</f>
-        <v>2308.1366265621141</v>
+        <v>2439.1611534200729</v>
       </c>
       <c r="D88">
         <f>D87</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
@@ -6707,14 +6976,9 @@
       <c r="G88" s="2"/>
       <c r="H88">
         <f>H87+C88</f>
-        <v>64490.534075041913</v>
+        <v>70084.711297917645</v>
       </c>
       <c r="AW88" s="2"/>
-      <c r="AZ88" t="inlineStr">
-        <is>
-          <t>TENTATIVE</t>
-        </is>
-      </c>
       <c r="BA88" s="5">
         <v>43930</v>
       </c>
@@ -6734,11 +6998,11 @@
     <row r="89" spans="1:65" ht="19.5">
       <c r="C89">
         <f>H88*D89</f>
-        <v>2393.8119125832354</v>
+        <v>2527.1123507958769</v>
       </c>
       <c r="D89">
         <f>D88</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E89" t="s">
         <v>15</v>
@@ -6749,24 +7013,38 @@
       <c r="G89" s="2"/>
       <c r="H89">
         <f>H88+C89</f>
-        <v>66884.345987625144</v>
-      </c>
-      <c r="V89" t="inlineStr">
+        <v>72611.823648713529</v>
+      </c>
+      <c r="R89" t="inlineStr">
         <is>
-          <t>http://ow.ly/d5Gk30qwD7o #Coronavirus</t>
+          <t>Hospitalized: infected 1-3 weeks ago.</t>
         </is>
       </c>
       <c r="AW89" s="2"/>
-      <c r="BB89" s="1"/>
+      <c r="AZ89" t="inlineStr">
+        <is>
+          <t>May be current (likely to be):</t>
+        </is>
+      </c>
+      <c r="BA89" s="5">
+        <v>43931</v>
+      </c>
+      <c r="BB89">
+        <v>496535</v>
+      </c>
+      <c r="BC89" s="7">
+        <f>(BB89/BB88)-1</f>
+        <v>0.076062387714899371</v>
+      </c>
     </row>
     <row r="90" spans="1:65" ht="19.5">
       <c r="C90">
         <f>H89*D90</f>
-        <v>2482.6673633096552</v>
+        <v>2618.2348897244897</v>
       </c>
       <c r="D90">
         <f>D89</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E90" t="s">
         <v>16</v>
@@ -6777,23 +7055,37 @@
       <c r="G90" s="2"/>
       <c r="H90">
         <f>H89+C90</f>
-        <v>69367.013350934794</v>
-      </c>
-      <c r="BB90" s="1"/>
+        <v>75230.058538438025</v>
+      </c>
+      <c r="AZ90" t="inlineStr">
+        <is>
+          <t>TENTATIVE</t>
+        </is>
+      </c>
+      <c r="BA90" s="5">
+        <v>43932</v>
+      </c>
+      <c r="BB90">
+        <v>526396</v>
+      </c>
+      <c r="BC90" s="7">
+        <f>(BB90/BB89)-1</f>
+        <v>0.060138761618012904</v>
+      </c>
       <c r="BE90" t="inlineStr">
         <is>
-          <t>The 429,052 number is unique in</t>
+          <t>The 496,535 number is unique in</t>
         </is>
       </c>
     </row>
     <row r="91" spans="1:65" ht="19.5">
       <c r="C91">
         <f>H90*D91</f>
-        <v>2574.82102267239</v>
+        <v>2712.6431223414661</v>
       </c>
       <c r="D91">
         <f>D90</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E91" t="s">
         <v>17</v>
@@ -6804,14 +7096,14 @@
       <c r="G91" s="2"/>
       <c r="H91">
         <f>H90+C91</f>
-        <v>71941.834373607184</v>
-      </c>
-      <c r="V91" t="inlineStr">
+        <v>77942.701660779494</v>
+      </c>
+      <c r="R91" t="inlineStr">
         <is>
-          <t>#COVID19 is now live:</t>
+          <t>Death: infected 3-4 weeks ago.</t>
         </is>
       </c>
-      <c r="BB91" s="1"/>
+      <c r="AW91" s="2"/>
       <c r="BE91" t="inlineStr">
         <is>
           <t>this series, as the first unreliable</t>
@@ -6821,11 +7113,11 @@
     <row r="92" spans="1:65" ht="19.5">
       <c r="C92">
         <f>H91*D92</f>
-        <v>2670.39531625276</v>
+        <v>2810.4555240881264</v>
       </c>
       <c r="D92">
         <f>D91</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
@@ -6836,13 +7128,9 @@
       <c r="G92" s="2"/>
       <c r="H92">
         <f>H91+C92</f>
-        <v>74612.229689859945</v>
-      </c>
-      <c r="V92" t="inlineStr">
-        <is>
-          <t>"Preparing For What's To Come,"</t>
-        </is>
-      </c>
+        <v>80753.157184867625</v>
+      </c>
+      <c r="AW92" s="2"/>
       <c r="BE92" t="inlineStr">
         <is>
           <t>value in the series.</t>
@@ -6852,11 +7140,11 @@
     <row r="93" spans="1:65" ht="19.5">
       <c r="C93">
         <f>H92*D93</f>
-        <v>2769.5172139240376</v>
+        <v>2911.7948423895868</v>
       </c>
       <c r="D93">
         <f>D92</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E93" t="s">
         <v>12</v>
@@ -6867,23 +7155,22 @@
       <c r="G93" s="2"/>
       <c r="H93">
         <f>H92+C93</f>
-        <v>77381.746903783976</v>
-      </c>
-      <c r="V93" t="inlineStr">
+        <v>83664.952027257212</v>
+      </c>
+      <c r="S93" t="inlineStr">
         <is>
-          <t>in which Dr. Osterholm discusses the US situation,</t>
+          <t>Source: Osterholm, 8 April 2020 (podcast).</t>
         </is>
       </c>
-      <c r="BB93" s="1"/>
     </row>
     <row r="94" spans="1:65" ht="19.5">
       <c r="C94">
         <f>H93*D94</f>
-        <v>2872.318398530158</v>
+        <v>3016.7882506938181</v>
       </c>
       <c r="D94">
         <f>D93</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E94" t="s">
         <v>13</v>
@@ -6894,12 +7181,7 @@
       <c r="G94" s="2"/>
       <c r="H94">
         <f>H93+C94</f>
-        <v>80254.065302314135</v>
-      </c>
-      <c r="V94" t="inlineStr">
-        <is>
-          <t>the potential for subsequent waves, racial</t>
-        </is>
+        <v>86681.74027795103</v>
       </c>
       <c r="BE94" t="inlineStr">
         <is>
@@ -6910,11 +7192,11 @@
     <row r="95" spans="1:65" ht="19.5">
       <c r="C95">
         <f>H94*D95</f>
-        <v>2978.9354408255858</v>
+        <v>3125.567508065044</v>
       </c>
       <c r="D95">
         <f>D94</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E95" t="s">
         <v>14</v>
@@ -6925,11 +7207,11 @@
       <c r="G95" s="2"/>
       <c r="H95">
         <f>H94+C95</f>
-        <v>83233.000743139724</v>
-      </c>
-      <c r="V95" t="inlineStr">
+        <v>89807.30778601607</v>
+      </c>
+      <c r="T95" t="inlineStr">
         <is>
-          <t>and gender disparities,</t>
+          <t>https://twitter.com/CIDRAP/status/1248291432202407939</t>
         </is>
       </c>
       <c r="BE95" t="inlineStr">
@@ -6941,11 +7223,11 @@
     <row r="96" spans="1:65" ht="19.5">
       <c r="C96">
         <f>H95*D96</f>
-        <v>3089.5099809087392</v>
+        <v>3238.269124531746</v>
       </c>
       <c r="D96">
         <f>D95</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E96" t="s">
         <v>15</v>
@@ -6956,12 +7238,7 @@
       <c r="G96" s="2"/>
       <c r="H96">
         <f>H95+C96</f>
-        <v>86322.510724048465</v>
-      </c>
-      <c r="V96" t="inlineStr">
-        <is>
-          <t>and the use of masks by the public</t>
-        </is>
+        <v>93045.57691054781</v>
       </c>
       <c r="BE96" t="inlineStr">
         <is>
@@ -6972,11 +7249,11 @@
     <row r="97" spans="1:65" ht="19.5">
       <c r="C97">
         <f>H96*D97</f>
-        <v>3204.1889163900059</v>
+        <v>3355.0345323967886</v>
       </c>
       <c r="D97">
         <f>D96</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E97" t="s">
         <v>16</v>
@@ -6987,7 +7264,12 @@
       <c r="G97" s="2"/>
       <c r="H97">
         <f>H96+C97</f>
-        <v>89526.69964043847</v>
+        <v>96400.611442944602</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>Episode 3 of Osterholm Update:</t>
+        </is>
       </c>
       <c r="BE97" t="inlineStr">
         <is>
@@ -6998,11 +7280,11 @@
     <row r="98" spans="1:65" ht="19.5">
       <c r="C98">
         <f>H97*D98</f>
-        <v>3323.1245975443344</v>
+        <v>3476.0102637246355</v>
       </c>
       <c r="D98">
         <f>D97</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E98" t="s">
         <v>17</v>
@@ -7013,7 +7295,7 @@
       <c r="G98" s="2"/>
       <c r="H98">
         <f>H97+C98</f>
-        <v>92849.824237982801</v>
+        <v>99876.621706669233</v>
       </c>
       <c r="BE98" t="inlineStr">
         <is>
@@ -7024,11 +7306,11 @@
     <row r="99" spans="1:65" ht="19.5">
       <c r="C99">
         <f>H98*D99</f>
-        <v>3446.4750297076585</v>
+        <v>3601.3481342283949</v>
       </c>
       <c r="D99">
         <f>D98</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E99" t="s">
         <v>11</v>
@@ -7039,7 +7321,12 @@
       <c r="G99" s="2"/>
       <c r="H99">
         <f>H98+C99</f>
-        <v>96296.299267690454</v>
+        <v>103477.96984089763</v>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>http://ow.ly/d5Gk30qwD7o #Coronavirus</t>
+        </is>
       </c>
       <c r="BE99" t="inlineStr">
         <is>
@@ -7050,11 +7337,11 @@
     <row r="100" spans="1:65" ht="19.5">
       <c r="C100">
         <f>H99*D100</f>
-        <v>3574.4040831860311</v>
+        <v>3731.2054337874592</v>
       </c>
       <c r="D100">
         <f>D99</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E100" t="s">
         <v>12</v>
@@ -7065,17 +7352,17 @@
       <c r="G100" s="2"/>
       <c r="H100">
         <f>H99+C100</f>
-        <v>99870.703350876487</v>
+        <v>107209.17527468508</v>
       </c>
     </row>
     <row r="101" spans="1:65" ht="19.5">
       <c r="C101">
         <f>H100*D101</f>
-        <v>3707.0817109563409</v>
+        <v>3865.7451238348253</v>
       </c>
       <c r="D101">
         <f>D100</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E101" t="s">
         <v>13</v>
@@ -7086,17 +7373,22 @@
       <c r="G101" s="2"/>
       <c r="H101">
         <f>H100+C101</f>
-        <v>103577.78506183282</v>
+        <v>111074.92039851991</v>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>#COVID19 is now live:</t>
+        </is>
       </c>
     </row>
     <row r="102" spans="1:65" ht="19.5">
       <c r="C102">
         <f>H101*D102</f>
-        <v>3844.6841744478165</v>
+        <v>4005.136041861796</v>
       </c>
       <c r="D102">
         <f>D101</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E102" t="s">
         <v>14</v>
@@ -7107,17 +7399,24 @@
       <c r="G102" s="2"/>
       <c r="H102">
         <f>H101+C102</f>
-        <v>107422.46923628064</v>
+        <v>115080.05644038171</v>
+      </c>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>"Preparing For What's To Come,"</t>
+        </is>
       </c>
     </row>
     <row r="103" spans="1:65" ht="19.5">
       <c r="C103">
         <f>H102*D103</f>
-        <v>3987.3942777042753</v>
+        <v>4149.5531132967099</v>
       </c>
       <c r="D103">
         <f>D102</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E103" t="s">
         <v>15</v>
@@ -7128,17 +7427,24 @@
       <c r="G103" s="2"/>
       <c r="H103">
         <f>H102+C103</f>
-        <v>111409.86351398491</v>
+        <v>119229.60955367843</v>
+      </c>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>in which Dr. Osterholm discusses the US situation,</t>
+        </is>
       </c>
     </row>
     <row r="104" spans="1:65" ht="19.5">
       <c r="C104">
         <f>H103*D104</f>
-        <v>4135.4016102381938</v>
+        <v>4299.1775710235861</v>
       </c>
       <c r="D104">
         <f>D103</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E104" t="s">
         <v>16</v>
@@ -7149,17 +7455,24 @@
       <c r="G104" s="2"/>
       <c r="H104">
         <f>H103+C104</f>
-        <v>115545.26512422311</v>
+        <v>123528.78712470201</v>
+      </c>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>the potential for subsequent waves, racial</t>
+        </is>
       </c>
     </row>
     <row r="105" spans="1:65" ht="19.5">
       <c r="C105">
         <f>H104*D105</f>
-        <v>4288.9027988992311</v>
+        <v>4454.1971828161668</v>
       </c>
       <c r="D105">
         <f>D104</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E105" t="s">
         <v>17</v>
@@ -7170,17 +7483,24 @@
       <c r="G105" s="2"/>
       <c r="H105">
         <f>H104+C105</f>
-        <v>119834.16792312234</v>
+        <v>127982.98430751817</v>
+      </c>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>and gender disparities,</t>
+        </is>
       </c>
     </row>
     <row r="106" spans="1:65" ht="19.5">
       <c r="C106">
         <f>H105*D106</f>
-        <v>4448.101769091817</v>
+        <v>4614.8064869727696</v>
       </c>
       <c r="D106">
         <f>D105</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
@@ -7191,17 +7511,24 @@
       <c r="G106" s="2"/>
       <c r="H106">
         <f>H105+C106</f>
-        <v>124282.26969221416</v>
+        <v>132597.79079449095</v>
+      </c>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>and the use of masks by the public</t>
+        </is>
       </c>
     </row>
     <row r="107" spans="1:65" ht="19.5">
       <c r="C107">
         <f>H106*D107</f>
-        <v>4613.2100156888228</v>
+        <v>4781.2070364476494</v>
       </c>
       <c r="D107">
         <f>D106</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E107" t="s">
         <v>12</v>
@@ -7212,17 +7539,19 @@
       <c r="G107" s="2"/>
       <c r="H107">
         <f>H106+C107</f>
-        <v>128895.47970790298</v>
-      </c>
+        <v>137378.99783093861</v>
+      </c>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
     </row>
     <row r="108" spans="1:65" ht="19.5">
       <c r="C108">
         <f>H107*D108</f>
-        <v>4784.4468840012205</v>
+        <v>4953.6076517852489</v>
       </c>
       <c r="D108">
         <f>D107</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E108" t="s">
         <v>13</v>
@@ -7233,17 +7562,17 @@
       <c r="G108" s="2"/>
       <c r="H108">
         <f>H107+C108</f>
-        <v>133679.92659190419</v>
+        <v>142332.60548272385</v>
       </c>
     </row>
     <row r="109" spans="1:65" ht="19.5">
       <c r="C109">
         <f>H108*D109</f>
-        <v>4962.039861177017</v>
+        <v>5132.2246831747389</v>
       </c>
       <c r="D109">
         <f>D108</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E109" t="s">
         <v>14</v>
@@ -7254,17 +7583,17 @@
       <c r="G109" s="2"/>
       <c r="H109">
         <f>H108+C109</f>
-        <v>138641.9664530812</v>
+        <v>147464.8301658986</v>
       </c>
     </row>
     <row r="110" spans="1:65" ht="19.5">
       <c r="C110">
         <f>H109*D110</f>
-        <v>5146.2248784165513</v>
+        <v>5317.2822819537141</v>
       </c>
       <c r="D110">
         <f>D109</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E110" t="s">
         <v>15</v>
@@ -7275,17 +7604,17 @@
       <c r="G110" s="2"/>
       <c r="H110">
         <f>H109+C110</f>
-        <v>143788.19133149774</v>
+        <v>152782.11244785233</v>
       </c>
     </row>
     <row r="111" spans="1:65" ht="19.5">
       <c r="C111">
         <f>H110*D111</f>
-        <v>5337.2466244056777</v>
+        <v>5509.0126819017642</v>
       </c>
       <c r="D111">
         <f>D110</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E111" t="s">
         <v>16</v>
@@ -7296,17 +7625,17 @@
       <c r="G111" s="2"/>
       <c r="H111">
         <f>H110+C111</f>
-        <v>149125.43795590341</v>
+        <v>158291.1251297541</v>
       </c>
     </row>
     <row r="112" spans="1:65" ht="19.5">
       <c r="C112">
         <f>H111*D112</f>
-        <v>5535.3588703832074</v>
+        <v>5707.6564906769127</v>
       </c>
       <c r="D112">
         <f>D111</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E112" t="s">
         <v>17</v>
@@ -7317,17 +7646,17 @@
       <c r="G112" s="2"/>
       <c r="H112">
         <f>H111+C112</f>
-        <v>154660.79682628662</v>
+        <v>163998.78162043102</v>
       </c>
     </row>
     <row r="113" spans="1:65" ht="19.5">
       <c r="C113">
         <f>H112*D113</f>
-        <v>5740.8248072744736</v>
+        <v>5913.4629917606726</v>
       </c>
       <c r="D113">
         <f>D112</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
@@ -7338,17 +7667,17 @@
       <c r="G113" s="2"/>
       <c r="H113">
         <f>H112+C113</f>
-        <v>160401.6216335611</v>
+        <v>169912.24461219169</v>
       </c>
     </row>
     <row r="114" spans="1:65" ht="19.5">
       <c r="C114">
         <f>H113*D114</f>
-        <v>5953.9173953388881</v>
+        <v>6126.690457290616</v>
       </c>
       <c r="D114">
         <f>D113</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E114" t="s">
         <v>12</v>
@@ -7359,17 +7688,17 @@
       <c r="G114" s="2"/>
       <c r="H114">
         <f>H113+C114</f>
-        <v>166355.53902889998</v>
+        <v>176038.93506948231</v>
       </c>
     </row>
     <row r="115" spans="1:65" ht="19.5">
       <c r="C115">
         <f>H114*D115</f>
-        <v>6174.9197267960026</v>
+        <v>6347.6064721730572</v>
       </c>
       <c r="D115">
         <f>D114</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E115" t="s">
         <v>13</v>
@@ -7380,17 +7709,17 @@
       <c r="G115" s="2"/>
       <c r="H115">
         <f>H114+C115</f>
-        <v>172530.45875569599</v>
+        <v>182386.54154165537</v>
       </c>
     </row>
     <row r="116" spans="1:65" ht="19.5">
       <c r="C116">
         <f>H115*D116</f>
-        <v>6404.1254019118187</v>
+        <v>6576.4882698825813</v>
       </c>
       <c r="D116">
         <f>D115</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
@@ -7401,17 +7730,17 @@
       <c r="G116" s="2"/>
       <c r="H116">
         <f>H115+C116</f>
-        <v>178934.58415760781</v>
+        <v>188963.02981153794</v>
       </c>
     </row>
     <row r="117" spans="1:65" ht="19.5">
       <c r="C117">
         <f>H116*D117</f>
-        <v>6641.838919044967</v>
+        <v>6813.6230803698181</v>
       </c>
       <c r="D117">
         <f>D116</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E117" t="s">
         <v>15</v>
@@ -7422,17 +7751,17 @@
       <c r="G117" s="2"/>
       <c r="H117">
         <f>H116+C117</f>
-        <v>185576.42307665278</v>
+        <v>195776.65289190775</v>
       </c>
     </row>
     <row r="118" spans="1:65" ht="19.5">
       <c r="C118">
         <f>H117*D118</f>
-        <v>6888.376079170951</v>
+        <v>7059.3084905140704</v>
       </c>
       <c r="D118">
         <f>D117</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E118" t="s">
         <v>16</v>
@@ -7443,17 +7772,17 @@
       <c r="G118" s="2"/>
       <c r="H118">
         <f>H117+C118</f>
-        <v>192464.79915582374</v>
+        <v>202835.96138242181</v>
       </c>
     </row>
     <row r="119" spans="1:65" ht="19.5">
       <c r="C119">
         <f>H118*D119</f>
-        <v>7144.0644054218319</v>
+        <v>7313.8528175731208</v>
       </c>
       <c r="D119">
         <f>D118</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E119" t="s">
         <v>17</v>
@@ -7464,17 +7793,17 @@
       <c r="G119" s="2"/>
       <c r="H119">
         <f>H118+C119</f>
-        <v>199608.86356124558</v>
+        <v>210149.81419999493</v>
       </c>
     </row>
     <row r="120" spans="1:65" ht="19.5">
       <c r="C120">
         <f>H119*D120</f>
-        <v>7409.2435781987406</v>
+        <v>7577.5754960988925</v>
       </c>
       <c r="D120">
         <f>D119</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
@@ -7485,17 +7814,17 @@
       <c r="G120" s="2"/>
       <c r="H120">
         <f>H119+C120</f>
-        <v>207018.10713944433</v>
+        <v>217727.38969609383</v>
       </c>
     </row>
     <row r="121" spans="1:65" ht="19.5">
       <c r="C121">
         <f>H120*D121</f>
-        <v>7684.2658864352452</v>
+        <v>7850.8074788044942</v>
       </c>
       <c r="D121">
         <f>D120</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E121" t="s">
         <v>12</v>
@@ -7506,17 +7835,17 @@
       <c r="G121" s="2"/>
       <c r="H121">
         <f>H120+C121</f>
-        <v>214702.37302587958</v>
+        <v>225578.19717489832</v>
       </c>
     </row>
     <row r="122" spans="1:65" ht="19.5">
       <c r="C122">
         <f>H121*D122</f>
-        <v>7969.4966956110757</v>
+        <v>8133.8916518857204</v>
       </c>
       <c r="D122">
         <f>D121</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E122" t="s">
         <v>13</v>
@@ -7527,17 +7856,17 @@
       <c r="G122" s="2"/>
       <c r="H122">
         <f>H121+C122</f>
-        <v>222671.86972149066</v>
+        <v>233712.08882678405</v>
       </c>
     </row>
     <row r="123" spans="1:65" ht="19.5">
       <c r="C123">
         <f>H122*D123</f>
-        <v>8265.3149331379627</v>
+        <v>8427.1832653182009</v>
       </c>
       <c r="D123">
         <f>D122</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E123" t="s">
         <v>14</v>
@@ -7548,17 +7877,17 @@
       <c r="G123" s="2"/>
       <c r="H123">
         <f>H122+C123</f>
-        <v>230937.18465462863</v>
+        <v>242139.27209210224</v>
       </c>
     </row>
     <row r="124" spans="1:65" ht="19.5">
       <c r="C124">
         <f>H123*D124</f>
-        <v>8572.1135917624215</v>
+        <v>8731.0503786701938</v>
       </c>
       <c r="D124">
         <f>D123</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E124" t="s">
         <v>15</v>
@@ -7569,17 +7898,17 @@
       <c r="G124" s="2"/>
       <c r="H124">
         <f>H123+C124</f>
-        <v>239509.29824639106</v>
+        <v>250870.32247077243</v>
       </c>
     </row>
     <row r="125" spans="1:65" ht="19.5">
       <c r="C125">
         <f>H124*D125</f>
-        <v>8890.3002516542474</v>
+        <v>9045.8743229904721</v>
       </c>
       <c r="D125">
         <f>D124</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E125" t="s">
         <v>16</v>
@@ -7590,17 +7919,17 @@
       <c r="G125" s="2"/>
       <c r="H125">
         <f>H124+C125</f>
-        <v>248399.59849804529</v>
+        <v>259916.19679376291</v>
       </c>
     </row>
     <row r="126" spans="1:65" ht="19.5">
       <c r="C126">
         <f>H125*D126</f>
-        <v>9220.297621874317</v>
+        <v>9372.0501793509702</v>
       </c>
       <c r="D126">
         <f>D125</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E126" t="s">
         <v>17</v>
@@ -7611,17 +7940,17 @@
       <c r="G126" s="2"/>
       <c r="H126">
         <f>H125+C126</f>
-        <v>257619.89611991961</v>
+        <v>269288.24697311386</v>
       </c>
     </row>
     <row r="127" spans="1:65" ht="19.5">
       <c r="C127">
         <f>H126*D127</f>
-        <v>9562.5441019410318</v>
+        <v>9709.9872746446781</v>
       </c>
       <c r="D127">
         <f>D126</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E127" t="s">
         <v>11</v>
@@ -7632,17 +7961,17 @@
       <c r="G127" s="2"/>
       <c r="H127">
         <f>H126+C127</f>
-        <v>267182.44022186066</v>
+        <v>278998.23424775852</v>
       </c>
     </row>
     <row r="128" spans="1:65" ht="19.5">
       <c r="C128">
         <f>H127*D128</f>
-        <v>9917.494364241431</v>
+        <v>10060.109695261033</v>
       </c>
       <c r="D128">
         <f>D127</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E128" t="s">
         <v>12</v>
@@ -7653,17 +7982,17 @@
       <c r="G128" s="2"/>
       <c r="H128">
         <f>H127+C128</f>
-        <v>277099.93458610208</v>
+        <v>289058.34394301957</v>
       </c>
     </row>
     <row r="129" spans="1:65" ht="19.5">
       <c r="C129">
         <f>H128*D129</f>
-        <v>10285.619958060726</v>
+        <v>10422.856819283372</v>
       </c>
       <c r="D129">
         <f>D128</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E129" t="s">
         <v>13</v>
@@ -7674,17 +8003,17 @@
       <c r="G129" s="2"/>
       <c r="H129">
         <f>H128+C129</f>
-        <v>287385.55454416282</v>
+        <v>299481.20076230296</v>
       </c>
     </row>
     <row r="130" spans="1:65" ht="19.5">
       <c r="C130">
         <f>H129*D130</f>
-        <v>10667.409936032678</v>
+        <v>10798.683867876362</v>
       </c>
       <c r="D130">
         <f>D129</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E130" t="s">
         <v>14</v>
@@ -7695,17 +8024,17 @@
       <c r="G130" s="2"/>
       <c r="H130">
         <f>H129+C130</f>
-        <v>298052.96448019549</v>
+        <v>310279.88463017932</v>
       </c>
     </row>
     <row r="131" spans="1:65" ht="19.5">
       <c r="C131">
         <f>H130*D131</f>
-        <v>11063.37150384308</v>
+        <v>11188.062476555333</v>
       </c>
       <c r="D131">
         <f>D130</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E131" t="s">
         <v>15</v>
@@ -7716,17 +8045,17 @@
       <c r="G131" s="2"/>
       <c r="H131">
         <f>H130+C131</f>
-        <v>309116.33598403854</v>
+        <v>321467.94710673467</v>
       </c>
     </row>
     <row r="132" spans="1:65" ht="19.5">
       <c r="C132">
         <f>H131*D132</f>
-        <v>11474.030694049456</v>
+        <v>11591.481287054436</v>
       </c>
       <c r="D132">
         <f>D131</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E132" t="s">
         <v>16</v>
@@ -7736,17 +8065,17 @@
       </c>
       <c r="H132">
         <f>H131+C132</f>
-        <v>320590.36667808797</v>
+        <v>333059.4283937891</v>
       </c>
     </row>
     <row r="133" spans="1:65" ht="19.5">
       <c r="C133">
         <f>H132*D133</f>
-        <v>11899.933064912142</v>
+        <v>12009.44656053634</v>
       </c>
       <c r="D133">
         <f>D132</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E133" t="s">
         <v>17</v>
@@ -7756,17 +8085,17 @@
       </c>
       <c r="H133">
         <f>H132+C133</f>
-        <v>332490.29974300013</v>
+        <v>345068.87495432544</v>
       </c>
     </row>
     <row r="134" spans="1:65" ht="19.5">
       <c r="C134">
         <f>H133*D134</f>
-        <v>12341.644425165152</v>
+        <v>12442.482812913058</v>
       </c>
       <c r="D134">
         <f>D133</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E134" t="s">
         <v>11</v>
@@ -7776,17 +8105,17 @@
       </c>
       <c r="H134">
         <f>H133+C134</f>
-        <v>344831.94416816527</v>
+        <v>357511.35776723851</v>
       </c>
     </row>
     <row r="135" spans="1:65" ht="19.5">
       <c r="C135">
         <f>H134*D135</f>
-        <v>12799.751585689664</v>
+        <v>12891.133473075117</v>
       </c>
       <c r="D135">
         <f>D134</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E135" t="s">
         <v>12</v>
@@ -7796,17 +8125,17 @@
       </c>
       <c r="H135">
         <f>H134+C135</f>
-        <v>357631.69575385493</v>
+        <v>370402.49124031363</v>
       </c>
     </row>
     <row r="136" spans="1:65" ht="19.5">
       <c r="C136">
         <f>H135*D136</f>
-        <v>13274.863139088755</v>
+        <v>13355.961564855159</v>
       </c>
       <c r="D136">
         <f>D135</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E136" t="s">
         <v>13</v>
@@ -7816,17 +8145,17 @@
       </c>
       <c r="H136">
         <f>H135+C136</f>
-        <v>370906.55889294366</v>
+        <v>383758.45280516881</v>
       </c>
     </row>
     <row r="137" spans="1:65" ht="19.5">
       <c r="C137">
         <f>H136*D137</f>
-        <v>13767.610268198989</v>
+        <v>13837.550413581763</v>
       </c>
       <c r="D137">
         <f>D136</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E137" t="s">
         <v>14</v>
@@ -7836,17 +8165,17 @@
       </c>
       <c r="H137">
         <f>H136+C137</f>
-        <v>384674.16916114266</v>
+        <v>397596.00321875059</v>
       </c>
     </row>
     <row r="138" spans="1:65" ht="19.5">
       <c r="C138">
         <f>H137*D138</f>
-        <v>14278.647584613036</v>
+        <v>14336.504378110145</v>
       </c>
       <c r="D138">
         <f>D137</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E138" t="s">
         <v>15</v>
@@ -7856,17 +8185,17 @@
       </c>
       <c r="H138">
         <f>H137+C138</f>
-        <v>398952.81674575573</v>
+        <v>411932.50759686076</v>
       </c>
     </row>
     <row r="139" spans="1:65" ht="19.5">
       <c r="C139">
         <f>H138*D139</f>
-        <v>14808.653998327209</v>
+        <v>14853.449609248421</v>
       </c>
       <c r="D139">
         <f>D138</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E139" t="s">
         <v>16</v>
@@ -7876,17 +8205,17 @@
       </c>
       <c r="H139">
         <f>H138+C139</f>
-        <v>413761.47074408294</v>
+        <v>426785.95720610919</v>
       </c>
     </row>
     <row r="140" spans="1:65" ht="19.5">
       <c r="C140">
         <f>H139*D140</f>
-        <v>15358.333619669311</v>
+        <v>15389.034835531163</v>
       </c>
       <c r="D140">
         <f>D139</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E140" t="s">
         <v>17</v>
@@ -7896,17 +8225,17 @@
       </c>
       <c r="H140">
         <f>H139+C140</f>
-        <v>429119.80436375225</v>
+        <v>442174.99204164033</v>
       </c>
     </row>
     <row r="141" spans="1:65" ht="19.5">
       <c r="C141">
         <f>H140*D141</f>
-        <v>15928.416694704973</v>
+        <v>15943.932177326367</v>
       </c>
       <c r="D141">
         <f>D140</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E141" t="s">
         <v>11</v>
@@ -7916,17 +8245,17 @@
       </c>
       <c r="H141">
         <f>H140+C141</f>
-        <v>445048.22105845722</v>
+        <v>458118.92421896668</v>
       </c>
     </row>
     <row r="142" spans="1:65" ht="19.5">
       <c r="C142">
         <f>H141*D142</f>
-        <v>16519.660575365138</v>
+        <v>16518.837990297452</v>
       </c>
       <c r="D142">
         <f>D141</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E142" t="s">
         <v>12</v>
@@ -7936,17 +8265,17 @@
       </c>
       <c r="H142">
         <f>H141+C142</f>
-        <v>461567.88163382234</v>
+        <v>474637.76220926415</v>
       </c>
     </row>
     <row r="143" spans="1:65" ht="19.5">
       <c r="C143">
         <f>H142*D143</f>
-        <v>17132.85072558355</v>
+        <v>17114.473739278805</v>
       </c>
       <c r="D143">
         <f>D142</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E143" t="s">
         <v>13</v>
@@ -7956,17 +8285,17 @@
       </c>
       <c r="H143">
         <f>H142+C143</f>
-        <v>478700.7323594059</v>
+        <v>491752.23594854295</v>
       </c>
     </row>
     <row r="144" spans="1:65" ht="19.5">
       <c r="C144">
         <f>H143*D144</f>
-        <v>17768.801764780859</v>
+        <v>17731.586903661464</v>
       </c>
       <c r="D144">
         <f>D143</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E144" t="s">
         <v>14</v>
@@ -7976,17 +8305,17 @@
       </c>
       <c r="H144">
         <f>H143+C144</f>
-        <v>496469.53412418673</v>
+        <v>509483.82285220444</v>
       </c>
     </row>
     <row r="145" spans="1:65" ht="19.5">
       <c r="C145">
         <f>H144*D145</f>
-        <v>18428.358550081597</v>
+        <v>18370.95191542523</v>
       </c>
       <c r="D145">
         <f>D144</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E145" t="s">
         <v>15</v>
@@ -7996,17 +8325,17 @@
       </c>
       <c r="H145">
         <f>H144+C145</f>
-        <v>514897.89267426834</v>
+        <v>527854.77476762969</v>
       </c>
     </row>
     <row r="146" spans="1:65" ht="19.5">
       <c r="C146">
         <f>H145*D146</f>
-        <v>19112.397298701802</v>
+        <v>19033.371130994259</v>
       </c>
       <c r="D146">
         <f>D145</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E146" t="s">
         <v>16</v>
@@ -8016,17 +8345,17 @@
       </c>
       <c r="H146">
         <f>H145+C146</f>
-        <v>534010.28997297015</v>
+        <v>546888.14589862397</v>
       </c>
     </row>
     <row r="147" spans="1:65" ht="19.5">
       <c r="C147">
         <f>H146*D147</f>
-        <v>19821.826751998298</v>
+        <v>19719.675838135809</v>
       </c>
       <c r="D147">
         <f>D146</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E147" t="s">
         <v>17</v>
@@ -8036,17 +8365,17 @@
       </c>
       <c r="H147">
         <f>H146+C147</f>
-        <v>553832.11672496842</v>
+        <v>566607.82173675974</v>
       </c>
     </row>
     <row r="148" spans="1:65" ht="19.5">
       <c r="C148">
         <f>H147*D148</f>
-        <v>20557.589382726113</v>
+        <v>20430.727299165719</v>
       </c>
       <c r="D148">
         <f>D147</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E148" t="s">
         <v>11</v>
@@ -8056,17 +8385,17 @@
       </c>
       <c r="H148">
         <f>H147+C148</f>
-        <v>574389.70610769454</v>
+        <v>587038.54903592542</v>
       </c>
     </row>
     <row r="149" spans="1:65" ht="19.5">
       <c r="C149">
         <f>H148*D149</f>
-        <v>21320.66264710786</v>
+        <v>21167.41783176977</v>
       </c>
       <c r="D149">
         <f>D148</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E149" t="s">
         <v>12</v>
@@ -8076,17 +8405,17 @@
       </c>
       <c r="H149">
         <f>H148+C149</f>
-        <v>595710.36875480239</v>
+        <v>608205.96686769521</v>
       </c>
     </row>
     <row r="150" spans="1:65" ht="19.5">
       <c r="C150">
         <f>H149*D150</f>
-        <v>22112.060283378436</v>
+        <v>21930.67192879723</v>
       </c>
       <c r="D150">
         <f>D149</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E150" t="s">
         <v>13</v>
@@ -8096,17 +8425,17 @@
       </c>
       <c r="H150">
         <f>H149+C150</f>
-        <v>617822.42903818085</v>
+        <v>630136.63879649248</v>
       </c>
     </row>
     <row r="151" spans="1:65" ht="19.5">
       <c r="C151">
         <f>H150*D151</f>
-        <v>22932.833658530166</v>
+        <v>22721.447418431912</v>
       </c>
       <c r="D151">
         <f>D150</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E151" t="s">
         <v>14</v>
@@ -8116,17 +8445,17 @@
       </c>
       <c r="H151">
         <f>H150+C151</f>
-        <v>640755.262696711</v>
+        <v>652858.08621492435</v>
       </c>
     </row>
     <row r="152" spans="1:65" ht="19.5">
       <c r="C152">
         <f>H151*D152</f>
-        <v>23784.073165047521</v>
+        <v>23540.736666196626</v>
       </c>
       <c r="D152">
         <f>D151</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E152" t="s">
         <v>15</v>
@@ -8136,17 +8465,17 @@
       </c>
       <c r="H152">
         <f>H151+C152</f>
-        <v>664539.33586175856</v>
+        <v>676398.82288112096</v>
       </c>
     </row>
     <row r="153" spans="1:65" ht="19.5">
       <c r="C153">
         <f>H152*D153</f>
-        <v>24666.909669486955</v>
+        <v>24389.567820299508</v>
       </c>
       <c r="D153">
         <f>D152</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E153" t="s">
         <v>16</v>
@@ -8156,17 +8485,17 @@
       </c>
       <c r="H153">
         <f>H152+C153</f>
-        <v>689206.24553124548</v>
+        <v>700788.39070142049</v>
       </c>
     </row>
     <row r="154" spans="1:65" ht="19.5">
       <c r="C154">
         <f>H153*D154</f>
-        <v>25582.516014826309</v>
+        <v>25269.006101884952</v>
       </c>
       <c r="D154">
         <f>D153</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E154" t="s">
         <v>17</v>
@@ -8176,17 +8505,17 @@
       </c>
       <c r="H154">
         <f>H153+C154</f>
-        <v>714788.76154607185</v>
+        <v>726057.39680330548</v>
       </c>
     </row>
     <row r="155" spans="1:65" ht="19.5">
       <c r="C155">
         <f>H154*D155</f>
-        <v>26532.108578579675</v>
+        <v>26180.155141808405</v>
       </c>
       <c r="D155">
         <f>D154</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E155" t="s">
         <v>11</v>
@@ -8196,17 +8525,17 @@
       </c>
       <c r="H155">
         <f>H154+C155</f>
-        <v>741320.87012465158</v>
+        <v>752237.55194511393</v>
       </c>
     </row>
     <row r="156" spans="1:65" ht="19.5">
       <c r="C156">
         <f>H155*D156</f>
-        <v>27516.948888747545</v>
+        <v>27124.15836561254</v>
       </c>
       <c r="D156">
         <f>D155</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E156" t="s">
         <v>12</v>
@@ -8216,17 +8545,17 @@
       </c>
       <c r="H156">
         <f>H155+C156</f>
-        <v>768837.81901339907</v>
+        <v>779361.71031072643</v>
       </c>
     </row>
     <row r="157" spans="1:65" ht="19.5">
       <c r="C157">
         <f>H156*D157</f>
-        <v>28538.345299749202</v>
+        <v>28102.200428442859</v>
       </c>
       <c r="D157">
         <f>D156</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E157" t="s">
         <v>13</v>
@@ -8236,17 +8565,17 @@
       </c>
       <c r="H157">
         <f>H156+C157</f>
-        <v>797376.16431314824</v>
+        <v>807463.91073916934</v>
       </c>
     </row>
     <row r="158" spans="1:65" ht="19.5">
       <c r="C158">
         <f>H157*D158</f>
-        <v>29597.654730563663</v>
+        <v>29115.508701703438</v>
       </c>
       <c r="D158">
         <f>D157</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E158" t="s">
         <v>14</v>
@@ -8256,17 +8585,17 @@
       </c>
       <c r="H158">
         <f>H157+C158</f>
-        <v>826973.81904371188</v>
+        <v>836579.41944087273</v>
       </c>
     </row>
     <row r="159" spans="1:65" ht="19.5">
       <c r="C159">
         <f>H158*D159</f>
-        <v>30696.284467388381</v>
+        <v>30165.354813318449</v>
       </c>
       <c r="D159">
         <f>D158</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E159" t="s">
         <v>15</v>
@@ -8276,17 +8605,17 @@
       </c>
       <c r="H159">
         <f>H158+C159</f>
-        <v>857670.10351110029</v>
+        <v>866744.7742541912</v>
       </c>
     </row>
     <row r="160" spans="1:65" ht="19.5">
       <c r="C160">
         <f>H159*D160</f>
-        <v>31835.694033210471</v>
+        <v>31253.056243532403</v>
       </c>
       <c r="D160">
         <f>D159</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E160" t="s">
         <v>16</v>
@@ -8296,17 +8625,17 @@
       </c>
       <c r="H160">
         <f>H159+C160</f>
-        <v>889505.7975443108</v>
+        <v>897997.83049772365</v>
       </c>
     </row>
     <row r="161" spans="1:65" ht="19.5">
       <c r="C161">
         <f>H160*D161</f>
-        <v>33017.397126774202</v>
+        <v>32379.977978251678</v>
       </c>
       <c r="D161">
         <f>D160</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E161" t="s">
         <v>17</v>
@@ -8316,17 +8645,17 @@
       </c>
       <c r="H161">
         <f>H160+C161</f>
-        <v>922523.19467108499</v>
+        <v>930377.8084759753</v>
       </c>
     </row>
     <row r="162" spans="1:65" ht="19.5">
       <c r="C162">
         <f>H161*D162</f>
-        <v>34242.963633520674</v>
+        <v>33547.534222002228</v>
       </c>
       <c r="D162">
         <f>D161</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E162" t="s">
         <v>11</v>
@@ -8336,17 +8665,17 @@
       </c>
       <c r="H162">
         <f>H161+C162</f>
-        <v>956766.15830460563</v>
+        <v>963925.34269797755</v>
       </c>
     </row>
     <row r="163" spans="1:65" ht="19.5">
       <c r="C163">
         <f>H162*D163</f>
-        <v>35514.021711171168</v>
+        <v>34757.19017265302</v>
       </c>
       <c r="D163">
         <f>D162</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E163" t="s">
         <v>12</v>
@@ -8356,17 +8685,17 @@
       </c>
       <c r="H163">
         <f>H162+C163</f>
-        <v>992280.18001577677</v>
+        <v>998682.53287063062</v>
       </c>
     </row>
     <row r="164" spans="1:65" ht="19.5">
       <c r="C164">
         <f>H163*D164</f>
-        <v>36832.259952724853</v>
+        <v>36010.463860132455</v>
       </c>
       <c r="D164">
         <f>D163</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E164" t="s">
         <v>13</v>
@@ -8376,17 +8705,17 @@
       </c>
       <c r="H164">
         <f>H163+C164</f>
-        <v>1029112.4399685017</v>
+        <v>1034692.9967307631</v>
       </c>
     </row>
     <row r="165" spans="1:65" ht="19.5">
       <c r="C165">
         <f>H164*D165</f>
-        <v>38199.429629744431</v>
+        <v>37308.92805144508</v>
       </c>
       <c r="D165">
         <f>D164</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E165" t="s">
         <v>14</v>
@@ -8396,17 +8725,17 @@
       </c>
       <c r="H165">
         <f>H164+C165</f>
-        <v>1067311.8695982462</v>
+        <v>1072001.9247822082</v>
       </c>
     </row>
     <row r="166" spans="1:65" ht="19.5">
       <c r="C166">
         <f>H165*D166</f>
-        <v>39617.347018909859</v>
+        <v>38654.212224379422</v>
       </c>
       <c r="D166">
         <f>D165</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E166" t="s">
         <v>15</v>
@@ -8416,17 +8745,17 @@
       </c>
       <c r="H166">
         <f>H165+C166</f>
-        <v>1106929.2166171561</v>
+        <v>1110656.1370065876</v>
       </c>
     </row>
     <row r="167" spans="1:65" ht="19.5">
       <c r="C167">
         <f>H166*D167</f>
-        <v>41087.895814930955</v>
+        <v>40048.004612383695</v>
       </c>
       <c r="D167">
         <f>D166</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E167" t="s">
         <v>16</v>
@@ -8436,17 +8765,17 @@
       </c>
       <c r="H167">
         <f>H166+C167</f>
-        <v>1148017.1124320871</v>
+        <v>1150704.1416189712</v>
       </c>
     </row>
     <row r="168" spans="1:65" ht="19.5">
       <c r="C168">
         <f>H167*D168</f>
-        <v>42613.029633024504</v>
+        <v>41492.054323175493</v>
       </c>
       <c r="D168">
         <f>D167</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E168" t="s">
         <v>17</v>
@@ -8456,17 +8785,17 @@
       </c>
       <c r="H168">
         <f>H167+C168</f>
-        <v>1190630.1420651115</v>
+        <v>1192196.1959421467</v>
       </c>
     </row>
     <row r="169" spans="1:65" ht="19.5">
       <c r="C169">
         <f>H168*D169</f>
-        <v>44194.774604280268</v>
+        <v>42988.173533744397</v>
       </c>
       <c r="D169">
         <f>D168</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E169" t="s">
         <v>11</v>
@@ -8476,17 +8805,17 @@
       </c>
       <c r="H169">
         <f>H168+C169</f>
-        <v>1234824.9166693918</v>
+        <v>1235184.3694758911</v>
       </c>
     </row>
     <row r="170" spans="1:65" ht="19.5">
       <c r="C170">
         <f>H169*D170</f>
-        <v>45835.232067363984</v>
+        <v>44538.239764501777</v>
       </c>
       <c r="D170">
         <f>D169</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E170" t="s">
         <v>12</v>
@@ -8496,17 +8825,17 @@
       </c>
       <c r="H170">
         <f>H169+C170</f>
-        <v>1280660.1487367558</v>
+        <v>1279722.6092403929</v>
       </c>
     </row>
     <row r="171" spans="1:65" ht="19.5">
       <c r="C171">
         <f>H170*D171</f>
-        <v>47536.581360133074</v>
+        <v>46144.198235431861</v>
       </c>
       <c r="D171">
         <f>D170</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E171" t="s">
         <v>13</v>
@@ -8516,17 +8845,17 @@
       </c>
       <c r="H171">
         <f>H170+C171</f>
-        <v>1328196.730096889</v>
+        <v>1325866.8074758248</v>
       </c>
     </row>
     <row r="172" spans="1:65" ht="19.5">
       <c r="C172">
         <f>H171*D172</f>
-        <v>49301.082714873868</v>
+        <v>47808.064307200897</v>
       </c>
       <c r="D172">
         <f>D171</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E172" t="s">
         <v>14</v>
@@ -8536,17 +8865,17 @@
       </c>
       <c r="H172">
         <f>H171+C172</f>
-        <v>1377497.8128117628</v>
+        <v>1373674.8717830258</v>
       </c>
     </row>
     <row r="173" spans="1:65" ht="19.5">
       <c r="C173">
         <f>H172*D173</f>
-        <v>51131.080261006602</v>
+        <v>49531.926010287643</v>
       </c>
       <c r="D173">
         <f>D172</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E173" t="s">
         <v>15</v>
@@ -8556,17 +8885,17 @@
       </c>
       <c r="H173">
         <f>H172+C173</f>
-        <v>1428628.8930727695</v>
+        <v>1423206.7977933134</v>
       </c>
     </row>
     <row r="174" spans="1:65" ht="19.5">
       <c r="C174">
         <f>H173*D174</f>
-        <v>53029.005139247238</v>
+        <v>51317.946665309224</v>
       </c>
       <c r="D174">
         <f>D173</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E174" t="s">
         <v>16</v>
@@ -8576,17 +8905,17 @@
       </c>
       <c r="H174">
         <f>H173+C174</f>
-        <v>1481657.8982120168</v>
+        <v>1474524.7444586225</v>
       </c>
     </row>
     <row r="175" spans="1:65" ht="19.5">
       <c r="C175">
         <f>H174*D175</f>
-        <v>54997.378731363213</v>
+        <v>53168.367597830642</v>
       </c>
       <c r="D175">
         <f>D174</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E175" t="s">
         <v>17</v>
@@ -8596,17 +8925,17 @@
       </c>
       <c r="H175">
         <f>H174+C175</f>
-        <v>1536655.27694338</v>
+        <v>1527693.1120564532</v>
       </c>
     </row>
     <row r="176" spans="1:65" ht="19.5">
       <c r="C176">
         <f>H175*D176</f>
-        <v>57038.816009813963</v>
+        <v>55085.510951064738</v>
       </c>
       <c r="D176">
         <f>D175</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E176" t="s">
         <v>11</v>
@@ -8616,17 +8945,17 @@
       </c>
       <c r="H176">
         <f>H175+C176</f>
-        <v>1593694.0929531939</v>
+        <v>1582778.623007518</v>
       </c>
     </row>
     <row r="177" spans="1:65" ht="19.5">
       <c r="C177">
         <f>H176*D177</f>
-        <v>59156.029011726088</v>
+        <v>57071.782599992446</v>
       </c>
       <c r="D177">
         <f>D176</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E177" t="s">
         <v>12</v>
@@ -8636,17 +8965,17 @@
       </c>
       <c r="H177">
         <f>H176+C177</f>
-        <v>1652850.1219649201</v>
+        <v>1639850.4056075104</v>
       </c>
     </row>
     <row r="178" spans="1:65" ht="19.5">
       <c r="C178">
         <f>H177*D178</f>
-        <v>61351.830441818332</v>
+        <v>59129.675170560302</v>
       </c>
       <c r="D178">
         <f>D177</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E178" t="s">
         <v>13</v>
@@ -8656,17 +8985,17 @@
       </c>
       <c r="H178">
         <f>H177+C178</f>
-        <v>1714201.9524067384</v>
+        <v>1698980.0807780707</v>
       </c>
     </row>
     <row r="179" spans="1:65" ht="19.5">
       <c r="C179">
         <f>H178*D179</f>
-        <v>63629.137409062831</v>
+        <v>61261.771167744089</v>
       </c>
       <c r="D179">
         <f>D178</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E179" t="s">
         <v>14</v>
@@ -8676,17 +9005,17 @@
       </c>
       <c r="H179">
         <f>H178+C179</f>
-        <v>1777831.0898158012</v>
+        <v>1760241.8519458149</v>
       </c>
     </row>
     <row r="180" spans="1:65" ht="19.5">
       <c r="C180">
         <f>H179*D180</f>
-        <v>65990.975302046834</v>
+        <v>63470.746216404048</v>
       </c>
       <c r="D180">
         <f>D179</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E180" t="s">
         <v>15</v>
@@ -8696,17 +9025,17 @@
       </c>
       <c r="H180">
         <f>H179+C180</f>
-        <v>1843822.0651178481</v>
+        <v>1823712.5981622189</v>
       </c>
     </row>
     <row r="181" spans="1:65" ht="19.5">
       <c r="C181">
         <f>H180*D181</f>
-        <v>68440.48180818322</v>
+        <v>65759.372418998842</v>
       </c>
       <c r="D181">
         <f>D180</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E181" t="s">
         <v>16</v>
@@ -8716,17 +9045,17 @@
       </c>
       <c r="H181">
         <f>H180+C181</f>
-        <v>1912262.5469260314</v>
+        <v>1889471.9705812177</v>
       </c>
     </row>
     <row r="182" spans="1:65" ht="19.5">
       <c r="C182">
         <f>H181*D182</f>
-        <v>70980.911082109335</v>
+        <v>68130.521834371757</v>
       </c>
       <c r="D182">
         <f>D181</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E182" t="s">
         <v>17</v>
@@ -8736,17 +9065,17 @@
       </c>
       <c r="H182">
         <f>H181+C182</f>
-        <v>1983243.4580081408</v>
+        <v>1957602.4924155895</v>
       </c>
     </row>
     <row r="183" spans="1:65" ht="19.5">
       <c r="C183">
         <f>H182*D183</f>
-        <v>73615.63806881175</v>
+        <v>70587.170081975011</v>
       </c>
       <c r="D183">
         <f>D182</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E183" t="s">
         <v>11</v>
@@ -8756,17 +9085,17 @@
       </c>
       <c r="H183">
         <f>H182+C183</f>
-        <v>2056859.0960769525</v>
+        <v>2028189.6624975645</v>
       </c>
     </row>
     <row r="184" spans="1:65" ht="19.5">
       <c r="C184">
         <f>H183*D184</f>
-        <v>76348.16298722045</v>
+        <v>73132.400076054881</v>
       </c>
       <c r="D184">
         <f>D183</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E184" t="s">
         <v>12</v>
@@ -8776,17 +9105,17 @@
       </c>
       <c r="H184">
         <f>H183+C184</f>
-        <v>2133207.2590641729</v>
+        <v>2101322.0625736192</v>
       </c>
     </row>
     <row r="185" spans="1:65" ht="19.5">
       <c r="C185">
         <f>H184*D185</f>
-        <v>79182.115980228526</v>
+        <v>75769.405894484138</v>
       </c>
       <c r="D185">
         <f>D184</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E185" t="s">
         <v>13</v>
@@ -8796,17 +9125,17 @@
       </c>
       <c r="H185">
         <f>H184+C185</f>
-        <v>2212389.3750444013</v>
+        <v>2177091.4684681036</v>
       </c>
     </row>
     <row r="186" spans="1:65" ht="19.5">
       <c r="C186">
         <f>H185*D186</f>
-        <v>82121.261937315168</v>
+        <v>78501.496787096636</v>
       </c>
       <c r="D186">
         <f>D185</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E186" t="s">
         <v>14</v>
@@ -8816,17 +9145,17 @@
       </c>
       <c r="H186">
         <f>H185+C186</f>
-        <v>2294510.6369817164</v>
+        <v>2255592.9652552004</v>
       </c>
     </row>
     <row r="187" spans="1:65" ht="19.5">
       <c r="C187">
         <f>H186*D187</f>
-        <v>85169.505496178666</v>
+        <v>81332.101328554301</v>
       </c>
       <c r="D187">
         <f>D186</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E187" t="s">
         <v>15</v>
@@ -8836,17 +9165,17 @@
       </c>
       <c r="H187">
         <f>H186+C187</f>
-        <v>2379680.1424778951</v>
+        <v>2336925.0665837545</v>
       </c>
     </row>
     <row r="188" spans="1:65" ht="19.5">
       <c r="C188">
         <f>H187*D188</f>
-        <v>88330.896230024024</v>
+        <v>84264.771720958102</v>
       </c>
       <c r="D188">
         <f>D187</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E188" t="s">
         <v>16</v>
@@ -8856,17 +9185,17 @@
       </c>
       <c r="H188">
         <f>H187+C188</f>
-        <v>2468011.038707919</v>
+        <v>2421189.8383047124</v>
       </c>
     </row>
     <row r="189" spans="1:65" ht="19.5">
       <c r="C189">
         <f>H188*D189</f>
-        <v>91609.63402739662</v>
+        <v>87303.18825160242</v>
       </c>
       <c r="D189">
         <f>D188</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E189" t="s">
         <v>17</v>
@@ -8876,17 +9205,17 @@
       </c>
       <c r="H189">
         <f>H188+C189</f>
-        <v>2559620.6727353157</v>
+        <v>2508493.0265563149</v>
       </c>
     </row>
     <row r="190" spans="1:65" ht="19.5">
       <c r="C190">
         <f>H189*D190</f>
-        <v>95010.074671708804</v>
+        <v>90451.163911467025</v>
       </c>
       <c r="D190">
         <f>D189</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E190" t="s">
         <v>11</v>
@@ -8896,17 +9225,17 @@
       </c>
       <c r="H190">
         <f>H189+C190</f>
-        <v>2654630.7474070247</v>
+        <v>2598944.1904677819</v>
       </c>
     </row>
     <row r="191" spans="1:65" ht="19.5">
       <c r="C191">
         <f>H190*D191</f>
-        <v>98536.735627871967</v>
+        <v>93712.649180242355</v>
       </c>
       <c r="D191">
         <f>D190</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E191" t="s">
         <v>12</v>
@@ -8916,17 +9245,17 @@
       </c>
       <c r="H191">
         <f>H190+C191</f>
-        <v>2753167.4830348967</v>
+        <v>2692656.8396480242</v>
       </c>
     </row>
     <row r="192" spans="1:65" ht="19.5">
       <c r="C192">
         <f>H191*D192</f>
-        <v>102194.30204372136</v>
+        <v>97091.736983893308</v>
       </c>
       <c r="D192">
         <f>D191</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E192" t="s">
         <v>13</v>
@@ -8936,17 +9265,17 @@
       </c>
       <c r="H192">
         <f>H191+C192</f>
-        <v>2855361.7850786182</v>
+        <v>2789748.5766319176</v>
       </c>
     </row>
     <row r="193" spans="1:65" ht="19.5">
       <c r="C193">
         <f>H192*D193</f>
-        <v>105987.63297420694</v>
+        <v>100592.66783098252</v>
       </c>
       <c r="D193">
         <f>D192</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E193" t="s">
         <v>14</v>
@@ -8956,17 +9285,17 @@
       </c>
       <c r="H193">
         <f>H192+C193</f>
-        <v>2961349.4180528251</v>
+        <v>2890341.2444629003</v>
       </c>
     </row>
     <row r="194" spans="1:65" ht="19.5">
       <c r="C194">
         <f>H193*D194</f>
-        <v>109921.76783661838</v>
+        <v>104219.83513419914</v>
       </c>
       <c r="D194">
         <f>D193</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E194" t="s">
         <v>15</v>
@@ -8976,17 +9305,17 @@
       </c>
       <c r="H194">
         <f>H193+C194</f>
-        <v>3071271.1858894434</v>
+        <v>2994561.0795970997</v>
       </c>
     </row>
     <row r="195" spans="1:65" ht="19.5">
       <c r="C195">
         <f>H194*D195</f>
-        <v>114001.93310542082</v>
+        <v>107977.79072377108</v>
       </c>
       <c r="D195">
         <f>D194</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E195" t="s">
         <v>16</v>
@@ -8996,17 +9325,17 @@
       </c>
       <c r="H195">
         <f>H194+C195</f>
-        <v>3185273.1189948642</v>
+        <v>3102538.8703208705</v>
       </c>
     </row>
     <row r="196" spans="1:65" ht="19.5">
       <c r="C196">
         <f>H195*D196</f>
-        <v>118233.54925559449</v>
+        <v>111871.2505596797</v>
       </c>
       <c r="D196">
         <f>D195</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E196" t="s">
         <v>17</v>
@@ -9016,17 +9345,17 @@
       </c>
       <c r="H196">
         <f>H195+C196</f>
-        <v>3303506.6682504588</v>
+        <v>3214410.1208805502</v>
       </c>
     </row>
     <row r="197" spans="1:65" ht="19.5">
       <c r="C197">
         <f>H196*D197</f>
-        <v>122622.23796370324</v>
+        <v>115905.10064984547</v>
       </c>
       <c r="D197">
         <f>D196</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E197" t="s">
         <v>11</v>
@@ -9036,17 +9365,17 @@
       </c>
       <c r="H197">
         <f>H196+C197</f>
-        <v>3426128.9062141622</v>
+        <v>3330315.2215303956</v>
       </c>
     </row>
     <row r="198" spans="1:65" ht="19.5">
       <c r="C198">
         <f>H197*D198</f>
-        <v>127173.82957625788</v>
+        <v>120084.40318171117</v>
       </c>
       <c r="D198">
         <f>D197</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E198" t="s">
         <v>12</v>
@@ -9056,17 +9385,17 @@
       </c>
       <c r="H198">
         <f>H197+C198</f>
-        <v>3553302.7357904203</v>
+        <v>3450399.6247121068</v>
       </c>
     </row>
     <row r="199" spans="1:65" ht="19.5">
       <c r="C199">
         <f>H198*D199</f>
-        <v>131894.37085529641</v>
+        <v>124414.40287491772</v>
       </c>
       <c r="D199">
         <f>D198</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E199" t="s">
         <v>13</v>
@@ -9076,17 +9405,17 @@
       </c>
       <c r="H199">
         <f>H198+C199</f>
-        <v>3685197.1066457168</v>
+        <v>3574814.0275870245</v>
       </c>
     </row>
     <row r="200" spans="1:65" ht="19.5">
       <c r="C200">
         <f>H199*D200</f>
-        <v>136790.13301147104</v>
+        <v>128900.53356304458</v>
       </c>
       <c r="D200">
         <f>D199</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E200" t="s">
         <v>14</v>
@@ -9096,17 +9425,17 @@
       </c>
       <c r="H200">
         <f>H199+C200</f>
-        <v>3821987.2396571878</v>
+        <v>3703714.5611500689</v>
       </c>
     </row>
     <row r="201" spans="1:65" ht="19.5">
       <c r="C201">
         <f>H200*D201</f>
-        <v>141867.62003531362</v>
+        <v>133548.42501267415</v>
       </c>
       <c r="D201">
         <f>D200</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E201" t="s">
         <v>15</v>
@@ -9116,17 +9445,17 @@
       </c>
       <c r="H201">
         <f>H200+C201</f>
-        <v>3963854.8596925014</v>
+        <v>3837262.9861627431</v>
       </c>
     </row>
     <row r="202" spans="1:65" ht="19.5">
       <c r="C202">
         <f>H201*D202</f>
-        <v>147133.57733774811</v>
+        <v>138363.90998833807</v>
       </c>
       <c r="D202">
         <f>D201</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E202" t="s">
         <v>16</v>
@@ -9136,17 +9465,17 @@
       </c>
       <c r="H202">
         <f>H201+C202</f>
-        <v>4110988.4370302493</v>
+        <v>3975626.8961510812</v>
       </c>
     </row>
     <row r="203" spans="1:65" ht="19.5">
       <c r="C203">
         <f>H202*D203</f>
-        <v>152595.00071132803</v>
+        <v>143353.03157221092</v>
       </c>
       <c r="D203">
         <f>D202</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E203" t="s">
         <v>17</v>
@@ -9156,17 +9485,17 @@
       </c>
       <c r="H203">
         <f>H202+C203</f>
-        <v>4263583.4377415776</v>
+        <v>4118979.9277232923</v>
       </c>
     </row>
     <row r="204" spans="1:65" ht="19.5">
       <c r="C204">
         <f>H203*D204</f>
-        <v>158259.14562410512</v>
+        <v>148522.05074773729</v>
       </c>
       <c r="D204">
         <f>D203</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E204" t="s">
         <v>11</v>
@@ -9176,17 +9505,17 @@
       </c>
       <c r="H204">
         <f>H203+C204</f>
-        <v>4421842.5833656825</v>
+        <v>4267501.9784710295</v>
       </c>
     </row>
     <row r="205" spans="1:65" ht="19.5">
       <c r="C205">
         <f>H204*D205</f>
-        <v>164133.53685847452</v>
+        <v>153877.45425670902</v>
       </c>
       <c r="D205">
         <f>D204</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E205" t="s">
         <v>12</v>
@@ -9196,17 +9525,17 @@
       </c>
       <c r="H205">
         <f>H204+C205</f>
-        <v>4585976.1202241573</v>
+        <v>4421379.4327277383</v>
       </c>
     </row>
     <row r="206" spans="1:65" ht="19.5">
       <c r="C206">
         <f>H205*D206</f>
-        <v>170225.9785078032</v>
+        <v>159425.96273965272</v>
       </c>
       <c r="D206">
         <f>D205</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E206" t="s">
         <v>13</v>
@@ -9216,17 +9545,17 @@
       </c>
       <c r="H206">
         <f>H205+C206</f>
-        <v>4756202.0987319602</v>
+        <v>4580805.3954673912</v>
       </c>
     </row>
     <row r="207" spans="1:65" ht="19.5">
       <c r="C207">
         <f>H206*D207</f>
-        <v>176544.56434412079</v>
+        <v>165174.53916974313</v>
       </c>
       <c r="D207">
         <f>D206</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E207" t="s">
         <v>14</v>
@@ -9236,17 +9565,17 @@
       </c>
       <c r="H207">
         <f>H206+C207</f>
-        <v>4932746.6630760813</v>
+        <v>4745979.934637134</v>
       </c>
     </row>
     <row r="208" spans="1:65" ht="19.5">
       <c r="C208">
         <f>H207*D208</f>
-        <v>183097.68857064706</v>
+        <v>171130.39759082612</v>
       </c>
       <c r="D208">
         <f>D207</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E208" t="s">
         <v>15</v>
@@ -9256,17 +9585,17 @@
       </c>
       <c r="H208">
         <f>H207+C208</f>
-        <v>5115844.3516467288</v>
+        <v>4917110.3322279602</v>
       </c>
     </row>
     <row r="209" spans="1:65" ht="19.5">
       <c r="C209">
         <f>H208*D209</f>
-        <v>189894.05697344022</v>
+        <v>177301.01217051744</v>
       </c>
       <c r="D209">
         <f>D208</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E209" t="s">
         <v>16</v>
@@ -9276,17 +9605,17 @@
       </c>
       <c r="H209">
         <f>H208+C209</f>
-        <v>5305738.4086201694</v>
+        <v>5094411.344398478</v>
       </c>
     </row>
     <row r="210" spans="1:65" ht="19.5">
       <c r="C210">
         <f>H209*D210</f>
-        <v>196942.69848698139</v>
+        <v>183694.1265797372</v>
       </c>
       <c r="D210">
         <f>D209</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E210" t="s">
         <v>17</v>
@@ -9296,17 +9625,17 @@
       </c>
       <c r="H210">
         <f>H209+C210</f>
-        <v>5502681.1071071504</v>
+        <v>5278105.4709782153</v>
       </c>
     </row>
     <row r="211" spans="1:65" ht="19.5">
       <c r="C211">
         <f>H210*D211</f>
-        <v>204252.97718905951</v>
+        <v>190317.76371045201</v>
       </c>
       <c r="D211">
         <f>D210</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E211" t="s">
         <v>11</v>
@@ -9316,17 +9645,17 @@
       </c>
       <c r="H211">
         <f>H210+C211</f>
-        <v>5706934.0842962097</v>
+        <v>5468423.2346886676</v>
       </c>
     </row>
     <row r="212" spans="1:65" ht="19.5">
       <c r="C212">
         <f>H211*D212</f>
-        <v>211834.60474089251</v>
+        <v>197180.23574381866</v>
       </c>
       <c r="D212">
         <f>D211</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E212" t="s">
         <v>12</v>
@@ -9336,17 +9665,17 @@
       </c>
       <c r="H212">
         <f>H211+C212</f>
-        <v>5918768.6890371023</v>
+        <v>5665603.4704324864</v>
       </c>
     </row>
     <row r="213" spans="1:65" ht="19.5">
       <c r="C213">
         <f>H212*D213</f>
-        <v>219697.65328901049</v>
+        <v>204290.1545813648</v>
       </c>
       <c r="D213">
         <f>D212</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E213" t="s">
         <v>13</v>
@@ -9356,17 +9685,17 @@
       </c>
       <c r="H213">
         <f>H212+C213</f>
-        <v>6138466.342326113</v>
+        <v>5869893.6250138516</v>
       </c>
     </row>
     <row r="214" spans="1:65" ht="19.5">
       <c r="C214">
         <f>H213*D214</f>
-        <v>227852.56884604174</v>
+        <v>211656.44265229686</v>
       </c>
       <c r="D214">
         <f>D213</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E214" t="s">
         <v>14</v>
@@ -9376,17 +9705,17 @@
       </c>
       <c r="H214">
         <f>H213+C214</f>
-        <v>6366318.9111721544</v>
+        <v>6081550.0676661488</v>
       </c>
     </row>
     <row r="215" spans="1:65" ht="19.5">
       <c r="C215">
         <f>H214*D215</f>
-        <v>236310.18516817779</v>
+        <v>219288.34411049736</v>
       </c>
       <c r="D215">
         <f>D214</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E215" t="s">
         <v>15</v>
@@ -9396,17 +9725,17 @@
       </c>
       <c r="H215">
         <f>H214+C215</f>
-        <v>6602629.0963403322</v>
+        <v>6300838.411776646</v>
       </c>
     </row>
     <row r="216" spans="1:65" ht="19.5">
       <c r="C216">
         <f>H215*D216</f>
-        <v>245081.73814775306</v>
+        <v>227195.43643526349</v>
       </c>
       <c r="D216">
         <f>D215</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E216" t="s">
         <v>16</v>
@@ -9416,17 +9745,17 @@
       </c>
       <c r="H216">
         <f>H215+C216</f>
-        <v>6847710.8344880855</v>
+        <v>6528033.8482119096</v>
       </c>
     </row>
     <row r="217" spans="1:65" ht="19.5">
       <c r="C217">
         <f>H216*D217</f>
-        <v>254178.88074006018</v>
+        <v>235387.64245034446</v>
       </c>
       <c r="D217">
         <f>D216</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E217" t="s">
         <v>17</v>
@@ -9436,17 +9765,17 @@
       </c>
       <c r="H217">
         <f>H216+C217</f>
-        <v>7101889.7152281459</v>
+        <v>6763421.4906622544</v>
       </c>
     </row>
     <row r="218" spans="1:65" ht="19.5">
       <c r="C218">
         <f>H217*D218</f>
-        <v>263613.69844423089</v>
+        <v>243875.24277636112</v>
       </c>
       <c r="D218">
         <f>D217</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E218" t="s">
         <v>11</v>
@@ -9456,17 +9785,17 @@
       </c>
       <c r="H218">
         <f>H217+C218</f>
-        <v>7365503.4136723764</v>
+        <v>7007296.7334386157</v>
       </c>
     </row>
     <row r="219" spans="1:65" ht="19.5">
       <c r="C219">
         <f>H218*D219</f>
-        <v>273398.72535874887</v>
+        <v>252668.88873223448</v>
       </c>
       <c r="D219">
         <f>D218</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E219" t="s">
         <v>12</v>
@@ -9476,17 +9805,17 @@
       </c>
       <c r="H219">
         <f>H218+C219</f>
-        <v>7638902.1390311252</v>
+        <v>7259965.6221708506</v>
       </c>
     </row>
     <row r="220" spans="1:65" ht="19.5">
       <c r="C220">
         <f>H219*D220</f>
-        <v>283546.96083292406</v>
+        <v>261779.61570181354</v>
       </c>
       <c r="D220">
         <f>D219</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E220" t="s">
         <v>13</v>
@@ -9496,17 +9825,17 @@
       </c>
       <c r="H220">
         <f>H219+C220</f>
-        <v>7922449.0998640489</v>
+        <v>7521745.2378726639</v>
       </c>
     </row>
     <row r="221" spans="1:65" ht="19.5">
       <c r="C221">
         <f>H220*D221</f>
-        <v>294071.8867364499</v>
+        <v>271218.85698247649</v>
       </c>
       <c r="D221">
         <f>D220</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E221" t="s">
         <v>14</v>
@@ -9516,17 +9845,17 @@
       </c>
       <c r="H221">
         <f>H220+C221</f>
-        <v>8216520.9866004987</v>
+        <v>7792964.09485514</v>
       </c>
     </row>
     <row r="222" spans="1:65" ht="19.5">
       <c r="C222">
         <f>H221*D222</f>
-        <v>304987.48536998604</v>
+        <v>280998.45813308464</v>
       </c>
       <c r="D222">
         <f>D221</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E222" t="s">
         <v>15</v>
@@ -9536,17 +9865,17 @@
       </c>
       <c r="H222">
         <f>H221+C222</f>
-        <v>8521508.4719704855</v>
+        <v>8073962.5529882247</v>
       </c>
     </row>
     <row r="223" spans="1:65" ht="19.5">
       <c r="C223">
         <f>H222*D223</f>
-        <v>316308.25804056041</v>
+        <v>291130.69183929404</v>
       </c>
       <c r="D223">
         <f>D222</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E223" t="s">
         <v>16</v>
@@ -9556,17 +9885,17 @@
       </c>
       <c r="H223">
         <f>H222+C223</f>
-        <v>8837816.7300110459</v>
+        <v>8365093.2448275182</v>
       </c>
     </row>
     <row r="224" spans="1:65" ht="19.5">
       <c r="C224">
         <f>H223*D224</f>
-        <v>328049.24432646832</v>
+        <v>301628.27331488027</v>
       </c>
       <c r="D224">
         <f>D223</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E224" t="s">
         <v>17</v>
@@ -9576,17 +9905,17 @@
       </c>
       <c r="H224">
         <f>H223+C224</f>
-        <v>9165865.9743375145</v>
+        <v>8666721.5181423984</v>
       </c>
     </row>
     <row r="225" spans="1:65" ht="19.5">
       <c r="C225">
         <f>H224*D225</f>
-        <v>340226.0420572618</v>
+        <v>312504.37625840364</v>
       </c>
       <c r="D225">
         <f>D224</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E225" t="s">
         <v>11</v>
@@ -9596,17 +9925,17 @@
       </c>
       <c r="H225">
         <f>H224+C225</f>
-        <v>9506092.0163947754</v>
+        <v>8979225.8944008015</v>
       </c>
     </row>
     <row r="226" spans="1:65" ht="19.5">
       <c r="C226">
         <f>H225*D226</f>
-        <v>352854.82803537184</v>
+        <v>323772.64938523946</v>
       </c>
       <c r="D226">
         <f>D225</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E226" t="s">
         <v>12</v>
@@ -9616,17 +9945,17 @@
       </c>
       <c r="H226">
         <f>H225+C226</f>
-        <v>9858946.8444301467</v>
+        <v>9302998.5437860414</v>
       </c>
     </row>
     <row r="227" spans="1:65" ht="19.5">
       <c r="C227">
         <f>H226*D227</f>
-        <v>365952.37952689326</v>
+        <v>335447.23355571966</v>
       </c>
       <c r="D227">
         <f>D226</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E227" t="s">
         <v>13</v>
@@ -9636,17 +9965,17 @@
       </c>
       <c r="H227">
         <f>H226+C227</f>
-        <v>10224899.223957039</v>
+        <v>9638445.7773417607</v>
       </c>
     </row>
     <row r="228" spans="1:65" ht="19.5">
       <c r="C228">
         <f>H227*D228</f>
-        <v>379536.09655008168</v>
+        <v>347542.77952088014</v>
       </c>
       <c r="D228">
         <f>D227</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E228" t="s">
         <v>14</v>
@@ -9656,17 +9985,17 @@
       </c>
       <c r="H228">
         <f>H227+C228</f>
-        <v>10604435.32050712</v>
+        <v>9985988.5568626411</v>
       </c>
     </row>
     <row r="229" spans="1:65" ht="19.5">
       <c r="C229">
         <f>H228*D229</f>
-        <v>393624.02499117254</v>
+        <v>360074.46630808449</v>
       </c>
       <c r="D229">
         <f>D228</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E229" t="s">
         <v>15</v>
@@ -9676,17 +10005,17 @@
       </c>
       <c r="H229">
         <f>H228+C229</f>
-        <v>10998059.345498294</v>
+        <v>10346063.023170726</v>
       </c>
     </row>
     <row r="230" spans="1:65" ht="19.5">
       <c r="C230">
         <f>H229*D230</f>
-        <v>408234.88057823293</v>
+        <v>373058.02026959497</v>
       </c>
       <c r="D230">
         <f>D229</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E230" t="s">
         <v>16</v>
@@ -9696,17 +10025,17 @@
       </c>
       <c r="H230">
         <f>H229+C230</f>
-        <v>11406294.226076527</v>
+        <v>10719121.043440321</v>
       </c>
     </row>
     <row r="231" spans="1:65" ht="19.5">
       <c r="C231">
         <f>H230*D231</f>
-        <v>423388.07374489272</v>
+        <v>386509.73481799697</v>
       </c>
       <c r="D231">
         <f>D230</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E231" t="s">
         <v>17</v>
@@ -9716,17 +10045,17 @@
       </c>
       <c r="H231">
         <f>H230+C231</f>
-        <v>11829682.29982142</v>
+        <v>11105630.778258318</v>
       </c>
     </row>
     <row r="232" spans="1:65" ht="19.5">
       <c r="C232">
         <f>H231*D232</f>
-        <v>439103.7354169896</v>
+        <v>400446.49087324267</v>
       </c>
       <c r="D232">
         <f>D231</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E232" t="s">
         <v>11</v>
@@ -9736,17 +10065,17 @@
       </c>
       <c r="H232">
         <f>H231+C232</f>
-        <v>12268786.035238409</v>
+        <v>11506077.26913156</v>
       </c>
     </row>
     <row r="233" spans="1:65" ht="19.5">
       <c r="C233">
         <f>H232*D233</f>
-        <v>455402.74375638214</v>
+        <v>414885.77804697328</v>
       </c>
       <c r="D233">
         <f>D232</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E233" t="s">
         <v>12</v>
@@ -9756,17 +10085,17 @@
       </c>
       <c r="H233">
         <f>H232+C233</f>
-        <v>12724188.778994791</v>
+        <v>11920963.047178533</v>
       </c>
     </row>
     <row r="234" spans="1:65" ht="19.5">
       <c r="C234">
         <f>H233*D234</f>
-        <v>472306.75189746235</v>
+        <v>429845.7165907055</v>
       </c>
       <c r="D234">
         <f>D233</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E234" t="s">
         <v>13</v>
@@ -9776,17 +10105,17 @@
       </c>
       <c r="H234">
         <f>H233+C234</f>
-        <v>13196495.530892253</v>
+        <v>12350808.763769239</v>
       </c>
     </row>
     <row r="235" spans="1:65" ht="19.5">
       <c r="C235">
         <f>H234*D235</f>
-        <v>489838.21671321412</v>
+        <v>445345.08013542416</v>
       </c>
       <c r="D235">
         <f>D234</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E235" t="s">
         <v>14</v>
@@ -9796,17 +10125,17 @@
       </c>
       <c r="H235">
         <f>H234+C235</f>
-        <v>13686333.747605467</v>
+        <v>12796153.843904663</v>
       </c>
     </row>
     <row r="236" spans="1:65" ht="19.5">
       <c r="C236">
         <f>H235*D236</f>
-        <v>508020.42864903394</v>
+        <v>461403.31925111916</v>
       </c>
       <c r="D236">
         <f>D235</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E236" t="s">
         <v>15</v>
@@ -9816,17 +10145,17 @@
       </c>
       <c r="H236">
         <f>H235+C236</f>
-        <v>14194354.176254502</v>
+        <v>13257557.163155783</v>
       </c>
     </row>
     <row r="237" spans="1:65" ht="19.5">
       <c r="C237">
         <f>H236*D237</f>
-        <v>526877.54266394698</v>
+        <v>478040.58585583098</v>
       </c>
       <c r="D237">
         <f>D236</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E237" t="s">
         <v>16</v>
@@ -9836,17 +10165,17 @@
       </c>
       <c r="H237">
         <f>H236+C237</f>
-        <v>14721231.718918448</v>
+        <v>13735597.749011613</v>
       </c>
     </row>
     <row r="238" spans="1:65" ht="19.5">
       <c r="C238">
         <f>H237*D238</f>
-        <v>546434.61032032489</v>
+        <v>495277.75850483729</v>
       </c>
       <c r="D238">
         <f>D237</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E238" t="s">
         <v>17</v>
@@ -9856,17 +10185,17 @@
       </c>
       <c r="H238">
         <f>H237+C238</f>
-        <v>15267666.329238772</v>
+        <v>14230875.507516451</v>
       </c>
     </row>
     <row r="239" spans="1:65" ht="19.5">
       <c r="C239">
         <f>H238*D239</f>
-        <v>566717.61306473531</v>
+        <v>513136.46859171556</v>
       </c>
       <c r="D239">
         <f>D238</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E239" t="s">
         <v>11</v>
@@ -9876,17 +10205,17 @@
       </c>
       <c r="H239">
         <f>H238+C239</f>
-        <v>15834383.942303509</v>
+        <v>14744011.976108167</v>
       </c>
     </row>
     <row r="240" spans="1:65" ht="19.5">
       <c r="C240">
         <f>H239*D240</f>
-        <v>587753.49674413737</v>
+        <v>531639.12749416346</v>
       </c>
       <c r="D240">
         <f>D239</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E240" t="s">
         <v>12</v>
@@ -9896,17 +10225,17 @@
       </c>
       <c r="H240">
         <f>H239+C240</f>
-        <v>16422137.439047646</v>
+        <v>15275651.103602331</v>
       </c>
     </row>
     <row r="241" spans="1:65" ht="19.5">
       <c r="C241">
         <f>H240*D241</f>
-        <v>609570.20740327693</v>
+        <v>550808.95469864202</v>
       </c>
       <c r="D241">
         <f>D240</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E241" t="s">
         <v>13</v>
@@ -9916,17 +10245,17 @@
       </c>
       <c r="H241">
         <f>H240+C241</f>
-        <v>17031707.646450922</v>
+        <v>15826460.058300974</v>
       </c>
     </row>
     <row r="242" spans="1:65" ht="19.5">
       <c r="C242">
         <f>H241*D242</f>
-        <v>632196.7284108384</v>
+        <v>570670.00693913631</v>
       </c>
       <c r="D242">
         <f>D241</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E242" t="s">
         <v>14</v>
@@ -9936,17 +10265,17 @@
       </c>
       <c r="H242">
         <f>H241+C242</f>
-        <v>17663904.374861762</v>
+        <v>16397130.065240109</v>
       </c>
     </row>
     <row r="243" spans="1:65" ht="19.5">
       <c r="C243">
         <f>H242*D243</f>
-        <v>655663.11896367604</v>
+        <v>591247.20838660107</v>
       </c>
       <c r="D243">
         <f>D242</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E243" t="s">
         <v>15</v>
@@ -9956,17 +10285,17 @@
       </c>
       <c r="H243">
         <f>H242+C243</f>
-        <v>18319567.493825439</v>
+        <v>16988377.273626711</v>
       </c>
     </row>
     <row r="244" spans="1:65" ht="19.5">
       <c r="C244">
         <f>H243*D244</f>
-        <v>680000.55402027525</v>
+        <v>612566.38192697568</v>
       </c>
       <c r="D244">
         <f>D243</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E244" t="s">
         <v>16</v>
@@ -9976,17 +10305,17 @@
       </c>
       <c r="H244">
         <f>H243+C244</f>
-        <v>18999568.047845714</v>
+        <v>17600943.655553687</v>
       </c>
     </row>
     <row r="245" spans="1:65" ht="19.5">
       <c r="C245">
         <f>H244*D245</f>
-        <v>705241.36571649741</v>
+        <v>634654.28156702174</v>
       </c>
       <c r="D245">
         <f>D244</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E245" t="s">
         <v>17</v>
@@ -9996,17 +10325,17 @@
       </c>
       <c r="H245">
         <f>H244+C245</f>
-        <v>19704809.413562212</v>
+        <v>18235597.93712071</v>
       </c>
     </row>
     <row r="246" spans="1:65" ht="19.5">
       <c r="C246">
         <f>H245*D246</f>
-        <v>731419.08631862793</v>
+        <v>657538.62600864831</v>
       </c>
       <c r="D246">
         <f>D245</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E246" t="s">
         <v>11</v>
@@ -10016,17 +10345,17 @@
       </c>
       <c r="H246">
         <f>H245+C246</f>
-        <v>20436228.499880839</v>
+        <v>18893136.563129358</v>
       </c>
     </row>
     <row r="247" spans="1:65" ht="19.5">
       <c r="C247">
         <f>H246*D247</f>
-        <v>758568.49277078931</v>
+        <v>681248.13343386014</v>
       </c>
       <c r="D247">
         <f>D246</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E247" t="s">
         <v>12</v>
@@ -10036,17 +10365,17 @@
       </c>
       <c r="H247">
         <f>H246+C247</f>
-        <v>21194796.99265163</v>
+        <v>19574384.696563218</v>
       </c>
     </row>
     <row r="248" spans="1:65" ht="19.5">
       <c r="C248">
         <f>H247*D248</f>
-        <v>786725.65289590263</v>
+        <v>705812.55754397984</v>
       </c>
       <c r="D248">
         <f>D247</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E248" t="s">
         <v>13</v>
@@ -10056,17 +10385,17 @@
       </c>
       <c r="H248">
         <f>H247+C248</f>
-        <v>21981522.645547532</v>
+        <v>20280197.254107196</v>
       </c>
     </row>
     <row r="249" spans="1:65" ht="19.5">
       <c r="C249">
         <f>H248*D249</f>
-        <v>815927.97331157222</v>
+        <v>731262.72489837126</v>
       </c>
       <c r="D249">
         <f>D248</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E249" t="s">
         <v>14</v>
@@ -10076,17 +10405,17 @@
       </c>
       <c r="H249">
         <f>H248+C249</f>
-        <v>22797450.618859105</v>
+        <v>21011459.979005568</v>
       </c>
     </row>
     <row r="250" spans="1:65" ht="19.5">
       <c r="C250">
         <f>H249*D250</f>
-        <v>846214.24912455271</v>
+        <v>757630.57359952212</v>
       </c>
       <c r="D250">
         <f>D249</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E250" t="s">
         <v>15</v>
@@ -10096,17 +10425,17 @@
       </c>
       <c r="H250">
         <f>H249+C250</f>
-        <v>23643664.867983658</v>
+        <v>21769090.552605089</v>
       </c>
     </row>
     <row r="251" spans="1:65" ht="19.5">
       <c r="C251">
         <f>H250*D251</f>
-        <v>877624.71546981402</v>
+        <v>784949.1933730304</v>
       </c>
       <c r="D251">
         <f>D250</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E251" t="s">
         <v>16</v>
@@ -10116,17 +10445,17 @@
       </c>
       <c r="H251">
         <f>H250+C251</f>
-        <v>24521289.583453473</v>
+        <v>22554039.745978121</v>
       </c>
     </row>
     <row r="252" spans="1:65" ht="19.5">
       <c r="C252">
         <f>H251*D252</f>
-        <v>910201.10096267599</v>
+        <v>813252.86709279625</v>
       </c>
       <c r="D252">
         <f>D251</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E252" t="s">
         <v>17</v>
@@ -10136,17 +10465,17 @@
       </c>
       <c r="H252">
         <f>H251+C252</f>
-        <v>25431490.684416149</v>
+        <v>23367292.613070916</v>
       </c>
     </row>
     <row r="253" spans="1:65" ht="19.5">
       <c r="C253">
         <f>H252*D253</f>
-        <v>943986.68313502229</v>
+        <v>842577.11380352534</v>
       </c>
       <c r="D253">
         <f>D252</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E253" t="s">
         <v>11</v>
@@ -10156,17 +10485,17 @@
       </c>
       <c r="H253">
         <f>H252+C253</f>
-        <v>26375477.36755117</v>
+        <v>24209869.726874441</v>
       </c>
     </row>
     <row r="254" spans="1:65" ht="19.5">
       <c r="C254">
         <f>H253*D254</f>
-        <v>979026.34592924127</v>
+        <v>872958.73329453834</v>
       </c>
       <c r="D254">
         <f>D253</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E254" t="s">
         <v>12</v>
@@ -10176,17 +10505,17 @@
       </c>
       <c r="H254">
         <f>H253+C254</f>
-        <v>27354503.713480413</v>
+        <v>25082828.46016898</v>
       </c>
     </row>
     <row r="255" spans="1:65" ht="19.5">
       <c r="C255">
         <f>H254*D255</f>
-        <v>1015366.6393262723</v>
+        <v>904435.85228082002</v>
       </c>
       <c r="D255">
         <f>D254</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E255" t="s">
         <v>13</v>
@@ -10196,17 +10525,17 @@
       </c>
       <c r="H255">
         <f>H254+C255</f>
-        <v>28369870.352806684</v>
+        <v>25987264.312449802</v>
       </c>
     </row>
     <row r="256" spans="1:65" ht="19.5">
       <c r="C256">
         <f>H255*D256</f>
-        <v>1053055.8411869758</v>
+        <v>937047.97224926413</v>
       </c>
       <c r="D256">
         <f>D255</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E256" t="s">
         <v>14</v>
@@ -10216,17 +10545,17 @@
       </c>
       <c r="H256">
         <f>H255+C256</f>
-        <v>29422926.193993658</v>
+        <v>26924312.284699067</v>
       </c>
     </row>
     <row r="257" spans="1:65" ht="19.5">
       <c r="C257">
         <f>H256*D257</f>
-        <v>1092144.0213889801</v>
+        <v>970836.01903015608</v>
       </c>
       <c r="D257">
         <f>D256</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E257" t="s">
         <v>15</v>
@@ -10236,17 +10565,17 @@
       </c>
       <c r="H257">
         <f>H256+C257</f>
-        <v>30515070.215382639</v>
+        <v>27895148.303729225</v>
       </c>
     </row>
     <row r="258" spans="1:65" ht="19.5">
       <c r="C258">
         <f>H257*D258</f>
-        <v>1132683.1083442126</v>
+        <v>1005842.3941561033</v>
       </c>
       <c r="D258">
         <f>D257</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E258" t="s">
         <v>16</v>
@@ -10256,17 +10585,17 @@
       </c>
       <c r="H258">
         <f>H257+C258</f>
-        <v>31647753.323726851</v>
+        <v>28900990.697885327</v>
       </c>
     </row>
     <row r="259" spans="1:65" ht="19.5">
       <c r="C259">
         <f>H258*D259</f>
-        <v>1174726.9579854812</v>
+        <v>1042111.0280728631</v>
       </c>
       <c r="D259">
         <f>D258</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E259" t="s">
         <v>17</v>
@@ -10276,17 +10605,17 @@
       </c>
       <c r="H259">
         <f>H258+C259</f>
-        <v>32822480.281712331</v>
+        <v>29943101.725958191</v>
       </c>
     </row>
     <row r="260" spans="1:65" ht="19.5">
       <c r="C260">
         <f>H259*D260</f>
-        <v>1218331.4253137584</v>
+        <v>1079687.435268847</v>
       </c>
       <c r="D260">
         <f>D259</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E260" t="s">
         <v>11</v>
@@ -10296,17 +10625,17 @@
       </c>
       <c r="H260">
         <f>H259+C260</f>
-        <v>34040811.707026087</v>
+        <v>31022789.161227036</v>
       </c>
     </row>
     <row r="261" spans="1:65" ht="19.5">
       <c r="C261">
         <f>H260*D261</f>
-        <v>1263554.4386012119</v>
+        <v>1118618.7713924802</v>
       </c>
       <c r="D261">
         <f>D260</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E261" t="s">
         <v>12</v>
@@ -10316,17 +10645,17 @@
       </c>
       <c r="H261">
         <f>H260+C261</f>
-        <v>35304366.145627297</v>
+        <v>32141407.932619516</v>
       </c>
     </row>
     <row r="262" spans="1:65" ht="19.5">
       <c r="C262">
         <f>H261*D262</f>
-        <v>1310456.0763485658</v>
+        <v>1158953.8924290997</v>
       </c>
       <c r="D262">
         <f>D261</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E262" t="s">
         <v>13</v>
@@ -10336,17 +10665,17 @@
       </c>
       <c r="H262">
         <f>H261+C262</f>
-        <v>36614822.221975863</v>
+        <v>33300361.825048614</v>
       </c>
     </row>
     <row r="263" spans="1:65" ht="19.5">
       <c r="C263">
         <f>H262*D263</f>
-        <v>1359098.6470990274</v>
+        <v>1200743.4160116496</v>
       </c>
       <c r="D263">
         <f>D262</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E263" t="s">
         <v>14</v>
@@ -10356,17 +10685,17 @@
       </c>
       <c r="H263">
         <f>H262+C263</f>
-        <v>37973920.869074889</v>
+        <v>34501105.241060264</v>
       </c>
     </row>
     <row r="264" spans="1:65" ht="19.5">
       <c r="C264">
         <f>H263*D264</f>
-        <v>1409546.7722148106</v>
+        <v>1244039.7849421161</v>
       </c>
       <c r="D264">
         <f>D263</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E264" t="s">
         <v>15</v>
@@ -10376,17 +10705,17 @@
       </c>
       <c r="H264">
         <f>H263+C264</f>
-        <v>39383467.641289696</v>
+        <v>35745145.026002377</v>
       </c>
     </row>
     <row r="265" spans="1:65" ht="19.5">
       <c r="C265">
         <f>H264*D265</f>
-        <v>1461867.4717262276</v>
+        <v>1288897.333003416</v>
       </c>
       <c r="D265">
         <f>D264</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E265" t="s">
         <v>16</v>
@@ -10396,17 +10725,17 @@
       </c>
       <c r="H265">
         <f>H264+C265</f>
-        <v>40845335.11301592</v>
+        <v>37034042.359005794</v>
       </c>
     </row>
     <row r="266" spans="1:65" ht="19.5">
       <c r="C266">
         <f>H265*D266</f>
-        <v>1516130.2533673935</v>
+        <v>1335372.3531443288</v>
       </c>
       <c r="D266">
         <f>D265</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E266" t="s">
         <v>17</v>
@@ -10416,17 +10745,17 @@
       </c>
       <c r="H266">
         <f>H265+C266</f>
-        <v>42361465.366383314</v>
+        <v>38369414.712150119</v>
       </c>
     </row>
     <row r="267" spans="1:65" ht="19.5">
       <c r="C267">
         <f>H266*D267</f>
-        <v>1572407.2049168344</v>
+        <v>1383523.1681230394</v>
       </c>
       <c r="D267">
         <f>D266</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E267" t="s">
         <v>11</v>
@@ -10436,17 +10765,17 @@
       </c>
       <c r="H267">
         <f>H266+C267</f>
-        <v>43933872.571300149</v>
+        <v>39752937.880273156</v>
       </c>
     </row>
     <row r="268" spans="1:65" ht="19.5">
       <c r="C268">
         <f>H267*D268</f>
-        <v>1630773.0899656657</v>
+        <v>1433410.2036979417</v>
       </c>
       <c r="D268">
         <f>D267</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E268" t="s">
         <v>12</v>
@@ -10456,17 +10785,17 @@
       </c>
       <c r="H268">
         <f>H267+C268</f>
-        <v>45564645.661265813</v>
+        <v>41186348.083971098</v>
       </c>
     </row>
     <row r="269" spans="1:65" ht="19.5">
       <c r="C269">
         <f>H268*D269</f>
-        <v>1691305.4472405722</v>
+        <v>1485096.0644575555</v>
       </c>
       <c r="D269">
         <f>D268</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E269" t="s">
         <v>13</v>
@@ -10476,17 +10805,17 @@
       </c>
       <c r="H269">
         <f>H268+C269</f>
-        <v>47255951.108506382</v>
+        <v>42671444.148428656</v>
       </c>
     </row>
     <row r="270" spans="1:65" ht="19.5">
       <c r="C270">
         <f>H269*D270</f>
-        <v>1754084.6936135411</v>
+        <v>1538645.6123847158</v>
       </c>
       <c r="D270">
         <f>D269</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E270" t="s">
         <v>14</v>
@@ -10496,17 +10825,17 @@
       </c>
       <c r="H270">
         <f>H269+C270</f>
-        <v>49010035.802119926</v>
+        <v>44210089.76081337</v>
       </c>
     </row>
     <row r="271" spans="1:65" ht="19.5">
       <c r="C271">
         <f>H270*D271</f>
-        <v>1819194.2309351899</v>
+        <v>1594126.0482536275</v>
       </c>
       <c r="D271">
         <f>D270</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E271" t="s">
         <v>15</v>
@@ -10516,17 +10845,17 @@
       </c>
       <c r="H271">
         <f>H270+C271</f>
-        <v>50829230.033055112</v>
+        <v>45804215.809066996</v>
       </c>
     </row>
     <row r="272" spans="1:65" ht="19.5">
       <c r="C272">
         <f>H271*D272</f>
-        <v>1886720.5568336239</v>
+        <v>1651606.9959619311</v>
       </c>
       <c r="D272">
         <f>D271</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E272" t="s">
         <v>16</v>
@@ -10536,17 +10865,17 @@
       </c>
       <c r="H272">
         <f>H271+C272</f>
-        <v>52715950.589888737</v>
+        <v>47455822.80502893</v>
       </c>
     </row>
     <row r="273" spans="1:65" ht="19.5">
       <c r="C273">
         <f>H272*D273</f>
-        <v>1956753.379626014</v>
+        <v>1711160.5899036143</v>
       </c>
       <c r="D273">
         <f>D272</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E273" t="s">
         <v>17</v>
@@ -10556,17 +10885,17 @@
       </c>
       <c r="H273">
         <f>H272+C273</f>
-        <v>54672703.96951475</v>
+        <v>49166983.394932546</v>
       </c>
     </row>
     <row r="274" spans="1:65" ht="19.5">
       <c r="C274">
         <f>H273*D274</f>
-        <v>2029385.7374955548</v>
+        <v>1772861.5654924095</v>
       </c>
       <c r="D274">
         <f>D273</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E274" t="s">
         <v>11</v>
@@ -10576,17 +10905,17 @@
       </c>
       <c r="H274">
         <f>H273+C274</f>
-        <v>56702089.707010306</v>
+        <v>50939844.960424952</v>
       </c>
     </row>
     <row r="275" spans="1:65" ht="19.5">
       <c r="C275">
         <f>H274*D275</f>
-        <v>2104714.1220921315</v>
+        <v>1836787.3529492852</v>
       </c>
       <c r="D275">
         <f>D274</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E275" t="s">
         <v>12</v>
@@ -10596,17 +10925,17 @@
       </c>
       <c r="H275">
         <f>H274+C275</f>
-        <v>58806803.829102442</v>
+        <v>52776632.313374236</v>
       </c>
     </row>
     <row r="276" spans="1:65" ht="19.5">
       <c r="C276">
         <f>H275*D276</f>
-        <v>2182838.6067208941</v>
+        <v>1903018.1744717206</v>
       </c>
       <c r="D276">
         <f>D275</f>
-        <v>0.037118810487718534</v>
+        <v>0.036057969049106471</v>
       </c>
       <c r="E276" t="s">
         <v>13</v>
@@ -10616,7 +10945,7 @@
       </c>
       <c r="H276">
         <f>H275+C276</f>
-        <v>60989642.435823336</v>
+        <v>54679650.487845957</v>
       </c>
     </row>
     <row r="277" spans="1:65" ht="19.5">

--- a/converted.d/covid-19_progression_math.xlsx
+++ b/converted.d/covid-19_progression_math.xlsx
@@ -4,7 +4,7 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="19200" windowHeight="8610"/>
+    <workbookView activeTab="0" windowWidth="18870" windowHeight="7330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -256,7 +256,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Last revision:  Wednesday, 15 Apr 2020 07:11 UTC</t>
+          <t>Last revision:  Thursday, 16 Apr 2020 07:23 UTC</t>
         </is>
       </c>
     </row>
@@ -266,11 +266,7 @@
           <t>d</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>Fairly complete.</t>
-        </is>
-      </c>
+      <c r="C4" s="1"/>
       <c r="I4" t="s">
         <v>0</v>
       </c>
@@ -600,19 +596,16 @@
         <v>0</v>
       </c>
       <c r="BF9">
-        <v>496535</v>
+        <v>555313</v>
       </c>
       <c r="BG9">
-        <v>526396</v>
+        <v>580619</v>
       </c>
       <c r="BH9">
-        <v>555313</v>
+        <v>607670</v>
       </c>
       <c r="BI9">
-        <v>580619</v>
-      </c>
-      <c r="BJ9">
-        <v>607670</v>
+        <v>636350</v>
       </c>
     </row>
     <row r="10" spans="1:66" ht="19.5">
@@ -5081,11 +5074,6 @@
         <f>S43+17</f>
         <v>133</v>
       </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>UPDATED - finished this line's entry and won't require further update.</t>
-        </is>
-      </c>
       <c r="U44">
         <f>U43+412</f>
         <v>3358</v>
@@ -5177,11 +5165,6 @@
       <c r="AY44">
         <f>O44+S44+W44+AA44+AE44+AI44+AM44+AQ44+AU44</f>
         <v>602</v>
-      </c>
-      <c r="AZ44" t="inlineStr">
-        <is>
-          <t>CORRECT - no errors seen.  Ready for permanent record.</t>
-        </is>
       </c>
       <c r="BA44" s="6">
         <v>43886</v>
@@ -5227,700 +5210,837 @@
         <f>M45+Q45+U45+Y45+AC45+AG45+AK45+AO45+AS45</f>
         <v>13989</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="M45">
+        <f>M44+14</f>
+        <v>460</v>
+      </c>
+      <c r="N45">
+        <f>N44+-2</f>
+        <v>35</v>
+      </c>
+      <c r="O45">
+        <f>O44+5</f>
+        <v>29</v>
+      </c>
+      <c r="Q45">
+        <f>Q44+127</f>
+        <v>2370</v>
+      </c>
+      <c r="R45">
+        <f>R44+8</f>
+        <v>369</v>
+      </c>
+      <c r="S45">
+        <f>S44+20</f>
+        <v>153</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>UPDATED - finished this line's entry and won't require further update.</t>
+        </is>
+      </c>
+      <c r="U45">
+        <f>U44+185</f>
+        <v>3543</v>
+      </c>
+      <c r="V45">
+        <f>V44+-8</f>
+        <v>572</v>
+      </c>
+      <c r="W45">
+        <f>W44+16</f>
+        <v>151</v>
+      </c>
+      <c r="Y45">
+        <f>Y44+209</f>
+        <v>6213</v>
+      </c>
+      <c r="Z45">
+        <f>Z44+21</f>
+        <v>731</v>
+      </c>
+      <c r="AA45">
+        <f>AA44+25</f>
+        <v>287</v>
+      </c>
+      <c r="AC45">
+        <f>AC44+16</f>
+        <v>355</v>
+      </c>
+      <c r="AD45">
+        <f>AD44+3</f>
+        <v>38</v>
+      </c>
+      <c r="AE45">
+        <f>AE44+2</f>
+        <v>21</v>
+      </c>
+      <c r="AG45">
+        <f>AG44+6</f>
+        <v>201</v>
+      </c>
+      <c r="AH45">
+        <f>AH44+-1</f>
+        <v>12</v>
+      </c>
+      <c r="AI45">
+        <f>AI44+1</f>
+        <v>18</v>
+      </c>
+      <c r="AK45">
+        <f>AK44+4</f>
+        <v>87</v>
+      </c>
+      <c r="AL45">
+        <f>AL44+1</f>
+        <v>5</v>
+      </c>
+      <c r="AM45">
+        <f>AM44+0</f>
+        <v>1</v>
+      </c>
+      <c r="AO45">
+        <f>AO44+5</f>
+        <v>227</v>
+      </c>
+      <c r="AP45">
+        <f>AP44+-3</f>
+        <v>17</v>
+      </c>
+      <c r="AQ45">
+        <f>AQ44+0</f>
+        <v>7</v>
+      </c>
+      <c r="AS45">
+        <f>AS44+42</f>
+        <v>533</v>
+      </c>
+      <c r="AU45">
+        <f>AU44+0</f>
+        <v>4</v>
+      </c>
+      <c r="AW45">
+        <f>M45+Q45+U45+Y45+AC45+AG45+AK45+AO45+AS45</f>
+        <v>13989</v>
+      </c>
+      <c r="AX45">
+        <f>N45+R45+V45+Z45+AD45+AH45+AL45+AP45+AT45</f>
+        <v>1779</v>
+      </c>
+      <c r="AY45">
+        <f>O45+S45+W45+AA45+AE45+AI45+AM45+AQ45+AU45</f>
+        <v>671</v>
+      </c>
+      <c r="AZ45" t="inlineStr">
+        <is>
+          <t>CORRECT - no errors seen.  Ready for permanent record.</t>
+        </is>
+      </c>
+      <c r="BA45" s="6">
+        <v>43887</v>
+      </c>
+      <c r="BB45">
+        <v>57</v>
+      </c>
+      <c r="BC45">
+        <f>(BB45/BB44)-1</f>
+        <v>0.11764705882352944</v>
+      </c>
+    </row>
+    <row r="46" spans="1:66" ht="19.5">
+      <c r="C46">
+        <f>H45*D46</f>
+        <v>765.99999999069723</v>
+      </c>
+      <c r="D46">
+        <f>0.054757309313999997</f>
+        <v>0.054757309313999997</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="6">
+        <v>43936</v>
+      </c>
+      <c r="G46" s="2">
+        <f>H46*35</f>
+        <v>516424.99999785353</v>
+      </c>
+      <c r="H46">
+        <f>H45+C46</f>
+        <v>14754.999999938673</v>
+      </c>
+      <c r="I46">
+        <v>14755</v>
+      </c>
+      <c r="J46">
+        <v>636350</v>
+      </c>
+      <c r="K46">
+        <f>M46+Q46+U46+Y46+AC46+AG46+AK46+AO46+AS46</f>
+        <v>14755</v>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>NEW:</t>
         </is>
       </c>
-      <c r="M45">
-        <f>M44+14</f>
-        <v>460</v>
-      </c>
-      <c r="N45">
-        <f>N44+-2</f>
+      <c r="M46">
+        <f>M45+30</f>
+        <v>490</v>
+      </c>
+      <c r="N46">
+        <f>N45+-3</f>
+        <v>32</v>
+      </c>
+      <c r="O46">
+        <f>O45+6</f>
         <v>35</v>
       </c>
-      <c r="O45">
-        <f>O44+5</f>
-        <v>29</v>
-      </c>
-      <c r="Q45">
-        <f>Q44+127</f>
-        <v>2370</v>
-      </c>
-      <c r="R45">
-        <f>R44+8</f>
-        <v>369</v>
-      </c>
-      <c r="S45">
-        <f>S44+20</f>
-        <v>153</v>
-      </c>
-      <c r="T45" t="inlineStr">
+      <c r="Q46">
+        <f>Q45+200</f>
+        <v>2570</v>
+      </c>
+      <c r="R46">
+        <f>R45+33</f>
+        <v>402</v>
+      </c>
+      <c r="S46">
+        <f>S45+60</f>
+        <v>213</v>
+      </c>
+      <c r="T46" t="inlineStr">
         <is>
           <t>PROPOSED - open to proposal now - subject to revision.</t>
         </is>
       </c>
-      <c r="U45">
-        <f>U44+185</f>
-        <v>3543</v>
-      </c>
-      <c r="V45">
-        <f>V44+-8</f>
-        <v>572</v>
-      </c>
-      <c r="W45">
-        <f>W44+16</f>
-        <v>151</v>
-      </c>
-      <c r="Y45">
-        <f>Y44+209</f>
-        <v>6213</v>
-      </c>
-      <c r="Z45">
-        <f>Z44+21</f>
-        <v>731</v>
-      </c>
-      <c r="AA45">
-        <f>AA44+25</f>
-        <v>287</v>
-      </c>
-      <c r="AC45">
-        <f>AC44+16</f>
-        <v>355</v>
-      </c>
-      <c r="AD45">
-        <f>AD44+3</f>
-        <v>38</v>
-      </c>
-      <c r="AE45">
-        <f>AE44+2</f>
+      <c r="U46">
+        <f>U45+215</f>
+        <v>3758</v>
+      </c>
+      <c r="V46">
+        <f>V45+40</f>
+        <v>612</v>
+      </c>
+      <c r="W46">
+        <f>W45+44</f>
+        <v>195</v>
+      </c>
+      <c r="Y46">
+        <f>Y45+267</f>
+        <v>6480</v>
+      </c>
+      <c r="Z46">
+        <f>Z45+53</f>
+        <v>784</v>
+      </c>
+      <c r="AA46">
+        <f>AA45+78</f>
+        <v>365</v>
+      </c>
+      <c r="AC46">
+        <f>AC45+24</f>
+        <v>379</v>
+      </c>
+      <c r="AD46">
+        <f>AD45+2</f>
+        <v>40</v>
+      </c>
+      <c r="AE46">
+        <f>AE45+7</f>
+        <v>28</v>
+      </c>
+      <c r="AG46">
+        <f>AG45+15</f>
+        <v>216</v>
+      </c>
+      <c r="AH46">
+        <f>AH45+-1</f>
+        <v>11</v>
+      </c>
+      <c r="AI46">
+        <f>AI45+4</f>
+        <v>22</v>
+      </c>
+      <c r="AK46">
+        <f>AK45+2</f>
+        <v>89</v>
+      </c>
+      <c r="AL46">
+        <f>AL45+1</f>
+        <v>6</v>
+      </c>
+      <c r="AM46">
+        <f>AM45+0</f>
+        <v>1</v>
+      </c>
+      <c r="AO46">
+        <f>AO45+9</f>
+        <v>236</v>
+      </c>
+      <c r="AP46">
+        <f>AP45+4</f>
         <v>21</v>
       </c>
-      <c r="AG45">
-        <f>AG44+6</f>
-        <v>201</v>
-      </c>
-      <c r="AH45">
-        <f>AH44+-1</f>
-        <v>12</v>
-      </c>
-      <c r="AI45">
-        <f>AI44+1</f>
-        <v>18</v>
-      </c>
-      <c r="AK45">
-        <f>AK44+4</f>
-        <v>87</v>
-      </c>
-      <c r="AL45">
-        <f>AL44+1</f>
-        <v>5</v>
-      </c>
-      <c r="AM45">
-        <f>AM44+0</f>
-        <v>1</v>
-      </c>
-      <c r="AO45">
-        <f>AO44+5</f>
-        <v>227</v>
-      </c>
-      <c r="AP45">
-        <f>AP44+-3</f>
-        <v>17</v>
-      </c>
-      <c r="AQ45">
-        <f>AQ44+0</f>
+      <c r="AQ46">
+        <f>AQ45+0</f>
         <v>7</v>
       </c>
-      <c r="AS45">
-        <f>AS44+42</f>
-        <v>533</v>
-      </c>
-      <c r="AU45">
-        <f>AU44+0</f>
-        <v>4</v>
-      </c>
-      <c r="AW45">
-        <f>M45+Q45+U45+Y45+AC45+AG45+AK45+AO45+AS45</f>
-        <v>13989</v>
-      </c>
-      <c r="AX45">
-        <f>N45+R45+V45+Z45+AD45+AH45+AL45+AP45+AT45</f>
-        <v>1779</v>
-      </c>
-      <c r="AY45">
-        <f>O45+S45+W45+AA45+AE45+AI45+AM45+AQ45+AU45</f>
-        <v>671</v>
-      </c>
-      <c r="BA45" s="6">
-        <v>43887</v>
-      </c>
-      <c r="BB45">
-        <v>57</v>
-      </c>
-      <c r="BC45">
-        <f>(BB45/BB44)-1</f>
-        <v>0.11764705882352944</v>
-      </c>
-    </row>
-    <row r="46" spans="1:66" ht="19.5">
-      <c r="C46">
-        <f>H45*D46</f>
-        <v>572.63606928803245</v>
-      </c>
-      <c r="D46">
-        <f>D45/1.1100000000000001</f>
-        <v>0.040934739387387384</v>
-      </c>
-      <c r="E46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" t="inlineStr">
+      <c r="AS46">
+        <f>AS45+4</f>
+        <v>537</v>
+      </c>
+      <c r="AU46">
+        <f>AU45+-2</f>
+        <v>2</v>
+      </c>
+      <c r="AW46">
+        <f>AW45+766</f>
+        <v>14755</v>
+      </c>
+      <c r="AX46">
+        <f>AX45+129</f>
+        <v>1908</v>
+      </c>
+      <c r="AY46">
+        <f>AY45+197</f>
+        <v>868</v>
+      </c>
+      <c r="BA46" s="6">
+        <v>43888</v>
+      </c>
+      <c r="BB46">
+        <v>58</v>
+      </c>
+      <c r="BC46">
+        <f>(BB46/BB45)-1</f>
+        <v>0.017543859649122862</v>
+      </c>
+    </row>
+    <row r="47" spans="1:66" ht="19.5">
+      <c r="C47">
+        <f>H46*D47</f>
+        <v>727.87756659883939</v>
+      </c>
+      <c r="D47">
+        <f>D46/1.1100000000000001</f>
+        <v>0.049330909291891885</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" t="inlineStr">
         <is>
           <t>day two</t>
         </is>
       </c>
-      <c r="G46" s="2">
-        <f>H46*35</f>
-        <v>509657.26242326025</v>
-      </c>
-      <c r="H46">
-        <f>H45+C46</f>
-        <v>14561.636069236007</v>
-      </c>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="AW46" s="1"/>
-      <c r="BA46" s="6">
-        <v>43888</v>
-      </c>
-      <c r="BB46">
-        <v>58</v>
-      </c>
-      <c r="BC46">
-        <f>(BB46/BB45)-1</f>
-        <v>0.017543859649122862</v>
-      </c>
-    </row>
-    <row r="47" spans="1:66" ht="19.5">
-      <c r="C47">
-        <f>H46*D47</f>
-        <v>537.00610589923951</v>
-      </c>
-      <c r="D47">
-        <f>D46/1.1100000000000001</f>
-        <v>0.036878143592240883</v>
-      </c>
-      <c r="E47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" s="2">
+        <f>H47*35</f>
+        <v>541900.71482881298</v>
+      </c>
+      <c r="H47">
+        <f>H46+C47</f>
+        <v>15482.877566537512</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="AW47" s="1"/>
+      <c r="BA47" s="6">
+        <v>43889</v>
+      </c>
+      <c r="BB47">
+        <v>60</v>
+      </c>
+      <c r="BC47">
+        <f>(BB47/BB46)-1</f>
+        <v>0.034482758620689724</v>
+      </c>
+    </row>
+    <row r="48" spans="1:66" ht="19.5">
+      <c r="C48">
+        <f>H47*D48</f>
+        <v>688.09408001110785</v>
+      </c>
+      <c r="D48">
+        <f>D47/1.1100000000000001</f>
+        <v>0.04444226062332602</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" t="inlineStr">
         <is>
           <t>day three</t>
         </is>
       </c>
-      <c r="G47" s="2">
-        <f>H47*35</f>
-        <v>528452.47612973361</v>
-      </c>
-      <c r="H47">
-        <f>H46+C47</f>
-        <v>15098.642175135246</v>
-      </c>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" t="inlineStr">
+      <c r="G48" s="2">
+        <f>H48*35</f>
+        <v>565984.00762920175</v>
+      </c>
+      <c r="H48">
+        <f>H47+C48</f>
+        <v>16170.97164654862</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>*preliminary*</t>
+        </is>
+      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" t="inlineStr">
         <is>
           <t>total (entry):</t>
         </is>
       </c>
-      <c r="M47">
-        <v>460</v>
-      </c>
-      <c r="N47">
+      <c r="M48">
+        <v>490</v>
+      </c>
+      <c r="N48">
+        <v>32</v>
+      </c>
+      <c r="O48">
         <v>35</v>
       </c>
-      <c r="O47">
-        <v>29</v>
-      </c>
-      <c r="Q47">
-        <v>2370</v>
-      </c>
-      <c r="R47">
-        <v>369</v>
-      </c>
-      <c r="S47">
-        <v>153</v>
-      </c>
-      <c r="U47">
-        <v>3543</v>
-      </c>
-      <c r="V47">
-        <v>572</v>
-      </c>
-      <c r="W47">
-        <v>151</v>
-      </c>
-      <c r="Y47">
-        <v>6213</v>
-      </c>
-      <c r="Z47">
-        <v>731</v>
-      </c>
-      <c r="AA47">
-        <v>287</v>
-      </c>
-      <c r="AC47">
-        <v>355</v>
-      </c>
-      <c r="AD47">
-        <v>38</v>
-      </c>
-      <c r="AE47">
+      <c r="Q48">
+        <v>2570</v>
+      </c>
+      <c r="R48">
+        <v>402</v>
+      </c>
+      <c r="S48">
+        <v>213</v>
+      </c>
+      <c r="U48">
+        <v>3758</v>
+      </c>
+      <c r="V48">
+        <v>612</v>
+      </c>
+      <c r="W48">
+        <v>195</v>
+      </c>
+      <c r="Y48">
+        <v>6480</v>
+      </c>
+      <c r="Z48">
+        <v>784</v>
+      </c>
+      <c r="AA48">
+        <v>365</v>
+      </c>
+      <c r="AC48">
+        <v>379</v>
+      </c>
+      <c r="AD48">
+        <v>40</v>
+      </c>
+      <c r="AE48">
+        <v>28</v>
+      </c>
+      <c r="AG48">
+        <v>216</v>
+      </c>
+      <c r="AH48">
+        <v>11</v>
+      </c>
+      <c r="AI48">
+        <v>22</v>
+      </c>
+      <c r="AK48">
+        <v>89</v>
+      </c>
+      <c r="AL48">
+        <v>6</v>
+      </c>
+      <c r="AM48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
+        <v>236</v>
+      </c>
+      <c r="AP48">
         <v>21</v>
       </c>
-      <c r="AG47">
-        <v>201</v>
-      </c>
-      <c r="AH47">
-        <v>12</v>
-      </c>
-      <c r="AI47">
-        <v>18</v>
-      </c>
-      <c r="AK47">
-        <v>87</v>
-      </c>
-      <c r="AL47">
-        <v>5</v>
-      </c>
-      <c r="AM47">
-        <v>1</v>
-      </c>
-      <c r="AO47">
-        <v>227</v>
-      </c>
-      <c r="AP47">
+      <c r="AQ48">
+        <v>7</v>
+      </c>
+      <c r="AS48">
+        <v>537</v>
+      </c>
+      <c r="AU48">
+        <v>2</v>
+      </c>
+      <c r="AW48">
+        <v>14755</v>
+      </c>
+      <c r="AX48">
+        <v>1908</v>
+      </c>
+      <c r="AY48">
+        <v>868</v>
+      </c>
+      <c r="BA48" s="6">
+        <v>43890</v>
+      </c>
+      <c r="BB48">
+        <v>68</v>
+      </c>
+      <c r="BC48">
+        <f>(BB48/BB47)-1</f>
+        <v>0.1333333333333333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:66" ht="19.5">
+      <c r="C49">
+        <f>H48*D49</f>
+        <v>647.45453734083708</v>
+      </c>
+      <c r="D49">
+        <f>D48/1.1100000000000001</f>
+        <v>0.040038072633627041</v>
+      </c>
+      <c r="E49" t="s">
         <v>17</v>
       </c>
-      <c r="AQ47">
-        <v>7</v>
-      </c>
-      <c r="AS47">
-        <v>533</v>
-      </c>
-      <c r="AU47">
-        <v>4</v>
-      </c>
-      <c r="AW47">
-        <v>13989</v>
-      </c>
-      <c r="AX47">
-        <v>1779</v>
-      </c>
-      <c r="AY47">
-        <v>671</v>
-      </c>
-      <c r="BA47" s="6">
-        <v>43889</v>
-      </c>
-      <c r="BB47">
-        <v>60</v>
-      </c>
-      <c r="BC47">
-        <f>(BB47/BB46)-1</f>
-        <v>0.034482758620689724</v>
-      </c>
-    </row>
-    <row r="48" spans="1:66" ht="19.5">
-      <c r="C48">
-        <f>H47*D48</f>
-        <v>501.63053529955113</v>
-      </c>
-      <c r="D48">
-        <f>D47/1.1100000000000001</f>
-        <v>0.033223552785802593</v>
-      </c>
-      <c r="E48" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>day four</t>
         </is>
       </c>
-      <c r="G48" s="2">
-        <f>H48*35</f>
-        <v>546009.54486521787</v>
-      </c>
-      <c r="H48">
-        <f>H47+C48</f>
-        <v>15600.272710434798</v>
-      </c>
-      <c r="I48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" t="inlineStr">
+      <c r="G49" s="2">
+        <f>H49*35</f>
+        <v>588644.916436131</v>
+      </c>
+      <c r="H49">
+        <f>H48+C49</f>
+        <v>16818.426183889456</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" t="inlineStr">
         <is>
           <t>ext. Difference:</t>
         </is>
       </c>
-      <c r="M48">
-        <f>M47-M44</f>
-        <v>14</v>
-      </c>
-      <c r="N48">
-        <f>N47-N44</f>
+      <c r="M49">
+        <f>M48-M45</f>
+        <v>30</v>
+      </c>
+      <c r="N49">
+        <f>N48-N45</f>
+        <v>-3</v>
+      </c>
+      <c r="O49">
+        <f>O48-O45</f>
+        <v>6</v>
+      </c>
+      <c r="Q49">
+        <f>Q48-Q45</f>
+        <v>200</v>
+      </c>
+      <c r="R49">
+        <f>R48-R45</f>
+        <v>33</v>
+      </c>
+      <c r="S49">
+        <f>S48-S45</f>
+        <v>60</v>
+      </c>
+      <c r="U49">
+        <f>U48-U45</f>
+        <v>215</v>
+      </c>
+      <c r="V49">
+        <f>V48-V45</f>
+        <v>40</v>
+      </c>
+      <c r="W49">
+        <f>W48-W45</f>
+        <v>44</v>
+      </c>
+      <c r="Y49">
+        <f>Y48-Y45</f>
+        <v>267</v>
+      </c>
+      <c r="Z49">
+        <f>Z48-Z45</f>
+        <v>53</v>
+      </c>
+      <c r="AA49">
+        <f>AA48-AA45</f>
+        <v>78</v>
+      </c>
+      <c r="AC49">
+        <f>AC48-AC45</f>
+        <v>24</v>
+      </c>
+      <c r="AD49">
+        <f>AD48-AD45</f>
+        <v>2</v>
+      </c>
+      <c r="AE49">
+        <f>AE48-AE45</f>
+        <v>7</v>
+      </c>
+      <c r="AG49">
+        <f>AG48-AG45</f>
+        <v>15</v>
+      </c>
+      <c r="AH49">
+        <f>AH48-AH45</f>
+        <v>-1</v>
+      </c>
+      <c r="AI49">
+        <f>AI48-AI45</f>
+        <v>4</v>
+      </c>
+      <c r="AK49">
+        <f>AK48-AK45</f>
+        <v>2</v>
+      </c>
+      <c r="AL49">
+        <f>AL48-AL45</f>
+        <v>1</v>
+      </c>
+      <c r="AM49">
+        <f>AM48-AM45</f>
+        <v>0</v>
+      </c>
+      <c r="AO49">
+        <f>AO48-AO45</f>
+        <v>9</v>
+      </c>
+      <c r="AP49">
+        <f>AP48-AP45</f>
+        <v>4</v>
+      </c>
+      <c r="AQ49">
+        <f>AQ48-AQ45</f>
+        <v>0</v>
+      </c>
+      <c r="AS49">
+        <f>AS48-AS45</f>
+        <v>4</v>
+      </c>
+      <c r="AU49">
+        <f>AU48-AU45</f>
         <v>-2</v>
       </c>
-      <c r="O48">
-        <f>O47-O44</f>
-        <v>5</v>
-      </c>
-      <c r="Q48">
-        <f>Q47-Q44</f>
-        <v>127</v>
-      </c>
-      <c r="R48">
-        <f>R47-R44</f>
-        <v>8</v>
-      </c>
-      <c r="S48">
-        <f>S47-S44</f>
-        <v>20</v>
-      </c>
-      <c r="U48">
-        <f>U47-U44</f>
-        <v>185</v>
-      </c>
-      <c r="V48">
-        <f>V47-V44</f>
-        <v>-8</v>
-      </c>
-      <c r="W48">
-        <f>W47-W44</f>
-        <v>16</v>
-      </c>
-      <c r="Y48">
-        <f>Y47-Y44</f>
-        <v>209</v>
-      </c>
-      <c r="Z48">
-        <f>Z47-Z44</f>
-        <v>21</v>
-      </c>
-      <c r="AA48">
-        <f>AA47-AA44</f>
-        <v>25</v>
-      </c>
-      <c r="AC48">
-        <f>AC47-AC44</f>
-        <v>16</v>
-      </c>
-      <c r="AD48">
-        <f>AD47-AD44</f>
-        <v>3</v>
-      </c>
-      <c r="AE48">
-        <f>AE47-AE44</f>
-        <v>2</v>
-      </c>
-      <c r="AG48">
-        <f>AG47-AG44</f>
-        <v>6</v>
-      </c>
-      <c r="AH48">
-        <f>AH47-AH44</f>
-        <v>-1</v>
-      </c>
-      <c r="AI48">
-        <f>AI47-AI44</f>
-        <v>1</v>
-      </c>
-      <c r="AK48">
-        <f>AK47-AK44</f>
-        <v>4</v>
-      </c>
-      <c r="AL48">
-        <f>AL47-AL44</f>
-        <v>1</v>
-      </c>
-      <c r="AM48">
-        <f>AM47-AM44</f>
-        <v>0</v>
-      </c>
-      <c r="AO48">
-        <f>AO47-AO44</f>
-        <v>5</v>
-      </c>
-      <c r="AP48">
-        <f>AP47-AP44</f>
-        <v>-3</v>
-      </c>
-      <c r="AQ48">
-        <f>AQ47-AQ44</f>
-        <v>0</v>
-      </c>
-      <c r="AS48">
-        <f>AS47-AS44</f>
-        <v>42</v>
-      </c>
-      <c r="AU48">
-        <f>AU47-AU44</f>
-        <v>0</v>
-      </c>
-      <c r="AW48" s="1">
-        <f>AW47-AW44</f>
-        <v>608</v>
-      </c>
-      <c r="AX48">
-        <f>AX47-AX44</f>
-        <v>19</v>
-      </c>
-      <c r="AY48">
-        <f>AY47-AY44</f>
-        <v>69</v>
-      </c>
-      <c r="BA48" s="6">
-        <v>43890</v>
-      </c>
-      <c r="BB48">
-        <v>68</v>
-      </c>
-      <c r="BC48">
-        <f>(BB48/BB47)-1</f>
-        <v>0.1333333333333333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:66" ht="19.5">
-      <c r="C49">
-        <f>H48*D49</f>
-        <v>466.93376925049205</v>
-      </c>
-      <c r="D49">
-        <f>D48/1.1100000000000001</f>
-        <v>0.02993112863585819</v>
-      </c>
-      <c r="E49" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" t="inlineStr">
+      <c r="AW49" s="1">
+        <f>AW48-AW45</f>
+        <v>766</v>
+      </c>
+      <c r="AX49">
+        <f>AX48-AX45</f>
+        <v>129</v>
+      </c>
+      <c r="AY49">
+        <f>AY48-AY45</f>
+        <v>197</v>
+      </c>
+      <c r="BA49" s="6">
+        <v>43891</v>
+      </c>
+      <c r="BB49">
+        <v>74</v>
+      </c>
+      <c r="BC49">
+        <f>(BB49/BB48)-1</f>
+        <v>0.088235294117646967</v>
+      </c>
+    </row>
+    <row r="50" spans="1:66" ht="19.5">
+      <c r="C50">
+        <f>H49*D50</f>
+        <v>606.64627849897374</v>
+      </c>
+      <c r="D50">
+        <f>D49/1.1100000000000001</f>
+        <v>0.036070335705970305</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" t="inlineStr">
         <is>
           <t>day five</t>
         </is>
       </c>
-      <c r="G49" s="2">
-        <f>H49*35</f>
-        <v>562352.22678898519</v>
-      </c>
-      <c r="H49">
-        <f>H48+C49</f>
-        <v>16067.20647968529</v>
-      </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" t="inlineStr">
+      <c r="G50" s="2">
+        <f>H50*35</f>
+        <v>609877.53618359508</v>
+      </c>
+      <c r="H50">
+        <f>H49+C50</f>
+        <v>17425.072462388431</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" t="inlineStr">
         <is>
           <t>int. Difference:</t>
         </is>
       </c>
-      <c r="M49">
-        <f>M45-M44</f>
-        <v>14</v>
-      </c>
-      <c r="N49">
-        <f>N45-N44</f>
+      <c r="M50">
+        <f>M46-M45</f>
+        <v>30</v>
+      </c>
+      <c r="N50">
+        <f>N46-N45</f>
+        <v>-3</v>
+      </c>
+      <c r="O50">
+        <f>O46-O45</f>
+        <v>6</v>
+      </c>
+      <c r="Q50">
+        <f>Q46-Q45</f>
+        <v>200</v>
+      </c>
+      <c r="R50">
+        <f>R46-R45</f>
+        <v>33</v>
+      </c>
+      <c r="S50">
+        <f>S46-S45</f>
+        <v>60</v>
+      </c>
+      <c r="U50">
+        <f>U46-U45</f>
+        <v>215</v>
+      </c>
+      <c r="V50">
+        <f>V46-V45</f>
+        <v>40</v>
+      </c>
+      <c r="W50">
+        <f>W46-W45</f>
+        <v>44</v>
+      </c>
+      <c r="Y50">
+        <f>Y46-Y45</f>
+        <v>267</v>
+      </c>
+      <c r="Z50">
+        <f>Z46-Z45</f>
+        <v>53</v>
+      </c>
+      <c r="AA50">
+        <f>AA46-AA45</f>
+        <v>78</v>
+      </c>
+      <c r="AC50">
+        <f>AC46-AC45</f>
+        <v>24</v>
+      </c>
+      <c r="AD50">
+        <f>AD46-AD45</f>
+        <v>2</v>
+      </c>
+      <c r="AE50">
+        <f>AE46-AE45</f>
+        <v>7</v>
+      </c>
+      <c r="AG50">
+        <f>AG46-AG45</f>
+        <v>15</v>
+      </c>
+      <c r="AH50">
+        <f>AH46-AH45</f>
+        <v>-1</v>
+      </c>
+      <c r="AI50">
+        <f>AI46-AI45</f>
+        <v>4</v>
+      </c>
+      <c r="AK50">
+        <f>AK46-AK45</f>
+        <v>2</v>
+      </c>
+      <c r="AL50">
+        <f>AL46-AL45</f>
+        <v>1</v>
+      </c>
+      <c r="AM50">
+        <f>AM46-AM45</f>
+        <v>0</v>
+      </c>
+      <c r="AO50">
+        <f>AO46-AO45</f>
+        <v>9</v>
+      </c>
+      <c r="AP50">
+        <f>AP46-AP45</f>
+        <v>4</v>
+      </c>
+      <c r="AQ50">
+        <f>AQ46-AQ45</f>
+        <v>0</v>
+      </c>
+      <c r="AS50">
+        <f>AS46-AS45</f>
+        <v>4</v>
+      </c>
+      <c r="AU50">
+        <f>AU46-AU45</f>
         <v>-2</v>
       </c>
-      <c r="O49">
-        <f>O45-O44</f>
-        <v>5</v>
-      </c>
-      <c r="Q49">
-        <f>Q45-Q44</f>
-        <v>127</v>
-      </c>
-      <c r="R49">
-        <f>R45-R44</f>
-        <v>8</v>
-      </c>
-      <c r="S49">
-        <f>S45-S44</f>
-        <v>20</v>
-      </c>
-      <c r="U49">
-        <f>U45-U44</f>
-        <v>185</v>
-      </c>
-      <c r="V49">
-        <f>V45-V44</f>
-        <v>-8</v>
-      </c>
-      <c r="W49">
-        <f>W45-W44</f>
-        <v>16</v>
-      </c>
-      <c r="Y49">
-        <f>Y45-Y44</f>
-        <v>209</v>
-      </c>
-      <c r="Z49">
-        <f>Z45-Z44</f>
-        <v>21</v>
-      </c>
-      <c r="AA49">
-        <f>AA45-AA44</f>
-        <v>25</v>
-      </c>
-      <c r="AC49">
-        <f>AC45-AC44</f>
-        <v>16</v>
-      </c>
-      <c r="AD49">
-        <f>AD45-AD44</f>
-        <v>3</v>
-      </c>
-      <c r="AE49">
-        <f>AE45-AE44</f>
-        <v>2</v>
-      </c>
-      <c r="AG49">
-        <f>AG45-AG44</f>
-        <v>6</v>
-      </c>
-      <c r="AH49">
-        <f>AH45-AH44</f>
-        <v>-1</v>
-      </c>
-      <c r="AI49">
-        <f>AI45-AI44</f>
-        <v>1</v>
-      </c>
-      <c r="AK49">
-        <f>AK45-AK44</f>
-        <v>4</v>
-      </c>
-      <c r="AL49">
-        <f>AL45-AL44</f>
-        <v>1</v>
-      </c>
-      <c r="AM49">
-        <f>AM45-AM44</f>
-        <v>0</v>
-      </c>
-      <c r="AO49">
-        <f>AO45-AO44</f>
-        <v>5</v>
-      </c>
-      <c r="AP49">
-        <f>AP45-AP44</f>
-        <v>-3</v>
-      </c>
-      <c r="AQ49">
-        <f>AQ45-AQ44</f>
-        <v>0</v>
-      </c>
-      <c r="AS49">
-        <f>AS45-AS44</f>
-        <v>42</v>
-      </c>
-      <c r="AU49">
-        <f>AU45-AU44</f>
-        <v>0</v>
-      </c>
-      <c r="AW49" s="1">
-        <f>AW45-AW44</f>
-        <v>608</v>
-      </c>
-      <c r="AX49">
-        <f>AX45-AX44</f>
-        <v>19</v>
-      </c>
-      <c r="AY49">
-        <f>AY45-AY44</f>
-        <v>69</v>
-      </c>
-      <c r="BA49" s="6">
-        <v>43891</v>
-      </c>
-      <c r="BB49">
-        <v>74</v>
-      </c>
-      <c r="BC49">
-        <f>(BB49/BB48)-1</f>
-        <v>0.088235294117646967</v>
-      </c>
-    </row>
-    <row r="50" spans="1:66" ht="19.5">
-      <c r="C50">
-        <f>H49*D50</f>
-        <v>433.25191347959878</v>
-      </c>
-      <c r="D50">
-        <f>D49/1.1100000000000001</f>
-        <v>0.026964980753025395</v>
-      </c>
-      <c r="E50" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" t="inlineStr">
+      <c r="AW50" s="1">
+        <f>AW46-AW45</f>
+        <v>766</v>
+      </c>
+      <c r="AX50">
+        <f>AX46-AX45</f>
+        <v>129</v>
+      </c>
+      <c r="AY50">
+        <f>AY46-AY45</f>
+        <v>197</v>
+      </c>
+      <c r="BA50" s="6">
+        <v>43892</v>
+      </c>
+      <c r="BB50">
+        <v>98</v>
+      </c>
+      <c r="BC50">
+        <f>(BB50/BB49)-1</f>
+        <v>0.32432432432432434</v>
+      </c>
+    </row>
+    <row r="51" spans="1:66" ht="19.5">
+      <c r="C51">
+        <f>H50*D51</f>
+        <v>566.24163371099928</v>
+      </c>
+      <c r="D51">
+        <f>D50/1.1100000000000001</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="inlineStr">
         <is>
           <t>above: moving target</t>
         </is>
       </c>
-      <c r="G50" s="2">
-        <f>H50*35</f>
-        <v>577516.04376077105</v>
-      </c>
-      <c r="H50">
-        <f>H49+C50</f>
-        <v>16500.458393164889</v>
-      </c>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="AW50" s="1"/>
-      <c r="BA50" s="6">
-        <v>43892</v>
-      </c>
-      <c r="BB50">
-        <v>98</v>
-      </c>
-      <c r="BC50">
-        <f>(BB50/BB49)-1</f>
-        <v>0.32432432432432434</v>
-      </c>
-    </row>
-    <row r="51" spans="1:66" ht="19.5">
-      <c r="C51">
-        <f>H50*D51</f>
-        <v>400.84193061962839</v>
-      </c>
-      <c r="D51">
-        <f>D50/1.1100000000000001</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E51" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="6">
-        <v>43941</v>
-      </c>
       <c r="G51" s="2">
         <f>H51*35</f>
-        <v>591545.51133245812</v>
+        <v>629695.99336348008</v>
       </c>
       <c r="H51">
         <f>H50+C51</f>
-        <v>16901.300323784519</v>
+        <v>17991.314096099431</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>&lt;&lt; transmission under 4 percent growth (per day)</t>
+          <t>&lt;&lt; transmission under 3.5 percent growth (per day)</t>
         </is>
       </c>
       <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
       <c r="AW51" s="1"/>
       <c r="BA51" s="6">
         <v>43893</v>
@@ -5936,11 +6056,11 @@
     <row r="52" spans="1:66" ht="19.5">
       <c r="C52">
         <f>H51*D52</f>
-        <v>410.57949363238868</v>
+        <v>584.64210742149737</v>
       </c>
       <c r="D52">
         <f>D51</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E52" t="s">
         <v>13</v>
@@ -5950,184 +6070,185 @@
       </c>
       <c r="G52" s="2">
         <f>H52*35</f>
-        <v>605915.79360959167</v>
+        <v>650158.46712323243</v>
       </c>
       <c r="H52">
         <f>H51+C52</f>
-        <v>17311.879817416906</v>
+        <v>18575.956203520927</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>(four percent arbitrarily chosen)</t>
+          <t>(near four percent and arbitrarily chosen)</t>
         </is>
       </c>
       <c r="J52" s="1"/>
-      <c r="K52" t="inlineStr">
+      <c r="AW52" s="1"/>
+      <c r="BA52" s="6">
+        <v>43894</v>
+      </c>
+      <c r="BB52">
+        <v>149</v>
+      </c>
+      <c r="BC52">
+        <f>(BB52/BB51)-1</f>
+        <v>0.26271186440677963</v>
+      </c>
+    </row>
+    <row r="53" spans="1:66" ht="19.5">
+      <c r="C53">
+        <f>H52*D53</f>
+        <v>603.6405192075689</v>
+      </c>
+      <c r="D53">
+        <f>D52</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="6">
+        <v>43943</v>
+      </c>
+      <c r="G53" s="2">
+        <f>H53*35</f>
+        <v>671285.88529549737</v>
+      </c>
+      <c r="H53">
+        <f>H52+C53</f>
+        <v>19179.596722728496</v>
+      </c>
+      <c r="J53" s="1"/>
+      <c r="K53" t="inlineStr">
         <is>
           <t>TODAY:</t>
         </is>
       </c>
-      <c r="M52" s="7">
-        <f>(M45/M44)-1</f>
-        <v>0.031390134529148073</v>
-      </c>
-      <c r="N52" s="7">
-        <f>(N45/N44)-1</f>
-        <v>-0.054054054054054057</v>
-      </c>
-      <c r="O52" s="7">
-        <f>(O45/O44)-1</f>
-        <v>0.20833333333333326</v>
-      </c>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="7">
-        <f>(Q45/Q44)-1</f>
-        <v>0.056620597414177354</v>
-      </c>
-      <c r="R52" s="7">
-        <f>(R45/R44)-1</f>
-        <v>0.022160664819944609</v>
-      </c>
-      <c r="S52" s="7">
-        <f>(S45/S44)-1</f>
-        <v>0.15037593984962405</v>
-      </c>
-      <c r="T52" s="5"/>
-      <c r="U52" s="7">
-        <f>(U45/U44)-1</f>
-        <v>0.055092316855271051</v>
-      </c>
-      <c r="V52" s="7">
-        <f>(V45/V44)-1</f>
-        <v>-0.01379310344827589</v>
-      </c>
-      <c r="W52" s="7">
-        <f>(W45/W44)-1</f>
-        <v>0.11851851851851847</v>
-      </c>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="7">
-        <f>(Y45/Y44)-1</f>
-        <v>0.034810126582278444</v>
-      </c>
-      <c r="Z52" s="7">
-        <f>(Z45/Z44)-1</f>
-        <v>0.029577464788732355</v>
-      </c>
-      <c r="AA52" s="7">
-        <f>(AA45/AA44)-1</f>
-        <v>0.095419847328244378</v>
-      </c>
-      <c r="AB52" s="5"/>
-      <c r="AC52" s="7">
-        <f>(AC45/AC44)-1</f>
-        <v>0.0471976401179941</v>
-      </c>
-      <c r="AD52" s="7">
-        <f>(AD45/AD44)-1</f>
-        <v>0.085714285714285632</v>
-      </c>
-      <c r="AE52" s="7">
-        <f>(AE45/AE44)-1</f>
-        <v>0.10526315789473695</v>
-      </c>
-      <c r="AF52" s="5"/>
-      <c r="AG52" s="7">
-        <f>(AG45/AG44)-1</f>
-        <v>0.03076923076923066</v>
-      </c>
-      <c r="AH52" s="7">
-        <f>(AH45/AH44)-1</f>
-        <v>-0.076923076923076872</v>
-      </c>
-      <c r="AI52" s="7">
-        <f>(AI45/AI44)-1</f>
-        <v>0.058823529411764719</v>
-      </c>
-      <c r="AJ52" s="5"/>
-      <c r="AK52" s="7">
-        <f>(AK45/AK44)-1</f>
-        <v>0.048192771084337283</v>
-      </c>
-      <c r="AL52" s="7">
-        <f>(AL45/AL44)-1</f>
-        <v>0.25</v>
-      </c>
-      <c r="AM52" s="7">
-        <f>(AM45/AM44)-1</f>
+      <c r="M53" s="7">
+        <f>(M46/M45)-1</f>
+        <v>0.065217391304347894</v>
+      </c>
+      <c r="N53" s="7">
+        <f>(N46/N45)-1</f>
+        <v>-0.085714285714285743</v>
+      </c>
+      <c r="O53" s="7">
+        <f>(O46/O45)-1</f>
+        <v>0.2068965517241379</v>
+      </c>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="7">
+        <f>(Q46/Q45)-1</f>
+        <v>0.084388185654008518</v>
+      </c>
+      <c r="R53" s="7">
+        <f>(R46/R45)-1</f>
+        <v>0.089430894308943021</v>
+      </c>
+      <c r="S53" s="7">
+        <f>(S46/S45)-1</f>
+        <v>0.39215686274509798</v>
+      </c>
+      <c r="T53" s="5"/>
+      <c r="U53" s="7">
+        <f>(U46/U45)-1</f>
+        <v>0.060683036974315652</v>
+      </c>
+      <c r="V53" s="7">
+        <f>(V46/V45)-1</f>
+        <v>0.069930069930070005</v>
+      </c>
+      <c r="W53" s="7">
+        <f>(W46/W45)-1</f>
+        <v>0.29139072847682113</v>
+      </c>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="7">
+        <f>(Y46/Y45)-1</f>
+        <v>0.042974408498309913</v>
+      </c>
+      <c r="Z53" s="7">
+        <f>(Z46/Z45)-1</f>
+        <v>0.072503419972640204</v>
+      </c>
+      <c r="AA53" s="7">
+        <f>(AA46/AA45)-1</f>
+        <v>0.27177700348432055</v>
+      </c>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="7">
+        <f>(AC46/AC45)-1</f>
+        <v>0.067605633802816811</v>
+      </c>
+      <c r="AD53" s="7">
+        <f>(AD46/AD45)-1</f>
+        <v>0.052631578947368363</v>
+      </c>
+      <c r="AE53" s="7">
+        <f>(AE46/AE45)-1</f>
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="7">
+        <f>(AG46/AG45)-1</f>
+        <v>0.074626865671641784</v>
+      </c>
+      <c r="AH53" s="7">
+        <f>(AH46/AH45)-1</f>
+        <v>-0.08333333333333337</v>
+      </c>
+      <c r="AI53" s="7">
+        <f>(AI46/AI45)-1</f>
+        <v>0.22222222222222232</v>
+      </c>
+      <c r="AJ53" s="5"/>
+      <c r="AK53" s="7">
+        <f>(AK46/AK45)-1</f>
+        <v>0.022988505747126409</v>
+      </c>
+      <c r="AL53" s="7">
+        <f>(AL46/AL45)-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AM53" s="7">
+        <f>(AM46/AM45)-1</f>
         <v>0</v>
       </c>
-      <c r="AN52" s="5"/>
-      <c r="AO52" s="7">
-        <f>(AO45/AO44)-1</f>
-        <v>0.022522522522522515</v>
-      </c>
-      <c r="AP52" s="7">
-        <f>(AP45/AP44)-1</f>
-        <v>-0.15000000000000002</v>
-      </c>
-      <c r="AQ52" s="7">
-        <f>(AQ45/AQ44)-1</f>
+      <c r="AN53" s="5"/>
+      <c r="AO53" s="7">
+        <f>(AO46/AO45)-1</f>
+        <v>0.039647577092511099</v>
+      </c>
+      <c r="AP53" s="7">
+        <f>(AP46/AP45)-1</f>
+        <v>0.23529411764705888</v>
+      </c>
+      <c r="AQ53" s="7">
+        <f>(AQ46/AQ45)-1</f>
         <v>0</v>
       </c>
-      <c r="AR52" s="5"/>
-      <c r="AS52" s="7">
-        <f>(AS45/AS44)-1</f>
-        <v>0.085539714867617134</v>
-      </c>
-      <c r="AT52" s="7"/>
-      <c r="AU52" s="7">
-        <f>(AU45/AU44)-1</f>
-        <v>0</v>
-      </c>
-      <c r="AV52" s="5"/>
-      <c r="AW52" s="7">
-        <f>(AW45/AW44)-1</f>
-        <v>0.045437560720424486</v>
-      </c>
-      <c r="AX52" s="7">
-        <f>(AX45/AX44)-1</f>
-        <v>0.010795454545454497</v>
-      </c>
-      <c r="AY52" s="7">
-        <f>(AY45/AY44)-1</f>
-        <v>0.11461794019933547</v>
-      </c>
-      <c r="BA52" s="6">
-        <v>43894</v>
-      </c>
-      <c r="BB52">
-        <v>149</v>
-      </c>
-      <c r="BC52">
-        <f>(BB52/BB51)-1</f>
-        <v>0.26271186440677963</v>
-      </c>
-    </row>
-    <row r="53" spans="1:66" ht="19.5">
-      <c r="C53">
-        <f>H52*D53</f>
-        <v>420.55360907687896</v>
-      </c>
-      <c r="D53">
-        <f>D52</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E53" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="6">
-        <v>43943</v>
-      </c>
-      <c r="G53" s="2">
-        <f>H53*35</f>
-        <v>620635.16992728249</v>
-      </c>
-      <c r="H53">
-        <f>H52+C53</f>
-        <v>17732.433426493786</v>
-      </c>
-      <c r="J53" s="1"/>
+      <c r="AR53" s="5"/>
+      <c r="AS53" s="7">
+        <f>(AS46/AS45)-1</f>
+        <v>0.0075046904315196894</v>
+      </c>
+      <c r="AT53" s="7"/>
+      <c r="AU53" s="7">
+        <f>(AU46/AU45)-1</f>
+        <v>-0.5</v>
+      </c>
+      <c r="AV53" s="5"/>
+      <c r="AW53" s="7">
+        <f>(AW46/AW45)-1</f>
+        <v>0.054757309314461322</v>
+      </c>
+      <c r="AX53" s="7">
+        <f>(AX46/AX45)-1</f>
+        <v>0.072512647554806131</v>
+      </c>
+      <c r="AY53" s="7">
+        <f>(AY46/AY45)-1</f>
+        <v>0.29359165424739198</v>
+      </c>
       <c r="BA53" s="6">
         <v>43895</v>
       </c>
@@ -6142,11 +6263,11 @@
     <row r="54" spans="1:66" ht="19.5">
       <c r="C54">
         <f>H53*D54</f>
-        <v>430.77002346820638</v>
+        <v>623.2562995440943</v>
       </c>
       <c r="D54">
         <f>D53</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E54" t="s">
         <v>15</v>
@@ -6156,11 +6277,11 @@
       </c>
       <c r="G54" s="2">
         <f>H54*35</f>
-        <v>635712.12074866972</v>
+        <v>693099.85577954061</v>
       </c>
       <c r="H54">
         <f>H53+C54</f>
-        <v>18163.203449961991</v>
+        <v>19802.853022272589</v>
       </c>
       <c r="J54" s="1"/>
       <c r="BA54" s="6">
@@ -6177,11 +6298,11 @@
     <row r="55" spans="1:66" ht="19.5">
       <c r="C55">
         <f>H54*D55</f>
-        <v>441.23462292027887</v>
+        <v>643.50951031473949</v>
       </c>
       <c r="D55">
         <f>D54</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E55" t="s">
         <v>16</v>
@@ -6191,192 +6312,183 @@
       </c>
       <c r="G55" s="2">
         <f>H55*35</f>
-        <v>651155.33255087945</v>
+        <v>715622.68864055653</v>
       </c>
       <c r="H55">
         <f>H54+C55</f>
-        <v>18604.438072882269</v>
+        <v>20446.362532587329</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>&lt;&lt; 715 thousand (35x measured)</t>
+        </is>
       </c>
       <c r="J55" s="1"/>
-      <c r="K55" t="inlineStr">
+      <c r="BA55" s="6">
+        <v>43897</v>
+      </c>
+      <c r="BB55">
+        <v>402</v>
+      </c>
+      <c r="BC55">
+        <f>(BB55/BB54)-1</f>
+        <v>0.53435114503816794</v>
+      </c>
+    </row>
+    <row r="56" spans="1:66" ht="19.5">
+      <c r="C56">
+        <f>H55*D56</f>
+        <v>664.42086533008842</v>
+      </c>
+      <c r="D56">
+        <f>D55</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="6">
+        <v>43946</v>
+      </c>
+      <c r="G56" s="2">
+        <f>H56*35</f>
+        <v>738877.41892710957</v>
+      </c>
+      <c r="H56">
+        <f>H55+C56</f>
+        <v>21110.783397917417</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" t="inlineStr">
         <is>
           <t>Yesterday:</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>(Now preserved)</t>
-        </is>
-      </c>
-      <c r="M55" s="7">
+      <c r="M56" s="7">
+        <f>0.029999999999999999</f>
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="N56" s="7">
+        <f>-0.050000000000000003</f>
+        <v>-0.050000000000000003</v>
+      </c>
+      <c r="O56" s="7">
+        <f>0.20999999999999999</f>
+        <v>0.20999999999999999</v>
+      </c>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7">
+        <f>0.059999999999999998</f>
+        <v>0.059999999999999998</v>
+      </c>
+      <c r="R56" s="7">
+        <f>0.02</f>
+        <v>0.02</v>
+      </c>
+      <c r="S56" s="7">
+        <f>0.14999999999999999</f>
+        <v>0.14999999999999999</v>
+      </c>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7">
+        <f>0.059999999999999998</f>
+        <v>0.059999999999999998</v>
+      </c>
+      <c r="V56" s="7">
+        <f>-0.01</f>
+        <v>-0.01</v>
+      </c>
+      <c r="W56" s="7">
+        <f>0.12</f>
+        <v>0.12</v>
+      </c>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7">
+        <f>0.029999999999999999</f>
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="Z56" s="7">
+        <f>0.029999999999999999</f>
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="AA56" s="7">
+        <f>0.10000000000000001</f>
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB56" s="7"/>
+      <c r="AC56" s="7">
+        <f>0.050000000000000003</f>
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="AD56" s="7">
+        <f>0.089999999999999997</f>
+        <v>0.089999999999999997</v>
+      </c>
+      <c r="AE56" s="7">
         <f>0.11</f>
         <v>0.11</v>
       </c>
-      <c r="N55" s="7">
-        <f>-0.050000000000000003</f>
-        <v>-0.050000000000000003</v>
-      </c>
-      <c r="O55" s="7">
+      <c r="AF56" s="7"/>
+      <c r="AG56" s="7">
+        <f>0.029999999999999999</f>
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="AH56" s="7">
+        <f>-0.080000000000000002</f>
+        <v>-0.080000000000000002</v>
+      </c>
+      <c r="AI56" s="7">
+        <f>0.059999999999999998</f>
+        <v>0.059999999999999998</v>
+      </c>
+      <c r="AJ56" s="7"/>
+      <c r="AK56" s="7">
+        <f>0.050000000000000003</f>
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="AL56" s="7">
+        <f>0.25</f>
+        <v>0.25</v>
+      </c>
+      <c r="AM56" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7">
-        <f>0.17000000000000001</f>
-        <v>0.17000000000000001</v>
-      </c>
-      <c r="R55" s="7">
-        <f>0.080000000000000002</f>
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="S55" s="7">
-        <f>0.14999999999999999</f>
-        <v>0.14999999999999999</v>
-      </c>
-      <c r="T55" s="7"/>
-      <c r="U55" s="7">
-        <f>0.14000000000000001</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="V55" s="7">
-        <f>0.080000000000000002</f>
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="W55" s="7">
-        <f>0.13</f>
-        <v>0.13</v>
-      </c>
-      <c r="X55" s="7"/>
-      <c r="Y55" s="7">
-        <f>0.080000000000000002</f>
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="Z55" s="7">
-        <f>0.029999999999999999</f>
-        <v>0.029999999999999999</v>
-      </c>
-      <c r="AA55" s="7">
-        <f>0.059999999999999998</f>
-        <v>0.059999999999999998</v>
-      </c>
-      <c r="AB55" s="7"/>
-      <c r="AC55" s="7">
-        <f>0.13</f>
-        <v>0.13</v>
-      </c>
-      <c r="AD55" s="7">
+      <c r="AN56" s="7"/>
+      <c r="AO56" s="7">
+        <f>0.02</f>
+        <v>0.02</v>
+      </c>
+      <c r="AP56" s="7">
+        <f>-0.14999999999999999</f>
+        <v>-0.14999999999999999</v>
+      </c>
+      <c r="AQ56" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AR56" s="7"/>
+      <c r="AS56" s="7">
         <f>0.089999999999999997</f>
         <v>0.089999999999999997</v>
       </c>
-      <c r="AE55" s="7">
-        <f>0.059999999999999998</f>
-        <v>0.059999999999999998</v>
-      </c>
-      <c r="AF55" s="7"/>
-      <c r="AG55" s="7">
-        <f>0.070000000000000007</f>
-        <v>0.070000000000000007</v>
-      </c>
-      <c r="AH55" s="7">
-        <f>0.85999999999999999</f>
-        <v>0.85999999999999999</v>
-      </c>
-      <c r="AI55" s="7">
-        <f>0</f>
+      <c r="AT56" s="7"/>
+      <c r="AU56" s="7">
         <v>0</v>
       </c>
-      <c r="AJ55" s="7"/>
-      <c r="AK55" s="7">
-        <f>0.26000000000000001</f>
-        <v>0.26000000000000001</v>
-      </c>
-      <c r="AL55" s="7">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="AM55" s="7">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="AN55" s="7"/>
-      <c r="AO55" s="7">
-        <f>0.17000000000000001</f>
-        <v>0.17000000000000001</v>
-      </c>
-      <c r="AP55" s="7">
-        <f>0.25</f>
-        <v>0.25</v>
-      </c>
-      <c r="AQ55" s="7">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="AR55" s="7"/>
-      <c r="AS55" s="7">
-        <f>-0.02</f>
-        <v>-0.02</v>
-      </c>
-      <c r="AT55" s="7"/>
-      <c r="AU55" s="7">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="AV55" s="7"/>
-      <c r="AW55" s="7">
+      <c r="AV56" s="7"/>
+      <c r="AW56" s="7">
+        <f>0.050000000000000003</f>
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="AX56" s="7">
+        <f>0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="AY56" s="7">
         <f>0.11</f>
         <v>0.11</v>
-      </c>
-      <c r="AX55" s="7">
-        <f>0.059999999999999998</f>
-        <v>0.059999999999999998</v>
-      </c>
-      <c r="AY55" s="7">
-        <f>0.089999999999999997</f>
-        <v>0.089999999999999997</v>
-      </c>
-      <c r="BA55" s="6">
-        <v>43897</v>
-      </c>
-      <c r="BB55">
-        <v>402</v>
-      </c>
-      <c r="BC55">
-        <f>(BB55/BB54)-1</f>
-        <v>0.53435114503816794</v>
-      </c>
-    </row>
-    <row r="56" spans="1:66" ht="19.5">
-      <c r="C56">
-        <f>H55*D56</f>
-        <v>451.95343653704793</v>
-      </c>
-      <c r="D56">
-        <f>D55</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E56" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" s="6">
-        <v>43946</v>
-      </c>
-      <c r="G56" s="2">
-        <f>H56*35</f>
-        <v>666973.7028296761</v>
-      </c>
-      <c r="H56">
-        <f>H55+C56</f>
-        <v>19056.391509419318</v>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>&lt;&lt; 790 thousand (35x measured)</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>*preliminary*</t>
-        </is>
       </c>
       <c r="BA56" s="6">
         <v>43898</v>
@@ -6392,11 +6504,11 @@
     <row r="57" spans="1:66" ht="19.5">
       <c r="C57">
         <f>H56*D57</f>
-        <v>462.93263988613376</v>
+        <v>686.01175151252767</v>
       </c>
       <c r="D57">
         <f>D56</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -6406,137 +6518,150 @@
       </c>
       <c r="G57" s="2">
         <f>H57*35</f>
-        <v>683176.34522569086</v>
+        <v>762887.83023004804</v>
       </c>
       <c r="H57">
         <f>H56+C57</f>
-        <v>19519.324149305452</v>
+        <v>21796.795149429945</v>
       </c>
       <c r="J57" s="1"/>
-      <c r="P57" t="inlineStr">
+      <c r="BA57" s="6">
+        <v>43899</v>
+      </c>
+      <c r="BB57">
+        <v>583</v>
+      </c>
+      <c r="BC57">
+        <f>(BB57/BB56)-1</f>
+        <v>0.12548262548262556</v>
+      </c>
+    </row>
+    <row r="58" spans="1:66" ht="19.5">
+      <c r="C58">
+        <f>H57*D58</f>
+        <v>708.30425076955248</v>
+      </c>
+      <c r="D58">
+        <f>D57</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="6">
+        <v>43948</v>
+      </c>
+      <c r="G58" s="2">
+        <f>H58*35</f>
+        <v>787678.47900698241</v>
+      </c>
+      <c r="H58">
+        <f>H57+C58</f>
+        <v>22505.099400199499</v>
+      </c>
+      <c r="J58" s="1"/>
+      <c r="P58" t="inlineStr">
         <is>
           <t>older Source: https://portal.ct.gov/Coronavirus/Pages/Governors-Press-Releases</t>
         </is>
       </c>
-      <c r="AQ57" s="7"/>
-      <c r="AU57" s="7" t="inlineStr">
+      <c r="AQ58" s="7"/>
+      <c r="AU58" s="7" t="inlineStr">
         <is>
           <t>r: +3</t>
         </is>
       </c>
-      <c r="BA57" s="6">
-        <v>43899</v>
-      </c>
-      <c r="BB57">
-        <v>583</v>
-      </c>
-      <c r="BC57">
-        <f>(BB57/BB56)-1</f>
-        <v>0.12548262548262556</v>
-      </c>
-    </row>
-    <row r="58" spans="1:66" ht="19.5">
-      <c r="C58">
-        <f>H57*D58</f>
-        <v>474.17855855683359</v>
-      </c>
-      <c r="D58">
-        <f>D57</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E58" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="6">
-        <v>43948</v>
-      </c>
-      <c r="G58" s="2">
-        <f>H58*35</f>
-        <v>699772.59477517998</v>
-      </c>
-      <c r="H58">
-        <f>H57+C58</f>
-        <v>19993.502707862284</v>
-      </c>
-      <c r="AL58" t="inlineStr">
+      <c r="AW58">
+        <f>AW57+766</f>
+        <v>766</v>
+      </c>
+      <c r="AX58">
+        <f>AX57+129</f>
+        <v>129</v>
+      </c>
+      <c r="AY58">
+        <f>AY57+197</f>
+        <v>197</v>
+      </c>
+      <c r="BA58" s="6">
+        <v>43900</v>
+      </c>
+      <c r="BB58">
+        <v>959</v>
+      </c>
+      <c r="BC58">
+        <f>(BB58/BB57)-1</f>
+        <v>0.64493996569468259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:66" ht="19.5">
+      <c r="C59">
+        <f>H58*D59</f>
+        <v>731.32116257786197</v>
+      </c>
+      <c r="D59">
+        <f>D58</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="6">
+        <v>43949</v>
+      </c>
+      <c r="G59" s="2">
+        <f>H59*35</f>
+        <v>813274.71969720756</v>
+      </c>
+      <c r="H59">
+        <f>H58+C59</f>
+        <v>23236.420562777359</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="AL59" t="inlineStr">
         <is>
           <t>any zero-to-positive int gets the 'r: +n' entry.</t>
         </is>
       </c>
-      <c r="BA58" s="6">
-        <v>43900</v>
-      </c>
-      <c r="BB58">
-        <v>959</v>
-      </c>
-      <c r="BC58">
-        <f>(BB58/BB57)-1</f>
-        <v>0.64493996569468259</v>
-      </c>
-    </row>
-    <row r="59" spans="1:66" ht="19.5">
-      <c r="C59">
-        <f>H58*D59</f>
-        <v>485.6976718045654</v>
-      </c>
-      <c r="D59">
-        <f>D58</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E59" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="6">
-        <v>43949</v>
-      </c>
-      <c r="G59" s="2">
-        <f>H59*35</f>
-        <v>716772.01328833972</v>
-      </c>
-      <c r="H59">
-        <f>H58+C59</f>
-        <v>20479.20037966685</v>
-      </c>
-      <c r="P59" t="inlineStr">
+      <c r="BA59" s="6">
+        <v>43901</v>
+      </c>
+      <c r="BB59">
+        <v>1281</v>
+      </c>
+      <c r="BC59">
+        <f>(BB59/BB58)-1</f>
+        <v>0.33576642335766427</v>
+      </c>
+    </row>
+    <row r="60" spans="1:66" ht="19.5">
+      <c r="C60">
+        <f>H59*D60</f>
+        <v>755.08602730134294</v>
+      </c>
+      <c r="D60">
+        <f>D59</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="6">
+        <v>43950</v>
+      </c>
+      <c r="G60" s="2">
+        <f>H60*35</f>
+        <v>839702.73065275454</v>
+      </c>
+      <c r="H60">
+        <f>H59+C60</f>
+        <v>23991.506590078701</v>
+      </c>
+      <c r="P60" t="inlineStr">
         <is>
           <t>recent Source: https://portal.ct.gov/-/media/Coronavirus/CTDPHCOVID19summary3312020.pdf?la=en</t>
         </is>
       </c>
-      <c r="BA59" s="6">
-        <v>43901</v>
-      </c>
-      <c r="BB59">
-        <v>1281</v>
-      </c>
-      <c r="BC59">
-        <f>(BB59/BB58)-1</f>
-        <v>0.33576642335766427</v>
-      </c>
-    </row>
-    <row r="60" spans="1:66" ht="19.5">
-      <c r="C60">
-        <f>H59*D60</f>
-        <v>497.49661628384411</v>
-      </c>
-      <c r="D60">
-        <f>D59</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E60" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="6">
-        <v>43950</v>
-      </c>
-      <c r="G60" s="2">
-        <f>H60*35</f>
-        <v>734184.39485827426</v>
-      </c>
-      <c r="H60">
-        <f>H59+C60</f>
-        <v>20976.696995950693</v>
-      </c>
-      <c r="J60" s="1"/>
       <c r="BA60" s="6">
         <v>43902</v>
       </c>
@@ -6551,11 +6676,11 @@
     <row r="61" spans="1:66" ht="19.5">
       <c r="C61">
         <f>H60*D61</f>
-        <v>509.58218987194238</v>
+        <v>779.62315026679062</v>
       </c>
       <c r="D61">
         <f>D60</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E61" t="s">
         <v>15</v>
@@ -6565,53 +6690,57 @@
       </c>
       <c r="G61" s="2">
         <f>H61*35</f>
-        <v>752019.77150379226</v>
+        <v>866989.5409120922</v>
       </c>
       <c r="H61">
         <f>H60+C61</f>
-        <v>21486.279185822637</v>
+        <v>24771.129740345492</v>
       </c>
       <c r="J61" s="1"/>
-      <c r="P61" t="inlineStr">
+      <c r="BA61" s="6">
+        <v>43903</v>
+      </c>
+      <c r="BB61">
+        <v>2179</v>
+      </c>
+      <c r="BC61">
+        <f>(BB61/BB60)-1</f>
+        <v>0.31028262176788934</v>
+      </c>
+    </row>
+    <row r="62" spans="1:66" ht="19.5">
+      <c r="C62">
+        <f>H61*D62</f>
+        <v>804.95762662198808</v>
+      </c>
+      <c r="D62">
+        <f>D61</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="6">
+        <v>43952</v>
+      </c>
+      <c r="G62" s="2">
+        <f>H62*35</f>
+        <v>895163.05784386175</v>
+      </c>
+      <c r="H62">
+        <f>H61+C62</f>
+        <v>25576.08736696748</v>
+      </c>
+      <c r="J62" s="1" t="inlineStr">
+        <is>
+          <t>The four percent (above) is somewhat in agreement with</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
         <is>
           <t>export: $ ssconvert -T Gnumeric_stf:stf_csv thisfile.gnumeric thisfile.csv</t>
         </is>
       </c>
-      <c r="BA61" s="6">
-        <v>43903</v>
-      </c>
-      <c r="BB61">
-        <v>2179</v>
-      </c>
-      <c r="BC61">
-        <f>(BB61/BB60)-1</f>
-        <v>0.31028262176788934</v>
-      </c>
-    </row>
-    <row r="62" spans="1:66" ht="19.5">
-      <c r="C62">
-        <f>H61*D62</f>
-        <v>521.96135558543926</v>
-      </c>
-      <c r="D62">
-        <f>D61</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E62" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" s="6">
-        <v>43952</v>
-      </c>
-      <c r="G62" s="2">
-        <f>H62*35</f>
-        <v>770288.41894928261</v>
-      </c>
-      <c r="H62">
-        <f>H61+C62</f>
-        <v>22008.240541408075</v>
-      </c>
-      <c r="J62" s="1"/>
       <c r="BA62" s="6">
         <v>43904</v>
       </c>
@@ -6626,11 +6755,11 @@
     <row r="63" spans="1:66" ht="19.5">
       <c r="C63">
         <f>H62*D63</f>
-        <v>534.64124559191168</v>
+        <v>831.11536700157035</v>
       </c>
       <c r="D63">
         <f>D62</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E63" t="s">
         <v>17</v>
@@ -6640,52 +6769,61 @@
       </c>
       <c r="G63" s="2">
         <f>H63*35</f>
-        <v>789000.86254499957</v>
+        <v>924252.09568891674</v>
       </c>
       <c r="H63">
         <f>H62+C63</f>
-        <v>22542.881786999988</v>
-      </c>
-      <c r="J63" s="1"/>
-      <c r="P63" t="inlineStr">
+        <v>26407.20273396905</v>
+      </c>
+      <c r="J63" s="1" t="inlineStr">
+        <is>
+          <t>the best national figure (of 4.7 percent growth in 24 hours)</t>
+        </is>
+      </c>
+      <c r="BA63" s="6">
+        <v>43905</v>
+      </c>
+      <c r="BB63">
+        <v>3499</v>
+      </c>
+      <c r="BC63">
+        <f>(BB63/BB62)-1</f>
+        <v>0.28309497616428314</v>
+      </c>
+    </row>
+    <row r="64" spans="1:66" ht="19.5">
+      <c r="C64">
+        <f>H63*D64</f>
+        <v>858.1231240269193</v>
+      </c>
+      <c r="D64">
+        <f>D63</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="6">
+        <v>43954</v>
+      </c>
+      <c r="G64" s="2">
+        <f>H64*35</f>
+        <v>954286.40502985893</v>
+      </c>
+      <c r="H64">
+        <f>H63+C64</f>
+        <v>27265.325857995969</v>
+      </c>
+      <c r="J64" s="1" t="inlineStr">
+        <is>
+          <t>near the 15 April 2020 time mark.</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
         <is>
           <t>March 31: Hospitalization by county presented in a graphic (only?)</t>
         </is>
       </c>
-      <c r="BA63" s="6">
-        <v>43905</v>
-      </c>
-      <c r="BB63">
-        <v>3499</v>
-      </c>
-      <c r="BC63">
-        <f>(BB63/BB62)-1</f>
-        <v>0.28309497616428314</v>
-      </c>
-    </row>
-    <row r="64" spans="1:66" ht="19.5">
-      <c r="C64">
-        <f>H63*D64</f>
-        <v>547.62916531908229</v>
-      </c>
-      <c r="D64">
-        <f>D63</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E64" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="6">
-        <v>43954</v>
-      </c>
-      <c r="G64" s="2">
-        <f>H64*35</f>
-        <v>808167.8833311674</v>
-      </c>
-      <c r="H64">
-        <f>H63+C64</f>
-        <v>23090.510952319069</v>
-      </c>
       <c r="BA64" s="6">
         <v>43906</v>
       </c>
@@ -6700,11 +6838,11 @@
     <row r="65" spans="1:66" ht="19.5">
       <c r="C65">
         <f>H64*D65</f>
-        <v>560.93259766378901</v>
+        <v>886.00851966719586</v>
       </c>
       <c r="D65">
         <f>D64</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E65" t="s">
         <v>12</v>
@@ -6714,91 +6852,90 @@
       </c>
       <c r="G65" s="2">
         <f>H65*35</f>
-        <v>827800.52424940001</v>
+        <v>985296.70321821084</v>
       </c>
       <c r="H65">
         <f>H64+C65</f>
-        <v>23651.443549982858</v>
-      </c>
-      <c r="P65" t="inlineStr">
+        <v>28151.334377663166</v>
+      </c>
+      <c r="BA65" s="6">
+        <v>43907</v>
+      </c>
+      <c r="BB65">
+        <v>6421</v>
+      </c>
+      <c r="BC65">
+        <f>(BB65/BB64)-1</f>
+        <v>0.38622625215889461</v>
+      </c>
+    </row>
+    <row r="66" spans="1:66" ht="19.5">
+      <c r="C66">
+        <f>H65*D66</f>
+        <v>914.80007348948914</v>
+      </c>
+      <c r="D66">
+        <f>D65</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="6">
+        <v>43956</v>
+      </c>
+      <c r="G66" s="2">
+        <f>H66*35</f>
+        <v>1017314.7057903429</v>
+      </c>
+      <c r="H66">
+        <f>H65+C66</f>
+        <v>29066.134451152655</v>
+      </c>
+      <c r="P66" t="inlineStr">
         <is>
           <t>31 March 23:09 UTC: many cosmetic changes, columns deleted (or added).</t>
         </is>
       </c>
-      <c r="BA65" s="6">
-        <v>43907</v>
-      </c>
-      <c r="BB65">
-        <v>6421</v>
-      </c>
-      <c r="BC65">
-        <f>(BB65/BB64)-1</f>
-        <v>0.38622625215889461</v>
-      </c>
-    </row>
-    <row r="66" spans="1:66" ht="19.5">
-      <c r="C66">
-        <f>H65*D66</f>
-        <v>574.55920730320213</v>
-      </c>
-      <c r="D66">
-        <f>D65</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E66" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="6">
-        <v>43956</v>
-      </c>
-      <c r="G66" s="2">
-        <f>H66*35</f>
-        <v>847910.09650501213</v>
-      </c>
-      <c r="H66">
-        <f>H65+C66</f>
-        <v>24226.00275728606</v>
-      </c>
-      <c r="P66" t="inlineStr">
+      <c r="BA66" s="6">
+        <v>43908</v>
+      </c>
+      <c r="BB66">
+        <v>7783</v>
+      </c>
+      <c r="BC66">
+        <f>(BB66/BB65)-1</f>
+        <v>0.21211649275813738</v>
+      </c>
+    </row>
+    <row r="67" spans="1:66" ht="19.5">
+      <c r="C67">
+        <f>H66*D67</f>
+        <v>944.52723182697753</v>
+      </c>
+      <c r="D67">
+        <f>D66</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="6">
+        <v>43957</v>
+      </c>
+      <c r="G67" s="2">
+        <f>H67*35</f>
+        <v>1050373.1589042873</v>
+      </c>
+      <c r="H67">
+        <f>H66+C67</f>
+        <v>30010.661682979633</v>
+      </c>
+      <c r="P67" t="inlineStr">
         <is>
           <t>Hopefully, no major corruption of data/forumlas present after these major edits.</t>
         </is>
       </c>
-      <c r="BA66" s="6">
-        <v>43908</v>
-      </c>
-      <c r="BB66">
-        <v>7783</v>
-      </c>
-      <c r="BC66">
-        <f>(BB66/BB65)-1</f>
-        <v>0.21211649275813738</v>
-      </c>
-    </row>
-    <row r="67" spans="1:66" ht="19.5">
-      <c r="C67">
-        <f>H66*D67</f>
-        <v>588.5168451107736</v>
-      </c>
-      <c r="D67">
-        <f>D66</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E67" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="6">
-        <v>43957</v>
-      </c>
-      <c r="G67" s="2">
-        <f>H67*35</f>
-        <v>868508.18608388922</v>
-      </c>
-      <c r="H67">
-        <f>H66+C67</f>
-        <v>24814.519602396835</v>
-      </c>
-      <c r="J67" s="1"/>
       <c r="BA67" s="6">
         <v>43909</v>
       </c>
@@ -6813,11 +6950,11 @@
     <row r="68" spans="1:66" ht="19.5">
       <c r="C68">
         <f>H67*D68</f>
-        <v>602.81355267946128</v>
+        <v>975.22039789493249</v>
       </c>
       <c r="D68">
         <f>D67</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E68" t="s">
         <v>15</v>
@@ -6827,580 +6964,575 @@
       </c>
       <c r="G68" s="2">
         <f>H68*35</f>
-        <v>889606.66042767034</v>
+        <v>1084505.8728306098</v>
       </c>
       <c r="H68">
         <f>H67+C68</f>
-        <v>25417.333155076296</v>
+        <v>30985.882080874566</v>
       </c>
       <c r="J68" s="1"/>
-      <c r="P68" t="inlineStr">
+      <c r="BA68" s="6">
+        <v>43910</v>
+      </c>
+      <c r="BB68">
+        <v>19100</v>
+      </c>
+      <c r="BC68">
+        <f>(BB68/BB67)-1</f>
+        <v>0.39650508152372588</v>
+      </c>
+    </row>
+    <row r="69" spans="1:66" ht="19.5">
+      <c r="C69">
+        <f>H68*D69</f>
+        <v>1006.9109628853651</v>
+      </c>
+      <c r="D69">
+        <f>D68</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E69" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="6">
+        <v>43959</v>
+      </c>
+      <c r="G69" s="2">
+        <f>H69*35</f>
+        <v>1119747.7565315976</v>
+      </c>
+      <c r="H69">
+        <f>H68+C69</f>
+        <v>31992.793043759932</v>
+      </c>
+      <c r="J69" s="1"/>
+      <c r="P69" t="inlineStr">
         <is>
           <t>1 April: Column D now formatted as percentile</t>
         </is>
       </c>
-      <c r="BA68" s="6">
-        <v>43910</v>
-      </c>
-      <c r="BB68">
-        <v>19100</v>
-      </c>
-      <c r="BC68">
-        <f>(BB68/BB67)-1</f>
-        <v>0.39650508152372588</v>
-      </c>
-    </row>
-    <row r="69" spans="1:66" ht="19.5">
-      <c r="C69">
-        <f>H68*D69</f>
-        <v>617.45756695483476</v>
-      </c>
-      <c r="D69">
-        <f>D68</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E69" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" s="6">
-        <v>43959</v>
-      </c>
-      <c r="G69" s="2">
-        <f>H69*35</f>
-        <v>911217.67527108965</v>
-      </c>
-      <c r="H69">
-        <f>H68+C69</f>
-        <v>26034.790722031132</v>
-      </c>
-      <c r="J69" s="1"/>
-      <c r="P69" t="inlineStr">
+      <c r="BA69" s="6">
+        <v>43911</v>
+      </c>
+      <c r="BB69">
+        <v>25489</v>
+      </c>
+      <c r="BC69">
+        <f>(BB69/BB68)-1</f>
+        <v>0.33450261780104706</v>
+      </c>
+    </row>
+    <row r="70" spans="1:66" ht="19.5">
+      <c r="C70">
+        <f>H69*D70</f>
+        <v>1039.631338072119</v>
+      </c>
+      <c r="D70">
+        <f>D69</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E70" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" s="6">
+        <v>43960</v>
+      </c>
+      <c r="G70" s="2">
+        <f>H70*35</f>
+        <v>1156134.8533641219</v>
+      </c>
+      <c r="H70">
+        <f>H69+C70</f>
+        <v>33032.424381832054</v>
+      </c>
+      <c r="J70" s="1"/>
+      <c r="P70" t="inlineStr">
         <is>
           <t>7 April: 1.09 becomes 1.11 for arbitrary growth reduction supposition expressed in Column D (Multiplier).</t>
         </is>
       </c>
-      <c r="BA69" s="6">
-        <v>43911</v>
-      </c>
-      <c r="BB69">
-        <v>25489</v>
-      </c>
-      <c r="BC69">
-        <f>(BB69/BB68)-1</f>
-        <v>0.33450261780104706</v>
-      </c>
-    </row>
-    <row r="70" spans="1:66" ht="19.5">
-      <c r="C70">
-        <f>H69*D70</f>
-        <v>632.45732498073289</v>
-      </c>
-      <c r="D70">
-        <f>D69</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E70" t="s">
-        <v>17</v>
-      </c>
-      <c r="F70" s="6">
-        <v>43960</v>
-      </c>
-      <c r="G70" s="2">
-        <f>H70*35</f>
-        <v>933353.68164541526</v>
-      </c>
-      <c r="H70">
-        <f>H69+C70</f>
-        <v>26667.248047011864</v>
-      </c>
-      <c r="P70" t="inlineStr">
+      <c r="BA70" s="6">
+        <v>43912</v>
+      </c>
+      <c r="BB70">
+        <v>33276</v>
+      </c>
+      <c r="BC70">
+        <f>(BB70/BB69)-1</f>
+        <v>0.30550433520342102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:66" ht="19.5">
+      <c r="C71">
+        <f>H70*D71</f>
+        <v>1073.4149879592439</v>
+      </c>
+      <c r="D71">
+        <f>D70</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="6">
+        <v>43961</v>
+      </c>
+      <c r="G71" s="2">
+        <f>H71*35</f>
+        <v>1193704.3779426955</v>
+      </c>
+      <c r="H71">
+        <f>H70+C71</f>
+        <v>34105.839369791298</v>
+      </c>
+      <c r="P71" t="inlineStr">
         <is>
           <t>7 April: Column G goes from 100x to 50x (arbitrary value chosen)</t>
         </is>
       </c>
-      <c r="BA70" s="6">
-        <v>43912</v>
-      </c>
-      <c r="BB70">
-        <v>33276</v>
-      </c>
-      <c r="BC70">
-        <f>(BB70/BB69)-1</f>
-        <v>0.30550433520342102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:66" ht="19.5">
-      <c r="C71">
-        <f>H70*D71</f>
-        <v>647.82146876020624</v>
-      </c>
-      <c r="D71">
-        <f>D70</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E71" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="6">
-        <v>43961</v>
-      </c>
-      <c r="G71" s="2">
-        <f>H71*35</f>
-        <v>956027.43305202248</v>
-      </c>
-      <c r="H71">
-        <f>H70+C71</f>
-        <v>27315.069515772069</v>
-      </c>
-      <c r="Q71" t="inlineStr">
+      <c r="BA71" s="6">
+        <v>43913</v>
+      </c>
+      <c r="BB71">
+        <v>43847</v>
+      </c>
+      <c r="BC71">
+        <f>(BB71/BB70)-1</f>
+        <v>0.31767640341387193</v>
+      </c>
+    </row>
+    <row r="72" spans="1:66" ht="19.5">
+      <c r="C72">
+        <f>H71*D72</f>
+        <v>1108.2964645065501</v>
+      </c>
+      <c r="D72">
+        <f>D71</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="6">
+        <v>43962</v>
+      </c>
+      <c r="G72" s="2">
+        <f>H72*35</f>
+        <v>1232494.7542004248</v>
+      </c>
+      <c r="H72">
+        <f>H71+C72</f>
+        <v>35214.135834297849</v>
+      </c>
+      <c r="Q72" t="inlineStr">
         <is>
           <t>(the 100x scaling factor was also arbitrary)</t>
         </is>
       </c>
-      <c r="BA71" s="6">
-        <v>43913</v>
-      </c>
-      <c r="BB71">
-        <v>43847</v>
-      </c>
-      <c r="BC71">
-        <f>(BB71/BB70)-1</f>
-        <v>0.31767640341387193</v>
-      </c>
-    </row>
-    <row r="72" spans="1:66" ht="19.5">
-      <c r="C72">
-        <f>H71*D72</f>
-        <v>663.55885023454459</v>
-      </c>
-      <c r="D72">
-        <f>D71</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E72" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="6">
-        <v>43962</v>
-      </c>
-      <c r="G72" s="2">
-        <f>H72*35</f>
-        <v>979251.99281023152</v>
-      </c>
-      <c r="H72">
-        <f>H71+C72</f>
-        <v>27978.628366006615</v>
-      </c>
-      <c r="J72" s="1"/>
-      <c r="P72" t="inlineStr">
+      <c r="BA72" s="6">
+        <v>43914</v>
+      </c>
+      <c r="BB72">
+        <v>53740</v>
+      </c>
+      <c r="BC72">
+        <f>(BB72/BB71)-1</f>
+        <v>0.22562547038565928</v>
+      </c>
+    </row>
+    <row r="73" spans="1:66" ht="19.5">
+      <c r="C73">
+        <f>H72*D73</f>
+        <v>1144.3114424673531</v>
+      </c>
+      <c r="D73">
+        <f>D72</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E73" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="6">
+        <v>43963</v>
+      </c>
+      <c r="G73" s="2">
+        <f>H73*35</f>
+        <v>1272545.654686782</v>
+      </c>
+      <c r="H73">
+        <f>H72+C73</f>
+        <v>36358.447276765204</v>
+      </c>
+      <c r="J73" s="1"/>
+      <c r="P73" t="inlineStr">
         <is>
           <t>7 April: Litchfield County is doubling its Confirmed cases every 6.5 days or so.</t>
         </is>
       </c>
-      <c r="BA72" s="6">
-        <v>43914</v>
-      </c>
-      <c r="BB72">
-        <v>53740</v>
-      </c>
-      <c r="BC72">
-        <f>(BB72/BB71)-1</f>
-        <v>0.22562547038565928</v>
-      </c>
-    </row>
-    <row r="73" spans="1:66" ht="19.5">
-      <c r="C73">
-        <f>H72*D73</f>
-        <v>679.67853638326005</v>
-      </c>
-      <c r="D73">
-        <f>D72</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E73" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" s="6">
-        <v>43963</v>
-      </c>
-      <c r="G73" s="2">
-        <f>H73*35</f>
-        <v>1003040.7415836456</v>
-      </c>
-      <c r="H73">
-        <f>H72+C73</f>
-        <v>28658.306902389875</v>
-      </c>
-      <c r="Q73" t="inlineStr">
+      <c r="BA73" s="6">
+        <v>43915</v>
+      </c>
+      <c r="BB73">
+        <v>65778</v>
+      </c>
+      <c r="BC73">
+        <f>(BB73/BB72)-1</f>
+        <v>0.22400446594715295</v>
+      </c>
+    </row>
+    <row r="74" spans="1:66" ht="19.5">
+      <c r="C74">
+        <f>H73*D74</f>
+        <v>1181.4967558745429</v>
+      </c>
+      <c r="D74">
+        <f>D73</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="6">
+        <v>43964</v>
+      </c>
+      <c r="G74" s="2">
+        <f>H74*35</f>
+        <v>1313898.041142391</v>
+      </c>
+      <c r="H74">
+        <f>H73+C74</f>
+        <v>37539.944032639745</v>
+      </c>
+      <c r="Q74" t="inlineStr">
         <is>
           <t>(own analysis; ignorant and simplistic, there, on Litchfield Cty doublings. ;)</t>
         </is>
       </c>
-      <c r="BA73" s="6">
-        <v>43915</v>
-      </c>
-      <c r="BB73">
-        <v>65778</v>
-      </c>
-      <c r="BC73">
-        <f>(BB73/BB72)-1</f>
-        <v>0.22400446594715295</v>
-      </c>
-    </row>
-    <row r="74" spans="1:66" ht="19.5">
-      <c r="C74">
-        <f>H73*D74</f>
-        <v>696.18981444796191</v>
-      </c>
-      <c r="D74">
-        <f>D73</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E74" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="6">
-        <v>43964</v>
-      </c>
-      <c r="G74" s="2">
-        <f>H74*35</f>
-        <v>1027407.3850893242</v>
-      </c>
-      <c r="H74">
-        <f>H73+C74</f>
-        <v>29354.496716837835</v>
-      </c>
-      <c r="P74" t="inlineStr">
+      <c r="BA74" s="6">
+        <v>43916</v>
+      </c>
+      <c r="BB74">
+        <v>83836</v>
+      </c>
+      <c r="BC74">
+        <f>(BB74/BB73)-1</f>
+        <v>0.27452947794095284</v>
+      </c>
+    </row>
+    <row r="75" spans="1:66" ht="19.5">
+      <c r="C75">
+        <f>H74*D75</f>
+        <v>1219.8904357122992</v>
+      </c>
+      <c r="D75">
+        <f>D74</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" s="6">
+        <v>43965</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75">
+        <f>H74+C75</f>
+        <v>38759.834468352041</v>
+      </c>
+      <c r="P75" t="inlineStr">
         <is>
           <t>9 April: USA Confirmed (far columns, right) now expressed in 3 digits (up from 2 digits, formerly).</t>
         </is>
       </c>
-      <c r="BA74" s="6">
-        <v>43916</v>
-      </c>
-      <c r="BB74">
-        <v>83836</v>
-      </c>
-      <c r="BC74">
-        <f>(BB74/BB73)-1</f>
-        <v>0.27452947794095284</v>
-      </c>
-    </row>
-    <row r="75" spans="1:66" ht="19.5">
-      <c r="C75">
-        <f>H74*D75</f>
-        <v>713.1021972831345</v>
-      </c>
-      <c r="D75">
-        <f>D74</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E75" t="s">
-        <v>15</v>
-      </c>
-      <c r="F75" s="6">
-        <v>43965</v>
-      </c>
-      <c r="G75" s="2"/>
-      <c r="H75">
-        <f>H74+C75</f>
-        <v>30067.598914120968</v>
-      </c>
-      <c r="Q75" t="inlineStr">
+      <c r="BA75" s="6">
+        <v>43917</v>
+      </c>
+      <c r="BB75">
+        <v>101657</v>
+      </c>
+      <c r="BC75">
+        <f>(BB75/BB74)-1</f>
+        <v>0.21256977909251407</v>
+      </c>
+    </row>
+    <row r="76" spans="1:66" ht="19.5">
+      <c r="C76">
+        <f>H75*D76</f>
+        <v>1259.5317488119792</v>
+      </c>
+      <c r="D76">
+        <f>D75</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E76" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="6">
+        <v>43966</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="H76">
+        <f>H75+C76</f>
+        <v>40019.366217164017</v>
+      </c>
+      <c r="Q76" t="inlineStr">
         <is>
           <t>This reflects that they've reached consistently below 10 percent, and so</t>
         </is>
       </c>
-      <c r="BA75" s="6">
-        <v>43917</v>
-      </c>
-      <c r="BB75">
-        <v>101657</v>
-      </c>
-      <c r="BC75">
-        <f>(BB75/BB74)-1</f>
-        <v>0.21256977909251407</v>
-      </c>
-    </row>
-    <row r="76" spans="1:66" ht="19.5">
-      <c r="C76">
-        <f>H75*D76</f>
-        <v>730.4254288369001</v>
-      </c>
-      <c r="D76">
-        <f>D75</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E76" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76" s="6">
+      <c r="BA76" s="6">
+        <v>43918</v>
+      </c>
+      <c r="BB76">
+        <v>121478</v>
+      </c>
+      <c r="BC76">
+        <f>(BB76/BB75)-1</f>
+        <v>0.19497919474310677</v>
+      </c>
+    </row>
+    <row r="77" spans="1:66" ht="19.5">
+      <c r="C77">
+        <f>H76*D77</f>
+        <v>1300.4612380119574</v>
+      </c>
+      <c r="D77">
+        <f>D76</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E77" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" s="6">
         <v>43966</v>
       </c>
-      <c r="G76" s="2"/>
-      <c r="H76">
-        <f>H75+C76</f>
-        <v>30798.02434295787</v>
-      </c>
-      <c r="Q76" t="inlineStr">
+      <c r="G77" s="2"/>
+      <c r="H77">
+        <f>H76+C77</f>
+        <v>41319.827455175975</v>
+      </c>
+      <c r="Q77" t="inlineStr">
         <is>
           <t>require another digit of precision (the decimal point has moved</t>
         </is>
       </c>
-      <c r="BA76" s="6">
-        <v>43918</v>
-      </c>
-      <c r="BB76">
-        <v>121478</v>
-      </c>
-      <c r="BC76">
-        <f>(BB76/BB75)-1</f>
-        <v>0.19497919474310677</v>
-      </c>
-    </row>
-    <row r="77" spans="1:66" ht="19.5">
-      <c r="C77">
-        <f>H76*D77</f>
-        <v>748.16948976492483</v>
-      </c>
-      <c r="D77">
-        <f>D76</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E77" t="s">
-        <v>17</v>
-      </c>
-      <c r="F77" s="6">
-        <v>43966</v>
-      </c>
-      <c r="G77" s="2"/>
-      <c r="H77">
-        <f>H76+C77</f>
-        <v>31546.193832722794</v>
-      </c>
-      <c r="J77" s="1"/>
-      <c r="Q77" t="inlineStr">
+      <c r="BA77" s="6">
+        <v>43919</v>
+      </c>
+      <c r="BB77">
+        <v>140886</v>
+      </c>
+      <c r="BC77">
+        <f>(BB77/BB76)-1</f>
+        <v>0.15976555425673777</v>
+      </c>
+    </row>
+    <row r="78" spans="1:66" ht="19.5">
+      <c r="C78">
+        <f>H77*D78</f>
+        <v>1342.7207636224919</v>
+      </c>
+      <c r="D78">
+        <f>D77</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="6">
+        <v>43968</v>
+      </c>
+      <c r="G78" s="2"/>
+      <c r="H78">
+        <f>H77+C78</f>
+        <v>42662.548218798467</v>
+      </c>
+      <c r="J78" s="1"/>
+      <c r="Q78" t="inlineStr">
         <is>
           <t>over one place)</t>
         </is>
       </c>
-      <c r="BA77" s="6">
-        <v>43919</v>
-      </c>
-      <c r="BB77">
-        <v>140886</v>
-      </c>
-      <c r="BC77">
-        <f>(BB77/BB76)-1</f>
-        <v>0.15976555425673777</v>
-      </c>
-    </row>
-    <row r="78" spans="1:66" ht="19.5">
-      <c r="C78">
-        <f>H77*D78</f>
-        <v>766.34460318070137</v>
-      </c>
-      <c r="D78">
-        <f>D77</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E78" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78" s="6">
-        <v>43968</v>
-      </c>
-      <c r="G78" s="2"/>
-      <c r="H78">
-        <f>H77+C78</f>
-        <v>32312.538435903494</v>
-      </c>
-      <c r="P78" t="inlineStr">
+      <c r="BA78" s="6">
+        <v>43920</v>
+      </c>
+      <c r="BB78">
+        <v>161807</v>
+      </c>
+      <c r="BC78">
+        <f>(BB78/BB77)-1</f>
+        <v>0.14849594707777913</v>
+      </c>
+    </row>
+    <row r="79" spans="1:66" ht="19.5">
+      <c r="C79">
+        <f>H78*D79</f>
+        <v>1386.3535462380235</v>
+      </c>
+      <c r="D79">
+        <f>D78</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E79" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="6">
+        <v>43969</v>
+      </c>
+      <c r="G79" s="2"/>
+      <c r="H79">
+        <f>H78+C79</f>
+        <v>44048.901765036491</v>
+      </c>
+      <c r="P79" t="inlineStr">
         <is>
           <t>9 April: Have not kept up with the state epidemiologist's estimate</t>
         </is>
       </c>
-      <c r="BA78" s="6">
-        <v>43920</v>
-      </c>
-      <c r="BB78">
-        <v>161807</v>
-      </c>
-      <c r="BC78">
-        <f>(BB78/BB77)-1</f>
-        <v>0.14849594707777913</v>
-      </c>
-    </row>
-    <row r="79" spans="1:66" ht="19.5">
-      <c r="C79">
-        <f>H78*D79</f>
-        <v>784.96124054552342</v>
-      </c>
-      <c r="D79">
-        <f>D78</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E79" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="6">
-        <v>43969</v>
-      </c>
-      <c r="G79" s="2"/>
-      <c r="H79">
-        <f>H78+C79</f>
-        <v>33097.499676449021</v>
-      </c>
-      <c r="Q79" t="inlineStr">
+      <c r="BA79" s="6">
+        <v>43921</v>
+      </c>
+      <c r="BB79">
+        <v>188172</v>
+      </c>
+      <c r="BC79">
+        <f>(BB79/BB78)-1</f>
+        <v>0.16294103468947574</v>
+      </c>
+    </row>
+    <row r="80" spans="1:66" ht="19.5">
+      <c r="C80">
+        <f>H79*D80</f>
+        <v>1431.4042109406973</v>
+      </c>
+      <c r="D80">
+        <f>D79</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="6">
+        <v>43970</v>
+      </c>
+      <c r="G80" s="2"/>
+      <c r="H80">
+        <f>H79+C80</f>
+        <v>45480.305975977186</v>
+      </c>
+      <c r="Q80" t="inlineStr">
         <is>
           <t>of the multiplier factor (Confirmed and tested vs estimated true count of cases</t>
         </is>
       </c>
-      <c r="BA79" s="6">
-        <v>43921</v>
-      </c>
-      <c r="BB79">
-        <v>188172</v>
-      </c>
-      <c r="BC79">
-        <f>(BB79/BB78)-1</f>
-        <v>0.16294103468947574</v>
-      </c>
-    </row>
-    <row r="80" spans="1:66" ht="19.5">
-      <c r="C80">
-        <f>H79*D80</f>
-        <v>804.03012770154237</v>
-      </c>
-      <c r="D80">
-        <f>D79</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="6">
-        <v>43970</v>
-      </c>
-      <c r="G80" s="2"/>
-      <c r="H80">
-        <f>H79+C80</f>
-        <v>33901.529804150559</v>
-      </c>
-      <c r="Q80" t="inlineStr">
+      <c r="BA80" s="6">
+        <v>43922</v>
+      </c>
+      <c r="BB80">
+        <v>213372</v>
+      </c>
+      <c r="BC80">
+        <f>(BB80/BB79)-1</f>
+        <v>0.13392003061029278</v>
+      </c>
+    </row>
+    <row r="81" spans="1:66" ht="19.5">
+      <c r="C81">
+        <f>H80*D81</f>
+        <v>1477.9188329403103</v>
+      </c>
+      <c r="D81">
+        <f>D80</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E81" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="6">
+        <v>43971</v>
+      </c>
+      <c r="G81" s="2"/>
+      <c r="H81">
+        <f>H80+C81</f>
+        <v>46958.224808917497</v>
+      </c>
+      <c r="Q81" t="inlineStr">
         <is>
           <t>in the state of Connecticut) and (therefore) still using a '50x' multiplier,</t>
         </is>
       </c>
-      <c r="BA80" s="6">
-        <v>43922</v>
-      </c>
-      <c r="BB80">
-        <v>213372</v>
-      </c>
-      <c r="BC80">
-        <f>(BB80/BB79)-1</f>
-        <v>0.13392003061029278</v>
-      </c>
-    </row>
-    <row r="81" spans="1:66" ht="19.5">
-      <c r="C81">
-        <f>H80*D81</f>
-        <v>823.56225105138435</v>
-      </c>
-      <c r="D81">
-        <f>D80</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E81" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="6">
-        <v>43971</v>
-      </c>
-      <c r="G81" s="2"/>
-      <c r="H81">
-        <f>H80+C81</f>
-        <v>34725.092055201945</v>
-      </c>
-      <c r="Q81" t="inlineStr">
+      <c r="BA81" s="6">
+        <v>43923</v>
+      </c>
+      <c r="BB81">
+        <v>243453</v>
+      </c>
+      <c r="BC81">
+        <f>(BB81/BB80)-1</f>
+        <v>0.1409791350317755</v>
+      </c>
+    </row>
+    <row r="82" spans="1:66" ht="19.5">
+      <c r="C82">
+        <f>H81*D82</f>
+        <v>1525.9449846973669</v>
+      </c>
+      <c r="D82">
+        <f>D81</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E82" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" s="6">
+        <v>43972</v>
+      </c>
+      <c r="G82" s="2"/>
+      <c r="H82">
+        <f>H81+C82</f>
+        <v>48484.169793614863</v>
+      </c>
+      <c r="Q82" t="inlineStr">
         <is>
           <t>with no particular justification for this figure.</t>
         </is>
       </c>
-      <c r="BA81" s="6">
-        <v>43923</v>
-      </c>
-      <c r="BB81">
-        <v>243453</v>
-      </c>
-      <c r="BC81">
-        <f>(BB81/BB80)-1</f>
-        <v>0.1409791350317755</v>
-      </c>
-    </row>
-    <row r="82" spans="1:66" ht="19.5">
-      <c r="C82">
-        <f>H81*D82</f>
-        <v>843.5688638878878</v>
-      </c>
-      <c r="D82">
-        <f>D81</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E82" t="s">
-        <v>15</v>
-      </c>
-      <c r="F82" s="6">
-        <v>43972</v>
-      </c>
-      <c r="G82" s="2"/>
-      <c r="H82">
-        <f>H81+C82</f>
-        <v>35568.660919089831</v>
-      </c>
-      <c r="P82" t="inlineStr">
+      <c r="BA82" s="6">
+        <v>43924</v>
+      </c>
+      <c r="BB82">
+        <v>275586</v>
+      </c>
+      <c r="BC82">
+        <f>(BB82/BB81)-1</f>
+        <v>0.13198851523702726</v>
+      </c>
+    </row>
+    <row r="83" spans="1:66" ht="19.5">
+      <c r="C83">
+        <f>H82*D83</f>
+        <v>1575.531784577435</v>
+      </c>
+      <c r="D83">
+        <f>D82</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E83" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" s="6">
+        <v>43973</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83">
+        <f>H82+C83</f>
+        <v>50059.701578192296</v>
+      </c>
+      <c r="P83" t="inlineStr">
         <is>
           <t>12 April: demoted from 50x to 35x (measured) transmission multiplier.</t>
         </is>
       </c>
-      <c r="BA82" s="6">
-        <v>43924</v>
-      </c>
-      <c r="BB82">
-        <v>275586</v>
-      </c>
-      <c r="BC82">
-        <f>(BB82/BB81)-1</f>
-        <v>0.13198851523702726</v>
-      </c>
-    </row>
-    <row r="83" spans="1:66" ht="19.5">
-      <c r="C83">
-        <f>H82*D83</f>
-        <v>864.06149287760707</v>
-      </c>
-      <c r="D83">
-        <f>D82</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E83" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" s="6">
-        <v>43973</v>
-      </c>
-      <c r="G83" s="2"/>
-      <c r="H83">
-        <f>H82+C83</f>
-        <v>36432.722411967436</v>
-      </c>
-      <c r="J83" s="1"/>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>Reference value only - please do not quote it in any context.</t>
-        </is>
-      </c>
       <c r="BA83" s="6">
         <v>43925</v>
       </c>
@@ -7415,11 +7547,11 @@
     <row r="84" spans="1:66" ht="19.5">
       <c r="C84">
         <f>H83*D84</f>
-        <v>885.0519447018188</v>
+        <v>1626.7299470865653</v>
       </c>
       <c r="D84">
         <f>D83</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E84" t="s">
         <v>17</v>
@@ -7430,12 +7562,12 @@
       <c r="G84" s="2"/>
       <c r="H84">
         <f>H83+C84</f>
-        <v>37317.774356669252</v>
+        <v>51686.431525278858</v>
       </c>
       <c r="J84" s="1"/>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>(Assign some other value to it, based on some other</t>
+          <t>Reference value only - please do not quote it in any context.</t>
         </is>
       </c>
       <c r="BA84" s="6">
@@ -7457,11 +7589,11 @@
     <row r="85" spans="1:66" ht="19.5">
       <c r="C85">
         <f>H84*D85</f>
-        <v>906.55231285885668</v>
+        <v>1679.5918347391487</v>
       </c>
       <c r="D85">
         <f>D84</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
@@ -7472,12 +7604,12 @@
       <c r="G85" s="2"/>
       <c r="H85">
         <f>H84+C85</f>
-        <v>38224.326669528105</v>
+        <v>53366.023360018007</v>
       </c>
       <c r="J85" s="1"/>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>findings than given here).</t>
+          <t>(Assign some other value to it, based on some other</t>
         </is>
       </c>
       <c r="BA85" s="6">
@@ -7494,11 +7626,11 @@
     <row r="86" spans="1:66" ht="19.5">
       <c r="C86">
         <f>H85*D86</f>
-        <v>928.57498463169429</v>
+        <v>1734.1715116112637</v>
       </c>
       <c r="D86">
         <f>D85</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E86" t="s">
         <v>12</v>
@@ -7509,44 +7641,50 @@
       <c r="G86" s="2"/>
       <c r="H86">
         <f>H85+C86</f>
-        <v>39152.901654159803</v>
-      </c>
-      <c r="P86" t="inlineStr">
+        <v>55100.194871629268</v>
+      </c>
+      <c r="J86" s="1"/>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>findings than given here).</t>
+        </is>
+      </c>
+      <c r="BA86" s="6">
+        <v>43928</v>
+      </c>
+      <c r="BB86">
+        <v>396223</v>
+      </c>
+      <c r="BC86" s="8">
+        <f>(BB86/BB85)-1</f>
+        <v>0.080607199448000433</v>
+      </c>
+    </row>
+    <row r="87" spans="1:66" ht="19.5">
+      <c r="C87">
+        <f>H86*D87</f>
+        <v>1790.5247986342802</v>
+      </c>
+      <c r="D87">
+        <f>D86</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="6">
+        <v>43977</v>
+      </c>
+      <c r="G87" s="2"/>
+      <c r="H87">
+        <f>H86+C87</f>
+        <v>56890.719670263548</v>
+      </c>
+      <c r="P87" t="inlineStr">
         <is>
           <t>15 April: formalized entry (column L labels added)</t>
         </is>
       </c>
-      <c r="BA86" s="6">
-        <v>43928</v>
-      </c>
-      <c r="BB86">
-        <v>396223</v>
-      </c>
-      <c r="BC86" s="8">
-        <f>(BB86/BB85)-1</f>
-        <v>0.080607199448000433</v>
-      </c>
-    </row>
-    <row r="87" spans="1:66" ht="19.5">
-      <c r="C87">
-        <f>H86*D87</f>
-        <v>951.13264822478845</v>
-      </c>
-      <c r="D87">
-        <f>D86</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E87" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" s="6">
-        <v>43977</v>
-      </c>
-      <c r="G87" s="2"/>
-      <c r="H87">
-        <f>H86+C87</f>
-        <v>40104.034302384593</v>
-      </c>
       <c r="BA87" s="6">
         <v>43929</v>
       </c>
@@ -7561,11 +7699,11 @@
     <row r="88" spans="1:66" ht="19.5">
       <c r="C88">
         <f>H87*D88</f>
-        <v>974.23830007429797</v>
+        <v>1848.7093306852742</v>
       </c>
       <c r="D88">
         <f>D87</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
@@ -7576,7 +7714,7 @@
       <c r="G88" s="2"/>
       <c r="H88">
         <f>H87+C88</f>
-        <v>41078.272602458892</v>
+        <v>58739.429000948825</v>
       </c>
       <c r="BA88" s="6">
         <v>43930</v>
@@ -7592,11 +7730,11 @@
     <row r="89" spans="1:66" ht="19.5">
       <c r="C89">
         <f>H88*D89</f>
-        <v>997.90525233588687</v>
+        <v>1908.7846155326413</v>
       </c>
       <c r="D89">
         <f>D88</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E89" t="s">
         <v>15</v>
@@ -7607,7 +7745,7 @@
       <c r="G89" s="2"/>
       <c r="H89">
         <f>H88+C89</f>
-        <v>42076.177854794776</v>
+        <v>60648.213616481466</v>
       </c>
       <c r="BA89" s="6">
         <v>43931</v>
@@ -7623,11 +7761,11 @@
     <row r="90" spans="1:66" ht="19.5">
       <c r="C90">
         <f>H89*D90</f>
-        <v>1022.1471405544274</v>
+        <v>1970.8120946971942</v>
       </c>
       <c r="D90">
         <f>D89</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E90" t="s">
         <v>16</v>
@@ -7638,207 +7776,213 @@
       <c r="G90" s="2"/>
       <c r="H90">
         <f>H89+C90</f>
-        <v>43098.324995349205</v>
-      </c>
-      <c r="P90" t="inlineStr">
+        <v>62619.025711178663</v>
+      </c>
+      <c r="BA90" s="6">
+        <v>43932</v>
+      </c>
+      <c r="BB90">
+        <v>526396</v>
+      </c>
+      <c r="BC90" s="8">
+        <f>(BB90/BB89)-1</f>
+        <v>0.060138761618012904</v>
+      </c>
+    </row>
+    <row r="91" spans="1:66" ht="19.5">
+      <c r="C91">
+        <f>H90*D91</f>
+        <v>2034.855206290991</v>
+      </c>
+      <c r="D91">
+        <f>D90</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E91" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91" s="6">
+        <v>43981</v>
+      </c>
+      <c r="G91" s="2"/>
+      <c r="H91">
+        <f>H90+C91</f>
+        <v>64653.880917469651</v>
+      </c>
+      <c r="P91" t="inlineStr">
         <is>
           <t>General:</t>
         </is>
       </c>
-      <c r="BA90" s="6">
-        <v>43932</v>
-      </c>
-      <c r="BB90">
-        <v>526396</v>
-      </c>
-      <c r="BC90" s="8">
-        <f>(BB90/BB89)-1</f>
-        <v>0.060138761618012904</v>
-      </c>
-    </row>
-    <row r="91" spans="1:66" ht="19.5">
-      <c r="C91">
-        <f>H90*D91</f>
-        <v>1046.9779315200221</v>
-      </c>
-      <c r="D91">
-        <f>D90</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E91" t="s">
-        <v>17</v>
-      </c>
-      <c r="F91" s="6">
-        <v>43981</v>
-      </c>
-      <c r="G91" s="2"/>
-      <c r="H91">
-        <f>H90+C91</f>
-        <v>44145.302926869226</v>
-      </c>
-      <c r="Q91" t="inlineStr">
+      <c r="BA91" s="6">
+        <v>43933</v>
+      </c>
+      <c r="BB91">
+        <v>555313</v>
+      </c>
+      <c r="BC91" s="8">
+        <f>(BB91/BB90)-1</f>
+        <v>0.054933928069362148</v>
+      </c>
+    </row>
+    <row r="92" spans="1:66" ht="19.5">
+      <c r="C92">
+        <f>H91*D92</f>
+        <v>2100.9794498981601</v>
+      </c>
+      <c r="D92">
+        <f>D91</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E92" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="6">
+        <v>43982</v>
+      </c>
+      <c r="G92" s="2"/>
+      <c r="H92">
+        <f>H91+C92</f>
+        <v>66754.860367367815</v>
+      </c>
+      <c r="Q92" t="inlineStr">
         <is>
           <t>Latency:</t>
         </is>
       </c>
-      <c r="BA91" s="6">
-        <v>43933</v>
-      </c>
-      <c r="BB91">
-        <v>555313</v>
-      </c>
-      <c r="BC91" s="8">
-        <f>(BB91/BB90)-1</f>
-        <v>0.054933928069362148</v>
-      </c>
-    </row>
-    <row r="92" spans="1:66" ht="19.5">
-      <c r="C92">
-        <f>H91*D92</f>
-        <v>1072.4119313148688</v>
-      </c>
-      <c r="D92">
-        <f>D91</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E92" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" s="6">
-        <v>43982</v>
-      </c>
-      <c r="G92" s="2"/>
-      <c r="H92">
-        <f>H91+C92</f>
-        <v>45217.714858184096</v>
-      </c>
-      <c r="R92" t="inlineStr">
+      <c r="BA92" s="6">
+        <v>43934</v>
+      </c>
+      <c r="BB92">
+        <v>580619</v>
+      </c>
+      <c r="BC92" s="8">
+        <f>(BB92/BB91)-1</f>
+        <v>0.045570696165946112</v>
+      </c>
+    </row>
+    <row r="93" spans="1:66" ht="19.5">
+      <c r="C93">
+        <f>H92*D93</f>
+        <v>2169.25245356408</v>
+      </c>
+      <c r="D93">
+        <f>D92</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="6">
+        <v>43983</v>
+      </c>
+      <c r="G93" s="2"/>
+      <c r="H93">
+        <f>H92+C93</f>
+        <v>68924.112820931899</v>
+      </c>
+      <c r="R93" t="inlineStr">
         <is>
           <t>Confirmed: infected 5-7 days ago.</t>
         </is>
       </c>
-      <c r="AZ92" t="inlineStr">
+      <c r="AZ93" t="inlineStr">
         <is>
           <t>May be current (likely to be):</t>
         </is>
       </c>
-      <c r="BA92" s="6">
-        <v>43934</v>
-      </c>
-      <c r="BB92">
-        <v>580619</v>
-      </c>
-      <c r="BC92" s="8">
-        <f>(BB92/BB91)-1</f>
-        <v>0.045570696165946112</v>
-      </c>
-      <c r="BE92" t="inlineStr">
+      <c r="BA93" s="6">
+        <v>43935</v>
+      </c>
+      <c r="BB93">
+        <v>607670</v>
+      </c>
+      <c r="BC93" s="8">
+        <f>(BB93/BB92)-1</f>
+        <v>0.046589932468624085</v>
+      </c>
+      <c r="BE93" t="inlineStr">
         <is>
           <t>preliminary or provisional</t>
         </is>
       </c>
     </row>
-    <row r="93" spans="1:66" ht="19.5">
-      <c r="C93">
-        <f>H92*D93</f>
-        <v>1098.4637935556077</v>
-      </c>
-      <c r="D93">
-        <f>D92</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E93" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" s="6">
-        <v>43983</v>
-      </c>
-      <c r="G93" s="2"/>
-      <c r="H93">
-        <f>H92+C93</f>
-        <v>46316.178651739705</v>
-      </c>
-      <c r="AZ93" t="inlineStr">
+    <row r="94" spans="1:66" ht="19.5">
+      <c r="C94">
+        <f>H93*D94</f>
+        <v>2239.744042961428</v>
+      </c>
+      <c r="D94">
+        <f>D93</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="6">
+        <v>43984</v>
+      </c>
+      <c r="G94" s="2"/>
+      <c r="H94">
+        <f>H93+C94</f>
+        <v>71163.856863893321</v>
+      </c>
+      <c r="AZ94" t="inlineStr">
         <is>
           <t>TENTATIVE</t>
         </is>
       </c>
-      <c r="BA93" s="6">
-        <v>43935</v>
-      </c>
-      <c r="BB93">
-        <v>607670</v>
-      </c>
-      <c r="BC93" s="8">
-        <f>(BB93/BB92)-1</f>
-        <v>0.046589932468624085</v>
-      </c>
-      <c r="BE93" t="inlineStr">
+      <c r="BA94" s="6">
+        <v>43936</v>
+      </c>
+      <c r="BB94">
+        <v>636350</v>
+      </c>
+      <c r="BC94" s="8">
+        <f>(BB94/BB93)-1</f>
+        <v>0.047196669244820466</v>
+      </c>
+      <c r="BE94" t="inlineStr">
         <is>
-          <t>(early return on this LINE 93)</t>
+          <t>(early return on this LINE 94)</t>
         </is>
       </c>
     </row>
-    <row r="94" spans="1:66" ht="19.5">
-      <c r="C94">
-        <f>H93*D94</f>
-        <v>1125.148527835898</v>
-      </c>
-      <c r="D94">
-        <f>D93</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E94" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" s="6">
-        <v>43984</v>
-      </c>
-      <c r="G94" s="2"/>
-      <c r="H94">
-        <f>H93+C94</f>
-        <v>47441.327179575601</v>
-      </c>
-      <c r="R94" t="inlineStr">
+    <row r="95" spans="1:66" ht="19.5">
+      <c r="C95">
+        <f>H94*D95</f>
+        <v>2312.5263128038296</v>
+      </c>
+      <c r="D95">
+        <f>D94</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="6">
+        <v>43985</v>
+      </c>
+      <c r="G95" s="2"/>
+      <c r="H95">
+        <f>H94+C95</f>
+        <v>73476.383176697156</v>
+      </c>
+      <c r="R95" t="inlineStr">
         <is>
           <t>Hospitalized: infected 1-3 weeks ago.</t>
         </is>
       </c>
-    </row>
-    <row r="95" spans="1:66" ht="19.5">
-      <c r="C95">
-        <f>H94*D95</f>
-        <v>1152.4815083740871</v>
-      </c>
-      <c r="D95">
-        <f>D94</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E95" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="6">
-        <v>43985</v>
-      </c>
-      <c r="G95" s="2"/>
-      <c r="H95">
-        <f>H94+C95</f>
-        <v>48593.808687949691</v>
-      </c>
-      <c r="BE95" t="inlineStr">
-        <is>
-          <t>The 580,619 number is unique in</t>
-        </is>
-      </c>
+      <c r="BB95" s="1"/>
     </row>
     <row r="96" spans="1:66" ht="19.5">
       <c r="C96">
         <f>H95*D96</f>
-        <v>1180.4784828709564</v>
+        <v>2387.6737005801579</v>
       </c>
       <c r="D96">
         <f>D95</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E96" t="s">
         <v>15</v>
@@ -7849,275 +7993,280 @@
       <c r="G96" s="2"/>
       <c r="H96">
         <f>H95+C96</f>
-        <v>49774.287170820651</v>
-      </c>
-      <c r="R96" t="inlineStr">
+        <v>75864.056877277311</v>
+      </c>
+      <c r="BB96" s="1"/>
+      <c r="BE96" t="inlineStr">
+        <is>
+          <t>The 607,670 number is unique in</t>
+        </is>
+      </c>
+    </row>
+    <row r="97" spans="1:66" ht="19.5">
+      <c r="C97">
+        <f>H96*D97</f>
+        <v>2465.2630626848809</v>
+      </c>
+      <c r="D97">
+        <f>D96</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E97" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97" s="6">
+        <v>43987</v>
+      </c>
+      <c r="G97" s="2"/>
+      <c r="H97">
+        <f>H96+C97</f>
+        <v>78329.319939962195</v>
+      </c>
+      <c r="R97" t="inlineStr">
         <is>
           <t>Death: infected 3-4 weeks ago.</t>
         </is>
       </c>
-      <c r="BB96" s="1"/>
-      <c r="BE96" t="inlineStr">
+      <c r="BB97" s="1"/>
+      <c r="BE97" t="inlineStr">
         <is>
           <t>this series, as the first unreliable</t>
         </is>
       </c>
     </row>
-    <row r="97" spans="1:66" ht="19.5">
-      <c r="C97">
-        <f>H96*D97</f>
-        <v>1209.1555815826466</v>
-      </c>
-      <c r="D97">
-        <f>D96</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E97" t="s">
-        <v>16</v>
-      </c>
-      <c r="F97" s="6">
-        <v>43987</v>
-      </c>
-      <c r="G97" s="2"/>
-      <c r="H97">
-        <f>H96+C97</f>
-        <v>50983.442752403294</v>
-      </c>
-      <c r="BB97" s="1"/>
-      <c r="BE97" t="inlineStr">
+    <row r="98" spans="1:66" ht="19.5">
+      <c r="C98">
+        <f>H97*D98</f>
+        <v>2545.3737530223334</v>
+      </c>
+      <c r="D98">
+        <f>D97</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E98" t="s">
+        <v>17</v>
+      </c>
+      <c r="F98" s="6">
+        <v>43988</v>
+      </c>
+      <c r="G98" s="2"/>
+      <c r="H98">
+        <f>H97+C98</f>
+        <v>80874.693692984525</v>
+      </c>
+      <c r="BB98" s="1"/>
+      <c r="BE98" t="inlineStr">
         <is>
           <t>value in the series.</t>
         </is>
       </c>
     </row>
-    <row r="98" spans="1:66" ht="19.5">
-      <c r="C98">
-        <f>H97*D98</f>
-        <v>1238.5293266139881</v>
-      </c>
-      <c r="D98">
-        <f>D97</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E98" t="s">
-        <v>17</v>
-      </c>
-      <c r="F98" s="6">
-        <v>43988</v>
-      </c>
-      <c r="G98" s="2"/>
-      <c r="H98">
-        <f>H97+C98</f>
-        <v>52221.97207901728</v>
-      </c>
-      <c r="S98" t="inlineStr">
+    <row r="99" spans="1:66" ht="19.5">
+      <c r="C99">
+        <f>H98*D99</f>
+        <v>2628.0877041652889</v>
+      </c>
+      <c r="D99">
+        <f>D98</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="6">
+        <v>43989</v>
+      </c>
+      <c r="G99" s="2"/>
+      <c r="H99">
+        <f>H98+C99</f>
+        <v>83502.781397149811</v>
+      </c>
+      <c r="S99" t="inlineStr">
         <is>
           <t>Source: Osterholm, 8 April 2020 (podcast).</t>
         </is>
       </c>
-      <c r="BB98" s="1"/>
-    </row>
-    <row r="99" spans="1:66" ht="19.5">
-      <c r="C99">
-        <f>H98*D99</f>
-        <v>1268.616641437595</v>
-      </c>
-      <c r="D99">
-        <f>D98</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E99" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="6">
-        <v>43989</v>
-      </c>
-      <c r="G99" s="2"/>
-      <c r="H99">
-        <f>H98+C99</f>
-        <v>53490.588720454878</v>
-      </c>
       <c r="BB99" s="1"/>
-      <c r="BE99" t="inlineStr">
+    </row>
+    <row r="100" spans="1:66" ht="19.5">
+      <c r="C100">
+        <f>H99*D100</f>
+        <v>2713.4895111508517</v>
+      </c>
+      <c r="D100">
+        <f>D99</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E100" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="6">
+        <v>43990</v>
+      </c>
+      <c r="G100" s="2"/>
+      <c r="H100">
+        <f>H99+C100</f>
+        <v>86216.270908300663</v>
+      </c>
+      <c r="BE100" t="inlineStr">
         <is>
           <t>It may in fact become a reliable value,</t>
         </is>
       </c>
     </row>
-    <row r="100" spans="1:66" ht="19.5">
-      <c r="C100">
-        <f>H99*D100</f>
-        <v>1299.4348606442009</v>
-      </c>
-      <c r="D100">
-        <f>D99</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E100" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="6">
-        <v>43990</v>
-      </c>
-      <c r="G100" s="2"/>
-      <c r="H100">
-        <f>H99+C100</f>
-        <v>54790.023581099078</v>
-      </c>
-      <c r="T100" t="inlineStr">
+    <row r="101" spans="1:66" ht="19.5">
+      <c r="C101">
+        <f>H100*D101</f>
+        <v>2801.6665179993565</v>
+      </c>
+      <c r="D101">
+        <f>D100</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="6">
+        <v>43991</v>
+      </c>
+      <c r="G101" s="2"/>
+      <c r="H101">
+        <f>H100+C101</f>
+        <v>89017.937426300021</v>
+      </c>
+      <c r="T101" t="inlineStr">
         <is>
           <t>https://twitter.com/CIDRAP/status/1248291432202407939</t>
         </is>
       </c>
-      <c r="BE100" t="inlineStr">
+      <c r="BE101" t="inlineStr">
         <is>
           <t>24 hours later - it is assumed that once</t>
         </is>
       </c>
     </row>
-    <row r="101" spans="1:66" ht="19.5">
-      <c r="C101">
-        <f>H100*D101</f>
-        <v>1331.0017399298595</v>
-      </c>
-      <c r="D101">
-        <f>D100</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E101" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" s="6">
-        <v>43991</v>
-      </c>
-      <c r="G101" s="2"/>
-      <c r="H101">
-        <f>H100+C101</f>
-        <v>56121.025321028937</v>
-      </c>
-      <c r="BE101" t="inlineStr">
+    <row r="102" spans="1:66" ht="19.5">
+      <c r="C102">
+        <f>H101*D102</f>
+        <v>2892.7089070447746</v>
+      </c>
+      <c r="D102">
+        <f>D101</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E102" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="6">
+        <v>43992</v>
+      </c>
+      <c r="G102" s="2"/>
+      <c r="H102">
+        <f>H101+C102</f>
+        <v>91910.64633334479</v>
+      </c>
+      <c r="BE102" t="inlineStr">
         <is>
           <t>the value that follows it has been issued,</t>
         </is>
       </c>
     </row>
-    <row r="102" spans="1:66" ht="19.5">
-      <c r="C102">
-        <f>H101*D102</f>
-        <v>1363.3354663257621</v>
-      </c>
-      <c r="D102">
-        <f>D101</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E102" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="6">
-        <v>43992</v>
-      </c>
-      <c r="G102" s="2"/>
-      <c r="H102">
-        <f>H101+C102</f>
-        <v>57484.360787354701</v>
-      </c>
-      <c r="U102" t="inlineStr">
+    <row r="103" spans="1:66" ht="19.5">
+      <c r="C103">
+        <f>H102*D103</f>
+        <v>2986.7097911679775</v>
+      </c>
+      <c r="D103">
+        <f>D102</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E103" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" s="6">
+        <v>43993</v>
+      </c>
+      <c r="G103" s="2"/>
+      <c r="H103">
+        <f>H102+C103</f>
+        <v>94897.356124512764</v>
+      </c>
+      <c r="U103" t="inlineStr">
         <is>
           <t>Episode 3 of Osterholm Update:</t>
         </is>
       </c>
-      <c r="BE102" t="inlineStr">
+      <c r="BE103" t="inlineStr">
         <is>
           <t>its value will not change again (and, at</t>
         </is>
       </c>
     </row>
-    <row r="103" spans="1:66" ht="19.5">
-      <c r="C103">
-        <f>H102*D103</f>
-        <v>1396.454668676565</v>
-      </c>
-      <c r="D103">
-        <f>D102</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E103" t="s">
-        <v>15</v>
-      </c>
-      <c r="F103" s="6">
-        <v>43993</v>
-      </c>
-      <c r="G103" s="2"/>
-      <c r="H103">
-        <f>H102+C103</f>
-        <v>58880.815456031269</v>
-      </c>
-      <c r="BE103" t="inlineStr">
+    <row r="104" spans="1:66" ht="19.5">
+      <c r="C104">
+        <f>H103*D104</f>
+        <v>3083.7653090272001</v>
+      </c>
+      <c r="D104">
+        <f>D103</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E104" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" s="6">
+        <v>43994</v>
+      </c>
+      <c r="G104" s="2"/>
+      <c r="H104">
+        <f>H103+C104</f>
+        <v>97981.121433539971</v>
+      </c>
+      <c r="BE104" t="inlineStr">
         <is>
           <t>that time, it will become a reliable</t>
         </is>
       </c>
     </row>
-    <row r="104" spans="1:66" ht="19.5">
-      <c r="C104">
-        <f>H103*D104</f>
-        <v>1430.3784283732641</v>
-      </c>
-      <c r="D104">
-        <f>D103</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E104" t="s">
-        <v>16</v>
-      </c>
-      <c r="F104" s="6">
-        <v>43994</v>
-      </c>
-      <c r="G104" s="2"/>
-      <c r="H104">
-        <f>H103+C104</f>
-        <v>60311.193884404536</v>
-      </c>
-      <c r="V104" t="inlineStr">
+    <row r="105" spans="1:66" ht="19.5">
+      <c r="C105">
+        <f>H104*D105</f>
+        <v>3183.974723383089</v>
+      </c>
+      <c r="D105">
+        <f>D104</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E105" t="s">
+        <v>17</v>
+      </c>
+      <c r="F105" s="6">
+        <v>43995</v>
+      </c>
+      <c r="G105" s="2"/>
+      <c r="H105">
+        <f>H104+C105</f>
+        <v>101165.09615692306</v>
+      </c>
+      <c r="V105" t="inlineStr">
         <is>
           <t>http://ow.ly/d5Gk30qwD7o #Coronavirus</t>
         </is>
       </c>
-      <c r="BE104" t="inlineStr">
+      <c r="BE105" t="inlineStr">
         <is>
           <t>value in this series).</t>
         </is>
       </c>
     </row>
-    <row r="105" spans="1:66" ht="19.5">
-      <c r="C105">
-        <f>H104*D105</f>
-        <v>1465.1262903468028</v>
-      </c>
-      <c r="D105">
-        <f>D104</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E105" t="s">
-        <v>17</v>
-      </c>
-      <c r="F105" s="6">
-        <v>43995</v>
-      </c>
-      <c r="G105" s="2"/>
-      <c r="H105">
-        <f>H104+C105</f>
-        <v>61776.320174751338</v>
-      </c>
-    </row>
     <row r="106" spans="1:66" ht="19.5">
       <c r="C106">
         <f>H105*D106</f>
-        <v>1500.7182743287424</v>
+        <v>3287.4405226189015</v>
       </c>
       <c r="D106">
         <f>D105</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
@@ -8128,50 +8277,43 @@
       <c r="G106" s="2"/>
       <c r="H106">
         <f>H105+C106</f>
-        <v>63277.038449080079</v>
-      </c>
-      <c r="V106" t="inlineStr">
+        <v>104452.53667954195</v>
+      </c>
+    </row>
+    <row r="107" spans="1:66" ht="19.5">
+      <c r="C107">
+        <f>H106*D107</f>
+        <v>3394.2685255596889</v>
+      </c>
+      <c r="D107">
+        <f>D106</f>
+        <v>0.032495797933306578</v>
+      </c>
+      <c r="E107" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="6">
+        <v>43997</v>
+      </c>
+      <c r="G107" s="2"/>
+      <c r="H107">
+        <f>H106+C107</f>
+        <v>107846.80520510164</v>
+      </c>
+      <c r="V107" t="inlineStr">
         <is>
           <t>#COVID19 is now live:</t>
         </is>
       </c>
     </row>
-    <row r="107" spans="1:66" ht="19.5">
-      <c r="C107">
-        <f>H106*D107</f>
-        <v>1537.1748863854884</v>
-      </c>
-      <c r="D107">
-        <f>D106</f>
-        <v>0.024292775453176031</v>
-      </c>
-      <c r="E107" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107" s="6">
-        <v>43997</v>
-      </c>
-      <c r="G107" s="2"/>
-      <c r="H107">
-        <f>H106+C107</f>
-        <v>64814.213335465567</v>
-      </c>
-      <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
-      <c r="V107" t="inlineStr">
-        <is>
-          <t>"Preparing For What's To Come,"</t>
-        </is>
-      </c>
-    </row>
     <row r="108" spans="1:66" ht="19.5">
       <c r="C108">
         <f>H107*D108</f>
-        <v>1574.5171307327125</v>
+        <v>3504.567989697659</v>
       </c>
       <c r="D108">
         <f>D107</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E108" t="s">
         <v>13</v>
@@ -8182,24 +8324,24 @@
       <c r="G108" s="2"/>
       <c r="H108">
         <f>H107+C108</f>
-        <v>66388.730466198278</v>
+        <v>111351.37319479931</v>
       </c>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
       <c r="V108" t="inlineStr">
         <is>
-          <t>in which Dr. Osterholm discusses the US situation,</t>
+          <t>"Preparing For What's To Come,"</t>
         </is>
       </c>
     </row>
     <row r="109" spans="1:66" ht="19.5">
       <c r="C109">
         <f>H108*D109</f>
-        <v>1612.7665218367813</v>
+        <v>3618.4517229344087</v>
       </c>
       <c r="D109">
         <f>D108</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E109" t="s">
         <v>14</v>
@@ -8210,24 +8352,24 @@
       <c r="G109" s="2"/>
       <c r="H109">
         <f>H108+C109</f>
-        <v>68001.496988035055</v>
+        <v>114969.82491773371</v>
       </c>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="V109" t="inlineStr">
         <is>
-          <t>the potential for subsequent waves, racial</t>
+          <t>in which Dr. Osterholm discusses the US situation,</t>
         </is>
       </c>
     </row>
     <row r="110" spans="1:66" ht="19.5">
       <c r="C110">
         <f>H109*D110</f>
-        <v>1651.9450968101617</v>
+        <v>3736.0361989543103</v>
       </c>
       <c r="D110">
         <f>D109</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E110" t="s">
         <v>15</v>
@@ -8238,24 +8380,24 @@
       <c r="G110" s="2"/>
       <c r="H110">
         <f>H109+C110</f>
-        <v>69653.442084845214</v>
+        <v>118705.86111668803</v>
       </c>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
       <c r="V110" t="inlineStr">
         <is>
-          <t>and gender disparities,</t>
+          <t>the potential for subsequent waves, racial</t>
         </is>
       </c>
     </row>
     <row r="111" spans="1:66" ht="19.5">
       <c r="C111">
         <f>H110*D111</f>
-        <v>1692.075428107946</v>
+        <v>3857.4416763470485</v>
       </c>
       <c r="D111">
         <f>D110</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E111" t="s">
         <v>16</v>
@@ -8266,24 +8408,24 @@
       <c r="G111" s="2"/>
       <c r="H111">
         <f>H110+C111</f>
-        <v>71345.517512953156</v>
+        <v>122563.30279303508</v>
       </c>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="V111" t="inlineStr">
         <is>
-          <t>and the use of masks by the public</t>
+          <t>and gender disparities,</t>
         </is>
       </c>
     </row>
     <row r="112" spans="1:66" ht="19.5">
       <c r="C112">
         <f>H111*D112</f>
-        <v>1733.1806365328091</v>
+        <v>3982.7923216011377</v>
       </c>
       <c r="D112">
         <f>D111</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E112" t="s">
         <v>17</v>
@@ -8294,19 +8436,24 @@
       <c r="G112" s="2"/>
       <c r="H112">
         <f>H111+C112</f>
-        <v>73078.698149485965</v>
+        <v>126546.09511463622</v>
       </c>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>and the use of masks by the public</t>
+        </is>
+      </c>
     </row>
     <row r="113" spans="1:66" ht="19.5">
       <c r="C113">
         <f>H112*D113</f>
-        <v>1775.2844045558932</v>
+        <v>4112.2163360942131</v>
       </c>
       <c r="D113">
         <f>D112</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
@@ -8317,17 +8464,19 @@
       <c r="G113" s="2"/>
       <c r="H113">
         <f>H112+C113</f>
-        <v>74853.982554041853</v>
-      </c>
+        <v>130658.31145073043</v>
+      </c>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
     </row>
     <row r="114" spans="1:66" ht="19.5">
       <c r="C114">
         <f>H113*D114</f>
-        <v>1818.4109899612947</v>
+        <v>4245.8460872099731</v>
       </c>
       <c r="D114">
         <f>D113</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E114" t="s">
         <v>12</v>
@@ -8338,17 +8487,17 @@
       <c r="G114" s="2"/>
       <c r="H114">
         <f>H113+C114</f>
-        <v>76672.393544003149</v>
+        <v>134904.15753794039</v>
       </c>
     </row>
     <row r="115" spans="1:66" ht="19.5">
       <c r="C115">
         <f>H114*D115</f>
-        <v>1862.585239822012</v>
+        <v>4383.8182437158684</v>
       </c>
       <c r="D115">
         <f>D114</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E115" t="s">
         <v>13</v>
@@ -8359,17 +8508,17 @@
       <c r="G115" s="2"/>
       <c r="H115">
         <f>H114+C115</f>
-        <v>78534.978783825165</v>
+        <v>139287.97578165628</v>
       </c>
     </row>
     <row r="116" spans="1:66" ht="19.5">
       <c r="C116">
         <f>H115*D116</f>
-        <v>1907.8326048154083</v>
+        <v>4526.2739155400031</v>
       </c>
       <c r="D116">
         <f>D115</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
@@ -8380,17 +8529,17 @@
       <c r="G116" s="2"/>
       <c r="H116">
         <f>H115+C116</f>
-        <v>80442.811388640577</v>
+        <v>143814.24969719627</v>
       </c>
     </row>
     <row r="117" spans="1:66" ht="19.5">
       <c r="C117">
         <f>H116*D117</f>
-        <v>1954.179153886437</v>
+        <v>4673.3587980901866</v>
       </c>
       <c r="D117">
         <f>D116</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E117" t="s">
         <v>15</v>
@@ -8401,17 +8550,17 @@
       <c r="G117" s="2"/>
       <c r="H117">
         <f>H116+C117</f>
-        <v>82396.990542527012</v>
+        <v>148487.60849528646</v>
       </c>
     </row>
     <row r="118" spans="1:66" ht="19.5">
       <c r="C118">
         <f>H117*D118</f>
-        <v>2001.6515892670777</v>
+        <v>4825.2233212627661</v>
       </c>
       <c r="D118">
         <f>D117</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E118" t="s">
         <v>16</v>
@@ -8422,17 +8571,17 @@
       <c r="G118" s="2"/>
       <c r="H118">
         <f>H117+C118</f>
-        <v>84398.642131794084</v>
+        <v>153312.83181654924</v>
       </c>
     </row>
     <row r="119" spans="1:66" ht="19.5">
       <c r="C119">
         <f>H118*D119</f>
-        <v>2050.2772618606355</v>
+        <v>4982.0228032935993</v>
       </c>
       <c r="D119">
         <f>D118</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E119" t="s">
         <v>17</v>
@@ -8443,17 +8592,17 @@
       <c r="G119" s="2"/>
       <c r="H119">
         <f>H118+C119</f>
-        <v>86448.919393654724</v>
+        <v>158294.85461984284</v>
       </c>
     </row>
     <row r="120" spans="1:66" ht="19.5">
       <c r="C120">
         <f>H119*D120</f>
-        <v>2100.0841869997689</v>
+        <v>5143.9176096085539</v>
       </c>
       <c r="D120">
         <f>D119</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
@@ -8464,17 +8613,17 @@
       <c r="G120" s="2"/>
       <c r="H120">
         <f>H119+C120</f>
-        <v>88549.003580654491</v>
+        <v>163438.7722294514</v>
       </c>
     </row>
     <row r="121" spans="1:66" ht="19.5">
       <c r="C121">
         <f>H120*D121</f>
-        <v>2151.1010605873198</v>
+        <v>5311.0733168359711</v>
       </c>
       <c r="D121">
         <f>D120</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E121" t="s">
         <v>12</v>
@@ -8485,17 +8634,17 @@
       <c r="G121" s="2"/>
       <c r="H121">
         <f>H120+C121</f>
-        <v>90700.104641241807</v>
+        <v>168749.84554628737</v>
       </c>
     </row>
     <row r="122" spans="1:66" ht="19.5">
       <c r="C122">
         <f>H121*D122</f>
-        <v>2203.3572756292565</v>
+        <v>5483.6608821488489</v>
       </c>
       <c r="D122">
         <f>D121</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E122" t="s">
         <v>13</v>
@@ -8506,17 +8655,17 @@
       <c r="G122" s="2"/>
       <c r="H122">
         <f>H121+C122</f>
-        <v>92903.461916871063</v>
+        <v>174233.50642843623</v>
       </c>
     </row>
     <row r="123" spans="1:66" ht="19.5">
       <c r="C123">
         <f>H122*D123</f>
-        <v>2256.8829391692398</v>
+        <v>5661.8568181099363</v>
       </c>
       <c r="D123">
         <f>D122</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E123" t="s">
         <v>14</v>
@@ -8527,17 +8676,17 @@
       <c r="G123" s="2"/>
       <c r="H123">
         <f>H122+C123</f>
-        <v>95160.344856040305</v>
+        <v>179895.36324654616</v>
       </c>
     </row>
     <row r="124" spans="1:66" ht="19.5">
       <c r="C124">
         <f>H123*D124</f>
-        <v>2311.7088896345817</v>
+        <v>5845.8433731985506</v>
       </c>
       <c r="D124">
         <f>D123</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E124" t="s">
         <v>15</v>
@@ -8548,17 +8697,17 @@
       <c r="G124" s="2"/>
       <c r="H124">
         <f>H123+C124</f>
-        <v>97472.053745674886</v>
+        <v>185741.20661974471</v>
       </c>
     </row>
     <row r="125" spans="1:66" ht="19.5">
       <c r="C125">
         <f>H124*D125</f>
-        <v>2367.8667146035855</v>
+        <v>6035.8087182037707</v>
       </c>
       <c r="D125">
         <f>D124</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E125" t="s">
         <v>16</v>
@@ -8569,17 +8718,17 @@
       <c r="G125" s="2"/>
       <c r="H125">
         <f>H124+C125</f>
-        <v>99839.920460278474</v>
+        <v>191777.01533794848</v>
       </c>
     </row>
     <row r="126" spans="1:66" ht="19.5">
       <c r="C126">
         <f>H125*D126</f>
-        <v>2425.3887690045003</v>
+        <v>6231.94713867461</v>
       </c>
       <c r="D126">
         <f>D125</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E126" t="s">
         <v>17</v>
@@ -8590,17 +8739,17 @@
       <c r="G126" s="2"/>
       <c r="H126">
         <f>H125+C126</f>
-        <v>102265.30922928297</v>
+        <v>198008.9624766231</v>
       </c>
     </row>
     <row r="127" spans="1:66" ht="19.5">
       <c r="C127">
         <f>H126*D127</f>
-        <v>2484.3081937565817</v>
+        <v>6434.4592336240285</v>
       </c>
       <c r="D127">
         <f>D126</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E127" t="s">
         <v>11</v>
@@ -8611,17 +8760,17 @@
       <c r="G127" s="2"/>
       <c r="H127">
         <f>H126+C127</f>
-        <v>104749.61742303956</v>
+        <v>204443.42171024712</v>
       </c>
     </row>
     <row r="128" spans="1:66" ht="19.5">
       <c r="C128">
         <f>H127*D128</f>
-        <v>2544.6589348639955</v>
+        <v>6643.552120689973</v>
       </c>
       <c r="D128">
         <f>D127</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E128" t="s">
         <v>12</v>
@@ -8632,17 +8781,17 @@
       <c r="G128" s="2"/>
       <c r="H128">
         <f>H127+C128</f>
-        <v>107294.27635790355</v>
+        <v>211086.97383093709</v>
       </c>
     </row>
     <row r="129" spans="1:66" ht="19.5">
       <c r="C129">
         <f>H128*D129</f>
-        <v>2606.4757629735645</v>
+        <v>6859.4396479633051</v>
       </c>
       <c r="D129">
         <f>D128</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E129" t="s">
         <v>13</v>
@@ -8653,17 +8802,17 @@
       <c r="G129" s="2"/>
       <c r="H129">
         <f>H128+C129</f>
-        <v>109900.75212087712</v>
+        <v>217946.41347890039</v>
       </c>
     </row>
     <row r="130" spans="1:66" ht="19.5">
       <c r="C130">
         <f>H129*D130</f>
-        <v>2669.7942934076273</v>
+        <v>7082.3426126992317</v>
       </c>
       <c r="D130">
         <f>D129</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E130" t="s">
         <v>14</v>
@@ -8674,17 +8823,17 @@
       <c r="G130" s="2"/>
       <c r="H130">
         <f>H129+C130</f>
-        <v>112570.54641428475</v>
+        <v>225028.75609159961</v>
       </c>
     </row>
     <row r="131" spans="1:66" ht="19.5">
       <c r="C131">
         <f>H130*D131</f>
-        <v>2734.6510066835494</v>
+        <v>7312.4889871359528</v>
       </c>
       <c r="D131">
         <f>D130</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E131" t="s">
         <v>15</v>
@@ -8695,17 +8844,17 @@
       <c r="G131" s="2"/>
       <c r="H131">
         <f>H130+C131</f>
-        <v>115305.1974209683</v>
+        <v>232341.24507873558</v>
       </c>
     </row>
     <row r="132" spans="1:66" ht="19.5">
       <c r="C132">
         <f>H131*D132</f>
-        <v>2801.0832695317149</v>
+        <v>7550.1141516514526</v>
       </c>
       <c r="D132">
         <f>D131</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E132" t="s">
         <v>16</v>
@@ -8715,17 +8864,17 @@
       </c>
       <c r="H132">
         <f>H131+C132</f>
-        <v>118106.28069050002</v>
+        <v>239891.35923038702</v>
       </c>
     </row>
     <row r="133" spans="1:66" ht="19.5">
       <c r="C133">
         <f>H132*D133</f>
-        <v>2869.1293564240968</v>
+        <v>7795.4611354969165</v>
       </c>
       <c r="D133">
         <f>D132</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E133" t="s">
         <v>17</v>
@@ -8735,17 +8884,17 @@
       </c>
       <c r="H133">
         <f>H132+C133</f>
-        <v>120975.41004692411</v>
+        <v>247686.82036588393</v>
       </c>
     </row>
     <row r="134" spans="1:66" ht="19.5">
       <c r="C134">
         <f>H133*D134</f>
-        <v>2938.8284716258231</v>
+        <v>8048.7808653529692</v>
       </c>
       <c r="D134">
         <f>D133</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E134" t="s">
         <v>11</v>
@@ -8755,17 +8904,17 @@
       </c>
       <c r="H134">
         <f>H133+C134</f>
-        <v>123914.23851854993</v>
+        <v>255735.60123123691</v>
       </c>
     </row>
     <row r="135" spans="1:66" ht="19.5">
       <c r="C135">
         <f>H134*D135</f>
-        <v>3010.2207717824294</v>
+        <v>8310.332421962943</v>
       </c>
       <c r="D135">
         <f>D134</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E135" t="s">
         <v>12</v>
@@ -8775,17 +8924,17 @@
       </c>
       <c r="H135">
         <f>H134+C135</f>
-        <v>126924.45929033236</v>
+        <v>264045.93365319987</v>
       </c>
     </row>
     <row r="136" spans="1:66" ht="19.5">
       <c r="C136">
         <f>H135*D136</f>
-        <v>3083.3473890558266</v>
+        <v>8580.3833051056572</v>
       </c>
       <c r="D136">
         <f>D135</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E136" t="s">
         <v>13</v>
@@ -8795,17 +8944,17 @@
       </c>
       <c r="H136">
         <f>H135+C136</f>
-        <v>130007.80667938819</v>
+        <v>272626.31695830554</v>
       </c>
     </row>
     <row r="137" spans="1:66" ht="19.5">
       <c r="C137">
         <f>H136*D137</f>
-        <v>3158.250454822296</v>
+        <v>8859.2097071786884</v>
       </c>
       <c r="D137">
         <f>D136</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E137" t="s">
         <v>14</v>
@@ -8815,17 +8964,17 @@
       </c>
       <c r="H137">
         <f>H136+C137</f>
-        <v>133166.05713421048</v>
+        <v>281485.52666548424</v>
       </c>
     </row>
     <row r="138" spans="1:66" ht="19.5">
       <c r="C138">
         <f>H137*D138</f>
-        <v>3234.9731239461853</v>
+        <v>9147.096795671956</v>
       </c>
       <c r="D138">
         <f>D137</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E138" t="s">
         <v>15</v>
@@ -8835,17 +8984,17 @@
       </c>
       <c r="H138">
         <f>H137+C138</f>
-        <v>136401.03025815668</v>
+        <v>290632.62346115621</v>
       </c>
     </row>
     <row r="139" spans="1:66" ht="19.5">
       <c r="C139">
         <f>H138*D139</f>
-        <v>3313.5595996432694</v>
+        <v>9444.3390048205092</v>
       </c>
       <c r="D139">
         <f>D138</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E139" t="s">
         <v>16</v>
@@ -8855,17 +9004,17 @@
       </c>
       <c r="H139">
         <f>H138+C139</f>
-        <v>139714.58985779996</v>
+        <v>300076.96246597671</v>
       </c>
     </row>
     <row r="140" spans="1:66" ht="19.5">
       <c r="C140">
         <f>H139*D140</f>
-        <v>3394.0551589481197</v>
+        <v>9751.2403367348015</v>
       </c>
       <c r="D140">
         <f>D139</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E140" t="s">
         <v>17</v>
@@ -8875,17 +9024,17 @@
       </c>
       <c r="H140">
         <f>H139+C140</f>
-        <v>143108.64501674808</v>
+        <v>309828.20280271152</v>
       </c>
     </row>
     <row r="141" spans="1:66" ht="19.5">
       <c r="C141">
         <f>H140*D141</f>
-        <v>3476.5061788001399</v>
+        <v>10068.114672316444</v>
       </c>
       <c r="D141">
         <f>D140</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E141" t="s">
         <v>11</v>
@@ -8895,17 +9044,17 @@
       </c>
       <c r="H141">
         <f>H140+C141</f>
-        <v>146585.15119554821</v>
+        <v>319896.31747502799</v>
       </c>
     </row>
     <row r="142" spans="1:66" ht="19.5">
       <c r="C142">
         <f>H141*D142</f>
-        <v>3560.9601627633106</v>
+        <v>10395.2860922774</v>
       </c>
       <c r="D142">
         <f>D141</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E142" t="s">
         <v>12</v>
@@ -8915,17 +9064,17 @@
       </c>
       <c r="H142">
         <f>H141+C142</f>
-        <v>150146.11135831152</v>
+        <v>330291.60356730537</v>
       </c>
     </row>
     <row r="143" spans="1:66" ht="19.5">
       <c r="C143">
         <f>H142*D143</f>
-        <v>3647.465768395025</v>
+        <v>10733.089208590958</v>
       </c>
       <c r="D143">
         <f>D142</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E143" t="s">
         <v>13</v>
@@ -8935,17 +9084,17 @@
       </c>
       <c r="H143">
         <f>H142+C143</f>
-        <v>153793.57712670654</v>
+        <v>341024.69277589634</v>
       </c>
     </row>
     <row r="144" spans="1:66" ht="19.5">
       <c r="C144">
         <f>H143*D144</f>
-        <v>3736.0728352797914</v>
+        <v>11081.869506713483</v>
       </c>
       <c r="D144">
         <f>D143</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E144" t="s">
         <v>14</v>
@@ -8955,17 +9104,17 @@
       </c>
       <c r="H144">
         <f>H143+C144</f>
-        <v>157529.64996198635</v>
+        <v>352106.56228260981</v>
       </c>
     </row>
     <row r="145" spans="1:66" ht="19.5">
       <c r="C145">
         <f>H144*D145</f>
-        <v>3826.8324137439545</v>
+        <v>11441.983698926915</v>
       </c>
       <c r="D145">
         <f>D144</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E145" t="s">
         <v>15</v>
@@ -8975,17 +9124,17 @@
       </c>
       <c r="H145">
         <f>H144+C145</f>
-        <v>161356.48237573029</v>
+        <v>363548.54598153674</v>
       </c>
     </row>
     <row r="146" spans="1:66" ht="19.5">
       <c r="C146">
         <f>H145*D146</f>
-        <v>3919.7967942679716</v>
+        <v>11813.800089163433</v>
       </c>
       <c r="D146">
         <f>D145</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E146" t="s">
         <v>16</v>
@@ -8995,17 +9144,17 @@
       </c>
       <c r="H146">
         <f>H145+C146</f>
-        <v>165276.27916999828</v>
+        <v>375362.34607070015</v>
       </c>
     </row>
     <row r="147" spans="1:66" ht="19.5">
       <c r="C147">
         <f>H146*D147</f>
-        <v>4015.0195376132028</v>
+        <v>12197.698949685366</v>
       </c>
       <c r="D147">
         <f>D146</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E147" t="s">
         <v>17</v>
@@ -9015,17 +9164,17 @@
       </c>
       <c r="H147">
         <f>H146+C147</f>
-        <v>169291.29870761148</v>
+        <v>387560.04502038553</v>
       </c>
     </row>
     <row r="148" spans="1:66" ht="19.5">
       <c r="C148">
         <f>H147*D148</f>
-        <v>4112.5555056805551</v>
+        <v>12594.072910005649</v>
       </c>
       <c r="D148">
         <f>D147</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E148" t="s">
         <v>11</v>
@@ -9035,17 +9184,17 @@
       </c>
       <c r="H148">
         <f>H147+C148</f>
-        <v>173403.85421329204</v>
+        <v>400154.11793039116</v>
       </c>
     </row>
     <row r="149" spans="1:66" ht="19.5">
       <c r="C149">
         <f>H148*D149</f>
-        <v>4212.4608931187759</v>
+        <v>13003.327358446522</v>
       </c>
       <c r="D149">
         <f>D148</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E149" t="s">
         <v>12</v>
@@ -9055,17 +9204,17 @@
       </c>
       <c r="H149">
         <f>H148+C149</f>
-        <v>177616.31510641082</v>
+        <v>413157.44528883771</v>
       </c>
     </row>
     <row r="150" spans="1:66" ht="19.5">
       <c r="C150">
         <f>H149*D150</f>
-        <v>4314.7932597005956</v>
+        <v>13425.880856747239</v>
       </c>
       <c r="D150">
         <f>D149</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E150" t="s">
         <v>13</v>
@@ -9075,17 +9224,17 @@
       </c>
       <c r="H150">
         <f>H149+C150</f>
-        <v>181931.10836611141</v>
+        <v>426583.32614558493</v>
       </c>
     </row>
     <row r="151" spans="1:66" ht="19.5">
       <c r="C151">
         <f>H150*D151</f>
-        <v>4419.6115634853795</v>
+        <v>13862.165568144745</v>
       </c>
       <c r="D151">
         <f>D150</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E151" t="s">
         <v>14</v>
@@ -9095,17 +9244,17 @@
       </c>
       <c r="H151">
         <f>H150+C151</f>
-        <v>186350.71992959679</v>
+        <v>440445.49171372969</v>
       </c>
     </row>
     <row r="152" spans="1:66" ht="19.5">
       <c r="C152">
         <f>H151*D152</f>
-        <v>4526.9761947873903</v>
+        <v>14312.627699365217</v>
       </c>
       <c r="D152">
         <f>D151</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E152" t="s">
         <v>15</v>
@@ -9115,17 +9264,17 @@
       </c>
       <c r="H152">
         <f>H151+C152</f>
-        <v>190877.69612438418</v>
+        <v>454758.11941309489</v>
       </c>
     </row>
     <row r="153" spans="1:66" ht="19.5">
       <c r="C153">
         <f>H152*D153</f>
-        <v>4636.9490109692333</v>
+        <v>14777.727956978435</v>
       </c>
       <c r="D153">
         <f>D152</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E153" t="s">
         <v>16</v>
@@ -9135,17 +9284,17 @@
       </c>
       <c r="H153">
         <f>H152+C153</f>
-        <v>195514.64513535341</v>
+        <v>469535.84737007332</v>
       </c>
     </row>
     <row r="154" spans="1:66" ht="19.5">
       <c r="C154">
         <f>H153*D154</f>
-        <v>4749.593372080536</v>
+        <v>15257.942018581782</v>
       </c>
       <c r="D154">
         <f>D153</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E154" t="s">
         <v>17</v>
@@ -9155,17 +9304,17 @@
       </c>
       <c r="H154">
         <f>H153+C154</f>
-        <v>200264.23850743394</v>
+        <v>484793.7893886551</v>
       </c>
     </row>
     <row r="155" spans="1:66" ht="19.5">
       <c r="C155">
         <f>H154*D155</f>
-        <v>4864.9741773623809</v>
+        <v>15753.761019295724</v>
       </c>
       <c r="D155">
         <f>D154</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E155" t="s">
         <v>11</v>
@@ -9175,17 +9324,17 @@
       </c>
       <c r="H155">
         <f>H154+C155</f>
-        <v>205129.21268479631</v>
+        <v>500547.55040795082</v>
       </c>
     </row>
     <row r="156" spans="1:66" ht="19.5">
       <c r="C156">
         <f>H155*D156</f>
-        <v>4983.1579026385452</v>
+        <v>16265.692054068359</v>
       </c>
       <c r="D156">
         <f>D155</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E156" t="s">
         <v>12</v>
@@ -9195,17 +9344,17 @@
       </c>
       <c r="H156">
         <f>H155+C156</f>
-        <v>210112.37058743485</v>
+        <v>516813.2424620192</v>
       </c>
     </row>
     <row r="157" spans="1:66" ht="19.5">
       <c r="C157">
         <f>H156*D157</f>
-        <v>5104.212638615063</v>
+        <v>16794.258696302753</v>
       </c>
       <c r="D157">
         <f>D156</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E157" t="s">
         <v>13</v>
@@ -9215,17 +9364,17 @@
       </c>
       <c r="H157">
         <f>H156+C157</f>
-        <v>215216.5832260499</v>
+        <v>533607.50115832197</v>
       </c>
     </row>
     <row r="158" spans="1:66" ht="19.5">
       <c r="C158">
         <f>H157*D158</f>
-        <v>5228.2081301102016</v>
+        <v>17340.001533337487</v>
       </c>
       <c r="D158">
         <f>D157</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E158" t="s">
         <v>14</v>
@@ -9235,17 +9384,17 @@
       </c>
       <c r="H158">
         <f>H157+C158</f>
-        <v>220444.7913561601</v>
+        <v>550947.50269165949</v>
       </c>
     </row>
     <row r="159" spans="1:66" ht="19.5">
       <c r="C159">
         <f>H158*D159</f>
-        <v>5355.215816237438</v>
+        <v>17903.47871932805</v>
       </c>
       <c r="D159">
         <f>D158</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E159" t="s">
         <v>15</v>
@@ -9255,17 +9404,17 @@
       </c>
       <c r="H159">
         <f>H158+C159</f>
-        <v>225800.00717239754</v>
+        <v>568850.98141098756</v>
       </c>
     </row>
     <row r="160" spans="1:66" ht="19.5">
       <c r="C160">
         <f>H159*D160</f>
-        <v>5485.3088715645908</v>
+        <v>18485.266546094586</v>
       </c>
       <c r="D160">
         <f>D159</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E160" t="s">
         <v>16</v>
@@ -9275,17 +9424,17 @@
       </c>
       <c r="H160">
         <f>H159+C160</f>
-        <v>231285.31604396214</v>
+        <v>587336.24795708212</v>
       </c>
     </row>
     <row r="161" spans="1:66" ht="19.5">
       <c r="C161">
         <f>H160*D161</f>
-        <v>5618.562248272824</v>
+        <v>19085.96003251979</v>
       </c>
       <c r="D161">
         <f>D160</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E161" t="s">
         <v>17</v>
@@ -9295,17 +9444,17 @@
       </c>
       <c r="H161">
         <f>H160+C161</f>
-        <v>236903.87829223496</v>
+        <v>606422.20798960188</v>
       </c>
     </row>
     <row r="162" spans="1:66" ht="19.5">
       <c r="C162">
         <f>H161*D162</f>
-        <v>5755.0527193398075</v>
+        <v>19706.173533099718</v>
       </c>
       <c r="D162">
         <f>D161</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E162" t="s">
         <v>11</v>
@@ -9315,17 +9464,17 @@
       </c>
       <c r="H162">
         <f>H161+C162</f>
-        <v>242658.93101157478</v>
+        <v>626128.38152270159</v>
       </c>
     </row>
     <row r="163" spans="1:66" ht="19.5">
       <c r="C163">
         <f>H162*D163</f>
-        <v>5894.8589227719194</v>
+        <v>20346.541366269998</v>
       </c>
       <c r="D163">
         <f>D162</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E163" t="s">
         <v>12</v>
@@ -9335,17 +9484,17 @@
       </c>
       <c r="H163">
         <f>H162+C163</f>
-        <v>248553.78993434669</v>
+        <v>646474.92288897163</v>
       </c>
     </row>
     <row r="164" spans="1:66" ht="19.5">
       <c r="C164">
         <f>H163*D164</f>
-        <v>6038.0614069109688</v>
+        <v>21007.718463149973</v>
       </c>
       <c r="D164">
         <f>D163</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E164" t="s">
         <v>13</v>
@@ -9355,17 +9504,17 @@
       </c>
       <c r="H164">
         <f>H163+C164</f>
-        <v>254591.85134125766</v>
+        <v>667482.6413521216</v>
       </c>
     </row>
     <row r="165" spans="1:66" ht="19.5">
       <c r="C165">
         <f>H164*D165</f>
-        <v>6184.7426768415453</v>
+        <v>21690.38103736829</v>
       </c>
       <c r="D165">
         <f>D164</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E165" t="s">
         <v>14</v>
@@ -9375,17 +9524,17 @@
       </c>
       <c r="H165">
         <f>H164+C165</f>
-        <v>260776.59401809919</v>
+        <v>689173.02238948992</v>
       </c>
     </row>
     <row r="166" spans="1:66" ht="19.5">
       <c r="C166">
         <f>H165*D166</f>
-        <v>6334.9872419257308</v>
+        <v>22395.227276655034</v>
       </c>
       <c r="D166">
         <f>D165</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E166" t="s">
         <v>15</v>
@@ -9395,17 +9544,17 @@
       </c>
       <c r="H166">
         <f>H165+C166</f>
-        <v>267111.58126002492</v>
+        <v>711568.24966614495</v>
       </c>
     </row>
     <row r="167" spans="1:66" ht="19.5">
       <c r="C167">
         <f>H166*D167</f>
-        <v>6488.8816644925682</v>
+        <v>23122.978056907694</v>
       </c>
       <c r="D167">
         <f>D166</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E167" t="s">
         <v>16</v>
@@ -9415,17 +9564,17 @@
       </c>
       <c r="H167">
         <f>H166+C167</f>
-        <v>273600.46292451746</v>
+        <v>734691.22772305261</v>
       </c>
     </row>
     <row r="168" spans="1:66" ht="19.5">
       <c r="C168">
         <f>H167*D168</f>
-        <v>6646.5146097103161</v>
+        <v>23874.377679461246</v>
       </c>
       <c r="D168">
         <f>D167</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E168" t="s">
         <v>17</v>
@@ -9435,17 +9584,17 @@
       </c>
       <c r="H168">
         <f>H167+C168</f>
-        <v>280246.97753422777</v>
+        <v>758565.60540251387</v>
       </c>
     </row>
     <row r="169" spans="1:66" ht="19.5">
       <c r="C169">
         <f>H168*D169</f>
-        <v>6807.9768966702632</v>
+        <v>24650.194632316463</v>
       </c>
       <c r="D169">
         <f>D168</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E169" t="s">
         <v>11</v>
@@ -9455,17 +9604,17 @@
       </c>
       <c r="H169">
         <f>H168+C169</f>
-        <v>287054.95443089801</v>
+        <v>783215.80003483035</v>
       </c>
     </row>
     <row r="170" spans="1:66" ht="19.5">
       <c r="C170">
         <f>H169*D170</f>
-        <v>6973.3615507114828</v>
+        <v>25451.222376104899</v>
       </c>
       <c r="D170">
         <f>D169</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E170" t="s">
         <v>12</v>
@@ -9475,17 +9624,17 @@
       </c>
       <c r="H170">
         <f>H169+C170</f>
-        <v>294028.31598160951</v>
+        <v>808667.02241093526</v>
       </c>
     </row>
     <row r="171" spans="1:66" ht="19.5">
       <c r="C171">
         <f>H170*D171</f>
-        <v>7142.7638570167292</v>
+        <v>26278.280155594453</v>
       </c>
       <c r="D171">
         <f>D170</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E171" t="s">
         <v>13</v>
@@ -9495,17 +9644,17 @@
       </c>
       <c r="H171">
         <f>H170+C171</f>
-        <v>301171.07983862626</v>
+        <v>834945.30256652972</v>
       </c>
     </row>
     <row r="172" spans="1:66" ht="19.5">
       <c r="C172">
         <f>H171*D172</f>
-        <v>7316.2814155102988</v>
+        <v>27132.213837565472</v>
       </c>
       <c r="D172">
         <f>D171</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E172" t="s">
         <v>14</v>
@@ -9515,17 +9664,17 @@
       </c>
       <c r="H172">
         <f>H171+C172</f>
-        <v>308487.36125413654</v>
+        <v>862077.51640409522</v>
       </c>
     </row>
     <row r="173" spans="1:66" ht="19.5">
       <c r="C173">
         <f>H172*D173</f>
-        <v>7494.0141970895347</v>
+        <v>28013.896775914265</v>
       </c>
       <c r="D173">
         <f>D172</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E173" t="s">
         <v>15</v>
@@ -9535,17 +9684,17 @@
       </c>
       <c r="H173">
         <f>H172+C173</f>
-        <v>315981.37545122608</v>
+        <v>890091.41318000946</v>
       </c>
     </row>
     <row r="174" spans="1:66" ht="19.5">
       <c r="C174">
         <f>H173*D174</f>
-        <v>7676.0646012223442</v>
+        <v>28924.230704868882</v>
       </c>
       <c r="D174">
         <f>D173</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E174" t="s">
         <v>16</v>
@@ -9555,17 +9704,17 @@
       </c>
       <c r="H174">
         <f>H173+C174</f>
-        <v>323657.44005244842</v>
+        <v>919015.64388487837</v>
       </c>
     </row>
     <row r="175" spans="1:66" ht="19.5">
       <c r="C175">
         <f>H174*D175</f>
-        <v>7862.5375149439114</v>
+        <v>29864.146661230643</v>
       </c>
       <c r="D175">
         <f>D174</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E175" t="s">
         <v>17</v>
@@ -9575,17 +9724,17 @@
       </c>
       <c r="H175">
         <f>H174+C175</f>
-        <v>331519.97756739234</v>
+        <v>948879.79054610897</v>
       </c>
     </row>
     <row r="176" spans="1:66" ht="19.5">
       <c r="C176">
         <f>H175*D176</f>
-        <v>8053.5403732866171</v>
+        <v>30834.605936584627</v>
       </c>
       <c r="D176">
         <f>D175</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E176" t="s">
         <v>11</v>
@@ -9595,17 +9744,17 @@
       </c>
       <c r="H176">
         <f>H175+C176</f>
-        <v>339573.51794067898</v>
+        <v>979714.39648269361</v>
       </c>
     </row>
     <row r="177" spans="1:66" ht="19.5">
       <c r="C177">
         <f>H176*D177</f>
-        <v>8249.1832211779565</v>
+        <v>31836.601060453017</v>
       </c>
       <c r="D177">
         <f>D176</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E177" t="s">
         <v>12</v>
@@ -9615,17 +9764,17 @@
       </c>
       <c r="H177">
         <f>H176+C177</f>
-        <v>347822.70116185694</v>
+        <v>1011550.9975431466</v>
       </c>
     </row>
     <row r="178" spans="1:66" ht="19.5">
       <c r="C178">
         <f>H177*D178</f>
-        <v>8449.5787768421396</v>
+        <v>32871.156815396789</v>
       </c>
       <c r="D178">
         <f>D177</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E178" t="s">
         <v>13</v>
@@ -9635,17 +9784,17 @@
       </c>
       <c r="H178">
         <f>H177+C178</f>
-        <v>356272.2799386991</v>
+        <v>1044422.1543585433</v>
       </c>
     </row>
     <row r="179" spans="1:66" ht="19.5">
       <c r="C179">
         <f>H178*D179</f>
-        <v>8654.8424967418887</v>
+        <v>33939.331285103959</v>
       </c>
       <c r="D179">
         <f>D178</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E179" t="s">
         <v>14</v>
@@ -9655,17 +9804,17 @@
       </c>
       <c r="H179">
         <f>H178+C179</f>
-        <v>364927.12243544101</v>
+        <v>1078361.4856436474</v>
       </c>
     </row>
     <row r="180" spans="1:66" ht="19.5">
       <c r="C180">
         <f>H179*D180</f>
-        <v>8865.0926420978449</v>
+        <v>35042.21693653625</v>
       </c>
       <c r="D180">
         <f>D179</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E180" t="s">
         <v>15</v>
@@ -9675,17 +9824,17 @@
       </c>
       <c r="H180">
         <f>H179+C180</f>
-        <v>373792.21507753886</v>
+        <v>1113403.7025801837</v>
       </c>
     </row>
     <row r="181" spans="1:66" ht="19.5">
       <c r="C181">
         <f>H180*D181</f>
-        <v>9080.4503470239306</v>
+        <v>36180.941737241024</v>
       </c>
       <c r="D181">
         <f>D180</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E181" t="s">
         <v>16</v>
@@ -9695,17 +9844,17 @@
       </c>
       <c r="H181">
         <f>H180+C181</f>
-        <v>382872.66542456282</v>
+        <v>1149584.6443174249</v>
       </c>
     </row>
     <row r="182" spans="1:66" ht="19.5">
       <c r="C182">
         <f>H181*D182</f>
-        <v>9301.0396883178983</v>
+        <v>37356.670308971152</v>
       </c>
       <c r="D182">
         <f>D181</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E182" t="s">
         <v>17</v>
@@ -9715,17 +9864,17 @@
       </c>
       <c r="H182">
         <f>H181+C182</f>
-        <v>392173.70511288074</v>
+        <v>1186941.3146263959</v>
       </c>
     </row>
     <row r="183" spans="1:66" ht="19.5">
       <c r="C183">
         <f>H182*D183</f>
-        <v>9526.9877569472847</v>
+        <v>38570.605118792628</v>
       </c>
       <c r="D183">
         <f>D182</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E183" t="s">
         <v>11</v>
@@ -9735,17 +9884,17 @@
       </c>
       <c r="H183">
         <f>H182+C183</f>
-        <v>401700.69286982802</v>
+        <v>1225511.9197451887</v>
       </c>
     </row>
     <row r="184" spans="1:66" ht="19.5">
       <c r="C184">
         <f>H183*D184</f>
-        <v>9758.4247312719617</v>
+        <v>39823.987708898276</v>
       </c>
       <c r="D184">
         <f>D183</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E184" t="s">
         <v>12</v>
@@ -9755,17 +9904,17 @@
       </c>
       <c r="H184">
         <f>H183+C184</f>
-        <v>411459.11760110001</v>
+        <v>1265335.9074540869</v>
       </c>
     </row>
     <row r="185" spans="1:66" ht="19.5">
       <c r="C185">
         <f>H184*D185</f>
-        <v>9995.4839520454716</v>
+        <v>41118.099966385118</v>
       </c>
       <c r="D185">
         <f>D184</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E185" t="s">
         <v>13</v>
@@ -9775,17 +9924,17 @@
       </c>
       <c r="H185">
         <f>H184+C185</f>
-        <v>421454.60155314551</v>
+        <v>1306454.0074204721</v>
       </c>
     </row>
     <row r="186" spans="1:66" ht="19.5">
       <c r="C186">
         <f>H185*D186</f>
-        <v>10238.301999238338</v>
+        <v>42454.265434294277</v>
       </c>
       <c r="D186">
         <f>D185</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E186" t="s">
         <v>14</v>
@@ -9795,17 +9944,17 @@
       </c>
       <c r="H186">
         <f>H185+C186</f>
-        <v>431692.90355238382</v>
+        <v>1348908.2728547663</v>
       </c>
     </row>
     <row r="187" spans="1:66" ht="19.5">
       <c r="C187">
         <f>H186*D187</f>
-        <v>10487.018770727638</v>
+        <v>43833.85066525406</v>
       </c>
       <c r="D187">
         <f>D186</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E187" t="s">
         <v>15</v>
@@ -9815,17 +9964,17 @@
       </c>
       <c r="H187">
         <f>H186+C187</f>
-        <v>442179.92232311144</v>
+        <v>1392742.1235200204</v>
       </c>
     </row>
     <row r="188" spans="1:66" ht="19.5">
       <c r="C188">
         <f>H187*D188</f>
-        <v>10741.777562898165</v>
+        <v>45258.266619110895</v>
       </c>
       <c r="D188">
         <f>D187</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E188" t="s">
         <v>16</v>
@@ -9835,17 +9984,17 @@
       </c>
       <c r="H188">
         <f>H187+C188</f>
-        <v>452921.69988600962</v>
+        <v>1438000.3901391313</v>
       </c>
     </row>
     <row r="189" spans="1:66" ht="19.5">
       <c r="C189">
         <f>H188*D189</f>
-        <v>11002.725153201616</v>
+        <v>46728.970105977234</v>
       </c>
       <c r="D189">
         <f>D188</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E189" t="s">
         <v>17</v>
@@ -9855,17 +10004,17 @@
       </c>
       <c r="H189">
         <f>H188+C189</f>
-        <v>463924.42503921123</v>
+        <v>1484729.3602451086</v>
       </c>
     </row>
     <row r="190" spans="1:66" ht="19.5">
       <c r="C190">
         <f>H189*D190</f>
-        <v>11270.011884721354</v>
+        <v>48247.465276172596</v>
       </c>
       <c r="D190">
         <f>D189</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E190" t="s">
         <v>11</v>
@@ -9875,17 +10024,17 @@
       </c>
       <c r="H190">
         <f>H189+C190</f>
-        <v>475194.43692393258</v>
+        <v>1532976.8255212812</v>
       </c>
     </row>
     <row r="191" spans="1:66" ht="19.5">
       <c r="C191">
         <f>H190*D191</f>
-        <v>11543.791752791514</v>
+        <v>49815.30515858133</v>
       </c>
       <c r="D191">
         <f>D190</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E191" t="s">
         <v>12</v>
@@ -9895,17 +10044,17 @@
       </c>
       <c r="H191">
         <f>H190+C191</f>
-        <v>486738.22867672407</v>
+        <v>1582792.1306798626</v>
       </c>
     </row>
     <row r="192" spans="1:66" ht="19.5">
       <c r="C192">
         <f>H191*D192</f>
-        <v>11824.222493720305</v>
+        <v>51434.093249000594</v>
       </c>
       <c r="D192">
         <f>D191</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E192" t="s">
         <v>13</v>
@@ -9915,17 +10064,17 @@
       </c>
       <c r="H192">
         <f>H191+C192</f>
-        <v>498562.45117044437</v>
+        <v>1634226.2239288632</v>
       </c>
     </row>
     <row r="193" spans="1:66" ht="19.5">
       <c r="C193">
         <f>H192*D193</f>
-        <v>12111.465675668644</v>
+        <v>53105.485150102963</v>
       </c>
       <c r="D193">
         <f>D192</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E193" t="s">
         <v>14</v>
@@ -9935,17 +10084,17 @@
       </c>
       <c r="H193">
         <f>H192+C193</f>
-        <v>510673.91684611299</v>
+        <v>1687331.7090789662</v>
       </c>
     </row>
     <row r="194" spans="1:66" ht="19.5">
       <c r="C194">
         <f>H193*D194</f>
-        <v>12405.686791736511</v>
+        <v>54831.190264690922</v>
       </c>
       <c r="D194">
         <f>D193</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E194" t="s">
         <v>15</v>
@@ -9955,17 +10104,17 @@
       </c>
       <c r="H194">
         <f>H193+C194</f>
-        <v>523079.6036378495</v>
+        <v>1742162.8993436571</v>
       </c>
     </row>
     <row r="195" spans="1:66" ht="19.5">
       <c r="C195">
         <f>H194*D195</f>
-        <v>12707.055355310598</v>
+        <v>56612.973543975007</v>
       </c>
       <c r="D195">
         <f>D194</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E195" t="s">
         <v>16</v>
@@ -9975,17 +10124,17 @@
       </c>
       <c r="H195">
         <f>H194+C195</f>
-        <v>535786.65899316012</v>
+        <v>1798775.8728876321</v>
       </c>
     </row>
     <row r="196" spans="1:66" ht="19.5">
       <c r="C196">
         <f>H195*D196</f>
-        <v>13015.744997728236</v>
+        <v>58452.657292663651</v>
       </c>
       <c r="D196">
         <f>D195</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E196" t="s">
         <v>17</v>
@@ -9995,17 +10144,17 @@
       </c>
       <c r="H196">
         <f>H195+C196</f>
-        <v>548802.40399088839</v>
+        <v>1857228.5301802957</v>
       </c>
     </row>
     <row r="197" spans="1:66" ht="19.5">
       <c r="C197">
         <f>H196*D197</f>
-        <v>13331.933568313849</v>
+        <v>60352.123032710864</v>
       </c>
       <c r="D197">
         <f>D196</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E197" t="s">
         <v>11</v>
@@ -10015,17 +10164,17 @@
       </c>
       <c r="H197">
         <f>H196+C197</f>
-        <v>562134.33755920222</v>
+        <v>1917580.6532130064</v>
       </c>
     </row>
     <row r="198" spans="1:66" ht="19.5">
       <c r="C198">
         <f>H197*D198</f>
-        <v>13655.803236845557</v>
+        <v>62313.313427627894</v>
       </c>
       <c r="D198">
         <f>D197</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E198" t="s">
         <v>12</v>
@@ -10035,17 +10184,17 @@
       </c>
       <c r="H198">
         <f>H197+C198</f>
-        <v>575790.14079604775</v>
+        <v>1979893.9666406342</v>
       </c>
     </row>
     <row r="199" spans="1:66" ht="19.5">
       <c r="C199">
         <f>H198*D199</f>
-        <v>13987.540598510999</v>
+        <v>64338.234269326887</v>
       </c>
       <c r="D199">
         <f>D198</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E199" t="s">
         <v>13</v>
@@ -10055,17 +10204,17 @@
       </c>
       <c r="H199">
         <f>H198+C199</f>
-        <v>589777.68139455875</v>
+        <v>2044232.200909961</v>
       </c>
     </row>
     <row r="200" spans="1:66" ht="19.5">
       <c r="C200">
         <f>H199*D200</f>
-        <v>14327.336781412811</v>
+        <v>66428.956529528674</v>
       </c>
       <c r="D200">
         <f>D199</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E200" t="s">
         <v>14</v>
@@ -10075,17 +10224,17 @@
       </c>
       <c r="H200">
         <f>H199+C200</f>
-        <v>604105.01817597158</v>
+        <v>2110661.1574394898</v>
       </c>
     </row>
     <row r="201" spans="1:66" ht="19.5">
       <c r="C201">
         <f>H200*D201</f>
-        <v>14675.387556685702</v>
+        <v>68587.618477832642</v>
       </c>
       <c r="D201">
         <f>D200</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E201" t="s">
         <v>15</v>
@@ -10095,17 +10244,17 @@
       </c>
       <c r="H201">
         <f>H200+C201</f>
-        <v>618780.40573265729</v>
+        <v>2179248.7759173224</v>
       </c>
     </row>
     <row r="202" spans="1:66" ht="19.5">
       <c r="C202">
         <f>H201*D202</f>
-        <v>15031.893451288603</v>
+        <v>70816.427868615021</v>
       </c>
       <c r="D202">
         <f>D201</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E202" t="s">
         <v>16</v>
@@ -10115,17 +10264,17 @@
       </c>
       <c r="H202">
         <f>H201+C202</f>
-        <v>633812.29918394587</v>
+        <v>2250065.2037859373</v>
       </c>
     </row>
     <row r="203" spans="1:66" ht="19.5">
       <c r="C203">
         <f>H202*D203</f>
-        <v>15397.059863536822</v>
+        <v>73117.664198992105</v>
       </c>
       <c r="D203">
         <f>D202</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E203" t="s">
         <v>17</v>
@@ -10135,17 +10284,17 @@
       </c>
       <c r="H203">
         <f>H202+C203</f>
-        <v>649209.35904748272</v>
+        <v>2323182.8679849296</v>
       </c>
     </row>
     <row r="204" spans="1:66" ht="19.5">
       <c r="C204">
         <f>H203*D204</f>
-        <v>15771.097181440833</v>
+        <v>75493.681040157928</v>
       </c>
       <c r="D204">
         <f>D203</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E204" t="s">
         <v>11</v>
@@ -10155,17 +10304,17 @@
       </c>
       <c r="H204">
         <f>H203+C204</f>
-        <v>664980.45622892352</v>
+        <v>2398676.5490250876</v>
       </c>
     </row>
     <row r="205" spans="1:66" ht="19.5">
       <c r="C205">
         <f>H204*D205</f>
-        <v>16154.220903919791</v>
+        <v>77946.908444480403</v>
       </c>
       <c r="D205">
         <f>D204</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E205" t="s">
         <v>12</v>
@@ -10175,17 +10324,17 @@
       </c>
       <c r="H205">
         <f>H204+C205</f>
-        <v>681134.6771328433</v>
+        <v>2476623.4574695681</v>
       </c>
     </row>
     <row r="206" spans="1:66" ht="19.5">
       <c r="C206">
         <f>H205*D206</f>
-        <v>16546.651764959715</v>
+        <v>80479.855430818177</v>
       </c>
       <c r="D206">
         <f>D205</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E206" t="s">
         <v>13</v>
@@ -10195,17 +10344,17 @@
       </c>
       <c r="H206">
         <f>H205+C206</f>
-        <v>697681.32889780297</v>
+        <v>2557103.3129003863</v>
       </c>
     </row>
     <row r="207" spans="1:66" ht="19.5">
       <c r="C207">
         <f>H206*D207</f>
-        <v>16948.615860787781</v>
+        <v>83095.112550599777</v>
       </c>
       <c r="D207">
         <f>D206</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E207" t="s">
         <v>14</v>
@@ -10215,17 +10364,17 @@
       </c>
       <c r="H207">
         <f>H206+C207</f>
-        <v>714629.94475859078</v>
+        <v>2640198.4254509863</v>
       </c>
     </row>
     <row r="208" spans="1:66" ht="19.5">
       <c r="C208">
         <f>H207*D208</f>
-        <v>17360.344780136038</v>
+        <v>85795.354537289444</v>
       </c>
       <c r="D208">
         <f>D207</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E208" t="s">
         <v>15</v>
@@ -10235,17 +10384,17 @@
       </c>
       <c r="H208">
         <f>H207+C208</f>
-        <v>731990.28953872679</v>
+        <v>2725993.7799882758</v>
       </c>
     </row>
     <row r="209" spans="1:66" ht="19.5">
       <c r="C209">
         <f>H208*D209</f>
-        <v>17782.075737669598</v>
+        <v>88583.3430419496</v>
       </c>
       <c r="D209">
         <f>D208</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E209" t="s">
         <v>16</v>
@@ -10255,17 +10404,17 @@
       </c>
       <c r="H209">
         <f>H208+C209</f>
-        <v>749772.36527639639</v>
+        <v>2814577.1230302253</v>
       </c>
     </row>
     <row r="210" spans="1:66" ht="19.5">
       <c r="C210">
         <f>H209*D210</f>
-        <v>18214.051710656175</v>
+        <v>91461.929457697566</v>
       </c>
       <c r="D210">
         <f>D209</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E210" t="s">
         <v>17</v>
@@ -10275,17 +10424,17 @@
       </c>
       <c r="H210">
         <f>H209+C210</f>
-        <v>767986.41698705254</v>
+        <v>2906039.0524879228</v>
       </c>
     </row>
     <row r="211" spans="1:66" ht="19.5">
       <c r="C211">
         <f>H210*D211</f>
-        <v>18656.521578955682</v>
+        <v>94434.057835945248</v>
       </c>
       <c r="D211">
         <f>D210</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E211" t="s">
         <v>11</v>
@@ -10295,17 +10444,17 @@
       </c>
       <c r="H211">
         <f>H210+C211</f>
-        <v>786642.93856600823</v>
+        <v>3000473.1103238682</v>
       </c>
     </row>
     <row r="212" spans="1:66" ht="19.5">
       <c r="C212">
         <f>H211*D212</f>
-        <v>19109.740268410584</v>
+        <v>97502.767897404323</v>
       </c>
       <c r="D212">
         <f>D211</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E212" t="s">
         <v>12</v>
@@ -10315,17 +10464,17 @@
       </c>
       <c r="H212">
         <f>H211+C212</f>
-        <v>805752.67883441877</v>
+        <v>3097975.8782212725</v>
       </c>
     </row>
     <row r="213" spans="1:66" ht="19.5">
       <c r="C213">
         <f>H212*D213</f>
-        <v>19573.968897719598</v>
+        <v>100671.19814093645</v>
       </c>
       <c r="D213">
         <f>D212</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E213" t="s">
         <v>13</v>
@@ -10335,17 +10484,17 @@
       </c>
       <c r="H213">
         <f>H212+C213</f>
-        <v>825326.6477321384</v>
+        <v>3198647.0763622089</v>
       </c>
     </row>
     <row r="214" spans="1:66" ht="19.5">
       <c r="C214">
         <f>H213*D214</f>
-        <v>20049.474928879354</v>
+        <v>103942.58905342819</v>
       </c>
       <c r="D214">
         <f>D213</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E214" t="s">
         <v>14</v>
@@ -10355,17 +10504,17 @@
       </c>
       <c r="H214">
         <f>H213+C214</f>
-        <v>845376.12266101781</v>
+        <v>3302589.6654156372</v>
       </c>
     </row>
     <row r="215" spans="1:66" ht="19.5">
       <c r="C215">
         <f>H214*D215</f>
-        <v>20536.532321280702</v>
+        <v>107320.28642397313</v>
       </c>
       <c r="D215">
         <f>D214</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E215" t="s">
         <v>15</v>
@@ -10375,17 +10524,17 @@
       </c>
       <c r="H215">
         <f>H214+C215</f>
-        <v>865912.6549822985</v>
+        <v>3409909.9518396105</v>
       </c>
     </row>
     <row r="216" spans="1:66" ht="19.5">
       <c r="C216">
         <f>H215*D216</f>
-        <v>21035.421689548468</v>
+        <v>110807.74476575115</v>
       </c>
       <c r="D216">
         <f>D215</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E216" t="s">
         <v>16</v>
@@ -10395,17 +10544,17 @@
       </c>
       <c r="H216">
         <f>H215+C216</f>
-        <v>886948.07667184691</v>
+        <v>3520717.6966053615</v>
       </c>
     </row>
     <row r="217" spans="1:66" ht="19.5">
       <c r="C217">
         <f>H216*D217</f>
-        <v>21546.430465215533</v>
+        <v>114408.5308491044</v>
       </c>
       <c r="D217">
         <f>D216</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E217" t="s">
         <v>17</v>
@@ -10415,17 +10564,17 @@
       </c>
       <c r="H217">
         <f>H216+C217</f>
-        <v>908494.50713706249</v>
+        <v>3635126.2274544658</v>
       </c>
     </row>
     <row r="218" spans="1:66" ht="19.5">
       <c r="C218">
         <f>H217*D218</f>
-        <v>22069.853062324488</v>
+        <v>118126.32734942337</v>
       </c>
       <c r="D218">
         <f>D217</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E218" t="s">
         <v>11</v>
@@ -10435,17 +10584,17 @@
       </c>
       <c r="H218">
         <f>H217+C218</f>
-        <v>930564.36019938695</v>
+        <v>3753252.5548038892</v>
       </c>
     </row>
     <row r="219" spans="1:66" ht="19.5">
       <c r="C219">
         <f>H218*D219</f>
-        <v>22605.991047052124</v>
+        <v>121964.93661357385</v>
       </c>
       <c r="D219">
         <f>D218</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E219" t="s">
         <v>12</v>
@@ -10455,17 +10604,17 @@
       </c>
       <c r="H219">
         <f>H218+C219</f>
-        <v>953170.35124643904</v>
+        <v>3875217.4914174629</v>
       </c>
     </row>
     <row r="220" spans="1:66" ht="19.5">
       <c r="C220">
         <f>H219*D220</f>
-        <v>23155.153311454669</v>
+        <v>125928.2845487171</v>
       </c>
       <c r="D220">
         <f>D219</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E220" t="s">
         <v>13</v>
@@ -10475,17 +10624,17 @@
       </c>
       <c r="H220">
         <f>H219+C220</f>
-        <v>976325.50455789373</v>
+        <v>4001145.77596618</v>
       </c>
     </row>
     <row r="221" spans="1:66" ht="19.5">
       <c r="C221">
         <f>H220*D221</f>
-        <v>23717.656251433702</v>
+        <v>130020.42463750014</v>
       </c>
       <c r="D221">
         <f>D220</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E221" t="s">
         <v>14</v>
@@ -10495,17 +10644,17 @@
       </c>
       <c r="H221">
         <f>H220+C221</f>
-        <v>1000043.1608093274</v>
+        <v>4131166.2006036802</v>
       </c>
     </row>
     <row r="222" spans="1:66" ht="19.5">
       <c r="C222">
         <f>H221*D222</f>
-        <v>24293.823949025398</v>
+        <v>134245.54208372306</v>
       </c>
       <c r="D222">
         <f>D221</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E222" t="s">
         <v>15</v>
@@ -10515,17 +10664,17 @@
       </c>
       <c r="H222">
         <f>H221+C222</f>
-        <v>1024336.9847583527</v>
+        <v>4265411.7426874032</v>
       </c>
     </row>
     <row r="223" spans="1:66" ht="19.5">
       <c r="C223">
         <f>H222*D223</f>
-        <v>24883.988359118062</v>
+        <v>138607.95809272293</v>
       </c>
       <c r="D223">
         <f>D222</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E223" t="s">
         <v>16</v>
@@ -10535,17 +10684,17 @@
       </c>
       <c r="H223">
         <f>H222+C223</f>
-        <v>1049220.9731174707</v>
+        <v>4404019.7007801263</v>
       </c>
     </row>
     <row r="224" spans="1:66" ht="19.5">
       <c r="C224">
         <f>H223*D224</f>
-        <v>25488.48950070556</v>
+        <v>143112.13429085229</v>
       </c>
       <c r="D224">
         <f>D223</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E224" t="s">
         <v>17</v>
@@ -10555,17 +10704,17 @@
       </c>
       <c r="H224">
         <f>H223+C224</f>
-        <v>1074709.4626181764</v>
+        <v>4547131.8350709789</v>
       </c>
     </row>
     <row r="225" spans="1:66" ht="19.5">
       <c r="C225">
         <f>H224*D225</f>
-        <v>26107.675652786838</v>
+        <v>147762.67728857207</v>
       </c>
       <c r="D225">
         <f>D224</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E225" t="s">
         <v>11</v>
@@ -10575,17 +10724,17 @@
       </c>
       <c r="H225">
         <f>H224+C225</f>
-        <v>1100817.1382709632</v>
+        <v>4694894.5123595512</v>
       </c>
     </row>
     <row r="226" spans="1:66" ht="19.5">
       <c r="C226">
         <f>H225*D226</f>
-        <v>26741.903555024339</v>
+        <v>152564.34339182588</v>
       </c>
       <c r="D226">
         <f>D225</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E226" t="s">
         <v>12</v>
@@ -10595,17 +10744,17 @@
       </c>
       <c r="H226">
         <f>H225+C226</f>
-        <v>1127559.0418259876</v>
+        <v>4847458.8557513766</v>
       </c>
     </row>
     <row r="227" spans="1:66" ht="19.5">
       <c r="C227">
         <f>H226*D227</f>
-        <v>27391.538613277036</v>
+        <v>157522.04346651424</v>
       </c>
       <c r="D227">
         <f>D226</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E227" t="s">
         <v>13</v>
@@ -10615,17 +10764,17 @@
       </c>
       <c r="H227">
         <f>H226+C227</f>
-        <v>1154950.5804392647</v>
+        <v>5004980.8992178906</v>
       </c>
     </row>
     <row r="228" spans="1:66" ht="19.5">
       <c r="C228">
         <f>H227*D228</f>
-        <v>28056.955110126375</v>
+        <v>162640.84796104362</v>
       </c>
       <c r="D228">
         <f>D227</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E228" t="s">
         <v>14</v>
@@ -10635,17 +10784,17 @@
       </c>
       <c r="H228">
         <f>H227+C228</f>
-        <v>1183007.5355493911</v>
+        <v>5167621.7471789345</v>
       </c>
     </row>
     <row r="229" spans="1:66" ht="19.5">
       <c r="C229">
         <f>H228*D229</f>
-        <v>28738.536420516517</v>
+        <v>167925.99209208734</v>
       </c>
       <c r="D229">
         <f>D228</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E229" t="s">
         <v>15</v>
@@ -10655,17 +10804,17 @@
       </c>
       <c r="H229">
         <f>H228+C229</f>
-        <v>1211746.0719699075</v>
+        <v>5335547.7392710214</v>
       </c>
     </row>
     <row r="230" spans="1:66" ht="19.5">
       <c r="C230">
         <f>H229*D230</f>
-        <v>29436.675232633046</v>
+        <v>173382.88119886184</v>
       </c>
       <c r="D230">
         <f>D229</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E230" t="s">
         <v>16</v>
@@ -10675,17 +10824,17 @@
       </c>
       <c r="H230">
         <f>H229+C230</f>
-        <v>1241182.7472025405</v>
+        <v>5508930.6204698831</v>
       </c>
     </row>
     <row r="231" spans="1:66" ht="19.5">
       <c r="C231">
         <f>H230*D231</f>
-        <v>30151.773774147467</v>
+        <v>179017.09627139455</v>
       </c>
       <c r="D231">
         <f>D230</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E231" t="s">
         <v>17</v>
@@ -10695,17 +10844,17 @@
       </c>
       <c r="H231">
         <f>H230+C231</f>
-        <v>1271334.520976688</v>
+        <v>5687947.7167412778</v>
       </c>
     </row>
     <row r="232" spans="1:66" ht="19.5">
       <c r="C232">
         <f>H231*D232</f>
-        <v>30884.244043957795</v>
+        <v>184834.39965843709</v>
       </c>
       <c r="D232">
         <f>D231</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E232" t="s">
         <v>11</v>
@@ -10715,17 +10864,17 @@
       </c>
       <c r="H232">
         <f>H231+C232</f>
-        <v>1302218.7650206459</v>
+        <v>5872782.1163997147</v>
       </c>
     </row>
     <row r="233" spans="1:66" ht="19.5">
       <c r="C233">
         <f>H232*D233</f>
-        <v>31634.508049558754</v>
+        <v>190840.74096086167</v>
       </c>
       <c r="D233">
         <f>D232</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E233" t="s">
         <v>12</v>
@@ -10735,17 +10884,17 @@
       </c>
       <c r="H233">
         <f>H232+C233</f>
-        <v>1333853.2730702048</v>
+        <v>6063622.8573605763</v>
       </c>
     </row>
     <row r="234" spans="1:66" ht="19.5">
       <c r="C234">
         <f>H233*D234</f>
-        <v>32402.998050178376</v>
+        <v>197042.26311656833</v>
       </c>
       <c r="D234">
         <f>D233</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E234" t="s">
         <v>13</v>
@@ -10755,17 +10904,17 @@
       </c>
       <c r="H234">
         <f>H233+C234</f>
-        <v>1366256.2711203832</v>
+        <v>6260665.1204771446</v>
       </c>
     </row>
     <row r="235" spans="1:66" ht="19.5">
       <c r="C235">
         <f>H234*D235</f>
-        <v>33190.156805821061</v>
+        <v>203445.30868312577</v>
       </c>
       <c r="D235">
         <f>D234</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E235" t="s">
         <v>14</v>
@@ -10775,17 +10924,17 @@
       </c>
       <c r="H235">
         <f>H234+C235</f>
-        <v>1399446.4279262042</v>
+        <v>6464110.4291602708</v>
       </c>
     </row>
     <row r="236" spans="1:66" ht="19.5">
       <c r="C236">
         <f>H235*D236</f>
-        <v>33996.437832360571</v>
+        <v>210056.42632457183</v>
       </c>
       <c r="D236">
         <f>D235</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E236" t="s">
         <v>15</v>
@@ -10795,17 +10944,17 @@
       </c>
       <c r="H236">
         <f>H235+C236</f>
-        <v>1433442.8657585648</v>
+        <v>6674166.8554848423</v>
       </c>
     </row>
     <row r="237" spans="1:66" ht="19.5">
       <c r="C237">
         <f>H236*D237</f>
-        <v>34822.305662829967</v>
+        <v>216882.37750900761</v>
       </c>
       <c r="D237">
         <f>D236</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E237" t="s">
         <v>16</v>
@@ -10815,17 +10964,17 @@
       </c>
       <c r="H237">
         <f>H236+C237</f>
-        <v>1468265.1714213947</v>
+        <v>6891049.2329938496</v>
       </c>
     </row>
     <row r="238" spans="1:66" ht="19.5">
       <c r="C238">
         <f>H237*D238</f>
-        <v>35668.236115058957</v>
+        <v>223930.14342383543</v>
       </c>
       <c r="D238">
         <f>D237</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E238" t="s">
         <v>17</v>
@@ -10835,17 +10984,17 @@
       </c>
       <c r="H238">
         <f>H237+C238</f>
-        <v>1503933.4075364536</v>
+        <v>7114979.3764176853</v>
       </c>
     </row>
     <row r="239" spans="1:66" ht="19.5">
       <c r="C239">
         <f>H238*D239</f>
-        <v>36534.716565812945</v>
+        <v>231206.93211571273</v>
       </c>
       <c r="D239">
         <f>D238</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E239" t="s">
         <v>11</v>
@@ -10855,17 +11004,17 @@
       </c>
       <c r="H239">
         <f>H238+C239</f>
-        <v>1540468.1241022665</v>
+        <v>7346186.3085333984</v>
       </c>
     </row>
     <row r="240" spans="1:66" ht="19.5">
       <c r="C240">
         <f>H239*D240</f>
-        <v>37422.246231591664</v>
+        <v>238720.1858625247</v>
       </c>
       <c r="D240">
         <f>D239</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E240" t="s">
         <v>12</v>
@@ -10875,17 +11024,17 @@
       </c>
       <c r="H240">
         <f>H239+C240</f>
-        <v>1577890.3703338581</v>
+        <v>7584906.4943959229</v>
       </c>
     </row>
     <row r="241" spans="1:66" ht="19.5">
       <c r="C241">
         <f>H240*D241</f>
-        <v>38331.336456249184</v>
+        <v>246477.58878491467</v>
       </c>
       <c r="D241">
         <f>D240</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E241" t="s">
         <v>13</v>
@@ -10895,17 +11044,17 @@
       </c>
       <c r="H241">
         <f>H240+C241</f>
-        <v>1616221.7067901073</v>
+        <v>7831384.0831808373</v>
       </c>
     </row>
     <row r="242" spans="1:66" ht="19.5">
       <c r="C242">
         <f>H241*D242</f>
-        <v>39262.511005600987</v>
+        <v>254487.07470515789</v>
       </c>
       <c r="D242">
         <f>D241</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E242" t="s">
         <v>14</v>
@@ -10915,17 +11064,17 @@
       </c>
       <c r="H242">
         <f>H241+C242</f>
-        <v>1655484.2177957082</v>
+        <v>8085871.1578859948</v>
       </c>
     </row>
     <row r="243" spans="1:66" ht="19.5">
       <c r="C243">
         <f>H242*D243</f>
-        <v>40216.3063691879</v>
+        <v>262756.83526141499</v>
       </c>
       <c r="D243">
         <f>D242</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E243" t="s">
         <v>15</v>
@@ -10935,17 +11084,17 @@
       </c>
       <c r="H243">
         <f>H242+C243</f>
-        <v>1695700.5241648962</v>
+        <v>8348627.9931474095</v>
       </c>
     </row>
     <row r="244" spans="1:66" ht="19.5">
       <c r="C244">
         <f>H243*D244</f>
-        <v>41193.272069370716</v>
+        <v>271295.32828566502</v>
       </c>
       <c r="D244">
         <f>D243</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E244" t="s">
         <v>16</v>
@@ -10955,17 +11104,17 @@
       </c>
       <c r="H244">
         <f>H243+C244</f>
-        <v>1736893.7962342668</v>
+        <v>8619923.3214330748</v>
       </c>
     </row>
     <row r="245" spans="1:66" ht="19.5">
       <c r="C245">
         <f>H244*D245</f>
-        <v>42193.970977933524</v>
+        <v>280111.28645388607</v>
       </c>
       <c r="D245">
         <f>D244</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E245" t="s">
         <v>17</v>
@@ -10975,17 +11124,17 @@
       </c>
       <c r="H245">
         <f>H244+C245</f>
-        <v>1779087.7672122004</v>
+        <v>8900034.6078869607</v>
       </c>
     </row>
     <row r="246" spans="1:66" ht="19.5">
       <c r="C246">
         <f>H245*D246</f>
-        <v>43218.979640378297</v>
+        <v>289213.72621733014</v>
       </c>
       <c r="D246">
         <f>D245</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E246" t="s">
         <v>11</v>
@@ -10995,17 +11144,17 @@
       </c>
       <c r="H246">
         <f>H245+C246</f>
-        <v>1822306.7468525788</v>
+        <v>9189248.3341042902</v>
       </c>
     </row>
     <row r="247" spans="1:66" ht="19.5">
       <c r="C247">
         <f>H246*D247</f>
-        <v>44268.888608097397</v>
+        <v>298611.95702402713</v>
       </c>
       <c r="D247">
         <f>D246</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E247" t="s">
         <v>12</v>
@@ -11015,17 +11164,17 @@
       </c>
       <c r="H247">
         <f>H246+C247</f>
-        <v>1866575.6354606762</v>
+        <v>9487860.2911283169</v>
       </c>
     </row>
     <row r="248" spans="1:66" ht="19.5">
       <c r="C248">
         <f>H247*D248</f>
-        <v>45344.302778615565</v>
+        <v>308315.59083994909</v>
       </c>
       <c r="D248">
         <f>D247</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E248" t="s">
         <v>13</v>
@@ -11035,17 +11184,17 @@
       </c>
       <c r="H248">
         <f>H247+C248</f>
-        <v>1911919.9382392918</v>
+        <v>9796175.8819682654</v>
       </c>
     </row>
     <row r="249" spans="1:66" ht="19.5">
       <c r="C249">
         <f>H248*D249</f>
-        <v>46445.841744097299</v>
+        <v>318334.5519795721</v>
       </c>
       <c r="D249">
         <f>D248</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E249" t="s">
         <v>14</v>
@@ -11055,17 +11204,17 @@
       </c>
       <c r="H249">
         <f>H248+C249</f>
-        <v>1958365.7799833892</v>
+        <v>10114510.433947837</v>
       </c>
     </row>
     <row r="250" spans="1:66" ht="19.5">
       <c r="C250">
         <f>H249*D250</f>
-        <v>47574.14014832041</v>
+        <v>328679.08725588996</v>
       </c>
       <c r="D250">
         <f>D249</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E250" t="s">
         <v>15</v>
@@ -11075,17 +11224,17 @@
       </c>
       <c r="H250">
         <f>H249+C250</f>
-        <v>2005939.9201317097</v>
+        <v>10443189.521203727</v>
       </c>
     </row>
     <row r="251" spans="1:66" ht="19.5">
       <c r="C251">
         <f>H250*D251</f>
-        <v>48729.848052321482</v>
+        <v>339359.77646026097</v>
       </c>
       <c r="D251">
         <f>D250</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E251" t="s">
         <v>16</v>
@@ -11095,17 +11244,17 @@
       </c>
       <c r="H251">
         <f>H250+C251</f>
-        <v>2054669.7681840311</v>
+        <v>10782549.297663987</v>
       </c>
     </row>
     <row r="252" spans="1:66" ht="19.5">
       <c r="C252">
         <f>H251*D252</f>
-        <v>49913.631308923919</v>
+        <v>350387.54318280565</v>
       </c>
       <c r="D252">
         <f>D251</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E252" t="s">
         <v>17</v>
@@ -11115,17 +11264,17 @@
       </c>
       <c r="H252">
         <f>H251+C252</f>
-        <v>2104583.3994929548</v>
+        <v>11132936.840846792</v>
       </c>
     </row>
     <row r="253" spans="1:66" ht="19.5">
       <c r="C253">
         <f>H252*D253</f>
-        <v>51126.171946364215</v>
+        <v>361773.66598442185</v>
       </c>
       <c r="D253">
         <f>D252</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E253" t="s">
         <v>11</v>
@@ -11135,17 +11284,17 @@
       </c>
       <c r="H253">
         <f>H252+C253</f>
-        <v>2155709.5714393188</v>
+        <v>11494710.506831214</v>
       </c>
     </row>
     <row r="254" spans="1:66" ht="19.5">
       <c r="C254">
         <f>H253*D254</f>
-        <v>52368.168561237704</v>
+        <v>373529.78993184317</v>
       </c>
       <c r="D254">
         <f>D253</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E254" t="s">
         <v>12</v>
@@ -11155,17 +11304,17 @@
       </c>
       <c r="H254">
         <f>H253+C254</f>
-        <v>2208077.7400005567</v>
+        <v>11868240.296763057</v>
       </c>
     </row>
     <row r="255" spans="1:66" ht="19.5">
       <c r="C255">
         <f>H254*D255</f>
-        <v>53640.33672098993</v>
+        <v>385667.93850753881</v>
       </c>
       <c r="D255">
         <f>D254</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E255" t="s">
         <v>13</v>
@@ -11175,17 +11324,17 @@
       </c>
       <c r="H255">
         <f>H254+C255</f>
-        <v>2261718.0767215467</v>
+        <v>12253908.235270595</v>
       </c>
     </row>
     <row r="256" spans="1:66" ht="19.5">
       <c r="C256">
         <f>H255*D256</f>
-        <v>54943.409376185693</v>
+        <v>398200.52590663463</v>
       </c>
       <c r="D256">
         <f>D255</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E256" t="s">
         <v>14</v>
@@ -11195,17 +11344,17 @@
       </c>
       <c r="H256">
         <f>H255+C256</f>
-        <v>2316661.4860977326</v>
+        <v>12652108.761177231</v>
       </c>
     </row>
     <row r="257" spans="1:66" ht="19.5">
       <c r="C257">
         <f>H256*D257</f>
-        <v>56278.137282793301</v>
+        <v>411140.36973343312</v>
       </c>
       <c r="D257">
         <f>D256</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E257" t="s">
         <v>15</v>
@@ -11215,17 +11364,17 @@
       </c>
       <c r="H257">
         <f>H256+C257</f>
-        <v>2372939.623380526</v>
+        <v>13063249.130910663</v>
       </c>
     </row>
     <row r="258" spans="1:66" ht="19.5">
       <c r="C258">
         <f>H257*D258</f>
-        <v>57645.289434727216</v>
+        <v>424500.70411051565</v>
       </c>
       <c r="D258">
         <f>D257</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E258" t="s">
         <v>16</v>
@@ -11235,17 +11384,17 @@
       </c>
       <c r="H258">
         <f>H257+C258</f>
-        <v>2430584.9128152533</v>
+        <v>13487749.835021179</v>
       </c>
     </row>
     <row r="259" spans="1:66" ht="19.5">
       <c r="C259">
         <f>H258*D259</f>
-        <v>59045.653506898387</v>
+        <v>438295.1932138374</v>
       </c>
       <c r="D259">
         <f>D258</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E259" t="s">
         <v>17</v>
@@ -11255,17 +11404,17 @@
       </c>
       <c r="H259">
         <f>H258+C259</f>
-        <v>2489630.5663221516</v>
+        <v>13926045.028235016</v>
       </c>
     </row>
     <row r="260" spans="1:66" ht="19.5">
       <c r="C260">
         <f>H259*D260</f>
-        <v>60480.036309027506</v>
+        <v>452537.94524765381</v>
       </c>
       <c r="D260">
         <f>D259</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E260" t="s">
         <v>11</v>
@@ -11275,17 +11424,17 @@
       </c>
       <c r="H260">
         <f>H259+C260</f>
-        <v>2550110.6026311792</v>
+        <v>14378582.97348267</v>
       </c>
     </row>
     <row r="261" spans="1:66" ht="19.5">
       <c r="C261">
         <f>H260*D261</f>
-        <v>61949.264250482644</v>
+        <v>467243.52687357529</v>
       </c>
       <c r="D261">
         <f>D260</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E261" t="s">
         <v>12</v>
@@ -11295,17 +11444,17 @@
       </c>
       <c r="H261">
         <f>H260+C261</f>
-        <v>2612059.8668816616</v>
+        <v>14845826.500356246</v>
       </c>
     </row>
     <row r="262" spans="1:66" ht="19.5">
       <c r="C262">
         <f>H261*D262</f>
-        <v>63454.18381640908</v>
+        <v>482426.9781085045</v>
       </c>
       <c r="D262">
         <f>D261</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E262" t="s">
         <v>13</v>
@@ -11315,17 +11464,17 @@
       </c>
       <c r="H262">
         <f>H261+C262</f>
-        <v>2675514.0506980708</v>
+        <v>15328253.478464751</v>
       </c>
     </row>
     <row r="263" spans="1:66" ht="19.5">
       <c r="C263">
         <f>H262*D263</f>
-        <v>64995.662055425666</v>
+        <v>498103.8277066942</v>
       </c>
       <c r="D263">
         <f>D262</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E263" t="s">
         <v>14</v>
@@ -11335,17 +11484,17 @@
       </c>
       <c r="H263">
         <f>H262+C263</f>
-        <v>2740509.7127534966</v>
+        <v>15826357.306171445</v>
       </c>
     </row>
     <row r="264" spans="1:66" ht="19.5">
       <c r="C264">
         <f>H263*D264</f>
-        <v>66574.587079168632</v>
+        <v>514290.10904165753</v>
       </c>
       <c r="D264">
         <f>D263</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E264" t="s">
         <v>15</v>
@@ -11355,17 +11504,17 @@
       </c>
       <c r="H264">
         <f>H263+C264</f>
-        <v>2807084.2998326654</v>
+        <v>16340647.415213102</v>
       </c>
     </row>
     <row r="265" spans="1:66" ht="19.5">
       <c r="C265">
         <f>H264*D265</f>
-        <v>68191.868573970802</v>
+        <v>531002.37650417339</v>
       </c>
       <c r="D265">
         <f>D264</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E265" t="s">
         <v>16</v>
@@ -11375,17 +11524,17 @@
       </c>
       <c r="H265">
         <f>H264+C265</f>
-        <v>2875276.168406636</v>
+        <v>16871649.791717276</v>
       </c>
     </row>
     <row r="266" spans="1:66" ht="19.5">
       <c r="C266">
         <f>H265*D266</f>
-        <v>69848.438324970761</v>
+        <v>548257.72243315866</v>
       </c>
       <c r="D266">
         <f>D265</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E266" t="s">
         <v>17</v>
@@ -11395,17 +11544,17 @@
       </c>
       <c r="H266">
         <f>H265+C266</f>
-        <v>2945124.6067316066</v>
+        <v>17419907.514150433</v>
       </c>
     </row>
     <row r="267" spans="1:66" ht="19.5">
       <c r="C267">
         <f>H266*D267</f>
-        <v>71545.250752954278</v>
+        <v>566073.79459672142</v>
       </c>
       <c r="D267">
         <f>D266</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E267" t="s">
         <v>11</v>
@@ -11415,17 +11564,17 @@
       </c>
       <c r="H267">
         <f>H266+C267</f>
-        <v>3016669.8574845609</v>
+        <v>17985981.308747154</v>
       </c>
     </row>
     <row r="268" spans="1:66" ht="19.5">
       <c r="C268">
         <f>H267*D268</f>
-        <v>73283.283464236971</v>
+        <v>584468.81424127647</v>
       </c>
       <c r="D268">
         <f>D267</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E268" t="s">
         <v>12</v>
@@ -11435,17 +11584,17 @@
       </c>
       <c r="H268">
         <f>H267+C268</f>
-        <v>3089953.140948798</v>
+        <v>18570450.122988429</v>
       </c>
     </row>
     <row r="269" spans="1:66" ht="19.5">
       <c r="C269">
         <f>H268*D269</f>
-        <v>75063.537813905132</v>
+        <v>603461.59472718032</v>
       </c>
       <c r="D269">
         <f>D268</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E269" t="s">
         <v>13</v>
@@ -11455,17 +11604,17 @@
       </c>
       <c r="H269">
         <f>H268+C269</f>
-        <v>3165016.6787627032</v>
+        <v>19173911.71771561</v>
       </c>
     </row>
     <row r="270" spans="1:66" ht="19.5">
       <c r="C270">
         <f>H269*D270</f>
-        <v>76887.039482739317</v>
+        <v>623071.56076994573</v>
       </c>
       <c r="D270">
         <f>D269</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E270" t="s">
         <v>14</v>
@@ -11475,17 +11624,17 @@
       </c>
       <c r="H270">
         <f>H269+C270</f>
-        <v>3241903.7182454425</v>
+        <v>19796983.278485555</v>
       </c>
     </row>
     <row r="271" spans="1:66" ht="19.5">
       <c r="C271">
         <f>H270*D271</f>
-        <v>78754.839068152985</v>
+        <v>643318.76830671576</v>
       </c>
       <c r="D271">
         <f>D270</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E271" t="s">
         <v>15</v>
@@ -11495,17 +11644,17 @@
       </c>
       <c r="H271">
         <f>H270+C271</f>
-        <v>3320658.5573135954</v>
+        <v>20440302.046792272</v>
       </c>
     </row>
     <row r="272" spans="1:66" ht="19.5">
       <c r="C272">
         <f>H271*D272</f>
-        <v>80668.012689486641</v>
+        <v>664223.92500831455</v>
       </c>
       <c r="D272">
         <f>D271</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E272" t="s">
         <v>16</v>
@@ -11515,17 +11664,17 @@
       </c>
       <c r="H272">
         <f>H271+C272</f>
-        <v>3401326.570003082</v>
+        <v>21104525.971800588</v>
       </c>
     </row>
     <row r="273" spans="1:66" ht="19.5">
       <c r="C273">
         <f>H272*D273</f>
-        <v>82627.6626080063</v>
+        <v>685808.41145785258</v>
       </c>
       <c r="D273">
         <f>D272</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E273" t="s">
         <v>17</v>
@@ -11535,17 +11684,17 @@
       </c>
       <c r="H273">
         <f>H272+C273</f>
-        <v>3483954.2326110885</v>
+        <v>21790334.38325844</v>
       </c>
     </row>
     <row r="274" spans="1:66" ht="19.5">
       <c r="C274">
         <f>H273*D274</f>
-        <v>84634.917861963389</v>
+        <v>708094.30301754887</v>
       </c>
       <c r="D274">
         <f>D273</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E274" t="s">
         <v>11</v>
@@ -11555,17 +11704,17 @@
       </c>
       <c r="H274">
         <f>H273+C274</f>
-        <v>3568589.1504730517</v>
+        <v>22498428.686275989</v>
       </c>
     </row>
     <row r="275" spans="1:66" ht="19.5">
       <c r="C275">
         <f>H274*D275</f>
-        <v>86690.93491708205</v>
+        <v>731104.39240613265</v>
       </c>
       <c r="D275">
         <f>D274</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E275" t="s">
         <v>12</v>
@@ -11575,17 +11724,17 @@
       </c>
       <c r="H275">
         <f>H274+C275</f>
-        <v>3655280.0853901338</v>
+        <v>23229533.078682121</v>
       </c>
     </row>
     <row r="276" spans="1:66" ht="19.5">
       <c r="C276">
         <f>H275*D276</f>
-        <v>88796.898332848621</v>
+        <v>754862.2130099152</v>
       </c>
       <c r="D276">
         <f>D275</f>
-        <v>0.024292775453176031</v>
+        <v>0.032495797933306578</v>
       </c>
       <c r="E276" t="s">
         <v>13</v>
@@ -11595,7 +11744,7 @@
       </c>
       <c r="H276">
         <f>H275+C276</f>
-        <v>3744076.9837229825</v>
+        <v>23984395.291692037</v>
       </c>
     </row>
     <row r="277" spans="1:66" ht="19.5">

--- a/converted.d/covid-19_progression_math.xlsx
+++ b/converted.d/covid-19_progression_math.xlsx
@@ -4,7 +4,7 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="18870" windowHeight="7330"/>
+    <workbookView activeTab="0" windowWidth="18960" windowHeight="8290"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19" count="19">
   <si>
     <t>Non-</t>
   </si>
@@ -80,17 +80,19 @@
   <si>
     <t>Sat</t>
   </si>
+  <si>
+    <t>_</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt formatCode="0.0%_);(0.0%)" numFmtId="100"/>
     <numFmt formatCode="#,##0_);(#,##0)" numFmtId="101"/>
     <numFmt formatCode="d-mmm-yyyy" numFmtId="102"/>
-    <numFmt formatCode="0%_);(0%)" numFmtId="103"/>
-    <numFmt formatCode="0.000_);(0.000)" numFmtId="104"/>
+    <numFmt formatCode="0.000_);(0.000)" numFmtId="103"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -133,7 +135,7 @@
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
@@ -156,9 +158,6 @@
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="103" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="104" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
   </cellXfs>
@@ -191,40 +190,41 @@
     <col min="10" max="10" style="2" width="22.855769230769234" customWidth="1"/>
     <col min="11" max="11" style="2" width="24.569951923076925" customWidth="1"/>
     <col min="12" max="12" style="1" width="25.712740384615387" customWidth="1"/>
-    <col min="13" max="13" style="1" width="21.141586538461542" customWidth="1"/>
-    <col min="14" max="14" style="1" width="10.570793269230771" customWidth="1"/>
-    <col min="15" max="15" style="1" width="10.856490384615386" customWidth="1"/>
+    <col min="13" max="13" style="4" width="21.141586538461542" customWidth="1"/>
+    <col min="14" max="14" style="4" width="12.570673076923079" customWidth="1"/>
+    <col min="15" max="15" style="4" width="11.427884615384617" customWidth="1"/>
     <col min="16" max="16" style="1" width="16.85612980769231" customWidth="1"/>
-    <col min="17" max="17" style="1" width="21.141586538461542" customWidth="1"/>
-    <col min="18" max="18" style="1" width="13.570612980769232" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" style="1" width="11.427884615384617" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" style="4" width="21.141586538461542" customWidth="1"/>
+    <col min="18" max="18" style="4" width="13.570612980769232" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" style="4" width="11.427884615384617" bestFit="1" customWidth="1"/>
     <col min="20" max="20" style="1" width="17.99891826923077" customWidth="1"/>
-    <col min="21" max="21" style="1" width="21.141586538461542" customWidth="1"/>
-    <col min="22" max="23" style="1" width="11.427884615384617" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" style="4" width="21.141586538461542" customWidth="1"/>
+    <col min="22" max="23" style="4" width="11.427884615384617" bestFit="1" customWidth="1"/>
     <col min="24" max="24" style="1" width="9.142307692307693"/>
-    <col min="25" max="25" style="1" width="21.141586538461542" customWidth="1"/>
-    <col min="26" max="26" style="1" width="13.570612980769232" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" style="1" width="11.427884615384617" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" style="4" width="21.141586538461542" customWidth="1"/>
+    <col min="26" max="26" style="4" width="13.570612980769232" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" style="4" width="11.427884615384617" bestFit="1" customWidth="1"/>
     <col min="28" max="28" style="1" width="9.142307692307693"/>
-    <col min="29" max="29" style="1" width="21.141586538461542" customWidth="1"/>
-    <col min="30" max="30" style="1" width="11.427884615384617" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" style="1" width="12.42782451923077" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" style="4" width="21.141586538461542" customWidth="1"/>
+    <col min="30" max="30" style="4" width="11.427884615384617" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" style="4" width="12.42782451923077" bestFit="1" customWidth="1"/>
     <col min="32" max="32" style="1" width="9.142307692307693"/>
-    <col min="33" max="33" style="1" width="21.141586538461542" customWidth="1"/>
-    <col min="34" max="34" style="1" width="12.42782451923077" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" style="1" width="11.427884615384617" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" style="4" width="21.141586538461542" customWidth="1"/>
+    <col min="34" max="34" style="4" width="12.42782451923077" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" style="4" width="11.427884615384617" bestFit="1" customWidth="1"/>
     <col min="36" max="36" style="1" width="9.142307692307693"/>
-    <col min="37" max="37" style="1" width="21.141586538461542" customWidth="1"/>
-    <col min="38" max="39" style="1" width="12.42782451923077" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" style="4" width="21.141586538461542" customWidth="1"/>
+    <col min="38" max="39" style="4" width="12.42782451923077" bestFit="1" customWidth="1"/>
     <col min="40" max="40" style="1" width="9.142307692307693"/>
-    <col min="41" max="41" style="1" width="21.141586538461542" customWidth="1"/>
-    <col min="42" max="42" style="1" width="11.427884615384617" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" style="1" width="12.42782451923077" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" style="1" width="21.141586538461542" customWidth="1"/>
-    <col min="46" max="47" style="1" width="12.42782451923077" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" style="4" width="21.141586538461542" customWidth="1"/>
+    <col min="42" max="42" style="4" width="11.427884615384617" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" style="4" width="12.42782451923077" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" style="1" width="12.42782451923077" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" style="4" width="21.141586538461542" customWidth="1"/>
+    <col min="46" max="47" style="4" width="12.42782451923077" bestFit="1" customWidth="1"/>
     <col min="48" max="48" style="1" width="9.142307692307693"/>
     <col min="49" max="49" style="4" width="21.141586538461542" customWidth="1"/>
-    <col min="50" max="51" style="1" width="11.427884615384617" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" style="4" width="11.427884615384617" bestFit="1" customWidth="1"/>
     <col min="52" max="52" style="1" width="17.284675480769234" customWidth="1"/>
     <col min="53" max="53" style="1" width="19.713100961538462" bestFit="1" customWidth="1"/>
     <col min="54" max="54" style="2" width="14.856250000000001" customWidth="1"/>
@@ -256,7 +256,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Last revision:  Thursday, 16 Apr 2020 07:23 UTC</t>
+          <t>Last revision:  Friday, 17 Apr 2020 03:04 UTC</t>
         </is>
       </c>
     </row>
@@ -596,15 +596,12 @@
         <v>0</v>
       </c>
       <c r="BF9">
-        <v>555313</v>
+        <v>580619</v>
       </c>
       <c r="BG9">
-        <v>580619</v>
+        <v>607670</v>
       </c>
       <c r="BH9">
-        <v>607670</v>
-      </c>
-      <c r="BI9">
         <v>636350</v>
       </c>
     </row>
@@ -729,6 +726,18 @@
         <f>(BB11/BB10)-1</f>
         <v>0</v>
       </c>
+      <c r="BF11">
+        <v>580619</v>
+      </c>
+      <c r="BG11">
+        <v>607670</v>
+      </c>
+      <c r="BH11">
+        <v>636350</v>
+      </c>
+      <c r="BI11">
+        <v>667801</v>
+      </c>
     </row>
     <row r="12" spans="1:66" ht="19.5">
       <c r="C12">
@@ -5234,11 +5243,6 @@
         <f>S44+20</f>
         <v>153</v>
       </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>UPDATED - finished this line's entry and won't require further update.</t>
-        </is>
-      </c>
       <c r="U45">
         <f>U44+185</f>
         <v>3543</v>
@@ -5330,11 +5334,6 @@
       <c r="AY45">
         <f>O45+S45+W45+AA45+AE45+AI45+AM45+AQ45+AU45</f>
         <v>671</v>
-      </c>
-      <c r="AZ45" t="inlineStr">
-        <is>
-          <t>CORRECT - no errors seen.  Ready for permanent record.</t>
-        </is>
       </c>
       <c r="BA45" s="6">
         <v>43887</v>
@@ -5380,623 +5379,634 @@
         <f>M46+Q46+U46+Y46+AC46+AG46+AK46+AO46+AS46</f>
         <v>14755</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="M46">
+        <f>M45+30</f>
+        <v>490</v>
+      </c>
+      <c r="N46">
+        <f>N45+-3</f>
+        <v>32</v>
+      </c>
+      <c r="O46">
+        <f>O45+6</f>
+        <v>35</v>
+      </c>
+      <c r="Q46">
+        <f>Q45+200</f>
+        <v>2570</v>
+      </c>
+      <c r="R46">
+        <f>R45+33</f>
+        <v>402</v>
+      </c>
+      <c r="S46">
+        <f>S45+60</f>
+        <v>213</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>UPDATED - finished this line's entry and won't require further update.</t>
+        </is>
+      </c>
+      <c r="U46">
+        <f>U45+215</f>
+        <v>3758</v>
+      </c>
+      <c r="V46">
+        <f>V45+40</f>
+        <v>612</v>
+      </c>
+      <c r="W46">
+        <f>W45+44</f>
+        <v>195</v>
+      </c>
+      <c r="Y46">
+        <f>Y45+267</f>
+        <v>6480</v>
+      </c>
+      <c r="Z46">
+        <f>Z45+53</f>
+        <v>784</v>
+      </c>
+      <c r="AA46">
+        <f>AA45+78</f>
+        <v>365</v>
+      </c>
+      <c r="AC46">
+        <f>AC45+24</f>
+        <v>379</v>
+      </c>
+      <c r="AD46">
+        <f>AD45+2</f>
+        <v>40</v>
+      </c>
+      <c r="AE46">
+        <f>AE45+7</f>
+        <v>28</v>
+      </c>
+      <c r="AG46">
+        <f>AG45+15</f>
+        <v>216</v>
+      </c>
+      <c r="AH46">
+        <f>AH45+-1</f>
+        <v>11</v>
+      </c>
+      <c r="AI46">
+        <f>AI45+4</f>
+        <v>22</v>
+      </c>
+      <c r="AK46">
+        <f>AK45+2</f>
+        <v>89</v>
+      </c>
+      <c r="AL46">
+        <f>AL45+1</f>
+        <v>6</v>
+      </c>
+      <c r="AM46">
+        <f>AM45+0</f>
+        <v>1</v>
+      </c>
+      <c r="AO46">
+        <f>AO45+9</f>
+        <v>236</v>
+      </c>
+      <c r="AP46">
+        <f>AP45+4</f>
+        <v>21</v>
+      </c>
+      <c r="AQ46">
+        <f>AQ45+0</f>
+        <v>7</v>
+      </c>
+      <c r="AS46">
+        <f>AS45+4</f>
+        <v>537</v>
+      </c>
+      <c r="AU46">
+        <f>AU45+-2</f>
+        <v>2</v>
+      </c>
+      <c r="AW46">
+        <f>M46+Q46+U46+Y46+AC46+AG46+AK46+AO46+AS46</f>
+        <v>14755</v>
+      </c>
+      <c r="AX46">
+        <f>N46+R46+V46+Z46+AD46+AH46+AL46+AP46+AT46</f>
+        <v>1908</v>
+      </c>
+      <c r="AY46">
+        <f>O46+S46+W46+AA46+AE46+AI46+AM46+AQ46+AU46</f>
+        <v>868</v>
+      </c>
+      <c r="AZ46" t="inlineStr">
+        <is>
+          <t>CORRECT - no errors seen.  Ready for permanent record.</t>
+        </is>
+      </c>
+      <c r="BA46" s="6">
+        <v>43888</v>
+      </c>
+      <c r="BB46">
+        <v>58</v>
+      </c>
+      <c r="BC46">
+        <f>(BB46/BB45)-1</f>
+        <v>0.017543859649122862</v>
+      </c>
+    </row>
+    <row r="47" spans="1:66" ht="19.5">
+      <c r="C47">
+        <f>H46*D47</f>
+        <v>1128.9999999990926</v>
+      </c>
+      <c r="D47">
+        <f>0.076516435107</f>
+        <v>0.076516435107</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="6">
+        <v>43937</v>
+      </c>
+      <c r="G47" s="2">
+        <f>H47*35</f>
+        <v>555939.99999782175</v>
+      </c>
+      <c r="H47">
+        <f>H46+C47</f>
+        <v>15883.999999937765</v>
+      </c>
+      <c r="I47">
+        <v>15884</v>
+      </c>
+      <c r="J47">
+        <v>667801</v>
+      </c>
+      <c r="K47">
+        <f>M47+Q47+U47+Y47+AC47+AG47+AK47+AO47+AS47</f>
+        <v>15884</v>
+      </c>
+      <c r="L47" t="inlineStr">
         <is>
           <t>NEW:</t>
         </is>
       </c>
-      <c r="M46">
-        <f>M45+30</f>
-        <v>490</v>
-      </c>
-      <c r="N46">
-        <f>N45+-3</f>
-        <v>32</v>
-      </c>
-      <c r="O46">
-        <f>O45+6</f>
-        <v>35</v>
-      </c>
-      <c r="Q46">
-        <f>Q45+200</f>
-        <v>2570</v>
-      </c>
-      <c r="R46">
-        <f>R45+33</f>
-        <v>402</v>
-      </c>
-      <c r="S46">
-        <f>S45+60</f>
-        <v>213</v>
-      </c>
-      <c r="T46" t="inlineStr">
+      <c r="M47">
+        <f>M46+45</f>
+        <v>535</v>
+      </c>
+      <c r="N47">
+        <f>N46+-5</f>
+        <v>27</v>
+      </c>
+      <c r="O47">
+        <f>O46+9</f>
+        <v>44</v>
+      </c>
+      <c r="Q47">
+        <f>Q46+289</f>
+        <v>2859</v>
+      </c>
+      <c r="R47">
+        <f>R46+18</f>
+        <v>420</v>
+      </c>
+      <c r="S47">
+        <f>S46+30</f>
+        <v>243</v>
+      </c>
+      <c r="T47" t="inlineStr">
         <is>
           <t>PROPOSED - open to proposal now - subject to revision.</t>
         </is>
       </c>
-      <c r="U46">
-        <f>U45+215</f>
-        <v>3758</v>
-      </c>
-      <c r="V46">
-        <f>V45+40</f>
-        <v>612</v>
-      </c>
-      <c r="W46">
-        <f>W45+44</f>
-        <v>195</v>
-      </c>
-      <c r="Y46">
-        <f>Y45+267</f>
-        <v>6480</v>
-      </c>
-      <c r="Z46">
-        <f>Z45+53</f>
-        <v>784</v>
-      </c>
-      <c r="AA46">
-        <f>AA45+78</f>
-        <v>365</v>
-      </c>
-      <c r="AC46">
-        <f>AC45+24</f>
-        <v>379</v>
-      </c>
-      <c r="AD46">
-        <f>AD45+2</f>
-        <v>40</v>
-      </c>
-      <c r="AE46">
-        <f>AE45+7</f>
-        <v>28</v>
-      </c>
-      <c r="AG46">
-        <f>AG45+15</f>
-        <v>216</v>
-      </c>
-      <c r="AH46">
-        <f>AH45+-1</f>
+      <c r="U47">
+        <f>U46+405</f>
+        <v>4163</v>
+      </c>
+      <c r="V47">
+        <f>V46+1</f>
+        <v>613</v>
+      </c>
+      <c r="W47">
+        <f>W46+19</f>
+        <v>214</v>
+      </c>
+      <c r="Y47">
+        <f>Y46+336</f>
+        <v>6816</v>
+      </c>
+      <c r="Z47">
+        <f>Z46+3</f>
+        <v>787</v>
+      </c>
+      <c r="AA47">
+        <f>AA46+41</f>
+        <v>406</v>
+      </c>
+      <c r="AC47">
+        <f>AC46+15</f>
+        <v>394</v>
+      </c>
+      <c r="AD47">
+        <f>AD46+-1</f>
+        <v>39</v>
+      </c>
+      <c r="AE47">
+        <f>AE46+2</f>
+        <v>30</v>
+      </c>
+      <c r="AG47">
+        <f>AG46+25</f>
+        <v>241</v>
+      </c>
+      <c r="AH47">
+        <f>AH46+0</f>
         <v>11</v>
       </c>
-      <c r="AI46">
-        <f>AI45+4</f>
+      <c r="AI47">
+        <f>AI46+0</f>
         <v>22</v>
       </c>
-      <c r="AK46">
-        <f>AK45+2</f>
-        <v>89</v>
-      </c>
-      <c r="AL46">
-        <f>AL45+1</f>
+      <c r="AK47">
+        <f>AK46+-2</f>
+        <v>87</v>
+      </c>
+      <c r="AL47">
+        <f>AL46+0</f>
         <v>6</v>
       </c>
-      <c r="AM46">
-        <f>AM45+0</f>
+      <c r="AM47">
+        <f>AM46+0</f>
         <v>1</v>
       </c>
-      <c r="AO46">
-        <f>AO45+9</f>
-        <v>236</v>
-      </c>
-      <c r="AP46">
-        <f>AP45+4</f>
-        <v>21</v>
-      </c>
-      <c r="AQ46">
-        <f>AQ45+0</f>
-        <v>7</v>
-      </c>
-      <c r="AS46">
-        <f>AS45+4</f>
-        <v>537</v>
-      </c>
-      <c r="AU46">
-        <f>AU45+-2</f>
+      <c r="AO47">
+        <f>AO46+19</f>
+        <v>255</v>
+      </c>
+      <c r="AP47">
+        <f>AP46+2</f>
+        <v>23</v>
+      </c>
+      <c r="AQ47">
+        <f>AQ46+2</f>
+        <v>9</v>
+      </c>
+      <c r="AS47">
+        <f>AS46+-3</f>
+        <v>534</v>
+      </c>
+      <c r="AU47">
+        <f>AU46+0</f>
         <v>2</v>
       </c>
-      <c r="AW46">
-        <f>AW45+766</f>
-        <v>14755</v>
-      </c>
-      <c r="AX46">
-        <f>AX45+129</f>
-        <v>1908</v>
-      </c>
-      <c r="AY46">
-        <f>AY45+197</f>
-        <v>868</v>
-      </c>
-      <c r="BA46" s="6">
-        <v>43888</v>
-      </c>
-      <c r="BB46">
-        <v>58</v>
-      </c>
-      <c r="BC46">
-        <f>(BB46/BB45)-1</f>
-        <v>0.017543859649122862</v>
-      </c>
-    </row>
-    <row r="47" spans="1:66" ht="19.5">
-      <c r="C47">
-        <f>H46*D47</f>
-        <v>727.87756659883939</v>
-      </c>
-      <c r="D47">
-        <f>D46/1.1100000000000001</f>
-        <v>0.049330909291891885</v>
-      </c>
-      <c r="E47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" t="inlineStr">
+      <c r="AW47">
+        <f>M47+Q47+U47+Y47+AC47+AG47+AK47+AO47+AS47</f>
+        <v>15884</v>
+      </c>
+      <c r="AX47">
+        <f>N47+R47+V47+Z47+AD47+AH47+AL47+AP47+AT47</f>
+        <v>1926</v>
+      </c>
+      <c r="AY47">
+        <f>O47+S47+W47+AA47+AE47+AI47+AM47+AQ47+AU47</f>
+        <v>971</v>
+      </c>
+      <c r="BA47" s="6">
+        <v>43889</v>
+      </c>
+      <c r="BB47">
+        <v>60</v>
+      </c>
+      <c r="BC47">
+        <f>(BB47/BB46)-1</f>
+        <v>0.034482758620689724</v>
+      </c>
+    </row>
+    <row r="48" spans="1:66" ht="19.5">
+      <c r="C48">
+        <f>H47*D48</f>
+        <v>1094.9432930043477</v>
+      </c>
+      <c r="D48">
+        <f>D47/1.1100000000000001</f>
+        <v>0.068933725321621619</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" t="inlineStr">
         <is>
           <t>day two</t>
         </is>
       </c>
-      <c r="G47" s="2">
-        <f>H47*35</f>
-        <v>541900.71482881298</v>
-      </c>
-      <c r="H47">
-        <f>H46+C47</f>
-        <v>15482.877566537512</v>
-      </c>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="AW47" s="1"/>
-      <c r="BA47" s="6">
-        <v>43889</v>
-      </c>
-      <c r="BB47">
-        <v>60</v>
-      </c>
-      <c r="BC47">
-        <f>(BB47/BB46)-1</f>
-        <v>0.034482758620689724</v>
-      </c>
-    </row>
-    <row r="48" spans="1:66" ht="19.5">
-      <c r="C48">
-        <f>H47*D48</f>
-        <v>688.09408001110785</v>
-      </c>
-      <c r="D48">
-        <f>D47/1.1100000000000001</f>
-        <v>0.04444226062332602</v>
-      </c>
-      <c r="E48" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" s="2">
+        <f>H48*35</f>
+        <v>594263.015252974</v>
+      </c>
+      <c r="H48">
+        <f>H47+C48</f>
+        <v>16978.943292942113</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="BA48" s="6">
+        <v>43890</v>
+      </c>
+      <c r="BB48">
+        <v>68</v>
+      </c>
+      <c r="BC48">
+        <f>(BB48/BB47)-1</f>
+        <v>0.1333333333333333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:66" ht="19.5">
+      <c r="C49">
+        <f>H48*D49</f>
+        <v>1054.4340659523073</v>
+      </c>
+      <c r="D49">
+        <f>D48/1.1100000000000001</f>
+        <v>0.062102455244704154</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" t="inlineStr">
         <is>
           <t>day three</t>
         </is>
       </c>
-      <c r="G48" s="2">
-        <f>H48*35</f>
-        <v>565984.00762920175</v>
-      </c>
-      <c r="H48">
-        <f>H47+C48</f>
-        <v>16170.97164654862</v>
-      </c>
-      <c r="I48" s="1"/>
-      <c r="J48" t="inlineStr">
+      <c r="G49" s="2">
+        <f>H49*35</f>
+        <v>631168.20756130468</v>
+      </c>
+      <c r="H49">
+        <f>H48+C49</f>
+        <v>18033.37735889442</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" t="inlineStr">
         <is>
           <t>*preliminary*</t>
         </is>
       </c>
-      <c r="K48" s="1"/>
-      <c r="L48" t="inlineStr">
+      <c r="K49" s="1"/>
+      <c r="L49" t="inlineStr">
         <is>
           <t>total (entry):</t>
         </is>
       </c>
-      <c r="M48">
-        <v>490</v>
-      </c>
-      <c r="N48">
-        <v>32</v>
-      </c>
-      <c r="O48">
-        <v>35</v>
-      </c>
-      <c r="Q48">
-        <v>2570</v>
-      </c>
-      <c r="R48">
-        <v>402</v>
-      </c>
-      <c r="S48">
-        <v>213</v>
-      </c>
-      <c r="U48">
-        <v>3758</v>
-      </c>
-      <c r="V48">
-        <v>612</v>
-      </c>
-      <c r="W48">
-        <v>195</v>
-      </c>
-      <c r="Y48">
-        <v>6480</v>
-      </c>
-      <c r="Z48">
-        <v>784</v>
-      </c>
-      <c r="AA48">
-        <v>365</v>
-      </c>
-      <c r="AC48">
-        <v>379</v>
-      </c>
-      <c r="AD48">
-        <v>40</v>
-      </c>
-      <c r="AE48">
-        <v>28</v>
-      </c>
-      <c r="AG48">
-        <v>216</v>
-      </c>
-      <c r="AH48">
+      <c r="M49">
+        <v>535</v>
+      </c>
+      <c r="N49">
+        <v>27</v>
+      </c>
+      <c r="O49">
+        <v>44</v>
+      </c>
+      <c r="Q49">
+        <v>2859</v>
+      </c>
+      <c r="R49">
+        <v>420</v>
+      </c>
+      <c r="S49">
+        <v>243</v>
+      </c>
+      <c r="U49">
+        <v>4163</v>
+      </c>
+      <c r="V49">
+        <v>613</v>
+      </c>
+      <c r="W49">
+        <v>214</v>
+      </c>
+      <c r="Y49">
+        <v>6816</v>
+      </c>
+      <c r="Z49">
+        <v>787</v>
+      </c>
+      <c r="AA49">
+        <v>406</v>
+      </c>
+      <c r="AC49">
+        <v>394</v>
+      </c>
+      <c r="AD49">
+        <v>39</v>
+      </c>
+      <c r="AE49">
+        <v>30</v>
+      </c>
+      <c r="AG49">
+        <v>241</v>
+      </c>
+      <c r="AH49">
         <v>11</v>
       </c>
-      <c r="AI48">
+      <c r="AI49">
         <v>22</v>
       </c>
-      <c r="AK48">
-        <v>89</v>
-      </c>
-      <c r="AL48">
+      <c r="AK49">
+        <v>87</v>
+      </c>
+      <c r="AL49">
         <v>6</v>
       </c>
-      <c r="AM48">
+      <c r="AM49">
         <v>1</v>
       </c>
-      <c r="AO48">
-        <v>236</v>
-      </c>
-      <c r="AP48">
-        <v>21</v>
-      </c>
-      <c r="AQ48">
-        <v>7</v>
-      </c>
-      <c r="AS48">
-        <v>537</v>
-      </c>
-      <c r="AU48">
+      <c r="AO49">
+        <v>255</v>
+      </c>
+      <c r="AP49">
+        <v>23</v>
+      </c>
+      <c r="AQ49">
+        <v>9</v>
+      </c>
+      <c r="AS49">
+        <v>534</v>
+      </c>
+      <c r="AU49">
         <v>2</v>
       </c>
-      <c r="AW48">
-        <v>14755</v>
-      </c>
-      <c r="AX48">
-        <v>1908</v>
-      </c>
-      <c r="AY48">
-        <v>868</v>
-      </c>
-      <c r="BA48" s="6">
-        <v>43890</v>
-      </c>
-      <c r="BB48">
-        <v>68</v>
-      </c>
-      <c r="BC48">
-        <f>(BB48/BB47)-1</f>
-        <v>0.1333333333333333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:66" ht="19.5">
-      <c r="C49">
-        <f>H48*D49</f>
-        <v>647.45453734083708</v>
-      </c>
-      <c r="D49">
-        <f>D48/1.1100000000000001</f>
-        <v>0.040038072633627041</v>
-      </c>
-      <c r="E49" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" t="inlineStr">
+      <c r="AW49">
+        <v>15884</v>
+      </c>
+      <c r="AX49">
+        <v>1926</v>
+      </c>
+      <c r="AY49">
+        <v>971</v>
+      </c>
+      <c r="BA49" s="6">
+        <v>43891</v>
+      </c>
+      <c r="BB49">
+        <v>74</v>
+      </c>
+      <c r="BC49">
+        <f>(BB49/BB48)-1</f>
+        <v>0.088235294117646967</v>
+      </c>
+    </row>
+    <row r="50" spans="1:66" ht="19.5">
+      <c r="C50">
+        <f>H49*D50</f>
+        <v>1008.9342435509926</v>
+      </c>
+      <c r="D50">
+        <f>D49/1.1100000000000001</f>
+        <v>0.055948157878111845</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" t="inlineStr">
         <is>
           <t>day four</t>
         </is>
       </c>
-      <c r="G49" s="2">
-        <f>H49*35</f>
-        <v>588644.916436131</v>
-      </c>
-      <c r="H49">
-        <f>H48+C49</f>
-        <v>16818.426183889456</v>
-      </c>
-      <c r="I49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>ext. Difference:</t>
-        </is>
-      </c>
-      <c r="M49">
-        <f>M48-M45</f>
-        <v>30</v>
-      </c>
-      <c r="N49">
-        <f>N48-N45</f>
-        <v>-3</v>
-      </c>
-      <c r="O49">
-        <f>O48-O45</f>
-        <v>6</v>
-      </c>
-      <c r="Q49">
-        <f>Q48-Q45</f>
-        <v>200</v>
-      </c>
-      <c r="R49">
-        <f>R48-R45</f>
-        <v>33</v>
-      </c>
-      <c r="S49">
-        <f>S48-S45</f>
-        <v>60</v>
-      </c>
-      <c r="U49">
-        <f>U48-U45</f>
-        <v>215</v>
-      </c>
-      <c r="V49">
-        <f>V48-V45</f>
-        <v>40</v>
-      </c>
-      <c r="W49">
-        <f>W48-W45</f>
-        <v>44</v>
-      </c>
-      <c r="Y49">
-        <f>Y48-Y45</f>
-        <v>267</v>
-      </c>
-      <c r="Z49">
-        <f>Z48-Z45</f>
-        <v>53</v>
-      </c>
-      <c r="AA49">
-        <f>AA48-AA45</f>
-        <v>78</v>
-      </c>
-      <c r="AC49">
-        <f>AC48-AC45</f>
-        <v>24</v>
-      </c>
-      <c r="AD49">
-        <f>AD48-AD45</f>
-        <v>2</v>
-      </c>
-      <c r="AE49">
-        <f>AE48-AE45</f>
-        <v>7</v>
-      </c>
-      <c r="AG49">
-        <f>AG48-AG45</f>
-        <v>15</v>
-      </c>
-      <c r="AH49">
-        <f>AH48-AH45</f>
-        <v>-1</v>
-      </c>
-      <c r="AI49">
-        <f>AI48-AI45</f>
-        <v>4</v>
-      </c>
-      <c r="AK49">
-        <f>AK48-AK45</f>
-        <v>2</v>
-      </c>
-      <c r="AL49">
-        <f>AL48-AL45</f>
-        <v>1</v>
-      </c>
-      <c r="AM49">
-        <f>AM48-AM45</f>
-        <v>0</v>
-      </c>
-      <c r="AO49">
-        <f>AO48-AO45</f>
-        <v>9</v>
-      </c>
-      <c r="AP49">
-        <f>AP48-AP45</f>
-        <v>4</v>
-      </c>
-      <c r="AQ49">
-        <f>AQ48-AQ45</f>
-        <v>0</v>
-      </c>
-      <c r="AS49">
-        <f>AS48-AS45</f>
-        <v>4</v>
-      </c>
-      <c r="AU49">
-        <f>AU48-AU45</f>
-        <v>-2</v>
-      </c>
-      <c r="AW49" s="1">
-        <f>AW48-AW45</f>
-        <v>766</v>
-      </c>
-      <c r="AX49">
-        <f>AX48-AX45</f>
-        <v>129</v>
-      </c>
-      <c r="AY49">
-        <f>AY48-AY45</f>
-        <v>197</v>
-      </c>
-      <c r="BA49" s="6">
-        <v>43891</v>
-      </c>
-      <c r="BB49">
-        <v>74</v>
-      </c>
-      <c r="BC49">
-        <f>(BB49/BB48)-1</f>
-        <v>0.088235294117646967</v>
-      </c>
-    </row>
-    <row r="50" spans="1:66" ht="19.5">
-      <c r="C50">
-        <f>H49*D50</f>
-        <v>606.64627849897374</v>
-      </c>
-      <c r="D50">
-        <f>D49/1.1100000000000001</f>
-        <v>0.036070335705970305</v>
-      </c>
-      <c r="E50" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>day five</t>
-        </is>
-      </c>
       <c r="G50" s="2">
         <f>H50*35</f>
-        <v>609877.53618359508</v>
+        <v>666480.90608558943</v>
       </c>
       <c r="H50">
         <f>H49+C50</f>
-        <v>17425.072462388431</v>
+        <v>19042.311602445414</v>
       </c>
       <c r="I50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" t="inlineStr">
         <is>
-          <t>int. Difference:</t>
+          <t>ext. Difference:</t>
         </is>
       </c>
       <c r="M50">
-        <f>M46-M45</f>
+        <f>M49-M46</f>
+        <v>45</v>
+      </c>
+      <c r="N50">
+        <f>N49-N46</f>
+        <v>-5</v>
+      </c>
+      <c r="O50">
+        <f>O49-O46</f>
+        <v>9</v>
+      </c>
+      <c r="Q50">
+        <f>Q49-Q46</f>
+        <v>289</v>
+      </c>
+      <c r="R50">
+        <f>R49-R46</f>
+        <v>18</v>
+      </c>
+      <c r="S50">
+        <f>S49-S46</f>
         <v>30</v>
       </c>
-      <c r="N50">
-        <f>N46-N45</f>
+      <c r="U50">
+        <f>U49-U46</f>
+        <v>405</v>
+      </c>
+      <c r="V50">
+        <f>V49-V46</f>
+        <v>1</v>
+      </c>
+      <c r="W50">
+        <f>W49-W46</f>
+        <v>19</v>
+      </c>
+      <c r="Y50">
+        <f>Y49-Y46</f>
+        <v>336</v>
+      </c>
+      <c r="Z50">
+        <f>Z49-Z46</f>
+        <v>3</v>
+      </c>
+      <c r="AA50">
+        <f>AA49-AA46</f>
+        <v>41</v>
+      </c>
+      <c r="AC50">
+        <f>AC49-AC46</f>
+        <v>15</v>
+      </c>
+      <c r="AD50">
+        <f>AD49-AD46</f>
+        <v>-1</v>
+      </c>
+      <c r="AE50">
+        <f>AE49-AE46</f>
+        <v>2</v>
+      </c>
+      <c r="AG50">
+        <f>AG49-AG46</f>
+        <v>25</v>
+      </c>
+      <c r="AH50">
+        <f>AH49-AH46</f>
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <f>AI49-AI46</f>
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <f>AK49-AK46</f>
+        <v>-2</v>
+      </c>
+      <c r="AL50">
+        <f>AL49-AL46</f>
+        <v>0</v>
+      </c>
+      <c r="AM50">
+        <f>AM49-AM46</f>
+        <v>0</v>
+      </c>
+      <c r="AO50">
+        <f>AO49-AO46</f>
+        <v>19</v>
+      </c>
+      <c r="AP50">
+        <f>AP49-AP46</f>
+        <v>2</v>
+      </c>
+      <c r="AQ50">
+        <f>AQ49-AQ46</f>
+        <v>2</v>
+      </c>
+      <c r="AS50">
+        <f>AS49-AS46</f>
         <v>-3</v>
       </c>
-      <c r="O50">
-        <f>O46-O45</f>
-        <v>6</v>
-      </c>
-      <c r="Q50">
-        <f>Q46-Q45</f>
-        <v>200</v>
-      </c>
-      <c r="R50">
-        <f>R46-R45</f>
-        <v>33</v>
-      </c>
-      <c r="S50">
-        <f>S46-S45</f>
-        <v>60</v>
-      </c>
-      <c r="U50">
-        <f>U46-U45</f>
-        <v>215</v>
-      </c>
-      <c r="V50">
-        <f>V46-V45</f>
-        <v>40</v>
-      </c>
-      <c r="W50">
-        <f>W46-W45</f>
-        <v>44</v>
-      </c>
-      <c r="Y50">
-        <f>Y46-Y45</f>
-        <v>267</v>
-      </c>
-      <c r="Z50">
-        <f>Z46-Z45</f>
-        <v>53</v>
-      </c>
-      <c r="AA50">
-        <f>AA46-AA45</f>
-        <v>78</v>
-      </c>
-      <c r="AC50">
-        <f>AC46-AC45</f>
-        <v>24</v>
-      </c>
-      <c r="AD50">
-        <f>AD46-AD45</f>
-        <v>2</v>
-      </c>
-      <c r="AE50">
-        <f>AE46-AE45</f>
-        <v>7</v>
-      </c>
-      <c r="AG50">
-        <f>AG46-AG45</f>
-        <v>15</v>
-      </c>
-      <c r="AH50">
-        <f>AH46-AH45</f>
-        <v>-1</v>
-      </c>
-      <c r="AI50">
-        <f>AI46-AI45</f>
-        <v>4</v>
-      </c>
-      <c r="AK50">
-        <f>AK46-AK45</f>
-        <v>2</v>
-      </c>
-      <c r="AL50">
-        <f>AL46-AL45</f>
-        <v>1</v>
-      </c>
-      <c r="AM50">
-        <f>AM46-AM45</f>
+      <c r="AU50">
+        <f>AU49-AU46</f>
         <v>0</v>
       </c>
-      <c r="AO50">
-        <f>AO46-AO45</f>
-        <v>9</v>
-      </c>
-      <c r="AP50">
-        <f>AP46-AP45</f>
-        <v>4</v>
-      </c>
-      <c r="AQ50">
-        <f>AQ46-AQ45</f>
-        <v>0</v>
-      </c>
-      <c r="AS50">
-        <f>AS46-AS45</f>
-        <v>4</v>
-      </c>
-      <c r="AU50">
-        <f>AU46-AU45</f>
-        <v>-2</v>
-      </c>
-      <c r="AW50" s="1">
-        <f>AW46-AW45</f>
-        <v>766</v>
+      <c r="AW50">
+        <f>AW49-AW46</f>
+        <v>1129</v>
       </c>
       <c r="AX50">
-        <f>AX46-AX45</f>
-        <v>129</v>
+        <f>AX49-AX46</f>
+        <v>18</v>
       </c>
       <c r="AY50">
-        <f>AY46-AY45</f>
-        <v>197</v>
+        <f>AY49-AY46</f>
+        <v>103</v>
       </c>
       <c r="BA50" s="6">
         <v>43892</v>
@@ -6012,318 +6022,440 @@
     <row r="51" spans="1:66" ht="19.5">
       <c r="C51">
         <f>H50*D51</f>
-        <v>566.24163371099928</v>
+        <v>959.80383414217738</v>
       </c>
       <c r="D51">
         <f>D50/1.1100000000000001</f>
-        <v>0.032495797933306578</v>
+        <v>0.050403745836136792</v>
       </c>
       <c r="E51" t="s">
         <v>12</v>
       </c>
       <c r="F51" t="inlineStr">
+        <is>
+          <t>day five</t>
+        </is>
+      </c>
+      <c r="G51" s="2">
+        <f>H51*35</f>
+        <v>700074.04028056574</v>
+      </c>
+      <c r="H51">
+        <f>H50+C51</f>
+        <v>20002.115436587592</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>int. Difference:</t>
+        </is>
+      </c>
+      <c r="M51">
+        <f>M47-M46</f>
+        <v>45</v>
+      </c>
+      <c r="N51">
+        <f>N47-N46</f>
+        <v>-5</v>
+      </c>
+      <c r="O51">
+        <f>O47-O46</f>
+        <v>9</v>
+      </c>
+      <c r="Q51">
+        <f>Q47-Q46</f>
+        <v>289</v>
+      </c>
+      <c r="R51">
+        <f>R47-R46</f>
+        <v>18</v>
+      </c>
+      <c r="S51">
+        <f>S47-S46</f>
+        <v>30</v>
+      </c>
+      <c r="U51">
+        <f>U47-U46</f>
+        <v>405</v>
+      </c>
+      <c r="V51">
+        <f>V47-V46</f>
+        <v>1</v>
+      </c>
+      <c r="W51">
+        <f>W47-W46</f>
+        <v>19</v>
+      </c>
+      <c r="Y51">
+        <f>Y47-Y46</f>
+        <v>336</v>
+      </c>
+      <c r="Z51">
+        <f>Z47-Z46</f>
+        <v>3</v>
+      </c>
+      <c r="AA51">
+        <f>AA47-AA46</f>
+        <v>41</v>
+      </c>
+      <c r="AC51">
+        <f>AC47-AC46</f>
+        <v>15</v>
+      </c>
+      <c r="AD51">
+        <f>AD47-AD46</f>
+        <v>-1</v>
+      </c>
+      <c r="AE51">
+        <f>AE47-AE46</f>
+        <v>2</v>
+      </c>
+      <c r="AG51">
+        <f>AG47-AG46</f>
+        <v>25</v>
+      </c>
+      <c r="AH51">
+        <f>AH47-AH46</f>
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <f>AI47-AI46</f>
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <f>AK47-AK46</f>
+        <v>-2</v>
+      </c>
+      <c r="AL51">
+        <f>AL47-AL46</f>
+        <v>0</v>
+      </c>
+      <c r="AM51">
+        <f>AM47-AM46</f>
+        <v>0</v>
+      </c>
+      <c r="AO51">
+        <f>AO47-AO46</f>
+        <v>19</v>
+      </c>
+      <c r="AP51">
+        <f>AP47-AP46</f>
+        <v>2</v>
+      </c>
+      <c r="AQ51">
+        <f>AQ47-AQ46</f>
+        <v>2</v>
+      </c>
+      <c r="AS51">
+        <f>AS47-AS46</f>
+        <v>-3</v>
+      </c>
+      <c r="AU51">
+        <f>AU47-AU46</f>
+        <v>0</v>
+      </c>
+      <c r="AW51">
+        <f>AW47-AW46</f>
+        <v>1129</v>
+      </c>
+      <c r="AX51">
+        <f>AX47-AX46</f>
+        <v>18</v>
+      </c>
+      <c r="AY51">
+        <f>AY47-AY46</f>
+        <v>103</v>
+      </c>
+      <c r="BA51" s="6">
+        <v>43893</v>
+      </c>
+      <c r="BB51">
+        <v>118</v>
+      </c>
+      <c r="BC51">
+        <f>(BB51/BB50)-1</f>
+        <v>0.20408163265306123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:66" ht="19.5">
+      <c r="C52">
+        <f>H51*D52</f>
+        <v>908.27166004579203</v>
+      </c>
+      <c r="D52">
+        <f>D51/1.1100000000000001</f>
+        <v>0.045408780032555662</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" t="inlineStr">
         <is>
           <t>above: moving target</t>
         </is>
       </c>
-      <c r="G51" s="2">
-        <f>H51*35</f>
-        <v>629695.99336348008</v>
-      </c>
-      <c r="H51">
-        <f>H50+C51</f>
-        <v>17991.314096099431</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>&lt;&lt; transmission under 3.5 percent growth (per day)</t>
-        </is>
-      </c>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="AW51" s="1"/>
-      <c r="BA51" s="6">
-        <v>43893</v>
-      </c>
-      <c r="BB51">
-        <v>118</v>
-      </c>
-      <c r="BC51">
-        <f>(BB51/BB50)-1</f>
-        <v>0.20408163265306123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:66" ht="19.5">
-      <c r="C52">
-        <f>H51*D52</f>
-        <v>584.64210742149737</v>
-      </c>
-      <c r="D52">
-        <f>D51</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E52" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="6">
-        <v>43942</v>
-      </c>
       <c r="G52" s="2">
         <f>H52*35</f>
-        <v>650158.46712323243</v>
+        <v>731863.54838216852</v>
       </c>
       <c r="H52">
         <f>H51+C52</f>
-        <v>18575.956203520927</v>
-      </c>
-      <c r="I52" t="inlineStr">
+        <v>20910.387096633385</v>
+      </c>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="BA52" s="6">
+        <v>43894</v>
+      </c>
+      <c r="BB52">
+        <v>149</v>
+      </c>
+      <c r="BC52">
+        <f>(BB52/BB51)-1</f>
+        <v>0.26271186440677963</v>
+      </c>
+    </row>
+    <row r="53" spans="1:66" ht="19.5">
+      <c r="C53">
+        <f>H52*D53</f>
+        <v>855.41907033028428</v>
+      </c>
+      <c r="D53">
+        <f>D52/1.1100000000000001</f>
+        <v>0.040908810840140232</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="6">
+        <v>43943</v>
+      </c>
+      <c r="G53" s="2">
+        <f>H53*35</f>
+        <v>761803.21584372839</v>
+      </c>
+      <c r="H53">
+        <f>H52+C53</f>
+        <v>21765.80616696367</v>
+      </c>
+      <c r="J53" s="1"/>
+      <c r="BA53" s="6">
+        <v>43895</v>
+      </c>
+      <c r="BB53">
+        <v>217</v>
+      </c>
+      <c r="BC53">
+        <f>(BB53/BB52)-1</f>
+        <v>0.4563758389261745</v>
+      </c>
+    </row>
+    <row r="54" spans="1:66" ht="19.5">
+      <c r="C54">
+        <f>H53*D54</f>
+        <v>802.17409663736441</v>
+      </c>
+      <c r="D54">
+        <f>D53/1.1100000000000001</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="6">
+        <v>43944</v>
+      </c>
+      <c r="G54" s="2">
+        <f>H54*35</f>
+        <v>789879.30922603619</v>
+      </c>
+      <c r="H54">
+        <f>H53+C54</f>
+        <v>22567.980263601035</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>&lt;&lt; transmission under 3.8 percent growth (per day)</t>
+        </is>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>TODAY:</t>
+        </is>
+      </c>
+      <c r="M54" s="3">
+        <f>(M47/M46)-1</f>
+        <v>0.091836734693877542</v>
+      </c>
+      <c r="N54" s="3">
+        <f>(N47/N46)-1</f>
+        <v>-0.15625</v>
+      </c>
+      <c r="O54" s="3">
+        <f>(O47/O46)-1</f>
+        <v>0.25714285714285712</v>
+      </c>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3">
+        <f>(Q47/Q46)-1</f>
+        <v>0.11245136186770432</v>
+      </c>
+      <c r="R54" s="3">
+        <f>(R47/R46)-1</f>
+        <v>0.044776119402984982</v>
+      </c>
+      <c r="S54" s="3">
+        <f>(S47/S46)-1</f>
+        <v>0.14084507042253525</v>
+      </c>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3">
+        <f>(U47/U46)-1</f>
+        <v>0.10777009047365627</v>
+      </c>
+      <c r="V54" s="3">
+        <f>(V47/V46)-1</f>
+        <v>0.0016339869281045694</v>
+      </c>
+      <c r="W54" s="3">
+        <f>(W47/W46)-1</f>
+        <v>0.097435897435897534</v>
+      </c>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3">
+        <f>(Y47/Y46)-1</f>
+        <v>0.051851851851851816</v>
+      </c>
+      <c r="Z54" s="3">
+        <f>(Z47/Z46)-1</f>
+        <v>0.0038265306122449161</v>
+      </c>
+      <c r="AA54" s="3">
+        <f>(AA47/AA46)-1</f>
+        <v>0.11232876712328776</v>
+      </c>
+      <c r="AB54" s="3"/>
+      <c r="AC54" s="3">
+        <f>(AC47/AC46)-1</f>
+        <v>0.039577836411609502</v>
+      </c>
+      <c r="AD54" s="3">
+        <f>(AD47/AD46)-1</f>
+        <v>-0.025000000000000022</v>
+      </c>
+      <c r="AE54" s="3">
+        <f>(AE47/AE46)-1</f>
+        <v>0.071428571428571397</v>
+      </c>
+      <c r="AF54" s="3"/>
+      <c r="AG54" s="3">
+        <f>(AG47/AG46)-1</f>
+        <v>0.1157407407407407</v>
+      </c>
+      <c r="AH54" s="3">
+        <f>(AH47/AH46)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AI54" s="3">
+        <f>(AI47/AI46)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="3"/>
+      <c r="AK54" s="3">
+        <f>(AK47/AK46)-1</f>
+        <v>-0.022471910112359605</v>
+      </c>
+      <c r="AL54" s="3">
+        <f>(AL47/AL46)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AM54" s="3">
+        <f>(AM47/AM46)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AN54" s="3"/>
+      <c r="AO54" s="3">
+        <f>(AO47/AO46)-1</f>
+        <v>0.080508474576271194</v>
+      </c>
+      <c r="AP54" s="3">
+        <f>(AP47/AP46)-1</f>
+        <v>0.095238095238095344</v>
+      </c>
+      <c r="AQ54" s="3">
+        <f>(AQ47/AQ46)-1</f>
+        <v>0.28571428571428581</v>
+      </c>
+      <c r="AR54" s="3"/>
+      <c r="AS54" s="3">
+        <f>(AS47/AS46)-1</f>
+        <v>-0.0055865921787709993</v>
+      </c>
+      <c r="AT54" s="3"/>
+      <c r="AU54" s="3">
+        <f>(AU47/AU46)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AV54" s="3"/>
+      <c r="AW54" s="3">
+        <f>(AW47/AW46)-1</f>
+        <v>0.076516435106743552</v>
+      </c>
+      <c r="AX54" s="3">
+        <f>(AX47/AX46)-1</f>
+        <v>0.0094339622641510523</v>
+      </c>
+      <c r="AY54" s="3">
+        <f>(AY47/AY46)-1</f>
+        <v>0.11866359447004604</v>
+      </c>
+      <c r="BA54" s="6">
+        <v>43896</v>
+      </c>
+      <c r="BB54">
+        <v>262</v>
+      </c>
+      <c r="BC54">
+        <f>(BB54/BB53)-1</f>
+        <v>0.20737327188940102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:66" ht="19.5">
+      <c r="C55">
+        <f>H54*D55</f>
+        <v>831.73805013303854</v>
+      </c>
+      <c r="D55">
+        <f>D54</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="6">
+        <v>43945</v>
+      </c>
+      <c r="G55" s="2">
+        <f>H55*35</f>
+        <v>818990.14098069258</v>
+      </c>
+      <c r="H55">
+        <f>H54+C55</f>
+        <v>23399.718313734073</v>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>(near four percent and arbitrarily chosen)</t>
         </is>
       </c>
-      <c r="J52" s="1"/>
-      <c r="AW52" s="1"/>
-      <c r="BA52" s="6">
-        <v>43894</v>
-      </c>
-      <c r="BB52">
-        <v>149</v>
-      </c>
-      <c r="BC52">
-        <f>(BB52/BB51)-1</f>
-        <v>0.26271186440677963</v>
-      </c>
-    </row>
-    <row r="53" spans="1:66" ht="19.5">
-      <c r="C53">
-        <f>H52*D53</f>
-        <v>603.6405192075689</v>
-      </c>
-      <c r="D53">
-        <f>D52</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E53" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="6">
-        <v>43943</v>
-      </c>
-      <c r="G53" s="2">
-        <f>H53*35</f>
-        <v>671285.88529549737</v>
-      </c>
-      <c r="H53">
-        <f>H52+C53</f>
-        <v>19179.596722728496</v>
-      </c>
-      <c r="J53" s="1"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>TODAY:</t>
-        </is>
-      </c>
-      <c r="M53" s="7">
-        <f>(M46/M45)-1</f>
-        <v>0.065217391304347894</v>
-      </c>
-      <c r="N53" s="7">
-        <f>(N46/N45)-1</f>
-        <v>-0.085714285714285743</v>
-      </c>
-      <c r="O53" s="7">
-        <f>(O46/O45)-1</f>
-        <v>0.2068965517241379</v>
-      </c>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="7">
-        <f>(Q46/Q45)-1</f>
-        <v>0.084388185654008518</v>
-      </c>
-      <c r="R53" s="7">
-        <f>(R46/R45)-1</f>
-        <v>0.089430894308943021</v>
-      </c>
-      <c r="S53" s="7">
-        <f>(S46/S45)-1</f>
-        <v>0.39215686274509798</v>
-      </c>
-      <c r="T53" s="5"/>
-      <c r="U53" s="7">
-        <f>(U46/U45)-1</f>
-        <v>0.060683036974315652</v>
-      </c>
-      <c r="V53" s="7">
-        <f>(V46/V45)-1</f>
-        <v>0.069930069930070005</v>
-      </c>
-      <c r="W53" s="7">
-        <f>(W46/W45)-1</f>
-        <v>0.29139072847682113</v>
-      </c>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="7">
-        <f>(Y46/Y45)-1</f>
-        <v>0.042974408498309913</v>
-      </c>
-      <c r="Z53" s="7">
-        <f>(Z46/Z45)-1</f>
-        <v>0.072503419972640204</v>
-      </c>
-      <c r="AA53" s="7">
-        <f>(AA46/AA45)-1</f>
-        <v>0.27177700348432055</v>
-      </c>
-      <c r="AB53" s="5"/>
-      <c r="AC53" s="7">
-        <f>(AC46/AC45)-1</f>
-        <v>0.067605633802816811</v>
-      </c>
-      <c r="AD53" s="7">
-        <f>(AD46/AD45)-1</f>
-        <v>0.052631578947368363</v>
-      </c>
-      <c r="AE53" s="7">
-        <f>(AE46/AE45)-1</f>
-        <v>0.33333333333333326</v>
-      </c>
-      <c r="AF53" s="5"/>
-      <c r="AG53" s="7">
-        <f>(AG46/AG45)-1</f>
-        <v>0.074626865671641784</v>
-      </c>
-      <c r="AH53" s="7">
-        <f>(AH46/AH45)-1</f>
-        <v>-0.08333333333333337</v>
-      </c>
-      <c r="AI53" s="7">
-        <f>(AI46/AI45)-1</f>
-        <v>0.22222222222222232</v>
-      </c>
-      <c r="AJ53" s="5"/>
-      <c r="AK53" s="7">
-        <f>(AK46/AK45)-1</f>
-        <v>0.022988505747126409</v>
-      </c>
-      <c r="AL53" s="7">
-        <f>(AL46/AL45)-1</f>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="AM53" s="7">
-        <f>(AM46/AM45)-1</f>
-        <v>0</v>
-      </c>
-      <c r="AN53" s="5"/>
-      <c r="AO53" s="7">
-        <f>(AO46/AO45)-1</f>
-        <v>0.039647577092511099</v>
-      </c>
-      <c r="AP53" s="7">
-        <f>(AP46/AP45)-1</f>
-        <v>0.23529411764705888</v>
-      </c>
-      <c r="AQ53" s="7">
-        <f>(AQ46/AQ45)-1</f>
-        <v>0</v>
-      </c>
-      <c r="AR53" s="5"/>
-      <c r="AS53" s="7">
-        <f>(AS46/AS45)-1</f>
-        <v>0.0075046904315196894</v>
-      </c>
-      <c r="AT53" s="7"/>
-      <c r="AU53" s="7">
-        <f>(AU46/AU45)-1</f>
-        <v>-0.5</v>
-      </c>
-      <c r="AV53" s="5"/>
-      <c r="AW53" s="7">
-        <f>(AW46/AW45)-1</f>
-        <v>0.054757309314461322</v>
-      </c>
-      <c r="AX53" s="7">
-        <f>(AX46/AX45)-1</f>
-        <v>0.072512647554806131</v>
-      </c>
-      <c r="AY53" s="7">
-        <f>(AY46/AY45)-1</f>
-        <v>0.29359165424739198</v>
-      </c>
-      <c r="BA53" s="6">
-        <v>43895</v>
-      </c>
-      <c r="BB53">
-        <v>217</v>
-      </c>
-      <c r="BC53">
-        <f>(BB53/BB52)-1</f>
-        <v>0.4563758389261745</v>
-      </c>
-    </row>
-    <row r="54" spans="1:66" ht="19.5">
-      <c r="C54">
-        <f>H53*D54</f>
-        <v>623.2562995440943</v>
-      </c>
-      <c r="D54">
-        <f>D53</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E54" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="6">
-        <v>43944</v>
-      </c>
-      <c r="G54" s="2">
-        <f>H54*35</f>
-        <v>693099.85577954061</v>
-      </c>
-      <c r="H54">
-        <f>H53+C54</f>
-        <v>19802.853022272589</v>
-      </c>
-      <c r="J54" s="1"/>
-      <c r="BA54" s="6">
-        <v>43896</v>
-      </c>
-      <c r="BB54">
-        <v>262</v>
-      </c>
-      <c r="BC54">
-        <f>(BB54/BB53)-1</f>
-        <v>0.20737327188940102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:66" ht="19.5">
-      <c r="C55">
-        <f>H54*D55</f>
-        <v>643.50951031473949</v>
-      </c>
-      <c r="D55">
-        <f>D54</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E55" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="6">
-        <v>43945</v>
-      </c>
-      <c r="G55" s="2">
-        <f>H55*35</f>
-        <v>715622.68864055653</v>
-      </c>
-      <c r="H55">
-        <f>H54+C55</f>
-        <v>20446.362532587329</v>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>&lt;&lt; 715 thousand (35x measured)</t>
-        </is>
-      </c>
-      <c r="J55" s="1"/>
+      <c r="J55" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="BA55" s="6">
         <v>43897</v>
       </c>
@@ -6338,11 +6470,11 @@
     <row r="56" spans="1:66" ht="19.5">
       <c r="C56">
         <f>H55*D56</f>
-        <v>664.42086533008842</v>
+        <v>862.39157676496598</v>
       </c>
       <c r="D56">
         <f>D55</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E56" t="s">
         <v>17</v>
@@ -6352,179 +6484,180 @@
       </c>
       <c r="G56" s="2">
         <f>H56*35</f>
-        <v>738877.41892710957</v>
+        <v>849173.84616746637</v>
       </c>
       <c r="H56">
         <f>H55+C56</f>
-        <v>21110.783397917417</v>
+        <v>24262.109890499039</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
-      <c r="K56" t="inlineStr">
+      <c r="BA56" s="6">
+        <v>43898</v>
+      </c>
+      <c r="BB56">
+        <v>518</v>
+      </c>
+      <c r="BC56">
+        <f>(BB56/BB55)-1</f>
+        <v>0.28855721393034828</v>
+      </c>
+    </row>
+    <row r="57" spans="1:66" ht="19.5">
+      <c r="C57">
+        <f>H56*D57</f>
+        <v>894.17483251632484</v>
+      </c>
+      <c r="D57">
+        <f>D56</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="6">
+        <v>43947</v>
+      </c>
+      <c r="G57" s="2">
+        <f>H57*35</f>
+        <v>880469.96530553768</v>
+      </c>
+      <c r="H57">
+        <f>H56+C57</f>
+        <v>25156.284723015364</v>
+      </c>
+      <c r="J57" s="1"/>
+      <c r="K57" t="inlineStr">
         <is>
           <t>Yesterday:</t>
         </is>
       </c>
-      <c r="M56" s="7">
-        <f>0.029999999999999999</f>
-        <v>0.029999999999999999</v>
-      </c>
-      <c r="N56" s="7">
-        <f>-0.050000000000000003</f>
-        <v>-0.050000000000000003</v>
-      </c>
-      <c r="O56" s="7">
+      <c r="M57" s="3">
+        <f>0.070000000000000007</f>
+        <v>0.070000000000000007</v>
+      </c>
+      <c r="N57" s="3">
+        <f>-0.089999999999999997</f>
+        <v>-0.089999999999999997</v>
+      </c>
+      <c r="O57" s="3">
         <f>0.20999999999999999</f>
         <v>0.20999999999999999</v>
       </c>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="7">
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3">
+        <f>0.080000000000000002</f>
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="R57" s="3">
+        <f>0.089999999999999997</f>
+        <v>0.089999999999999997</v>
+      </c>
+      <c r="S57" s="3">
+        <f>0.39000000000000001</f>
+        <v>0.39000000000000001</v>
+      </c>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3">
         <f>0.059999999999999998</f>
         <v>0.059999999999999998</v>
       </c>
-      <c r="R56" s="7">
+      <c r="V57" s="3">
+        <f>0.070000000000000007</f>
+        <v>0.070000000000000007</v>
+      </c>
+      <c r="W57" s="3">
+        <f>0.28999999999999998</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3">
+        <f>0.040000000000000001</f>
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="Z57" s="3">
+        <f>0.070000000000000007</f>
+        <v>0.070000000000000007</v>
+      </c>
+      <c r="AA57" s="3">
+        <f>0.27000000000000002</f>
+        <v>0.27000000000000002</v>
+      </c>
+      <c r="AB57" s="3"/>
+      <c r="AC57" s="3">
+        <f>0.070000000000000007</f>
+        <v>0.070000000000000007</v>
+      </c>
+      <c r="AD57" s="3">
+        <f>0.050000000000000003</f>
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="AE57" s="3">
+        <f>0.33000000000000002</f>
+        <v>0.33000000000000002</v>
+      </c>
+      <c r="AF57" s="3"/>
+      <c r="AG57" s="3">
+        <f>0.070000000000000007</f>
+        <v>0.070000000000000007</v>
+      </c>
+      <c r="AH57" s="3">
+        <f>-0.080000000000000002</f>
+        <v>-0.080000000000000002</v>
+      </c>
+      <c r="AI57" s="3">
+        <f>0.22</f>
+        <v>0.22</v>
+      </c>
+      <c r="AJ57" s="3"/>
+      <c r="AK57" s="3">
         <f>0.02</f>
         <v>0.02</v>
       </c>
-      <c r="S56" s="7">
-        <f>0.14999999999999999</f>
-        <v>0.14999999999999999</v>
-      </c>
-      <c r="T56" s="7"/>
-      <c r="U56" s="7">
-        <f>0.059999999999999998</f>
-        <v>0.059999999999999998</v>
-      </c>
-      <c r="V56" s="7">
-        <f>-0.01</f>
-        <v>-0.01</v>
-      </c>
-      <c r="W56" s="7">
-        <f>0.12</f>
-        <v>0.12</v>
-      </c>
-      <c r="X56" s="7"/>
-      <c r="Y56" s="7">
-        <f>0.029999999999999999</f>
-        <v>0.029999999999999999</v>
-      </c>
-      <c r="Z56" s="7">
-        <f>0.029999999999999999</f>
-        <v>0.029999999999999999</v>
-      </c>
-      <c r="AA56" s="7">
-        <f>0.10000000000000001</f>
-        <v>0.10000000000000001</v>
-      </c>
-      <c r="AB56" s="7"/>
-      <c r="AC56" s="7">
+      <c r="AL57" s="3">
+        <f>0.20000000000000001</f>
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="AM57" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AN57" s="3"/>
+      <c r="AO57" s="3">
+        <f>0.040000000000000001</f>
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="AP57" s="3">
+        <f>0.23999999999999999</f>
+        <v>0.23999999999999999</v>
+      </c>
+      <c r="AQ57" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AR57" s="3"/>
+      <c r="AS57" s="3">
+        <f>0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="AT57" s="3"/>
+      <c r="AU57" s="3">
+        <f>-0.5</f>
+        <v>-0.5</v>
+      </c>
+      <c r="AV57" s="3"/>
+      <c r="AW57" s="3">
         <f>0.050000000000000003</f>
         <v>0.050000000000000003</v>
       </c>
-      <c r="AD56" s="7">
-        <f>0.089999999999999997</f>
-        <v>0.089999999999999997</v>
-      </c>
-      <c r="AE56" s="7">
-        <f>0.11</f>
-        <v>0.11</v>
-      </c>
-      <c r="AF56" s="7"/>
-      <c r="AG56" s="7">
-        <f>0.029999999999999999</f>
-        <v>0.029999999999999999</v>
-      </c>
-      <c r="AH56" s="7">
-        <f>-0.080000000000000002</f>
-        <v>-0.080000000000000002</v>
-      </c>
-      <c r="AI56" s="7">
-        <f>0.059999999999999998</f>
-        <v>0.059999999999999998</v>
-      </c>
-      <c r="AJ56" s="7"/>
-      <c r="AK56" s="7">
-        <f>0.050000000000000003</f>
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="AL56" s="7">
-        <f>0.25</f>
-        <v>0.25</v>
-      </c>
-      <c r="AM56" s="7">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="AN56" s="7"/>
-      <c r="AO56" s="7">
-        <f>0.02</f>
-        <v>0.02</v>
-      </c>
-      <c r="AP56" s="7">
-        <f>-0.14999999999999999</f>
-        <v>-0.14999999999999999</v>
-      </c>
-      <c r="AQ56" s="7">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="AR56" s="7"/>
-      <c r="AS56" s="7">
-        <f>0.089999999999999997</f>
-        <v>0.089999999999999997</v>
-      </c>
-      <c r="AT56" s="7"/>
-      <c r="AU56" s="7">
-        <v>0</v>
-      </c>
-      <c r="AV56" s="7"/>
-      <c r="AW56" s="7">
-        <f>0.050000000000000003</f>
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="AX56" s="7">
-        <f>0.01</f>
-        <v>0.01</v>
-      </c>
-      <c r="AY56" s="7">
-        <f>0.11</f>
-        <v>0.11</v>
-      </c>
-      <c r="BA56" s="6">
-        <v>43898</v>
-      </c>
-      <c r="BB56">
-        <v>518</v>
-      </c>
-      <c r="BC56">
-        <f>(BB56/BB55)-1</f>
-        <v>0.28855721393034828</v>
-      </c>
-    </row>
-    <row r="57" spans="1:66" ht="19.5">
-      <c r="C57">
-        <f>H56*D57</f>
-        <v>686.01175151252767</v>
-      </c>
-      <c r="D57">
-        <f>D56</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E57" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="6">
-        <v>43947</v>
-      </c>
-      <c r="G57" s="2">
-        <f>H57*35</f>
-        <v>762887.83023004804</v>
-      </c>
-      <c r="H57">
-        <f>H56+C57</f>
-        <v>21796.795149429945</v>
-      </c>
-      <c r="J57" s="1"/>
+      <c r="AX57" s="3">
+        <f>0.070000000000000007</f>
+        <v>0.070000000000000007</v>
+      </c>
+      <c r="AY57" s="3">
+        <f>0.28999999999999998</f>
+        <v>0.28999999999999998</v>
+      </c>
       <c r="BA57" s="6">
         <v>43899</v>
       </c>
@@ -6539,11 +6672,11 @@
     <row r="58" spans="1:66" ht="19.5">
       <c r="C58">
         <f>H57*D58</f>
-        <v>708.30425076955248</v>
+        <v>927.12945331040089</v>
       </c>
       <c r="D58">
         <f>D57</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E58" t="s">
         <v>12</v>
@@ -6553,150 +6686,154 @@
       </c>
       <c r="G58" s="2">
         <f>H58*35</f>
-        <v>787678.47900698241</v>
+        <v>912919.49617140181</v>
       </c>
       <c r="H58">
         <f>H57+C58</f>
-        <v>22505.099400199499</v>
+        <v>26083.414176325765</v>
       </c>
       <c r="J58" s="1"/>
-      <c r="P58" t="inlineStr">
+      <c r="BA58" s="6">
+        <v>43900</v>
+      </c>
+      <c r="BB58">
+        <v>959</v>
+      </c>
+      <c r="BC58">
+        <f>(BB58/BB57)-1</f>
+        <v>0.64493996569468259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:66" ht="19.5">
+      <c r="C59">
+        <f>H58*D59</f>
+        <v>961.29860955346203</v>
+      </c>
+      <c r="D59">
+        <f>D58</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="6">
+        <v>43949</v>
+      </c>
+      <c r="G59" s="2">
+        <f>H59*35</f>
+        <v>946564.94750577293</v>
+      </c>
+      <c r="H59">
+        <f>H58+C59</f>
+        <v>27044.712785879226</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="P59" t="inlineStr">
         <is>
           <t>older Source: https://portal.ct.gov/Coronavirus/Pages/Governors-Press-Releases</t>
         </is>
       </c>
-      <c r="AQ58" s="7"/>
-      <c r="AU58" s="7" t="inlineStr">
+      <c r="AU59" t="inlineStr">
         <is>
           <t>r: +3</t>
         </is>
       </c>
-      <c r="AW58">
-        <f>AW57+766</f>
+      <c r="AW59">
+        <f>AW58+766</f>
         <v>766</v>
       </c>
-      <c r="AX58">
-        <f>AX57+129</f>
+      <c r="AX59">
+        <f>AX58+129</f>
         <v>129</v>
       </c>
-      <c r="AY58">
-        <f>AY57+197</f>
+      <c r="AY59">
+        <f>AY58+197</f>
         <v>197</v>
       </c>
-      <c r="BA58" s="6">
-        <v>43900</v>
-      </c>
-      <c r="BB58">
-        <v>959</v>
-      </c>
-      <c r="BC58">
-        <f>(BB58/BB57)-1</f>
-        <v>0.64493996569468259</v>
-      </c>
-    </row>
-    <row r="59" spans="1:66" ht="19.5">
-      <c r="C59">
-        <f>H58*D59</f>
-        <v>731.32116257786197</v>
-      </c>
-      <c r="D59">
-        <f>D58</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E59" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="6">
-        <v>43949</v>
-      </c>
-      <c r="G59" s="2">
-        <f>H59*35</f>
-        <v>813274.71969720756</v>
-      </c>
-      <c r="H59">
-        <f>H58+C59</f>
-        <v>23236.420562777359</v>
-      </c>
-      <c r="I59" s="1"/>
-      <c r="AL59" t="inlineStr">
+      <c r="BA59" s="6">
+        <v>43901</v>
+      </c>
+      <c r="BB59">
+        <v>1281</v>
+      </c>
+      <c r="BC59">
+        <f>(BB59/BB58)-1</f>
+        <v>0.33576642335766427</v>
+      </c>
+    </row>
+    <row r="60" spans="1:66" ht="19.5">
+      <c r="C60">
+        <f>H59*D60</f>
+        <v>996.72706268779746</v>
+      </c>
+      <c r="D60">
+        <f>D59</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="6">
+        <v>43950</v>
+      </c>
+      <c r="G60" s="2">
+        <f>H60*35</f>
+        <v>981450.39469984581</v>
+      </c>
+      <c r="H60">
+        <f>H59+C60</f>
+        <v>28041.439848567024</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>&lt;&lt; 981 thousand (35x measured)</t>
+        </is>
+      </c>
+      <c r="AL60" t="inlineStr">
         <is>
           <t>any zero-to-positive int gets the 'r: +n' entry.</t>
         </is>
       </c>
-      <c r="BA59" s="6">
-        <v>43901</v>
-      </c>
-      <c r="BB59">
-        <v>1281</v>
-      </c>
-      <c r="BC59">
-        <f>(BB59/BB58)-1</f>
-        <v>0.33576642335766427</v>
-      </c>
-    </row>
-    <row r="60" spans="1:66" ht="19.5">
-      <c r="C60">
-        <f>H59*D60</f>
-        <v>755.08602730134294</v>
-      </c>
-      <c r="D60">
-        <f>D59</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E60" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="6">
-        <v>43950</v>
-      </c>
-      <c r="G60" s="2">
-        <f>H60*35</f>
-        <v>839702.73065275454</v>
-      </c>
-      <c r="H60">
-        <f>H59+C60</f>
-        <v>23991.506590078701</v>
-      </c>
-      <c r="P60" t="inlineStr">
+      <c r="BA60" s="6">
+        <v>43902</v>
+      </c>
+      <c r="BB60">
+        <v>1663</v>
+      </c>
+      <c r="BC60">
+        <f>(BB60/BB59)-1</f>
+        <v>0.29820452771272454</v>
+      </c>
+    </row>
+    <row r="61" spans="1:66" ht="19.5">
+      <c r="C61">
+        <f>H60*D61</f>
+        <v>1033.4612238290081</v>
+      </c>
+      <c r="D61">
+        <f>D60</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="6">
+        <v>43951</v>
+      </c>
+      <c r="G61" s="2">
+        <f>H61*35</f>
+        <v>1017621.5375338611</v>
+      </c>
+      <c r="H61">
+        <f>H60+C61</f>
+        <v>29074.901072396031</v>
+      </c>
+      <c r="P61" t="inlineStr">
         <is>
           <t>recent Source: https://portal.ct.gov/-/media/Coronavirus/CTDPHCOVID19summary3312020.pdf?la=en</t>
         </is>
       </c>
-      <c r="BA60" s="6">
-        <v>43902</v>
-      </c>
-      <c r="BB60">
-        <v>1663</v>
-      </c>
-      <c r="BC60">
-        <f>(BB60/BB59)-1</f>
-        <v>0.29820452771272454</v>
-      </c>
-    </row>
-    <row r="61" spans="1:66" ht="19.5">
-      <c r="C61">
-        <f>H60*D61</f>
-        <v>779.62315026679062</v>
-      </c>
-      <c r="D61">
-        <f>D60</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E61" t="s">
-        <v>15</v>
-      </c>
-      <c r="F61" s="6">
-        <v>43951</v>
-      </c>
-      <c r="G61" s="2">
-        <f>H61*35</f>
-        <v>866989.5409120922</v>
-      </c>
-      <c r="H61">
-        <f>H60+C61</f>
-        <v>24771.129740345492</v>
-      </c>
-      <c r="J61" s="1"/>
       <c r="BA61" s="6">
         <v>43903</v>
       </c>
@@ -6711,11 +6848,11 @@
     <row r="62" spans="1:66" ht="19.5">
       <c r="C62">
         <f>H61*D62</f>
-        <v>804.95762662198808</v>
+        <v>1071.54921456436</v>
       </c>
       <c r="D62">
         <f>D61</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E62" t="s">
         <v>16</v>
@@ -6725,858 +6862,863 @@
       </c>
       <c r="G62" s="2">
         <f>H62*35</f>
-        <v>895163.05784386175</v>
+        <v>1055125.7600436136</v>
       </c>
       <c r="H62">
         <f>H61+C62</f>
-        <v>25576.08736696748</v>
-      </c>
-      <c r="J62" s="1" t="inlineStr">
+        <v>30146.450286960389</v>
+      </c>
+      <c r="J62" s="1"/>
+      <c r="P62" t="inlineStr">
         <is>
-          <t>The four percent (above) is somewhat in agreement with</t>
+          <t>recent Source: https://portal.ct.gov/Office-of-the-Governor/News/Press-Releases/2020/04-2020/Governor-Lamont-Coronavirus-Update-April-16</t>
         </is>
       </c>
-      <c r="P62" t="inlineStr">
+      <c r="BA62" s="6">
+        <v>43904</v>
+      </c>
+      <c r="BB62">
+        <v>2727</v>
+      </c>
+      <c r="BC62">
+        <f>(BB62/BB61)-1</f>
+        <v>0.25149150986691149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:66" ht="19.5">
+      <c r="C63">
+        <f>H62*D63</f>
+        <v>1111.0409299918501</v>
+      </c>
+      <c r="D63">
+        <f>D62</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="6">
+        <v>43953</v>
+      </c>
+      <c r="G63" s="2">
+        <f>H63*35</f>
+        <v>1094012.1925933284</v>
+      </c>
+      <c r="H63">
+        <f>H62+C63</f>
+        <v>31257.491216952239</v>
+      </c>
+      <c r="J63" s="1" t="inlineStr">
+        <is>
+          <t>The (near) four percent (above) is somewhat in agreement with</t>
+        </is>
+      </c>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AC63" s="1"/>
+      <c r="BA63" s="6">
+        <v>43905</v>
+      </c>
+      <c r="BB63">
+        <v>3499</v>
+      </c>
+      <c r="BC63">
+        <f>(BB63/BB62)-1</f>
+        <v>0.28309497616428314</v>
+      </c>
+    </row>
+    <row r="64" spans="1:66" ht="19.5">
+      <c r="C64">
+        <f>H63*D64</f>
+        <v>1151.9881040825619</v>
+      </c>
+      <c r="D64">
+        <f>D63</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="6">
+        <v>43954</v>
+      </c>
+      <c r="G64" s="2">
+        <f>H64*35</f>
+        <v>1134331.7762362179</v>
+      </c>
+      <c r="H64">
+        <f>H63+C64</f>
+        <v>32409.4793210348</v>
+      </c>
+      <c r="J64" s="1" t="inlineStr">
+        <is>
+          <t>the best national figure (of 4.7 percent growth in 24 hours)</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
         <is>
           <t>export: $ ssconvert -T Gnumeric_stf:stf_csv thisfile.gnumeric thisfile.csv</t>
         </is>
       </c>
-      <c r="BA62" s="6">
-        <v>43904</v>
-      </c>
-      <c r="BB62">
-        <v>2727</v>
-      </c>
-      <c r="BC62">
-        <f>(BB62/BB61)-1</f>
-        <v>0.25149150986691149</v>
-      </c>
-    </row>
-    <row r="63" spans="1:66" ht="19.5">
-      <c r="C63">
-        <f>H62*D63</f>
-        <v>831.11536700157035</v>
-      </c>
-      <c r="D63">
-        <f>D62</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63" s="6">
-        <v>43953</v>
-      </c>
-      <c r="G63" s="2">
-        <f>H63*35</f>
-        <v>924252.09568891674</v>
-      </c>
-      <c r="H63">
-        <f>H62+C63</f>
-        <v>26407.20273396905</v>
-      </c>
-      <c r="J63" s="1" t="inlineStr">
+      <c r="BA64" s="6">
+        <v>43906</v>
+      </c>
+      <c r="BB64">
+        <v>4632</v>
+      </c>
+      <c r="BC64">
+        <f>(BB64/BB63)-1</f>
+        <v>0.32380680194341238</v>
+      </c>
+    </row>
+    <row r="65" spans="1:66" ht="19.5">
+      <c r="C65">
+        <f>H64*D65</f>
+        <v>1194.4443774519361</v>
+      </c>
+      <c r="D65">
+        <f>D64</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="6">
+        <v>43955</v>
+      </c>
+      <c r="G65" s="2">
+        <f>H65*35</f>
+        <v>1176137.3294470359</v>
+      </c>
+      <c r="H65">
+        <f>H64+C65</f>
+        <v>33603.923698486738</v>
+      </c>
+      <c r="J65" s="1" t="inlineStr">
         <is>
-          <t>the best national figure (of 4.7 percent growth in 24 hours)</t>
+          <t>near the 16 April 2020 time mark.</t>
         </is>
       </c>
-      <c r="BA63" s="6">
-        <v>43905</v>
-      </c>
-      <c r="BB63">
-        <v>3499</v>
-      </c>
-      <c r="BC63">
-        <f>(BB63/BB62)-1</f>
-        <v>0.28309497616428314</v>
-      </c>
-    </row>
-    <row r="64" spans="1:66" ht="19.5">
-      <c r="C64">
-        <f>H63*D64</f>
-        <v>858.1231240269193</v>
-      </c>
-      <c r="D64">
-        <f>D63</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E64" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="6">
-        <v>43954</v>
-      </c>
-      <c r="G64" s="2">
-        <f>H64*35</f>
-        <v>954286.40502985893</v>
-      </c>
-      <c r="H64">
-        <f>H63+C64</f>
-        <v>27265.325857995969</v>
-      </c>
-      <c r="J64" s="1" t="inlineStr">
-        <is>
-          <t>near the 15 April 2020 time mark.</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
+      <c r="BA65" s="6">
+        <v>43907</v>
+      </c>
+      <c r="BB65">
+        <v>6421</v>
+      </c>
+      <c r="BC65">
+        <f>(BB65/BB64)-1</f>
+        <v>0.38622625215889461</v>
+      </c>
+    </row>
+    <row r="66" spans="1:66" ht="19.5">
+      <c r="C66">
+        <f>H65*D66</f>
+        <v>1238.4653676287382</v>
+      </c>
+      <c r="D66">
+        <f>D65</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="6">
+        <v>43956</v>
+      </c>
+      <c r="G66" s="2">
+        <f>H66*35</f>
+        <v>1219483.6173140418</v>
+      </c>
+      <c r="H66">
+        <f>H65+C66</f>
+        <v>34842.38906611548</v>
+      </c>
+      <c r="P66" t="inlineStr">
         <is>
           <t>March 31: Hospitalization by county presented in a graphic (only?)</t>
         </is>
       </c>
-      <c r="BA64" s="6">
-        <v>43906</v>
-      </c>
-      <c r="BB64">
-        <v>4632</v>
-      </c>
-      <c r="BC64">
-        <f>(BB64/BB63)-1</f>
-        <v>0.32380680194341238</v>
-      </c>
-    </row>
-    <row r="65" spans="1:66" ht="19.5">
-      <c r="C65">
-        <f>H64*D65</f>
-        <v>886.00851966719586</v>
-      </c>
-      <c r="D65">
-        <f>D64</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E65" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="6">
-        <v>43955</v>
-      </c>
-      <c r="G65" s="2">
-        <f>H65*35</f>
-        <v>985296.70321821084</v>
-      </c>
-      <c r="H65">
-        <f>H64+C65</f>
-        <v>28151.334377663166</v>
-      </c>
-      <c r="BA65" s="6">
-        <v>43907</v>
-      </c>
-      <c r="BB65">
-        <v>6421</v>
-      </c>
-      <c r="BC65">
-        <f>(BB65/BB64)-1</f>
-        <v>0.38622625215889461</v>
-      </c>
-    </row>
-    <row r="66" spans="1:66" ht="19.5">
-      <c r="C66">
-        <f>H65*D66</f>
-        <v>914.80007348948914</v>
-      </c>
-      <c r="D66">
-        <f>D65</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E66" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="6">
-        <v>43956</v>
-      </c>
-      <c r="G66" s="2">
-        <f>H66*35</f>
-        <v>1017314.7057903429</v>
-      </c>
-      <c r="H66">
-        <f>H65+C66</f>
-        <v>29066.134451152655</v>
-      </c>
-      <c r="P66" t="inlineStr">
+      <c r="BA66" s="6">
+        <v>43908</v>
+      </c>
+      <c r="BB66">
+        <v>7783</v>
+      </c>
+      <c r="BC66">
+        <f>(BB66/BB65)-1</f>
+        <v>0.21211649275813738</v>
+      </c>
+    </row>
+    <row r="67" spans="1:66" ht="19.5">
+      <c r="C67">
+        <f>H66*D67</f>
+        <v>1284.1087419137732</v>
+      </c>
+      <c r="D67">
+        <f>D66</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="6">
+        <v>43957</v>
+      </c>
+      <c r="G67" s="2">
+        <f>H67*35</f>
+        <v>1264427.423281024</v>
+      </c>
+      <c r="H67">
+        <f>H66+C67</f>
+        <v>36126.497808029257</v>
+      </c>
+      <c r="BA67" s="6">
+        <v>43909</v>
+      </c>
+      <c r="BB67">
+        <v>13677</v>
+      </c>
+      <c r="BC67">
+        <f>(BB67/BB66)-1</f>
+        <v>0.75729153282795836</v>
+      </c>
+    </row>
+    <row r="68" spans="1:66" ht="19.5">
+      <c r="C68">
+        <f>H67*D68</f>
+        <v>1331.4342929237923</v>
+      </c>
+      <c r="D68">
+        <f>D67</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E68" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" s="6">
+        <v>43958</v>
+      </c>
+      <c r="G68" s="2">
+        <f>H68*35</f>
+        <v>1311027.6235333567</v>
+      </c>
+      <c r="H68">
+        <f>H67+C68</f>
+        <v>37457.932100953047</v>
+      </c>
+      <c r="P68" t="inlineStr">
         <is>
           <t>31 March 23:09 UTC: many cosmetic changes, columns deleted (or added).</t>
         </is>
       </c>
-      <c r="BA66" s="6">
-        <v>43908</v>
-      </c>
-      <c r="BB66">
-        <v>7783</v>
-      </c>
-      <c r="BC66">
-        <f>(BB66/BB65)-1</f>
-        <v>0.21211649275813738</v>
-      </c>
-    </row>
-    <row r="67" spans="1:66" ht="19.5">
-      <c r="C67">
-        <f>H66*D67</f>
-        <v>944.52723182697753</v>
-      </c>
-      <c r="D67">
-        <f>D66</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E67" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="6">
-        <v>43957</v>
-      </c>
-      <c r="G67" s="2">
-        <f>H67*35</f>
-        <v>1050373.1589042873</v>
-      </c>
-      <c r="H67">
-        <f>H66+C67</f>
-        <v>30010.661682979633</v>
-      </c>
-      <c r="P67" t="inlineStr">
+      <c r="BA68" s="6">
+        <v>43910</v>
+      </c>
+      <c r="BB68">
+        <v>19100</v>
+      </c>
+      <c r="BC68">
+        <f>(BB68/BB67)-1</f>
+        <v>0.39650508152372588</v>
+      </c>
+    </row>
+    <row r="69" spans="1:66" ht="19.5">
+      <c r="C69">
+        <f>H68*D69</f>
+        <v>1380.5040169195538</v>
+      </c>
+      <c r="D69">
+        <f>D68</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E69" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="6">
+        <v>43959</v>
+      </c>
+      <c r="G69" s="2">
+        <f>H69*35</f>
+        <v>1359345.2641255411</v>
+      </c>
+      <c r="H69">
+        <f>H68+C69</f>
+        <v>38838.436117872603</v>
+      </c>
+      <c r="J69" s="1"/>
+      <c r="P69" t="inlineStr">
         <is>
           <t>Hopefully, no major corruption of data/forumlas present after these major edits.</t>
         </is>
       </c>
-      <c r="BA67" s="6">
-        <v>43909</v>
-      </c>
-      <c r="BB67">
-        <v>13677</v>
-      </c>
-      <c r="BC67">
-        <f>(BB67/BB66)-1</f>
-        <v>0.75729153282795836</v>
-      </c>
-    </row>
-    <row r="68" spans="1:66" ht="19.5">
-      <c r="C68">
-        <f>H67*D68</f>
-        <v>975.22039789493249</v>
-      </c>
-      <c r="D68">
-        <f>D67</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E68" t="s">
-        <v>15</v>
-      </c>
-      <c r="F68" s="6">
-        <v>43958</v>
-      </c>
-      <c r="G68" s="2">
-        <f>H68*35</f>
-        <v>1084505.8728306098</v>
-      </c>
-      <c r="H68">
-        <f>H67+C68</f>
-        <v>30985.882080874566</v>
-      </c>
-      <c r="J68" s="1"/>
-      <c r="BA68" s="6">
-        <v>43910</v>
-      </c>
-      <c r="BB68">
-        <v>19100</v>
-      </c>
-      <c r="BC68">
-        <f>(BB68/BB67)-1</f>
-        <v>0.39650508152372588</v>
-      </c>
-    </row>
-    <row r="69" spans="1:66" ht="19.5">
-      <c r="C69">
-        <f>H68*D69</f>
-        <v>1006.9109628853651</v>
-      </c>
-      <c r="D69">
-        <f>D68</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E69" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" s="6">
-        <v>43959</v>
-      </c>
-      <c r="G69" s="2">
-        <f>H69*35</f>
-        <v>1119747.7565315976</v>
-      </c>
-      <c r="H69">
-        <f>H68+C69</f>
-        <v>31992.793043759932</v>
-      </c>
-      <c r="J69" s="1"/>
-      <c r="P69" t="inlineStr">
+      <c r="BA69" s="6">
+        <v>43911</v>
+      </c>
+      <c r="BB69">
+        <v>25489</v>
+      </c>
+      <c r="BC69">
+        <f>(BB69/BB68)-1</f>
+        <v>0.33450261780104706</v>
+      </c>
+    </row>
+    <row r="70" spans="1:66" ht="19.5">
+      <c r="C70">
+        <f>H69*D70</f>
+        <v>1431.3821950206491</v>
+      </c>
+      <c r="D70">
+        <f>D69</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E70" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" s="6">
+        <v>43960</v>
+      </c>
+      <c r="G70" s="2">
+        <f>H70*35</f>
+        <v>1409443.6409512637</v>
+      </c>
+      <c r="H70">
+        <f>H69+C70</f>
+        <v>40269.818312893251</v>
+      </c>
+      <c r="J70" s="1"/>
+      <c r="BA70" s="6">
+        <v>43912</v>
+      </c>
+      <c r="BB70">
+        <v>33276</v>
+      </c>
+      <c r="BC70">
+        <f>(BB70/BB69)-1</f>
+        <v>0.30550433520342102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:66" ht="19.5">
+      <c r="C71">
+        <f>H70*D71</f>
+        <v>1484.135477413482</v>
+      </c>
+      <c r="D71">
+        <f>D70</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="6">
+        <v>43961</v>
+      </c>
+      <c r="G71" s="2">
+        <f>H71*35</f>
+        <v>1461388.3826607356</v>
+      </c>
+      <c r="H71">
+        <f>H70+C71</f>
+        <v>41753.953790306732</v>
+      </c>
+      <c r="J71" s="1"/>
+      <c r="P71" t="inlineStr">
         <is>
           <t>1 April: Column D now formatted as percentile</t>
         </is>
       </c>
-      <c r="BA69" s="6">
-        <v>43911</v>
-      </c>
-      <c r="BB69">
-        <v>25489</v>
-      </c>
-      <c r="BC69">
-        <f>(BB69/BB68)-1</f>
-        <v>0.33450261780104706</v>
-      </c>
-    </row>
-    <row r="70" spans="1:66" ht="19.5">
-      <c r="C70">
-        <f>H69*D70</f>
-        <v>1039.631338072119</v>
-      </c>
-      <c r="D70">
-        <f>D69</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E70" t="s">
-        <v>17</v>
-      </c>
-      <c r="F70" s="6">
-        <v>43960</v>
-      </c>
-      <c r="G70" s="2">
-        <f>H70*35</f>
-        <v>1156134.8533641219</v>
-      </c>
-      <c r="H70">
-        <f>H69+C70</f>
-        <v>33032.424381832054</v>
-      </c>
-      <c r="J70" s="1"/>
-      <c r="P70" t="inlineStr">
+      <c r="BA71" s="6">
+        <v>43913</v>
+      </c>
+      <c r="BB71">
+        <v>43847</v>
+      </c>
+      <c r="BC71">
+        <f>(BB71/BB70)-1</f>
+        <v>0.31767640341387193</v>
+      </c>
+    </row>
+    <row r="72" spans="1:66" ht="19.5">
+      <c r="C72">
+        <f>H71*D72</f>
+        <v>1538.8329706627155</v>
+      </c>
+      <c r="D72">
+        <f>D71</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="6">
+        <v>43962</v>
+      </c>
+      <c r="G72" s="2">
+        <f>H72*35</f>
+        <v>1515247.5366339309</v>
+      </c>
+      <c r="H72">
+        <f>H71+C72</f>
+        <v>43292.786760969451</v>
+      </c>
+      <c r="P72" t="inlineStr">
         <is>
           <t>7 April: 1.09 becomes 1.11 for arbitrary growth reduction supposition expressed in Column D (Multiplier).</t>
         </is>
       </c>
-      <c r="BA70" s="6">
-        <v>43912</v>
-      </c>
-      <c r="BB70">
-        <v>33276</v>
-      </c>
-      <c r="BC70">
-        <f>(BB70/BB69)-1</f>
-        <v>0.30550433520342102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:66" ht="19.5">
-      <c r="C71">
-        <f>H70*D71</f>
-        <v>1073.4149879592439</v>
-      </c>
-      <c r="D71">
-        <f>D70</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E71" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="6">
-        <v>43961</v>
-      </c>
-      <c r="G71" s="2">
-        <f>H71*35</f>
-        <v>1193704.3779426955</v>
-      </c>
-      <c r="H71">
-        <f>H70+C71</f>
-        <v>34105.839369791298</v>
-      </c>
-      <c r="P71" t="inlineStr">
+      <c r="BA72" s="6">
+        <v>43914</v>
+      </c>
+      <c r="BB72">
+        <v>53740</v>
+      </c>
+      <c r="BC72">
+        <f>(BB72/BB71)-1</f>
+        <v>0.22562547038565928</v>
+      </c>
+    </row>
+    <row r="73" spans="1:66" ht="19.5">
+      <c r="C73">
+        <f>H72*D73</f>
+        <v>1595.5463282405644</v>
+      </c>
+      <c r="D73">
+        <f>D72</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E73" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="6">
+        <v>43963</v>
+      </c>
+      <c r="G73" s="2">
+        <f>H73*35</f>
+        <v>1571091.6581223505</v>
+      </c>
+      <c r="H73">
+        <f>H72+C73</f>
+        <v>44888.333089210013</v>
+      </c>
+      <c r="P73" t="inlineStr">
         <is>
           <t>7 April: Column G goes from 100x to 50x (arbitrary value chosen)</t>
         </is>
       </c>
-      <c r="BA71" s="6">
-        <v>43913</v>
-      </c>
-      <c r="BB71">
-        <v>43847</v>
-      </c>
-      <c r="BC71">
-        <f>(BB71/BB70)-1</f>
-        <v>0.31767640341387193</v>
-      </c>
-    </row>
-    <row r="72" spans="1:66" ht="19.5">
-      <c r="C72">
-        <f>H71*D72</f>
-        <v>1108.2964645065501</v>
-      </c>
-      <c r="D72">
-        <f>D71</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E72" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="6">
-        <v>43962</v>
-      </c>
-      <c r="G72" s="2">
-        <f>H72*35</f>
-        <v>1232494.7542004248</v>
-      </c>
-      <c r="H72">
-        <f>H71+C72</f>
-        <v>35214.135834297849</v>
-      </c>
-      <c r="Q72" t="inlineStr">
+      <c r="BA73" s="6">
+        <v>43915</v>
+      </c>
+      <c r="BB73">
+        <v>65778</v>
+      </c>
+      <c r="BC73">
+        <f>(BB73/BB72)-1</f>
+        <v>0.22400446594715295</v>
+      </c>
+    </row>
+    <row r="74" spans="1:66" ht="19.5">
+      <c r="C74">
+        <f>H73*D74</f>
+        <v>1654.3498443925225</v>
+      </c>
+      <c r="D74">
+        <f>D73</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="6">
+        <v>43964</v>
+      </c>
+      <c r="G74" s="2">
+        <f>H74*35</f>
+        <v>1628993.9026760887</v>
+      </c>
+      <c r="H74">
+        <f>H73+C74</f>
+        <v>46542.682933602533</v>
+      </c>
+      <c r="J74" s="1"/>
+      <c r="Q74" t="inlineStr">
         <is>
           <t>(the 100x scaling factor was also arbitrary)</t>
         </is>
       </c>
-      <c r="BA72" s="6">
-        <v>43914</v>
-      </c>
-      <c r="BB72">
-        <v>53740</v>
-      </c>
-      <c r="BC72">
-        <f>(BB72/BB71)-1</f>
-        <v>0.22562547038565928</v>
-      </c>
-    </row>
-    <row r="73" spans="1:66" ht="19.5">
-      <c r="C73">
-        <f>H72*D73</f>
-        <v>1144.3114424673531</v>
-      </c>
-      <c r="D73">
-        <f>D72</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E73" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" s="6">
-        <v>43963</v>
-      </c>
-      <c r="G73" s="2">
-        <f>H73*35</f>
-        <v>1272545.654686782</v>
-      </c>
-      <c r="H73">
-        <f>H72+C73</f>
-        <v>36358.447276765204</v>
-      </c>
-      <c r="J73" s="1"/>
-      <c r="P73" t="inlineStr">
+      <c r="BA74" s="6">
+        <v>43916</v>
+      </c>
+      <c r="BB74">
+        <v>83836</v>
+      </c>
+      <c r="BC74">
+        <f>(BB74/BB73)-1</f>
+        <v>0.27452947794095284</v>
+      </c>
+    </row>
+    <row r="75" spans="1:66" ht="19.5">
+      <c r="C75">
+        <f>H74*D75</f>
+        <v>1715.3205514624947</v>
+      </c>
+      <c r="D75">
+        <f>D74</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" s="6">
+        <v>43965</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75">
+        <f>H74+C75</f>
+        <v>48258.003485065026</v>
+      </c>
+      <c r="P75" t="inlineStr">
         <is>
           <t>7 April: Litchfield County is doubling its Confirmed cases every 6.5 days or so.</t>
         </is>
       </c>
-      <c r="BA73" s="6">
-        <v>43915</v>
-      </c>
-      <c r="BB73">
-        <v>65778</v>
-      </c>
-      <c r="BC73">
-        <f>(BB73/BB72)-1</f>
-        <v>0.22400446594715295</v>
-      </c>
-    </row>
-    <row r="74" spans="1:66" ht="19.5">
-      <c r="C74">
-        <f>H73*D74</f>
-        <v>1181.4967558745429</v>
-      </c>
-      <c r="D74">
-        <f>D73</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E74" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="6">
-        <v>43964</v>
-      </c>
-      <c r="G74" s="2">
-        <f>H74*35</f>
-        <v>1313898.041142391</v>
-      </c>
-      <c r="H74">
-        <f>H73+C74</f>
-        <v>37539.944032639745</v>
-      </c>
-      <c r="Q74" t="inlineStr">
+      <c r="BA75" s="6">
+        <v>43917</v>
+      </c>
+      <c r="BB75">
+        <v>101657</v>
+      </c>
+      <c r="BC75">
+        <f>(BB75/BB74)-1</f>
+        <v>0.21256977909251407</v>
+      </c>
+    </row>
+    <row r="76" spans="1:66" ht="19.5">
+      <c r="C76">
+        <f>H75*D76</f>
+        <v>1778.5383208048227</v>
+      </c>
+      <c r="D76">
+        <f>D75</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E76" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="6">
+        <v>43966</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="H76">
+        <f>H75+C76</f>
+        <v>50036.541805869849</v>
+      </c>
+      <c r="Q76" t="inlineStr">
         <is>
           <t>(own analysis; ignorant and simplistic, there, on Litchfield Cty doublings. ;)</t>
         </is>
       </c>
-      <c r="BA74" s="6">
-        <v>43916</v>
-      </c>
-      <c r="BB74">
-        <v>83836</v>
-      </c>
-      <c r="BC74">
-        <f>(BB74/BB73)-1</f>
-        <v>0.27452947794095284</v>
-      </c>
-    </row>
-    <row r="75" spans="1:66" ht="19.5">
-      <c r="C75">
-        <f>H74*D75</f>
-        <v>1219.8904357122992</v>
-      </c>
-      <c r="D75">
-        <f>D74</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E75" t="s">
-        <v>15</v>
-      </c>
-      <c r="F75" s="6">
-        <v>43965</v>
-      </c>
-      <c r="G75" s="2"/>
-      <c r="H75">
-        <f>H74+C75</f>
-        <v>38759.834468352041</v>
-      </c>
-      <c r="P75" t="inlineStr">
+      <c r="BA76" s="6">
+        <v>43918</v>
+      </c>
+      <c r="BB76">
+        <v>121478</v>
+      </c>
+      <c r="BC76">
+        <f>(BB76/BB75)-1</f>
+        <v>0.19497919474310677</v>
+      </c>
+    </row>
+    <row r="77" spans="1:66" ht="19.5">
+      <c r="C77">
+        <f>H76*D77</f>
+        <v>1844.085967415404</v>
+      </c>
+      <c r="D77">
+        <f>D76</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E77" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" s="6">
+        <v>43966</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77">
+        <f>H76+C77</f>
+        <v>51880.627773285254</v>
+      </c>
+      <c r="P77" t="inlineStr">
         <is>
           <t>9 April: USA Confirmed (far columns, right) now expressed in 3 digits (up from 2 digits, formerly).</t>
         </is>
       </c>
-      <c r="BA75" s="6">
-        <v>43917</v>
-      </c>
-      <c r="BB75">
-        <v>101657</v>
-      </c>
-      <c r="BC75">
-        <f>(BB75/BB74)-1</f>
-        <v>0.21256977909251407</v>
-      </c>
-    </row>
-    <row r="76" spans="1:66" ht="19.5">
-      <c r="C76">
-        <f>H75*D76</f>
-        <v>1259.5317488119792</v>
-      </c>
-      <c r="D76">
-        <f>D75</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E76" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76" s="6">
-        <v>43966</v>
-      </c>
-      <c r="G76" s="2"/>
-      <c r="H76">
-        <f>H75+C76</f>
-        <v>40019.366217164017</v>
-      </c>
-      <c r="Q76" t="inlineStr">
+      <c r="BA77" s="6">
+        <v>43919</v>
+      </c>
+      <c r="BB77">
+        <v>140886</v>
+      </c>
+      <c r="BC77">
+        <f>(BB77/BB76)-1</f>
+        <v>0.15976555425673777</v>
+      </c>
+    </row>
+    <row r="78" spans="1:66" ht="19.5">
+      <c r="C78">
+        <f>H77*D78</f>
+        <v>1912.0493584189658</v>
+      </c>
+      <c r="D78">
+        <f>D77</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="6">
+        <v>43968</v>
+      </c>
+      <c r="G78" s="2"/>
+      <c r="H78">
+        <f>H77+C78</f>
+        <v>53792.677131704222</v>
+      </c>
+      <c r="Q78" t="inlineStr">
         <is>
           <t>This reflects that they've reached consistently below 10 percent, and so</t>
         </is>
       </c>
-      <c r="BA76" s="6">
-        <v>43918</v>
-      </c>
-      <c r="BB76">
-        <v>121478</v>
-      </c>
-      <c r="BC76">
-        <f>(BB76/BB75)-1</f>
-        <v>0.19497919474310677</v>
-      </c>
-    </row>
-    <row r="77" spans="1:66" ht="19.5">
-      <c r="C77">
-        <f>H76*D77</f>
-        <v>1300.4612380119574</v>
-      </c>
-      <c r="D77">
-        <f>D76</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E77" t="s">
-        <v>17</v>
-      </c>
-      <c r="F77" s="6">
-        <v>43966</v>
-      </c>
-      <c r="G77" s="2"/>
-      <c r="H77">
-        <f>H76+C77</f>
-        <v>41319.827455175975</v>
-      </c>
-      <c r="Q77" t="inlineStr">
+      <c r="BA78" s="6">
+        <v>43920</v>
+      </c>
+      <c r="BB78">
+        <v>161807</v>
+      </c>
+      <c r="BC78">
+        <f>(BB78/BB77)-1</f>
+        <v>0.14849594707777913</v>
+      </c>
+    </row>
+    <row r="79" spans="1:66" ht="19.5">
+      <c r="C79">
+        <f>H78*D79</f>
+        <v>1982.5175255546174</v>
+      </c>
+      <c r="D79">
+        <f>D78</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E79" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="6">
+        <v>43969</v>
+      </c>
+      <c r="G79" s="2"/>
+      <c r="H79">
+        <f>H78+C79</f>
+        <v>55775.194657258842</v>
+      </c>
+      <c r="J79" s="1"/>
+      <c r="Q79" t="inlineStr">
         <is>
           <t>require another digit of precision (the decimal point has moved</t>
         </is>
       </c>
-      <c r="BA77" s="6">
-        <v>43919</v>
-      </c>
-      <c r="BB77">
-        <v>140886</v>
-      </c>
-      <c r="BC77">
-        <f>(BB77/BB76)-1</f>
-        <v>0.15976555425673777</v>
-      </c>
-    </row>
-    <row r="78" spans="1:66" ht="19.5">
-      <c r="C78">
-        <f>H77*D78</f>
-        <v>1342.7207636224919</v>
-      </c>
-      <c r="D78">
-        <f>D77</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E78" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78" s="6">
-        <v>43968</v>
-      </c>
-      <c r="G78" s="2"/>
-      <c r="H78">
-        <f>H77+C78</f>
-        <v>42662.548218798467</v>
-      </c>
-      <c r="J78" s="1"/>
-      <c r="Q78" t="inlineStr">
+      <c r="BA79" s="6">
+        <v>43921</v>
+      </c>
+      <c r="BB79">
+        <v>188172</v>
+      </c>
+      <c r="BC79">
+        <f>(BB79/BB78)-1</f>
+        <v>0.16294103468947574</v>
+      </c>
+    </row>
+    <row r="80" spans="1:66" ht="19.5">
+      <c r="C80">
+        <f>H79*D80</f>
+        <v>2055.5827818070288</v>
+      </c>
+      <c r="D80">
+        <f>D79</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="6">
+        <v>43970</v>
+      </c>
+      <c r="G80" s="2"/>
+      <c r="H80">
+        <f>H79+C80</f>
+        <v>57830.777439065874</v>
+      </c>
+      <c r="Q80" t="inlineStr">
         <is>
           <t>over one place)</t>
         </is>
       </c>
-      <c r="BA78" s="6">
-        <v>43920</v>
-      </c>
-      <c r="BB78">
-        <v>161807</v>
-      </c>
-      <c r="BC78">
-        <f>(BB78/BB77)-1</f>
-        <v>0.14849594707777913</v>
-      </c>
-    </row>
-    <row r="79" spans="1:66" ht="19.5">
-      <c r="C79">
-        <f>H78*D79</f>
-        <v>1386.3535462380235</v>
-      </c>
-      <c r="D79">
-        <f>D78</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E79" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="6">
-        <v>43969</v>
-      </c>
-      <c r="G79" s="2"/>
-      <c r="H79">
-        <f>H78+C79</f>
-        <v>44048.901765036491</v>
-      </c>
-      <c r="P79" t="inlineStr">
+      <c r="BA80" s="6">
+        <v>43922</v>
+      </c>
+      <c r="BB80">
+        <v>213372</v>
+      </c>
+      <c r="BC80">
+        <f>(BB80/BB79)-1</f>
+        <v>0.13392003061029278</v>
+      </c>
+    </row>
+    <row r="81" spans="1:66" ht="19.5">
+      <c r="C81">
+        <f>H80*D81</f>
+        <v>2131.3408423360315</v>
+      </c>
+      <c r="D81">
+        <f>D80</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E81" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="6">
+        <v>43971</v>
+      </c>
+      <c r="G81" s="2"/>
+      <c r="H81">
+        <f>H80+C81</f>
+        <v>59962.118281401905</v>
+      </c>
+      <c r="P81" t="inlineStr">
         <is>
           <t>9 April: Have not kept up with the state epidemiologist's estimate</t>
         </is>
       </c>
-      <c r="BA79" s="6">
-        <v>43921</v>
-      </c>
-      <c r="BB79">
-        <v>188172</v>
-      </c>
-      <c r="BC79">
-        <f>(BB79/BB78)-1</f>
-        <v>0.16294103468947574</v>
-      </c>
-    </row>
-    <row r="80" spans="1:66" ht="19.5">
-      <c r="C80">
-        <f>H79*D80</f>
-        <v>1431.4042109406973</v>
-      </c>
-      <c r="D80">
-        <f>D79</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="6">
-        <v>43970</v>
-      </c>
-      <c r="G80" s="2"/>
-      <c r="H80">
-        <f>H79+C80</f>
-        <v>45480.305975977186</v>
-      </c>
-      <c r="Q80" t="inlineStr">
+      <c r="BA81" s="6">
+        <v>43923</v>
+      </c>
+      <c r="BB81">
+        <v>243453</v>
+      </c>
+      <c r="BC81">
+        <f>(BB81/BB80)-1</f>
+        <v>0.1409791350317755</v>
+      </c>
+    </row>
+    <row r="82" spans="1:66" ht="19.5">
+      <c r="C82">
+        <f>H81*D82</f>
+        <v>2209.8909498630496</v>
+      </c>
+      <c r="D82">
+        <f>D81</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E82" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" s="6">
+        <v>43972</v>
+      </c>
+      <c r="G82" s="2"/>
+      <c r="H82">
+        <f>H81+C82</f>
+        <v>62172.009231264958</v>
+      </c>
+      <c r="Q82" t="inlineStr">
         <is>
           <t>of the multiplier factor (Confirmed and tested vs estimated true count of cases</t>
         </is>
       </c>
-      <c r="BA80" s="6">
-        <v>43922</v>
-      </c>
-      <c r="BB80">
-        <v>213372</v>
-      </c>
-      <c r="BC80">
-        <f>(BB80/BB79)-1</f>
-        <v>0.13392003061029278</v>
-      </c>
-    </row>
-    <row r="81" spans="1:66" ht="19.5">
-      <c r="C81">
-        <f>H80*D81</f>
-        <v>1477.9188329403103</v>
-      </c>
-      <c r="D81">
-        <f>D80</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E81" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="6">
-        <v>43971</v>
-      </c>
-      <c r="G81" s="2"/>
-      <c r="H81">
-        <f>H80+C81</f>
-        <v>46958.224808917497</v>
-      </c>
-      <c r="Q81" t="inlineStr">
+      <c r="BA82" s="6">
+        <v>43924</v>
+      </c>
+      <c r="BB82">
+        <v>275586</v>
+      </c>
+      <c r="BC82">
+        <f>(BB82/BB81)-1</f>
+        <v>0.13198851523702726</v>
+      </c>
+    </row>
+    <row r="83" spans="1:66" ht="19.5">
+      <c r="C83">
+        <f>H82*D83</f>
+        <v>2291.336004678622</v>
+      </c>
+      <c r="D83">
+        <f>D82</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E83" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" s="6">
+        <v>43973</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83">
+        <f>H82+C83</f>
+        <v>64463.345235943576</v>
+      </c>
+      <c r="Q83" t="inlineStr">
         <is>
           <t>in the state of Connecticut) and (therefore) still using a '50x' multiplier,</t>
         </is>
       </c>
-      <c r="BA81" s="6">
-        <v>43923</v>
-      </c>
-      <c r="BB81">
-        <v>243453</v>
-      </c>
-      <c r="BC81">
-        <f>(BB81/BB80)-1</f>
-        <v>0.1409791350317755</v>
-      </c>
-    </row>
-    <row r="82" spans="1:66" ht="19.5">
-      <c r="C82">
-        <f>H81*D82</f>
-        <v>1525.9449846973669</v>
-      </c>
-      <c r="D82">
-        <f>D81</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E82" t="s">
-        <v>15</v>
-      </c>
-      <c r="F82" s="6">
-        <v>43972</v>
-      </c>
-      <c r="G82" s="2"/>
-      <c r="H82">
-        <f>H81+C82</f>
-        <v>48484.169793614863</v>
-      </c>
-      <c r="Q82" t="inlineStr">
+      <c r="BA83" s="6">
+        <v>43925</v>
+      </c>
+      <c r="BB83">
+        <v>308850</v>
+      </c>
+      <c r="BC83">
+        <f>(BB83/BB82)-1</f>
+        <v>0.12070279332041545</v>
+      </c>
+    </row>
+    <row r="84" spans="1:66" ht="19.5">
+      <c r="C84">
+        <f>H83*D84</f>
+        <v>2375.7826994413249</v>
+      </c>
+      <c r="D84">
+        <f>D83</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E84" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84" s="6">
+        <v>43974</v>
+      </c>
+      <c r="G84" s="2"/>
+      <c r="H84">
+        <f>H83+C84</f>
+        <v>66839.127935384895</v>
+      </c>
+      <c r="Q84" t="inlineStr">
         <is>
           <t>with no particular justification for this figure.</t>
         </is>
       </c>
-      <c r="BA82" s="6">
-        <v>43924</v>
-      </c>
-      <c r="BB82">
-        <v>275586</v>
-      </c>
-      <c r="BC82">
-        <f>(BB82/BB81)-1</f>
-        <v>0.13198851523702726</v>
-      </c>
-    </row>
-    <row r="83" spans="1:66" ht="19.5">
-      <c r="C83">
-        <f>H82*D83</f>
-        <v>1575.531784577435</v>
-      </c>
-      <c r="D83">
-        <f>D82</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E83" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" s="6">
-        <v>43973</v>
-      </c>
-      <c r="G83" s="2"/>
-      <c r="H83">
-        <f>H82+C83</f>
-        <v>50059.701578192296</v>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>12 April: demoted from 50x to 35x (measured) transmission multiplier.</t>
-        </is>
-      </c>
-      <c r="BA83" s="6">
-        <v>43925</v>
-      </c>
-      <c r="BB83">
-        <v>308850</v>
-      </c>
-      <c r="BC83">
-        <f>(BB83/BB82)-1</f>
-        <v>0.12070279332041545</v>
-      </c>
-    </row>
-    <row r="84" spans="1:66" ht="19.5">
-      <c r="C84">
-        <f>H83*D84</f>
-        <v>1626.7299470865653</v>
-      </c>
-      <c r="D84">
-        <f>D83</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E84" t="s">
-        <v>17</v>
-      </c>
-      <c r="F84" s="6">
-        <v>43974</v>
-      </c>
-      <c r="G84" s="2"/>
-      <c r="H84">
-        <f>H83+C84</f>
-        <v>51686.431525278858</v>
-      </c>
-      <c r="J84" s="1"/>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>Reference value only - please do not quote it in any context.</t>
-        </is>
-      </c>
       <c r="BA84" s="6">
         <v>43926</v>
       </c>
       <c r="BB84">
         <v>337072</v>
       </c>
-      <c r="BC84" s="8">
+      <c r="BC84" s="7">
         <f>(BB84/BB83)-1</f>
         <v>0.091377691435972075</v>
       </c>
@@ -7589,11 +7731,11 @@
     <row r="85" spans="1:66" ht="19.5">
       <c r="C85">
         <f>H84*D85</f>
-        <v>1679.5918347391487</v>
+        <v>2463.3416589446788</v>
       </c>
       <c r="D85">
         <f>D84</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
@@ -7604,156 +7746,167 @@
       <c r="G85" s="2"/>
       <c r="H85">
         <f>H84+C85</f>
-        <v>53366.023360018007</v>
+        <v>69302.469594329566</v>
       </c>
       <c r="J85" s="1"/>
-      <c r="Q85" t="inlineStr">
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>12 April: demoted from 50x to 35x (measured) transmission multiplier.</t>
+        </is>
+      </c>
+      <c r="BA85" s="6">
+        <v>43927</v>
+      </c>
+      <c r="BB85">
+        <v>366667</v>
+      </c>
+      <c r="BC85" s="7">
+        <f>(BB85/BB84)-1</f>
+        <v>0.087800232591256577</v>
+      </c>
+    </row>
+    <row r="86" spans="1:66" ht="19.5">
+      <c r="C86">
+        <f>H85*D86</f>
+        <v>2554.1275850351335</v>
+      </c>
+      <c r="D86">
+        <f>D85</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="6">
+        <v>43976</v>
+      </c>
+      <c r="G86" s="2"/>
+      <c r="H86">
+        <f>H85+C86</f>
+        <v>71856.597179364704</v>
+      </c>
+      <c r="J86" s="1"/>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>Reference value only - please do not quote it in any context.</t>
+        </is>
+      </c>
+      <c r="BA86" s="6">
+        <v>43928</v>
+      </c>
+      <c r="BB86">
+        <v>396223</v>
+      </c>
+      <c r="BC86" s="7">
+        <f>(BB86/BB85)-1</f>
+        <v>0.080607199448000433</v>
+      </c>
+    </row>
+    <row r="87" spans="1:66" ht="19.5">
+      <c r="C87">
+        <f>H86*D87</f>
+        <v>2648.2594068709773</v>
+      </c>
+      <c r="D87">
+        <f>D86</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="6">
+        <v>43977</v>
+      </c>
+      <c r="G87" s="2"/>
+      <c r="H87">
+        <f>H86+C87</f>
+        <v>74504.856586235677</v>
+      </c>
+      <c r="J87" s="1"/>
+      <c r="Q87" t="inlineStr">
         <is>
           <t>(Assign some other value to it, based on some other</t>
         </is>
       </c>
-      <c r="BA85" s="6">
-        <v>43927</v>
-      </c>
-      <c r="BB85">
-        <v>366667</v>
-      </c>
-      <c r="BC85" s="8">
-        <f>(BB85/BB84)-1</f>
-        <v>0.087800232591256577</v>
-      </c>
-    </row>
-    <row r="86" spans="1:66" ht="19.5">
-      <c r="C86">
-        <f>H85*D86</f>
-        <v>1734.1715116112637</v>
-      </c>
-      <c r="D86">
-        <f>D85</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E86" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" s="6">
-        <v>43976</v>
-      </c>
-      <c r="G86" s="2"/>
-      <c r="H86">
-        <f>H85+C86</f>
-        <v>55100.194871629268</v>
-      </c>
-      <c r="J86" s="1"/>
-      <c r="Q86" t="inlineStr">
+      <c r="BA87" s="6">
+        <v>43929</v>
+      </c>
+      <c r="BB87">
+        <v>429052</v>
+      </c>
+      <c r="BC87" s="7">
+        <f>(BB87/BB86)-1</f>
+        <v>0.0828548569871006</v>
+      </c>
+    </row>
+    <row r="88" spans="1:66" ht="19.5">
+      <c r="C88">
+        <f>H87*D88</f>
+        <v>2745.860436719001</v>
+      </c>
+      <c r="D88">
+        <f>D87</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E88" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="6">
+        <v>43978</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="H88">
+        <f>H87+C88</f>
+        <v>77250.717022954675</v>
+      </c>
+      <c r="Q88" t="inlineStr">
         <is>
           <t>findings than given here).</t>
         </is>
       </c>
-      <c r="BA86" s="6">
-        <v>43928</v>
-      </c>
-      <c r="BB86">
-        <v>396223</v>
-      </c>
-      <c r="BC86" s="8">
-        <f>(BB86/BB85)-1</f>
-        <v>0.080607199448000433</v>
-      </c>
-    </row>
-    <row r="87" spans="1:66" ht="19.5">
-      <c r="C87">
-        <f>H86*D87</f>
-        <v>1790.5247986342802</v>
-      </c>
-      <c r="D87">
-        <f>D86</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E87" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" s="6">
-        <v>43977</v>
-      </c>
-      <c r="G87" s="2"/>
-      <c r="H87">
-        <f>H86+C87</f>
-        <v>56890.719670263548</v>
-      </c>
-      <c r="P87" t="inlineStr">
+      <c r="BA88" s="6">
+        <v>43930</v>
+      </c>
+      <c r="BB88">
+        <v>461437</v>
+      </c>
+      <c r="BC88" s="7">
+        <f>(BB88/BB87)-1</f>
+        <v>0.07548036135480074</v>
+      </c>
+    </row>
+    <row r="89" spans="1:66" ht="19.5">
+      <c r="C89">
+        <f>H88*D89</f>
+        <v>2847.0585314930213</v>
+      </c>
+      <c r="D89">
+        <f>D88</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E89" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" s="6">
+        <v>43979</v>
+      </c>
+      <c r="G89" s="2"/>
+      <c r="H89">
+        <f>H88+C89</f>
+        <v>80097.775554447697</v>
+      </c>
+      <c r="P89" t="inlineStr">
         <is>
           <t>15 April: formalized entry (column L labels added)</t>
         </is>
       </c>
-      <c r="BA87" s="6">
-        <v>43929</v>
-      </c>
-      <c r="BB87">
-        <v>429052</v>
-      </c>
-      <c r="BC87" s="8">
-        <f>(BB87/BB86)-1</f>
-        <v>0.0828548569871006</v>
-      </c>
-    </row>
-    <row r="88" spans="1:66" ht="19.5">
-      <c r="C88">
-        <f>H87*D88</f>
-        <v>1848.7093306852742</v>
-      </c>
-      <c r="D88">
-        <f>D87</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E88" t="s">
-        <v>14</v>
-      </c>
-      <c r="F88" s="6">
-        <v>43978</v>
-      </c>
-      <c r="G88" s="2"/>
-      <c r="H88">
-        <f>H87+C88</f>
-        <v>58739.429000948825</v>
-      </c>
-      <c r="BA88" s="6">
-        <v>43930</v>
-      </c>
-      <c r="BB88">
-        <v>461437</v>
-      </c>
-      <c r="BC88" s="8">
-        <f>(BB88/BB87)-1</f>
-        <v>0.07548036135480074</v>
-      </c>
-    </row>
-    <row r="89" spans="1:66" ht="19.5">
-      <c r="C89">
-        <f>H88*D89</f>
-        <v>1908.7846155326413</v>
-      </c>
-      <c r="D89">
-        <f>D88</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E89" t="s">
-        <v>15</v>
-      </c>
-      <c r="F89" s="6">
-        <v>43979</v>
-      </c>
-      <c r="G89" s="2"/>
-      <c r="H89">
-        <f>H88+C89</f>
-        <v>60648.213616481466</v>
-      </c>
       <c r="BA89" s="6">
         <v>43931</v>
       </c>
       <c r="BB89">
         <v>496535</v>
       </c>
-      <c r="BC89" s="8">
+      <c r="BC89" s="7">
         <f>(BB89/BB88)-1</f>
         <v>0.076062387714899371</v>
       </c>
@@ -7761,11 +7914,11 @@
     <row r="90" spans="1:66" ht="19.5">
       <c r="C90">
         <f>H89*D90</f>
-        <v>1970.8120946971942</v>
+        <v>2951.9862602458638</v>
       </c>
       <c r="D90">
         <f>D89</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E90" t="s">
         <v>16</v>
@@ -7776,7 +7929,12 @@
       <c r="G90" s="2"/>
       <c r="H90">
         <f>H89+C90</f>
-        <v>62619.025711178663</v>
+        <v>83049.761814693557</v>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>17 April: formatting fixes esp. Comma separation</t>
+        </is>
       </c>
       <c r="BA90" s="6">
         <v>43932</v>
@@ -7784,7 +7942,7 @@
       <c r="BB90">
         <v>526396</v>
       </c>
-      <c r="BC90" s="8">
+      <c r="BC90" s="7">
         <f>(BB90/BB89)-1</f>
         <v>0.060138761618012904</v>
       </c>
@@ -7792,11 +7950,11 @@
     <row r="91" spans="1:66" ht="19.5">
       <c r="C91">
         <f>H90*D91</f>
-        <v>2034.855206290991</v>
+        <v>3060.7810778342341</v>
       </c>
       <c r="D91">
         <f>D90</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E91" t="s">
         <v>17</v>
@@ -7807,513 +7965,517 @@
       <c r="G91" s="2"/>
       <c r="H91">
         <f>H90+C91</f>
-        <v>64653.880917469651</v>
-      </c>
-      <c r="P91" t="inlineStr">
+        <v>86110.542892527796</v>
+      </c>
+      <c r="BA91" s="6">
+        <v>43933</v>
+      </c>
+      <c r="BB91">
+        <v>555313</v>
+      </c>
+      <c r="BC91" s="7">
+        <f>(BB91/BB90)-1</f>
+        <v>0.054933928069362148</v>
+      </c>
+    </row>
+    <row r="92" spans="1:66" ht="19.5">
+      <c r="C92">
+        <f>H91*D92</f>
+        <v>3173.5855049839652</v>
+      </c>
+      <c r="D92">
+        <f>D91</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E92" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="6">
+        <v>43982</v>
+      </c>
+      <c r="G92" s="2"/>
+      <c r="H92">
+        <f>H91+C92</f>
+        <v>89284.128397511755</v>
+      </c>
+      <c r="BA92" s="6">
+        <v>43934</v>
+      </c>
+      <c r="BB92">
+        <v>580619</v>
+      </c>
+      <c r="BC92" s="7">
+        <f>(BB92/BB91)-1</f>
+        <v>0.045570696165946112</v>
+      </c>
+    </row>
+    <row r="93" spans="1:66" ht="19.5">
+      <c r="C93">
+        <f>H92*D93</f>
+        <v>3290.5473149915324</v>
+      </c>
+      <c r="D93">
+        <f>D92</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="6">
+        <v>43983</v>
+      </c>
+      <c r="G93" s="2"/>
+      <c r="H93">
+        <f>H92+C93</f>
+        <v>92574.675712503289</v>
+      </c>
+      <c r="P93" t="inlineStr">
         <is>
           <t>General:</t>
         </is>
       </c>
-      <c r="BA91" s="6">
-        <v>43933</v>
-      </c>
-      <c r="BB91">
-        <v>555313</v>
-      </c>
-      <c r="BC91" s="8">
-        <f>(BB91/BB90)-1</f>
-        <v>0.054933928069362148</v>
-      </c>
-    </row>
-    <row r="92" spans="1:66" ht="19.5">
-      <c r="C92">
-        <f>H91*D92</f>
-        <v>2100.9794498981601</v>
-      </c>
-      <c r="D92">
-        <f>D91</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E92" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" s="6">
-        <v>43982</v>
-      </c>
-      <c r="G92" s="2"/>
-      <c r="H92">
-        <f>H91+C92</f>
-        <v>66754.860367367815</v>
-      </c>
-      <c r="Q92" t="inlineStr">
+      <c r="BA93" s="6">
+        <v>43935</v>
+      </c>
+      <c r="BB93">
+        <v>607670</v>
+      </c>
+      <c r="BC93" s="7">
+        <f>(BB93/BB92)-1</f>
+        <v>0.046589932468624085</v>
+      </c>
+    </row>
+    <row r="94" spans="1:66" ht="19.5">
+      <c r="C94">
+        <f>H93*D94</f>
+        <v>3411.8197273064152</v>
+      </c>
+      <c r="D94">
+        <f>D93</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="6">
+        <v>43984</v>
+      </c>
+      <c r="G94" s="2"/>
+      <c r="H94">
+        <f>H93+C94</f>
+        <v>95986.495439809703</v>
+      </c>
+      <c r="Q94" t="inlineStr">
         <is>
           <t>Latency:</t>
         </is>
       </c>
-      <c r="BA92" s="6">
-        <v>43934</v>
-      </c>
-      <c r="BB92">
-        <v>580619</v>
-      </c>
-      <c r="BC92" s="8">
-        <f>(BB92/BB91)-1</f>
-        <v>0.045570696165946112</v>
-      </c>
-    </row>
-    <row r="93" spans="1:66" ht="19.5">
-      <c r="C93">
-        <f>H92*D93</f>
-        <v>2169.25245356408</v>
-      </c>
-      <c r="D93">
-        <f>D92</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E93" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" s="6">
-        <v>43983</v>
-      </c>
-      <c r="G93" s="2"/>
-      <c r="H93">
-        <f>H92+C93</f>
-        <v>68924.112820931899</v>
-      </c>
-      <c r="R93" t="inlineStr">
+      <c r="AZ94" t="inlineStr">
+        <is>
+          <t>May be current (likely to be):</t>
+        </is>
+      </c>
+      <c r="BA94" s="6">
+        <v>43936</v>
+      </c>
+      <c r="BB94">
+        <v>636350</v>
+      </c>
+      <c r="BC94" s="7">
+        <f>(BB94/BB93)-1</f>
+        <v>0.047196669244820466</v>
+      </c>
+      <c r="BE94" t="inlineStr">
+        <is>
+          <t>preliminary or provisional</t>
+        </is>
+      </c>
+    </row>
+    <row r="95" spans="1:66" ht="19.5">
+      <c r="C95">
+        <f>H94*D95</f>
+        <v>3537.56160824789</v>
+      </c>
+      <c r="D95">
+        <f>D94</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="6">
+        <v>43985</v>
+      </c>
+      <c r="G95" s="2"/>
+      <c r="H95">
+        <f>H94+C95</f>
+        <v>99524.057048057599</v>
+      </c>
+      <c r="R95" t="inlineStr">
         <is>
           <t>Confirmed: infected 5-7 days ago.</t>
         </is>
       </c>
-      <c r="AZ93" t="inlineStr">
-        <is>
-          <t>May be current (likely to be):</t>
-        </is>
-      </c>
-      <c r="BA93" s="6">
-        <v>43935</v>
-      </c>
-      <c r="BB93">
-        <v>607670</v>
-      </c>
-      <c r="BC93" s="8">
-        <f>(BB93/BB92)-1</f>
-        <v>0.046589932468624085</v>
-      </c>
-      <c r="BE93" t="inlineStr">
-        <is>
-          <t>preliminary or provisional</t>
-        </is>
-      </c>
-    </row>
-    <row r="94" spans="1:66" ht="19.5">
-      <c r="C94">
-        <f>H93*D94</f>
-        <v>2239.744042961428</v>
-      </c>
-      <c r="D94">
-        <f>D93</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E94" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" s="6">
-        <v>43984</v>
-      </c>
-      <c r="G94" s="2"/>
-      <c r="H94">
-        <f>H93+C94</f>
-        <v>71163.856863893321</v>
-      </c>
-      <c r="AZ94" t="inlineStr">
+      <c r="AZ95" t="inlineStr">
         <is>
           <t>TENTATIVE</t>
         </is>
       </c>
-      <c r="BA94" s="6">
-        <v>43936</v>
-      </c>
-      <c r="BB94">
-        <v>636350</v>
-      </c>
-      <c r="BC94" s="8">
-        <f>(BB94/BB93)-1</f>
-        <v>0.047196669244820466</v>
-      </c>
-      <c r="BE94" t="inlineStr">
+      <c r="BA95" s="6">
+        <v>43937</v>
+      </c>
+      <c r="BB95">
+        <v>667801</v>
+      </c>
+      <c r="BC95" s="7">
+        <f>(BB95/BB94)-1</f>
+        <v>0.049424059086980332</v>
+      </c>
+      <c r="BE95" t="inlineStr">
         <is>
-          <t>(early return on this LINE 94)</t>
+          <t>(early return on this LINE 95)</t>
         </is>
       </c>
     </row>
-    <row r="95" spans="1:66" ht="19.5">
-      <c r="C95">
-        <f>H94*D95</f>
-        <v>2312.5263128038296</v>
-      </c>
-      <c r="D95">
-        <f>D94</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E95" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="6">
-        <v>43985</v>
-      </c>
-      <c r="G95" s="2"/>
-      <c r="H95">
-        <f>H94+C95</f>
-        <v>73476.383176697156</v>
-      </c>
-      <c r="R95" t="inlineStr">
+    <row r="96" spans="1:66" ht="19.5">
+      <c r="C96">
+        <f>H95*D96</f>
+        <v>3667.9376791192012</v>
+      </c>
+      <c r="D96">
+        <f>D95</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E96" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96" s="6">
+        <v>43986</v>
+      </c>
+      <c r="G96" s="2"/>
+      <c r="H96">
+        <f>H95+C96</f>
+        <v>103191.9947271768</v>
+      </c>
+      <c r="BB96" s="1"/>
+    </row>
+    <row r="97" spans="1:66" ht="19.5">
+      <c r="C97">
+        <f>H96*D97</f>
+        <v>3803.1187319917331</v>
+      </c>
+      <c r="D97">
+        <f>D96</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E97" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97" s="6">
+        <v>43987</v>
+      </c>
+      <c r="G97" s="2"/>
+      <c r="H97">
+        <f>H96+C97</f>
+        <v>106995.11345916854</v>
+      </c>
+      <c r="R97" t="inlineStr">
         <is>
           <t>Hospitalized: infected 1-3 weeks ago.</t>
         </is>
       </c>
-      <c r="BB95" s="1"/>
-    </row>
-    <row r="96" spans="1:66" ht="19.5">
-      <c r="C96">
-        <f>H95*D96</f>
-        <v>2387.6737005801579</v>
-      </c>
-      <c r="D96">
-        <f>D95</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E96" t="s">
-        <v>15</v>
-      </c>
-      <c r="F96" s="6">
-        <v>43986</v>
-      </c>
-      <c r="G96" s="2"/>
-      <c r="H96">
-        <f>H95+C96</f>
-        <v>75864.056877277311</v>
-      </c>
-      <c r="BB96" s="1"/>
-      <c r="BE96" t="inlineStr">
+      <c r="BB97" s="1"/>
+      <c r="BE97" t="inlineStr">
         <is>
-          <t>The 607,670 number is unique in</t>
+          <t>The 636,350 number is unique in</t>
         </is>
       </c>
     </row>
-    <row r="97" spans="1:66" ht="19.5">
-      <c r="C97">
-        <f>H96*D97</f>
-        <v>2465.2630626848809</v>
-      </c>
-      <c r="D97">
-        <f>D96</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E97" t="s">
-        <v>16</v>
-      </c>
-      <c r="F97" s="6">
-        <v>43987</v>
-      </c>
-      <c r="G97" s="2"/>
-      <c r="H97">
-        <f>H96+C97</f>
-        <v>78329.319939962195</v>
-      </c>
-      <c r="R97" t="inlineStr">
+    <row r="98" spans="1:66" ht="19.5">
+      <c r="C98">
+        <f>H97*D98</f>
+        <v>3943.2818534418629</v>
+      </c>
+      <c r="D98">
+        <f>D97</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E98" t="s">
+        <v>17</v>
+      </c>
+      <c r="F98" s="6">
+        <v>43988</v>
+      </c>
+      <c r="G98" s="2"/>
+      <c r="H98">
+        <f>H97+C98</f>
+        <v>110938.3953126104</v>
+      </c>
+      <c r="BB98" s="1"/>
+      <c r="BE98" t="inlineStr">
+        <is>
+          <t>this series, as the first unreliable</t>
+        </is>
+      </c>
+    </row>
+    <row r="99" spans="1:66" ht="19.5">
+      <c r="C99">
+        <f>H98*D99</f>
+        <v>4088.6106565335845</v>
+      </c>
+      <c r="D99">
+        <f>D98</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="6">
+        <v>43989</v>
+      </c>
+      <c r="G99" s="2"/>
+      <c r="H99">
+        <f>H98+C99</f>
+        <v>115027.00596914398</v>
+      </c>
+      <c r="R99" t="inlineStr">
         <is>
           <t>Death: infected 3-4 weeks ago.</t>
         </is>
       </c>
-      <c r="BB97" s="1"/>
-      <c r="BE97" t="inlineStr">
-        <is>
-          <t>this series, as the first unreliable</t>
-        </is>
-      </c>
-    </row>
-    <row r="98" spans="1:66" ht="19.5">
-      <c r="C98">
-        <f>H97*D98</f>
-        <v>2545.3737530223334</v>
-      </c>
-      <c r="D98">
-        <f>D97</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E98" t="s">
-        <v>17</v>
-      </c>
-      <c r="F98" s="6">
-        <v>43988</v>
-      </c>
-      <c r="G98" s="2"/>
-      <c r="H98">
-        <f>H97+C98</f>
-        <v>80874.693692984525</v>
-      </c>
-      <c r="BB98" s="1"/>
-      <c r="BE98" t="inlineStr">
+      <c r="BB99" s="1"/>
+      <c r="BE99" t="inlineStr">
         <is>
           <t>value in the series.</t>
         </is>
       </c>
     </row>
-    <row r="99" spans="1:66" ht="19.5">
-      <c r="C99">
-        <f>H98*D99</f>
-        <v>2628.0877041652889</v>
-      </c>
-      <c r="D99">
-        <f>D98</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E99" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="6">
-        <v>43989</v>
-      </c>
-      <c r="G99" s="2"/>
-      <c r="H99">
-        <f>H98+C99</f>
-        <v>83502.781397149811</v>
-      </c>
-      <c r="S99" t="inlineStr">
+    <row r="100" spans="1:66" ht="19.5">
+      <c r="C100">
+        <f>H99*D100</f>
+        <v>4239.2955213508039</v>
+      </c>
+      <c r="D100">
+        <f>D99</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E100" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="6">
+        <v>43990</v>
+      </c>
+      <c r="G100" s="2"/>
+      <c r="H100">
+        <f>H99+C100</f>
+        <v>119266.30149049479</v>
+      </c>
+    </row>
+    <row r="101" spans="1:66" ht="19.5">
+      <c r="C101">
+        <f>H100*D101</f>
+        <v>4395.533844394402</v>
+      </c>
+      <c r="D101">
+        <f>D100</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="6">
+        <v>43991</v>
+      </c>
+      <c r="G101" s="2"/>
+      <c r="H101">
+        <f>H100+C101</f>
+        <v>123661.8353348892</v>
+      </c>
+      <c r="S101" t="inlineStr">
         <is>
           <t>Source: Osterholm, 8 April 2020 (podcast).</t>
         </is>
       </c>
-      <c r="BB99" s="1"/>
-    </row>
-    <row r="100" spans="1:66" ht="19.5">
-      <c r="C100">
-        <f>H99*D100</f>
-        <v>2713.4895111508517</v>
-      </c>
-      <c r="D100">
-        <f>D99</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E100" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="6">
-        <v>43990</v>
-      </c>
-      <c r="G100" s="2"/>
-      <c r="H100">
-        <f>H99+C100</f>
-        <v>86216.270908300663</v>
-      </c>
-      <c r="BE100" t="inlineStr">
+      <c r="BE101" t="inlineStr">
         <is>
           <t>It may in fact become a reliable value,</t>
         </is>
       </c>
     </row>
-    <row r="101" spans="1:66" ht="19.5">
-      <c r="C101">
-        <f>H100*D101</f>
-        <v>2801.6665179993565</v>
-      </c>
-      <c r="D101">
-        <f>D100</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E101" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" s="6">
-        <v>43991</v>
-      </c>
-      <c r="G101" s="2"/>
-      <c r="H101">
-        <f>H100+C101</f>
-        <v>89017.937426300021</v>
-      </c>
-      <c r="T101" t="inlineStr">
+    <row r="102" spans="1:66" ht="19.5">
+      <c r="C102">
+        <f>H101*D102</f>
+        <v>4557.530297170767</v>
+      </c>
+      <c r="D102">
+        <f>D101</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E102" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="6">
+        <v>43992</v>
+      </c>
+      <c r="G102" s="2"/>
+      <c r="H102">
+        <f>H101+C102</f>
+        <v>128219.36563205997</v>
+      </c>
+      <c r="BE102" t="inlineStr">
+        <is>
+          <t>24 hours later - it is assumed that once</t>
+        </is>
+      </c>
+    </row>
+    <row r="103" spans="1:66" ht="19.5">
+      <c r="C103">
+        <f>H102*D103</f>
+        <v>4725.4970943105573</v>
+      </c>
+      <c r="D103">
+        <f>D102</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E103" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" s="6">
+        <v>43993</v>
+      </c>
+      <c r="G103" s="2"/>
+      <c r="H103">
+        <f>H102+C103</f>
+        <v>132944.86272637051</v>
+      </c>
+      <c r="T103" t="inlineStr">
         <is>
           <t>https://twitter.com/CIDRAP/status/1248291432202407939</t>
         </is>
       </c>
-      <c r="BE101" t="inlineStr">
-        <is>
-          <t>24 hours later - it is assumed that once</t>
-        </is>
-      </c>
-    </row>
-    <row r="102" spans="1:66" ht="19.5">
-      <c r="C102">
-        <f>H101*D102</f>
-        <v>2892.7089070447746</v>
-      </c>
-      <c r="D102">
-        <f>D101</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E102" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="6">
-        <v>43992</v>
-      </c>
-      <c r="G102" s="2"/>
-      <c r="H102">
-        <f>H101+C102</f>
-        <v>91910.64633334479</v>
-      </c>
-      <c r="BE102" t="inlineStr">
+      <c r="BE103" t="inlineStr">
         <is>
           <t>the value that follows it has been issued,</t>
         </is>
       </c>
     </row>
-    <row r="103" spans="1:66" ht="19.5">
-      <c r="C103">
-        <f>H102*D103</f>
-        <v>2986.7097911679775</v>
-      </c>
-      <c r="D103">
-        <f>D102</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E103" t="s">
-        <v>15</v>
-      </c>
-      <c r="F103" s="6">
-        <v>43993</v>
-      </c>
-      <c r="G103" s="2"/>
-      <c r="H103">
-        <f>H102+C103</f>
-        <v>94897.356124512764</v>
-      </c>
-      <c r="U103" t="inlineStr">
+    <row r="104" spans="1:66" ht="19.5">
+      <c r="C104">
+        <f>H103*D104</f>
+        <v>4899.6542715689193</v>
+      </c>
+      <c r="D104">
+        <f>D103</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E104" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" s="6">
+        <v>43994</v>
+      </c>
+      <c r="G104" s="2"/>
+      <c r="H104">
+        <f>H103+C104</f>
+        <v>137844.51699793944</v>
+      </c>
+      <c r="BE104" t="inlineStr">
+        <is>
+          <t>its value will not change again (and, at</t>
+        </is>
+      </c>
+    </row>
+    <row r="105" spans="1:66" ht="19.5">
+      <c r="C105">
+        <f>H104*D105</f>
+        <v>5080.2299740713506</v>
+      </c>
+      <c r="D105">
+        <f>D104</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E105" t="s">
+        <v>17</v>
+      </c>
+      <c r="F105" s="6">
+        <v>43995</v>
+      </c>
+      <c r="G105" s="2"/>
+      <c r="H105">
+        <f>H104+C105</f>
+        <v>142924.74697201079</v>
+      </c>
+      <c r="U105" t="inlineStr">
         <is>
           <t>Episode 3 of Osterholm Update:</t>
         </is>
       </c>
-      <c r="BE103" t="inlineStr">
-        <is>
-          <t>its value will not change again (and, at</t>
-        </is>
-      </c>
-    </row>
-    <row r="104" spans="1:66" ht="19.5">
-      <c r="C104">
-        <f>H103*D104</f>
-        <v>3083.7653090272001</v>
-      </c>
-      <c r="D104">
-        <f>D103</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E104" t="s">
-        <v>16</v>
-      </c>
-      <c r="F104" s="6">
-        <v>43994</v>
-      </c>
-      <c r="G104" s="2"/>
-      <c r="H104">
-        <f>H103+C104</f>
-        <v>97981.121433539971</v>
-      </c>
-      <c r="BE104" t="inlineStr">
+      <c r="BE105" t="inlineStr">
         <is>
           <t>that time, it will become a reliable</t>
         </is>
       </c>
     </row>
-    <row r="105" spans="1:66" ht="19.5">
-      <c r="C105">
-        <f>H104*D105</f>
-        <v>3183.974723383089</v>
-      </c>
-      <c r="D105">
-        <f>D104</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E105" t="s">
-        <v>17</v>
-      </c>
-      <c r="F105" s="6">
-        <v>43995</v>
-      </c>
-      <c r="G105" s="2"/>
-      <c r="H105">
-        <f>H104+C105</f>
-        <v>101165.09615692306</v>
-      </c>
-      <c r="V105" t="inlineStr">
+    <row r="106" spans="1:66" ht="19.5">
+      <c r="C106">
+        <f>H105*D106</f>
+        <v>5267.4607551827876</v>
+      </c>
+      <c r="D106">
+        <f>D105</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E106" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="6">
+        <v>43996</v>
+      </c>
+      <c r="G106" s="2"/>
+      <c r="H106">
+        <f>H105+C106</f>
+        <v>148192.20772719357</v>
+      </c>
+      <c r="BE106" t="inlineStr">
+        <is>
+          <t>value in this series).</t>
+        </is>
+      </c>
+    </row>
+    <row r="107" spans="1:66" ht="19.5">
+      <c r="C107">
+        <f>H106*D107</f>
+        <v>5461.5918863914676</v>
+      </c>
+      <c r="D107">
+        <f>D106</f>
+        <v>0.036854784540666874</v>
+      </c>
+      <c r="E107" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="6">
+        <v>43997</v>
+      </c>
+      <c r="G107" s="2"/>
+      <c r="H107">
+        <f>H106+C107</f>
+        <v>153653.79961358503</v>
+      </c>
+      <c r="V107" t="inlineStr">
         <is>
           <t>http://ow.ly/d5Gk30qwD7o #Coronavirus</t>
         </is>
       </c>
-      <c r="BE105" t="inlineStr">
-        <is>
-          <t>value in this series).</t>
-        </is>
-      </c>
-    </row>
-    <row r="106" spans="1:66" ht="19.5">
-      <c r="C106">
-        <f>H105*D106</f>
-        <v>3287.4405226189015</v>
-      </c>
-      <c r="D106">
-        <f>D105</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E106" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" s="6">
-        <v>43996</v>
-      </c>
-      <c r="G106" s="2"/>
-      <c r="H106">
-        <f>H105+C106</f>
-        <v>104452.53667954195</v>
-      </c>
-    </row>
-    <row r="107" spans="1:66" ht="19.5">
-      <c r="C107">
-        <f>H106*D107</f>
-        <v>3394.2685255596889</v>
-      </c>
-      <c r="D107">
-        <f>D106</f>
-        <v>0.032495797933306578</v>
-      </c>
-      <c r="E107" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107" s="6">
-        <v>43997</v>
-      </c>
-      <c r="G107" s="2"/>
-      <c r="H107">
-        <f>H106+C107</f>
-        <v>107846.80520510164</v>
-      </c>
-      <c r="V107" t="inlineStr">
-        <is>
-          <t>#COVID19 is now live:</t>
-        </is>
-      </c>
     </row>
     <row r="108" spans="1:66" ht="19.5">
       <c r="C108">
         <f>H107*D108</f>
-        <v>3504.567989697659</v>
+        <v>5662.8776786134795</v>
       </c>
       <c r="D108">
         <f>D107</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E108" t="s">
         <v>13</v>
@@ -8324,24 +8486,19 @@
       <c r="G108" s="2"/>
       <c r="H108">
         <f>H107+C108</f>
-        <v>111351.37319479931</v>
-      </c>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="V108" t="inlineStr">
-        <is>
-          <t>"Preparing For What's To Come,"</t>
-        </is>
-      </c>
+        <v>159316.6772921985</v>
+      </c>
+      <c r="BB108" s="1"/>
+      <c r="BC108" s="1"/>
     </row>
     <row r="109" spans="1:66" ht="19.5">
       <c r="C109">
         <f>H108*D109</f>
-        <v>3618.4517229344087</v>
+        <v>5871.58181533893</v>
       </c>
       <c r="D109">
         <f>D108</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E109" t="s">
         <v>14</v>
@@ -8352,24 +8509,25 @@
       <c r="G109" s="2"/>
       <c r="H109">
         <f>H108+C109</f>
-        <v>114969.82491773371</v>
+        <v>165188.25910753742</v>
       </c>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="V109" t="inlineStr">
         <is>
-          <t>in which Dr. Osterholm discusses the US situation,</t>
+          <t>#COVID19 is now live:</t>
         </is>
       </c>
+      <c r="BB109" s="1"/>
     </row>
     <row r="110" spans="1:66" ht="19.5">
       <c r="C110">
         <f>H109*D110</f>
-        <v>3736.0361989543103</v>
+        <v>6087.9776980561437</v>
       </c>
       <c r="D110">
         <f>D109</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E110" t="s">
         <v>15</v>
@@ -8380,24 +8538,24 @@
       <c r="G110" s="2"/>
       <c r="H110">
         <f>H109+C110</f>
-        <v>118705.86111668803</v>
+        <v>171276.23680559357</v>
       </c>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
       <c r="V110" t="inlineStr">
         <is>
-          <t>the potential for subsequent waves, racial</t>
+          <t>"Preparing For What's To Come,"</t>
         </is>
       </c>
     </row>
     <row r="111" spans="1:66" ht="19.5">
       <c r="C111">
         <f>H110*D111</f>
-        <v>3857.4416763470485</v>
+        <v>6312.3488044063888</v>
       </c>
       <c r="D111">
         <f>D110</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E111" t="s">
         <v>16</v>
@@ -8408,24 +8566,24 @@
       <c r="G111" s="2"/>
       <c r="H111">
         <f>H110+C111</f>
-        <v>122563.30279303508</v>
+        <v>177588.58560999995</v>
       </c>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="V111" t="inlineStr">
         <is>
-          <t>and gender disparities,</t>
+          <t>in which Dr. Osterholm discusses the US situation,</t>
         </is>
       </c>
     </row>
     <row r="112" spans="1:66" ht="19.5">
       <c r="C112">
         <f>H111*D112</f>
-        <v>3982.7923216011377</v>
+        <v>6544.9890595383222</v>
       </c>
       <c r="D112">
         <f>D111</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E112" t="s">
         <v>17</v>
@@ -8436,24 +8594,24 @@
       <c r="G112" s="2"/>
       <c r="H112">
         <f>H111+C112</f>
-        <v>126546.09511463622</v>
+        <v>184133.57466953827</v>
       </c>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="V112" t="inlineStr">
         <is>
-          <t>and the use of masks by the public</t>
+          <t>the potential for subsequent waves, racial</t>
         </is>
       </c>
     </row>
     <row r="113" spans="1:66" ht="19.5">
       <c r="C113">
         <f>H112*D113</f>
-        <v>4112.2163360942131</v>
+        <v>6786.2032211486285</v>
       </c>
       <c r="D113">
         <f>D112</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
@@ -8464,19 +8622,24 @@
       <c r="G113" s="2"/>
       <c r="H113">
         <f>H112+C113</f>
-        <v>130658.31145073043</v>
+        <v>190919.77789068691</v>
       </c>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>and gender disparities,</t>
+        </is>
+      </c>
     </row>
     <row r="114" spans="1:66" ht="19.5">
       <c r="C114">
         <f>H113*D114</f>
-        <v>4245.8460872099731</v>
+        <v>7036.3072787132414</v>
       </c>
       <c r="D114">
         <f>D113</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E114" t="s">
         <v>12</v>
@@ -8487,17 +8650,24 @@
       <c r="G114" s="2"/>
       <c r="H114">
         <f>H113+C114</f>
-        <v>134904.15753794039</v>
+        <v>197956.08516940015</v>
+      </c>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>and the use of masks by the public</t>
+        </is>
       </c>
     </row>
     <row r="115" spans="1:66" ht="19.5">
       <c r="C115">
         <f>H114*D115</f>
-        <v>4383.8182437158684</v>
+        <v>7295.6288674321431</v>
       </c>
       <c r="D115">
         <f>D114</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E115" t="s">
         <v>13</v>
@@ -8508,17 +8678,17 @@
       <c r="G115" s="2"/>
       <c r="H115">
         <f>H114+C115</f>
-        <v>139287.97578165628</v>
+        <v>205251.7140368323</v>
       </c>
     </row>
     <row r="116" spans="1:66" ht="19.5">
       <c r="C116">
         <f>H115*D116</f>
-        <v>4526.2739155400031</v>
+        <v>7564.5076974300255</v>
       </c>
       <c r="D116">
         <f>D115</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
@@ -8529,17 +8699,17 @@
       <c r="G116" s="2"/>
       <c r="H116">
         <f>H115+C116</f>
-        <v>143814.24969719627</v>
+        <v>212816.22173426233</v>
       </c>
     </row>
     <row r="117" spans="1:66" ht="19.5">
       <c r="C117">
         <f>H116*D117</f>
-        <v>4673.3587980901866</v>
+        <v>7843.2959987750246</v>
       </c>
       <c r="D117">
         <f>D116</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E117" t="s">
         <v>15</v>
@@ -8550,17 +8720,17 @@
       <c r="G117" s="2"/>
       <c r="H117">
         <f>H116+C117</f>
-        <v>148487.60849528646</v>
+        <v>220659.51773303736</v>
       </c>
     </row>
     <row r="118" spans="1:66" ht="19.5">
       <c r="C118">
         <f>H117*D118</f>
-        <v>4825.2233212627661</v>
+        <v>8132.3589828985532</v>
       </c>
       <c r="D118">
         <f>D117</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E118" t="s">
         <v>16</v>
@@ -8571,17 +8741,17 @@
       <c r="G118" s="2"/>
       <c r="H118">
         <f>H117+C118</f>
-        <v>153312.83181654924</v>
+        <v>228791.87671593591</v>
       </c>
     </row>
     <row r="119" spans="1:66" ht="19.5">
       <c r="C119">
         <f>H118*D119</f>
-        <v>4982.0228032935993</v>
+        <v>8432.0753210206367</v>
       </c>
       <c r="D119">
         <f>D118</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E119" t="s">
         <v>17</v>
@@ -8592,17 +8762,17 @@
       <c r="G119" s="2"/>
       <c r="H119">
         <f>H118+C119</f>
-        <v>158294.85461984284</v>
+        <v>237223.95203695656</v>
       </c>
     </row>
     <row r="120" spans="1:66" ht="19.5">
       <c r="C120">
         <f>H119*D120</f>
-        <v>5143.9176096085539</v>
+        <v>8742.8376402075264</v>
       </c>
       <c r="D120">
         <f>D119</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
@@ -8613,17 +8783,17 @@
       <c r="G120" s="2"/>
       <c r="H120">
         <f>H119+C120</f>
-        <v>163438.7722294514</v>
+        <v>245966.78967716408</v>
       </c>
     </row>
     <row r="121" spans="1:66" ht="19.5">
       <c r="C121">
         <f>H120*D121</f>
-        <v>5311.0733168359711</v>
+        <v>9065.0530377114064</v>
       </c>
       <c r="D121">
         <f>D120</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E121" t="s">
         <v>12</v>
@@ -8634,17 +8804,17 @@
       <c r="G121" s="2"/>
       <c r="H121">
         <f>H120+C121</f>
-        <v>168749.84554628737</v>
+        <v>255031.8427148755</v>
       </c>
     </row>
     <row r="122" spans="1:66" ht="19.5">
       <c r="C122">
         <f>H121*D122</f>
-        <v>5483.6608821488489</v>
+        <v>9399.1436142659786</v>
       </c>
       <c r="D122">
         <f>D121</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E122" t="s">
         <v>13</v>
@@ -8655,17 +8825,17 @@
       <c r="G122" s="2"/>
       <c r="H122">
         <f>H121+C122</f>
-        <v>174233.50642843623</v>
+        <v>264430.98632914148</v>
       </c>
     </row>
     <row r="123" spans="1:66" ht="19.5">
       <c r="C123">
         <f>H122*D123</f>
-        <v>5661.8568181099363</v>
+        <v>9745.5470270365367</v>
       </c>
       <c r="D123">
         <f>D122</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E123" t="s">
         <v>14</v>
@@ -8676,17 +8846,17 @@
       <c r="G123" s="2"/>
       <c r="H123">
         <f>H122+C123</f>
-        <v>179895.36324654616</v>
+        <v>274176.53335617803</v>
       </c>
     </row>
     <row r="124" spans="1:66" ht="19.5">
       <c r="C124">
         <f>H123*D124</f>
-        <v>5845.8433731985506</v>
+        <v>10104.717062948905</v>
       </c>
       <c r="D124">
         <f>D123</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E124" t="s">
         <v>15</v>
@@ -8697,17 +8867,17 @@
       <c r="G124" s="2"/>
       <c r="H124">
         <f>H123+C124</f>
-        <v>185741.20661974471</v>
+        <v>284281.25041912694</v>
       </c>
     </row>
     <row r="125" spans="1:66" ht="19.5">
       <c r="C125">
         <f>H124*D125</f>
-        <v>6035.8087182037707</v>
+        <v>10477.124233148288</v>
       </c>
       <c r="D125">
         <f>D124</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E125" t="s">
         <v>16</v>
@@ -8718,17 +8888,17 @@
       <c r="G125" s="2"/>
       <c r="H125">
         <f>H124+C125</f>
-        <v>191777.01533794848</v>
+        <v>294758.37465227523</v>
       </c>
     </row>
     <row r="126" spans="1:66" ht="19.5">
       <c r="C126">
         <f>H125*D126</f>
-        <v>6231.94713867461</v>
+        <v>10863.256389366768</v>
       </c>
       <c r="D126">
         <f>D125</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E126" t="s">
         <v>17</v>
@@ -8739,17 +8909,17 @@
       <c r="G126" s="2"/>
       <c r="H126">
         <f>H125+C126</f>
-        <v>198008.9624766231</v>
+        <v>305621.63104164199</v>
       </c>
     </row>
     <row r="127" spans="1:66" ht="19.5">
       <c r="C127">
         <f>H126*D127</f>
-        <v>6434.4592336240285</v>
+        <v>11263.619363006903</v>
       </c>
       <c r="D127">
         <f>D126</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E127" t="s">
         <v>11</v>
@@ -8760,17 +8930,17 @@
       <c r="G127" s="2"/>
       <c r="H127">
         <f>H126+C127</f>
-        <v>204443.42171024712</v>
+        <v>316885.25040464889</v>
       </c>
     </row>
     <row r="128" spans="1:66" ht="19.5">
       <c r="C128">
         <f>H127*D128</f>
-        <v>6643.552120689973</v>
+        <v>11678.737627778604</v>
       </c>
       <c r="D128">
         <f>D127</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E128" t="s">
         <v>12</v>
@@ -8781,17 +8951,17 @@
       <c r="G128" s="2"/>
       <c r="H128">
         <f>H127+C128</f>
-        <v>211086.97383093709</v>
+        <v>328563.9880324275</v>
       </c>
     </row>
     <row r="129" spans="1:66" ht="19.5">
       <c r="C129">
         <f>H128*D129</f>
-        <v>6859.4396479633051</v>
+        <v>12109.154986757365</v>
       </c>
       <c r="D129">
         <f>D128</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E129" t="s">
         <v>13</v>
@@ -8802,17 +8972,17 @@
       <c r="G129" s="2"/>
       <c r="H129">
         <f>H128+C129</f>
-        <v>217946.41347890039</v>
+        <v>340673.14301918488</v>
       </c>
     </row>
     <row r="130" spans="1:66" ht="19.5">
       <c r="C130">
         <f>H129*D130</f>
-        <v>7082.3426126992317</v>
+        <v>12555.435284763849</v>
       </c>
       <c r="D130">
         <f>D129</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E130" t="s">
         <v>14</v>
@@ -8823,17 +8993,17 @@
       <c r="G130" s="2"/>
       <c r="H130">
         <f>H129+C130</f>
-        <v>225028.75609159961</v>
+        <v>353228.57830394874</v>
       </c>
     </row>
     <row r="131" spans="1:66" ht="19.5">
       <c r="C131">
         <f>H130*D131</f>
-        <v>7312.4889871359528</v>
+        <v>13018.163146998109</v>
       </c>
       <c r="D131">
         <f>D130</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E131" t="s">
         <v>15</v>
@@ -8844,17 +9014,17 @@
       <c r="G131" s="2"/>
       <c r="H131">
         <f>H130+C131</f>
-        <v>232341.24507873558</v>
+        <v>366246.74145094684</v>
       </c>
     </row>
     <row r="132" spans="1:66" ht="19.5">
       <c r="C132">
         <f>H131*D132</f>
-        <v>7550.1141516514526</v>
+        <v>13497.944744895973</v>
       </c>
       <c r="D132">
         <f>D131</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E132" t="s">
         <v>16</v>
@@ -8864,17 +9034,17 @@
       </c>
       <c r="H132">
         <f>H131+C132</f>
-        <v>239891.35923038702</v>
+        <v>379744.68619584281</v>
       </c>
     </row>
     <row r="133" spans="1:66" ht="19.5">
       <c r="C133">
         <f>H132*D133</f>
-        <v>7795.4611354969165</v>
+        <v>13995.40859021094</v>
       </c>
       <c r="D133">
         <f>D132</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E133" t="s">
         <v>17</v>
@@ -8884,17 +9054,17 @@
       </c>
       <c r="H133">
         <f>H132+C133</f>
-        <v>247686.82036588393</v>
+        <v>393740.09478605376</v>
       </c>
     </row>
     <row r="134" spans="1:66" ht="19.5">
       <c r="C134">
         <f>H133*D134</f>
-        <v>8048.7808653529692</v>
+        <v>14511.206358361764</v>
       </c>
       <c r="D134">
         <f>D133</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E134" t="s">
         <v>11</v>
@@ -8904,17 +9074,17 @@
       </c>
       <c r="H134">
         <f>H133+C134</f>
-        <v>255735.60123123691</v>
+        <v>408251.30114441551</v>
       </c>
     </row>
     <row r="135" spans="1:66" ht="19.5">
       <c r="C135">
         <f>H134*D135</f>
-        <v>8310.332421962943</v>
+        <v>15046.013742124342</v>
       </c>
       <c r="D135">
         <f>D134</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E135" t="s">
         <v>12</v>
@@ -8924,17 +9094,17 @@
       </c>
       <c r="H135">
         <f>H134+C135</f>
-        <v>264045.93365319987</v>
+        <v>423297.31488653983</v>
       </c>
     </row>
     <row r="136" spans="1:66" ht="19.5">
       <c r="C136">
         <f>H135*D136</f>
-        <v>8580.3833051056572</v>
+        <v>15600.531336786245</v>
       </c>
       <c r="D136">
         <f>D135</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E136" t="s">
         <v>13</v>
@@ -8944,17 +9114,17 @@
       </c>
       <c r="H136">
         <f>H135+C136</f>
-        <v>272626.31695830554</v>
+        <v>438897.84622332605</v>
       </c>
     </row>
     <row r="137" spans="1:66" ht="19.5">
       <c r="C137">
         <f>H136*D137</f>
-        <v>8859.2097071786884</v>
+        <v>16175.485557923424</v>
       </c>
       <c r="D137">
         <f>D136</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E137" t="s">
         <v>14</v>
@@ -8964,17 +9134,17 @@
       </c>
       <c r="H137">
         <f>H136+C137</f>
-        <v>281485.52666548424</v>
+        <v>455073.33178124949</v>
       </c>
     </row>
     <row r="138" spans="1:66" ht="19.5">
       <c r="C138">
         <f>H137*D138</f>
-        <v>9147.096795671956</v>
+        <v>16771.629593001362</v>
       </c>
       <c r="D138">
         <f>D137</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E138" t="s">
         <v>15</v>
@@ -8984,17 +9154,17 @@
       </c>
       <c r="H138">
         <f>H137+C138</f>
-        <v>290632.62346115621</v>
+        <v>471844.96137425088</v>
       </c>
     </row>
     <row r="139" spans="1:66" ht="19.5">
       <c r="C139">
         <f>H138*D139</f>
-        <v>9444.3390048205092</v>
+        <v>17389.7443880473</v>
       </c>
       <c r="D139">
         <f>D138</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E139" t="s">
         <v>16</v>
@@ -9004,17 +9174,17 @@
       </c>
       <c r="H139">
         <f>H138+C139</f>
-        <v>300076.96246597671</v>
+        <v>489234.7057622982</v>
       </c>
     </row>
     <row r="140" spans="1:66" ht="19.5">
       <c r="C140">
         <f>H139*D140</f>
-        <v>9751.2403367348015</v>
+        <v>18030.639670686054</v>
       </c>
       <c r="D140">
         <f>D139</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E140" t="s">
         <v>17</v>
@@ -9024,17 +9194,17 @@
       </c>
       <c r="H140">
         <f>H139+C140</f>
-        <v>309828.20280271152</v>
+        <v>507265.34543298424</v>
       </c>
     </row>
     <row r="141" spans="1:66" ht="19.5">
       <c r="C141">
         <f>H140*D141</f>
-        <v>10068.114672316444</v>
+        <v>18695.155010879589</v>
       </c>
       <c r="D141">
         <f>D140</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E141" t="s">
         <v>11</v>
@@ -9044,17 +9214,17 @@
       </c>
       <c r="H141">
         <f>H140+C141</f>
-        <v>319896.31747502799</v>
+        <v>525960.5004438638</v>
       </c>
     </row>
     <row r="142" spans="1:66" ht="19.5">
       <c r="C142">
         <f>H141*D142</f>
-        <v>10395.2860922774</v>
+        <v>19384.160920759925</v>
       </c>
       <c r="D142">
         <f>D141</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E142" t="s">
         <v>12</v>
@@ -9064,17 +9234,17 @@
       </c>
       <c r="H142">
         <f>H141+C142</f>
-        <v>330291.60356730537</v>
+        <v>545344.66136462369</v>
       </c>
     </row>
     <row r="143" spans="1:66" ht="19.5">
       <c r="C143">
         <f>H142*D143</f>
-        <v>10733.089208590958</v>
+        <v>20098.559994996143</v>
       </c>
       <c r="D143">
         <f>D142</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E143" t="s">
         <v>13</v>
@@ -9084,17 +9254,17 @@
       </c>
       <c r="H143">
         <f>H142+C143</f>
-        <v>341024.69277589634</v>
+        <v>565443.22135961987</v>
       </c>
     </row>
     <row r="144" spans="1:66" ht="19.5">
       <c r="C144">
         <f>H143*D144</f>
-        <v>11081.869506713483</v>
+        <v>20839.288093189396</v>
       </c>
       <c r="D144">
         <f>D143</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E144" t="s">
         <v>14</v>
@@ -9104,17 +9274,17 @@
       </c>
       <c r="H144">
         <f>H143+C144</f>
-        <v>352106.56228260981</v>
+        <v>586282.50945280923</v>
       </c>
     </row>
     <row r="145" spans="1:66" ht="19.5">
       <c r="C145">
         <f>H144*D145</f>
-        <v>11441.983698926915</v>
+        <v>21607.315565844772</v>
       </c>
       <c r="D145">
         <f>D144</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E145" t="s">
         <v>15</v>
@@ -9124,17 +9294,17 @@
       </c>
       <c r="H145">
         <f>H144+C145</f>
-        <v>363548.54598153674</v>
+        <v>607889.825018654</v>
       </c>
     </row>
     <row r="146" spans="1:66" ht="19.5">
       <c r="C146">
         <f>H145*D146</f>
-        <v>11813.800089163433</v>
+        <v>22403.64852552618</v>
       </c>
       <c r="D146">
         <f>D145</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E146" t="s">
         <v>16</v>
@@ -9144,17 +9314,17 @@
       </c>
       <c r="H146">
         <f>H145+C146</f>
-        <v>375362.34607070015</v>
+        <v>630293.47354418016</v>
       </c>
     </row>
     <row r="147" spans="1:66" ht="19.5">
       <c r="C147">
         <f>H146*D147</f>
-        <v>12197.698949685366</v>
+        <v>23229.330164859275</v>
       </c>
       <c r="D147">
         <f>D146</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E147" t="s">
         <v>17</v>
@@ -9164,17 +9334,17 @@
       </c>
       <c r="H147">
         <f>H146+C147</f>
-        <v>387560.04502038553</v>
+        <v>653522.80370903946</v>
       </c>
     </row>
     <row r="148" spans="1:66" ht="19.5">
       <c r="C148">
         <f>H147*D148</f>
-        <v>12594.072910005649</v>
+        <v>24085.44212310918</v>
       </c>
       <c r="D148">
         <f>D147</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E148" t="s">
         <v>11</v>
@@ -9184,17 +9354,17 @@
       </c>
       <c r="H148">
         <f>H147+C148</f>
-        <v>400154.11793039116</v>
+        <v>677608.24583214859</v>
       </c>
     </row>
     <row r="149" spans="1:66" ht="19.5">
       <c r="C149">
         <f>H148*D149</f>
-        <v>13003.327358446522</v>
+        <v>24973.105903123069</v>
       </c>
       <c r="D149">
         <f>D148</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E149" t="s">
         <v>12</v>
@@ -9204,17 +9374,17 @@
       </c>
       <c r="H149">
         <f>H148+C149</f>
-        <v>413157.44528883771</v>
+        <v>702581.35173527163</v>
       </c>
     </row>
     <row r="150" spans="1:66" ht="19.5">
       <c r="C150">
         <f>H149*D150</f>
-        <v>13425.880856747239</v>
+        <v>25893.484340493924</v>
       </c>
       <c r="D150">
         <f>D149</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E150" t="s">
         <v>13</v>
@@ -9224,17 +9394,17 @@
       </c>
       <c r="H150">
         <f>H149+C150</f>
-        <v>426583.32614558493</v>
+        <v>728474.83607576555</v>
       </c>
     </row>
     <row r="151" spans="1:66" ht="19.5">
       <c r="C151">
         <f>H150*D151</f>
-        <v>13862.165568144745</v>
+        <v>26847.783126869959</v>
       </c>
       <c r="D151">
         <f>D150</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E151" t="s">
         <v>14</v>
@@ -9244,17 +9414,17 @@
       </c>
       <c r="H151">
         <f>H150+C151</f>
-        <v>440445.49171372969</v>
+        <v>755322.61920263548</v>
       </c>
     </row>
     <row r="152" spans="1:66" ht="19.5">
       <c r="C152">
         <f>H151*D152</f>
-        <v>14312.627699365217</v>
+        <v>27837.252389405301</v>
       </c>
       <c r="D152">
         <f>D151</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E152" t="s">
         <v>15</v>
@@ -9264,17 +9434,17 @@
       </c>
       <c r="H152">
         <f>H151+C152</f>
-        <v>454758.11941309489</v>
+        <v>783159.87159204076</v>
       </c>
     </row>
     <row r="153" spans="1:66" ht="19.5">
       <c r="C153">
         <f>H152*D153</f>
-        <v>14777.727956978435</v>
+        <v>28863.188328420998</v>
       </c>
       <c r="D153">
         <f>D152</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E153" t="s">
         <v>16</v>
@@ -9284,17 +9454,17 @@
       </c>
       <c r="H153">
         <f>H152+C153</f>
-        <v>469535.84737007332</v>
+        <v>812023.05992046173</v>
       </c>
     </row>
     <row r="154" spans="1:66" ht="19.5">
       <c r="C154">
         <f>H153*D154</f>
-        <v>15257.942018581782</v>
+        <v>29926.934915421643</v>
       </c>
       <c r="D154">
         <f>D153</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E154" t="s">
         <v>17</v>
@@ -9304,17 +9474,17 @@
       </c>
       <c r="H154">
         <f>H153+C154</f>
-        <v>484793.7893886551</v>
+        <v>841949.99483588338</v>
       </c>
     </row>
     <row r="155" spans="1:66" ht="19.5">
       <c r="C155">
         <f>H154*D155</f>
-        <v>15753.761019295724</v>
+        <v>31029.885653692068</v>
       </c>
       <c r="D155">
         <f>D154</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E155" t="s">
         <v>11</v>
@@ -9324,17 +9494,17 @@
       </c>
       <c r="H155">
         <f>H154+C155</f>
-        <v>500547.55040795082</v>
+        <v>872979.88048957544</v>
       </c>
     </row>
     <row r="156" spans="1:66" ht="19.5">
       <c r="C156">
         <f>H155*D156</f>
-        <v>16265.692054068359</v>
+        <v>32173.485403780422</v>
       </c>
       <c r="D156">
         <f>D155</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E156" t="s">
         <v>12</v>
@@ -9344,17 +9514,17 @@
       </c>
       <c r="H156">
         <f>H155+C156</f>
-        <v>516813.2424620192</v>
+        <v>905153.36589335592</v>
       </c>
     </row>
     <row r="157" spans="1:66" ht="19.5">
       <c r="C157">
         <f>H156*D157</f>
-        <v>16794.258696302753</v>
+        <v>33359.232276259041</v>
       </c>
       <c r="D157">
         <f>D156</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E157" t="s">
         <v>13</v>
@@ -9364,17 +9534,17 @@
       </c>
       <c r="H157">
         <f>H156+C157</f>
-        <v>533607.50115832197</v>
+        <v>938512.59816961491</v>
       </c>
     </row>
     <row r="158" spans="1:66" ht="19.5">
       <c r="C158">
         <f>H157*D158</f>
-        <v>17340.001533337487</v>
+        <v>34588.679594242625</v>
       </c>
       <c r="D158">
         <f>D157</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E158" t="s">
         <v>14</v>
@@ -9384,17 +9554,17 @@
       </c>
       <c r="H158">
         <f>H157+C158</f>
-        <v>550947.50269165949</v>
+        <v>973101.27776385751</v>
       </c>
     </row>
     <row r="159" spans="1:66" ht="19.5">
       <c r="C159">
         <f>H158*D159</f>
-        <v>17903.47871932805</v>
+        <v>35863.437928234598</v>
       </c>
       <c r="D159">
         <f>D158</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E159" t="s">
         <v>15</v>
@@ -9404,17 +9574,17 @@
       </c>
       <c r="H159">
         <f>H158+C159</f>
-        <v>568850.98141098756</v>
+        <v>1008964.7156920921</v>
       </c>
     </row>
     <row r="160" spans="1:66" ht="19.5">
       <c r="C160">
         <f>H159*D160</f>
-        <v>18485.266546094586</v>
+        <v>37185.177205967266</v>
       </c>
       <c r="D160">
         <f>D159</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E160" t="s">
         <v>16</v>
@@ -9424,17 +9594,17 @@
       </c>
       <c r="H160">
         <f>H159+C160</f>
-        <v>587336.24795708212</v>
+        <v>1046149.8928980593</v>
       </c>
     </row>
     <row r="161" spans="1:66" ht="19.5">
       <c r="C161">
         <f>H160*D161</f>
-        <v>19085.96003251979</v>
+        <v>38555.628899999705</v>
       </c>
       <c r="D161">
         <f>D160</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E161" t="s">
         <v>17</v>
@@ -9444,17 +9614,17 @@
       </c>
       <c r="H161">
         <f>H160+C161</f>
-        <v>606422.20798960188</v>
+        <v>1084705.5217980591</v>
       </c>
     </row>
     <row r="162" spans="1:66" ht="19.5">
       <c r="C162">
         <f>H161*D162</f>
-        <v>19706.173533099718</v>
+        <v>39976.588295939102</v>
       </c>
       <c r="D162">
         <f>D161</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E162" t="s">
         <v>11</v>
@@ -9464,17 +9634,17 @@
       </c>
       <c r="H162">
         <f>H161+C162</f>
-        <v>626128.38152270159</v>
+        <v>1124682.1100939983</v>
       </c>
     </row>
     <row r="163" spans="1:66" ht="19.5">
       <c r="C163">
         <f>H162*D163</f>
-        <v>20346.541366269998</v>
+        <v>41449.916844256884</v>
       </c>
       <c r="D163">
         <f>D162</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E163" t="s">
         <v>12</v>
@@ -9484,17 +9654,17 @@
       </c>
       <c r="H163">
         <f>H162+C163</f>
-        <v>646474.92288897163</v>
+        <v>1166132.0269382552</v>
       </c>
     </row>
     <row r="164" spans="1:66" ht="19.5">
       <c r="C164">
         <f>H163*D164</f>
-        <v>21007.718463149973</v>
+        <v>42977.544598780536</v>
       </c>
       <c r="D164">
         <f>D163</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E164" t="s">
         <v>13</v>
@@ -9504,17 +9674,17 @@
       </c>
       <c r="H164">
         <f>H163+C164</f>
-        <v>667482.6413521216</v>
+        <v>1209109.5715370358</v>
       </c>
     </row>
     <row r="165" spans="1:66" ht="19.5">
       <c r="C165">
         <f>H164*D165</f>
-        <v>21690.38103736829</v>
+        <v>44561.472745055493</v>
       </c>
       <c r="D165">
         <f>D164</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E165" t="s">
         <v>14</v>
@@ -9524,17 +9694,17 @@
       </c>
       <c r="H165">
         <f>H164+C165</f>
-        <v>689173.02238948992</v>
+        <v>1253671.0442820913</v>
       </c>
     </row>
     <row r="166" spans="1:66" ht="19.5">
       <c r="C166">
         <f>H165*D166</f>
-        <v>22395.227276655034</v>
+        <v>46203.776221889319</v>
       </c>
       <c r="D166">
         <f>D165</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E166" t="s">
         <v>15</v>
@@ -9544,17 +9714,17 @@
       </c>
       <c r="H166">
         <f>H165+C166</f>
-        <v>711568.24966614495</v>
+        <v>1299874.8205039806</v>
       </c>
     </row>
     <row r="167" spans="1:66" ht="19.5">
       <c r="C167">
         <f>H166*D167</f>
-        <v>23122.978056907694</v>
+        <v>47906.60643951223</v>
       </c>
       <c r="D167">
         <f>D166</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E167" t="s">
         <v>16</v>
@@ -9564,17 +9734,17 @@
       </c>
       <c r="H167">
         <f>H166+C167</f>
-        <v>734691.22772305261</v>
+        <v>1347781.4269434928</v>
       </c>
     </row>
     <row r="168" spans="1:66" ht="19.5">
       <c r="C168">
         <f>H167*D168</f>
-        <v>23874.377679461246</v>
+        <v>49672.19409791498</v>
       </c>
       <c r="D168">
         <f>D167</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E168" t="s">
         <v>17</v>
@@ -9584,17 +9754,17 @@
       </c>
       <c r="H168">
         <f>H167+C168</f>
-        <v>758565.60540251387</v>
+        <v>1397453.6210414078</v>
       </c>
     </row>
     <row r="169" spans="1:66" ht="19.5">
       <c r="C169">
         <f>H168*D169</f>
-        <v>24650.194632316463</v>
+        <v>51502.852109055821</v>
       </c>
       <c r="D169">
         <f>D168</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E169" t="s">
         <v>11</v>
@@ -9604,17 +9774,17 @@
       </c>
       <c r="H169">
         <f>H168+C169</f>
-        <v>783215.80003483035</v>
+        <v>1448956.4731504635</v>
       </c>
     </row>
     <row r="170" spans="1:66" ht="19.5">
       <c r="C170">
         <f>H169*D170</f>
-        <v>25451.222376104899</v>
+        <v>53400.978626764903</v>
       </c>
       <c r="D170">
         <f>D169</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E170" t="s">
         <v>12</v>
@@ -9624,17 +9794,17 @@
       </c>
       <c r="H170">
         <f>H169+C170</f>
-        <v>808667.02241093526</v>
+        <v>1502357.4517772284</v>
       </c>
     </row>
     <row r="171" spans="1:66" ht="19.5">
       <c r="C171">
         <f>H170*D171</f>
-        <v>26278.280155594453</v>
+        <v>55369.060188315074</v>
       </c>
       <c r="D171">
         <f>D170</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E171" t="s">
         <v>13</v>
@@ -9644,17 +9814,17 @@
       </c>
       <c r="H171">
         <f>H170+C171</f>
-        <v>834945.30256652972</v>
+        <v>1557726.5119655435</v>
       </c>
     </row>
     <row r="172" spans="1:66" ht="19.5">
       <c r="C172">
         <f>H171*D172</f>
-        <v>27132.213837565472</v>
+        <v>57409.674971774642</v>
       </c>
       <c r="D172">
         <f>D171</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E172" t="s">
         <v>14</v>
@@ -9664,17 +9834,17 @@
       </c>
       <c r="H172">
         <f>H171+C172</f>
-        <v>862077.51640409522</v>
+        <v>1615136.1869373182</v>
       </c>
     </row>
     <row r="173" spans="1:66" ht="19.5">
       <c r="C173">
         <f>H172*D173</f>
-        <v>28013.896775914265</v>
+        <v>59525.496173409119</v>
       </c>
       <c r="D173">
         <f>D172</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E173" t="s">
         <v>15</v>
@@ -9684,17 +9854,17 @@
       </c>
       <c r="H173">
         <f>H172+C173</f>
-        <v>890091.41318000946</v>
+        <v>1674661.6831107272</v>
       </c>
     </row>
     <row r="174" spans="1:66" ht="19.5">
       <c r="C174">
         <f>H173*D174</f>
-        <v>28924.230704868882</v>
+        <v>61719.295509556396</v>
       </c>
       <c r="D174">
         <f>D173</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E174" t="s">
         <v>16</v>
@@ -9704,17 +9874,17 @@
       </c>
       <c r="H174">
         <f>H173+C174</f>
-        <v>919015.64388487837</v>
+        <v>1736380.9786202835</v>
       </c>
     </row>
     <row r="175" spans="1:66" ht="19.5">
       <c r="C175">
         <f>H174*D175</f>
-        <v>29864.146661230643</v>
+        <v>63993.946847562846</v>
       </c>
       <c r="D175">
         <f>D174</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E175" t="s">
         <v>17</v>
@@ -9724,17 +9894,17 @@
       </c>
       <c r="H175">
         <f>H174+C175</f>
-        <v>948879.79054610897</v>
+        <v>1800374.9254678464</v>
       </c>
     </row>
     <row r="176" spans="1:66" ht="19.5">
       <c r="C176">
         <f>H175*D176</f>
-        <v>30834.605936584627</v>
+        <v>66352.429970536657</v>
       </c>
       <c r="D176">
         <f>D175</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E176" t="s">
         <v>11</v>
@@ -9744,17 +9914,17 @@
       </c>
       <c r="H176">
         <f>H175+C176</f>
-        <v>979714.39648269361</v>
+        <v>1866727.3554383831</v>
       </c>
     </row>
     <row r="177" spans="1:66" ht="19.5">
       <c r="C177">
         <f>H176*D177</f>
-        <v>31836.601060453017</v>
+        <v>68797.834480850477</v>
       </c>
       <c r="D177">
         <f>D176</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E177" t="s">
         <v>12</v>
@@ -9764,17 +9934,17 @@
       </c>
       <c r="H177">
         <f>H176+C177</f>
-        <v>1011550.9975431466</v>
+        <v>1935525.1899192336</v>
       </c>
     </row>
     <row r="178" spans="1:66" ht="19.5">
       <c r="C178">
         <f>H177*D178</f>
-        <v>32871.156815396789</v>
+        <v>71333.363847506684</v>
       </c>
       <c r="D178">
         <f>D177</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E178" t="s">
         <v>13</v>
@@ -9784,17 +9954,17 @@
       </c>
       <c r="H178">
         <f>H177+C178</f>
-        <v>1044422.1543585433</v>
+        <v>2006858.5537667403</v>
       </c>
     </row>
     <row r="179" spans="1:66" ht="19.5">
       <c r="C179">
         <f>H178*D179</f>
-        <v>33939.331285103959</v>
+        <v>73962.339602667533</v>
       </c>
       <c r="D179">
         <f>D178</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E179" t="s">
         <v>14</v>
@@ -9804,17 +9974,17 @@
       </c>
       <c r="H179">
         <f>H178+C179</f>
-        <v>1078361.4856436474</v>
+        <v>2080820.8933694079</v>
       </c>
     </row>
     <row r="180" spans="1:66" ht="19.5">
       <c r="C180">
         <f>H179*D180</f>
-        <v>35042.21693653625</v>
+        <v>76688.205692847492</v>
       </c>
       <c r="D180">
         <f>D179</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E180" t="s">
         <v>15</v>
@@ -9824,17 +9994,17 @@
       </c>
       <c r="H180">
         <f>H179+C180</f>
-        <v>1113403.7025801837</v>
+        <v>2157509.0990622556</v>
       </c>
     </row>
     <row r="181" spans="1:66" ht="19.5">
       <c r="C181">
         <f>H180*D181</f>
-        <v>36180.941737241024</v>
+        <v>79514.532990467735</v>
       </c>
       <c r="D181">
         <f>D180</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E181" t="s">
         <v>16</v>
@@ -9844,17 +10014,17 @@
       </c>
       <c r="H181">
         <f>H180+C181</f>
-        <v>1149584.6443174249</v>
+        <v>2237023.6320527233</v>
       </c>
     </row>
     <row r="182" spans="1:66" ht="19.5">
       <c r="C182">
         <f>H181*D182</f>
-        <v>37356.670308971152</v>
+        <v>82445.023971683171</v>
       </c>
       <c r="D182">
         <f>D181</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E182" t="s">
         <v>17</v>
@@ -9864,17 +10034,17 @@
       </c>
       <c r="H182">
         <f>H181+C182</f>
-        <v>1186941.3146263959</v>
+        <v>2319468.6560244067</v>
       </c>
     </row>
     <row r="183" spans="1:66" ht="19.5">
       <c r="C183">
         <f>H182*D183</f>
-        <v>38570.605118792628</v>
+        <v>85483.517566609677</v>
       </c>
       <c r="D183">
         <f>D182</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E183" t="s">
         <v>11</v>
@@ -9884,17 +10054,17 @@
       </c>
       <c r="H183">
         <f>H182+C183</f>
-        <v>1225511.9197451887</v>
+        <v>2404952.1735910163</v>
       </c>
     </row>
     <row r="184" spans="1:66" ht="19.5">
       <c r="C184">
         <f>H183*D184</f>
-        <v>39823.987708898276</v>
+        <v>88633.994188305383</v>
       </c>
       <c r="D184">
         <f>D183</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E184" t="s">
         <v>12</v>
@@ -9904,17 +10074,17 @@
       </c>
       <c r="H184">
         <f>H183+C184</f>
-        <v>1265335.9074540869</v>
+        <v>2493586.1677793218</v>
       </c>
     </row>
     <row r="185" spans="1:66" ht="19.5">
       <c r="C185">
         <f>H184*D185</f>
-        <v>41118.099966385118</v>
+        <v>91900.580947094102</v>
       </c>
       <c r="D185">
         <f>D184</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E185" t="s">
         <v>13</v>
@@ -9924,17 +10094,17 @@
       </c>
       <c r="H185">
         <f>H184+C185</f>
-        <v>1306454.0074204721</v>
+        <v>2585486.7487264159</v>
       </c>
     </row>
     <row r="186" spans="1:66" ht="19.5">
       <c r="C186">
         <f>H185*D186</f>
-        <v>42454.265434294277</v>
+        <v>95287.557057061378</v>
       </c>
       <c r="D186">
         <f>D185</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E186" t="s">
         <v>14</v>
@@ -9944,17 +10114,17 @@
       </c>
       <c r="H186">
         <f>H185+C186</f>
-        <v>1348908.2728547663</v>
+        <v>2680774.3057834771</v>
       </c>
     </row>
     <row r="187" spans="1:66" ht="19.5">
       <c r="C187">
         <f>H186*D187</f>
-        <v>43833.85066525406</v>
+        <v>98799.359441805864</v>
       </c>
       <c r="D187">
         <f>D186</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E187" t="s">
         <v>15</v>
@@ -9964,17 +10134,17 @@
       </c>
       <c r="H187">
         <f>H186+C187</f>
-        <v>1392742.1235200204</v>
+        <v>2779573.6652252832</v>
       </c>
     </row>
     <row r="188" spans="1:66" ht="19.5">
       <c r="C188">
         <f>H187*D188</f>
-        <v>45258.266619110895</v>
+        <v>102440.58854678953</v>
       </c>
       <c r="D188">
         <f>D187</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E188" t="s">
         <v>16</v>
@@ -9984,17 +10154,17 @@
       </c>
       <c r="H188">
         <f>H187+C188</f>
-        <v>1438000.3901391313</v>
+        <v>2882014.253772073</v>
       </c>
     </row>
     <row r="189" spans="1:66" ht="19.5">
       <c r="C189">
         <f>H188*D189</f>
-        <v>46728.970105977234</v>
+        <v>106216.01436590057</v>
       </c>
       <c r="D189">
         <f>D188</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E189" t="s">
         <v>17</v>
@@ -10004,17 +10174,17 @@
       </c>
       <c r="H189">
         <f>H188+C189</f>
-        <v>1484729.3602451086</v>
+        <v>2988230.2681379737</v>
       </c>
     </row>
     <row r="190" spans="1:66" ht="19.5">
       <c r="C190">
         <f>H189*D190</f>
-        <v>48247.465276172596</v>
+        <v>110130.58269012423</v>
       </c>
       <c r="D190">
         <f>D189</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E190" t="s">
         <v>11</v>
@@ -10024,17 +10194,17 @@
       </c>
       <c r="H190">
         <f>H189+C190</f>
-        <v>1532976.8255212812</v>
+        <v>3098360.8508280981</v>
       </c>
     </row>
     <row r="191" spans="1:66" ht="19.5">
       <c r="C191">
         <f>H190*D191</f>
-        <v>49815.30515858133</v>
+        <v>114189.42158650685</v>
       </c>
       <c r="D191">
         <f>D190</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E191" t="s">
         <v>12</v>
@@ -10044,17 +10214,17 @@
       </c>
       <c r="H191">
         <f>H190+C191</f>
-        <v>1582792.1306798626</v>
+        <v>3212550.2724146051</v>
       </c>
     </row>
     <row r="192" spans="1:66" ht="19.5">
       <c r="C192">
         <f>H191*D192</f>
-        <v>51434.093249000594</v>
+        <v>118397.84811590094</v>
       </c>
       <c r="D192">
         <f>D191</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E192" t="s">
         <v>13</v>
@@ -10064,17 +10234,17 @@
       </c>
       <c r="H192">
         <f>H191+C192</f>
-        <v>1634226.2239288632</v>
+        <v>3330948.1205305061</v>
       </c>
     </row>
     <row r="193" spans="1:66" ht="19.5">
       <c r="C193">
         <f>H192*D193</f>
-        <v>53105.485150102963</v>
+        <v>122761.37529829108</v>
       </c>
       <c r="D193">
         <f>D192</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E193" t="s">
         <v>14</v>
@@ -10084,17 +10254,17 @@
       </c>
       <c r="H193">
         <f>H192+C193</f>
-        <v>1687331.7090789662</v>
+        <v>3453709.4958287971</v>
       </c>
     </row>
     <row r="194" spans="1:66" ht="19.5">
       <c r="C194">
         <f>H193*D194</f>
-        <v>54831.190264690922</v>
+        <v>127285.71933482554</v>
       </c>
       <c r="D194">
         <f>D193</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E194" t="s">
         <v>15</v>
@@ -10104,17 +10274,17 @@
       </c>
       <c r="H194">
         <f>H193+C194</f>
-        <v>1742162.8993436571</v>
+        <v>3580995.2151636225</v>
       </c>
     </row>
     <row r="195" spans="1:66" ht="19.5">
       <c r="C195">
         <f>H194*D195</f>
-        <v>56612.973543975007</v>
+        <v>131976.80709601432</v>
       </c>
       <c r="D195">
         <f>D194</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E195" t="s">
         <v>16</v>
@@ -10124,17 +10294,17 @@
       </c>
       <c r="H195">
         <f>H194+C195</f>
-        <v>1798775.8728876321</v>
+        <v>3712972.0222596368</v>
       </c>
     </row>
     <row r="196" spans="1:66" ht="19.5">
       <c r="C196">
         <f>H195*D196</f>
-        <v>58452.657292663651</v>
+        <v>136840.78388590307</v>
       </c>
       <c r="D196">
         <f>D195</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E196" t="s">
         <v>17</v>
@@ -10144,17 +10314,17 @@
       </c>
       <c r="H196">
         <f>H195+C196</f>
-        <v>1857228.5301802957</v>
+        <v>3849812.80614554</v>
       </c>
     </row>
     <row r="197" spans="1:66" ht="19.5">
       <c r="C197">
         <f>H196*D197</f>
-        <v>60352.123032710864</v>
+        <v>141884.02149239401</v>
       </c>
       <c r="D197">
         <f>D196</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E197" t="s">
         <v>11</v>
@@ -10164,17 +10334,17 @@
       </c>
       <c r="H197">
         <f>H196+C197</f>
-        <v>1917580.6532130064</v>
+        <v>3991696.8276379341</v>
       </c>
     </row>
     <row r="198" spans="1:66" ht="19.5">
       <c r="C198">
         <f>H197*D198</f>
-        <v>62313.313427627894</v>
+        <v>147113.12653425953</v>
       </c>
       <c r="D198">
         <f>D197</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E198" t="s">
         <v>12</v>
@@ -10184,17 +10354,17 @@
       </c>
       <c r="H198">
         <f>H197+C198</f>
-        <v>1979893.9666406342</v>
+        <v>4138809.9541721935</v>
       </c>
     </row>
     <row r="199" spans="1:66" ht="19.5">
       <c r="C199">
         <f>H198*D199</f>
-        <v>64338.234269326887</v>
+        <v>152534.94911578353</v>
       </c>
       <c r="D199">
         <f>D198</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E199" t="s">
         <v>13</v>
@@ -10204,17 +10374,17 @@
       </c>
       <c r="H199">
         <f>H198+C199</f>
-        <v>2044232.200909961</v>
+        <v>4291344.903287977</v>
       </c>
     </row>
     <row r="200" spans="1:66" ht="19.5">
       <c r="C200">
         <f>H199*D200</f>
-        <v>66428.956529528674</v>
+        <v>158156.59180036731</v>
       </c>
       <c r="D200">
         <f>D199</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E200" t="s">
         <v>14</v>
@@ -10224,17 +10394,17 @@
       </c>
       <c r="H200">
         <f>H199+C200</f>
-        <v>2110661.1574394898</v>
+        <v>4449501.4950883444</v>
       </c>
     </row>
     <row r="201" spans="1:66" ht="19.5">
       <c r="C201">
         <f>H200*D201</f>
-        <v>68587.618477832642</v>
+        <v>163985.41891485607</v>
       </c>
       <c r="D201">
         <f>D200</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E201" t="s">
         <v>15</v>
@@ -10244,17 +10414,17 @@
       </c>
       <c r="H201">
         <f>H200+C201</f>
-        <v>2179248.7759173224</v>
+        <v>4613486.9140032008</v>
       </c>
     </row>
     <row r="202" spans="1:66" ht="19.5">
       <c r="C202">
         <f>H201*D202</f>
-        <v>70816.427868615021</v>
+        <v>170029.0661967741</v>
       </c>
       <c r="D202">
         <f>D201</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E202" t="s">
         <v>16</v>
@@ -10264,17 +10434,17 @@
       </c>
       <c r="H202">
         <f>H201+C202</f>
-        <v>2250065.2037859373</v>
+        <v>4783515.980199975</v>
       </c>
     </row>
     <row r="203" spans="1:66" ht="19.5">
       <c r="C203">
         <f>H202*D203</f>
-        <v>73117.664198992105</v>
+        <v>176295.45079710698</v>
       </c>
       <c r="D203">
         <f>D202</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E203" t="s">
         <v>17</v>
@@ -10284,17 +10454,17 @@
       </c>
       <c r="H203">
         <f>H202+C203</f>
-        <v>2323182.8679849296</v>
+        <v>4959811.430997082</v>
       </c>
     </row>
     <row r="204" spans="1:66" ht="19.5">
       <c r="C204">
         <f>H203*D204</f>
-        <v>75493.681040157928</v>
+        <v>182792.78165173411</v>
       </c>
       <c r="D204">
         <f>D203</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E204" t="s">
         <v>11</v>
@@ -10304,17 +10474,17 @@
       </c>
       <c r="H204">
         <f>H203+C204</f>
-        <v>2398676.5490250876</v>
+        <v>5142604.2126488164</v>
       </c>
     </row>
     <row r="205" spans="1:66" ht="19.5">
       <c r="C205">
         <f>H204*D205</f>
-        <v>77946.908444480403</v>
+        <v>189529.57023509793</v>
       </c>
       <c r="D205">
         <f>D204</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E205" t="s">
         <v>12</v>
@@ -10324,17 +10494,17 @@
       </c>
       <c r="H205">
         <f>H204+C205</f>
-        <v>2476623.4574695681</v>
+        <v>5332133.7828839142</v>
       </c>
     </row>
     <row r="206" spans="1:66" ht="19.5">
       <c r="C206">
         <f>H205*D206</f>
-        <v>80479.855430818177</v>
+        <v>196514.64171019767</v>
       </c>
       <c r="D206">
         <f>D205</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E206" t="s">
         <v>13</v>
@@ -10344,17 +10514,17 @@
       </c>
       <c r="H206">
         <f>H205+C206</f>
-        <v>2557103.3129003863</v>
+        <v>5528648.4245941117</v>
       </c>
     </row>
     <row r="207" spans="1:66" ht="19.5">
       <c r="C207">
         <f>H206*D207</f>
-        <v>83095.112550599777</v>
+        <v>203757.14648951334</v>
       </c>
       <c r="D207">
         <f>D206</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E207" t="s">
         <v>14</v>
@@ -10364,17 +10534,17 @@
       </c>
       <c r="H207">
         <f>H206+C207</f>
-        <v>2640198.4254509863</v>
+        <v>5732405.5710836248</v>
       </c>
     </row>
     <row r="208" spans="1:66" ht="19.5">
       <c r="C208">
         <f>H207*D208</f>
-        <v>85795.354537289444</v>
+        <v>211266.57222200543</v>
       </c>
       <c r="D208">
         <f>D207</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E208" t="s">
         <v>15</v>
@@ -10384,17 +10554,17 @@
       </c>
       <c r="H208">
         <f>H207+C208</f>
-        <v>2725993.7799882758</v>
+        <v>5943672.1433056304</v>
       </c>
     </row>
     <row r="209" spans="1:66" ht="19.5">
       <c r="C209">
         <f>H208*D209</f>
-        <v>88583.3430419496</v>
+        <v>219052.75622189269</v>
       </c>
       <c r="D209">
         <f>D208</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E209" t="s">
         <v>16</v>
@@ -10404,17 +10574,17 @@
       </c>
       <c r="H209">
         <f>H208+C209</f>
-        <v>2814577.1230302253</v>
+        <v>6162724.8995275227</v>
       </c>
     </row>
     <row r="210" spans="1:66" ht="19.5">
       <c r="C210">
         <f>H209*D210</f>
-        <v>91461.929457697566</v>
+        <v>227125.89835548977</v>
       </c>
       <c r="D210">
         <f>D209</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E210" t="s">
         <v>17</v>
@@ -10424,17 +10594,17 @@
       </c>
       <c r="H210">
         <f>H209+C210</f>
-        <v>2906039.0524879228</v>
+        <v>6389850.7978830123</v>
       </c>
     </row>
     <row r="211" spans="1:66" ht="19.5">
       <c r="C211">
         <f>H210*D211</f>
-        <v>94434.057835945248</v>
+        <v>235496.57440298673</v>
       </c>
       <c r="D211">
         <f>D210</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E211" t="s">
         <v>11</v>
@@ -10444,17 +10614,17 @@
       </c>
       <c r="H211">
         <f>H210+C211</f>
-        <v>3000473.1103238682</v>
+        <v>6625347.3722859994</v>
       </c>
     </row>
     <row r="212" spans="1:66" ht="19.5">
       <c r="C212">
         <f>H211*D212</f>
-        <v>97502.767897404323</v>
+        <v>244175.74991267396</v>
       </c>
       <c r="D212">
         <f>D211</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E212" t="s">
         <v>12</v>
@@ -10464,17 +10634,17 @@
       </c>
       <c r="H212">
         <f>H211+C212</f>
-        <v>3097975.8782212725</v>
+        <v>6869523.122198673</v>
       </c>
     </row>
     <row r="213" spans="1:66" ht="19.5">
       <c r="C213">
         <f>H212*D213</f>
-        <v>100671.19814093645</v>
+        <v>253174.79456576129</v>
       </c>
       <c r="D213">
         <f>D212</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E213" t="s">
         <v>13</v>
@@ -10484,17 +10654,17 @@
       </c>
       <c r="H213">
         <f>H212+C213</f>
-        <v>3198647.0763622089</v>
+        <v>7122697.9167644344</v>
       </c>
     </row>
     <row r="214" spans="1:66" ht="19.5">
       <c r="C214">
         <f>H213*D214</f>
-        <v>103942.58905342819</v>
+        <v>262505.49707061</v>
       </c>
       <c r="D214">
         <f>D213</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E214" t="s">
         <v>14</v>
@@ -10504,17 +10674,17 @@
       </c>
       <c r="H214">
         <f>H213+C214</f>
-        <v>3302589.6654156372</v>
+        <v>7385203.413835044</v>
       </c>
     </row>
     <row r="215" spans="1:66" ht="19.5">
       <c r="C215">
         <f>H214*D215</f>
-        <v>107320.28642397313</v>
+        <v>272180.08060588798</v>
       </c>
       <c r="D215">
         <f>D214</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E215" t="s">
         <v>15</v>
@@ -10524,17 +10694,17 @@
       </c>
       <c r="H215">
         <f>H214+C215</f>
-        <v>3409909.9518396105</v>
+        <v>7657383.4944409318</v>
       </c>
     </row>
     <row r="216" spans="1:66" ht="19.5">
       <c r="C216">
         <f>H215*D216</f>
-        <v>110807.74476575115</v>
+        <v>282211.21883287933</v>
       </c>
       <c r="D216">
         <f>D215</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E216" t="s">
         <v>16</v>
@@ -10544,17 +10714,17 @@
       </c>
       <c r="H216">
         <f>H215+C216</f>
-        <v>3520717.6966053615</v>
+        <v>7939594.7132738112</v>
       </c>
     </row>
     <row r="217" spans="1:66" ht="19.5">
       <c r="C217">
         <f>H216*D217</f>
-        <v>114408.5308491044</v>
+        <v>292612.05249792407</v>
       </c>
       <c r="D217">
         <f>D216</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E217" t="s">
         <v>17</v>
@@ -10564,17 +10734,17 @@
       </c>
       <c r="H217">
         <f>H216+C217</f>
-        <v>3635126.2274544658</v>
+        <v>8232206.7657717355</v>
       </c>
     </row>
     <row r="218" spans="1:66" ht="19.5">
       <c r="C218">
         <f>H217*D218</f>
-        <v>118126.32734942337</v>
+        <v>303396.20664673741</v>
       </c>
       <c r="D218">
         <f>D217</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E218" t="s">
         <v>11</v>
@@ -10584,17 +10754,17 @@
       </c>
       <c r="H218">
         <f>H217+C218</f>
-        <v>3753252.5548038892</v>
+        <v>8535602.9724184722</v>
       </c>
     </row>
     <row r="219" spans="1:66" ht="19.5">
       <c r="C219">
         <f>H218*D219</f>
-        <v>121964.93661357385</v>
+        <v>314577.80847315851</v>
       </c>
       <c r="D219">
         <f>D218</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E219" t="s">
         <v>12</v>
@@ -10604,17 +10774,17 @@
       </c>
       <c r="H219">
         <f>H218+C219</f>
-        <v>3875217.4914174629</v>
+        <v>8850180.7808916308</v>
       </c>
     </row>
     <row r="220" spans="1:66" ht="19.5">
       <c r="C220">
         <f>H219*D220</f>
-        <v>125928.2845487171</v>
+        <v>326171.50582571194</v>
       </c>
       <c r="D220">
         <f>D219</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E220" t="s">
         <v>13</v>
@@ -10624,17 +10794,17 @@
       </c>
       <c r="H220">
         <f>H219+C220</f>
-        <v>4001145.77596618</v>
+        <v>9176352.2867173422</v>
       </c>
     </row>
     <row r="221" spans="1:66" ht="19.5">
       <c r="C221">
         <f>H220*D221</f>
-        <v>130020.42463750014</v>
+        <v>338192.48639622342</v>
       </c>
       <c r="D221">
         <f>D220</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E221" t="s">
         <v>14</v>
@@ -10644,17 +10814,17 @@
       </c>
       <c r="H221">
         <f>H220+C221</f>
-        <v>4131166.2006036802</v>
+        <v>9514544.7731135655</v>
       </c>
     </row>
     <row r="222" spans="1:66" ht="19.5">
       <c r="C222">
         <f>H221*D222</f>
-        <v>134245.54208372306</v>
+        <v>350656.49761562864</v>
       </c>
       <c r="D222">
         <f>D221</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E222" t="s">
         <v>15</v>
@@ -10664,17 +10834,17 @@
       </c>
       <c r="H222">
         <f>H221+C222</f>
-        <v>4265411.7426874032</v>
+        <v>9865201.2707291935</v>
       </c>
     </row>
     <row r="223" spans="1:66" ht="19.5">
       <c r="C223">
         <f>H222*D223</f>
-        <v>138607.95809272293</v>
+        <v>363579.86728303746</v>
       </c>
       <c r="D223">
         <f>D222</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E223" t="s">
         <v>16</v>
@@ -10684,17 +10854,17 @@
       </c>
       <c r="H223">
         <f>H222+C223</f>
-        <v>4404019.7007801263</v>
+        <v>10228781.13801223</v>
       </c>
     </row>
     <row r="224" spans="1:66" ht="19.5">
       <c r="C224">
         <f>H223*D224</f>
-        <v>143112.13429085229</v>
+        <v>376979.52495507809</v>
       </c>
       <c r="D224">
         <f>D223</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E224" t="s">
         <v>17</v>
@@ -10704,17 +10874,17 @@
       </c>
       <c r="H224">
         <f>H223+C224</f>
-        <v>4547131.8350709789</v>
+        <v>10605760.662967309</v>
       </c>
     </row>
     <row r="225" spans="1:66" ht="19.5">
       <c r="C225">
         <f>H224*D225</f>
-        <v>147762.67728857207</v>
+        <v>390873.02412354044</v>
       </c>
       <c r="D225">
         <f>D224</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E225" t="s">
         <v>11</v>
@@ -10724,17 +10894,17 @@
       </c>
       <c r="H225">
         <f>H224+C225</f>
-        <v>4694894.5123595512</v>
+        <v>10996633.68709085</v>
       </c>
     </row>
     <row r="226" spans="1:66" ht="19.5">
       <c r="C226">
         <f>H225*D226</f>
-        <v>152564.34339182588</v>
+        <v>405278.56521037238</v>
       </c>
       <c r="D226">
         <f>D225</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E226" t="s">
         <v>12</v>
@@ -10744,17 +10914,17 @@
       </c>
       <c r="H226">
         <f>H225+C226</f>
-        <v>4847458.8557513766</v>
+        <v>11401912.252301222</v>
       </c>
     </row>
     <row r="227" spans="1:66" ht="19.5">
       <c r="C227">
         <f>H226*D227</f>
-        <v>157522.04346651424</v>
+        <v>420215.01941015129</v>
       </c>
       <c r="D227">
         <f>D226</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E227" t="s">
         <v>13</v>
@@ -10764,17 +10934,17 @@
       </c>
       <c r="H227">
         <f>H226+C227</f>
-        <v>5004980.8992178906</v>
+        <v>11822127.271711374</v>
       </c>
     </row>
     <row r="228" spans="1:66" ht="19.5">
       <c r="C228">
         <f>H227*D228</f>
-        <v>162640.84796104362</v>
+        <v>435701.95341126458</v>
       </c>
       <c r="D228">
         <f>D227</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E228" t="s">
         <v>14</v>
@@ -10784,17 +10954,17 @@
       </c>
       <c r="H228">
         <f>H227+C228</f>
-        <v>5167621.7471789345</v>
+        <v>12257829.225122638</v>
       </c>
     </row>
     <row r="229" spans="1:66" ht="19.5">
       <c r="C229">
         <f>H228*D229</f>
-        <v>167925.99209208734</v>
+        <v>451759.65502818441</v>
       </c>
       <c r="D229">
         <f>D228</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E229" t="s">
         <v>15</v>
@@ -10804,17 +10974,17 @@
       </c>
       <c r="H229">
         <f>H228+C229</f>
-        <v>5335547.7392710214</v>
+        <v>12709588.880150823</v>
       </c>
     </row>
     <row r="230" spans="1:66" ht="19.5">
       <c r="C230">
         <f>H229*D230</f>
-        <v>173382.88119886184</v>
+        <v>468409.15977841418</v>
       </c>
       <c r="D230">
         <f>D229</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E230" t="s">
         <v>16</v>
@@ -10824,17 +10994,17 @@
       </c>
       <c r="H230">
         <f>H229+C230</f>
-        <v>5508930.6204698831</v>
+        <v>13177998.039929237</v>
       </c>
     </row>
     <row r="231" spans="1:66" ht="19.5">
       <c r="C231">
         <f>H230*D231</f>
-        <v>179017.09627139455</v>
+        <v>485672.27843892243</v>
       </c>
       <c r="D231">
         <f>D230</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E231" t="s">
         <v>17</v>
@@ -10844,17 +11014,17 @@
       </c>
       <c r="H231">
         <f>H230+C231</f>
-        <v>5687947.7167412778</v>
+        <v>13663670.318368159</v>
       </c>
     </row>
     <row r="232" spans="1:66" ht="19.5">
       <c r="C232">
         <f>H231*D232</f>
-        <v>184834.39965843709</v>
+        <v>503571.62561816367</v>
       </c>
       <c r="D232">
         <f>D231</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E232" t="s">
         <v>11</v>
@@ -10864,17 +11034,17 @@
       </c>
       <c r="H232">
         <f>H231+C232</f>
-        <v>5872782.1163997147</v>
+        <v>14167241.943986323</v>
       </c>
     </row>
     <row r="233" spans="1:66" ht="19.5">
       <c r="C233">
         <f>H232*D233</f>
-        <v>190840.74096086167</v>
+        <v>522130.64938111446</v>
       </c>
       <c r="D233">
         <f>D232</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E233" t="s">
         <v>12</v>
@@ -10884,17 +11054,17 @@
       </c>
       <c r="H233">
         <f>H232+C233</f>
-        <v>6063622.8573605763</v>
+        <v>14689372.593367437</v>
       </c>
     </row>
     <row r="234" spans="1:66" ht="19.5">
       <c r="C234">
         <f>H233*D234</f>
-        <v>197042.26311656833</v>
+        <v>541373.66196613386</v>
       </c>
       <c r="D234">
         <f>D233</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E234" t="s">
         <v>13</v>
@@ -10904,17 +11074,17 @@
       </c>
       <c r="H234">
         <f>H233+C234</f>
-        <v>6260665.1204771446</v>
+        <v>15230746.255333571</v>
       </c>
     </row>
     <row r="235" spans="1:66" ht="19.5">
       <c r="C235">
         <f>H234*D235</f>
-        <v>203445.30868312577</v>
+        <v>561325.87163388752</v>
       </c>
       <c r="D235">
         <f>D234</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E235" t="s">
         <v>14</v>
@@ -10924,17 +11094,17 @@
       </c>
       <c r="H235">
         <f>H234+C235</f>
-        <v>6464110.4291602708</v>
+        <v>15792072.126967458</v>
       </c>
     </row>
     <row r="236" spans="1:66" ht="19.5">
       <c r="C236">
         <f>H235*D236</f>
-        <v>210056.42632457183</v>
+        <v>582013.41569005651</v>
       </c>
       <c r="D236">
         <f>D235</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E236" t="s">
         <v>15</v>
@@ -10944,17 +11114,17 @@
       </c>
       <c r="H236">
         <f>H235+C236</f>
-        <v>6674166.8554848423</v>
+        <v>16374085.542657515</v>
       </c>
     </row>
     <row r="237" spans="1:66" ht="19.5">
       <c r="C237">
         <f>H236*D237</f>
-        <v>216882.37750900761</v>
+        <v>603463.39472509117</v>
       </c>
       <c r="D237">
         <f>D236</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E237" t="s">
         <v>16</v>
@@ -10964,17 +11134,17 @@
       </c>
       <c r="H237">
         <f>H236+C237</f>
-        <v>6891049.2329938496</v>
+        <v>16977548.937382605</v>
       </c>
     </row>
     <row r="238" spans="1:66" ht="19.5">
       <c r="C238">
         <f>H237*D238</f>
-        <v>223930.14342383543</v>
+        <v>625703.90811586368</v>
       </c>
       <c r="D238">
         <f>D237</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E238" t="s">
         <v>17</v>
@@ -10984,17 +11154,17 @@
       </c>
       <c r="H238">
         <f>H237+C238</f>
-        <v>7114979.3764176853</v>
+        <v>17603252.845498469</v>
       </c>
     </row>
     <row r="239" spans="1:66" ht="19.5">
       <c r="C239">
         <f>H238*D239</f>
-        <v>231206.93211571273</v>
+        <v>648764.09083572717</v>
       </c>
       <c r="D239">
         <f>D238</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E239" t="s">
         <v>11</v>
@@ -11004,17 +11174,17 @@
       </c>
       <c r="H239">
         <f>H238+C239</f>
-        <v>7346186.3085333984</v>
+        <v>18252016.936334196</v>
       </c>
     </row>
     <row r="240" spans="1:66" ht="19.5">
       <c r="C240">
         <f>H239*D240</f>
-        <v>238720.1858625247</v>
+        <v>672674.15162119945</v>
       </c>
       <c r="D240">
         <f>D239</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E240" t="s">
         <v>12</v>
@@ -11024,17 +11194,17 @@
       </c>
       <c r="H240">
         <f>H239+C240</f>
-        <v>7584906.4943959229</v>
+        <v>18924691.087955397</v>
       </c>
     </row>
     <row r="241" spans="1:66" ht="19.5">
       <c r="C241">
         <f>H240*D241</f>
-        <v>246477.58878491467</v>
+        <v>697465.41254527471</v>
       </c>
       <c r="D241">
         <f>D240</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E241" t="s">
         <v>13</v>
@@ -11044,17 +11214,17 @@
       </c>
       <c r="H241">
         <f>H240+C241</f>
-        <v>7831384.0831808373</v>
+        <v>19622156.500500672</v>
       </c>
     </row>
     <row r="242" spans="1:66" ht="19.5">
       <c r="C242">
         <f>H241*D242</f>
-        <v>254487.07470515789</v>
+        <v>723170.35004919814</v>
       </c>
       <c r="D242">
         <f>D241</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E242" t="s">
         <v>14</v>
@@ -11064,17 +11234,17 @@
       </c>
       <c r="H242">
         <f>H241+C242</f>
-        <v>8085871.1578859948</v>
+        <v>20345326.850549869</v>
       </c>
     </row>
     <row r="243" spans="1:66" ht="19.5">
       <c r="C243">
         <f>H242*D243</f>
-        <v>262756.83526141499</v>
+        <v>749822.63748646004</v>
       </c>
       <c r="D243">
         <f>D242</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E243" t="s">
         <v>15</v>
@@ -11084,17 +11254,17 @@
       </c>
       <c r="H243">
         <f>H242+C243</f>
-        <v>8348627.9931474095</v>
+        <v>21095149.488036331</v>
       </c>
     </row>
     <row r="244" spans="1:66" ht="19.5">
       <c r="C244">
         <f>H243*D244</f>
-        <v>271295.32828566502</v>
+        <v>777457.18923473812</v>
       </c>
       <c r="D244">
         <f>D243</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E244" t="s">
         <v>16</v>
@@ -11104,17 +11274,17 @@
       </c>
       <c r="H244">
         <f>H243+C244</f>
-        <v>8619923.3214330748</v>
+        <v>21872606.677271068</v>
       </c>
     </row>
     <row r="245" spans="1:66" ht="19.5">
       <c r="C245">
         <f>H244*D245</f>
-        <v>280111.28645388607</v>
+        <v>806110.20643357676</v>
       </c>
       <c r="D245">
         <f>D244</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E245" t="s">
         <v>17</v>
@@ -11124,17 +11294,17 @@
       </c>
       <c r="H245">
         <f>H244+C245</f>
-        <v>8900034.6078869607</v>
+        <v>22678716.883704644</v>
       </c>
     </row>
     <row r="246" spans="1:66" ht="19.5">
       <c r="C246">
         <f>H245*D246</f>
-        <v>289213.72621733014</v>
+        <v>835819.22440771875</v>
       </c>
       <c r="D246">
         <f>D245</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E246" t="s">
         <v>11</v>
@@ -11144,17 +11314,17 @@
       </c>
       <c r="H246">
         <f>H245+C246</f>
-        <v>9189248.3341042902</v>
+        <v>23514536.108112361</v>
       </c>
     </row>
     <row r="247" spans="1:66" ht="19.5">
       <c r="C247">
         <f>H246*D247</f>
-        <v>298611.95702402713</v>
+        <v>866623.1618382124</v>
       </c>
       <c r="D247">
         <f>D246</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E247" t="s">
         <v>12</v>
@@ -11164,17 +11334,17 @@
       </c>
       <c r="H247">
         <f>H246+C247</f>
-        <v>9487860.2911283169</v>
+        <v>24381159.269950572</v>
       </c>
     </row>
     <row r="248" spans="1:66" ht="19.5">
       <c r="C248">
         <f>H247*D248</f>
-        <v>308315.59083994909</v>
+        <v>898562.37174571119</v>
       </c>
       <c r="D248">
         <f>D247</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E248" t="s">
         <v>13</v>
@@ -11184,17 +11354,17 @@
       </c>
       <c r="H248">
         <f>H247+C248</f>
-        <v>9796175.8819682654</v>
+        <v>25279721.641696282</v>
       </c>
     </row>
     <row r="249" spans="1:66" ht="19.5">
       <c r="C249">
         <f>H248*D249</f>
-        <v>318334.5519795721</v>
+        <v>931678.69435274997</v>
       </c>
       <c r="D249">
         <f>D248</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E249" t="s">
         <v>14</v>
@@ -11204,17 +11374,17 @@
       </c>
       <c r="H249">
         <f>H248+C249</f>
-        <v>10114510.433947837</v>
+        <v>26211400.336049031</v>
       </c>
     </row>
     <row r="250" spans="1:66" ht="19.5">
       <c r="C250">
         <f>H249*D250</f>
-        <v>328679.08725588996</v>
+        <v>966015.51189425041</v>
       </c>
       <c r="D250">
         <f>D249</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E250" t="s">
         <v>15</v>
@@ -11224,17 +11394,17 @@
       </c>
       <c r="H250">
         <f>H249+C250</f>
-        <v>10443189.521203727</v>
+        <v>27177415.847943284</v>
       </c>
     </row>
     <row r="251" spans="1:66" ht="19.5">
       <c r="C251">
         <f>H250*D251</f>
-        <v>339359.77646026097</v>
+        <v>1001617.805448055</v>
       </c>
       <c r="D251">
         <f>D250</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E251" t="s">
         <v>16</v>
@@ -11244,17 +11414,17 @@
       </c>
       <c r="H251">
         <f>H250+C251</f>
-        <v>10782549.297663987</v>
+        <v>28179033.653391339</v>
       </c>
     </row>
     <row r="252" spans="1:66" ht="19.5">
       <c r="C252">
         <f>H251*D252</f>
-        <v>350387.54318280565</v>
+        <v>1038532.2138599387</v>
       </c>
       <c r="D252">
         <f>D251</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E252" t="s">
         <v>17</v>
@@ -11264,17 +11434,17 @@
       </c>
       <c r="H252">
         <f>H251+C252</f>
-        <v>11132936.840846792</v>
+        <v>29217565.867251277</v>
       </c>
     </row>
     <row r="253" spans="1:66" ht="19.5">
       <c r="C253">
         <f>H252*D253</f>
-        <v>361773.66598442185</v>
+        <v>1076807.0948402884</v>
       </c>
       <c r="D253">
         <f>D252</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E253" t="s">
         <v>11</v>
@@ -11284,17 +11454,17 @@
       </c>
       <c r="H253">
         <f>H252+C253</f>
-        <v>11494710.506831214</v>
+        <v>30294372.962091565</v>
       </c>
     </row>
     <row r="254" spans="1:66" ht="19.5">
       <c r="C254">
         <f>H253*D254</f>
-        <v>373529.78993184317</v>
+        <v>1116492.5883124887</v>
       </c>
       <c r="D254">
         <f>D253</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E254" t="s">
         <v>12</v>
@@ -11304,17 +11474,17 @@
       </c>
       <c r="H254">
         <f>H253+C254</f>
-        <v>11868240.296763057</v>
+        <v>31410865.550404053</v>
       </c>
     </row>
     <row r="255" spans="1:66" ht="19.5">
       <c r="C255">
         <f>H254*D255</f>
-        <v>385667.93850753881</v>
+        <v>1157640.682095997</v>
       </c>
       <c r="D255">
         <f>D254</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E255" t="s">
         <v>13</v>
@@ -11324,17 +11494,17 @@
       </c>
       <c r="H255">
         <f>H254+C255</f>
-        <v>12253908.235270595</v>
+        <v>32568506.23250005</v>
       </c>
     </row>
     <row r="256" spans="1:66" ht="19.5">
       <c r="C256">
         <f>H255*D256</f>
-        <v>398200.52590663463</v>
+        <v>1200305.2800101556</v>
       </c>
       <c r="D256">
         <f>D255</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E256" t="s">
         <v>14</v>
@@ -11344,17 +11514,17 @@
       </c>
       <c r="H256">
         <f>H255+C256</f>
-        <v>12652108.761177231</v>
+        <v>33768811.512510203</v>
       </c>
     </row>
     <row r="257" spans="1:66" ht="19.5">
       <c r="C257">
         <f>H256*D257</f>
-        <v>411140.36973343312</v>
+        <v>1244542.2724879545</v>
       </c>
       <c r="D257">
         <f>D256</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E257" t="s">
         <v>15</v>
@@ -11364,17 +11534,17 @@
       </c>
       <c r="H257">
         <f>H256+C257</f>
-        <v>13063249.130910663</v>
+        <v>35013353.784998156</v>
       </c>
     </row>
     <row r="258" spans="1:66" ht="19.5">
       <c r="C258">
         <f>H257*D258</f>
-        <v>424500.70411051565</v>
+        <v>1290409.60979225</v>
       </c>
       <c r="D258">
         <f>D257</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E258" t="s">
         <v>16</v>
@@ -11384,17 +11554,17 @@
       </c>
       <c r="H258">
         <f>H257+C258</f>
-        <v>13487749.835021179</v>
+        <v>36303763.394790404</v>
       </c>
     </row>
     <row r="259" spans="1:66" ht="19.5">
       <c r="C259">
         <f>H258*D259</f>
-        <v>438295.1932138374</v>
+        <v>1337967.3779303492</v>
       </c>
       <c r="D259">
         <f>D258</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E259" t="s">
         <v>17</v>
@@ -11404,17 +11574,17 @@
       </c>
       <c r="H259">
         <f>H258+C259</f>
-        <v>13926045.028235016</v>
+        <v>37641730.772720754</v>
       </c>
     </row>
     <row r="260" spans="1:66" ht="19.5">
       <c r="C260">
         <f>H259*D260</f>
-        <v>452537.94524765381</v>
+        <v>1387277.8773664134</v>
       </c>
       <c r="D260">
         <f>D259</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E260" t="s">
         <v>11</v>
@@ -11424,17 +11594,17 @@
       </c>
       <c r="H260">
         <f>H259+C260</f>
-        <v>14378582.97348267</v>
+        <v>39029008.65008717</v>
       </c>
     </row>
     <row r="261" spans="1:66" ht="19.5">
       <c r="C261">
         <f>H260*D261</f>
-        <v>467243.52687357529</v>
+        <v>1438405.7046347864</v>
       </c>
       <c r="D261">
         <f>D260</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E261" t="s">
         <v>12</v>
@@ -11444,17 +11614,17 @@
       </c>
       <c r="H261">
         <f>H260+C261</f>
-        <v>14845826.500356246</v>
+        <v>40467414.354721956</v>
       </c>
     </row>
     <row r="262" spans="1:66" ht="19.5">
       <c r="C262">
         <f>H261*D262</f>
-        <v>482426.9781085045</v>
+        <v>1491417.8369611674</v>
       </c>
       <c r="D262">
         <f>D261</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E262" t="s">
         <v>13</v>
@@ -11464,17 +11634,17 @@
       </c>
       <c r="H262">
         <f>H261+C262</f>
-        <v>15328253.478464751</v>
+        <v>41958832.191683121</v>
       </c>
     </row>
     <row r="263" spans="1:66" ht="19.5">
       <c r="C263">
         <f>H262*D263</f>
-        <v>498103.8277066942</v>
+        <v>1546383.7200024787</v>
       </c>
       <c r="D263">
         <f>D262</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E263" t="s">
         <v>14</v>
@@ -11484,17 +11654,17 @@
       </c>
       <c r="H263">
         <f>H262+C263</f>
-        <v>15826357.306171445</v>
+        <v>43505215.911685601</v>
       </c>
     </row>
     <row r="264" spans="1:66" ht="19.5">
       <c r="C264">
         <f>H263*D264</f>
-        <v>514290.10904165753</v>
+        <v>1603375.358820365</v>
       </c>
       <c r="D264">
         <f>D263</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E264" t="s">
         <v>15</v>
@@ -11504,17 +11674,17 @@
       </c>
       <c r="H264">
         <f>H263+C264</f>
-        <v>16340647.415213102</v>
+        <v>45108591.270505965</v>
       </c>
     </row>
     <row r="265" spans="1:66" ht="19.5">
       <c r="C265">
         <f>H264*D265</f>
-        <v>531002.37650417339</v>
+        <v>1662467.412207504</v>
       </c>
       <c r="D265">
         <f>D264</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E265" t="s">
         <v>16</v>
@@ -11524,17 +11694,17 @@
       </c>
       <c r="H265">
         <f>H264+C265</f>
-        <v>16871649.791717276</v>
+        <v>46771058.682713471</v>
       </c>
     </row>
     <row r="266" spans="1:66" ht="19.5">
       <c r="C266">
         <f>H265*D266</f>
-        <v>548257.72243315866</v>
+        <v>1723737.2904902915</v>
       </c>
       <c r="D266">
         <f>D265</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E266" t="s">
         <v>17</v>
@@ -11544,17 +11714,17 @@
       </c>
       <c r="H266">
         <f>H265+C266</f>
-        <v>17419907.514150433</v>
+        <v>48494795.973203763</v>
       </c>
     </row>
     <row r="267" spans="1:66" ht="19.5">
       <c r="C267">
         <f>H266*D267</f>
-        <v>566073.79459672142</v>
+        <v>1787265.2569360242</v>
       </c>
       <c r="D267">
         <f>D266</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E267" t="s">
         <v>11</v>
@@ -11564,17 +11734,17 @@
       </c>
       <c r="H267">
         <f>H266+C267</f>
-        <v>17985981.308747154</v>
+        <v>50282061.230139785</v>
       </c>
     </row>
     <row r="268" spans="1:66" ht="19.5">
       <c r="C268">
         <f>H267*D268</f>
-        <v>584468.81424127647</v>
+        <v>1853134.5328974209</v>
       </c>
       <c r="D268">
         <f>D267</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E268" t="s">
         <v>12</v>
@@ -11584,17 +11754,17 @@
       </c>
       <c r="H268">
         <f>H267+C268</f>
-        <v>18570450.122988429</v>
+        <v>52135195.763037205</v>
       </c>
     </row>
     <row r="269" spans="1:66" ht="19.5">
       <c r="C269">
         <f>H268*D269</f>
-        <v>603461.59472718032</v>
+        <v>1921431.4068322247</v>
       </c>
       <c r="D269">
         <f>D268</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E269" t="s">
         <v>13</v>
@@ -11604,17 +11774,17 @@
       </c>
       <c r="H269">
         <f>H268+C269</f>
-        <v>19173911.71771561</v>
+        <v>54056627.16986943</v>
       </c>
     </row>
     <row r="270" spans="1:66" ht="19.5">
       <c r="C270">
         <f>H269*D270</f>
-        <v>623071.56076994573</v>
+        <v>1992245.3473406967</v>
       </c>
       <c r="D270">
         <f>D269</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E270" t="s">
         <v>14</v>
@@ -11624,17 +11794,17 @@
       </c>
       <c r="H270">
         <f>H269+C270</f>
-        <v>19796983.278485555</v>
+        <v>56048872.517210126</v>
       </c>
     </row>
     <row r="271" spans="1:66" ht="19.5">
       <c r="C271">
         <f>H270*D271</f>
-        <v>643318.76830671576</v>
+        <v>2065669.1203690842</v>
       </c>
       <c r="D271">
         <f>D270</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E271" t="s">
         <v>15</v>
@@ -11644,17 +11814,17 @@
       </c>
       <c r="H271">
         <f>H270+C271</f>
-        <v>20440302.046792272</v>
+        <v>58114541.63757921</v>
       </c>
     </row>
     <row r="272" spans="1:66" ht="19.5">
       <c r="C272">
         <f>H271*D272</f>
-        <v>664223.92500831455</v>
+        <v>2141798.9107325957</v>
       </c>
       <c r="D272">
         <f>D271</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E272" t="s">
         <v>16</v>
@@ -11664,17 +11834,17 @@
       </c>
       <c r="H272">
         <f>H271+C272</f>
-        <v>21104525.971800588</v>
+        <v>60256340.548311807</v>
       </c>
     </row>
     <row r="273" spans="1:66" ht="19.5">
       <c r="C273">
         <f>H272*D273</f>
-        <v>685808.41145785258</v>
+        <v>2220734.4481170806</v>
       </c>
       <c r="D273">
         <f>D272</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E273" t="s">
         <v>17</v>
@@ -11684,17 +11854,17 @@
       </c>
       <c r="H273">
         <f>H272+C273</f>
-        <v>21790334.38325844</v>
+        <v>62477074.996428885</v>
       </c>
     </row>
     <row r="274" spans="1:66" ht="19.5">
       <c r="C274">
         <f>H273*D274</f>
-        <v>708094.30301754887</v>
+        <v>2302579.1377244722</v>
       </c>
       <c r="D274">
         <f>D273</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E274" t="s">
         <v>11</v>
@@ -11704,17 +11874,17 @@
       </c>
       <c r="H274">
         <f>H273+C274</f>
-        <v>22498428.686275989</v>
+        <v>64779654.134153359</v>
       </c>
     </row>
     <row r="275" spans="1:66" ht="19.5">
       <c r="C275">
         <f>H274*D275</f>
-        <v>731104.39240613265</v>
+        <v>2387440.1957331421</v>
       </c>
       <c r="D275">
         <f>D274</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E275" t="s">
         <v>12</v>
@@ -11724,17 +11894,17 @@
       </c>
       <c r="H275">
         <f>H274+C275</f>
-        <v>23229533.078682121</v>
+        <v>67167094.329886496</v>
       </c>
     </row>
     <row r="276" spans="1:66" ht="19.5">
       <c r="C276">
         <f>H275*D276</f>
-        <v>754862.2130099152</v>
+        <v>2475428.7897506147</v>
       </c>
       <c r="D276">
         <f>D275</f>
-        <v>0.032495797933306578</v>
+        <v>0.036854784540666874</v>
       </c>
       <c r="E276" t="s">
         <v>13</v>
@@ -11744,7 +11914,7 @@
       </c>
       <c r="H276">
         <f>H275+C276</f>
-        <v>23984395.291692037</v>
+        <v>69642523.119637117</v>
       </c>
     </row>
     <row r="277" spans="1:66" ht="19.5">

--- a/converted.d/covid-19_progression_math.xlsx
+++ b/converted.d/covid-19_progression_math.xlsx
@@ -4,7 +4,7 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="19020" windowHeight="8060"/>
+    <workbookView activeTab="0" windowWidth="18780" windowHeight="4490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -192,7 +192,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AK$9:$AK$48</c:f>
+              <c:f>Sheet1!$AK$9:$AK$49</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -219,7 +219,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AO$9:$AO$48</c:f>
+              <c:f>Sheet1!$AO$9:$AO$49</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -243,7 +243,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AG$9:$AG$48</c:f>
+              <c:f>Sheet1!$AG$9:$AG$49</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -270,7 +270,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AC$9:$AC$48</c:f>
+              <c:f>Sheet1!$AC$9:$AC$49</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -297,7 +297,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AS$9:$AS$48</c:f>
+              <c:f>Sheet1!$AS$9:$AS$49</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -324,7 +324,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$9:$M$48</c:f>
+              <c:f>Sheet1!$M$9:$M$49</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -348,7 +348,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$9:$Q$48</c:f>
+              <c:f>Sheet1!$Q$9:$Q$49</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -375,7 +375,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$U$9:$U$48</c:f>
+              <c:f>Sheet1!$U$9:$U$49</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -402,7 +402,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Y$9:$Y$48</c:f>
+              <c:f>Sheet1!$Y$9:$Y$49</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -413,7 +413,7 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="40"/>
+          <c:max val="41"/>
           <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -431,7 +431,7 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="17318.363636363636"/>
+          <c:max val="18081.81818181818"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -600,7 +600,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Last revision:  Sunday, 19 Apr 2020 13:37 UTC - then 14:50 UTC</t>
+          <t>Last revision:  Sunday, 19 Apr 2020 20:32:55 UTC</t>
         </is>
       </c>
     </row>
@@ -5898,11 +5898,6 @@
         <f>S46+30</f>
         <v>243</v>
       </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>UPDATED - finished this line's entry and won't require further update.</t>
-        </is>
-      </c>
       <c r="U47">
         <f>U46+405</f>
         <v>4163</v>
@@ -5994,11 +5989,6 @@
       <c r="AY47">
         <f>O47+S47+W47+AA47+AE47+AI47+AM47+AQ47+AU47</f>
         <v>971</v>
-      </c>
-      <c r="AZ47" t="inlineStr">
-        <is>
-          <t>CORRECT - no errors seen.  Ready for permanent record.</t>
-        </is>
       </c>
       <c r="BA47" s="6">
         <v>43889</v>
@@ -6044,238 +6034,337 @@
         <f>M48+Q48+U48+Y48+AC48+AG48+AK48+AO48+AS48</f>
         <v>16809</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="M48">
+        <f>M47+34</f>
+        <v>569</v>
+      </c>
+      <c r="N48">
+        <f>N47+1</f>
+        <v>28</v>
+      </c>
+      <c r="O48">
+        <f>O47+2</f>
+        <v>46</v>
+      </c>
+      <c r="Q48">
+        <f>Q47+156</f>
+        <v>3015</v>
+      </c>
+      <c r="R48">
+        <f>R47+-10</f>
+        <v>410</v>
+      </c>
+      <c r="S48">
+        <f>S47+23</f>
+        <v>266</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>UPDATED - finished this line's entry and won't require further update.</t>
+        </is>
+      </c>
+      <c r="U48">
+        <f>U47+357</f>
+        <v>4520</v>
+      </c>
+      <c r="V48">
+        <f>V47+20</f>
+        <v>633</v>
+      </c>
+      <c r="W48">
+        <f>W47+15</f>
+        <v>229</v>
+      </c>
+      <c r="Y48">
+        <f>Y47+330</f>
+        <v>7146</v>
+      </c>
+      <c r="Z48">
+        <f>Z47+10</f>
+        <v>797</v>
+      </c>
+      <c r="AA48">
+        <f>AA47+19</f>
+        <v>425</v>
+      </c>
+      <c r="AC48">
+        <f>AC47+28</f>
+        <v>422</v>
+      </c>
+      <c r="AD48">
+        <f>AD47+-2</f>
+        <v>37</v>
+      </c>
+      <c r="AE48">
+        <f>AE47+2</f>
+        <v>32</v>
+      </c>
+      <c r="AG48">
+        <f>AG47+17</f>
+        <v>258</v>
+      </c>
+      <c r="AH48">
+        <f>AH47+1</f>
+        <v>12</v>
+      </c>
+      <c r="AI48">
+        <f>AI47+2</f>
+        <v>24</v>
+      </c>
+      <c r="AK48">
+        <f>AK47+5</f>
+        <v>92</v>
+      </c>
+      <c r="AL48">
+        <f>AL47+1</f>
+        <v>7</v>
+      </c>
+      <c r="AM48">
+        <f>AM47+1</f>
+        <v>2</v>
+      </c>
+      <c r="AO48">
+        <f>AO47+37</f>
+        <v>292</v>
+      </c>
+      <c r="AP48">
+        <f>AP47+-1</f>
+        <v>22</v>
+      </c>
+      <c r="AQ48">
+        <f>AQ47+1</f>
+        <v>10</v>
+      </c>
+      <c r="AS48">
+        <f>AS47+-39</f>
+        <v>495</v>
+      </c>
+      <c r="AU48">
+        <f>AU47+0</f>
+        <v>2</v>
+      </c>
+      <c r="AW48">
+        <f>M48+Q48+U48+Y48+AC48+AG48+AK48+AO48+AS48</f>
+        <v>16809</v>
+      </c>
+      <c r="AX48">
+        <f>N48+R48+V48+Z48+AD48+AH48+AL48+AP48+AT48</f>
+        <v>1946</v>
+      </c>
+      <c r="AY48">
+        <f>O48+S48+W48+AA48+AE48+AI48+AM48+AQ48+AU48</f>
+        <v>1036</v>
+      </c>
+      <c r="AZ48" t="inlineStr">
+        <is>
+          <t>CORRECT - no errors seen.  Ready for permanent record.</t>
+        </is>
+      </c>
+      <c r="BA48" s="6">
+        <v>43890</v>
+      </c>
+      <c r="BB48">
+        <v>68</v>
+      </c>
+      <c r="BC48">
+        <f>(BB48/BB47)-1</f>
+        <v>0.1333333333333333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:66" ht="19.5">
+      <c r="C49">
+        <f>H48*D49</f>
+        <v>740.99999999728402</v>
+      </c>
+      <c r="D49">
+        <f>0.044083526682000003</f>
+        <v>0.044083526682000003</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="6">
+        <v>43939</v>
+      </c>
+      <c r="G49" s="2">
+        <f>H49*15</f>
+        <v>263249.99999980477</v>
+      </c>
+      <c r="H49">
+        <f>H48+C49</f>
+        <v>17549.999999986983</v>
+      </c>
+      <c r="I49">
+        <v>17550</v>
+      </c>
+      <c r="J49">
+        <v>732197</v>
+      </c>
+      <c r="K49">
+        <f>M49+Q49+U49+Y49+AC49+AG49+AK49+AO49+AS49</f>
+        <v>17550</v>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>NEW: want to insert a second day, here.</t>
         </is>
       </c>
-      <c r="M48">
-        <f>M47+34</f>
-        <v>569</v>
-      </c>
-      <c r="N48">
-        <f>N47+1</f>
-        <v>28</v>
-      </c>
-      <c r="O48">
-        <f>O47+2</f>
-        <v>46</v>
-      </c>
-      <c r="Q48">
-        <f>Q47+156</f>
-        <v>3015</v>
-      </c>
-      <c r="R48">
-        <f>R47+-10</f>
-        <v>410</v>
-      </c>
-      <c r="S48">
-        <f>S47+23</f>
-        <v>266</v>
-      </c>
-      <c r="T48" t="inlineStr">
+      <c r="M49">
+        <f>M48+24</f>
+        <v>593</v>
+      </c>
+      <c r="N49">
+        <f>N48+2</f>
+        <v>30</v>
+      </c>
+      <c r="O49">
+        <f>O48+2</f>
+        <v>48</v>
+      </c>
+      <c r="Q49">
+        <f>Q48+181</f>
+        <v>3196</v>
+      </c>
+      <c r="R49">
+        <f>R48+7</f>
+        <v>417</v>
+      </c>
+      <c r="S49">
+        <f>S48+23</f>
+        <v>289</v>
+      </c>
+      <c r="T49" t="inlineStr">
         <is>
           <t>PROPOSED - open to proposal now - subject to revision.</t>
         </is>
       </c>
-      <c r="U48">
-        <f>U47+357</f>
-        <v>4520</v>
-      </c>
-      <c r="V48">
-        <f>V47+20</f>
-        <v>633</v>
-      </c>
-      <c r="W48">
-        <f>W47+15</f>
-        <v>229</v>
-      </c>
-      <c r="Y48">
-        <f>Y47+330</f>
-        <v>7146</v>
-      </c>
-      <c r="Z48">
-        <f>Z47+10</f>
-        <v>797</v>
-      </c>
-      <c r="AA48">
-        <f>AA47+19</f>
-        <v>425</v>
-      </c>
-      <c r="AC48">
-        <f>AC47+28</f>
-        <v>422</v>
-      </c>
-      <c r="AD48">
-        <f>AD47+-2</f>
+      <c r="U49">
+        <f>U48+223</f>
+        <v>4743</v>
+      </c>
+      <c r="V49">
+        <f>V48+5</f>
+        <v>638</v>
+      </c>
+      <c r="W49">
+        <f>W48+12</f>
+        <v>241</v>
+      </c>
+      <c r="Y49">
+        <f>Y48+217</f>
+        <v>7363</v>
+      </c>
+      <c r="Z49">
+        <f>Z48+-21</f>
+        <v>776</v>
+      </c>
+      <c r="AA49">
+        <f>AA48+7</f>
+        <v>432</v>
+      </c>
+      <c r="AC49">
+        <f>AC48+26</f>
+        <v>448</v>
+      </c>
+      <c r="AD49">
+        <f>AD48+-1</f>
+        <v>36</v>
+      </c>
+      <c r="AE49">
+        <f>AE48+5</f>
         <v>37</v>
       </c>
-      <c r="AE48">
-        <f>AE47+2</f>
-        <v>32</v>
-      </c>
-      <c r="AG48">
-        <f>AG47+17</f>
-        <v>258</v>
-      </c>
-      <c r="AH48">
-        <f>AH47+1</f>
-        <v>12</v>
-      </c>
-      <c r="AI48">
-        <f>AI47+2</f>
+      <c r="AG49">
+        <f>AG48+12</f>
+        <v>270</v>
+      </c>
+      <c r="AH49">
+        <f>AH48+2</f>
+        <v>14</v>
+      </c>
+      <c r="AI49">
+        <f>AI48+0</f>
         <v>24</v>
       </c>
-      <c r="AK48">
-        <f>AK47+5</f>
-        <v>92</v>
-      </c>
-      <c r="AL48">
-        <f>AL47+1</f>
-        <v>7</v>
-      </c>
-      <c r="AM48">
-        <f>AM47+1</f>
+      <c r="AK49">
+        <f>AK48+5</f>
+        <v>97</v>
+      </c>
+      <c r="AL49">
+        <f>AL48+-3</f>
+        <v>4</v>
+      </c>
+      <c r="AM49">
+        <f>AM48+0</f>
         <v>2</v>
       </c>
-      <c r="AO48">
-        <f>AO47+37</f>
-        <v>292</v>
-      </c>
-      <c r="AP48">
-        <f>AP47+-1</f>
-        <v>22</v>
-      </c>
-      <c r="AQ48">
-        <f>AQ47+1</f>
+      <c r="AO49">
+        <f>AO48+23</f>
+        <v>315</v>
+      </c>
+      <c r="AP49">
+        <f>AP48+1</f>
+        <v>23</v>
+      </c>
+      <c r="AQ49">
+        <f>AQ48+0</f>
         <v>10</v>
       </c>
-      <c r="AS48">
-        <f>AS47+-39</f>
-        <v>495</v>
-      </c>
-      <c r="AU48">
-        <f>AU47+0</f>
-        <v>2</v>
-      </c>
-      <c r="AW48">
-        <f>M48+Q48+U48+Y48+AC48+AG48+AK48+AO48+AS48</f>
-        <v>16809</v>
-      </c>
-      <c r="AX48">
-        <f>N48+R48+V48+Z48+AD48+AH48+AL48+AP48+AT48</f>
-        <v>1946</v>
-      </c>
-      <c r="AY48">
-        <f>O48+S48+W48+AA48+AE48+AI48+AM48+AQ48+AU48</f>
-        <v>1036</v>
-      </c>
-      <c r="BA48" s="6">
-        <v>43890</v>
-      </c>
-      <c r="BB48">
-        <v>68</v>
-      </c>
-      <c r="BC48">
-        <f>(BB48/BB47)-1</f>
-        <v>0.1333333333333333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:66" ht="19.5">
-      <c r="C49">
-        <f>H48*D49</f>
-        <v>881.86225137451368</v>
-      </c>
-      <c r="D49">
-        <f>D48/1.1100000000000001</f>
-        <v>0.052463695126126121</v>
-      </c>
-      <c r="E49" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" t="inlineStr">
+      <c r="AS49">
+        <f>AS48+30</f>
+        <v>525</v>
+      </c>
+      <c r="AU49">
+        <f>AU48+1</f>
+        <v>3</v>
+      </c>
+      <c r="AW49">
+        <f>M49+Q49+U49+Y49+AC49+AG49+AK49+AO49+AS49</f>
+        <v>17550</v>
+      </c>
+      <c r="AX49">
+        <f>N49+R49+V49+Z49+AD49+AH49+AL49+AP49+AT49</f>
+        <v>1938</v>
+      </c>
+      <c r="AY49">
+        <f>O49+S49+W49+AA49+AE49+AI49+AM49+AQ49+AU49</f>
+        <v>1086</v>
+      </c>
+      <c r="BA49" s="6">
+        <v>43891</v>
+      </c>
+      <c r="BB49">
+        <v>74</v>
+      </c>
+      <c r="BC49">
+        <f>(BB49/BB48)-1</f>
+        <v>0.088235294117646967</v>
+      </c>
+    </row>
+    <row r="50" spans="1:66" ht="19.5">
+      <c r="C50">
+        <f>H49*D50</f>
+        <v>696.99630024191549</v>
+      </c>
+      <c r="D50">
+        <f>D49/1.1100000000000001</f>
+        <v>0.039714888902702701</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" t="inlineStr">
         <is>
           <t>day two</t>
         </is>
       </c>
-      <c r="G49" s="2">
-        <f>H49*15</f>
-        <v>265362.93377046322</v>
-      </c>
-      <c r="H49">
-        <f>H48+C49</f>
-        <v>17690.862251364215</v>
-      </c>
-      <c r="I49" s="1"/>
-      <c r="J49">
-        <v>732197</v>
-      </c>
-      <c r="K49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
-      <c r="AA49" s="1"/>
-      <c r="AC49" s="1"/>
-      <c r="AD49" s="1"/>
-      <c r="AE49" s="1"/>
-      <c r="AG49" s="1"/>
-      <c r="AH49" s="1"/>
-      <c r="AI49" s="1"/>
-      <c r="AK49" s="1"/>
-      <c r="AL49" s="1"/>
-      <c r="AM49" s="1"/>
-      <c r="AO49" s="1"/>
-      <c r="AP49" s="1"/>
-      <c r="AQ49" s="1"/>
-      <c r="AS49" s="1"/>
-      <c r="AT49" s="1"/>
-      <c r="AU49" s="1"/>
-      <c r="AW49" s="1"/>
-      <c r="AX49" s="1"/>
-      <c r="AY49" s="1"/>
-      <c r="BA49" s="6">
-        <v>43891</v>
-      </c>
-      <c r="BB49">
-        <v>74</v>
-      </c>
-      <c r="BC49">
-        <f>(BB49/BB48)-1</f>
-        <v>0.088235294117646967</v>
-      </c>
-    </row>
-    <row r="50" spans="1:66" ht="19.5">
-      <c r="C50">
-        <f>H49*D50</f>
-        <v>836.15135466113986</v>
-      </c>
-      <c r="D50">
-        <f>D49/1.1100000000000001</f>
-        <v>0.047264590203717219</v>
-      </c>
-      <c r="E50" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>day three</t>
-        </is>
-      </c>
       <c r="G50" s="2">
         <f>H50*15</f>
-        <v>277905.20409038028</v>
+        <v>273704.94450343354</v>
       </c>
       <c r="H50">
         <f>H49+C50</f>
-        <v>18527.013606025354</v>
+        <v>18246.996300228901</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -6324,27 +6413,27 @@
     <row r="51" spans="1:66" ht="19.5">
       <c r="C51">
         <f>H50*D51</f>
-        <v>788.89342863737079</v>
+        <v>652.86255033479097</v>
       </c>
       <c r="D51">
         <f>D50/1.1100000000000001</f>
-        <v>0.042580711895240736</v>
+        <v>0.035779179191624051</v>
       </c>
       <c r="E51" t="s">
         <v>12</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>day four</t>
+          <t>day three</t>
         </is>
       </c>
       <c r="G51" s="2">
         <f>H51*15</f>
-        <v>289738.60551994084</v>
+        <v>283497.88275845535</v>
       </c>
       <c r="H51">
         <f>H50+C51</f>
-        <v>19315.907034662723</v>
+        <v>18899.858850563691</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -6355,91 +6444,91 @@
         </is>
       </c>
       <c r="M51">
-        <v>569</v>
+        <v>593</v>
       </c>
       <c r="N51">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O51">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q51">
-        <v>3015</v>
+        <v>3196</v>
       </c>
       <c r="R51">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="S51">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="U51">
-        <v>4520</v>
+        <v>4743</v>
       </c>
       <c r="V51">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="W51">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="Y51">
-        <v>7146</v>
+        <v>7363</v>
       </c>
       <c r="Z51">
-        <v>797</v>
+        <v>776</v>
       </c>
       <c r="AA51">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="AC51">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="AD51">
+        <v>36</v>
+      </c>
+      <c r="AE51">
         <v>37</v>
       </c>
-      <c r="AE51">
-        <v>32</v>
-      </c>
       <c r="AG51">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="AH51">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AI51">
         <v>24</v>
       </c>
       <c r="AK51">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="AL51">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AM51">
         <v>2</v>
       </c>
       <c r="AO51">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="AP51">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ51">
         <v>10</v>
       </c>
       <c r="AS51">
-        <v>495</v>
+        <v>525</v>
       </c>
       <c r="AU51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW51">
-        <v>16809</v>
+        <v>17550</v>
       </c>
       <c r="AX51">
-        <v>1946</v>
+        <v>1938</v>
       </c>
       <c r="AY51">
-        <v>1036</v>
+        <v>1086</v>
       </c>
       <c r="BA51" s="6">
         <v>43893</v>
@@ -6455,27 +6544,27 @@
     <row r="52" spans="1:66" ht="19.5">
       <c r="C52">
         <f>H51*D52</f>
-        <v>740.97754273714156</v>
+        <v>609.20850136100898</v>
       </c>
       <c r="D52">
         <f>D51/1.1100000000000001</f>
-        <v>0.038361001707424083</v>
+        <v>0.032233494767228872</v>
       </c>
       <c r="E52" t="s">
         <v>13</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>day five</t>
+          <t>day four</t>
         </is>
       </c>
       <c r="G52" s="2">
         <f>H52*15</f>
-        <v>300853.26866099797</v>
+        <v>292636.01027887047</v>
       </c>
       <c r="H52">
         <f>H51+C52</f>
-        <v>20056.884577399866</v>
+        <v>19509.067351924699</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -6486,120 +6575,120 @@
         </is>
       </c>
       <c r="M52">
-        <f>M51-M47</f>
-        <v>34</v>
+        <f>M51-M48</f>
+        <v>24</v>
       </c>
       <c r="N52">
-        <f>N51-N47</f>
+        <f>N51-N48</f>
+        <v>2</v>
+      </c>
+      <c r="O52">
+        <f>O51-O48</f>
+        <v>2</v>
+      </c>
+      <c r="Q52">
+        <f>Q51-Q48</f>
+        <v>181</v>
+      </c>
+      <c r="R52">
+        <f>R51-R48</f>
+        <v>7</v>
+      </c>
+      <c r="S52">
+        <f>S51-S48</f>
+        <v>23</v>
+      </c>
+      <c r="U52">
+        <f>U51-U48</f>
+        <v>223</v>
+      </c>
+      <c r="V52">
+        <f>V51-V48</f>
+        <v>5</v>
+      </c>
+      <c r="W52">
+        <f>W51-W48</f>
+        <v>12</v>
+      </c>
+      <c r="Y52">
+        <f>Y51-Y48</f>
+        <v>217</v>
+      </c>
+      <c r="Z52">
+        <f>Z51-Z48</f>
+        <v>-21</v>
+      </c>
+      <c r="AA52">
+        <f>AA51-AA48</f>
+        <v>7</v>
+      </c>
+      <c r="AC52">
+        <f>AC51-AC48</f>
+        <v>26</v>
+      </c>
+      <c r="AD52">
+        <f>AD51-AD48</f>
+        <v>-1</v>
+      </c>
+      <c r="AE52">
+        <f>AE51-AE48</f>
+        <v>5</v>
+      </c>
+      <c r="AG52">
+        <f>AG51-AG48</f>
+        <v>12</v>
+      </c>
+      <c r="AH52">
+        <f>AH51-AH48</f>
+        <v>2</v>
+      </c>
+      <c r="AI52">
+        <f>AI51-AI48</f>
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <f>AK51-AK48</f>
+        <v>5</v>
+      </c>
+      <c r="AL52">
+        <f>AL51-AL48</f>
+        <v>-3</v>
+      </c>
+      <c r="AM52">
+        <f>AM51-AM48</f>
+        <v>0</v>
+      </c>
+      <c r="AO52">
+        <f>AO51-AO48</f>
+        <v>23</v>
+      </c>
+      <c r="AP52">
+        <f>AP51-AP48</f>
         <v>1</v>
       </c>
-      <c r="O52">
-        <f>O51-O47</f>
-        <v>2</v>
-      </c>
-      <c r="Q52">
-        <f>Q51-Q47</f>
-        <v>156</v>
-      </c>
-      <c r="R52">
-        <f>R51-R47</f>
-        <v>-10</v>
-      </c>
-      <c r="S52">
-        <f>S51-S47</f>
-        <v>23</v>
-      </c>
-      <c r="U52">
-        <f>U51-U47</f>
-        <v>357</v>
-      </c>
-      <c r="V52">
-        <f>V51-V47</f>
-        <v>20</v>
-      </c>
-      <c r="W52">
-        <f>W51-W47</f>
-        <v>15</v>
-      </c>
-      <c r="Y52">
-        <f>Y51-Y47</f>
-        <v>330</v>
-      </c>
-      <c r="Z52">
-        <f>Z51-Z47</f>
-        <v>10</v>
-      </c>
-      <c r="AA52">
-        <f>AA51-AA47</f>
-        <v>19</v>
-      </c>
-      <c r="AC52">
-        <f>AC51-AC47</f>
-        <v>28</v>
-      </c>
-      <c r="AD52">
-        <f>AD51-AD47</f>
-        <v>-2</v>
-      </c>
-      <c r="AE52">
-        <f>AE51-AE47</f>
-        <v>2</v>
-      </c>
-      <c r="AG52">
-        <f>AG51-AG47</f>
-        <v>17</v>
-      </c>
-      <c r="AH52">
-        <f>AH51-AH47</f>
+      <c r="AQ52">
+        <f>AQ51-AQ48</f>
+        <v>0</v>
+      </c>
+      <c r="AS52">
+        <f>AS51-AS48</f>
+        <v>30</v>
+      </c>
+      <c r="AU52">
+        <f>AU51-AU48</f>
         <v>1</v>
       </c>
-      <c r="AI52">
-        <f>AI51-AI47</f>
-        <v>2</v>
-      </c>
-      <c r="AK52">
-        <f>AK51-AK47</f>
-        <v>5</v>
-      </c>
-      <c r="AL52">
-        <f>AL51-AL47</f>
-        <v>1</v>
-      </c>
-      <c r="AM52">
-        <f>AM51-AM47</f>
-        <v>1</v>
-      </c>
-      <c r="AO52">
-        <f>AO51-AO47</f>
-        <v>37</v>
-      </c>
-      <c r="AP52">
-        <f>AP51-AP47</f>
-        <v>-1</v>
-      </c>
-      <c r="AQ52">
-        <f>AQ51-AQ47</f>
-        <v>1</v>
-      </c>
-      <c r="AS52">
-        <f>AS51-AS47</f>
-        <v>-39</v>
-      </c>
-      <c r="AU52">
-        <f>AU51-AU47</f>
-        <v>0</v>
-      </c>
       <c r="AW52">
-        <f>AW51-AW47</f>
-        <v>925</v>
+        <f>AW51-AW48</f>
+        <v>741</v>
       </c>
       <c r="AX52">
-        <f>AX51-AX47</f>
-        <v>20</v>
+        <f>AX51-AX48</f>
+        <v>-8</v>
       </c>
       <c r="AY52">
-        <f>AY51-AY47</f>
-        <v>65</v>
+        <f>AY51-AY48</f>
+        <v>50</v>
       </c>
       <c r="BA52" s="6">
         <v>43894</v>
@@ -6615,27 +6704,27 @@
     <row r="53" spans="1:66" ht="19.5">
       <c r="C53">
         <f>H52*D53</f>
-        <v>693.15512028760713</v>
+        <v>566.52740576736971</v>
       </c>
       <c r="D53">
         <f>D52/1.1100000000000001</f>
-        <v>0.034559460997679349</v>
+        <v>0.029039184474980963</v>
       </c>
       <c r="E53" t="s">
         <v>14</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>above: moving target</t>
+          <t>day five</t>
         </is>
       </c>
       <c r="G53" s="2">
         <f>H53*15</f>
-        <v>311250.59546531207</v>
+        <v>301133.92136538104</v>
       </c>
       <c r="H53">
         <f>H52+C53</f>
-        <v>20750.039697687473</v>
+        <v>20075.59475769207</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -6649,120 +6738,120 @@
         </is>
       </c>
       <c r="M53">
-        <f>M48-M47</f>
-        <v>34</v>
+        <f>M49-M48</f>
+        <v>24</v>
       </c>
       <c r="N53">
-        <f>N48-N47</f>
+        <f>N49-N48</f>
+        <v>2</v>
+      </c>
+      <c r="O53">
+        <f>O49-O48</f>
+        <v>2</v>
+      </c>
+      <c r="Q53">
+        <f>Q49-Q48</f>
+        <v>181</v>
+      </c>
+      <c r="R53">
+        <f>R49-R48</f>
+        <v>7</v>
+      </c>
+      <c r="S53">
+        <f>S49-S48</f>
+        <v>23</v>
+      </c>
+      <c r="U53">
+        <f>U49-U48</f>
+        <v>223</v>
+      </c>
+      <c r="V53">
+        <f>V49-V48</f>
+        <v>5</v>
+      </c>
+      <c r="W53">
+        <f>W49-W48</f>
+        <v>12</v>
+      </c>
+      <c r="Y53">
+        <f>Y49-Y48</f>
+        <v>217</v>
+      </c>
+      <c r="Z53">
+        <f>Z49-Z48</f>
+        <v>-21</v>
+      </c>
+      <c r="AA53">
+        <f>AA49-AA48</f>
+        <v>7</v>
+      </c>
+      <c r="AC53">
+        <f>AC49-AC48</f>
+        <v>26</v>
+      </c>
+      <c r="AD53">
+        <f>AD49-AD48</f>
+        <v>-1</v>
+      </c>
+      <c r="AE53">
+        <f>AE49-AE48</f>
+        <v>5</v>
+      </c>
+      <c r="AG53">
+        <f>AG49-AG48</f>
+        <v>12</v>
+      </c>
+      <c r="AH53">
+        <f>AH49-AH48</f>
+        <v>2</v>
+      </c>
+      <c r="AI53">
+        <f>AI49-AI48</f>
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <f>AK49-AK48</f>
+        <v>5</v>
+      </c>
+      <c r="AL53">
+        <f>AL49-AL48</f>
+        <v>-3</v>
+      </c>
+      <c r="AM53">
+        <f>AM49-AM48</f>
+        <v>0</v>
+      </c>
+      <c r="AO53">
+        <f>AO49-AO48</f>
+        <v>23</v>
+      </c>
+      <c r="AP53">
+        <f>AP49-AP48</f>
         <v>1</v>
       </c>
-      <c r="O53">
-        <f>O48-O47</f>
-        <v>2</v>
-      </c>
-      <c r="Q53">
-        <f>Q48-Q47</f>
-        <v>156</v>
-      </c>
-      <c r="R53">
-        <f>R48-R47</f>
-        <v>-10</v>
-      </c>
-      <c r="S53">
-        <f>S48-S47</f>
-        <v>23</v>
-      </c>
-      <c r="U53">
-        <f>U48-U47</f>
-        <v>357</v>
-      </c>
-      <c r="V53">
-        <f>V48-V47</f>
-        <v>20</v>
-      </c>
-      <c r="W53">
-        <f>W48-W47</f>
-        <v>15</v>
-      </c>
-      <c r="Y53">
-        <f>Y48-Y47</f>
-        <v>330</v>
-      </c>
-      <c r="Z53">
-        <f>Z48-Z47</f>
-        <v>10</v>
-      </c>
-      <c r="AA53">
-        <f>AA48-AA47</f>
-        <v>19</v>
-      </c>
-      <c r="AC53">
-        <f>AC48-AC47</f>
-        <v>28</v>
-      </c>
-      <c r="AD53">
-        <f>AD48-AD47</f>
-        <v>-2</v>
-      </c>
-      <c r="AE53">
-        <f>AE48-AE47</f>
-        <v>2</v>
-      </c>
-      <c r="AG53">
-        <f>AG48-AG47</f>
-        <v>17</v>
-      </c>
-      <c r="AH53">
-        <f>AH48-AH47</f>
+      <c r="AQ53">
+        <f>AQ49-AQ48</f>
+        <v>0</v>
+      </c>
+      <c r="AS53">
+        <f>AS49-AS48</f>
+        <v>30</v>
+      </c>
+      <c r="AU53">
+        <f>AU49-AU48</f>
         <v>1</v>
       </c>
-      <c r="AI53">
-        <f>AI48-AI47</f>
-        <v>2</v>
-      </c>
-      <c r="AK53">
-        <f>AK48-AK47</f>
-        <v>5</v>
-      </c>
-      <c r="AL53">
-        <f>AL48-AL47</f>
-        <v>1</v>
-      </c>
-      <c r="AM53">
-        <f>AM48-AM47</f>
-        <v>1</v>
-      </c>
-      <c r="AO53">
-        <f>AO48-AO47</f>
-        <v>37</v>
-      </c>
-      <c r="AP53">
-        <f>AP48-AP47</f>
-        <v>-1</v>
-      </c>
-      <c r="AQ53">
-        <f>AQ48-AQ47</f>
-        <v>1</v>
-      </c>
-      <c r="AS53">
-        <f>AS48-AS47</f>
-        <v>-39</v>
-      </c>
-      <c r="AU53">
-        <f>AU48-AU47</f>
-        <v>0</v>
-      </c>
       <c r="AW53">
-        <f>AW48-AW47</f>
-        <v>925</v>
+        <f>AW49-AW48</f>
+        <v>741</v>
       </c>
       <c r="AX53">
-        <f>AX48-AX47</f>
-        <v>20</v>
+        <f>AX49-AX48</f>
+        <v>-8</v>
       </c>
       <c r="AY53">
-        <f>AY48-AY47</f>
-        <v>65</v>
+        <f>AY49-AY48</f>
+        <v>50</v>
       </c>
       <c r="BA53" s="6">
         <v>43895</v>
@@ -6778,25 +6867,27 @@
     <row r="54" spans="1:66" ht="19.5">
       <c r="C54">
         <f>H53*D54</f>
-        <v>646.04521408335881</v>
+        <v>525.20621586809079</v>
       </c>
       <c r="D54">
         <f>D53/1.1100000000000001</f>
-        <v>0.03113464954745887</v>
+        <v>0.026161427454937804</v>
       </c>
       <c r="E54" t="s">
         <v>15</v>
       </c>
-      <c r="F54" s="6">
-        <v>43944</v>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>above: moving target</t>
+        </is>
       </c>
       <c r="G54" s="2">
         <f>H54*15</f>
-        <v>320941.27367656247</v>
+        <v>309012.01460340241</v>
       </c>
       <c r="H54">
         <f>H53+C54</f>
-        <v>21396.084911770831</v>
+        <v>20600.800973560159</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -6815,11 +6906,11 @@
     <row r="55" spans="1:66" ht="19.5">
       <c r="C55">
         <f>H54*D55</f>
-        <v>600.14378866275422</v>
+        <v>485.53726142649197</v>
       </c>
       <c r="D55">
         <f>D54/1.1100000000000001</f>
-        <v>0.028049233826539521</v>
+        <v>0.023568853563007027</v>
       </c>
       <c r="E55" t="s">
         <v>16</v>
@@ -6829,11 +6920,11 @@
       </c>
       <c r="G55" s="2">
         <f>H55*15</f>
-        <v>329943.43050650379</v>
+        <v>316295.07352479978</v>
       </c>
       <c r="H55">
         <f>H54+C55</f>
-        <v>21996.228700433585</v>
+        <v>21086.338234986652</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -6851,11 +6942,11 @@
     <row r="56" spans="1:66" ht="19.5">
       <c r="C56">
         <f>H55*D56</f>
-        <v>555.83546136982079</v>
+        <v>447.73046670309589</v>
       </c>
       <c r="D56">
         <f>D55/1.1100000000000001</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E56" t="s">
         <v>17</v>
@@ -6865,15 +6956,15 @@
       </c>
       <c r="G56" s="2">
         <f>H56*15</f>
-        <v>338280.9624270511</v>
+        <v>323011.03052534617</v>
       </c>
       <c r="H56">
         <f>H55+C56</f>
-        <v>22552.064161803406</v>
+        <v>21534.068701689746</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>&lt;&lt; transmission under 2.6 percent growth (per day)</t>
+          <t>&lt;&lt; transmission under 2.2 percent growth (per day)</t>
         </is>
       </c>
       <c r="J56" s="1"/>
@@ -6883,130 +6974,130 @@
         </is>
       </c>
       <c r="M56" s="3">
-        <f>(M48/M47)-1</f>
-        <v>0.063551401869158974</v>
+        <f>(M49/M48)-1</f>
+        <v>0.042179261862917317</v>
       </c>
       <c r="N56" s="3">
-        <f>(N48/N47)-1</f>
-        <v>0.037037037037036979</v>
+        <f>(N49/N48)-1</f>
+        <v>0.071428571428571397</v>
       </c>
       <c r="O56" s="3">
-        <f>(O48/O47)-1</f>
-        <v>0.045454545454545414</v>
+        <f>(O49/O48)-1</f>
+        <v>0.043478260869565188</v>
       </c>
       <c r="P56" s="3"/>
       <c r="Q56" s="3">
-        <f>(Q48/Q47)-1</f>
-        <v>0.054564533053515163</v>
+        <f>(Q49/Q48)-1</f>
+        <v>0.060033167495854078</v>
       </c>
       <c r="R56" s="3">
-        <f>(R48/R47)-1</f>
-        <v>-0.023809523809523836</v>
+        <f>(R49/R48)-1</f>
+        <v>0.017073170731707332</v>
       </c>
       <c r="S56" s="3">
-        <f>(S48/S47)-1</f>
-        <v>0.094650205761316775</v>
+        <f>(S49/S48)-1</f>
+        <v>0.086466165413533913</v>
       </c>
       <c r="T56" s="3"/>
       <c r="U56" s="3">
-        <f>(U48/U47)-1</f>
-        <v>0.085755464809031956</v>
+        <f>(U49/U48)-1</f>
+        <v>0.049336283185840601</v>
       </c>
       <c r="V56" s="3">
-        <f>(V48/V47)-1</f>
-        <v>0.032626427406198921</v>
+        <f>(V49/V48)-1</f>
+        <v>0.00789889415481837</v>
       </c>
       <c r="W56" s="3">
-        <f>(W48/W47)-1</f>
-        <v>0.070093457943925186</v>
+        <f>(W49/W48)-1</f>
+        <v>0.05240174672489073</v>
       </c>
       <c r="X56" s="3"/>
       <c r="Y56" s="3">
-        <f>(Y48/Y47)-1</f>
-        <v>0.048415492957746498</v>
+        <f>(Y49/Y48)-1</f>
+        <v>0.03036663867898115</v>
       </c>
       <c r="Z56" s="3">
-        <f>(Z48/Z47)-1</f>
-        <v>0.01270648030495547</v>
+        <f>(Z49/Z48)-1</f>
+        <v>-0.026348808030112969</v>
       </c>
       <c r="AA56" s="3">
-        <f>(AA48/AA47)-1</f>
-        <v>0.046798029556650356</v>
+        <f>(AA49/AA48)-1</f>
+        <v>0.016470588235294015</v>
       </c>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3">
-        <f>(AC48/AC47)-1</f>
-        <v>0.071065989847715727</v>
+        <f>(AC49/AC48)-1</f>
+        <v>0.061611374407583019</v>
       </c>
       <c r="AD56" s="3">
-        <f>(AD48/AD47)-1</f>
-        <v>-0.051282051282051322</v>
+        <f>(AD49/AD48)-1</f>
+        <v>-0.027027027027026973</v>
       </c>
       <c r="AE56" s="3">
-        <f>(AE48/AE47)-1</f>
-        <v>0.066666666666666652</v>
+        <f>(AE49/AE48)-1</f>
+        <v>0.15625</v>
       </c>
       <c r="AF56" s="3"/>
       <c r="AG56" s="3">
-        <f>(AG48/AG47)-1</f>
-        <v>0.070539419087136901</v>
+        <f>(AG49/AG48)-1</f>
+        <v>0.046511627906976827</v>
       </c>
       <c r="AH56" s="3">
-        <f>(AH48/AH47)-1</f>
-        <v>0.090909090909090828</v>
+        <f>(AH49/AH48)-1</f>
+        <v>0.16666666666666674</v>
       </c>
       <c r="AI56" s="3">
-        <f>(AI48/AI47)-1</f>
-        <v>0.090909090909090828</v>
+        <f>(AI49/AI48)-1</f>
+        <v>0</v>
       </c>
       <c r="AJ56" s="3"/>
       <c r="AK56" s="3">
-        <f>(AK48/AK47)-1</f>
-        <v>0.057471264367816133</v>
+        <f>(AK49/AK48)-1</f>
+        <v>0.054347826086956541</v>
       </c>
       <c r="AL56" s="3">
-        <f>(AL48/AL47)-1</f>
-        <v>0.16666666666666674</v>
+        <f>(AL49/AL48)-1</f>
+        <v>-0.4285714285714286</v>
       </c>
       <c r="AM56" s="3">
-        <f>(AM48/AM47)-1</f>
-        <v>1</v>
+        <f>(AM49/AM48)-1</f>
+        <v>0</v>
       </c>
       <c r="AN56" s="3"/>
       <c r="AO56" s="3">
-        <f>(AO48/AO47)-1</f>
-        <v>0.1450980392156862</v>
+        <f>(AO49/AO48)-1</f>
+        <v>0.078767123287671215</v>
       </c>
       <c r="AP56" s="3">
-        <f>(AP48/AP47)-1</f>
-        <v>-0.043478260869565188</v>
+        <f>(AP49/AP48)-1</f>
+        <v>0.045454545454545414</v>
       </c>
       <c r="AQ56" s="3">
-        <f>(AQ48/AQ47)-1</f>
-        <v>0.11111111111111116</v>
+        <f>(AQ49/AQ48)-1</f>
+        <v>0</v>
       </c>
       <c r="AR56" s="3"/>
       <c r="AS56" s="3">
-        <f>(AS48/AS47)-1</f>
-        <v>-0.073033707865168496</v>
+        <f>(AS49/AS48)-1</f>
+        <v>0.060606060606060552</v>
       </c>
       <c r="AT56" s="3"/>
       <c r="AU56" s="3">
-        <f>(AU48/AU47)-1</f>
-        <v>0</v>
+        <f>(AU49/AU48)-1</f>
+        <v>0.5</v>
       </c>
       <c r="AV56" s="3"/>
       <c r="AW56" s="3">
-        <f>(AW48/AW47)-1</f>
-        <v>0.058234701586502124</v>
+        <f>(AW49/AW48)-1</f>
+        <v>0.044083526682134666</v>
       </c>
       <c r="AX56" s="3">
-        <f>(AX48/AX47)-1</f>
-        <v>0.010384215991692702</v>
+        <f>(AX49/AX48)-1</f>
+        <v>-0.0041109969167523186</v>
       </c>
       <c r="AY56" s="3">
-        <f>(AY48/AY47)-1</f>
-        <v>0.066941297631307961</v>
+        <f>(AY49/AY48)-1</f>
+        <v>0.048262548262548277</v>
       </c>
       <c r="BA56" s="6">
         <v>43898</v>
@@ -7022,11 +7113,11 @@
     <row r="57" spans="1:66" ht="19.5">
       <c r="C57">
         <f>H56*D57</f>
-        <v>569.88119004103214</v>
+        <v>457.23721787915179</v>
       </c>
       <c r="D57">
         <f>D56</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -7036,11 +7127,11 @@
       </c>
       <c r="G57" s="2">
         <f>H57*15</f>
-        <v>346829.1802776666</v>
+        <v>329869.5887935335</v>
       </c>
       <c r="H57">
         <f>H56+C57</f>
-        <v>23121.945351844439</v>
+        <v>21991.305919568898</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -7062,11 +7153,11 @@
     <row r="58" spans="1:66" ht="19.5">
       <c r="C58">
         <f>H57*D58</f>
-        <v>584.2818483768948</v>
+        <v>466.9458278176657</v>
       </c>
       <c r="D58">
         <f>D57</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E58" t="s">
         <v>12</v>
@@ -7076,11 +7167,11 @@
       </c>
       <c r="G58" s="2">
         <f>H58*15</f>
-        <v>355593.40800331999</v>
+        <v>336873.77621079842</v>
       </c>
       <c r="H58">
         <f>H57+C58</f>
-        <v>23706.227200221332</v>
+        <v>22458.251747386563</v>
       </c>
       <c r="J58" s="1"/>
       <c r="BA58" s="6">
@@ -7097,11 +7188,11 @@
     <row r="59" spans="1:66" ht="19.5">
       <c r="C59">
         <f>H58*D59</f>
-        <v>599.04640530097242</v>
+        <v>476.86058262639693</v>
       </c>
       <c r="D59">
         <f>D58</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E59" t="s">
         <v>13</v>
@@ -7111,11 +7202,11 @@
       </c>
       <c r="G59" s="2">
         <f>H59*15</f>
-        <v>364579.10408283456</v>
+        <v>344026.68495019438</v>
       </c>
       <c r="H59">
         <f>H58+C59</f>
-        <v>24305.273605522303</v>
+        <v>22935.112330012958</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -7125,130 +7216,129 @@
         </is>
       </c>
       <c r="M59" s="3">
-        <f>0.091999999999999998</f>
-        <v>0.091999999999999998</v>
+        <f>0.064000000000000001</f>
+        <v>0.064000000000000001</v>
       </c>
       <c r="N59" s="3">
-        <f>-0.156</f>
-        <v>-0.156</v>
+        <f>0.036999999999999998</f>
+        <v>0.036999999999999998</v>
       </c>
       <c r="O59" s="3">
-        <f>0.25700000000000001</f>
-        <v>0.25700000000000001</v>
+        <f>0.044999999999999998</f>
+        <v>0.044999999999999998</v>
       </c>
       <c r="P59" s="3"/>
       <c r="Q59" s="3">
-        <f>0.112</f>
-        <v>0.112</v>
+        <f>0.055</f>
+        <v>0.055</v>
       </c>
       <c r="R59" s="3">
-        <f>0.044999999999999998</f>
-        <v>0.044999999999999998</v>
+        <f>-0.024</f>
+        <v>-0.024</v>
       </c>
       <c r="S59" s="3">
-        <f>0.14099999999999999</f>
-        <v>0.14099999999999999</v>
+        <f>0.095000000000000001</f>
+        <v>0.095000000000000001</v>
       </c>
       <c r="T59" s="3"/>
       <c r="U59" s="3">
-        <f>0.108</f>
-        <v>0.108</v>
+        <f>0.085999999999999993</f>
+        <v>0.085999999999999993</v>
       </c>
       <c r="V59" s="3">
-        <f>0.0016000000000000001</f>
-        <v>0.0016000000000000001</v>
+        <f>0.033000000000000002</f>
+        <v>0.033000000000000002</v>
       </c>
       <c r="W59" s="3">
-        <f>0.097000000000000003</f>
-        <v>0.097000000000000003</v>
+        <f>0.070000000000000007</f>
+        <v>0.070000000000000007</v>
       </c>
       <c r="X59" s="3"/>
       <c r="Y59" s="3">
-        <f>0.051999999999999998</f>
-        <v>0.051999999999999998</v>
+        <f>0.048000000000000001</f>
+        <v>0.048000000000000001</v>
       </c>
       <c r="Z59" s="3">
-        <f>0.0040000000000000001</f>
-        <v>0.0040000000000000001</v>
+        <f>0.012999999999999999</f>
+        <v>0.012999999999999999</v>
       </c>
       <c r="AA59" s="3">
-        <f>0.112</f>
-        <v>0.112</v>
+        <f>0.047</f>
+        <v>0.047</v>
       </c>
       <c r="AB59" s="3"/>
       <c r="AC59" s="3">
-        <f>0.040000000000000001</f>
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="AD59" s="3">
-        <f>-0.025000000000000001</f>
-        <v>-0.025000000000000001</v>
-      </c>
-      <c r="AE59" s="3">
         <f>0.070999999999999994</f>
         <v>0.070999999999999994</v>
       </c>
+      <c r="AD59" s="3">
+        <f>-0.050999999999999997</f>
+        <v>-0.050999999999999997</v>
+      </c>
+      <c r="AE59" s="3">
+        <f>0.067000000000000004</f>
+        <v>0.067000000000000004</v>
+      </c>
       <c r="AF59" s="3"/>
       <c r="AG59" s="3">
-        <f>0.11600000000000001</f>
-        <v>0.11600000000000001</v>
+        <f>0.070999999999999994</f>
+        <v>0.070999999999999994</v>
       </c>
       <c r="AH59" s="3">
-        <f>0</f>
-        <v>0</v>
+        <f>0.090999999999999998</f>
+        <v>0.090999999999999998</v>
       </c>
       <c r="AI59" s="3">
-        <f>0</f>
-        <v>0</v>
+        <f>0.090999999999999998</f>
+        <v>0.090999999999999998</v>
       </c>
       <c r="AJ59" s="3"/>
       <c r="AK59" s="3">
-        <f>-0.021999999999999999</f>
-        <v>-0.021999999999999999</v>
+        <f>0.057000000000000002</f>
+        <v>0.057000000000000002</v>
       </c>
       <c r="AL59" s="3">
-        <f>0</f>
-        <v>0</v>
+        <f>0.16700000000000001</f>
+        <v>0.16700000000000001</v>
       </c>
       <c r="AM59" s="3">
-        <f>0</f>
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="AN59" s="3"/>
       <c r="AO59" s="3">
-        <f>0.081000000000000003</f>
-        <v>0.081000000000000003</v>
+        <f>0.14499999999999999</f>
+        <v>0.14499999999999999</v>
       </c>
       <c r="AP59" s="3">
-        <f>0.095000000000000001</f>
-        <v>0.095000000000000001</v>
+        <f>-0.042999999999999997</f>
+        <v>-0.042999999999999997</v>
       </c>
       <c r="AQ59" s="3">
-        <f>0.28599999999999998</f>
-        <v>0.28599999999999998</v>
+        <f>0.111</f>
+        <v>0.111</v>
       </c>
       <c r="AR59" s="3"/>
       <c r="AS59" s="3">
-        <f>-0.0060000000000000001</f>
-        <v>-0.0060000000000000001</v>
+        <f>-0.072999999999999995</f>
+        <v>-0.072999999999999995</v>
       </c>
       <c r="AT59" s="3"/>
       <c r="AU59" s="3">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="AV59" s="3"/>
       <c r="AW59" s="3">
-        <f>0.076999999999999999</f>
-        <v>0.076999999999999999</v>
+        <f>0.058000000000000003</f>
+        <v>0.058000000000000003</v>
       </c>
       <c r="AX59" s="3">
-        <f>0.0089999999999999993</f>
-        <v>0.0089999999999999993</v>
+        <f>0.01</f>
+        <v>0.01</v>
       </c>
       <c r="AY59" s="3">
-        <f>0.11899999999999999</f>
-        <v>0.11899999999999999</v>
+        <f>0.067000000000000004</f>
+        <v>0.067000000000000004</v>
       </c>
       <c r="BA59" s="6">
         <v>43901</v>
@@ -7264,11 +7354,11 @@
     <row r="60" spans="1:66" ht="19.5">
       <c r="C60">
         <f>H59*D60</f>
-        <v>614.18405637776061</v>
+        <v>486.98585942089397</v>
       </c>
       <c r="D60">
         <f>D59</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E60" t="s">
         <v>14</v>
@@ -7278,11 +7368,11 @@
       </c>
       <c r="G60" s="2">
         <f>H60*15</f>
-        <v>373791.86492850096</v>
+        <v>351331.47284150776</v>
       </c>
       <c r="H60">
         <f>H59+C60</f>
-        <v>24919.457661900065</v>
+        <v>23422.098189433851</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -7316,11 +7406,11 @@
     <row r="61" spans="1:66" ht="19.5">
       <c r="C61">
         <f>H60*D61</f>
-        <v>629.70422953980778</v>
+        <v>497.32612825688147</v>
       </c>
       <c r="D61">
         <f>D60</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E61" t="s">
         <v>15</v>
@@ -7330,11 +7420,11 @@
       </c>
       <c r="G61" s="2">
         <f>H61*15</f>
-        <v>383237.42837159807</v>
+        <v>358791.36476536101</v>
       </c>
       <c r="H61">
         <f>H60+C61</f>
-        <v>25549.161891439871</v>
+        <v>23919.424317690733</v>
       </c>
       <c r="J61" s="1"/>
       <c r="O61" s="1"/>
@@ -7358,18 +7448,6 @@
           <t>r: +3</t>
         </is>
       </c>
-      <c r="AW61">
-        <f>AW60+766</f>
-        <v>766</v>
-      </c>
-      <c r="AX61">
-        <f>AX60+129</f>
-        <v>129</v>
-      </c>
-      <c r="AY61">
-        <f>AY60+197</f>
-        <v>197</v>
-      </c>
       <c r="BA61" s="6">
         <v>43903</v>
       </c>
@@ -7384,11 +7462,11 @@
     <row r="62" spans="1:66" ht="19.5">
       <c r="C62">
         <f>H61*D62</f>
-        <v>645.61659095955815</v>
+        <v>507.88595410367759</v>
       </c>
       <c r="D62">
         <f>D61</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E62" t="s">
         <v>16</v>
@@ -7398,11 +7476,11 @@
       </c>
       <c r="G62" s="2">
         <f>H62*15</f>
-        <v>392921.67723599146</v>
+        <v>366409.65407691617</v>
       </c>
       <c r="H62">
         <f>H61+C62</f>
-        <v>26194.77848239943</v>
+        <v>24427.310271794409</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -7428,11 +7506,11 @@
     <row r="63" spans="1:66" ht="19.5">
       <c r="C63">
         <f>H62*D63</f>
-        <v>661.93105106957444</v>
+        <v>518.66999885951338</v>
       </c>
       <c r="D63">
         <f>D62</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E63" t="s">
         <v>17</v>
@@ -7442,11 +7520,11 @@
       </c>
       <c r="G63" s="2">
         <f>H63*15</f>
-        <v>402850.6430020351</v>
+        <v>374189.70405980886</v>
       </c>
       <c r="H63">
         <f>H62+C63</f>
-        <v>26856.709533469006</v>
+        <v>24945.980270653923</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
@@ -7467,11 +7545,11 @@
     <row r="64" spans="1:66" ht="19.5">
       <c r="C64">
         <f>H63*D64</f>
-        <v>678.65777073488755</v>
+        <v>529.68302340964385</v>
       </c>
       <c r="D64">
         <f>D63</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
@@ -7481,11 +7559,11 @@
       </c>
       <c r="G64" s="2">
         <f>H64*15</f>
-        <v>413030.50956305838</v>
+        <v>382134.9494109535</v>
       </c>
       <c r="H64">
         <f>H63+C64</f>
-        <v>27535.367304203894</v>
+        <v>25475.663294063568</v>
       </c>
       <c r="J64" s="1"/>
       <c r="BA64" s="6">
@@ -7502,11 +7580,11 @@
     <row r="65" spans="1:66" ht="19.5">
       <c r="C65">
         <f>H64*D65</f>
-        <v>695.80716758132075</v>
+        <v>540.92988972815988</v>
       </c>
       <c r="D65">
         <f>D64</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E65" t="s">
         <v>12</v>
@@ -7516,11 +7594,11 @@
       </c>
       <c r="G65" s="2">
         <f>H65*15</f>
-        <v>423467.6170767782</v>
+        <v>390248.8977568759</v>
       </c>
       <c r="H65">
         <f>H64+C65</f>
-        <v>28231.174471785213</v>
+        <v>26016.593183791727</v>
       </c>
       <c r="J65" s="1" t="inlineStr">
         <is>
@@ -7546,11 +7624,11 @@
     <row r="66" spans="1:66" ht="19.5">
       <c r="C66">
         <f>H65*D66</f>
-        <v>713.38992248372676</v>
+        <v>552.415563024427</v>
       </c>
       <c r="D66">
         <f>D65</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E66" t="s">
         <v>13</v>
@@ -7560,11 +7638,11 @@
       </c>
       <c r="G66" s="2">
         <f>H66*15</f>
-        <v>434168.46591403405</v>
+        <v>398535.13120224234</v>
       </c>
       <c r="H66">
         <f>H65+C66</f>
-        <v>28944.564394268938</v>
+        <v>26569.008746816155</v>
       </c>
       <c r="J66" s="1" t="inlineStr">
         <is>
@@ -7590,11 +7668,11 @@
     <row r="67" spans="1:66" ht="19.5">
       <c r="C67">
         <f>H66*D67</f>
-        <v>731.41698621817977</v>
+        <v>564.14511393510156</v>
       </c>
       <c r="D67">
         <f>D66</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E67" t="s">
         <v>14</v>
@@ -7604,11 +7682,11 @@
       </c>
       <c r="G67" s="2">
         <f>H67*15</f>
-        <v>445139.72070730681</v>
+        <v>406997.30791126884</v>
       </c>
       <c r="H67">
         <f>H66+C67</f>
-        <v>29675.981380487119</v>
+        <v>27133.153860751256</v>
       </c>
       <c r="J67" s="1" t="inlineStr">
         <is>
@@ -7639,11 +7717,11 @@
     <row r="68" spans="1:66" ht="19.5">
       <c r="C68">
         <f>H67*D68</f>
-        <v>749.8995862822668</v>
+        <v>576.12372076268923</v>
       </c>
       <c r="D68">
         <f>D67</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E68" t="s">
         <v>15</v>
@@ -7653,11 +7731,11 @@
       </c>
       <c r="G68" s="2">
         <f>H68*15</f>
-        <v>456388.21450154076</v>
+        <v>415639.16372270917</v>
       </c>
       <c r="H68">
         <f>H67+C68</f>
-        <v>30425.880966769386</v>
+        <v>27709.277581513947</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
@@ -7678,11 +7756,11 @@
     <row r="69" spans="1:66" ht="19.5">
       <c r="C69">
         <f>H68*D69</f>
-        <v>768.84923388772313</v>
+        <v>588.35667176163577</v>
       </c>
       <c r="D69">
         <f>D68</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E69" t="s">
         <v>16</v>
@@ -7692,11 +7770,11 @@
       </c>
       <c r="G69" s="2">
         <f>H69*15</f>
-        <v>467920.95300985663</v>
+        <v>424464.51379913371</v>
       </c>
       <c r="H69">
         <f>H68+C69</f>
-        <v>31194.730200657108</v>
+        <v>28297.634253275581</v>
       </c>
       <c r="BA69" s="6">
         <v>43911</v>
@@ -7712,11 +7790,11 @@
     <row r="70" spans="1:66" ht="19.5">
       <c r="C70">
         <f>H69*D70</f>
-        <v>788.27773112977047</v>
+        <v>600.84936747295842</v>
       </c>
       <c r="D70">
         <f>D69</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E70" t="s">
         <v>17</v>
@@ -7726,11 +7804,11 @@
       </c>
       <c r="G70" s="2">
         <f>H70*15</f>
-        <v>479745.11897680321</v>
+        <v>433477.25431122805</v>
       </c>
       <c r="H70">
         <f>H69+C70</f>
-        <v>31983.00793178688</v>
+        <v>28898.483620748539</v>
       </c>
       <c r="P70" t="inlineStr">
         <is>
@@ -7751,11 +7829,11 @@
     <row r="71" spans="1:66" ht="19.5">
       <c r="C71">
         <f>H70*D71</f>
-        <v>808.19717833762002</v>
+        <v>613.60732310844992</v>
       </c>
       <c r="D71">
         <f>D70</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
@@ -7765,11 +7843,11 @@
       </c>
       <c r="G71" s="2">
         <f>H71*15</f>
-        <v>491868.07665186754</v>
+        <v>442681.36415785481</v>
       </c>
       <c r="H71">
         <f>H70+C71</f>
-        <v>32791.205110124502</v>
+        <v>29512.090943856987</v>
       </c>
       <c r="BA71" s="6">
         <v>43913</v>
@@ -7785,11 +7863,11 @@
     <row r="72" spans="1:66" ht="19.5">
       <c r="C72">
         <f>H71*D72</f>
-        <v>828.6199816107204</v>
+        <v>626.63617098550549</v>
       </c>
       <c r="D72">
         <f>D71</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E72" t="s">
         <v>12</v>
@@ -7799,11 +7877,11 @@
       </c>
       <c r="G72" s="2">
         <f>H72*15</f>
-        <v>504297.37637602829</v>
+        <v>452080.90672263736</v>
       </c>
       <c r="H72">
         <f>H71+C72</f>
-        <v>33619.82509173522</v>
+        <v>30138.727114842492</v>
       </c>
       <c r="P72" t="inlineStr">
         <is>
@@ -7824,11 +7902,11 @@
     <row r="73" spans="1:66" ht="19.5">
       <c r="C73">
         <f>H72*D73</f>
-        <v>849.55886054544283</v>
+        <v>639.94166301365044</v>
       </c>
       <c r="D73">
         <f>D72</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E73" t="s">
         <v>13</v>
@@ -7838,11 +7916,11 @@
       </c>
       <c r="G73" s="2">
         <f>H73*15</f>
-        <v>517040.75928420987</v>
+        <v>461680.03166784212</v>
       </c>
       <c r="H73">
         <f>H72+C73</f>
-        <v>34469.383952280659</v>
+        <v>30778.668777856143</v>
       </c>
       <c r="J73" s="1"/>
       <c r="P73" t="inlineStr">
@@ -7864,11 +7942,11 @@
     <row r="74" spans="1:66" ht="19.5">
       <c r="C74">
         <f>H73*D74</f>
-        <v>871.02685615701716</v>
+        <v>653.52967323386292</v>
       </c>
       <c r="D74">
         <f>D73</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E74" t="s">
         <v>14</v>
@@ -7878,11 +7956,11 @@
       </c>
       <c r="G74" s="2">
         <f>H74*15</f>
-        <v>530106.16212656512</v>
+        <v>471482.9767663501</v>
       </c>
       <c r="H74">
         <f>H73+C74</f>
-        <v>35340.410808437678</v>
+        <v>31432.198451090007</v>
       </c>
       <c r="J74" s="1"/>
       <c r="BA74" s="6">
@@ -7899,11 +7977,11 @@
     <row r="75" spans="1:66" ht="19.5">
       <c r="C75">
         <f>H74*D75</f>
-        <v>893.03733900165128</v>
+        <v>667.40620041181683</v>
       </c>
       <c r="D75">
         <f>D74</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E75" t="s">
         <v>15</v>
@@ -7914,7 +7992,7 @@
       <c r="G75" s="2"/>
       <c r="H75">
         <f>H74+C75</f>
-        <v>36233.448147439332</v>
+        <v>32099.604651501824</v>
       </c>
       <c r="P75" t="inlineStr">
         <is>
@@ -7935,11 +8013,11 @@
     <row r="76" spans="1:66" ht="19.5">
       <c r="C76">
         <f>H75*D76</f>
-        <v>915.60401750389269</v>
+        <v>681.5773706861853</v>
       </c>
       <c r="D76">
         <f>D75</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E76" t="s">
         <v>16</v>
@@ -7950,7 +8028,7 @@
       <c r="G76" s="2"/>
       <c r="H76">
         <f>H75+C76</f>
-        <v>37149.052164943227</v>
+        <v>32781.182022188012</v>
       </c>
       <c r="J76" s="1"/>
       <c r="P76" t="inlineStr">
@@ -7972,11 +8050,11 @@
     <row r="77" spans="1:66" ht="19.5">
       <c r="C77">
         <f>H76*D77</f>
-        <v>938.74094649442043</v>
+        <v>696.04944027317822</v>
       </c>
       <c r="D77">
         <f>D76</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E77" t="s">
         <v>17</v>
@@ -7987,7 +8065,7 @@
       <c r="G77" s="2"/>
       <c r="H77">
         <f>H76+C77</f>
-        <v>38087.793111437648</v>
+        <v>33477.23146246119</v>
       </c>
       <c r="P77" t="inlineStr">
         <is>
@@ -8008,11 +8086,11 @@
     <row r="78" spans="1:66" ht="19.5">
       <c r="C78">
         <f>H77*D78</f>
-        <v>962.46253596358167</v>
+        <v>710.82879822850396</v>
       </c>
       <c r="D78">
         <f>D77</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
@@ -8023,7 +8101,7 @@
       <c r="G78" s="2"/>
       <c r="H78">
         <f>H77+C78</f>
-        <v>39050.255647401231</v>
+        <v>34188.060260689694</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -8044,11 +8122,11 @@
     <row r="79" spans="1:66" ht="19.5">
       <c r="C79">
         <f>H78*D79</f>
-        <v>986.78356003612828</v>
+        <v>725.92196926797772</v>
       </c>
       <c r="D79">
         <f>D78</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E79" t="s">
         <v>12</v>
@@ -8059,7 +8137,7 @@
       <c r="G79" s="2"/>
       <c r="H79">
         <f>H78+C79</f>
-        <v>40037.039207437359</v>
+        <v>34913.98222995767</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
@@ -8080,11 +8158,11 @@
     <row r="80" spans="1:66" ht="19.5">
       <c r="C80">
         <f>H79*D80</f>
-        <v>1011.7191661727395</v>
+        <v>741.33561664801971</v>
       </c>
       <c r="D80">
         <f>D79</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E80" t="s">
         <v>13</v>
@@ -8095,7 +8173,7 @@
       <c r="G80" s="2"/>
       <c r="H80">
         <f>H79+C80</f>
-        <v>41048.758373610101</v>
+        <v>35655.317846605692</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -8116,11 +8194,11 @@
     <row r="81" spans="1:66" ht="19.5">
       <c r="C81">
         <f>H80*D81</f>
-        <v>1037.2848846040645</v>
+        <v>757.07654510731584</v>
       </c>
       <c r="D81">
         <f>D80</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E81" t="s">
         <v>14</v>
@@ -8131,7 +8209,7 @@
       <c r="G81" s="2"/>
       <c r="H81">
         <f>H80+C81</f>
-        <v>42086.043258214166</v>
+        <v>36412.394391713009</v>
       </c>
       <c r="J81" s="1"/>
       <c r="P81" t="inlineStr">
@@ -8153,11 +8231,11 @@
     <row r="82" spans="1:66" ht="19.5">
       <c r="C82">
         <f>H81*D82</f>
-        <v>1063.4966380031588</v>
+        <v>773.15170387093895</v>
       </c>
       <c r="D82">
         <f>D81</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E82" t="s">
         <v>15</v>
@@ -8168,7 +8246,7 @@
       <c r="G82" s="2"/>
       <c r="H82">
         <f>H81+C82</f>
-        <v>43149.539896217328</v>
+        <v>37185.546095583952</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -8189,11 +8267,11 @@
     <row r="83" spans="1:66" ht="19.5">
       <c r="C83">
         <f>H82*D83</f>
-        <v>1090.3707514023383</v>
+        <v>789.56818971825749</v>
       </c>
       <c r="D83">
         <f>D82</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E83" t="s">
         <v>16</v>
@@ -8204,7 +8282,7 @@
       <c r="G83" s="2"/>
       <c r="H83">
         <f>H82+C83</f>
-        <v>44239.910647619668</v>
+        <v>37975.11428530221</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -8225,11 +8303,11 @@
     <row r="84" spans="1:66" ht="19.5">
       <c r="C84">
         <f>H83*D84</f>
-        <v>1117.92396236063</v>
+        <v>806.33325011598561</v>
       </c>
       <c r="D84">
         <f>D83</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E84" t="s">
         <v>17</v>
@@ -8240,7 +8318,7 @@
       <c r="G84" s="2"/>
       <c r="H84">
         <f>H83+C84</f>
-        <v>45357.834609980302</v>
+        <v>38781.447535418192</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -8266,11 +8344,11 @@
     <row r="85" spans="1:66" ht="19.5">
       <c r="C85">
         <f>H84*D85</f>
-        <v>1146.1734313881479</v>
+        <v>823.45428641775777</v>
       </c>
       <c r="D85">
         <f>D84</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
@@ -8281,7 +8359,7 @@
       <c r="G85" s="2"/>
       <c r="H85">
         <f>H84+C85</f>
-        <v>46504.008041368448</v>
+        <v>39604.901821835949</v>
       </c>
       <c r="P85" t="inlineStr">
         <is>
@@ -8302,11 +8380,11 @@
     <row r="86" spans="1:66" ht="19.5">
       <c r="C86">
         <f>H85*D86</f>
-        <v>1175.1367526338897</v>
+        <v>840.93885713164116</v>
       </c>
       <c r="D86">
         <f>D85</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E86" t="s">
         <v>12</v>
@@ -8317,7 +8395,7 @@
       <c r="G86" s="2"/>
       <c r="H86">
         <f>H85+C86</f>
-        <v>47679.144794002335</v>
+        <v>40445.840678967586</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -8338,11 +8416,11 @@
     <row r="87" spans="1:66" ht="19.5">
       <c r="C87">
         <f>H86*D87</f>
-        <v>1204.8319648436088</v>
+        <v>858.79468125702681</v>
       </c>
       <c r="D87">
         <f>D86</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E87" t="s">
         <v>13</v>
@@ -8353,7 +8431,7 @@
       <c r="G87" s="2"/>
       <c r="H87">
         <f>H86+C87</f>
-        <v>48883.976758845944</v>
+        <v>41304.635360224616</v>
       </c>
       <c r="J87" s="1"/>
       <c r="Q87" t="inlineStr">
@@ -8375,11 +8453,11 @@
     <row r="88" spans="1:66" ht="19.5">
       <c r="C88">
         <f>H87*D88</f>
-        <v>1235.2775625945885</v>
+        <v>877.02964169237475</v>
       </c>
       <c r="D88">
         <f>D87</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
@@ -8390,7 +8468,7 @@
       <c r="G88" s="2"/>
       <c r="H88">
         <f>H87+C88</f>
-        <v>50119.25432144053</v>
+        <v>42181.66500191699</v>
       </c>
       <c r="J88" s="1"/>
       <c r="Q88" t="inlineStr">
@@ -8412,11 +8490,11 @@
     <row r="89" spans="1:66" ht="19.5">
       <c r="C89">
         <f>H88*D89</f>
-        <v>1266.4925078143121</v>
+        <v>895.65178871531532</v>
       </c>
       <c r="D89">
         <f>D88</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E89" t="s">
         <v>15</v>
@@ -8427,7 +8505,7 @@
       <c r="G89" s="2"/>
       <c r="H89">
         <f>H88+C89</f>
-        <v>51385.746829254844</v>
+        <v>43077.316790632307</v>
       </c>
       <c r="J89" s="1"/>
       <c r="P89" t="inlineStr">
@@ -8449,11 +8527,11 @@
     <row r="90" spans="1:66" ht="19.5">
       <c r="C90">
         <f>H89*D90</f>
-        <v>1298.4962415902078</v>
+        <v>914.66934353664567</v>
       </c>
       <c r="D90">
         <f>D89</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E90" t="s">
         <v>16</v>
@@ -8464,7 +8542,7 @@
       <c r="G90" s="2"/>
       <c r="H90">
         <f>H89+C90</f>
-        <v>52684.243070845048</v>
+        <v>43991.986134168954</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -8485,11 +8563,11 @@
     <row r="91" spans="1:66" ht="19.5">
       <c r="C91">
         <f>H90*D91</f>
-        <v>1331.3086962778173</v>
+        <v>934.09070192978709</v>
       </c>
       <c r="D91">
         <f>D90</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E91" t="s">
         <v>17</v>
@@ -8500,7 +8578,7 @@
       <c r="G91" s="2"/>
       <c r="H91">
         <f>H90+C91</f>
-        <v>54015.551767122866</v>
+        <v>44926.076836098742</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -8521,11 +8599,11 @@
     <row r="92" spans="1:66" ht="19.5">
       <c r="C92">
         <f>H91*D92</f>
-        <v>1364.950307914936</v>
+        <v>953.92443793730922</v>
       </c>
       <c r="D92">
         <f>D91</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
@@ -8536,7 +8614,7 @@
       <c r="G92" s="2"/>
       <c r="H92">
         <f>H91+C92</f>
-        <v>55380.502075037803</v>
+        <v>45880.001274036054</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -8557,11 +8635,11 @@
     <row r="93" spans="1:66" ht="19.5">
       <c r="C93">
         <f>H92*D93</f>
-        <v>1399.4420289494524</v>
+        <v>974.17930765615461</v>
       </c>
       <c r="D93">
         <f>D92</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E93" t="s">
         <v>12</v>
@@ -8572,7 +8650,7 @@
       <c r="G93" s="2"/>
       <c r="H93">
         <f>H92+C93</f>
-        <v>56779.944103987254</v>
+        <v>46854.180581692206</v>
       </c>
       <c r="P93" t="inlineStr">
         <is>
@@ -8593,11 +8671,11 @@
     <row r="94" spans="1:66" ht="19.5">
       <c r="C94">
         <f>H93*D94</f>
-        <v>1434.805341288813</v>
+        <v>994.86425310323511</v>
       </c>
       <c r="D94">
         <f>D93</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E94" t="s">
         <v>13</v>
@@ -8608,7 +8686,7 @@
       <c r="G94" s="2"/>
       <c r="H94">
         <f>H93+C94</f>
-        <v>58214.749445276066</v>
+        <v>47849.044834795444</v>
       </c>
       <c r="P94" t="inlineStr">
         <is>
@@ -8629,11 +8707,11 @@
     <row r="95" spans="1:66" ht="19.5">
       <c r="C95">
         <f>H94*D95</f>
-        <v>1471.0622696792432</v>
+        <v>1015.9884061631095</v>
       </c>
       <c r="D95">
         <f>D94</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E95" t="s">
         <v>14</v>
@@ -8644,7 +8722,7 @@
       <c r="G95" s="2"/>
       <c r="H95">
         <f>H94+C95</f>
-        <v>59685.811714955307</v>
+        <v>48865.033240958554</v>
       </c>
       <c r="P95" t="inlineStr">
         <is>
@@ -8665,11 +8743,11 @@
     <row r="96" spans="1:66" ht="19.5">
       <c r="C96">
         <f>H95*D96</f>
-        <v>1508.2353954230568</v>
+        <v>1037.56109261948</v>
       </c>
       <c r="D96">
         <f>D95</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E96" t="s">
         <v>15</v>
@@ -8680,7 +8758,7 @@
       <c r="G96" s="2"/>
       <c r="H96">
         <f>H95+C96</f>
-        <v>61194.047110378364</v>
+        <v>49902.594333578032</v>
       </c>
       <c r="P96" t="inlineStr">
         <is>
@@ -8711,11 +8789,11 @@
     <row r="97" spans="1:66" ht="19.5">
       <c r="C97">
         <f>H96*D97</f>
-        <v>1546.3478704425925</v>
+        <v>1059.5918362722928</v>
       </c>
       <c r="D97">
         <f>D96</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E97" t="s">
         <v>16</v>
@@ -8726,7 +8804,7 @@
       <c r="G97" s="2"/>
       <c r="H97">
         <f>H96+C97</f>
-        <v>62740.394980820958</v>
+        <v>50962.186169850327</v>
       </c>
       <c r="O97" s="1"/>
       <c r="P97" t="inlineStr">
@@ -8773,11 +8851,11 @@
     <row r="98" spans="1:66" ht="19.5">
       <c r="C98">
         <f>H97*D98</f>
-        <v>1585.4234316995435</v>
+        <v>1082.0903631422561</v>
       </c>
       <c r="D98">
         <f>D97</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E98" t="s">
         <v>17</v>
@@ -8788,7 +8866,7 @@
       <c r="G98" s="2"/>
       <c r="H98">
         <f>H97+C98</f>
-        <v>64325.818412520501</v>
+        <v>52044.276532992582</v>
       </c>
       <c r="O98" s="1"/>
       <c r="Q98" s="1"/>
@@ -8811,11 +8889,11 @@
     <row r="99" spans="1:66" ht="19.5">
       <c r="C99">
         <f>H98*D99</f>
-        <v>1625.4864159786564</v>
+        <v>1105.0666057646354</v>
       </c>
       <c r="D99">
         <f>D98</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E99" t="s">
         <v>11</v>
@@ -8826,7 +8904,7 @@
       <c r="G99" s="2"/>
       <c r="H99">
         <f>H98+C99</f>
-        <v>65951.304828499153</v>
+        <v>53149.34313875722</v>
       </c>
       <c r="O99" s="1"/>
       <c r="Q99" s="1"/>
@@ -8853,11 +8931,11 @@
     <row r="100" spans="1:66" ht="19.5">
       <c r="C100">
         <f>H99*D100</f>
-        <v>1666.5617750450067</v>
+        <v>1128.5307075742173</v>
       </c>
       <c r="D100">
         <f>D99</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E100" t="s">
         <v>12</v>
@@ -8868,7 +8946,7 @@
       <c r="G100" s="2"/>
       <c r="H100">
         <f>H99+C100</f>
-        <v>67617.866603544157</v>
+        <v>54277.873846331437</v>
       </c>
       <c r="O100" s="1"/>
       <c r="Q100" s="1"/>
@@ -8895,11 +8973,11 @@
     <row r="101" spans="1:66" ht="19.5">
       <c r="C101">
         <f>H100*D101</f>
-        <v>1708.6750911842951</v>
+        <v>1152.4930273833825</v>
       </c>
       <c r="D101">
         <f>D100</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E101" t="s">
         <v>13</v>
@@ -8910,7 +8988,7 @@
       <c r="G101" s="2"/>
       <c r="H101">
         <f>H100+C101</f>
-        <v>69326.541694728454</v>
+        <v>55430.366873714818</v>
       </c>
       <c r="P101" t="inlineStr">
         <is>
@@ -8926,11 +9004,11 @@
     <row r="102" spans="1:66" ht="19.5">
       <c r="C102">
         <f>H101*D102</f>
-        <v>1751.8525931358374</v>
+        <v>1176.9641439552613</v>
       </c>
       <c r="D102">
         <f>D101</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E102" t="s">
         <v>14</v>
@@ -8941,7 +9019,7 @@
       <c r="G102" s="2"/>
       <c r="H102">
         <f>H101+C102</f>
-        <v>71078.394287864285</v>
+        <v>56607.331017670076</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8952,11 +9030,11 @@
     <row r="103" spans="1:66" ht="19.5">
       <c r="C103">
         <f>H102*D103</f>
-        <v>1796.1211724281766</v>
+        <v>1201.9548606739925</v>
       </c>
       <c r="D103">
         <f>D102</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E103" t="s">
         <v>15</v>
@@ -8967,7 +9045,7 @@
       <c r="G103" s="2"/>
       <c r="H103">
         <f>H102+C103</f>
-        <v>72874.515460292459</v>
+        <v>57809.285878344068</v>
       </c>
       <c r="R103" t="inlineStr">
         <is>
@@ -8983,11 +9061,11 @@
     <row r="104" spans="1:66" ht="19.5">
       <c r="C104">
         <f>H103*D104</f>
-        <v>1841.5084001274886</v>
+        <v>1227.4762103141454</v>
       </c>
       <c r="D104">
         <f>D103</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E104" t="s">
         <v>16</v>
@@ -8998,7 +9076,7 @@
       <c r="G104" s="2"/>
       <c r="H104">
         <f>H103+C104</f>
-        <v>74716.023860419955</v>
+        <v>59036.762088658215</v>
       </c>
       <c r="BE104" t="inlineStr">
         <is>
@@ -9009,11 +9087,11 @@
     <row r="105" spans="1:66" ht="19.5">
       <c r="C105">
         <f>H104*D105</f>
-        <v>1888.0425440092117</v>
+        <v>1253.5394599114147</v>
       </c>
       <c r="D105">
         <f>D104</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E105" t="s">
         <v>17</v>
@@ -9024,7 +9102,7 @@
       <c r="G105" s="2"/>
       <c r="H105">
         <f>H104+C105</f>
-        <v>76604.066404429163</v>
+        <v>60290.301548569631</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
@@ -9040,11 +9118,11 @@
     <row r="106" spans="1:66" ht="19.5">
       <c r="C106">
         <f>H105*D106</f>
-        <v>1935.7525861635982</v>
+        <v>1280.1561157367328</v>
       </c>
       <c r="D106">
         <f>D105</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
@@ -9055,7 +9133,7 @@
       <c r="G106" s="2"/>
       <c r="H106">
         <f>H105+C106</f>
-        <v>78539.818990592757</v>
+        <v>61570.457664306363</v>
       </c>
       <c r="BE106" t="inlineStr">
         <is>
@@ -9066,11 +9144,11 @@
     <row r="107" spans="1:66" ht="19.5">
       <c r="C107">
         <f>H106*D107</f>
-        <v>1984.6682410461488</v>
+        <v>1307.3379283760003</v>
       </c>
       <c r="D107">
         <f>D106</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E107" t="s">
         <v>12</v>
@@ -9081,7 +9159,7 @@
       <c r="G107" s="2"/>
       <c r="H107">
         <f>H106+C107</f>
-        <v>80524.487231638908</v>
+        <v>62877.795592682363</v>
       </c>
       <c r="R107" t="inlineStr">
         <is>
@@ -9097,11 +9175,11 @@
     <row r="108" spans="1:66" ht="19.5">
       <c r="C108">
         <f>H107*D108</f>
-        <v>2034.8199739841762</v>
+        <v>1335.0968979176751</v>
       </c>
       <c r="D108">
         <f>D107</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E108" t="s">
         <v>13</v>
@@ -9112,7 +9190,7 @@
       <c r="G108" s="2"/>
       <c r="H108">
         <f>H107+C108</f>
-        <v>82559.307205623089</v>
+        <v>64212.892490600039</v>
       </c>
       <c r="BB108" s="1"/>
       <c r="BC108" s="1"/>
@@ -9125,11 +9203,11 @@
     <row r="109" spans="1:66" ht="19.5">
       <c r="C109">
         <f>H108*D109</f>
-        <v>2086.2390201510188</v>
+        <v>1363.4452792505099</v>
       </c>
       <c r="D109">
         <f>D108</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E109" t="s">
         <v>14</v>
@@ -9140,7 +9218,7 @@
       <c r="G109" s="2"/>
       <c r="H109">
         <f>H108+C109</f>
-        <v>84645.546225774102</v>
+        <v>65576.33776985055</v>
       </c>
       <c r="J109" s="4" t="inlineStr">
         <is>
@@ -9157,11 +9235,11 @@
     <row r="110" spans="1:66" ht="19.5">
       <c r="C110">
         <f>H109*D110</f>
-        <v>2138.9574040197272</v>
+        <v>1392.3955874737787</v>
       </c>
       <c r="D110">
         <f>D109</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E110" t="s">
         <v>15</v>
@@ -9172,7 +9250,7 @@
       <c r="G110" s="2"/>
       <c r="H110">
         <f>H109+C110</f>
-        <v>86784.503629793835</v>
+        <v>66968.733357324323</v>
       </c>
       <c r="BB110" s="1"/>
       <c r="BC110" s="1"/>
@@ -9180,11 +9258,11 @@
     <row r="111" spans="1:66" ht="19.5">
       <c r="C111">
         <f>H110*D111</f>
-        <v>2193.0079593083378</v>
+        <v>1421.9606034223791</v>
       </c>
       <c r="D111">
         <f>D110</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E111" t="s">
         <v>16</v>
@@ -9195,7 +9273,7 @@
       <c r="G111" s="2"/>
       <c r="H111">
         <f>H110+C111</f>
-        <v>88977.511589102171</v>
+        <v>68390.693960746707</v>
       </c>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
@@ -9208,11 +9286,11 @@
     <row r="112" spans="1:66" ht="19.5">
       <c r="C112">
         <f>H111*D112</f>
-        <v>2248.42434942915</v>
+        <v>1452.1533793092506</v>
       </c>
       <c r="D112">
         <f>D111</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E112" t="s">
         <v>17</v>
@@ -9223,7 +9301,7 @@
       <c r="G112" s="2"/>
       <c r="H112">
         <f>H111+C112</f>
-        <v>91225.935938531315</v>
+        <v>69842.84734005596</v>
       </c>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
@@ -9231,11 +9309,11 @@
     <row r="113" spans="1:66" ht="19.5">
       <c r="C113">
         <f>H112*D113</f>
-        <v>2305.2410884547562</v>
+        <v>1482.987244487598</v>
       </c>
       <c r="D113">
         <f>D112</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
@@ -9246,7 +9324,7 @@
       <c r="G113" s="2"/>
       <c r="H113">
         <f>H112+C113</f>
-        <v>93531.177026986072</v>
+        <v>71325.834584543554</v>
       </c>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
@@ -9259,11 +9337,11 @@
     <row r="114" spans="1:66" ht="19.5">
       <c r="C114">
         <f>H113*D114</f>
-        <v>2363.4935626138681</v>
+        <v>1514.4758113354676</v>
       </c>
       <c r="D114">
         <f>D113</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E114" t="s">
         <v>12</v>
@@ -9274,7 +9352,7 @@
       <c r="G114" s="2"/>
       <c r="H114">
         <f>H113+C114</f>
-        <v>95894.670589599933</v>
+        <v>72840.310395879016</v>
       </c>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
@@ -9282,11 +9360,11 @@
     <row r="115" spans="1:66" ht="19.5">
       <c r="C115">
         <f>H114*D115</f>
-        <v>2423.2180523303341</v>
+        <v>1546.6329812652712</v>
       </c>
       <c r="D115">
         <f>D114</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E115" t="s">
         <v>13</v>
@@ -9297,7 +9375,7 @@
       <c r="G115" s="2"/>
       <c r="H115">
         <f>H114+C115</f>
-        <v>98317.888641930273</v>
+        <v>74386.943377144285</v>
       </c>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
@@ -9310,11 +9388,11 @@
     <row r="116" spans="1:66" ht="19.5">
       <c r="C116">
         <f>H115*D116</f>
-        <v>2484.4517548190775</v>
+        <v>1579.4729508609091</v>
       </c>
       <c r="D116">
         <f>D115</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
@@ -9325,7 +9403,7 @@
       <c r="G116" s="2"/>
       <c r="H116">
         <f>H115+C116</f>
-        <v>100802.34039674935</v>
+        <v>75966.416328005202</v>
       </c>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
@@ -9333,11 +9411,11 @@
     <row r="117" spans="1:66" ht="19.5">
       <c r="C117">
         <f>H116*D117</f>
-        <v>2547.2328072530204</v>
+        <v>1613.0102181452078</v>
       </c>
       <c r="D117">
         <f>D116</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E117" t="s">
         <v>15</v>
@@ -9348,7 +9426,7 @@
       <c r="G117" s="2"/>
       <c r="H117">
         <f>H116+C117</f>
-        <v>103349.57320400237</v>
+        <v>77579.426546150411</v>
       </c>
       <c r="V117" t="inlineStr">
         <is>
@@ -9359,11 +9437,11 @@
     <row r="118" spans="1:66" ht="19.5">
       <c r="C118">
         <f>H117*D118</f>
-        <v>2611.6003105154282</v>
+        <v>1647.2595889804315</v>
       </c>
       <c r="D118">
         <f>D117</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E118" t="s">
         <v>16</v>
@@ -9374,7 +9452,7 @@
       <c r="G118" s="2"/>
       <c r="H118">
         <f>H117+C118</f>
-        <v>105961.1735145178</v>
+        <v>79226.686135130847</v>
       </c>
       <c r="V118" t="inlineStr">
         <is>
@@ -9385,11 +9463,11 @@
     <row r="119" spans="1:66" ht="19.5">
       <c r="C119">
         <f>H118*D119</f>
-        <v>2677.5943535524648</v>
+        <v>1682.236183604701</v>
       </c>
       <c r="D119">
         <f>D118</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E119" t="s">
         <v>17</v>
@@ -9400,7 +9478,7 @@
       <c r="G119" s="2"/>
       <c r="H119">
         <f>H118+C119</f>
-        <v>108638.76786807027</v>
+        <v>80908.922318735553</v>
       </c>
       <c r="V119" t="inlineStr">
         <is>
@@ -9411,11 +9489,11 @@
     <row r="120" spans="1:66" ht="19.5">
       <c r="C120">
         <f>H119*D120</f>
-        <v>2745.2560383411269</v>
+        <v>1717.9554433071974</v>
       </c>
       <c r="D120">
         <f>D119</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
@@ -9426,7 +9504,7 @@
       <c r="G120" s="2"/>
       <c r="H120">
         <f>H119+C120</f>
-        <v>111384.0239064114</v>
+        <v>82626.877762042757</v>
       </c>
       <c r="V120" t="inlineStr">
         <is>
@@ -9437,11 +9515,11 @@
     <row r="121" spans="1:66" ht="19.5">
       <c r="C121">
         <f>H120*D121</f>
-        <v>2814.6275054881089</v>
+        <v>1754.4331372451059</v>
       </c>
       <c r="D121">
         <f>D120</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E121" t="s">
         <v>12</v>
@@ -9452,7 +9530,7 @@
       <c r="G121" s="2"/>
       <c r="H121">
         <f>H120+C121</f>
-        <v>114198.65141189951</v>
+        <v>84381.31089928787</v>
       </c>
       <c r="V121" t="inlineStr">
         <is>
@@ -9463,11 +9541,11 @@
     <row r="122" spans="1:66" ht="19.5">
       <c r="C122">
         <f>H121*D122</f>
-        <v>2885.7519604755375</v>
+        <v>1791.6853694053013</v>
       </c>
       <c r="D122">
         <f>D121</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E122" t="s">
         <v>13</v>
@@ -9478,7 +9556,7 @@
       <c r="G122" s="2"/>
       <c r="H122">
         <f>H121+C122</f>
-        <v>117084.40337237505</v>
+        <v>86172.996268693169</v>
       </c>
       <c r="V122" t="inlineStr">
         <is>
@@ -9489,11 +9567,11 @@
     <row r="123" spans="1:66" ht="19.5">
       <c r="C123">
         <f>H122*D123</f>
-        <v>2958.6737005699279</v>
+        <v>1829.7285857138561</v>
       </c>
       <c r="D123">
         <f>D122</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E123" t="s">
         <v>14</v>
@@ -9504,17 +9582,17 @@
       <c r="G123" s="2"/>
       <c r="H123">
         <f>H122+C123</f>
-        <v>120043.07707294497</v>
+        <v>88002.724854407032</v>
       </c>
     </row>
     <row r="124" spans="1:66" ht="19.5">
       <c r="C124">
         <f>H123*D124</f>
-        <v>3033.4381424111157</v>
+        <v>1868.579581296503</v>
       </c>
       <c r="D124">
         <f>D123</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E124" t="s">
         <v>15</v>
@@ -9525,17 +9603,17 @@
       <c r="G124" s="2"/>
       <c r="H124">
         <f>H123+C124</f>
-        <v>123076.51521535609</v>
+        <v>89871.30443570354</v>
       </c>
     </row>
     <row r="125" spans="1:66" ht="19.5">
       <c r="C125">
         <f>H124*D125</f>
-        <v>3110.0918502983527</v>
+        <v>1908.2555078932617</v>
       </c>
       <c r="D125">
         <f>D124</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E125" t="s">
         <v>16</v>
@@ -9546,18 +9624,18 @@
       <c r="G125" s="2"/>
       <c r="H125">
         <f>H124+C125</f>
-        <v>126186.60706565445</v>
+        <v>91779.559943596803</v>
       </c>
       <c r="AG125" s="1"/>
     </row>
     <row r="126" spans="1:66" ht="19.5">
       <c r="C126">
         <f>H125*D126</f>
-        <v>3188.6825651911759</v>
+        <v>1948.773881430503</v>
       </c>
       <c r="D126">
         <f>D125</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E126" t="s">
         <v>17</v>
@@ -9568,17 +9646,17 @@
       <c r="G126" s="2"/>
       <c r="H126">
         <f>H125+C126</f>
-        <v>129375.28963084563</v>
+        <v>93728.333825027308</v>
       </c>
     </row>
     <row r="127" spans="1:66" ht="19.5">
       <c r="C127">
         <f>H126*D127</f>
-        <v>3269.2592344431191</v>
+        <v>1990.1525897537899</v>
       </c>
       <c r="D127">
         <f>D126</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E127" t="s">
         <v>11</v>
@@ -9589,17 +9667,17 @@
       <c r="G127" s="2"/>
       <c r="H127">
         <f>H126+C127</f>
-        <v>132644.54886528876</v>
+        <v>95718.486414781102</v>
       </c>
     </row>
     <row r="128" spans="1:66" ht="19.5">
       <c r="C128">
         <f>H127*D128</f>
-        <v>3351.872042286785</v>
+        <v>2032.4099005249129</v>
       </c>
       <c r="D128">
         <f>D127</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E128" t="s">
         <v>12</v>
@@ -9610,17 +9688,17 @@
       <c r="G128" s="2"/>
       <c r="H128">
         <f>H127+C128</f>
-        <v>135996.42090757555</v>
+        <v>97750.896315306018</v>
       </c>
     </row>
     <row r="129" spans="1:66" ht="19.5">
       <c r="C129">
         <f>H128*D129</f>
-        <v>3436.5724410892558</v>
+        <v>2075.564469286604</v>
       </c>
       <c r="D129">
         <f>D128</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E129" t="s">
         <v>13</v>
@@ -9631,17 +9709,17 @@
       <c r="G129" s="2"/>
       <c r="H129">
         <f>H128+C129</f>
-        <v>139432.99334866481</v>
+        <v>99826.460784592622</v>
       </c>
     </row>
     <row r="130" spans="1:66" ht="19.5">
       <c r="C130">
         <f>H129*D130</f>
-        <v>3523.4131833973229</v>
+        <v>2119.6353476984928</v>
       </c>
       <c r="D130">
         <f>D129</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E130" t="s">
         <v>14</v>
@@ -9652,17 +9730,17 @@
       <c r="G130" s="2"/>
       <c r="H130">
         <f>H129+C130</f>
-        <v>142956.40653206213</v>
+        <v>101946.09613229112</v>
       </c>
     </row>
     <row r="131" spans="1:66" ht="19.5">
       <c r="C131">
         <f>H130*D131</f>
-        <v>3612.4483547924792</v>
+        <v>2164.6419919479335</v>
       </c>
       <c r="D131">
         <f>D130</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E131" t="s">
         <v>15</v>
@@ -9673,17 +9751,17 @@
       <c r="G131" s="2"/>
       <c r="H131">
         <f>H130+C131</f>
-        <v>146568.85488685462</v>
+        <v>104110.73812423905</v>
       </c>
     </row>
     <row r="132" spans="1:66" ht="19.5">
       <c r="C132">
         <f>H131*D132</f>
-        <v>3703.7334075761482</v>
+        <v>2210.6042713394263</v>
       </c>
       <c r="D132">
         <f>D131</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E132" t="s">
         <v>16</v>
@@ -9693,17 +9771,17 @@
       </c>
       <c r="H132">
         <f>H131+C132</f>
-        <v>150272.58829443078</v>
+        <v>106321.34239557848</v>
       </c>
     </row>
     <row r="133" spans="1:66" ht="19.5">
       <c r="C133">
         <f>H132*D133</f>
-        <v>3797.3251953061208</v>
+        <v>2257.5424770664144</v>
       </c>
       <c r="D133">
         <f>D132</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E133" t="s">
         <v>17</v>
@@ -9713,17 +9791,17 @@
       </c>
       <c r="H133">
         <f>H132+C133</f>
-        <v>154069.91348973691</v>
+        <v>108578.88487264489</v>
       </c>
     </row>
     <row r="134" spans="1:66" ht="19.5">
       <c r="C134">
         <f>H133*D134</f>
-        <v>3893.2820082057169</v>
+        <v>2305.4773311693389</v>
       </c>
       <c r="D134">
         <f>D133</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E134" t="s">
         <v>11</v>
@@ -9733,17 +9811,17 @@
       </c>
       <c r="H134">
         <f>H133+C134</f>
-        <v>157963.19549794262</v>
+        <v>110884.36220381423</v>
       </c>
     </row>
     <row r="135" spans="1:66" ht="19.5">
       <c r="C135">
         <f>H134*D135</f>
-        <v>3991.6636094677178</v>
+        <v>2354.4299956839</v>
       </c>
       <c r="D135">
         <f>D134</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E135" t="s">
         <v>12</v>
@@ -9753,17 +9831,17 @@
       </c>
       <c r="H135">
         <f>H134+C135</f>
-        <v>161954.85910741033</v>
+        <v>113238.79219949813</v>
       </c>
     </row>
     <row r="136" spans="1:66" ht="19.5">
       <c r="C136">
         <f>H135*D136</f>
-        <v>4092.5312724756895</v>
+        <v>2404.4220819835618</v>
       </c>
       <c r="D136">
         <f>D135</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E136" t="s">
         <v>13</v>
@@ -9773,17 +9851,17 @@
       </c>
       <c r="H136">
         <f>H135+C136</f>
-        <v>166047.39037988603</v>
+        <v>115643.21428148169</v>
       </c>
     </row>
     <row r="137" spans="1:66" ht="19.5">
       <c r="C137">
         <f>H136*D137</f>
-        <v>4195.9478189658666</v>
+        <v>2455.4756603204369</v>
       </c>
       <c r="D137">
         <f>D136</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E137" t="s">
         <v>14</v>
@@ -9793,17 +9871,17 @@
       </c>
       <c r="H137">
         <f>H136+C137</f>
-        <v>170243.33819885188</v>
+        <v>118098.68994180212</v>
       </c>
     </row>
     <row r="138" spans="1:66" ht="19.5">
       <c r="C138">
         <f>H137*D138</f>
-        <v>4301.9776581533724</v>
+        <v>2507.6132695687434</v>
       </c>
       <c r="D138">
         <f>D137</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E138" t="s">
         <v>15</v>
@@ -9813,17 +9891,17 @@
       </c>
       <c r="H138">
         <f>H137+C138</f>
-        <v>174545.31585700525</v>
+        <v>120606.30321137086</v>
       </c>
     </row>
     <row r="139" spans="1:66" ht="19.5">
       <c r="C139">
         <f>H138*D139</f>
-        <v>4410.6868268471499</v>
+        <v>2560.8579271751569</v>
       </c>
       <c r="D139">
         <f>D138</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E139" t="s">
         <v>16</v>
@@ -9833,17 +9911,17 @@
       </c>
       <c r="H139">
         <f>H138+C139</f>
-        <v>178956.00268385239</v>
+        <v>123167.16113854601</v>
       </c>
     </row>
     <row r="140" spans="1:66" ht="19.5">
       <c r="C140">
         <f>H139*D140</f>
-        <v>4522.143030578567</v>
+        <v>2615.2331393204331</v>
       </c>
       <c r="D140">
         <f>D139</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E140" t="s">
         <v>17</v>
@@ -9853,17 +9931,17 @@
       </c>
       <c r="H140">
         <f>H139+C140</f>
-        <v>183478.14571443095</v>
+        <v>125782.39427786645</v>
       </c>
     </row>
     <row r="141" spans="1:66" ht="19.5">
       <c r="C141">
         <f>H140*D141</f>
-        <v>4636.4156857693361</v>
+        <v>2670.7629112967993</v>
       </c>
       <c r="D141">
         <f>D140</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E141" t="s">
         <v>11</v>
@@ -9873,17 +9951,17 @@
       </c>
       <c r="H141">
         <f>H140+C141</f>
-        <v>188114.5614002003</v>
+        <v>128453.15718916325</v>
       </c>
     </row>
     <row r="142" spans="1:66" ht="19.5">
       <c r="C142">
         <f>H141*D142</f>
-        <v>4753.5759629649938</v>
+        <v>2727.4717581056861</v>
       </c>
       <c r="D142">
         <f>D141</f>
-        <v>0.025269580023909475</v>
+        <v>0.021233201408114438</v>
       </c>
       <c r="E142" t="s">
         <v>12</v>
@@ -9893,17 +9971,17 @@
       </c>
       <c r="H142">
         <f>H141+C142</f>
-        <v>192868.1373631653</v>
+        <v>131180.62894726894</v>
       </c>
     </row>
     <row r="143" spans="1:66" ht="19.5">
       <c r="C143">
  